--- a/docs/2_CAND_Modele_Planning_2024.xlsx
+++ b/docs/2_CAND_Modele_Planning_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154FED2B-EAC8-4D18-937D-C109D402DAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3E9284-1ADF-4984-BA26-9200E7974A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Planning!$A:$C,Planning!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$GV$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$GV$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
   <si>
     <t>Tâches</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>[En cours / Terminé]</t>
-  </si>
-  <si>
-    <t>[no candidat]</t>
   </si>
   <si>
     <t>Vendredi</t>
@@ -125,9 +122,6 @@
     <t>Chômé - Penthecôte</t>
   </si>
   <si>
-    <t>Examens de culture générale et de maturité professionnelle (déplacer entre le 27 et le 31 selon la date à laquelle vous passez les examens)</t>
-  </si>
-  <si>
     <t>Documentation</t>
   </si>
   <si>
@@ -143,16 +137,10 @@
     <t>Créer le diagramme use-case</t>
   </si>
   <si>
-    <t>Créer le schéma entité-relation</t>
-  </si>
-  <si>
     <t>Créer le modèle relationnel de la DB</t>
   </si>
   <si>
     <t>Créer les maquettes</t>
-  </si>
-  <si>
-    <t>Créer les diagrammes de séquence d'utilisation</t>
   </si>
   <si>
     <t>Planifier les tests fonctionnels</t>
@@ -177,15 +165,6 @@
   </si>
   <si>
     <t>Préparer les requêtes pour la DB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implémenter l'UI </t>
-  </si>
-  <si>
-    <t>Implémenter la simulation</t>
-  </si>
-  <si>
-    <t>Implémenter la sauvegarde de données</t>
   </si>
   <si>
     <r>
@@ -221,10 +200,79 @@
     <t>Kuci Elvin</t>
   </si>
   <si>
-    <t>Visite / Présentation</t>
+    <t>Test de l'application</t>
   </si>
   <si>
-    <t>Test de l'application</t>
+    <t>Visite / Présentation / Rendez-vous</t>
+  </si>
+  <si>
+    <t>Créer diagramme de classes</t>
+  </si>
+  <si>
+    <t>Créer les diagrammes de séquence d'interaction</t>
+  </si>
+  <si>
+    <t>En suède</t>
+  </si>
+  <si>
+    <t>Implémenter la page "Connection"</t>
+  </si>
+  <si>
+    <t>Implémenter la page "Global"</t>
+  </si>
+  <si>
+    <t>Implémenter la page "Véhicule"</t>
+  </si>
+  <si>
+    <t>Implémenter la page "Simulation"</t>
+  </si>
+  <si>
+    <t>Implémenter la page "Road"</t>
+  </si>
+  <si>
+    <t>Simulation de véhicule sur une ligne droite</t>
+  </si>
+  <si>
+    <t>Simulation des carrefours</t>
+  </si>
+  <si>
+    <t>Simulation voiture change de route</t>
+  </si>
+  <si>
+    <t>Affichage des voitures et routes</t>
+  </si>
+  <si>
+    <t>Chargement des jeux de settings</t>
+  </si>
+  <si>
+    <t>Sauvegarde des jeux de settings</t>
+  </si>
+  <si>
+    <t>Implémenter la page "Crossroad"</t>
+  </si>
+  <si>
+    <t>Implémenter la page "TrafficLights"</t>
+  </si>
+  <si>
+    <t>Amélioration esthétique</t>
+  </si>
+  <si>
+    <t>Travaux préparatoires</t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>Conception</t>
+  </si>
+  <si>
+    <t>Implémentation / Réalisation</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Autre</t>
   </si>
 </sst>
 </file>
@@ -234,7 +282,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-100C]d\ mmm\ yy;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -314,29 +362,33 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <i/>
       <sz val="10"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="8"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="10"/>
-      <color theme="0"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,12 +398,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,8 +455,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8A662"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDB9795"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAE9CC4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="39">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -617,36 +699,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -894,12 +946,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -931,7 +1094,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -942,7 +1105,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -957,7 +1120,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -972,11 +1135,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -988,15 +1151,31 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1004,47 +1183,31 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1052,15 +1215,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1068,81 +1227,254 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1153,39 +1485,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1193,11 +1525,15 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1205,19 +1541,15 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1229,86 +1561,16 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1343,8 +1605,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FF99FF99"/>
+      <color rgb="FFAE9CC4"/>
+      <color rgb="FFDB9795"/>
+      <color rgb="FFF8A662"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FF99FF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1363,15 +1629,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>19845</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>19843</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>92</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>148828</xdr:rowOff>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1386,8 +1652,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3734595" y="695325"/>
-          <a:ext cx="13134180" cy="5330428"/>
+          <a:off x="3982243" y="695324"/>
+          <a:ext cx="14143831" cy="6429375"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1796,18 +2062,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GW37"/>
+  <dimension ref="A1:GW42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="DL6" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="CK6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="EL21" sqref="EL21"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" style="3" customWidth="1"/>
     <col min="4" max="204" width="2.140625" style="2" customWidth="1"/>
@@ -1817,11 +2083,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:205" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
+      <c r="A1" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1865,749 +2131,749 @@
     </row>
     <row r="2" spans="1:205" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="84"/>
-      <c r="BC2" s="84"/>
-      <c r="BD2" s="84"/>
-      <c r="BE2" s="84"/>
-      <c r="BF2" s="84"/>
-      <c r="BG2" s="84"/>
-      <c r="BH2" s="84"/>
-      <c r="BI2" s="84"/>
-      <c r="BJ2" s="84"/>
-      <c r="BK2" s="84"/>
-      <c r="BL2" s="84"/>
-      <c r="BM2" s="84"/>
-      <c r="BN2" s="84"/>
-      <c r="BO2" s="84"/>
-      <c r="BP2" s="84"/>
-      <c r="BQ2" s="84"/>
-      <c r="BR2" s="84"/>
-      <c r="BS2" s="84"/>
-      <c r="BT2" s="84"/>
-      <c r="BU2" s="84"/>
-      <c r="BV2" s="84"/>
-      <c r="BW2" s="84"/>
-      <c r="BX2" s="84"/>
-      <c r="BY2" s="84"/>
-      <c r="BZ2" s="84"/>
-      <c r="CA2" s="84"/>
-      <c r="CB2" s="84"/>
-      <c r="CC2" s="84"/>
-      <c r="CD2" s="84"/>
-      <c r="CE2" s="84"/>
-      <c r="CF2" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="CG2" s="84"/>
-      <c r="CH2" s="84"/>
-      <c r="CI2" s="84"/>
-      <c r="CJ2" s="84"/>
-      <c r="CK2" s="84"/>
-      <c r="CL2" s="84"/>
-      <c r="CM2" s="84"/>
-      <c r="CN2" s="84"/>
-      <c r="CO2" s="84"/>
-      <c r="CP2" s="84"/>
-      <c r="CQ2" s="84"/>
-      <c r="CR2" s="84"/>
-      <c r="CS2" s="84"/>
-      <c r="CT2" s="84"/>
-      <c r="CU2" s="84"/>
-      <c r="CV2" s="84"/>
-      <c r="CW2" s="84"/>
-      <c r="CX2" s="84"/>
-      <c r="CY2" s="84"/>
-      <c r="CZ2" s="84"/>
-      <c r="DA2" s="84"/>
-      <c r="DB2" s="84"/>
-      <c r="DC2" s="84"/>
-      <c r="DD2" s="84"/>
-      <c r="DE2" s="84"/>
-      <c r="DF2" s="84"/>
-      <c r="DG2" s="84"/>
-      <c r="DH2" s="84"/>
-      <c r="DI2" s="84"/>
-      <c r="DJ2" s="84"/>
-      <c r="DK2" s="84"/>
-      <c r="DL2" s="84"/>
-      <c r="DM2" s="84"/>
-      <c r="DN2" s="84"/>
-      <c r="DO2" s="84"/>
-      <c r="DP2" s="84"/>
-      <c r="DQ2" s="84"/>
-      <c r="DR2" s="84"/>
-      <c r="DS2" s="84"/>
-      <c r="DT2" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="DU2" s="84"/>
-      <c r="DV2" s="84"/>
-      <c r="DW2" s="84"/>
-      <c r="DX2" s="84"/>
-      <c r="DY2" s="84"/>
-      <c r="DZ2" s="84"/>
-      <c r="EA2" s="84"/>
-      <c r="EB2" s="84"/>
-      <c r="EC2" s="84"/>
-      <c r="ED2" s="84"/>
-      <c r="EE2" s="84"/>
-      <c r="EF2" s="84"/>
-      <c r="EG2" s="84"/>
-      <c r="EH2" s="84"/>
-      <c r="EI2" s="84"/>
-      <c r="EJ2" s="84"/>
-      <c r="EK2" s="84"/>
-      <c r="EL2" s="84"/>
-      <c r="EM2" s="84"/>
-      <c r="EN2" s="84"/>
-      <c r="EO2" s="84"/>
-      <c r="EP2" s="84"/>
-      <c r="EQ2" s="84"/>
-      <c r="ER2" s="84"/>
-      <c r="ES2" s="84"/>
-      <c r="ET2" s="84"/>
-      <c r="EU2" s="84"/>
-      <c r="EV2" s="84"/>
-      <c r="EW2" s="84"/>
-      <c r="EX2" s="84"/>
-      <c r="EY2" s="84"/>
-      <c r="EZ2" s="84"/>
-      <c r="FA2" s="84"/>
-      <c r="FB2" s="84"/>
-      <c r="FC2" s="84"/>
-      <c r="FD2" s="84"/>
-      <c r="FE2" s="84"/>
-      <c r="FF2" s="84"/>
-      <c r="FG2" s="84"/>
-      <c r="FH2" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="FI2" s="84"/>
-      <c r="FJ2" s="84"/>
-      <c r="FK2" s="84"/>
-      <c r="FL2" s="84"/>
-      <c r="FM2" s="84"/>
-      <c r="FN2" s="84"/>
-      <c r="FO2" s="84"/>
-      <c r="FP2" s="84"/>
-      <c r="FQ2" s="84"/>
-      <c r="FR2" s="84"/>
-      <c r="FS2" s="84"/>
-      <c r="FT2" s="84"/>
-      <c r="FU2" s="84"/>
-      <c r="FV2" s="84"/>
-      <c r="FW2" s="84"/>
-      <c r="FX2" s="84"/>
-      <c r="FY2" s="84"/>
-      <c r="FZ2" s="84"/>
-      <c r="GA2" s="84"/>
-      <c r="GB2" s="84"/>
-      <c r="GC2" s="84"/>
-      <c r="GD2" s="84"/>
-      <c r="GE2" s="84"/>
-      <c r="GF2" s="84"/>
-      <c r="GG2" s="84"/>
-      <c r="GH2" s="84"/>
-      <c r="GI2" s="84"/>
-      <c r="GJ2" s="84"/>
-      <c r="GK2" s="84"/>
-      <c r="GL2" s="84"/>
-      <c r="GM2" s="84"/>
-      <c r="GN2" s="84"/>
-      <c r="GO2" s="84"/>
-      <c r="GP2" s="84"/>
-      <c r="GQ2" s="84"/>
-      <c r="GR2" s="84"/>
-      <c r="GS2" s="84"/>
-      <c r="GT2" s="84"/>
-      <c r="GU2" s="84"/>
-      <c r="GV2" s="84"/>
+        <v>32</v>
+      </c>
+      <c r="B2" s="116">
+        <v>148477</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
+      <c r="AA2" s="125"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="125"/>
+      <c r="AG2" s="125"/>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="125"/>
+      <c r="AJ2" s="125"/>
+      <c r="AK2" s="125"/>
+      <c r="AL2" s="125"/>
+      <c r="AM2" s="125"/>
+      <c r="AN2" s="125"/>
+      <c r="AO2" s="125"/>
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="125"/>
+      <c r="AR2" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS2" s="125"/>
+      <c r="AT2" s="125"/>
+      <c r="AU2" s="125"/>
+      <c r="AV2" s="125"/>
+      <c r="AW2" s="125"/>
+      <c r="AX2" s="125"/>
+      <c r="AY2" s="125"/>
+      <c r="AZ2" s="125"/>
+      <c r="BA2" s="125"/>
+      <c r="BB2" s="125"/>
+      <c r="BC2" s="125"/>
+      <c r="BD2" s="125"/>
+      <c r="BE2" s="125"/>
+      <c r="BF2" s="125"/>
+      <c r="BG2" s="125"/>
+      <c r="BH2" s="125"/>
+      <c r="BI2" s="125"/>
+      <c r="BJ2" s="125"/>
+      <c r="BK2" s="125"/>
+      <c r="BL2" s="125"/>
+      <c r="BM2" s="125"/>
+      <c r="BN2" s="125"/>
+      <c r="BO2" s="125"/>
+      <c r="BP2" s="125"/>
+      <c r="BQ2" s="125"/>
+      <c r="BR2" s="125"/>
+      <c r="BS2" s="125"/>
+      <c r="BT2" s="125"/>
+      <c r="BU2" s="125"/>
+      <c r="BV2" s="125"/>
+      <c r="BW2" s="125"/>
+      <c r="BX2" s="125"/>
+      <c r="BY2" s="125"/>
+      <c r="BZ2" s="125"/>
+      <c r="CA2" s="125"/>
+      <c r="CB2" s="125"/>
+      <c r="CC2" s="125"/>
+      <c r="CD2" s="125"/>
+      <c r="CE2" s="125"/>
+      <c r="CF2" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="CG2" s="125"/>
+      <c r="CH2" s="125"/>
+      <c r="CI2" s="125"/>
+      <c r="CJ2" s="125"/>
+      <c r="CK2" s="125"/>
+      <c r="CL2" s="125"/>
+      <c r="CM2" s="125"/>
+      <c r="CN2" s="125"/>
+      <c r="CO2" s="125"/>
+      <c r="CP2" s="125"/>
+      <c r="CQ2" s="125"/>
+      <c r="CR2" s="125"/>
+      <c r="CS2" s="125"/>
+      <c r="CT2" s="125"/>
+      <c r="CU2" s="125"/>
+      <c r="CV2" s="125"/>
+      <c r="CW2" s="125"/>
+      <c r="CX2" s="125"/>
+      <c r="CY2" s="125"/>
+      <c r="CZ2" s="125"/>
+      <c r="DA2" s="125"/>
+      <c r="DB2" s="125"/>
+      <c r="DC2" s="125"/>
+      <c r="DD2" s="125"/>
+      <c r="DE2" s="125"/>
+      <c r="DF2" s="125"/>
+      <c r="DG2" s="125"/>
+      <c r="DH2" s="125"/>
+      <c r="DI2" s="125"/>
+      <c r="DJ2" s="125"/>
+      <c r="DK2" s="125"/>
+      <c r="DL2" s="125"/>
+      <c r="DM2" s="125"/>
+      <c r="DN2" s="125"/>
+      <c r="DO2" s="125"/>
+      <c r="DP2" s="125"/>
+      <c r="DQ2" s="125"/>
+      <c r="DR2" s="125"/>
+      <c r="DS2" s="125"/>
+      <c r="DT2" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="DU2" s="125"/>
+      <c r="DV2" s="125"/>
+      <c r="DW2" s="125"/>
+      <c r="DX2" s="125"/>
+      <c r="DY2" s="125"/>
+      <c r="DZ2" s="125"/>
+      <c r="EA2" s="125"/>
+      <c r="EB2" s="125"/>
+      <c r="EC2" s="125"/>
+      <c r="ED2" s="125"/>
+      <c r="EE2" s="125"/>
+      <c r="EF2" s="125"/>
+      <c r="EG2" s="125"/>
+      <c r="EH2" s="125"/>
+      <c r="EI2" s="125"/>
+      <c r="EJ2" s="125"/>
+      <c r="EK2" s="125"/>
+      <c r="EL2" s="125"/>
+      <c r="EM2" s="125"/>
+      <c r="EN2" s="125"/>
+      <c r="EO2" s="125"/>
+      <c r="EP2" s="125"/>
+      <c r="EQ2" s="125"/>
+      <c r="ER2" s="125"/>
+      <c r="ES2" s="125"/>
+      <c r="ET2" s="125"/>
+      <c r="EU2" s="125"/>
+      <c r="EV2" s="125"/>
+      <c r="EW2" s="125"/>
+      <c r="EX2" s="125"/>
+      <c r="EY2" s="125"/>
+      <c r="EZ2" s="125"/>
+      <c r="FA2" s="125"/>
+      <c r="FB2" s="125"/>
+      <c r="FC2" s="125"/>
+      <c r="FD2" s="125"/>
+      <c r="FE2" s="125"/>
+      <c r="FF2" s="125"/>
+      <c r="FG2" s="125"/>
+      <c r="FH2" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="FI2" s="125"/>
+      <c r="FJ2" s="125"/>
+      <c r="FK2" s="125"/>
+      <c r="FL2" s="125"/>
+      <c r="FM2" s="125"/>
+      <c r="FN2" s="125"/>
+      <c r="FO2" s="125"/>
+      <c r="FP2" s="125"/>
+      <c r="FQ2" s="125"/>
+      <c r="FR2" s="125"/>
+      <c r="FS2" s="125"/>
+      <c r="FT2" s="125"/>
+      <c r="FU2" s="125"/>
+      <c r="FV2" s="125"/>
+      <c r="FW2" s="125"/>
+      <c r="FX2" s="125"/>
+      <c r="FY2" s="125"/>
+      <c r="FZ2" s="125"/>
+      <c r="GA2" s="125"/>
+      <c r="GB2" s="125"/>
+      <c r="GC2" s="125"/>
+      <c r="GD2" s="125"/>
+      <c r="GE2" s="125"/>
+      <c r="GF2" s="125"/>
+      <c r="GG2" s="125"/>
+      <c r="GH2" s="125"/>
+      <c r="GI2" s="125"/>
+      <c r="GJ2" s="125"/>
+      <c r="GK2" s="125"/>
+      <c r="GL2" s="125"/>
+      <c r="GM2" s="125"/>
+      <c r="GN2" s="125"/>
+      <c r="GO2" s="125"/>
+      <c r="GP2" s="125"/>
+      <c r="GQ2" s="125"/>
+      <c r="GR2" s="125"/>
+      <c r="GS2" s="125"/>
+      <c r="GT2" s="125"/>
+      <c r="GU2" s="125"/>
+      <c r="GV2" s="125"/>
     </row>
     <row r="3" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="85"/>
-      <c r="AO3" s="85"/>
-      <c r="AP3" s="85"/>
-      <c r="AQ3" s="85"/>
-      <c r="AR3" s="85"/>
-      <c r="AS3" s="85"/>
-      <c r="AT3" s="85"/>
-      <c r="AU3" s="85"/>
-      <c r="AV3" s="85"/>
-      <c r="AW3" s="85"/>
-      <c r="AX3" s="85"/>
-      <c r="AY3" s="85"/>
-      <c r="AZ3" s="85"/>
-      <c r="BA3" s="85"/>
-      <c r="BB3" s="85"/>
-      <c r="BC3" s="85"/>
-      <c r="BD3" s="85"/>
-      <c r="BE3" s="85"/>
-      <c r="BF3" s="85"/>
-      <c r="BG3" s="85"/>
-      <c r="BH3" s="85"/>
-      <c r="BI3" s="85"/>
-      <c r="BJ3" s="85"/>
-      <c r="BK3" s="85"/>
-      <c r="BL3" s="85"/>
-      <c r="BM3" s="85"/>
-      <c r="BN3" s="85"/>
-      <c r="BO3" s="85"/>
-      <c r="BP3" s="85"/>
-      <c r="BQ3" s="85"/>
-      <c r="BR3" s="85"/>
-      <c r="BS3" s="85"/>
-      <c r="BT3" s="85"/>
-      <c r="BU3" s="85"/>
-      <c r="BV3" s="85"/>
-      <c r="BW3" s="85"/>
-      <c r="BX3" s="85"/>
-      <c r="BY3" s="85"/>
-      <c r="BZ3" s="85"/>
-      <c r="CA3" s="85"/>
-      <c r="CB3" s="85"/>
-      <c r="CC3" s="85"/>
-      <c r="CD3" s="85"/>
-      <c r="CE3" s="85"/>
-      <c r="CF3" s="85"/>
-      <c r="CG3" s="85"/>
-      <c r="CH3" s="85"/>
-      <c r="CI3" s="85"/>
-      <c r="CJ3" s="85"/>
-      <c r="CK3" s="85"/>
-      <c r="CL3" s="85"/>
-      <c r="CM3" s="85"/>
-      <c r="CN3" s="85"/>
-      <c r="CO3" s="85"/>
-      <c r="CP3" s="85"/>
-      <c r="CQ3" s="85"/>
-      <c r="CR3" s="85"/>
-      <c r="CS3" s="85"/>
-      <c r="CT3" s="85"/>
-      <c r="CU3" s="85"/>
-      <c r="CV3" s="85"/>
-      <c r="CW3" s="85"/>
-      <c r="CX3" s="85"/>
-      <c r="CY3" s="85"/>
-      <c r="CZ3" s="85"/>
-      <c r="DA3" s="85"/>
-      <c r="DB3" s="85"/>
-      <c r="DC3" s="85"/>
-      <c r="DD3" s="85"/>
-      <c r="DE3" s="85"/>
-      <c r="DF3" s="85"/>
-      <c r="DG3" s="85"/>
-      <c r="DH3" s="85"/>
-      <c r="DI3" s="85"/>
-      <c r="DJ3" s="85"/>
-      <c r="DK3" s="85"/>
-      <c r="DL3" s="85"/>
-      <c r="DM3" s="85"/>
-      <c r="DN3" s="85"/>
-      <c r="DO3" s="85"/>
-      <c r="DP3" s="85"/>
-      <c r="DQ3" s="85"/>
-      <c r="DR3" s="85"/>
-      <c r="DS3" s="85"/>
-      <c r="DT3" s="85"/>
-      <c r="DU3" s="85"/>
-      <c r="DV3" s="85"/>
-      <c r="DW3" s="85"/>
-      <c r="DX3" s="85"/>
-      <c r="DY3" s="85"/>
-      <c r="DZ3" s="85"/>
-      <c r="EA3" s="85"/>
-      <c r="EB3" s="85"/>
-      <c r="EC3" s="85"/>
-      <c r="ED3" s="85"/>
-      <c r="EE3" s="85"/>
-      <c r="EF3" s="85"/>
-      <c r="EG3" s="85"/>
-      <c r="EH3" s="85"/>
-      <c r="EI3" s="85"/>
-      <c r="EJ3" s="85"/>
-      <c r="EK3" s="85"/>
-      <c r="EL3" s="85"/>
-      <c r="EM3" s="85"/>
-      <c r="EN3" s="85"/>
-      <c r="EO3" s="85"/>
-      <c r="EP3" s="85"/>
-      <c r="EQ3" s="85"/>
-      <c r="ER3" s="85"/>
-      <c r="ES3" s="85"/>
-      <c r="ET3" s="85"/>
-      <c r="EU3" s="85"/>
-      <c r="EV3" s="85"/>
-      <c r="EW3" s="85"/>
-      <c r="EX3" s="85"/>
-      <c r="EY3" s="85"/>
-      <c r="EZ3" s="85"/>
-      <c r="FA3" s="85"/>
-      <c r="FB3" s="85"/>
-      <c r="FC3" s="85"/>
-      <c r="FD3" s="85"/>
-      <c r="FE3" s="85"/>
-      <c r="FF3" s="85"/>
-      <c r="FG3" s="85"/>
-      <c r="FH3" s="85"/>
-      <c r="FI3" s="85"/>
-      <c r="FJ3" s="85"/>
-      <c r="FK3" s="85"/>
-      <c r="FL3" s="85"/>
-      <c r="FM3" s="85"/>
-      <c r="FN3" s="85"/>
-      <c r="FO3" s="85"/>
-      <c r="FP3" s="85"/>
-      <c r="FQ3" s="85"/>
-      <c r="FR3" s="85"/>
-      <c r="FS3" s="85"/>
-      <c r="FT3" s="85"/>
-      <c r="FU3" s="85"/>
-      <c r="FV3" s="85"/>
-      <c r="FW3" s="85"/>
-      <c r="FX3" s="85"/>
-      <c r="FY3" s="85"/>
-      <c r="FZ3" s="85"/>
-      <c r="GA3" s="85"/>
-      <c r="GB3" s="85"/>
-      <c r="GC3" s="85"/>
-      <c r="GD3" s="85"/>
-      <c r="GE3" s="85"/>
-      <c r="GF3" s="85"/>
-      <c r="GG3" s="85"/>
-      <c r="GH3" s="85"/>
-      <c r="GI3" s="85"/>
-      <c r="GJ3" s="85"/>
-      <c r="GK3" s="85"/>
-      <c r="GL3" s="85"/>
-      <c r="GM3" s="85"/>
-      <c r="GN3" s="99"/>
-      <c r="GO3" s="85"/>
-      <c r="GP3" s="85"/>
-      <c r="GQ3" s="85"/>
-      <c r="GR3" s="85"/>
-      <c r="GS3" s="85"/>
-      <c r="GT3" s="85"/>
-      <c r="GU3" s="85"/>
-      <c r="GV3" s="85"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="126"/>
+      <c r="AH3" s="126"/>
+      <c r="AI3" s="126"/>
+      <c r="AJ3" s="126"/>
+      <c r="AK3" s="126"/>
+      <c r="AL3" s="126"/>
+      <c r="AM3" s="126"/>
+      <c r="AN3" s="126"/>
+      <c r="AO3" s="126"/>
+      <c r="AP3" s="126"/>
+      <c r="AQ3" s="126"/>
+      <c r="AR3" s="126"/>
+      <c r="AS3" s="126"/>
+      <c r="AT3" s="126"/>
+      <c r="AU3" s="126"/>
+      <c r="AV3" s="126"/>
+      <c r="AW3" s="126"/>
+      <c r="AX3" s="126"/>
+      <c r="AY3" s="126"/>
+      <c r="AZ3" s="126"/>
+      <c r="BA3" s="126"/>
+      <c r="BB3" s="126"/>
+      <c r="BC3" s="126"/>
+      <c r="BD3" s="126"/>
+      <c r="BE3" s="126"/>
+      <c r="BF3" s="126"/>
+      <c r="BG3" s="126"/>
+      <c r="BH3" s="126"/>
+      <c r="BI3" s="126"/>
+      <c r="BJ3" s="126"/>
+      <c r="BK3" s="126"/>
+      <c r="BL3" s="126"/>
+      <c r="BM3" s="126"/>
+      <c r="BN3" s="126"/>
+      <c r="BO3" s="126"/>
+      <c r="BP3" s="126"/>
+      <c r="BQ3" s="126"/>
+      <c r="BR3" s="126"/>
+      <c r="BS3" s="126"/>
+      <c r="BT3" s="126"/>
+      <c r="BU3" s="126"/>
+      <c r="BV3" s="126"/>
+      <c r="BW3" s="126"/>
+      <c r="BX3" s="126"/>
+      <c r="BY3" s="126"/>
+      <c r="BZ3" s="126"/>
+      <c r="CA3" s="126"/>
+      <c r="CB3" s="126"/>
+      <c r="CC3" s="126"/>
+      <c r="CD3" s="126"/>
+      <c r="CE3" s="126"/>
+      <c r="CF3" s="126"/>
+      <c r="CG3" s="126"/>
+      <c r="CH3" s="126"/>
+      <c r="CI3" s="126"/>
+      <c r="CJ3" s="126"/>
+      <c r="CK3" s="126"/>
+      <c r="CL3" s="126"/>
+      <c r="CM3" s="126"/>
+      <c r="CN3" s="126"/>
+      <c r="CO3" s="126"/>
+      <c r="CP3" s="126"/>
+      <c r="CQ3" s="126"/>
+      <c r="CR3" s="126"/>
+      <c r="CS3" s="126"/>
+      <c r="CT3" s="126"/>
+      <c r="CU3" s="126"/>
+      <c r="CV3" s="126"/>
+      <c r="CW3" s="126"/>
+      <c r="CX3" s="126"/>
+      <c r="CY3" s="126"/>
+      <c r="CZ3" s="126"/>
+      <c r="DA3" s="126"/>
+      <c r="DB3" s="126"/>
+      <c r="DC3" s="126"/>
+      <c r="DD3" s="126"/>
+      <c r="DE3" s="126"/>
+      <c r="DF3" s="126"/>
+      <c r="DG3" s="126"/>
+      <c r="DH3" s="126"/>
+      <c r="DI3" s="126"/>
+      <c r="DJ3" s="126"/>
+      <c r="DK3" s="126"/>
+      <c r="DL3" s="126"/>
+      <c r="DM3" s="126"/>
+      <c r="DN3" s="126"/>
+      <c r="DO3" s="126"/>
+      <c r="DP3" s="126"/>
+      <c r="DQ3" s="126"/>
+      <c r="DR3" s="126"/>
+      <c r="DS3" s="126"/>
+      <c r="DT3" s="126"/>
+      <c r="DU3" s="126"/>
+      <c r="DV3" s="126"/>
+      <c r="DW3" s="126"/>
+      <c r="DX3" s="126"/>
+      <c r="DY3" s="126"/>
+      <c r="DZ3" s="126"/>
+      <c r="EA3" s="126"/>
+      <c r="EB3" s="126"/>
+      <c r="EC3" s="126"/>
+      <c r="ED3" s="126"/>
+      <c r="EE3" s="126"/>
+      <c r="EF3" s="126"/>
+      <c r="EG3" s="126"/>
+      <c r="EH3" s="126"/>
+      <c r="EI3" s="126"/>
+      <c r="EJ3" s="126"/>
+      <c r="EK3" s="126"/>
+      <c r="EL3" s="126"/>
+      <c r="EM3" s="126"/>
+      <c r="EN3" s="126"/>
+      <c r="EO3" s="126"/>
+      <c r="EP3" s="126"/>
+      <c r="EQ3" s="126"/>
+      <c r="ER3" s="126"/>
+      <c r="ES3" s="126"/>
+      <c r="ET3" s="126"/>
+      <c r="EU3" s="126"/>
+      <c r="EV3" s="126"/>
+      <c r="EW3" s="126"/>
+      <c r="EX3" s="126"/>
+      <c r="EY3" s="126"/>
+      <c r="EZ3" s="126"/>
+      <c r="FA3" s="126"/>
+      <c r="FB3" s="126"/>
+      <c r="FC3" s="126"/>
+      <c r="FD3" s="126"/>
+      <c r="FE3" s="126"/>
+      <c r="FF3" s="126"/>
+      <c r="FG3" s="126"/>
+      <c r="FH3" s="126"/>
+      <c r="FI3" s="126"/>
+      <c r="FJ3" s="126"/>
+      <c r="FK3" s="126"/>
+      <c r="FL3" s="126"/>
+      <c r="FM3" s="126"/>
+      <c r="FN3" s="126"/>
+      <c r="FO3" s="126"/>
+      <c r="FP3" s="126"/>
+      <c r="FQ3" s="126"/>
+      <c r="FR3" s="126"/>
+      <c r="FS3" s="126"/>
+      <c r="FT3" s="126"/>
+      <c r="FU3" s="126"/>
+      <c r="FV3" s="126"/>
+      <c r="FW3" s="126"/>
+      <c r="FX3" s="126"/>
+      <c r="FY3" s="126"/>
+      <c r="FZ3" s="126"/>
+      <c r="GA3" s="126"/>
+      <c r="GB3" s="126"/>
+      <c r="GC3" s="126"/>
+      <c r="GD3" s="126"/>
+      <c r="GE3" s="126"/>
+      <c r="GF3" s="126"/>
+      <c r="GG3" s="126"/>
+      <c r="GH3" s="126"/>
+      <c r="GI3" s="126"/>
+      <c r="GJ3" s="126"/>
+      <c r="GK3" s="126"/>
+      <c r="GL3" s="126"/>
+      <c r="GM3" s="126"/>
+      <c r="GN3" s="125"/>
+      <c r="GO3" s="126"/>
+      <c r="GP3" s="126"/>
+      <c r="GQ3" s="126"/>
+      <c r="GR3" s="126"/>
+      <c r="GS3" s="126"/>
+      <c r="GT3" s="126"/>
+      <c r="GU3" s="126"/>
+      <c r="GV3" s="126"/>
     </row>
     <row r="4" spans="1:205" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="123" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="127">
+        <v>45418</v>
+      </c>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="86">
-        <v>45418</v>
-      </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="79" t="s">
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="118">
+        <v>45419</v>
+      </c>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="77">
-        <v>45419</v>
-      </c>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="79" t="s">
+      <c r="U4" s="121"/>
+      <c r="V4" s="121"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="118">
+        <v>45420</v>
+      </c>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="77">
-        <v>45420</v>
-      </c>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="79" t="s">
+      <c r="AC4" s="121"/>
+      <c r="AD4" s="121"/>
+      <c r="AE4" s="121"/>
+      <c r="AF4" s="118">
+        <v>45421</v>
+      </c>
+      <c r="AG4" s="118"/>
+      <c r="AH4" s="118"/>
+      <c r="AI4" s="119"/>
+      <c r="AJ4" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="121"/>
+      <c r="AL4" s="121"/>
+      <c r="AM4" s="121"/>
+      <c r="AN4" s="118">
+        <v>45422</v>
+      </c>
+      <c r="AO4" s="118"/>
+      <c r="AP4" s="118"/>
+      <c r="AQ4" s="119"/>
+      <c r="AR4" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS4" s="121"/>
+      <c r="AT4" s="121"/>
+      <c r="AU4" s="121"/>
+      <c r="AV4" s="118">
+        <v>45425</v>
+      </c>
+      <c r="AW4" s="118"/>
+      <c r="AX4" s="118"/>
+      <c r="AY4" s="119"/>
+      <c r="AZ4" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA4" s="121"/>
+      <c r="BB4" s="121"/>
+      <c r="BC4" s="121"/>
+      <c r="BD4" s="118">
+        <v>45426</v>
+      </c>
+      <c r="BE4" s="118"/>
+      <c r="BF4" s="118"/>
+      <c r="BG4" s="119"/>
+      <c r="BH4" s="120" t="s">
+        <v>7</v>
+      </c>
+      <c r="BI4" s="121"/>
+      <c r="BJ4" s="121"/>
+      <c r="BK4" s="121"/>
+      <c r="BL4" s="118">
+        <v>45427</v>
+      </c>
+      <c r="BM4" s="118"/>
+      <c r="BN4" s="118"/>
+      <c r="BO4" s="119"/>
+      <c r="BP4" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ4" s="121"/>
+      <c r="BR4" s="121"/>
+      <c r="BS4" s="121"/>
+      <c r="BT4" s="118">
+        <v>45428</v>
+      </c>
+      <c r="BU4" s="118"/>
+      <c r="BV4" s="118"/>
+      <c r="BW4" s="119"/>
+      <c r="BX4" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="BY4" s="121"/>
+      <c r="BZ4" s="121"/>
+      <c r="CA4" s="121"/>
+      <c r="CB4" s="118">
+        <v>45429</v>
+      </c>
+      <c r="CC4" s="118"/>
+      <c r="CD4" s="118"/>
+      <c r="CE4" s="119"/>
+      <c r="CF4" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="CG4" s="121"/>
+      <c r="CH4" s="121"/>
+      <c r="CI4" s="121"/>
+      <c r="CJ4" s="118">
+        <v>45432</v>
+      </c>
+      <c r="CK4" s="118"/>
+      <c r="CL4" s="118"/>
+      <c r="CM4" s="119"/>
+      <c r="CN4" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO4" s="121"/>
+      <c r="CP4" s="121"/>
+      <c r="CQ4" s="121"/>
+      <c r="CR4" s="118">
+        <v>45433</v>
+      </c>
+      <c r="CS4" s="118"/>
+      <c r="CT4" s="118"/>
+      <c r="CU4" s="119"/>
+      <c r="CV4" s="120" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW4" s="121"/>
+      <c r="CX4" s="121"/>
+      <c r="CY4" s="121"/>
+      <c r="CZ4" s="118">
+        <v>45434</v>
+      </c>
+      <c r="DA4" s="118"/>
+      <c r="DB4" s="118"/>
+      <c r="DC4" s="119"/>
+      <c r="DD4" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="DE4" s="121"/>
+      <c r="DF4" s="121"/>
+      <c r="DG4" s="121"/>
+      <c r="DH4" s="118">
+        <v>45435</v>
+      </c>
+      <c r="DI4" s="118"/>
+      <c r="DJ4" s="118"/>
+      <c r="DK4" s="119"/>
+      <c r="DL4" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="DM4" s="121"/>
+      <c r="DN4" s="121"/>
+      <c r="DO4" s="121"/>
+      <c r="DP4" s="118">
+        <v>45436</v>
+      </c>
+      <c r="DQ4" s="118"/>
+      <c r="DR4" s="118"/>
+      <c r="DS4" s="119"/>
+      <c r="DT4" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="DU4" s="121"/>
+      <c r="DV4" s="121"/>
+      <c r="DW4" s="121"/>
+      <c r="DX4" s="118">
+        <v>45439</v>
+      </c>
+      <c r="DY4" s="118"/>
+      <c r="DZ4" s="118"/>
+      <c r="EA4" s="119"/>
+      <c r="EB4" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="EC4" s="121"/>
+      <c r="ED4" s="121"/>
+      <c r="EE4" s="121"/>
+      <c r="EF4" s="118">
+        <v>45440</v>
+      </c>
+      <c r="EG4" s="118"/>
+      <c r="EH4" s="118"/>
+      <c r="EI4" s="119"/>
+      <c r="EJ4" s="120" t="s">
+        <v>7</v>
+      </c>
+      <c r="EK4" s="121"/>
+      <c r="EL4" s="121"/>
+      <c r="EM4" s="121"/>
+      <c r="EN4" s="118">
+        <v>45441</v>
+      </c>
+      <c r="EO4" s="118"/>
+      <c r="EP4" s="118"/>
+      <c r="EQ4" s="119"/>
+      <c r="ER4" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="ES4" s="121"/>
+      <c r="ET4" s="121"/>
+      <c r="EU4" s="121"/>
+      <c r="EV4" s="118">
+        <v>45442</v>
+      </c>
+      <c r="EW4" s="118"/>
+      <c r="EX4" s="118"/>
+      <c r="EY4" s="119"/>
+      <c r="EZ4" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="FA4" s="121"/>
+      <c r="FB4" s="121"/>
+      <c r="FC4" s="121"/>
+      <c r="FD4" s="118">
+        <v>45443</v>
+      </c>
+      <c r="FE4" s="118"/>
+      <c r="FF4" s="118"/>
+      <c r="FG4" s="119"/>
+      <c r="FH4" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="FI4" s="121"/>
+      <c r="FJ4" s="121"/>
+      <c r="FK4" s="121"/>
+      <c r="FL4" s="118">
+        <v>45446</v>
+      </c>
+      <c r="FM4" s="118"/>
+      <c r="FN4" s="118"/>
+      <c r="FO4" s="119"/>
+      <c r="FP4" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="FQ4" s="121"/>
+      <c r="FR4" s="121"/>
+      <c r="FS4" s="121"/>
+      <c r="FT4" s="118">
+        <v>45447</v>
+      </c>
+      <c r="FU4" s="118"/>
+      <c r="FV4" s="118"/>
+      <c r="FW4" s="119"/>
+      <c r="FX4" s="120" t="s">
+        <v>7</v>
+      </c>
+      <c r="FY4" s="121"/>
+      <c r="FZ4" s="121"/>
+      <c r="GA4" s="121"/>
+      <c r="GB4" s="118">
+        <v>45448</v>
+      </c>
+      <c r="GC4" s="118"/>
+      <c r="GD4" s="118"/>
+      <c r="GE4" s="119"/>
+      <c r="GF4" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="GG4" s="121"/>
+      <c r="GH4" s="121"/>
+      <c r="GI4" s="121"/>
+      <c r="GJ4" s="118">
+        <v>45449</v>
+      </c>
+      <c r="GK4" s="118"/>
+      <c r="GL4" s="118"/>
+      <c r="GM4" s="118"/>
+      <c r="GN4" s="50"/>
+      <c r="GO4" s="121" t="s">
+        <v>4</v>
+      </c>
+      <c r="GP4" s="121"/>
+      <c r="GQ4" s="121"/>
+      <c r="GR4" s="121"/>
+      <c r="GS4" s="118">
+        <v>45454</v>
+      </c>
+      <c r="GT4" s="118"/>
+      <c r="GU4" s="118"/>
+      <c r="GV4" s="119"/>
+      <c r="GW4" s="129" t="s">
         <v>9</v>
-      </c>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="80"/>
-      <c r="AE4" s="80"/>
-      <c r="AF4" s="77">
-        <v>45421</v>
-      </c>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK4" s="80"/>
-      <c r="AL4" s="80"/>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="77">
-        <v>45422</v>
-      </c>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="78"/>
-      <c r="AR4" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="AS4" s="80"/>
-      <c r="AT4" s="80"/>
-      <c r="AU4" s="80"/>
-      <c r="AV4" s="77">
-        <v>45425</v>
-      </c>
-      <c r="AW4" s="77"/>
-      <c r="AX4" s="77"/>
-      <c r="AY4" s="78"/>
-      <c r="AZ4" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA4" s="80"/>
-      <c r="BB4" s="80"/>
-      <c r="BC4" s="80"/>
-      <c r="BD4" s="77">
-        <v>45426</v>
-      </c>
-      <c r="BE4" s="77"/>
-      <c r="BF4" s="77"/>
-      <c r="BG4" s="78"/>
-      <c r="BH4" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="BI4" s="80"/>
-      <c r="BJ4" s="80"/>
-      <c r="BK4" s="80"/>
-      <c r="BL4" s="77">
-        <v>45427</v>
-      </c>
-      <c r="BM4" s="77"/>
-      <c r="BN4" s="77"/>
-      <c r="BO4" s="78"/>
-      <c r="BP4" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ4" s="80"/>
-      <c r="BR4" s="80"/>
-      <c r="BS4" s="80"/>
-      <c r="BT4" s="77">
-        <v>45428</v>
-      </c>
-      <c r="BU4" s="77"/>
-      <c r="BV4" s="77"/>
-      <c r="BW4" s="78"/>
-      <c r="BX4" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="BY4" s="80"/>
-      <c r="BZ4" s="80"/>
-      <c r="CA4" s="80"/>
-      <c r="CB4" s="77">
-        <v>45429</v>
-      </c>
-      <c r="CC4" s="77"/>
-      <c r="CD4" s="77"/>
-      <c r="CE4" s="78"/>
-      <c r="CF4" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="CG4" s="80"/>
-      <c r="CH4" s="80"/>
-      <c r="CI4" s="80"/>
-      <c r="CJ4" s="77">
-        <v>45432</v>
-      </c>
-      <c r="CK4" s="77"/>
-      <c r="CL4" s="77"/>
-      <c r="CM4" s="78"/>
-      <c r="CN4" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="CO4" s="80"/>
-      <c r="CP4" s="80"/>
-      <c r="CQ4" s="80"/>
-      <c r="CR4" s="77">
-        <v>45433</v>
-      </c>
-      <c r="CS4" s="77"/>
-      <c r="CT4" s="77"/>
-      <c r="CU4" s="78"/>
-      <c r="CV4" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="CW4" s="80"/>
-      <c r="CX4" s="80"/>
-      <c r="CY4" s="80"/>
-      <c r="CZ4" s="77">
-        <v>45434</v>
-      </c>
-      <c r="DA4" s="77"/>
-      <c r="DB4" s="77"/>
-      <c r="DC4" s="78"/>
-      <c r="DD4" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="DE4" s="80"/>
-      <c r="DF4" s="80"/>
-      <c r="DG4" s="80"/>
-      <c r="DH4" s="77">
-        <v>45435</v>
-      </c>
-      <c r="DI4" s="77"/>
-      <c r="DJ4" s="77"/>
-      <c r="DK4" s="78"/>
-      <c r="DL4" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="DM4" s="80"/>
-      <c r="DN4" s="80"/>
-      <c r="DO4" s="80"/>
-      <c r="DP4" s="77">
-        <v>45436</v>
-      </c>
-      <c r="DQ4" s="77"/>
-      <c r="DR4" s="77"/>
-      <c r="DS4" s="78"/>
-      <c r="DT4" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="DU4" s="80"/>
-      <c r="DV4" s="80"/>
-      <c r="DW4" s="80"/>
-      <c r="DX4" s="77">
-        <v>45439</v>
-      </c>
-      <c r="DY4" s="77"/>
-      <c r="DZ4" s="77"/>
-      <c r="EA4" s="78"/>
-      <c r="EB4" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="EC4" s="80"/>
-      <c r="ED4" s="80"/>
-      <c r="EE4" s="80"/>
-      <c r="EF4" s="77">
-        <v>45440</v>
-      </c>
-      <c r="EG4" s="77"/>
-      <c r="EH4" s="77"/>
-      <c r="EI4" s="78"/>
-      <c r="EJ4" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="EK4" s="80"/>
-      <c r="EL4" s="80"/>
-      <c r="EM4" s="80"/>
-      <c r="EN4" s="77">
-        <v>45441</v>
-      </c>
-      <c r="EO4" s="77"/>
-      <c r="EP4" s="77"/>
-      <c r="EQ4" s="78"/>
-      <c r="ER4" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="ES4" s="80"/>
-      <c r="ET4" s="80"/>
-      <c r="EU4" s="80"/>
-      <c r="EV4" s="77">
-        <v>45442</v>
-      </c>
-      <c r="EW4" s="77"/>
-      <c r="EX4" s="77"/>
-      <c r="EY4" s="78"/>
-      <c r="EZ4" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="FA4" s="80"/>
-      <c r="FB4" s="80"/>
-      <c r="FC4" s="80"/>
-      <c r="FD4" s="77">
-        <v>45443</v>
-      </c>
-      <c r="FE4" s="77"/>
-      <c r="FF4" s="77"/>
-      <c r="FG4" s="78"/>
-      <c r="FH4" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="FI4" s="80"/>
-      <c r="FJ4" s="80"/>
-      <c r="FK4" s="80"/>
-      <c r="FL4" s="77">
-        <v>45446</v>
-      </c>
-      <c r="FM4" s="77"/>
-      <c r="FN4" s="77"/>
-      <c r="FO4" s="78"/>
-      <c r="FP4" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="FQ4" s="80"/>
-      <c r="FR4" s="80"/>
-      <c r="FS4" s="80"/>
-      <c r="FT4" s="77">
-        <v>45447</v>
-      </c>
-      <c r="FU4" s="77"/>
-      <c r="FV4" s="77"/>
-      <c r="FW4" s="78"/>
-      <c r="FX4" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="FY4" s="80"/>
-      <c r="FZ4" s="80"/>
-      <c r="GA4" s="80"/>
-      <c r="GB4" s="77">
-        <v>45448</v>
-      </c>
-      <c r="GC4" s="77"/>
-      <c r="GD4" s="77"/>
-      <c r="GE4" s="78"/>
-      <c r="GF4" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="GG4" s="80"/>
-      <c r="GH4" s="80"/>
-      <c r="GI4" s="80"/>
-      <c r="GJ4" s="77">
-        <v>45449</v>
-      </c>
-      <c r="GK4" s="77"/>
-      <c r="GL4" s="77"/>
-      <c r="GM4" s="77"/>
-      <c r="GN4" s="100"/>
-      <c r="GO4" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="GP4" s="80"/>
-      <c r="GQ4" s="80"/>
-      <c r="GR4" s="80"/>
-      <c r="GS4" s="77">
-        <v>45454</v>
-      </c>
-      <c r="GT4" s="77"/>
-      <c r="GU4" s="77"/>
-      <c r="GV4" s="78"/>
-      <c r="GW4" s="88" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="124"/>
       <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -3182,10 +3448,10 @@
       <c r="GL5" s="6">
         <v>7</v>
       </c>
-      <c r="GM5" s="98">
+      <c r="GM5" s="49">
         <v>8</v>
       </c>
-      <c r="GN5" s="101"/>
+      <c r="GN5" s="51"/>
       <c r="GO5" s="8">
         <v>1</v>
       </c>
@@ -3210,14 +3476,14 @@
       <c r="GV5" s="7">
         <v>8</v>
       </c>
-      <c r="GW5" s="88"/>
+      <c r="GW5" s="129"/>
     </row>
-    <row r="6" spans="1:205" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>19</v>
+    <row r="6" spans="1:205" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="13"/>
@@ -3244,16 +3510,16 @@
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
       <c r="AA6" s="15"/>
-      <c r="AB6" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="67"/>
+      <c r="AB6" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC6" s="107"/>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="107"/>
+      <c r="AF6" s="107"/>
+      <c r="AG6" s="107"/>
+      <c r="AH6" s="107"/>
+      <c r="AI6" s="108"/>
       <c r="AJ6" s="13"/>
       <c r="AK6" s="14"/>
       <c r="AL6" s="14"/>
@@ -3288,10 +3554,10 @@
       <c r="BO6" s="15"/>
       <c r="BP6" s="26"/>
       <c r="BQ6" s="24"/>
-      <c r="BR6" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="BS6" s="37"/>
+      <c r="BR6" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="BS6" s="33"/>
       <c r="BT6" s="24"/>
       <c r="BU6" s="24"/>
       <c r="BV6" s="24"/>
@@ -3299,36 +3565,40 @@
       <c r="BX6" s="26"/>
       <c r="BY6" s="24"/>
       <c r="BZ6" s="24"/>
-      <c r="CA6" s="37"/>
-      <c r="CB6" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="CC6" s="37"/>
-      <c r="CD6" s="37"/>
-      <c r="CE6" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="CF6" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="CG6" s="66"/>
-      <c r="CH6" s="66"/>
-      <c r="CI6" s="66"/>
-      <c r="CJ6" s="66"/>
-      <c r="CK6" s="66"/>
-      <c r="CL6" s="66"/>
-      <c r="CM6" s="67"/>
+      <c r="CA6" s="33"/>
+      <c r="CB6" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="CC6" s="33"/>
+      <c r="CD6" s="33"/>
+      <c r="CE6" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CF6" s="106" t="s">
+        <v>15</v>
+      </c>
+      <c r="CG6" s="107"/>
+      <c r="CH6" s="107"/>
+      <c r="CI6" s="107"/>
+      <c r="CJ6" s="107"/>
+      <c r="CK6" s="107"/>
+      <c r="CL6" s="107"/>
+      <c r="CM6" s="108"/>
       <c r="CN6" s="26" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="CO6" s="24"/>
       <c r="CP6" s="24"/>
       <c r="CQ6" s="24"/>
       <c r="CR6" s="24"/>
-      <c r="CS6" s="24"/>
+      <c r="CS6" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="CT6" s="24"/>
       <c r="CU6" s="25"/>
-      <c r="CV6" s="26"/>
+      <c r="CV6" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="CW6" s="24"/>
       <c r="CX6" s="24"/>
       <c r="CY6" s="24"/>
@@ -3352,16 +3622,14 @@
       <c r="DQ6" s="24"/>
       <c r="DR6" s="24"/>
       <c r="DS6" s="25"/>
-      <c r="DT6" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="DU6" s="57"/>
-      <c r="DV6" s="57"/>
-      <c r="DW6" s="57"/>
-      <c r="DX6" s="57"/>
-      <c r="DY6" s="57"/>
-      <c r="DZ6" s="57"/>
-      <c r="EA6" s="58"/>
+      <c r="DT6" s="26"/>
+      <c r="DU6" s="24"/>
+      <c r="DV6" s="24"/>
+      <c r="DW6" s="24"/>
+      <c r="DX6" s="24"/>
+      <c r="DY6" s="24"/>
+      <c r="DZ6" s="24"/>
+      <c r="EA6" s="25"/>
       <c r="EB6" s="26"/>
       <c r="EC6" s="24"/>
       <c r="ED6" s="24"/>
@@ -3378,16 +3646,16 @@
       <c r="EO6" s="24"/>
       <c r="EP6" s="24"/>
       <c r="EQ6" s="25"/>
-      <c r="ER6" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="ES6" s="66"/>
-      <c r="ET6" s="66"/>
-      <c r="EU6" s="66"/>
-      <c r="EV6" s="66"/>
-      <c r="EW6" s="66"/>
-      <c r="EX6" s="66"/>
-      <c r="EY6" s="67"/>
+      <c r="ER6" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="ES6" s="107"/>
+      <c r="ET6" s="107"/>
+      <c r="EU6" s="107"/>
+      <c r="EV6" s="107"/>
+      <c r="EW6" s="107"/>
+      <c r="EX6" s="107"/>
+      <c r="EY6" s="108"/>
       <c r="EZ6" s="26"/>
       <c r="FA6" s="24"/>
       <c r="FB6" s="24"/>
@@ -3427,9 +3695,9 @@
       <c r="GJ6" s="24"/>
       <c r="GK6" s="24"/>
       <c r="GL6" s="24"/>
-      <c r="GM6" s="106"/>
-      <c r="GN6" s="102"/>
-      <c r="GO6" s="95"/>
+      <c r="GM6" s="56"/>
+      <c r="GN6" s="52"/>
+      <c r="GO6" s="46"/>
       <c r="GP6" s="10"/>
       <c r="GQ6" s="10"/>
       <c r="GR6" s="10"/>
@@ -3437,16 +3705,14 @@
       <c r="GT6" s="10"/>
       <c r="GU6" s="10"/>
       <c r="GV6" s="10"/>
-      <c r="GW6" s="88"/>
+      <c r="GW6" s="129"/>
     </row>
-    <row r="7" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="12"/>
+    <row r="7" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="95"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -3471,14 +3737,14 @@
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
       <c r="AA7" s="15"/>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="69"/>
-      <c r="AE7" s="69"/>
-      <c r="AF7" s="69"/>
-      <c r="AG7" s="69"/>
-      <c r="AH7" s="69"/>
-      <c r="AI7" s="70"/>
+      <c r="AB7" s="109"/>
+      <c r="AC7" s="110"/>
+      <c r="AD7" s="110"/>
+      <c r="AE7" s="110"/>
+      <c r="AF7" s="110"/>
+      <c r="AG7" s="110"/>
+      <c r="AH7" s="110"/>
+      <c r="AI7" s="111"/>
       <c r="AJ7" s="13"/>
       <c r="AK7" s="14"/>
       <c r="AL7" s="14"/>
@@ -3511,12 +3777,8 @@
       <c r="BM7" s="14"/>
       <c r="BN7" s="14"/>
       <c r="BO7" s="15"/>
-      <c r="BP7" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="BQ7" s="40" t="s">
-        <v>32</v>
-      </c>
+      <c r="BP7" s="64"/>
+      <c r="BQ7" s="32"/>
       <c r="BR7" s="14"/>
       <c r="BS7" s="14"/>
       <c r="BT7" s="14"/>
@@ -3531,14 +3793,14 @@
       <c r="CC7" s="14"/>
       <c r="CD7" s="14"/>
       <c r="CE7" s="15"/>
-      <c r="CF7" s="68"/>
-      <c r="CG7" s="69"/>
-      <c r="CH7" s="69"/>
-      <c r="CI7" s="69"/>
-      <c r="CJ7" s="69"/>
-      <c r="CK7" s="69"/>
-      <c r="CL7" s="69"/>
-      <c r="CM7" s="70"/>
+      <c r="CF7" s="109"/>
+      <c r="CG7" s="110"/>
+      <c r="CH7" s="110"/>
+      <c r="CI7" s="110"/>
+      <c r="CJ7" s="110"/>
+      <c r="CK7" s="110"/>
+      <c r="CL7" s="110"/>
+      <c r="CM7" s="111"/>
       <c r="CN7" s="13"/>
       <c r="CO7" s="14"/>
       <c r="CP7" s="14"/>
@@ -3571,14 +3833,14 @@
       <c r="DQ7" s="14"/>
       <c r="DR7" s="14"/>
       <c r="DS7" s="15"/>
-      <c r="DT7" s="59"/>
-      <c r="DU7" s="60"/>
-      <c r="DV7" s="60"/>
-      <c r="DW7" s="60"/>
-      <c r="DX7" s="60"/>
-      <c r="DY7" s="60"/>
-      <c r="DZ7" s="60"/>
-      <c r="EA7" s="61"/>
+      <c r="DT7" s="13"/>
+      <c r="DU7" s="14"/>
+      <c r="DV7" s="14"/>
+      <c r="DW7" s="14"/>
+      <c r="DX7" s="14"/>
+      <c r="DY7" s="14"/>
+      <c r="DZ7" s="14"/>
+      <c r="EA7" s="15"/>
       <c r="EB7" s="13"/>
       <c r="EC7" s="14"/>
       <c r="ED7" s="14"/>
@@ -3595,14 +3857,14 @@
       <c r="EO7" s="14"/>
       <c r="EP7" s="14"/>
       <c r="EQ7" s="15"/>
-      <c r="ER7" s="68"/>
-      <c r="ES7" s="69"/>
-      <c r="ET7" s="69"/>
-      <c r="EU7" s="69"/>
-      <c r="EV7" s="69"/>
-      <c r="EW7" s="69"/>
-      <c r="EX7" s="69"/>
-      <c r="EY7" s="70"/>
+      <c r="ER7" s="109"/>
+      <c r="ES7" s="110"/>
+      <c r="ET7" s="110"/>
+      <c r="EU7" s="110"/>
+      <c r="EV7" s="110"/>
+      <c r="EW7" s="110"/>
+      <c r="EX7" s="110"/>
+      <c r="EY7" s="111"/>
       <c r="EZ7" s="13"/>
       <c r="FA7" s="14"/>
       <c r="FB7" s="14"/>
@@ -3642,9 +3904,9 @@
       <c r="GJ7" s="14"/>
       <c r="GK7" s="14"/>
       <c r="GL7" s="14"/>
-      <c r="GM7" s="93"/>
-      <c r="GN7" s="102"/>
-      <c r="GO7" s="96"/>
+      <c r="GM7" s="44"/>
+      <c r="GN7" s="52"/>
+      <c r="GO7" s="47"/>
       <c r="GP7" s="14"/>
       <c r="GQ7" s="14"/>
       <c r="GR7" s="14"/>
@@ -3652,14 +3914,14 @@
       <c r="GT7" s="14"/>
       <c r="GU7" s="14"/>
       <c r="GV7" s="14"/>
-      <c r="GW7" s="88"/>
+      <c r="GW7" s="129"/>
     </row>
     <row r="8" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>31</v>
+      <c r="A8" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
@@ -3686,14 +3948,14 @@
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
       <c r="AA8" s="15"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="69"/>
-      <c r="AE8" s="69"/>
-      <c r="AF8" s="69"/>
-      <c r="AG8" s="69"/>
-      <c r="AH8" s="69"/>
-      <c r="AI8" s="70"/>
+      <c r="AB8" s="109"/>
+      <c r="AC8" s="110"/>
+      <c r="AD8" s="110"/>
+      <c r="AE8" s="110"/>
+      <c r="AF8" s="110"/>
+      <c r="AG8" s="110"/>
+      <c r="AH8" s="110"/>
+      <c r="AI8" s="111"/>
       <c r="AJ8" s="13"/>
       <c r="AK8" s="14"/>
       <c r="AL8" s="14"/>
@@ -3726,50 +3988,34 @@
       <c r="BM8" s="14"/>
       <c r="BN8" s="14"/>
       <c r="BO8" s="15"/>
-      <c r="BP8" s="13"/>
-      <c r="BQ8" s="14"/>
-      <c r="BR8" s="39"/>
-      <c r="BS8" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="BT8" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="BU8" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="BV8" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="BW8" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="BX8" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="BY8" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="BZ8" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="CA8" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="CB8" s="40"/>
-      <c r="CC8" s="40"/>
-      <c r="CD8" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="CE8" s="40"/>
-      <c r="CF8" s="68"/>
-      <c r="CG8" s="69"/>
-      <c r="CH8" s="69"/>
-      <c r="CI8" s="69"/>
-      <c r="CJ8" s="69"/>
-      <c r="CK8" s="69"/>
-      <c r="CL8" s="69"/>
-      <c r="CM8" s="70"/>
+      <c r="BP8" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="BQ8" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="BR8" s="32"/>
+      <c r="BS8" s="14"/>
+      <c r="BT8" s="14"/>
+      <c r="BU8" s="14"/>
+      <c r="BV8" s="14"/>
+      <c r="BW8" s="15"/>
+      <c r="BX8" s="13"/>
+      <c r="BY8" s="14"/>
+      <c r="BZ8" s="14"/>
+      <c r="CA8" s="14"/>
+      <c r="CB8" s="14"/>
+      <c r="CC8" s="14"/>
+      <c r="CD8" s="14"/>
+      <c r="CE8" s="44"/>
+      <c r="CF8" s="109"/>
+      <c r="CG8" s="110"/>
+      <c r="CH8" s="110"/>
+      <c r="CI8" s="110"/>
+      <c r="CJ8" s="110"/>
+      <c r="CK8" s="110"/>
+      <c r="CL8" s="110"/>
+      <c r="CM8" s="111"/>
       <c r="CN8" s="13"/>
       <c r="CO8" s="14"/>
       <c r="CP8" s="14"/>
@@ -3802,14 +4048,14 @@
       <c r="DQ8" s="14"/>
       <c r="DR8" s="14"/>
       <c r="DS8" s="15"/>
-      <c r="DT8" s="59"/>
-      <c r="DU8" s="60"/>
-      <c r="DV8" s="60"/>
-      <c r="DW8" s="60"/>
-      <c r="DX8" s="60"/>
-      <c r="DY8" s="60"/>
-      <c r="DZ8" s="60"/>
-      <c r="EA8" s="61"/>
+      <c r="DT8" s="13"/>
+      <c r="DU8" s="14"/>
+      <c r="DV8" s="14"/>
+      <c r="DW8" s="14"/>
+      <c r="DX8" s="14"/>
+      <c r="DY8" s="14"/>
+      <c r="DZ8" s="14"/>
+      <c r="EA8" s="15"/>
       <c r="EB8" s="13"/>
       <c r="EC8" s="14"/>
       <c r="ED8" s="14"/>
@@ -3826,14 +4072,14 @@
       <c r="EO8" s="14"/>
       <c r="EP8" s="14"/>
       <c r="EQ8" s="15"/>
-      <c r="ER8" s="68"/>
-      <c r="ES8" s="69"/>
-      <c r="ET8" s="69"/>
-      <c r="EU8" s="69"/>
-      <c r="EV8" s="69"/>
-      <c r="EW8" s="69"/>
-      <c r="EX8" s="69"/>
-      <c r="EY8" s="70"/>
+      <c r="ER8" s="109"/>
+      <c r="ES8" s="110"/>
+      <c r="ET8" s="110"/>
+      <c r="EU8" s="110"/>
+      <c r="EV8" s="110"/>
+      <c r="EW8" s="110"/>
+      <c r="EX8" s="110"/>
+      <c r="EY8" s="111"/>
       <c r="EZ8" s="13"/>
       <c r="FA8" s="14"/>
       <c r="FB8" s="14"/>
@@ -3873,9 +4119,9 @@
       <c r="GJ8" s="14"/>
       <c r="GK8" s="14"/>
       <c r="GL8" s="14"/>
-      <c r="GM8" s="93"/>
-      <c r="GN8" s="102"/>
-      <c r="GO8" s="96"/>
+      <c r="GM8" s="44"/>
+      <c r="GN8" s="52"/>
+      <c r="GO8" s="47"/>
       <c r="GP8" s="14"/>
       <c r="GQ8" s="14"/>
       <c r="GR8" s="14"/>
@@ -3883,14 +4129,14 @@
       <c r="GT8" s="14"/>
       <c r="GU8" s="14"/>
       <c r="GV8" s="14"/>
-      <c r="GW8" s="88"/>
+      <c r="GW8" s="129"/>
     </row>
-    <row r="9" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>19</v>
+    <row r="9" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>27</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -3917,14 +4163,14 @@
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
       <c r="AA9" s="15"/>
-      <c r="AB9" s="68"/>
-      <c r="AC9" s="69"/>
-      <c r="AD9" s="69"/>
-      <c r="AE9" s="69"/>
-      <c r="AF9" s="69"/>
-      <c r="AG9" s="69"/>
-      <c r="AH9" s="69"/>
-      <c r="AI9" s="70"/>
+      <c r="AB9" s="109"/>
+      <c r="AC9" s="110"/>
+      <c r="AD9" s="110"/>
+      <c r="AE9" s="110"/>
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="110"/>
+      <c r="AH9" s="110"/>
+      <c r="AI9" s="111"/>
       <c r="AJ9" s="13"/>
       <c r="AK9" s="14"/>
       <c r="AL9" s="14"/>
@@ -3959,31 +4205,49 @@
       <c r="BO9" s="15"/>
       <c r="BP9" s="13"/>
       <c r="BQ9" s="14"/>
-      <c r="BR9" s="14"/>
-      <c r="BS9" s="14"/>
-      <c r="BT9" s="14"/>
-      <c r="BU9" s="14"/>
-      <c r="BV9" s="14"/>
-      <c r="BW9" s="15"/>
-      <c r="BX9" s="13"/>
-      <c r="BY9" s="14"/>
-      <c r="BZ9" s="14"/>
-      <c r="CA9" s="36"/>
+      <c r="BR9" s="35"/>
+      <c r="BS9" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="BT9" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="BU9" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="BV9" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="BW9" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="BX9" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="BY9" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="BZ9" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="CA9" s="36" t="s">
+        <v>28</v>
+      </c>
       <c r="CB9" s="36"/>
-      <c r="CC9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="CD9" s="14"/>
-      <c r="CE9" s="14"/>
-      <c r="CF9" s="68"/>
-      <c r="CG9" s="69"/>
-      <c r="CH9" s="69"/>
-      <c r="CI9" s="69"/>
-      <c r="CJ9" s="69"/>
-      <c r="CK9" s="69"/>
-      <c r="CL9" s="69"/>
-      <c r="CM9" s="70"/>
-      <c r="CN9" s="29"/>
+      <c r="CC9" s="36"/>
+      <c r="CD9" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="CE9" s="36"/>
+      <c r="CF9" s="109"/>
+      <c r="CG9" s="110"/>
+      <c r="CH9" s="110"/>
+      <c r="CI9" s="110"/>
+      <c r="CJ9" s="110"/>
+      <c r="CK9" s="110"/>
+      <c r="CL9" s="110"/>
+      <c r="CM9" s="111"/>
+      <c r="CN9" s="13"/>
       <c r="CO9" s="14"/>
       <c r="CP9" s="14"/>
       <c r="CQ9" s="14"/>
@@ -4015,14 +4279,14 @@
       <c r="DQ9" s="14"/>
       <c r="DR9" s="14"/>
       <c r="DS9" s="15"/>
-      <c r="DT9" s="59"/>
-      <c r="DU9" s="60"/>
-      <c r="DV9" s="60"/>
-      <c r="DW9" s="60"/>
-      <c r="DX9" s="60"/>
-      <c r="DY9" s="60"/>
-      <c r="DZ9" s="60"/>
-      <c r="EA9" s="61"/>
+      <c r="DT9" s="13"/>
+      <c r="DU9" s="14"/>
+      <c r="DV9" s="14"/>
+      <c r="DW9" s="14"/>
+      <c r="DX9" s="14"/>
+      <c r="DY9" s="14"/>
+      <c r="DZ9" s="14"/>
+      <c r="EA9" s="15"/>
       <c r="EB9" s="13"/>
       <c r="EC9" s="14"/>
       <c r="ED9" s="14"/>
@@ -4039,14 +4303,14 @@
       <c r="EO9" s="14"/>
       <c r="EP9" s="14"/>
       <c r="EQ9" s="15"/>
-      <c r="ER9" s="68"/>
-      <c r="ES9" s="69"/>
-      <c r="ET9" s="69"/>
-      <c r="EU9" s="69"/>
-      <c r="EV9" s="69"/>
-      <c r="EW9" s="69"/>
-      <c r="EX9" s="69"/>
-      <c r="EY9" s="70"/>
+      <c r="ER9" s="109"/>
+      <c r="ES9" s="110"/>
+      <c r="ET9" s="110"/>
+      <c r="EU9" s="110"/>
+      <c r="EV9" s="110"/>
+      <c r="EW9" s="110"/>
+      <c r="EX9" s="110"/>
+      <c r="EY9" s="111"/>
       <c r="EZ9" s="13"/>
       <c r="FA9" s="14"/>
       <c r="FB9" s="14"/>
@@ -4086,9 +4350,9 @@
       <c r="GJ9" s="14"/>
       <c r="GK9" s="14"/>
       <c r="GL9" s="14"/>
-      <c r="GM9" s="93"/>
-      <c r="GN9" s="102"/>
-      <c r="GO9" s="96"/>
+      <c r="GM9" s="44"/>
+      <c r="GN9" s="52"/>
+      <c r="GO9" s="47"/>
       <c r="GP9" s="14"/>
       <c r="GQ9" s="14"/>
       <c r="GR9" s="14"/>
@@ -4096,16 +4360,14 @@
       <c r="GT9" s="14"/>
       <c r="GU9" s="14"/>
       <c r="GV9" s="14"/>
-      <c r="GW9" s="88"/>
+      <c r="GW9" s="129"/>
     </row>
-    <row r="10" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="12"/>
+    <row r="10" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="96" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="97"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -4130,14 +4392,14 @@
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
       <c r="AA10" s="15"/>
-      <c r="AB10" s="68"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="69"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="70"/>
+      <c r="AB10" s="109"/>
+      <c r="AC10" s="110"/>
+      <c r="AD10" s="110"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="110"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="110"/>
+      <c r="AI10" s="111"/>
       <c r="AJ10" s="13"/>
       <c r="AK10" s="14"/>
       <c r="AL10" s="14"/>
@@ -4173,31 +4435,29 @@
       <c r="BP10" s="13"/>
       <c r="BQ10" s="14"/>
       <c r="BR10" s="14"/>
-      <c r="BS10" s="14"/>
-      <c r="BT10" s="14"/>
-      <c r="BU10" s="14"/>
-      <c r="BV10" s="14"/>
-      <c r="BW10" s="15"/>
-      <c r="BX10" s="13"/>
-      <c r="BY10" s="14"/>
-      <c r="BZ10" s="14"/>
-      <c r="CA10" s="14"/>
-      <c r="CB10" s="14"/>
-      <c r="CC10" s="14"/>
-      <c r="CD10" s="14"/>
-      <c r="CE10" s="15"/>
-      <c r="CF10" s="68"/>
-      <c r="CG10" s="69"/>
-      <c r="CH10" s="69"/>
-      <c r="CI10" s="69"/>
-      <c r="CJ10" s="69"/>
-      <c r="CK10" s="69"/>
-      <c r="CL10" s="69"/>
-      <c r="CM10" s="70"/>
+      <c r="BS10" s="32"/>
+      <c r="BT10" s="32"/>
+      <c r="BU10" s="32"/>
+      <c r="BV10" s="32"/>
+      <c r="BW10" s="65"/>
+      <c r="BX10" s="64"/>
+      <c r="BY10" s="32"/>
+      <c r="BZ10" s="32"/>
+      <c r="CA10" s="32"/>
+      <c r="CB10" s="32"/>
+      <c r="CC10" s="32"/>
+      <c r="CD10" s="32"/>
+      <c r="CE10" s="32"/>
+      <c r="CF10" s="109"/>
+      <c r="CG10" s="110"/>
+      <c r="CH10" s="110"/>
+      <c r="CI10" s="110"/>
+      <c r="CJ10" s="110"/>
+      <c r="CK10" s="110"/>
+      <c r="CL10" s="110"/>
+      <c r="CM10" s="111"/>
       <c r="CN10" s="13"/>
-      <c r="CO10" s="105" t="s">
-        <v>32</v>
-      </c>
+      <c r="CO10" s="14"/>
       <c r="CP10" s="14"/>
       <c r="CQ10" s="14"/>
       <c r="CR10" s="14"/>
@@ -4228,14 +4488,14 @@
       <c r="DQ10" s="14"/>
       <c r="DR10" s="14"/>
       <c r="DS10" s="15"/>
-      <c r="DT10" s="59"/>
-      <c r="DU10" s="60"/>
-      <c r="DV10" s="60"/>
-      <c r="DW10" s="60"/>
-      <c r="DX10" s="60"/>
-      <c r="DY10" s="60"/>
-      <c r="DZ10" s="60"/>
-      <c r="EA10" s="61"/>
+      <c r="DT10" s="13"/>
+      <c r="DU10" s="14"/>
+      <c r="DV10" s="14"/>
+      <c r="DW10" s="14"/>
+      <c r="DX10" s="14"/>
+      <c r="DY10" s="14"/>
+      <c r="DZ10" s="14"/>
+      <c r="EA10" s="15"/>
       <c r="EB10" s="13"/>
       <c r="EC10" s="14"/>
       <c r="ED10" s="14"/>
@@ -4252,14 +4512,14 @@
       <c r="EO10" s="14"/>
       <c r="EP10" s="14"/>
       <c r="EQ10" s="15"/>
-      <c r="ER10" s="68"/>
-      <c r="ES10" s="69"/>
-      <c r="ET10" s="69"/>
-      <c r="EU10" s="69"/>
-      <c r="EV10" s="69"/>
-      <c r="EW10" s="69"/>
-      <c r="EX10" s="69"/>
-      <c r="EY10" s="70"/>
+      <c r="ER10" s="109"/>
+      <c r="ES10" s="110"/>
+      <c r="ET10" s="110"/>
+      <c r="EU10" s="110"/>
+      <c r="EV10" s="110"/>
+      <c r="EW10" s="110"/>
+      <c r="EX10" s="110"/>
+      <c r="EY10" s="111"/>
       <c r="EZ10" s="13"/>
       <c r="FA10" s="14"/>
       <c r="FB10" s="14"/>
@@ -4299,9 +4559,9 @@
       <c r="GJ10" s="14"/>
       <c r="GK10" s="14"/>
       <c r="GL10" s="14"/>
-      <c r="GM10" s="93"/>
-      <c r="GN10" s="102"/>
-      <c r="GO10" s="96"/>
+      <c r="GM10" s="44"/>
+      <c r="GN10" s="52"/>
+      <c r="GO10" s="47"/>
       <c r="GP10" s="14"/>
       <c r="GQ10" s="14"/>
       <c r="GR10" s="14"/>
@@ -4309,14 +4569,14 @@
       <c r="GT10" s="14"/>
       <c r="GU10" s="14"/>
       <c r="GV10" s="14"/>
-      <c r="GW10" s="88"/>
+      <c r="GW10" s="129"/>
     </row>
     <row r="11" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="49" t="s">
-        <v>19</v>
+      <c r="B11" s="60" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13"/>
@@ -4343,14 +4603,14 @@
       <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
       <c r="AA11" s="15"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="69"/>
-      <c r="AD11" s="69"/>
-      <c r="AE11" s="69"/>
-      <c r="AF11" s="69"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="69"/>
-      <c r="AI11" s="70"/>
+      <c r="AB11" s="109"/>
+      <c r="AC11" s="110"/>
+      <c r="AD11" s="110"/>
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="110"/>
+      <c r="AG11" s="110"/>
+      <c r="AH11" s="110"/>
+      <c r="AI11" s="111"/>
       <c r="AJ11" s="13"/>
       <c r="AK11" s="14"/>
       <c r="AL11" s="14"/>
@@ -4394,24 +4654,26 @@
       <c r="BX11" s="13"/>
       <c r="BY11" s="14"/>
       <c r="BZ11" s="14"/>
-      <c r="CA11" s="14"/>
-      <c r="CB11" s="14"/>
-      <c r="CC11" s="14"/>
+      <c r="CA11" s="32"/>
+      <c r="CB11" s="32"/>
+      <c r="CC11" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="CD11" s="14"/>
-      <c r="CE11" s="15"/>
-      <c r="CF11" s="68"/>
-      <c r="CG11" s="69"/>
-      <c r="CH11" s="69"/>
-      <c r="CI11" s="69"/>
-      <c r="CJ11" s="69"/>
-      <c r="CK11" s="69"/>
-      <c r="CL11" s="69"/>
-      <c r="CM11" s="70"/>
-      <c r="CN11" s="13"/>
+      <c r="CE11" s="14"/>
+      <c r="CF11" s="109"/>
+      <c r="CG11" s="110"/>
+      <c r="CH11" s="110"/>
+      <c r="CI11" s="110"/>
+      <c r="CJ11" s="110"/>
+      <c r="CK11" s="110"/>
+      <c r="CL11" s="110"/>
+      <c r="CM11" s="111"/>
+      <c r="CN11" s="28"/>
       <c r="CO11" s="14"/>
-      <c r="CP11" s="27"/>
-      <c r="CQ11" s="27"/>
-      <c r="CR11" s="27"/>
+      <c r="CP11" s="14"/>
+      <c r="CQ11" s="14"/>
+      <c r="CR11" s="14"/>
       <c r="CS11" s="14"/>
       <c r="CT11" s="14"/>
       <c r="CU11" s="15"/>
@@ -4439,14 +4701,14 @@
       <c r="DQ11" s="14"/>
       <c r="DR11" s="14"/>
       <c r="DS11" s="15"/>
-      <c r="DT11" s="59"/>
-      <c r="DU11" s="60"/>
-      <c r="DV11" s="60"/>
-      <c r="DW11" s="60"/>
-      <c r="DX11" s="60"/>
-      <c r="DY11" s="60"/>
-      <c r="DZ11" s="60"/>
-      <c r="EA11" s="61"/>
+      <c r="DT11" s="13"/>
+      <c r="DU11" s="14"/>
+      <c r="DV11" s="14"/>
+      <c r="DW11" s="14"/>
+      <c r="DX11" s="14"/>
+      <c r="DY11" s="14"/>
+      <c r="DZ11" s="14"/>
+      <c r="EA11" s="15"/>
       <c r="EB11" s="13"/>
       <c r="EC11" s="14"/>
       <c r="ED11" s="14"/>
@@ -4463,14 +4725,14 @@
       <c r="EO11" s="14"/>
       <c r="EP11" s="14"/>
       <c r="EQ11" s="15"/>
-      <c r="ER11" s="68"/>
-      <c r="ES11" s="69"/>
-      <c r="ET11" s="69"/>
-      <c r="EU11" s="69"/>
-      <c r="EV11" s="69"/>
-      <c r="EW11" s="69"/>
-      <c r="EX11" s="69"/>
-      <c r="EY11" s="70"/>
+      <c r="ER11" s="109"/>
+      <c r="ES11" s="110"/>
+      <c r="ET11" s="110"/>
+      <c r="EU11" s="110"/>
+      <c r="EV11" s="110"/>
+      <c r="EW11" s="110"/>
+      <c r="EX11" s="110"/>
+      <c r="EY11" s="111"/>
       <c r="EZ11" s="13"/>
       <c r="FA11" s="14"/>
       <c r="FB11" s="14"/>
@@ -4510,9 +4772,9 @@
       <c r="GJ11" s="14"/>
       <c r="GK11" s="14"/>
       <c r="GL11" s="14"/>
-      <c r="GM11" s="93"/>
-      <c r="GN11" s="102"/>
-      <c r="GO11" s="96"/>
+      <c r="GM11" s="44"/>
+      <c r="GN11" s="52"/>
+      <c r="GO11" s="47"/>
       <c r="GP11" s="14"/>
       <c r="GQ11" s="14"/>
       <c r="GR11" s="14"/>
@@ -4520,14 +4782,14 @@
       <c r="GT11" s="14"/>
       <c r="GU11" s="14"/>
       <c r="GV11" s="14"/>
-      <c r="GW11" s="88"/>
+      <c r="GW11" s="129"/>
     </row>
     <row r="12" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="49" t="s">
+      <c r="A12" s="78" t="s">
         <v>19</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>27</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
@@ -4554,14 +4816,14 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
       <c r="AA12" s="15"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="69"/>
-      <c r="AD12" s="69"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="69"/>
-      <c r="AI12" s="70"/>
+      <c r="AB12" s="109"/>
+      <c r="AC12" s="110"/>
+      <c r="AD12" s="110"/>
+      <c r="AE12" s="110"/>
+      <c r="AF12" s="110"/>
+      <c r="AG12" s="110"/>
+      <c r="AH12" s="110"/>
+      <c r="AI12" s="111"/>
       <c r="AJ12" s="13"/>
       <c r="AK12" s="14"/>
       <c r="AL12" s="14"/>
@@ -4610,22 +4872,24 @@
       <c r="CC12" s="14"/>
       <c r="CD12" s="14"/>
       <c r="CE12" s="15"/>
-      <c r="CF12" s="68"/>
-      <c r="CG12" s="69"/>
-      <c r="CH12" s="69"/>
-      <c r="CI12" s="69"/>
-      <c r="CJ12" s="69"/>
-      <c r="CK12" s="69"/>
-      <c r="CL12" s="69"/>
-      <c r="CM12" s="70"/>
+      <c r="CF12" s="109"/>
+      <c r="CG12" s="110"/>
+      <c r="CH12" s="110"/>
+      <c r="CI12" s="110"/>
+      <c r="CJ12" s="110"/>
+      <c r="CK12" s="110"/>
+      <c r="CL12" s="110"/>
+      <c r="CM12" s="111"/>
       <c r="CN12" s="13"/>
-      <c r="CO12" s="14"/>
+      <c r="CO12" s="55" t="s">
+        <v>28</v>
+      </c>
       <c r="CP12" s="14"/>
       <c r="CQ12" s="14"/>
       <c r="CR12" s="14"/>
-      <c r="CS12" s="27"/>
-      <c r="CT12" s="27"/>
-      <c r="CU12" s="28"/>
+      <c r="CS12" s="14"/>
+      <c r="CT12" s="14"/>
+      <c r="CU12" s="15"/>
       <c r="CV12" s="13"/>
       <c r="CW12" s="14"/>
       <c r="CX12" s="14"/>
@@ -4650,14 +4914,14 @@
       <c r="DQ12" s="14"/>
       <c r="DR12" s="14"/>
       <c r="DS12" s="15"/>
-      <c r="DT12" s="59"/>
-      <c r="DU12" s="60"/>
-      <c r="DV12" s="60"/>
-      <c r="DW12" s="60"/>
-      <c r="DX12" s="60"/>
-      <c r="DY12" s="60"/>
-      <c r="DZ12" s="60"/>
-      <c r="EA12" s="61"/>
+      <c r="DT12" s="13"/>
+      <c r="DU12" s="14"/>
+      <c r="DV12" s="14"/>
+      <c r="DW12" s="14"/>
+      <c r="DX12" s="14"/>
+      <c r="DY12" s="14"/>
+      <c r="DZ12" s="14"/>
+      <c r="EA12" s="15"/>
       <c r="EB12" s="13"/>
       <c r="EC12" s="14"/>
       <c r="ED12" s="14"/>
@@ -4674,14 +4938,14 @@
       <c r="EO12" s="14"/>
       <c r="EP12" s="14"/>
       <c r="EQ12" s="15"/>
-      <c r="ER12" s="68"/>
-      <c r="ES12" s="69"/>
-      <c r="ET12" s="69"/>
-      <c r="EU12" s="69"/>
-      <c r="EV12" s="69"/>
-      <c r="EW12" s="69"/>
-      <c r="EX12" s="69"/>
-      <c r="EY12" s="70"/>
+      <c r="ER12" s="109"/>
+      <c r="ES12" s="110"/>
+      <c r="ET12" s="110"/>
+      <c r="EU12" s="110"/>
+      <c r="EV12" s="110"/>
+      <c r="EW12" s="110"/>
+      <c r="EX12" s="110"/>
+      <c r="EY12" s="111"/>
       <c r="EZ12" s="13"/>
       <c r="FA12" s="14"/>
       <c r="FB12" s="14"/>
@@ -4721,9 +4985,9 @@
       <c r="GJ12" s="14"/>
       <c r="GK12" s="14"/>
       <c r="GL12" s="14"/>
-      <c r="GM12" s="93"/>
-      <c r="GN12" s="102"/>
-      <c r="GO12" s="96"/>
+      <c r="GM12" s="44"/>
+      <c r="GN12" s="52"/>
+      <c r="GO12" s="47"/>
       <c r="GP12" s="14"/>
       <c r="GQ12" s="14"/>
       <c r="GR12" s="14"/>
@@ -4731,13 +4995,15 @@
       <c r="GT12" s="14"/>
       <c r="GU12" s="14"/>
       <c r="GV12" s="14"/>
-      <c r="GW12" s="88"/>
+      <c r="GW12" s="129"/>
     </row>
-    <row r="13" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A13" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="49"/>
+    <row r="13" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>17</v>
+      </c>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
       <c r="E13" s="14"/>
@@ -4763,14 +5029,14 @@
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="15"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="69"/>
-      <c r="AD13" s="69"/>
-      <c r="AE13" s="69"/>
-      <c r="AF13" s="69"/>
-      <c r="AG13" s="69"/>
-      <c r="AH13" s="69"/>
-      <c r="AI13" s="70"/>
+      <c r="AB13" s="109"/>
+      <c r="AC13" s="110"/>
+      <c r="AD13" s="110"/>
+      <c r="AE13" s="110"/>
+      <c r="AF13" s="110"/>
+      <c r="AG13" s="110"/>
+      <c r="AH13" s="110"/>
+      <c r="AI13" s="111"/>
       <c r="AJ13" s="13"/>
       <c r="AK13" s="14"/>
       <c r="AL13" s="14"/>
@@ -4819,24 +5085,28 @@
       <c r="CC13" s="14"/>
       <c r="CD13" s="14"/>
       <c r="CE13" s="15"/>
-      <c r="CF13" s="68"/>
-      <c r="CG13" s="69"/>
-      <c r="CH13" s="69"/>
-      <c r="CI13" s="69"/>
-      <c r="CJ13" s="69"/>
-      <c r="CK13" s="69"/>
-      <c r="CL13" s="69"/>
-      <c r="CM13" s="70"/>
+      <c r="CF13" s="109"/>
+      <c r="CG13" s="110"/>
+      <c r="CH13" s="110"/>
+      <c r="CI13" s="110"/>
+      <c r="CJ13" s="110"/>
+      <c r="CK13" s="110"/>
+      <c r="CL13" s="110"/>
+      <c r="CM13" s="111"/>
       <c r="CN13" s="13"/>
       <c r="CO13" s="14"/>
-      <c r="CP13" s="14"/>
-      <c r="CQ13" s="14"/>
-      <c r="CR13" s="14"/>
-      <c r="CS13" s="14"/>
+      <c r="CP13" s="27"/>
+      <c r="CQ13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="CR13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="CS13" s="27"/>
       <c r="CT13" s="14"/>
       <c r="CU13" s="15"/>
-      <c r="CV13" s="31"/>
-      <c r="CW13" s="32"/>
+      <c r="CV13" s="13"/>
+      <c r="CW13" s="14"/>
       <c r="CX13" s="14"/>
       <c r="CY13" s="14"/>
       <c r="CZ13" s="14"/>
@@ -4859,14 +5129,14 @@
       <c r="DQ13" s="14"/>
       <c r="DR13" s="14"/>
       <c r="DS13" s="15"/>
-      <c r="DT13" s="59"/>
-      <c r="DU13" s="60"/>
-      <c r="DV13" s="60"/>
-      <c r="DW13" s="60"/>
-      <c r="DX13" s="60"/>
-      <c r="DY13" s="60"/>
-      <c r="DZ13" s="60"/>
-      <c r="EA13" s="61"/>
+      <c r="DT13" s="13"/>
+      <c r="DU13" s="14"/>
+      <c r="DV13" s="14"/>
+      <c r="DW13" s="14"/>
+      <c r="DX13" s="14"/>
+      <c r="DY13" s="14"/>
+      <c r="DZ13" s="14"/>
+      <c r="EA13" s="15"/>
       <c r="EB13" s="13"/>
       <c r="EC13" s="14"/>
       <c r="ED13" s="14"/>
@@ -4883,14 +5153,14 @@
       <c r="EO13" s="14"/>
       <c r="EP13" s="14"/>
       <c r="EQ13" s="15"/>
-      <c r="ER13" s="68"/>
-      <c r="ES13" s="69"/>
-      <c r="ET13" s="69"/>
-      <c r="EU13" s="69"/>
-      <c r="EV13" s="69"/>
-      <c r="EW13" s="69"/>
-      <c r="EX13" s="69"/>
-      <c r="EY13" s="70"/>
+      <c r="ER13" s="109"/>
+      <c r="ES13" s="110"/>
+      <c r="ET13" s="110"/>
+      <c r="EU13" s="110"/>
+      <c r="EV13" s="110"/>
+      <c r="EW13" s="110"/>
+      <c r="EX13" s="110"/>
+      <c r="EY13" s="111"/>
       <c r="EZ13" s="13"/>
       <c r="FA13" s="14"/>
       <c r="FB13" s="14"/>
@@ -4930,9 +5200,9 @@
       <c r="GJ13" s="14"/>
       <c r="GK13" s="14"/>
       <c r="GL13" s="14"/>
-      <c r="GM13" s="93"/>
-      <c r="GN13" s="102"/>
-      <c r="GO13" s="96"/>
+      <c r="GM13" s="44"/>
+      <c r="GN13" s="52"/>
+      <c r="GO13" s="47"/>
       <c r="GP13" s="14"/>
       <c r="GQ13" s="14"/>
       <c r="GR13" s="14"/>
@@ -4940,14 +5210,14 @@
       <c r="GT13" s="14"/>
       <c r="GU13" s="14"/>
       <c r="GV13" s="14"/>
-      <c r="GW13" s="88"/>
+      <c r="GW13" s="129"/>
     </row>
-    <row r="14" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A14" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="12"/>
+    <row r="14" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="99"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -4972,14 +5242,14 @@
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
       <c r="AA14" s="15"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="69"/>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="69"/>
-      <c r="AF14" s="69"/>
-      <c r="AG14" s="69"/>
-      <c r="AH14" s="69"/>
-      <c r="AI14" s="70"/>
+      <c r="AB14" s="109"/>
+      <c r="AC14" s="110"/>
+      <c r="AD14" s="110"/>
+      <c r="AE14" s="110"/>
+      <c r="AF14" s="110"/>
+      <c r="AG14" s="110"/>
+      <c r="AH14" s="110"/>
+      <c r="AI14" s="111"/>
       <c r="AJ14" s="13"/>
       <c r="AK14" s="14"/>
       <c r="AL14" s="14"/>
@@ -5028,14 +5298,14 @@
       <c r="CC14" s="14"/>
       <c r="CD14" s="14"/>
       <c r="CE14" s="15"/>
-      <c r="CF14" s="68"/>
-      <c r="CG14" s="69"/>
-      <c r="CH14" s="69"/>
-      <c r="CI14" s="69"/>
-      <c r="CJ14" s="69"/>
-      <c r="CK14" s="69"/>
-      <c r="CL14" s="69"/>
-      <c r="CM14" s="70"/>
+      <c r="CF14" s="109"/>
+      <c r="CG14" s="110"/>
+      <c r="CH14" s="110"/>
+      <c r="CI14" s="110"/>
+      <c r="CJ14" s="110"/>
+      <c r="CK14" s="110"/>
+      <c r="CL14" s="110"/>
+      <c r="CM14" s="111"/>
       <c r="CN14" s="13"/>
       <c r="CO14" s="14"/>
       <c r="CP14" s="14"/>
@@ -5048,10 +5318,10 @@
       <c r="CW14" s="14"/>
       <c r="CX14" s="14"/>
       <c r="CY14" s="14"/>
-      <c r="CZ14" s="32"/>
-      <c r="DA14" s="32"/>
-      <c r="DB14" s="32"/>
-      <c r="DC14" s="30"/>
+      <c r="CZ14" s="14"/>
+      <c r="DA14" s="14"/>
+      <c r="DB14" s="14"/>
+      <c r="DC14" s="15"/>
       <c r="DD14" s="13"/>
       <c r="DE14" s="14"/>
       <c r="DF14" s="14"/>
@@ -5068,14 +5338,14 @@
       <c r="DQ14" s="14"/>
       <c r="DR14" s="14"/>
       <c r="DS14" s="15"/>
-      <c r="DT14" s="59"/>
-      <c r="DU14" s="60"/>
-      <c r="DV14" s="60"/>
-      <c r="DW14" s="60"/>
-      <c r="DX14" s="60"/>
-      <c r="DY14" s="60"/>
-      <c r="DZ14" s="60"/>
-      <c r="EA14" s="61"/>
+      <c r="DT14" s="13"/>
+      <c r="DU14" s="14"/>
+      <c r="DV14" s="14"/>
+      <c r="DW14" s="14"/>
+      <c r="DX14" s="14"/>
+      <c r="DY14" s="14"/>
+      <c r="DZ14" s="14"/>
+      <c r="EA14" s="15"/>
       <c r="EB14" s="13"/>
       <c r="EC14" s="14"/>
       <c r="ED14" s="14"/>
@@ -5092,14 +5362,14 @@
       <c r="EO14" s="14"/>
       <c r="EP14" s="14"/>
       <c r="EQ14" s="15"/>
-      <c r="ER14" s="68"/>
-      <c r="ES14" s="69"/>
-      <c r="ET14" s="69"/>
-      <c r="EU14" s="69"/>
-      <c r="EV14" s="69"/>
-      <c r="EW14" s="69"/>
-      <c r="EX14" s="69"/>
-      <c r="EY14" s="70"/>
+      <c r="ER14" s="109"/>
+      <c r="ES14" s="110"/>
+      <c r="ET14" s="110"/>
+      <c r="EU14" s="110"/>
+      <c r="EV14" s="110"/>
+      <c r="EW14" s="110"/>
+      <c r="EX14" s="110"/>
+      <c r="EY14" s="111"/>
       <c r="EZ14" s="13"/>
       <c r="FA14" s="14"/>
       <c r="FB14" s="14"/>
@@ -5139,9 +5409,9 @@
       <c r="GJ14" s="14"/>
       <c r="GK14" s="14"/>
       <c r="GL14" s="14"/>
-      <c r="GM14" s="93"/>
-      <c r="GN14" s="102"/>
-      <c r="GO14" s="96"/>
+      <c r="GM14" s="44"/>
+      <c r="GN14" s="52"/>
+      <c r="GO14" s="47"/>
       <c r="GP14" s="14"/>
       <c r="GQ14" s="14"/>
       <c r="GR14" s="14"/>
@@ -5149,13 +5419,13 @@
       <c r="GT14" s="14"/>
       <c r="GU14" s="14"/>
       <c r="GV14" s="14"/>
-      <c r="GW14" s="88"/>
+      <c r="GW14" s="129"/>
     </row>
     <row r="15" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="49"/>
+      <c r="A15" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="60"/>
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
       <c r="E15" s="14"/>
@@ -5181,14 +5451,14 @@
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
       <c r="AA15" s="15"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="69"/>
-      <c r="AD15" s="69"/>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="69"/>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="69"/>
-      <c r="AI15" s="70"/>
+      <c r="AB15" s="109"/>
+      <c r="AC15" s="110"/>
+      <c r="AD15" s="110"/>
+      <c r="AE15" s="110"/>
+      <c r="AF15" s="110"/>
+      <c r="AG15" s="110"/>
+      <c r="AH15" s="110"/>
+      <c r="AI15" s="111"/>
       <c r="AJ15" s="13"/>
       <c r="AK15" s="14"/>
       <c r="AL15" s="14"/>
@@ -5237,32 +5507,32 @@
       <c r="CC15" s="14"/>
       <c r="CD15" s="14"/>
       <c r="CE15" s="15"/>
-      <c r="CF15" s="68"/>
-      <c r="CG15" s="69"/>
-      <c r="CH15" s="69"/>
-      <c r="CI15" s="69"/>
-      <c r="CJ15" s="69"/>
-      <c r="CK15" s="69"/>
-      <c r="CL15" s="69"/>
-      <c r="CM15" s="70"/>
+      <c r="CF15" s="109"/>
+      <c r="CG15" s="110"/>
+      <c r="CH15" s="110"/>
+      <c r="CI15" s="110"/>
+      <c r="CJ15" s="110"/>
+      <c r="CK15" s="110"/>
+      <c r="CL15" s="110"/>
+      <c r="CM15" s="111"/>
       <c r="CN15" s="13"/>
       <c r="CO15" s="14"/>
       <c r="CP15" s="14"/>
       <c r="CQ15" s="14"/>
       <c r="CR15" s="14"/>
       <c r="CS15" s="14"/>
-      <c r="CT15" s="14"/>
-      <c r="CU15" s="15"/>
-      <c r="CV15" s="13"/>
-      <c r="CW15" s="14"/>
+      <c r="CT15" s="31"/>
+      <c r="CU15" s="29"/>
+      <c r="CV15" s="30"/>
+      <c r="CW15" s="31"/>
       <c r="CX15" s="14"/>
       <c r="CY15" s="14"/>
       <c r="CZ15" s="14"/>
       <c r="DA15" s="14"/>
       <c r="DB15" s="14"/>
       <c r="DC15" s="15"/>
-      <c r="DD15" s="31"/>
-      <c r="DE15" s="32"/>
+      <c r="DD15" s="13"/>
+      <c r="DE15" s="14"/>
       <c r="DF15" s="14"/>
       <c r="DG15" s="14"/>
       <c r="DH15" s="14"/>
@@ -5277,14 +5547,14 @@
       <c r="DQ15" s="14"/>
       <c r="DR15" s="14"/>
       <c r="DS15" s="15"/>
-      <c r="DT15" s="59"/>
-      <c r="DU15" s="60"/>
-      <c r="DV15" s="60"/>
-      <c r="DW15" s="60"/>
-      <c r="DX15" s="60"/>
-      <c r="DY15" s="60"/>
-      <c r="DZ15" s="60"/>
-      <c r="EA15" s="61"/>
+      <c r="DT15" s="13"/>
+      <c r="DU15" s="14"/>
+      <c r="DV15" s="14"/>
+      <c r="DW15" s="14"/>
+      <c r="DX15" s="14"/>
+      <c r="DY15" s="14"/>
+      <c r="DZ15" s="14"/>
+      <c r="EA15" s="15"/>
       <c r="EB15" s="13"/>
       <c r="EC15" s="14"/>
       <c r="ED15" s="14"/>
@@ -5301,14 +5571,14 @@
       <c r="EO15" s="14"/>
       <c r="EP15" s="14"/>
       <c r="EQ15" s="15"/>
-      <c r="ER15" s="68"/>
-      <c r="ES15" s="69"/>
-      <c r="ET15" s="69"/>
-      <c r="EU15" s="69"/>
-      <c r="EV15" s="69"/>
-      <c r="EW15" s="69"/>
-      <c r="EX15" s="69"/>
-      <c r="EY15" s="70"/>
+      <c r="ER15" s="109"/>
+      <c r="ES15" s="110"/>
+      <c r="ET15" s="110"/>
+      <c r="EU15" s="110"/>
+      <c r="EV15" s="110"/>
+      <c r="EW15" s="110"/>
+      <c r="EX15" s="110"/>
+      <c r="EY15" s="111"/>
       <c r="EZ15" s="13"/>
       <c r="FA15" s="14"/>
       <c r="FB15" s="14"/>
@@ -5348,9 +5618,9 @@
       <c r="GJ15" s="14"/>
       <c r="GK15" s="14"/>
       <c r="GL15" s="14"/>
-      <c r="GM15" s="93"/>
-      <c r="GN15" s="102"/>
-      <c r="GO15" s="96"/>
+      <c r="GM15" s="44"/>
+      <c r="GN15" s="52"/>
+      <c r="GO15" s="47"/>
       <c r="GP15" s="14"/>
       <c r="GQ15" s="14"/>
       <c r="GR15" s="14"/>
@@ -5358,13 +5628,15 @@
       <c r="GT15" s="14"/>
       <c r="GU15" s="14"/>
       <c r="GV15" s="14"/>
-      <c r="GW15" s="88"/>
+      <c r="GW15" s="129"/>
     </row>
     <row r="16" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="49"/>
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
       <c r="E16" s="14"/>
@@ -5390,14 +5662,14 @@
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="15"/>
-      <c r="AB16" s="68"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="70"/>
+      <c r="AB16" s="109"/>
+      <c r="AC16" s="110"/>
+      <c r="AD16" s="110"/>
+      <c r="AE16" s="110"/>
+      <c r="AF16" s="110"/>
+      <c r="AG16" s="110"/>
+      <c r="AH16" s="110"/>
+      <c r="AI16" s="111"/>
       <c r="AJ16" s="13"/>
       <c r="AK16" s="14"/>
       <c r="AL16" s="14"/>
@@ -5446,34 +5718,36 @@
       <c r="CC16" s="14"/>
       <c r="CD16" s="14"/>
       <c r="CE16" s="15"/>
-      <c r="CF16" s="68"/>
-      <c r="CG16" s="69"/>
-      <c r="CH16" s="69"/>
-      <c r="CI16" s="69"/>
-      <c r="CJ16" s="69"/>
-      <c r="CK16" s="69"/>
-      <c r="CL16" s="69"/>
-      <c r="CM16" s="70"/>
+      <c r="CF16" s="109"/>
+      <c r="CG16" s="110"/>
+      <c r="CH16" s="110"/>
+      <c r="CI16" s="110"/>
+      <c r="CJ16" s="110"/>
+      <c r="CK16" s="110"/>
+      <c r="CL16" s="110"/>
+      <c r="CM16" s="111"/>
       <c r="CN16" s="13"/>
       <c r="CO16" s="14"/>
       <c r="CP16" s="14"/>
       <c r="CQ16" s="14"/>
       <c r="CR16" s="14"/>
       <c r="CS16" s="14"/>
-      <c r="CT16" s="14"/>
+      <c r="CT16" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="CU16" s="15"/>
       <c r="CV16" s="13"/>
       <c r="CW16" s="14"/>
       <c r="CX16" s="14"/>
-      <c r="CY16" s="14"/>
-      <c r="CZ16" s="14"/>
-      <c r="DA16" s="14"/>
-      <c r="DB16" s="14"/>
-      <c r="DC16" s="15"/>
+      <c r="CY16" s="31"/>
+      <c r="CZ16" s="31"/>
+      <c r="DA16" s="31"/>
+      <c r="DB16" s="31"/>
+      <c r="DC16" s="29"/>
       <c r="DD16" s="13"/>
       <c r="DE16" s="14"/>
-      <c r="DF16" s="32"/>
-      <c r="DG16" s="32"/>
+      <c r="DF16" s="14"/>
+      <c r="DG16" s="14"/>
       <c r="DH16" s="14"/>
       <c r="DI16" s="14"/>
       <c r="DJ16" s="14"/>
@@ -5486,14 +5760,14 @@
       <c r="DQ16" s="14"/>
       <c r="DR16" s="14"/>
       <c r="DS16" s="15"/>
-      <c r="DT16" s="59"/>
-      <c r="DU16" s="60"/>
-      <c r="DV16" s="60"/>
-      <c r="DW16" s="60"/>
-      <c r="DX16" s="60"/>
-      <c r="DY16" s="60"/>
-      <c r="DZ16" s="60"/>
-      <c r="EA16" s="61"/>
+      <c r="DT16" s="13"/>
+      <c r="DU16" s="14"/>
+      <c r="DV16" s="14"/>
+      <c r="DW16" s="14"/>
+      <c r="DX16" s="14"/>
+      <c r="DY16" s="14"/>
+      <c r="DZ16" s="14"/>
+      <c r="EA16" s="15"/>
       <c r="EB16" s="13"/>
       <c r="EC16" s="14"/>
       <c r="ED16" s="14"/>
@@ -5510,14 +5784,14 @@
       <c r="EO16" s="14"/>
       <c r="EP16" s="14"/>
       <c r="EQ16" s="15"/>
-      <c r="ER16" s="68"/>
-      <c r="ES16" s="69"/>
-      <c r="ET16" s="69"/>
-      <c r="EU16" s="69"/>
-      <c r="EV16" s="69"/>
-      <c r="EW16" s="69"/>
-      <c r="EX16" s="69"/>
-      <c r="EY16" s="70"/>
+      <c r="ER16" s="109"/>
+      <c r="ES16" s="110"/>
+      <c r="ET16" s="110"/>
+      <c r="EU16" s="110"/>
+      <c r="EV16" s="110"/>
+      <c r="EW16" s="110"/>
+      <c r="EX16" s="110"/>
+      <c r="EY16" s="111"/>
       <c r="EZ16" s="13"/>
       <c r="FA16" s="14"/>
       <c r="FB16" s="14"/>
@@ -5557,9 +5831,9 @@
       <c r="GJ16" s="14"/>
       <c r="GK16" s="14"/>
       <c r="GL16" s="14"/>
-      <c r="GM16" s="93"/>
-      <c r="GN16" s="102"/>
-      <c r="GO16" s="96"/>
+      <c r="GM16" s="44"/>
+      <c r="GN16" s="52"/>
+      <c r="GO16" s="47"/>
       <c r="GP16" s="14"/>
       <c r="GQ16" s="14"/>
       <c r="GR16" s="14"/>
@@ -5567,13 +5841,15 @@
       <c r="GT16" s="14"/>
       <c r="GU16" s="14"/>
       <c r="GV16" s="14"/>
-      <c r="GW16" s="88"/>
+      <c r="GW16" s="129"/>
     </row>
     <row r="17" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A17" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="49"/>
+      <c r="A17" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>27</v>
+      </c>
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
       <c r="E17" s="14"/>
@@ -5599,14 +5875,14 @@
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="15"/>
-      <c r="AB17" s="68"/>
-      <c r="AC17" s="69"/>
-      <c r="AD17" s="69"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="69"/>
-      <c r="AG17" s="69"/>
-      <c r="AH17" s="69"/>
-      <c r="AI17" s="70"/>
+      <c r="AB17" s="109"/>
+      <c r="AC17" s="110"/>
+      <c r="AD17" s="110"/>
+      <c r="AE17" s="110"/>
+      <c r="AF17" s="110"/>
+      <c r="AG17" s="110"/>
+      <c r="AH17" s="110"/>
+      <c r="AI17" s="111"/>
       <c r="AJ17" s="13"/>
       <c r="AK17" s="14"/>
       <c r="AL17" s="14"/>
@@ -5655,14 +5931,14 @@
       <c r="CC17" s="14"/>
       <c r="CD17" s="14"/>
       <c r="CE17" s="15"/>
-      <c r="CF17" s="68"/>
-      <c r="CG17" s="69"/>
-      <c r="CH17" s="69"/>
-      <c r="CI17" s="69"/>
-      <c r="CJ17" s="69"/>
-      <c r="CK17" s="69"/>
-      <c r="CL17" s="69"/>
-      <c r="CM17" s="70"/>
+      <c r="CF17" s="109"/>
+      <c r="CG17" s="110"/>
+      <c r="CH17" s="110"/>
+      <c r="CI17" s="110"/>
+      <c r="CJ17" s="110"/>
+      <c r="CK17" s="110"/>
+      <c r="CL17" s="110"/>
+      <c r="CM17" s="111"/>
       <c r="CN17" s="13"/>
       <c r="CO17" s="14"/>
       <c r="CP17" s="14"/>
@@ -5670,21 +5946,27 @@
       <c r="CR17" s="14"/>
       <c r="CS17" s="14"/>
       <c r="CT17" s="14"/>
-      <c r="CU17" s="15"/>
+      <c r="CU17" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="CV17" s="13"/>
-      <c r="CW17" s="14"/>
+      <c r="CW17" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="CX17" s="14"/>
-      <c r="CY17" s="14"/>
+      <c r="CY17" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="CZ17" s="14"/>
       <c r="DA17" s="14"/>
       <c r="DB17" s="14"/>
-      <c r="DC17" s="15"/>
-      <c r="DD17" s="13"/>
-      <c r="DE17" s="14"/>
-      <c r="DF17" s="14"/>
-      <c r="DG17" s="14"/>
-      <c r="DH17" s="43"/>
-      <c r="DI17" s="43"/>
+      <c r="DC17" s="14"/>
+      <c r="DD17" s="30"/>
+      <c r="DE17" s="31"/>
+      <c r="DF17" s="31"/>
+      <c r="DG17" s="31"/>
+      <c r="DH17" s="14"/>
+      <c r="DI17" s="14"/>
       <c r="DJ17" s="14"/>
       <c r="DK17" s="15"/>
       <c r="DL17" s="13"/>
@@ -5695,14 +5977,14 @@
       <c r="DQ17" s="14"/>
       <c r="DR17" s="14"/>
       <c r="DS17" s="15"/>
-      <c r="DT17" s="59"/>
-      <c r="DU17" s="60"/>
-      <c r="DV17" s="60"/>
-      <c r="DW17" s="60"/>
-      <c r="DX17" s="60"/>
-      <c r="DY17" s="60"/>
-      <c r="DZ17" s="60"/>
-      <c r="EA17" s="61"/>
+      <c r="DT17" s="13"/>
+      <c r="DU17" s="14"/>
+      <c r="DV17" s="14"/>
+      <c r="DW17" s="14"/>
+      <c r="DX17" s="14"/>
+      <c r="DY17" s="14"/>
+      <c r="DZ17" s="14"/>
+      <c r="EA17" s="15"/>
       <c r="EB17" s="13"/>
       <c r="EC17" s="14"/>
       <c r="ED17" s="14"/>
@@ -5719,14 +6001,14 @@
       <c r="EO17" s="14"/>
       <c r="EP17" s="14"/>
       <c r="EQ17" s="15"/>
-      <c r="ER17" s="68"/>
-      <c r="ES17" s="69"/>
-      <c r="ET17" s="69"/>
-      <c r="EU17" s="69"/>
-      <c r="EV17" s="69"/>
-      <c r="EW17" s="69"/>
-      <c r="EX17" s="69"/>
-      <c r="EY17" s="70"/>
+      <c r="ER17" s="109"/>
+      <c r="ES17" s="110"/>
+      <c r="ET17" s="110"/>
+      <c r="EU17" s="110"/>
+      <c r="EV17" s="110"/>
+      <c r="EW17" s="110"/>
+      <c r="EX17" s="110"/>
+      <c r="EY17" s="111"/>
       <c r="EZ17" s="13"/>
       <c r="FA17" s="14"/>
       <c r="FB17" s="14"/>
@@ -5766,9 +6048,9 @@
       <c r="GJ17" s="14"/>
       <c r="GK17" s="14"/>
       <c r="GL17" s="14"/>
-      <c r="GM17" s="93"/>
-      <c r="GN17" s="102"/>
-      <c r="GO17" s="96"/>
+      <c r="GM17" s="44"/>
+      <c r="GN17" s="52"/>
+      <c r="GO17" s="47"/>
       <c r="GP17" s="14"/>
       <c r="GQ17" s="14"/>
       <c r="GR17" s="14"/>
@@ -5776,13 +6058,13 @@
       <c r="GT17" s="14"/>
       <c r="GU17" s="14"/>
       <c r="GV17" s="14"/>
-      <c r="GW17" s="88"/>
+      <c r="GW17" s="129"/>
     </row>
     <row r="18" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="49"/>
+      <c r="A18" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="67"/>
       <c r="C18" s="12"/>
       <c r="D18" s="13"/>
       <c r="E18" s="14"/>
@@ -5808,14 +6090,14 @@
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="15"/>
-      <c r="AB18" s="68"/>
-      <c r="AC18" s="69"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="69"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="70"/>
+      <c r="AB18" s="109"/>
+      <c r="AC18" s="110"/>
+      <c r="AD18" s="110"/>
+      <c r="AE18" s="110"/>
+      <c r="AF18" s="110"/>
+      <c r="AG18" s="110"/>
+      <c r="AH18" s="110"/>
+      <c r="AI18" s="111"/>
       <c r="AJ18" s="13"/>
       <c r="AK18" s="14"/>
       <c r="AL18" s="14"/>
@@ -5864,14 +6146,14 @@
       <c r="CC18" s="14"/>
       <c r="CD18" s="14"/>
       <c r="CE18" s="15"/>
-      <c r="CF18" s="68"/>
-      <c r="CG18" s="69"/>
-      <c r="CH18" s="69"/>
-      <c r="CI18" s="69"/>
-      <c r="CJ18" s="69"/>
-      <c r="CK18" s="69"/>
-      <c r="CL18" s="69"/>
-      <c r="CM18" s="70"/>
+      <c r="CF18" s="109"/>
+      <c r="CG18" s="110"/>
+      <c r="CH18" s="110"/>
+      <c r="CI18" s="110"/>
+      <c r="CJ18" s="110"/>
+      <c r="CK18" s="110"/>
+      <c r="CL18" s="110"/>
+      <c r="CM18" s="111"/>
       <c r="CN18" s="13"/>
       <c r="CO18" s="14"/>
       <c r="CP18" s="14"/>
@@ -5892,10 +6174,10 @@
       <c r="DE18" s="14"/>
       <c r="DF18" s="14"/>
       <c r="DG18" s="14"/>
-      <c r="DH18" s="14"/>
-      <c r="DI18" s="14"/>
-      <c r="DJ18" s="43"/>
-      <c r="DK18" s="44"/>
+      <c r="DH18" s="31"/>
+      <c r="DI18" s="31"/>
+      <c r="DJ18" s="31"/>
+      <c r="DK18" s="29"/>
       <c r="DL18" s="13"/>
       <c r="DM18" s="14"/>
       <c r="DN18" s="14"/>
@@ -5904,14 +6186,14 @@
       <c r="DQ18" s="14"/>
       <c r="DR18" s="14"/>
       <c r="DS18" s="15"/>
-      <c r="DT18" s="59"/>
-      <c r="DU18" s="60"/>
-      <c r="DV18" s="60"/>
-      <c r="DW18" s="60"/>
-      <c r="DX18" s="60"/>
-      <c r="DY18" s="60"/>
-      <c r="DZ18" s="60"/>
-      <c r="EA18" s="61"/>
+      <c r="DT18" s="13"/>
+      <c r="DU18" s="14"/>
+      <c r="DV18" s="14"/>
+      <c r="DW18" s="14"/>
+      <c r="DX18" s="14"/>
+      <c r="DY18" s="14"/>
+      <c r="DZ18" s="14"/>
+      <c r="EA18" s="15"/>
       <c r="EB18" s="13"/>
       <c r="EC18" s="14"/>
       <c r="ED18" s="14"/>
@@ -5928,14 +6210,14 @@
       <c r="EO18" s="14"/>
       <c r="EP18" s="14"/>
       <c r="EQ18" s="15"/>
-      <c r="ER18" s="68"/>
-      <c r="ES18" s="69"/>
-      <c r="ET18" s="69"/>
-      <c r="EU18" s="69"/>
-      <c r="EV18" s="69"/>
-      <c r="EW18" s="69"/>
-      <c r="EX18" s="69"/>
-      <c r="EY18" s="70"/>
+      <c r="ER18" s="109"/>
+      <c r="ES18" s="110"/>
+      <c r="ET18" s="110"/>
+      <c r="EU18" s="110"/>
+      <c r="EV18" s="110"/>
+      <c r="EW18" s="110"/>
+      <c r="EX18" s="110"/>
+      <c r="EY18" s="111"/>
       <c r="EZ18" s="13"/>
       <c r="FA18" s="14"/>
       <c r="FB18" s="14"/>
@@ -5975,9 +6257,9 @@
       <c r="GJ18" s="14"/>
       <c r="GK18" s="14"/>
       <c r="GL18" s="14"/>
-      <c r="GM18" s="93"/>
-      <c r="GN18" s="102"/>
-      <c r="GO18" s="96"/>
+      <c r="GM18" s="44"/>
+      <c r="GN18" s="52"/>
+      <c r="GO18" s="47"/>
       <c r="GP18" s="14"/>
       <c r="GQ18" s="14"/>
       <c r="GR18" s="14"/>
@@ -5985,13 +6267,13 @@
       <c r="GT18" s="14"/>
       <c r="GU18" s="14"/>
       <c r="GV18" s="14"/>
-      <c r="GW18" s="88"/>
+      <c r="GW18" s="129"/>
     </row>
-    <row r="19" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A19" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="49"/>
+    <row r="19" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="66"/>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
@@ -6017,14 +6299,14 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="15"/>
-      <c r="AB19" s="68"/>
-      <c r="AC19" s="69"/>
-      <c r="AD19" s="69"/>
-      <c r="AE19" s="69"/>
-      <c r="AF19" s="69"/>
-      <c r="AG19" s="69"/>
-      <c r="AH19" s="69"/>
-      <c r="AI19" s="70"/>
+      <c r="AB19" s="109"/>
+      <c r="AC19" s="110"/>
+      <c r="AD19" s="110"/>
+      <c r="AE19" s="110"/>
+      <c r="AF19" s="110"/>
+      <c r="AG19" s="110"/>
+      <c r="AH19" s="110"/>
+      <c r="AI19" s="111"/>
       <c r="AJ19" s="13"/>
       <c r="AK19" s="14"/>
       <c r="AL19" s="14"/>
@@ -6073,14 +6355,14 @@
       <c r="CC19" s="14"/>
       <c r="CD19" s="14"/>
       <c r="CE19" s="15"/>
-      <c r="CF19" s="68"/>
-      <c r="CG19" s="69"/>
-      <c r="CH19" s="69"/>
-      <c r="CI19" s="69"/>
-      <c r="CJ19" s="69"/>
-      <c r="CK19" s="69"/>
-      <c r="CL19" s="69"/>
-      <c r="CM19" s="70"/>
+      <c r="CF19" s="109"/>
+      <c r="CG19" s="110"/>
+      <c r="CH19" s="110"/>
+      <c r="CI19" s="110"/>
+      <c r="CJ19" s="110"/>
+      <c r="CK19" s="110"/>
+      <c r="CL19" s="110"/>
+      <c r="CM19" s="111"/>
       <c r="CN19" s="13"/>
       <c r="CO19" s="14"/>
       <c r="CP19" s="14"/>
@@ -6105,22 +6387,22 @@
       <c r="DI19" s="14"/>
       <c r="DJ19" s="14"/>
       <c r="DK19" s="15"/>
-      <c r="DL19" s="45"/>
-      <c r="DM19" s="43"/>
-      <c r="DN19" s="43"/>
-      <c r="DO19" s="43"/>
+      <c r="DL19" s="30"/>
+      <c r="DM19" s="31"/>
+      <c r="DN19" s="31"/>
+      <c r="DO19" s="31"/>
       <c r="DP19" s="14"/>
       <c r="DQ19" s="14"/>
       <c r="DR19" s="14"/>
       <c r="DS19" s="15"/>
-      <c r="DT19" s="59"/>
-      <c r="DU19" s="60"/>
-      <c r="DV19" s="60"/>
-      <c r="DW19" s="60"/>
-      <c r="DX19" s="60"/>
-      <c r="DY19" s="60"/>
-      <c r="DZ19" s="60"/>
-      <c r="EA19" s="61"/>
+      <c r="DT19" s="13"/>
+      <c r="DU19" s="14"/>
+      <c r="DV19" s="14"/>
+      <c r="DW19" s="14"/>
+      <c r="DX19" s="14"/>
+      <c r="DY19" s="14"/>
+      <c r="DZ19" s="14"/>
+      <c r="EA19" s="15"/>
       <c r="EB19" s="13"/>
       <c r="EC19" s="14"/>
       <c r="ED19" s="14"/>
@@ -6137,14 +6419,14 @@
       <c r="EO19" s="14"/>
       <c r="EP19" s="14"/>
       <c r="EQ19" s="15"/>
-      <c r="ER19" s="68"/>
-      <c r="ES19" s="69"/>
-      <c r="ET19" s="69"/>
-      <c r="EU19" s="69"/>
-      <c r="EV19" s="69"/>
-      <c r="EW19" s="69"/>
-      <c r="EX19" s="69"/>
-      <c r="EY19" s="70"/>
+      <c r="ER19" s="109"/>
+      <c r="ES19" s="110"/>
+      <c r="ET19" s="110"/>
+      <c r="EU19" s="110"/>
+      <c r="EV19" s="110"/>
+      <c r="EW19" s="110"/>
+      <c r="EX19" s="110"/>
+      <c r="EY19" s="111"/>
       <c r="EZ19" s="13"/>
       <c r="FA19" s="14"/>
       <c r="FB19" s="14"/>
@@ -6184,9 +6466,9 @@
       <c r="GJ19" s="14"/>
       <c r="GK19" s="14"/>
       <c r="GL19" s="14"/>
-      <c r="GM19" s="93"/>
-      <c r="GN19" s="102"/>
-      <c r="GO19" s="96"/>
+      <c r="GM19" s="44"/>
+      <c r="GN19" s="52"/>
+      <c r="GO19" s="47"/>
       <c r="GP19" s="14"/>
       <c r="GQ19" s="14"/>
       <c r="GR19" s="14"/>
@@ -6194,14 +6476,14 @@
       <c r="GT19" s="14"/>
       <c r="GU19" s="14"/>
       <c r="GV19" s="14"/>
-      <c r="GW19" s="88"/>
+      <c r="GW19" s="129"/>
     </row>
-    <row r="20" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A20" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="12"/>
+    <row r="20" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="101"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -6226,14 +6508,14 @@
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
       <c r="AA20" s="15"/>
-      <c r="AB20" s="68"/>
-      <c r="AC20" s="69"/>
-      <c r="AD20" s="69"/>
-      <c r="AE20" s="69"/>
-      <c r="AF20" s="69"/>
-      <c r="AG20" s="69"/>
-      <c r="AH20" s="69"/>
-      <c r="AI20" s="70"/>
+      <c r="AB20" s="109"/>
+      <c r="AC20" s="110"/>
+      <c r="AD20" s="110"/>
+      <c r="AE20" s="110"/>
+      <c r="AF20" s="110"/>
+      <c r="AG20" s="110"/>
+      <c r="AH20" s="110"/>
+      <c r="AI20" s="111"/>
       <c r="AJ20" s="13"/>
       <c r="AK20" s="14"/>
       <c r="AL20" s="14"/>
@@ -6282,14 +6564,14 @@
       <c r="CC20" s="14"/>
       <c r="CD20" s="14"/>
       <c r="CE20" s="15"/>
-      <c r="CF20" s="68"/>
-      <c r="CG20" s="69"/>
-      <c r="CH20" s="69"/>
-      <c r="CI20" s="69"/>
-      <c r="CJ20" s="69"/>
-      <c r="CK20" s="69"/>
-      <c r="CL20" s="69"/>
-      <c r="CM20" s="70"/>
+      <c r="CF20" s="109"/>
+      <c r="CG20" s="110"/>
+      <c r="CH20" s="110"/>
+      <c r="CI20" s="110"/>
+      <c r="CJ20" s="110"/>
+      <c r="CK20" s="110"/>
+      <c r="CL20" s="110"/>
+      <c r="CM20" s="111"/>
       <c r="CN20" s="13"/>
       <c r="CO20" s="14"/>
       <c r="CP20" s="14"/>
@@ -6313,71 +6595,71 @@
       <c r="DH20" s="14"/>
       <c r="DI20" s="14"/>
       <c r="DJ20" s="14"/>
-      <c r="DK20" s="15"/>
-      <c r="DL20" s="13"/>
-      <c r="DM20" s="14"/>
-      <c r="DN20" s="14"/>
-      <c r="DO20" s="14"/>
-      <c r="DP20" s="43"/>
-      <c r="DQ20" s="43"/>
-      <c r="DR20" s="43"/>
-      <c r="DS20" s="44"/>
-      <c r="DT20" s="59"/>
-      <c r="DU20" s="60"/>
-      <c r="DV20" s="60"/>
-      <c r="DW20" s="60"/>
-      <c r="DX20" s="60"/>
-      <c r="DY20" s="60"/>
-      <c r="DZ20" s="60"/>
-      <c r="EA20" s="61"/>
-      <c r="EB20" s="45"/>
-      <c r="EC20" s="43"/>
-      <c r="ED20" s="43"/>
+      <c r="DK20" s="44"/>
+      <c r="DL20" s="69"/>
+      <c r="DM20" s="57"/>
+      <c r="DN20" s="57"/>
+      <c r="DO20" s="57"/>
+      <c r="DP20" s="14"/>
+      <c r="DQ20" s="14"/>
+      <c r="DR20" s="14"/>
+      <c r="DS20" s="15"/>
+      <c r="DT20" s="13"/>
+      <c r="DU20" s="14"/>
+      <c r="DV20" s="14"/>
+      <c r="DW20" s="14"/>
+      <c r="DX20" s="14"/>
+      <c r="DY20" s="14"/>
+      <c r="DZ20" s="14"/>
+      <c r="EA20" s="15"/>
+      <c r="EB20" s="13"/>
+      <c r="EC20" s="14"/>
+      <c r="ED20" s="14"/>
       <c r="EE20" s="14"/>
-      <c r="EF20" s="43"/>
-      <c r="EG20" s="43"/>
-      <c r="EH20" s="43"/>
-      <c r="EI20" s="44"/>
-      <c r="EJ20" s="45"/>
-      <c r="EK20" s="43"/>
-      <c r="EL20" s="43"/>
-      <c r="EM20" s="43"/>
-      <c r="EN20" s="43"/>
-      <c r="EO20" s="43"/>
-      <c r="EP20" s="43"/>
-      <c r="EQ20" s="44"/>
-      <c r="ER20" s="68"/>
-      <c r="ES20" s="69"/>
-      <c r="ET20" s="69"/>
-      <c r="EU20" s="69"/>
-      <c r="EV20" s="69"/>
-      <c r="EW20" s="69"/>
-      <c r="EX20" s="69"/>
-      <c r="EY20" s="70"/>
-      <c r="EZ20" s="45"/>
-      <c r="FA20" s="43"/>
-      <c r="FB20" s="43"/>
-      <c r="FC20" s="43"/>
-      <c r="FD20" s="43"/>
-      <c r="FE20" s="43"/>
-      <c r="FF20" s="43"/>
-      <c r="FG20" s="44"/>
-      <c r="FH20" s="45"/>
-      <c r="FI20" s="43"/>
-      <c r="FJ20" s="43"/>
-      <c r="FK20" s="43"/>
-      <c r="FL20" s="43"/>
-      <c r="FM20" s="43"/>
-      <c r="FN20" s="43"/>
-      <c r="FO20" s="44"/>
-      <c r="FP20" s="45"/>
-      <c r="FQ20" s="43"/>
-      <c r="FR20" s="43"/>
-      <c r="FS20" s="43"/>
-      <c r="FT20" s="43"/>
-      <c r="FU20" s="43"/>
-      <c r="FV20" s="43"/>
-      <c r="FW20" s="44"/>
+      <c r="EF20" s="14"/>
+      <c r="EG20" s="14"/>
+      <c r="EH20" s="14"/>
+      <c r="EI20" s="15"/>
+      <c r="EJ20" s="13"/>
+      <c r="EK20" s="14"/>
+      <c r="EL20" s="14"/>
+      <c r="EM20" s="14"/>
+      <c r="EN20" s="14"/>
+      <c r="EO20" s="14"/>
+      <c r="EP20" s="14"/>
+      <c r="EQ20" s="15"/>
+      <c r="ER20" s="109"/>
+      <c r="ES20" s="110"/>
+      <c r="ET20" s="110"/>
+      <c r="EU20" s="110"/>
+      <c r="EV20" s="110"/>
+      <c r="EW20" s="110"/>
+      <c r="EX20" s="110"/>
+      <c r="EY20" s="111"/>
+      <c r="EZ20" s="13"/>
+      <c r="FA20" s="14"/>
+      <c r="FB20" s="14"/>
+      <c r="FC20" s="14"/>
+      <c r="FD20" s="14"/>
+      <c r="FE20" s="14"/>
+      <c r="FF20" s="14"/>
+      <c r="FG20" s="15"/>
+      <c r="FH20" s="13"/>
+      <c r="FI20" s="14"/>
+      <c r="FJ20" s="14"/>
+      <c r="FK20" s="14"/>
+      <c r="FL20" s="14"/>
+      <c r="FM20" s="14"/>
+      <c r="FN20" s="14"/>
+      <c r="FO20" s="15"/>
+      <c r="FP20" s="13"/>
+      <c r="FQ20" s="14"/>
+      <c r="FR20" s="14"/>
+      <c r="FS20" s="14"/>
+      <c r="FT20" s="14"/>
+      <c r="FU20" s="14"/>
+      <c r="FV20" s="14"/>
+      <c r="FW20" s="15"/>
       <c r="FX20" s="13"/>
       <c r="FY20" s="14"/>
       <c r="FZ20" s="14"/>
@@ -6393,9 +6675,9 @@
       <c r="GJ20" s="14"/>
       <c r="GK20" s="14"/>
       <c r="GL20" s="14"/>
-      <c r="GM20" s="93"/>
-      <c r="GN20" s="102"/>
-      <c r="GO20" s="96"/>
+      <c r="GM20" s="44"/>
+      <c r="GN20" s="52"/>
+      <c r="GO20" s="47"/>
       <c r="GP20" s="14"/>
       <c r="GQ20" s="14"/>
       <c r="GR20" s="14"/>
@@ -6403,13 +6685,13 @@
       <c r="GT20" s="14"/>
       <c r="GU20" s="14"/>
       <c r="GV20" s="14"/>
-      <c r="GW20" s="88"/>
+      <c r="GW20" s="129"/>
     </row>
     <row r="21" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="49"/>
+      <c r="A21" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="60"/>
       <c r="C21" s="12"/>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
@@ -6435,14 +6717,14 @@
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
       <c r="AA21" s="15"/>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="69"/>
-      <c r="AD21" s="69"/>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="69"/>
-      <c r="AG21" s="69"/>
-      <c r="AH21" s="69"/>
-      <c r="AI21" s="70"/>
+      <c r="AB21" s="109"/>
+      <c r="AC21" s="110"/>
+      <c r="AD21" s="110"/>
+      <c r="AE21" s="110"/>
+      <c r="AF21" s="110"/>
+      <c r="AG21" s="110"/>
+      <c r="AH21" s="110"/>
+      <c r="AI21" s="111"/>
       <c r="AJ21" s="13"/>
       <c r="AK21" s="14"/>
       <c r="AL21" s="14"/>
@@ -6491,14 +6773,14 @@
       <c r="CC21" s="14"/>
       <c r="CD21" s="14"/>
       <c r="CE21" s="15"/>
-      <c r="CF21" s="68"/>
-      <c r="CG21" s="69"/>
-      <c r="CH21" s="69"/>
-      <c r="CI21" s="69"/>
-      <c r="CJ21" s="69"/>
-      <c r="CK21" s="69"/>
-      <c r="CL21" s="69"/>
-      <c r="CM21" s="70"/>
+      <c r="CF21" s="109"/>
+      <c r="CG21" s="110"/>
+      <c r="CH21" s="110"/>
+      <c r="CI21" s="110"/>
+      <c r="CJ21" s="110"/>
+      <c r="CK21" s="110"/>
+      <c r="CL21" s="110"/>
+      <c r="CM21" s="111"/>
       <c r="CN21" s="13"/>
       <c r="CO21" s="14"/>
       <c r="CP21" s="14"/>
@@ -6522,23 +6804,23 @@
       <c r="DH21" s="14"/>
       <c r="DI21" s="14"/>
       <c r="DJ21" s="14"/>
-      <c r="DK21" s="15"/>
+      <c r="DK21" s="14"/>
       <c r="DL21" s="13"/>
       <c r="DM21" s="14"/>
       <c r="DN21" s="14"/>
       <c r="DO21" s="14"/>
-      <c r="DP21" s="14"/>
-      <c r="DQ21" s="14"/>
-      <c r="DR21" s="14"/>
-      <c r="DS21" s="15"/>
-      <c r="DT21" s="59"/>
-      <c r="DU21" s="60"/>
-      <c r="DV21" s="60"/>
-      <c r="DW21" s="60"/>
-      <c r="DX21" s="60"/>
-      <c r="DY21" s="60"/>
-      <c r="DZ21" s="60"/>
-      <c r="EA21" s="61"/>
+      <c r="DP21" s="39"/>
+      <c r="DQ21" s="39"/>
+      <c r="DR21" s="39"/>
+      <c r="DS21" s="40"/>
+      <c r="DT21" s="13"/>
+      <c r="DU21" s="14"/>
+      <c r="DV21" s="14"/>
+      <c r="DW21" s="14"/>
+      <c r="DX21" s="14"/>
+      <c r="DY21" s="14"/>
+      <c r="DZ21" s="14"/>
+      <c r="EA21" s="15"/>
       <c r="EB21" s="13"/>
       <c r="EC21" s="14"/>
       <c r="ED21" s="14"/>
@@ -6555,14 +6837,14 @@
       <c r="EO21" s="14"/>
       <c r="EP21" s="14"/>
       <c r="EQ21" s="15"/>
-      <c r="ER21" s="68"/>
-      <c r="ES21" s="69"/>
-      <c r="ET21" s="69"/>
-      <c r="EU21" s="69"/>
-      <c r="EV21" s="69"/>
-      <c r="EW21" s="69"/>
-      <c r="EX21" s="69"/>
-      <c r="EY21" s="70"/>
+      <c r="ER21" s="109"/>
+      <c r="ES21" s="110"/>
+      <c r="ET21" s="110"/>
+      <c r="EU21" s="110"/>
+      <c r="EV21" s="110"/>
+      <c r="EW21" s="110"/>
+      <c r="EX21" s="110"/>
+      <c r="EY21" s="111"/>
       <c r="EZ21" s="13"/>
       <c r="FA21" s="14"/>
       <c r="FB21" s="14"/>
@@ -6587,24 +6869,24 @@
       <c r="FU21" s="14"/>
       <c r="FV21" s="14"/>
       <c r="FW21" s="15"/>
-      <c r="FX21" s="45"/>
-      <c r="FY21" s="43"/>
-      <c r="FZ21" s="43"/>
-      <c r="GA21" s="43"/>
-      <c r="GB21" s="43"/>
-      <c r="GC21" s="43"/>
-      <c r="GD21" s="43"/>
-      <c r="GE21" s="44"/>
-      <c r="GF21" s="45"/>
-      <c r="GG21" s="43"/>
+      <c r="FX21" s="13"/>
+      <c r="FY21" s="14"/>
+      <c r="FZ21" s="14"/>
+      <c r="GA21" s="14"/>
+      <c r="GB21" s="14"/>
+      <c r="GC21" s="14"/>
+      <c r="GD21" s="14"/>
+      <c r="GE21" s="15"/>
+      <c r="GF21" s="13"/>
+      <c r="GG21" s="14"/>
       <c r="GH21" s="14"/>
       <c r="GI21" s="14"/>
       <c r="GJ21" s="14"/>
       <c r="GK21" s="14"/>
       <c r="GL21" s="14"/>
-      <c r="GM21" s="93"/>
-      <c r="GN21" s="102"/>
-      <c r="GO21" s="96"/>
+      <c r="GM21" s="44"/>
+      <c r="GN21" s="52"/>
+      <c r="GO21" s="47"/>
       <c r="GP21" s="14"/>
       <c r="GQ21" s="14"/>
       <c r="GR21" s="14"/>
@@ -6612,13 +6894,13 @@
       <c r="GT21" s="14"/>
       <c r="GU21" s="14"/>
       <c r="GV21" s="14"/>
-      <c r="GW21" s="88"/>
+      <c r="GW21" s="129"/>
     </row>
     <row r="22" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A22" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="49"/>
+      <c r="A22" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="67"/>
       <c r="C22" s="12"/>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
@@ -6644,14 +6926,14 @@
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
       <c r="AA22" s="15"/>
-      <c r="AB22" s="68"/>
-      <c r="AC22" s="69"/>
-      <c r="AD22" s="69"/>
-      <c r="AE22" s="69"/>
-      <c r="AF22" s="69"/>
-      <c r="AG22" s="69"/>
-      <c r="AH22" s="69"/>
-      <c r="AI22" s="70"/>
+      <c r="AB22" s="109"/>
+      <c r="AC22" s="110"/>
+      <c r="AD22" s="110"/>
+      <c r="AE22" s="110"/>
+      <c r="AF22" s="110"/>
+      <c r="AG22" s="110"/>
+      <c r="AH22" s="110"/>
+      <c r="AI22" s="111"/>
       <c r="AJ22" s="13"/>
       <c r="AK22" s="14"/>
       <c r="AL22" s="14"/>
@@ -6700,14 +6982,14 @@
       <c r="CC22" s="14"/>
       <c r="CD22" s="14"/>
       <c r="CE22" s="15"/>
-      <c r="CF22" s="68"/>
-      <c r="CG22" s="69"/>
-      <c r="CH22" s="69"/>
-      <c r="CI22" s="69"/>
-      <c r="CJ22" s="69"/>
-      <c r="CK22" s="69"/>
-      <c r="CL22" s="69"/>
-      <c r="CM22" s="70"/>
+      <c r="CF22" s="109"/>
+      <c r="CG22" s="110"/>
+      <c r="CH22" s="110"/>
+      <c r="CI22" s="110"/>
+      <c r="CJ22" s="110"/>
+      <c r="CK22" s="110"/>
+      <c r="CL22" s="110"/>
+      <c r="CM22" s="111"/>
       <c r="CN22" s="13"/>
       <c r="CO22" s="14"/>
       <c r="CP22" s="14"/>
@@ -6740,14 +7022,14 @@
       <c r="DQ22" s="14"/>
       <c r="DR22" s="14"/>
       <c r="DS22" s="15"/>
-      <c r="DT22" s="59"/>
-      <c r="DU22" s="60"/>
-      <c r="DV22" s="60"/>
-      <c r="DW22" s="60"/>
-      <c r="DX22" s="60"/>
-      <c r="DY22" s="60"/>
-      <c r="DZ22" s="60"/>
-      <c r="EA22" s="61"/>
+      <c r="DT22" s="41"/>
+      <c r="DU22" s="39"/>
+      <c r="DV22" s="39"/>
+      <c r="DW22" s="39"/>
+      <c r="DX22" s="14"/>
+      <c r="DY22" s="14"/>
+      <c r="DZ22" s="14"/>
+      <c r="EA22" s="15"/>
       <c r="EB22" s="13"/>
       <c r="EC22" s="14"/>
       <c r="ED22" s="14"/>
@@ -6764,14 +7046,14 @@
       <c r="EO22" s="14"/>
       <c r="EP22" s="14"/>
       <c r="EQ22" s="15"/>
-      <c r="ER22" s="68"/>
-      <c r="ES22" s="69"/>
-      <c r="ET22" s="69"/>
-      <c r="EU22" s="69"/>
-      <c r="EV22" s="69"/>
-      <c r="EW22" s="69"/>
-      <c r="EX22" s="69"/>
-      <c r="EY22" s="70"/>
+      <c r="ER22" s="109"/>
+      <c r="ES22" s="110"/>
+      <c r="ET22" s="110"/>
+      <c r="EU22" s="110"/>
+      <c r="EV22" s="110"/>
+      <c r="EW22" s="110"/>
+      <c r="EX22" s="110"/>
+      <c r="EY22" s="111"/>
       <c r="EZ22" s="13"/>
       <c r="FA22" s="14"/>
       <c r="FB22" s="14"/>
@@ -6806,14 +7088,14 @@
       <c r="GE22" s="15"/>
       <c r="GF22" s="13"/>
       <c r="GG22" s="14"/>
-      <c r="GH22" s="91"/>
-      <c r="GI22" s="91"/>
-      <c r="GJ22" s="91"/>
-      <c r="GK22" s="91"/>
+      <c r="GH22" s="14"/>
+      <c r="GI22" s="14"/>
+      <c r="GJ22" s="14"/>
+      <c r="GK22" s="14"/>
       <c r="GL22" s="14"/>
-      <c r="GM22" s="93"/>
-      <c r="GN22" s="102"/>
-      <c r="GO22" s="96"/>
+      <c r="GM22" s="44"/>
+      <c r="GN22" s="52"/>
+      <c r="GO22" s="47"/>
       <c r="GP22" s="14"/>
       <c r="GQ22" s="14"/>
       <c r="GR22" s="14"/>
@@ -6821,11 +7103,13 @@
       <c r="GT22" s="14"/>
       <c r="GU22" s="14"/>
       <c r="GV22" s="14"/>
-      <c r="GW22" s="88"/>
+      <c r="GW22" s="129"/>
     </row>
     <row r="23" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A23" s="53"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="67"/>
       <c r="C23" s="12"/>
       <c r="D23" s="13"/>
       <c r="E23" s="14"/>
@@ -6851,14 +7135,14 @@
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
       <c r="AA23" s="15"/>
-      <c r="AB23" s="68"/>
-      <c r="AC23" s="69"/>
-      <c r="AD23" s="69"/>
-      <c r="AE23" s="69"/>
-      <c r="AF23" s="69"/>
-      <c r="AG23" s="69"/>
-      <c r="AH23" s="69"/>
-      <c r="AI23" s="70"/>
+      <c r="AB23" s="109"/>
+      <c r="AC23" s="110"/>
+      <c r="AD23" s="110"/>
+      <c r="AE23" s="110"/>
+      <c r="AF23" s="110"/>
+      <c r="AG23" s="110"/>
+      <c r="AH23" s="110"/>
+      <c r="AI23" s="111"/>
       <c r="AJ23" s="13"/>
       <c r="AK23" s="14"/>
       <c r="AL23" s="14"/>
@@ -6907,14 +7191,14 @@
       <c r="CC23" s="14"/>
       <c r="CD23" s="14"/>
       <c r="CE23" s="15"/>
-      <c r="CF23" s="68"/>
-      <c r="CG23" s="69"/>
-      <c r="CH23" s="69"/>
-      <c r="CI23" s="69"/>
-      <c r="CJ23" s="69"/>
-      <c r="CK23" s="69"/>
-      <c r="CL23" s="69"/>
-      <c r="CM23" s="70"/>
+      <c r="CF23" s="109"/>
+      <c r="CG23" s="110"/>
+      <c r="CH23" s="110"/>
+      <c r="CI23" s="110"/>
+      <c r="CJ23" s="110"/>
+      <c r="CK23" s="110"/>
+      <c r="CL23" s="110"/>
+      <c r="CM23" s="111"/>
       <c r="CN23" s="13"/>
       <c r="CO23" s="14"/>
       <c r="CP23" s="14"/>
@@ -6947,14 +7231,14 @@
       <c r="DQ23" s="14"/>
       <c r="DR23" s="14"/>
       <c r="DS23" s="15"/>
-      <c r="DT23" s="59"/>
-      <c r="DU23" s="60"/>
-      <c r="DV23" s="60"/>
-      <c r="DW23" s="60"/>
-      <c r="DX23" s="60"/>
-      <c r="DY23" s="60"/>
-      <c r="DZ23" s="60"/>
-      <c r="EA23" s="61"/>
+      <c r="DT23" s="13"/>
+      <c r="DU23" s="14"/>
+      <c r="DV23" s="14"/>
+      <c r="DW23" s="14"/>
+      <c r="DX23" s="39"/>
+      <c r="DY23" s="39"/>
+      <c r="DZ23" s="39"/>
+      <c r="EA23" s="40"/>
       <c r="EB23" s="13"/>
       <c r="EC23" s="14"/>
       <c r="ED23" s="14"/>
@@ -6971,14 +7255,14 @@
       <c r="EO23" s="14"/>
       <c r="EP23" s="14"/>
       <c r="EQ23" s="15"/>
-      <c r="ER23" s="68"/>
-      <c r="ES23" s="69"/>
-      <c r="ET23" s="69"/>
-      <c r="EU23" s="69"/>
-      <c r="EV23" s="69"/>
-      <c r="EW23" s="69"/>
-      <c r="EX23" s="69"/>
-      <c r="EY23" s="70"/>
+      <c r="ER23" s="109"/>
+      <c r="ES23" s="110"/>
+      <c r="ET23" s="110"/>
+      <c r="EU23" s="110"/>
+      <c r="EV23" s="110"/>
+      <c r="EW23" s="110"/>
+      <c r="EX23" s="110"/>
+      <c r="EY23" s="111"/>
       <c r="EZ23" s="13"/>
       <c r="FA23" s="14"/>
       <c r="FB23" s="14"/>
@@ -7018,9 +7302,9 @@
       <c r="GJ23" s="14"/>
       <c r="GK23" s="14"/>
       <c r="GL23" s="14"/>
-      <c r="GM23" s="93"/>
-      <c r="GN23" s="102"/>
-      <c r="GO23" s="96"/>
+      <c r="GM23" s="44"/>
+      <c r="GN23" s="52"/>
+      <c r="GO23" s="47"/>
       <c r="GP23" s="14"/>
       <c r="GQ23" s="14"/>
       <c r="GR23" s="14"/>
@@ -7028,11 +7312,13 @@
       <c r="GT23" s="14"/>
       <c r="GU23" s="14"/>
       <c r="GV23" s="14"/>
-      <c r="GW23" s="88"/>
+      <c r="GW23" s="129"/>
     </row>
     <row r="24" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="67"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
@@ -7058,14 +7344,14 @@
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
       <c r="AA24" s="15"/>
-      <c r="AB24" s="68"/>
-      <c r="AC24" s="69"/>
-      <c r="AD24" s="69"/>
-      <c r="AE24" s="69"/>
-      <c r="AF24" s="69"/>
-      <c r="AG24" s="69"/>
-      <c r="AH24" s="69"/>
-      <c r="AI24" s="70"/>
+      <c r="AB24" s="109"/>
+      <c r="AC24" s="110"/>
+      <c r="AD24" s="110"/>
+      <c r="AE24" s="110"/>
+      <c r="AF24" s="110"/>
+      <c r="AG24" s="110"/>
+      <c r="AH24" s="110"/>
+      <c r="AI24" s="111"/>
       <c r="AJ24" s="13"/>
       <c r="AK24" s="14"/>
       <c r="AL24" s="14"/>
@@ -7114,14 +7400,14 @@
       <c r="CC24" s="14"/>
       <c r="CD24" s="14"/>
       <c r="CE24" s="15"/>
-      <c r="CF24" s="68"/>
-      <c r="CG24" s="69"/>
-      <c r="CH24" s="69"/>
-      <c r="CI24" s="69"/>
-      <c r="CJ24" s="69"/>
-      <c r="CK24" s="69"/>
-      <c r="CL24" s="69"/>
-      <c r="CM24" s="70"/>
+      <c r="CF24" s="109"/>
+      <c r="CG24" s="110"/>
+      <c r="CH24" s="110"/>
+      <c r="CI24" s="110"/>
+      <c r="CJ24" s="110"/>
+      <c r="CK24" s="110"/>
+      <c r="CL24" s="110"/>
+      <c r="CM24" s="111"/>
       <c r="CN24" s="13"/>
       <c r="CO24" s="14"/>
       <c r="CP24" s="14"/>
@@ -7154,18 +7440,18 @@
       <c r="DQ24" s="14"/>
       <c r="DR24" s="14"/>
       <c r="DS24" s="15"/>
-      <c r="DT24" s="59"/>
-      <c r="DU24" s="60"/>
-      <c r="DV24" s="60"/>
-      <c r="DW24" s="60"/>
-      <c r="DX24" s="60"/>
-      <c r="DY24" s="60"/>
-      <c r="DZ24" s="60"/>
-      <c r="EA24" s="61"/>
-      <c r="EB24" s="13"/>
-      <c r="EC24" s="14"/>
-      <c r="ED24" s="14"/>
-      <c r="EE24" s="14"/>
+      <c r="DT24" s="13"/>
+      <c r="DU24" s="14"/>
+      <c r="DV24" s="14"/>
+      <c r="DW24" s="14"/>
+      <c r="DX24" s="14"/>
+      <c r="DY24" s="14"/>
+      <c r="DZ24" s="14"/>
+      <c r="EA24" s="15"/>
+      <c r="EB24" s="41"/>
+      <c r="EC24" s="39"/>
+      <c r="ED24" s="39"/>
+      <c r="EE24" s="39"/>
       <c r="EF24" s="14"/>
       <c r="EG24" s="14"/>
       <c r="EH24" s="14"/>
@@ -7178,14 +7464,14 @@
       <c r="EO24" s="14"/>
       <c r="EP24" s="14"/>
       <c r="EQ24" s="15"/>
-      <c r="ER24" s="68"/>
-      <c r="ES24" s="69"/>
-      <c r="ET24" s="69"/>
-      <c r="EU24" s="69"/>
-      <c r="EV24" s="69"/>
-      <c r="EW24" s="69"/>
-      <c r="EX24" s="69"/>
-      <c r="EY24" s="70"/>
+      <c r="ER24" s="109"/>
+      <c r="ES24" s="110"/>
+      <c r="ET24" s="110"/>
+      <c r="EU24" s="110"/>
+      <c r="EV24" s="110"/>
+      <c r="EW24" s="110"/>
+      <c r="EX24" s="110"/>
+      <c r="EY24" s="111"/>
       <c r="EZ24" s="13"/>
       <c r="FA24" s="14"/>
       <c r="FB24" s="14"/>
@@ -7225,9 +7511,9 @@
       <c r="GJ24" s="14"/>
       <c r="GK24" s="14"/>
       <c r="GL24" s="14"/>
-      <c r="GM24" s="93"/>
-      <c r="GN24" s="102"/>
-      <c r="GO24" s="96"/>
+      <c r="GM24" s="44"/>
+      <c r="GN24" s="52"/>
+      <c r="GO24" s="47"/>
       <c r="GP24" s="14"/>
       <c r="GQ24" s="14"/>
       <c r="GR24" s="14"/>
@@ -7235,11 +7521,13 @@
       <c r="GT24" s="14"/>
       <c r="GU24" s="14"/>
       <c r="GV24" s="14"/>
-      <c r="GW24" s="88"/>
+      <c r="GW24" s="129"/>
     </row>
     <row r="25" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A25" s="53"/>
-      <c r="B25" s="49"/>
+      <c r="A25" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="67"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
@@ -7265,14 +7553,14 @@
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
       <c r="AA25" s="15"/>
-      <c r="AB25" s="68"/>
-      <c r="AC25" s="69"/>
-      <c r="AD25" s="69"/>
-      <c r="AE25" s="69"/>
-      <c r="AF25" s="69"/>
-      <c r="AG25" s="69"/>
-      <c r="AH25" s="69"/>
-      <c r="AI25" s="70"/>
+      <c r="AB25" s="109"/>
+      <c r="AC25" s="110"/>
+      <c r="AD25" s="110"/>
+      <c r="AE25" s="110"/>
+      <c r="AF25" s="110"/>
+      <c r="AG25" s="110"/>
+      <c r="AH25" s="110"/>
+      <c r="AI25" s="111"/>
       <c r="AJ25" s="13"/>
       <c r="AK25" s="14"/>
       <c r="AL25" s="14"/>
@@ -7321,14 +7609,14 @@
       <c r="CC25" s="14"/>
       <c r="CD25" s="14"/>
       <c r="CE25" s="15"/>
-      <c r="CF25" s="68"/>
-      <c r="CG25" s="69"/>
-      <c r="CH25" s="69"/>
-      <c r="CI25" s="69"/>
-      <c r="CJ25" s="69"/>
-      <c r="CK25" s="69"/>
-      <c r="CL25" s="69"/>
-      <c r="CM25" s="70"/>
+      <c r="CF25" s="109"/>
+      <c r="CG25" s="110"/>
+      <c r="CH25" s="110"/>
+      <c r="CI25" s="110"/>
+      <c r="CJ25" s="110"/>
+      <c r="CK25" s="110"/>
+      <c r="CL25" s="110"/>
+      <c r="CM25" s="111"/>
       <c r="CN25" s="13"/>
       <c r="CO25" s="14"/>
       <c r="CP25" s="14"/>
@@ -7361,22 +7649,22 @@
       <c r="DQ25" s="14"/>
       <c r="DR25" s="14"/>
       <c r="DS25" s="15"/>
-      <c r="DT25" s="59"/>
-      <c r="DU25" s="60"/>
-      <c r="DV25" s="60"/>
-      <c r="DW25" s="60"/>
-      <c r="DX25" s="60"/>
-      <c r="DY25" s="60"/>
-      <c r="DZ25" s="60"/>
-      <c r="EA25" s="61"/>
+      <c r="DT25" s="13"/>
+      <c r="DU25" s="14"/>
+      <c r="DV25" s="14"/>
+      <c r="DW25" s="14"/>
+      <c r="DX25" s="14"/>
+      <c r="DY25" s="14"/>
+      <c r="DZ25" s="14"/>
+      <c r="EA25" s="15"/>
       <c r="EB25" s="13"/>
       <c r="EC25" s="14"/>
       <c r="ED25" s="14"/>
       <c r="EE25" s="14"/>
-      <c r="EF25" s="14"/>
-      <c r="EG25" s="14"/>
-      <c r="EH25" s="14"/>
-      <c r="EI25" s="15"/>
+      <c r="EF25" s="39"/>
+      <c r="EG25" s="39"/>
+      <c r="EH25" s="39"/>
+      <c r="EI25" s="40"/>
       <c r="EJ25" s="13"/>
       <c r="EK25" s="14"/>
       <c r="EL25" s="14"/>
@@ -7385,14 +7673,14 @@
       <c r="EO25" s="14"/>
       <c r="EP25" s="14"/>
       <c r="EQ25" s="15"/>
-      <c r="ER25" s="68"/>
-      <c r="ES25" s="69"/>
-      <c r="ET25" s="69"/>
-      <c r="EU25" s="69"/>
-      <c r="EV25" s="69"/>
-      <c r="EW25" s="69"/>
-      <c r="EX25" s="69"/>
-      <c r="EY25" s="70"/>
+      <c r="ER25" s="109"/>
+      <c r="ES25" s="110"/>
+      <c r="ET25" s="110"/>
+      <c r="EU25" s="110"/>
+      <c r="EV25" s="110"/>
+      <c r="EW25" s="110"/>
+      <c r="EX25" s="110"/>
+      <c r="EY25" s="111"/>
       <c r="EZ25" s="13"/>
       <c r="FA25" s="14"/>
       <c r="FB25" s="14"/>
@@ -7432,9 +7720,9 @@
       <c r="GJ25" s="14"/>
       <c r="GK25" s="14"/>
       <c r="GL25" s="14"/>
-      <c r="GM25" s="93"/>
-      <c r="GN25" s="102"/>
-      <c r="GO25" s="96"/>
+      <c r="GM25" s="44"/>
+      <c r="GN25" s="52"/>
+      <c r="GO25" s="47"/>
       <c r="GP25" s="14"/>
       <c r="GQ25" s="14"/>
       <c r="GR25" s="14"/>
@@ -7442,11 +7730,13 @@
       <c r="GT25" s="14"/>
       <c r="GU25" s="14"/>
       <c r="GV25" s="14"/>
-      <c r="GW25" s="88"/>
+      <c r="GW25" s="129"/>
     </row>
     <row r="26" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A26" s="53"/>
-      <c r="B26" s="49"/>
+      <c r="A26" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="67"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
@@ -7472,14 +7762,14 @@
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
       <c r="AA26" s="15"/>
-      <c r="AB26" s="68"/>
-      <c r="AC26" s="69"/>
-      <c r="AD26" s="69"/>
-      <c r="AE26" s="69"/>
-      <c r="AF26" s="69"/>
-      <c r="AG26" s="69"/>
-      <c r="AH26" s="69"/>
-      <c r="AI26" s="70"/>
+      <c r="AB26" s="109"/>
+      <c r="AC26" s="110"/>
+      <c r="AD26" s="110"/>
+      <c r="AE26" s="110"/>
+      <c r="AF26" s="110"/>
+      <c r="AG26" s="110"/>
+      <c r="AH26" s="110"/>
+      <c r="AI26" s="111"/>
       <c r="AJ26" s="13"/>
       <c r="AK26" s="14"/>
       <c r="AL26" s="14"/>
@@ -7528,14 +7818,14 @@
       <c r="CC26" s="14"/>
       <c r="CD26" s="14"/>
       <c r="CE26" s="15"/>
-      <c r="CF26" s="68"/>
-      <c r="CG26" s="69"/>
-      <c r="CH26" s="69"/>
-      <c r="CI26" s="69"/>
-      <c r="CJ26" s="69"/>
-      <c r="CK26" s="69"/>
-      <c r="CL26" s="69"/>
-      <c r="CM26" s="70"/>
+      <c r="CF26" s="109"/>
+      <c r="CG26" s="110"/>
+      <c r="CH26" s="110"/>
+      <c r="CI26" s="110"/>
+      <c r="CJ26" s="110"/>
+      <c r="CK26" s="110"/>
+      <c r="CL26" s="110"/>
+      <c r="CM26" s="111"/>
       <c r="CN26" s="13"/>
       <c r="CO26" s="14"/>
       <c r="CP26" s="14"/>
@@ -7568,14 +7858,14 @@
       <c r="DQ26" s="14"/>
       <c r="DR26" s="14"/>
       <c r="DS26" s="15"/>
-      <c r="DT26" s="59"/>
-      <c r="DU26" s="60"/>
-      <c r="DV26" s="60"/>
-      <c r="DW26" s="60"/>
-      <c r="DX26" s="60"/>
-      <c r="DY26" s="60"/>
-      <c r="DZ26" s="60"/>
-      <c r="EA26" s="61"/>
+      <c r="DT26" s="13"/>
+      <c r="DU26" s="14"/>
+      <c r="DV26" s="14"/>
+      <c r="DW26" s="14"/>
+      <c r="DX26" s="14"/>
+      <c r="DY26" s="14"/>
+      <c r="DZ26" s="14"/>
+      <c r="EA26" s="15"/>
       <c r="EB26" s="13"/>
       <c r="EC26" s="14"/>
       <c r="ED26" s="14"/>
@@ -7584,22 +7874,22 @@
       <c r="EG26" s="14"/>
       <c r="EH26" s="14"/>
       <c r="EI26" s="15"/>
-      <c r="EJ26" s="13"/>
-      <c r="EK26" s="14"/>
-      <c r="EL26" s="14"/>
-      <c r="EM26" s="14"/>
-      <c r="EN26" s="14"/>
-      <c r="EO26" s="14"/>
-      <c r="EP26" s="14"/>
-      <c r="EQ26" s="15"/>
-      <c r="ER26" s="68"/>
-      <c r="ES26" s="69"/>
-      <c r="ET26" s="69"/>
-      <c r="EU26" s="69"/>
-      <c r="EV26" s="69"/>
-      <c r="EW26" s="69"/>
-      <c r="EX26" s="69"/>
-      <c r="EY26" s="70"/>
+      <c r="EJ26" s="41"/>
+      <c r="EK26" s="39"/>
+      <c r="EL26" s="39"/>
+      <c r="EM26" s="39"/>
+      <c r="EN26" s="57"/>
+      <c r="EO26" s="57"/>
+      <c r="EP26" s="57"/>
+      <c r="EQ26" s="58"/>
+      <c r="ER26" s="109"/>
+      <c r="ES26" s="110"/>
+      <c r="ET26" s="110"/>
+      <c r="EU26" s="110"/>
+      <c r="EV26" s="110"/>
+      <c r="EW26" s="110"/>
+      <c r="EX26" s="110"/>
+      <c r="EY26" s="111"/>
       <c r="EZ26" s="13"/>
       <c r="FA26" s="14"/>
       <c r="FB26" s="14"/>
@@ -7639,9 +7929,9 @@
       <c r="GJ26" s="14"/>
       <c r="GK26" s="14"/>
       <c r="GL26" s="14"/>
-      <c r="GM26" s="93"/>
-      <c r="GN26" s="102"/>
-      <c r="GO26" s="96"/>
+      <c r="GM26" s="44"/>
+      <c r="GN26" s="52"/>
+      <c r="GO26" s="47"/>
       <c r="GP26" s="14"/>
       <c r="GQ26" s="14"/>
       <c r="GR26" s="14"/>
@@ -7649,11 +7939,13 @@
       <c r="GT26" s="14"/>
       <c r="GU26" s="14"/>
       <c r="GV26" s="14"/>
-      <c r="GW26" s="88"/>
+      <c r="GW26" s="129"/>
     </row>
     <row r="27" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A27" s="53"/>
-      <c r="B27" s="49"/>
+      <c r="A27" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="67"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
@@ -7679,14 +7971,14 @@
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
       <c r="AA27" s="15"/>
-      <c r="AB27" s="68"/>
-      <c r="AC27" s="69"/>
-      <c r="AD27" s="69"/>
-      <c r="AE27" s="69"/>
-      <c r="AF27" s="69"/>
-      <c r="AG27" s="69"/>
-      <c r="AH27" s="69"/>
-      <c r="AI27" s="70"/>
+      <c r="AB27" s="109"/>
+      <c r="AC27" s="110"/>
+      <c r="AD27" s="110"/>
+      <c r="AE27" s="110"/>
+      <c r="AF27" s="110"/>
+      <c r="AG27" s="110"/>
+      <c r="AH27" s="110"/>
+      <c r="AI27" s="111"/>
       <c r="AJ27" s="13"/>
       <c r="AK27" s="14"/>
       <c r="AL27" s="14"/>
@@ -7735,14 +8027,14 @@
       <c r="CC27" s="14"/>
       <c r="CD27" s="14"/>
       <c r="CE27" s="15"/>
-      <c r="CF27" s="68"/>
-      <c r="CG27" s="69"/>
-      <c r="CH27" s="69"/>
-      <c r="CI27" s="69"/>
-      <c r="CJ27" s="69"/>
-      <c r="CK27" s="69"/>
-      <c r="CL27" s="69"/>
-      <c r="CM27" s="70"/>
+      <c r="CF27" s="109"/>
+      <c r="CG27" s="110"/>
+      <c r="CH27" s="110"/>
+      <c r="CI27" s="110"/>
+      <c r="CJ27" s="110"/>
+      <c r="CK27" s="110"/>
+      <c r="CL27" s="110"/>
+      <c r="CM27" s="111"/>
       <c r="CN27" s="13"/>
       <c r="CO27" s="14"/>
       <c r="CP27" s="14"/>
@@ -7775,14 +8067,14 @@
       <c r="DQ27" s="14"/>
       <c r="DR27" s="14"/>
       <c r="DS27" s="15"/>
-      <c r="DT27" s="59"/>
-      <c r="DU27" s="60"/>
-      <c r="DV27" s="60"/>
-      <c r="DW27" s="60"/>
-      <c r="DX27" s="60"/>
-      <c r="DY27" s="60"/>
-      <c r="DZ27" s="60"/>
-      <c r="EA27" s="61"/>
+      <c r="DT27" s="13"/>
+      <c r="DU27" s="14"/>
+      <c r="DV27" s="14"/>
+      <c r="DW27" s="14"/>
+      <c r="DX27" s="14"/>
+      <c r="DY27" s="14"/>
+      <c r="DZ27" s="14"/>
+      <c r="EA27" s="15"/>
       <c r="EB27" s="13"/>
       <c r="EC27" s="14"/>
       <c r="ED27" s="14"/>
@@ -7795,18 +8087,18 @@
       <c r="EK27" s="14"/>
       <c r="EL27" s="14"/>
       <c r="EM27" s="14"/>
-      <c r="EN27" s="14"/>
-      <c r="EO27" s="14"/>
-      <c r="EP27" s="14"/>
-      <c r="EQ27" s="15"/>
-      <c r="ER27" s="68"/>
-      <c r="ES27" s="69"/>
-      <c r="ET27" s="69"/>
-      <c r="EU27" s="69"/>
-      <c r="EV27" s="69"/>
-      <c r="EW27" s="69"/>
-      <c r="EX27" s="69"/>
-      <c r="EY27" s="70"/>
+      <c r="EN27" s="39"/>
+      <c r="EO27" s="39"/>
+      <c r="EP27" s="39"/>
+      <c r="EQ27" s="40"/>
+      <c r="ER27" s="109"/>
+      <c r="ES27" s="110"/>
+      <c r="ET27" s="110"/>
+      <c r="EU27" s="110"/>
+      <c r="EV27" s="110"/>
+      <c r="EW27" s="110"/>
+      <c r="EX27" s="110"/>
+      <c r="EY27" s="111"/>
       <c r="EZ27" s="13"/>
       <c r="FA27" s="14"/>
       <c r="FB27" s="14"/>
@@ -7846,9 +8138,9 @@
       <c r="GJ27" s="14"/>
       <c r="GK27" s="14"/>
       <c r="GL27" s="14"/>
-      <c r="GM27" s="93"/>
-      <c r="GN27" s="102"/>
-      <c r="GO27" s="96"/>
+      <c r="GM27" s="44"/>
+      <c r="GN27" s="52"/>
+      <c r="GO27" s="47"/>
       <c r="GP27" s="14"/>
       <c r="GQ27" s="14"/>
       <c r="GR27" s="14"/>
@@ -7856,11 +8148,13 @@
       <c r="GT27" s="14"/>
       <c r="GU27" s="14"/>
       <c r="GV27" s="14"/>
-      <c r="GW27" s="88"/>
+      <c r="GW27" s="129"/>
     </row>
     <row r="28" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A28" s="53"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="67"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
@@ -7886,14 +8180,14 @@
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
       <c r="AA28" s="15"/>
-      <c r="AB28" s="68"/>
-      <c r="AC28" s="69"/>
-      <c r="AD28" s="69"/>
-      <c r="AE28" s="69"/>
-      <c r="AF28" s="69"/>
-      <c r="AG28" s="69"/>
-      <c r="AH28" s="69"/>
-      <c r="AI28" s="70"/>
+      <c r="AB28" s="109"/>
+      <c r="AC28" s="110"/>
+      <c r="AD28" s="110"/>
+      <c r="AE28" s="110"/>
+      <c r="AF28" s="110"/>
+      <c r="AG28" s="110"/>
+      <c r="AH28" s="110"/>
+      <c r="AI28" s="111"/>
       <c r="AJ28" s="13"/>
       <c r="AK28" s="14"/>
       <c r="AL28" s="14"/>
@@ -7942,14 +8236,14 @@
       <c r="CC28" s="14"/>
       <c r="CD28" s="14"/>
       <c r="CE28" s="15"/>
-      <c r="CF28" s="68"/>
-      <c r="CG28" s="69"/>
-      <c r="CH28" s="69"/>
-      <c r="CI28" s="69"/>
-      <c r="CJ28" s="69"/>
-      <c r="CK28" s="69"/>
-      <c r="CL28" s="69"/>
-      <c r="CM28" s="70"/>
+      <c r="CF28" s="109"/>
+      <c r="CG28" s="110"/>
+      <c r="CH28" s="110"/>
+      <c r="CI28" s="110"/>
+      <c r="CJ28" s="110"/>
+      <c r="CK28" s="110"/>
+      <c r="CL28" s="110"/>
+      <c r="CM28" s="111"/>
       <c r="CN28" s="13"/>
       <c r="CO28" s="14"/>
       <c r="CP28" s="14"/>
@@ -7982,14 +8276,14 @@
       <c r="DQ28" s="14"/>
       <c r="DR28" s="14"/>
       <c r="DS28" s="15"/>
-      <c r="DT28" s="59"/>
-      <c r="DU28" s="60"/>
-      <c r="DV28" s="60"/>
-      <c r="DW28" s="60"/>
-      <c r="DX28" s="60"/>
-      <c r="DY28" s="60"/>
-      <c r="DZ28" s="60"/>
-      <c r="EA28" s="61"/>
+      <c r="DT28" s="13"/>
+      <c r="DU28" s="14"/>
+      <c r="DV28" s="14"/>
+      <c r="DW28" s="14"/>
+      <c r="DX28" s="14"/>
+      <c r="DY28" s="14"/>
+      <c r="DZ28" s="14"/>
+      <c r="EA28" s="15"/>
       <c r="EB28" s="13"/>
       <c r="EC28" s="14"/>
       <c r="ED28" s="14"/>
@@ -8006,18 +8300,18 @@
       <c r="EO28" s="14"/>
       <c r="EP28" s="14"/>
       <c r="EQ28" s="15"/>
-      <c r="ER28" s="68"/>
-      <c r="ES28" s="69"/>
-      <c r="ET28" s="69"/>
-      <c r="EU28" s="69"/>
-      <c r="EV28" s="69"/>
-      <c r="EW28" s="69"/>
-      <c r="EX28" s="69"/>
-      <c r="EY28" s="70"/>
-      <c r="EZ28" s="13"/>
-      <c r="FA28" s="14"/>
-      <c r="FB28" s="14"/>
-      <c r="FC28" s="14"/>
+      <c r="ER28" s="109"/>
+      <c r="ES28" s="110"/>
+      <c r="ET28" s="110"/>
+      <c r="EU28" s="110"/>
+      <c r="EV28" s="110"/>
+      <c r="EW28" s="110"/>
+      <c r="EX28" s="110"/>
+      <c r="EY28" s="111"/>
+      <c r="EZ28" s="41"/>
+      <c r="FA28" s="39"/>
+      <c r="FB28" s="39"/>
+      <c r="FC28" s="39"/>
       <c r="FD28" s="14"/>
       <c r="FE28" s="14"/>
       <c r="FF28" s="14"/>
@@ -8053,9 +8347,9 @@
       <c r="GJ28" s="14"/>
       <c r="GK28" s="14"/>
       <c r="GL28" s="14"/>
-      <c r="GM28" s="93"/>
-      <c r="GN28" s="102"/>
-      <c r="GO28" s="96"/>
+      <c r="GM28" s="44"/>
+      <c r="GN28" s="52"/>
+      <c r="GO28" s="47"/>
       <c r="GP28" s="14"/>
       <c r="GQ28" s="14"/>
       <c r="GR28" s="14"/>
@@ -8063,11 +8357,13 @@
       <c r="GT28" s="14"/>
       <c r="GU28" s="14"/>
       <c r="GV28" s="14"/>
-      <c r="GW28" s="88"/>
+      <c r="GW28" s="129"/>
     </row>
     <row r="29" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A29" s="53"/>
-      <c r="B29" s="49"/>
+      <c r="A29" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="67"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="14"/>
@@ -8093,14 +8389,14 @@
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
       <c r="AA29" s="15"/>
-      <c r="AB29" s="68"/>
-      <c r="AC29" s="69"/>
-      <c r="AD29" s="69"/>
-      <c r="AE29" s="69"/>
-      <c r="AF29" s="69"/>
-      <c r="AG29" s="69"/>
-      <c r="AH29" s="69"/>
-      <c r="AI29" s="70"/>
+      <c r="AB29" s="109"/>
+      <c r="AC29" s="110"/>
+      <c r="AD29" s="110"/>
+      <c r="AE29" s="110"/>
+      <c r="AF29" s="110"/>
+      <c r="AG29" s="110"/>
+      <c r="AH29" s="110"/>
+      <c r="AI29" s="111"/>
       <c r="AJ29" s="13"/>
       <c r="AK29" s="14"/>
       <c r="AL29" s="14"/>
@@ -8149,14 +8445,14 @@
       <c r="CC29" s="14"/>
       <c r="CD29" s="14"/>
       <c r="CE29" s="15"/>
-      <c r="CF29" s="68"/>
-      <c r="CG29" s="69"/>
-      <c r="CH29" s="69"/>
-      <c r="CI29" s="69"/>
-      <c r="CJ29" s="69"/>
-      <c r="CK29" s="69"/>
-      <c r="CL29" s="69"/>
-      <c r="CM29" s="70"/>
+      <c r="CF29" s="109"/>
+      <c r="CG29" s="110"/>
+      <c r="CH29" s="110"/>
+      <c r="CI29" s="110"/>
+      <c r="CJ29" s="110"/>
+      <c r="CK29" s="110"/>
+      <c r="CL29" s="110"/>
+      <c r="CM29" s="111"/>
       <c r="CN29" s="13"/>
       <c r="CO29" s="14"/>
       <c r="CP29" s="14"/>
@@ -8189,14 +8485,14 @@
       <c r="DQ29" s="14"/>
       <c r="DR29" s="14"/>
       <c r="DS29" s="15"/>
-      <c r="DT29" s="59"/>
-      <c r="DU29" s="60"/>
-      <c r="DV29" s="60"/>
-      <c r="DW29" s="60"/>
-      <c r="DX29" s="60"/>
-      <c r="DY29" s="60"/>
-      <c r="DZ29" s="60"/>
-      <c r="EA29" s="61"/>
+      <c r="DT29" s="13"/>
+      <c r="DU29" s="14"/>
+      <c r="DV29" s="14"/>
+      <c r="DW29" s="14"/>
+      <c r="DX29" s="14"/>
+      <c r="DY29" s="14"/>
+      <c r="DZ29" s="14"/>
+      <c r="EA29" s="15"/>
       <c r="EB29" s="13"/>
       <c r="EC29" s="14"/>
       <c r="ED29" s="14"/>
@@ -8213,22 +8509,22 @@
       <c r="EO29" s="14"/>
       <c r="EP29" s="14"/>
       <c r="EQ29" s="15"/>
-      <c r="ER29" s="68"/>
-      <c r="ES29" s="69"/>
-      <c r="ET29" s="69"/>
-      <c r="EU29" s="69"/>
-      <c r="EV29" s="69"/>
-      <c r="EW29" s="69"/>
-      <c r="EX29" s="69"/>
-      <c r="EY29" s="70"/>
+      <c r="ER29" s="109"/>
+      <c r="ES29" s="110"/>
+      <c r="ET29" s="110"/>
+      <c r="EU29" s="110"/>
+      <c r="EV29" s="110"/>
+      <c r="EW29" s="110"/>
+      <c r="EX29" s="110"/>
+      <c r="EY29" s="111"/>
       <c r="EZ29" s="13"/>
       <c r="FA29" s="14"/>
       <c r="FB29" s="14"/>
       <c r="FC29" s="14"/>
-      <c r="FD29" s="14"/>
-      <c r="FE29" s="14"/>
-      <c r="FF29" s="14"/>
-      <c r="FG29" s="15"/>
+      <c r="FD29" s="39"/>
+      <c r="FE29" s="39"/>
+      <c r="FF29" s="39"/>
+      <c r="FG29" s="40"/>
       <c r="FH29" s="13"/>
       <c r="FI29" s="14"/>
       <c r="FJ29" s="14"/>
@@ -8260,9 +8556,9 @@
       <c r="GJ29" s="14"/>
       <c r="GK29" s="14"/>
       <c r="GL29" s="14"/>
-      <c r="GM29" s="93"/>
-      <c r="GN29" s="102"/>
-      <c r="GO29" s="96"/>
+      <c r="GM29" s="44"/>
+      <c r="GN29" s="52"/>
+      <c r="GO29" s="47"/>
       <c r="GP29" s="14"/>
       <c r="GQ29" s="14"/>
       <c r="GR29" s="14"/>
@@ -8270,11 +8566,13 @@
       <c r="GT29" s="14"/>
       <c r="GU29" s="14"/>
       <c r="GV29" s="14"/>
-      <c r="GW29" s="88"/>
+      <c r="GW29" s="129"/>
     </row>
     <row r="30" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A30" s="53"/>
-      <c r="B30" s="49"/>
+      <c r="A30" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="67"/>
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="14"/>
@@ -8300,14 +8598,14 @@
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
       <c r="AA30" s="15"/>
-      <c r="AB30" s="68"/>
-      <c r="AC30" s="69"/>
-      <c r="AD30" s="69"/>
-      <c r="AE30" s="69"/>
-      <c r="AF30" s="69"/>
-      <c r="AG30" s="69"/>
-      <c r="AH30" s="69"/>
-      <c r="AI30" s="70"/>
+      <c r="AB30" s="109"/>
+      <c r="AC30" s="110"/>
+      <c r="AD30" s="110"/>
+      <c r="AE30" s="110"/>
+      <c r="AF30" s="110"/>
+      <c r="AG30" s="110"/>
+      <c r="AH30" s="110"/>
+      <c r="AI30" s="111"/>
       <c r="AJ30" s="13"/>
       <c r="AK30" s="14"/>
       <c r="AL30" s="14"/>
@@ -8356,14 +8654,14 @@
       <c r="CC30" s="14"/>
       <c r="CD30" s="14"/>
       <c r="CE30" s="15"/>
-      <c r="CF30" s="68"/>
-      <c r="CG30" s="69"/>
-      <c r="CH30" s="69"/>
-      <c r="CI30" s="69"/>
-      <c r="CJ30" s="69"/>
-      <c r="CK30" s="69"/>
-      <c r="CL30" s="69"/>
-      <c r="CM30" s="70"/>
+      <c r="CF30" s="109"/>
+      <c r="CG30" s="110"/>
+      <c r="CH30" s="110"/>
+      <c r="CI30" s="110"/>
+      <c r="CJ30" s="110"/>
+      <c r="CK30" s="110"/>
+      <c r="CL30" s="110"/>
+      <c r="CM30" s="111"/>
       <c r="CN30" s="13"/>
       <c r="CO30" s="14"/>
       <c r="CP30" s="14"/>
@@ -8396,14 +8694,14 @@
       <c r="DQ30" s="14"/>
       <c r="DR30" s="14"/>
       <c r="DS30" s="15"/>
-      <c r="DT30" s="59"/>
-      <c r="DU30" s="60"/>
-      <c r="DV30" s="60"/>
-      <c r="DW30" s="60"/>
-      <c r="DX30" s="60"/>
-      <c r="DY30" s="60"/>
-      <c r="DZ30" s="60"/>
-      <c r="EA30" s="61"/>
+      <c r="DT30" s="13"/>
+      <c r="DU30" s="14"/>
+      <c r="DV30" s="14"/>
+      <c r="DW30" s="14"/>
+      <c r="DX30" s="14"/>
+      <c r="DY30" s="14"/>
+      <c r="DZ30" s="14"/>
+      <c r="EA30" s="15"/>
       <c r="EB30" s="13"/>
       <c r="EC30" s="14"/>
       <c r="ED30" s="14"/>
@@ -8420,14 +8718,14 @@
       <c r="EO30" s="14"/>
       <c r="EP30" s="14"/>
       <c r="EQ30" s="15"/>
-      <c r="ER30" s="68"/>
-      <c r="ES30" s="69"/>
-      <c r="ET30" s="69"/>
-      <c r="EU30" s="69"/>
-      <c r="EV30" s="69"/>
-      <c r="EW30" s="69"/>
-      <c r="EX30" s="69"/>
-      <c r="EY30" s="70"/>
+      <c r="ER30" s="109"/>
+      <c r="ES30" s="110"/>
+      <c r="ET30" s="110"/>
+      <c r="EU30" s="110"/>
+      <c r="EV30" s="110"/>
+      <c r="EW30" s="110"/>
+      <c r="EX30" s="110"/>
+      <c r="EY30" s="111"/>
       <c r="EZ30" s="13"/>
       <c r="FA30" s="14"/>
       <c r="FB30" s="14"/>
@@ -8436,10 +8734,10 @@
       <c r="FE30" s="14"/>
       <c r="FF30" s="14"/>
       <c r="FG30" s="15"/>
-      <c r="FH30" s="13"/>
-      <c r="FI30" s="14"/>
-      <c r="FJ30" s="14"/>
-      <c r="FK30" s="14"/>
+      <c r="FH30" s="41"/>
+      <c r="FI30" s="39"/>
+      <c r="FJ30" s="39"/>
+      <c r="FK30" s="39"/>
       <c r="FL30" s="14"/>
       <c r="FM30" s="14"/>
       <c r="FN30" s="14"/>
@@ -8467,9 +8765,9 @@
       <c r="GJ30" s="14"/>
       <c r="GK30" s="14"/>
       <c r="GL30" s="14"/>
-      <c r="GM30" s="93"/>
-      <c r="GN30" s="102"/>
-      <c r="GO30" s="96"/>
+      <c r="GM30" s="44"/>
+      <c r="GN30" s="52"/>
+      <c r="GO30" s="47"/>
       <c r="GP30" s="14"/>
       <c r="GQ30" s="14"/>
       <c r="GR30" s="14"/>
@@ -8477,11 +8775,13 @@
       <c r="GT30" s="14"/>
       <c r="GU30" s="14"/>
       <c r="GV30" s="14"/>
-      <c r="GW30" s="88"/>
+      <c r="GW30" s="129"/>
     </row>
     <row r="31" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
-      <c r="B31" s="49"/>
+      <c r="A31" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="67"/>
       <c r="C31" s="12"/>
       <c r="D31" s="13"/>
       <c r="E31" s="14"/>
@@ -8507,14 +8807,14 @@
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="15"/>
-      <c r="AB31" s="68"/>
-      <c r="AC31" s="69"/>
-      <c r="AD31" s="69"/>
-      <c r="AE31" s="69"/>
-      <c r="AF31" s="69"/>
-      <c r="AG31" s="69"/>
-      <c r="AH31" s="69"/>
-      <c r="AI31" s="70"/>
+      <c r="AB31" s="109"/>
+      <c r="AC31" s="110"/>
+      <c r="AD31" s="110"/>
+      <c r="AE31" s="110"/>
+      <c r="AF31" s="110"/>
+      <c r="AG31" s="110"/>
+      <c r="AH31" s="110"/>
+      <c r="AI31" s="111"/>
       <c r="AJ31" s="13"/>
       <c r="AK31" s="14"/>
       <c r="AL31" s="14"/>
@@ -8563,14 +8863,14 @@
       <c r="CC31" s="14"/>
       <c r="CD31" s="14"/>
       <c r="CE31" s="15"/>
-      <c r="CF31" s="68"/>
-      <c r="CG31" s="69"/>
-      <c r="CH31" s="69"/>
-      <c r="CI31" s="69"/>
-      <c r="CJ31" s="69"/>
-      <c r="CK31" s="69"/>
-      <c r="CL31" s="69"/>
-      <c r="CM31" s="70"/>
+      <c r="CF31" s="109"/>
+      <c r="CG31" s="110"/>
+      <c r="CH31" s="110"/>
+      <c r="CI31" s="110"/>
+      <c r="CJ31" s="110"/>
+      <c r="CK31" s="110"/>
+      <c r="CL31" s="110"/>
+      <c r="CM31" s="111"/>
       <c r="CN31" s="13"/>
       <c r="CO31" s="14"/>
       <c r="CP31" s="14"/>
@@ -8603,14 +8903,14 @@
       <c r="DQ31" s="14"/>
       <c r="DR31" s="14"/>
       <c r="DS31" s="15"/>
-      <c r="DT31" s="59"/>
-      <c r="DU31" s="60"/>
-      <c r="DV31" s="60"/>
-      <c r="DW31" s="60"/>
-      <c r="DX31" s="60"/>
-      <c r="DY31" s="60"/>
-      <c r="DZ31" s="60"/>
-      <c r="EA31" s="61"/>
+      <c r="DT31" s="13"/>
+      <c r="DU31" s="14"/>
+      <c r="DV31" s="14"/>
+      <c r="DW31" s="14"/>
+      <c r="DX31" s="14"/>
+      <c r="DY31" s="14"/>
+      <c r="DZ31" s="14"/>
+      <c r="EA31" s="15"/>
       <c r="EB31" s="13"/>
       <c r="EC31" s="14"/>
       <c r="ED31" s="14"/>
@@ -8627,14 +8927,14 @@
       <c r="EO31" s="14"/>
       <c r="EP31" s="14"/>
       <c r="EQ31" s="15"/>
-      <c r="ER31" s="68"/>
-      <c r="ES31" s="69"/>
-      <c r="ET31" s="69"/>
-      <c r="EU31" s="69"/>
-      <c r="EV31" s="69"/>
-      <c r="EW31" s="69"/>
-      <c r="EX31" s="69"/>
-      <c r="EY31" s="70"/>
+      <c r="ER31" s="109"/>
+      <c r="ES31" s="110"/>
+      <c r="ET31" s="110"/>
+      <c r="EU31" s="110"/>
+      <c r="EV31" s="110"/>
+      <c r="EW31" s="110"/>
+      <c r="EX31" s="110"/>
+      <c r="EY31" s="111"/>
       <c r="EZ31" s="13"/>
       <c r="FA31" s="14"/>
       <c r="FB31" s="14"/>
@@ -8647,10 +8947,10 @@
       <c r="FI31" s="14"/>
       <c r="FJ31" s="14"/>
       <c r="FK31" s="14"/>
-      <c r="FL31" s="14"/>
-      <c r="FM31" s="14"/>
-      <c r="FN31" s="14"/>
-      <c r="FO31" s="15"/>
+      <c r="FL31" s="39"/>
+      <c r="FM31" s="39"/>
+      <c r="FN31" s="39"/>
+      <c r="FO31" s="40"/>
       <c r="FP31" s="13"/>
       <c r="FQ31" s="14"/>
       <c r="FR31" s="14"/>
@@ -8674,9 +8974,9 @@
       <c r="GJ31" s="14"/>
       <c r="GK31" s="14"/>
       <c r="GL31" s="14"/>
-      <c r="GM31" s="93"/>
-      <c r="GN31" s="102"/>
-      <c r="GO31" s="96"/>
+      <c r="GM31" s="44"/>
+      <c r="GN31" s="52"/>
+      <c r="GO31" s="47"/>
       <c r="GP31" s="14"/>
       <c r="GQ31" s="14"/>
       <c r="GR31" s="14"/>
@@ -8684,11 +8984,13 @@
       <c r="GT31" s="14"/>
       <c r="GU31" s="14"/>
       <c r="GV31" s="14"/>
-      <c r="GW31" s="88"/>
+      <c r="GW31" s="129"/>
     </row>
     <row r="32" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
-      <c r="B32" s="49"/>
+      <c r="A32" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="67"/>
       <c r="C32" s="12"/>
       <c r="D32" s="13"/>
       <c r="E32" s="14"/>
@@ -8714,14 +9016,14 @@
       <c r="Y32" s="14"/>
       <c r="Z32" s="14"/>
       <c r="AA32" s="15"/>
-      <c r="AB32" s="68"/>
-      <c r="AC32" s="69"/>
-      <c r="AD32" s="69"/>
-      <c r="AE32" s="69"/>
-      <c r="AF32" s="69"/>
-      <c r="AG32" s="69"/>
-      <c r="AH32" s="69"/>
-      <c r="AI32" s="70"/>
+      <c r="AB32" s="109"/>
+      <c r="AC32" s="110"/>
+      <c r="AD32" s="110"/>
+      <c r="AE32" s="110"/>
+      <c r="AF32" s="110"/>
+      <c r="AG32" s="110"/>
+      <c r="AH32" s="110"/>
+      <c r="AI32" s="111"/>
       <c r="AJ32" s="13"/>
       <c r="AK32" s="14"/>
       <c r="AL32" s="14"/>
@@ -8770,14 +9072,14 @@
       <c r="CC32" s="14"/>
       <c r="CD32" s="14"/>
       <c r="CE32" s="15"/>
-      <c r="CF32" s="68"/>
-      <c r="CG32" s="69"/>
-      <c r="CH32" s="69"/>
-      <c r="CI32" s="69"/>
-      <c r="CJ32" s="69"/>
-      <c r="CK32" s="69"/>
-      <c r="CL32" s="69"/>
-      <c r="CM32" s="70"/>
+      <c r="CF32" s="109"/>
+      <c r="CG32" s="110"/>
+      <c r="CH32" s="110"/>
+      <c r="CI32" s="110"/>
+      <c r="CJ32" s="110"/>
+      <c r="CK32" s="110"/>
+      <c r="CL32" s="110"/>
+      <c r="CM32" s="111"/>
       <c r="CN32" s="13"/>
       <c r="CO32" s="14"/>
       <c r="CP32" s="14"/>
@@ -8810,14 +9112,14 @@
       <c r="DQ32" s="14"/>
       <c r="DR32" s="14"/>
       <c r="DS32" s="15"/>
-      <c r="DT32" s="59"/>
-      <c r="DU32" s="60"/>
-      <c r="DV32" s="60"/>
-      <c r="DW32" s="60"/>
-      <c r="DX32" s="60"/>
-      <c r="DY32" s="60"/>
-      <c r="DZ32" s="60"/>
-      <c r="EA32" s="61"/>
+      <c r="DT32" s="13"/>
+      <c r="DU32" s="14"/>
+      <c r="DV32" s="14"/>
+      <c r="DW32" s="14"/>
+      <c r="DX32" s="14"/>
+      <c r="DY32" s="14"/>
+      <c r="DZ32" s="14"/>
+      <c r="EA32" s="15"/>
       <c r="EB32" s="13"/>
       <c r="EC32" s="14"/>
       <c r="ED32" s="14"/>
@@ -8834,14 +9136,14 @@
       <c r="EO32" s="14"/>
       <c r="EP32" s="14"/>
       <c r="EQ32" s="15"/>
-      <c r="ER32" s="68"/>
-      <c r="ES32" s="69"/>
-      <c r="ET32" s="69"/>
-      <c r="EU32" s="69"/>
-      <c r="EV32" s="69"/>
-      <c r="EW32" s="69"/>
-      <c r="EX32" s="69"/>
-      <c r="EY32" s="70"/>
+      <c r="ER32" s="109"/>
+      <c r="ES32" s="110"/>
+      <c r="ET32" s="110"/>
+      <c r="EU32" s="110"/>
+      <c r="EV32" s="110"/>
+      <c r="EW32" s="110"/>
+      <c r="EX32" s="110"/>
+      <c r="EY32" s="111"/>
       <c r="EZ32" s="13"/>
       <c r="FA32" s="14"/>
       <c r="FB32" s="14"/>
@@ -8858,10 +9160,10 @@
       <c r="FM32" s="14"/>
       <c r="FN32" s="14"/>
       <c r="FO32" s="15"/>
-      <c r="FP32" s="13"/>
-      <c r="FQ32" s="14"/>
-      <c r="FR32" s="14"/>
-      <c r="FS32" s="14"/>
+      <c r="FP32" s="41"/>
+      <c r="FQ32" s="39"/>
+      <c r="FR32" s="39"/>
+      <c r="FS32" s="39"/>
       <c r="FT32" s="14"/>
       <c r="FU32" s="14"/>
       <c r="FV32" s="14"/>
@@ -8881,9 +9183,9 @@
       <c r="GJ32" s="14"/>
       <c r="GK32" s="14"/>
       <c r="GL32" s="14"/>
-      <c r="GM32" s="93"/>
-      <c r="GN32" s="102"/>
-      <c r="GO32" s="96"/>
+      <c r="GM32" s="44"/>
+      <c r="GN32" s="52"/>
+      <c r="GO32" s="47"/>
       <c r="GP32" s="14"/>
       <c r="GQ32" s="14"/>
       <c r="GR32" s="14"/>
@@ -8891,11 +9193,13 @@
       <c r="GT32" s="14"/>
       <c r="GU32" s="14"/>
       <c r="GV32" s="14"/>
-      <c r="GW32" s="88"/>
+      <c r="GW32" s="129"/>
     </row>
     <row r="33" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A33" s="53"/>
-      <c r="B33" s="49"/>
+      <c r="A33" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="67"/>
       <c r="C33" s="12"/>
       <c r="D33" s="13"/>
       <c r="E33" s="14"/>
@@ -8921,14 +9225,14 @@
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
       <c r="AA33" s="15"/>
-      <c r="AB33" s="68"/>
-      <c r="AC33" s="69"/>
-      <c r="AD33" s="69"/>
-      <c r="AE33" s="69"/>
-      <c r="AF33" s="69"/>
-      <c r="AG33" s="69"/>
-      <c r="AH33" s="69"/>
-      <c r="AI33" s="70"/>
+      <c r="AB33" s="109"/>
+      <c r="AC33" s="110"/>
+      <c r="AD33" s="110"/>
+      <c r="AE33" s="110"/>
+      <c r="AF33" s="110"/>
+      <c r="AG33" s="110"/>
+      <c r="AH33" s="110"/>
+      <c r="AI33" s="111"/>
       <c r="AJ33" s="13"/>
       <c r="AK33" s="14"/>
       <c r="AL33" s="14"/>
@@ -8977,14 +9281,14 @@
       <c r="CC33" s="14"/>
       <c r="CD33" s="14"/>
       <c r="CE33" s="15"/>
-      <c r="CF33" s="68"/>
-      <c r="CG33" s="69"/>
-      <c r="CH33" s="69"/>
-      <c r="CI33" s="69"/>
-      <c r="CJ33" s="69"/>
-      <c r="CK33" s="69"/>
-      <c r="CL33" s="69"/>
-      <c r="CM33" s="70"/>
+      <c r="CF33" s="109"/>
+      <c r="CG33" s="110"/>
+      <c r="CH33" s="110"/>
+      <c r="CI33" s="110"/>
+      <c r="CJ33" s="110"/>
+      <c r="CK33" s="110"/>
+      <c r="CL33" s="110"/>
+      <c r="CM33" s="111"/>
       <c r="CN33" s="13"/>
       <c r="CO33" s="14"/>
       <c r="CP33" s="14"/>
@@ -9017,14 +9321,14 @@
       <c r="DQ33" s="14"/>
       <c r="DR33" s="14"/>
       <c r="DS33" s="15"/>
-      <c r="DT33" s="59"/>
-      <c r="DU33" s="60"/>
-      <c r="DV33" s="60"/>
-      <c r="DW33" s="60"/>
-      <c r="DX33" s="60"/>
-      <c r="DY33" s="60"/>
-      <c r="DZ33" s="60"/>
-      <c r="EA33" s="61"/>
+      <c r="DT33" s="13"/>
+      <c r="DU33" s="14"/>
+      <c r="DV33" s="14"/>
+      <c r="DW33" s="14"/>
+      <c r="DX33" s="14"/>
+      <c r="DY33" s="14"/>
+      <c r="DZ33" s="14"/>
+      <c r="EA33" s="15"/>
       <c r="EB33" s="13"/>
       <c r="EC33" s="14"/>
       <c r="ED33" s="14"/>
@@ -9041,14 +9345,14 @@
       <c r="EO33" s="14"/>
       <c r="EP33" s="14"/>
       <c r="EQ33" s="15"/>
-      <c r="ER33" s="68"/>
-      <c r="ES33" s="69"/>
-      <c r="ET33" s="69"/>
-      <c r="EU33" s="69"/>
-      <c r="EV33" s="69"/>
-      <c r="EW33" s="69"/>
-      <c r="EX33" s="69"/>
-      <c r="EY33" s="70"/>
+      <c r="ER33" s="109"/>
+      <c r="ES33" s="110"/>
+      <c r="ET33" s="110"/>
+      <c r="EU33" s="110"/>
+      <c r="EV33" s="110"/>
+      <c r="EW33" s="110"/>
+      <c r="EX33" s="110"/>
+      <c r="EY33" s="111"/>
       <c r="EZ33" s="13"/>
       <c r="FA33" s="14"/>
       <c r="FB33" s="14"/>
@@ -9069,10 +9373,10 @@
       <c r="FQ33" s="14"/>
       <c r="FR33" s="14"/>
       <c r="FS33" s="14"/>
-      <c r="FT33" s="14"/>
-      <c r="FU33" s="14"/>
-      <c r="FV33" s="14"/>
-      <c r="FW33" s="15"/>
+      <c r="FT33" s="39"/>
+      <c r="FU33" s="39"/>
+      <c r="FV33" s="39"/>
+      <c r="FW33" s="40"/>
       <c r="FX33" s="13"/>
       <c r="FY33" s="14"/>
       <c r="FZ33" s="14"/>
@@ -9088,9 +9392,9 @@
       <c r="GJ33" s="14"/>
       <c r="GK33" s="14"/>
       <c r="GL33" s="14"/>
-      <c r="GM33" s="93"/>
-      <c r="GN33" s="102"/>
-      <c r="GO33" s="96"/>
+      <c r="GM33" s="44"/>
+      <c r="GN33" s="52"/>
+      <c r="GO33" s="47"/>
       <c r="GP33" s="14"/>
       <c r="GQ33" s="14"/>
       <c r="GR33" s="14"/>
@@ -9098,11 +9402,13 @@
       <c r="GT33" s="14"/>
       <c r="GU33" s="14"/>
       <c r="GV33" s="14"/>
-      <c r="GW33" s="88"/>
+      <c r="GW33" s="129"/>
     </row>
     <row r="34" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
-      <c r="B34" s="49"/>
+      <c r="A34" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="67"/>
       <c r="C34" s="12"/>
       <c r="D34" s="13"/>
       <c r="E34" s="14"/>
@@ -9128,14 +9434,14 @@
       <c r="Y34" s="14"/>
       <c r="Z34" s="14"/>
       <c r="AA34" s="15"/>
-      <c r="AB34" s="68"/>
-      <c r="AC34" s="69"/>
-      <c r="AD34" s="69"/>
-      <c r="AE34" s="69"/>
-      <c r="AF34" s="69"/>
-      <c r="AG34" s="69"/>
-      <c r="AH34" s="69"/>
-      <c r="AI34" s="70"/>
+      <c r="AB34" s="109"/>
+      <c r="AC34" s="110"/>
+      <c r="AD34" s="110"/>
+      <c r="AE34" s="110"/>
+      <c r="AF34" s="110"/>
+      <c r="AG34" s="110"/>
+      <c r="AH34" s="110"/>
+      <c r="AI34" s="111"/>
       <c r="AJ34" s="13"/>
       <c r="AK34" s="14"/>
       <c r="AL34" s="14"/>
@@ -9184,14 +9490,14 @@
       <c r="CC34" s="14"/>
       <c r="CD34" s="14"/>
       <c r="CE34" s="15"/>
-      <c r="CF34" s="68"/>
-      <c r="CG34" s="69"/>
-      <c r="CH34" s="69"/>
-      <c r="CI34" s="69"/>
-      <c r="CJ34" s="69"/>
-      <c r="CK34" s="69"/>
-      <c r="CL34" s="69"/>
-      <c r="CM34" s="70"/>
+      <c r="CF34" s="109"/>
+      <c r="CG34" s="110"/>
+      <c r="CH34" s="110"/>
+      <c r="CI34" s="110"/>
+      <c r="CJ34" s="110"/>
+      <c r="CK34" s="110"/>
+      <c r="CL34" s="110"/>
+      <c r="CM34" s="111"/>
       <c r="CN34" s="13"/>
       <c r="CO34" s="14"/>
       <c r="CP34" s="14"/>
@@ -9224,14 +9530,14 @@
       <c r="DQ34" s="14"/>
       <c r="DR34" s="14"/>
       <c r="DS34" s="15"/>
-      <c r="DT34" s="59"/>
-      <c r="DU34" s="60"/>
-      <c r="DV34" s="60"/>
-      <c r="DW34" s="60"/>
-      <c r="DX34" s="60"/>
-      <c r="DY34" s="60"/>
-      <c r="DZ34" s="60"/>
-      <c r="EA34" s="61"/>
+      <c r="DT34" s="13"/>
+      <c r="DU34" s="14"/>
+      <c r="DV34" s="14"/>
+      <c r="DW34" s="14"/>
+      <c r="DX34" s="14"/>
+      <c r="DY34" s="14"/>
+      <c r="DZ34" s="14"/>
+      <c r="EA34" s="15"/>
       <c r="EB34" s="13"/>
       <c r="EC34" s="14"/>
       <c r="ED34" s="14"/>
@@ -9248,14 +9554,14 @@
       <c r="EO34" s="14"/>
       <c r="EP34" s="14"/>
       <c r="EQ34" s="15"/>
-      <c r="ER34" s="68"/>
-      <c r="ES34" s="69"/>
-      <c r="ET34" s="69"/>
-      <c r="EU34" s="69"/>
-      <c r="EV34" s="69"/>
-      <c r="EW34" s="69"/>
-      <c r="EX34" s="69"/>
-      <c r="EY34" s="70"/>
+      <c r="ER34" s="109"/>
+      <c r="ES34" s="110"/>
+      <c r="ET34" s="110"/>
+      <c r="EU34" s="110"/>
+      <c r="EV34" s="110"/>
+      <c r="EW34" s="110"/>
+      <c r="EX34" s="110"/>
+      <c r="EY34" s="111"/>
       <c r="EZ34" s="13"/>
       <c r="FA34" s="14"/>
       <c r="FB34" s="14"/>
@@ -9280,10 +9586,10 @@
       <c r="FU34" s="14"/>
       <c r="FV34" s="14"/>
       <c r="FW34" s="15"/>
-      <c r="FX34" s="13"/>
-      <c r="FY34" s="14"/>
-      <c r="FZ34" s="14"/>
-      <c r="GA34" s="14"/>
+      <c r="FX34" s="41"/>
+      <c r="FY34" s="39"/>
+      <c r="FZ34" s="39"/>
+      <c r="GA34" s="39"/>
       <c r="GB34" s="14"/>
       <c r="GC34" s="14"/>
       <c r="GD34" s="14"/>
@@ -9295,9 +9601,9 @@
       <c r="GJ34" s="14"/>
       <c r="GK34" s="14"/>
       <c r="GL34" s="14"/>
-      <c r="GM34" s="93"/>
-      <c r="GN34" s="102"/>
-      <c r="GO34" s="96"/>
+      <c r="GM34" s="44"/>
+      <c r="GN34" s="52"/>
+      <c r="GO34" s="47"/>
       <c r="GP34" s="14"/>
       <c r="GQ34" s="14"/>
       <c r="GR34" s="14"/>
@@ -9305,13 +9611,13 @@
       <c r="GT34" s="14"/>
       <c r="GU34" s="14"/>
       <c r="GV34" s="14"/>
-      <c r="GW34" s="88"/>
+      <c r="GW34" s="129"/>
     </row>
     <row r="35" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A35" s="90" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="49"/>
+      <c r="A35" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="67"/>
       <c r="C35" s="12"/>
       <c r="D35" s="13"/>
       <c r="E35" s="14"/>
@@ -9337,14 +9643,14 @@
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
       <c r="AA35" s="15"/>
-      <c r="AB35" s="68"/>
-      <c r="AC35" s="69"/>
-      <c r="AD35" s="69"/>
-      <c r="AE35" s="69"/>
-      <c r="AF35" s="69"/>
-      <c r="AG35" s="69"/>
-      <c r="AH35" s="69"/>
-      <c r="AI35" s="70"/>
+      <c r="AB35" s="109"/>
+      <c r="AC35" s="110"/>
+      <c r="AD35" s="110"/>
+      <c r="AE35" s="110"/>
+      <c r="AF35" s="110"/>
+      <c r="AG35" s="110"/>
+      <c r="AH35" s="110"/>
+      <c r="AI35" s="111"/>
       <c r="AJ35" s="13"/>
       <c r="AK35" s="14"/>
       <c r="AL35" s="14"/>
@@ -9393,14 +9699,14 @@
       <c r="CC35" s="14"/>
       <c r="CD35" s="14"/>
       <c r="CE35" s="15"/>
-      <c r="CF35" s="68"/>
-      <c r="CG35" s="69"/>
-      <c r="CH35" s="69"/>
-      <c r="CI35" s="69"/>
-      <c r="CJ35" s="69"/>
-      <c r="CK35" s="69"/>
-      <c r="CL35" s="69"/>
-      <c r="CM35" s="70"/>
+      <c r="CF35" s="109"/>
+      <c r="CG35" s="110"/>
+      <c r="CH35" s="110"/>
+      <c r="CI35" s="110"/>
+      <c r="CJ35" s="110"/>
+      <c r="CK35" s="110"/>
+      <c r="CL35" s="110"/>
+      <c r="CM35" s="111"/>
       <c r="CN35" s="13"/>
       <c r="CO35" s="14"/>
       <c r="CP35" s="14"/>
@@ -9411,8 +9717,8 @@
       <c r="CU35" s="15"/>
       <c r="CV35" s="13"/>
       <c r="CW35" s="14"/>
-      <c r="CX35" s="89"/>
-      <c r="CY35" s="89"/>
+      <c r="CX35" s="14"/>
+      <c r="CY35" s="14"/>
       <c r="CZ35" s="14"/>
       <c r="DA35" s="14"/>
       <c r="DB35" s="14"/>
@@ -9433,18 +9739,18 @@
       <c r="DQ35" s="14"/>
       <c r="DR35" s="14"/>
       <c r="DS35" s="15"/>
-      <c r="DT35" s="59"/>
-      <c r="DU35" s="60"/>
-      <c r="DV35" s="60"/>
-      <c r="DW35" s="60"/>
-      <c r="DX35" s="60"/>
-      <c r="DY35" s="60"/>
-      <c r="DZ35" s="60"/>
-      <c r="EA35" s="61"/>
+      <c r="DT35" s="13"/>
+      <c r="DU35" s="14"/>
+      <c r="DV35" s="14"/>
+      <c r="DW35" s="14"/>
+      <c r="DX35" s="14"/>
+      <c r="DY35" s="14"/>
+      <c r="DZ35" s="14"/>
+      <c r="EA35" s="15"/>
       <c r="EB35" s="13"/>
       <c r="EC35" s="14"/>
       <c r="ED35" s="14"/>
-      <c r="EE35" s="89"/>
+      <c r="EE35" s="14"/>
       <c r="EF35" s="14"/>
       <c r="EG35" s="14"/>
       <c r="EH35" s="14"/>
@@ -9457,14 +9763,14 @@
       <c r="EO35" s="14"/>
       <c r="EP35" s="14"/>
       <c r="EQ35" s="15"/>
-      <c r="ER35" s="68"/>
-      <c r="ES35" s="69"/>
-      <c r="ET35" s="69"/>
-      <c r="EU35" s="69"/>
-      <c r="EV35" s="69"/>
-      <c r="EW35" s="69"/>
-      <c r="EX35" s="69"/>
-      <c r="EY35" s="70"/>
+      <c r="ER35" s="109"/>
+      <c r="ES35" s="110"/>
+      <c r="ET35" s="110"/>
+      <c r="EU35" s="110"/>
+      <c r="EV35" s="110"/>
+      <c r="EW35" s="110"/>
+      <c r="EX35" s="110"/>
+      <c r="EY35" s="111"/>
       <c r="EZ35" s="13"/>
       <c r="FA35" s="14"/>
       <c r="FB35" s="14"/>
@@ -9493,10 +9799,10 @@
       <c r="FY35" s="14"/>
       <c r="FZ35" s="14"/>
       <c r="GA35" s="14"/>
-      <c r="GB35" s="14"/>
-      <c r="GC35" s="14"/>
-      <c r="GD35" s="14"/>
-      <c r="GE35" s="15"/>
+      <c r="GB35" s="39"/>
+      <c r="GC35" s="39"/>
+      <c r="GD35" s="39"/>
+      <c r="GE35" s="40"/>
       <c r="GF35" s="13"/>
       <c r="GG35" s="14"/>
       <c r="GH35" s="14"/>
@@ -9504,437 +9810,1490 @@
       <c r="GJ35" s="14"/>
       <c r="GK35" s="14"/>
       <c r="GL35" s="14"/>
-      <c r="GM35" s="93"/>
-      <c r="GN35" s="102"/>
-      <c r="GO35" s="104"/>
-      <c r="GP35" s="89"/>
-      <c r="GQ35" s="89"/>
-      <c r="GR35" s="89"/>
+      <c r="GM35" s="44"/>
+      <c r="GN35" s="52"/>
+      <c r="GO35" s="47"/>
+      <c r="GP35" s="14"/>
+      <c r="GQ35" s="14"/>
+      <c r="GR35" s="14"/>
       <c r="GS35" s="13"/>
       <c r="GT35" s="14"/>
       <c r="GU35" s="14"/>
       <c r="GV35" s="14"/>
-      <c r="GW35" s="88"/>
+      <c r="GW35" s="129"/>
     </row>
     <row r="36" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="66"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="109"/>
+      <c r="AC36" s="110"/>
+      <c r="AD36" s="110"/>
+      <c r="AE36" s="110"/>
+      <c r="AF36" s="110"/>
+      <c r="AG36" s="110"/>
+      <c r="AH36" s="110"/>
+      <c r="AI36" s="111"/>
+      <c r="AJ36" s="13"/>
+      <c r="AK36" s="14"/>
+      <c r="AL36" s="14"/>
+      <c r="AM36" s="14"/>
+      <c r="AN36" s="14"/>
+      <c r="AO36" s="14"/>
+      <c r="AP36" s="14"/>
+      <c r="AQ36" s="15"/>
+      <c r="AR36" s="13"/>
+      <c r="AS36" s="14"/>
+      <c r="AT36" s="14"/>
+      <c r="AU36" s="14"/>
+      <c r="AV36" s="14"/>
+      <c r="AW36" s="14"/>
+      <c r="AX36" s="14"/>
+      <c r="AY36" s="15"/>
+      <c r="AZ36" s="13"/>
+      <c r="BA36" s="14"/>
+      <c r="BB36" s="14"/>
+      <c r="BC36" s="14"/>
+      <c r="BD36" s="14"/>
+      <c r="BE36" s="14"/>
+      <c r="BF36" s="14"/>
+      <c r="BG36" s="15"/>
+      <c r="BH36" s="13"/>
+      <c r="BI36" s="14"/>
+      <c r="BJ36" s="14"/>
+      <c r="BK36" s="14"/>
+      <c r="BL36" s="14"/>
+      <c r="BM36" s="14"/>
+      <c r="BN36" s="14"/>
+      <c r="BO36" s="15"/>
+      <c r="BP36" s="13"/>
+      <c r="BQ36" s="14"/>
+      <c r="BR36" s="14"/>
+      <c r="BS36" s="14"/>
+      <c r="BT36" s="14"/>
+      <c r="BU36" s="14"/>
+      <c r="BV36" s="14"/>
+      <c r="BW36" s="15"/>
+      <c r="BX36" s="13"/>
+      <c r="BY36" s="14"/>
+      <c r="BZ36" s="14"/>
+      <c r="CA36" s="14"/>
+      <c r="CB36" s="14"/>
+      <c r="CC36" s="14"/>
+      <c r="CD36" s="14"/>
+      <c r="CE36" s="15"/>
+      <c r="CF36" s="109"/>
+      <c r="CG36" s="110"/>
+      <c r="CH36" s="110"/>
+      <c r="CI36" s="110"/>
+      <c r="CJ36" s="110"/>
+      <c r="CK36" s="110"/>
+      <c r="CL36" s="110"/>
+      <c r="CM36" s="111"/>
+      <c r="CN36" s="13"/>
+      <c r="CO36" s="14"/>
+      <c r="CP36" s="14"/>
+      <c r="CQ36" s="14"/>
+      <c r="CR36" s="14"/>
+      <c r="CS36" s="14"/>
+      <c r="CT36" s="14"/>
+      <c r="CU36" s="15"/>
+      <c r="CV36" s="13"/>
+      <c r="CW36" s="14"/>
+      <c r="CX36" s="14"/>
+      <c r="CY36" s="14"/>
+      <c r="CZ36" s="14"/>
+      <c r="DA36" s="14"/>
+      <c r="DB36" s="14"/>
+      <c r="DC36" s="15"/>
+      <c r="DD36" s="13"/>
+      <c r="DE36" s="14"/>
+      <c r="DF36" s="14"/>
+      <c r="DG36" s="14"/>
+      <c r="DH36" s="14"/>
+      <c r="DI36" s="14"/>
+      <c r="DJ36" s="14"/>
+      <c r="DK36" s="15"/>
+      <c r="DL36" s="13"/>
+      <c r="DM36" s="14"/>
+      <c r="DN36" s="14"/>
+      <c r="DO36" s="14"/>
+      <c r="DP36" s="14"/>
+      <c r="DQ36" s="14"/>
+      <c r="DR36" s="14"/>
+      <c r="DS36" s="15"/>
+      <c r="DT36" s="13"/>
+      <c r="DU36" s="14"/>
+      <c r="DV36" s="14"/>
+      <c r="DW36" s="14"/>
+      <c r="DX36" s="14"/>
+      <c r="DY36" s="14"/>
+      <c r="DZ36" s="14"/>
+      <c r="EA36" s="15"/>
+      <c r="EB36" s="13"/>
+      <c r="EC36" s="14"/>
+      <c r="ED36" s="14"/>
+      <c r="EE36" s="14"/>
+      <c r="EF36" s="14"/>
+      <c r="EG36" s="14"/>
+      <c r="EH36" s="14"/>
+      <c r="EI36" s="15"/>
+      <c r="EJ36" s="13"/>
+      <c r="EK36" s="14"/>
+      <c r="EL36" s="14"/>
+      <c r="EM36" s="14"/>
+      <c r="EN36" s="14"/>
+      <c r="EO36" s="14"/>
+      <c r="EP36" s="14"/>
+      <c r="EQ36" s="15"/>
+      <c r="ER36" s="109"/>
+      <c r="ES36" s="110"/>
+      <c r="ET36" s="110"/>
+      <c r="EU36" s="110"/>
+      <c r="EV36" s="110"/>
+      <c r="EW36" s="110"/>
+      <c r="EX36" s="110"/>
+      <c r="EY36" s="111"/>
+      <c r="EZ36" s="13"/>
+      <c r="FA36" s="14"/>
+      <c r="FB36" s="14"/>
+      <c r="FC36" s="14"/>
+      <c r="FD36" s="14"/>
+      <c r="FE36" s="14"/>
+      <c r="FF36" s="14"/>
+      <c r="FG36" s="15"/>
+      <c r="FH36" s="13"/>
+      <c r="FI36" s="14"/>
+      <c r="FJ36" s="14"/>
+      <c r="FK36" s="14"/>
+      <c r="FL36" s="14"/>
+      <c r="FM36" s="14"/>
+      <c r="FN36" s="14"/>
+      <c r="FO36" s="15"/>
+      <c r="FP36" s="13"/>
+      <c r="FQ36" s="14"/>
+      <c r="FR36" s="14"/>
+      <c r="FS36" s="14"/>
+      <c r="FT36" s="14"/>
+      <c r="FU36" s="14"/>
+      <c r="FV36" s="14"/>
+      <c r="FW36" s="15"/>
+      <c r="FX36" s="13"/>
+      <c r="FY36" s="14"/>
+      <c r="FZ36" s="14"/>
+      <c r="GA36" s="14"/>
+      <c r="GB36" s="14"/>
+      <c r="GC36" s="14"/>
+      <c r="GD36" s="14"/>
+      <c r="GE36" s="15"/>
+      <c r="GF36" s="41"/>
+      <c r="GG36" s="39"/>
+      <c r="GH36" s="39"/>
+      <c r="GI36" s="39"/>
+      <c r="GJ36" s="14"/>
+      <c r="GK36" s="14"/>
+      <c r="GL36" s="14"/>
+      <c r="GM36" s="44"/>
+      <c r="GN36" s="52"/>
+      <c r="GO36" s="47"/>
+      <c r="GP36" s="14"/>
+      <c r="GQ36" s="14"/>
+      <c r="GR36" s="14"/>
+      <c r="GS36" s="13"/>
+      <c r="GT36" s="14"/>
+      <c r="GU36" s="14"/>
+      <c r="GV36" s="14"/>
+      <c r="GW36" s="129"/>
+    </row>
+    <row r="37" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="103"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="109"/>
+      <c r="AC37" s="110"/>
+      <c r="AD37" s="110"/>
+      <c r="AE37" s="110"/>
+      <c r="AF37" s="110"/>
+      <c r="AG37" s="110"/>
+      <c r="AH37" s="110"/>
+      <c r="AI37" s="111"/>
+      <c r="AJ37" s="13"/>
+      <c r="AK37" s="14"/>
+      <c r="AL37" s="14"/>
+      <c r="AM37" s="14"/>
+      <c r="AN37" s="14"/>
+      <c r="AO37" s="14"/>
+      <c r="AP37" s="14"/>
+      <c r="AQ37" s="15"/>
+      <c r="AR37" s="13"/>
+      <c r="AS37" s="14"/>
+      <c r="AT37" s="14"/>
+      <c r="AU37" s="14"/>
+      <c r="AV37" s="14"/>
+      <c r="AW37" s="14"/>
+      <c r="AX37" s="14"/>
+      <c r="AY37" s="15"/>
+      <c r="AZ37" s="13"/>
+      <c r="BA37" s="14"/>
+      <c r="BB37" s="14"/>
+      <c r="BC37" s="14"/>
+      <c r="BD37" s="14"/>
+      <c r="BE37" s="14"/>
+      <c r="BF37" s="14"/>
+      <c r="BG37" s="15"/>
+      <c r="BH37" s="13"/>
+      <c r="BI37" s="14"/>
+      <c r="BJ37" s="14"/>
+      <c r="BK37" s="14"/>
+      <c r="BL37" s="14"/>
+      <c r="BM37" s="14"/>
+      <c r="BN37" s="14"/>
+      <c r="BO37" s="15"/>
+      <c r="BP37" s="13"/>
+      <c r="BQ37" s="14"/>
+      <c r="BR37" s="14"/>
+      <c r="BS37" s="14"/>
+      <c r="BT37" s="14"/>
+      <c r="BU37" s="14"/>
+      <c r="BV37" s="14"/>
+      <c r="BW37" s="15"/>
+      <c r="BX37" s="13"/>
+      <c r="BY37" s="14"/>
+      <c r="BZ37" s="14"/>
+      <c r="CA37" s="14"/>
+      <c r="CB37" s="14"/>
+      <c r="CC37" s="14"/>
+      <c r="CD37" s="14"/>
+      <c r="CE37" s="15"/>
+      <c r="CF37" s="109"/>
+      <c r="CG37" s="110"/>
+      <c r="CH37" s="110"/>
+      <c r="CI37" s="110"/>
+      <c r="CJ37" s="110"/>
+      <c r="CK37" s="110"/>
+      <c r="CL37" s="110"/>
+      <c r="CM37" s="111"/>
+      <c r="CN37" s="13"/>
+      <c r="CO37" s="14"/>
+      <c r="CP37" s="14"/>
+      <c r="CQ37" s="14"/>
+      <c r="CR37" s="14"/>
+      <c r="CS37" s="14"/>
+      <c r="CT37" s="14"/>
+      <c r="CU37" s="15"/>
+      <c r="CV37" s="13"/>
+      <c r="CW37" s="14"/>
+      <c r="CX37" s="14"/>
+      <c r="CY37" s="14"/>
+      <c r="CZ37" s="14"/>
+      <c r="DA37" s="14"/>
+      <c r="DB37" s="14"/>
+      <c r="DC37" s="15"/>
+      <c r="DD37" s="13"/>
+      <c r="DE37" s="14"/>
+      <c r="DF37" s="14"/>
+      <c r="DG37" s="14"/>
+      <c r="DH37" s="14"/>
+      <c r="DI37" s="14"/>
+      <c r="DJ37" s="14"/>
+      <c r="DK37" s="15"/>
+      <c r="DL37" s="13"/>
+      <c r="DM37" s="14"/>
+      <c r="DN37" s="14"/>
+      <c r="DO37" s="14"/>
+      <c r="DP37" s="14"/>
+      <c r="DQ37" s="14"/>
+      <c r="DR37" s="14"/>
+      <c r="DS37" s="15"/>
+      <c r="DT37" s="13"/>
+      <c r="DU37" s="14"/>
+      <c r="DV37" s="14"/>
+      <c r="DW37" s="14"/>
+      <c r="DX37" s="14"/>
+      <c r="DY37" s="14"/>
+      <c r="DZ37" s="14"/>
+      <c r="EA37" s="15"/>
+      <c r="EB37" s="13"/>
+      <c r="EC37" s="14"/>
+      <c r="ED37" s="14"/>
+      <c r="EE37" s="14"/>
+      <c r="EF37" s="14"/>
+      <c r="EG37" s="14"/>
+      <c r="EH37" s="14"/>
+      <c r="EI37" s="15"/>
+      <c r="EJ37" s="13"/>
+      <c r="EK37" s="14"/>
+      <c r="EL37" s="14"/>
+      <c r="EM37" s="14"/>
+      <c r="EN37" s="14"/>
+      <c r="EO37" s="14"/>
+      <c r="EP37" s="14"/>
+      <c r="EQ37" s="15"/>
+      <c r="ER37" s="109"/>
+      <c r="ES37" s="110"/>
+      <c r="ET37" s="110"/>
+      <c r="EU37" s="110"/>
+      <c r="EV37" s="110"/>
+      <c r="EW37" s="110"/>
+      <c r="EX37" s="110"/>
+      <c r="EY37" s="111"/>
+      <c r="EZ37" s="13"/>
+      <c r="FA37" s="14"/>
+      <c r="FB37" s="14"/>
+      <c r="FC37" s="14"/>
+      <c r="FD37" s="14"/>
+      <c r="FE37" s="14"/>
+      <c r="FF37" s="14"/>
+      <c r="FG37" s="15"/>
+      <c r="FH37" s="13"/>
+      <c r="FI37" s="14"/>
+      <c r="FJ37" s="14"/>
+      <c r="FK37" s="14"/>
+      <c r="FL37" s="14"/>
+      <c r="FM37" s="14"/>
+      <c r="FN37" s="14"/>
+      <c r="FO37" s="15"/>
+      <c r="FP37" s="13"/>
+      <c r="FQ37" s="14"/>
+      <c r="FR37" s="14"/>
+      <c r="FS37" s="14"/>
+      <c r="FT37" s="14"/>
+      <c r="FU37" s="14"/>
+      <c r="FV37" s="14"/>
+      <c r="FW37" s="15"/>
+      <c r="FX37" s="13"/>
+      <c r="FY37" s="14"/>
+      <c r="FZ37" s="14"/>
+      <c r="GA37" s="14"/>
+      <c r="GB37" s="14"/>
+      <c r="GC37" s="14"/>
+      <c r="GD37" s="84"/>
+      <c r="GE37" s="85"/>
+      <c r="GF37" s="86"/>
+      <c r="GG37" s="84"/>
+      <c r="GH37" s="84"/>
+      <c r="GI37" s="84"/>
+      <c r="GJ37" s="84"/>
+      <c r="GK37" s="14"/>
+      <c r="GL37" s="14"/>
+      <c r="GM37" s="44"/>
+      <c r="GN37" s="52"/>
+      <c r="GO37" s="47"/>
+      <c r="GP37" s="14"/>
+      <c r="GQ37" s="14"/>
+      <c r="GR37" s="14"/>
+      <c r="GS37" s="13"/>
+      <c r="GT37" s="14"/>
+      <c r="GU37" s="14"/>
+      <c r="GV37" s="14"/>
+      <c r="GW37" s="129"/>
+    </row>
+    <row r="38" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="70"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="109"/>
+      <c r="AC38" s="110"/>
+      <c r="AD38" s="110"/>
+      <c r="AE38" s="110"/>
+      <c r="AF38" s="110"/>
+      <c r="AG38" s="110"/>
+      <c r="AH38" s="110"/>
+      <c r="AI38" s="111"/>
+      <c r="AJ38" s="13"/>
+      <c r="AK38" s="14"/>
+      <c r="AL38" s="14"/>
+      <c r="AM38" s="14"/>
+      <c r="AN38" s="14"/>
+      <c r="AO38" s="14"/>
+      <c r="AP38" s="14"/>
+      <c r="AQ38" s="15"/>
+      <c r="AR38" s="13"/>
+      <c r="AS38" s="14"/>
+      <c r="AT38" s="14"/>
+      <c r="AU38" s="14"/>
+      <c r="AV38" s="14"/>
+      <c r="AW38" s="14"/>
+      <c r="AX38" s="14"/>
+      <c r="AY38" s="15"/>
+      <c r="AZ38" s="13"/>
+      <c r="BA38" s="14"/>
+      <c r="BB38" s="14"/>
+      <c r="BC38" s="14"/>
+      <c r="BD38" s="14"/>
+      <c r="BE38" s="14"/>
+      <c r="BF38" s="14"/>
+      <c r="BG38" s="15"/>
+      <c r="BH38" s="13"/>
+      <c r="BI38" s="14"/>
+      <c r="BJ38" s="14"/>
+      <c r="BK38" s="14"/>
+      <c r="BL38" s="14"/>
+      <c r="BM38" s="14"/>
+      <c r="BN38" s="14"/>
+      <c r="BO38" s="15"/>
+      <c r="BP38" s="13"/>
+      <c r="BQ38" s="14"/>
+      <c r="BR38" s="14"/>
+      <c r="BS38" s="14"/>
+      <c r="BT38" s="14"/>
+      <c r="BU38" s="14"/>
+      <c r="BV38" s="14"/>
+      <c r="BW38" s="15"/>
+      <c r="BX38" s="13"/>
+      <c r="BY38" s="14"/>
+      <c r="BZ38" s="14"/>
+      <c r="CA38" s="14"/>
+      <c r="CB38" s="14"/>
+      <c r="CC38" s="14"/>
+      <c r="CD38" s="14"/>
+      <c r="CE38" s="15"/>
+      <c r="CF38" s="109"/>
+      <c r="CG38" s="110"/>
+      <c r="CH38" s="110"/>
+      <c r="CI38" s="110"/>
+      <c r="CJ38" s="110"/>
+      <c r="CK38" s="110"/>
+      <c r="CL38" s="110"/>
+      <c r="CM38" s="111"/>
+      <c r="CN38" s="13"/>
+      <c r="CO38" s="14"/>
+      <c r="CP38" s="14"/>
+      <c r="CQ38" s="14"/>
+      <c r="CR38" s="14"/>
+      <c r="CS38" s="14"/>
+      <c r="CT38" s="14"/>
+      <c r="CU38" s="15"/>
+      <c r="CV38" s="13"/>
+      <c r="CW38" s="14"/>
+      <c r="CX38" s="14"/>
+      <c r="CY38" s="14"/>
+      <c r="CZ38" s="14"/>
+      <c r="DA38" s="14"/>
+      <c r="DB38" s="14"/>
+      <c r="DC38" s="15"/>
+      <c r="DD38" s="13"/>
+      <c r="DE38" s="14"/>
+      <c r="DF38" s="14"/>
+      <c r="DG38" s="14"/>
+      <c r="DH38" s="14"/>
+      <c r="DI38" s="14"/>
+      <c r="DJ38" s="14"/>
+      <c r="DK38" s="15"/>
+      <c r="DL38" s="13"/>
+      <c r="DM38" s="14"/>
+      <c r="DN38" s="14"/>
+      <c r="DO38" s="14"/>
+      <c r="DP38" s="14"/>
+      <c r="DQ38" s="14"/>
+      <c r="DR38" s="14"/>
+      <c r="DS38" s="15"/>
+      <c r="DT38" s="13"/>
+      <c r="DU38" s="14"/>
+      <c r="DV38" s="14"/>
+      <c r="DW38" s="14"/>
+      <c r="DX38" s="14"/>
+      <c r="DY38" s="14"/>
+      <c r="DZ38" s="14"/>
+      <c r="EA38" s="15"/>
+      <c r="EB38" s="13"/>
+      <c r="EC38" s="14"/>
+      <c r="ED38" s="14"/>
+      <c r="EE38" s="14"/>
+      <c r="EF38" s="14"/>
+      <c r="EG38" s="14"/>
+      <c r="EH38" s="14"/>
+      <c r="EI38" s="15"/>
+      <c r="EJ38" s="13"/>
+      <c r="EK38" s="14"/>
+      <c r="EL38" s="14"/>
+      <c r="EM38" s="14"/>
+      <c r="EN38" s="14"/>
+      <c r="EO38" s="14"/>
+      <c r="EP38" s="14"/>
+      <c r="EQ38" s="15"/>
+      <c r="ER38" s="109"/>
+      <c r="ES38" s="110"/>
+      <c r="ET38" s="110"/>
+      <c r="EU38" s="110"/>
+      <c r="EV38" s="110"/>
+      <c r="EW38" s="110"/>
+      <c r="EX38" s="110"/>
+      <c r="EY38" s="111"/>
+      <c r="EZ38" s="13"/>
+      <c r="FA38" s="14"/>
+      <c r="FB38" s="14"/>
+      <c r="FC38" s="14"/>
+      <c r="FD38" s="14"/>
+      <c r="FE38" s="14"/>
+      <c r="FF38" s="14"/>
+      <c r="FG38" s="15"/>
+      <c r="FH38" s="13"/>
+      <c r="FI38" s="14"/>
+      <c r="FJ38" s="14"/>
+      <c r="FK38" s="14"/>
+      <c r="FL38" s="14"/>
+      <c r="FM38" s="14"/>
+      <c r="FN38" s="14"/>
+      <c r="FO38" s="15"/>
+      <c r="FP38" s="13"/>
+      <c r="FQ38" s="14"/>
+      <c r="FR38" s="14"/>
+      <c r="FS38" s="14"/>
+      <c r="FT38" s="14"/>
+      <c r="FU38" s="14"/>
+      <c r="FV38" s="14"/>
+      <c r="FW38" s="15"/>
+      <c r="FX38" s="13"/>
+      <c r="FY38" s="14"/>
+      <c r="FZ38" s="14"/>
+      <c r="GA38" s="14"/>
+      <c r="GB38" s="14"/>
+      <c r="GC38" s="14"/>
+      <c r="GD38" s="14"/>
+      <c r="GE38" s="15"/>
+      <c r="GF38" s="13"/>
+      <c r="GG38" s="14"/>
+      <c r="GH38" s="14"/>
+      <c r="GI38" s="14"/>
+      <c r="GJ38" s="43"/>
+      <c r="GK38" s="43"/>
+      <c r="GL38" s="43"/>
+      <c r="GM38" s="59"/>
+      <c r="GN38" s="52"/>
+      <c r="GO38" s="47"/>
+      <c r="GP38" s="14"/>
+      <c r="GQ38" s="14"/>
+      <c r="GR38" s="14"/>
+      <c r="GS38" s="13"/>
+      <c r="GT38" s="14"/>
+      <c r="GU38" s="14"/>
+      <c r="GV38" s="14"/>
+      <c r="GW38" s="129"/>
+    </row>
+    <row r="39" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="105"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="109"/>
+      <c r="AC39" s="110"/>
+      <c r="AD39" s="110"/>
+      <c r="AE39" s="110"/>
+      <c r="AF39" s="110"/>
+      <c r="AG39" s="110"/>
+      <c r="AH39" s="110"/>
+      <c r="AI39" s="111"/>
+      <c r="AJ39" s="13"/>
+      <c r="AK39" s="14"/>
+      <c r="AL39" s="14"/>
+      <c r="AM39" s="14"/>
+      <c r="AN39" s="14"/>
+      <c r="AO39" s="14"/>
+      <c r="AP39" s="14"/>
+      <c r="AQ39" s="15"/>
+      <c r="AR39" s="13"/>
+      <c r="AS39" s="14"/>
+      <c r="AT39" s="14"/>
+      <c r="AU39" s="14"/>
+      <c r="AV39" s="14"/>
+      <c r="AW39" s="14"/>
+      <c r="AX39" s="14"/>
+      <c r="AY39" s="15"/>
+      <c r="AZ39" s="13"/>
+      <c r="BA39" s="14"/>
+      <c r="BB39" s="14"/>
+      <c r="BC39" s="14"/>
+      <c r="BD39" s="14"/>
+      <c r="BE39" s="14"/>
+      <c r="BF39" s="14"/>
+      <c r="BG39" s="15"/>
+      <c r="BH39" s="13"/>
+      <c r="BI39" s="14"/>
+      <c r="BJ39" s="14"/>
+      <c r="BK39" s="14"/>
+      <c r="BL39" s="14"/>
+      <c r="BM39" s="14"/>
+      <c r="BN39" s="14"/>
+      <c r="BO39" s="15"/>
+      <c r="BP39" s="13"/>
+      <c r="BQ39" s="14"/>
+      <c r="BR39" s="14"/>
+      <c r="BS39" s="14"/>
+      <c r="BT39" s="14"/>
+      <c r="BU39" s="14"/>
+      <c r="BV39" s="14"/>
+      <c r="BW39" s="15"/>
+      <c r="BX39" s="13"/>
+      <c r="BY39" s="14"/>
+      <c r="BZ39" s="14"/>
+      <c r="CA39" s="14"/>
+      <c r="CB39" s="14"/>
+      <c r="CC39" s="14"/>
+      <c r="CD39" s="14"/>
+      <c r="CE39" s="15"/>
+      <c r="CF39" s="109"/>
+      <c r="CG39" s="110"/>
+      <c r="CH39" s="110"/>
+      <c r="CI39" s="110"/>
+      <c r="CJ39" s="110"/>
+      <c r="CK39" s="110"/>
+      <c r="CL39" s="110"/>
+      <c r="CM39" s="111"/>
+      <c r="CN39" s="13"/>
+      <c r="CO39" s="14"/>
+      <c r="CP39" s="14"/>
+      <c r="CQ39" s="14"/>
+      <c r="CR39" s="14"/>
+      <c r="CS39" s="14"/>
+      <c r="CT39" s="14"/>
+      <c r="CU39" s="15"/>
+      <c r="CV39" s="13"/>
+      <c r="CW39" s="14"/>
+      <c r="CX39" s="14"/>
+      <c r="CY39" s="14"/>
+      <c r="CZ39" s="14"/>
+      <c r="DA39" s="14"/>
+      <c r="DB39" s="14"/>
+      <c r="DC39" s="15"/>
+      <c r="DD39" s="13"/>
+      <c r="DE39" s="14"/>
+      <c r="DF39" s="14"/>
+      <c r="DG39" s="14"/>
+      <c r="DH39" s="14"/>
+      <c r="DI39" s="14"/>
+      <c r="DJ39" s="14"/>
+      <c r="DK39" s="15"/>
+      <c r="DL39" s="13"/>
+      <c r="DM39" s="14"/>
+      <c r="DN39" s="14"/>
+      <c r="DO39" s="14"/>
+      <c r="DP39" s="14"/>
+      <c r="DQ39" s="14"/>
+      <c r="DR39" s="14"/>
+      <c r="DS39" s="15"/>
+      <c r="DT39" s="13"/>
+      <c r="DU39" s="14"/>
+      <c r="DV39" s="14"/>
+      <c r="DW39" s="14"/>
+      <c r="DX39" s="14"/>
+      <c r="DY39" s="14"/>
+      <c r="DZ39" s="14"/>
+      <c r="EA39" s="15"/>
+      <c r="EB39" s="13"/>
+      <c r="EC39" s="14"/>
+      <c r="ED39" s="14"/>
+      <c r="EE39" s="14"/>
+      <c r="EF39" s="14"/>
+      <c r="EG39" s="14"/>
+      <c r="EH39" s="14"/>
+      <c r="EI39" s="15"/>
+      <c r="EJ39" s="13"/>
+      <c r="EK39" s="14"/>
+      <c r="EL39" s="14"/>
+      <c r="EM39" s="14"/>
+      <c r="EN39" s="14"/>
+      <c r="EO39" s="14"/>
+      <c r="EP39" s="14"/>
+      <c r="EQ39" s="15"/>
+      <c r="ER39" s="109"/>
+      <c r="ES39" s="110"/>
+      <c r="ET39" s="110"/>
+      <c r="EU39" s="110"/>
+      <c r="EV39" s="110"/>
+      <c r="EW39" s="110"/>
+      <c r="EX39" s="110"/>
+      <c r="EY39" s="111"/>
+      <c r="EZ39" s="13"/>
+      <c r="FA39" s="14"/>
+      <c r="FB39" s="14"/>
+      <c r="FC39" s="14"/>
+      <c r="FD39" s="14"/>
+      <c r="FE39" s="14"/>
+      <c r="FF39" s="14"/>
+      <c r="FG39" s="15"/>
+      <c r="FH39" s="13"/>
+      <c r="FI39" s="14"/>
+      <c r="FJ39" s="14"/>
+      <c r="FK39" s="14"/>
+      <c r="FL39" s="14"/>
+      <c r="FM39" s="14"/>
+      <c r="FN39" s="14"/>
+      <c r="FO39" s="15"/>
+      <c r="FP39" s="13"/>
+      <c r="FQ39" s="14"/>
+      <c r="FR39" s="14"/>
+      <c r="FS39" s="14"/>
+      <c r="FT39" s="14"/>
+      <c r="FU39" s="14"/>
+      <c r="FV39" s="14"/>
+      <c r="FW39" s="15"/>
+      <c r="FX39" s="13"/>
+      <c r="FY39" s="14"/>
+      <c r="FZ39" s="14"/>
+      <c r="GA39" s="14"/>
+      <c r="GB39" s="14"/>
+      <c r="GC39" s="14"/>
+      <c r="GD39" s="14"/>
+      <c r="GE39" s="15"/>
+      <c r="GF39" s="13"/>
+      <c r="GG39" s="14"/>
+      <c r="GH39" s="14"/>
+      <c r="GI39" s="14"/>
+      <c r="GJ39" s="84"/>
+      <c r="GK39" s="84"/>
+      <c r="GL39" s="84"/>
+      <c r="GM39" s="87"/>
+      <c r="GN39" s="52"/>
+      <c r="GO39" s="47"/>
+      <c r="GP39" s="14"/>
+      <c r="GQ39" s="14"/>
+      <c r="GR39" s="14"/>
+      <c r="GS39" s="13"/>
+      <c r="GT39" s="14"/>
+      <c r="GU39" s="14"/>
+      <c r="GV39" s="14"/>
+      <c r="GW39" s="129"/>
+    </row>
+    <row r="40" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="109"/>
+      <c r="AC40" s="110"/>
+      <c r="AD40" s="110"/>
+      <c r="AE40" s="110"/>
+      <c r="AF40" s="110"/>
+      <c r="AG40" s="110"/>
+      <c r="AH40" s="110"/>
+      <c r="AI40" s="111"/>
+      <c r="AJ40" s="13"/>
+      <c r="AK40" s="14"/>
+      <c r="AL40" s="14"/>
+      <c r="AM40" s="14"/>
+      <c r="AN40" s="14"/>
+      <c r="AO40" s="14"/>
+      <c r="AP40" s="14"/>
+      <c r="AQ40" s="15"/>
+      <c r="AR40" s="13"/>
+      <c r="AS40" s="14"/>
+      <c r="AT40" s="14"/>
+      <c r="AU40" s="14"/>
+      <c r="AV40" s="14"/>
+      <c r="AW40" s="14"/>
+      <c r="AX40" s="14"/>
+      <c r="AY40" s="15"/>
+      <c r="AZ40" s="13"/>
+      <c r="BA40" s="14"/>
+      <c r="BB40" s="14"/>
+      <c r="BC40" s="14"/>
+      <c r="BD40" s="14"/>
+      <c r="BE40" s="14"/>
+      <c r="BF40" s="14"/>
+      <c r="BG40" s="15"/>
+      <c r="BH40" s="13"/>
+      <c r="BI40" s="14"/>
+      <c r="BJ40" s="14"/>
+      <c r="BK40" s="14"/>
+      <c r="BL40" s="14"/>
+      <c r="BM40" s="14"/>
+      <c r="BN40" s="14"/>
+      <c r="BO40" s="15"/>
+      <c r="BP40" s="13"/>
+      <c r="BQ40" s="14"/>
+      <c r="BR40" s="14"/>
+      <c r="BS40" s="14"/>
+      <c r="BT40" s="14"/>
+      <c r="BU40" s="14"/>
+      <c r="BV40" s="14"/>
+      <c r="BW40" s="15"/>
+      <c r="BX40" s="13"/>
+      <c r="BY40" s="14"/>
+      <c r="BZ40" s="14"/>
+      <c r="CA40" s="14"/>
+      <c r="CB40" s="14"/>
+      <c r="CC40" s="14"/>
+      <c r="CD40" s="14"/>
+      <c r="CE40" s="15"/>
+      <c r="CF40" s="109"/>
+      <c r="CG40" s="110"/>
+      <c r="CH40" s="110"/>
+      <c r="CI40" s="110"/>
+      <c r="CJ40" s="110"/>
+      <c r="CK40" s="110"/>
+      <c r="CL40" s="110"/>
+      <c r="CM40" s="111"/>
+      <c r="CN40" s="13"/>
+      <c r="CO40" s="14"/>
+      <c r="CP40" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="71"/>
-      <c r="AC36" s="72"/>
-      <c r="AD36" s="72"/>
-      <c r="AE36" s="72"/>
-      <c r="AF36" s="72"/>
-      <c r="AG36" s="72"/>
-      <c r="AH36" s="72"/>
-      <c r="AI36" s="73"/>
-      <c r="AJ36" s="33"/>
-      <c r="AK36" s="34"/>
-      <c r="AL36" s="34"/>
-      <c r="AM36" s="34"/>
-      <c r="AN36" s="34"/>
-      <c r="AO36" s="34"/>
-      <c r="AP36" s="34"/>
-      <c r="AQ36" s="35"/>
-      <c r="AR36" s="33"/>
-      <c r="AS36" s="34"/>
-      <c r="AT36" s="34"/>
-      <c r="AU36" s="34"/>
-      <c r="AV36" s="34"/>
-      <c r="AW36" s="34"/>
-      <c r="AX36" s="34"/>
-      <c r="AY36" s="35"/>
-      <c r="AZ36" s="33"/>
-      <c r="BA36" s="34"/>
-      <c r="BB36" s="34"/>
-      <c r="BC36" s="34"/>
-      <c r="BD36" s="34"/>
-      <c r="BE36" s="34"/>
-      <c r="BF36" s="34"/>
-      <c r="BG36" s="35"/>
-      <c r="BH36" s="33"/>
-      <c r="BI36" s="34"/>
-      <c r="BJ36" s="34"/>
-      <c r="BK36" s="34"/>
-      <c r="BL36" s="34"/>
-      <c r="BM36" s="34"/>
-      <c r="BN36" s="34"/>
-      <c r="BO36" s="35"/>
-      <c r="BP36" s="17"/>
-      <c r="BQ36" s="18"/>
-      <c r="BR36" s="18"/>
-      <c r="BS36" s="18"/>
-      <c r="BT36" s="18"/>
-      <c r="BU36" s="18"/>
-      <c r="BV36" s="18"/>
-      <c r="BW36" s="19"/>
-      <c r="BX36" s="17"/>
-      <c r="BY36" s="18"/>
-      <c r="BZ36" s="18"/>
-      <c r="CA36" s="18"/>
-      <c r="CB36" s="18"/>
-      <c r="CC36" s="18"/>
-      <c r="CD36" s="18"/>
-      <c r="CE36" s="19"/>
-      <c r="CF36" s="71"/>
-      <c r="CG36" s="72"/>
-      <c r="CH36" s="72"/>
-      <c r="CI36" s="72"/>
-      <c r="CJ36" s="72"/>
-      <c r="CK36" s="72"/>
-      <c r="CL36" s="72"/>
-      <c r="CM36" s="73"/>
-      <c r="CN36" s="17"/>
-      <c r="CO36" s="18"/>
-      <c r="CP36" s="18"/>
-      <c r="CQ36" s="18"/>
-      <c r="CR36" s="18"/>
-      <c r="CS36" s="18"/>
-      <c r="CT36" s="18"/>
-      <c r="CU36" s="19"/>
-      <c r="CV36" s="17"/>
-      <c r="CW36" s="18"/>
-      <c r="CX36" s="18"/>
-      <c r="CY36" s="18"/>
-      <c r="CZ36" s="18"/>
-      <c r="DA36" s="18"/>
-      <c r="DB36" s="18"/>
-      <c r="DC36" s="19"/>
-      <c r="DD36" s="17"/>
-      <c r="DE36" s="18"/>
-      <c r="DF36" s="18"/>
-      <c r="DG36" s="18"/>
-      <c r="DH36" s="18"/>
-      <c r="DI36" s="18"/>
-      <c r="DJ36" s="18"/>
-      <c r="DK36" s="19"/>
-      <c r="DL36" s="17"/>
-      <c r="DM36" s="18"/>
-      <c r="DN36" s="18"/>
-      <c r="DO36" s="18"/>
-      <c r="DP36" s="18"/>
-      <c r="DQ36" s="18"/>
-      <c r="DR36" s="18"/>
-      <c r="DS36" s="19"/>
-      <c r="DT36" s="62"/>
-      <c r="DU36" s="63"/>
-      <c r="DV36" s="63"/>
-      <c r="DW36" s="63"/>
-      <c r="DX36" s="63"/>
-      <c r="DY36" s="63"/>
-      <c r="DZ36" s="63"/>
-      <c r="EA36" s="64"/>
-      <c r="EB36" s="17"/>
-      <c r="EC36" s="18"/>
-      <c r="ED36" s="18"/>
-      <c r="EE36" s="18"/>
-      <c r="EF36" s="18"/>
-      <c r="EG36" s="18"/>
-      <c r="EH36" s="18"/>
-      <c r="EI36" s="19"/>
-      <c r="EJ36" s="17"/>
-      <c r="EK36" s="18"/>
-      <c r="EL36" s="18"/>
-      <c r="EM36" s="18"/>
-      <c r="EN36" s="18"/>
-      <c r="EO36" s="18"/>
-      <c r="EP36" s="18"/>
-      <c r="EQ36" s="19"/>
-      <c r="ER36" s="71"/>
-      <c r="ES36" s="72"/>
-      <c r="ET36" s="72"/>
-      <c r="EU36" s="72"/>
-      <c r="EV36" s="72"/>
-      <c r="EW36" s="72"/>
-      <c r="EX36" s="72"/>
-      <c r="EY36" s="73"/>
-      <c r="EZ36" s="17"/>
-      <c r="FA36" s="18"/>
-      <c r="FB36" s="18"/>
-      <c r="FC36" s="18"/>
-      <c r="FD36" s="18"/>
-      <c r="FE36" s="18"/>
-      <c r="FF36" s="18"/>
-      <c r="FG36" s="19"/>
-      <c r="FH36" s="17"/>
-      <c r="FI36" s="18"/>
-      <c r="FJ36" s="18"/>
-      <c r="FK36" s="18"/>
-      <c r="FL36" s="18"/>
-      <c r="FM36" s="18"/>
-      <c r="FN36" s="18"/>
-      <c r="FO36" s="19"/>
-      <c r="FP36" s="17"/>
-      <c r="FQ36" s="18"/>
-      <c r="FR36" s="18"/>
-      <c r="FS36" s="18"/>
-      <c r="FT36" s="18"/>
-      <c r="FU36" s="18"/>
-      <c r="FV36" s="18"/>
-      <c r="FW36" s="19"/>
-      <c r="FX36" s="17"/>
-      <c r="FY36" s="18"/>
-      <c r="FZ36" s="18"/>
-      <c r="GA36" s="18"/>
-      <c r="GB36" s="18"/>
-      <c r="GC36" s="18"/>
-      <c r="GD36" s="18"/>
-      <c r="GE36" s="19"/>
-      <c r="GF36" s="17"/>
-      <c r="GG36" s="18"/>
-      <c r="GH36" s="18"/>
-      <c r="GI36" s="18"/>
-      <c r="GJ36" s="18"/>
-      <c r="GK36" s="18"/>
-      <c r="GL36" s="18"/>
-      <c r="GM36" s="94"/>
-      <c r="GN36" s="103"/>
-      <c r="GO36" s="97"/>
-      <c r="GP36" s="18"/>
-      <c r="GQ36" s="18"/>
-      <c r="GR36" s="18"/>
-      <c r="GS36" s="17"/>
-      <c r="GT36" s="18"/>
-      <c r="GU36" s="18"/>
-      <c r="GV36" s="18"/>
-      <c r="GW36" s="88"/>
+      <c r="CQ40" s="14"/>
+      <c r="CR40" s="14"/>
+      <c r="CS40" s="14"/>
+      <c r="CT40" s="14"/>
+      <c r="CU40" s="15"/>
+      <c r="CV40" s="13"/>
+      <c r="CW40" s="14"/>
+      <c r="CX40" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="CY40" s="18"/>
+      <c r="CZ40" s="14"/>
+      <c r="DA40" s="14"/>
+      <c r="DB40" s="14"/>
+      <c r="DC40" s="15"/>
+      <c r="DD40" s="13"/>
+      <c r="DE40" s="14"/>
+      <c r="DF40" s="14"/>
+      <c r="DG40" s="14"/>
+      <c r="DH40" s="14"/>
+      <c r="DI40" s="14"/>
+      <c r="DJ40" s="14"/>
+      <c r="DK40" s="15"/>
+      <c r="DL40" s="13"/>
+      <c r="DM40" s="14"/>
+      <c r="DN40" s="14"/>
+      <c r="DO40" s="14"/>
+      <c r="DP40" s="14"/>
+      <c r="DQ40" s="14"/>
+      <c r="DR40" s="14"/>
+      <c r="DS40" s="15"/>
+      <c r="DT40" s="13"/>
+      <c r="DU40" s="14"/>
+      <c r="DV40" s="14"/>
+      <c r="DW40" s="14"/>
+      <c r="DX40" s="14"/>
+      <c r="DY40" s="14"/>
+      <c r="DZ40" s="14"/>
+      <c r="EA40" s="15"/>
+      <c r="EB40" s="13"/>
+      <c r="EC40" s="14"/>
+      <c r="ED40" s="14"/>
+      <c r="EE40" s="42"/>
+      <c r="EF40" s="14"/>
+      <c r="EG40" s="14"/>
+      <c r="EH40" s="14"/>
+      <c r="EI40" s="15"/>
+      <c r="EJ40" s="13"/>
+      <c r="EK40" s="14"/>
+      <c r="EL40" s="14"/>
+      <c r="EM40" s="14"/>
+      <c r="EN40" s="14"/>
+      <c r="EO40" s="14"/>
+      <c r="EP40" s="14"/>
+      <c r="EQ40" s="15"/>
+      <c r="ER40" s="109"/>
+      <c r="ES40" s="110"/>
+      <c r="ET40" s="110"/>
+      <c r="EU40" s="110"/>
+      <c r="EV40" s="110"/>
+      <c r="EW40" s="110"/>
+      <c r="EX40" s="110"/>
+      <c r="EY40" s="111"/>
+      <c r="EZ40" s="13"/>
+      <c r="FA40" s="14"/>
+      <c r="FB40" s="14"/>
+      <c r="FC40" s="14"/>
+      <c r="FD40" s="14"/>
+      <c r="FE40" s="14"/>
+      <c r="FF40" s="14"/>
+      <c r="FG40" s="15"/>
+      <c r="FH40" s="13"/>
+      <c r="FI40" s="14"/>
+      <c r="FJ40" s="14"/>
+      <c r="FK40" s="14"/>
+      <c r="FL40" s="14"/>
+      <c r="FM40" s="14"/>
+      <c r="FN40" s="14"/>
+      <c r="FO40" s="15"/>
+      <c r="FP40" s="13"/>
+      <c r="FQ40" s="14"/>
+      <c r="FR40" s="14"/>
+      <c r="FS40" s="14"/>
+      <c r="FT40" s="14"/>
+      <c r="FU40" s="14"/>
+      <c r="FV40" s="14"/>
+      <c r="FW40" s="15"/>
+      <c r="FX40" s="13"/>
+      <c r="FY40" s="14"/>
+      <c r="FZ40" s="14"/>
+      <c r="GA40" s="14"/>
+      <c r="GB40" s="14"/>
+      <c r="GC40" s="14"/>
+      <c r="GD40" s="14"/>
+      <c r="GE40" s="15"/>
+      <c r="GF40" s="13"/>
+      <c r="GG40" s="14"/>
+      <c r="GH40" s="14"/>
+      <c r="GI40" s="14"/>
+      <c r="GJ40" s="14"/>
+      <c r="GK40" s="14"/>
+      <c r="GL40" s="14"/>
+      <c r="GM40" s="44"/>
+      <c r="GN40" s="52"/>
+      <c r="GO40" s="54"/>
+      <c r="GP40" s="42"/>
+      <c r="GQ40" s="42"/>
+      <c r="GR40" s="42"/>
+      <c r="GS40" s="13"/>
+      <c r="GT40" s="14"/>
+      <c r="GU40" s="14"/>
+      <c r="GV40" s="14"/>
+      <c r="GW40" s="129"/>
     </row>
-    <row r="37" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A37" s="81" t="s">
+    <row r="41" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="68"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="90"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="90"/>
+      <c r="P41" s="90"/>
+      <c r="Q41" s="90"/>
+      <c r="R41" s="90"/>
+      <c r="S41" s="90"/>
+      <c r="T41" s="90"/>
+      <c r="U41" s="90"/>
+      <c r="V41" s="90"/>
+      <c r="W41" s="90"/>
+      <c r="X41" s="90"/>
+      <c r="Y41" s="90"/>
+      <c r="Z41" s="90"/>
+      <c r="AA41" s="91"/>
+      <c r="AB41" s="112"/>
+      <c r="AC41" s="113"/>
+      <c r="AD41" s="113"/>
+      <c r="AE41" s="113"/>
+      <c r="AF41" s="113"/>
+      <c r="AG41" s="113"/>
+      <c r="AH41" s="113"/>
+      <c r="AI41" s="114"/>
+      <c r="AJ41" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK41" s="92"/>
+      <c r="AL41" s="92"/>
+      <c r="AM41" s="92"/>
+      <c r="AN41" s="92"/>
+      <c r="AO41" s="92"/>
+      <c r="AP41" s="92"/>
+      <c r="AQ41" s="92"/>
+      <c r="AR41" s="92"/>
+      <c r="AS41" s="92"/>
+      <c r="AT41" s="92"/>
+      <c r="AU41" s="92"/>
+      <c r="AV41" s="92"/>
+      <c r="AW41" s="92"/>
+      <c r="AX41" s="92"/>
+      <c r="AY41" s="92"/>
+      <c r="AZ41" s="92"/>
+      <c r="BA41" s="92"/>
+      <c r="BB41" s="92"/>
+      <c r="BC41" s="92"/>
+      <c r="BD41" s="92"/>
+      <c r="BE41" s="92"/>
+      <c r="BF41" s="92"/>
+      <c r="BG41" s="92"/>
+      <c r="BH41" s="92"/>
+      <c r="BI41" s="92"/>
+      <c r="BJ41" s="92"/>
+      <c r="BK41" s="92"/>
+      <c r="BL41" s="92"/>
+      <c r="BM41" s="92"/>
+      <c r="BN41" s="92"/>
+      <c r="BO41" s="93"/>
+      <c r="BP41" s="17"/>
+      <c r="BQ41" s="18"/>
+      <c r="BR41" s="18"/>
+      <c r="BS41" s="18"/>
+      <c r="BT41" s="18"/>
+      <c r="BU41" s="18"/>
+      <c r="BV41" s="18"/>
+      <c r="BW41" s="19"/>
+      <c r="BX41" s="17"/>
+      <c r="BY41" s="18"/>
+      <c r="BZ41" s="18"/>
+      <c r="CA41" s="18"/>
+      <c r="CB41" s="18"/>
+      <c r="CC41" s="18"/>
+      <c r="CD41" s="18"/>
+      <c r="CE41" s="19"/>
+      <c r="CF41" s="112"/>
+      <c r="CG41" s="113"/>
+      <c r="CH41" s="113"/>
+      <c r="CI41" s="113"/>
+      <c r="CJ41" s="113"/>
+      <c r="CK41" s="113"/>
+      <c r="CL41" s="113"/>
+      <c r="CM41" s="114"/>
+      <c r="CN41" s="17"/>
+      <c r="CO41" s="18"/>
+      <c r="CP41" s="18"/>
+      <c r="CQ41" s="18"/>
+      <c r="CR41" s="18"/>
+      <c r="CS41" s="18"/>
+      <c r="CT41" s="18"/>
+      <c r="CU41" s="19"/>
+      <c r="CV41" s="17"/>
+      <c r="CW41" s="18"/>
+      <c r="CX41" s="18"/>
+      <c r="CY41" s="18"/>
+      <c r="CZ41" s="18"/>
+      <c r="DA41" s="18"/>
+      <c r="DB41" s="18"/>
+      <c r="DC41" s="19"/>
+      <c r="DD41" s="17"/>
+      <c r="DE41" s="18"/>
+      <c r="DF41" s="18"/>
+      <c r="DG41" s="18"/>
+      <c r="DH41" s="18"/>
+      <c r="DI41" s="18"/>
+      <c r="DJ41" s="18"/>
+      <c r="DK41" s="19"/>
+      <c r="DL41" s="17"/>
+      <c r="DM41" s="18"/>
+      <c r="DN41" s="18"/>
+      <c r="DO41" s="18"/>
+      <c r="DP41" s="18"/>
+      <c r="DQ41" s="18"/>
+      <c r="DR41" s="18"/>
+      <c r="DS41" s="19"/>
+      <c r="DT41" s="17"/>
+      <c r="DU41" s="18"/>
+      <c r="DV41" s="18"/>
+      <c r="DW41" s="18"/>
+      <c r="DX41" s="18"/>
+      <c r="DY41" s="18"/>
+      <c r="DZ41" s="18"/>
+      <c r="EA41" s="19"/>
+      <c r="EB41" s="17"/>
+      <c r="EC41" s="18"/>
+      <c r="ED41" s="18"/>
+      <c r="EE41" s="18"/>
+      <c r="EF41" s="18"/>
+      <c r="EG41" s="18"/>
+      <c r="EH41" s="18"/>
+      <c r="EI41" s="19"/>
+      <c r="EJ41" s="17"/>
+      <c r="EK41" s="18"/>
+      <c r="EL41" s="18"/>
+      <c r="EM41" s="18"/>
+      <c r="EN41" s="18"/>
+      <c r="EO41" s="18"/>
+      <c r="EP41" s="18"/>
+      <c r="EQ41" s="19"/>
+      <c r="ER41" s="112"/>
+      <c r="ES41" s="113"/>
+      <c r="ET41" s="113"/>
+      <c r="EU41" s="113"/>
+      <c r="EV41" s="113"/>
+      <c r="EW41" s="113"/>
+      <c r="EX41" s="113"/>
+      <c r="EY41" s="114"/>
+      <c r="EZ41" s="17"/>
+      <c r="FA41" s="18"/>
+      <c r="FB41" s="18"/>
+      <c r="FC41" s="18"/>
+      <c r="FD41" s="18"/>
+      <c r="FE41" s="18"/>
+      <c r="FF41" s="18"/>
+      <c r="FG41" s="19"/>
+      <c r="FH41" s="17"/>
+      <c r="FI41" s="18"/>
+      <c r="FJ41" s="18"/>
+      <c r="FK41" s="18"/>
+      <c r="FL41" s="18"/>
+      <c r="FM41" s="18"/>
+      <c r="FN41" s="18"/>
+      <c r="FO41" s="19"/>
+      <c r="FP41" s="17"/>
+      <c r="FQ41" s="18"/>
+      <c r="FR41" s="18"/>
+      <c r="FS41" s="18"/>
+      <c r="FT41" s="18"/>
+      <c r="FU41" s="18"/>
+      <c r="FV41" s="18"/>
+      <c r="FW41" s="19"/>
+      <c r="FX41" s="17"/>
+      <c r="FY41" s="18"/>
+      <c r="FZ41" s="18"/>
+      <c r="GA41" s="18"/>
+      <c r="GB41" s="18"/>
+      <c r="GC41" s="18"/>
+      <c r="GD41" s="18"/>
+      <c r="GE41" s="19"/>
+      <c r="GF41" s="17"/>
+      <c r="GG41" s="18"/>
+      <c r="GH41" s="18"/>
+      <c r="GI41" s="18"/>
+      <c r="GJ41" s="18"/>
+      <c r="GK41" s="18"/>
+      <c r="GL41" s="18"/>
+      <c r="GM41" s="45"/>
+      <c r="GN41" s="53"/>
+      <c r="GO41" s="48"/>
+      <c r="GP41" s="18"/>
+      <c r="GQ41" s="18"/>
+      <c r="GR41" s="18"/>
+      <c r="GS41" s="17"/>
+      <c r="GT41" s="18"/>
+      <c r="GU41" s="18"/>
+      <c r="GV41" s="18"/>
+      <c r="GW41" s="129"/>
+    </row>
+    <row r="42" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A42" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="81"/>
-      <c r="P37" s="81"/>
-      <c r="Q37" s="81"/>
-      <c r="R37" s="81"/>
-      <c r="S37" s="81"/>
-      <c r="T37" s="81"/>
-      <c r="U37" s="81"/>
-      <c r="V37" s="81"/>
-      <c r="W37" s="81"/>
-      <c r="X37" s="81"/>
-      <c r="Y37" s="81"/>
-      <c r="Z37" s="81"/>
-      <c r="AA37" s="81"/>
-      <c r="AB37" s="81"/>
-      <c r="AC37" s="81"/>
-      <c r="AD37" s="81"/>
-      <c r="AE37" s="81"/>
-      <c r="AF37" s="81"/>
-      <c r="AG37" s="81"/>
-      <c r="AH37" s="81"/>
-      <c r="AI37" s="81"/>
-      <c r="AJ37" s="81"/>
-      <c r="AK37" s="81"/>
-      <c r="AL37" s="81"/>
-      <c r="AM37" s="81"/>
-      <c r="AN37" s="81"/>
-      <c r="AO37" s="81"/>
-      <c r="AP37" s="81"/>
-      <c r="AQ37" s="81"/>
-      <c r="AR37" s="81"/>
-      <c r="AS37" s="81"/>
-      <c r="AT37" s="81"/>
-      <c r="AU37" s="81"/>
-      <c r="AV37" s="81"/>
-      <c r="AW37" s="81"/>
-      <c r="AX37" s="81"/>
-      <c r="AY37" s="81"/>
-      <c r="AZ37" s="81"/>
-      <c r="BA37" s="81"/>
-      <c r="BB37" s="81"/>
-      <c r="BC37" s="81"/>
-      <c r="BD37" s="81"/>
-      <c r="BE37" s="81"/>
-      <c r="BF37" s="81"/>
-      <c r="BG37" s="81"/>
-      <c r="BH37" s="81"/>
-      <c r="BI37" s="81"/>
-      <c r="BJ37" s="81"/>
-      <c r="BK37" s="81"/>
-      <c r="BL37" s="81"/>
-      <c r="BM37" s="81"/>
-      <c r="BN37" s="81"/>
-      <c r="BO37" s="81"/>
-      <c r="BP37" s="81"/>
-      <c r="BQ37" s="81"/>
-      <c r="BR37" s="81"/>
-      <c r="BS37" s="81"/>
-      <c r="BT37" s="81"/>
-      <c r="BU37" s="81"/>
-      <c r="BV37" s="81"/>
-      <c r="BW37" s="81"/>
-      <c r="BX37" s="81"/>
-      <c r="BY37" s="81"/>
-      <c r="BZ37" s="81"/>
-      <c r="CA37" s="81"/>
-      <c r="CB37" s="81"/>
-      <c r="CC37" s="81"/>
-      <c r="CD37" s="81"/>
-      <c r="CE37" s="81"/>
-      <c r="CF37" s="81"/>
-      <c r="CG37" s="81"/>
-      <c r="CH37" s="81"/>
-      <c r="CI37" s="81"/>
-      <c r="CJ37" s="81"/>
-      <c r="CK37" s="81"/>
-      <c r="CL37" s="81"/>
-      <c r="CM37" s="81"/>
-      <c r="CN37" s="81"/>
-      <c r="CO37" s="81"/>
-      <c r="CP37" s="81"/>
-      <c r="CQ37" s="81"/>
-      <c r="CR37" s="81"/>
-      <c r="CS37" s="81"/>
-      <c r="CT37" s="81"/>
-      <c r="CU37" s="81"/>
-      <c r="CV37" s="81"/>
-      <c r="CW37" s="81"/>
-      <c r="CX37" s="81"/>
-      <c r="CY37" s="81"/>
-      <c r="CZ37" s="81"/>
-      <c r="DA37" s="81"/>
-      <c r="DB37" s="81"/>
-      <c r="DC37" s="81"/>
-      <c r="DD37" s="81"/>
-      <c r="DE37" s="81"/>
-      <c r="DF37" s="81"/>
-      <c r="DG37" s="81"/>
-      <c r="DH37" s="81"/>
-      <c r="DI37" s="81"/>
-      <c r="DJ37" s="81"/>
-      <c r="DK37" s="81"/>
-      <c r="DL37" s="81"/>
-      <c r="DM37" s="81"/>
-      <c r="DN37" s="81"/>
-      <c r="DO37" s="81"/>
-      <c r="DP37" s="81"/>
-      <c r="DQ37" s="81"/>
-      <c r="DR37" s="81"/>
-      <c r="DS37" s="81"/>
-      <c r="DT37" s="81"/>
-      <c r="DU37" s="81"/>
-      <c r="DV37" s="81"/>
-      <c r="DW37" s="81"/>
-      <c r="DX37" s="81"/>
-      <c r="DY37" s="81"/>
-      <c r="DZ37" s="81"/>
-      <c r="EA37" s="81"/>
-      <c r="EB37" s="81"/>
-      <c r="EC37" s="81"/>
-      <c r="ED37" s="81"/>
-      <c r="EE37" s="81"/>
-      <c r="EF37" s="81"/>
-      <c r="EG37" s="81"/>
-      <c r="EH37" s="81"/>
-      <c r="EI37" s="81"/>
-      <c r="EJ37" s="81"/>
-      <c r="EK37" s="81"/>
-      <c r="EL37" s="81"/>
-      <c r="EM37" s="81"/>
-      <c r="EN37" s="81"/>
-      <c r="EO37" s="81"/>
-      <c r="EP37" s="81"/>
-      <c r="EQ37" s="81"/>
-      <c r="ER37" s="81"/>
-      <c r="ES37" s="81"/>
-      <c r="ET37" s="81"/>
-      <c r="EU37" s="81"/>
-      <c r="EV37" s="81"/>
-      <c r="EW37" s="81"/>
-      <c r="EX37" s="81"/>
-      <c r="EY37" s="81"/>
-      <c r="EZ37" s="81"/>
-      <c r="FA37" s="81"/>
-      <c r="FB37" s="81"/>
-      <c r="FC37" s="81"/>
-      <c r="FD37" s="81"/>
-      <c r="FE37" s="81"/>
-      <c r="FF37" s="81"/>
-      <c r="FG37" s="81"/>
-      <c r="FH37" s="81"/>
-      <c r="FI37" s="81"/>
-      <c r="FJ37" s="81"/>
-      <c r="FK37" s="81"/>
-      <c r="FL37" s="81"/>
-      <c r="FM37" s="81"/>
-      <c r="FN37" s="81"/>
-      <c r="FO37" s="81"/>
-      <c r="FP37" s="81"/>
-      <c r="FQ37" s="81"/>
-      <c r="FR37" s="81"/>
-      <c r="FS37" s="81"/>
-      <c r="FT37" s="81"/>
-      <c r="FU37" s="81"/>
-      <c r="FV37" s="81"/>
-      <c r="FW37" s="81"/>
-      <c r="FX37" s="81"/>
-      <c r="FY37" s="81"/>
-      <c r="FZ37" s="81"/>
-      <c r="GA37" s="81"/>
-      <c r="GB37" s="81"/>
-      <c r="GC37" s="81"/>
-      <c r="GD37" s="81"/>
-      <c r="GE37" s="81"/>
-      <c r="GF37" s="81"/>
-      <c r="GG37" s="81"/>
-      <c r="GH37" s="81"/>
-      <c r="GI37" s="81"/>
-      <c r="GJ37" s="81"/>
-      <c r="GK37" s="81"/>
-      <c r="GL37" s="81"/>
-      <c r="GM37" s="81"/>
-      <c r="GN37" s="81"/>
-      <c r="GO37" s="81"/>
-      <c r="GP37" s="81"/>
-      <c r="GQ37" s="81"/>
-      <c r="GR37" s="81"/>
-      <c r="GS37" s="81"/>
-      <c r="GT37" s="81"/>
-      <c r="GU37" s="81"/>
-      <c r="GV37" s="81"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="122"/>
+      <c r="G42" s="122"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="122"/>
+      <c r="J42" s="122"/>
+      <c r="K42" s="122"/>
+      <c r="L42" s="122"/>
+      <c r="M42" s="122"/>
+      <c r="N42" s="122"/>
+      <c r="O42" s="122"/>
+      <c r="P42" s="122"/>
+      <c r="Q42" s="122"/>
+      <c r="R42" s="122"/>
+      <c r="S42" s="122"/>
+      <c r="T42" s="122"/>
+      <c r="U42" s="122"/>
+      <c r="V42" s="122"/>
+      <c r="W42" s="122"/>
+      <c r="X42" s="122"/>
+      <c r="Y42" s="122"/>
+      <c r="Z42" s="122"/>
+      <c r="AA42" s="122"/>
+      <c r="AB42" s="122"/>
+      <c r="AC42" s="122"/>
+      <c r="AD42" s="122"/>
+      <c r="AE42" s="122"/>
+      <c r="AF42" s="122"/>
+      <c r="AG42" s="122"/>
+      <c r="AH42" s="122"/>
+      <c r="AI42" s="122"/>
+      <c r="AJ42" s="122"/>
+      <c r="AK42" s="122"/>
+      <c r="AL42" s="122"/>
+      <c r="AM42" s="122"/>
+      <c r="AN42" s="122"/>
+      <c r="AO42" s="122"/>
+      <c r="AP42" s="122"/>
+      <c r="AQ42" s="122"/>
+      <c r="AR42" s="122"/>
+      <c r="AS42" s="122"/>
+      <c r="AT42" s="122"/>
+      <c r="AU42" s="122"/>
+      <c r="AV42" s="122"/>
+      <c r="AW42" s="122"/>
+      <c r="AX42" s="122"/>
+      <c r="AY42" s="122"/>
+      <c r="AZ42" s="122"/>
+      <c r="BA42" s="122"/>
+      <c r="BB42" s="122"/>
+      <c r="BC42" s="122"/>
+      <c r="BD42" s="122"/>
+      <c r="BE42" s="122"/>
+      <c r="BF42" s="122"/>
+      <c r="BG42" s="122"/>
+      <c r="BH42" s="122"/>
+      <c r="BI42" s="122"/>
+      <c r="BJ42" s="122"/>
+      <c r="BK42" s="122"/>
+      <c r="BL42" s="122"/>
+      <c r="BM42" s="122"/>
+      <c r="BN42" s="122"/>
+      <c r="BO42" s="122"/>
+      <c r="BP42" s="122"/>
+      <c r="BQ42" s="122"/>
+      <c r="BR42" s="122"/>
+      <c r="BS42" s="122"/>
+      <c r="BT42" s="122"/>
+      <c r="BU42" s="122"/>
+      <c r="BV42" s="122"/>
+      <c r="BW42" s="122"/>
+      <c r="BX42" s="122"/>
+      <c r="BY42" s="122"/>
+      <c r="BZ42" s="122"/>
+      <c r="CA42" s="122"/>
+      <c r="CB42" s="122"/>
+      <c r="CC42" s="122"/>
+      <c r="CD42" s="122"/>
+      <c r="CE42" s="122"/>
+      <c r="CF42" s="122"/>
+      <c r="CG42" s="122"/>
+      <c r="CH42" s="122"/>
+      <c r="CI42" s="122"/>
+      <c r="CJ42" s="122"/>
+      <c r="CK42" s="122"/>
+      <c r="CL42" s="122"/>
+      <c r="CM42" s="122"/>
+      <c r="CN42" s="122"/>
+      <c r="CO42" s="122"/>
+      <c r="CP42" s="122"/>
+      <c r="CQ42" s="122"/>
+      <c r="CR42" s="122"/>
+      <c r="CS42" s="122"/>
+      <c r="CT42" s="122"/>
+      <c r="CU42" s="122"/>
+      <c r="CV42" s="122"/>
+      <c r="CW42" s="122"/>
+      <c r="CX42" s="122"/>
+      <c r="CY42" s="122"/>
+      <c r="CZ42" s="122"/>
+      <c r="DA42" s="122"/>
+      <c r="DB42" s="122"/>
+      <c r="DC42" s="122"/>
+      <c r="DD42" s="122"/>
+      <c r="DE42" s="122"/>
+      <c r="DF42" s="122"/>
+      <c r="DG42" s="122"/>
+      <c r="DH42" s="122"/>
+      <c r="DI42" s="122"/>
+      <c r="DJ42" s="122"/>
+      <c r="DK42" s="122"/>
+      <c r="DL42" s="122"/>
+      <c r="DM42" s="122"/>
+      <c r="DN42" s="122"/>
+      <c r="DO42" s="122"/>
+      <c r="DP42" s="122"/>
+      <c r="DQ42" s="122"/>
+      <c r="DR42" s="122"/>
+      <c r="DS42" s="122"/>
+      <c r="DT42" s="122"/>
+      <c r="DU42" s="122"/>
+      <c r="DV42" s="122"/>
+      <c r="DW42" s="122"/>
+      <c r="DX42" s="122"/>
+      <c r="DY42" s="122"/>
+      <c r="DZ42" s="122"/>
+      <c r="EA42" s="122"/>
+      <c r="EB42" s="122"/>
+      <c r="EC42" s="122"/>
+      <c r="ED42" s="122"/>
+      <c r="EE42" s="122"/>
+      <c r="EF42" s="122"/>
+      <c r="EG42" s="122"/>
+      <c r="EH42" s="122"/>
+      <c r="EI42" s="122"/>
+      <c r="EJ42" s="122"/>
+      <c r="EK42" s="122"/>
+      <c r="EL42" s="122"/>
+      <c r="EM42" s="122"/>
+      <c r="EN42" s="122"/>
+      <c r="EO42" s="122"/>
+      <c r="EP42" s="122"/>
+      <c r="EQ42" s="122"/>
+      <c r="ER42" s="122"/>
+      <c r="ES42" s="122"/>
+      <c r="ET42" s="122"/>
+      <c r="EU42" s="122"/>
+      <c r="EV42" s="122"/>
+      <c r="EW42" s="122"/>
+      <c r="EX42" s="122"/>
+      <c r="EY42" s="122"/>
+      <c r="EZ42" s="122"/>
+      <c r="FA42" s="122"/>
+      <c r="FB42" s="122"/>
+      <c r="FC42" s="122"/>
+      <c r="FD42" s="122"/>
+      <c r="FE42" s="122"/>
+      <c r="FF42" s="122"/>
+      <c r="FG42" s="122"/>
+      <c r="FH42" s="122"/>
+      <c r="FI42" s="122"/>
+      <c r="FJ42" s="122"/>
+      <c r="FK42" s="122"/>
+      <c r="FL42" s="122"/>
+      <c r="FM42" s="122"/>
+      <c r="FN42" s="122"/>
+      <c r="FO42" s="122"/>
+      <c r="FP42" s="122"/>
+      <c r="FQ42" s="122"/>
+      <c r="FR42" s="122"/>
+      <c r="FS42" s="122"/>
+      <c r="FT42" s="122"/>
+      <c r="FU42" s="122"/>
+      <c r="FV42" s="122"/>
+      <c r="FW42" s="122"/>
+      <c r="FX42" s="122"/>
+      <c r="FY42" s="122"/>
+      <c r="FZ42" s="122"/>
+      <c r="GA42" s="122"/>
+      <c r="GB42" s="122"/>
+      <c r="GC42" s="122"/>
+      <c r="GD42" s="122"/>
+      <c r="GE42" s="122"/>
+      <c r="GF42" s="122"/>
+      <c r="GG42" s="122"/>
+      <c r="GH42" s="122"/>
+      <c r="GI42" s="122"/>
+      <c r="GJ42" s="122"/>
+      <c r="GK42" s="122"/>
+      <c r="GL42" s="122"/>
+      <c r="GM42" s="122"/>
+      <c r="GN42" s="122"/>
+      <c r="GO42" s="122"/>
+      <c r="GP42" s="122"/>
+      <c r="GQ42" s="122"/>
+      <c r="GR42" s="122"/>
+      <c r="GS42" s="122"/>
+      <c r="GT42" s="122"/>
+      <c r="GU42" s="122"/>
+      <c r="GV42" s="122"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="71">
     <mergeCell ref="FH4:FK4"/>
     <mergeCell ref="DT4:DW4"/>
     <mergeCell ref="DX4:EA4"/>
@@ -9960,14 +11319,14 @@
     <mergeCell ref="CV4:CY4"/>
     <mergeCell ref="FL4:FO4"/>
     <mergeCell ref="FP4:FS4"/>
-    <mergeCell ref="GW4:GW36"/>
+    <mergeCell ref="GW4:GW41"/>
     <mergeCell ref="FX4:GA4"/>
     <mergeCell ref="GB4:GE4"/>
     <mergeCell ref="GF4:GI4"/>
     <mergeCell ref="GJ4:GM4"/>
     <mergeCell ref="GO4:GR4"/>
     <mergeCell ref="GS4:GV4"/>
-    <mergeCell ref="A37:GV37"/>
+    <mergeCell ref="A42:GV42"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="DT2:FG3"/>
     <mergeCell ref="FH2:GV3"/>
@@ -9983,10 +11342,9 @@
     <mergeCell ref="EJ4:EM4"/>
     <mergeCell ref="DL4:DO4"/>
     <mergeCell ref="DP4:DS4"/>
-    <mergeCell ref="DT6:EA36"/>
-    <mergeCell ref="ER6:EY36"/>
-    <mergeCell ref="AB6:AI36"/>
-    <mergeCell ref="CF6:CM36"/>
+    <mergeCell ref="ER6:EY41"/>
+    <mergeCell ref="AB6:AI41"/>
+    <mergeCell ref="CF6:CM41"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="P4:S4"/>
@@ -9999,8 +11357,16 @@
     <mergeCell ref="BT4:BW4"/>
     <mergeCell ref="DD4:DG4"/>
     <mergeCell ref="DH4:DK4"/>
+    <mergeCell ref="D41:AA41"/>
+    <mergeCell ref="AJ41:BO41"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:B39"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:B36">
+  <conditionalFormatting sqref="B6 B8:B9 B11:B13 B21:B36 B38 B40:B41 B15:B19">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",B6)))</formula>
     </cfRule>

--- a/docs/2_CAND_Modele_Planning_2024.xlsx
+++ b/docs/2_CAND_Modele_Planning_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3E9284-1ADF-4984-BA26-9200E7974A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E717FD-004A-4036-8FFB-AD4DF03E3C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="58">
   <si>
     <t>Tâches</t>
   </si>
@@ -1409,6 +1409,102 @@
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1475,102 +1571,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1605,6 +1605,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF7CB9F"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFAE9CC4"/>
@@ -1629,22 +1630,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>99</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle à coins arrondis 1">
+        <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF315A4-E156-0036-460C-829D7ABA0E51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,19 +1653,40 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3982243" y="695324"/>
-          <a:ext cx="14143831" cy="6429375"/>
+          <a:off x="3981449" y="1038225"/>
+          <a:ext cx="16411575" cy="6076950"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="F7CB9F">
+                <a:alpha val="50196"/>
+              </a:srgbClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="bg1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="10800000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:srgbClr val="000000"/>
@@ -1677,35 +1699,11 @@
         <a:effectLst/>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-CH" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Zone d'avancement &gt;&gt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CH" sz="900" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CH" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> étirer sur la gauche pour montrer l'avancement du projet</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-CH" sz="900"/>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CH" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2065,10 +2063,10 @@
   <dimension ref="A1:GW42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="CK6" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="BU6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2083,11 +2081,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:205" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2133,427 +2131,427 @@
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="116">
+      <c r="B2" s="111">
         <v>148477</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="125" t="s">
+      <c r="C2" s="112"/>
+      <c r="D2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
-      <c r="AA2" s="125"/>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="125"/>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="125"/>
-      <c r="AG2" s="125"/>
-      <c r="AH2" s="125"/>
-      <c r="AI2" s="125"/>
-      <c r="AJ2" s="125"/>
-      <c r="AK2" s="125"/>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="125"/>
-      <c r="AO2" s="125"/>
-      <c r="AP2" s="125"/>
-      <c r="AQ2" s="125"/>
-      <c r="AR2" s="125" t="s">
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="125"/>
-      <c r="AT2" s="125"/>
-      <c r="AU2" s="125"/>
-      <c r="AV2" s="125"/>
-      <c r="AW2" s="125"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="125"/>
-      <c r="AZ2" s="125"/>
-      <c r="BA2" s="125"/>
-      <c r="BB2" s="125"/>
-      <c r="BC2" s="125"/>
-      <c r="BD2" s="125"/>
-      <c r="BE2" s="125"/>
-      <c r="BF2" s="125"/>
-      <c r="BG2" s="125"/>
-      <c r="BH2" s="125"/>
-      <c r="BI2" s="125"/>
-      <c r="BJ2" s="125"/>
-      <c r="BK2" s="125"/>
-      <c r="BL2" s="125"/>
-      <c r="BM2" s="125"/>
-      <c r="BN2" s="125"/>
-      <c r="BO2" s="125"/>
-      <c r="BP2" s="125"/>
-      <c r="BQ2" s="125"/>
-      <c r="BR2" s="125"/>
-      <c r="BS2" s="125"/>
-      <c r="BT2" s="125"/>
-      <c r="BU2" s="125"/>
-      <c r="BV2" s="125"/>
-      <c r="BW2" s="125"/>
-      <c r="BX2" s="125"/>
-      <c r="BY2" s="125"/>
-      <c r="BZ2" s="125"/>
-      <c r="CA2" s="125"/>
-      <c r="CB2" s="125"/>
-      <c r="CC2" s="125"/>
-      <c r="CD2" s="125"/>
-      <c r="CE2" s="125"/>
-      <c r="CF2" s="125" t="s">
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
+      <c r="AW2" s="97"/>
+      <c r="AX2" s="97"/>
+      <c r="AY2" s="97"/>
+      <c r="AZ2" s="97"/>
+      <c r="BA2" s="97"/>
+      <c r="BB2" s="97"/>
+      <c r="BC2" s="97"/>
+      <c r="BD2" s="97"/>
+      <c r="BE2" s="97"/>
+      <c r="BF2" s="97"/>
+      <c r="BG2" s="97"/>
+      <c r="BH2" s="97"/>
+      <c r="BI2" s="97"/>
+      <c r="BJ2" s="97"/>
+      <c r="BK2" s="97"/>
+      <c r="BL2" s="97"/>
+      <c r="BM2" s="97"/>
+      <c r="BN2" s="97"/>
+      <c r="BO2" s="97"/>
+      <c r="BP2" s="97"/>
+      <c r="BQ2" s="97"/>
+      <c r="BR2" s="97"/>
+      <c r="BS2" s="97"/>
+      <c r="BT2" s="97"/>
+      <c r="BU2" s="97"/>
+      <c r="BV2" s="97"/>
+      <c r="BW2" s="97"/>
+      <c r="BX2" s="97"/>
+      <c r="BY2" s="97"/>
+      <c r="BZ2" s="97"/>
+      <c r="CA2" s="97"/>
+      <c r="CB2" s="97"/>
+      <c r="CC2" s="97"/>
+      <c r="CD2" s="97"/>
+      <c r="CE2" s="97"/>
+      <c r="CF2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="CG2" s="125"/>
-      <c r="CH2" s="125"/>
-      <c r="CI2" s="125"/>
-      <c r="CJ2" s="125"/>
-      <c r="CK2" s="125"/>
-      <c r="CL2" s="125"/>
-      <c r="CM2" s="125"/>
-      <c r="CN2" s="125"/>
-      <c r="CO2" s="125"/>
-      <c r="CP2" s="125"/>
-      <c r="CQ2" s="125"/>
-      <c r="CR2" s="125"/>
-      <c r="CS2" s="125"/>
-      <c r="CT2" s="125"/>
-      <c r="CU2" s="125"/>
-      <c r="CV2" s="125"/>
-      <c r="CW2" s="125"/>
-      <c r="CX2" s="125"/>
-      <c r="CY2" s="125"/>
-      <c r="CZ2" s="125"/>
-      <c r="DA2" s="125"/>
-      <c r="DB2" s="125"/>
-      <c r="DC2" s="125"/>
-      <c r="DD2" s="125"/>
-      <c r="DE2" s="125"/>
-      <c r="DF2" s="125"/>
-      <c r="DG2" s="125"/>
-      <c r="DH2" s="125"/>
-      <c r="DI2" s="125"/>
-      <c r="DJ2" s="125"/>
-      <c r="DK2" s="125"/>
-      <c r="DL2" s="125"/>
-      <c r="DM2" s="125"/>
-      <c r="DN2" s="125"/>
-      <c r="DO2" s="125"/>
-      <c r="DP2" s="125"/>
-      <c r="DQ2" s="125"/>
-      <c r="DR2" s="125"/>
-      <c r="DS2" s="125"/>
-      <c r="DT2" s="125" t="s">
+      <c r="CG2" s="97"/>
+      <c r="CH2" s="97"/>
+      <c r="CI2" s="97"/>
+      <c r="CJ2" s="97"/>
+      <c r="CK2" s="97"/>
+      <c r="CL2" s="97"/>
+      <c r="CM2" s="97"/>
+      <c r="CN2" s="97"/>
+      <c r="CO2" s="97"/>
+      <c r="CP2" s="97"/>
+      <c r="CQ2" s="97"/>
+      <c r="CR2" s="97"/>
+      <c r="CS2" s="97"/>
+      <c r="CT2" s="97"/>
+      <c r="CU2" s="97"/>
+      <c r="CV2" s="97"/>
+      <c r="CW2" s="97"/>
+      <c r="CX2" s="97"/>
+      <c r="CY2" s="97"/>
+      <c r="CZ2" s="97"/>
+      <c r="DA2" s="97"/>
+      <c r="DB2" s="97"/>
+      <c r="DC2" s="97"/>
+      <c r="DD2" s="97"/>
+      <c r="DE2" s="97"/>
+      <c r="DF2" s="97"/>
+      <c r="DG2" s="97"/>
+      <c r="DH2" s="97"/>
+      <c r="DI2" s="97"/>
+      <c r="DJ2" s="97"/>
+      <c r="DK2" s="97"/>
+      <c r="DL2" s="97"/>
+      <c r="DM2" s="97"/>
+      <c r="DN2" s="97"/>
+      <c r="DO2" s="97"/>
+      <c r="DP2" s="97"/>
+      <c r="DQ2" s="97"/>
+      <c r="DR2" s="97"/>
+      <c r="DS2" s="97"/>
+      <c r="DT2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="DU2" s="125"/>
-      <c r="DV2" s="125"/>
-      <c r="DW2" s="125"/>
-      <c r="DX2" s="125"/>
-      <c r="DY2" s="125"/>
-      <c r="DZ2" s="125"/>
-      <c r="EA2" s="125"/>
-      <c r="EB2" s="125"/>
-      <c r="EC2" s="125"/>
-      <c r="ED2" s="125"/>
-      <c r="EE2" s="125"/>
-      <c r="EF2" s="125"/>
-      <c r="EG2" s="125"/>
-      <c r="EH2" s="125"/>
-      <c r="EI2" s="125"/>
-      <c r="EJ2" s="125"/>
-      <c r="EK2" s="125"/>
-      <c r="EL2" s="125"/>
-      <c r="EM2" s="125"/>
-      <c r="EN2" s="125"/>
-      <c r="EO2" s="125"/>
-      <c r="EP2" s="125"/>
-      <c r="EQ2" s="125"/>
-      <c r="ER2" s="125"/>
-      <c r="ES2" s="125"/>
-      <c r="ET2" s="125"/>
-      <c r="EU2" s="125"/>
-      <c r="EV2" s="125"/>
-      <c r="EW2" s="125"/>
-      <c r="EX2" s="125"/>
-      <c r="EY2" s="125"/>
-      <c r="EZ2" s="125"/>
-      <c r="FA2" s="125"/>
-      <c r="FB2" s="125"/>
-      <c r="FC2" s="125"/>
-      <c r="FD2" s="125"/>
-      <c r="FE2" s="125"/>
-      <c r="FF2" s="125"/>
-      <c r="FG2" s="125"/>
-      <c r="FH2" s="125" t="s">
+      <c r="DU2" s="97"/>
+      <c r="DV2" s="97"/>
+      <c r="DW2" s="97"/>
+      <c r="DX2" s="97"/>
+      <c r="DY2" s="97"/>
+      <c r="DZ2" s="97"/>
+      <c r="EA2" s="97"/>
+      <c r="EB2" s="97"/>
+      <c r="EC2" s="97"/>
+      <c r="ED2" s="97"/>
+      <c r="EE2" s="97"/>
+      <c r="EF2" s="97"/>
+      <c r="EG2" s="97"/>
+      <c r="EH2" s="97"/>
+      <c r="EI2" s="97"/>
+      <c r="EJ2" s="97"/>
+      <c r="EK2" s="97"/>
+      <c r="EL2" s="97"/>
+      <c r="EM2" s="97"/>
+      <c r="EN2" s="97"/>
+      <c r="EO2" s="97"/>
+      <c r="EP2" s="97"/>
+      <c r="EQ2" s="97"/>
+      <c r="ER2" s="97"/>
+      <c r="ES2" s="97"/>
+      <c r="ET2" s="97"/>
+      <c r="EU2" s="97"/>
+      <c r="EV2" s="97"/>
+      <c r="EW2" s="97"/>
+      <c r="EX2" s="97"/>
+      <c r="EY2" s="97"/>
+      <c r="EZ2" s="97"/>
+      <c r="FA2" s="97"/>
+      <c r="FB2" s="97"/>
+      <c r="FC2" s="97"/>
+      <c r="FD2" s="97"/>
+      <c r="FE2" s="97"/>
+      <c r="FF2" s="97"/>
+      <c r="FG2" s="97"/>
+      <c r="FH2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="FI2" s="125"/>
-      <c r="FJ2" s="125"/>
-      <c r="FK2" s="125"/>
-      <c r="FL2" s="125"/>
-      <c r="FM2" s="125"/>
-      <c r="FN2" s="125"/>
-      <c r="FO2" s="125"/>
-      <c r="FP2" s="125"/>
-      <c r="FQ2" s="125"/>
-      <c r="FR2" s="125"/>
-      <c r="FS2" s="125"/>
-      <c r="FT2" s="125"/>
-      <c r="FU2" s="125"/>
-      <c r="FV2" s="125"/>
-      <c r="FW2" s="125"/>
-      <c r="FX2" s="125"/>
-      <c r="FY2" s="125"/>
-      <c r="FZ2" s="125"/>
-      <c r="GA2" s="125"/>
-      <c r="GB2" s="125"/>
-      <c r="GC2" s="125"/>
-      <c r="GD2" s="125"/>
-      <c r="GE2" s="125"/>
-      <c r="GF2" s="125"/>
-      <c r="GG2" s="125"/>
-      <c r="GH2" s="125"/>
-      <c r="GI2" s="125"/>
-      <c r="GJ2" s="125"/>
-      <c r="GK2" s="125"/>
-      <c r="GL2" s="125"/>
-      <c r="GM2" s="125"/>
-      <c r="GN2" s="125"/>
-      <c r="GO2" s="125"/>
-      <c r="GP2" s="125"/>
-      <c r="GQ2" s="125"/>
-      <c r="GR2" s="125"/>
-      <c r="GS2" s="125"/>
-      <c r="GT2" s="125"/>
-      <c r="GU2" s="125"/>
-      <c r="GV2" s="125"/>
+      <c r="FI2" s="97"/>
+      <c r="FJ2" s="97"/>
+      <c r="FK2" s="97"/>
+      <c r="FL2" s="97"/>
+      <c r="FM2" s="97"/>
+      <c r="FN2" s="97"/>
+      <c r="FO2" s="97"/>
+      <c r="FP2" s="97"/>
+      <c r="FQ2" s="97"/>
+      <c r="FR2" s="97"/>
+      <c r="FS2" s="97"/>
+      <c r="FT2" s="97"/>
+      <c r="FU2" s="97"/>
+      <c r="FV2" s="97"/>
+      <c r="FW2" s="97"/>
+      <c r="FX2" s="97"/>
+      <c r="FY2" s="97"/>
+      <c r="FZ2" s="97"/>
+      <c r="GA2" s="97"/>
+      <c r="GB2" s="97"/>
+      <c r="GC2" s="97"/>
+      <c r="GD2" s="97"/>
+      <c r="GE2" s="97"/>
+      <c r="GF2" s="97"/>
+      <c r="GG2" s="97"/>
+      <c r="GH2" s="97"/>
+      <c r="GI2" s="97"/>
+      <c r="GJ2" s="97"/>
+      <c r="GK2" s="97"/>
+      <c r="GL2" s="97"/>
+      <c r="GM2" s="97"/>
+      <c r="GN2" s="97"/>
+      <c r="GO2" s="97"/>
+      <c r="GP2" s="97"/>
+      <c r="GQ2" s="97"/>
+      <c r="GR2" s="97"/>
+      <c r="GS2" s="97"/>
+      <c r="GT2" s="97"/>
+      <c r="GU2" s="97"/>
+      <c r="GV2" s="97"/>
     </row>
     <row r="3" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
-      <c r="V3" s="126"/>
-      <c r="W3" s="126"/>
-      <c r="X3" s="126"/>
-      <c r="Y3" s="126"/>
-      <c r="Z3" s="126"/>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="126"/>
-      <c r="AC3" s="126"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="126"/>
-      <c r="AG3" s="126"/>
-      <c r="AH3" s="126"/>
-      <c r="AI3" s="126"/>
-      <c r="AJ3" s="126"/>
-      <c r="AK3" s="126"/>
-      <c r="AL3" s="126"/>
-      <c r="AM3" s="126"/>
-      <c r="AN3" s="126"/>
-      <c r="AO3" s="126"/>
-      <c r="AP3" s="126"/>
-      <c r="AQ3" s="126"/>
-      <c r="AR3" s="126"/>
-      <c r="AS3" s="126"/>
-      <c r="AT3" s="126"/>
-      <c r="AU3" s="126"/>
-      <c r="AV3" s="126"/>
-      <c r="AW3" s="126"/>
-      <c r="AX3" s="126"/>
-      <c r="AY3" s="126"/>
-      <c r="AZ3" s="126"/>
-      <c r="BA3" s="126"/>
-      <c r="BB3" s="126"/>
-      <c r="BC3" s="126"/>
-      <c r="BD3" s="126"/>
-      <c r="BE3" s="126"/>
-      <c r="BF3" s="126"/>
-      <c r="BG3" s="126"/>
-      <c r="BH3" s="126"/>
-      <c r="BI3" s="126"/>
-      <c r="BJ3" s="126"/>
-      <c r="BK3" s="126"/>
-      <c r="BL3" s="126"/>
-      <c r="BM3" s="126"/>
-      <c r="BN3" s="126"/>
-      <c r="BO3" s="126"/>
-      <c r="BP3" s="126"/>
-      <c r="BQ3" s="126"/>
-      <c r="BR3" s="126"/>
-      <c r="BS3" s="126"/>
-      <c r="BT3" s="126"/>
-      <c r="BU3" s="126"/>
-      <c r="BV3" s="126"/>
-      <c r="BW3" s="126"/>
-      <c r="BX3" s="126"/>
-      <c r="BY3" s="126"/>
-      <c r="BZ3" s="126"/>
-      <c r="CA3" s="126"/>
-      <c r="CB3" s="126"/>
-      <c r="CC3" s="126"/>
-      <c r="CD3" s="126"/>
-      <c r="CE3" s="126"/>
-      <c r="CF3" s="126"/>
-      <c r="CG3" s="126"/>
-      <c r="CH3" s="126"/>
-      <c r="CI3" s="126"/>
-      <c r="CJ3" s="126"/>
-      <c r="CK3" s="126"/>
-      <c r="CL3" s="126"/>
-      <c r="CM3" s="126"/>
-      <c r="CN3" s="126"/>
-      <c r="CO3" s="126"/>
-      <c r="CP3" s="126"/>
-      <c r="CQ3" s="126"/>
-      <c r="CR3" s="126"/>
-      <c r="CS3" s="126"/>
-      <c r="CT3" s="126"/>
-      <c r="CU3" s="126"/>
-      <c r="CV3" s="126"/>
-      <c r="CW3" s="126"/>
-      <c r="CX3" s="126"/>
-      <c r="CY3" s="126"/>
-      <c r="CZ3" s="126"/>
-      <c r="DA3" s="126"/>
-      <c r="DB3" s="126"/>
-      <c r="DC3" s="126"/>
-      <c r="DD3" s="126"/>
-      <c r="DE3" s="126"/>
-      <c r="DF3" s="126"/>
-      <c r="DG3" s="126"/>
-      <c r="DH3" s="126"/>
-      <c r="DI3" s="126"/>
-      <c r="DJ3" s="126"/>
-      <c r="DK3" s="126"/>
-      <c r="DL3" s="126"/>
-      <c r="DM3" s="126"/>
-      <c r="DN3" s="126"/>
-      <c r="DO3" s="126"/>
-      <c r="DP3" s="126"/>
-      <c r="DQ3" s="126"/>
-      <c r="DR3" s="126"/>
-      <c r="DS3" s="126"/>
-      <c r="DT3" s="126"/>
-      <c r="DU3" s="126"/>
-      <c r="DV3" s="126"/>
-      <c r="DW3" s="126"/>
-      <c r="DX3" s="126"/>
-      <c r="DY3" s="126"/>
-      <c r="DZ3" s="126"/>
-      <c r="EA3" s="126"/>
-      <c r="EB3" s="126"/>
-      <c r="EC3" s="126"/>
-      <c r="ED3" s="126"/>
-      <c r="EE3" s="126"/>
-      <c r="EF3" s="126"/>
-      <c r="EG3" s="126"/>
-      <c r="EH3" s="126"/>
-      <c r="EI3" s="126"/>
-      <c r="EJ3" s="126"/>
-      <c r="EK3" s="126"/>
-      <c r="EL3" s="126"/>
-      <c r="EM3" s="126"/>
-      <c r="EN3" s="126"/>
-      <c r="EO3" s="126"/>
-      <c r="EP3" s="126"/>
-      <c r="EQ3" s="126"/>
-      <c r="ER3" s="126"/>
-      <c r="ES3" s="126"/>
-      <c r="ET3" s="126"/>
-      <c r="EU3" s="126"/>
-      <c r="EV3" s="126"/>
-      <c r="EW3" s="126"/>
-      <c r="EX3" s="126"/>
-      <c r="EY3" s="126"/>
-      <c r="EZ3" s="126"/>
-      <c r="FA3" s="126"/>
-      <c r="FB3" s="126"/>
-      <c r="FC3" s="126"/>
-      <c r="FD3" s="126"/>
-      <c r="FE3" s="126"/>
-      <c r="FF3" s="126"/>
-      <c r="FG3" s="126"/>
-      <c r="FH3" s="126"/>
-      <c r="FI3" s="126"/>
-      <c r="FJ3" s="126"/>
-      <c r="FK3" s="126"/>
-      <c r="FL3" s="126"/>
-      <c r="FM3" s="126"/>
-      <c r="FN3" s="126"/>
-      <c r="FO3" s="126"/>
-      <c r="FP3" s="126"/>
-      <c r="FQ3" s="126"/>
-      <c r="FR3" s="126"/>
-      <c r="FS3" s="126"/>
-      <c r="FT3" s="126"/>
-      <c r="FU3" s="126"/>
-      <c r="FV3" s="126"/>
-      <c r="FW3" s="126"/>
-      <c r="FX3" s="126"/>
-      <c r="FY3" s="126"/>
-      <c r="FZ3" s="126"/>
-      <c r="GA3" s="126"/>
-      <c r="GB3" s="126"/>
-      <c r="GC3" s="126"/>
-      <c r="GD3" s="126"/>
-      <c r="GE3" s="126"/>
-      <c r="GF3" s="126"/>
-      <c r="GG3" s="126"/>
-      <c r="GH3" s="126"/>
-      <c r="GI3" s="126"/>
-      <c r="GJ3" s="126"/>
-      <c r="GK3" s="126"/>
-      <c r="GL3" s="126"/>
-      <c r="GM3" s="126"/>
-      <c r="GN3" s="125"/>
-      <c r="GO3" s="126"/>
-      <c r="GP3" s="126"/>
-      <c r="GQ3" s="126"/>
-      <c r="GR3" s="126"/>
-      <c r="GS3" s="126"/>
-      <c r="GT3" s="126"/>
-      <c r="GU3" s="126"/>
-      <c r="GV3" s="126"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="98"/>
+      <c r="AD3" s="98"/>
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="98"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="98"/>
+      <c r="AI3" s="98"/>
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="98"/>
+      <c r="AM3" s="98"/>
+      <c r="AN3" s="98"/>
+      <c r="AO3" s="98"/>
+      <c r="AP3" s="98"/>
+      <c r="AQ3" s="98"/>
+      <c r="AR3" s="98"/>
+      <c r="AS3" s="98"/>
+      <c r="AT3" s="98"/>
+      <c r="AU3" s="98"/>
+      <c r="AV3" s="98"/>
+      <c r="AW3" s="98"/>
+      <c r="AX3" s="98"/>
+      <c r="AY3" s="98"/>
+      <c r="AZ3" s="98"/>
+      <c r="BA3" s="98"/>
+      <c r="BB3" s="98"/>
+      <c r="BC3" s="98"/>
+      <c r="BD3" s="98"/>
+      <c r="BE3" s="98"/>
+      <c r="BF3" s="98"/>
+      <c r="BG3" s="98"/>
+      <c r="BH3" s="98"/>
+      <c r="BI3" s="98"/>
+      <c r="BJ3" s="98"/>
+      <c r="BK3" s="98"/>
+      <c r="BL3" s="98"/>
+      <c r="BM3" s="98"/>
+      <c r="BN3" s="98"/>
+      <c r="BO3" s="98"/>
+      <c r="BP3" s="98"/>
+      <c r="BQ3" s="98"/>
+      <c r="BR3" s="98"/>
+      <c r="BS3" s="98"/>
+      <c r="BT3" s="98"/>
+      <c r="BU3" s="98"/>
+      <c r="BV3" s="98"/>
+      <c r="BW3" s="98"/>
+      <c r="BX3" s="98"/>
+      <c r="BY3" s="98"/>
+      <c r="BZ3" s="98"/>
+      <c r="CA3" s="98"/>
+      <c r="CB3" s="98"/>
+      <c r="CC3" s="98"/>
+      <c r="CD3" s="98"/>
+      <c r="CE3" s="98"/>
+      <c r="CF3" s="98"/>
+      <c r="CG3" s="98"/>
+      <c r="CH3" s="98"/>
+      <c r="CI3" s="98"/>
+      <c r="CJ3" s="98"/>
+      <c r="CK3" s="98"/>
+      <c r="CL3" s="98"/>
+      <c r="CM3" s="98"/>
+      <c r="CN3" s="98"/>
+      <c r="CO3" s="98"/>
+      <c r="CP3" s="98"/>
+      <c r="CQ3" s="98"/>
+      <c r="CR3" s="98"/>
+      <c r="CS3" s="98"/>
+      <c r="CT3" s="98"/>
+      <c r="CU3" s="98"/>
+      <c r="CV3" s="98"/>
+      <c r="CW3" s="98"/>
+      <c r="CX3" s="98"/>
+      <c r="CY3" s="98"/>
+      <c r="CZ3" s="98"/>
+      <c r="DA3" s="98"/>
+      <c r="DB3" s="98"/>
+      <c r="DC3" s="98"/>
+      <c r="DD3" s="98"/>
+      <c r="DE3" s="98"/>
+      <c r="DF3" s="98"/>
+      <c r="DG3" s="98"/>
+      <c r="DH3" s="98"/>
+      <c r="DI3" s="98"/>
+      <c r="DJ3" s="98"/>
+      <c r="DK3" s="98"/>
+      <c r="DL3" s="98"/>
+      <c r="DM3" s="98"/>
+      <c r="DN3" s="98"/>
+      <c r="DO3" s="98"/>
+      <c r="DP3" s="98"/>
+      <c r="DQ3" s="98"/>
+      <c r="DR3" s="98"/>
+      <c r="DS3" s="98"/>
+      <c r="DT3" s="98"/>
+      <c r="DU3" s="98"/>
+      <c r="DV3" s="98"/>
+      <c r="DW3" s="98"/>
+      <c r="DX3" s="98"/>
+      <c r="DY3" s="98"/>
+      <c r="DZ3" s="98"/>
+      <c r="EA3" s="98"/>
+      <c r="EB3" s="98"/>
+      <c r="EC3" s="98"/>
+      <c r="ED3" s="98"/>
+      <c r="EE3" s="98"/>
+      <c r="EF3" s="98"/>
+      <c r="EG3" s="98"/>
+      <c r="EH3" s="98"/>
+      <c r="EI3" s="98"/>
+      <c r="EJ3" s="98"/>
+      <c r="EK3" s="98"/>
+      <c r="EL3" s="98"/>
+      <c r="EM3" s="98"/>
+      <c r="EN3" s="98"/>
+      <c r="EO3" s="98"/>
+      <c r="EP3" s="98"/>
+      <c r="EQ3" s="98"/>
+      <c r="ER3" s="98"/>
+      <c r="ES3" s="98"/>
+      <c r="ET3" s="98"/>
+      <c r="EU3" s="98"/>
+      <c r="EV3" s="98"/>
+      <c r="EW3" s="98"/>
+      <c r="EX3" s="98"/>
+      <c r="EY3" s="98"/>
+      <c r="EZ3" s="98"/>
+      <c r="FA3" s="98"/>
+      <c r="FB3" s="98"/>
+      <c r="FC3" s="98"/>
+      <c r="FD3" s="98"/>
+      <c r="FE3" s="98"/>
+      <c r="FF3" s="98"/>
+      <c r="FG3" s="98"/>
+      <c r="FH3" s="98"/>
+      <c r="FI3" s="98"/>
+      <c r="FJ3" s="98"/>
+      <c r="FK3" s="98"/>
+      <c r="FL3" s="98"/>
+      <c r="FM3" s="98"/>
+      <c r="FN3" s="98"/>
+      <c r="FO3" s="98"/>
+      <c r="FP3" s="98"/>
+      <c r="FQ3" s="98"/>
+      <c r="FR3" s="98"/>
+      <c r="FS3" s="98"/>
+      <c r="FT3" s="98"/>
+      <c r="FU3" s="98"/>
+      <c r="FV3" s="98"/>
+      <c r="FW3" s="98"/>
+      <c r="FX3" s="98"/>
+      <c r="FY3" s="98"/>
+      <c r="FZ3" s="98"/>
+      <c r="GA3" s="98"/>
+      <c r="GB3" s="98"/>
+      <c r="GC3" s="98"/>
+      <c r="GD3" s="98"/>
+      <c r="GE3" s="98"/>
+      <c r="GF3" s="98"/>
+      <c r="GG3" s="98"/>
+      <c r="GH3" s="98"/>
+      <c r="GI3" s="98"/>
+      <c r="GJ3" s="98"/>
+      <c r="GK3" s="98"/>
+      <c r="GL3" s="98"/>
+      <c r="GM3" s="98"/>
+      <c r="GN3" s="97"/>
+      <c r="GO3" s="98"/>
+      <c r="GP3" s="98"/>
+      <c r="GQ3" s="98"/>
+      <c r="GR3" s="98"/>
+      <c r="GS3" s="98"/>
+      <c r="GT3" s="98"/>
+      <c r="GU3" s="98"/>
+      <c r="GV3" s="98"/>
     </row>
     <row r="4" spans="1:205" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="95" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -2562,313 +2560,313 @@
       <c r="C4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="127">
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="99">
         <v>45418</v>
       </c>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="120" t="s">
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="118">
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91">
         <v>45419</v>
       </c>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="120" t="s">
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="121"/>
-      <c r="V4" s="121"/>
-      <c r="W4" s="121"/>
-      <c r="X4" s="118">
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="91">
         <v>45420</v>
       </c>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="119"/>
-      <c r="AB4" s="120" t="s">
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="121"/>
-      <c r="AD4" s="121"/>
-      <c r="AE4" s="121"/>
-      <c r="AF4" s="118">
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="91">
         <v>45421</v>
       </c>
-      <c r="AG4" s="118"/>
-      <c r="AH4" s="118"/>
-      <c r="AI4" s="119"/>
-      <c r="AJ4" s="120" t="s">
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="121"/>
-      <c r="AL4" s="121"/>
-      <c r="AM4" s="121"/>
-      <c r="AN4" s="118">
+      <c r="AK4" s="90"/>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="91">
         <v>45422</v>
       </c>
-      <c r="AO4" s="118"/>
-      <c r="AP4" s="118"/>
-      <c r="AQ4" s="119"/>
-      <c r="AR4" s="120" t="s">
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="121"/>
-      <c r="AT4" s="121"/>
-      <c r="AU4" s="121"/>
-      <c r="AV4" s="118">
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="91">
         <v>45425</v>
       </c>
-      <c r="AW4" s="118"/>
-      <c r="AX4" s="118"/>
-      <c r="AY4" s="119"/>
-      <c r="AZ4" s="120" t="s">
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="91"/>
+      <c r="AY4" s="92"/>
+      <c r="AZ4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="BA4" s="121"/>
-      <c r="BB4" s="121"/>
-      <c r="BC4" s="121"/>
-      <c r="BD4" s="118">
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="91">
         <v>45426</v>
       </c>
-      <c r="BE4" s="118"/>
-      <c r="BF4" s="118"/>
-      <c r="BG4" s="119"/>
-      <c r="BH4" s="120" t="s">
+      <c r="BE4" s="91"/>
+      <c r="BF4" s="91"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="BI4" s="121"/>
-      <c r="BJ4" s="121"/>
-      <c r="BK4" s="121"/>
-      <c r="BL4" s="118">
+      <c r="BI4" s="90"/>
+      <c r="BJ4" s="90"/>
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="91">
         <v>45427</v>
       </c>
-      <c r="BM4" s="118"/>
-      <c r="BN4" s="118"/>
-      <c r="BO4" s="119"/>
-      <c r="BP4" s="120" t="s">
+      <c r="BM4" s="91"/>
+      <c r="BN4" s="91"/>
+      <c r="BO4" s="92"/>
+      <c r="BP4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="BQ4" s="121"/>
-      <c r="BR4" s="121"/>
-      <c r="BS4" s="121"/>
-      <c r="BT4" s="118">
+      <c r="BQ4" s="90"/>
+      <c r="BR4" s="90"/>
+      <c r="BS4" s="90"/>
+      <c r="BT4" s="91">
         <v>45428</v>
       </c>
-      <c r="BU4" s="118"/>
-      <c r="BV4" s="118"/>
-      <c r="BW4" s="119"/>
-      <c r="BX4" s="120" t="s">
+      <c r="BU4" s="91"/>
+      <c r="BV4" s="91"/>
+      <c r="BW4" s="92"/>
+      <c r="BX4" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="121"/>
-      <c r="BZ4" s="121"/>
-      <c r="CA4" s="121"/>
-      <c r="CB4" s="118">
+      <c r="BY4" s="90"/>
+      <c r="BZ4" s="90"/>
+      <c r="CA4" s="90"/>
+      <c r="CB4" s="91">
         <v>45429</v>
       </c>
-      <c r="CC4" s="118"/>
-      <c r="CD4" s="118"/>
-      <c r="CE4" s="119"/>
-      <c r="CF4" s="120" t="s">
+      <c r="CC4" s="91"/>
+      <c r="CD4" s="91"/>
+      <c r="CE4" s="92"/>
+      <c r="CF4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="CG4" s="121"/>
-      <c r="CH4" s="121"/>
-      <c r="CI4" s="121"/>
-      <c r="CJ4" s="118">
+      <c r="CG4" s="90"/>
+      <c r="CH4" s="90"/>
+      <c r="CI4" s="90"/>
+      <c r="CJ4" s="91">
         <v>45432</v>
       </c>
-      <c r="CK4" s="118"/>
-      <c r="CL4" s="118"/>
-      <c r="CM4" s="119"/>
-      <c r="CN4" s="120" t="s">
+      <c r="CK4" s="91"/>
+      <c r="CL4" s="91"/>
+      <c r="CM4" s="92"/>
+      <c r="CN4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="CO4" s="121"/>
-      <c r="CP4" s="121"/>
-      <c r="CQ4" s="121"/>
-      <c r="CR4" s="118">
+      <c r="CO4" s="90"/>
+      <c r="CP4" s="90"/>
+      <c r="CQ4" s="90"/>
+      <c r="CR4" s="91">
         <v>45433</v>
       </c>
-      <c r="CS4" s="118"/>
-      <c r="CT4" s="118"/>
-      <c r="CU4" s="119"/>
-      <c r="CV4" s="120" t="s">
+      <c r="CS4" s="91"/>
+      <c r="CT4" s="91"/>
+      <c r="CU4" s="92"/>
+      <c r="CV4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="CW4" s="121"/>
-      <c r="CX4" s="121"/>
-      <c r="CY4" s="121"/>
-      <c r="CZ4" s="118">
+      <c r="CW4" s="90"/>
+      <c r="CX4" s="90"/>
+      <c r="CY4" s="90"/>
+      <c r="CZ4" s="91">
         <v>45434</v>
       </c>
-      <c r="DA4" s="118"/>
-      <c r="DB4" s="118"/>
-      <c r="DC4" s="119"/>
-      <c r="DD4" s="120" t="s">
+      <c r="DA4" s="91"/>
+      <c r="DB4" s="91"/>
+      <c r="DC4" s="92"/>
+      <c r="DD4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="DE4" s="121"/>
-      <c r="DF4" s="121"/>
-      <c r="DG4" s="121"/>
-      <c r="DH4" s="118">
+      <c r="DE4" s="90"/>
+      <c r="DF4" s="90"/>
+      <c r="DG4" s="90"/>
+      <c r="DH4" s="91">
         <v>45435</v>
       </c>
-      <c r="DI4" s="118"/>
-      <c r="DJ4" s="118"/>
-      <c r="DK4" s="119"/>
-      <c r="DL4" s="120" t="s">
+      <c r="DI4" s="91"/>
+      <c r="DJ4" s="91"/>
+      <c r="DK4" s="92"/>
+      <c r="DL4" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="DM4" s="121"/>
-      <c r="DN4" s="121"/>
-      <c r="DO4" s="121"/>
-      <c r="DP4" s="118">
+      <c r="DM4" s="90"/>
+      <c r="DN4" s="90"/>
+      <c r="DO4" s="90"/>
+      <c r="DP4" s="91">
         <v>45436</v>
       </c>
-      <c r="DQ4" s="118"/>
-      <c r="DR4" s="118"/>
-      <c r="DS4" s="119"/>
-      <c r="DT4" s="120" t="s">
+      <c r="DQ4" s="91"/>
+      <c r="DR4" s="91"/>
+      <c r="DS4" s="92"/>
+      <c r="DT4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="DU4" s="121"/>
-      <c r="DV4" s="121"/>
-      <c r="DW4" s="121"/>
-      <c r="DX4" s="118">
+      <c r="DU4" s="90"/>
+      <c r="DV4" s="90"/>
+      <c r="DW4" s="90"/>
+      <c r="DX4" s="91">
         <v>45439</v>
       </c>
-      <c r="DY4" s="118"/>
-      <c r="DZ4" s="118"/>
-      <c r="EA4" s="119"/>
-      <c r="EB4" s="120" t="s">
+      <c r="DY4" s="91"/>
+      <c r="DZ4" s="91"/>
+      <c r="EA4" s="92"/>
+      <c r="EB4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="EC4" s="121"/>
-      <c r="ED4" s="121"/>
-      <c r="EE4" s="121"/>
-      <c r="EF4" s="118">
+      <c r="EC4" s="90"/>
+      <c r="ED4" s="90"/>
+      <c r="EE4" s="90"/>
+      <c r="EF4" s="91">
         <v>45440</v>
       </c>
-      <c r="EG4" s="118"/>
-      <c r="EH4" s="118"/>
-      <c r="EI4" s="119"/>
-      <c r="EJ4" s="120" t="s">
+      <c r="EG4" s="91"/>
+      <c r="EH4" s="91"/>
+      <c r="EI4" s="92"/>
+      <c r="EJ4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="EK4" s="121"/>
-      <c r="EL4" s="121"/>
-      <c r="EM4" s="121"/>
-      <c r="EN4" s="118">
+      <c r="EK4" s="90"/>
+      <c r="EL4" s="90"/>
+      <c r="EM4" s="90"/>
+      <c r="EN4" s="91">
         <v>45441</v>
       </c>
-      <c r="EO4" s="118"/>
-      <c r="EP4" s="118"/>
-      <c r="EQ4" s="119"/>
-      <c r="ER4" s="120" t="s">
+      <c r="EO4" s="91"/>
+      <c r="EP4" s="91"/>
+      <c r="EQ4" s="92"/>
+      <c r="ER4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="ES4" s="121"/>
-      <c r="ET4" s="121"/>
-      <c r="EU4" s="121"/>
-      <c r="EV4" s="118">
+      <c r="ES4" s="90"/>
+      <c r="ET4" s="90"/>
+      <c r="EU4" s="90"/>
+      <c r="EV4" s="91">
         <v>45442</v>
       </c>
-      <c r="EW4" s="118"/>
-      <c r="EX4" s="118"/>
-      <c r="EY4" s="119"/>
-      <c r="EZ4" s="120" t="s">
+      <c r="EW4" s="91"/>
+      <c r="EX4" s="91"/>
+      <c r="EY4" s="92"/>
+      <c r="EZ4" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="FA4" s="121"/>
-      <c r="FB4" s="121"/>
-      <c r="FC4" s="121"/>
-      <c r="FD4" s="118">
+      <c r="FA4" s="90"/>
+      <c r="FB4" s="90"/>
+      <c r="FC4" s="90"/>
+      <c r="FD4" s="91">
         <v>45443</v>
       </c>
-      <c r="FE4" s="118"/>
-      <c r="FF4" s="118"/>
-      <c r="FG4" s="119"/>
-      <c r="FH4" s="120" t="s">
+      <c r="FE4" s="91"/>
+      <c r="FF4" s="91"/>
+      <c r="FG4" s="92"/>
+      <c r="FH4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="FI4" s="121"/>
-      <c r="FJ4" s="121"/>
-      <c r="FK4" s="121"/>
-      <c r="FL4" s="118">
+      <c r="FI4" s="90"/>
+      <c r="FJ4" s="90"/>
+      <c r="FK4" s="90"/>
+      <c r="FL4" s="91">
         <v>45446</v>
       </c>
-      <c r="FM4" s="118"/>
-      <c r="FN4" s="118"/>
-      <c r="FO4" s="119"/>
-      <c r="FP4" s="120" t="s">
+      <c r="FM4" s="91"/>
+      <c r="FN4" s="91"/>
+      <c r="FO4" s="92"/>
+      <c r="FP4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="FQ4" s="121"/>
-      <c r="FR4" s="121"/>
-      <c r="FS4" s="121"/>
-      <c r="FT4" s="118">
+      <c r="FQ4" s="90"/>
+      <c r="FR4" s="90"/>
+      <c r="FS4" s="90"/>
+      <c r="FT4" s="91">
         <v>45447</v>
       </c>
-      <c r="FU4" s="118"/>
-      <c r="FV4" s="118"/>
-      <c r="FW4" s="119"/>
-      <c r="FX4" s="120" t="s">
+      <c r="FU4" s="91"/>
+      <c r="FV4" s="91"/>
+      <c r="FW4" s="92"/>
+      <c r="FX4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="FY4" s="121"/>
-      <c r="FZ4" s="121"/>
-      <c r="GA4" s="121"/>
-      <c r="GB4" s="118">
+      <c r="FY4" s="90"/>
+      <c r="FZ4" s="90"/>
+      <c r="GA4" s="90"/>
+      <c r="GB4" s="91">
         <v>45448</v>
       </c>
-      <c r="GC4" s="118"/>
-      <c r="GD4" s="118"/>
-      <c r="GE4" s="119"/>
-      <c r="GF4" s="120" t="s">
+      <c r="GC4" s="91"/>
+      <c r="GD4" s="91"/>
+      <c r="GE4" s="92"/>
+      <c r="GF4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="GG4" s="121"/>
-      <c r="GH4" s="121"/>
-      <c r="GI4" s="121"/>
-      <c r="GJ4" s="118">
+      <c r="GG4" s="90"/>
+      <c r="GH4" s="90"/>
+      <c r="GI4" s="90"/>
+      <c r="GJ4" s="91">
         <v>45449</v>
       </c>
-      <c r="GK4" s="118"/>
-      <c r="GL4" s="118"/>
-      <c r="GM4" s="118"/>
+      <c r="GK4" s="91"/>
+      <c r="GL4" s="91"/>
+      <c r="GM4" s="91"/>
       <c r="GN4" s="50"/>
-      <c r="GO4" s="121" t="s">
+      <c r="GO4" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="GP4" s="121"/>
-      <c r="GQ4" s="121"/>
-      <c r="GR4" s="121"/>
-      <c r="GS4" s="118">
+      <c r="GP4" s="90"/>
+      <c r="GQ4" s="90"/>
+      <c r="GR4" s="90"/>
+      <c r="GS4" s="91">
         <v>45454</v>
       </c>
-      <c r="GT4" s="118"/>
-      <c r="GU4" s="118"/>
-      <c r="GV4" s="119"/>
-      <c r="GW4" s="129" t="s">
+      <c r="GT4" s="91"/>
+      <c r="GU4" s="91"/>
+      <c r="GV4" s="92"/>
+      <c r="GW4" s="93" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="124"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
@@ -3476,7 +3474,7 @@
       <c r="GV5" s="7">
         <v>8</v>
       </c>
-      <c r="GW5" s="129"/>
+      <c r="GW5" s="93"/>
     </row>
     <row r="6" spans="1:205" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
@@ -3510,16 +3508,16 @@
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
       <c r="AA6" s="15"/>
-      <c r="AB6" s="106" t="s">
+      <c r="AB6" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="AC6" s="107"/>
-      <c r="AD6" s="107"/>
-      <c r="AE6" s="107"/>
-      <c r="AF6" s="107"/>
-      <c r="AG6" s="107"/>
-      <c r="AH6" s="107"/>
-      <c r="AI6" s="108"/>
+      <c r="AC6" s="102"/>
+      <c r="AD6" s="102"/>
+      <c r="AE6" s="102"/>
+      <c r="AF6" s="102"/>
+      <c r="AG6" s="102"/>
+      <c r="AH6" s="102"/>
+      <c r="AI6" s="103"/>
       <c r="AJ6" s="13"/>
       <c r="AK6" s="14"/>
       <c r="AL6" s="14"/>
@@ -3574,16 +3572,16 @@
       <c r="CE6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="CF6" s="106" t="s">
+      <c r="CF6" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="CG6" s="107"/>
-      <c r="CH6" s="107"/>
-      <c r="CI6" s="107"/>
-      <c r="CJ6" s="107"/>
-      <c r="CK6" s="107"/>
-      <c r="CL6" s="107"/>
-      <c r="CM6" s="108"/>
+      <c r="CG6" s="102"/>
+      <c r="CH6" s="102"/>
+      <c r="CI6" s="102"/>
+      <c r="CJ6" s="102"/>
+      <c r="CK6" s="102"/>
+      <c r="CL6" s="102"/>
+      <c r="CM6" s="103"/>
       <c r="CN6" s="26" t="s">
         <v>28</v>
       </c>
@@ -3646,16 +3644,16 @@
       <c r="EO6" s="24"/>
       <c r="EP6" s="24"/>
       <c r="EQ6" s="25"/>
-      <c r="ER6" s="106" t="s">
+      <c r="ER6" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="ES6" s="107"/>
-      <c r="ET6" s="107"/>
-      <c r="EU6" s="107"/>
-      <c r="EV6" s="107"/>
-      <c r="EW6" s="107"/>
-      <c r="EX6" s="107"/>
-      <c r="EY6" s="108"/>
+      <c r="ES6" s="102"/>
+      <c r="ET6" s="102"/>
+      <c r="EU6" s="102"/>
+      <c r="EV6" s="102"/>
+      <c r="EW6" s="102"/>
+      <c r="EX6" s="102"/>
+      <c r="EY6" s="103"/>
       <c r="EZ6" s="26"/>
       <c r="FA6" s="24"/>
       <c r="FB6" s="24"/>
@@ -3705,13 +3703,13 @@
       <c r="GT6" s="10"/>
       <c r="GU6" s="10"/>
       <c r="GV6" s="10"/>
-      <c r="GW6" s="129"/>
+      <c r="GW6" s="93"/>
     </row>
     <row r="7" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="95"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="61"/>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
@@ -3737,14 +3735,14 @@
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
       <c r="AA7" s="15"/>
-      <c r="AB7" s="109"/>
-      <c r="AC7" s="110"/>
-      <c r="AD7" s="110"/>
-      <c r="AE7" s="110"/>
-      <c r="AF7" s="110"/>
-      <c r="AG7" s="110"/>
-      <c r="AH7" s="110"/>
-      <c r="AI7" s="111"/>
+      <c r="AB7" s="104"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="105"/>
+      <c r="AE7" s="105"/>
+      <c r="AF7" s="105"/>
+      <c r="AG7" s="105"/>
+      <c r="AH7" s="105"/>
+      <c r="AI7" s="106"/>
       <c r="AJ7" s="13"/>
       <c r="AK7" s="14"/>
       <c r="AL7" s="14"/>
@@ -3793,14 +3791,14 @@
       <c r="CC7" s="14"/>
       <c r="CD7" s="14"/>
       <c r="CE7" s="15"/>
-      <c r="CF7" s="109"/>
-      <c r="CG7" s="110"/>
-      <c r="CH7" s="110"/>
-      <c r="CI7" s="110"/>
-      <c r="CJ7" s="110"/>
-      <c r="CK7" s="110"/>
-      <c r="CL7" s="110"/>
-      <c r="CM7" s="111"/>
+      <c r="CF7" s="104"/>
+      <c r="CG7" s="105"/>
+      <c r="CH7" s="105"/>
+      <c r="CI7" s="105"/>
+      <c r="CJ7" s="105"/>
+      <c r="CK7" s="105"/>
+      <c r="CL7" s="105"/>
+      <c r="CM7" s="106"/>
       <c r="CN7" s="13"/>
       <c r="CO7" s="14"/>
       <c r="CP7" s="14"/>
@@ -3857,14 +3855,14 @@
       <c r="EO7" s="14"/>
       <c r="EP7" s="14"/>
       <c r="EQ7" s="15"/>
-      <c r="ER7" s="109"/>
-      <c r="ES7" s="110"/>
-      <c r="ET7" s="110"/>
-      <c r="EU7" s="110"/>
-      <c r="EV7" s="110"/>
-      <c r="EW7" s="110"/>
-      <c r="EX7" s="110"/>
-      <c r="EY7" s="111"/>
+      <c r="ER7" s="104"/>
+      <c r="ES7" s="105"/>
+      <c r="ET7" s="105"/>
+      <c r="EU7" s="105"/>
+      <c r="EV7" s="105"/>
+      <c r="EW7" s="105"/>
+      <c r="EX7" s="105"/>
+      <c r="EY7" s="106"/>
       <c r="EZ7" s="13"/>
       <c r="FA7" s="14"/>
       <c r="FB7" s="14"/>
@@ -3914,7 +3912,7 @@
       <c r="GT7" s="14"/>
       <c r="GU7" s="14"/>
       <c r="GV7" s="14"/>
-      <c r="GW7" s="129"/>
+      <c r="GW7" s="93"/>
     </row>
     <row r="8" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A8" s="80" t="s">
@@ -3948,14 +3946,14 @@
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
       <c r="AA8" s="15"/>
-      <c r="AB8" s="109"/>
-      <c r="AC8" s="110"/>
-      <c r="AD8" s="110"/>
-      <c r="AE8" s="110"/>
-      <c r="AF8" s="110"/>
-      <c r="AG8" s="110"/>
-      <c r="AH8" s="110"/>
-      <c r="AI8" s="111"/>
+      <c r="AB8" s="104"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="105"/>
+      <c r="AF8" s="105"/>
+      <c r="AG8" s="105"/>
+      <c r="AH8" s="105"/>
+      <c r="AI8" s="106"/>
       <c r="AJ8" s="13"/>
       <c r="AK8" s="14"/>
       <c r="AL8" s="14"/>
@@ -4008,14 +4006,14 @@
       <c r="CC8" s="14"/>
       <c r="CD8" s="14"/>
       <c r="CE8" s="44"/>
-      <c r="CF8" s="109"/>
-      <c r="CG8" s="110"/>
-      <c r="CH8" s="110"/>
-      <c r="CI8" s="110"/>
-      <c r="CJ8" s="110"/>
-      <c r="CK8" s="110"/>
-      <c r="CL8" s="110"/>
-      <c r="CM8" s="111"/>
+      <c r="CF8" s="104"/>
+      <c r="CG8" s="105"/>
+      <c r="CH8" s="105"/>
+      <c r="CI8" s="105"/>
+      <c r="CJ8" s="105"/>
+      <c r="CK8" s="105"/>
+      <c r="CL8" s="105"/>
+      <c r="CM8" s="106"/>
       <c r="CN8" s="13"/>
       <c r="CO8" s="14"/>
       <c r="CP8" s="14"/>
@@ -4072,14 +4070,14 @@
       <c r="EO8" s="14"/>
       <c r="EP8" s="14"/>
       <c r="EQ8" s="15"/>
-      <c r="ER8" s="109"/>
-      <c r="ES8" s="110"/>
-      <c r="ET8" s="110"/>
-      <c r="EU8" s="110"/>
-      <c r="EV8" s="110"/>
-      <c r="EW8" s="110"/>
-      <c r="EX8" s="110"/>
-      <c r="EY8" s="111"/>
+      <c r="ER8" s="104"/>
+      <c r="ES8" s="105"/>
+      <c r="ET8" s="105"/>
+      <c r="EU8" s="105"/>
+      <c r="EV8" s="105"/>
+      <c r="EW8" s="105"/>
+      <c r="EX8" s="105"/>
+      <c r="EY8" s="106"/>
       <c r="EZ8" s="13"/>
       <c r="FA8" s="14"/>
       <c r="FB8" s="14"/>
@@ -4129,7 +4127,7 @@
       <c r="GT8" s="14"/>
       <c r="GU8" s="14"/>
       <c r="GV8" s="14"/>
-      <c r="GW8" s="129"/>
+      <c r="GW8" s="93"/>
     </row>
     <row r="9" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="81" t="s">
@@ -4163,14 +4161,14 @@
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
       <c r="AA9" s="15"/>
-      <c r="AB9" s="109"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="110"/>
-      <c r="AE9" s="110"/>
-      <c r="AF9" s="110"/>
-      <c r="AG9" s="110"/>
-      <c r="AH9" s="110"/>
-      <c r="AI9" s="111"/>
+      <c r="AB9" s="104"/>
+      <c r="AC9" s="105"/>
+      <c r="AD9" s="105"/>
+      <c r="AE9" s="105"/>
+      <c r="AF9" s="105"/>
+      <c r="AG9" s="105"/>
+      <c r="AH9" s="105"/>
+      <c r="AI9" s="106"/>
       <c r="AJ9" s="13"/>
       <c r="AK9" s="14"/>
       <c r="AL9" s="14"/>
@@ -4239,14 +4237,14 @@
         <v>28</v>
       </c>
       <c r="CE9" s="36"/>
-      <c r="CF9" s="109"/>
-      <c r="CG9" s="110"/>
-      <c r="CH9" s="110"/>
-      <c r="CI9" s="110"/>
-      <c r="CJ9" s="110"/>
-      <c r="CK9" s="110"/>
-      <c r="CL9" s="110"/>
-      <c r="CM9" s="111"/>
+      <c r="CF9" s="104"/>
+      <c r="CG9" s="105"/>
+      <c r="CH9" s="105"/>
+      <c r="CI9" s="105"/>
+      <c r="CJ9" s="105"/>
+      <c r="CK9" s="105"/>
+      <c r="CL9" s="105"/>
+      <c r="CM9" s="106"/>
       <c r="CN9" s="13"/>
       <c r="CO9" s="14"/>
       <c r="CP9" s="14"/>
@@ -4303,14 +4301,14 @@
       <c r="EO9" s="14"/>
       <c r="EP9" s="14"/>
       <c r="EQ9" s="15"/>
-      <c r="ER9" s="109"/>
-      <c r="ES9" s="110"/>
-      <c r="ET9" s="110"/>
-      <c r="EU9" s="110"/>
-      <c r="EV9" s="110"/>
-      <c r="EW9" s="110"/>
-      <c r="EX9" s="110"/>
-      <c r="EY9" s="111"/>
+      <c r="ER9" s="104"/>
+      <c r="ES9" s="105"/>
+      <c r="ET9" s="105"/>
+      <c r="EU9" s="105"/>
+      <c r="EV9" s="105"/>
+      <c r="EW9" s="105"/>
+      <c r="EX9" s="105"/>
+      <c r="EY9" s="106"/>
       <c r="EZ9" s="13"/>
       <c r="FA9" s="14"/>
       <c r="FB9" s="14"/>
@@ -4360,13 +4358,13 @@
       <c r="GT9" s="14"/>
       <c r="GU9" s="14"/>
       <c r="GV9" s="14"/>
-      <c r="GW9" s="129"/>
+      <c r="GW9" s="93"/>
     </row>
     <row r="10" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="97"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="61"/>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
@@ -4392,14 +4390,14 @@
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
       <c r="AA10" s="15"/>
-      <c r="AB10" s="109"/>
-      <c r="AC10" s="110"/>
-      <c r="AD10" s="110"/>
-      <c r="AE10" s="110"/>
-      <c r="AF10" s="110"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="110"/>
-      <c r="AI10" s="111"/>
+      <c r="AB10" s="104"/>
+      <c r="AC10" s="105"/>
+      <c r="AD10" s="105"/>
+      <c r="AE10" s="105"/>
+      <c r="AF10" s="105"/>
+      <c r="AG10" s="105"/>
+      <c r="AH10" s="105"/>
+      <c r="AI10" s="106"/>
       <c r="AJ10" s="13"/>
       <c r="AK10" s="14"/>
       <c r="AL10" s="14"/>
@@ -4448,14 +4446,14 @@
       <c r="CC10" s="32"/>
       <c r="CD10" s="32"/>
       <c r="CE10" s="32"/>
-      <c r="CF10" s="109"/>
-      <c r="CG10" s="110"/>
-      <c r="CH10" s="110"/>
-      <c r="CI10" s="110"/>
-      <c r="CJ10" s="110"/>
-      <c r="CK10" s="110"/>
-      <c r="CL10" s="110"/>
-      <c r="CM10" s="111"/>
+      <c r="CF10" s="104"/>
+      <c r="CG10" s="105"/>
+      <c r="CH10" s="105"/>
+      <c r="CI10" s="105"/>
+      <c r="CJ10" s="105"/>
+      <c r="CK10" s="105"/>
+      <c r="CL10" s="105"/>
+      <c r="CM10" s="106"/>
       <c r="CN10" s="13"/>
       <c r="CO10" s="14"/>
       <c r="CP10" s="14"/>
@@ -4512,14 +4510,14 @@
       <c r="EO10" s="14"/>
       <c r="EP10" s="14"/>
       <c r="EQ10" s="15"/>
-      <c r="ER10" s="109"/>
-      <c r="ES10" s="110"/>
-      <c r="ET10" s="110"/>
-      <c r="EU10" s="110"/>
-      <c r="EV10" s="110"/>
-      <c r="EW10" s="110"/>
-      <c r="EX10" s="110"/>
-      <c r="EY10" s="111"/>
+      <c r="ER10" s="104"/>
+      <c r="ES10" s="105"/>
+      <c r="ET10" s="105"/>
+      <c r="EU10" s="105"/>
+      <c r="EV10" s="105"/>
+      <c r="EW10" s="105"/>
+      <c r="EX10" s="105"/>
+      <c r="EY10" s="106"/>
       <c r="EZ10" s="13"/>
       <c r="FA10" s="14"/>
       <c r="FB10" s="14"/>
@@ -4569,7 +4567,7 @@
       <c r="GT10" s="14"/>
       <c r="GU10" s="14"/>
       <c r="GV10" s="14"/>
-      <c r="GW10" s="129"/>
+      <c r="GW10" s="93"/>
     </row>
     <row r="11" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A11" s="77" t="s">
@@ -4603,14 +4601,14 @@
       <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
       <c r="AA11" s="15"/>
-      <c r="AB11" s="109"/>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="110"/>
-      <c r="AE11" s="110"/>
-      <c r="AF11" s="110"/>
-      <c r="AG11" s="110"/>
-      <c r="AH11" s="110"/>
-      <c r="AI11" s="111"/>
+      <c r="AB11" s="104"/>
+      <c r="AC11" s="105"/>
+      <c r="AD11" s="105"/>
+      <c r="AE11" s="105"/>
+      <c r="AF11" s="105"/>
+      <c r="AG11" s="105"/>
+      <c r="AH11" s="105"/>
+      <c r="AI11" s="106"/>
       <c r="AJ11" s="13"/>
       <c r="AK11" s="14"/>
       <c r="AL11" s="14"/>
@@ -4661,14 +4659,14 @@
       </c>
       <c r="CD11" s="14"/>
       <c r="CE11" s="14"/>
-      <c r="CF11" s="109"/>
-      <c r="CG11" s="110"/>
-      <c r="CH11" s="110"/>
-      <c r="CI11" s="110"/>
-      <c r="CJ11" s="110"/>
-      <c r="CK11" s="110"/>
-      <c r="CL11" s="110"/>
-      <c r="CM11" s="111"/>
+      <c r="CF11" s="104"/>
+      <c r="CG11" s="105"/>
+      <c r="CH11" s="105"/>
+      <c r="CI11" s="105"/>
+      <c r="CJ11" s="105"/>
+      <c r="CK11" s="105"/>
+      <c r="CL11" s="105"/>
+      <c r="CM11" s="106"/>
       <c r="CN11" s="28"/>
       <c r="CO11" s="14"/>
       <c r="CP11" s="14"/>
@@ -4725,14 +4723,14 @@
       <c r="EO11" s="14"/>
       <c r="EP11" s="14"/>
       <c r="EQ11" s="15"/>
-      <c r="ER11" s="109"/>
-      <c r="ES11" s="110"/>
-      <c r="ET11" s="110"/>
-      <c r="EU11" s="110"/>
-      <c r="EV11" s="110"/>
-      <c r="EW11" s="110"/>
-      <c r="EX11" s="110"/>
-      <c r="EY11" s="111"/>
+      <c r="ER11" s="104"/>
+      <c r="ES11" s="105"/>
+      <c r="ET11" s="105"/>
+      <c r="EU11" s="105"/>
+      <c r="EV11" s="105"/>
+      <c r="EW11" s="105"/>
+      <c r="EX11" s="105"/>
+      <c r="EY11" s="106"/>
       <c r="EZ11" s="13"/>
       <c r="FA11" s="14"/>
       <c r="FB11" s="14"/>
@@ -4782,7 +4780,7 @@
       <c r="GT11" s="14"/>
       <c r="GU11" s="14"/>
       <c r="GV11" s="14"/>
-      <c r="GW11" s="129"/>
+      <c r="GW11" s="93"/>
     </row>
     <row r="12" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A12" s="78" t="s">
@@ -4816,14 +4814,14 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
       <c r="AA12" s="15"/>
-      <c r="AB12" s="109"/>
-      <c r="AC12" s="110"/>
-      <c r="AD12" s="110"/>
-      <c r="AE12" s="110"/>
-      <c r="AF12" s="110"/>
-      <c r="AG12" s="110"/>
-      <c r="AH12" s="110"/>
-      <c r="AI12" s="111"/>
+      <c r="AB12" s="104"/>
+      <c r="AC12" s="105"/>
+      <c r="AD12" s="105"/>
+      <c r="AE12" s="105"/>
+      <c r="AF12" s="105"/>
+      <c r="AG12" s="105"/>
+      <c r="AH12" s="105"/>
+      <c r="AI12" s="106"/>
       <c r="AJ12" s="13"/>
       <c r="AK12" s="14"/>
       <c r="AL12" s="14"/>
@@ -4872,14 +4870,14 @@
       <c r="CC12" s="14"/>
       <c r="CD12" s="14"/>
       <c r="CE12" s="15"/>
-      <c r="CF12" s="109"/>
-      <c r="CG12" s="110"/>
-      <c r="CH12" s="110"/>
-      <c r="CI12" s="110"/>
-      <c r="CJ12" s="110"/>
-      <c r="CK12" s="110"/>
-      <c r="CL12" s="110"/>
-      <c r="CM12" s="111"/>
+      <c r="CF12" s="104"/>
+      <c r="CG12" s="105"/>
+      <c r="CH12" s="105"/>
+      <c r="CI12" s="105"/>
+      <c r="CJ12" s="105"/>
+      <c r="CK12" s="105"/>
+      <c r="CL12" s="105"/>
+      <c r="CM12" s="106"/>
       <c r="CN12" s="13"/>
       <c r="CO12" s="55" t="s">
         <v>28</v>
@@ -4894,7 +4892,9 @@
       <c r="CW12" s="14"/>
       <c r="CX12" s="14"/>
       <c r="CY12" s="14"/>
-      <c r="CZ12" s="14"/>
+      <c r="CZ12" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="DA12" s="14"/>
       <c r="DB12" s="14"/>
       <c r="DC12" s="15"/>
@@ -4938,14 +4938,14 @@
       <c r="EO12" s="14"/>
       <c r="EP12" s="14"/>
       <c r="EQ12" s="15"/>
-      <c r="ER12" s="109"/>
-      <c r="ES12" s="110"/>
-      <c r="ET12" s="110"/>
-      <c r="EU12" s="110"/>
-      <c r="EV12" s="110"/>
-      <c r="EW12" s="110"/>
-      <c r="EX12" s="110"/>
-      <c r="EY12" s="111"/>
+      <c r="ER12" s="104"/>
+      <c r="ES12" s="105"/>
+      <c r="ET12" s="105"/>
+      <c r="EU12" s="105"/>
+      <c r="EV12" s="105"/>
+      <c r="EW12" s="105"/>
+      <c r="EX12" s="105"/>
+      <c r="EY12" s="106"/>
       <c r="EZ12" s="13"/>
       <c r="FA12" s="14"/>
       <c r="FB12" s="14"/>
@@ -4995,14 +4995,14 @@
       <c r="GT12" s="14"/>
       <c r="GU12" s="14"/>
       <c r="GV12" s="14"/>
-      <c r="GW12" s="129"/>
+      <c r="GW12" s="93"/>
     </row>
     <row r="13" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="66" t="s">
-        <v>17</v>
+      <c r="B13" s="67" t="s">
+        <v>27</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
@@ -5029,14 +5029,14 @@
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="15"/>
-      <c r="AB13" s="109"/>
-      <c r="AC13" s="110"/>
-      <c r="AD13" s="110"/>
-      <c r="AE13" s="110"/>
-      <c r="AF13" s="110"/>
-      <c r="AG13" s="110"/>
-      <c r="AH13" s="110"/>
-      <c r="AI13" s="111"/>
+      <c r="AB13" s="104"/>
+      <c r="AC13" s="105"/>
+      <c r="AD13" s="105"/>
+      <c r="AE13" s="105"/>
+      <c r="AF13" s="105"/>
+      <c r="AG13" s="105"/>
+      <c r="AH13" s="105"/>
+      <c r="AI13" s="106"/>
       <c r="AJ13" s="13"/>
       <c r="AK13" s="14"/>
       <c r="AL13" s="14"/>
@@ -5085,14 +5085,14 @@
       <c r="CC13" s="14"/>
       <c r="CD13" s="14"/>
       <c r="CE13" s="15"/>
-      <c r="CF13" s="109"/>
-      <c r="CG13" s="110"/>
-      <c r="CH13" s="110"/>
-      <c r="CI13" s="110"/>
-      <c r="CJ13" s="110"/>
-      <c r="CK13" s="110"/>
-      <c r="CL13" s="110"/>
-      <c r="CM13" s="111"/>
+      <c r="CF13" s="104"/>
+      <c r="CG13" s="105"/>
+      <c r="CH13" s="105"/>
+      <c r="CI13" s="105"/>
+      <c r="CJ13" s="105"/>
+      <c r="CK13" s="105"/>
+      <c r="CL13" s="105"/>
+      <c r="CM13" s="106"/>
       <c r="CN13" s="13"/>
       <c r="CO13" s="14"/>
       <c r="CP13" s="27"/>
@@ -5116,8 +5116,12 @@
       <c r="DD13" s="13"/>
       <c r="DE13" s="14"/>
       <c r="DF13" s="14"/>
-      <c r="DG13" s="14"/>
-      <c r="DH13" s="14"/>
+      <c r="DG13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="DH13" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="DI13" s="14"/>
       <c r="DJ13" s="14"/>
       <c r="DK13" s="15"/>
@@ -5153,14 +5157,14 @@
       <c r="EO13" s="14"/>
       <c r="EP13" s="14"/>
       <c r="EQ13" s="15"/>
-      <c r="ER13" s="109"/>
-      <c r="ES13" s="110"/>
-      <c r="ET13" s="110"/>
-      <c r="EU13" s="110"/>
-      <c r="EV13" s="110"/>
-      <c r="EW13" s="110"/>
-      <c r="EX13" s="110"/>
-      <c r="EY13" s="111"/>
+      <c r="ER13" s="104"/>
+      <c r="ES13" s="105"/>
+      <c r="ET13" s="105"/>
+      <c r="EU13" s="105"/>
+      <c r="EV13" s="105"/>
+      <c r="EW13" s="105"/>
+      <c r="EX13" s="105"/>
+      <c r="EY13" s="106"/>
       <c r="EZ13" s="13"/>
       <c r="FA13" s="14"/>
       <c r="FB13" s="14"/>
@@ -5210,13 +5214,13 @@
       <c r="GT13" s="14"/>
       <c r="GU13" s="14"/>
       <c r="GV13" s="14"/>
-      <c r="GW13" s="129"/>
+      <c r="GW13" s="93"/>
     </row>
     <row r="14" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="99"/>
+      <c r="B14" s="123"/>
       <c r="C14" s="61"/>
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
@@ -5242,14 +5246,14 @@
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
       <c r="AA14" s="15"/>
-      <c r="AB14" s="109"/>
-      <c r="AC14" s="110"/>
-      <c r="AD14" s="110"/>
-      <c r="AE14" s="110"/>
-      <c r="AF14" s="110"/>
-      <c r="AG14" s="110"/>
-      <c r="AH14" s="110"/>
-      <c r="AI14" s="111"/>
+      <c r="AB14" s="104"/>
+      <c r="AC14" s="105"/>
+      <c r="AD14" s="105"/>
+      <c r="AE14" s="105"/>
+      <c r="AF14" s="105"/>
+      <c r="AG14" s="105"/>
+      <c r="AH14" s="105"/>
+      <c r="AI14" s="106"/>
       <c r="AJ14" s="13"/>
       <c r="AK14" s="14"/>
       <c r="AL14" s="14"/>
@@ -5298,14 +5302,14 @@
       <c r="CC14" s="14"/>
       <c r="CD14" s="14"/>
       <c r="CE14" s="15"/>
-      <c r="CF14" s="109"/>
-      <c r="CG14" s="110"/>
-      <c r="CH14" s="110"/>
-      <c r="CI14" s="110"/>
-      <c r="CJ14" s="110"/>
-      <c r="CK14" s="110"/>
-      <c r="CL14" s="110"/>
-      <c r="CM14" s="111"/>
+      <c r="CF14" s="104"/>
+      <c r="CG14" s="105"/>
+      <c r="CH14" s="105"/>
+      <c r="CI14" s="105"/>
+      <c r="CJ14" s="105"/>
+      <c r="CK14" s="105"/>
+      <c r="CL14" s="105"/>
+      <c r="CM14" s="106"/>
       <c r="CN14" s="13"/>
       <c r="CO14" s="14"/>
       <c r="CP14" s="14"/>
@@ -5362,14 +5366,14 @@
       <c r="EO14" s="14"/>
       <c r="EP14" s="14"/>
       <c r="EQ14" s="15"/>
-      <c r="ER14" s="109"/>
-      <c r="ES14" s="110"/>
-      <c r="ET14" s="110"/>
-      <c r="EU14" s="110"/>
-      <c r="EV14" s="110"/>
-      <c r="EW14" s="110"/>
-      <c r="EX14" s="110"/>
-      <c r="EY14" s="111"/>
+      <c r="ER14" s="104"/>
+      <c r="ES14" s="105"/>
+      <c r="ET14" s="105"/>
+      <c r="EU14" s="105"/>
+      <c r="EV14" s="105"/>
+      <c r="EW14" s="105"/>
+      <c r="EX14" s="105"/>
+      <c r="EY14" s="106"/>
       <c r="EZ14" s="13"/>
       <c r="FA14" s="14"/>
       <c r="FB14" s="14"/>
@@ -5419,13 +5423,15 @@
       <c r="GT14" s="14"/>
       <c r="GU14" s="14"/>
       <c r="GV14" s="14"/>
-      <c r="GW14" s="129"/>
+      <c r="GW14" s="93"/>
     </row>
     <row r="15" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A15" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="60"/>
+      <c r="B15" s="66" t="s">
+        <v>17</v>
+      </c>
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
       <c r="E15" s="14"/>
@@ -5451,14 +5457,14 @@
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
       <c r="AA15" s="15"/>
-      <c r="AB15" s="109"/>
-      <c r="AC15" s="110"/>
-      <c r="AD15" s="110"/>
-      <c r="AE15" s="110"/>
-      <c r="AF15" s="110"/>
-      <c r="AG15" s="110"/>
-      <c r="AH15" s="110"/>
-      <c r="AI15" s="111"/>
+      <c r="AB15" s="104"/>
+      <c r="AC15" s="105"/>
+      <c r="AD15" s="105"/>
+      <c r="AE15" s="105"/>
+      <c r="AF15" s="105"/>
+      <c r="AG15" s="105"/>
+      <c r="AH15" s="105"/>
+      <c r="AI15" s="106"/>
       <c r="AJ15" s="13"/>
       <c r="AK15" s="14"/>
       <c r="AL15" s="14"/>
@@ -5507,14 +5513,14 @@
       <c r="CC15" s="14"/>
       <c r="CD15" s="14"/>
       <c r="CE15" s="15"/>
-      <c r="CF15" s="109"/>
-      <c r="CG15" s="110"/>
-      <c r="CH15" s="110"/>
-      <c r="CI15" s="110"/>
-      <c r="CJ15" s="110"/>
-      <c r="CK15" s="110"/>
-      <c r="CL15" s="110"/>
-      <c r="CM15" s="111"/>
+      <c r="CF15" s="104"/>
+      <c r="CG15" s="105"/>
+      <c r="CH15" s="105"/>
+      <c r="CI15" s="105"/>
+      <c r="CJ15" s="105"/>
+      <c r="CK15" s="105"/>
+      <c r="CL15" s="105"/>
+      <c r="CM15" s="106"/>
       <c r="CN15" s="13"/>
       <c r="CO15" s="14"/>
       <c r="CP15" s="14"/>
@@ -5536,9 +5542,15 @@
       <c r="DF15" s="14"/>
       <c r="DG15" s="14"/>
       <c r="DH15" s="14"/>
-      <c r="DI15" s="14"/>
-      <c r="DJ15" s="14"/>
-      <c r="DK15" s="15"/>
+      <c r="DI15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="DJ15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="DK15" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="DL15" s="13"/>
       <c r="DM15" s="14"/>
       <c r="DN15" s="14"/>
@@ -5571,14 +5583,14 @@
       <c r="EO15" s="14"/>
       <c r="EP15" s="14"/>
       <c r="EQ15" s="15"/>
-      <c r="ER15" s="109"/>
-      <c r="ES15" s="110"/>
-      <c r="ET15" s="110"/>
-      <c r="EU15" s="110"/>
-      <c r="EV15" s="110"/>
-      <c r="EW15" s="110"/>
-      <c r="EX15" s="110"/>
-      <c r="EY15" s="111"/>
+      <c r="ER15" s="104"/>
+      <c r="ES15" s="105"/>
+      <c r="ET15" s="105"/>
+      <c r="EU15" s="105"/>
+      <c r="EV15" s="105"/>
+      <c r="EW15" s="105"/>
+      <c r="EX15" s="105"/>
+      <c r="EY15" s="106"/>
       <c r="EZ15" s="13"/>
       <c r="FA15" s="14"/>
       <c r="FB15" s="14"/>
@@ -5628,7 +5640,7 @@
       <c r="GT15" s="14"/>
       <c r="GU15" s="14"/>
       <c r="GV15" s="14"/>
-      <c r="GW15" s="129"/>
+      <c r="GW15" s="93"/>
     </row>
     <row r="16" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A16" s="75" t="s">
@@ -5662,14 +5674,14 @@
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="15"/>
-      <c r="AB16" s="109"/>
-      <c r="AC16" s="110"/>
-      <c r="AD16" s="110"/>
-      <c r="AE16" s="110"/>
-      <c r="AF16" s="110"/>
-      <c r="AG16" s="110"/>
-      <c r="AH16" s="110"/>
-      <c r="AI16" s="111"/>
+      <c r="AB16" s="104"/>
+      <c r="AC16" s="105"/>
+      <c r="AD16" s="105"/>
+      <c r="AE16" s="105"/>
+      <c r="AF16" s="105"/>
+      <c r="AG16" s="105"/>
+      <c r="AH16" s="105"/>
+      <c r="AI16" s="106"/>
       <c r="AJ16" s="13"/>
       <c r="AK16" s="14"/>
       <c r="AL16" s="14"/>
@@ -5718,14 +5730,14 @@
       <c r="CC16" s="14"/>
       <c r="CD16" s="14"/>
       <c r="CE16" s="15"/>
-      <c r="CF16" s="109"/>
-      <c r="CG16" s="110"/>
-      <c r="CH16" s="110"/>
-      <c r="CI16" s="110"/>
-      <c r="CJ16" s="110"/>
-      <c r="CK16" s="110"/>
-      <c r="CL16" s="110"/>
-      <c r="CM16" s="111"/>
+      <c r="CF16" s="104"/>
+      <c r="CG16" s="105"/>
+      <c r="CH16" s="105"/>
+      <c r="CI16" s="105"/>
+      <c r="CJ16" s="105"/>
+      <c r="CK16" s="105"/>
+      <c r="CL16" s="105"/>
+      <c r="CM16" s="106"/>
       <c r="CN16" s="13"/>
       <c r="CO16" s="14"/>
       <c r="CP16" s="14"/>
@@ -5784,14 +5796,14 @@
       <c r="EO16" s="14"/>
       <c r="EP16" s="14"/>
       <c r="EQ16" s="15"/>
-      <c r="ER16" s="109"/>
-      <c r="ES16" s="110"/>
-      <c r="ET16" s="110"/>
-      <c r="EU16" s="110"/>
-      <c r="EV16" s="110"/>
-      <c r="EW16" s="110"/>
-      <c r="EX16" s="110"/>
-      <c r="EY16" s="111"/>
+      <c r="ER16" s="104"/>
+      <c r="ES16" s="105"/>
+      <c r="ET16" s="105"/>
+      <c r="EU16" s="105"/>
+      <c r="EV16" s="105"/>
+      <c r="EW16" s="105"/>
+      <c r="EX16" s="105"/>
+      <c r="EY16" s="106"/>
       <c r="EZ16" s="13"/>
       <c r="FA16" s="14"/>
       <c r="FB16" s="14"/>
@@ -5841,7 +5853,7 @@
       <c r="GT16" s="14"/>
       <c r="GU16" s="14"/>
       <c r="GV16" s="14"/>
-      <c r="GW16" s="129"/>
+      <c r="GW16" s="93"/>
     </row>
     <row r="17" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A17" s="75" t="s">
@@ -5875,14 +5887,14 @@
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="15"/>
-      <c r="AB17" s="109"/>
-      <c r="AC17" s="110"/>
-      <c r="AD17" s="110"/>
-      <c r="AE17" s="110"/>
-      <c r="AF17" s="110"/>
-      <c r="AG17" s="110"/>
-      <c r="AH17" s="110"/>
-      <c r="AI17" s="111"/>
+      <c r="AB17" s="104"/>
+      <c r="AC17" s="105"/>
+      <c r="AD17" s="105"/>
+      <c r="AE17" s="105"/>
+      <c r="AF17" s="105"/>
+      <c r="AG17" s="105"/>
+      <c r="AH17" s="105"/>
+      <c r="AI17" s="106"/>
       <c r="AJ17" s="13"/>
       <c r="AK17" s="14"/>
       <c r="AL17" s="14"/>
@@ -5931,14 +5943,14 @@
       <c r="CC17" s="14"/>
       <c r="CD17" s="14"/>
       <c r="CE17" s="15"/>
-      <c r="CF17" s="109"/>
-      <c r="CG17" s="110"/>
-      <c r="CH17" s="110"/>
-      <c r="CI17" s="110"/>
-      <c r="CJ17" s="110"/>
-      <c r="CK17" s="110"/>
-      <c r="CL17" s="110"/>
-      <c r="CM17" s="111"/>
+      <c r="CF17" s="104"/>
+      <c r="CG17" s="105"/>
+      <c r="CH17" s="105"/>
+      <c r="CI17" s="105"/>
+      <c r="CJ17" s="105"/>
+      <c r="CK17" s="105"/>
+      <c r="CL17" s="105"/>
+      <c r="CM17" s="106"/>
       <c r="CN17" s="13"/>
       <c r="CO17" s="14"/>
       <c r="CP17" s="14"/>
@@ -6001,14 +6013,14 @@
       <c r="EO17" s="14"/>
       <c r="EP17" s="14"/>
       <c r="EQ17" s="15"/>
-      <c r="ER17" s="109"/>
-      <c r="ES17" s="110"/>
-      <c r="ET17" s="110"/>
-      <c r="EU17" s="110"/>
-      <c r="EV17" s="110"/>
-      <c r="EW17" s="110"/>
-      <c r="EX17" s="110"/>
-      <c r="EY17" s="111"/>
+      <c r="ER17" s="104"/>
+      <c r="ES17" s="105"/>
+      <c r="ET17" s="105"/>
+      <c r="EU17" s="105"/>
+      <c r="EV17" s="105"/>
+      <c r="EW17" s="105"/>
+      <c r="EX17" s="105"/>
+      <c r="EY17" s="106"/>
       <c r="EZ17" s="13"/>
       <c r="FA17" s="14"/>
       <c r="FB17" s="14"/>
@@ -6058,13 +6070,15 @@
       <c r="GT17" s="14"/>
       <c r="GU17" s="14"/>
       <c r="GV17" s="14"/>
-      <c r="GW17" s="129"/>
+      <c r="GW17" s="93"/>
     </row>
     <row r="18" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A18" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="67"/>
+      <c r="B18" s="67" t="s">
+        <v>27</v>
+      </c>
       <c r="C18" s="12"/>
       <c r="D18" s="13"/>
       <c r="E18" s="14"/>
@@ -6090,14 +6104,14 @@
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="15"/>
-      <c r="AB18" s="109"/>
-      <c r="AC18" s="110"/>
-      <c r="AD18" s="110"/>
-      <c r="AE18" s="110"/>
-      <c r="AF18" s="110"/>
-      <c r="AG18" s="110"/>
-      <c r="AH18" s="110"/>
-      <c r="AI18" s="111"/>
+      <c r="AB18" s="104"/>
+      <c r="AC18" s="105"/>
+      <c r="AD18" s="105"/>
+      <c r="AE18" s="105"/>
+      <c r="AF18" s="105"/>
+      <c r="AG18" s="105"/>
+      <c r="AH18" s="105"/>
+      <c r="AI18" s="106"/>
       <c r="AJ18" s="13"/>
       <c r="AK18" s="14"/>
       <c r="AL18" s="14"/>
@@ -6146,14 +6160,14 @@
       <c r="CC18" s="14"/>
       <c r="CD18" s="14"/>
       <c r="CE18" s="15"/>
-      <c r="CF18" s="109"/>
-      <c r="CG18" s="110"/>
-      <c r="CH18" s="110"/>
-      <c r="CI18" s="110"/>
-      <c r="CJ18" s="110"/>
-      <c r="CK18" s="110"/>
-      <c r="CL18" s="110"/>
-      <c r="CM18" s="111"/>
+      <c r="CF18" s="104"/>
+      <c r="CG18" s="105"/>
+      <c r="CH18" s="105"/>
+      <c r="CI18" s="105"/>
+      <c r="CJ18" s="105"/>
+      <c r="CK18" s="105"/>
+      <c r="CL18" s="105"/>
+      <c r="CM18" s="106"/>
       <c r="CN18" s="13"/>
       <c r="CO18" s="14"/>
       <c r="CP18" s="14"/>
@@ -6167,12 +6181,24 @@
       <c r="CX18" s="14"/>
       <c r="CY18" s="14"/>
       <c r="CZ18" s="14"/>
-      <c r="DA18" s="14"/>
-      <c r="DB18" s="14"/>
-      <c r="DC18" s="15"/>
-      <c r="DD18" s="13"/>
-      <c r="DE18" s="14"/>
-      <c r="DF18" s="14"/>
+      <c r="DA18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="DB18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="DC18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="DD18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="DE18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="DF18" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="DG18" s="14"/>
       <c r="DH18" s="31"/>
       <c r="DI18" s="31"/>
@@ -6210,14 +6236,14 @@
       <c r="EO18" s="14"/>
       <c r="EP18" s="14"/>
       <c r="EQ18" s="15"/>
-      <c r="ER18" s="109"/>
-      <c r="ES18" s="110"/>
-      <c r="ET18" s="110"/>
-      <c r="EU18" s="110"/>
-      <c r="EV18" s="110"/>
-      <c r="EW18" s="110"/>
-      <c r="EX18" s="110"/>
-      <c r="EY18" s="111"/>
+      <c r="ER18" s="104"/>
+      <c r="ES18" s="105"/>
+      <c r="ET18" s="105"/>
+      <c r="EU18" s="105"/>
+      <c r="EV18" s="105"/>
+      <c r="EW18" s="105"/>
+      <c r="EX18" s="105"/>
+      <c r="EY18" s="106"/>
       <c r="EZ18" s="13"/>
       <c r="FA18" s="14"/>
       <c r="FB18" s="14"/>
@@ -6267,13 +6293,15 @@
       <c r="GT18" s="14"/>
       <c r="GU18" s="14"/>
       <c r="GV18" s="14"/>
-      <c r="GW18" s="129"/>
+      <c r="GW18" s="93"/>
     </row>
     <row r="19" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="66"/>
+      <c r="B19" s="66" t="s">
+        <v>17</v>
+      </c>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
@@ -6299,14 +6327,14 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="15"/>
-      <c r="AB19" s="109"/>
-      <c r="AC19" s="110"/>
-      <c r="AD19" s="110"/>
-      <c r="AE19" s="110"/>
-      <c r="AF19" s="110"/>
-      <c r="AG19" s="110"/>
-      <c r="AH19" s="110"/>
-      <c r="AI19" s="111"/>
+      <c r="AB19" s="104"/>
+      <c r="AC19" s="105"/>
+      <c r="AD19" s="105"/>
+      <c r="AE19" s="105"/>
+      <c r="AF19" s="105"/>
+      <c r="AG19" s="105"/>
+      <c r="AH19" s="105"/>
+      <c r="AI19" s="106"/>
       <c r="AJ19" s="13"/>
       <c r="AK19" s="14"/>
       <c r="AL19" s="14"/>
@@ -6355,14 +6383,14 @@
       <c r="CC19" s="14"/>
       <c r="CD19" s="14"/>
       <c r="CE19" s="15"/>
-      <c r="CF19" s="109"/>
-      <c r="CG19" s="110"/>
-      <c r="CH19" s="110"/>
-      <c r="CI19" s="110"/>
-      <c r="CJ19" s="110"/>
-      <c r="CK19" s="110"/>
-      <c r="CL19" s="110"/>
-      <c r="CM19" s="111"/>
+      <c r="CF19" s="104"/>
+      <c r="CG19" s="105"/>
+      <c r="CH19" s="105"/>
+      <c r="CI19" s="105"/>
+      <c r="CJ19" s="105"/>
+      <c r="CK19" s="105"/>
+      <c r="CL19" s="105"/>
+      <c r="CM19" s="106"/>
       <c r="CN19" s="13"/>
       <c r="CO19" s="14"/>
       <c r="CP19" s="14"/>
@@ -6419,14 +6447,14 @@
       <c r="EO19" s="14"/>
       <c r="EP19" s="14"/>
       <c r="EQ19" s="15"/>
-      <c r="ER19" s="109"/>
-      <c r="ES19" s="110"/>
-      <c r="ET19" s="110"/>
-      <c r="EU19" s="110"/>
-      <c r="EV19" s="110"/>
-      <c r="EW19" s="110"/>
-      <c r="EX19" s="110"/>
-      <c r="EY19" s="111"/>
+      <c r="ER19" s="104"/>
+      <c r="ES19" s="105"/>
+      <c r="ET19" s="105"/>
+      <c r="EU19" s="105"/>
+      <c r="EV19" s="105"/>
+      <c r="EW19" s="105"/>
+      <c r="EX19" s="105"/>
+      <c r="EY19" s="106"/>
       <c r="EZ19" s="13"/>
       <c r="FA19" s="14"/>
       <c r="FB19" s="14"/>
@@ -6476,13 +6504,13 @@
       <c r="GT19" s="14"/>
       <c r="GU19" s="14"/>
       <c r="GV19" s="14"/>
-      <c r="GW19" s="129"/>
+      <c r="GW19" s="93"/>
     </row>
     <row r="20" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="101"/>
+      <c r="B20" s="125"/>
       <c r="C20" s="61"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
@@ -6508,14 +6536,14 @@
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
       <c r="AA20" s="15"/>
-      <c r="AB20" s="109"/>
-      <c r="AC20" s="110"/>
-      <c r="AD20" s="110"/>
-      <c r="AE20" s="110"/>
-      <c r="AF20" s="110"/>
-      <c r="AG20" s="110"/>
-      <c r="AH20" s="110"/>
-      <c r="AI20" s="111"/>
+      <c r="AB20" s="104"/>
+      <c r="AC20" s="105"/>
+      <c r="AD20" s="105"/>
+      <c r="AE20" s="105"/>
+      <c r="AF20" s="105"/>
+      <c r="AG20" s="105"/>
+      <c r="AH20" s="105"/>
+      <c r="AI20" s="106"/>
       <c r="AJ20" s="13"/>
       <c r="AK20" s="14"/>
       <c r="AL20" s="14"/>
@@ -6564,14 +6592,14 @@
       <c r="CC20" s="14"/>
       <c r="CD20" s="14"/>
       <c r="CE20" s="15"/>
-      <c r="CF20" s="109"/>
-      <c r="CG20" s="110"/>
-      <c r="CH20" s="110"/>
-      <c r="CI20" s="110"/>
-      <c r="CJ20" s="110"/>
-      <c r="CK20" s="110"/>
-      <c r="CL20" s="110"/>
-      <c r="CM20" s="111"/>
+      <c r="CF20" s="104"/>
+      <c r="CG20" s="105"/>
+      <c r="CH20" s="105"/>
+      <c r="CI20" s="105"/>
+      <c r="CJ20" s="105"/>
+      <c r="CK20" s="105"/>
+      <c r="CL20" s="105"/>
+      <c r="CM20" s="106"/>
       <c r="CN20" s="13"/>
       <c r="CO20" s="14"/>
       <c r="CP20" s="14"/>
@@ -6628,14 +6656,14 @@
       <c r="EO20" s="14"/>
       <c r="EP20" s="14"/>
       <c r="EQ20" s="15"/>
-      <c r="ER20" s="109"/>
-      <c r="ES20" s="110"/>
-      <c r="ET20" s="110"/>
-      <c r="EU20" s="110"/>
-      <c r="EV20" s="110"/>
-      <c r="EW20" s="110"/>
-      <c r="EX20" s="110"/>
-      <c r="EY20" s="111"/>
+      <c r="ER20" s="104"/>
+      <c r="ES20" s="105"/>
+      <c r="ET20" s="105"/>
+      <c r="EU20" s="105"/>
+      <c r="EV20" s="105"/>
+      <c r="EW20" s="105"/>
+      <c r="EX20" s="105"/>
+      <c r="EY20" s="106"/>
       <c r="EZ20" s="13"/>
       <c r="FA20" s="14"/>
       <c r="FB20" s="14"/>
@@ -6685,7 +6713,7 @@
       <c r="GT20" s="14"/>
       <c r="GU20" s="14"/>
       <c r="GV20" s="14"/>
-      <c r="GW20" s="129"/>
+      <c r="GW20" s="93"/>
     </row>
     <row r="21" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A21" s="71" t="s">
@@ -6717,14 +6745,14 @@
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
       <c r="AA21" s="15"/>
-      <c r="AB21" s="109"/>
-      <c r="AC21" s="110"/>
-      <c r="AD21" s="110"/>
-      <c r="AE21" s="110"/>
-      <c r="AF21" s="110"/>
-      <c r="AG21" s="110"/>
-      <c r="AH21" s="110"/>
-      <c r="AI21" s="111"/>
+      <c r="AB21" s="104"/>
+      <c r="AC21" s="105"/>
+      <c r="AD21" s="105"/>
+      <c r="AE21" s="105"/>
+      <c r="AF21" s="105"/>
+      <c r="AG21" s="105"/>
+      <c r="AH21" s="105"/>
+      <c r="AI21" s="106"/>
       <c r="AJ21" s="13"/>
       <c r="AK21" s="14"/>
       <c r="AL21" s="14"/>
@@ -6773,14 +6801,14 @@
       <c r="CC21" s="14"/>
       <c r="CD21" s="14"/>
       <c r="CE21" s="15"/>
-      <c r="CF21" s="109"/>
-      <c r="CG21" s="110"/>
-      <c r="CH21" s="110"/>
-      <c r="CI21" s="110"/>
-      <c r="CJ21" s="110"/>
-      <c r="CK21" s="110"/>
-      <c r="CL21" s="110"/>
-      <c r="CM21" s="111"/>
+      <c r="CF21" s="104"/>
+      <c r="CG21" s="105"/>
+      <c r="CH21" s="105"/>
+      <c r="CI21" s="105"/>
+      <c r="CJ21" s="105"/>
+      <c r="CK21" s="105"/>
+      <c r="CL21" s="105"/>
+      <c r="CM21" s="106"/>
       <c r="CN21" s="13"/>
       <c r="CO21" s="14"/>
       <c r="CP21" s="14"/>
@@ -6837,14 +6865,14 @@
       <c r="EO21" s="14"/>
       <c r="EP21" s="14"/>
       <c r="EQ21" s="15"/>
-      <c r="ER21" s="109"/>
-      <c r="ES21" s="110"/>
-      <c r="ET21" s="110"/>
-      <c r="EU21" s="110"/>
-      <c r="EV21" s="110"/>
-      <c r="EW21" s="110"/>
-      <c r="EX21" s="110"/>
-      <c r="EY21" s="111"/>
+      <c r="ER21" s="104"/>
+      <c r="ES21" s="105"/>
+      <c r="ET21" s="105"/>
+      <c r="EU21" s="105"/>
+      <c r="EV21" s="105"/>
+      <c r="EW21" s="105"/>
+      <c r="EX21" s="105"/>
+      <c r="EY21" s="106"/>
       <c r="EZ21" s="13"/>
       <c r="FA21" s="14"/>
       <c r="FB21" s="14"/>
@@ -6894,7 +6922,7 @@
       <c r="GT21" s="14"/>
       <c r="GU21" s="14"/>
       <c r="GV21" s="14"/>
-      <c r="GW21" s="129"/>
+      <c r="GW21" s="93"/>
     </row>
     <row r="22" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A22" s="72" t="s">
@@ -6926,14 +6954,14 @@
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
       <c r="AA22" s="15"/>
-      <c r="AB22" s="109"/>
-      <c r="AC22" s="110"/>
-      <c r="AD22" s="110"/>
-      <c r="AE22" s="110"/>
-      <c r="AF22" s="110"/>
-      <c r="AG22" s="110"/>
-      <c r="AH22" s="110"/>
-      <c r="AI22" s="111"/>
+      <c r="AB22" s="104"/>
+      <c r="AC22" s="105"/>
+      <c r="AD22" s="105"/>
+      <c r="AE22" s="105"/>
+      <c r="AF22" s="105"/>
+      <c r="AG22" s="105"/>
+      <c r="AH22" s="105"/>
+      <c r="AI22" s="106"/>
       <c r="AJ22" s="13"/>
       <c r="AK22" s="14"/>
       <c r="AL22" s="14"/>
@@ -6982,14 +7010,14 @@
       <c r="CC22" s="14"/>
       <c r="CD22" s="14"/>
       <c r="CE22" s="15"/>
-      <c r="CF22" s="109"/>
-      <c r="CG22" s="110"/>
-      <c r="CH22" s="110"/>
-      <c r="CI22" s="110"/>
-      <c r="CJ22" s="110"/>
-      <c r="CK22" s="110"/>
-      <c r="CL22" s="110"/>
-      <c r="CM22" s="111"/>
+      <c r="CF22" s="104"/>
+      <c r="CG22" s="105"/>
+      <c r="CH22" s="105"/>
+      <c r="CI22" s="105"/>
+      <c r="CJ22" s="105"/>
+      <c r="CK22" s="105"/>
+      <c r="CL22" s="105"/>
+      <c r="CM22" s="106"/>
       <c r="CN22" s="13"/>
       <c r="CO22" s="14"/>
       <c r="CP22" s="14"/>
@@ -7046,14 +7074,14 @@
       <c r="EO22" s="14"/>
       <c r="EP22" s="14"/>
       <c r="EQ22" s="15"/>
-      <c r="ER22" s="109"/>
-      <c r="ES22" s="110"/>
-      <c r="ET22" s="110"/>
-      <c r="EU22" s="110"/>
-      <c r="EV22" s="110"/>
-      <c r="EW22" s="110"/>
-      <c r="EX22" s="110"/>
-      <c r="EY22" s="111"/>
+      <c r="ER22" s="104"/>
+      <c r="ES22" s="105"/>
+      <c r="ET22" s="105"/>
+      <c r="EU22" s="105"/>
+      <c r="EV22" s="105"/>
+      <c r="EW22" s="105"/>
+      <c r="EX22" s="105"/>
+      <c r="EY22" s="106"/>
       <c r="EZ22" s="13"/>
       <c r="FA22" s="14"/>
       <c r="FB22" s="14"/>
@@ -7103,7 +7131,7 @@
       <c r="GT22" s="14"/>
       <c r="GU22" s="14"/>
       <c r="GV22" s="14"/>
-      <c r="GW22" s="129"/>
+      <c r="GW22" s="93"/>
     </row>
     <row r="23" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A23" s="72" t="s">
@@ -7135,14 +7163,14 @@
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
       <c r="AA23" s="15"/>
-      <c r="AB23" s="109"/>
-      <c r="AC23" s="110"/>
-      <c r="AD23" s="110"/>
-      <c r="AE23" s="110"/>
-      <c r="AF23" s="110"/>
-      <c r="AG23" s="110"/>
-      <c r="AH23" s="110"/>
-      <c r="AI23" s="111"/>
+      <c r="AB23" s="104"/>
+      <c r="AC23" s="105"/>
+      <c r="AD23" s="105"/>
+      <c r="AE23" s="105"/>
+      <c r="AF23" s="105"/>
+      <c r="AG23" s="105"/>
+      <c r="AH23" s="105"/>
+      <c r="AI23" s="106"/>
       <c r="AJ23" s="13"/>
       <c r="AK23" s="14"/>
       <c r="AL23" s="14"/>
@@ -7191,14 +7219,14 @@
       <c r="CC23" s="14"/>
       <c r="CD23" s="14"/>
       <c r="CE23" s="15"/>
-      <c r="CF23" s="109"/>
-      <c r="CG23" s="110"/>
-      <c r="CH23" s="110"/>
-      <c r="CI23" s="110"/>
-      <c r="CJ23" s="110"/>
-      <c r="CK23" s="110"/>
-      <c r="CL23" s="110"/>
-      <c r="CM23" s="111"/>
+      <c r="CF23" s="104"/>
+      <c r="CG23" s="105"/>
+      <c r="CH23" s="105"/>
+      <c r="CI23" s="105"/>
+      <c r="CJ23" s="105"/>
+      <c r="CK23" s="105"/>
+      <c r="CL23" s="105"/>
+      <c r="CM23" s="106"/>
       <c r="CN23" s="13"/>
       <c r="CO23" s="14"/>
       <c r="CP23" s="14"/>
@@ -7255,14 +7283,14 @@
       <c r="EO23" s="14"/>
       <c r="EP23" s="14"/>
       <c r="EQ23" s="15"/>
-      <c r="ER23" s="109"/>
-      <c r="ES23" s="110"/>
-      <c r="ET23" s="110"/>
-      <c r="EU23" s="110"/>
-      <c r="EV23" s="110"/>
-      <c r="EW23" s="110"/>
-      <c r="EX23" s="110"/>
-      <c r="EY23" s="111"/>
+      <c r="ER23" s="104"/>
+      <c r="ES23" s="105"/>
+      <c r="ET23" s="105"/>
+      <c r="EU23" s="105"/>
+      <c r="EV23" s="105"/>
+      <c r="EW23" s="105"/>
+      <c r="EX23" s="105"/>
+      <c r="EY23" s="106"/>
       <c r="EZ23" s="13"/>
       <c r="FA23" s="14"/>
       <c r="FB23" s="14"/>
@@ -7312,7 +7340,7 @@
       <c r="GT23" s="14"/>
       <c r="GU23" s="14"/>
       <c r="GV23" s="14"/>
-      <c r="GW23" s="129"/>
+      <c r="GW23" s="93"/>
     </row>
     <row r="24" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A24" s="72" t="s">
@@ -7344,14 +7372,14 @@
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
       <c r="AA24" s="15"/>
-      <c r="AB24" s="109"/>
-      <c r="AC24" s="110"/>
-      <c r="AD24" s="110"/>
-      <c r="AE24" s="110"/>
-      <c r="AF24" s="110"/>
-      <c r="AG24" s="110"/>
-      <c r="AH24" s="110"/>
-      <c r="AI24" s="111"/>
+      <c r="AB24" s="104"/>
+      <c r="AC24" s="105"/>
+      <c r="AD24" s="105"/>
+      <c r="AE24" s="105"/>
+      <c r="AF24" s="105"/>
+      <c r="AG24" s="105"/>
+      <c r="AH24" s="105"/>
+      <c r="AI24" s="106"/>
       <c r="AJ24" s="13"/>
       <c r="AK24" s="14"/>
       <c r="AL24" s="14"/>
@@ -7400,14 +7428,14 @@
       <c r="CC24" s="14"/>
       <c r="CD24" s="14"/>
       <c r="CE24" s="15"/>
-      <c r="CF24" s="109"/>
-      <c r="CG24" s="110"/>
-      <c r="CH24" s="110"/>
-      <c r="CI24" s="110"/>
-      <c r="CJ24" s="110"/>
-      <c r="CK24" s="110"/>
-      <c r="CL24" s="110"/>
-      <c r="CM24" s="111"/>
+      <c r="CF24" s="104"/>
+      <c r="CG24" s="105"/>
+      <c r="CH24" s="105"/>
+      <c r="CI24" s="105"/>
+      <c r="CJ24" s="105"/>
+      <c r="CK24" s="105"/>
+      <c r="CL24" s="105"/>
+      <c r="CM24" s="106"/>
       <c r="CN24" s="13"/>
       <c r="CO24" s="14"/>
       <c r="CP24" s="14"/>
@@ -7464,14 +7492,14 @@
       <c r="EO24" s="14"/>
       <c r="EP24" s="14"/>
       <c r="EQ24" s="15"/>
-      <c r="ER24" s="109"/>
-      <c r="ES24" s="110"/>
-      <c r="ET24" s="110"/>
-      <c r="EU24" s="110"/>
-      <c r="EV24" s="110"/>
-      <c r="EW24" s="110"/>
-      <c r="EX24" s="110"/>
-      <c r="EY24" s="111"/>
+      <c r="ER24" s="104"/>
+      <c r="ES24" s="105"/>
+      <c r="ET24" s="105"/>
+      <c r="EU24" s="105"/>
+      <c r="EV24" s="105"/>
+      <c r="EW24" s="105"/>
+      <c r="EX24" s="105"/>
+      <c r="EY24" s="106"/>
       <c r="EZ24" s="13"/>
       <c r="FA24" s="14"/>
       <c r="FB24" s="14"/>
@@ -7521,7 +7549,7 @@
       <c r="GT24" s="14"/>
       <c r="GU24" s="14"/>
       <c r="GV24" s="14"/>
-      <c r="GW24" s="129"/>
+      <c r="GW24" s="93"/>
     </row>
     <row r="25" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A25" s="72" t="s">
@@ -7553,14 +7581,14 @@
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
       <c r="AA25" s="15"/>
-      <c r="AB25" s="109"/>
-      <c r="AC25" s="110"/>
-      <c r="AD25" s="110"/>
-      <c r="AE25" s="110"/>
-      <c r="AF25" s="110"/>
-      <c r="AG25" s="110"/>
-      <c r="AH25" s="110"/>
-      <c r="AI25" s="111"/>
+      <c r="AB25" s="104"/>
+      <c r="AC25" s="105"/>
+      <c r="AD25" s="105"/>
+      <c r="AE25" s="105"/>
+      <c r="AF25" s="105"/>
+      <c r="AG25" s="105"/>
+      <c r="AH25" s="105"/>
+      <c r="AI25" s="106"/>
       <c r="AJ25" s="13"/>
       <c r="AK25" s="14"/>
       <c r="AL25" s="14"/>
@@ -7609,14 +7637,14 @@
       <c r="CC25" s="14"/>
       <c r="CD25" s="14"/>
       <c r="CE25" s="15"/>
-      <c r="CF25" s="109"/>
-      <c r="CG25" s="110"/>
-      <c r="CH25" s="110"/>
-      <c r="CI25" s="110"/>
-      <c r="CJ25" s="110"/>
-      <c r="CK25" s="110"/>
-      <c r="CL25" s="110"/>
-      <c r="CM25" s="111"/>
+      <c r="CF25" s="104"/>
+      <c r="CG25" s="105"/>
+      <c r="CH25" s="105"/>
+      <c r="CI25" s="105"/>
+      <c r="CJ25" s="105"/>
+      <c r="CK25" s="105"/>
+      <c r="CL25" s="105"/>
+      <c r="CM25" s="106"/>
       <c r="CN25" s="13"/>
       <c r="CO25" s="14"/>
       <c r="CP25" s="14"/>
@@ -7673,14 +7701,14 @@
       <c r="EO25" s="14"/>
       <c r="EP25" s="14"/>
       <c r="EQ25" s="15"/>
-      <c r="ER25" s="109"/>
-      <c r="ES25" s="110"/>
-      <c r="ET25" s="110"/>
-      <c r="EU25" s="110"/>
-      <c r="EV25" s="110"/>
-      <c r="EW25" s="110"/>
-      <c r="EX25" s="110"/>
-      <c r="EY25" s="111"/>
+      <c r="ER25" s="104"/>
+      <c r="ES25" s="105"/>
+      <c r="ET25" s="105"/>
+      <c r="EU25" s="105"/>
+      <c r="EV25" s="105"/>
+      <c r="EW25" s="105"/>
+      <c r="EX25" s="105"/>
+      <c r="EY25" s="106"/>
       <c r="EZ25" s="13"/>
       <c r="FA25" s="14"/>
       <c r="FB25" s="14"/>
@@ -7730,7 +7758,7 @@
       <c r="GT25" s="14"/>
       <c r="GU25" s="14"/>
       <c r="GV25" s="14"/>
-      <c r="GW25" s="129"/>
+      <c r="GW25" s="93"/>
     </row>
     <row r="26" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A26" s="72" t="s">
@@ -7762,14 +7790,14 @@
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
       <c r="AA26" s="15"/>
-      <c r="AB26" s="109"/>
-      <c r="AC26" s="110"/>
-      <c r="AD26" s="110"/>
-      <c r="AE26" s="110"/>
-      <c r="AF26" s="110"/>
-      <c r="AG26" s="110"/>
-      <c r="AH26" s="110"/>
-      <c r="AI26" s="111"/>
+      <c r="AB26" s="104"/>
+      <c r="AC26" s="105"/>
+      <c r="AD26" s="105"/>
+      <c r="AE26" s="105"/>
+      <c r="AF26" s="105"/>
+      <c r="AG26" s="105"/>
+      <c r="AH26" s="105"/>
+      <c r="AI26" s="106"/>
       <c r="AJ26" s="13"/>
       <c r="AK26" s="14"/>
       <c r="AL26" s="14"/>
@@ -7818,14 +7846,14 @@
       <c r="CC26" s="14"/>
       <c r="CD26" s="14"/>
       <c r="CE26" s="15"/>
-      <c r="CF26" s="109"/>
-      <c r="CG26" s="110"/>
-      <c r="CH26" s="110"/>
-      <c r="CI26" s="110"/>
-      <c r="CJ26" s="110"/>
-      <c r="CK26" s="110"/>
-      <c r="CL26" s="110"/>
-      <c r="CM26" s="111"/>
+      <c r="CF26" s="104"/>
+      <c r="CG26" s="105"/>
+      <c r="CH26" s="105"/>
+      <c r="CI26" s="105"/>
+      <c r="CJ26" s="105"/>
+      <c r="CK26" s="105"/>
+      <c r="CL26" s="105"/>
+      <c r="CM26" s="106"/>
       <c r="CN26" s="13"/>
       <c r="CO26" s="14"/>
       <c r="CP26" s="14"/>
@@ -7882,14 +7910,14 @@
       <c r="EO26" s="57"/>
       <c r="EP26" s="57"/>
       <c r="EQ26" s="58"/>
-      <c r="ER26" s="109"/>
-      <c r="ES26" s="110"/>
-      <c r="ET26" s="110"/>
-      <c r="EU26" s="110"/>
-      <c r="EV26" s="110"/>
-      <c r="EW26" s="110"/>
-      <c r="EX26" s="110"/>
-      <c r="EY26" s="111"/>
+      <c r="ER26" s="104"/>
+      <c r="ES26" s="105"/>
+      <c r="ET26" s="105"/>
+      <c r="EU26" s="105"/>
+      <c r="EV26" s="105"/>
+      <c r="EW26" s="105"/>
+      <c r="EX26" s="105"/>
+      <c r="EY26" s="106"/>
       <c r="EZ26" s="13"/>
       <c r="FA26" s="14"/>
       <c r="FB26" s="14"/>
@@ -7939,7 +7967,7 @@
       <c r="GT26" s="14"/>
       <c r="GU26" s="14"/>
       <c r="GV26" s="14"/>
-      <c r="GW26" s="129"/>
+      <c r="GW26" s="93"/>
     </row>
     <row r="27" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A27" s="72" t="s">
@@ -7971,14 +7999,14 @@
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
       <c r="AA27" s="15"/>
-      <c r="AB27" s="109"/>
-      <c r="AC27" s="110"/>
-      <c r="AD27" s="110"/>
-      <c r="AE27" s="110"/>
-      <c r="AF27" s="110"/>
-      <c r="AG27" s="110"/>
-      <c r="AH27" s="110"/>
-      <c r="AI27" s="111"/>
+      <c r="AB27" s="104"/>
+      <c r="AC27" s="105"/>
+      <c r="AD27" s="105"/>
+      <c r="AE27" s="105"/>
+      <c r="AF27" s="105"/>
+      <c r="AG27" s="105"/>
+      <c r="AH27" s="105"/>
+      <c r="AI27" s="106"/>
       <c r="AJ27" s="13"/>
       <c r="AK27" s="14"/>
       <c r="AL27" s="14"/>
@@ -8027,14 +8055,14 @@
       <c r="CC27" s="14"/>
       <c r="CD27" s="14"/>
       <c r="CE27" s="15"/>
-      <c r="CF27" s="109"/>
-      <c r="CG27" s="110"/>
-      <c r="CH27" s="110"/>
-      <c r="CI27" s="110"/>
-      <c r="CJ27" s="110"/>
-      <c r="CK27" s="110"/>
-      <c r="CL27" s="110"/>
-      <c r="CM27" s="111"/>
+      <c r="CF27" s="104"/>
+      <c r="CG27" s="105"/>
+      <c r="CH27" s="105"/>
+      <c r="CI27" s="105"/>
+      <c r="CJ27" s="105"/>
+      <c r="CK27" s="105"/>
+      <c r="CL27" s="105"/>
+      <c r="CM27" s="106"/>
       <c r="CN27" s="13"/>
       <c r="CO27" s="14"/>
       <c r="CP27" s="14"/>
@@ -8091,14 +8119,14 @@
       <c r="EO27" s="39"/>
       <c r="EP27" s="39"/>
       <c r="EQ27" s="40"/>
-      <c r="ER27" s="109"/>
-      <c r="ES27" s="110"/>
-      <c r="ET27" s="110"/>
-      <c r="EU27" s="110"/>
-      <c r="EV27" s="110"/>
-      <c r="EW27" s="110"/>
-      <c r="EX27" s="110"/>
-      <c r="EY27" s="111"/>
+      <c r="ER27" s="104"/>
+      <c r="ES27" s="105"/>
+      <c r="ET27" s="105"/>
+      <c r="EU27" s="105"/>
+      <c r="EV27" s="105"/>
+      <c r="EW27" s="105"/>
+      <c r="EX27" s="105"/>
+      <c r="EY27" s="106"/>
       <c r="EZ27" s="13"/>
       <c r="FA27" s="14"/>
       <c r="FB27" s="14"/>
@@ -8148,7 +8176,7 @@
       <c r="GT27" s="14"/>
       <c r="GU27" s="14"/>
       <c r="GV27" s="14"/>
-      <c r="GW27" s="129"/>
+      <c r="GW27" s="93"/>
     </row>
     <row r="28" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A28" s="72" t="s">
@@ -8180,14 +8208,14 @@
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
       <c r="AA28" s="15"/>
-      <c r="AB28" s="109"/>
-      <c r="AC28" s="110"/>
-      <c r="AD28" s="110"/>
-      <c r="AE28" s="110"/>
-      <c r="AF28" s="110"/>
-      <c r="AG28" s="110"/>
-      <c r="AH28" s="110"/>
-      <c r="AI28" s="111"/>
+      <c r="AB28" s="104"/>
+      <c r="AC28" s="105"/>
+      <c r="AD28" s="105"/>
+      <c r="AE28" s="105"/>
+      <c r="AF28" s="105"/>
+      <c r="AG28" s="105"/>
+      <c r="AH28" s="105"/>
+      <c r="AI28" s="106"/>
       <c r="AJ28" s="13"/>
       <c r="AK28" s="14"/>
       <c r="AL28" s="14"/>
@@ -8236,14 +8264,14 @@
       <c r="CC28" s="14"/>
       <c r="CD28" s="14"/>
       <c r="CE28" s="15"/>
-      <c r="CF28" s="109"/>
-      <c r="CG28" s="110"/>
-      <c r="CH28" s="110"/>
-      <c r="CI28" s="110"/>
-      <c r="CJ28" s="110"/>
-      <c r="CK28" s="110"/>
-      <c r="CL28" s="110"/>
-      <c r="CM28" s="111"/>
+      <c r="CF28" s="104"/>
+      <c r="CG28" s="105"/>
+      <c r="CH28" s="105"/>
+      <c r="CI28" s="105"/>
+      <c r="CJ28" s="105"/>
+      <c r="CK28" s="105"/>
+      <c r="CL28" s="105"/>
+      <c r="CM28" s="106"/>
       <c r="CN28" s="13"/>
       <c r="CO28" s="14"/>
       <c r="CP28" s="14"/>
@@ -8300,14 +8328,14 @@
       <c r="EO28" s="14"/>
       <c r="EP28" s="14"/>
       <c r="EQ28" s="15"/>
-      <c r="ER28" s="109"/>
-      <c r="ES28" s="110"/>
-      <c r="ET28" s="110"/>
-      <c r="EU28" s="110"/>
-      <c r="EV28" s="110"/>
-      <c r="EW28" s="110"/>
-      <c r="EX28" s="110"/>
-      <c r="EY28" s="111"/>
+      <c r="ER28" s="104"/>
+      <c r="ES28" s="105"/>
+      <c r="ET28" s="105"/>
+      <c r="EU28" s="105"/>
+      <c r="EV28" s="105"/>
+      <c r="EW28" s="105"/>
+      <c r="EX28" s="105"/>
+      <c r="EY28" s="106"/>
       <c r="EZ28" s="41"/>
       <c r="FA28" s="39"/>
       <c r="FB28" s="39"/>
@@ -8357,7 +8385,7 @@
       <c r="GT28" s="14"/>
       <c r="GU28" s="14"/>
       <c r="GV28" s="14"/>
-      <c r="GW28" s="129"/>
+      <c r="GW28" s="93"/>
     </row>
     <row r="29" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A29" s="72" t="s">
@@ -8389,14 +8417,14 @@
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
       <c r="AA29" s="15"/>
-      <c r="AB29" s="109"/>
-      <c r="AC29" s="110"/>
-      <c r="AD29" s="110"/>
-      <c r="AE29" s="110"/>
-      <c r="AF29" s="110"/>
-      <c r="AG29" s="110"/>
-      <c r="AH29" s="110"/>
-      <c r="AI29" s="111"/>
+      <c r="AB29" s="104"/>
+      <c r="AC29" s="105"/>
+      <c r="AD29" s="105"/>
+      <c r="AE29" s="105"/>
+      <c r="AF29" s="105"/>
+      <c r="AG29" s="105"/>
+      <c r="AH29" s="105"/>
+      <c r="AI29" s="106"/>
       <c r="AJ29" s="13"/>
       <c r="AK29" s="14"/>
       <c r="AL29" s="14"/>
@@ -8445,14 +8473,14 @@
       <c r="CC29" s="14"/>
       <c r="CD29" s="14"/>
       <c r="CE29" s="15"/>
-      <c r="CF29" s="109"/>
-      <c r="CG29" s="110"/>
-      <c r="CH29" s="110"/>
-      <c r="CI29" s="110"/>
-      <c r="CJ29" s="110"/>
-      <c r="CK29" s="110"/>
-      <c r="CL29" s="110"/>
-      <c r="CM29" s="111"/>
+      <c r="CF29" s="104"/>
+      <c r="CG29" s="105"/>
+      <c r="CH29" s="105"/>
+      <c r="CI29" s="105"/>
+      <c r="CJ29" s="105"/>
+      <c r="CK29" s="105"/>
+      <c r="CL29" s="105"/>
+      <c r="CM29" s="106"/>
       <c r="CN29" s="13"/>
       <c r="CO29" s="14"/>
       <c r="CP29" s="14"/>
@@ -8509,14 +8537,14 @@
       <c r="EO29" s="14"/>
       <c r="EP29" s="14"/>
       <c r="EQ29" s="15"/>
-      <c r="ER29" s="109"/>
-      <c r="ES29" s="110"/>
-      <c r="ET29" s="110"/>
-      <c r="EU29" s="110"/>
-      <c r="EV29" s="110"/>
-      <c r="EW29" s="110"/>
-      <c r="EX29" s="110"/>
-      <c r="EY29" s="111"/>
+      <c r="ER29" s="104"/>
+      <c r="ES29" s="105"/>
+      <c r="ET29" s="105"/>
+      <c r="EU29" s="105"/>
+      <c r="EV29" s="105"/>
+      <c r="EW29" s="105"/>
+      <c r="EX29" s="105"/>
+      <c r="EY29" s="106"/>
       <c r="EZ29" s="13"/>
       <c r="FA29" s="14"/>
       <c r="FB29" s="14"/>
@@ -8566,7 +8594,7 @@
       <c r="GT29" s="14"/>
       <c r="GU29" s="14"/>
       <c r="GV29" s="14"/>
-      <c r="GW29" s="129"/>
+      <c r="GW29" s="93"/>
     </row>
     <row r="30" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A30" s="72" t="s">
@@ -8598,14 +8626,14 @@
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
       <c r="AA30" s="15"/>
-      <c r="AB30" s="109"/>
-      <c r="AC30" s="110"/>
-      <c r="AD30" s="110"/>
-      <c r="AE30" s="110"/>
-      <c r="AF30" s="110"/>
-      <c r="AG30" s="110"/>
-      <c r="AH30" s="110"/>
-      <c r="AI30" s="111"/>
+      <c r="AB30" s="104"/>
+      <c r="AC30" s="105"/>
+      <c r="AD30" s="105"/>
+      <c r="AE30" s="105"/>
+      <c r="AF30" s="105"/>
+      <c r="AG30" s="105"/>
+      <c r="AH30" s="105"/>
+      <c r="AI30" s="106"/>
       <c r="AJ30" s="13"/>
       <c r="AK30" s="14"/>
       <c r="AL30" s="14"/>
@@ -8654,14 +8682,14 @@
       <c r="CC30" s="14"/>
       <c r="CD30" s="14"/>
       <c r="CE30" s="15"/>
-      <c r="CF30" s="109"/>
-      <c r="CG30" s="110"/>
-      <c r="CH30" s="110"/>
-      <c r="CI30" s="110"/>
-      <c r="CJ30" s="110"/>
-      <c r="CK30" s="110"/>
-      <c r="CL30" s="110"/>
-      <c r="CM30" s="111"/>
+      <c r="CF30" s="104"/>
+      <c r="CG30" s="105"/>
+      <c r="CH30" s="105"/>
+      <c r="CI30" s="105"/>
+      <c r="CJ30" s="105"/>
+      <c r="CK30" s="105"/>
+      <c r="CL30" s="105"/>
+      <c r="CM30" s="106"/>
       <c r="CN30" s="13"/>
       <c r="CO30" s="14"/>
       <c r="CP30" s="14"/>
@@ -8718,14 +8746,14 @@
       <c r="EO30" s="14"/>
       <c r="EP30" s="14"/>
       <c r="EQ30" s="15"/>
-      <c r="ER30" s="109"/>
-      <c r="ES30" s="110"/>
-      <c r="ET30" s="110"/>
-      <c r="EU30" s="110"/>
-      <c r="EV30" s="110"/>
-      <c r="EW30" s="110"/>
-      <c r="EX30" s="110"/>
-      <c r="EY30" s="111"/>
+      <c r="ER30" s="104"/>
+      <c r="ES30" s="105"/>
+      <c r="ET30" s="105"/>
+      <c r="EU30" s="105"/>
+      <c r="EV30" s="105"/>
+      <c r="EW30" s="105"/>
+      <c r="EX30" s="105"/>
+      <c r="EY30" s="106"/>
       <c r="EZ30" s="13"/>
       <c r="FA30" s="14"/>
       <c r="FB30" s="14"/>
@@ -8775,7 +8803,7 @@
       <c r="GT30" s="14"/>
       <c r="GU30" s="14"/>
       <c r="GV30" s="14"/>
-      <c r="GW30" s="129"/>
+      <c r="GW30" s="93"/>
     </row>
     <row r="31" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A31" s="72" t="s">
@@ -8807,14 +8835,14 @@
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="15"/>
-      <c r="AB31" s="109"/>
-      <c r="AC31" s="110"/>
-      <c r="AD31" s="110"/>
-      <c r="AE31" s="110"/>
-      <c r="AF31" s="110"/>
-      <c r="AG31" s="110"/>
-      <c r="AH31" s="110"/>
-      <c r="AI31" s="111"/>
+      <c r="AB31" s="104"/>
+      <c r="AC31" s="105"/>
+      <c r="AD31" s="105"/>
+      <c r="AE31" s="105"/>
+      <c r="AF31" s="105"/>
+      <c r="AG31" s="105"/>
+      <c r="AH31" s="105"/>
+      <c r="AI31" s="106"/>
       <c r="AJ31" s="13"/>
       <c r="AK31" s="14"/>
       <c r="AL31" s="14"/>
@@ -8863,14 +8891,14 @@
       <c r="CC31" s="14"/>
       <c r="CD31" s="14"/>
       <c r="CE31" s="15"/>
-      <c r="CF31" s="109"/>
-      <c r="CG31" s="110"/>
-      <c r="CH31" s="110"/>
-      <c r="CI31" s="110"/>
-      <c r="CJ31" s="110"/>
-      <c r="CK31" s="110"/>
-      <c r="CL31" s="110"/>
-      <c r="CM31" s="111"/>
+      <c r="CF31" s="104"/>
+      <c r="CG31" s="105"/>
+      <c r="CH31" s="105"/>
+      <c r="CI31" s="105"/>
+      <c r="CJ31" s="105"/>
+      <c r="CK31" s="105"/>
+      <c r="CL31" s="105"/>
+      <c r="CM31" s="106"/>
       <c r="CN31" s="13"/>
       <c r="CO31" s="14"/>
       <c r="CP31" s="14"/>
@@ -8927,14 +8955,14 @@
       <c r="EO31" s="14"/>
       <c r="EP31" s="14"/>
       <c r="EQ31" s="15"/>
-      <c r="ER31" s="109"/>
-      <c r="ES31" s="110"/>
-      <c r="ET31" s="110"/>
-      <c r="EU31" s="110"/>
-      <c r="EV31" s="110"/>
-      <c r="EW31" s="110"/>
-      <c r="EX31" s="110"/>
-      <c r="EY31" s="111"/>
+      <c r="ER31" s="104"/>
+      <c r="ES31" s="105"/>
+      <c r="ET31" s="105"/>
+      <c r="EU31" s="105"/>
+      <c r="EV31" s="105"/>
+      <c r="EW31" s="105"/>
+      <c r="EX31" s="105"/>
+      <c r="EY31" s="106"/>
       <c r="EZ31" s="13"/>
       <c r="FA31" s="14"/>
       <c r="FB31" s="14"/>
@@ -8984,7 +9012,7 @@
       <c r="GT31" s="14"/>
       <c r="GU31" s="14"/>
       <c r="GV31" s="14"/>
-      <c r="GW31" s="129"/>
+      <c r="GW31" s="93"/>
     </row>
     <row r="32" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A32" s="72" t="s">
@@ -9016,14 +9044,14 @@
       <c r="Y32" s="14"/>
       <c r="Z32" s="14"/>
       <c r="AA32" s="15"/>
-      <c r="AB32" s="109"/>
-      <c r="AC32" s="110"/>
-      <c r="AD32" s="110"/>
-      <c r="AE32" s="110"/>
-      <c r="AF32" s="110"/>
-      <c r="AG32" s="110"/>
-      <c r="AH32" s="110"/>
-      <c r="AI32" s="111"/>
+      <c r="AB32" s="104"/>
+      <c r="AC32" s="105"/>
+      <c r="AD32" s="105"/>
+      <c r="AE32" s="105"/>
+      <c r="AF32" s="105"/>
+      <c r="AG32" s="105"/>
+      <c r="AH32" s="105"/>
+      <c r="AI32" s="106"/>
       <c r="AJ32" s="13"/>
       <c r="AK32" s="14"/>
       <c r="AL32" s="14"/>
@@ -9072,14 +9100,14 @@
       <c r="CC32" s="14"/>
       <c r="CD32" s="14"/>
       <c r="CE32" s="15"/>
-      <c r="CF32" s="109"/>
-      <c r="CG32" s="110"/>
-      <c r="CH32" s="110"/>
-      <c r="CI32" s="110"/>
-      <c r="CJ32" s="110"/>
-      <c r="CK32" s="110"/>
-      <c r="CL32" s="110"/>
-      <c r="CM32" s="111"/>
+      <c r="CF32" s="104"/>
+      <c r="CG32" s="105"/>
+      <c r="CH32" s="105"/>
+      <c r="CI32" s="105"/>
+      <c r="CJ32" s="105"/>
+      <c r="CK32" s="105"/>
+      <c r="CL32" s="105"/>
+      <c r="CM32" s="106"/>
       <c r="CN32" s="13"/>
       <c r="CO32" s="14"/>
       <c r="CP32" s="14"/>
@@ -9136,14 +9164,14 @@
       <c r="EO32" s="14"/>
       <c r="EP32" s="14"/>
       <c r="EQ32" s="15"/>
-      <c r="ER32" s="109"/>
-      <c r="ES32" s="110"/>
-      <c r="ET32" s="110"/>
-      <c r="EU32" s="110"/>
-      <c r="EV32" s="110"/>
-      <c r="EW32" s="110"/>
-      <c r="EX32" s="110"/>
-      <c r="EY32" s="111"/>
+      <c r="ER32" s="104"/>
+      <c r="ES32" s="105"/>
+      <c r="ET32" s="105"/>
+      <c r="EU32" s="105"/>
+      <c r="EV32" s="105"/>
+      <c r="EW32" s="105"/>
+      <c r="EX32" s="105"/>
+      <c r="EY32" s="106"/>
       <c r="EZ32" s="13"/>
       <c r="FA32" s="14"/>
       <c r="FB32" s="14"/>
@@ -9193,7 +9221,7 @@
       <c r="GT32" s="14"/>
       <c r="GU32" s="14"/>
       <c r="GV32" s="14"/>
-      <c r="GW32" s="129"/>
+      <c r="GW32" s="93"/>
     </row>
     <row r="33" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A33" s="72" t="s">
@@ -9225,14 +9253,14 @@
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
       <c r="AA33" s="15"/>
-      <c r="AB33" s="109"/>
-      <c r="AC33" s="110"/>
-      <c r="AD33" s="110"/>
-      <c r="AE33" s="110"/>
-      <c r="AF33" s="110"/>
-      <c r="AG33" s="110"/>
-      <c r="AH33" s="110"/>
-      <c r="AI33" s="111"/>
+      <c r="AB33" s="104"/>
+      <c r="AC33" s="105"/>
+      <c r="AD33" s="105"/>
+      <c r="AE33" s="105"/>
+      <c r="AF33" s="105"/>
+      <c r="AG33" s="105"/>
+      <c r="AH33" s="105"/>
+      <c r="AI33" s="106"/>
       <c r="AJ33" s="13"/>
       <c r="AK33" s="14"/>
       <c r="AL33" s="14"/>
@@ -9281,14 +9309,14 @@
       <c r="CC33" s="14"/>
       <c r="CD33" s="14"/>
       <c r="CE33" s="15"/>
-      <c r="CF33" s="109"/>
-      <c r="CG33" s="110"/>
-      <c r="CH33" s="110"/>
-      <c r="CI33" s="110"/>
-      <c r="CJ33" s="110"/>
-      <c r="CK33" s="110"/>
-      <c r="CL33" s="110"/>
-      <c r="CM33" s="111"/>
+      <c r="CF33" s="104"/>
+      <c r="CG33" s="105"/>
+      <c r="CH33" s="105"/>
+      <c r="CI33" s="105"/>
+      <c r="CJ33" s="105"/>
+      <c r="CK33" s="105"/>
+      <c r="CL33" s="105"/>
+      <c r="CM33" s="106"/>
       <c r="CN33" s="13"/>
       <c r="CO33" s="14"/>
       <c r="CP33" s="14"/>
@@ -9345,14 +9373,14 @@
       <c r="EO33" s="14"/>
       <c r="EP33" s="14"/>
       <c r="EQ33" s="15"/>
-      <c r="ER33" s="109"/>
-      <c r="ES33" s="110"/>
-      <c r="ET33" s="110"/>
-      <c r="EU33" s="110"/>
-      <c r="EV33" s="110"/>
-      <c r="EW33" s="110"/>
-      <c r="EX33" s="110"/>
-      <c r="EY33" s="111"/>
+      <c r="ER33" s="104"/>
+      <c r="ES33" s="105"/>
+      <c r="ET33" s="105"/>
+      <c r="EU33" s="105"/>
+      <c r="EV33" s="105"/>
+      <c r="EW33" s="105"/>
+      <c r="EX33" s="105"/>
+      <c r="EY33" s="106"/>
       <c r="EZ33" s="13"/>
       <c r="FA33" s="14"/>
       <c r="FB33" s="14"/>
@@ -9402,7 +9430,7 @@
       <c r="GT33" s="14"/>
       <c r="GU33" s="14"/>
       <c r="GV33" s="14"/>
-      <c r="GW33" s="129"/>
+      <c r="GW33" s="93"/>
     </row>
     <row r="34" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A34" s="72" t="s">
@@ -9434,14 +9462,14 @@
       <c r="Y34" s="14"/>
       <c r="Z34" s="14"/>
       <c r="AA34" s="15"/>
-      <c r="AB34" s="109"/>
-      <c r="AC34" s="110"/>
-      <c r="AD34" s="110"/>
-      <c r="AE34" s="110"/>
-      <c r="AF34" s="110"/>
-      <c r="AG34" s="110"/>
-      <c r="AH34" s="110"/>
-      <c r="AI34" s="111"/>
+      <c r="AB34" s="104"/>
+      <c r="AC34" s="105"/>
+      <c r="AD34" s="105"/>
+      <c r="AE34" s="105"/>
+      <c r="AF34" s="105"/>
+      <c r="AG34" s="105"/>
+      <c r="AH34" s="105"/>
+      <c r="AI34" s="106"/>
       <c r="AJ34" s="13"/>
       <c r="AK34" s="14"/>
       <c r="AL34" s="14"/>
@@ -9490,14 +9518,14 @@
       <c r="CC34" s="14"/>
       <c r="CD34" s="14"/>
       <c r="CE34" s="15"/>
-      <c r="CF34" s="109"/>
-      <c r="CG34" s="110"/>
-      <c r="CH34" s="110"/>
-      <c r="CI34" s="110"/>
-      <c r="CJ34" s="110"/>
-      <c r="CK34" s="110"/>
-      <c r="CL34" s="110"/>
-      <c r="CM34" s="111"/>
+      <c r="CF34" s="104"/>
+      <c r="CG34" s="105"/>
+      <c r="CH34" s="105"/>
+      <c r="CI34" s="105"/>
+      <c r="CJ34" s="105"/>
+      <c r="CK34" s="105"/>
+      <c r="CL34" s="105"/>
+      <c r="CM34" s="106"/>
       <c r="CN34" s="13"/>
       <c r="CO34" s="14"/>
       <c r="CP34" s="14"/>
@@ -9554,14 +9582,14 @@
       <c r="EO34" s="14"/>
       <c r="EP34" s="14"/>
       <c r="EQ34" s="15"/>
-      <c r="ER34" s="109"/>
-      <c r="ES34" s="110"/>
-      <c r="ET34" s="110"/>
-      <c r="EU34" s="110"/>
-      <c r="EV34" s="110"/>
-      <c r="EW34" s="110"/>
-      <c r="EX34" s="110"/>
-      <c r="EY34" s="111"/>
+      <c r="ER34" s="104"/>
+      <c r="ES34" s="105"/>
+      <c r="ET34" s="105"/>
+      <c r="EU34" s="105"/>
+      <c r="EV34" s="105"/>
+      <c r="EW34" s="105"/>
+      <c r="EX34" s="105"/>
+      <c r="EY34" s="106"/>
       <c r="EZ34" s="13"/>
       <c r="FA34" s="14"/>
       <c r="FB34" s="14"/>
@@ -9611,7 +9639,7 @@
       <c r="GT34" s="14"/>
       <c r="GU34" s="14"/>
       <c r="GV34" s="14"/>
-      <c r="GW34" s="129"/>
+      <c r="GW34" s="93"/>
     </row>
     <row r="35" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A35" s="72" t="s">
@@ -9643,14 +9671,14 @@
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
       <c r="AA35" s="15"/>
-      <c r="AB35" s="109"/>
-      <c r="AC35" s="110"/>
-      <c r="AD35" s="110"/>
-      <c r="AE35" s="110"/>
-      <c r="AF35" s="110"/>
-      <c r="AG35" s="110"/>
-      <c r="AH35" s="110"/>
-      <c r="AI35" s="111"/>
+      <c r="AB35" s="104"/>
+      <c r="AC35" s="105"/>
+      <c r="AD35" s="105"/>
+      <c r="AE35" s="105"/>
+      <c r="AF35" s="105"/>
+      <c r="AG35" s="105"/>
+      <c r="AH35" s="105"/>
+      <c r="AI35" s="106"/>
       <c r="AJ35" s="13"/>
       <c r="AK35" s="14"/>
       <c r="AL35" s="14"/>
@@ -9699,14 +9727,14 @@
       <c r="CC35" s="14"/>
       <c r="CD35" s="14"/>
       <c r="CE35" s="15"/>
-      <c r="CF35" s="109"/>
-      <c r="CG35" s="110"/>
-      <c r="CH35" s="110"/>
-      <c r="CI35" s="110"/>
-      <c r="CJ35" s="110"/>
-      <c r="CK35" s="110"/>
-      <c r="CL35" s="110"/>
-      <c r="CM35" s="111"/>
+      <c r="CF35" s="104"/>
+      <c r="CG35" s="105"/>
+      <c r="CH35" s="105"/>
+      <c r="CI35" s="105"/>
+      <c r="CJ35" s="105"/>
+      <c r="CK35" s="105"/>
+      <c r="CL35" s="105"/>
+      <c r="CM35" s="106"/>
       <c r="CN35" s="13"/>
       <c r="CO35" s="14"/>
       <c r="CP35" s="14"/>
@@ -9763,14 +9791,14 @@
       <c r="EO35" s="14"/>
       <c r="EP35" s="14"/>
       <c r="EQ35" s="15"/>
-      <c r="ER35" s="109"/>
-      <c r="ES35" s="110"/>
-      <c r="ET35" s="110"/>
-      <c r="EU35" s="110"/>
-      <c r="EV35" s="110"/>
-      <c r="EW35" s="110"/>
-      <c r="EX35" s="110"/>
-      <c r="EY35" s="111"/>
+      <c r="ER35" s="104"/>
+      <c r="ES35" s="105"/>
+      <c r="ET35" s="105"/>
+      <c r="EU35" s="105"/>
+      <c r="EV35" s="105"/>
+      <c r="EW35" s="105"/>
+      <c r="EX35" s="105"/>
+      <c r="EY35" s="106"/>
       <c r="EZ35" s="13"/>
       <c r="FA35" s="14"/>
       <c r="FB35" s="14"/>
@@ -9820,7 +9848,7 @@
       <c r="GT35" s="14"/>
       <c r="GU35" s="14"/>
       <c r="GV35" s="14"/>
-      <c r="GW35" s="129"/>
+      <c r="GW35" s="93"/>
     </row>
     <row r="36" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="73" t="s">
@@ -9852,14 +9880,14 @@
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
       <c r="AA36" s="15"/>
-      <c r="AB36" s="109"/>
-      <c r="AC36" s="110"/>
-      <c r="AD36" s="110"/>
-      <c r="AE36" s="110"/>
-      <c r="AF36" s="110"/>
-      <c r="AG36" s="110"/>
-      <c r="AH36" s="110"/>
-      <c r="AI36" s="111"/>
+      <c r="AB36" s="104"/>
+      <c r="AC36" s="105"/>
+      <c r="AD36" s="105"/>
+      <c r="AE36" s="105"/>
+      <c r="AF36" s="105"/>
+      <c r="AG36" s="105"/>
+      <c r="AH36" s="105"/>
+      <c r="AI36" s="106"/>
       <c r="AJ36" s="13"/>
       <c r="AK36" s="14"/>
       <c r="AL36" s="14"/>
@@ -9908,14 +9936,14 @@
       <c r="CC36" s="14"/>
       <c r="CD36" s="14"/>
       <c r="CE36" s="15"/>
-      <c r="CF36" s="109"/>
-      <c r="CG36" s="110"/>
-      <c r="CH36" s="110"/>
-      <c r="CI36" s="110"/>
-      <c r="CJ36" s="110"/>
-      <c r="CK36" s="110"/>
-      <c r="CL36" s="110"/>
-      <c r="CM36" s="111"/>
+      <c r="CF36" s="104"/>
+      <c r="CG36" s="105"/>
+      <c r="CH36" s="105"/>
+      <c r="CI36" s="105"/>
+      <c r="CJ36" s="105"/>
+      <c r="CK36" s="105"/>
+      <c r="CL36" s="105"/>
+      <c r="CM36" s="106"/>
       <c r="CN36" s="13"/>
       <c r="CO36" s="14"/>
       <c r="CP36" s="14"/>
@@ -9972,14 +10000,14 @@
       <c r="EO36" s="14"/>
       <c r="EP36" s="14"/>
       <c r="EQ36" s="15"/>
-      <c r="ER36" s="109"/>
-      <c r="ES36" s="110"/>
-      <c r="ET36" s="110"/>
-      <c r="EU36" s="110"/>
-      <c r="EV36" s="110"/>
-      <c r="EW36" s="110"/>
-      <c r="EX36" s="110"/>
-      <c r="EY36" s="111"/>
+      <c r="ER36" s="104"/>
+      <c r="ES36" s="105"/>
+      <c r="ET36" s="105"/>
+      <c r="EU36" s="105"/>
+      <c r="EV36" s="105"/>
+      <c r="EW36" s="105"/>
+      <c r="EX36" s="105"/>
+      <c r="EY36" s="106"/>
       <c r="EZ36" s="13"/>
       <c r="FA36" s="14"/>
       <c r="FB36" s="14"/>
@@ -10029,13 +10057,13 @@
       <c r="GT36" s="14"/>
       <c r="GU36" s="14"/>
       <c r="GV36" s="14"/>
-      <c r="GW36" s="129"/>
+      <c r="GW36" s="93"/>
     </row>
     <row r="37" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="102" t="s">
+      <c r="A37" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="103"/>
+      <c r="B37" s="127"/>
       <c r="C37" s="61"/>
       <c r="D37" s="13"/>
       <c r="E37" s="14"/>
@@ -10061,14 +10089,14 @@
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
       <c r="AA37" s="15"/>
-      <c r="AB37" s="109"/>
-      <c r="AC37" s="110"/>
-      <c r="AD37" s="110"/>
-      <c r="AE37" s="110"/>
-      <c r="AF37" s="110"/>
-      <c r="AG37" s="110"/>
-      <c r="AH37" s="110"/>
-      <c r="AI37" s="111"/>
+      <c r="AB37" s="104"/>
+      <c r="AC37" s="105"/>
+      <c r="AD37" s="105"/>
+      <c r="AE37" s="105"/>
+      <c r="AF37" s="105"/>
+      <c r="AG37" s="105"/>
+      <c r="AH37" s="105"/>
+      <c r="AI37" s="106"/>
       <c r="AJ37" s="13"/>
       <c r="AK37" s="14"/>
       <c r="AL37" s="14"/>
@@ -10117,14 +10145,14 @@
       <c r="CC37" s="14"/>
       <c r="CD37" s="14"/>
       <c r="CE37" s="15"/>
-      <c r="CF37" s="109"/>
-      <c r="CG37" s="110"/>
-      <c r="CH37" s="110"/>
-      <c r="CI37" s="110"/>
-      <c r="CJ37" s="110"/>
-      <c r="CK37" s="110"/>
-      <c r="CL37" s="110"/>
-      <c r="CM37" s="111"/>
+      <c r="CF37" s="104"/>
+      <c r="CG37" s="105"/>
+      <c r="CH37" s="105"/>
+      <c r="CI37" s="105"/>
+      <c r="CJ37" s="105"/>
+      <c r="CK37" s="105"/>
+      <c r="CL37" s="105"/>
+      <c r="CM37" s="106"/>
       <c r="CN37" s="13"/>
       <c r="CO37" s="14"/>
       <c r="CP37" s="14"/>
@@ -10181,14 +10209,14 @@
       <c r="EO37" s="14"/>
       <c r="EP37" s="14"/>
       <c r="EQ37" s="15"/>
-      <c r="ER37" s="109"/>
-      <c r="ES37" s="110"/>
-      <c r="ET37" s="110"/>
-      <c r="EU37" s="110"/>
-      <c r="EV37" s="110"/>
-      <c r="EW37" s="110"/>
-      <c r="EX37" s="110"/>
-      <c r="EY37" s="111"/>
+      <c r="ER37" s="104"/>
+      <c r="ES37" s="105"/>
+      <c r="ET37" s="105"/>
+      <c r="EU37" s="105"/>
+      <c r="EV37" s="105"/>
+      <c r="EW37" s="105"/>
+      <c r="EX37" s="105"/>
+      <c r="EY37" s="106"/>
       <c r="EZ37" s="13"/>
       <c r="FA37" s="14"/>
       <c r="FB37" s="14"/>
@@ -10238,7 +10266,7 @@
       <c r="GT37" s="14"/>
       <c r="GU37" s="14"/>
       <c r="GV37" s="14"/>
-      <c r="GW37" s="129"/>
+      <c r="GW37" s="93"/>
     </row>
     <row r="38" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="88" t="s">
@@ -10270,14 +10298,14 @@
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
       <c r="AA38" s="15"/>
-      <c r="AB38" s="109"/>
-      <c r="AC38" s="110"/>
-      <c r="AD38" s="110"/>
-      <c r="AE38" s="110"/>
-      <c r="AF38" s="110"/>
-      <c r="AG38" s="110"/>
-      <c r="AH38" s="110"/>
-      <c r="AI38" s="111"/>
+      <c r="AB38" s="104"/>
+      <c r="AC38" s="105"/>
+      <c r="AD38" s="105"/>
+      <c r="AE38" s="105"/>
+      <c r="AF38" s="105"/>
+      <c r="AG38" s="105"/>
+      <c r="AH38" s="105"/>
+      <c r="AI38" s="106"/>
       <c r="AJ38" s="13"/>
       <c r="AK38" s="14"/>
       <c r="AL38" s="14"/>
@@ -10326,14 +10354,14 @@
       <c r="CC38" s="14"/>
       <c r="CD38" s="14"/>
       <c r="CE38" s="15"/>
-      <c r="CF38" s="109"/>
-      <c r="CG38" s="110"/>
-      <c r="CH38" s="110"/>
-      <c r="CI38" s="110"/>
-      <c r="CJ38" s="110"/>
-      <c r="CK38" s="110"/>
-      <c r="CL38" s="110"/>
-      <c r="CM38" s="111"/>
+      <c r="CF38" s="104"/>
+      <c r="CG38" s="105"/>
+      <c r="CH38" s="105"/>
+      <c r="CI38" s="105"/>
+      <c r="CJ38" s="105"/>
+      <c r="CK38" s="105"/>
+      <c r="CL38" s="105"/>
+      <c r="CM38" s="106"/>
       <c r="CN38" s="13"/>
       <c r="CO38" s="14"/>
       <c r="CP38" s="14"/>
@@ -10390,14 +10418,14 @@
       <c r="EO38" s="14"/>
       <c r="EP38" s="14"/>
       <c r="EQ38" s="15"/>
-      <c r="ER38" s="109"/>
-      <c r="ES38" s="110"/>
-      <c r="ET38" s="110"/>
-      <c r="EU38" s="110"/>
-      <c r="EV38" s="110"/>
-      <c r="EW38" s="110"/>
-      <c r="EX38" s="110"/>
-      <c r="EY38" s="111"/>
+      <c r="ER38" s="104"/>
+      <c r="ES38" s="105"/>
+      <c r="ET38" s="105"/>
+      <c r="EU38" s="105"/>
+      <c r="EV38" s="105"/>
+      <c r="EW38" s="105"/>
+      <c r="EX38" s="105"/>
+      <c r="EY38" s="106"/>
       <c r="EZ38" s="13"/>
       <c r="FA38" s="14"/>
       <c r="FB38" s="14"/>
@@ -10447,13 +10475,13 @@
       <c r="GT38" s="14"/>
       <c r="GU38" s="14"/>
       <c r="GV38" s="14"/>
-      <c r="GW38" s="129"/>
+      <c r="GW38" s="93"/>
     </row>
     <row r="39" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="104" t="s">
+      <c r="A39" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="105"/>
+      <c r="B39" s="129"/>
       <c r="C39" s="61"/>
       <c r="D39" s="13"/>
       <c r="E39" s="14"/>
@@ -10479,14 +10507,14 @@
       <c r="Y39" s="14"/>
       <c r="Z39" s="14"/>
       <c r="AA39" s="15"/>
-      <c r="AB39" s="109"/>
-      <c r="AC39" s="110"/>
-      <c r="AD39" s="110"/>
-      <c r="AE39" s="110"/>
-      <c r="AF39" s="110"/>
-      <c r="AG39" s="110"/>
-      <c r="AH39" s="110"/>
-      <c r="AI39" s="111"/>
+      <c r="AB39" s="104"/>
+      <c r="AC39" s="105"/>
+      <c r="AD39" s="105"/>
+      <c r="AE39" s="105"/>
+      <c r="AF39" s="105"/>
+      <c r="AG39" s="105"/>
+      <c r="AH39" s="105"/>
+      <c r="AI39" s="106"/>
       <c r="AJ39" s="13"/>
       <c r="AK39" s="14"/>
       <c r="AL39" s="14"/>
@@ -10535,14 +10563,14 @@
       <c r="CC39" s="14"/>
       <c r="CD39" s="14"/>
       <c r="CE39" s="15"/>
-      <c r="CF39" s="109"/>
-      <c r="CG39" s="110"/>
-      <c r="CH39" s="110"/>
-      <c r="CI39" s="110"/>
-      <c r="CJ39" s="110"/>
-      <c r="CK39" s="110"/>
-      <c r="CL39" s="110"/>
-      <c r="CM39" s="111"/>
+      <c r="CF39" s="104"/>
+      <c r="CG39" s="105"/>
+      <c r="CH39" s="105"/>
+      <c r="CI39" s="105"/>
+      <c r="CJ39" s="105"/>
+      <c r="CK39" s="105"/>
+      <c r="CL39" s="105"/>
+      <c r="CM39" s="106"/>
       <c r="CN39" s="13"/>
       <c r="CO39" s="14"/>
       <c r="CP39" s="14"/>
@@ -10599,14 +10627,14 @@
       <c r="EO39" s="14"/>
       <c r="EP39" s="14"/>
       <c r="EQ39" s="15"/>
-      <c r="ER39" s="109"/>
-      <c r="ES39" s="110"/>
-      <c r="ET39" s="110"/>
-      <c r="EU39" s="110"/>
-      <c r="EV39" s="110"/>
-      <c r="EW39" s="110"/>
-      <c r="EX39" s="110"/>
-      <c r="EY39" s="111"/>
+      <c r="ER39" s="104"/>
+      <c r="ES39" s="105"/>
+      <c r="ET39" s="105"/>
+      <c r="EU39" s="105"/>
+      <c r="EV39" s="105"/>
+      <c r="EW39" s="105"/>
+      <c r="EX39" s="105"/>
+      <c r="EY39" s="106"/>
       <c r="EZ39" s="13"/>
       <c r="FA39" s="14"/>
       <c r="FB39" s="14"/>
@@ -10656,7 +10684,7 @@
       <c r="GT39" s="14"/>
       <c r="GU39" s="14"/>
       <c r="GV39" s="14"/>
-      <c r="GW39" s="129"/>
+      <c r="GW39" s="93"/>
     </row>
     <row r="40" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="82" t="s">
@@ -10688,14 +10716,14 @@
       <c r="Y40" s="14"/>
       <c r="Z40" s="14"/>
       <c r="AA40" s="15"/>
-      <c r="AB40" s="109"/>
-      <c r="AC40" s="110"/>
-      <c r="AD40" s="110"/>
-      <c r="AE40" s="110"/>
-      <c r="AF40" s="110"/>
-      <c r="AG40" s="110"/>
-      <c r="AH40" s="110"/>
-      <c r="AI40" s="111"/>
+      <c r="AB40" s="104"/>
+      <c r="AC40" s="105"/>
+      <c r="AD40" s="105"/>
+      <c r="AE40" s="105"/>
+      <c r="AF40" s="105"/>
+      <c r="AG40" s="105"/>
+      <c r="AH40" s="105"/>
+      <c r="AI40" s="106"/>
       <c r="AJ40" s="13"/>
       <c r="AK40" s="14"/>
       <c r="AL40" s="14"/>
@@ -10744,14 +10772,14 @@
       <c r="CC40" s="14"/>
       <c r="CD40" s="14"/>
       <c r="CE40" s="15"/>
-      <c r="CF40" s="109"/>
-      <c r="CG40" s="110"/>
-      <c r="CH40" s="110"/>
-      <c r="CI40" s="110"/>
-      <c r="CJ40" s="110"/>
-      <c r="CK40" s="110"/>
-      <c r="CL40" s="110"/>
-      <c r="CM40" s="111"/>
+      <c r="CF40" s="104"/>
+      <c r="CG40" s="105"/>
+      <c r="CH40" s="105"/>
+      <c r="CI40" s="105"/>
+      <c r="CJ40" s="105"/>
+      <c r="CK40" s="105"/>
+      <c r="CL40" s="105"/>
+      <c r="CM40" s="106"/>
       <c r="CN40" s="13"/>
       <c r="CO40" s="14"/>
       <c r="CP40" s="14" t="s">
@@ -10812,14 +10840,14 @@
       <c r="EO40" s="14"/>
       <c r="EP40" s="14"/>
       <c r="EQ40" s="15"/>
-      <c r="ER40" s="109"/>
-      <c r="ES40" s="110"/>
-      <c r="ET40" s="110"/>
-      <c r="EU40" s="110"/>
-      <c r="EV40" s="110"/>
-      <c r="EW40" s="110"/>
-      <c r="EX40" s="110"/>
-      <c r="EY40" s="111"/>
+      <c r="ER40" s="104"/>
+      <c r="ES40" s="105"/>
+      <c r="ET40" s="105"/>
+      <c r="EU40" s="105"/>
+      <c r="EV40" s="105"/>
+      <c r="EW40" s="105"/>
+      <c r="EX40" s="105"/>
+      <c r="EY40" s="106"/>
       <c r="EZ40" s="13"/>
       <c r="FA40" s="14"/>
       <c r="FB40" s="14"/>
@@ -10869,7 +10897,7 @@
       <c r="GT40" s="14"/>
       <c r="GU40" s="14"/>
       <c r="GV40" s="14"/>
-      <c r="GW40" s="129"/>
+      <c r="GW40" s="93"/>
     </row>
     <row r="41" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="83" t="s">
@@ -10877,74 +10905,74 @@
       </c>
       <c r="B41" s="68"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="89" t="s">
+      <c r="D41" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="90"/>
-      <c r="M41" s="90"/>
-      <c r="N41" s="90"/>
-      <c r="O41" s="90"/>
-      <c r="P41" s="90"/>
-      <c r="Q41" s="90"/>
-      <c r="R41" s="90"/>
-      <c r="S41" s="90"/>
-      <c r="T41" s="90"/>
-      <c r="U41" s="90"/>
-      <c r="V41" s="90"/>
-      <c r="W41" s="90"/>
-      <c r="X41" s="90"/>
-      <c r="Y41" s="90"/>
-      <c r="Z41" s="90"/>
-      <c r="AA41" s="91"/>
-      <c r="AB41" s="112"/>
-      <c r="AC41" s="113"/>
-      <c r="AD41" s="113"/>
-      <c r="AE41" s="113"/>
-      <c r="AF41" s="113"/>
-      <c r="AG41" s="113"/>
-      <c r="AH41" s="113"/>
-      <c r="AI41" s="114"/>
-      <c r="AJ41" s="89" t="s">
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="114"/>
+      <c r="P41" s="114"/>
+      <c r="Q41" s="114"/>
+      <c r="R41" s="114"/>
+      <c r="S41" s="114"/>
+      <c r="T41" s="114"/>
+      <c r="U41" s="114"/>
+      <c r="V41" s="114"/>
+      <c r="W41" s="114"/>
+      <c r="X41" s="114"/>
+      <c r="Y41" s="114"/>
+      <c r="Z41" s="114"/>
+      <c r="AA41" s="115"/>
+      <c r="AB41" s="107"/>
+      <c r="AC41" s="108"/>
+      <c r="AD41" s="108"/>
+      <c r="AE41" s="108"/>
+      <c r="AF41" s="108"/>
+      <c r="AG41" s="108"/>
+      <c r="AH41" s="108"/>
+      <c r="AI41" s="109"/>
+      <c r="AJ41" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="AK41" s="92"/>
-      <c r="AL41" s="92"/>
-      <c r="AM41" s="92"/>
-      <c r="AN41" s="92"/>
-      <c r="AO41" s="92"/>
-      <c r="AP41" s="92"/>
-      <c r="AQ41" s="92"/>
-      <c r="AR41" s="92"/>
-      <c r="AS41" s="92"/>
-      <c r="AT41" s="92"/>
-      <c r="AU41" s="92"/>
-      <c r="AV41" s="92"/>
-      <c r="AW41" s="92"/>
-      <c r="AX41" s="92"/>
-      <c r="AY41" s="92"/>
-      <c r="AZ41" s="92"/>
-      <c r="BA41" s="92"/>
-      <c r="BB41" s="92"/>
-      <c r="BC41" s="92"/>
-      <c r="BD41" s="92"/>
-      <c r="BE41" s="92"/>
-      <c r="BF41" s="92"/>
-      <c r="BG41" s="92"/>
-      <c r="BH41" s="92"/>
-      <c r="BI41" s="92"/>
-      <c r="BJ41" s="92"/>
-      <c r="BK41" s="92"/>
-      <c r="BL41" s="92"/>
-      <c r="BM41" s="92"/>
-      <c r="BN41" s="92"/>
-      <c r="BO41" s="93"/>
+      <c r="AK41" s="116"/>
+      <c r="AL41" s="116"/>
+      <c r="AM41" s="116"/>
+      <c r="AN41" s="116"/>
+      <c r="AO41" s="116"/>
+      <c r="AP41" s="116"/>
+      <c r="AQ41" s="116"/>
+      <c r="AR41" s="116"/>
+      <c r="AS41" s="116"/>
+      <c r="AT41" s="116"/>
+      <c r="AU41" s="116"/>
+      <c r="AV41" s="116"/>
+      <c r="AW41" s="116"/>
+      <c r="AX41" s="116"/>
+      <c r="AY41" s="116"/>
+      <c r="AZ41" s="116"/>
+      <c r="BA41" s="116"/>
+      <c r="BB41" s="116"/>
+      <c r="BC41" s="116"/>
+      <c r="BD41" s="116"/>
+      <c r="BE41" s="116"/>
+      <c r="BF41" s="116"/>
+      <c r="BG41" s="116"/>
+      <c r="BH41" s="116"/>
+      <c r="BI41" s="116"/>
+      <c r="BJ41" s="116"/>
+      <c r="BK41" s="116"/>
+      <c r="BL41" s="116"/>
+      <c r="BM41" s="116"/>
+      <c r="BN41" s="116"/>
+      <c r="BO41" s="117"/>
       <c r="BP41" s="17"/>
       <c r="BQ41" s="18"/>
       <c r="BR41" s="18"/>
@@ -10961,14 +10989,14 @@
       <c r="CC41" s="18"/>
       <c r="CD41" s="18"/>
       <c r="CE41" s="19"/>
-      <c r="CF41" s="112"/>
-      <c r="CG41" s="113"/>
-      <c r="CH41" s="113"/>
-      <c r="CI41" s="113"/>
-      <c r="CJ41" s="113"/>
-      <c r="CK41" s="113"/>
-      <c r="CL41" s="113"/>
-      <c r="CM41" s="114"/>
+      <c r="CF41" s="107"/>
+      <c r="CG41" s="108"/>
+      <c r="CH41" s="108"/>
+      <c r="CI41" s="108"/>
+      <c r="CJ41" s="108"/>
+      <c r="CK41" s="108"/>
+      <c r="CL41" s="108"/>
+      <c r="CM41" s="109"/>
       <c r="CN41" s="17"/>
       <c r="CO41" s="18"/>
       <c r="CP41" s="18"/>
@@ -11025,14 +11053,14 @@
       <c r="EO41" s="18"/>
       <c r="EP41" s="18"/>
       <c r="EQ41" s="19"/>
-      <c r="ER41" s="112"/>
-      <c r="ES41" s="113"/>
-      <c r="ET41" s="113"/>
-      <c r="EU41" s="113"/>
-      <c r="EV41" s="113"/>
-      <c r="EW41" s="113"/>
-      <c r="EX41" s="113"/>
-      <c r="EY41" s="114"/>
+      <c r="ER41" s="107"/>
+      <c r="ES41" s="108"/>
+      <c r="ET41" s="108"/>
+      <c r="EU41" s="108"/>
+      <c r="EV41" s="108"/>
+      <c r="EW41" s="108"/>
+      <c r="EX41" s="108"/>
+      <c r="EY41" s="109"/>
       <c r="EZ41" s="17"/>
       <c r="FA41" s="18"/>
       <c r="FB41" s="18"/>
@@ -11082,227 +11110,264 @@
       <c r="GT41" s="18"/>
       <c r="GU41" s="18"/>
       <c r="GV41" s="18"/>
-      <c r="GW41" s="129"/>
+      <c r="GW41" s="93"/>
     </row>
     <row r="42" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A42" s="122" t="s">
+      <c r="A42" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="122"/>
-      <c r="C42" s="122"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122"/>
-      <c r="F42" s="122"/>
-      <c r="G42" s="122"/>
-      <c r="H42" s="122"/>
-      <c r="I42" s="122"/>
-      <c r="J42" s="122"/>
-      <c r="K42" s="122"/>
-      <c r="L42" s="122"/>
-      <c r="M42" s="122"/>
-      <c r="N42" s="122"/>
-      <c r="O42" s="122"/>
-      <c r="P42" s="122"/>
-      <c r="Q42" s="122"/>
-      <c r="R42" s="122"/>
-      <c r="S42" s="122"/>
-      <c r="T42" s="122"/>
-      <c r="U42" s="122"/>
-      <c r="V42" s="122"/>
-      <c r="W42" s="122"/>
-      <c r="X42" s="122"/>
-      <c r="Y42" s="122"/>
-      <c r="Z42" s="122"/>
-      <c r="AA42" s="122"/>
-      <c r="AB42" s="122"/>
-      <c r="AC42" s="122"/>
-      <c r="AD42" s="122"/>
-      <c r="AE42" s="122"/>
-      <c r="AF42" s="122"/>
-      <c r="AG42" s="122"/>
-      <c r="AH42" s="122"/>
-      <c r="AI42" s="122"/>
-      <c r="AJ42" s="122"/>
-      <c r="AK42" s="122"/>
-      <c r="AL42" s="122"/>
-      <c r="AM42" s="122"/>
-      <c r="AN42" s="122"/>
-      <c r="AO42" s="122"/>
-      <c r="AP42" s="122"/>
-      <c r="AQ42" s="122"/>
-      <c r="AR42" s="122"/>
-      <c r="AS42" s="122"/>
-      <c r="AT42" s="122"/>
-      <c r="AU42" s="122"/>
-      <c r="AV42" s="122"/>
-      <c r="AW42" s="122"/>
-      <c r="AX42" s="122"/>
-      <c r="AY42" s="122"/>
-      <c r="AZ42" s="122"/>
-      <c r="BA42" s="122"/>
-      <c r="BB42" s="122"/>
-      <c r="BC42" s="122"/>
-      <c r="BD42" s="122"/>
-      <c r="BE42" s="122"/>
-      <c r="BF42" s="122"/>
-      <c r="BG42" s="122"/>
-      <c r="BH42" s="122"/>
-      <c r="BI42" s="122"/>
-      <c r="BJ42" s="122"/>
-      <c r="BK42" s="122"/>
-      <c r="BL42" s="122"/>
-      <c r="BM42" s="122"/>
-      <c r="BN42" s="122"/>
-      <c r="BO42" s="122"/>
-      <c r="BP42" s="122"/>
-      <c r="BQ42" s="122"/>
-      <c r="BR42" s="122"/>
-      <c r="BS42" s="122"/>
-      <c r="BT42" s="122"/>
-      <c r="BU42" s="122"/>
-      <c r="BV42" s="122"/>
-      <c r="BW42" s="122"/>
-      <c r="BX42" s="122"/>
-      <c r="BY42" s="122"/>
-      <c r="BZ42" s="122"/>
-      <c r="CA42" s="122"/>
-      <c r="CB42" s="122"/>
-      <c r="CC42" s="122"/>
-      <c r="CD42" s="122"/>
-      <c r="CE42" s="122"/>
-      <c r="CF42" s="122"/>
-      <c r="CG42" s="122"/>
-      <c r="CH42" s="122"/>
-      <c r="CI42" s="122"/>
-      <c r="CJ42" s="122"/>
-      <c r="CK42" s="122"/>
-      <c r="CL42" s="122"/>
-      <c r="CM42" s="122"/>
-      <c r="CN42" s="122"/>
-      <c r="CO42" s="122"/>
-      <c r="CP42" s="122"/>
-      <c r="CQ42" s="122"/>
-      <c r="CR42" s="122"/>
-      <c r="CS42" s="122"/>
-      <c r="CT42" s="122"/>
-      <c r="CU42" s="122"/>
-      <c r="CV42" s="122"/>
-      <c r="CW42" s="122"/>
-      <c r="CX42" s="122"/>
-      <c r="CY42" s="122"/>
-      <c r="CZ42" s="122"/>
-      <c r="DA42" s="122"/>
-      <c r="DB42" s="122"/>
-      <c r="DC42" s="122"/>
-      <c r="DD42" s="122"/>
-      <c r="DE42" s="122"/>
-      <c r="DF42" s="122"/>
-      <c r="DG42" s="122"/>
-      <c r="DH42" s="122"/>
-      <c r="DI42" s="122"/>
-      <c r="DJ42" s="122"/>
-      <c r="DK42" s="122"/>
-      <c r="DL42" s="122"/>
-      <c r="DM42" s="122"/>
-      <c r="DN42" s="122"/>
-      <c r="DO42" s="122"/>
-      <c r="DP42" s="122"/>
-      <c r="DQ42" s="122"/>
-      <c r="DR42" s="122"/>
-      <c r="DS42" s="122"/>
-      <c r="DT42" s="122"/>
-      <c r="DU42" s="122"/>
-      <c r="DV42" s="122"/>
-      <c r="DW42" s="122"/>
-      <c r="DX42" s="122"/>
-      <c r="DY42" s="122"/>
-      <c r="DZ42" s="122"/>
-      <c r="EA42" s="122"/>
-      <c r="EB42" s="122"/>
-      <c r="EC42" s="122"/>
-      <c r="ED42" s="122"/>
-      <c r="EE42" s="122"/>
-      <c r="EF42" s="122"/>
-      <c r="EG42" s="122"/>
-      <c r="EH42" s="122"/>
-      <c r="EI42" s="122"/>
-      <c r="EJ42" s="122"/>
-      <c r="EK42" s="122"/>
-      <c r="EL42" s="122"/>
-      <c r="EM42" s="122"/>
-      <c r="EN42" s="122"/>
-      <c r="EO42" s="122"/>
-      <c r="EP42" s="122"/>
-      <c r="EQ42" s="122"/>
-      <c r="ER42" s="122"/>
-      <c r="ES42" s="122"/>
-      <c r="ET42" s="122"/>
-      <c r="EU42" s="122"/>
-      <c r="EV42" s="122"/>
-      <c r="EW42" s="122"/>
-      <c r="EX42" s="122"/>
-      <c r="EY42" s="122"/>
-      <c r="EZ42" s="122"/>
-      <c r="FA42" s="122"/>
-      <c r="FB42" s="122"/>
-      <c r="FC42" s="122"/>
-      <c r="FD42" s="122"/>
-      <c r="FE42" s="122"/>
-      <c r="FF42" s="122"/>
-      <c r="FG42" s="122"/>
-      <c r="FH42" s="122"/>
-      <c r="FI42" s="122"/>
-      <c r="FJ42" s="122"/>
-      <c r="FK42" s="122"/>
-      <c r="FL42" s="122"/>
-      <c r="FM42" s="122"/>
-      <c r="FN42" s="122"/>
-      <c r="FO42" s="122"/>
-      <c r="FP42" s="122"/>
-      <c r="FQ42" s="122"/>
-      <c r="FR42" s="122"/>
-      <c r="FS42" s="122"/>
-      <c r="FT42" s="122"/>
-      <c r="FU42" s="122"/>
-      <c r="FV42" s="122"/>
-      <c r="FW42" s="122"/>
-      <c r="FX42" s="122"/>
-      <c r="FY42" s="122"/>
-      <c r="FZ42" s="122"/>
-      <c r="GA42" s="122"/>
-      <c r="GB42" s="122"/>
-      <c r="GC42" s="122"/>
-      <c r="GD42" s="122"/>
-      <c r="GE42" s="122"/>
-      <c r="GF42" s="122"/>
-      <c r="GG42" s="122"/>
-      <c r="GH42" s="122"/>
-      <c r="GI42" s="122"/>
-      <c r="GJ42" s="122"/>
-      <c r="GK42" s="122"/>
-      <c r="GL42" s="122"/>
-      <c r="GM42" s="122"/>
-      <c r="GN42" s="122"/>
-      <c r="GO42" s="122"/>
-      <c r="GP42" s="122"/>
-      <c r="GQ42" s="122"/>
-      <c r="GR42" s="122"/>
-      <c r="GS42" s="122"/>
-      <c r="GT42" s="122"/>
-      <c r="GU42" s="122"/>
-      <c r="GV42" s="122"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="94"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="94"/>
+      <c r="O42" s="94"/>
+      <c r="P42" s="94"/>
+      <c r="Q42" s="94"/>
+      <c r="R42" s="94"/>
+      <c r="S42" s="94"/>
+      <c r="T42" s="94"/>
+      <c r="U42" s="94"/>
+      <c r="V42" s="94"/>
+      <c r="W42" s="94"/>
+      <c r="X42" s="94"/>
+      <c r="Y42" s="94"/>
+      <c r="Z42" s="94"/>
+      <c r="AA42" s="94"/>
+      <c r="AB42" s="94"/>
+      <c r="AC42" s="94"/>
+      <c r="AD42" s="94"/>
+      <c r="AE42" s="94"/>
+      <c r="AF42" s="94"/>
+      <c r="AG42" s="94"/>
+      <c r="AH42" s="94"/>
+      <c r="AI42" s="94"/>
+      <c r="AJ42" s="94"/>
+      <c r="AK42" s="94"/>
+      <c r="AL42" s="94"/>
+      <c r="AM42" s="94"/>
+      <c r="AN42" s="94"/>
+      <c r="AO42" s="94"/>
+      <c r="AP42" s="94"/>
+      <c r="AQ42" s="94"/>
+      <c r="AR42" s="94"/>
+      <c r="AS42" s="94"/>
+      <c r="AT42" s="94"/>
+      <c r="AU42" s="94"/>
+      <c r="AV42" s="94"/>
+      <c r="AW42" s="94"/>
+      <c r="AX42" s="94"/>
+      <c r="AY42" s="94"/>
+      <c r="AZ42" s="94"/>
+      <c r="BA42" s="94"/>
+      <c r="BB42" s="94"/>
+      <c r="BC42" s="94"/>
+      <c r="BD42" s="94"/>
+      <c r="BE42" s="94"/>
+      <c r="BF42" s="94"/>
+      <c r="BG42" s="94"/>
+      <c r="BH42" s="94"/>
+      <c r="BI42" s="94"/>
+      <c r="BJ42" s="94"/>
+      <c r="BK42" s="94"/>
+      <c r="BL42" s="94"/>
+      <c r="BM42" s="94"/>
+      <c r="BN42" s="94"/>
+      <c r="BO42" s="94"/>
+      <c r="BP42" s="94"/>
+      <c r="BQ42" s="94"/>
+      <c r="BR42" s="94"/>
+      <c r="BS42" s="94"/>
+      <c r="BT42" s="94"/>
+      <c r="BU42" s="94"/>
+      <c r="BV42" s="94"/>
+      <c r="BW42" s="94"/>
+      <c r="BX42" s="94"/>
+      <c r="BY42" s="94"/>
+      <c r="BZ42" s="94"/>
+      <c r="CA42" s="94"/>
+      <c r="CB42" s="94"/>
+      <c r="CC42" s="94"/>
+      <c r="CD42" s="94"/>
+      <c r="CE42" s="94"/>
+      <c r="CF42" s="94"/>
+      <c r="CG42" s="94"/>
+      <c r="CH42" s="94"/>
+      <c r="CI42" s="94"/>
+      <c r="CJ42" s="94"/>
+      <c r="CK42" s="94"/>
+      <c r="CL42" s="94"/>
+      <c r="CM42" s="94"/>
+      <c r="CN42" s="94"/>
+      <c r="CO42" s="94"/>
+      <c r="CP42" s="94"/>
+      <c r="CQ42" s="94"/>
+      <c r="CR42" s="94"/>
+      <c r="CS42" s="94"/>
+      <c r="CT42" s="94"/>
+      <c r="CU42" s="94"/>
+      <c r="CV42" s="94"/>
+      <c r="CW42" s="94"/>
+      <c r="CX42" s="94"/>
+      <c r="CY42" s="94"/>
+      <c r="CZ42" s="94"/>
+      <c r="DA42" s="94"/>
+      <c r="DB42" s="94"/>
+      <c r="DC42" s="94"/>
+      <c r="DD42" s="94"/>
+      <c r="DE42" s="94"/>
+      <c r="DF42" s="94"/>
+      <c r="DG42" s="94"/>
+      <c r="DH42" s="94"/>
+      <c r="DI42" s="94"/>
+      <c r="DJ42" s="94"/>
+      <c r="DK42" s="94"/>
+      <c r="DL42" s="94"/>
+      <c r="DM42" s="94"/>
+      <c r="DN42" s="94"/>
+      <c r="DO42" s="94"/>
+      <c r="DP42" s="94"/>
+      <c r="DQ42" s="94"/>
+      <c r="DR42" s="94"/>
+      <c r="DS42" s="94"/>
+      <c r="DT42" s="94"/>
+      <c r="DU42" s="94"/>
+      <c r="DV42" s="94"/>
+      <c r="DW42" s="94"/>
+      <c r="DX42" s="94"/>
+      <c r="DY42" s="94"/>
+      <c r="DZ42" s="94"/>
+      <c r="EA42" s="94"/>
+      <c r="EB42" s="94"/>
+      <c r="EC42" s="94"/>
+      <c r="ED42" s="94"/>
+      <c r="EE42" s="94"/>
+      <c r="EF42" s="94"/>
+      <c r="EG42" s="94"/>
+      <c r="EH42" s="94"/>
+      <c r="EI42" s="94"/>
+      <c r="EJ42" s="94"/>
+      <c r="EK42" s="94"/>
+      <c r="EL42" s="94"/>
+      <c r="EM42" s="94"/>
+      <c r="EN42" s="94"/>
+      <c r="EO42" s="94"/>
+      <c r="EP42" s="94"/>
+      <c r="EQ42" s="94"/>
+      <c r="ER42" s="94"/>
+      <c r="ES42" s="94"/>
+      <c r="ET42" s="94"/>
+      <c r="EU42" s="94"/>
+      <c r="EV42" s="94"/>
+      <c r="EW42" s="94"/>
+      <c r="EX42" s="94"/>
+      <c r="EY42" s="94"/>
+      <c r="EZ42" s="94"/>
+      <c r="FA42" s="94"/>
+      <c r="FB42" s="94"/>
+      <c r="FC42" s="94"/>
+      <c r="FD42" s="94"/>
+      <c r="FE42" s="94"/>
+      <c r="FF42" s="94"/>
+      <c r="FG42" s="94"/>
+      <c r="FH42" s="94"/>
+      <c r="FI42" s="94"/>
+      <c r="FJ42" s="94"/>
+      <c r="FK42" s="94"/>
+      <c r="FL42" s="94"/>
+      <c r="FM42" s="94"/>
+      <c r="FN42" s="94"/>
+      <c r="FO42" s="94"/>
+      <c r="FP42" s="94"/>
+      <c r="FQ42" s="94"/>
+      <c r="FR42" s="94"/>
+      <c r="FS42" s="94"/>
+      <c r="FT42" s="94"/>
+      <c r="FU42" s="94"/>
+      <c r="FV42" s="94"/>
+      <c r="FW42" s="94"/>
+      <c r="FX42" s="94"/>
+      <c r="FY42" s="94"/>
+      <c r="FZ42" s="94"/>
+      <c r="GA42" s="94"/>
+      <c r="GB42" s="94"/>
+      <c r="GC42" s="94"/>
+      <c r="GD42" s="94"/>
+      <c r="GE42" s="94"/>
+      <c r="GF42" s="94"/>
+      <c r="GG42" s="94"/>
+      <c r="GH42" s="94"/>
+      <c r="GI42" s="94"/>
+      <c r="GJ42" s="94"/>
+      <c r="GK42" s="94"/>
+      <c r="GL42" s="94"/>
+      <c r="GM42" s="94"/>
+      <c r="GN42" s="94"/>
+      <c r="GO42" s="94"/>
+      <c r="GP42" s="94"/>
+      <c r="GQ42" s="94"/>
+      <c r="GR42" s="94"/>
+      <c r="GS42" s="94"/>
+      <c r="GT42" s="94"/>
+      <c r="GU42" s="94"/>
+      <c r="GV42" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="FH4:FK4"/>
-    <mergeCell ref="DT4:DW4"/>
-    <mergeCell ref="DX4:EA4"/>
-    <mergeCell ref="EB4:EE4"/>
-    <mergeCell ref="EF4:EI4"/>
-    <mergeCell ref="EV4:EY4"/>
-    <mergeCell ref="EZ4:FC4"/>
-    <mergeCell ref="EN4:EQ4"/>
-    <mergeCell ref="ER4:EU4"/>
+    <mergeCell ref="AJ41:BO41"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="ER6:EY41"/>
+    <mergeCell ref="AB6:AI41"/>
+    <mergeCell ref="CF6:CM41"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="BT4:BW4"/>
+    <mergeCell ref="DD4:DG4"/>
+    <mergeCell ref="DH4:DK4"/>
+    <mergeCell ref="D41:AA41"/>
+    <mergeCell ref="A42:GV42"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="DT2:FG3"/>
+    <mergeCell ref="FH2:GV3"/>
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="AR2:CE3"/>
+    <mergeCell ref="CF2:DS3"/>
+    <mergeCell ref="CR4:CU4"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="EJ4:EM4"/>
+    <mergeCell ref="DL4:DO4"/>
+    <mergeCell ref="DP4:DS4"/>
+    <mergeCell ref="GW4:GW41"/>
+    <mergeCell ref="FX4:GA4"/>
+    <mergeCell ref="GB4:GE4"/>
+    <mergeCell ref="GF4:GI4"/>
+    <mergeCell ref="GJ4:GM4"/>
+    <mergeCell ref="GO4:GR4"/>
+    <mergeCell ref="GS4:GV4"/>
     <mergeCell ref="FT4:FW4"/>
     <mergeCell ref="AZ4:BC4"/>
     <mergeCell ref="BD4:BG4"/>
@@ -11319,54 +11384,17 @@
     <mergeCell ref="CV4:CY4"/>
     <mergeCell ref="FL4:FO4"/>
     <mergeCell ref="FP4:FS4"/>
-    <mergeCell ref="GW4:GW41"/>
-    <mergeCell ref="FX4:GA4"/>
-    <mergeCell ref="GB4:GE4"/>
-    <mergeCell ref="GF4:GI4"/>
-    <mergeCell ref="GJ4:GM4"/>
-    <mergeCell ref="GO4:GR4"/>
-    <mergeCell ref="GS4:GV4"/>
-    <mergeCell ref="A42:GV42"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="DT2:FG3"/>
-    <mergeCell ref="FH2:GV3"/>
-    <mergeCell ref="D2:AQ3"/>
-    <mergeCell ref="AR2:CE3"/>
-    <mergeCell ref="CF2:DS3"/>
-    <mergeCell ref="CR4:CU4"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="EJ4:EM4"/>
-    <mergeCell ref="DL4:DO4"/>
-    <mergeCell ref="DP4:DS4"/>
-    <mergeCell ref="ER6:EY41"/>
-    <mergeCell ref="AB6:AI41"/>
-    <mergeCell ref="CF6:CM41"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="BT4:BW4"/>
-    <mergeCell ref="DD4:DG4"/>
-    <mergeCell ref="DH4:DK4"/>
-    <mergeCell ref="D41:AA41"/>
-    <mergeCell ref="AJ41:BO41"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="FH4:FK4"/>
+    <mergeCell ref="DT4:DW4"/>
+    <mergeCell ref="DX4:EA4"/>
+    <mergeCell ref="EB4:EE4"/>
+    <mergeCell ref="EF4:EI4"/>
+    <mergeCell ref="EV4:EY4"/>
+    <mergeCell ref="EZ4:FC4"/>
+    <mergeCell ref="EN4:EQ4"/>
+    <mergeCell ref="ER4:EU4"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6 B8:B9 B11:B13 B21:B36 B38 B40:B41 B15:B19">
+  <conditionalFormatting sqref="B6 B8:B9 B21:B36 B38 B40:B41 B11:B13 B15:B19">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",B6)))</formula>
     </cfRule>

--- a/docs/2_CAND_Modele_Planning_2024.xlsx
+++ b/docs/2_CAND_Modele_Planning_2024.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HOME/alikadev/code/TPI/RoadTrafficSimulator/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E717FD-004A-4036-8FFB-AD4DF03E3C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77234A82-1A44-5549-BE24-DCD2788F0AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$GV$41</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Planning!$A:$C,Planning!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$GV$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="58">
   <si>
     <t>Tâches</t>
   </si>
@@ -1062,7 +1062,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1409,6 +1409,134 @@
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1417,160 +1545,44 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1630,13 +1642,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:colOff>19048</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>114</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -1653,8 +1665,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3981449" y="1038225"/>
-          <a:ext cx="16411575" cy="6076950"/>
+          <a:off x="4540248" y="1047750"/>
+          <a:ext cx="20275551" cy="6124575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2063,29 +2075,29 @@
   <dimension ref="A1:GW42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="BU6" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="DG6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20:B20"/>
+      <selection pane="bottomRight" activeCell="DT21" sqref="DT21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="3" customWidth="1"/>
-    <col min="4" max="204" width="2.140625" style="2" customWidth="1"/>
-    <col min="205" max="205" width="3.140625" style="3" customWidth="1"/>
-    <col min="206" max="418" width="9.140625" style="3" customWidth="1"/>
-    <col min="419" max="16384" width="11.5703125" style="3"/>
+    <col min="1" max="1" width="47.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="3" customWidth="1"/>
+    <col min="4" max="204" width="2.1640625" style="2" customWidth="1"/>
+    <col min="205" max="205" width="3.1640625" style="3" customWidth="1"/>
+    <col min="206" max="418" width="9.1640625" style="3" customWidth="1"/>
+    <col min="419" max="16384" width="11.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:205" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:205" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2127,431 +2139,431 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:205" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:205" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="111">
+      <c r="B2" s="117">
         <v>148477</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="97" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="97"/>
-      <c r="AO2" s="97"/>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="97" t="s">
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
+      <c r="AI2" s="128"/>
+      <c r="AJ2" s="128"/>
+      <c r="AK2" s="128"/>
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="128"/>
+      <c r="AO2" s="128"/>
+      <c r="AP2" s="128"/>
+      <c r="AQ2" s="128"/>
+      <c r="AR2" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="97"/>
-      <c r="AV2" s="97"/>
-      <c r="AW2" s="97"/>
-      <c r="AX2" s="97"/>
-      <c r="AY2" s="97"/>
-      <c r="AZ2" s="97"/>
-      <c r="BA2" s="97"/>
-      <c r="BB2" s="97"/>
-      <c r="BC2" s="97"/>
-      <c r="BD2" s="97"/>
-      <c r="BE2" s="97"/>
-      <c r="BF2" s="97"/>
-      <c r="BG2" s="97"/>
-      <c r="BH2" s="97"/>
-      <c r="BI2" s="97"/>
-      <c r="BJ2" s="97"/>
-      <c r="BK2" s="97"/>
-      <c r="BL2" s="97"/>
-      <c r="BM2" s="97"/>
-      <c r="BN2" s="97"/>
-      <c r="BO2" s="97"/>
-      <c r="BP2" s="97"/>
-      <c r="BQ2" s="97"/>
-      <c r="BR2" s="97"/>
-      <c r="BS2" s="97"/>
-      <c r="BT2" s="97"/>
-      <c r="BU2" s="97"/>
-      <c r="BV2" s="97"/>
-      <c r="BW2" s="97"/>
-      <c r="BX2" s="97"/>
-      <c r="BY2" s="97"/>
-      <c r="BZ2" s="97"/>
-      <c r="CA2" s="97"/>
-      <c r="CB2" s="97"/>
-      <c r="CC2" s="97"/>
-      <c r="CD2" s="97"/>
-      <c r="CE2" s="97"/>
-      <c r="CF2" s="97" t="s">
+      <c r="AS2" s="128"/>
+      <c r="AT2" s="128"/>
+      <c r="AU2" s="128"/>
+      <c r="AV2" s="128"/>
+      <c r="AW2" s="128"/>
+      <c r="AX2" s="128"/>
+      <c r="AY2" s="128"/>
+      <c r="AZ2" s="128"/>
+      <c r="BA2" s="128"/>
+      <c r="BB2" s="128"/>
+      <c r="BC2" s="128"/>
+      <c r="BD2" s="128"/>
+      <c r="BE2" s="128"/>
+      <c r="BF2" s="128"/>
+      <c r="BG2" s="128"/>
+      <c r="BH2" s="128"/>
+      <c r="BI2" s="128"/>
+      <c r="BJ2" s="128"/>
+      <c r="BK2" s="128"/>
+      <c r="BL2" s="128"/>
+      <c r="BM2" s="128"/>
+      <c r="BN2" s="128"/>
+      <c r="BO2" s="128"/>
+      <c r="BP2" s="128"/>
+      <c r="BQ2" s="128"/>
+      <c r="BR2" s="128"/>
+      <c r="BS2" s="128"/>
+      <c r="BT2" s="128"/>
+      <c r="BU2" s="128"/>
+      <c r="BV2" s="128"/>
+      <c r="BW2" s="128"/>
+      <c r="BX2" s="128"/>
+      <c r="BY2" s="128"/>
+      <c r="BZ2" s="128"/>
+      <c r="CA2" s="128"/>
+      <c r="CB2" s="128"/>
+      <c r="CC2" s="128"/>
+      <c r="CD2" s="128"/>
+      <c r="CE2" s="128"/>
+      <c r="CF2" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="CG2" s="97"/>
-      <c r="CH2" s="97"/>
-      <c r="CI2" s="97"/>
-      <c r="CJ2" s="97"/>
-      <c r="CK2" s="97"/>
-      <c r="CL2" s="97"/>
-      <c r="CM2" s="97"/>
-      <c r="CN2" s="97"/>
-      <c r="CO2" s="97"/>
-      <c r="CP2" s="97"/>
-      <c r="CQ2" s="97"/>
-      <c r="CR2" s="97"/>
-      <c r="CS2" s="97"/>
-      <c r="CT2" s="97"/>
-      <c r="CU2" s="97"/>
-      <c r="CV2" s="97"/>
-      <c r="CW2" s="97"/>
-      <c r="CX2" s="97"/>
-      <c r="CY2" s="97"/>
-      <c r="CZ2" s="97"/>
-      <c r="DA2" s="97"/>
-      <c r="DB2" s="97"/>
-      <c r="DC2" s="97"/>
-      <c r="DD2" s="97"/>
-      <c r="DE2" s="97"/>
-      <c r="DF2" s="97"/>
-      <c r="DG2" s="97"/>
-      <c r="DH2" s="97"/>
-      <c r="DI2" s="97"/>
-      <c r="DJ2" s="97"/>
-      <c r="DK2" s="97"/>
-      <c r="DL2" s="97"/>
-      <c r="DM2" s="97"/>
-      <c r="DN2" s="97"/>
-      <c r="DO2" s="97"/>
-      <c r="DP2" s="97"/>
-      <c r="DQ2" s="97"/>
-      <c r="DR2" s="97"/>
-      <c r="DS2" s="97"/>
-      <c r="DT2" s="97" t="s">
+      <c r="CG2" s="128"/>
+      <c r="CH2" s="128"/>
+      <c r="CI2" s="128"/>
+      <c r="CJ2" s="128"/>
+      <c r="CK2" s="128"/>
+      <c r="CL2" s="128"/>
+      <c r="CM2" s="128"/>
+      <c r="CN2" s="128"/>
+      <c r="CO2" s="128"/>
+      <c r="CP2" s="128"/>
+      <c r="CQ2" s="128"/>
+      <c r="CR2" s="128"/>
+      <c r="CS2" s="128"/>
+      <c r="CT2" s="128"/>
+      <c r="CU2" s="128"/>
+      <c r="CV2" s="128"/>
+      <c r="CW2" s="128"/>
+      <c r="CX2" s="128"/>
+      <c r="CY2" s="128"/>
+      <c r="CZ2" s="128"/>
+      <c r="DA2" s="128"/>
+      <c r="DB2" s="128"/>
+      <c r="DC2" s="128"/>
+      <c r="DD2" s="128"/>
+      <c r="DE2" s="128"/>
+      <c r="DF2" s="128"/>
+      <c r="DG2" s="128"/>
+      <c r="DH2" s="128"/>
+      <c r="DI2" s="128"/>
+      <c r="DJ2" s="128"/>
+      <c r="DK2" s="128"/>
+      <c r="DL2" s="128"/>
+      <c r="DM2" s="128"/>
+      <c r="DN2" s="128"/>
+      <c r="DO2" s="128"/>
+      <c r="DP2" s="128"/>
+      <c r="DQ2" s="128"/>
+      <c r="DR2" s="128"/>
+      <c r="DS2" s="128"/>
+      <c r="DT2" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="DU2" s="97"/>
-      <c r="DV2" s="97"/>
-      <c r="DW2" s="97"/>
-      <c r="DX2" s="97"/>
-      <c r="DY2" s="97"/>
-      <c r="DZ2" s="97"/>
-      <c r="EA2" s="97"/>
-      <c r="EB2" s="97"/>
-      <c r="EC2" s="97"/>
-      <c r="ED2" s="97"/>
-      <c r="EE2" s="97"/>
-      <c r="EF2" s="97"/>
-      <c r="EG2" s="97"/>
-      <c r="EH2" s="97"/>
-      <c r="EI2" s="97"/>
-      <c r="EJ2" s="97"/>
-      <c r="EK2" s="97"/>
-      <c r="EL2" s="97"/>
-      <c r="EM2" s="97"/>
-      <c r="EN2" s="97"/>
-      <c r="EO2" s="97"/>
-      <c r="EP2" s="97"/>
-      <c r="EQ2" s="97"/>
-      <c r="ER2" s="97"/>
-      <c r="ES2" s="97"/>
-      <c r="ET2" s="97"/>
-      <c r="EU2" s="97"/>
-      <c r="EV2" s="97"/>
-      <c r="EW2" s="97"/>
-      <c r="EX2" s="97"/>
-      <c r="EY2" s="97"/>
-      <c r="EZ2" s="97"/>
-      <c r="FA2" s="97"/>
-      <c r="FB2" s="97"/>
-      <c r="FC2" s="97"/>
-      <c r="FD2" s="97"/>
-      <c r="FE2" s="97"/>
-      <c r="FF2" s="97"/>
-      <c r="FG2" s="97"/>
-      <c r="FH2" s="97" t="s">
+      <c r="DU2" s="128"/>
+      <c r="DV2" s="128"/>
+      <c r="DW2" s="128"/>
+      <c r="DX2" s="128"/>
+      <c r="DY2" s="128"/>
+      <c r="DZ2" s="128"/>
+      <c r="EA2" s="128"/>
+      <c r="EB2" s="128"/>
+      <c r="EC2" s="128"/>
+      <c r="ED2" s="128"/>
+      <c r="EE2" s="128"/>
+      <c r="EF2" s="128"/>
+      <c r="EG2" s="128"/>
+      <c r="EH2" s="128"/>
+      <c r="EI2" s="128"/>
+      <c r="EJ2" s="128"/>
+      <c r="EK2" s="128"/>
+      <c r="EL2" s="128"/>
+      <c r="EM2" s="128"/>
+      <c r="EN2" s="128"/>
+      <c r="EO2" s="128"/>
+      <c r="EP2" s="128"/>
+      <c r="EQ2" s="128"/>
+      <c r="ER2" s="128"/>
+      <c r="ES2" s="128"/>
+      <c r="ET2" s="128"/>
+      <c r="EU2" s="128"/>
+      <c r="EV2" s="128"/>
+      <c r="EW2" s="128"/>
+      <c r="EX2" s="128"/>
+      <c r="EY2" s="128"/>
+      <c r="EZ2" s="128"/>
+      <c r="FA2" s="128"/>
+      <c r="FB2" s="128"/>
+      <c r="FC2" s="128"/>
+      <c r="FD2" s="128"/>
+      <c r="FE2" s="128"/>
+      <c r="FF2" s="128"/>
+      <c r="FG2" s="128"/>
+      <c r="FH2" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="FI2" s="97"/>
-      <c r="FJ2" s="97"/>
-      <c r="FK2" s="97"/>
-      <c r="FL2" s="97"/>
-      <c r="FM2" s="97"/>
-      <c r="FN2" s="97"/>
-      <c r="FO2" s="97"/>
-      <c r="FP2" s="97"/>
-      <c r="FQ2" s="97"/>
-      <c r="FR2" s="97"/>
-      <c r="FS2" s="97"/>
-      <c r="FT2" s="97"/>
-      <c r="FU2" s="97"/>
-      <c r="FV2" s="97"/>
-      <c r="FW2" s="97"/>
-      <c r="FX2" s="97"/>
-      <c r="FY2" s="97"/>
-      <c r="FZ2" s="97"/>
-      <c r="GA2" s="97"/>
-      <c r="GB2" s="97"/>
-      <c r="GC2" s="97"/>
-      <c r="GD2" s="97"/>
-      <c r="GE2" s="97"/>
-      <c r="GF2" s="97"/>
-      <c r="GG2" s="97"/>
-      <c r="GH2" s="97"/>
-      <c r="GI2" s="97"/>
-      <c r="GJ2" s="97"/>
-      <c r="GK2" s="97"/>
-      <c r="GL2" s="97"/>
-      <c r="GM2" s="97"/>
-      <c r="GN2" s="97"/>
-      <c r="GO2" s="97"/>
-      <c r="GP2" s="97"/>
-      <c r="GQ2" s="97"/>
-      <c r="GR2" s="97"/>
-      <c r="GS2" s="97"/>
-      <c r="GT2" s="97"/>
-      <c r="GU2" s="97"/>
-      <c r="GV2" s="97"/>
+      <c r="FI2" s="128"/>
+      <c r="FJ2" s="128"/>
+      <c r="FK2" s="128"/>
+      <c r="FL2" s="128"/>
+      <c r="FM2" s="128"/>
+      <c r="FN2" s="128"/>
+      <c r="FO2" s="128"/>
+      <c r="FP2" s="128"/>
+      <c r="FQ2" s="128"/>
+      <c r="FR2" s="128"/>
+      <c r="FS2" s="128"/>
+      <c r="FT2" s="128"/>
+      <c r="FU2" s="128"/>
+      <c r="FV2" s="128"/>
+      <c r="FW2" s="128"/>
+      <c r="FX2" s="128"/>
+      <c r="FY2" s="128"/>
+      <c r="FZ2" s="128"/>
+      <c r="GA2" s="128"/>
+      <c r="GB2" s="128"/>
+      <c r="GC2" s="128"/>
+      <c r="GD2" s="128"/>
+      <c r="GE2" s="128"/>
+      <c r="GF2" s="128"/>
+      <c r="GG2" s="128"/>
+      <c r="GH2" s="128"/>
+      <c r="GI2" s="128"/>
+      <c r="GJ2" s="128"/>
+      <c r="GK2" s="128"/>
+      <c r="GL2" s="128"/>
+      <c r="GM2" s="128"/>
+      <c r="GN2" s="128"/>
+      <c r="GO2" s="128"/>
+      <c r="GP2" s="128"/>
+      <c r="GQ2" s="128"/>
+      <c r="GR2" s="128"/>
+      <c r="GS2" s="128"/>
+      <c r="GT2" s="128"/>
+      <c r="GU2" s="128"/>
+      <c r="GV2" s="128"/>
     </row>
-    <row r="3" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="98"/>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="98"/>
-      <c r="AI3" s="98"/>
-      <c r="AJ3" s="98"/>
-      <c r="AK3" s="98"/>
-      <c r="AL3" s="98"/>
-      <c r="AM3" s="98"/>
-      <c r="AN3" s="98"/>
-      <c r="AO3" s="98"/>
-      <c r="AP3" s="98"/>
-      <c r="AQ3" s="98"/>
-      <c r="AR3" s="98"/>
-      <c r="AS3" s="98"/>
-      <c r="AT3" s="98"/>
-      <c r="AU3" s="98"/>
-      <c r="AV3" s="98"/>
-      <c r="AW3" s="98"/>
-      <c r="AX3" s="98"/>
-      <c r="AY3" s="98"/>
-      <c r="AZ3" s="98"/>
-      <c r="BA3" s="98"/>
-      <c r="BB3" s="98"/>
-      <c r="BC3" s="98"/>
-      <c r="BD3" s="98"/>
-      <c r="BE3" s="98"/>
-      <c r="BF3" s="98"/>
-      <c r="BG3" s="98"/>
-      <c r="BH3" s="98"/>
-      <c r="BI3" s="98"/>
-      <c r="BJ3" s="98"/>
-      <c r="BK3" s="98"/>
-      <c r="BL3" s="98"/>
-      <c r="BM3" s="98"/>
-      <c r="BN3" s="98"/>
-      <c r="BO3" s="98"/>
-      <c r="BP3" s="98"/>
-      <c r="BQ3" s="98"/>
-      <c r="BR3" s="98"/>
-      <c r="BS3" s="98"/>
-      <c r="BT3" s="98"/>
-      <c r="BU3" s="98"/>
-      <c r="BV3" s="98"/>
-      <c r="BW3" s="98"/>
-      <c r="BX3" s="98"/>
-      <c r="BY3" s="98"/>
-      <c r="BZ3" s="98"/>
-      <c r="CA3" s="98"/>
-      <c r="CB3" s="98"/>
-      <c r="CC3" s="98"/>
-      <c r="CD3" s="98"/>
-      <c r="CE3" s="98"/>
-      <c r="CF3" s="98"/>
-      <c r="CG3" s="98"/>
-      <c r="CH3" s="98"/>
-      <c r="CI3" s="98"/>
-      <c r="CJ3" s="98"/>
-      <c r="CK3" s="98"/>
-      <c r="CL3" s="98"/>
-      <c r="CM3" s="98"/>
-      <c r="CN3" s="98"/>
-      <c r="CO3" s="98"/>
-      <c r="CP3" s="98"/>
-      <c r="CQ3" s="98"/>
-      <c r="CR3" s="98"/>
-      <c r="CS3" s="98"/>
-      <c r="CT3" s="98"/>
-      <c r="CU3" s="98"/>
-      <c r="CV3" s="98"/>
-      <c r="CW3" s="98"/>
-      <c r="CX3" s="98"/>
-      <c r="CY3" s="98"/>
-      <c r="CZ3" s="98"/>
-      <c r="DA3" s="98"/>
-      <c r="DB3" s="98"/>
-      <c r="DC3" s="98"/>
-      <c r="DD3" s="98"/>
-      <c r="DE3" s="98"/>
-      <c r="DF3" s="98"/>
-      <c r="DG3" s="98"/>
-      <c r="DH3" s="98"/>
-      <c r="DI3" s="98"/>
-      <c r="DJ3" s="98"/>
-      <c r="DK3" s="98"/>
-      <c r="DL3" s="98"/>
-      <c r="DM3" s="98"/>
-      <c r="DN3" s="98"/>
-      <c r="DO3" s="98"/>
-      <c r="DP3" s="98"/>
-      <c r="DQ3" s="98"/>
-      <c r="DR3" s="98"/>
-      <c r="DS3" s="98"/>
-      <c r="DT3" s="98"/>
-      <c r="DU3" s="98"/>
-      <c r="DV3" s="98"/>
-      <c r="DW3" s="98"/>
-      <c r="DX3" s="98"/>
-      <c r="DY3" s="98"/>
-      <c r="DZ3" s="98"/>
-      <c r="EA3" s="98"/>
-      <c r="EB3" s="98"/>
-      <c r="EC3" s="98"/>
-      <c r="ED3" s="98"/>
-      <c r="EE3" s="98"/>
-      <c r="EF3" s="98"/>
-      <c r="EG3" s="98"/>
-      <c r="EH3" s="98"/>
-      <c r="EI3" s="98"/>
-      <c r="EJ3" s="98"/>
-      <c r="EK3" s="98"/>
-      <c r="EL3" s="98"/>
-      <c r="EM3" s="98"/>
-      <c r="EN3" s="98"/>
-      <c r="EO3" s="98"/>
-      <c r="EP3" s="98"/>
-      <c r="EQ3" s="98"/>
-      <c r="ER3" s="98"/>
-      <c r="ES3" s="98"/>
-      <c r="ET3" s="98"/>
-      <c r="EU3" s="98"/>
-      <c r="EV3" s="98"/>
-      <c r="EW3" s="98"/>
-      <c r="EX3" s="98"/>
-      <c r="EY3" s="98"/>
-      <c r="EZ3" s="98"/>
-      <c r="FA3" s="98"/>
-      <c r="FB3" s="98"/>
-      <c r="FC3" s="98"/>
-      <c r="FD3" s="98"/>
-      <c r="FE3" s="98"/>
-      <c r="FF3" s="98"/>
-      <c r="FG3" s="98"/>
-      <c r="FH3" s="98"/>
-      <c r="FI3" s="98"/>
-      <c r="FJ3" s="98"/>
-      <c r="FK3" s="98"/>
-      <c r="FL3" s="98"/>
-      <c r="FM3" s="98"/>
-      <c r="FN3" s="98"/>
-      <c r="FO3" s="98"/>
-      <c r="FP3" s="98"/>
-      <c r="FQ3" s="98"/>
-      <c r="FR3" s="98"/>
-      <c r="FS3" s="98"/>
-      <c r="FT3" s="98"/>
-      <c r="FU3" s="98"/>
-      <c r="FV3" s="98"/>
-      <c r="FW3" s="98"/>
-      <c r="FX3" s="98"/>
-      <c r="FY3" s="98"/>
-      <c r="FZ3" s="98"/>
-      <c r="GA3" s="98"/>
-      <c r="GB3" s="98"/>
-      <c r="GC3" s="98"/>
-      <c r="GD3" s="98"/>
-      <c r="GE3" s="98"/>
-      <c r="GF3" s="98"/>
-      <c r="GG3" s="98"/>
-      <c r="GH3" s="98"/>
-      <c r="GI3" s="98"/>
-      <c r="GJ3" s="98"/>
-      <c r="GK3" s="98"/>
-      <c r="GL3" s="98"/>
-      <c r="GM3" s="98"/>
-      <c r="GN3" s="97"/>
-      <c r="GO3" s="98"/>
-      <c r="GP3" s="98"/>
-      <c r="GQ3" s="98"/>
-      <c r="GR3" s="98"/>
-      <c r="GS3" s="98"/>
-      <c r="GT3" s="98"/>
-      <c r="GU3" s="98"/>
-      <c r="GV3" s="98"/>
+    <row r="3" spans="1:205" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129"/>
+      <c r="W3" s="129"/>
+      <c r="X3" s="129"/>
+      <c r="Y3" s="129"/>
+      <c r="Z3" s="129"/>
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="129"/>
+      <c r="AG3" s="129"/>
+      <c r="AH3" s="129"/>
+      <c r="AI3" s="129"/>
+      <c r="AJ3" s="129"/>
+      <c r="AK3" s="129"/>
+      <c r="AL3" s="129"/>
+      <c r="AM3" s="129"/>
+      <c r="AN3" s="129"/>
+      <c r="AO3" s="129"/>
+      <c r="AP3" s="129"/>
+      <c r="AQ3" s="129"/>
+      <c r="AR3" s="129"/>
+      <c r="AS3" s="129"/>
+      <c r="AT3" s="129"/>
+      <c r="AU3" s="129"/>
+      <c r="AV3" s="129"/>
+      <c r="AW3" s="129"/>
+      <c r="AX3" s="129"/>
+      <c r="AY3" s="129"/>
+      <c r="AZ3" s="129"/>
+      <c r="BA3" s="129"/>
+      <c r="BB3" s="129"/>
+      <c r="BC3" s="129"/>
+      <c r="BD3" s="129"/>
+      <c r="BE3" s="129"/>
+      <c r="BF3" s="129"/>
+      <c r="BG3" s="129"/>
+      <c r="BH3" s="129"/>
+      <c r="BI3" s="129"/>
+      <c r="BJ3" s="129"/>
+      <c r="BK3" s="129"/>
+      <c r="BL3" s="129"/>
+      <c r="BM3" s="129"/>
+      <c r="BN3" s="129"/>
+      <c r="BO3" s="129"/>
+      <c r="BP3" s="129"/>
+      <c r="BQ3" s="129"/>
+      <c r="BR3" s="129"/>
+      <c r="BS3" s="129"/>
+      <c r="BT3" s="129"/>
+      <c r="BU3" s="129"/>
+      <c r="BV3" s="129"/>
+      <c r="BW3" s="129"/>
+      <c r="BX3" s="129"/>
+      <c r="BY3" s="129"/>
+      <c r="BZ3" s="129"/>
+      <c r="CA3" s="129"/>
+      <c r="CB3" s="129"/>
+      <c r="CC3" s="129"/>
+      <c r="CD3" s="129"/>
+      <c r="CE3" s="129"/>
+      <c r="CF3" s="129"/>
+      <c r="CG3" s="129"/>
+      <c r="CH3" s="129"/>
+      <c r="CI3" s="129"/>
+      <c r="CJ3" s="129"/>
+      <c r="CK3" s="129"/>
+      <c r="CL3" s="129"/>
+      <c r="CM3" s="129"/>
+      <c r="CN3" s="129"/>
+      <c r="CO3" s="129"/>
+      <c r="CP3" s="129"/>
+      <c r="CQ3" s="129"/>
+      <c r="CR3" s="129"/>
+      <c r="CS3" s="129"/>
+      <c r="CT3" s="129"/>
+      <c r="CU3" s="129"/>
+      <c r="CV3" s="129"/>
+      <c r="CW3" s="129"/>
+      <c r="CX3" s="129"/>
+      <c r="CY3" s="129"/>
+      <c r="CZ3" s="129"/>
+      <c r="DA3" s="129"/>
+      <c r="DB3" s="129"/>
+      <c r="DC3" s="129"/>
+      <c r="DD3" s="129"/>
+      <c r="DE3" s="129"/>
+      <c r="DF3" s="129"/>
+      <c r="DG3" s="129"/>
+      <c r="DH3" s="129"/>
+      <c r="DI3" s="129"/>
+      <c r="DJ3" s="129"/>
+      <c r="DK3" s="129"/>
+      <c r="DL3" s="129"/>
+      <c r="DM3" s="129"/>
+      <c r="DN3" s="129"/>
+      <c r="DO3" s="129"/>
+      <c r="DP3" s="129"/>
+      <c r="DQ3" s="129"/>
+      <c r="DR3" s="129"/>
+      <c r="DS3" s="129"/>
+      <c r="DT3" s="129"/>
+      <c r="DU3" s="129"/>
+      <c r="DV3" s="129"/>
+      <c r="DW3" s="129"/>
+      <c r="DX3" s="129"/>
+      <c r="DY3" s="129"/>
+      <c r="DZ3" s="129"/>
+      <c r="EA3" s="129"/>
+      <c r="EB3" s="129"/>
+      <c r="EC3" s="129"/>
+      <c r="ED3" s="129"/>
+      <c r="EE3" s="129"/>
+      <c r="EF3" s="129"/>
+      <c r="EG3" s="129"/>
+      <c r="EH3" s="129"/>
+      <c r="EI3" s="129"/>
+      <c r="EJ3" s="129"/>
+      <c r="EK3" s="129"/>
+      <c r="EL3" s="129"/>
+      <c r="EM3" s="129"/>
+      <c r="EN3" s="129"/>
+      <c r="EO3" s="129"/>
+      <c r="EP3" s="129"/>
+      <c r="EQ3" s="129"/>
+      <c r="ER3" s="129"/>
+      <c r="ES3" s="129"/>
+      <c r="ET3" s="129"/>
+      <c r="EU3" s="129"/>
+      <c r="EV3" s="129"/>
+      <c r="EW3" s="129"/>
+      <c r="EX3" s="129"/>
+      <c r="EY3" s="129"/>
+      <c r="EZ3" s="129"/>
+      <c r="FA3" s="129"/>
+      <c r="FB3" s="129"/>
+      <c r="FC3" s="129"/>
+      <c r="FD3" s="129"/>
+      <c r="FE3" s="129"/>
+      <c r="FF3" s="129"/>
+      <c r="FG3" s="129"/>
+      <c r="FH3" s="129"/>
+      <c r="FI3" s="129"/>
+      <c r="FJ3" s="129"/>
+      <c r="FK3" s="129"/>
+      <c r="FL3" s="129"/>
+      <c r="FM3" s="129"/>
+      <c r="FN3" s="129"/>
+      <c r="FO3" s="129"/>
+      <c r="FP3" s="129"/>
+      <c r="FQ3" s="129"/>
+      <c r="FR3" s="129"/>
+      <c r="FS3" s="129"/>
+      <c r="FT3" s="129"/>
+      <c r="FU3" s="129"/>
+      <c r="FV3" s="129"/>
+      <c r="FW3" s="129"/>
+      <c r="FX3" s="129"/>
+      <c r="FY3" s="129"/>
+      <c r="FZ3" s="129"/>
+      <c r="GA3" s="129"/>
+      <c r="GB3" s="129"/>
+      <c r="GC3" s="129"/>
+      <c r="GD3" s="129"/>
+      <c r="GE3" s="129"/>
+      <c r="GF3" s="129"/>
+      <c r="GG3" s="129"/>
+      <c r="GH3" s="129"/>
+      <c r="GI3" s="129"/>
+      <c r="GJ3" s="129"/>
+      <c r="GK3" s="129"/>
+      <c r="GL3" s="129"/>
+      <c r="GM3" s="129"/>
+      <c r="GN3" s="128"/>
+      <c r="GO3" s="129"/>
+      <c r="GP3" s="129"/>
+      <c r="GQ3" s="129"/>
+      <c r="GR3" s="129"/>
+      <c r="GS3" s="129"/>
+      <c r="GT3" s="129"/>
+      <c r="GU3" s="129"/>
+      <c r="GV3" s="129"/>
     </row>
-    <row r="4" spans="1:205" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95" t="s">
+    <row r="4" spans="1:205" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="126" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -2560,313 +2572,313 @@
       <c r="C4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="99">
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="130">
         <v>45418</v>
       </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="89" t="s">
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91">
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="119">
         <v>45419</v>
       </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="89" t="s">
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="91">
+      <c r="U4" s="122"/>
+      <c r="V4" s="122"/>
+      <c r="W4" s="122"/>
+      <c r="X4" s="119">
         <v>45420</v>
       </c>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="89" t="s">
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="120"/>
+      <c r="AB4" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="91">
+      <c r="AC4" s="122"/>
+      <c r="AD4" s="122"/>
+      <c r="AE4" s="122"/>
+      <c r="AF4" s="119">
         <v>45421</v>
       </c>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="89" t="s">
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
+      <c r="AI4" s="120"/>
+      <c r="AJ4" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="90"/>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="91">
+      <c r="AK4" s="122"/>
+      <c r="AL4" s="122"/>
+      <c r="AM4" s="122"/>
+      <c r="AN4" s="119">
         <v>45422</v>
       </c>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="89" t="s">
+      <c r="AO4" s="119"/>
+      <c r="AP4" s="119"/>
+      <c r="AQ4" s="120"/>
+      <c r="AR4" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="91">
+      <c r="AS4" s="122"/>
+      <c r="AT4" s="122"/>
+      <c r="AU4" s="122"/>
+      <c r="AV4" s="119">
         <v>45425</v>
       </c>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="91"/>
-      <c r="AY4" s="92"/>
-      <c r="AZ4" s="89" t="s">
+      <c r="AW4" s="119"/>
+      <c r="AX4" s="119"/>
+      <c r="AY4" s="120"/>
+      <c r="AZ4" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="BA4" s="90"/>
-      <c r="BB4" s="90"/>
-      <c r="BC4" s="90"/>
-      <c r="BD4" s="91">
+      <c r="BA4" s="122"/>
+      <c r="BB4" s="122"/>
+      <c r="BC4" s="122"/>
+      <c r="BD4" s="119">
         <v>45426</v>
       </c>
-      <c r="BE4" s="91"/>
-      <c r="BF4" s="91"/>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="89" t="s">
+      <c r="BE4" s="119"/>
+      <c r="BF4" s="119"/>
+      <c r="BG4" s="120"/>
+      <c r="BH4" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="BI4" s="90"/>
-      <c r="BJ4" s="90"/>
-      <c r="BK4" s="90"/>
-      <c r="BL4" s="91">
+      <c r="BI4" s="122"/>
+      <c r="BJ4" s="122"/>
+      <c r="BK4" s="122"/>
+      <c r="BL4" s="119">
         <v>45427</v>
       </c>
-      <c r="BM4" s="91"/>
-      <c r="BN4" s="91"/>
-      <c r="BO4" s="92"/>
-      <c r="BP4" s="89" t="s">
+      <c r="BM4" s="119"/>
+      <c r="BN4" s="119"/>
+      <c r="BO4" s="120"/>
+      <c r="BP4" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="BQ4" s="90"/>
-      <c r="BR4" s="90"/>
-      <c r="BS4" s="90"/>
-      <c r="BT4" s="91">
+      <c r="BQ4" s="122"/>
+      <c r="BR4" s="122"/>
+      <c r="BS4" s="122"/>
+      <c r="BT4" s="119">
         <v>45428</v>
       </c>
-      <c r="BU4" s="91"/>
-      <c r="BV4" s="91"/>
-      <c r="BW4" s="92"/>
-      <c r="BX4" s="89" t="s">
+      <c r="BU4" s="119"/>
+      <c r="BV4" s="119"/>
+      <c r="BW4" s="120"/>
+      <c r="BX4" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="90"/>
-      <c r="BZ4" s="90"/>
-      <c r="CA4" s="90"/>
-      <c r="CB4" s="91">
+      <c r="BY4" s="122"/>
+      <c r="BZ4" s="122"/>
+      <c r="CA4" s="122"/>
+      <c r="CB4" s="119">
         <v>45429</v>
       </c>
-      <c r="CC4" s="91"/>
-      <c r="CD4" s="91"/>
-      <c r="CE4" s="92"/>
-      <c r="CF4" s="89" t="s">
+      <c r="CC4" s="119"/>
+      <c r="CD4" s="119"/>
+      <c r="CE4" s="120"/>
+      <c r="CF4" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="CG4" s="90"/>
-      <c r="CH4" s="90"/>
-      <c r="CI4" s="90"/>
-      <c r="CJ4" s="91">
+      <c r="CG4" s="122"/>
+      <c r="CH4" s="122"/>
+      <c r="CI4" s="122"/>
+      <c r="CJ4" s="119">
         <v>45432</v>
       </c>
-      <c r="CK4" s="91"/>
-      <c r="CL4" s="91"/>
-      <c r="CM4" s="92"/>
-      <c r="CN4" s="89" t="s">
+      <c r="CK4" s="119"/>
+      <c r="CL4" s="119"/>
+      <c r="CM4" s="120"/>
+      <c r="CN4" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="CO4" s="90"/>
-      <c r="CP4" s="90"/>
-      <c r="CQ4" s="90"/>
-      <c r="CR4" s="91">
+      <c r="CO4" s="122"/>
+      <c r="CP4" s="122"/>
+      <c r="CQ4" s="122"/>
+      <c r="CR4" s="119">
         <v>45433</v>
       </c>
-      <c r="CS4" s="91"/>
-      <c r="CT4" s="91"/>
-      <c r="CU4" s="92"/>
-      <c r="CV4" s="89" t="s">
+      <c r="CS4" s="119"/>
+      <c r="CT4" s="119"/>
+      <c r="CU4" s="120"/>
+      <c r="CV4" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="CW4" s="90"/>
-      <c r="CX4" s="90"/>
-      <c r="CY4" s="90"/>
-      <c r="CZ4" s="91">
+      <c r="CW4" s="122"/>
+      <c r="CX4" s="122"/>
+      <c r="CY4" s="122"/>
+      <c r="CZ4" s="119">
         <v>45434</v>
       </c>
-      <c r="DA4" s="91"/>
-      <c r="DB4" s="91"/>
-      <c r="DC4" s="92"/>
-      <c r="DD4" s="89" t="s">
+      <c r="DA4" s="119"/>
+      <c r="DB4" s="119"/>
+      <c r="DC4" s="120"/>
+      <c r="DD4" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="DE4" s="90"/>
-      <c r="DF4" s="90"/>
-      <c r="DG4" s="90"/>
-      <c r="DH4" s="91">
+      <c r="DE4" s="122"/>
+      <c r="DF4" s="122"/>
+      <c r="DG4" s="122"/>
+      <c r="DH4" s="119">
         <v>45435</v>
       </c>
-      <c r="DI4" s="91"/>
-      <c r="DJ4" s="91"/>
-      <c r="DK4" s="92"/>
-      <c r="DL4" s="89" t="s">
+      <c r="DI4" s="119"/>
+      <c r="DJ4" s="119"/>
+      <c r="DK4" s="120"/>
+      <c r="DL4" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="DM4" s="90"/>
-      <c r="DN4" s="90"/>
-      <c r="DO4" s="90"/>
-      <c r="DP4" s="91">
+      <c r="DM4" s="122"/>
+      <c r="DN4" s="122"/>
+      <c r="DO4" s="122"/>
+      <c r="DP4" s="119">
         <v>45436</v>
       </c>
-      <c r="DQ4" s="91"/>
-      <c r="DR4" s="91"/>
-      <c r="DS4" s="92"/>
-      <c r="DT4" s="89" t="s">
+      <c r="DQ4" s="119"/>
+      <c r="DR4" s="119"/>
+      <c r="DS4" s="120"/>
+      <c r="DT4" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="DU4" s="90"/>
-      <c r="DV4" s="90"/>
-      <c r="DW4" s="90"/>
-      <c r="DX4" s="91">
+      <c r="DU4" s="122"/>
+      <c r="DV4" s="122"/>
+      <c r="DW4" s="122"/>
+      <c r="DX4" s="119">
         <v>45439</v>
       </c>
-      <c r="DY4" s="91"/>
-      <c r="DZ4" s="91"/>
-      <c r="EA4" s="92"/>
-      <c r="EB4" s="89" t="s">
+      <c r="DY4" s="119"/>
+      <c r="DZ4" s="119"/>
+      <c r="EA4" s="120"/>
+      <c r="EB4" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="EC4" s="90"/>
-      <c r="ED4" s="90"/>
-      <c r="EE4" s="90"/>
-      <c r="EF4" s="91">
+      <c r="EC4" s="122"/>
+      <c r="ED4" s="122"/>
+      <c r="EE4" s="122"/>
+      <c r="EF4" s="119">
         <v>45440</v>
       </c>
-      <c r="EG4" s="91"/>
-      <c r="EH4" s="91"/>
-      <c r="EI4" s="92"/>
-      <c r="EJ4" s="89" t="s">
+      <c r="EG4" s="119"/>
+      <c r="EH4" s="119"/>
+      <c r="EI4" s="120"/>
+      <c r="EJ4" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="EK4" s="90"/>
-      <c r="EL4" s="90"/>
-      <c r="EM4" s="90"/>
-      <c r="EN4" s="91">
+      <c r="EK4" s="122"/>
+      <c r="EL4" s="122"/>
+      <c r="EM4" s="122"/>
+      <c r="EN4" s="119">
         <v>45441</v>
       </c>
-      <c r="EO4" s="91"/>
-      <c r="EP4" s="91"/>
-      <c r="EQ4" s="92"/>
-      <c r="ER4" s="89" t="s">
+      <c r="EO4" s="119"/>
+      <c r="EP4" s="119"/>
+      <c r="EQ4" s="120"/>
+      <c r="ER4" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="ES4" s="90"/>
-      <c r="ET4" s="90"/>
-      <c r="EU4" s="90"/>
-      <c r="EV4" s="91">
+      <c r="ES4" s="122"/>
+      <c r="ET4" s="122"/>
+      <c r="EU4" s="122"/>
+      <c r="EV4" s="119">
         <v>45442</v>
       </c>
-      <c r="EW4" s="91"/>
-      <c r="EX4" s="91"/>
-      <c r="EY4" s="92"/>
-      <c r="EZ4" s="89" t="s">
+      <c r="EW4" s="119"/>
+      <c r="EX4" s="119"/>
+      <c r="EY4" s="120"/>
+      <c r="EZ4" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="FA4" s="90"/>
-      <c r="FB4" s="90"/>
-      <c r="FC4" s="90"/>
-      <c r="FD4" s="91">
+      <c r="FA4" s="122"/>
+      <c r="FB4" s="122"/>
+      <c r="FC4" s="122"/>
+      <c r="FD4" s="119">
         <v>45443</v>
       </c>
-      <c r="FE4" s="91"/>
-      <c r="FF4" s="91"/>
-      <c r="FG4" s="92"/>
-      <c r="FH4" s="89" t="s">
+      <c r="FE4" s="119"/>
+      <c r="FF4" s="119"/>
+      <c r="FG4" s="120"/>
+      <c r="FH4" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="FI4" s="90"/>
-      <c r="FJ4" s="90"/>
-      <c r="FK4" s="90"/>
-      <c r="FL4" s="91">
+      <c r="FI4" s="122"/>
+      <c r="FJ4" s="122"/>
+      <c r="FK4" s="122"/>
+      <c r="FL4" s="119">
         <v>45446</v>
       </c>
-      <c r="FM4" s="91"/>
-      <c r="FN4" s="91"/>
-      <c r="FO4" s="92"/>
-      <c r="FP4" s="89" t="s">
+      <c r="FM4" s="119"/>
+      <c r="FN4" s="119"/>
+      <c r="FO4" s="120"/>
+      <c r="FP4" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="FQ4" s="90"/>
-      <c r="FR4" s="90"/>
-      <c r="FS4" s="90"/>
-      <c r="FT4" s="91">
+      <c r="FQ4" s="122"/>
+      <c r="FR4" s="122"/>
+      <c r="FS4" s="122"/>
+      <c r="FT4" s="119">
         <v>45447</v>
       </c>
-      <c r="FU4" s="91"/>
-      <c r="FV4" s="91"/>
-      <c r="FW4" s="92"/>
-      <c r="FX4" s="89" t="s">
+      <c r="FU4" s="119"/>
+      <c r="FV4" s="119"/>
+      <c r="FW4" s="120"/>
+      <c r="FX4" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="FY4" s="90"/>
-      <c r="FZ4" s="90"/>
-      <c r="GA4" s="90"/>
-      <c r="GB4" s="91">
+      <c r="FY4" s="122"/>
+      <c r="FZ4" s="122"/>
+      <c r="GA4" s="122"/>
+      <c r="GB4" s="119">
         <v>45448</v>
       </c>
-      <c r="GC4" s="91"/>
-      <c r="GD4" s="91"/>
-      <c r="GE4" s="92"/>
-      <c r="GF4" s="89" t="s">
+      <c r="GC4" s="119"/>
+      <c r="GD4" s="119"/>
+      <c r="GE4" s="120"/>
+      <c r="GF4" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="GG4" s="90"/>
-      <c r="GH4" s="90"/>
-      <c r="GI4" s="90"/>
-      <c r="GJ4" s="91">
+      <c r="GG4" s="122"/>
+      <c r="GH4" s="122"/>
+      <c r="GI4" s="122"/>
+      <c r="GJ4" s="119">
         <v>45449</v>
       </c>
-      <c r="GK4" s="91"/>
-      <c r="GL4" s="91"/>
-      <c r="GM4" s="91"/>
+      <c r="GK4" s="119"/>
+      <c r="GL4" s="119"/>
+      <c r="GM4" s="119"/>
       <c r="GN4" s="50"/>
-      <c r="GO4" s="90" t="s">
+      <c r="GO4" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="GP4" s="90"/>
-      <c r="GQ4" s="90"/>
-      <c r="GR4" s="90"/>
-      <c r="GS4" s="91">
+      <c r="GP4" s="122"/>
+      <c r="GQ4" s="122"/>
+      <c r="GR4" s="122"/>
+      <c r="GS4" s="119">
         <v>45454</v>
       </c>
-      <c r="GT4" s="91"/>
-      <c r="GU4" s="91"/>
-      <c r="GV4" s="92"/>
-      <c r="GW4" s="93" t="s">
+      <c r="GT4" s="119"/>
+      <c r="GU4" s="119"/>
+      <c r="GV4" s="120"/>
+      <c r="GW4" s="132" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+    <row r="5" spans="1:205" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="127"/>
       <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
@@ -3474,9 +3486,9 @@
       <c r="GV5" s="7">
         <v>8</v>
       </c>
-      <c r="GW5" s="93"/>
+      <c r="GW5" s="132"/>
     </row>
-    <row r="6" spans="1:205" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:205" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="62" t="s">
         <v>16</v>
       </c>
@@ -3508,16 +3520,16 @@
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
       <c r="AA6" s="15"/>
-      <c r="AB6" s="101" t="s">
+      <c r="AB6" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="AC6" s="102"/>
-      <c r="AD6" s="102"/>
-      <c r="AE6" s="102"/>
-      <c r="AF6" s="102"/>
-      <c r="AG6" s="102"/>
-      <c r="AH6" s="102"/>
-      <c r="AI6" s="103"/>
+      <c r="AC6" s="108"/>
+      <c r="AD6" s="108"/>
+      <c r="AE6" s="108"/>
+      <c r="AF6" s="108"/>
+      <c r="AG6" s="108"/>
+      <c r="AH6" s="108"/>
+      <c r="AI6" s="109"/>
       <c r="AJ6" s="13"/>
       <c r="AK6" s="14"/>
       <c r="AL6" s="14"/>
@@ -3572,16 +3584,16 @@
       <c r="CE6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="CF6" s="101" t="s">
+      <c r="CF6" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="CG6" s="102"/>
-      <c r="CH6" s="102"/>
-      <c r="CI6" s="102"/>
-      <c r="CJ6" s="102"/>
-      <c r="CK6" s="102"/>
-      <c r="CL6" s="102"/>
-      <c r="CM6" s="103"/>
+      <c r="CG6" s="108"/>
+      <c r="CH6" s="108"/>
+      <c r="CI6" s="108"/>
+      <c r="CJ6" s="108"/>
+      <c r="CK6" s="108"/>
+      <c r="CL6" s="108"/>
+      <c r="CM6" s="109"/>
       <c r="CN6" s="26" t="s">
         <v>28</v>
       </c>
@@ -3612,14 +3624,22 @@
       <c r="DI6" s="24"/>
       <c r="DJ6" s="24"/>
       <c r="DK6" s="25"/>
-      <c r="DL6" s="26"/>
-      <c r="DM6" s="24"/>
-      <c r="DN6" s="24"/>
+      <c r="DL6" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="DM6" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="DN6" s="33" t="s">
+        <v>28</v>
+      </c>
       <c r="DO6" s="24"/>
-      <c r="DP6" s="24"/>
-      <c r="DQ6" s="24"/>
-      <c r="DR6" s="24"/>
-      <c r="DS6" s="25"/>
+      <c r="DP6" s="33"/>
+      <c r="DQ6" s="33"/>
+      <c r="DR6" s="33"/>
+      <c r="DS6" s="34" t="s">
+        <v>28</v>
+      </c>
       <c r="DT6" s="26"/>
       <c r="DU6" s="24"/>
       <c r="DV6" s="24"/>
@@ -3644,16 +3664,16 @@
       <c r="EO6" s="24"/>
       <c r="EP6" s="24"/>
       <c r="EQ6" s="25"/>
-      <c r="ER6" s="101" t="s">
+      <c r="ER6" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="ES6" s="102"/>
-      <c r="ET6" s="102"/>
-      <c r="EU6" s="102"/>
-      <c r="EV6" s="102"/>
-      <c r="EW6" s="102"/>
-      <c r="EX6" s="102"/>
-      <c r="EY6" s="103"/>
+      <c r="ES6" s="108"/>
+      <c r="ET6" s="108"/>
+      <c r="EU6" s="108"/>
+      <c r="EV6" s="108"/>
+      <c r="EW6" s="108"/>
+      <c r="EX6" s="108"/>
+      <c r="EY6" s="109"/>
       <c r="EZ6" s="26"/>
       <c r="FA6" s="24"/>
       <c r="FB6" s="24"/>
@@ -3703,13 +3723,13 @@
       <c r="GT6" s="10"/>
       <c r="GU6" s="10"/>
       <c r="GV6" s="10"/>
-      <c r="GW6" s="93"/>
+      <c r="GW6" s="132"/>
     </row>
-    <row r="7" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="118" t="s">
+    <row r="7" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="119"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="61"/>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
@@ -3735,14 +3755,14 @@
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
       <c r="AA7" s="15"/>
-      <c r="AB7" s="104"/>
-      <c r="AC7" s="105"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="105"/>
-      <c r="AF7" s="105"/>
-      <c r="AG7" s="105"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="106"/>
+      <c r="AB7" s="110"/>
+      <c r="AC7" s="111"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="111"/>
+      <c r="AG7" s="111"/>
+      <c r="AH7" s="111"/>
+      <c r="AI7" s="112"/>
       <c r="AJ7" s="13"/>
       <c r="AK7" s="14"/>
       <c r="AL7" s="14"/>
@@ -3791,14 +3811,14 @@
       <c r="CC7" s="14"/>
       <c r="CD7" s="14"/>
       <c r="CE7" s="15"/>
-      <c r="CF7" s="104"/>
-      <c r="CG7" s="105"/>
-      <c r="CH7" s="105"/>
-      <c r="CI7" s="105"/>
-      <c r="CJ7" s="105"/>
-      <c r="CK7" s="105"/>
-      <c r="CL7" s="105"/>
-      <c r="CM7" s="106"/>
+      <c r="CF7" s="110"/>
+      <c r="CG7" s="111"/>
+      <c r="CH7" s="111"/>
+      <c r="CI7" s="111"/>
+      <c r="CJ7" s="111"/>
+      <c r="CK7" s="111"/>
+      <c r="CL7" s="111"/>
+      <c r="CM7" s="112"/>
       <c r="CN7" s="13"/>
       <c r="CO7" s="14"/>
       <c r="CP7" s="14"/>
@@ -3855,14 +3875,14 @@
       <c r="EO7" s="14"/>
       <c r="EP7" s="14"/>
       <c r="EQ7" s="15"/>
-      <c r="ER7" s="104"/>
-      <c r="ES7" s="105"/>
-      <c r="ET7" s="105"/>
-      <c r="EU7" s="105"/>
-      <c r="EV7" s="105"/>
-      <c r="EW7" s="105"/>
-      <c r="EX7" s="105"/>
-      <c r="EY7" s="106"/>
+      <c r="ER7" s="110"/>
+      <c r="ES7" s="111"/>
+      <c r="ET7" s="111"/>
+      <c r="EU7" s="111"/>
+      <c r="EV7" s="111"/>
+      <c r="EW7" s="111"/>
+      <c r="EX7" s="111"/>
+      <c r="EY7" s="112"/>
       <c r="EZ7" s="13"/>
       <c r="FA7" s="14"/>
       <c r="FB7" s="14"/>
@@ -3912,9 +3932,9 @@
       <c r="GT7" s="14"/>
       <c r="GU7" s="14"/>
       <c r="GV7" s="14"/>
-      <c r="GW7" s="93"/>
+      <c r="GW7" s="132"/>
     </row>
-    <row r="8" spans="1:205" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:205" x14ac:dyDescent="0.15">
       <c r="A8" s="80" t="s">
         <v>25</v>
       </c>
@@ -3946,14 +3966,14 @@
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
       <c r="AA8" s="15"/>
-      <c r="AB8" s="104"/>
-      <c r="AC8" s="105"/>
-      <c r="AD8" s="105"/>
-      <c r="AE8" s="105"/>
-      <c r="AF8" s="105"/>
-      <c r="AG8" s="105"/>
-      <c r="AH8" s="105"/>
-      <c r="AI8" s="106"/>
+      <c r="AB8" s="110"/>
+      <c r="AC8" s="111"/>
+      <c r="AD8" s="111"/>
+      <c r="AE8" s="111"/>
+      <c r="AF8" s="111"/>
+      <c r="AG8" s="111"/>
+      <c r="AH8" s="111"/>
+      <c r="AI8" s="112"/>
       <c r="AJ8" s="13"/>
       <c r="AK8" s="14"/>
       <c r="AL8" s="14"/>
@@ -4006,14 +4026,14 @@
       <c r="CC8" s="14"/>
       <c r="CD8" s="14"/>
       <c r="CE8" s="44"/>
-      <c r="CF8" s="104"/>
-      <c r="CG8" s="105"/>
-      <c r="CH8" s="105"/>
-      <c r="CI8" s="105"/>
-      <c r="CJ8" s="105"/>
-      <c r="CK8" s="105"/>
-      <c r="CL8" s="105"/>
-      <c r="CM8" s="106"/>
+      <c r="CF8" s="110"/>
+      <c r="CG8" s="111"/>
+      <c r="CH8" s="111"/>
+      <c r="CI8" s="111"/>
+      <c r="CJ8" s="111"/>
+      <c r="CK8" s="111"/>
+      <c r="CL8" s="111"/>
+      <c r="CM8" s="112"/>
       <c r="CN8" s="13"/>
       <c r="CO8" s="14"/>
       <c r="CP8" s="14"/>
@@ -4070,14 +4090,14 @@
       <c r="EO8" s="14"/>
       <c r="EP8" s="14"/>
       <c r="EQ8" s="15"/>
-      <c r="ER8" s="104"/>
-      <c r="ES8" s="105"/>
-      <c r="ET8" s="105"/>
-      <c r="EU8" s="105"/>
-      <c r="EV8" s="105"/>
-      <c r="EW8" s="105"/>
-      <c r="EX8" s="105"/>
-      <c r="EY8" s="106"/>
+      <c r="ER8" s="110"/>
+      <c r="ES8" s="111"/>
+      <c r="ET8" s="111"/>
+      <c r="EU8" s="111"/>
+      <c r="EV8" s="111"/>
+      <c r="EW8" s="111"/>
+      <c r="EX8" s="111"/>
+      <c r="EY8" s="112"/>
       <c r="EZ8" s="13"/>
       <c r="FA8" s="14"/>
       <c r="FB8" s="14"/>
@@ -4127,9 +4147,9 @@
       <c r="GT8" s="14"/>
       <c r="GU8" s="14"/>
       <c r="GV8" s="14"/>
-      <c r="GW8" s="93"/>
+      <c r="GW8" s="132"/>
     </row>
-    <row r="9" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:205" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="81" t="s">
         <v>26</v>
       </c>
@@ -4161,14 +4181,14 @@
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
       <c r="AA9" s="15"/>
-      <c r="AB9" s="104"/>
-      <c r="AC9" s="105"/>
-      <c r="AD9" s="105"/>
-      <c r="AE9" s="105"/>
-      <c r="AF9" s="105"/>
-      <c r="AG9" s="105"/>
-      <c r="AH9" s="105"/>
-      <c r="AI9" s="106"/>
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="111"/>
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="111"/>
+      <c r="AF9" s="111"/>
+      <c r="AG9" s="111"/>
+      <c r="AH9" s="111"/>
+      <c r="AI9" s="112"/>
       <c r="AJ9" s="13"/>
       <c r="AK9" s="14"/>
       <c r="AL9" s="14"/>
@@ -4237,14 +4257,14 @@
         <v>28</v>
       </c>
       <c r="CE9" s="36"/>
-      <c r="CF9" s="104"/>
-      <c r="CG9" s="105"/>
-      <c r="CH9" s="105"/>
-      <c r="CI9" s="105"/>
-      <c r="CJ9" s="105"/>
-      <c r="CK9" s="105"/>
-      <c r="CL9" s="105"/>
-      <c r="CM9" s="106"/>
+      <c r="CF9" s="110"/>
+      <c r="CG9" s="111"/>
+      <c r="CH9" s="111"/>
+      <c r="CI9" s="111"/>
+      <c r="CJ9" s="111"/>
+      <c r="CK9" s="111"/>
+      <c r="CL9" s="111"/>
+      <c r="CM9" s="112"/>
       <c r="CN9" s="13"/>
       <c r="CO9" s="14"/>
       <c r="CP9" s="14"/>
@@ -4301,14 +4321,14 @@
       <c r="EO9" s="14"/>
       <c r="EP9" s="14"/>
       <c r="EQ9" s="15"/>
-      <c r="ER9" s="104"/>
-      <c r="ES9" s="105"/>
-      <c r="ET9" s="105"/>
-      <c r="EU9" s="105"/>
-      <c r="EV9" s="105"/>
-      <c r="EW9" s="105"/>
-      <c r="EX9" s="105"/>
-      <c r="EY9" s="106"/>
+      <c r="ER9" s="110"/>
+      <c r="ES9" s="111"/>
+      <c r="ET9" s="111"/>
+      <c r="EU9" s="111"/>
+      <c r="EV9" s="111"/>
+      <c r="EW9" s="111"/>
+      <c r="EX9" s="111"/>
+      <c r="EY9" s="112"/>
       <c r="EZ9" s="13"/>
       <c r="FA9" s="14"/>
       <c r="FB9" s="14"/>
@@ -4358,13 +4378,13 @@
       <c r="GT9" s="14"/>
       <c r="GU9" s="14"/>
       <c r="GV9" s="14"/>
-      <c r="GW9" s="93"/>
+      <c r="GW9" s="132"/>
     </row>
-    <row r="10" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
+    <row r="10" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="61"/>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
@@ -4390,14 +4410,14 @@
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
       <c r="AA10" s="15"/>
-      <c r="AB10" s="104"/>
-      <c r="AC10" s="105"/>
-      <c r="AD10" s="105"/>
-      <c r="AE10" s="105"/>
-      <c r="AF10" s="105"/>
-      <c r="AG10" s="105"/>
-      <c r="AH10" s="105"/>
-      <c r="AI10" s="106"/>
+      <c r="AB10" s="110"/>
+      <c r="AC10" s="111"/>
+      <c r="AD10" s="111"/>
+      <c r="AE10" s="111"/>
+      <c r="AF10" s="111"/>
+      <c r="AG10" s="111"/>
+      <c r="AH10" s="111"/>
+      <c r="AI10" s="112"/>
       <c r="AJ10" s="13"/>
       <c r="AK10" s="14"/>
       <c r="AL10" s="14"/>
@@ -4446,14 +4466,14 @@
       <c r="CC10" s="32"/>
       <c r="CD10" s="32"/>
       <c r="CE10" s="32"/>
-      <c r="CF10" s="104"/>
-      <c r="CG10" s="105"/>
-      <c r="CH10" s="105"/>
-      <c r="CI10" s="105"/>
-      <c r="CJ10" s="105"/>
-      <c r="CK10" s="105"/>
-      <c r="CL10" s="105"/>
-      <c r="CM10" s="106"/>
+      <c r="CF10" s="110"/>
+      <c r="CG10" s="111"/>
+      <c r="CH10" s="111"/>
+      <c r="CI10" s="111"/>
+      <c r="CJ10" s="111"/>
+      <c r="CK10" s="111"/>
+      <c r="CL10" s="111"/>
+      <c r="CM10" s="112"/>
       <c r="CN10" s="13"/>
       <c r="CO10" s="14"/>
       <c r="CP10" s="14"/>
@@ -4482,8 +4502,10 @@
       <c r="DM10" s="14"/>
       <c r="DN10" s="14"/>
       <c r="DO10" s="14"/>
-      <c r="DP10" s="14"/>
-      <c r="DQ10" s="14"/>
+      <c r="DP10" s="32"/>
+      <c r="DQ10" s="32" t="s">
+        <v>28</v>
+      </c>
       <c r="DR10" s="14"/>
       <c r="DS10" s="15"/>
       <c r="DT10" s="13"/>
@@ -4510,14 +4532,14 @@
       <c r="EO10" s="14"/>
       <c r="EP10" s="14"/>
       <c r="EQ10" s="15"/>
-      <c r="ER10" s="104"/>
-      <c r="ES10" s="105"/>
-      <c r="ET10" s="105"/>
-      <c r="EU10" s="105"/>
-      <c r="EV10" s="105"/>
-      <c r="EW10" s="105"/>
-      <c r="EX10" s="105"/>
-      <c r="EY10" s="106"/>
+      <c r="ER10" s="110"/>
+      <c r="ES10" s="111"/>
+      <c r="ET10" s="111"/>
+      <c r="EU10" s="111"/>
+      <c r="EV10" s="111"/>
+      <c r="EW10" s="111"/>
+      <c r="EX10" s="111"/>
+      <c r="EY10" s="112"/>
       <c r="EZ10" s="13"/>
       <c r="FA10" s="14"/>
       <c r="FB10" s="14"/>
@@ -4567,9 +4589,9 @@
       <c r="GT10" s="14"/>
       <c r="GU10" s="14"/>
       <c r="GV10" s="14"/>
-      <c r="GW10" s="93"/>
+      <c r="GW10" s="132"/>
     </row>
-    <row r="11" spans="1:205" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:205" x14ac:dyDescent="0.15">
       <c r="A11" s="77" t="s">
         <v>20</v>
       </c>
@@ -4601,14 +4623,14 @@
       <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
       <c r="AA11" s="15"/>
-      <c r="AB11" s="104"/>
-      <c r="AC11" s="105"/>
-      <c r="AD11" s="105"/>
-      <c r="AE11" s="105"/>
-      <c r="AF11" s="105"/>
-      <c r="AG11" s="105"/>
-      <c r="AH11" s="105"/>
-      <c r="AI11" s="106"/>
+      <c r="AB11" s="110"/>
+      <c r="AC11" s="111"/>
+      <c r="AD11" s="111"/>
+      <c r="AE11" s="111"/>
+      <c r="AF11" s="111"/>
+      <c r="AG11" s="111"/>
+      <c r="AH11" s="111"/>
+      <c r="AI11" s="112"/>
       <c r="AJ11" s="13"/>
       <c r="AK11" s="14"/>
       <c r="AL11" s="14"/>
@@ -4659,14 +4681,14 @@
       </c>
       <c r="CD11" s="14"/>
       <c r="CE11" s="14"/>
-      <c r="CF11" s="104"/>
-      <c r="CG11" s="105"/>
-      <c r="CH11" s="105"/>
-      <c r="CI11" s="105"/>
-      <c r="CJ11" s="105"/>
-      <c r="CK11" s="105"/>
-      <c r="CL11" s="105"/>
-      <c r="CM11" s="106"/>
+      <c r="CF11" s="110"/>
+      <c r="CG11" s="111"/>
+      <c r="CH11" s="111"/>
+      <c r="CI11" s="111"/>
+      <c r="CJ11" s="111"/>
+      <c r="CK11" s="111"/>
+      <c r="CL11" s="111"/>
+      <c r="CM11" s="112"/>
       <c r="CN11" s="28"/>
       <c r="CO11" s="14"/>
       <c r="CP11" s="14"/>
@@ -4695,7 +4717,7 @@
       <c r="DM11" s="14"/>
       <c r="DN11" s="14"/>
       <c r="DO11" s="14"/>
-      <c r="DP11" s="14"/>
+      <c r="DP11" s="32"/>
       <c r="DQ11" s="14"/>
       <c r="DR11" s="14"/>
       <c r="DS11" s="15"/>
@@ -4723,14 +4745,14 @@
       <c r="EO11" s="14"/>
       <c r="EP11" s="14"/>
       <c r="EQ11" s="15"/>
-      <c r="ER11" s="104"/>
-      <c r="ES11" s="105"/>
-      <c r="ET11" s="105"/>
-      <c r="EU11" s="105"/>
-      <c r="EV11" s="105"/>
-      <c r="EW11" s="105"/>
-      <c r="EX11" s="105"/>
-      <c r="EY11" s="106"/>
+      <c r="ER11" s="110"/>
+      <c r="ES11" s="111"/>
+      <c r="ET11" s="111"/>
+      <c r="EU11" s="111"/>
+      <c r="EV11" s="111"/>
+      <c r="EW11" s="111"/>
+      <c r="EX11" s="111"/>
+      <c r="EY11" s="112"/>
       <c r="EZ11" s="13"/>
       <c r="FA11" s="14"/>
       <c r="FB11" s="14"/>
@@ -4780,9 +4802,9 @@
       <c r="GT11" s="14"/>
       <c r="GU11" s="14"/>
       <c r="GV11" s="14"/>
-      <c r="GW11" s="93"/>
+      <c r="GW11" s="132"/>
     </row>
-    <row r="12" spans="1:205" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:205" x14ac:dyDescent="0.15">
       <c r="A12" s="78" t="s">
         <v>19</v>
       </c>
@@ -4814,14 +4836,14 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
       <c r="AA12" s="15"/>
-      <c r="AB12" s="104"/>
-      <c r="AC12" s="105"/>
-      <c r="AD12" s="105"/>
-      <c r="AE12" s="105"/>
-      <c r="AF12" s="105"/>
-      <c r="AG12" s="105"/>
-      <c r="AH12" s="105"/>
-      <c r="AI12" s="106"/>
+      <c r="AB12" s="110"/>
+      <c r="AC12" s="111"/>
+      <c r="AD12" s="111"/>
+      <c r="AE12" s="111"/>
+      <c r="AF12" s="111"/>
+      <c r="AG12" s="111"/>
+      <c r="AH12" s="111"/>
+      <c r="AI12" s="112"/>
       <c r="AJ12" s="13"/>
       <c r="AK12" s="14"/>
       <c r="AL12" s="14"/>
@@ -4870,14 +4892,14 @@
       <c r="CC12" s="14"/>
       <c r="CD12" s="14"/>
       <c r="CE12" s="15"/>
-      <c r="CF12" s="104"/>
-      <c r="CG12" s="105"/>
-      <c r="CH12" s="105"/>
-      <c r="CI12" s="105"/>
-      <c r="CJ12" s="105"/>
-      <c r="CK12" s="105"/>
-      <c r="CL12" s="105"/>
-      <c r="CM12" s="106"/>
+      <c r="CF12" s="110"/>
+      <c r="CG12" s="111"/>
+      <c r="CH12" s="111"/>
+      <c r="CI12" s="111"/>
+      <c r="CJ12" s="111"/>
+      <c r="CK12" s="111"/>
+      <c r="CL12" s="111"/>
+      <c r="CM12" s="112"/>
       <c r="CN12" s="13"/>
       <c r="CO12" s="55" t="s">
         <v>28</v>
@@ -4938,14 +4960,14 @@
       <c r="EO12" s="14"/>
       <c r="EP12" s="14"/>
       <c r="EQ12" s="15"/>
-      <c r="ER12" s="104"/>
-      <c r="ES12" s="105"/>
-      <c r="ET12" s="105"/>
-      <c r="EU12" s="105"/>
-      <c r="EV12" s="105"/>
-      <c r="EW12" s="105"/>
-      <c r="EX12" s="105"/>
-      <c r="EY12" s="106"/>
+      <c r="ER12" s="110"/>
+      <c r="ES12" s="111"/>
+      <c r="ET12" s="111"/>
+      <c r="EU12" s="111"/>
+      <c r="EV12" s="111"/>
+      <c r="EW12" s="111"/>
+      <c r="EX12" s="111"/>
+      <c r="EY12" s="112"/>
       <c r="EZ12" s="13"/>
       <c r="FA12" s="14"/>
       <c r="FB12" s="14"/>
@@ -4995,9 +5017,9 @@
       <c r="GT12" s="14"/>
       <c r="GU12" s="14"/>
       <c r="GV12" s="14"/>
-      <c r="GW12" s="93"/>
+      <c r="GW12" s="132"/>
     </row>
-    <row r="13" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:205" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="79" t="s">
         <v>18</v>
       </c>
@@ -5029,14 +5051,14 @@
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="15"/>
-      <c r="AB13" s="104"/>
-      <c r="AC13" s="105"/>
-      <c r="AD13" s="105"/>
-      <c r="AE13" s="105"/>
-      <c r="AF13" s="105"/>
-      <c r="AG13" s="105"/>
-      <c r="AH13" s="105"/>
-      <c r="AI13" s="106"/>
+      <c r="AB13" s="110"/>
+      <c r="AC13" s="111"/>
+      <c r="AD13" s="111"/>
+      <c r="AE13" s="111"/>
+      <c r="AF13" s="111"/>
+      <c r="AG13" s="111"/>
+      <c r="AH13" s="111"/>
+      <c r="AI13" s="112"/>
       <c r="AJ13" s="13"/>
       <c r="AK13" s="14"/>
       <c r="AL13" s="14"/>
@@ -5085,14 +5107,14 @@
       <c r="CC13" s="14"/>
       <c r="CD13" s="14"/>
       <c r="CE13" s="15"/>
-      <c r="CF13" s="104"/>
-      <c r="CG13" s="105"/>
-      <c r="CH13" s="105"/>
-      <c r="CI13" s="105"/>
-      <c r="CJ13" s="105"/>
-      <c r="CK13" s="105"/>
-      <c r="CL13" s="105"/>
-      <c r="CM13" s="106"/>
+      <c r="CF13" s="110"/>
+      <c r="CG13" s="111"/>
+      <c r="CH13" s="111"/>
+      <c r="CI13" s="111"/>
+      <c r="CJ13" s="111"/>
+      <c r="CK13" s="111"/>
+      <c r="CL13" s="111"/>
+      <c r="CM13" s="112"/>
       <c r="CN13" s="13"/>
       <c r="CO13" s="14"/>
       <c r="CP13" s="27"/>
@@ -5157,14 +5179,14 @@
       <c r="EO13" s="14"/>
       <c r="EP13" s="14"/>
       <c r="EQ13" s="15"/>
-      <c r="ER13" s="104"/>
-      <c r="ES13" s="105"/>
-      <c r="ET13" s="105"/>
-      <c r="EU13" s="105"/>
-      <c r="EV13" s="105"/>
-      <c r="EW13" s="105"/>
-      <c r="EX13" s="105"/>
-      <c r="EY13" s="106"/>
+      <c r="ER13" s="110"/>
+      <c r="ES13" s="111"/>
+      <c r="ET13" s="111"/>
+      <c r="EU13" s="111"/>
+      <c r="EV13" s="111"/>
+      <c r="EW13" s="111"/>
+      <c r="EX13" s="111"/>
+      <c r="EY13" s="112"/>
       <c r="EZ13" s="13"/>
       <c r="FA13" s="14"/>
       <c r="FB13" s="14"/>
@@ -5214,13 +5236,13 @@
       <c r="GT13" s="14"/>
       <c r="GU13" s="14"/>
       <c r="GV13" s="14"/>
-      <c r="GW13" s="93"/>
+      <c r="GW13" s="132"/>
     </row>
-    <row r="14" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="122" t="s">
+    <row r="14" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="123"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="61"/>
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
@@ -5246,14 +5268,14 @@
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
       <c r="AA14" s="15"/>
-      <c r="AB14" s="104"/>
-      <c r="AC14" s="105"/>
-      <c r="AD14" s="105"/>
-      <c r="AE14" s="105"/>
-      <c r="AF14" s="105"/>
-      <c r="AG14" s="105"/>
-      <c r="AH14" s="105"/>
-      <c r="AI14" s="106"/>
+      <c r="AB14" s="110"/>
+      <c r="AC14" s="111"/>
+      <c r="AD14" s="111"/>
+      <c r="AE14" s="111"/>
+      <c r="AF14" s="111"/>
+      <c r="AG14" s="111"/>
+      <c r="AH14" s="111"/>
+      <c r="AI14" s="112"/>
       <c r="AJ14" s="13"/>
       <c r="AK14" s="14"/>
       <c r="AL14" s="14"/>
@@ -5302,14 +5324,14 @@
       <c r="CC14" s="14"/>
       <c r="CD14" s="14"/>
       <c r="CE14" s="15"/>
-      <c r="CF14" s="104"/>
-      <c r="CG14" s="105"/>
-      <c r="CH14" s="105"/>
-      <c r="CI14" s="105"/>
-      <c r="CJ14" s="105"/>
-      <c r="CK14" s="105"/>
-      <c r="CL14" s="105"/>
-      <c r="CM14" s="106"/>
+      <c r="CF14" s="110"/>
+      <c r="CG14" s="111"/>
+      <c r="CH14" s="111"/>
+      <c r="CI14" s="111"/>
+      <c r="CJ14" s="111"/>
+      <c r="CK14" s="111"/>
+      <c r="CL14" s="111"/>
+      <c r="CM14" s="112"/>
       <c r="CN14" s="13"/>
       <c r="CO14" s="14"/>
       <c r="CP14" s="14"/>
@@ -5339,8 +5361,10 @@
       <c r="DN14" s="14"/>
       <c r="DO14" s="14"/>
       <c r="DP14" s="14"/>
-      <c r="DQ14" s="14"/>
-      <c r="DR14" s="14"/>
+      <c r="DQ14" s="32"/>
+      <c r="DR14" s="32" t="s">
+        <v>28</v>
+      </c>
       <c r="DS14" s="15"/>
       <c r="DT14" s="13"/>
       <c r="DU14" s="14"/>
@@ -5366,14 +5390,14 @@
       <c r="EO14" s="14"/>
       <c r="EP14" s="14"/>
       <c r="EQ14" s="15"/>
-      <c r="ER14" s="104"/>
-      <c r="ES14" s="105"/>
-      <c r="ET14" s="105"/>
-      <c r="EU14" s="105"/>
-      <c r="EV14" s="105"/>
-      <c r="EW14" s="105"/>
-      <c r="EX14" s="105"/>
-      <c r="EY14" s="106"/>
+      <c r="ER14" s="110"/>
+      <c r="ES14" s="111"/>
+      <c r="ET14" s="111"/>
+      <c r="EU14" s="111"/>
+      <c r="EV14" s="111"/>
+      <c r="EW14" s="111"/>
+      <c r="EX14" s="111"/>
+      <c r="EY14" s="112"/>
       <c r="EZ14" s="13"/>
       <c r="FA14" s="14"/>
       <c r="FB14" s="14"/>
@@ -5423,9 +5447,9 @@
       <c r="GT14" s="14"/>
       <c r="GU14" s="14"/>
       <c r="GV14" s="14"/>
-      <c r="GW14" s="93"/>
+      <c r="GW14" s="132"/>
     </row>
-    <row r="15" spans="1:205" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:205" x14ac:dyDescent="0.15">
       <c r="A15" s="74" t="s">
         <v>36</v>
       </c>
@@ -5457,14 +5481,14 @@
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
       <c r="AA15" s="15"/>
-      <c r="AB15" s="104"/>
-      <c r="AC15" s="105"/>
-      <c r="AD15" s="105"/>
-      <c r="AE15" s="105"/>
-      <c r="AF15" s="105"/>
-      <c r="AG15" s="105"/>
-      <c r="AH15" s="105"/>
-      <c r="AI15" s="106"/>
+      <c r="AB15" s="110"/>
+      <c r="AC15" s="111"/>
+      <c r="AD15" s="111"/>
+      <c r="AE15" s="111"/>
+      <c r="AF15" s="111"/>
+      <c r="AG15" s="111"/>
+      <c r="AH15" s="111"/>
+      <c r="AI15" s="112"/>
       <c r="AJ15" s="13"/>
       <c r="AK15" s="14"/>
       <c r="AL15" s="14"/>
@@ -5513,14 +5537,14 @@
       <c r="CC15" s="14"/>
       <c r="CD15" s="14"/>
       <c r="CE15" s="15"/>
-      <c r="CF15" s="104"/>
-      <c r="CG15" s="105"/>
-      <c r="CH15" s="105"/>
-      <c r="CI15" s="105"/>
-      <c r="CJ15" s="105"/>
-      <c r="CK15" s="105"/>
-      <c r="CL15" s="105"/>
-      <c r="CM15" s="106"/>
+      <c r="CF15" s="110"/>
+      <c r="CG15" s="111"/>
+      <c r="CH15" s="111"/>
+      <c r="CI15" s="111"/>
+      <c r="CJ15" s="111"/>
+      <c r="CK15" s="111"/>
+      <c r="CL15" s="111"/>
+      <c r="CM15" s="112"/>
       <c r="CN15" s="13"/>
       <c r="CO15" s="14"/>
       <c r="CP15" s="14"/>
@@ -5556,7 +5580,7 @@
       <c r="DN15" s="14"/>
       <c r="DO15" s="14"/>
       <c r="DP15" s="14"/>
-      <c r="DQ15" s="14"/>
+      <c r="DQ15" s="32"/>
       <c r="DR15" s="14"/>
       <c r="DS15" s="15"/>
       <c r="DT15" s="13"/>
@@ -5583,14 +5607,14 @@
       <c r="EO15" s="14"/>
       <c r="EP15" s="14"/>
       <c r="EQ15" s="15"/>
-      <c r="ER15" s="104"/>
-      <c r="ES15" s="105"/>
-      <c r="ET15" s="105"/>
-      <c r="EU15" s="105"/>
-      <c r="EV15" s="105"/>
-      <c r="EW15" s="105"/>
-      <c r="EX15" s="105"/>
-      <c r="EY15" s="106"/>
+      <c r="ER15" s="110"/>
+      <c r="ES15" s="111"/>
+      <c r="ET15" s="111"/>
+      <c r="EU15" s="111"/>
+      <c r="EV15" s="111"/>
+      <c r="EW15" s="111"/>
+      <c r="EX15" s="111"/>
+      <c r="EY15" s="112"/>
       <c r="EZ15" s="13"/>
       <c r="FA15" s="14"/>
       <c r="FB15" s="14"/>
@@ -5640,9 +5664,9 @@
       <c r="GT15" s="14"/>
       <c r="GU15" s="14"/>
       <c r="GV15" s="14"/>
-      <c r="GW15" s="93"/>
+      <c r="GW15" s="132"/>
     </row>
-    <row r="16" spans="1:205" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:205" x14ac:dyDescent="0.15">
       <c r="A16" s="75" t="s">
         <v>21</v>
       </c>
@@ -5674,14 +5698,14 @@
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="15"/>
-      <c r="AB16" s="104"/>
-      <c r="AC16" s="105"/>
-      <c r="AD16" s="105"/>
-      <c r="AE16" s="105"/>
-      <c r="AF16" s="105"/>
-      <c r="AG16" s="105"/>
-      <c r="AH16" s="105"/>
-      <c r="AI16" s="106"/>
+      <c r="AB16" s="110"/>
+      <c r="AC16" s="111"/>
+      <c r="AD16" s="111"/>
+      <c r="AE16" s="111"/>
+      <c r="AF16" s="111"/>
+      <c r="AG16" s="111"/>
+      <c r="AH16" s="111"/>
+      <c r="AI16" s="112"/>
       <c r="AJ16" s="13"/>
       <c r="AK16" s="14"/>
       <c r="AL16" s="14"/>
@@ -5730,14 +5754,14 @@
       <c r="CC16" s="14"/>
       <c r="CD16" s="14"/>
       <c r="CE16" s="15"/>
-      <c r="CF16" s="104"/>
-      <c r="CG16" s="105"/>
-      <c r="CH16" s="105"/>
-      <c r="CI16" s="105"/>
-      <c r="CJ16" s="105"/>
-      <c r="CK16" s="105"/>
-      <c r="CL16" s="105"/>
-      <c r="CM16" s="106"/>
+      <c r="CF16" s="110"/>
+      <c r="CG16" s="111"/>
+      <c r="CH16" s="111"/>
+      <c r="CI16" s="111"/>
+      <c r="CJ16" s="111"/>
+      <c r="CK16" s="111"/>
+      <c r="CL16" s="111"/>
+      <c r="CM16" s="112"/>
       <c r="CN16" s="13"/>
       <c r="CO16" s="14"/>
       <c r="CP16" s="14"/>
@@ -5796,14 +5820,14 @@
       <c r="EO16" s="14"/>
       <c r="EP16" s="14"/>
       <c r="EQ16" s="15"/>
-      <c r="ER16" s="104"/>
-      <c r="ES16" s="105"/>
-      <c r="ET16" s="105"/>
-      <c r="EU16" s="105"/>
-      <c r="EV16" s="105"/>
-      <c r="EW16" s="105"/>
-      <c r="EX16" s="105"/>
-      <c r="EY16" s="106"/>
+      <c r="ER16" s="110"/>
+      <c r="ES16" s="111"/>
+      <c r="ET16" s="111"/>
+      <c r="EU16" s="111"/>
+      <c r="EV16" s="111"/>
+      <c r="EW16" s="111"/>
+      <c r="EX16" s="111"/>
+      <c r="EY16" s="112"/>
       <c r="EZ16" s="13"/>
       <c r="FA16" s="14"/>
       <c r="FB16" s="14"/>
@@ -5853,9 +5877,9 @@
       <c r="GT16" s="14"/>
       <c r="GU16" s="14"/>
       <c r="GV16" s="14"/>
-      <c r="GW16" s="93"/>
+      <c r="GW16" s="132"/>
     </row>
-    <row r="17" spans="1:205" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:205" x14ac:dyDescent="0.15">
       <c r="A17" s="75" t="s">
         <v>22</v>
       </c>
@@ -5887,14 +5911,14 @@
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="15"/>
-      <c r="AB17" s="104"/>
-      <c r="AC17" s="105"/>
-      <c r="AD17" s="105"/>
-      <c r="AE17" s="105"/>
-      <c r="AF17" s="105"/>
-      <c r="AG17" s="105"/>
-      <c r="AH17" s="105"/>
-      <c r="AI17" s="106"/>
+      <c r="AB17" s="110"/>
+      <c r="AC17" s="111"/>
+      <c r="AD17" s="111"/>
+      <c r="AE17" s="111"/>
+      <c r="AF17" s="111"/>
+      <c r="AG17" s="111"/>
+      <c r="AH17" s="111"/>
+      <c r="AI17" s="112"/>
       <c r="AJ17" s="13"/>
       <c r="AK17" s="14"/>
       <c r="AL17" s="14"/>
@@ -5943,14 +5967,14 @@
       <c r="CC17" s="14"/>
       <c r="CD17" s="14"/>
       <c r="CE17" s="15"/>
-      <c r="CF17" s="104"/>
-      <c r="CG17" s="105"/>
-      <c r="CH17" s="105"/>
-      <c r="CI17" s="105"/>
-      <c r="CJ17" s="105"/>
-      <c r="CK17" s="105"/>
-      <c r="CL17" s="105"/>
-      <c r="CM17" s="106"/>
+      <c r="CF17" s="110"/>
+      <c r="CG17" s="111"/>
+      <c r="CH17" s="111"/>
+      <c r="CI17" s="111"/>
+      <c r="CJ17" s="111"/>
+      <c r="CK17" s="111"/>
+      <c r="CL17" s="111"/>
+      <c r="CM17" s="112"/>
       <c r="CN17" s="13"/>
       <c r="CO17" s="14"/>
       <c r="CP17" s="14"/>
@@ -5986,8 +6010,8 @@
       <c r="DN17" s="14"/>
       <c r="DO17" s="14"/>
       <c r="DP17" s="14"/>
-      <c r="DQ17" s="14"/>
-      <c r="DR17" s="14"/>
+      <c r="DQ17" s="32"/>
+      <c r="DR17" s="32"/>
       <c r="DS17" s="15"/>
       <c r="DT17" s="13"/>
       <c r="DU17" s="14"/>
@@ -6013,14 +6037,14 @@
       <c r="EO17" s="14"/>
       <c r="EP17" s="14"/>
       <c r="EQ17" s="15"/>
-      <c r="ER17" s="104"/>
-      <c r="ES17" s="105"/>
-      <c r="ET17" s="105"/>
-      <c r="EU17" s="105"/>
-      <c r="EV17" s="105"/>
-      <c r="EW17" s="105"/>
-      <c r="EX17" s="105"/>
-      <c r="EY17" s="106"/>
+      <c r="ER17" s="110"/>
+      <c r="ES17" s="111"/>
+      <c r="ET17" s="111"/>
+      <c r="EU17" s="111"/>
+      <c r="EV17" s="111"/>
+      <c r="EW17" s="111"/>
+      <c r="EX17" s="111"/>
+      <c r="EY17" s="112"/>
       <c r="EZ17" s="13"/>
       <c r="FA17" s="14"/>
       <c r="FB17" s="14"/>
@@ -6070,9 +6094,9 @@
       <c r="GT17" s="14"/>
       <c r="GU17" s="14"/>
       <c r="GV17" s="14"/>
-      <c r="GW17" s="93"/>
+      <c r="GW17" s="132"/>
     </row>
-    <row r="18" spans="1:205" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:205" x14ac:dyDescent="0.15">
       <c r="A18" s="75" t="s">
         <v>35</v>
       </c>
@@ -6104,14 +6128,14 @@
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="15"/>
-      <c r="AB18" s="104"/>
-      <c r="AC18" s="105"/>
-      <c r="AD18" s="105"/>
-      <c r="AE18" s="105"/>
-      <c r="AF18" s="105"/>
-      <c r="AG18" s="105"/>
-      <c r="AH18" s="105"/>
-      <c r="AI18" s="106"/>
+      <c r="AB18" s="110"/>
+      <c r="AC18" s="111"/>
+      <c r="AD18" s="111"/>
+      <c r="AE18" s="111"/>
+      <c r="AF18" s="111"/>
+      <c r="AG18" s="111"/>
+      <c r="AH18" s="111"/>
+      <c r="AI18" s="112"/>
       <c r="AJ18" s="13"/>
       <c r="AK18" s="14"/>
       <c r="AL18" s="14"/>
@@ -6160,14 +6184,14 @@
       <c r="CC18" s="14"/>
       <c r="CD18" s="14"/>
       <c r="CE18" s="15"/>
-      <c r="CF18" s="104"/>
-      <c r="CG18" s="105"/>
-      <c r="CH18" s="105"/>
-      <c r="CI18" s="105"/>
-      <c r="CJ18" s="105"/>
-      <c r="CK18" s="105"/>
-      <c r="CL18" s="105"/>
-      <c r="CM18" s="106"/>
+      <c r="CF18" s="110"/>
+      <c r="CG18" s="111"/>
+      <c r="CH18" s="111"/>
+      <c r="CI18" s="111"/>
+      <c r="CJ18" s="111"/>
+      <c r="CK18" s="111"/>
+      <c r="CL18" s="111"/>
+      <c r="CM18" s="112"/>
       <c r="CN18" s="13"/>
       <c r="CO18" s="14"/>
       <c r="CP18" s="14"/>
@@ -6210,7 +6234,7 @@
       <c r="DO18" s="14"/>
       <c r="DP18" s="14"/>
       <c r="DQ18" s="14"/>
-      <c r="DR18" s="14"/>
+      <c r="DR18" s="32"/>
       <c r="DS18" s="15"/>
       <c r="DT18" s="13"/>
       <c r="DU18" s="14"/>
@@ -6236,14 +6260,14 @@
       <c r="EO18" s="14"/>
       <c r="EP18" s="14"/>
       <c r="EQ18" s="15"/>
-      <c r="ER18" s="104"/>
-      <c r="ES18" s="105"/>
-      <c r="ET18" s="105"/>
-      <c r="EU18" s="105"/>
-      <c r="EV18" s="105"/>
-      <c r="EW18" s="105"/>
-      <c r="EX18" s="105"/>
-      <c r="EY18" s="106"/>
+      <c r="ER18" s="110"/>
+      <c r="ES18" s="111"/>
+      <c r="ET18" s="111"/>
+      <c r="EU18" s="111"/>
+      <c r="EV18" s="111"/>
+      <c r="EW18" s="111"/>
+      <c r="EX18" s="111"/>
+      <c r="EY18" s="112"/>
       <c r="EZ18" s="13"/>
       <c r="FA18" s="14"/>
       <c r="FB18" s="14"/>
@@ -6293,9 +6317,9 @@
       <c r="GT18" s="14"/>
       <c r="GU18" s="14"/>
       <c r="GV18" s="14"/>
-      <c r="GW18" s="93"/>
+      <c r="GW18" s="132"/>
     </row>
-    <row r="19" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:205" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="76" t="s">
         <v>23</v>
       </c>
@@ -6327,14 +6351,14 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="15"/>
-      <c r="AB19" s="104"/>
-      <c r="AC19" s="105"/>
-      <c r="AD19" s="105"/>
-      <c r="AE19" s="105"/>
-      <c r="AF19" s="105"/>
-      <c r="AG19" s="105"/>
-      <c r="AH19" s="105"/>
-      <c r="AI19" s="106"/>
+      <c r="AB19" s="110"/>
+      <c r="AC19" s="111"/>
+      <c r="AD19" s="111"/>
+      <c r="AE19" s="111"/>
+      <c r="AF19" s="111"/>
+      <c r="AG19" s="111"/>
+      <c r="AH19" s="111"/>
+      <c r="AI19" s="112"/>
       <c r="AJ19" s="13"/>
       <c r="AK19" s="14"/>
       <c r="AL19" s="14"/>
@@ -6383,14 +6407,14 @@
       <c r="CC19" s="14"/>
       <c r="CD19" s="14"/>
       <c r="CE19" s="15"/>
-      <c r="CF19" s="104"/>
-      <c r="CG19" s="105"/>
-      <c r="CH19" s="105"/>
-      <c r="CI19" s="105"/>
-      <c r="CJ19" s="105"/>
-      <c r="CK19" s="105"/>
-      <c r="CL19" s="105"/>
-      <c r="CM19" s="106"/>
+      <c r="CF19" s="110"/>
+      <c r="CG19" s="111"/>
+      <c r="CH19" s="111"/>
+      <c r="CI19" s="111"/>
+      <c r="CJ19" s="111"/>
+      <c r="CK19" s="111"/>
+      <c r="CL19" s="111"/>
+      <c r="CM19" s="112"/>
       <c r="CN19" s="13"/>
       <c r="CO19" s="14"/>
       <c r="CP19" s="14"/>
@@ -6414,11 +6438,13 @@
       <c r="DH19" s="14"/>
       <c r="DI19" s="14"/>
       <c r="DJ19" s="14"/>
-      <c r="DK19" s="15"/>
+      <c r="DK19" s="65"/>
       <c r="DL19" s="30"/>
       <c r="DM19" s="31"/>
       <c r="DN19" s="31"/>
-      <c r="DO19" s="31"/>
+      <c r="DO19" s="90" t="s">
+        <v>28</v>
+      </c>
       <c r="DP19" s="14"/>
       <c r="DQ19" s="14"/>
       <c r="DR19" s="14"/>
@@ -6447,14 +6473,14 @@
       <c r="EO19" s="14"/>
       <c r="EP19" s="14"/>
       <c r="EQ19" s="15"/>
-      <c r="ER19" s="104"/>
-      <c r="ES19" s="105"/>
-      <c r="ET19" s="105"/>
-      <c r="EU19" s="105"/>
-      <c r="EV19" s="105"/>
-      <c r="EW19" s="105"/>
-      <c r="EX19" s="105"/>
-      <c r="EY19" s="106"/>
+      <c r="ER19" s="110"/>
+      <c r="ES19" s="111"/>
+      <c r="ET19" s="111"/>
+      <c r="EU19" s="111"/>
+      <c r="EV19" s="111"/>
+      <c r="EW19" s="111"/>
+      <c r="EX19" s="111"/>
+      <c r="EY19" s="112"/>
       <c r="EZ19" s="13"/>
       <c r="FA19" s="14"/>
       <c r="FB19" s="14"/>
@@ -6504,13 +6530,13 @@
       <c r="GT19" s="14"/>
       <c r="GU19" s="14"/>
       <c r="GV19" s="14"/>
-      <c r="GW19" s="93"/>
+      <c r="GW19" s="132"/>
     </row>
-    <row r="20" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="124" t="s">
+    <row r="20" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="125"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="61"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
@@ -6536,14 +6562,14 @@
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
       <c r="AA20" s="15"/>
-      <c r="AB20" s="104"/>
-      <c r="AC20" s="105"/>
-      <c r="AD20" s="105"/>
-      <c r="AE20" s="105"/>
-      <c r="AF20" s="105"/>
-      <c r="AG20" s="105"/>
-      <c r="AH20" s="105"/>
-      <c r="AI20" s="106"/>
+      <c r="AB20" s="110"/>
+      <c r="AC20" s="111"/>
+      <c r="AD20" s="111"/>
+      <c r="AE20" s="111"/>
+      <c r="AF20" s="111"/>
+      <c r="AG20" s="111"/>
+      <c r="AH20" s="111"/>
+      <c r="AI20" s="112"/>
       <c r="AJ20" s="13"/>
       <c r="AK20" s="14"/>
       <c r="AL20" s="14"/>
@@ -6592,14 +6618,14 @@
       <c r="CC20" s="14"/>
       <c r="CD20" s="14"/>
       <c r="CE20" s="15"/>
-      <c r="CF20" s="104"/>
-      <c r="CG20" s="105"/>
-      <c r="CH20" s="105"/>
-      <c r="CI20" s="105"/>
-      <c r="CJ20" s="105"/>
-      <c r="CK20" s="105"/>
-      <c r="CL20" s="105"/>
-      <c r="CM20" s="106"/>
+      <c r="CF20" s="110"/>
+      <c r="CG20" s="111"/>
+      <c r="CH20" s="111"/>
+      <c r="CI20" s="111"/>
+      <c r="CJ20" s="111"/>
+      <c r="CK20" s="111"/>
+      <c r="CL20" s="111"/>
+      <c r="CM20" s="112"/>
       <c r="CN20" s="13"/>
       <c r="CO20" s="14"/>
       <c r="CP20" s="14"/>
@@ -6656,14 +6682,14 @@
       <c r="EO20" s="14"/>
       <c r="EP20" s="14"/>
       <c r="EQ20" s="15"/>
-      <c r="ER20" s="104"/>
-      <c r="ES20" s="105"/>
-      <c r="ET20" s="105"/>
-      <c r="EU20" s="105"/>
-      <c r="EV20" s="105"/>
-      <c r="EW20" s="105"/>
-      <c r="EX20" s="105"/>
-      <c r="EY20" s="106"/>
+      <c r="ER20" s="110"/>
+      <c r="ES20" s="111"/>
+      <c r="ET20" s="111"/>
+      <c r="EU20" s="111"/>
+      <c r="EV20" s="111"/>
+      <c r="EW20" s="111"/>
+      <c r="EX20" s="111"/>
+      <c r="EY20" s="112"/>
       <c r="EZ20" s="13"/>
       <c r="FA20" s="14"/>
       <c r="FB20" s="14"/>
@@ -6713,9 +6739,9 @@
       <c r="GT20" s="14"/>
       <c r="GU20" s="14"/>
       <c r="GV20" s="14"/>
-      <c r="GW20" s="93"/>
+      <c r="GW20" s="132"/>
     </row>
-    <row r="21" spans="1:205" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:205" x14ac:dyDescent="0.15">
       <c r="A21" s="71" t="s">
         <v>29</v>
       </c>
@@ -6745,14 +6771,14 @@
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
       <c r="AA21" s="15"/>
-      <c r="AB21" s="104"/>
-      <c r="AC21" s="105"/>
-      <c r="AD21" s="105"/>
-      <c r="AE21" s="105"/>
-      <c r="AF21" s="105"/>
-      <c r="AG21" s="105"/>
-      <c r="AH21" s="105"/>
-      <c r="AI21" s="106"/>
+      <c r="AB21" s="110"/>
+      <c r="AC21" s="111"/>
+      <c r="AD21" s="111"/>
+      <c r="AE21" s="111"/>
+      <c r="AF21" s="111"/>
+      <c r="AG21" s="111"/>
+      <c r="AH21" s="111"/>
+      <c r="AI21" s="112"/>
       <c r="AJ21" s="13"/>
       <c r="AK21" s="14"/>
       <c r="AL21" s="14"/>
@@ -6801,14 +6827,14 @@
       <c r="CC21" s="14"/>
       <c r="CD21" s="14"/>
       <c r="CE21" s="15"/>
-      <c r="CF21" s="104"/>
-      <c r="CG21" s="105"/>
-      <c r="CH21" s="105"/>
-      <c r="CI21" s="105"/>
-      <c r="CJ21" s="105"/>
-      <c r="CK21" s="105"/>
-      <c r="CL21" s="105"/>
-      <c r="CM21" s="106"/>
+      <c r="CF21" s="110"/>
+      <c r="CG21" s="111"/>
+      <c r="CH21" s="111"/>
+      <c r="CI21" s="111"/>
+      <c r="CJ21" s="111"/>
+      <c r="CK21" s="111"/>
+      <c r="CL21" s="111"/>
+      <c r="CM21" s="112"/>
       <c r="CN21" s="13"/>
       <c r="CO21" s="14"/>
       <c r="CP21" s="14"/>
@@ -6837,11 +6863,11 @@
       <c r="DM21" s="14"/>
       <c r="DN21" s="14"/>
       <c r="DO21" s="14"/>
-      <c r="DP21" s="39"/>
-      <c r="DQ21" s="39"/>
+      <c r="DP21" s="91"/>
+      <c r="DQ21" s="91"/>
       <c r="DR21" s="39"/>
       <c r="DS21" s="40"/>
-      <c r="DT21" s="13"/>
+      <c r="DT21" s="64"/>
       <c r="DU21" s="14"/>
       <c r="DV21" s="14"/>
       <c r="DW21" s="14"/>
@@ -6865,14 +6891,14 @@
       <c r="EO21" s="14"/>
       <c r="EP21" s="14"/>
       <c r="EQ21" s="15"/>
-      <c r="ER21" s="104"/>
-      <c r="ES21" s="105"/>
-      <c r="ET21" s="105"/>
-      <c r="EU21" s="105"/>
-      <c r="EV21" s="105"/>
-      <c r="EW21" s="105"/>
-      <c r="EX21" s="105"/>
-      <c r="EY21" s="106"/>
+      <c r="ER21" s="110"/>
+      <c r="ES21" s="111"/>
+      <c r="ET21" s="111"/>
+      <c r="EU21" s="111"/>
+      <c r="EV21" s="111"/>
+      <c r="EW21" s="111"/>
+      <c r="EX21" s="111"/>
+      <c r="EY21" s="112"/>
       <c r="EZ21" s="13"/>
       <c r="FA21" s="14"/>
       <c r="FB21" s="14"/>
@@ -6922,9 +6948,9 @@
       <c r="GT21" s="14"/>
       <c r="GU21" s="14"/>
       <c r="GV21" s="14"/>
-      <c r="GW21" s="93"/>
+      <c r="GW21" s="132"/>
     </row>
-    <row r="22" spans="1:205" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:205" x14ac:dyDescent="0.15">
       <c r="A22" s="72" t="s">
         <v>30</v>
       </c>
@@ -6954,14 +6980,14 @@
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
       <c r="AA22" s="15"/>
-      <c r="AB22" s="104"/>
-      <c r="AC22" s="105"/>
-      <c r="AD22" s="105"/>
-      <c r="AE22" s="105"/>
-      <c r="AF22" s="105"/>
-      <c r="AG22" s="105"/>
-      <c r="AH22" s="105"/>
-      <c r="AI22" s="106"/>
+      <c r="AB22" s="110"/>
+      <c r="AC22" s="111"/>
+      <c r="AD22" s="111"/>
+      <c r="AE22" s="111"/>
+      <c r="AF22" s="111"/>
+      <c r="AG22" s="111"/>
+      <c r="AH22" s="111"/>
+      <c r="AI22" s="112"/>
       <c r="AJ22" s="13"/>
       <c r="AK22" s="14"/>
       <c r="AL22" s="14"/>
@@ -7010,14 +7036,14 @@
       <c r="CC22" s="14"/>
       <c r="CD22" s="14"/>
       <c r="CE22" s="15"/>
-      <c r="CF22" s="104"/>
-      <c r="CG22" s="105"/>
-      <c r="CH22" s="105"/>
-      <c r="CI22" s="105"/>
-      <c r="CJ22" s="105"/>
-      <c r="CK22" s="105"/>
-      <c r="CL22" s="105"/>
-      <c r="CM22" s="106"/>
+      <c r="CF22" s="110"/>
+      <c r="CG22" s="111"/>
+      <c r="CH22" s="111"/>
+      <c r="CI22" s="111"/>
+      <c r="CJ22" s="111"/>
+      <c r="CK22" s="111"/>
+      <c r="CL22" s="111"/>
+      <c r="CM22" s="112"/>
       <c r="CN22" s="13"/>
       <c r="CO22" s="14"/>
       <c r="CP22" s="14"/>
@@ -7051,8 +7077,8 @@
       <c r="DR22" s="14"/>
       <c r="DS22" s="15"/>
       <c r="DT22" s="41"/>
-      <c r="DU22" s="39"/>
-      <c r="DV22" s="39"/>
+      <c r="DU22" s="91"/>
+      <c r="DV22" s="91"/>
       <c r="DW22" s="39"/>
       <c r="DX22" s="14"/>
       <c r="DY22" s="14"/>
@@ -7074,14 +7100,14 @@
       <c r="EO22" s="14"/>
       <c r="EP22" s="14"/>
       <c r="EQ22" s="15"/>
-      <c r="ER22" s="104"/>
-      <c r="ES22" s="105"/>
-      <c r="ET22" s="105"/>
-      <c r="EU22" s="105"/>
-      <c r="EV22" s="105"/>
-      <c r="EW22" s="105"/>
-      <c r="EX22" s="105"/>
-      <c r="EY22" s="106"/>
+      <c r="ER22" s="110"/>
+      <c r="ES22" s="111"/>
+      <c r="ET22" s="111"/>
+      <c r="EU22" s="111"/>
+      <c r="EV22" s="111"/>
+      <c r="EW22" s="111"/>
+      <c r="EX22" s="111"/>
+      <c r="EY22" s="112"/>
       <c r="EZ22" s="13"/>
       <c r="FA22" s="14"/>
       <c r="FB22" s="14"/>
@@ -7131,9 +7157,9 @@
       <c r="GT22" s="14"/>
       <c r="GU22" s="14"/>
       <c r="GV22" s="14"/>
-      <c r="GW22" s="93"/>
+      <c r="GW22" s="132"/>
     </row>
-    <row r="23" spans="1:205" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:205" x14ac:dyDescent="0.15">
       <c r="A23" s="72" t="s">
         <v>38</v>
       </c>
@@ -7163,14 +7189,14 @@
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
       <c r="AA23" s="15"/>
-      <c r="AB23" s="104"/>
-      <c r="AC23" s="105"/>
-      <c r="AD23" s="105"/>
-      <c r="AE23" s="105"/>
-      <c r="AF23" s="105"/>
-      <c r="AG23" s="105"/>
-      <c r="AH23" s="105"/>
-      <c r="AI23" s="106"/>
+      <c r="AB23" s="110"/>
+      <c r="AC23" s="111"/>
+      <c r="AD23" s="111"/>
+      <c r="AE23" s="111"/>
+      <c r="AF23" s="111"/>
+      <c r="AG23" s="111"/>
+      <c r="AH23" s="111"/>
+      <c r="AI23" s="112"/>
       <c r="AJ23" s="13"/>
       <c r="AK23" s="14"/>
       <c r="AL23" s="14"/>
@@ -7219,14 +7245,14 @@
       <c r="CC23" s="14"/>
       <c r="CD23" s="14"/>
       <c r="CE23" s="15"/>
-      <c r="CF23" s="104"/>
-      <c r="CG23" s="105"/>
-      <c r="CH23" s="105"/>
-      <c r="CI23" s="105"/>
-      <c r="CJ23" s="105"/>
-      <c r="CK23" s="105"/>
-      <c r="CL23" s="105"/>
-      <c r="CM23" s="106"/>
+      <c r="CF23" s="110"/>
+      <c r="CG23" s="111"/>
+      <c r="CH23" s="111"/>
+      <c r="CI23" s="111"/>
+      <c r="CJ23" s="111"/>
+      <c r="CK23" s="111"/>
+      <c r="CL23" s="111"/>
+      <c r="CM23" s="112"/>
       <c r="CN23" s="13"/>
       <c r="CO23" s="14"/>
       <c r="CP23" s="14"/>
@@ -7283,14 +7309,14 @@
       <c r="EO23" s="14"/>
       <c r="EP23" s="14"/>
       <c r="EQ23" s="15"/>
-      <c r="ER23" s="104"/>
-      <c r="ES23" s="105"/>
-      <c r="ET23" s="105"/>
-      <c r="EU23" s="105"/>
-      <c r="EV23" s="105"/>
-      <c r="EW23" s="105"/>
-      <c r="EX23" s="105"/>
-      <c r="EY23" s="106"/>
+      <c r="ER23" s="110"/>
+      <c r="ES23" s="111"/>
+      <c r="ET23" s="111"/>
+      <c r="EU23" s="111"/>
+      <c r="EV23" s="111"/>
+      <c r="EW23" s="111"/>
+      <c r="EX23" s="111"/>
+      <c r="EY23" s="112"/>
       <c r="EZ23" s="13"/>
       <c r="FA23" s="14"/>
       <c r="FB23" s="14"/>
@@ -7340,9 +7366,9 @@
       <c r="GT23" s="14"/>
       <c r="GU23" s="14"/>
       <c r="GV23" s="14"/>
-      <c r="GW23" s="93"/>
+      <c r="GW23" s="132"/>
     </row>
-    <row r="24" spans="1:205" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:205" x14ac:dyDescent="0.15">
       <c r="A24" s="72" t="s">
         <v>39</v>
       </c>
@@ -7372,14 +7398,14 @@
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
       <c r="AA24" s="15"/>
-      <c r="AB24" s="104"/>
-      <c r="AC24" s="105"/>
-      <c r="AD24" s="105"/>
-      <c r="AE24" s="105"/>
-      <c r="AF24" s="105"/>
-      <c r="AG24" s="105"/>
-      <c r="AH24" s="105"/>
-      <c r="AI24" s="106"/>
+      <c r="AB24" s="110"/>
+      <c r="AC24" s="111"/>
+      <c r="AD24" s="111"/>
+      <c r="AE24" s="111"/>
+      <c r="AF24" s="111"/>
+      <c r="AG24" s="111"/>
+      <c r="AH24" s="111"/>
+      <c r="AI24" s="112"/>
       <c r="AJ24" s="13"/>
       <c r="AK24" s="14"/>
       <c r="AL24" s="14"/>
@@ -7428,14 +7454,14 @@
       <c r="CC24" s="14"/>
       <c r="CD24" s="14"/>
       <c r="CE24" s="15"/>
-      <c r="CF24" s="104"/>
-      <c r="CG24" s="105"/>
-      <c r="CH24" s="105"/>
-      <c r="CI24" s="105"/>
-      <c r="CJ24" s="105"/>
-      <c r="CK24" s="105"/>
-      <c r="CL24" s="105"/>
-      <c r="CM24" s="106"/>
+      <c r="CF24" s="110"/>
+      <c r="CG24" s="111"/>
+      <c r="CH24" s="111"/>
+      <c r="CI24" s="111"/>
+      <c r="CJ24" s="111"/>
+      <c r="CK24" s="111"/>
+      <c r="CL24" s="111"/>
+      <c r="CM24" s="112"/>
       <c r="CN24" s="13"/>
       <c r="CO24" s="14"/>
       <c r="CP24" s="14"/>
@@ -7492,14 +7518,14 @@
       <c r="EO24" s="14"/>
       <c r="EP24" s="14"/>
       <c r="EQ24" s="15"/>
-      <c r="ER24" s="104"/>
-      <c r="ES24" s="105"/>
-      <c r="ET24" s="105"/>
-      <c r="EU24" s="105"/>
-      <c r="EV24" s="105"/>
-      <c r="EW24" s="105"/>
-      <c r="EX24" s="105"/>
-      <c r="EY24" s="106"/>
+      <c r="ER24" s="110"/>
+      <c r="ES24" s="111"/>
+      <c r="ET24" s="111"/>
+      <c r="EU24" s="111"/>
+      <c r="EV24" s="111"/>
+      <c r="EW24" s="111"/>
+      <c r="EX24" s="111"/>
+      <c r="EY24" s="112"/>
       <c r="EZ24" s="13"/>
       <c r="FA24" s="14"/>
       <c r="FB24" s="14"/>
@@ -7549,9 +7575,9 @@
       <c r="GT24" s="14"/>
       <c r="GU24" s="14"/>
       <c r="GV24" s="14"/>
-      <c r="GW24" s="93"/>
+      <c r="GW24" s="132"/>
     </row>
-    <row r="25" spans="1:205" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:205" x14ac:dyDescent="0.15">
       <c r="A25" s="72" t="s">
         <v>47</v>
       </c>
@@ -7581,14 +7607,14 @@
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
       <c r="AA25" s="15"/>
-      <c r="AB25" s="104"/>
-      <c r="AC25" s="105"/>
-      <c r="AD25" s="105"/>
-      <c r="AE25" s="105"/>
-      <c r="AF25" s="105"/>
-      <c r="AG25" s="105"/>
-      <c r="AH25" s="105"/>
-      <c r="AI25" s="106"/>
+      <c r="AB25" s="110"/>
+      <c r="AC25" s="111"/>
+      <c r="AD25" s="111"/>
+      <c r="AE25" s="111"/>
+      <c r="AF25" s="111"/>
+      <c r="AG25" s="111"/>
+      <c r="AH25" s="111"/>
+      <c r="AI25" s="112"/>
       <c r="AJ25" s="13"/>
       <c r="AK25" s="14"/>
       <c r="AL25" s="14"/>
@@ -7637,14 +7663,14 @@
       <c r="CC25" s="14"/>
       <c r="CD25" s="14"/>
       <c r="CE25" s="15"/>
-      <c r="CF25" s="104"/>
-      <c r="CG25" s="105"/>
-      <c r="CH25" s="105"/>
-      <c r="CI25" s="105"/>
-      <c r="CJ25" s="105"/>
-      <c r="CK25" s="105"/>
-      <c r="CL25" s="105"/>
-      <c r="CM25" s="106"/>
+      <c r="CF25" s="110"/>
+      <c r="CG25" s="111"/>
+      <c r="CH25" s="111"/>
+      <c r="CI25" s="111"/>
+      <c r="CJ25" s="111"/>
+      <c r="CK25" s="111"/>
+      <c r="CL25" s="111"/>
+      <c r="CM25" s="112"/>
       <c r="CN25" s="13"/>
       <c r="CO25" s="14"/>
       <c r="CP25" s="14"/>
@@ -7701,14 +7727,14 @@
       <c r="EO25" s="14"/>
       <c r="EP25" s="14"/>
       <c r="EQ25" s="15"/>
-      <c r="ER25" s="104"/>
-      <c r="ES25" s="105"/>
-      <c r="ET25" s="105"/>
-      <c r="EU25" s="105"/>
-      <c r="EV25" s="105"/>
-      <c r="EW25" s="105"/>
-      <c r="EX25" s="105"/>
-      <c r="EY25" s="106"/>
+      <c r="ER25" s="110"/>
+      <c r="ES25" s="111"/>
+      <c r="ET25" s="111"/>
+      <c r="EU25" s="111"/>
+      <c r="EV25" s="111"/>
+      <c r="EW25" s="111"/>
+      <c r="EX25" s="111"/>
+      <c r="EY25" s="112"/>
       <c r="EZ25" s="13"/>
       <c r="FA25" s="14"/>
       <c r="FB25" s="14"/>
@@ -7758,9 +7784,9 @@
       <c r="GT25" s="14"/>
       <c r="GU25" s="14"/>
       <c r="GV25" s="14"/>
-      <c r="GW25" s="93"/>
+      <c r="GW25" s="132"/>
     </row>
-    <row r="26" spans="1:205" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:205" x14ac:dyDescent="0.15">
       <c r="A26" s="72" t="s">
         <v>48</v>
       </c>
@@ -7790,14 +7816,14 @@
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
       <c r="AA26" s="15"/>
-      <c r="AB26" s="104"/>
-      <c r="AC26" s="105"/>
-      <c r="AD26" s="105"/>
-      <c r="AE26" s="105"/>
-      <c r="AF26" s="105"/>
-      <c r="AG26" s="105"/>
-      <c r="AH26" s="105"/>
-      <c r="AI26" s="106"/>
+      <c r="AB26" s="110"/>
+      <c r="AC26" s="111"/>
+      <c r="AD26" s="111"/>
+      <c r="AE26" s="111"/>
+      <c r="AF26" s="111"/>
+      <c r="AG26" s="111"/>
+      <c r="AH26" s="111"/>
+      <c r="AI26" s="112"/>
       <c r="AJ26" s="13"/>
       <c r="AK26" s="14"/>
       <c r="AL26" s="14"/>
@@ -7846,14 +7872,14 @@
       <c r="CC26" s="14"/>
       <c r="CD26" s="14"/>
       <c r="CE26" s="15"/>
-      <c r="CF26" s="104"/>
-      <c r="CG26" s="105"/>
-      <c r="CH26" s="105"/>
-      <c r="CI26" s="105"/>
-      <c r="CJ26" s="105"/>
-      <c r="CK26" s="105"/>
-      <c r="CL26" s="105"/>
-      <c r="CM26" s="106"/>
+      <c r="CF26" s="110"/>
+      <c r="CG26" s="111"/>
+      <c r="CH26" s="111"/>
+      <c r="CI26" s="111"/>
+      <c r="CJ26" s="111"/>
+      <c r="CK26" s="111"/>
+      <c r="CL26" s="111"/>
+      <c r="CM26" s="112"/>
       <c r="CN26" s="13"/>
       <c r="CO26" s="14"/>
       <c r="CP26" s="14"/>
@@ -7910,14 +7936,14 @@
       <c r="EO26" s="57"/>
       <c r="EP26" s="57"/>
       <c r="EQ26" s="58"/>
-      <c r="ER26" s="104"/>
-      <c r="ES26" s="105"/>
-      <c r="ET26" s="105"/>
-      <c r="EU26" s="105"/>
-      <c r="EV26" s="105"/>
-      <c r="EW26" s="105"/>
-      <c r="EX26" s="105"/>
-      <c r="EY26" s="106"/>
+      <c r="ER26" s="110"/>
+      <c r="ES26" s="111"/>
+      <c r="ET26" s="111"/>
+      <c r="EU26" s="111"/>
+      <c r="EV26" s="111"/>
+      <c r="EW26" s="111"/>
+      <c r="EX26" s="111"/>
+      <c r="EY26" s="112"/>
       <c r="EZ26" s="13"/>
       <c r="FA26" s="14"/>
       <c r="FB26" s="14"/>
@@ -7967,9 +7993,9 @@
       <c r="GT26" s="14"/>
       <c r="GU26" s="14"/>
       <c r="GV26" s="14"/>
-      <c r="GW26" s="93"/>
+      <c r="GW26" s="132"/>
     </row>
-    <row r="27" spans="1:205" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:205" x14ac:dyDescent="0.15">
       <c r="A27" s="72" t="s">
         <v>40</v>
       </c>
@@ -7999,14 +8025,14 @@
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
       <c r="AA27" s="15"/>
-      <c r="AB27" s="104"/>
-      <c r="AC27" s="105"/>
-      <c r="AD27" s="105"/>
-      <c r="AE27" s="105"/>
-      <c r="AF27" s="105"/>
-      <c r="AG27" s="105"/>
-      <c r="AH27" s="105"/>
-      <c r="AI27" s="106"/>
+      <c r="AB27" s="110"/>
+      <c r="AC27" s="111"/>
+      <c r="AD27" s="111"/>
+      <c r="AE27" s="111"/>
+      <c r="AF27" s="111"/>
+      <c r="AG27" s="111"/>
+      <c r="AH27" s="111"/>
+      <c r="AI27" s="112"/>
       <c r="AJ27" s="13"/>
       <c r="AK27" s="14"/>
       <c r="AL27" s="14"/>
@@ -8055,14 +8081,14 @@
       <c r="CC27" s="14"/>
       <c r="CD27" s="14"/>
       <c r="CE27" s="15"/>
-      <c r="CF27" s="104"/>
-      <c r="CG27" s="105"/>
-      <c r="CH27" s="105"/>
-      <c r="CI27" s="105"/>
-      <c r="CJ27" s="105"/>
-      <c r="CK27" s="105"/>
-      <c r="CL27" s="105"/>
-      <c r="CM27" s="106"/>
+      <c r="CF27" s="110"/>
+      <c r="CG27" s="111"/>
+      <c r="CH27" s="111"/>
+      <c r="CI27" s="111"/>
+      <c r="CJ27" s="111"/>
+      <c r="CK27" s="111"/>
+      <c r="CL27" s="111"/>
+      <c r="CM27" s="112"/>
       <c r="CN27" s="13"/>
       <c r="CO27" s="14"/>
       <c r="CP27" s="14"/>
@@ -8119,14 +8145,14 @@
       <c r="EO27" s="39"/>
       <c r="EP27" s="39"/>
       <c r="EQ27" s="40"/>
-      <c r="ER27" s="104"/>
-      <c r="ES27" s="105"/>
-      <c r="ET27" s="105"/>
-      <c r="EU27" s="105"/>
-      <c r="EV27" s="105"/>
-      <c r="EW27" s="105"/>
-      <c r="EX27" s="105"/>
-      <c r="EY27" s="106"/>
+      <c r="ER27" s="110"/>
+      <c r="ES27" s="111"/>
+      <c r="ET27" s="111"/>
+      <c r="EU27" s="111"/>
+      <c r="EV27" s="111"/>
+      <c r="EW27" s="111"/>
+      <c r="EX27" s="111"/>
+      <c r="EY27" s="112"/>
       <c r="EZ27" s="13"/>
       <c r="FA27" s="14"/>
       <c r="FB27" s="14"/>
@@ -8176,9 +8202,9 @@
       <c r="GT27" s="14"/>
       <c r="GU27" s="14"/>
       <c r="GV27" s="14"/>
-      <c r="GW27" s="93"/>
+      <c r="GW27" s="132"/>
     </row>
-    <row r="28" spans="1:205" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:205" x14ac:dyDescent="0.15">
       <c r="A28" s="72" t="s">
         <v>42</v>
       </c>
@@ -8208,14 +8234,14 @@
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
       <c r="AA28" s="15"/>
-      <c r="AB28" s="104"/>
-      <c r="AC28" s="105"/>
-      <c r="AD28" s="105"/>
-      <c r="AE28" s="105"/>
-      <c r="AF28" s="105"/>
-      <c r="AG28" s="105"/>
-      <c r="AH28" s="105"/>
-      <c r="AI28" s="106"/>
+      <c r="AB28" s="110"/>
+      <c r="AC28" s="111"/>
+      <c r="AD28" s="111"/>
+      <c r="AE28" s="111"/>
+      <c r="AF28" s="111"/>
+      <c r="AG28" s="111"/>
+      <c r="AH28" s="111"/>
+      <c r="AI28" s="112"/>
       <c r="AJ28" s="13"/>
       <c r="AK28" s="14"/>
       <c r="AL28" s="14"/>
@@ -8264,14 +8290,14 @@
       <c r="CC28" s="14"/>
       <c r="CD28" s="14"/>
       <c r="CE28" s="15"/>
-      <c r="CF28" s="104"/>
-      <c r="CG28" s="105"/>
-      <c r="CH28" s="105"/>
-      <c r="CI28" s="105"/>
-      <c r="CJ28" s="105"/>
-      <c r="CK28" s="105"/>
-      <c r="CL28" s="105"/>
-      <c r="CM28" s="106"/>
+      <c r="CF28" s="110"/>
+      <c r="CG28" s="111"/>
+      <c r="CH28" s="111"/>
+      <c r="CI28" s="111"/>
+      <c r="CJ28" s="111"/>
+      <c r="CK28" s="111"/>
+      <c r="CL28" s="111"/>
+      <c r="CM28" s="112"/>
       <c r="CN28" s="13"/>
       <c r="CO28" s="14"/>
       <c r="CP28" s="14"/>
@@ -8328,14 +8354,14 @@
       <c r="EO28" s="14"/>
       <c r="EP28" s="14"/>
       <c r="EQ28" s="15"/>
-      <c r="ER28" s="104"/>
-      <c r="ES28" s="105"/>
-      <c r="ET28" s="105"/>
-      <c r="EU28" s="105"/>
-      <c r="EV28" s="105"/>
-      <c r="EW28" s="105"/>
-      <c r="EX28" s="105"/>
-      <c r="EY28" s="106"/>
+      <c r="ER28" s="110"/>
+      <c r="ES28" s="111"/>
+      <c r="ET28" s="111"/>
+      <c r="EU28" s="111"/>
+      <c r="EV28" s="111"/>
+      <c r="EW28" s="111"/>
+      <c r="EX28" s="111"/>
+      <c r="EY28" s="112"/>
       <c r="EZ28" s="41"/>
       <c r="FA28" s="39"/>
       <c r="FB28" s="39"/>
@@ -8385,9 +8411,9 @@
       <c r="GT28" s="14"/>
       <c r="GU28" s="14"/>
       <c r="GV28" s="14"/>
-      <c r="GW28" s="93"/>
+      <c r="GW28" s="132"/>
     </row>
-    <row r="29" spans="1:205" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:205" x14ac:dyDescent="0.15">
       <c r="A29" s="72" t="s">
         <v>49</v>
       </c>
@@ -8417,14 +8443,14 @@
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
       <c r="AA29" s="15"/>
-      <c r="AB29" s="104"/>
-      <c r="AC29" s="105"/>
-      <c r="AD29" s="105"/>
-      <c r="AE29" s="105"/>
-      <c r="AF29" s="105"/>
-      <c r="AG29" s="105"/>
-      <c r="AH29" s="105"/>
-      <c r="AI29" s="106"/>
+      <c r="AB29" s="110"/>
+      <c r="AC29" s="111"/>
+      <c r="AD29" s="111"/>
+      <c r="AE29" s="111"/>
+      <c r="AF29" s="111"/>
+      <c r="AG29" s="111"/>
+      <c r="AH29" s="111"/>
+      <c r="AI29" s="112"/>
       <c r="AJ29" s="13"/>
       <c r="AK29" s="14"/>
       <c r="AL29" s="14"/>
@@ -8473,14 +8499,14 @@
       <c r="CC29" s="14"/>
       <c r="CD29" s="14"/>
       <c r="CE29" s="15"/>
-      <c r="CF29" s="104"/>
-      <c r="CG29" s="105"/>
-      <c r="CH29" s="105"/>
-      <c r="CI29" s="105"/>
-      <c r="CJ29" s="105"/>
-      <c r="CK29" s="105"/>
-      <c r="CL29" s="105"/>
-      <c r="CM29" s="106"/>
+      <c r="CF29" s="110"/>
+      <c r="CG29" s="111"/>
+      <c r="CH29" s="111"/>
+      <c r="CI29" s="111"/>
+      <c r="CJ29" s="111"/>
+      <c r="CK29" s="111"/>
+      <c r="CL29" s="111"/>
+      <c r="CM29" s="112"/>
       <c r="CN29" s="13"/>
       <c r="CO29" s="14"/>
       <c r="CP29" s="14"/>
@@ -8537,14 +8563,14 @@
       <c r="EO29" s="14"/>
       <c r="EP29" s="14"/>
       <c r="EQ29" s="15"/>
-      <c r="ER29" s="104"/>
-      <c r="ES29" s="105"/>
-      <c r="ET29" s="105"/>
-      <c r="EU29" s="105"/>
-      <c r="EV29" s="105"/>
-      <c r="EW29" s="105"/>
-      <c r="EX29" s="105"/>
-      <c r="EY29" s="106"/>
+      <c r="ER29" s="110"/>
+      <c r="ES29" s="111"/>
+      <c r="ET29" s="111"/>
+      <c r="EU29" s="111"/>
+      <c r="EV29" s="111"/>
+      <c r="EW29" s="111"/>
+      <c r="EX29" s="111"/>
+      <c r="EY29" s="112"/>
       <c r="EZ29" s="13"/>
       <c r="FA29" s="14"/>
       <c r="FB29" s="14"/>
@@ -8594,9 +8620,9 @@
       <c r="GT29" s="14"/>
       <c r="GU29" s="14"/>
       <c r="GV29" s="14"/>
-      <c r="GW29" s="93"/>
+      <c r="GW29" s="132"/>
     </row>
-    <row r="30" spans="1:205" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:205" x14ac:dyDescent="0.15">
       <c r="A30" s="72" t="s">
         <v>50</v>
       </c>
@@ -8626,14 +8652,14 @@
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
       <c r="AA30" s="15"/>
-      <c r="AB30" s="104"/>
-      <c r="AC30" s="105"/>
-      <c r="AD30" s="105"/>
-      <c r="AE30" s="105"/>
-      <c r="AF30" s="105"/>
-      <c r="AG30" s="105"/>
-      <c r="AH30" s="105"/>
-      <c r="AI30" s="106"/>
+      <c r="AB30" s="110"/>
+      <c r="AC30" s="111"/>
+      <c r="AD30" s="111"/>
+      <c r="AE30" s="111"/>
+      <c r="AF30" s="111"/>
+      <c r="AG30" s="111"/>
+      <c r="AH30" s="111"/>
+      <c r="AI30" s="112"/>
       <c r="AJ30" s="13"/>
       <c r="AK30" s="14"/>
       <c r="AL30" s="14"/>
@@ -8682,14 +8708,14 @@
       <c r="CC30" s="14"/>
       <c r="CD30" s="14"/>
       <c r="CE30" s="15"/>
-      <c r="CF30" s="104"/>
-      <c r="CG30" s="105"/>
-      <c r="CH30" s="105"/>
-      <c r="CI30" s="105"/>
-      <c r="CJ30" s="105"/>
-      <c r="CK30" s="105"/>
-      <c r="CL30" s="105"/>
-      <c r="CM30" s="106"/>
+      <c r="CF30" s="110"/>
+      <c r="CG30" s="111"/>
+      <c r="CH30" s="111"/>
+      <c r="CI30" s="111"/>
+      <c r="CJ30" s="111"/>
+      <c r="CK30" s="111"/>
+      <c r="CL30" s="111"/>
+      <c r="CM30" s="112"/>
       <c r="CN30" s="13"/>
       <c r="CO30" s="14"/>
       <c r="CP30" s="14"/>
@@ -8746,14 +8772,14 @@
       <c r="EO30" s="14"/>
       <c r="EP30" s="14"/>
       <c r="EQ30" s="15"/>
-      <c r="ER30" s="104"/>
-      <c r="ES30" s="105"/>
-      <c r="ET30" s="105"/>
-      <c r="EU30" s="105"/>
-      <c r="EV30" s="105"/>
-      <c r="EW30" s="105"/>
-      <c r="EX30" s="105"/>
-      <c r="EY30" s="106"/>
+      <c r="ER30" s="110"/>
+      <c r="ES30" s="111"/>
+      <c r="ET30" s="111"/>
+      <c r="EU30" s="111"/>
+      <c r="EV30" s="111"/>
+      <c r="EW30" s="111"/>
+      <c r="EX30" s="111"/>
+      <c r="EY30" s="112"/>
       <c r="EZ30" s="13"/>
       <c r="FA30" s="14"/>
       <c r="FB30" s="14"/>
@@ -8803,9 +8829,9 @@
       <c r="GT30" s="14"/>
       <c r="GU30" s="14"/>
       <c r="GV30" s="14"/>
-      <c r="GW30" s="93"/>
+      <c r="GW30" s="132"/>
     </row>
-    <row r="31" spans="1:205" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:205" x14ac:dyDescent="0.15">
       <c r="A31" s="72" t="s">
         <v>41</v>
       </c>
@@ -8835,14 +8861,14 @@
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="15"/>
-      <c r="AB31" s="104"/>
-      <c r="AC31" s="105"/>
-      <c r="AD31" s="105"/>
-      <c r="AE31" s="105"/>
-      <c r="AF31" s="105"/>
-      <c r="AG31" s="105"/>
-      <c r="AH31" s="105"/>
-      <c r="AI31" s="106"/>
+      <c r="AB31" s="110"/>
+      <c r="AC31" s="111"/>
+      <c r="AD31" s="111"/>
+      <c r="AE31" s="111"/>
+      <c r="AF31" s="111"/>
+      <c r="AG31" s="111"/>
+      <c r="AH31" s="111"/>
+      <c r="AI31" s="112"/>
       <c r="AJ31" s="13"/>
       <c r="AK31" s="14"/>
       <c r="AL31" s="14"/>
@@ -8891,14 +8917,14 @@
       <c r="CC31" s="14"/>
       <c r="CD31" s="14"/>
       <c r="CE31" s="15"/>
-      <c r="CF31" s="104"/>
-      <c r="CG31" s="105"/>
-      <c r="CH31" s="105"/>
-      <c r="CI31" s="105"/>
-      <c r="CJ31" s="105"/>
-      <c r="CK31" s="105"/>
-      <c r="CL31" s="105"/>
-      <c r="CM31" s="106"/>
+      <c r="CF31" s="110"/>
+      <c r="CG31" s="111"/>
+      <c r="CH31" s="111"/>
+      <c r="CI31" s="111"/>
+      <c r="CJ31" s="111"/>
+      <c r="CK31" s="111"/>
+      <c r="CL31" s="111"/>
+      <c r="CM31" s="112"/>
       <c r="CN31" s="13"/>
       <c r="CO31" s="14"/>
       <c r="CP31" s="14"/>
@@ -8955,14 +8981,14 @@
       <c r="EO31" s="14"/>
       <c r="EP31" s="14"/>
       <c r="EQ31" s="15"/>
-      <c r="ER31" s="104"/>
-      <c r="ES31" s="105"/>
-      <c r="ET31" s="105"/>
-      <c r="EU31" s="105"/>
-      <c r="EV31" s="105"/>
-      <c r="EW31" s="105"/>
-      <c r="EX31" s="105"/>
-      <c r="EY31" s="106"/>
+      <c r="ER31" s="110"/>
+      <c r="ES31" s="111"/>
+      <c r="ET31" s="111"/>
+      <c r="EU31" s="111"/>
+      <c r="EV31" s="111"/>
+      <c r="EW31" s="111"/>
+      <c r="EX31" s="111"/>
+      <c r="EY31" s="112"/>
       <c r="EZ31" s="13"/>
       <c r="FA31" s="14"/>
       <c r="FB31" s="14"/>
@@ -9012,9 +9038,9 @@
       <c r="GT31" s="14"/>
       <c r="GU31" s="14"/>
       <c r="GV31" s="14"/>
-      <c r="GW31" s="93"/>
+      <c r="GW31" s="132"/>
     </row>
-    <row r="32" spans="1:205" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:205" x14ac:dyDescent="0.15">
       <c r="A32" s="72" t="s">
         <v>46</v>
       </c>
@@ -9044,14 +9070,14 @@
       <c r="Y32" s="14"/>
       <c r="Z32" s="14"/>
       <c r="AA32" s="15"/>
-      <c r="AB32" s="104"/>
-      <c r="AC32" s="105"/>
-      <c r="AD32" s="105"/>
-      <c r="AE32" s="105"/>
-      <c r="AF32" s="105"/>
-      <c r="AG32" s="105"/>
-      <c r="AH32" s="105"/>
-      <c r="AI32" s="106"/>
+      <c r="AB32" s="110"/>
+      <c r="AC32" s="111"/>
+      <c r="AD32" s="111"/>
+      <c r="AE32" s="111"/>
+      <c r="AF32" s="111"/>
+      <c r="AG32" s="111"/>
+      <c r="AH32" s="111"/>
+      <c r="AI32" s="112"/>
       <c r="AJ32" s="13"/>
       <c r="AK32" s="14"/>
       <c r="AL32" s="14"/>
@@ -9100,14 +9126,14 @@
       <c r="CC32" s="14"/>
       <c r="CD32" s="14"/>
       <c r="CE32" s="15"/>
-      <c r="CF32" s="104"/>
-      <c r="CG32" s="105"/>
-      <c r="CH32" s="105"/>
-      <c r="CI32" s="105"/>
-      <c r="CJ32" s="105"/>
-      <c r="CK32" s="105"/>
-      <c r="CL32" s="105"/>
-      <c r="CM32" s="106"/>
+      <c r="CF32" s="110"/>
+      <c r="CG32" s="111"/>
+      <c r="CH32" s="111"/>
+      <c r="CI32" s="111"/>
+      <c r="CJ32" s="111"/>
+      <c r="CK32" s="111"/>
+      <c r="CL32" s="111"/>
+      <c r="CM32" s="112"/>
       <c r="CN32" s="13"/>
       <c r="CO32" s="14"/>
       <c r="CP32" s="14"/>
@@ -9164,14 +9190,14 @@
       <c r="EO32" s="14"/>
       <c r="EP32" s="14"/>
       <c r="EQ32" s="15"/>
-      <c r="ER32" s="104"/>
-      <c r="ES32" s="105"/>
-      <c r="ET32" s="105"/>
-      <c r="EU32" s="105"/>
-      <c r="EV32" s="105"/>
-      <c r="EW32" s="105"/>
-      <c r="EX32" s="105"/>
-      <c r="EY32" s="106"/>
+      <c r="ER32" s="110"/>
+      <c r="ES32" s="111"/>
+      <c r="ET32" s="111"/>
+      <c r="EU32" s="111"/>
+      <c r="EV32" s="111"/>
+      <c r="EW32" s="111"/>
+      <c r="EX32" s="111"/>
+      <c r="EY32" s="112"/>
       <c r="EZ32" s="13"/>
       <c r="FA32" s="14"/>
       <c r="FB32" s="14"/>
@@ -9221,9 +9247,9 @@
       <c r="GT32" s="14"/>
       <c r="GU32" s="14"/>
       <c r="GV32" s="14"/>
-      <c r="GW32" s="93"/>
+      <c r="GW32" s="132"/>
     </row>
-    <row r="33" spans="1:205" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:205" x14ac:dyDescent="0.15">
       <c r="A33" s="72" t="s">
         <v>43</v>
       </c>
@@ -9253,14 +9279,14 @@
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
       <c r="AA33" s="15"/>
-      <c r="AB33" s="104"/>
-      <c r="AC33" s="105"/>
-      <c r="AD33" s="105"/>
-      <c r="AE33" s="105"/>
-      <c r="AF33" s="105"/>
-      <c r="AG33" s="105"/>
-      <c r="AH33" s="105"/>
-      <c r="AI33" s="106"/>
+      <c r="AB33" s="110"/>
+      <c r="AC33" s="111"/>
+      <c r="AD33" s="111"/>
+      <c r="AE33" s="111"/>
+      <c r="AF33" s="111"/>
+      <c r="AG33" s="111"/>
+      <c r="AH33" s="111"/>
+      <c r="AI33" s="112"/>
       <c r="AJ33" s="13"/>
       <c r="AK33" s="14"/>
       <c r="AL33" s="14"/>
@@ -9309,14 +9335,14 @@
       <c r="CC33" s="14"/>
       <c r="CD33" s="14"/>
       <c r="CE33" s="15"/>
-      <c r="CF33" s="104"/>
-      <c r="CG33" s="105"/>
-      <c r="CH33" s="105"/>
-      <c r="CI33" s="105"/>
-      <c r="CJ33" s="105"/>
-      <c r="CK33" s="105"/>
-      <c r="CL33" s="105"/>
-      <c r="CM33" s="106"/>
+      <c r="CF33" s="110"/>
+      <c r="CG33" s="111"/>
+      <c r="CH33" s="111"/>
+      <c r="CI33" s="111"/>
+      <c r="CJ33" s="111"/>
+      <c r="CK33" s="111"/>
+      <c r="CL33" s="111"/>
+      <c r="CM33" s="112"/>
       <c r="CN33" s="13"/>
       <c r="CO33" s="14"/>
       <c r="CP33" s="14"/>
@@ -9373,14 +9399,14 @@
       <c r="EO33" s="14"/>
       <c r="EP33" s="14"/>
       <c r="EQ33" s="15"/>
-      <c r="ER33" s="104"/>
-      <c r="ES33" s="105"/>
-      <c r="ET33" s="105"/>
-      <c r="EU33" s="105"/>
-      <c r="EV33" s="105"/>
-      <c r="EW33" s="105"/>
-      <c r="EX33" s="105"/>
-      <c r="EY33" s="106"/>
+      <c r="ER33" s="110"/>
+      <c r="ES33" s="111"/>
+      <c r="ET33" s="111"/>
+      <c r="EU33" s="111"/>
+      <c r="EV33" s="111"/>
+      <c r="EW33" s="111"/>
+      <c r="EX33" s="111"/>
+      <c r="EY33" s="112"/>
       <c r="EZ33" s="13"/>
       <c r="FA33" s="14"/>
       <c r="FB33" s="14"/>
@@ -9430,9 +9456,9 @@
       <c r="GT33" s="14"/>
       <c r="GU33" s="14"/>
       <c r="GV33" s="14"/>
-      <c r="GW33" s="93"/>
+      <c r="GW33" s="132"/>
     </row>
-    <row r="34" spans="1:205" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:205" x14ac:dyDescent="0.15">
       <c r="A34" s="72" t="s">
         <v>45</v>
       </c>
@@ -9462,14 +9488,14 @@
       <c r="Y34" s="14"/>
       <c r="Z34" s="14"/>
       <c r="AA34" s="15"/>
-      <c r="AB34" s="104"/>
-      <c r="AC34" s="105"/>
-      <c r="AD34" s="105"/>
-      <c r="AE34" s="105"/>
-      <c r="AF34" s="105"/>
-      <c r="AG34" s="105"/>
-      <c r="AH34" s="105"/>
-      <c r="AI34" s="106"/>
+      <c r="AB34" s="110"/>
+      <c r="AC34" s="111"/>
+      <c r="AD34" s="111"/>
+      <c r="AE34" s="111"/>
+      <c r="AF34" s="111"/>
+      <c r="AG34" s="111"/>
+      <c r="AH34" s="111"/>
+      <c r="AI34" s="112"/>
       <c r="AJ34" s="13"/>
       <c r="AK34" s="14"/>
       <c r="AL34" s="14"/>
@@ -9518,14 +9544,14 @@
       <c r="CC34" s="14"/>
       <c r="CD34" s="14"/>
       <c r="CE34" s="15"/>
-      <c r="CF34" s="104"/>
-      <c r="CG34" s="105"/>
-      <c r="CH34" s="105"/>
-      <c r="CI34" s="105"/>
-      <c r="CJ34" s="105"/>
-      <c r="CK34" s="105"/>
-      <c r="CL34" s="105"/>
-      <c r="CM34" s="106"/>
+      <c r="CF34" s="110"/>
+      <c r="CG34" s="111"/>
+      <c r="CH34" s="111"/>
+      <c r="CI34" s="111"/>
+      <c r="CJ34" s="111"/>
+      <c r="CK34" s="111"/>
+      <c r="CL34" s="111"/>
+      <c r="CM34" s="112"/>
       <c r="CN34" s="13"/>
       <c r="CO34" s="14"/>
       <c r="CP34" s="14"/>
@@ -9582,14 +9608,14 @@
       <c r="EO34" s="14"/>
       <c r="EP34" s="14"/>
       <c r="EQ34" s="15"/>
-      <c r="ER34" s="104"/>
-      <c r="ES34" s="105"/>
-      <c r="ET34" s="105"/>
-      <c r="EU34" s="105"/>
-      <c r="EV34" s="105"/>
-      <c r="EW34" s="105"/>
-      <c r="EX34" s="105"/>
-      <c r="EY34" s="106"/>
+      <c r="ER34" s="110"/>
+      <c r="ES34" s="111"/>
+      <c r="ET34" s="111"/>
+      <c r="EU34" s="111"/>
+      <c r="EV34" s="111"/>
+      <c r="EW34" s="111"/>
+      <c r="EX34" s="111"/>
+      <c r="EY34" s="112"/>
       <c r="EZ34" s="13"/>
       <c r="FA34" s="14"/>
       <c r="FB34" s="14"/>
@@ -9639,9 +9665,9 @@
       <c r="GT34" s="14"/>
       <c r="GU34" s="14"/>
       <c r="GV34" s="14"/>
-      <c r="GW34" s="93"/>
+      <c r="GW34" s="132"/>
     </row>
-    <row r="35" spans="1:205" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:205" x14ac:dyDescent="0.15">
       <c r="A35" s="72" t="s">
         <v>44</v>
       </c>
@@ -9671,14 +9697,14 @@
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
       <c r="AA35" s="15"/>
-      <c r="AB35" s="104"/>
-      <c r="AC35" s="105"/>
-      <c r="AD35" s="105"/>
-      <c r="AE35" s="105"/>
-      <c r="AF35" s="105"/>
-      <c r="AG35" s="105"/>
-      <c r="AH35" s="105"/>
-      <c r="AI35" s="106"/>
+      <c r="AB35" s="110"/>
+      <c r="AC35" s="111"/>
+      <c r="AD35" s="111"/>
+      <c r="AE35" s="111"/>
+      <c r="AF35" s="111"/>
+      <c r="AG35" s="111"/>
+      <c r="AH35" s="111"/>
+      <c r="AI35" s="112"/>
       <c r="AJ35" s="13"/>
       <c r="AK35" s="14"/>
       <c r="AL35" s="14"/>
@@ -9727,14 +9753,14 @@
       <c r="CC35" s="14"/>
       <c r="CD35" s="14"/>
       <c r="CE35" s="15"/>
-      <c r="CF35" s="104"/>
-      <c r="CG35" s="105"/>
-      <c r="CH35" s="105"/>
-      <c r="CI35" s="105"/>
-      <c r="CJ35" s="105"/>
-      <c r="CK35" s="105"/>
-      <c r="CL35" s="105"/>
-      <c r="CM35" s="106"/>
+      <c r="CF35" s="110"/>
+      <c r="CG35" s="111"/>
+      <c r="CH35" s="111"/>
+      <c r="CI35" s="111"/>
+      <c r="CJ35" s="111"/>
+      <c r="CK35" s="111"/>
+      <c r="CL35" s="111"/>
+      <c r="CM35" s="112"/>
       <c r="CN35" s="13"/>
       <c r="CO35" s="14"/>
       <c r="CP35" s="14"/>
@@ -9791,14 +9817,14 @@
       <c r="EO35" s="14"/>
       <c r="EP35" s="14"/>
       <c r="EQ35" s="15"/>
-      <c r="ER35" s="104"/>
-      <c r="ES35" s="105"/>
-      <c r="ET35" s="105"/>
-      <c r="EU35" s="105"/>
-      <c r="EV35" s="105"/>
-      <c r="EW35" s="105"/>
-      <c r="EX35" s="105"/>
-      <c r="EY35" s="106"/>
+      <c r="ER35" s="110"/>
+      <c r="ES35" s="111"/>
+      <c r="ET35" s="111"/>
+      <c r="EU35" s="111"/>
+      <c r="EV35" s="111"/>
+      <c r="EW35" s="111"/>
+      <c r="EX35" s="111"/>
+      <c r="EY35" s="112"/>
       <c r="EZ35" s="13"/>
       <c r="FA35" s="14"/>
       <c r="FB35" s="14"/>
@@ -9848,9 +9874,9 @@
       <c r="GT35" s="14"/>
       <c r="GU35" s="14"/>
       <c r="GV35" s="14"/>
-      <c r="GW35" s="93"/>
+      <c r="GW35" s="132"/>
     </row>
-    <row r="36" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:205" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="73" t="s">
         <v>51</v>
       </c>
@@ -9880,14 +9906,14 @@
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
       <c r="AA36" s="15"/>
-      <c r="AB36" s="104"/>
-      <c r="AC36" s="105"/>
-      <c r="AD36" s="105"/>
-      <c r="AE36" s="105"/>
-      <c r="AF36" s="105"/>
-      <c r="AG36" s="105"/>
-      <c r="AH36" s="105"/>
-      <c r="AI36" s="106"/>
+      <c r="AB36" s="110"/>
+      <c r="AC36" s="111"/>
+      <c r="AD36" s="111"/>
+      <c r="AE36" s="111"/>
+      <c r="AF36" s="111"/>
+      <c r="AG36" s="111"/>
+      <c r="AH36" s="111"/>
+      <c r="AI36" s="112"/>
       <c r="AJ36" s="13"/>
       <c r="AK36" s="14"/>
       <c r="AL36" s="14"/>
@@ -9936,14 +9962,14 @@
       <c r="CC36" s="14"/>
       <c r="CD36" s="14"/>
       <c r="CE36" s="15"/>
-      <c r="CF36" s="104"/>
-      <c r="CG36" s="105"/>
-      <c r="CH36" s="105"/>
-      <c r="CI36" s="105"/>
-      <c r="CJ36" s="105"/>
-      <c r="CK36" s="105"/>
-      <c r="CL36" s="105"/>
-      <c r="CM36" s="106"/>
+      <c r="CF36" s="110"/>
+      <c r="CG36" s="111"/>
+      <c r="CH36" s="111"/>
+      <c r="CI36" s="111"/>
+      <c r="CJ36" s="111"/>
+      <c r="CK36" s="111"/>
+      <c r="CL36" s="111"/>
+      <c r="CM36" s="112"/>
       <c r="CN36" s="13"/>
       <c r="CO36" s="14"/>
       <c r="CP36" s="14"/>
@@ -10000,14 +10026,14 @@
       <c r="EO36" s="14"/>
       <c r="EP36" s="14"/>
       <c r="EQ36" s="15"/>
-      <c r="ER36" s="104"/>
-      <c r="ES36" s="105"/>
-      <c r="ET36" s="105"/>
-      <c r="EU36" s="105"/>
-      <c r="EV36" s="105"/>
-      <c r="EW36" s="105"/>
-      <c r="EX36" s="105"/>
-      <c r="EY36" s="106"/>
+      <c r="ER36" s="110"/>
+      <c r="ES36" s="111"/>
+      <c r="ET36" s="111"/>
+      <c r="EU36" s="111"/>
+      <c r="EV36" s="111"/>
+      <c r="EW36" s="111"/>
+      <c r="EX36" s="111"/>
+      <c r="EY36" s="112"/>
       <c r="EZ36" s="13"/>
       <c r="FA36" s="14"/>
       <c r="FB36" s="14"/>
@@ -10057,13 +10083,13 @@
       <c r="GT36" s="14"/>
       <c r="GU36" s="14"/>
       <c r="GV36" s="14"/>
-      <c r="GW36" s="93"/>
+      <c r="GW36" s="132"/>
     </row>
-    <row r="37" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="126" t="s">
+    <row r="37" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="127"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="61"/>
       <c r="D37" s="13"/>
       <c r="E37" s="14"/>
@@ -10089,14 +10115,14 @@
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
       <c r="AA37" s="15"/>
-      <c r="AB37" s="104"/>
-      <c r="AC37" s="105"/>
-      <c r="AD37" s="105"/>
-      <c r="AE37" s="105"/>
-      <c r="AF37" s="105"/>
-      <c r="AG37" s="105"/>
-      <c r="AH37" s="105"/>
-      <c r="AI37" s="106"/>
+      <c r="AB37" s="110"/>
+      <c r="AC37" s="111"/>
+      <c r="AD37" s="111"/>
+      <c r="AE37" s="111"/>
+      <c r="AF37" s="111"/>
+      <c r="AG37" s="111"/>
+      <c r="AH37" s="111"/>
+      <c r="AI37" s="112"/>
       <c r="AJ37" s="13"/>
       <c r="AK37" s="14"/>
       <c r="AL37" s="14"/>
@@ -10145,14 +10171,14 @@
       <c r="CC37" s="14"/>
       <c r="CD37" s="14"/>
       <c r="CE37" s="15"/>
-      <c r="CF37" s="104"/>
-      <c r="CG37" s="105"/>
-      <c r="CH37" s="105"/>
-      <c r="CI37" s="105"/>
-      <c r="CJ37" s="105"/>
-      <c r="CK37" s="105"/>
-      <c r="CL37" s="105"/>
-      <c r="CM37" s="106"/>
+      <c r="CF37" s="110"/>
+      <c r="CG37" s="111"/>
+      <c r="CH37" s="111"/>
+      <c r="CI37" s="111"/>
+      <c r="CJ37" s="111"/>
+      <c r="CK37" s="111"/>
+      <c r="CL37" s="111"/>
+      <c r="CM37" s="112"/>
       <c r="CN37" s="13"/>
       <c r="CO37" s="14"/>
       <c r="CP37" s="14"/>
@@ -10209,14 +10235,14 @@
       <c r="EO37" s="14"/>
       <c r="EP37" s="14"/>
       <c r="EQ37" s="15"/>
-      <c r="ER37" s="104"/>
-      <c r="ES37" s="105"/>
-      <c r="ET37" s="105"/>
-      <c r="EU37" s="105"/>
-      <c r="EV37" s="105"/>
-      <c r="EW37" s="105"/>
-      <c r="EX37" s="105"/>
-      <c r="EY37" s="106"/>
+      <c r="ER37" s="110"/>
+      <c r="ES37" s="111"/>
+      <c r="ET37" s="111"/>
+      <c r="EU37" s="111"/>
+      <c r="EV37" s="111"/>
+      <c r="EW37" s="111"/>
+      <c r="EX37" s="111"/>
+      <c r="EY37" s="112"/>
       <c r="EZ37" s="13"/>
       <c r="FA37" s="14"/>
       <c r="FB37" s="14"/>
@@ -10266,9 +10292,9 @@
       <c r="GT37" s="14"/>
       <c r="GU37" s="14"/>
       <c r="GV37" s="14"/>
-      <c r="GW37" s="93"/>
+      <c r="GW37" s="132"/>
     </row>
-    <row r="38" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:205" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="88" t="s">
         <v>33</v>
       </c>
@@ -10298,14 +10324,14 @@
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
       <c r="AA38" s="15"/>
-      <c r="AB38" s="104"/>
-      <c r="AC38" s="105"/>
-      <c r="AD38" s="105"/>
-      <c r="AE38" s="105"/>
-      <c r="AF38" s="105"/>
-      <c r="AG38" s="105"/>
-      <c r="AH38" s="105"/>
-      <c r="AI38" s="106"/>
+      <c r="AB38" s="110"/>
+      <c r="AC38" s="111"/>
+      <c r="AD38" s="111"/>
+      <c r="AE38" s="111"/>
+      <c r="AF38" s="111"/>
+      <c r="AG38" s="111"/>
+      <c r="AH38" s="111"/>
+      <c r="AI38" s="112"/>
       <c r="AJ38" s="13"/>
       <c r="AK38" s="14"/>
       <c r="AL38" s="14"/>
@@ -10354,14 +10380,14 @@
       <c r="CC38" s="14"/>
       <c r="CD38" s="14"/>
       <c r="CE38" s="15"/>
-      <c r="CF38" s="104"/>
-      <c r="CG38" s="105"/>
-      <c r="CH38" s="105"/>
-      <c r="CI38" s="105"/>
-      <c r="CJ38" s="105"/>
-      <c r="CK38" s="105"/>
-      <c r="CL38" s="105"/>
-      <c r="CM38" s="106"/>
+      <c r="CF38" s="110"/>
+      <c r="CG38" s="111"/>
+      <c r="CH38" s="111"/>
+      <c r="CI38" s="111"/>
+      <c r="CJ38" s="111"/>
+      <c r="CK38" s="111"/>
+      <c r="CL38" s="111"/>
+      <c r="CM38" s="112"/>
       <c r="CN38" s="13"/>
       <c r="CO38" s="14"/>
       <c r="CP38" s="14"/>
@@ -10390,7 +10416,9 @@
       <c r="DM38" s="14"/>
       <c r="DN38" s="14"/>
       <c r="DO38" s="14"/>
-      <c r="DP38" s="14"/>
+      <c r="DP38" s="32" t="s">
+        <v>28</v>
+      </c>
       <c r="DQ38" s="14"/>
       <c r="DR38" s="14"/>
       <c r="DS38" s="15"/>
@@ -10418,14 +10446,14 @@
       <c r="EO38" s="14"/>
       <c r="EP38" s="14"/>
       <c r="EQ38" s="15"/>
-      <c r="ER38" s="104"/>
-      <c r="ES38" s="105"/>
-      <c r="ET38" s="105"/>
-      <c r="EU38" s="105"/>
-      <c r="EV38" s="105"/>
-      <c r="EW38" s="105"/>
-      <c r="EX38" s="105"/>
-      <c r="EY38" s="106"/>
+      <c r="ER38" s="110"/>
+      <c r="ES38" s="111"/>
+      <c r="ET38" s="111"/>
+      <c r="EU38" s="111"/>
+      <c r="EV38" s="111"/>
+      <c r="EW38" s="111"/>
+      <c r="EX38" s="111"/>
+      <c r="EY38" s="112"/>
       <c r="EZ38" s="13"/>
       <c r="FA38" s="14"/>
       <c r="FB38" s="14"/>
@@ -10475,13 +10503,13 @@
       <c r="GT38" s="14"/>
       <c r="GU38" s="14"/>
       <c r="GV38" s="14"/>
-      <c r="GW38" s="93"/>
+      <c r="GW38" s="132"/>
     </row>
-    <row r="39" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="128" t="s">
+    <row r="39" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="129"/>
+      <c r="B39" s="106"/>
       <c r="C39" s="61"/>
       <c r="D39" s="13"/>
       <c r="E39" s="14"/>
@@ -10507,14 +10535,14 @@
       <c r="Y39" s="14"/>
       <c r="Z39" s="14"/>
       <c r="AA39" s="15"/>
-      <c r="AB39" s="104"/>
-      <c r="AC39" s="105"/>
-      <c r="AD39" s="105"/>
-      <c r="AE39" s="105"/>
-      <c r="AF39" s="105"/>
-      <c r="AG39" s="105"/>
-      <c r="AH39" s="105"/>
-      <c r="AI39" s="106"/>
+      <c r="AB39" s="110"/>
+      <c r="AC39" s="111"/>
+      <c r="AD39" s="111"/>
+      <c r="AE39" s="111"/>
+      <c r="AF39" s="111"/>
+      <c r="AG39" s="111"/>
+      <c r="AH39" s="111"/>
+      <c r="AI39" s="112"/>
       <c r="AJ39" s="13"/>
       <c r="AK39" s="14"/>
       <c r="AL39" s="14"/>
@@ -10563,14 +10591,14 @@
       <c r="CC39" s="14"/>
       <c r="CD39" s="14"/>
       <c r="CE39" s="15"/>
-      <c r="CF39" s="104"/>
-      <c r="CG39" s="105"/>
-      <c r="CH39" s="105"/>
-      <c r="CI39" s="105"/>
-      <c r="CJ39" s="105"/>
-      <c r="CK39" s="105"/>
-      <c r="CL39" s="105"/>
-      <c r="CM39" s="106"/>
+      <c r="CF39" s="110"/>
+      <c r="CG39" s="111"/>
+      <c r="CH39" s="111"/>
+      <c r="CI39" s="111"/>
+      <c r="CJ39" s="111"/>
+      <c r="CK39" s="111"/>
+      <c r="CL39" s="111"/>
+      <c r="CM39" s="112"/>
       <c r="CN39" s="13"/>
       <c r="CO39" s="14"/>
       <c r="CP39" s="14"/>
@@ -10627,14 +10655,14 @@
       <c r="EO39" s="14"/>
       <c r="EP39" s="14"/>
       <c r="EQ39" s="15"/>
-      <c r="ER39" s="104"/>
-      <c r="ES39" s="105"/>
-      <c r="ET39" s="105"/>
-      <c r="EU39" s="105"/>
-      <c r="EV39" s="105"/>
-      <c r="EW39" s="105"/>
-      <c r="EX39" s="105"/>
-      <c r="EY39" s="106"/>
+      <c r="ER39" s="110"/>
+      <c r="ES39" s="111"/>
+      <c r="ET39" s="111"/>
+      <c r="EU39" s="111"/>
+      <c r="EV39" s="111"/>
+      <c r="EW39" s="111"/>
+      <c r="EX39" s="111"/>
+      <c r="EY39" s="112"/>
       <c r="EZ39" s="13"/>
       <c r="FA39" s="14"/>
       <c r="FB39" s="14"/>
@@ -10684,9 +10712,9 @@
       <c r="GT39" s="14"/>
       <c r="GU39" s="14"/>
       <c r="GV39" s="14"/>
-      <c r="GW39" s="93"/>
+      <c r="GW39" s="132"/>
     </row>
-    <row r="40" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:205" x14ac:dyDescent="0.15">
       <c r="A40" s="82" t="s">
         <v>34</v>
       </c>
@@ -10716,14 +10744,14 @@
       <c r="Y40" s="14"/>
       <c r="Z40" s="14"/>
       <c r="AA40" s="15"/>
-      <c r="AB40" s="104"/>
-      <c r="AC40" s="105"/>
-      <c r="AD40" s="105"/>
-      <c r="AE40" s="105"/>
-      <c r="AF40" s="105"/>
-      <c r="AG40" s="105"/>
-      <c r="AH40" s="105"/>
-      <c r="AI40" s="106"/>
+      <c r="AB40" s="110"/>
+      <c r="AC40" s="111"/>
+      <c r="AD40" s="111"/>
+      <c r="AE40" s="111"/>
+      <c r="AF40" s="111"/>
+      <c r="AG40" s="111"/>
+      <c r="AH40" s="111"/>
+      <c r="AI40" s="112"/>
       <c r="AJ40" s="13"/>
       <c r="AK40" s="14"/>
       <c r="AL40" s="14"/>
@@ -10772,19 +10800,17 @@
       <c r="CC40" s="14"/>
       <c r="CD40" s="14"/>
       <c r="CE40" s="15"/>
-      <c r="CF40" s="104"/>
-      <c r="CG40" s="105"/>
-      <c r="CH40" s="105"/>
-      <c r="CI40" s="105"/>
-      <c r="CJ40" s="105"/>
-      <c r="CK40" s="105"/>
-      <c r="CL40" s="105"/>
-      <c r="CM40" s="106"/>
+      <c r="CF40" s="110"/>
+      <c r="CG40" s="111"/>
+      <c r="CH40" s="111"/>
+      <c r="CI40" s="111"/>
+      <c r="CJ40" s="111"/>
+      <c r="CK40" s="111"/>
+      <c r="CL40" s="111"/>
+      <c r="CM40" s="112"/>
       <c r="CN40" s="13"/>
       <c r="CO40" s="14"/>
-      <c r="CP40" s="14" t="s">
-        <v>28</v>
-      </c>
+      <c r="CP40" s="14"/>
       <c r="CQ40" s="14"/>
       <c r="CR40" s="14"/>
       <c r="CS40" s="14"/>
@@ -10795,7 +10821,7 @@
       <c r="CX40" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="CY40" s="18"/>
+      <c r="CY40" s="14"/>
       <c r="CZ40" s="14"/>
       <c r="DA40" s="14"/>
       <c r="DB40" s="14"/>
@@ -10840,14 +10866,14 @@
       <c r="EO40" s="14"/>
       <c r="EP40" s="14"/>
       <c r="EQ40" s="15"/>
-      <c r="ER40" s="104"/>
-      <c r="ES40" s="105"/>
-      <c r="ET40" s="105"/>
-      <c r="EU40" s="105"/>
-      <c r="EV40" s="105"/>
-      <c r="EW40" s="105"/>
-      <c r="EX40" s="105"/>
-      <c r="EY40" s="106"/>
+      <c r="ER40" s="110"/>
+      <c r="ES40" s="111"/>
+      <c r="ET40" s="111"/>
+      <c r="EU40" s="111"/>
+      <c r="EV40" s="111"/>
+      <c r="EW40" s="111"/>
+      <c r="EX40" s="111"/>
+      <c r="EY40" s="112"/>
       <c r="EZ40" s="13"/>
       <c r="FA40" s="14"/>
       <c r="FB40" s="14"/>
@@ -10897,82 +10923,82 @@
       <c r="GT40" s="14"/>
       <c r="GU40" s="14"/>
       <c r="GV40" s="14"/>
-      <c r="GW40" s="93"/>
+      <c r="GW40" s="132"/>
     </row>
-    <row r="41" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:205" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="83" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="68"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="113" t="s">
+      <c r="D41" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="114"/>
-      <c r="L41" s="114"/>
-      <c r="M41" s="114"/>
-      <c r="N41" s="114"/>
-      <c r="O41" s="114"/>
-      <c r="P41" s="114"/>
-      <c r="Q41" s="114"/>
-      <c r="R41" s="114"/>
-      <c r="S41" s="114"/>
-      <c r="T41" s="114"/>
-      <c r="U41" s="114"/>
-      <c r="V41" s="114"/>
-      <c r="W41" s="114"/>
-      <c r="X41" s="114"/>
-      <c r="Y41" s="114"/>
-      <c r="Z41" s="114"/>
-      <c r="AA41" s="115"/>
-      <c r="AB41" s="107"/>
-      <c r="AC41" s="108"/>
-      <c r="AD41" s="108"/>
-      <c r="AE41" s="108"/>
-      <c r="AF41" s="108"/>
-      <c r="AG41" s="108"/>
-      <c r="AH41" s="108"/>
-      <c r="AI41" s="109"/>
-      <c r="AJ41" s="113" t="s">
+      <c r="E41" s="123"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="123"/>
+      <c r="K41" s="123"/>
+      <c r="L41" s="123"/>
+      <c r="M41" s="123"/>
+      <c r="N41" s="123"/>
+      <c r="O41" s="123"/>
+      <c r="P41" s="123"/>
+      <c r="Q41" s="123"/>
+      <c r="R41" s="123"/>
+      <c r="S41" s="123"/>
+      <c r="T41" s="123"/>
+      <c r="U41" s="123"/>
+      <c r="V41" s="123"/>
+      <c r="W41" s="123"/>
+      <c r="X41" s="123"/>
+      <c r="Y41" s="123"/>
+      <c r="Z41" s="123"/>
+      <c r="AA41" s="124"/>
+      <c r="AB41" s="113"/>
+      <c r="AC41" s="114"/>
+      <c r="AD41" s="114"/>
+      <c r="AE41" s="114"/>
+      <c r="AF41" s="114"/>
+      <c r="AG41" s="114"/>
+      <c r="AH41" s="114"/>
+      <c r="AI41" s="115"/>
+      <c r="AJ41" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="AK41" s="116"/>
-      <c r="AL41" s="116"/>
-      <c r="AM41" s="116"/>
-      <c r="AN41" s="116"/>
-      <c r="AO41" s="116"/>
-      <c r="AP41" s="116"/>
-      <c r="AQ41" s="116"/>
-      <c r="AR41" s="116"/>
-      <c r="AS41" s="116"/>
-      <c r="AT41" s="116"/>
-      <c r="AU41" s="116"/>
-      <c r="AV41" s="116"/>
-      <c r="AW41" s="116"/>
-      <c r="AX41" s="116"/>
-      <c r="AY41" s="116"/>
-      <c r="AZ41" s="116"/>
-      <c r="BA41" s="116"/>
-      <c r="BB41" s="116"/>
-      <c r="BC41" s="116"/>
-      <c r="BD41" s="116"/>
-      <c r="BE41" s="116"/>
-      <c r="BF41" s="116"/>
-      <c r="BG41" s="116"/>
-      <c r="BH41" s="116"/>
-      <c r="BI41" s="116"/>
-      <c r="BJ41" s="116"/>
-      <c r="BK41" s="116"/>
-      <c r="BL41" s="116"/>
-      <c r="BM41" s="116"/>
-      <c r="BN41" s="116"/>
-      <c r="BO41" s="117"/>
+      <c r="AK41" s="93"/>
+      <c r="AL41" s="93"/>
+      <c r="AM41" s="93"/>
+      <c r="AN41" s="93"/>
+      <c r="AO41" s="93"/>
+      <c r="AP41" s="93"/>
+      <c r="AQ41" s="93"/>
+      <c r="AR41" s="93"/>
+      <c r="AS41" s="93"/>
+      <c r="AT41" s="93"/>
+      <c r="AU41" s="93"/>
+      <c r="AV41" s="93"/>
+      <c r="AW41" s="93"/>
+      <c r="AX41" s="93"/>
+      <c r="AY41" s="93"/>
+      <c r="AZ41" s="93"/>
+      <c r="BA41" s="93"/>
+      <c r="BB41" s="93"/>
+      <c r="BC41" s="93"/>
+      <c r="BD41" s="93"/>
+      <c r="BE41" s="93"/>
+      <c r="BF41" s="93"/>
+      <c r="BG41" s="93"/>
+      <c r="BH41" s="93"/>
+      <c r="BI41" s="93"/>
+      <c r="BJ41" s="93"/>
+      <c r="BK41" s="93"/>
+      <c r="BL41" s="93"/>
+      <c r="BM41" s="93"/>
+      <c r="BN41" s="93"/>
+      <c r="BO41" s="94"/>
       <c r="BP41" s="17"/>
       <c r="BQ41" s="18"/>
       <c r="BR41" s="18"/>
@@ -10989,14 +11015,14 @@
       <c r="CC41" s="18"/>
       <c r="CD41" s="18"/>
       <c r="CE41" s="19"/>
-      <c r="CF41" s="107"/>
-      <c r="CG41" s="108"/>
-      <c r="CH41" s="108"/>
-      <c r="CI41" s="108"/>
-      <c r="CJ41" s="108"/>
-      <c r="CK41" s="108"/>
-      <c r="CL41" s="108"/>
-      <c r="CM41" s="109"/>
+      <c r="CF41" s="113"/>
+      <c r="CG41" s="114"/>
+      <c r="CH41" s="114"/>
+      <c r="CI41" s="114"/>
+      <c r="CJ41" s="114"/>
+      <c r="CK41" s="114"/>
+      <c r="CL41" s="114"/>
+      <c r="CM41" s="115"/>
       <c r="CN41" s="17"/>
       <c r="CO41" s="18"/>
       <c r="CP41" s="18"/>
@@ -11053,14 +11079,14 @@
       <c r="EO41" s="18"/>
       <c r="EP41" s="18"/>
       <c r="EQ41" s="19"/>
-      <c r="ER41" s="107"/>
-      <c r="ES41" s="108"/>
-      <c r="ET41" s="108"/>
-      <c r="EU41" s="108"/>
-      <c r="EV41" s="108"/>
-      <c r="EW41" s="108"/>
-      <c r="EX41" s="108"/>
-      <c r="EY41" s="109"/>
+      <c r="ER41" s="113"/>
+      <c r="ES41" s="114"/>
+      <c r="ET41" s="114"/>
+      <c r="EU41" s="114"/>
+      <c r="EV41" s="114"/>
+      <c r="EW41" s="114"/>
+      <c r="EX41" s="114"/>
+      <c r="EY41" s="115"/>
       <c r="EZ41" s="17"/>
       <c r="FA41" s="18"/>
       <c r="FB41" s="18"/>
@@ -11110,225 +11136,266 @@
       <c r="GT41" s="18"/>
       <c r="GU41" s="18"/>
       <c r="GV41" s="18"/>
-      <c r="GW41" s="93"/>
+      <c r="GW41" s="132"/>
     </row>
-    <row r="42" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A42" s="94" t="s">
+    <row r="42" spans="1:205" x14ac:dyDescent="0.15">
+      <c r="A42" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="94"/>
-      <c r="L42" s="94"/>
-      <c r="M42" s="94"/>
-      <c r="N42" s="94"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="94"/>
-      <c r="Q42" s="94"/>
-      <c r="R42" s="94"/>
-      <c r="S42" s="94"/>
-      <c r="T42" s="94"/>
-      <c r="U42" s="94"/>
-      <c r="V42" s="94"/>
-      <c r="W42" s="94"/>
-      <c r="X42" s="94"/>
-      <c r="Y42" s="94"/>
-      <c r="Z42" s="94"/>
-      <c r="AA42" s="94"/>
-      <c r="AB42" s="94"/>
-      <c r="AC42" s="94"/>
-      <c r="AD42" s="94"/>
-      <c r="AE42" s="94"/>
-      <c r="AF42" s="94"/>
-      <c r="AG42" s="94"/>
-      <c r="AH42" s="94"/>
-      <c r="AI42" s="94"/>
-      <c r="AJ42" s="94"/>
-      <c r="AK42" s="94"/>
-      <c r="AL42" s="94"/>
-      <c r="AM42" s="94"/>
-      <c r="AN42" s="94"/>
-      <c r="AO42" s="94"/>
-      <c r="AP42" s="94"/>
-      <c r="AQ42" s="94"/>
-      <c r="AR42" s="94"/>
-      <c r="AS42" s="94"/>
-      <c r="AT42" s="94"/>
-      <c r="AU42" s="94"/>
-      <c r="AV42" s="94"/>
-      <c r="AW42" s="94"/>
-      <c r="AX42" s="94"/>
-      <c r="AY42" s="94"/>
-      <c r="AZ42" s="94"/>
-      <c r="BA42" s="94"/>
-      <c r="BB42" s="94"/>
-      <c r="BC42" s="94"/>
-      <c r="BD42" s="94"/>
-      <c r="BE42" s="94"/>
-      <c r="BF42" s="94"/>
-      <c r="BG42" s="94"/>
-      <c r="BH42" s="94"/>
-      <c r="BI42" s="94"/>
-      <c r="BJ42" s="94"/>
-      <c r="BK42" s="94"/>
-      <c r="BL42" s="94"/>
-      <c r="BM42" s="94"/>
-      <c r="BN42" s="94"/>
-      <c r="BO42" s="94"/>
-      <c r="BP42" s="94"/>
-      <c r="BQ42" s="94"/>
-      <c r="BR42" s="94"/>
-      <c r="BS42" s="94"/>
-      <c r="BT42" s="94"/>
-      <c r="BU42" s="94"/>
-      <c r="BV42" s="94"/>
-      <c r="BW42" s="94"/>
-      <c r="BX42" s="94"/>
-      <c r="BY42" s="94"/>
-      <c r="BZ42" s="94"/>
-      <c r="CA42" s="94"/>
-      <c r="CB42" s="94"/>
-      <c r="CC42" s="94"/>
-      <c r="CD42" s="94"/>
-      <c r="CE42" s="94"/>
-      <c r="CF42" s="94"/>
-      <c r="CG42" s="94"/>
-      <c r="CH42" s="94"/>
-      <c r="CI42" s="94"/>
-      <c r="CJ42" s="94"/>
-      <c r="CK42" s="94"/>
-      <c r="CL42" s="94"/>
-      <c r="CM42" s="94"/>
-      <c r="CN42" s="94"/>
-      <c r="CO42" s="94"/>
-      <c r="CP42" s="94"/>
-      <c r="CQ42" s="94"/>
-      <c r="CR42" s="94"/>
-      <c r="CS42" s="94"/>
-      <c r="CT42" s="94"/>
-      <c r="CU42" s="94"/>
-      <c r="CV42" s="94"/>
-      <c r="CW42" s="94"/>
-      <c r="CX42" s="94"/>
-      <c r="CY42" s="94"/>
-      <c r="CZ42" s="94"/>
-      <c r="DA42" s="94"/>
-      <c r="DB42" s="94"/>
-      <c r="DC42" s="94"/>
-      <c r="DD42" s="94"/>
-      <c r="DE42" s="94"/>
-      <c r="DF42" s="94"/>
-      <c r="DG42" s="94"/>
-      <c r="DH42" s="94"/>
-      <c r="DI42" s="94"/>
-      <c r="DJ42" s="94"/>
-      <c r="DK42" s="94"/>
-      <c r="DL42" s="94"/>
-      <c r="DM42" s="94"/>
-      <c r="DN42" s="94"/>
-      <c r="DO42" s="94"/>
-      <c r="DP42" s="94"/>
-      <c r="DQ42" s="94"/>
-      <c r="DR42" s="94"/>
-      <c r="DS42" s="94"/>
-      <c r="DT42" s="94"/>
-      <c r="DU42" s="94"/>
-      <c r="DV42" s="94"/>
-      <c r="DW42" s="94"/>
-      <c r="DX42" s="94"/>
-      <c r="DY42" s="94"/>
-      <c r="DZ42" s="94"/>
-      <c r="EA42" s="94"/>
-      <c r="EB42" s="94"/>
-      <c r="EC42" s="94"/>
-      <c r="ED42" s="94"/>
-      <c r="EE42" s="94"/>
-      <c r="EF42" s="94"/>
-      <c r="EG42" s="94"/>
-      <c r="EH42" s="94"/>
-      <c r="EI42" s="94"/>
-      <c r="EJ42" s="94"/>
-      <c r="EK42" s="94"/>
-      <c r="EL42" s="94"/>
-      <c r="EM42" s="94"/>
-      <c r="EN42" s="94"/>
-      <c r="EO42" s="94"/>
-      <c r="EP42" s="94"/>
-      <c r="EQ42" s="94"/>
-      <c r="ER42" s="94"/>
-      <c r="ES42" s="94"/>
-      <c r="ET42" s="94"/>
-      <c r="EU42" s="94"/>
-      <c r="EV42" s="94"/>
-      <c r="EW42" s="94"/>
-      <c r="EX42" s="94"/>
-      <c r="EY42" s="94"/>
-      <c r="EZ42" s="94"/>
-      <c r="FA42" s="94"/>
-      <c r="FB42" s="94"/>
-      <c r="FC42" s="94"/>
-      <c r="FD42" s="94"/>
-      <c r="FE42" s="94"/>
-      <c r="FF42" s="94"/>
-      <c r="FG42" s="94"/>
-      <c r="FH42" s="94"/>
-      <c r="FI42" s="94"/>
-      <c r="FJ42" s="94"/>
-      <c r="FK42" s="94"/>
-      <c r="FL42" s="94"/>
-      <c r="FM42" s="94"/>
-      <c r="FN42" s="94"/>
-      <c r="FO42" s="94"/>
-      <c r="FP42" s="94"/>
-      <c r="FQ42" s="94"/>
-      <c r="FR42" s="94"/>
-      <c r="FS42" s="94"/>
-      <c r="FT42" s="94"/>
-      <c r="FU42" s="94"/>
-      <c r="FV42" s="94"/>
-      <c r="FW42" s="94"/>
-      <c r="FX42" s="94"/>
-      <c r="FY42" s="94"/>
-      <c r="FZ42" s="94"/>
-      <c r="GA42" s="94"/>
-      <c r="GB42" s="94"/>
-      <c r="GC42" s="94"/>
-      <c r="GD42" s="94"/>
-      <c r="GE42" s="94"/>
-      <c r="GF42" s="94"/>
-      <c r="GG42" s="94"/>
-      <c r="GH42" s="94"/>
-      <c r="GI42" s="94"/>
-      <c r="GJ42" s="94"/>
-      <c r="GK42" s="94"/>
-      <c r="GL42" s="94"/>
-      <c r="GM42" s="94"/>
-      <c r="GN42" s="94"/>
-      <c r="GO42" s="94"/>
-      <c r="GP42" s="94"/>
-      <c r="GQ42" s="94"/>
-      <c r="GR42" s="94"/>
-      <c r="GS42" s="94"/>
-      <c r="GT42" s="94"/>
-      <c r="GU42" s="94"/>
-      <c r="GV42" s="94"/>
+      <c r="B42" s="125"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="125"/>
+      <c r="K42" s="125"/>
+      <c r="L42" s="125"/>
+      <c r="M42" s="125"/>
+      <c r="N42" s="125"/>
+      <c r="O42" s="125"/>
+      <c r="P42" s="125"/>
+      <c r="Q42" s="125"/>
+      <c r="R42" s="125"/>
+      <c r="S42" s="125"/>
+      <c r="T42" s="125"/>
+      <c r="U42" s="125"/>
+      <c r="V42" s="125"/>
+      <c r="W42" s="125"/>
+      <c r="X42" s="125"/>
+      <c r="Y42" s="125"/>
+      <c r="Z42" s="125"/>
+      <c r="AA42" s="125"/>
+      <c r="AB42" s="125"/>
+      <c r="AC42" s="125"/>
+      <c r="AD42" s="125"/>
+      <c r="AE42" s="125"/>
+      <c r="AF42" s="125"/>
+      <c r="AG42" s="125"/>
+      <c r="AH42" s="125"/>
+      <c r="AI42" s="125"/>
+      <c r="AJ42" s="125"/>
+      <c r="AK42" s="125"/>
+      <c r="AL42" s="125"/>
+      <c r="AM42" s="125"/>
+      <c r="AN42" s="125"/>
+      <c r="AO42" s="125"/>
+      <c r="AP42" s="125"/>
+      <c r="AQ42" s="125"/>
+      <c r="AR42" s="125"/>
+      <c r="AS42" s="125"/>
+      <c r="AT42" s="125"/>
+      <c r="AU42" s="125"/>
+      <c r="AV42" s="125"/>
+      <c r="AW42" s="125"/>
+      <c r="AX42" s="125"/>
+      <c r="AY42" s="125"/>
+      <c r="AZ42" s="125"/>
+      <c r="BA42" s="125"/>
+      <c r="BB42" s="125"/>
+      <c r="BC42" s="125"/>
+      <c r="BD42" s="125"/>
+      <c r="BE42" s="125"/>
+      <c r="BF42" s="125"/>
+      <c r="BG42" s="125"/>
+      <c r="BH42" s="125"/>
+      <c r="BI42" s="125"/>
+      <c r="BJ42" s="125"/>
+      <c r="BK42" s="125"/>
+      <c r="BL42" s="125"/>
+      <c r="BM42" s="125"/>
+      <c r="BN42" s="125"/>
+      <c r="BO42" s="125"/>
+      <c r="BP42" s="125"/>
+      <c r="BQ42" s="125"/>
+      <c r="BR42" s="125"/>
+      <c r="BS42" s="125"/>
+      <c r="BT42" s="125"/>
+      <c r="BU42" s="125"/>
+      <c r="BV42" s="125"/>
+      <c r="BW42" s="125"/>
+      <c r="BX42" s="125"/>
+      <c r="BY42" s="125"/>
+      <c r="BZ42" s="125"/>
+      <c r="CA42" s="125"/>
+      <c r="CB42" s="125"/>
+      <c r="CC42" s="125"/>
+      <c r="CD42" s="125"/>
+      <c r="CE42" s="125"/>
+      <c r="CF42" s="125"/>
+      <c r="CG42" s="125"/>
+      <c r="CH42" s="125"/>
+      <c r="CI42" s="125"/>
+      <c r="CJ42" s="125"/>
+      <c r="CK42" s="125"/>
+      <c r="CL42" s="125"/>
+      <c r="CM42" s="125"/>
+      <c r="CN42" s="125"/>
+      <c r="CO42" s="125"/>
+      <c r="CP42" s="125"/>
+      <c r="CQ42" s="125"/>
+      <c r="CR42" s="125"/>
+      <c r="CS42" s="125"/>
+      <c r="CT42" s="125"/>
+      <c r="CU42" s="125"/>
+      <c r="CV42" s="125"/>
+      <c r="CW42" s="125"/>
+      <c r="CX42" s="125"/>
+      <c r="CY42" s="125"/>
+      <c r="CZ42" s="125"/>
+      <c r="DA42" s="125"/>
+      <c r="DB42" s="125"/>
+      <c r="DC42" s="125"/>
+      <c r="DD42" s="125"/>
+      <c r="DE42" s="125"/>
+      <c r="DF42" s="125"/>
+      <c r="DG42" s="125"/>
+      <c r="DH42" s="125"/>
+      <c r="DI42" s="125"/>
+      <c r="DJ42" s="125"/>
+      <c r="DK42" s="125"/>
+      <c r="DL42" s="125"/>
+      <c r="DM42" s="125"/>
+      <c r="DN42" s="125"/>
+      <c r="DO42" s="125"/>
+      <c r="DP42" s="125"/>
+      <c r="DQ42" s="125"/>
+      <c r="DR42" s="125"/>
+      <c r="DS42" s="125"/>
+      <c r="DT42" s="125"/>
+      <c r="DU42" s="125"/>
+      <c r="DV42" s="125"/>
+      <c r="DW42" s="125"/>
+      <c r="DX42" s="125"/>
+      <c r="DY42" s="125"/>
+      <c r="DZ42" s="125"/>
+      <c r="EA42" s="125"/>
+      <c r="EB42" s="125"/>
+      <c r="EC42" s="125"/>
+      <c r="ED42" s="125"/>
+      <c r="EE42" s="125"/>
+      <c r="EF42" s="125"/>
+      <c r="EG42" s="125"/>
+      <c r="EH42" s="125"/>
+      <c r="EI42" s="125"/>
+      <c r="EJ42" s="125"/>
+      <c r="EK42" s="125"/>
+      <c r="EL42" s="125"/>
+      <c r="EM42" s="125"/>
+      <c r="EN42" s="125"/>
+      <c r="EO42" s="125"/>
+      <c r="EP42" s="125"/>
+      <c r="EQ42" s="125"/>
+      <c r="ER42" s="125"/>
+      <c r="ES42" s="125"/>
+      <c r="ET42" s="125"/>
+      <c r="EU42" s="125"/>
+      <c r="EV42" s="125"/>
+      <c r="EW42" s="125"/>
+      <c r="EX42" s="125"/>
+      <c r="EY42" s="125"/>
+      <c r="EZ42" s="125"/>
+      <c r="FA42" s="125"/>
+      <c r="FB42" s="125"/>
+      <c r="FC42" s="125"/>
+      <c r="FD42" s="125"/>
+      <c r="FE42" s="125"/>
+      <c r="FF42" s="125"/>
+      <c r="FG42" s="125"/>
+      <c r="FH42" s="125"/>
+      <c r="FI42" s="125"/>
+      <c r="FJ42" s="125"/>
+      <c r="FK42" s="125"/>
+      <c r="FL42" s="125"/>
+      <c r="FM42" s="125"/>
+      <c r="FN42" s="125"/>
+      <c r="FO42" s="125"/>
+      <c r="FP42" s="125"/>
+      <c r="FQ42" s="125"/>
+      <c r="FR42" s="125"/>
+      <c r="FS42" s="125"/>
+      <c r="FT42" s="125"/>
+      <c r="FU42" s="125"/>
+      <c r="FV42" s="125"/>
+      <c r="FW42" s="125"/>
+      <c r="FX42" s="125"/>
+      <c r="FY42" s="125"/>
+      <c r="FZ42" s="125"/>
+      <c r="GA42" s="125"/>
+      <c r="GB42" s="125"/>
+      <c r="GC42" s="125"/>
+      <c r="GD42" s="125"/>
+      <c r="GE42" s="125"/>
+      <c r="GF42" s="125"/>
+      <c r="GG42" s="125"/>
+      <c r="GH42" s="125"/>
+      <c r="GI42" s="125"/>
+      <c r="GJ42" s="125"/>
+      <c r="GK42" s="125"/>
+      <c r="GL42" s="125"/>
+      <c r="GM42" s="125"/>
+      <c r="GN42" s="125"/>
+      <c r="GO42" s="125"/>
+      <c r="GP42" s="125"/>
+      <c r="GQ42" s="125"/>
+      <c r="GR42" s="125"/>
+      <c r="GS42" s="125"/>
+      <c r="GT42" s="125"/>
+      <c r="GU42" s="125"/>
+      <c r="GV42" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="AJ41:BO41"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="FH4:FK4"/>
+    <mergeCell ref="DT4:DW4"/>
+    <mergeCell ref="DX4:EA4"/>
+    <mergeCell ref="EB4:EE4"/>
+    <mergeCell ref="EF4:EI4"/>
+    <mergeCell ref="EV4:EY4"/>
+    <mergeCell ref="EZ4:FC4"/>
+    <mergeCell ref="EN4:EQ4"/>
+    <mergeCell ref="ER4:EU4"/>
+    <mergeCell ref="FT4:FW4"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="BP4:BS4"/>
+    <mergeCell ref="BX4:CA4"/>
+    <mergeCell ref="CB4:CE4"/>
+    <mergeCell ref="CF4:CI4"/>
+    <mergeCell ref="FD4:FG4"/>
+    <mergeCell ref="CJ4:CM4"/>
+    <mergeCell ref="CN4:CQ4"/>
+    <mergeCell ref="CZ4:DC4"/>
+    <mergeCell ref="CV4:CY4"/>
+    <mergeCell ref="FL4:FO4"/>
+    <mergeCell ref="FP4:FS4"/>
+    <mergeCell ref="GW4:GW41"/>
+    <mergeCell ref="FX4:GA4"/>
+    <mergeCell ref="GB4:GE4"/>
+    <mergeCell ref="GF4:GI4"/>
+    <mergeCell ref="GJ4:GM4"/>
+    <mergeCell ref="GO4:GR4"/>
+    <mergeCell ref="GS4:GV4"/>
+    <mergeCell ref="A42:GV42"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="DT2:FG3"/>
+    <mergeCell ref="FH2:GV3"/>
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="AR2:CE3"/>
+    <mergeCell ref="CF2:DS3"/>
+    <mergeCell ref="CR4:CU4"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="EJ4:EM4"/>
+    <mergeCell ref="DL4:DO4"/>
+    <mergeCell ref="DP4:DS4"/>
     <mergeCell ref="ER6:EY41"/>
     <mergeCell ref="AB6:AI41"/>
     <mergeCell ref="CF6:CM41"/>
@@ -11345,56 +11412,15 @@
     <mergeCell ref="DD4:DG4"/>
     <mergeCell ref="DH4:DK4"/>
     <mergeCell ref="D41:AA41"/>
-    <mergeCell ref="A42:GV42"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="DT2:FG3"/>
-    <mergeCell ref="FH2:GV3"/>
-    <mergeCell ref="D2:AQ3"/>
-    <mergeCell ref="AR2:CE3"/>
-    <mergeCell ref="CF2:DS3"/>
-    <mergeCell ref="CR4:CU4"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="EJ4:EM4"/>
-    <mergeCell ref="DL4:DO4"/>
-    <mergeCell ref="DP4:DS4"/>
-    <mergeCell ref="GW4:GW41"/>
-    <mergeCell ref="FX4:GA4"/>
-    <mergeCell ref="GB4:GE4"/>
-    <mergeCell ref="GF4:GI4"/>
-    <mergeCell ref="GJ4:GM4"/>
-    <mergeCell ref="GO4:GR4"/>
-    <mergeCell ref="GS4:GV4"/>
-    <mergeCell ref="FT4:FW4"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="BP4:BS4"/>
-    <mergeCell ref="BX4:CA4"/>
-    <mergeCell ref="CB4:CE4"/>
-    <mergeCell ref="CF4:CI4"/>
-    <mergeCell ref="FD4:FG4"/>
-    <mergeCell ref="CJ4:CM4"/>
-    <mergeCell ref="CN4:CQ4"/>
-    <mergeCell ref="CZ4:DC4"/>
-    <mergeCell ref="CV4:CY4"/>
-    <mergeCell ref="FL4:FO4"/>
-    <mergeCell ref="FP4:FS4"/>
-    <mergeCell ref="FH4:FK4"/>
-    <mergeCell ref="DT4:DW4"/>
-    <mergeCell ref="DX4:EA4"/>
-    <mergeCell ref="EB4:EE4"/>
-    <mergeCell ref="EF4:EI4"/>
-    <mergeCell ref="EV4:EY4"/>
-    <mergeCell ref="EZ4:FC4"/>
-    <mergeCell ref="EN4:EQ4"/>
-    <mergeCell ref="ER4:EU4"/>
+    <mergeCell ref="AJ41:BO41"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:B39"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6 B8:B9 B21:B36 B38 B40:B41 B11:B13 B15:B19">
+  <conditionalFormatting sqref="B6 B8:B9 B11:B13 B15:B19 B21:B36 B38 B40:B41">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",B6)))</formula>
     </cfRule>

--- a/docs/2_CAND_Modele_Planning_2024.xlsx
+++ b/docs/2_CAND_Modele_Planning_2024.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HOME/alikadev/code/TPI/RoadTrafficSimulator/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77234A82-1A44-5549-BE24-DCD2788F0AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6F1BD6-05C9-4324-8D7E-52DAA9D61E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Planning!$A:$C,Planning!$1:$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$GV$41</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Planning!$A:$C,Planning!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="58">
   <si>
     <t>Tâches</t>
   </si>
@@ -1421,10 +1421,114 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1479,110 +1583,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1642,13 +1642,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>19048</xdr:colOff>
+      <xdr:colOff>19047</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>122</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
+      <xdr:col>126</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -1665,8 +1665,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4540248" y="1047750"/>
-          <a:ext cx="20275551" cy="6124575"/>
+          <a:off x="3981447" y="1038225"/>
+          <a:ext cx="18126077" cy="6067425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2078,26 +2078,26 @@
       <pane xSplit="3" ySplit="5" topLeftCell="DG6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="DT21" sqref="DT21"/>
+      <selection pane="bottomRight" activeCell="DY22" sqref="DY22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="3" customWidth="1"/>
-    <col min="4" max="204" width="2.1640625" style="2" customWidth="1"/>
-    <col min="205" max="205" width="3.1640625" style="3" customWidth="1"/>
-    <col min="206" max="418" width="9.1640625" style="3" customWidth="1"/>
-    <col min="419" max="16384" width="11.5" style="3"/>
+    <col min="1" max="1" width="47.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="3" customWidth="1"/>
+    <col min="4" max="204" width="2.140625" style="2" customWidth="1"/>
+    <col min="205" max="205" width="3.140625" style="3" customWidth="1"/>
+    <col min="206" max="418" width="9.140625" style="3" customWidth="1"/>
+    <col min="419" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:205" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+    <row r="1" spans="1:205" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2139,431 +2139,431 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:205" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:205" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="117">
+      <c r="B2" s="114">
         <v>148477</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="128" t="s">
+      <c r="C2" s="115"/>
+      <c r="D2" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="128"/>
-      <c r="AH2" s="128"/>
-      <c r="AI2" s="128"/>
-      <c r="AJ2" s="128"/>
-      <c r="AK2" s="128"/>
-      <c r="AL2" s="128"/>
-      <c r="AM2" s="128"/>
-      <c r="AN2" s="128"/>
-      <c r="AO2" s="128"/>
-      <c r="AP2" s="128"/>
-      <c r="AQ2" s="128"/>
-      <c r="AR2" s="128" t="s">
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100"/>
+      <c r="AK2" s="100"/>
+      <c r="AL2" s="100"/>
+      <c r="AM2" s="100"/>
+      <c r="AN2" s="100"/>
+      <c r="AO2" s="100"/>
+      <c r="AP2" s="100"/>
+      <c r="AQ2" s="100"/>
+      <c r="AR2" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="128"/>
-      <c r="AT2" s="128"/>
-      <c r="AU2" s="128"/>
-      <c r="AV2" s="128"/>
-      <c r="AW2" s="128"/>
-      <c r="AX2" s="128"/>
-      <c r="AY2" s="128"/>
-      <c r="AZ2" s="128"/>
-      <c r="BA2" s="128"/>
-      <c r="BB2" s="128"/>
-      <c r="BC2" s="128"/>
-      <c r="BD2" s="128"/>
-      <c r="BE2" s="128"/>
-      <c r="BF2" s="128"/>
-      <c r="BG2" s="128"/>
-      <c r="BH2" s="128"/>
-      <c r="BI2" s="128"/>
-      <c r="BJ2" s="128"/>
-      <c r="BK2" s="128"/>
-      <c r="BL2" s="128"/>
-      <c r="BM2" s="128"/>
-      <c r="BN2" s="128"/>
-      <c r="BO2" s="128"/>
-      <c r="BP2" s="128"/>
-      <c r="BQ2" s="128"/>
-      <c r="BR2" s="128"/>
-      <c r="BS2" s="128"/>
-      <c r="BT2" s="128"/>
-      <c r="BU2" s="128"/>
-      <c r="BV2" s="128"/>
-      <c r="BW2" s="128"/>
-      <c r="BX2" s="128"/>
-      <c r="BY2" s="128"/>
-      <c r="BZ2" s="128"/>
-      <c r="CA2" s="128"/>
-      <c r="CB2" s="128"/>
-      <c r="CC2" s="128"/>
-      <c r="CD2" s="128"/>
-      <c r="CE2" s="128"/>
-      <c r="CF2" s="128" t="s">
+      <c r="AS2" s="100"/>
+      <c r="AT2" s="100"/>
+      <c r="AU2" s="100"/>
+      <c r="AV2" s="100"/>
+      <c r="AW2" s="100"/>
+      <c r="AX2" s="100"/>
+      <c r="AY2" s="100"/>
+      <c r="AZ2" s="100"/>
+      <c r="BA2" s="100"/>
+      <c r="BB2" s="100"/>
+      <c r="BC2" s="100"/>
+      <c r="BD2" s="100"/>
+      <c r="BE2" s="100"/>
+      <c r="BF2" s="100"/>
+      <c r="BG2" s="100"/>
+      <c r="BH2" s="100"/>
+      <c r="BI2" s="100"/>
+      <c r="BJ2" s="100"/>
+      <c r="BK2" s="100"/>
+      <c r="BL2" s="100"/>
+      <c r="BM2" s="100"/>
+      <c r="BN2" s="100"/>
+      <c r="BO2" s="100"/>
+      <c r="BP2" s="100"/>
+      <c r="BQ2" s="100"/>
+      <c r="BR2" s="100"/>
+      <c r="BS2" s="100"/>
+      <c r="BT2" s="100"/>
+      <c r="BU2" s="100"/>
+      <c r="BV2" s="100"/>
+      <c r="BW2" s="100"/>
+      <c r="BX2" s="100"/>
+      <c r="BY2" s="100"/>
+      <c r="BZ2" s="100"/>
+      <c r="CA2" s="100"/>
+      <c r="CB2" s="100"/>
+      <c r="CC2" s="100"/>
+      <c r="CD2" s="100"/>
+      <c r="CE2" s="100"/>
+      <c r="CF2" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="CG2" s="128"/>
-      <c r="CH2" s="128"/>
-      <c r="CI2" s="128"/>
-      <c r="CJ2" s="128"/>
-      <c r="CK2" s="128"/>
-      <c r="CL2" s="128"/>
-      <c r="CM2" s="128"/>
-      <c r="CN2" s="128"/>
-      <c r="CO2" s="128"/>
-      <c r="CP2" s="128"/>
-      <c r="CQ2" s="128"/>
-      <c r="CR2" s="128"/>
-      <c r="CS2" s="128"/>
-      <c r="CT2" s="128"/>
-      <c r="CU2" s="128"/>
-      <c r="CV2" s="128"/>
-      <c r="CW2" s="128"/>
-      <c r="CX2" s="128"/>
-      <c r="CY2" s="128"/>
-      <c r="CZ2" s="128"/>
-      <c r="DA2" s="128"/>
-      <c r="DB2" s="128"/>
-      <c r="DC2" s="128"/>
-      <c r="DD2" s="128"/>
-      <c r="DE2" s="128"/>
-      <c r="DF2" s="128"/>
-      <c r="DG2" s="128"/>
-      <c r="DH2" s="128"/>
-      <c r="DI2" s="128"/>
-      <c r="DJ2" s="128"/>
-      <c r="DK2" s="128"/>
-      <c r="DL2" s="128"/>
-      <c r="DM2" s="128"/>
-      <c r="DN2" s="128"/>
-      <c r="DO2" s="128"/>
-      <c r="DP2" s="128"/>
-      <c r="DQ2" s="128"/>
-      <c r="DR2" s="128"/>
-      <c r="DS2" s="128"/>
-      <c r="DT2" s="128" t="s">
+      <c r="CG2" s="100"/>
+      <c r="CH2" s="100"/>
+      <c r="CI2" s="100"/>
+      <c r="CJ2" s="100"/>
+      <c r="CK2" s="100"/>
+      <c r="CL2" s="100"/>
+      <c r="CM2" s="100"/>
+      <c r="CN2" s="100"/>
+      <c r="CO2" s="100"/>
+      <c r="CP2" s="100"/>
+      <c r="CQ2" s="100"/>
+      <c r="CR2" s="100"/>
+      <c r="CS2" s="100"/>
+      <c r="CT2" s="100"/>
+      <c r="CU2" s="100"/>
+      <c r="CV2" s="100"/>
+      <c r="CW2" s="100"/>
+      <c r="CX2" s="100"/>
+      <c r="CY2" s="100"/>
+      <c r="CZ2" s="100"/>
+      <c r="DA2" s="100"/>
+      <c r="DB2" s="100"/>
+      <c r="DC2" s="100"/>
+      <c r="DD2" s="100"/>
+      <c r="DE2" s="100"/>
+      <c r="DF2" s="100"/>
+      <c r="DG2" s="100"/>
+      <c r="DH2" s="100"/>
+      <c r="DI2" s="100"/>
+      <c r="DJ2" s="100"/>
+      <c r="DK2" s="100"/>
+      <c r="DL2" s="100"/>
+      <c r="DM2" s="100"/>
+      <c r="DN2" s="100"/>
+      <c r="DO2" s="100"/>
+      <c r="DP2" s="100"/>
+      <c r="DQ2" s="100"/>
+      <c r="DR2" s="100"/>
+      <c r="DS2" s="100"/>
+      <c r="DT2" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="DU2" s="128"/>
-      <c r="DV2" s="128"/>
-      <c r="DW2" s="128"/>
-      <c r="DX2" s="128"/>
-      <c r="DY2" s="128"/>
-      <c r="DZ2" s="128"/>
-      <c r="EA2" s="128"/>
-      <c r="EB2" s="128"/>
-      <c r="EC2" s="128"/>
-      <c r="ED2" s="128"/>
-      <c r="EE2" s="128"/>
-      <c r="EF2" s="128"/>
-      <c r="EG2" s="128"/>
-      <c r="EH2" s="128"/>
-      <c r="EI2" s="128"/>
-      <c r="EJ2" s="128"/>
-      <c r="EK2" s="128"/>
-      <c r="EL2" s="128"/>
-      <c r="EM2" s="128"/>
-      <c r="EN2" s="128"/>
-      <c r="EO2" s="128"/>
-      <c r="EP2" s="128"/>
-      <c r="EQ2" s="128"/>
-      <c r="ER2" s="128"/>
-      <c r="ES2" s="128"/>
-      <c r="ET2" s="128"/>
-      <c r="EU2" s="128"/>
-      <c r="EV2" s="128"/>
-      <c r="EW2" s="128"/>
-      <c r="EX2" s="128"/>
-      <c r="EY2" s="128"/>
-      <c r="EZ2" s="128"/>
-      <c r="FA2" s="128"/>
-      <c r="FB2" s="128"/>
-      <c r="FC2" s="128"/>
-      <c r="FD2" s="128"/>
-      <c r="FE2" s="128"/>
-      <c r="FF2" s="128"/>
-      <c r="FG2" s="128"/>
-      <c r="FH2" s="128" t="s">
+      <c r="DU2" s="100"/>
+      <c r="DV2" s="100"/>
+      <c r="DW2" s="100"/>
+      <c r="DX2" s="100"/>
+      <c r="DY2" s="100"/>
+      <c r="DZ2" s="100"/>
+      <c r="EA2" s="100"/>
+      <c r="EB2" s="100"/>
+      <c r="EC2" s="100"/>
+      <c r="ED2" s="100"/>
+      <c r="EE2" s="100"/>
+      <c r="EF2" s="100"/>
+      <c r="EG2" s="100"/>
+      <c r="EH2" s="100"/>
+      <c r="EI2" s="100"/>
+      <c r="EJ2" s="100"/>
+      <c r="EK2" s="100"/>
+      <c r="EL2" s="100"/>
+      <c r="EM2" s="100"/>
+      <c r="EN2" s="100"/>
+      <c r="EO2" s="100"/>
+      <c r="EP2" s="100"/>
+      <c r="EQ2" s="100"/>
+      <c r="ER2" s="100"/>
+      <c r="ES2" s="100"/>
+      <c r="ET2" s="100"/>
+      <c r="EU2" s="100"/>
+      <c r="EV2" s="100"/>
+      <c r="EW2" s="100"/>
+      <c r="EX2" s="100"/>
+      <c r="EY2" s="100"/>
+      <c r="EZ2" s="100"/>
+      <c r="FA2" s="100"/>
+      <c r="FB2" s="100"/>
+      <c r="FC2" s="100"/>
+      <c r="FD2" s="100"/>
+      <c r="FE2" s="100"/>
+      <c r="FF2" s="100"/>
+      <c r="FG2" s="100"/>
+      <c r="FH2" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="FI2" s="128"/>
-      <c r="FJ2" s="128"/>
-      <c r="FK2" s="128"/>
-      <c r="FL2" s="128"/>
-      <c r="FM2" s="128"/>
-      <c r="FN2" s="128"/>
-      <c r="FO2" s="128"/>
-      <c r="FP2" s="128"/>
-      <c r="FQ2" s="128"/>
-      <c r="FR2" s="128"/>
-      <c r="FS2" s="128"/>
-      <c r="FT2" s="128"/>
-      <c r="FU2" s="128"/>
-      <c r="FV2" s="128"/>
-      <c r="FW2" s="128"/>
-      <c r="FX2" s="128"/>
-      <c r="FY2" s="128"/>
-      <c r="FZ2" s="128"/>
-      <c r="GA2" s="128"/>
-      <c r="GB2" s="128"/>
-      <c r="GC2" s="128"/>
-      <c r="GD2" s="128"/>
-      <c r="GE2" s="128"/>
-      <c r="GF2" s="128"/>
-      <c r="GG2" s="128"/>
-      <c r="GH2" s="128"/>
-      <c r="GI2" s="128"/>
-      <c r="GJ2" s="128"/>
-      <c r="GK2" s="128"/>
-      <c r="GL2" s="128"/>
-      <c r="GM2" s="128"/>
-      <c r="GN2" s="128"/>
-      <c r="GO2" s="128"/>
-      <c r="GP2" s="128"/>
-      <c r="GQ2" s="128"/>
-      <c r="GR2" s="128"/>
-      <c r="GS2" s="128"/>
-      <c r="GT2" s="128"/>
-      <c r="GU2" s="128"/>
-      <c r="GV2" s="128"/>
+      <c r="FI2" s="100"/>
+      <c r="FJ2" s="100"/>
+      <c r="FK2" s="100"/>
+      <c r="FL2" s="100"/>
+      <c r="FM2" s="100"/>
+      <c r="FN2" s="100"/>
+      <c r="FO2" s="100"/>
+      <c r="FP2" s="100"/>
+      <c r="FQ2" s="100"/>
+      <c r="FR2" s="100"/>
+      <c r="FS2" s="100"/>
+      <c r="FT2" s="100"/>
+      <c r="FU2" s="100"/>
+      <c r="FV2" s="100"/>
+      <c r="FW2" s="100"/>
+      <c r="FX2" s="100"/>
+      <c r="FY2" s="100"/>
+      <c r="FZ2" s="100"/>
+      <c r="GA2" s="100"/>
+      <c r="GB2" s="100"/>
+      <c r="GC2" s="100"/>
+      <c r="GD2" s="100"/>
+      <c r="GE2" s="100"/>
+      <c r="GF2" s="100"/>
+      <c r="GG2" s="100"/>
+      <c r="GH2" s="100"/>
+      <c r="GI2" s="100"/>
+      <c r="GJ2" s="100"/>
+      <c r="GK2" s="100"/>
+      <c r="GL2" s="100"/>
+      <c r="GM2" s="100"/>
+      <c r="GN2" s="100"/>
+      <c r="GO2" s="100"/>
+      <c r="GP2" s="100"/>
+      <c r="GQ2" s="100"/>
+      <c r="GR2" s="100"/>
+      <c r="GS2" s="100"/>
+      <c r="GT2" s="100"/>
+      <c r="GU2" s="100"/>
+      <c r="GV2" s="100"/>
     </row>
-    <row r="3" spans="1:205" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="129"/>
-      <c r="S3" s="129"/>
-      <c r="T3" s="129"/>
-      <c r="U3" s="129"/>
-      <c r="V3" s="129"/>
-      <c r="W3" s="129"/>
-      <c r="X3" s="129"/>
-      <c r="Y3" s="129"/>
-      <c r="Z3" s="129"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="129"/>
-      <c r="AG3" s="129"/>
-      <c r="AH3" s="129"/>
-      <c r="AI3" s="129"/>
-      <c r="AJ3" s="129"/>
-      <c r="AK3" s="129"/>
-      <c r="AL3" s="129"/>
-      <c r="AM3" s="129"/>
-      <c r="AN3" s="129"/>
-      <c r="AO3" s="129"/>
-      <c r="AP3" s="129"/>
-      <c r="AQ3" s="129"/>
-      <c r="AR3" s="129"/>
-      <c r="AS3" s="129"/>
-      <c r="AT3" s="129"/>
-      <c r="AU3" s="129"/>
-      <c r="AV3" s="129"/>
-      <c r="AW3" s="129"/>
-      <c r="AX3" s="129"/>
-      <c r="AY3" s="129"/>
-      <c r="AZ3" s="129"/>
-      <c r="BA3" s="129"/>
-      <c r="BB3" s="129"/>
-      <c r="BC3" s="129"/>
-      <c r="BD3" s="129"/>
-      <c r="BE3" s="129"/>
-      <c r="BF3" s="129"/>
-      <c r="BG3" s="129"/>
-      <c r="BH3" s="129"/>
-      <c r="BI3" s="129"/>
-      <c r="BJ3" s="129"/>
-      <c r="BK3" s="129"/>
-      <c r="BL3" s="129"/>
-      <c r="BM3" s="129"/>
-      <c r="BN3" s="129"/>
-      <c r="BO3" s="129"/>
-      <c r="BP3" s="129"/>
-      <c r="BQ3" s="129"/>
-      <c r="BR3" s="129"/>
-      <c r="BS3" s="129"/>
-      <c r="BT3" s="129"/>
-      <c r="BU3" s="129"/>
-      <c r="BV3" s="129"/>
-      <c r="BW3" s="129"/>
-      <c r="BX3" s="129"/>
-      <c r="BY3" s="129"/>
-      <c r="BZ3" s="129"/>
-      <c r="CA3" s="129"/>
-      <c r="CB3" s="129"/>
-      <c r="CC3" s="129"/>
-      <c r="CD3" s="129"/>
-      <c r="CE3" s="129"/>
-      <c r="CF3" s="129"/>
-      <c r="CG3" s="129"/>
-      <c r="CH3" s="129"/>
-      <c r="CI3" s="129"/>
-      <c r="CJ3" s="129"/>
-      <c r="CK3" s="129"/>
-      <c r="CL3" s="129"/>
-      <c r="CM3" s="129"/>
-      <c r="CN3" s="129"/>
-      <c r="CO3" s="129"/>
-      <c r="CP3" s="129"/>
-      <c r="CQ3" s="129"/>
-      <c r="CR3" s="129"/>
-      <c r="CS3" s="129"/>
-      <c r="CT3" s="129"/>
-      <c r="CU3" s="129"/>
-      <c r="CV3" s="129"/>
-      <c r="CW3" s="129"/>
-      <c r="CX3" s="129"/>
-      <c r="CY3" s="129"/>
-      <c r="CZ3" s="129"/>
-      <c r="DA3" s="129"/>
-      <c r="DB3" s="129"/>
-      <c r="DC3" s="129"/>
-      <c r="DD3" s="129"/>
-      <c r="DE3" s="129"/>
-      <c r="DF3" s="129"/>
-      <c r="DG3" s="129"/>
-      <c r="DH3" s="129"/>
-      <c r="DI3" s="129"/>
-      <c r="DJ3" s="129"/>
-      <c r="DK3" s="129"/>
-      <c r="DL3" s="129"/>
-      <c r="DM3" s="129"/>
-      <c r="DN3" s="129"/>
-      <c r="DO3" s="129"/>
-      <c r="DP3" s="129"/>
-      <c r="DQ3" s="129"/>
-      <c r="DR3" s="129"/>
-      <c r="DS3" s="129"/>
-      <c r="DT3" s="129"/>
-      <c r="DU3" s="129"/>
-      <c r="DV3" s="129"/>
-      <c r="DW3" s="129"/>
-      <c r="DX3" s="129"/>
-      <c r="DY3" s="129"/>
-      <c r="DZ3" s="129"/>
-      <c r="EA3" s="129"/>
-      <c r="EB3" s="129"/>
-      <c r="EC3" s="129"/>
-      <c r="ED3" s="129"/>
-      <c r="EE3" s="129"/>
-      <c r="EF3" s="129"/>
-      <c r="EG3" s="129"/>
-      <c r="EH3" s="129"/>
-      <c r="EI3" s="129"/>
-      <c r="EJ3" s="129"/>
-      <c r="EK3" s="129"/>
-      <c r="EL3" s="129"/>
-      <c r="EM3" s="129"/>
-      <c r="EN3" s="129"/>
-      <c r="EO3" s="129"/>
-      <c r="EP3" s="129"/>
-      <c r="EQ3" s="129"/>
-      <c r="ER3" s="129"/>
-      <c r="ES3" s="129"/>
-      <c r="ET3" s="129"/>
-      <c r="EU3" s="129"/>
-      <c r="EV3" s="129"/>
-      <c r="EW3" s="129"/>
-      <c r="EX3" s="129"/>
-      <c r="EY3" s="129"/>
-      <c r="EZ3" s="129"/>
-      <c r="FA3" s="129"/>
-      <c r="FB3" s="129"/>
-      <c r="FC3" s="129"/>
-      <c r="FD3" s="129"/>
-      <c r="FE3" s="129"/>
-      <c r="FF3" s="129"/>
-      <c r="FG3" s="129"/>
-      <c r="FH3" s="129"/>
-      <c r="FI3" s="129"/>
-      <c r="FJ3" s="129"/>
-      <c r="FK3" s="129"/>
-      <c r="FL3" s="129"/>
-      <c r="FM3" s="129"/>
-      <c r="FN3" s="129"/>
-      <c r="FO3" s="129"/>
-      <c r="FP3" s="129"/>
-      <c r="FQ3" s="129"/>
-      <c r="FR3" s="129"/>
-      <c r="FS3" s="129"/>
-      <c r="FT3" s="129"/>
-      <c r="FU3" s="129"/>
-      <c r="FV3" s="129"/>
-      <c r="FW3" s="129"/>
-      <c r="FX3" s="129"/>
-      <c r="FY3" s="129"/>
-      <c r="FZ3" s="129"/>
-      <c r="GA3" s="129"/>
-      <c r="GB3" s="129"/>
-      <c r="GC3" s="129"/>
-      <c r="GD3" s="129"/>
-      <c r="GE3" s="129"/>
-      <c r="GF3" s="129"/>
-      <c r="GG3" s="129"/>
-      <c r="GH3" s="129"/>
-      <c r="GI3" s="129"/>
-      <c r="GJ3" s="129"/>
-      <c r="GK3" s="129"/>
-      <c r="GL3" s="129"/>
-      <c r="GM3" s="129"/>
-      <c r="GN3" s="128"/>
-      <c r="GO3" s="129"/>
-      <c r="GP3" s="129"/>
-      <c r="GQ3" s="129"/>
-      <c r="GR3" s="129"/>
-      <c r="GS3" s="129"/>
-      <c r="GT3" s="129"/>
-      <c r="GU3" s="129"/>
-      <c r="GV3" s="129"/>
+    <row r="3" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="101"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="101"/>
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="101"/>
+      <c r="AO3" s="101"/>
+      <c r="AP3" s="101"/>
+      <c r="AQ3" s="101"/>
+      <c r="AR3" s="101"/>
+      <c r="AS3" s="101"/>
+      <c r="AT3" s="101"/>
+      <c r="AU3" s="101"/>
+      <c r="AV3" s="101"/>
+      <c r="AW3" s="101"/>
+      <c r="AX3" s="101"/>
+      <c r="AY3" s="101"/>
+      <c r="AZ3" s="101"/>
+      <c r="BA3" s="101"/>
+      <c r="BB3" s="101"/>
+      <c r="BC3" s="101"/>
+      <c r="BD3" s="101"/>
+      <c r="BE3" s="101"/>
+      <c r="BF3" s="101"/>
+      <c r="BG3" s="101"/>
+      <c r="BH3" s="101"/>
+      <c r="BI3" s="101"/>
+      <c r="BJ3" s="101"/>
+      <c r="BK3" s="101"/>
+      <c r="BL3" s="101"/>
+      <c r="BM3" s="101"/>
+      <c r="BN3" s="101"/>
+      <c r="BO3" s="101"/>
+      <c r="BP3" s="101"/>
+      <c r="BQ3" s="101"/>
+      <c r="BR3" s="101"/>
+      <c r="BS3" s="101"/>
+      <c r="BT3" s="101"/>
+      <c r="BU3" s="101"/>
+      <c r="BV3" s="101"/>
+      <c r="BW3" s="101"/>
+      <c r="BX3" s="101"/>
+      <c r="BY3" s="101"/>
+      <c r="BZ3" s="101"/>
+      <c r="CA3" s="101"/>
+      <c r="CB3" s="101"/>
+      <c r="CC3" s="101"/>
+      <c r="CD3" s="101"/>
+      <c r="CE3" s="101"/>
+      <c r="CF3" s="101"/>
+      <c r="CG3" s="101"/>
+      <c r="CH3" s="101"/>
+      <c r="CI3" s="101"/>
+      <c r="CJ3" s="101"/>
+      <c r="CK3" s="101"/>
+      <c r="CL3" s="101"/>
+      <c r="CM3" s="101"/>
+      <c r="CN3" s="101"/>
+      <c r="CO3" s="101"/>
+      <c r="CP3" s="101"/>
+      <c r="CQ3" s="101"/>
+      <c r="CR3" s="101"/>
+      <c r="CS3" s="101"/>
+      <c r="CT3" s="101"/>
+      <c r="CU3" s="101"/>
+      <c r="CV3" s="101"/>
+      <c r="CW3" s="101"/>
+      <c r="CX3" s="101"/>
+      <c r="CY3" s="101"/>
+      <c r="CZ3" s="101"/>
+      <c r="DA3" s="101"/>
+      <c r="DB3" s="101"/>
+      <c r="DC3" s="101"/>
+      <c r="DD3" s="101"/>
+      <c r="DE3" s="101"/>
+      <c r="DF3" s="101"/>
+      <c r="DG3" s="101"/>
+      <c r="DH3" s="101"/>
+      <c r="DI3" s="101"/>
+      <c r="DJ3" s="101"/>
+      <c r="DK3" s="101"/>
+      <c r="DL3" s="101"/>
+      <c r="DM3" s="101"/>
+      <c r="DN3" s="101"/>
+      <c r="DO3" s="101"/>
+      <c r="DP3" s="101"/>
+      <c r="DQ3" s="101"/>
+      <c r="DR3" s="101"/>
+      <c r="DS3" s="101"/>
+      <c r="DT3" s="101"/>
+      <c r="DU3" s="101"/>
+      <c r="DV3" s="101"/>
+      <c r="DW3" s="101"/>
+      <c r="DX3" s="101"/>
+      <c r="DY3" s="101"/>
+      <c r="DZ3" s="101"/>
+      <c r="EA3" s="101"/>
+      <c r="EB3" s="101"/>
+      <c r="EC3" s="101"/>
+      <c r="ED3" s="101"/>
+      <c r="EE3" s="101"/>
+      <c r="EF3" s="101"/>
+      <c r="EG3" s="101"/>
+      <c r="EH3" s="101"/>
+      <c r="EI3" s="101"/>
+      <c r="EJ3" s="101"/>
+      <c r="EK3" s="101"/>
+      <c r="EL3" s="101"/>
+      <c r="EM3" s="101"/>
+      <c r="EN3" s="101"/>
+      <c r="EO3" s="101"/>
+      <c r="EP3" s="101"/>
+      <c r="EQ3" s="101"/>
+      <c r="ER3" s="101"/>
+      <c r="ES3" s="101"/>
+      <c r="ET3" s="101"/>
+      <c r="EU3" s="101"/>
+      <c r="EV3" s="101"/>
+      <c r="EW3" s="101"/>
+      <c r="EX3" s="101"/>
+      <c r="EY3" s="101"/>
+      <c r="EZ3" s="101"/>
+      <c r="FA3" s="101"/>
+      <c r="FB3" s="101"/>
+      <c r="FC3" s="101"/>
+      <c r="FD3" s="101"/>
+      <c r="FE3" s="101"/>
+      <c r="FF3" s="101"/>
+      <c r="FG3" s="101"/>
+      <c r="FH3" s="101"/>
+      <c r="FI3" s="101"/>
+      <c r="FJ3" s="101"/>
+      <c r="FK3" s="101"/>
+      <c r="FL3" s="101"/>
+      <c r="FM3" s="101"/>
+      <c r="FN3" s="101"/>
+      <c r="FO3" s="101"/>
+      <c r="FP3" s="101"/>
+      <c r="FQ3" s="101"/>
+      <c r="FR3" s="101"/>
+      <c r="FS3" s="101"/>
+      <c r="FT3" s="101"/>
+      <c r="FU3" s="101"/>
+      <c r="FV3" s="101"/>
+      <c r="FW3" s="101"/>
+      <c r="FX3" s="101"/>
+      <c r="FY3" s="101"/>
+      <c r="FZ3" s="101"/>
+      <c r="GA3" s="101"/>
+      <c r="GB3" s="101"/>
+      <c r="GC3" s="101"/>
+      <c r="GD3" s="101"/>
+      <c r="GE3" s="101"/>
+      <c r="GF3" s="101"/>
+      <c r="GG3" s="101"/>
+      <c r="GH3" s="101"/>
+      <c r="GI3" s="101"/>
+      <c r="GJ3" s="101"/>
+      <c r="GK3" s="101"/>
+      <c r="GL3" s="101"/>
+      <c r="GM3" s="101"/>
+      <c r="GN3" s="100"/>
+      <c r="GO3" s="101"/>
+      <c r="GP3" s="101"/>
+      <c r="GQ3" s="101"/>
+      <c r="GR3" s="101"/>
+      <c r="GS3" s="101"/>
+      <c r="GT3" s="101"/>
+      <c r="GU3" s="101"/>
+      <c r="GV3" s="101"/>
     </row>
-    <row r="4" spans="1:205" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="126" t="s">
+    <row r="4" spans="1:205" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="98" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -2572,313 +2572,313 @@
       <c r="C4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="130">
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="102">
         <v>45418</v>
       </c>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="121" t="s">
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="119">
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="94">
         <v>45419</v>
       </c>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="120"/>
-      <c r="T4" s="121" t="s">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="119">
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="94">
         <v>45420</v>
       </c>
-      <c r="Y4" s="119"/>
-      <c r="Z4" s="119"/>
-      <c r="AA4" s="120"/>
-      <c r="AB4" s="121" t="s">
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="122"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="122"/>
-      <c r="AF4" s="119">
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="94">
         <v>45421</v>
       </c>
-      <c r="AG4" s="119"/>
-      <c r="AH4" s="119"/>
-      <c r="AI4" s="120"/>
-      <c r="AJ4" s="121" t="s">
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="122"/>
-      <c r="AL4" s="122"/>
-      <c r="AM4" s="122"/>
-      <c r="AN4" s="119">
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="94">
         <v>45422</v>
       </c>
-      <c r="AO4" s="119"/>
-      <c r="AP4" s="119"/>
-      <c r="AQ4" s="120"/>
-      <c r="AR4" s="121" t="s">
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="122"/>
-      <c r="AT4" s="122"/>
-      <c r="AU4" s="122"/>
-      <c r="AV4" s="119">
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="94">
         <v>45425</v>
       </c>
-      <c r="AW4" s="119"/>
-      <c r="AX4" s="119"/>
-      <c r="AY4" s="120"/>
-      <c r="AZ4" s="121" t="s">
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="95"/>
+      <c r="AZ4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="BA4" s="122"/>
-      <c r="BB4" s="122"/>
-      <c r="BC4" s="122"/>
-      <c r="BD4" s="119">
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="94">
         <v>45426</v>
       </c>
-      <c r="BE4" s="119"/>
-      <c r="BF4" s="119"/>
-      <c r="BG4" s="120"/>
-      <c r="BH4" s="121" t="s">
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="94"/>
+      <c r="BG4" s="95"/>
+      <c r="BH4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="BI4" s="122"/>
-      <c r="BJ4" s="122"/>
-      <c r="BK4" s="122"/>
-      <c r="BL4" s="119">
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="94">
         <v>45427</v>
       </c>
-      <c r="BM4" s="119"/>
-      <c r="BN4" s="119"/>
-      <c r="BO4" s="120"/>
-      <c r="BP4" s="121" t="s">
+      <c r="BM4" s="94"/>
+      <c r="BN4" s="94"/>
+      <c r="BO4" s="95"/>
+      <c r="BP4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="BQ4" s="122"/>
-      <c r="BR4" s="122"/>
-      <c r="BS4" s="122"/>
-      <c r="BT4" s="119">
+      <c r="BQ4" s="93"/>
+      <c r="BR4" s="93"/>
+      <c r="BS4" s="93"/>
+      <c r="BT4" s="94">
         <v>45428</v>
       </c>
-      <c r="BU4" s="119"/>
-      <c r="BV4" s="119"/>
-      <c r="BW4" s="120"/>
-      <c r="BX4" s="121" t="s">
+      <c r="BU4" s="94"/>
+      <c r="BV4" s="94"/>
+      <c r="BW4" s="95"/>
+      <c r="BX4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="122"/>
-      <c r="BZ4" s="122"/>
-      <c r="CA4" s="122"/>
-      <c r="CB4" s="119">
+      <c r="BY4" s="93"/>
+      <c r="BZ4" s="93"/>
+      <c r="CA4" s="93"/>
+      <c r="CB4" s="94">
         <v>45429</v>
       </c>
-      <c r="CC4" s="119"/>
-      <c r="CD4" s="119"/>
-      <c r="CE4" s="120"/>
-      <c r="CF4" s="121" t="s">
+      <c r="CC4" s="94"/>
+      <c r="CD4" s="94"/>
+      <c r="CE4" s="95"/>
+      <c r="CF4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="CG4" s="122"/>
-      <c r="CH4" s="122"/>
-      <c r="CI4" s="122"/>
-      <c r="CJ4" s="119">
+      <c r="CG4" s="93"/>
+      <c r="CH4" s="93"/>
+      <c r="CI4" s="93"/>
+      <c r="CJ4" s="94">
         <v>45432</v>
       </c>
-      <c r="CK4" s="119"/>
-      <c r="CL4" s="119"/>
-      <c r="CM4" s="120"/>
-      <c r="CN4" s="121" t="s">
+      <c r="CK4" s="94"/>
+      <c r="CL4" s="94"/>
+      <c r="CM4" s="95"/>
+      <c r="CN4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="CO4" s="122"/>
-      <c r="CP4" s="122"/>
-      <c r="CQ4" s="122"/>
-      <c r="CR4" s="119">
+      <c r="CO4" s="93"/>
+      <c r="CP4" s="93"/>
+      <c r="CQ4" s="93"/>
+      <c r="CR4" s="94">
         <v>45433</v>
       </c>
-      <c r="CS4" s="119"/>
-      <c r="CT4" s="119"/>
-      <c r="CU4" s="120"/>
-      <c r="CV4" s="121" t="s">
+      <c r="CS4" s="94"/>
+      <c r="CT4" s="94"/>
+      <c r="CU4" s="95"/>
+      <c r="CV4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="CW4" s="122"/>
-      <c r="CX4" s="122"/>
-      <c r="CY4" s="122"/>
-      <c r="CZ4" s="119">
+      <c r="CW4" s="93"/>
+      <c r="CX4" s="93"/>
+      <c r="CY4" s="93"/>
+      <c r="CZ4" s="94">
         <v>45434</v>
       </c>
-      <c r="DA4" s="119"/>
-      <c r="DB4" s="119"/>
-      <c r="DC4" s="120"/>
-      <c r="DD4" s="121" t="s">
+      <c r="DA4" s="94"/>
+      <c r="DB4" s="94"/>
+      <c r="DC4" s="95"/>
+      <c r="DD4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="DE4" s="122"/>
-      <c r="DF4" s="122"/>
-      <c r="DG4" s="122"/>
-      <c r="DH4" s="119">
+      <c r="DE4" s="93"/>
+      <c r="DF4" s="93"/>
+      <c r="DG4" s="93"/>
+      <c r="DH4" s="94">
         <v>45435</v>
       </c>
-      <c r="DI4" s="119"/>
-      <c r="DJ4" s="119"/>
-      <c r="DK4" s="120"/>
-      <c r="DL4" s="121" t="s">
+      <c r="DI4" s="94"/>
+      <c r="DJ4" s="94"/>
+      <c r="DK4" s="95"/>
+      <c r="DL4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="DM4" s="122"/>
-      <c r="DN4" s="122"/>
-      <c r="DO4" s="122"/>
-      <c r="DP4" s="119">
+      <c r="DM4" s="93"/>
+      <c r="DN4" s="93"/>
+      <c r="DO4" s="93"/>
+      <c r="DP4" s="94">
         <v>45436</v>
       </c>
-      <c r="DQ4" s="119"/>
-      <c r="DR4" s="119"/>
-      <c r="DS4" s="120"/>
-      <c r="DT4" s="121" t="s">
+      <c r="DQ4" s="94"/>
+      <c r="DR4" s="94"/>
+      <c r="DS4" s="95"/>
+      <c r="DT4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="DU4" s="122"/>
-      <c r="DV4" s="122"/>
-      <c r="DW4" s="122"/>
-      <c r="DX4" s="119">
+      <c r="DU4" s="93"/>
+      <c r="DV4" s="93"/>
+      <c r="DW4" s="93"/>
+      <c r="DX4" s="94">
         <v>45439</v>
       </c>
-      <c r="DY4" s="119"/>
-      <c r="DZ4" s="119"/>
-      <c r="EA4" s="120"/>
-      <c r="EB4" s="121" t="s">
+      <c r="DY4" s="94"/>
+      <c r="DZ4" s="94"/>
+      <c r="EA4" s="95"/>
+      <c r="EB4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="EC4" s="122"/>
-      <c r="ED4" s="122"/>
-      <c r="EE4" s="122"/>
-      <c r="EF4" s="119">
+      <c r="EC4" s="93"/>
+      <c r="ED4" s="93"/>
+      <c r="EE4" s="93"/>
+      <c r="EF4" s="94">
         <v>45440</v>
       </c>
-      <c r="EG4" s="119"/>
-      <c r="EH4" s="119"/>
-      <c r="EI4" s="120"/>
-      <c r="EJ4" s="121" t="s">
+      <c r="EG4" s="94"/>
+      <c r="EH4" s="94"/>
+      <c r="EI4" s="95"/>
+      <c r="EJ4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="EK4" s="122"/>
-      <c r="EL4" s="122"/>
-      <c r="EM4" s="122"/>
-      <c r="EN4" s="119">
+      <c r="EK4" s="93"/>
+      <c r="EL4" s="93"/>
+      <c r="EM4" s="93"/>
+      <c r="EN4" s="94">
         <v>45441</v>
       </c>
-      <c r="EO4" s="119"/>
-      <c r="EP4" s="119"/>
-      <c r="EQ4" s="120"/>
-      <c r="ER4" s="121" t="s">
+      <c r="EO4" s="94"/>
+      <c r="EP4" s="94"/>
+      <c r="EQ4" s="95"/>
+      <c r="ER4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="ES4" s="122"/>
-      <c r="ET4" s="122"/>
-      <c r="EU4" s="122"/>
-      <c r="EV4" s="119">
+      <c r="ES4" s="93"/>
+      <c r="ET4" s="93"/>
+      <c r="EU4" s="93"/>
+      <c r="EV4" s="94">
         <v>45442</v>
       </c>
-      <c r="EW4" s="119"/>
-      <c r="EX4" s="119"/>
-      <c r="EY4" s="120"/>
-      <c r="EZ4" s="121" t="s">
+      <c r="EW4" s="94"/>
+      <c r="EX4" s="94"/>
+      <c r="EY4" s="95"/>
+      <c r="EZ4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="FA4" s="122"/>
-      <c r="FB4" s="122"/>
-      <c r="FC4" s="122"/>
-      <c r="FD4" s="119">
+      <c r="FA4" s="93"/>
+      <c r="FB4" s="93"/>
+      <c r="FC4" s="93"/>
+      <c r="FD4" s="94">
         <v>45443</v>
       </c>
-      <c r="FE4" s="119"/>
-      <c r="FF4" s="119"/>
-      <c r="FG4" s="120"/>
-      <c r="FH4" s="121" t="s">
+      <c r="FE4" s="94"/>
+      <c r="FF4" s="94"/>
+      <c r="FG4" s="95"/>
+      <c r="FH4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="FI4" s="122"/>
-      <c r="FJ4" s="122"/>
-      <c r="FK4" s="122"/>
-      <c r="FL4" s="119">
+      <c r="FI4" s="93"/>
+      <c r="FJ4" s="93"/>
+      <c r="FK4" s="93"/>
+      <c r="FL4" s="94">
         <v>45446</v>
       </c>
-      <c r="FM4" s="119"/>
-      <c r="FN4" s="119"/>
-      <c r="FO4" s="120"/>
-      <c r="FP4" s="121" t="s">
+      <c r="FM4" s="94"/>
+      <c r="FN4" s="94"/>
+      <c r="FO4" s="95"/>
+      <c r="FP4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="FQ4" s="122"/>
-      <c r="FR4" s="122"/>
-      <c r="FS4" s="122"/>
-      <c r="FT4" s="119">
+      <c r="FQ4" s="93"/>
+      <c r="FR4" s="93"/>
+      <c r="FS4" s="93"/>
+      <c r="FT4" s="94">
         <v>45447</v>
       </c>
-      <c r="FU4" s="119"/>
-      <c r="FV4" s="119"/>
-      <c r="FW4" s="120"/>
-      <c r="FX4" s="121" t="s">
+      <c r="FU4" s="94"/>
+      <c r="FV4" s="94"/>
+      <c r="FW4" s="95"/>
+      <c r="FX4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="FY4" s="122"/>
-      <c r="FZ4" s="122"/>
-      <c r="GA4" s="122"/>
-      <c r="GB4" s="119">
+      <c r="FY4" s="93"/>
+      <c r="FZ4" s="93"/>
+      <c r="GA4" s="93"/>
+      <c r="GB4" s="94">
         <v>45448</v>
       </c>
-      <c r="GC4" s="119"/>
-      <c r="GD4" s="119"/>
-      <c r="GE4" s="120"/>
-      <c r="GF4" s="121" t="s">
+      <c r="GC4" s="94"/>
+      <c r="GD4" s="94"/>
+      <c r="GE4" s="95"/>
+      <c r="GF4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="GG4" s="122"/>
-      <c r="GH4" s="122"/>
-      <c r="GI4" s="122"/>
-      <c r="GJ4" s="119">
+      <c r="GG4" s="93"/>
+      <c r="GH4" s="93"/>
+      <c r="GI4" s="93"/>
+      <c r="GJ4" s="94">
         <v>45449</v>
       </c>
-      <c r="GK4" s="119"/>
-      <c r="GL4" s="119"/>
-      <c r="GM4" s="119"/>
+      <c r="GK4" s="94"/>
+      <c r="GL4" s="94"/>
+      <c r="GM4" s="94"/>
       <c r="GN4" s="50"/>
-      <c r="GO4" s="122" t="s">
+      <c r="GO4" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="GP4" s="122"/>
-      <c r="GQ4" s="122"/>
-      <c r="GR4" s="122"/>
-      <c r="GS4" s="119">
+      <c r="GP4" s="93"/>
+      <c r="GQ4" s="93"/>
+      <c r="GR4" s="93"/>
+      <c r="GS4" s="94">
         <v>45454</v>
       </c>
-      <c r="GT4" s="119"/>
-      <c r="GU4" s="119"/>
-      <c r="GV4" s="120"/>
-      <c r="GW4" s="132" t="s">
+      <c r="GT4" s="94"/>
+      <c r="GU4" s="94"/>
+      <c r="GV4" s="95"/>
+      <c r="GW4" s="96" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:205" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="127"/>
+    <row r="5" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="99"/>
       <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
@@ -3486,9 +3486,9 @@
       <c r="GV5" s="7">
         <v>8</v>
       </c>
-      <c r="GW5" s="132"/>
+      <c r="GW5" s="96"/>
     </row>
-    <row r="6" spans="1:205" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:205" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>16</v>
       </c>
@@ -3520,16 +3520,16 @@
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
       <c r="AA6" s="15"/>
-      <c r="AB6" s="107" t="s">
+      <c r="AB6" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="AC6" s="108"/>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="108"/>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="108"/>
-      <c r="AH6" s="108"/>
-      <c r="AI6" s="109"/>
+      <c r="AC6" s="105"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="105"/>
+      <c r="AF6" s="105"/>
+      <c r="AG6" s="105"/>
+      <c r="AH6" s="105"/>
+      <c r="AI6" s="106"/>
       <c r="AJ6" s="13"/>
       <c r="AK6" s="14"/>
       <c r="AL6" s="14"/>
@@ -3584,16 +3584,16 @@
       <c r="CE6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="CF6" s="107" t="s">
+      <c r="CF6" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="CG6" s="108"/>
-      <c r="CH6" s="108"/>
-      <c r="CI6" s="108"/>
-      <c r="CJ6" s="108"/>
-      <c r="CK6" s="108"/>
-      <c r="CL6" s="108"/>
-      <c r="CM6" s="109"/>
+      <c r="CG6" s="105"/>
+      <c r="CH6" s="105"/>
+      <c r="CI6" s="105"/>
+      <c r="CJ6" s="105"/>
+      <c r="CK6" s="105"/>
+      <c r="CL6" s="105"/>
+      <c r="CM6" s="106"/>
       <c r="CN6" s="26" t="s">
         <v>28</v>
       </c>
@@ -3664,16 +3664,16 @@
       <c r="EO6" s="24"/>
       <c r="EP6" s="24"/>
       <c r="EQ6" s="25"/>
-      <c r="ER6" s="107" t="s">
+      <c r="ER6" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="ES6" s="108"/>
-      <c r="ET6" s="108"/>
-      <c r="EU6" s="108"/>
-      <c r="EV6" s="108"/>
-      <c r="EW6" s="108"/>
-      <c r="EX6" s="108"/>
-      <c r="EY6" s="109"/>
+      <c r="ES6" s="105"/>
+      <c r="ET6" s="105"/>
+      <c r="EU6" s="105"/>
+      <c r="EV6" s="105"/>
+      <c r="EW6" s="105"/>
+      <c r="EX6" s="105"/>
+      <c r="EY6" s="106"/>
       <c r="EZ6" s="26"/>
       <c r="FA6" s="24"/>
       <c r="FB6" s="24"/>
@@ -3723,13 +3723,13 @@
       <c r="GT6" s="10"/>
       <c r="GU6" s="10"/>
       <c r="GV6" s="10"/>
-      <c r="GW6" s="132"/>
+      <c r="GW6" s="96"/>
     </row>
-    <row r="7" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
+    <row r="7" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="96"/>
+      <c r="B7" s="122"/>
       <c r="C7" s="61"/>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
@@ -3755,14 +3755,14 @@
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
       <c r="AA7" s="15"/>
-      <c r="AB7" s="110"/>
-      <c r="AC7" s="111"/>
-      <c r="AD7" s="111"/>
-      <c r="AE7" s="111"/>
-      <c r="AF7" s="111"/>
-      <c r="AG7" s="111"/>
-      <c r="AH7" s="111"/>
-      <c r="AI7" s="112"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="108"/>
+      <c r="AD7" s="108"/>
+      <c r="AE7" s="108"/>
+      <c r="AF7" s="108"/>
+      <c r="AG7" s="108"/>
+      <c r="AH7" s="108"/>
+      <c r="AI7" s="109"/>
       <c r="AJ7" s="13"/>
       <c r="AK7" s="14"/>
       <c r="AL7" s="14"/>
@@ -3811,14 +3811,14 @@
       <c r="CC7" s="14"/>
       <c r="CD7" s="14"/>
       <c r="CE7" s="15"/>
-      <c r="CF7" s="110"/>
-      <c r="CG7" s="111"/>
-      <c r="CH7" s="111"/>
-      <c r="CI7" s="111"/>
-      <c r="CJ7" s="111"/>
-      <c r="CK7" s="111"/>
-      <c r="CL7" s="111"/>
-      <c r="CM7" s="112"/>
+      <c r="CF7" s="107"/>
+      <c r="CG7" s="108"/>
+      <c r="CH7" s="108"/>
+      <c r="CI7" s="108"/>
+      <c r="CJ7" s="108"/>
+      <c r="CK7" s="108"/>
+      <c r="CL7" s="108"/>
+      <c r="CM7" s="109"/>
       <c r="CN7" s="13"/>
       <c r="CO7" s="14"/>
       <c r="CP7" s="14"/>
@@ -3875,14 +3875,14 @@
       <c r="EO7" s="14"/>
       <c r="EP7" s="14"/>
       <c r="EQ7" s="15"/>
-      <c r="ER7" s="110"/>
-      <c r="ES7" s="111"/>
-      <c r="ET7" s="111"/>
-      <c r="EU7" s="111"/>
-      <c r="EV7" s="111"/>
-      <c r="EW7" s="111"/>
-      <c r="EX7" s="111"/>
-      <c r="EY7" s="112"/>
+      <c r="ER7" s="107"/>
+      <c r="ES7" s="108"/>
+      <c r="ET7" s="108"/>
+      <c r="EU7" s="108"/>
+      <c r="EV7" s="108"/>
+      <c r="EW7" s="108"/>
+      <c r="EX7" s="108"/>
+      <c r="EY7" s="109"/>
       <c r="EZ7" s="13"/>
       <c r="FA7" s="14"/>
       <c r="FB7" s="14"/>
@@ -3932,9 +3932,9 @@
       <c r="GT7" s="14"/>
       <c r="GU7" s="14"/>
       <c r="GV7" s="14"/>
-      <c r="GW7" s="132"/>
+      <c r="GW7" s="96"/>
     </row>
-    <row r="8" spans="1:205" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A8" s="80" t="s">
         <v>25</v>
       </c>
@@ -3966,14 +3966,14 @@
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
       <c r="AA8" s="15"/>
-      <c r="AB8" s="110"/>
-      <c r="AC8" s="111"/>
-      <c r="AD8" s="111"/>
-      <c r="AE8" s="111"/>
-      <c r="AF8" s="111"/>
-      <c r="AG8" s="111"/>
-      <c r="AH8" s="111"/>
-      <c r="AI8" s="112"/>
+      <c r="AB8" s="107"/>
+      <c r="AC8" s="108"/>
+      <c r="AD8" s="108"/>
+      <c r="AE8" s="108"/>
+      <c r="AF8" s="108"/>
+      <c r="AG8" s="108"/>
+      <c r="AH8" s="108"/>
+      <c r="AI8" s="109"/>
       <c r="AJ8" s="13"/>
       <c r="AK8" s="14"/>
       <c r="AL8" s="14"/>
@@ -4026,14 +4026,14 @@
       <c r="CC8" s="14"/>
       <c r="CD8" s="14"/>
       <c r="CE8" s="44"/>
-      <c r="CF8" s="110"/>
-      <c r="CG8" s="111"/>
-      <c r="CH8" s="111"/>
-      <c r="CI8" s="111"/>
-      <c r="CJ8" s="111"/>
-      <c r="CK8" s="111"/>
-      <c r="CL8" s="111"/>
-      <c r="CM8" s="112"/>
+      <c r="CF8" s="107"/>
+      <c r="CG8" s="108"/>
+      <c r="CH8" s="108"/>
+      <c r="CI8" s="108"/>
+      <c r="CJ8" s="108"/>
+      <c r="CK8" s="108"/>
+      <c r="CL8" s="108"/>
+      <c r="CM8" s="109"/>
       <c r="CN8" s="13"/>
       <c r="CO8" s="14"/>
       <c r="CP8" s="14"/>
@@ -4090,14 +4090,14 @@
       <c r="EO8" s="14"/>
       <c r="EP8" s="14"/>
       <c r="EQ8" s="15"/>
-      <c r="ER8" s="110"/>
-      <c r="ES8" s="111"/>
-      <c r="ET8" s="111"/>
-      <c r="EU8" s="111"/>
-      <c r="EV8" s="111"/>
-      <c r="EW8" s="111"/>
-      <c r="EX8" s="111"/>
-      <c r="EY8" s="112"/>
+      <c r="ER8" s="107"/>
+      <c r="ES8" s="108"/>
+      <c r="ET8" s="108"/>
+      <c r="EU8" s="108"/>
+      <c r="EV8" s="108"/>
+      <c r="EW8" s="108"/>
+      <c r="EX8" s="108"/>
+      <c r="EY8" s="109"/>
       <c r="EZ8" s="13"/>
       <c r="FA8" s="14"/>
       <c r="FB8" s="14"/>
@@ -4147,9 +4147,9 @@
       <c r="GT8" s="14"/>
       <c r="GU8" s="14"/>
       <c r="GV8" s="14"/>
-      <c r="GW8" s="132"/>
+      <c r="GW8" s="96"/>
     </row>
-    <row r="9" spans="1:205" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="81" t="s">
         <v>26</v>
       </c>
@@ -4181,14 +4181,14 @@
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
       <c r="AA9" s="15"/>
-      <c r="AB9" s="110"/>
-      <c r="AC9" s="111"/>
-      <c r="AD9" s="111"/>
-      <c r="AE9" s="111"/>
-      <c r="AF9" s="111"/>
-      <c r="AG9" s="111"/>
-      <c r="AH9" s="111"/>
-      <c r="AI9" s="112"/>
+      <c r="AB9" s="107"/>
+      <c r="AC9" s="108"/>
+      <c r="AD9" s="108"/>
+      <c r="AE9" s="108"/>
+      <c r="AF9" s="108"/>
+      <c r="AG9" s="108"/>
+      <c r="AH9" s="108"/>
+      <c r="AI9" s="109"/>
       <c r="AJ9" s="13"/>
       <c r="AK9" s="14"/>
       <c r="AL9" s="14"/>
@@ -4257,14 +4257,14 @@
         <v>28</v>
       </c>
       <c r="CE9" s="36"/>
-      <c r="CF9" s="110"/>
-      <c r="CG9" s="111"/>
-      <c r="CH9" s="111"/>
-      <c r="CI9" s="111"/>
-      <c r="CJ9" s="111"/>
-      <c r="CK9" s="111"/>
-      <c r="CL9" s="111"/>
-      <c r="CM9" s="112"/>
+      <c r="CF9" s="107"/>
+      <c r="CG9" s="108"/>
+      <c r="CH9" s="108"/>
+      <c r="CI9" s="108"/>
+      <c r="CJ9" s="108"/>
+      <c r="CK9" s="108"/>
+      <c r="CL9" s="108"/>
+      <c r="CM9" s="109"/>
       <c r="CN9" s="13"/>
       <c r="CO9" s="14"/>
       <c r="CP9" s="14"/>
@@ -4321,14 +4321,14 @@
       <c r="EO9" s="14"/>
       <c r="EP9" s="14"/>
       <c r="EQ9" s="15"/>
-      <c r="ER9" s="110"/>
-      <c r="ES9" s="111"/>
-      <c r="ET9" s="111"/>
-      <c r="EU9" s="111"/>
-      <c r="EV9" s="111"/>
-      <c r="EW9" s="111"/>
-      <c r="EX9" s="111"/>
-      <c r="EY9" s="112"/>
+      <c r="ER9" s="107"/>
+      <c r="ES9" s="108"/>
+      <c r="ET9" s="108"/>
+      <c r="EU9" s="108"/>
+      <c r="EV9" s="108"/>
+      <c r="EW9" s="108"/>
+      <c r="EX9" s="108"/>
+      <c r="EY9" s="109"/>
       <c r="EZ9" s="13"/>
       <c r="FA9" s="14"/>
       <c r="FB9" s="14"/>
@@ -4378,13 +4378,13 @@
       <c r="GT9" s="14"/>
       <c r="GU9" s="14"/>
       <c r="GV9" s="14"/>
-      <c r="GW9" s="132"/>
+      <c r="GW9" s="96"/>
     </row>
-    <row r="10" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="97" t="s">
+    <row r="10" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="98"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="61"/>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
@@ -4410,14 +4410,14 @@
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
       <c r="AA10" s="15"/>
-      <c r="AB10" s="110"/>
-      <c r="AC10" s="111"/>
-      <c r="AD10" s="111"/>
-      <c r="AE10" s="111"/>
-      <c r="AF10" s="111"/>
-      <c r="AG10" s="111"/>
-      <c r="AH10" s="111"/>
-      <c r="AI10" s="112"/>
+      <c r="AB10" s="107"/>
+      <c r="AC10" s="108"/>
+      <c r="AD10" s="108"/>
+      <c r="AE10" s="108"/>
+      <c r="AF10" s="108"/>
+      <c r="AG10" s="108"/>
+      <c r="AH10" s="108"/>
+      <c r="AI10" s="109"/>
       <c r="AJ10" s="13"/>
       <c r="AK10" s="14"/>
       <c r="AL10" s="14"/>
@@ -4466,14 +4466,14 @@
       <c r="CC10" s="32"/>
       <c r="CD10" s="32"/>
       <c r="CE10" s="32"/>
-      <c r="CF10" s="110"/>
-      <c r="CG10" s="111"/>
-      <c r="CH10" s="111"/>
-      <c r="CI10" s="111"/>
-      <c r="CJ10" s="111"/>
-      <c r="CK10" s="111"/>
-      <c r="CL10" s="111"/>
-      <c r="CM10" s="112"/>
+      <c r="CF10" s="107"/>
+      <c r="CG10" s="108"/>
+      <c r="CH10" s="108"/>
+      <c r="CI10" s="108"/>
+      <c r="CJ10" s="108"/>
+      <c r="CK10" s="108"/>
+      <c r="CL10" s="108"/>
+      <c r="CM10" s="109"/>
       <c r="CN10" s="13"/>
       <c r="CO10" s="14"/>
       <c r="CP10" s="14"/>
@@ -4532,14 +4532,14 @@
       <c r="EO10" s="14"/>
       <c r="EP10" s="14"/>
       <c r="EQ10" s="15"/>
-      <c r="ER10" s="110"/>
-      <c r="ES10" s="111"/>
-      <c r="ET10" s="111"/>
-      <c r="EU10" s="111"/>
-      <c r="EV10" s="111"/>
-      <c r="EW10" s="111"/>
-      <c r="EX10" s="111"/>
-      <c r="EY10" s="112"/>
+      <c r="ER10" s="107"/>
+      <c r="ES10" s="108"/>
+      <c r="ET10" s="108"/>
+      <c r="EU10" s="108"/>
+      <c r="EV10" s="108"/>
+      <c r="EW10" s="108"/>
+      <c r="EX10" s="108"/>
+      <c r="EY10" s="109"/>
       <c r="EZ10" s="13"/>
       <c r="FA10" s="14"/>
       <c r="FB10" s="14"/>
@@ -4589,9 +4589,9 @@
       <c r="GT10" s="14"/>
       <c r="GU10" s="14"/>
       <c r="GV10" s="14"/>
-      <c r="GW10" s="132"/>
+      <c r="GW10" s="96"/>
     </row>
-    <row r="11" spans="1:205" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A11" s="77" t="s">
         <v>20</v>
       </c>
@@ -4623,14 +4623,14 @@
       <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
       <c r="AA11" s="15"/>
-      <c r="AB11" s="110"/>
-      <c r="AC11" s="111"/>
-      <c r="AD11" s="111"/>
-      <c r="AE11" s="111"/>
-      <c r="AF11" s="111"/>
-      <c r="AG11" s="111"/>
-      <c r="AH11" s="111"/>
-      <c r="AI11" s="112"/>
+      <c r="AB11" s="107"/>
+      <c r="AC11" s="108"/>
+      <c r="AD11" s="108"/>
+      <c r="AE11" s="108"/>
+      <c r="AF11" s="108"/>
+      <c r="AG11" s="108"/>
+      <c r="AH11" s="108"/>
+      <c r="AI11" s="109"/>
       <c r="AJ11" s="13"/>
       <c r="AK11" s="14"/>
       <c r="AL11" s="14"/>
@@ -4681,14 +4681,14 @@
       </c>
       <c r="CD11" s="14"/>
       <c r="CE11" s="14"/>
-      <c r="CF11" s="110"/>
-      <c r="CG11" s="111"/>
-      <c r="CH11" s="111"/>
-      <c r="CI11" s="111"/>
-      <c r="CJ11" s="111"/>
-      <c r="CK11" s="111"/>
-      <c r="CL11" s="111"/>
-      <c r="CM11" s="112"/>
+      <c r="CF11" s="107"/>
+      <c r="CG11" s="108"/>
+      <c r="CH11" s="108"/>
+      <c r="CI11" s="108"/>
+      <c r="CJ11" s="108"/>
+      <c r="CK11" s="108"/>
+      <c r="CL11" s="108"/>
+      <c r="CM11" s="109"/>
       <c r="CN11" s="28"/>
       <c r="CO11" s="14"/>
       <c r="CP11" s="14"/>
@@ -4745,14 +4745,14 @@
       <c r="EO11" s="14"/>
       <c r="EP11" s="14"/>
       <c r="EQ11" s="15"/>
-      <c r="ER11" s="110"/>
-      <c r="ES11" s="111"/>
-      <c r="ET11" s="111"/>
-      <c r="EU11" s="111"/>
-      <c r="EV11" s="111"/>
-      <c r="EW11" s="111"/>
-      <c r="EX11" s="111"/>
-      <c r="EY11" s="112"/>
+      <c r="ER11" s="107"/>
+      <c r="ES11" s="108"/>
+      <c r="ET11" s="108"/>
+      <c r="EU11" s="108"/>
+      <c r="EV11" s="108"/>
+      <c r="EW11" s="108"/>
+      <c r="EX11" s="108"/>
+      <c r="EY11" s="109"/>
       <c r="EZ11" s="13"/>
       <c r="FA11" s="14"/>
       <c r="FB11" s="14"/>
@@ -4802,9 +4802,9 @@
       <c r="GT11" s="14"/>
       <c r="GU11" s="14"/>
       <c r="GV11" s="14"/>
-      <c r="GW11" s="132"/>
+      <c r="GW11" s="96"/>
     </row>
-    <row r="12" spans="1:205" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A12" s="78" t="s">
         <v>19</v>
       </c>
@@ -4836,14 +4836,14 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
       <c r="AA12" s="15"/>
-      <c r="AB12" s="110"/>
-      <c r="AC12" s="111"/>
-      <c r="AD12" s="111"/>
-      <c r="AE12" s="111"/>
-      <c r="AF12" s="111"/>
-      <c r="AG12" s="111"/>
-      <c r="AH12" s="111"/>
-      <c r="AI12" s="112"/>
+      <c r="AB12" s="107"/>
+      <c r="AC12" s="108"/>
+      <c r="AD12" s="108"/>
+      <c r="AE12" s="108"/>
+      <c r="AF12" s="108"/>
+      <c r="AG12" s="108"/>
+      <c r="AH12" s="108"/>
+      <c r="AI12" s="109"/>
       <c r="AJ12" s="13"/>
       <c r="AK12" s="14"/>
       <c r="AL12" s="14"/>
@@ -4892,14 +4892,14 @@
       <c r="CC12" s="14"/>
       <c r="CD12" s="14"/>
       <c r="CE12" s="15"/>
-      <c r="CF12" s="110"/>
-      <c r="CG12" s="111"/>
-      <c r="CH12" s="111"/>
-      <c r="CI12" s="111"/>
-      <c r="CJ12" s="111"/>
-      <c r="CK12" s="111"/>
-      <c r="CL12" s="111"/>
-      <c r="CM12" s="112"/>
+      <c r="CF12" s="107"/>
+      <c r="CG12" s="108"/>
+      <c r="CH12" s="108"/>
+      <c r="CI12" s="108"/>
+      <c r="CJ12" s="108"/>
+      <c r="CK12" s="108"/>
+      <c r="CL12" s="108"/>
+      <c r="CM12" s="109"/>
       <c r="CN12" s="13"/>
       <c r="CO12" s="55" t="s">
         <v>28</v>
@@ -4960,14 +4960,14 @@
       <c r="EO12" s="14"/>
       <c r="EP12" s="14"/>
       <c r="EQ12" s="15"/>
-      <c r="ER12" s="110"/>
-      <c r="ES12" s="111"/>
-      <c r="ET12" s="111"/>
-      <c r="EU12" s="111"/>
-      <c r="EV12" s="111"/>
-      <c r="EW12" s="111"/>
-      <c r="EX12" s="111"/>
-      <c r="EY12" s="112"/>
+      <c r="ER12" s="107"/>
+      <c r="ES12" s="108"/>
+      <c r="ET12" s="108"/>
+      <c r="EU12" s="108"/>
+      <c r="EV12" s="108"/>
+      <c r="EW12" s="108"/>
+      <c r="EX12" s="108"/>
+      <c r="EY12" s="109"/>
       <c r="EZ12" s="13"/>
       <c r="FA12" s="14"/>
       <c r="FB12" s="14"/>
@@ -5017,9 +5017,9 @@
       <c r="GT12" s="14"/>
       <c r="GU12" s="14"/>
       <c r="GV12" s="14"/>
-      <c r="GW12" s="132"/>
+      <c r="GW12" s="96"/>
     </row>
-    <row r="13" spans="1:205" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
         <v>18</v>
       </c>
@@ -5051,14 +5051,14 @@
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="15"/>
-      <c r="AB13" s="110"/>
-      <c r="AC13" s="111"/>
-      <c r="AD13" s="111"/>
-      <c r="AE13" s="111"/>
-      <c r="AF13" s="111"/>
-      <c r="AG13" s="111"/>
-      <c r="AH13" s="111"/>
-      <c r="AI13" s="112"/>
+      <c r="AB13" s="107"/>
+      <c r="AC13" s="108"/>
+      <c r="AD13" s="108"/>
+      <c r="AE13" s="108"/>
+      <c r="AF13" s="108"/>
+      <c r="AG13" s="108"/>
+      <c r="AH13" s="108"/>
+      <c r="AI13" s="109"/>
       <c r="AJ13" s="13"/>
       <c r="AK13" s="14"/>
       <c r="AL13" s="14"/>
@@ -5107,14 +5107,14 @@
       <c r="CC13" s="14"/>
       <c r="CD13" s="14"/>
       <c r="CE13" s="15"/>
-      <c r="CF13" s="110"/>
-      <c r="CG13" s="111"/>
-      <c r="CH13" s="111"/>
-      <c r="CI13" s="111"/>
-      <c r="CJ13" s="111"/>
-      <c r="CK13" s="111"/>
-      <c r="CL13" s="111"/>
-      <c r="CM13" s="112"/>
+      <c r="CF13" s="107"/>
+      <c r="CG13" s="108"/>
+      <c r="CH13" s="108"/>
+      <c r="CI13" s="108"/>
+      <c r="CJ13" s="108"/>
+      <c r="CK13" s="108"/>
+      <c r="CL13" s="108"/>
+      <c r="CM13" s="109"/>
       <c r="CN13" s="13"/>
       <c r="CO13" s="14"/>
       <c r="CP13" s="27"/>
@@ -5179,14 +5179,14 @@
       <c r="EO13" s="14"/>
       <c r="EP13" s="14"/>
       <c r="EQ13" s="15"/>
-      <c r="ER13" s="110"/>
-      <c r="ES13" s="111"/>
-      <c r="ET13" s="111"/>
-      <c r="EU13" s="111"/>
-      <c r="EV13" s="111"/>
-      <c r="EW13" s="111"/>
-      <c r="EX13" s="111"/>
-      <c r="EY13" s="112"/>
+      <c r="ER13" s="107"/>
+      <c r="ES13" s="108"/>
+      <c r="ET13" s="108"/>
+      <c r="EU13" s="108"/>
+      <c r="EV13" s="108"/>
+      <c r="EW13" s="108"/>
+      <c r="EX13" s="108"/>
+      <c r="EY13" s="109"/>
       <c r="EZ13" s="13"/>
       <c r="FA13" s="14"/>
       <c r="FB13" s="14"/>
@@ -5236,13 +5236,13 @@
       <c r="GT13" s="14"/>
       <c r="GU13" s="14"/>
       <c r="GV13" s="14"/>
-      <c r="GW13" s="132"/>
+      <c r="GW13" s="96"/>
     </row>
-    <row r="14" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="99" t="s">
+    <row r="14" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="100"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="61"/>
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
@@ -5268,14 +5268,14 @@
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
       <c r="AA14" s="15"/>
-      <c r="AB14" s="110"/>
-      <c r="AC14" s="111"/>
-      <c r="AD14" s="111"/>
-      <c r="AE14" s="111"/>
-      <c r="AF14" s="111"/>
-      <c r="AG14" s="111"/>
-      <c r="AH14" s="111"/>
-      <c r="AI14" s="112"/>
+      <c r="AB14" s="107"/>
+      <c r="AC14" s="108"/>
+      <c r="AD14" s="108"/>
+      <c r="AE14" s="108"/>
+      <c r="AF14" s="108"/>
+      <c r="AG14" s="108"/>
+      <c r="AH14" s="108"/>
+      <c r="AI14" s="109"/>
       <c r="AJ14" s="13"/>
       <c r="AK14" s="14"/>
       <c r="AL14" s="14"/>
@@ -5324,14 +5324,14 @@
       <c r="CC14" s="14"/>
       <c r="CD14" s="14"/>
       <c r="CE14" s="15"/>
-      <c r="CF14" s="110"/>
-      <c r="CG14" s="111"/>
-      <c r="CH14" s="111"/>
-      <c r="CI14" s="111"/>
-      <c r="CJ14" s="111"/>
-      <c r="CK14" s="111"/>
-      <c r="CL14" s="111"/>
-      <c r="CM14" s="112"/>
+      <c r="CF14" s="107"/>
+      <c r="CG14" s="108"/>
+      <c r="CH14" s="108"/>
+      <c r="CI14" s="108"/>
+      <c r="CJ14" s="108"/>
+      <c r="CK14" s="108"/>
+      <c r="CL14" s="108"/>
+      <c r="CM14" s="109"/>
       <c r="CN14" s="13"/>
       <c r="CO14" s="14"/>
       <c r="CP14" s="14"/>
@@ -5390,14 +5390,14 @@
       <c r="EO14" s="14"/>
       <c r="EP14" s="14"/>
       <c r="EQ14" s="15"/>
-      <c r="ER14" s="110"/>
-      <c r="ES14" s="111"/>
-      <c r="ET14" s="111"/>
-      <c r="EU14" s="111"/>
-      <c r="EV14" s="111"/>
-      <c r="EW14" s="111"/>
-      <c r="EX14" s="111"/>
-      <c r="EY14" s="112"/>
+      <c r="ER14" s="107"/>
+      <c r="ES14" s="108"/>
+      <c r="ET14" s="108"/>
+      <c r="EU14" s="108"/>
+      <c r="EV14" s="108"/>
+      <c r="EW14" s="108"/>
+      <c r="EX14" s="108"/>
+      <c r="EY14" s="109"/>
       <c r="EZ14" s="13"/>
       <c r="FA14" s="14"/>
       <c r="FB14" s="14"/>
@@ -5447,9 +5447,9 @@
       <c r="GT14" s="14"/>
       <c r="GU14" s="14"/>
       <c r="GV14" s="14"/>
-      <c r="GW14" s="132"/>
+      <c r="GW14" s="96"/>
     </row>
-    <row r="15" spans="1:205" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A15" s="74" t="s">
         <v>36</v>
       </c>
@@ -5481,14 +5481,14 @@
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
       <c r="AA15" s="15"/>
-      <c r="AB15" s="110"/>
-      <c r="AC15" s="111"/>
-      <c r="AD15" s="111"/>
-      <c r="AE15" s="111"/>
-      <c r="AF15" s="111"/>
-      <c r="AG15" s="111"/>
-      <c r="AH15" s="111"/>
-      <c r="AI15" s="112"/>
+      <c r="AB15" s="107"/>
+      <c r="AC15" s="108"/>
+      <c r="AD15" s="108"/>
+      <c r="AE15" s="108"/>
+      <c r="AF15" s="108"/>
+      <c r="AG15" s="108"/>
+      <c r="AH15" s="108"/>
+      <c r="AI15" s="109"/>
       <c r="AJ15" s="13"/>
       <c r="AK15" s="14"/>
       <c r="AL15" s="14"/>
@@ -5537,14 +5537,14 @@
       <c r="CC15" s="14"/>
       <c r="CD15" s="14"/>
       <c r="CE15" s="15"/>
-      <c r="CF15" s="110"/>
-      <c r="CG15" s="111"/>
-      <c r="CH15" s="111"/>
-      <c r="CI15" s="111"/>
-      <c r="CJ15" s="111"/>
-      <c r="CK15" s="111"/>
-      <c r="CL15" s="111"/>
-      <c r="CM15" s="112"/>
+      <c r="CF15" s="107"/>
+      <c r="CG15" s="108"/>
+      <c r="CH15" s="108"/>
+      <c r="CI15" s="108"/>
+      <c r="CJ15" s="108"/>
+      <c r="CK15" s="108"/>
+      <c r="CL15" s="108"/>
+      <c r="CM15" s="109"/>
       <c r="CN15" s="13"/>
       <c r="CO15" s="14"/>
       <c r="CP15" s="14"/>
@@ -5607,14 +5607,14 @@
       <c r="EO15" s="14"/>
       <c r="EP15" s="14"/>
       <c r="EQ15" s="15"/>
-      <c r="ER15" s="110"/>
-      <c r="ES15" s="111"/>
-      <c r="ET15" s="111"/>
-      <c r="EU15" s="111"/>
-      <c r="EV15" s="111"/>
-      <c r="EW15" s="111"/>
-      <c r="EX15" s="111"/>
-      <c r="EY15" s="112"/>
+      <c r="ER15" s="107"/>
+      <c r="ES15" s="108"/>
+      <c r="ET15" s="108"/>
+      <c r="EU15" s="108"/>
+      <c r="EV15" s="108"/>
+      <c r="EW15" s="108"/>
+      <c r="EX15" s="108"/>
+      <c r="EY15" s="109"/>
       <c r="EZ15" s="13"/>
       <c r="FA15" s="14"/>
       <c r="FB15" s="14"/>
@@ -5664,9 +5664,9 @@
       <c r="GT15" s="14"/>
       <c r="GU15" s="14"/>
       <c r="GV15" s="14"/>
-      <c r="GW15" s="132"/>
+      <c r="GW15" s="96"/>
     </row>
-    <row r="16" spans="1:205" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A16" s="75" t="s">
         <v>21</v>
       </c>
@@ -5698,14 +5698,14 @@
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="15"/>
-      <c r="AB16" s="110"/>
-      <c r="AC16" s="111"/>
-      <c r="AD16" s="111"/>
-      <c r="AE16" s="111"/>
-      <c r="AF16" s="111"/>
-      <c r="AG16" s="111"/>
-      <c r="AH16" s="111"/>
-      <c r="AI16" s="112"/>
+      <c r="AB16" s="107"/>
+      <c r="AC16" s="108"/>
+      <c r="AD16" s="108"/>
+      <c r="AE16" s="108"/>
+      <c r="AF16" s="108"/>
+      <c r="AG16" s="108"/>
+      <c r="AH16" s="108"/>
+      <c r="AI16" s="109"/>
       <c r="AJ16" s="13"/>
       <c r="AK16" s="14"/>
       <c r="AL16" s="14"/>
@@ -5754,14 +5754,14 @@
       <c r="CC16" s="14"/>
       <c r="CD16" s="14"/>
       <c r="CE16" s="15"/>
-      <c r="CF16" s="110"/>
-      <c r="CG16" s="111"/>
-      <c r="CH16" s="111"/>
-      <c r="CI16" s="111"/>
-      <c r="CJ16" s="111"/>
-      <c r="CK16" s="111"/>
-      <c r="CL16" s="111"/>
-      <c r="CM16" s="112"/>
+      <c r="CF16" s="107"/>
+      <c r="CG16" s="108"/>
+      <c r="CH16" s="108"/>
+      <c r="CI16" s="108"/>
+      <c r="CJ16" s="108"/>
+      <c r="CK16" s="108"/>
+      <c r="CL16" s="108"/>
+      <c r="CM16" s="109"/>
       <c r="CN16" s="13"/>
       <c r="CO16" s="14"/>
       <c r="CP16" s="14"/>
@@ -5820,14 +5820,14 @@
       <c r="EO16" s="14"/>
       <c r="EP16" s="14"/>
       <c r="EQ16" s="15"/>
-      <c r="ER16" s="110"/>
-      <c r="ES16" s="111"/>
-      <c r="ET16" s="111"/>
-      <c r="EU16" s="111"/>
-      <c r="EV16" s="111"/>
-      <c r="EW16" s="111"/>
-      <c r="EX16" s="111"/>
-      <c r="EY16" s="112"/>
+      <c r="ER16" s="107"/>
+      <c r="ES16" s="108"/>
+      <c r="ET16" s="108"/>
+      <c r="EU16" s="108"/>
+      <c r="EV16" s="108"/>
+      <c r="EW16" s="108"/>
+      <c r="EX16" s="108"/>
+      <c r="EY16" s="109"/>
       <c r="EZ16" s="13"/>
       <c r="FA16" s="14"/>
       <c r="FB16" s="14"/>
@@ -5877,9 +5877,9 @@
       <c r="GT16" s="14"/>
       <c r="GU16" s="14"/>
       <c r="GV16" s="14"/>
-      <c r="GW16" s="132"/>
+      <c r="GW16" s="96"/>
     </row>
-    <row r="17" spans="1:205" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A17" s="75" t="s">
         <v>22</v>
       </c>
@@ -5911,14 +5911,14 @@
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="15"/>
-      <c r="AB17" s="110"/>
-      <c r="AC17" s="111"/>
-      <c r="AD17" s="111"/>
-      <c r="AE17" s="111"/>
-      <c r="AF17" s="111"/>
-      <c r="AG17" s="111"/>
-      <c r="AH17" s="111"/>
-      <c r="AI17" s="112"/>
+      <c r="AB17" s="107"/>
+      <c r="AC17" s="108"/>
+      <c r="AD17" s="108"/>
+      <c r="AE17" s="108"/>
+      <c r="AF17" s="108"/>
+      <c r="AG17" s="108"/>
+      <c r="AH17" s="108"/>
+      <c r="AI17" s="109"/>
       <c r="AJ17" s="13"/>
       <c r="AK17" s="14"/>
       <c r="AL17" s="14"/>
@@ -5967,14 +5967,14 @@
       <c r="CC17" s="14"/>
       <c r="CD17" s="14"/>
       <c r="CE17" s="15"/>
-      <c r="CF17" s="110"/>
-      <c r="CG17" s="111"/>
-      <c r="CH17" s="111"/>
-      <c r="CI17" s="111"/>
-      <c r="CJ17" s="111"/>
-      <c r="CK17" s="111"/>
-      <c r="CL17" s="111"/>
-      <c r="CM17" s="112"/>
+      <c r="CF17" s="107"/>
+      <c r="CG17" s="108"/>
+      <c r="CH17" s="108"/>
+      <c r="CI17" s="108"/>
+      <c r="CJ17" s="108"/>
+      <c r="CK17" s="108"/>
+      <c r="CL17" s="108"/>
+      <c r="CM17" s="109"/>
       <c r="CN17" s="13"/>
       <c r="CO17" s="14"/>
       <c r="CP17" s="14"/>
@@ -6037,14 +6037,14 @@
       <c r="EO17" s="14"/>
       <c r="EP17" s="14"/>
       <c r="EQ17" s="15"/>
-      <c r="ER17" s="110"/>
-      <c r="ES17" s="111"/>
-      <c r="ET17" s="111"/>
-      <c r="EU17" s="111"/>
-      <c r="EV17" s="111"/>
-      <c r="EW17" s="111"/>
-      <c r="EX17" s="111"/>
-      <c r="EY17" s="112"/>
+      <c r="ER17" s="107"/>
+      <c r="ES17" s="108"/>
+      <c r="ET17" s="108"/>
+      <c r="EU17" s="108"/>
+      <c r="EV17" s="108"/>
+      <c r="EW17" s="108"/>
+      <c r="EX17" s="108"/>
+      <c r="EY17" s="109"/>
       <c r="EZ17" s="13"/>
       <c r="FA17" s="14"/>
       <c r="FB17" s="14"/>
@@ -6094,9 +6094,9 @@
       <c r="GT17" s="14"/>
       <c r="GU17" s="14"/>
       <c r="GV17" s="14"/>
-      <c r="GW17" s="132"/>
+      <c r="GW17" s="96"/>
     </row>
-    <row r="18" spans="1:205" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A18" s="75" t="s">
         <v>35</v>
       </c>
@@ -6128,14 +6128,14 @@
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="15"/>
-      <c r="AB18" s="110"/>
-      <c r="AC18" s="111"/>
-      <c r="AD18" s="111"/>
-      <c r="AE18" s="111"/>
-      <c r="AF18" s="111"/>
-      <c r="AG18" s="111"/>
-      <c r="AH18" s="111"/>
-      <c r="AI18" s="112"/>
+      <c r="AB18" s="107"/>
+      <c r="AC18" s="108"/>
+      <c r="AD18" s="108"/>
+      <c r="AE18" s="108"/>
+      <c r="AF18" s="108"/>
+      <c r="AG18" s="108"/>
+      <c r="AH18" s="108"/>
+      <c r="AI18" s="109"/>
       <c r="AJ18" s="13"/>
       <c r="AK18" s="14"/>
       <c r="AL18" s="14"/>
@@ -6184,14 +6184,14 @@
       <c r="CC18" s="14"/>
       <c r="CD18" s="14"/>
       <c r="CE18" s="15"/>
-      <c r="CF18" s="110"/>
-      <c r="CG18" s="111"/>
-      <c r="CH18" s="111"/>
-      <c r="CI18" s="111"/>
-      <c r="CJ18" s="111"/>
-      <c r="CK18" s="111"/>
-      <c r="CL18" s="111"/>
-      <c r="CM18" s="112"/>
+      <c r="CF18" s="107"/>
+      <c r="CG18" s="108"/>
+      <c r="CH18" s="108"/>
+      <c r="CI18" s="108"/>
+      <c r="CJ18" s="108"/>
+      <c r="CK18" s="108"/>
+      <c r="CL18" s="108"/>
+      <c r="CM18" s="109"/>
       <c r="CN18" s="13"/>
       <c r="CO18" s="14"/>
       <c r="CP18" s="14"/>
@@ -6260,14 +6260,14 @@
       <c r="EO18" s="14"/>
       <c r="EP18" s="14"/>
       <c r="EQ18" s="15"/>
-      <c r="ER18" s="110"/>
-      <c r="ES18" s="111"/>
-      <c r="ET18" s="111"/>
-      <c r="EU18" s="111"/>
-      <c r="EV18" s="111"/>
-      <c r="EW18" s="111"/>
-      <c r="EX18" s="111"/>
-      <c r="EY18" s="112"/>
+      <c r="ER18" s="107"/>
+      <c r="ES18" s="108"/>
+      <c r="ET18" s="108"/>
+      <c r="EU18" s="108"/>
+      <c r="EV18" s="108"/>
+      <c r="EW18" s="108"/>
+      <c r="EX18" s="108"/>
+      <c r="EY18" s="109"/>
       <c r="EZ18" s="13"/>
       <c r="FA18" s="14"/>
       <c r="FB18" s="14"/>
@@ -6317,9 +6317,9 @@
       <c r="GT18" s="14"/>
       <c r="GU18" s="14"/>
       <c r="GV18" s="14"/>
-      <c r="GW18" s="132"/>
+      <c r="GW18" s="96"/>
     </row>
-    <row r="19" spans="1:205" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="76" t="s">
         <v>23</v>
       </c>
@@ -6351,14 +6351,14 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="15"/>
-      <c r="AB19" s="110"/>
-      <c r="AC19" s="111"/>
-      <c r="AD19" s="111"/>
-      <c r="AE19" s="111"/>
-      <c r="AF19" s="111"/>
-      <c r="AG19" s="111"/>
-      <c r="AH19" s="111"/>
-      <c r="AI19" s="112"/>
+      <c r="AB19" s="107"/>
+      <c r="AC19" s="108"/>
+      <c r="AD19" s="108"/>
+      <c r="AE19" s="108"/>
+      <c r="AF19" s="108"/>
+      <c r="AG19" s="108"/>
+      <c r="AH19" s="108"/>
+      <c r="AI19" s="109"/>
       <c r="AJ19" s="13"/>
       <c r="AK19" s="14"/>
       <c r="AL19" s="14"/>
@@ -6407,14 +6407,14 @@
       <c r="CC19" s="14"/>
       <c r="CD19" s="14"/>
       <c r="CE19" s="15"/>
-      <c r="CF19" s="110"/>
-      <c r="CG19" s="111"/>
-      <c r="CH19" s="111"/>
-      <c r="CI19" s="111"/>
-      <c r="CJ19" s="111"/>
-      <c r="CK19" s="111"/>
-      <c r="CL19" s="111"/>
-      <c r="CM19" s="112"/>
+      <c r="CF19" s="107"/>
+      <c r="CG19" s="108"/>
+      <c r="CH19" s="108"/>
+      <c r="CI19" s="108"/>
+      <c r="CJ19" s="108"/>
+      <c r="CK19" s="108"/>
+      <c r="CL19" s="108"/>
+      <c r="CM19" s="109"/>
       <c r="CN19" s="13"/>
       <c r="CO19" s="14"/>
       <c r="CP19" s="14"/>
@@ -6473,14 +6473,14 @@
       <c r="EO19" s="14"/>
       <c r="EP19" s="14"/>
       <c r="EQ19" s="15"/>
-      <c r="ER19" s="110"/>
-      <c r="ES19" s="111"/>
-      <c r="ET19" s="111"/>
-      <c r="EU19" s="111"/>
-      <c r="EV19" s="111"/>
-      <c r="EW19" s="111"/>
-      <c r="EX19" s="111"/>
-      <c r="EY19" s="112"/>
+      <c r="ER19" s="107"/>
+      <c r="ES19" s="108"/>
+      <c r="ET19" s="108"/>
+      <c r="EU19" s="108"/>
+      <c r="EV19" s="108"/>
+      <c r="EW19" s="108"/>
+      <c r="EX19" s="108"/>
+      <c r="EY19" s="109"/>
       <c r="EZ19" s="13"/>
       <c r="FA19" s="14"/>
       <c r="FB19" s="14"/>
@@ -6530,13 +6530,13 @@
       <c r="GT19" s="14"/>
       <c r="GU19" s="14"/>
       <c r="GV19" s="14"/>
-      <c r="GW19" s="132"/>
+      <c r="GW19" s="96"/>
     </row>
-    <row r="20" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="101" t="s">
+    <row r="20" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="102"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="61"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
@@ -6562,14 +6562,14 @@
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
       <c r="AA20" s="15"/>
-      <c r="AB20" s="110"/>
-      <c r="AC20" s="111"/>
-      <c r="AD20" s="111"/>
-      <c r="AE20" s="111"/>
-      <c r="AF20" s="111"/>
-      <c r="AG20" s="111"/>
-      <c r="AH20" s="111"/>
-      <c r="AI20" s="112"/>
+      <c r="AB20" s="107"/>
+      <c r="AC20" s="108"/>
+      <c r="AD20" s="108"/>
+      <c r="AE20" s="108"/>
+      <c r="AF20" s="108"/>
+      <c r="AG20" s="108"/>
+      <c r="AH20" s="108"/>
+      <c r="AI20" s="109"/>
       <c r="AJ20" s="13"/>
       <c r="AK20" s="14"/>
       <c r="AL20" s="14"/>
@@ -6618,14 +6618,14 @@
       <c r="CC20" s="14"/>
       <c r="CD20" s="14"/>
       <c r="CE20" s="15"/>
-      <c r="CF20" s="110"/>
-      <c r="CG20" s="111"/>
-      <c r="CH20" s="111"/>
-      <c r="CI20" s="111"/>
-      <c r="CJ20" s="111"/>
-      <c r="CK20" s="111"/>
-      <c r="CL20" s="111"/>
-      <c r="CM20" s="112"/>
+      <c r="CF20" s="107"/>
+      <c r="CG20" s="108"/>
+      <c r="CH20" s="108"/>
+      <c r="CI20" s="108"/>
+      <c r="CJ20" s="108"/>
+      <c r="CK20" s="108"/>
+      <c r="CL20" s="108"/>
+      <c r="CM20" s="109"/>
       <c r="CN20" s="13"/>
       <c r="CO20" s="14"/>
       <c r="CP20" s="14"/>
@@ -6682,14 +6682,14 @@
       <c r="EO20" s="14"/>
       <c r="EP20" s="14"/>
       <c r="EQ20" s="15"/>
-      <c r="ER20" s="110"/>
-      <c r="ES20" s="111"/>
-      <c r="ET20" s="111"/>
-      <c r="EU20" s="111"/>
-      <c r="EV20" s="111"/>
-      <c r="EW20" s="111"/>
-      <c r="EX20" s="111"/>
-      <c r="EY20" s="112"/>
+      <c r="ER20" s="107"/>
+      <c r="ES20" s="108"/>
+      <c r="ET20" s="108"/>
+      <c r="EU20" s="108"/>
+      <c r="EV20" s="108"/>
+      <c r="EW20" s="108"/>
+      <c r="EX20" s="108"/>
+      <c r="EY20" s="109"/>
       <c r="EZ20" s="13"/>
       <c r="FA20" s="14"/>
       <c r="FB20" s="14"/>
@@ -6739,9 +6739,9 @@
       <c r="GT20" s="14"/>
       <c r="GU20" s="14"/>
       <c r="GV20" s="14"/>
-      <c r="GW20" s="132"/>
+      <c r="GW20" s="96"/>
     </row>
-    <row r="21" spans="1:205" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A21" s="71" t="s">
         <v>29</v>
       </c>
@@ -6771,14 +6771,14 @@
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
       <c r="AA21" s="15"/>
-      <c r="AB21" s="110"/>
-      <c r="AC21" s="111"/>
-      <c r="AD21" s="111"/>
-      <c r="AE21" s="111"/>
-      <c r="AF21" s="111"/>
-      <c r="AG21" s="111"/>
-      <c r="AH21" s="111"/>
-      <c r="AI21" s="112"/>
+      <c r="AB21" s="107"/>
+      <c r="AC21" s="108"/>
+      <c r="AD21" s="108"/>
+      <c r="AE21" s="108"/>
+      <c r="AF21" s="108"/>
+      <c r="AG21" s="108"/>
+      <c r="AH21" s="108"/>
+      <c r="AI21" s="109"/>
       <c r="AJ21" s="13"/>
       <c r="AK21" s="14"/>
       <c r="AL21" s="14"/>
@@ -6827,14 +6827,14 @@
       <c r="CC21" s="14"/>
       <c r="CD21" s="14"/>
       <c r="CE21" s="15"/>
-      <c r="CF21" s="110"/>
-      <c r="CG21" s="111"/>
-      <c r="CH21" s="111"/>
-      <c r="CI21" s="111"/>
-      <c r="CJ21" s="111"/>
-      <c r="CK21" s="111"/>
-      <c r="CL21" s="111"/>
-      <c r="CM21" s="112"/>
+      <c r="CF21" s="107"/>
+      <c r="CG21" s="108"/>
+      <c r="CH21" s="108"/>
+      <c r="CI21" s="108"/>
+      <c r="CJ21" s="108"/>
+      <c r="CK21" s="108"/>
+      <c r="CL21" s="108"/>
+      <c r="CM21" s="109"/>
       <c r="CN21" s="13"/>
       <c r="CO21" s="14"/>
       <c r="CP21" s="14"/>
@@ -6867,7 +6867,9 @@
       <c r="DQ21" s="91"/>
       <c r="DR21" s="39"/>
       <c r="DS21" s="40"/>
-      <c r="DT21" s="64"/>
+      <c r="DT21" s="64" t="s">
+        <v>28</v>
+      </c>
       <c r="DU21" s="14"/>
       <c r="DV21" s="14"/>
       <c r="DW21" s="14"/>
@@ -6891,14 +6893,14 @@
       <c r="EO21" s="14"/>
       <c r="EP21" s="14"/>
       <c r="EQ21" s="15"/>
-      <c r="ER21" s="110"/>
-      <c r="ES21" s="111"/>
-      <c r="ET21" s="111"/>
-      <c r="EU21" s="111"/>
-      <c r="EV21" s="111"/>
-      <c r="EW21" s="111"/>
-      <c r="EX21" s="111"/>
-      <c r="EY21" s="112"/>
+      <c r="ER21" s="107"/>
+      <c r="ES21" s="108"/>
+      <c r="ET21" s="108"/>
+      <c r="EU21" s="108"/>
+      <c r="EV21" s="108"/>
+      <c r="EW21" s="108"/>
+      <c r="EX21" s="108"/>
+      <c r="EY21" s="109"/>
       <c r="EZ21" s="13"/>
       <c r="FA21" s="14"/>
       <c r="FB21" s="14"/>
@@ -6948,9 +6950,9 @@
       <c r="GT21" s="14"/>
       <c r="GU21" s="14"/>
       <c r="GV21" s="14"/>
-      <c r="GW21" s="132"/>
+      <c r="GW21" s="96"/>
     </row>
-    <row r="22" spans="1:205" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A22" s="72" t="s">
         <v>30</v>
       </c>
@@ -6980,14 +6982,14 @@
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
       <c r="AA22" s="15"/>
-      <c r="AB22" s="110"/>
-      <c r="AC22" s="111"/>
-      <c r="AD22" s="111"/>
-      <c r="AE22" s="111"/>
-      <c r="AF22" s="111"/>
-      <c r="AG22" s="111"/>
-      <c r="AH22" s="111"/>
-      <c r="AI22" s="112"/>
+      <c r="AB22" s="107"/>
+      <c r="AC22" s="108"/>
+      <c r="AD22" s="108"/>
+      <c r="AE22" s="108"/>
+      <c r="AF22" s="108"/>
+      <c r="AG22" s="108"/>
+      <c r="AH22" s="108"/>
+      <c r="AI22" s="109"/>
       <c r="AJ22" s="13"/>
       <c r="AK22" s="14"/>
       <c r="AL22" s="14"/>
@@ -7036,14 +7038,14 @@
       <c r="CC22" s="14"/>
       <c r="CD22" s="14"/>
       <c r="CE22" s="15"/>
-      <c r="CF22" s="110"/>
-      <c r="CG22" s="111"/>
-      <c r="CH22" s="111"/>
-      <c r="CI22" s="111"/>
-      <c r="CJ22" s="111"/>
-      <c r="CK22" s="111"/>
-      <c r="CL22" s="111"/>
-      <c r="CM22" s="112"/>
+      <c r="CF22" s="107"/>
+      <c r="CG22" s="108"/>
+      <c r="CH22" s="108"/>
+      <c r="CI22" s="108"/>
+      <c r="CJ22" s="108"/>
+      <c r="CK22" s="108"/>
+      <c r="CL22" s="108"/>
+      <c r="CM22" s="109"/>
       <c r="CN22" s="13"/>
       <c r="CO22" s="14"/>
       <c r="CP22" s="14"/>
@@ -7077,9 +7079,15 @@
       <c r="DR22" s="14"/>
       <c r="DS22" s="15"/>
       <c r="DT22" s="41"/>
-      <c r="DU22" s="91"/>
-      <c r="DV22" s="91"/>
-      <c r="DW22" s="39"/>
+      <c r="DU22" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="DV22" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="DW22" s="39" t="s">
+        <v>28</v>
+      </c>
       <c r="DX22" s="14"/>
       <c r="DY22" s="14"/>
       <c r="DZ22" s="14"/>
@@ -7100,14 +7108,14 @@
       <c r="EO22" s="14"/>
       <c r="EP22" s="14"/>
       <c r="EQ22" s="15"/>
-      <c r="ER22" s="110"/>
-      <c r="ES22" s="111"/>
-      <c r="ET22" s="111"/>
-      <c r="EU22" s="111"/>
-      <c r="EV22" s="111"/>
-      <c r="EW22" s="111"/>
-      <c r="EX22" s="111"/>
-      <c r="EY22" s="112"/>
+      <c r="ER22" s="107"/>
+      <c r="ES22" s="108"/>
+      <c r="ET22" s="108"/>
+      <c r="EU22" s="108"/>
+      <c r="EV22" s="108"/>
+      <c r="EW22" s="108"/>
+      <c r="EX22" s="108"/>
+      <c r="EY22" s="109"/>
       <c r="EZ22" s="13"/>
       <c r="FA22" s="14"/>
       <c r="FB22" s="14"/>
@@ -7157,9 +7165,9 @@
       <c r="GT22" s="14"/>
       <c r="GU22" s="14"/>
       <c r="GV22" s="14"/>
-      <c r="GW22" s="132"/>
+      <c r="GW22" s="96"/>
     </row>
-    <row r="23" spans="1:205" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A23" s="72" t="s">
         <v>38</v>
       </c>
@@ -7189,14 +7197,14 @@
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
       <c r="AA23" s="15"/>
-      <c r="AB23" s="110"/>
-      <c r="AC23" s="111"/>
-      <c r="AD23" s="111"/>
-      <c r="AE23" s="111"/>
-      <c r="AF23" s="111"/>
-      <c r="AG23" s="111"/>
-      <c r="AH23" s="111"/>
-      <c r="AI23" s="112"/>
+      <c r="AB23" s="107"/>
+      <c r="AC23" s="108"/>
+      <c r="AD23" s="108"/>
+      <c r="AE23" s="108"/>
+      <c r="AF23" s="108"/>
+      <c r="AG23" s="108"/>
+      <c r="AH23" s="108"/>
+      <c r="AI23" s="109"/>
       <c r="AJ23" s="13"/>
       <c r="AK23" s="14"/>
       <c r="AL23" s="14"/>
@@ -7245,14 +7253,14 @@
       <c r="CC23" s="14"/>
       <c r="CD23" s="14"/>
       <c r="CE23" s="15"/>
-      <c r="CF23" s="110"/>
-      <c r="CG23" s="111"/>
-      <c r="CH23" s="111"/>
-      <c r="CI23" s="111"/>
-      <c r="CJ23" s="111"/>
-      <c r="CK23" s="111"/>
-      <c r="CL23" s="111"/>
-      <c r="CM23" s="112"/>
+      <c r="CF23" s="107"/>
+      <c r="CG23" s="108"/>
+      <c r="CH23" s="108"/>
+      <c r="CI23" s="108"/>
+      <c r="CJ23" s="108"/>
+      <c r="CK23" s="108"/>
+      <c r="CL23" s="108"/>
+      <c r="CM23" s="109"/>
       <c r="CN23" s="13"/>
       <c r="CO23" s="14"/>
       <c r="CP23" s="14"/>
@@ -7309,14 +7317,14 @@
       <c r="EO23" s="14"/>
       <c r="EP23" s="14"/>
       <c r="EQ23" s="15"/>
-      <c r="ER23" s="110"/>
-      <c r="ES23" s="111"/>
-      <c r="ET23" s="111"/>
-      <c r="EU23" s="111"/>
-      <c r="EV23" s="111"/>
-      <c r="EW23" s="111"/>
-      <c r="EX23" s="111"/>
-      <c r="EY23" s="112"/>
+      <c r="ER23" s="107"/>
+      <c r="ES23" s="108"/>
+      <c r="ET23" s="108"/>
+      <c r="EU23" s="108"/>
+      <c r="EV23" s="108"/>
+      <c r="EW23" s="108"/>
+      <c r="EX23" s="108"/>
+      <c r="EY23" s="109"/>
       <c r="EZ23" s="13"/>
       <c r="FA23" s="14"/>
       <c r="FB23" s="14"/>
@@ -7366,9 +7374,9 @@
       <c r="GT23" s="14"/>
       <c r="GU23" s="14"/>
       <c r="GV23" s="14"/>
-      <c r="GW23" s="132"/>
+      <c r="GW23" s="96"/>
     </row>
-    <row r="24" spans="1:205" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A24" s="72" t="s">
         <v>39</v>
       </c>
@@ -7398,14 +7406,14 @@
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
       <c r="AA24" s="15"/>
-      <c r="AB24" s="110"/>
-      <c r="AC24" s="111"/>
-      <c r="AD24" s="111"/>
-      <c r="AE24" s="111"/>
-      <c r="AF24" s="111"/>
-      <c r="AG24" s="111"/>
-      <c r="AH24" s="111"/>
-      <c r="AI24" s="112"/>
+      <c r="AB24" s="107"/>
+      <c r="AC24" s="108"/>
+      <c r="AD24" s="108"/>
+      <c r="AE24" s="108"/>
+      <c r="AF24" s="108"/>
+      <c r="AG24" s="108"/>
+      <c r="AH24" s="108"/>
+      <c r="AI24" s="109"/>
       <c r="AJ24" s="13"/>
       <c r="AK24" s="14"/>
       <c r="AL24" s="14"/>
@@ -7454,14 +7462,14 @@
       <c r="CC24" s="14"/>
       <c r="CD24" s="14"/>
       <c r="CE24" s="15"/>
-      <c r="CF24" s="110"/>
-      <c r="CG24" s="111"/>
-      <c r="CH24" s="111"/>
-      <c r="CI24" s="111"/>
-      <c r="CJ24" s="111"/>
-      <c r="CK24" s="111"/>
-      <c r="CL24" s="111"/>
-      <c r="CM24" s="112"/>
+      <c r="CF24" s="107"/>
+      <c r="CG24" s="108"/>
+      <c r="CH24" s="108"/>
+      <c r="CI24" s="108"/>
+      <c r="CJ24" s="108"/>
+      <c r="CK24" s="108"/>
+      <c r="CL24" s="108"/>
+      <c r="CM24" s="109"/>
       <c r="CN24" s="13"/>
       <c r="CO24" s="14"/>
       <c r="CP24" s="14"/>
@@ -7518,14 +7526,14 @@
       <c r="EO24" s="14"/>
       <c r="EP24" s="14"/>
       <c r="EQ24" s="15"/>
-      <c r="ER24" s="110"/>
-      <c r="ES24" s="111"/>
-      <c r="ET24" s="111"/>
-      <c r="EU24" s="111"/>
-      <c r="EV24" s="111"/>
-      <c r="EW24" s="111"/>
-      <c r="EX24" s="111"/>
-      <c r="EY24" s="112"/>
+      <c r="ER24" s="107"/>
+      <c r="ES24" s="108"/>
+      <c r="ET24" s="108"/>
+      <c r="EU24" s="108"/>
+      <c r="EV24" s="108"/>
+      <c r="EW24" s="108"/>
+      <c r="EX24" s="108"/>
+      <c r="EY24" s="109"/>
       <c r="EZ24" s="13"/>
       <c r="FA24" s="14"/>
       <c r="FB24" s="14"/>
@@ -7575,9 +7583,9 @@
       <c r="GT24" s="14"/>
       <c r="GU24" s="14"/>
       <c r="GV24" s="14"/>
-      <c r="GW24" s="132"/>
+      <c r="GW24" s="96"/>
     </row>
-    <row r="25" spans="1:205" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A25" s="72" t="s">
         <v>47</v>
       </c>
@@ -7607,14 +7615,14 @@
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
       <c r="AA25" s="15"/>
-      <c r="AB25" s="110"/>
-      <c r="AC25" s="111"/>
-      <c r="AD25" s="111"/>
-      <c r="AE25" s="111"/>
-      <c r="AF25" s="111"/>
-      <c r="AG25" s="111"/>
-      <c r="AH25" s="111"/>
-      <c r="AI25" s="112"/>
+      <c r="AB25" s="107"/>
+      <c r="AC25" s="108"/>
+      <c r="AD25" s="108"/>
+      <c r="AE25" s="108"/>
+      <c r="AF25" s="108"/>
+      <c r="AG25" s="108"/>
+      <c r="AH25" s="108"/>
+      <c r="AI25" s="109"/>
       <c r="AJ25" s="13"/>
       <c r="AK25" s="14"/>
       <c r="AL25" s="14"/>
@@ -7663,14 +7671,14 @@
       <c r="CC25" s="14"/>
       <c r="CD25" s="14"/>
       <c r="CE25" s="15"/>
-      <c r="CF25" s="110"/>
-      <c r="CG25" s="111"/>
-      <c r="CH25" s="111"/>
-      <c r="CI25" s="111"/>
-      <c r="CJ25" s="111"/>
-      <c r="CK25" s="111"/>
-      <c r="CL25" s="111"/>
-      <c r="CM25" s="112"/>
+      <c r="CF25" s="107"/>
+      <c r="CG25" s="108"/>
+      <c r="CH25" s="108"/>
+      <c r="CI25" s="108"/>
+      <c r="CJ25" s="108"/>
+      <c r="CK25" s="108"/>
+      <c r="CL25" s="108"/>
+      <c r="CM25" s="109"/>
       <c r="CN25" s="13"/>
       <c r="CO25" s="14"/>
       <c r="CP25" s="14"/>
@@ -7727,14 +7735,14 @@
       <c r="EO25" s="14"/>
       <c r="EP25" s="14"/>
       <c r="EQ25" s="15"/>
-      <c r="ER25" s="110"/>
-      <c r="ES25" s="111"/>
-      <c r="ET25" s="111"/>
-      <c r="EU25" s="111"/>
-      <c r="EV25" s="111"/>
-      <c r="EW25" s="111"/>
-      <c r="EX25" s="111"/>
-      <c r="EY25" s="112"/>
+      <c r="ER25" s="107"/>
+      <c r="ES25" s="108"/>
+      <c r="ET25" s="108"/>
+      <c r="EU25" s="108"/>
+      <c r="EV25" s="108"/>
+      <c r="EW25" s="108"/>
+      <c r="EX25" s="108"/>
+      <c r="EY25" s="109"/>
       <c r="EZ25" s="13"/>
       <c r="FA25" s="14"/>
       <c r="FB25" s="14"/>
@@ -7784,9 +7792,9 @@
       <c r="GT25" s="14"/>
       <c r="GU25" s="14"/>
       <c r="GV25" s="14"/>
-      <c r="GW25" s="132"/>
+      <c r="GW25" s="96"/>
     </row>
-    <row r="26" spans="1:205" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A26" s="72" t="s">
         <v>48</v>
       </c>
@@ -7816,14 +7824,14 @@
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
       <c r="AA26" s="15"/>
-      <c r="AB26" s="110"/>
-      <c r="AC26" s="111"/>
-      <c r="AD26" s="111"/>
-      <c r="AE26" s="111"/>
-      <c r="AF26" s="111"/>
-      <c r="AG26" s="111"/>
-      <c r="AH26" s="111"/>
-      <c r="AI26" s="112"/>
+      <c r="AB26" s="107"/>
+      <c r="AC26" s="108"/>
+      <c r="AD26" s="108"/>
+      <c r="AE26" s="108"/>
+      <c r="AF26" s="108"/>
+      <c r="AG26" s="108"/>
+      <c r="AH26" s="108"/>
+      <c r="AI26" s="109"/>
       <c r="AJ26" s="13"/>
       <c r="AK26" s="14"/>
       <c r="AL26" s="14"/>
@@ -7872,14 +7880,14 @@
       <c r="CC26" s="14"/>
       <c r="CD26" s="14"/>
       <c r="CE26" s="15"/>
-      <c r="CF26" s="110"/>
-      <c r="CG26" s="111"/>
-      <c r="CH26" s="111"/>
-      <c r="CI26" s="111"/>
-      <c r="CJ26" s="111"/>
-      <c r="CK26" s="111"/>
-      <c r="CL26" s="111"/>
-      <c r="CM26" s="112"/>
+      <c r="CF26" s="107"/>
+      <c r="CG26" s="108"/>
+      <c r="CH26" s="108"/>
+      <c r="CI26" s="108"/>
+      <c r="CJ26" s="108"/>
+      <c r="CK26" s="108"/>
+      <c r="CL26" s="108"/>
+      <c r="CM26" s="109"/>
       <c r="CN26" s="13"/>
       <c r="CO26" s="14"/>
       <c r="CP26" s="14"/>
@@ -7936,14 +7944,14 @@
       <c r="EO26" s="57"/>
       <c r="EP26" s="57"/>
       <c r="EQ26" s="58"/>
-      <c r="ER26" s="110"/>
-      <c r="ES26" s="111"/>
-      <c r="ET26" s="111"/>
-      <c r="EU26" s="111"/>
-      <c r="EV26" s="111"/>
-      <c r="EW26" s="111"/>
-      <c r="EX26" s="111"/>
-      <c r="EY26" s="112"/>
+      <c r="ER26" s="107"/>
+      <c r="ES26" s="108"/>
+      <c r="ET26" s="108"/>
+      <c r="EU26" s="108"/>
+      <c r="EV26" s="108"/>
+      <c r="EW26" s="108"/>
+      <c r="EX26" s="108"/>
+      <c r="EY26" s="109"/>
       <c r="EZ26" s="13"/>
       <c r="FA26" s="14"/>
       <c r="FB26" s="14"/>
@@ -7993,9 +8001,9 @@
       <c r="GT26" s="14"/>
       <c r="GU26" s="14"/>
       <c r="GV26" s="14"/>
-      <c r="GW26" s="132"/>
+      <c r="GW26" s="96"/>
     </row>
-    <row r="27" spans="1:205" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A27" s="72" t="s">
         <v>40</v>
       </c>
@@ -8025,14 +8033,14 @@
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
       <c r="AA27" s="15"/>
-      <c r="AB27" s="110"/>
-      <c r="AC27" s="111"/>
-      <c r="AD27" s="111"/>
-      <c r="AE27" s="111"/>
-      <c r="AF27" s="111"/>
-      <c r="AG27" s="111"/>
-      <c r="AH27" s="111"/>
-      <c r="AI27" s="112"/>
+      <c r="AB27" s="107"/>
+      <c r="AC27" s="108"/>
+      <c r="AD27" s="108"/>
+      <c r="AE27" s="108"/>
+      <c r="AF27" s="108"/>
+      <c r="AG27" s="108"/>
+      <c r="AH27" s="108"/>
+      <c r="AI27" s="109"/>
       <c r="AJ27" s="13"/>
       <c r="AK27" s="14"/>
       <c r="AL27" s="14"/>
@@ -8081,14 +8089,14 @@
       <c r="CC27" s="14"/>
       <c r="CD27" s="14"/>
       <c r="CE27" s="15"/>
-      <c r="CF27" s="110"/>
-      <c r="CG27" s="111"/>
-      <c r="CH27" s="111"/>
-      <c r="CI27" s="111"/>
-      <c r="CJ27" s="111"/>
-      <c r="CK27" s="111"/>
-      <c r="CL27" s="111"/>
-      <c r="CM27" s="112"/>
+      <c r="CF27" s="107"/>
+      <c r="CG27" s="108"/>
+      <c r="CH27" s="108"/>
+      <c r="CI27" s="108"/>
+      <c r="CJ27" s="108"/>
+      <c r="CK27" s="108"/>
+      <c r="CL27" s="108"/>
+      <c r="CM27" s="109"/>
       <c r="CN27" s="13"/>
       <c r="CO27" s="14"/>
       <c r="CP27" s="14"/>
@@ -8145,14 +8153,14 @@
       <c r="EO27" s="39"/>
       <c r="EP27" s="39"/>
       <c r="EQ27" s="40"/>
-      <c r="ER27" s="110"/>
-      <c r="ES27" s="111"/>
-      <c r="ET27" s="111"/>
-      <c r="EU27" s="111"/>
-      <c r="EV27" s="111"/>
-      <c r="EW27" s="111"/>
-      <c r="EX27" s="111"/>
-      <c r="EY27" s="112"/>
+      <c r="ER27" s="107"/>
+      <c r="ES27" s="108"/>
+      <c r="ET27" s="108"/>
+      <c r="EU27" s="108"/>
+      <c r="EV27" s="108"/>
+      <c r="EW27" s="108"/>
+      <c r="EX27" s="108"/>
+      <c r="EY27" s="109"/>
       <c r="EZ27" s="13"/>
       <c r="FA27" s="14"/>
       <c r="FB27" s="14"/>
@@ -8202,9 +8210,9 @@
       <c r="GT27" s="14"/>
       <c r="GU27" s="14"/>
       <c r="GV27" s="14"/>
-      <c r="GW27" s="132"/>
+      <c r="GW27" s="96"/>
     </row>
-    <row r="28" spans="1:205" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A28" s="72" t="s">
         <v>42</v>
       </c>
@@ -8234,14 +8242,14 @@
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
       <c r="AA28" s="15"/>
-      <c r="AB28" s="110"/>
-      <c r="AC28" s="111"/>
-      <c r="AD28" s="111"/>
-      <c r="AE28" s="111"/>
-      <c r="AF28" s="111"/>
-      <c r="AG28" s="111"/>
-      <c r="AH28" s="111"/>
-      <c r="AI28" s="112"/>
+      <c r="AB28" s="107"/>
+      <c r="AC28" s="108"/>
+      <c r="AD28" s="108"/>
+      <c r="AE28" s="108"/>
+      <c r="AF28" s="108"/>
+      <c r="AG28" s="108"/>
+      <c r="AH28" s="108"/>
+      <c r="AI28" s="109"/>
       <c r="AJ28" s="13"/>
       <c r="AK28" s="14"/>
       <c r="AL28" s="14"/>
@@ -8290,14 +8298,14 @@
       <c r="CC28" s="14"/>
       <c r="CD28" s="14"/>
       <c r="CE28" s="15"/>
-      <c r="CF28" s="110"/>
-      <c r="CG28" s="111"/>
-      <c r="CH28" s="111"/>
-      <c r="CI28" s="111"/>
-      <c r="CJ28" s="111"/>
-      <c r="CK28" s="111"/>
-      <c r="CL28" s="111"/>
-      <c r="CM28" s="112"/>
+      <c r="CF28" s="107"/>
+      <c r="CG28" s="108"/>
+      <c r="CH28" s="108"/>
+      <c r="CI28" s="108"/>
+      <c r="CJ28" s="108"/>
+      <c r="CK28" s="108"/>
+      <c r="CL28" s="108"/>
+      <c r="CM28" s="109"/>
       <c r="CN28" s="13"/>
       <c r="CO28" s="14"/>
       <c r="CP28" s="14"/>
@@ -8354,14 +8362,14 @@
       <c r="EO28" s="14"/>
       <c r="EP28" s="14"/>
       <c r="EQ28" s="15"/>
-      <c r="ER28" s="110"/>
-      <c r="ES28" s="111"/>
-      <c r="ET28" s="111"/>
-      <c r="EU28" s="111"/>
-      <c r="EV28" s="111"/>
-      <c r="EW28" s="111"/>
-      <c r="EX28" s="111"/>
-      <c r="EY28" s="112"/>
+      <c r="ER28" s="107"/>
+      <c r="ES28" s="108"/>
+      <c r="ET28" s="108"/>
+      <c r="EU28" s="108"/>
+      <c r="EV28" s="108"/>
+      <c r="EW28" s="108"/>
+      <c r="EX28" s="108"/>
+      <c r="EY28" s="109"/>
       <c r="EZ28" s="41"/>
       <c r="FA28" s="39"/>
       <c r="FB28" s="39"/>
@@ -8411,9 +8419,9 @@
       <c r="GT28" s="14"/>
       <c r="GU28" s="14"/>
       <c r="GV28" s="14"/>
-      <c r="GW28" s="132"/>
+      <c r="GW28" s="96"/>
     </row>
-    <row r="29" spans="1:205" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A29" s="72" t="s">
         <v>49</v>
       </c>
@@ -8443,14 +8451,14 @@
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
       <c r="AA29" s="15"/>
-      <c r="AB29" s="110"/>
-      <c r="AC29" s="111"/>
-      <c r="AD29" s="111"/>
-      <c r="AE29" s="111"/>
-      <c r="AF29" s="111"/>
-      <c r="AG29" s="111"/>
-      <c r="AH29" s="111"/>
-      <c r="AI29" s="112"/>
+      <c r="AB29" s="107"/>
+      <c r="AC29" s="108"/>
+      <c r="AD29" s="108"/>
+      <c r="AE29" s="108"/>
+      <c r="AF29" s="108"/>
+      <c r="AG29" s="108"/>
+      <c r="AH29" s="108"/>
+      <c r="AI29" s="109"/>
       <c r="AJ29" s="13"/>
       <c r="AK29" s="14"/>
       <c r="AL29" s="14"/>
@@ -8499,14 +8507,14 @@
       <c r="CC29" s="14"/>
       <c r="CD29" s="14"/>
       <c r="CE29" s="15"/>
-      <c r="CF29" s="110"/>
-      <c r="CG29" s="111"/>
-      <c r="CH29" s="111"/>
-      <c r="CI29" s="111"/>
-      <c r="CJ29" s="111"/>
-      <c r="CK29" s="111"/>
-      <c r="CL29" s="111"/>
-      <c r="CM29" s="112"/>
+      <c r="CF29" s="107"/>
+      <c r="CG29" s="108"/>
+      <c r="CH29" s="108"/>
+      <c r="CI29" s="108"/>
+      <c r="CJ29" s="108"/>
+      <c r="CK29" s="108"/>
+      <c r="CL29" s="108"/>
+      <c r="CM29" s="109"/>
       <c r="CN29" s="13"/>
       <c r="CO29" s="14"/>
       <c r="CP29" s="14"/>
@@ -8563,14 +8571,14 @@
       <c r="EO29" s="14"/>
       <c r="EP29" s="14"/>
       <c r="EQ29" s="15"/>
-      <c r="ER29" s="110"/>
-      <c r="ES29" s="111"/>
-      <c r="ET29" s="111"/>
-      <c r="EU29" s="111"/>
-      <c r="EV29" s="111"/>
-      <c r="EW29" s="111"/>
-      <c r="EX29" s="111"/>
-      <c r="EY29" s="112"/>
+      <c r="ER29" s="107"/>
+      <c r="ES29" s="108"/>
+      <c r="ET29" s="108"/>
+      <c r="EU29" s="108"/>
+      <c r="EV29" s="108"/>
+      <c r="EW29" s="108"/>
+      <c r="EX29" s="108"/>
+      <c r="EY29" s="109"/>
       <c r="EZ29" s="13"/>
       <c r="FA29" s="14"/>
       <c r="FB29" s="14"/>
@@ -8620,9 +8628,9 @@
       <c r="GT29" s="14"/>
       <c r="GU29" s="14"/>
       <c r="GV29" s="14"/>
-      <c r="GW29" s="132"/>
+      <c r="GW29" s="96"/>
     </row>
-    <row r="30" spans="1:205" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A30" s="72" t="s">
         <v>50</v>
       </c>
@@ -8652,14 +8660,14 @@
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
       <c r="AA30" s="15"/>
-      <c r="AB30" s="110"/>
-      <c r="AC30" s="111"/>
-      <c r="AD30" s="111"/>
-      <c r="AE30" s="111"/>
-      <c r="AF30" s="111"/>
-      <c r="AG30" s="111"/>
-      <c r="AH30" s="111"/>
-      <c r="AI30" s="112"/>
+      <c r="AB30" s="107"/>
+      <c r="AC30" s="108"/>
+      <c r="AD30" s="108"/>
+      <c r="AE30" s="108"/>
+      <c r="AF30" s="108"/>
+      <c r="AG30" s="108"/>
+      <c r="AH30" s="108"/>
+      <c r="AI30" s="109"/>
       <c r="AJ30" s="13"/>
       <c r="AK30" s="14"/>
       <c r="AL30" s="14"/>
@@ -8708,14 +8716,14 @@
       <c r="CC30" s="14"/>
       <c r="CD30" s="14"/>
       <c r="CE30" s="15"/>
-      <c r="CF30" s="110"/>
-      <c r="CG30" s="111"/>
-      <c r="CH30" s="111"/>
-      <c r="CI30" s="111"/>
-      <c r="CJ30" s="111"/>
-      <c r="CK30" s="111"/>
-      <c r="CL30" s="111"/>
-      <c r="CM30" s="112"/>
+      <c r="CF30" s="107"/>
+      <c r="CG30" s="108"/>
+      <c r="CH30" s="108"/>
+      <c r="CI30" s="108"/>
+      <c r="CJ30" s="108"/>
+      <c r="CK30" s="108"/>
+      <c r="CL30" s="108"/>
+      <c r="CM30" s="109"/>
       <c r="CN30" s="13"/>
       <c r="CO30" s="14"/>
       <c r="CP30" s="14"/>
@@ -8772,14 +8780,14 @@
       <c r="EO30" s="14"/>
       <c r="EP30" s="14"/>
       <c r="EQ30" s="15"/>
-      <c r="ER30" s="110"/>
-      <c r="ES30" s="111"/>
-      <c r="ET30" s="111"/>
-      <c r="EU30" s="111"/>
-      <c r="EV30" s="111"/>
-      <c r="EW30" s="111"/>
-      <c r="EX30" s="111"/>
-      <c r="EY30" s="112"/>
+      <c r="ER30" s="107"/>
+      <c r="ES30" s="108"/>
+      <c r="ET30" s="108"/>
+      <c r="EU30" s="108"/>
+      <c r="EV30" s="108"/>
+      <c r="EW30" s="108"/>
+      <c r="EX30" s="108"/>
+      <c r="EY30" s="109"/>
       <c r="EZ30" s="13"/>
       <c r="FA30" s="14"/>
       <c r="FB30" s="14"/>
@@ -8829,9 +8837,9 @@
       <c r="GT30" s="14"/>
       <c r="GU30" s="14"/>
       <c r="GV30" s="14"/>
-      <c r="GW30" s="132"/>
+      <c r="GW30" s="96"/>
     </row>
-    <row r="31" spans="1:205" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A31" s="72" t="s">
         <v>41</v>
       </c>
@@ -8861,14 +8869,14 @@
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="15"/>
-      <c r="AB31" s="110"/>
-      <c r="AC31" s="111"/>
-      <c r="AD31" s="111"/>
-      <c r="AE31" s="111"/>
-      <c r="AF31" s="111"/>
-      <c r="AG31" s="111"/>
-      <c r="AH31" s="111"/>
-      <c r="AI31" s="112"/>
+      <c r="AB31" s="107"/>
+      <c r="AC31" s="108"/>
+      <c r="AD31" s="108"/>
+      <c r="AE31" s="108"/>
+      <c r="AF31" s="108"/>
+      <c r="AG31" s="108"/>
+      <c r="AH31" s="108"/>
+      <c r="AI31" s="109"/>
       <c r="AJ31" s="13"/>
       <c r="AK31" s="14"/>
       <c r="AL31" s="14"/>
@@ -8917,14 +8925,14 @@
       <c r="CC31" s="14"/>
       <c r="CD31" s="14"/>
       <c r="CE31" s="15"/>
-      <c r="CF31" s="110"/>
-      <c r="CG31" s="111"/>
-      <c r="CH31" s="111"/>
-      <c r="CI31" s="111"/>
-      <c r="CJ31" s="111"/>
-      <c r="CK31" s="111"/>
-      <c r="CL31" s="111"/>
-      <c r="CM31" s="112"/>
+      <c r="CF31" s="107"/>
+      <c r="CG31" s="108"/>
+      <c r="CH31" s="108"/>
+      <c r="CI31" s="108"/>
+      <c r="CJ31" s="108"/>
+      <c r="CK31" s="108"/>
+      <c r="CL31" s="108"/>
+      <c r="CM31" s="109"/>
       <c r="CN31" s="13"/>
       <c r="CO31" s="14"/>
       <c r="CP31" s="14"/>
@@ -8981,14 +8989,14 @@
       <c r="EO31" s="14"/>
       <c r="EP31" s="14"/>
       <c r="EQ31" s="15"/>
-      <c r="ER31" s="110"/>
-      <c r="ES31" s="111"/>
-      <c r="ET31" s="111"/>
-      <c r="EU31" s="111"/>
-      <c r="EV31" s="111"/>
-      <c r="EW31" s="111"/>
-      <c r="EX31" s="111"/>
-      <c r="EY31" s="112"/>
+      <c r="ER31" s="107"/>
+      <c r="ES31" s="108"/>
+      <c r="ET31" s="108"/>
+      <c r="EU31" s="108"/>
+      <c r="EV31" s="108"/>
+      <c r="EW31" s="108"/>
+      <c r="EX31" s="108"/>
+      <c r="EY31" s="109"/>
       <c r="EZ31" s="13"/>
       <c r="FA31" s="14"/>
       <c r="FB31" s="14"/>
@@ -9038,9 +9046,9 @@
       <c r="GT31" s="14"/>
       <c r="GU31" s="14"/>
       <c r="GV31" s="14"/>
-      <c r="GW31" s="132"/>
+      <c r="GW31" s="96"/>
     </row>
-    <row r="32" spans="1:205" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A32" s="72" t="s">
         <v>46</v>
       </c>
@@ -9070,14 +9078,14 @@
       <c r="Y32" s="14"/>
       <c r="Z32" s="14"/>
       <c r="AA32" s="15"/>
-      <c r="AB32" s="110"/>
-      <c r="AC32" s="111"/>
-      <c r="AD32" s="111"/>
-      <c r="AE32" s="111"/>
-      <c r="AF32" s="111"/>
-      <c r="AG32" s="111"/>
-      <c r="AH32" s="111"/>
-      <c r="AI32" s="112"/>
+      <c r="AB32" s="107"/>
+      <c r="AC32" s="108"/>
+      <c r="AD32" s="108"/>
+      <c r="AE32" s="108"/>
+      <c r="AF32" s="108"/>
+      <c r="AG32" s="108"/>
+      <c r="AH32" s="108"/>
+      <c r="AI32" s="109"/>
       <c r="AJ32" s="13"/>
       <c r="AK32" s="14"/>
       <c r="AL32" s="14"/>
@@ -9126,14 +9134,14 @@
       <c r="CC32" s="14"/>
       <c r="CD32" s="14"/>
       <c r="CE32" s="15"/>
-      <c r="CF32" s="110"/>
-      <c r="CG32" s="111"/>
-      <c r="CH32" s="111"/>
-      <c r="CI32" s="111"/>
-      <c r="CJ32" s="111"/>
-      <c r="CK32" s="111"/>
-      <c r="CL32" s="111"/>
-      <c r="CM32" s="112"/>
+      <c r="CF32" s="107"/>
+      <c r="CG32" s="108"/>
+      <c r="CH32" s="108"/>
+      <c r="CI32" s="108"/>
+      <c r="CJ32" s="108"/>
+      <c r="CK32" s="108"/>
+      <c r="CL32" s="108"/>
+      <c r="CM32" s="109"/>
       <c r="CN32" s="13"/>
       <c r="CO32" s="14"/>
       <c r="CP32" s="14"/>
@@ -9190,14 +9198,14 @@
       <c r="EO32" s="14"/>
       <c r="EP32" s="14"/>
       <c r="EQ32" s="15"/>
-      <c r="ER32" s="110"/>
-      <c r="ES32" s="111"/>
-      <c r="ET32" s="111"/>
-      <c r="EU32" s="111"/>
-      <c r="EV32" s="111"/>
-      <c r="EW32" s="111"/>
-      <c r="EX32" s="111"/>
-      <c r="EY32" s="112"/>
+      <c r="ER32" s="107"/>
+      <c r="ES32" s="108"/>
+      <c r="ET32" s="108"/>
+      <c r="EU32" s="108"/>
+      <c r="EV32" s="108"/>
+      <c r="EW32" s="108"/>
+      <c r="EX32" s="108"/>
+      <c r="EY32" s="109"/>
       <c r="EZ32" s="13"/>
       <c r="FA32" s="14"/>
       <c r="FB32" s="14"/>
@@ -9247,9 +9255,9 @@
       <c r="GT32" s="14"/>
       <c r="GU32" s="14"/>
       <c r="GV32" s="14"/>
-      <c r="GW32" s="132"/>
+      <c r="GW32" s="96"/>
     </row>
-    <row r="33" spans="1:205" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A33" s="72" t="s">
         <v>43</v>
       </c>
@@ -9279,14 +9287,14 @@
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
       <c r="AA33" s="15"/>
-      <c r="AB33" s="110"/>
-      <c r="AC33" s="111"/>
-      <c r="AD33" s="111"/>
-      <c r="AE33" s="111"/>
-      <c r="AF33" s="111"/>
-      <c r="AG33" s="111"/>
-      <c r="AH33" s="111"/>
-      <c r="AI33" s="112"/>
+      <c r="AB33" s="107"/>
+      <c r="AC33" s="108"/>
+      <c r="AD33" s="108"/>
+      <c r="AE33" s="108"/>
+      <c r="AF33" s="108"/>
+      <c r="AG33" s="108"/>
+      <c r="AH33" s="108"/>
+      <c r="AI33" s="109"/>
       <c r="AJ33" s="13"/>
       <c r="AK33" s="14"/>
       <c r="AL33" s="14"/>
@@ -9335,14 +9343,14 @@
       <c r="CC33" s="14"/>
       <c r="CD33" s="14"/>
       <c r="CE33" s="15"/>
-      <c r="CF33" s="110"/>
-      <c r="CG33" s="111"/>
-      <c r="CH33" s="111"/>
-      <c r="CI33" s="111"/>
-      <c r="CJ33" s="111"/>
-      <c r="CK33" s="111"/>
-      <c r="CL33" s="111"/>
-      <c r="CM33" s="112"/>
+      <c r="CF33" s="107"/>
+      <c r="CG33" s="108"/>
+      <c r="CH33" s="108"/>
+      <c r="CI33" s="108"/>
+      <c r="CJ33" s="108"/>
+      <c r="CK33" s="108"/>
+      <c r="CL33" s="108"/>
+      <c r="CM33" s="109"/>
       <c r="CN33" s="13"/>
       <c r="CO33" s="14"/>
       <c r="CP33" s="14"/>
@@ -9399,14 +9407,14 @@
       <c r="EO33" s="14"/>
       <c r="EP33" s="14"/>
       <c r="EQ33" s="15"/>
-      <c r="ER33" s="110"/>
-      <c r="ES33" s="111"/>
-      <c r="ET33" s="111"/>
-      <c r="EU33" s="111"/>
-      <c r="EV33" s="111"/>
-      <c r="EW33" s="111"/>
-      <c r="EX33" s="111"/>
-      <c r="EY33" s="112"/>
+      <c r="ER33" s="107"/>
+      <c r="ES33" s="108"/>
+      <c r="ET33" s="108"/>
+      <c r="EU33" s="108"/>
+      <c r="EV33" s="108"/>
+      <c r="EW33" s="108"/>
+      <c r="EX33" s="108"/>
+      <c r="EY33" s="109"/>
       <c r="EZ33" s="13"/>
       <c r="FA33" s="14"/>
       <c r="FB33" s="14"/>
@@ -9456,9 +9464,9 @@
       <c r="GT33" s="14"/>
       <c r="GU33" s="14"/>
       <c r="GV33" s="14"/>
-      <c r="GW33" s="132"/>
+      <c r="GW33" s="96"/>
     </row>
-    <row r="34" spans="1:205" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A34" s="72" t="s">
         <v>45</v>
       </c>
@@ -9488,14 +9496,14 @@
       <c r="Y34" s="14"/>
       <c r="Z34" s="14"/>
       <c r="AA34" s="15"/>
-      <c r="AB34" s="110"/>
-      <c r="AC34" s="111"/>
-      <c r="AD34" s="111"/>
-      <c r="AE34" s="111"/>
-      <c r="AF34" s="111"/>
-      <c r="AG34" s="111"/>
-      <c r="AH34" s="111"/>
-      <c r="AI34" s="112"/>
+      <c r="AB34" s="107"/>
+      <c r="AC34" s="108"/>
+      <c r="AD34" s="108"/>
+      <c r="AE34" s="108"/>
+      <c r="AF34" s="108"/>
+      <c r="AG34" s="108"/>
+      <c r="AH34" s="108"/>
+      <c r="AI34" s="109"/>
       <c r="AJ34" s="13"/>
       <c r="AK34" s="14"/>
       <c r="AL34" s="14"/>
@@ -9544,14 +9552,14 @@
       <c r="CC34" s="14"/>
       <c r="CD34" s="14"/>
       <c r="CE34" s="15"/>
-      <c r="CF34" s="110"/>
-      <c r="CG34" s="111"/>
-      <c r="CH34" s="111"/>
-      <c r="CI34" s="111"/>
-      <c r="CJ34" s="111"/>
-      <c r="CK34" s="111"/>
-      <c r="CL34" s="111"/>
-      <c r="CM34" s="112"/>
+      <c r="CF34" s="107"/>
+      <c r="CG34" s="108"/>
+      <c r="CH34" s="108"/>
+      <c r="CI34" s="108"/>
+      <c r="CJ34" s="108"/>
+      <c r="CK34" s="108"/>
+      <c r="CL34" s="108"/>
+      <c r="CM34" s="109"/>
       <c r="CN34" s="13"/>
       <c r="CO34" s="14"/>
       <c r="CP34" s="14"/>
@@ -9608,14 +9616,14 @@
       <c r="EO34" s="14"/>
       <c r="EP34" s="14"/>
       <c r="EQ34" s="15"/>
-      <c r="ER34" s="110"/>
-      <c r="ES34" s="111"/>
-      <c r="ET34" s="111"/>
-      <c r="EU34" s="111"/>
-      <c r="EV34" s="111"/>
-      <c r="EW34" s="111"/>
-      <c r="EX34" s="111"/>
-      <c r="EY34" s="112"/>
+      <c r="ER34" s="107"/>
+      <c r="ES34" s="108"/>
+      <c r="ET34" s="108"/>
+      <c r="EU34" s="108"/>
+      <c r="EV34" s="108"/>
+      <c r="EW34" s="108"/>
+      <c r="EX34" s="108"/>
+      <c r="EY34" s="109"/>
       <c r="EZ34" s="13"/>
       <c r="FA34" s="14"/>
       <c r="FB34" s="14"/>
@@ -9665,9 +9673,9 @@
       <c r="GT34" s="14"/>
       <c r="GU34" s="14"/>
       <c r="GV34" s="14"/>
-      <c r="GW34" s="132"/>
+      <c r="GW34" s="96"/>
     </row>
-    <row r="35" spans="1:205" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A35" s="72" t="s">
         <v>44</v>
       </c>
@@ -9697,14 +9705,14 @@
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
       <c r="AA35" s="15"/>
-      <c r="AB35" s="110"/>
-      <c r="AC35" s="111"/>
-      <c r="AD35" s="111"/>
-      <c r="AE35" s="111"/>
-      <c r="AF35" s="111"/>
-      <c r="AG35" s="111"/>
-      <c r="AH35" s="111"/>
-      <c r="AI35" s="112"/>
+      <c r="AB35" s="107"/>
+      <c r="AC35" s="108"/>
+      <c r="AD35" s="108"/>
+      <c r="AE35" s="108"/>
+      <c r="AF35" s="108"/>
+      <c r="AG35" s="108"/>
+      <c r="AH35" s="108"/>
+      <c r="AI35" s="109"/>
       <c r="AJ35" s="13"/>
       <c r="AK35" s="14"/>
       <c r="AL35" s="14"/>
@@ -9753,14 +9761,14 @@
       <c r="CC35" s="14"/>
       <c r="CD35" s="14"/>
       <c r="CE35" s="15"/>
-      <c r="CF35" s="110"/>
-      <c r="CG35" s="111"/>
-      <c r="CH35" s="111"/>
-      <c r="CI35" s="111"/>
-      <c r="CJ35" s="111"/>
-      <c r="CK35" s="111"/>
-      <c r="CL35" s="111"/>
-      <c r="CM35" s="112"/>
+      <c r="CF35" s="107"/>
+      <c r="CG35" s="108"/>
+      <c r="CH35" s="108"/>
+      <c r="CI35" s="108"/>
+      <c r="CJ35" s="108"/>
+      <c r="CK35" s="108"/>
+      <c r="CL35" s="108"/>
+      <c r="CM35" s="109"/>
       <c r="CN35" s="13"/>
       <c r="CO35" s="14"/>
       <c r="CP35" s="14"/>
@@ -9817,14 +9825,14 @@
       <c r="EO35" s="14"/>
       <c r="EP35" s="14"/>
       <c r="EQ35" s="15"/>
-      <c r="ER35" s="110"/>
-      <c r="ES35" s="111"/>
-      <c r="ET35" s="111"/>
-      <c r="EU35" s="111"/>
-      <c r="EV35" s="111"/>
-      <c r="EW35" s="111"/>
-      <c r="EX35" s="111"/>
-      <c r="EY35" s="112"/>
+      <c r="ER35" s="107"/>
+      <c r="ES35" s="108"/>
+      <c r="ET35" s="108"/>
+      <c r="EU35" s="108"/>
+      <c r="EV35" s="108"/>
+      <c r="EW35" s="108"/>
+      <c r="EX35" s="108"/>
+      <c r="EY35" s="109"/>
       <c r="EZ35" s="13"/>
       <c r="FA35" s="14"/>
       <c r="FB35" s="14"/>
@@ -9874,9 +9882,9 @@
       <c r="GT35" s="14"/>
       <c r="GU35" s="14"/>
       <c r="GV35" s="14"/>
-      <c r="GW35" s="132"/>
+      <c r="GW35" s="96"/>
     </row>
-    <row r="36" spans="1:205" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="73" t="s">
         <v>51</v>
       </c>
@@ -9906,14 +9914,14 @@
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
       <c r="AA36" s="15"/>
-      <c r="AB36" s="110"/>
-      <c r="AC36" s="111"/>
-      <c r="AD36" s="111"/>
-      <c r="AE36" s="111"/>
-      <c r="AF36" s="111"/>
-      <c r="AG36" s="111"/>
-      <c r="AH36" s="111"/>
-      <c r="AI36" s="112"/>
+      <c r="AB36" s="107"/>
+      <c r="AC36" s="108"/>
+      <c r="AD36" s="108"/>
+      <c r="AE36" s="108"/>
+      <c r="AF36" s="108"/>
+      <c r="AG36" s="108"/>
+      <c r="AH36" s="108"/>
+      <c r="AI36" s="109"/>
       <c r="AJ36" s="13"/>
       <c r="AK36" s="14"/>
       <c r="AL36" s="14"/>
@@ -9962,14 +9970,14 @@
       <c r="CC36" s="14"/>
       <c r="CD36" s="14"/>
       <c r="CE36" s="15"/>
-      <c r="CF36" s="110"/>
-      <c r="CG36" s="111"/>
-      <c r="CH36" s="111"/>
-      <c r="CI36" s="111"/>
-      <c r="CJ36" s="111"/>
-      <c r="CK36" s="111"/>
-      <c r="CL36" s="111"/>
-      <c r="CM36" s="112"/>
+      <c r="CF36" s="107"/>
+      <c r="CG36" s="108"/>
+      <c r="CH36" s="108"/>
+      <c r="CI36" s="108"/>
+      <c r="CJ36" s="108"/>
+      <c r="CK36" s="108"/>
+      <c r="CL36" s="108"/>
+      <c r="CM36" s="109"/>
       <c r="CN36" s="13"/>
       <c r="CO36" s="14"/>
       <c r="CP36" s="14"/>
@@ -10026,14 +10034,14 @@
       <c r="EO36" s="14"/>
       <c r="EP36" s="14"/>
       <c r="EQ36" s="15"/>
-      <c r="ER36" s="110"/>
-      <c r="ES36" s="111"/>
-      <c r="ET36" s="111"/>
-      <c r="EU36" s="111"/>
-      <c r="EV36" s="111"/>
-      <c r="EW36" s="111"/>
-      <c r="EX36" s="111"/>
-      <c r="EY36" s="112"/>
+      <c r="ER36" s="107"/>
+      <c r="ES36" s="108"/>
+      <c r="ET36" s="108"/>
+      <c r="EU36" s="108"/>
+      <c r="EV36" s="108"/>
+      <c r="EW36" s="108"/>
+      <c r="EX36" s="108"/>
+      <c r="EY36" s="109"/>
       <c r="EZ36" s="13"/>
       <c r="FA36" s="14"/>
       <c r="FB36" s="14"/>
@@ -10083,13 +10091,13 @@
       <c r="GT36" s="14"/>
       <c r="GU36" s="14"/>
       <c r="GV36" s="14"/>
-      <c r="GW36" s="132"/>
+      <c r="GW36" s="96"/>
     </row>
-    <row r="37" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="103" t="s">
+    <row r="37" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="104"/>
+      <c r="B37" s="130"/>
       <c r="C37" s="61"/>
       <c r="D37" s="13"/>
       <c r="E37" s="14"/>
@@ -10115,14 +10123,14 @@
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
       <c r="AA37" s="15"/>
-      <c r="AB37" s="110"/>
-      <c r="AC37" s="111"/>
-      <c r="AD37" s="111"/>
-      <c r="AE37" s="111"/>
-      <c r="AF37" s="111"/>
-      <c r="AG37" s="111"/>
-      <c r="AH37" s="111"/>
-      <c r="AI37" s="112"/>
+      <c r="AB37" s="107"/>
+      <c r="AC37" s="108"/>
+      <c r="AD37" s="108"/>
+      <c r="AE37" s="108"/>
+      <c r="AF37" s="108"/>
+      <c r="AG37" s="108"/>
+      <c r="AH37" s="108"/>
+      <c r="AI37" s="109"/>
       <c r="AJ37" s="13"/>
       <c r="AK37" s="14"/>
       <c r="AL37" s="14"/>
@@ -10171,14 +10179,14 @@
       <c r="CC37" s="14"/>
       <c r="CD37" s="14"/>
       <c r="CE37" s="15"/>
-      <c r="CF37" s="110"/>
-      <c r="CG37" s="111"/>
-      <c r="CH37" s="111"/>
-      <c r="CI37" s="111"/>
-      <c r="CJ37" s="111"/>
-      <c r="CK37" s="111"/>
-      <c r="CL37" s="111"/>
-      <c r="CM37" s="112"/>
+      <c r="CF37" s="107"/>
+      <c r="CG37" s="108"/>
+      <c r="CH37" s="108"/>
+      <c r="CI37" s="108"/>
+      <c r="CJ37" s="108"/>
+      <c r="CK37" s="108"/>
+      <c r="CL37" s="108"/>
+      <c r="CM37" s="109"/>
       <c r="CN37" s="13"/>
       <c r="CO37" s="14"/>
       <c r="CP37" s="14"/>
@@ -10235,14 +10243,14 @@
       <c r="EO37" s="14"/>
       <c r="EP37" s="14"/>
       <c r="EQ37" s="15"/>
-      <c r="ER37" s="110"/>
-      <c r="ES37" s="111"/>
-      <c r="ET37" s="111"/>
-      <c r="EU37" s="111"/>
-      <c r="EV37" s="111"/>
-      <c r="EW37" s="111"/>
-      <c r="EX37" s="111"/>
-      <c r="EY37" s="112"/>
+      <c r="ER37" s="107"/>
+      <c r="ES37" s="108"/>
+      <c r="ET37" s="108"/>
+      <c r="EU37" s="108"/>
+      <c r="EV37" s="108"/>
+      <c r="EW37" s="108"/>
+      <c r="EX37" s="108"/>
+      <c r="EY37" s="109"/>
       <c r="EZ37" s="13"/>
       <c r="FA37" s="14"/>
       <c r="FB37" s="14"/>
@@ -10292,9 +10300,9 @@
       <c r="GT37" s="14"/>
       <c r="GU37" s="14"/>
       <c r="GV37" s="14"/>
-      <c r="GW37" s="132"/>
+      <c r="GW37" s="96"/>
     </row>
-    <row r="38" spans="1:205" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="88" t="s">
         <v>33</v>
       </c>
@@ -10324,14 +10332,14 @@
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
       <c r="AA38" s="15"/>
-      <c r="AB38" s="110"/>
-      <c r="AC38" s="111"/>
-      <c r="AD38" s="111"/>
-      <c r="AE38" s="111"/>
-      <c r="AF38" s="111"/>
-      <c r="AG38" s="111"/>
-      <c r="AH38" s="111"/>
-      <c r="AI38" s="112"/>
+      <c r="AB38" s="107"/>
+      <c r="AC38" s="108"/>
+      <c r="AD38" s="108"/>
+      <c r="AE38" s="108"/>
+      <c r="AF38" s="108"/>
+      <c r="AG38" s="108"/>
+      <c r="AH38" s="108"/>
+      <c r="AI38" s="109"/>
       <c r="AJ38" s="13"/>
       <c r="AK38" s="14"/>
       <c r="AL38" s="14"/>
@@ -10380,14 +10388,14 @@
       <c r="CC38" s="14"/>
       <c r="CD38" s="14"/>
       <c r="CE38" s="15"/>
-      <c r="CF38" s="110"/>
-      <c r="CG38" s="111"/>
-      <c r="CH38" s="111"/>
-      <c r="CI38" s="111"/>
-      <c r="CJ38" s="111"/>
-      <c r="CK38" s="111"/>
-      <c r="CL38" s="111"/>
-      <c r="CM38" s="112"/>
+      <c r="CF38" s="107"/>
+      <c r="CG38" s="108"/>
+      <c r="CH38" s="108"/>
+      <c r="CI38" s="108"/>
+      <c r="CJ38" s="108"/>
+      <c r="CK38" s="108"/>
+      <c r="CL38" s="108"/>
+      <c r="CM38" s="109"/>
       <c r="CN38" s="13"/>
       <c r="CO38" s="14"/>
       <c r="CP38" s="14"/>
@@ -10446,14 +10454,14 @@
       <c r="EO38" s="14"/>
       <c r="EP38" s="14"/>
       <c r="EQ38" s="15"/>
-      <c r="ER38" s="110"/>
-      <c r="ES38" s="111"/>
-      <c r="ET38" s="111"/>
-      <c r="EU38" s="111"/>
-      <c r="EV38" s="111"/>
-      <c r="EW38" s="111"/>
-      <c r="EX38" s="111"/>
-      <c r="EY38" s="112"/>
+      <c r="ER38" s="107"/>
+      <c r="ES38" s="108"/>
+      <c r="ET38" s="108"/>
+      <c r="EU38" s="108"/>
+      <c r="EV38" s="108"/>
+      <c r="EW38" s="108"/>
+      <c r="EX38" s="108"/>
+      <c r="EY38" s="109"/>
       <c r="EZ38" s="13"/>
       <c r="FA38" s="14"/>
       <c r="FB38" s="14"/>
@@ -10503,13 +10511,13 @@
       <c r="GT38" s="14"/>
       <c r="GU38" s="14"/>
       <c r="GV38" s="14"/>
-      <c r="GW38" s="132"/>
+      <c r="GW38" s="96"/>
     </row>
-    <row r="39" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="105" t="s">
+    <row r="39" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="106"/>
+      <c r="B39" s="132"/>
       <c r="C39" s="61"/>
       <c r="D39" s="13"/>
       <c r="E39" s="14"/>
@@ -10535,14 +10543,14 @@
       <c r="Y39" s="14"/>
       <c r="Z39" s="14"/>
       <c r="AA39" s="15"/>
-      <c r="AB39" s="110"/>
-      <c r="AC39" s="111"/>
-      <c r="AD39" s="111"/>
-      <c r="AE39" s="111"/>
-      <c r="AF39" s="111"/>
-      <c r="AG39" s="111"/>
-      <c r="AH39" s="111"/>
-      <c r="AI39" s="112"/>
+      <c r="AB39" s="107"/>
+      <c r="AC39" s="108"/>
+      <c r="AD39" s="108"/>
+      <c r="AE39" s="108"/>
+      <c r="AF39" s="108"/>
+      <c r="AG39" s="108"/>
+      <c r="AH39" s="108"/>
+      <c r="AI39" s="109"/>
       <c r="AJ39" s="13"/>
       <c r="AK39" s="14"/>
       <c r="AL39" s="14"/>
@@ -10591,14 +10599,14 @@
       <c r="CC39" s="14"/>
       <c r="CD39" s="14"/>
       <c r="CE39" s="15"/>
-      <c r="CF39" s="110"/>
-      <c r="CG39" s="111"/>
-      <c r="CH39" s="111"/>
-      <c r="CI39" s="111"/>
-      <c r="CJ39" s="111"/>
-      <c r="CK39" s="111"/>
-      <c r="CL39" s="111"/>
-      <c r="CM39" s="112"/>
+      <c r="CF39" s="107"/>
+      <c r="CG39" s="108"/>
+      <c r="CH39" s="108"/>
+      <c r="CI39" s="108"/>
+      <c r="CJ39" s="108"/>
+      <c r="CK39" s="108"/>
+      <c r="CL39" s="108"/>
+      <c r="CM39" s="109"/>
       <c r="CN39" s="13"/>
       <c r="CO39" s="14"/>
       <c r="CP39" s="14"/>
@@ -10655,14 +10663,14 @@
       <c r="EO39" s="14"/>
       <c r="EP39" s="14"/>
       <c r="EQ39" s="15"/>
-      <c r="ER39" s="110"/>
-      <c r="ES39" s="111"/>
-      <c r="ET39" s="111"/>
-      <c r="EU39" s="111"/>
-      <c r="EV39" s="111"/>
-      <c r="EW39" s="111"/>
-      <c r="EX39" s="111"/>
-      <c r="EY39" s="112"/>
+      <c r="ER39" s="107"/>
+      <c r="ES39" s="108"/>
+      <c r="ET39" s="108"/>
+      <c r="EU39" s="108"/>
+      <c r="EV39" s="108"/>
+      <c r="EW39" s="108"/>
+      <c r="EX39" s="108"/>
+      <c r="EY39" s="109"/>
       <c r="EZ39" s="13"/>
       <c r="FA39" s="14"/>
       <c r="FB39" s="14"/>
@@ -10712,9 +10720,9 @@
       <c r="GT39" s="14"/>
       <c r="GU39" s="14"/>
       <c r="GV39" s="14"/>
-      <c r="GW39" s="132"/>
+      <c r="GW39" s="96"/>
     </row>
-    <row r="40" spans="1:205" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A40" s="82" t="s">
         <v>34</v>
       </c>
@@ -10744,14 +10752,14 @@
       <c r="Y40" s="14"/>
       <c r="Z40" s="14"/>
       <c r="AA40" s="15"/>
-      <c r="AB40" s="110"/>
-      <c r="AC40" s="111"/>
-      <c r="AD40" s="111"/>
-      <c r="AE40" s="111"/>
-      <c r="AF40" s="111"/>
-      <c r="AG40" s="111"/>
-      <c r="AH40" s="111"/>
-      <c r="AI40" s="112"/>
+      <c r="AB40" s="107"/>
+      <c r="AC40" s="108"/>
+      <c r="AD40" s="108"/>
+      <c r="AE40" s="108"/>
+      <c r="AF40" s="108"/>
+      <c r="AG40" s="108"/>
+      <c r="AH40" s="108"/>
+      <c r="AI40" s="109"/>
       <c r="AJ40" s="13"/>
       <c r="AK40" s="14"/>
       <c r="AL40" s="14"/>
@@ -10800,14 +10808,14 @@
       <c r="CC40" s="14"/>
       <c r="CD40" s="14"/>
       <c r="CE40" s="15"/>
-      <c r="CF40" s="110"/>
-      <c r="CG40" s="111"/>
-      <c r="CH40" s="111"/>
-      <c r="CI40" s="111"/>
-      <c r="CJ40" s="111"/>
-      <c r="CK40" s="111"/>
-      <c r="CL40" s="111"/>
-      <c r="CM40" s="112"/>
+      <c r="CF40" s="107"/>
+      <c r="CG40" s="108"/>
+      <c r="CH40" s="108"/>
+      <c r="CI40" s="108"/>
+      <c r="CJ40" s="108"/>
+      <c r="CK40" s="108"/>
+      <c r="CL40" s="108"/>
+      <c r="CM40" s="109"/>
       <c r="CN40" s="13"/>
       <c r="CO40" s="14"/>
       <c r="CP40" s="14"/>
@@ -10866,14 +10874,14 @@
       <c r="EO40" s="14"/>
       <c r="EP40" s="14"/>
       <c r="EQ40" s="15"/>
-      <c r="ER40" s="110"/>
-      <c r="ES40" s="111"/>
-      <c r="ET40" s="111"/>
-      <c r="EU40" s="111"/>
-      <c r="EV40" s="111"/>
-      <c r="EW40" s="111"/>
-      <c r="EX40" s="111"/>
-      <c r="EY40" s="112"/>
+      <c r="ER40" s="107"/>
+      <c r="ES40" s="108"/>
+      <c r="ET40" s="108"/>
+      <c r="EU40" s="108"/>
+      <c r="EV40" s="108"/>
+      <c r="EW40" s="108"/>
+      <c r="EX40" s="108"/>
+      <c r="EY40" s="109"/>
       <c r="EZ40" s="13"/>
       <c r="FA40" s="14"/>
       <c r="FB40" s="14"/>
@@ -10923,82 +10931,82 @@
       <c r="GT40" s="14"/>
       <c r="GU40" s="14"/>
       <c r="GV40" s="14"/>
-      <c r="GW40" s="132"/>
+      <c r="GW40" s="96"/>
     </row>
-    <row r="41" spans="1:205" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="83" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="68"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="92" t="s">
+      <c r="D41" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="123"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="123"/>
-      <c r="I41" s="123"/>
-      <c r="J41" s="123"/>
-      <c r="K41" s="123"/>
-      <c r="L41" s="123"/>
-      <c r="M41" s="123"/>
-      <c r="N41" s="123"/>
-      <c r="O41" s="123"/>
-      <c r="P41" s="123"/>
-      <c r="Q41" s="123"/>
-      <c r="R41" s="123"/>
-      <c r="S41" s="123"/>
-      <c r="T41" s="123"/>
-      <c r="U41" s="123"/>
-      <c r="V41" s="123"/>
-      <c r="W41" s="123"/>
-      <c r="X41" s="123"/>
-      <c r="Y41" s="123"/>
-      <c r="Z41" s="123"/>
-      <c r="AA41" s="124"/>
-      <c r="AB41" s="113"/>
-      <c r="AC41" s="114"/>
-      <c r="AD41" s="114"/>
-      <c r="AE41" s="114"/>
-      <c r="AF41" s="114"/>
-      <c r="AG41" s="114"/>
-      <c r="AH41" s="114"/>
-      <c r="AI41" s="115"/>
-      <c r="AJ41" s="92" t="s">
+      <c r="E41" s="117"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="117"/>
+      <c r="J41" s="117"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="117"/>
+      <c r="M41" s="117"/>
+      <c r="N41" s="117"/>
+      <c r="O41" s="117"/>
+      <c r="P41" s="117"/>
+      <c r="Q41" s="117"/>
+      <c r="R41" s="117"/>
+      <c r="S41" s="117"/>
+      <c r="T41" s="117"/>
+      <c r="U41" s="117"/>
+      <c r="V41" s="117"/>
+      <c r="W41" s="117"/>
+      <c r="X41" s="117"/>
+      <c r="Y41" s="117"/>
+      <c r="Z41" s="117"/>
+      <c r="AA41" s="118"/>
+      <c r="AB41" s="110"/>
+      <c r="AC41" s="111"/>
+      <c r="AD41" s="111"/>
+      <c r="AE41" s="111"/>
+      <c r="AF41" s="111"/>
+      <c r="AG41" s="111"/>
+      <c r="AH41" s="111"/>
+      <c r="AI41" s="112"/>
+      <c r="AJ41" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="AK41" s="93"/>
-      <c r="AL41" s="93"/>
-      <c r="AM41" s="93"/>
-      <c r="AN41" s="93"/>
-      <c r="AO41" s="93"/>
-      <c r="AP41" s="93"/>
-      <c r="AQ41" s="93"/>
-      <c r="AR41" s="93"/>
-      <c r="AS41" s="93"/>
-      <c r="AT41" s="93"/>
-      <c r="AU41" s="93"/>
-      <c r="AV41" s="93"/>
-      <c r="AW41" s="93"/>
-      <c r="AX41" s="93"/>
-      <c r="AY41" s="93"/>
-      <c r="AZ41" s="93"/>
-      <c r="BA41" s="93"/>
-      <c r="BB41" s="93"/>
-      <c r="BC41" s="93"/>
-      <c r="BD41" s="93"/>
-      <c r="BE41" s="93"/>
-      <c r="BF41" s="93"/>
-      <c r="BG41" s="93"/>
-      <c r="BH41" s="93"/>
-      <c r="BI41" s="93"/>
-      <c r="BJ41" s="93"/>
-      <c r="BK41" s="93"/>
-      <c r="BL41" s="93"/>
-      <c r="BM41" s="93"/>
-      <c r="BN41" s="93"/>
-      <c r="BO41" s="94"/>
+      <c r="AK41" s="119"/>
+      <c r="AL41" s="119"/>
+      <c r="AM41" s="119"/>
+      <c r="AN41" s="119"/>
+      <c r="AO41" s="119"/>
+      <c r="AP41" s="119"/>
+      <c r="AQ41" s="119"/>
+      <c r="AR41" s="119"/>
+      <c r="AS41" s="119"/>
+      <c r="AT41" s="119"/>
+      <c r="AU41" s="119"/>
+      <c r="AV41" s="119"/>
+      <c r="AW41" s="119"/>
+      <c r="AX41" s="119"/>
+      <c r="AY41" s="119"/>
+      <c r="AZ41" s="119"/>
+      <c r="BA41" s="119"/>
+      <c r="BB41" s="119"/>
+      <c r="BC41" s="119"/>
+      <c r="BD41" s="119"/>
+      <c r="BE41" s="119"/>
+      <c r="BF41" s="119"/>
+      <c r="BG41" s="119"/>
+      <c r="BH41" s="119"/>
+      <c r="BI41" s="119"/>
+      <c r="BJ41" s="119"/>
+      <c r="BK41" s="119"/>
+      <c r="BL41" s="119"/>
+      <c r="BM41" s="119"/>
+      <c r="BN41" s="119"/>
+      <c r="BO41" s="120"/>
       <c r="BP41" s="17"/>
       <c r="BQ41" s="18"/>
       <c r="BR41" s="18"/>
@@ -11015,14 +11023,14 @@
       <c r="CC41" s="18"/>
       <c r="CD41" s="18"/>
       <c r="CE41" s="19"/>
-      <c r="CF41" s="113"/>
-      <c r="CG41" s="114"/>
-      <c r="CH41" s="114"/>
-      <c r="CI41" s="114"/>
-      <c r="CJ41" s="114"/>
-      <c r="CK41" s="114"/>
-      <c r="CL41" s="114"/>
-      <c r="CM41" s="115"/>
+      <c r="CF41" s="110"/>
+      <c r="CG41" s="111"/>
+      <c r="CH41" s="111"/>
+      <c r="CI41" s="111"/>
+      <c r="CJ41" s="111"/>
+      <c r="CK41" s="111"/>
+      <c r="CL41" s="111"/>
+      <c r="CM41" s="112"/>
       <c r="CN41" s="17"/>
       <c r="CO41" s="18"/>
       <c r="CP41" s="18"/>
@@ -11079,14 +11087,14 @@
       <c r="EO41" s="18"/>
       <c r="EP41" s="18"/>
       <c r="EQ41" s="19"/>
-      <c r="ER41" s="113"/>
-      <c r="ES41" s="114"/>
-      <c r="ET41" s="114"/>
-      <c r="EU41" s="114"/>
-      <c r="EV41" s="114"/>
-      <c r="EW41" s="114"/>
-      <c r="EX41" s="114"/>
-      <c r="EY41" s="115"/>
+      <c r="ER41" s="110"/>
+      <c r="ES41" s="111"/>
+      <c r="ET41" s="111"/>
+      <c r="EU41" s="111"/>
+      <c r="EV41" s="111"/>
+      <c r="EW41" s="111"/>
+      <c r="EX41" s="111"/>
+      <c r="EY41" s="112"/>
       <c r="EZ41" s="17"/>
       <c r="FA41" s="18"/>
       <c r="FB41" s="18"/>
@@ -11136,227 +11144,264 @@
       <c r="GT41" s="18"/>
       <c r="GU41" s="18"/>
       <c r="GV41" s="18"/>
-      <c r="GW41" s="132"/>
+      <c r="GW41" s="96"/>
     </row>
-    <row r="42" spans="1:205" x14ac:dyDescent="0.15">
-      <c r="A42" s="125" t="s">
+    <row r="42" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A42" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="125"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="125"/>
-      <c r="K42" s="125"/>
-      <c r="L42" s="125"/>
-      <c r="M42" s="125"/>
-      <c r="N42" s="125"/>
-      <c r="O42" s="125"/>
-      <c r="P42" s="125"/>
-      <c r="Q42" s="125"/>
-      <c r="R42" s="125"/>
-      <c r="S42" s="125"/>
-      <c r="T42" s="125"/>
-      <c r="U42" s="125"/>
-      <c r="V42" s="125"/>
-      <c r="W42" s="125"/>
-      <c r="X42" s="125"/>
-      <c r="Y42" s="125"/>
-      <c r="Z42" s="125"/>
-      <c r="AA42" s="125"/>
-      <c r="AB42" s="125"/>
-      <c r="AC42" s="125"/>
-      <c r="AD42" s="125"/>
-      <c r="AE42" s="125"/>
-      <c r="AF42" s="125"/>
-      <c r="AG42" s="125"/>
-      <c r="AH42" s="125"/>
-      <c r="AI42" s="125"/>
-      <c r="AJ42" s="125"/>
-      <c r="AK42" s="125"/>
-      <c r="AL42" s="125"/>
-      <c r="AM42" s="125"/>
-      <c r="AN42" s="125"/>
-      <c r="AO42" s="125"/>
-      <c r="AP42" s="125"/>
-      <c r="AQ42" s="125"/>
-      <c r="AR42" s="125"/>
-      <c r="AS42" s="125"/>
-      <c r="AT42" s="125"/>
-      <c r="AU42" s="125"/>
-      <c r="AV42" s="125"/>
-      <c r="AW42" s="125"/>
-      <c r="AX42" s="125"/>
-      <c r="AY42" s="125"/>
-      <c r="AZ42" s="125"/>
-      <c r="BA42" s="125"/>
-      <c r="BB42" s="125"/>
-      <c r="BC42" s="125"/>
-      <c r="BD42" s="125"/>
-      <c r="BE42" s="125"/>
-      <c r="BF42" s="125"/>
-      <c r="BG42" s="125"/>
-      <c r="BH42" s="125"/>
-      <c r="BI42" s="125"/>
-      <c r="BJ42" s="125"/>
-      <c r="BK42" s="125"/>
-      <c r="BL42" s="125"/>
-      <c r="BM42" s="125"/>
-      <c r="BN42" s="125"/>
-      <c r="BO42" s="125"/>
-      <c r="BP42" s="125"/>
-      <c r="BQ42" s="125"/>
-      <c r="BR42" s="125"/>
-      <c r="BS42" s="125"/>
-      <c r="BT42" s="125"/>
-      <c r="BU42" s="125"/>
-      <c r="BV42" s="125"/>
-      <c r="BW42" s="125"/>
-      <c r="BX42" s="125"/>
-      <c r="BY42" s="125"/>
-      <c r="BZ42" s="125"/>
-      <c r="CA42" s="125"/>
-      <c r="CB42" s="125"/>
-      <c r="CC42" s="125"/>
-      <c r="CD42" s="125"/>
-      <c r="CE42" s="125"/>
-      <c r="CF42" s="125"/>
-      <c r="CG42" s="125"/>
-      <c r="CH42" s="125"/>
-      <c r="CI42" s="125"/>
-      <c r="CJ42" s="125"/>
-      <c r="CK42" s="125"/>
-      <c r="CL42" s="125"/>
-      <c r="CM42" s="125"/>
-      <c r="CN42" s="125"/>
-      <c r="CO42" s="125"/>
-      <c r="CP42" s="125"/>
-      <c r="CQ42" s="125"/>
-      <c r="CR42" s="125"/>
-      <c r="CS42" s="125"/>
-      <c r="CT42" s="125"/>
-      <c r="CU42" s="125"/>
-      <c r="CV42" s="125"/>
-      <c r="CW42" s="125"/>
-      <c r="CX42" s="125"/>
-      <c r="CY42" s="125"/>
-      <c r="CZ42" s="125"/>
-      <c r="DA42" s="125"/>
-      <c r="DB42" s="125"/>
-      <c r="DC42" s="125"/>
-      <c r="DD42" s="125"/>
-      <c r="DE42" s="125"/>
-      <c r="DF42" s="125"/>
-      <c r="DG42" s="125"/>
-      <c r="DH42" s="125"/>
-      <c r="DI42" s="125"/>
-      <c r="DJ42" s="125"/>
-      <c r="DK42" s="125"/>
-      <c r="DL42" s="125"/>
-      <c r="DM42" s="125"/>
-      <c r="DN42" s="125"/>
-      <c r="DO42" s="125"/>
-      <c r="DP42" s="125"/>
-      <c r="DQ42" s="125"/>
-      <c r="DR42" s="125"/>
-      <c r="DS42" s="125"/>
-      <c r="DT42" s="125"/>
-      <c r="DU42" s="125"/>
-      <c r="DV42" s="125"/>
-      <c r="DW42" s="125"/>
-      <c r="DX42" s="125"/>
-      <c r="DY42" s="125"/>
-      <c r="DZ42" s="125"/>
-      <c r="EA42" s="125"/>
-      <c r="EB42" s="125"/>
-      <c r="EC42" s="125"/>
-      <c r="ED42" s="125"/>
-      <c r="EE42" s="125"/>
-      <c r="EF42" s="125"/>
-      <c r="EG42" s="125"/>
-      <c r="EH42" s="125"/>
-      <c r="EI42" s="125"/>
-      <c r="EJ42" s="125"/>
-      <c r="EK42" s="125"/>
-      <c r="EL42" s="125"/>
-      <c r="EM42" s="125"/>
-      <c r="EN42" s="125"/>
-      <c r="EO42" s="125"/>
-      <c r="EP42" s="125"/>
-      <c r="EQ42" s="125"/>
-      <c r="ER42" s="125"/>
-      <c r="ES42" s="125"/>
-      <c r="ET42" s="125"/>
-      <c r="EU42" s="125"/>
-      <c r="EV42" s="125"/>
-      <c r="EW42" s="125"/>
-      <c r="EX42" s="125"/>
-      <c r="EY42" s="125"/>
-      <c r="EZ42" s="125"/>
-      <c r="FA42" s="125"/>
-      <c r="FB42" s="125"/>
-      <c r="FC42" s="125"/>
-      <c r="FD42" s="125"/>
-      <c r="FE42" s="125"/>
-      <c r="FF42" s="125"/>
-      <c r="FG42" s="125"/>
-      <c r="FH42" s="125"/>
-      <c r="FI42" s="125"/>
-      <c r="FJ42" s="125"/>
-      <c r="FK42" s="125"/>
-      <c r="FL42" s="125"/>
-      <c r="FM42" s="125"/>
-      <c r="FN42" s="125"/>
-      <c r="FO42" s="125"/>
-      <c r="FP42" s="125"/>
-      <c r="FQ42" s="125"/>
-      <c r="FR42" s="125"/>
-      <c r="FS42" s="125"/>
-      <c r="FT42" s="125"/>
-      <c r="FU42" s="125"/>
-      <c r="FV42" s="125"/>
-      <c r="FW42" s="125"/>
-      <c r="FX42" s="125"/>
-      <c r="FY42" s="125"/>
-      <c r="FZ42" s="125"/>
-      <c r="GA42" s="125"/>
-      <c r="GB42" s="125"/>
-      <c r="GC42" s="125"/>
-      <c r="GD42" s="125"/>
-      <c r="GE42" s="125"/>
-      <c r="GF42" s="125"/>
-      <c r="GG42" s="125"/>
-      <c r="GH42" s="125"/>
-      <c r="GI42" s="125"/>
-      <c r="GJ42" s="125"/>
-      <c r="GK42" s="125"/>
-      <c r="GL42" s="125"/>
-      <c r="GM42" s="125"/>
-      <c r="GN42" s="125"/>
-      <c r="GO42" s="125"/>
-      <c r="GP42" s="125"/>
-      <c r="GQ42" s="125"/>
-      <c r="GR42" s="125"/>
-      <c r="GS42" s="125"/>
-      <c r="GT42" s="125"/>
-      <c r="GU42" s="125"/>
-      <c r="GV42" s="125"/>
+      <c r="B42" s="97"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="97"/>
+      <c r="K42" s="97"/>
+      <c r="L42" s="97"/>
+      <c r="M42" s="97"/>
+      <c r="N42" s="97"/>
+      <c r="O42" s="97"/>
+      <c r="P42" s="97"/>
+      <c r="Q42" s="97"/>
+      <c r="R42" s="97"/>
+      <c r="S42" s="97"/>
+      <c r="T42" s="97"/>
+      <c r="U42" s="97"/>
+      <c r="V42" s="97"/>
+      <c r="W42" s="97"/>
+      <c r="X42" s="97"/>
+      <c r="Y42" s="97"/>
+      <c r="Z42" s="97"/>
+      <c r="AA42" s="97"/>
+      <c r="AB42" s="97"/>
+      <c r="AC42" s="97"/>
+      <c r="AD42" s="97"/>
+      <c r="AE42" s="97"/>
+      <c r="AF42" s="97"/>
+      <c r="AG42" s="97"/>
+      <c r="AH42" s="97"/>
+      <c r="AI42" s="97"/>
+      <c r="AJ42" s="97"/>
+      <c r="AK42" s="97"/>
+      <c r="AL42" s="97"/>
+      <c r="AM42" s="97"/>
+      <c r="AN42" s="97"/>
+      <c r="AO42" s="97"/>
+      <c r="AP42" s="97"/>
+      <c r="AQ42" s="97"/>
+      <c r="AR42" s="97"/>
+      <c r="AS42" s="97"/>
+      <c r="AT42" s="97"/>
+      <c r="AU42" s="97"/>
+      <c r="AV42" s="97"/>
+      <c r="AW42" s="97"/>
+      <c r="AX42" s="97"/>
+      <c r="AY42" s="97"/>
+      <c r="AZ42" s="97"/>
+      <c r="BA42" s="97"/>
+      <c r="BB42" s="97"/>
+      <c r="BC42" s="97"/>
+      <c r="BD42" s="97"/>
+      <c r="BE42" s="97"/>
+      <c r="BF42" s="97"/>
+      <c r="BG42" s="97"/>
+      <c r="BH42" s="97"/>
+      <c r="BI42" s="97"/>
+      <c r="BJ42" s="97"/>
+      <c r="BK42" s="97"/>
+      <c r="BL42" s="97"/>
+      <c r="BM42" s="97"/>
+      <c r="BN42" s="97"/>
+      <c r="BO42" s="97"/>
+      <c r="BP42" s="97"/>
+      <c r="BQ42" s="97"/>
+      <c r="BR42" s="97"/>
+      <c r="BS42" s="97"/>
+      <c r="BT42" s="97"/>
+      <c r="BU42" s="97"/>
+      <c r="BV42" s="97"/>
+      <c r="BW42" s="97"/>
+      <c r="BX42" s="97"/>
+      <c r="BY42" s="97"/>
+      <c r="BZ42" s="97"/>
+      <c r="CA42" s="97"/>
+      <c r="CB42" s="97"/>
+      <c r="CC42" s="97"/>
+      <c r="CD42" s="97"/>
+      <c r="CE42" s="97"/>
+      <c r="CF42" s="97"/>
+      <c r="CG42" s="97"/>
+      <c r="CH42" s="97"/>
+      <c r="CI42" s="97"/>
+      <c r="CJ42" s="97"/>
+      <c r="CK42" s="97"/>
+      <c r="CL42" s="97"/>
+      <c r="CM42" s="97"/>
+      <c r="CN42" s="97"/>
+      <c r="CO42" s="97"/>
+      <c r="CP42" s="97"/>
+      <c r="CQ42" s="97"/>
+      <c r="CR42" s="97"/>
+      <c r="CS42" s="97"/>
+      <c r="CT42" s="97"/>
+      <c r="CU42" s="97"/>
+      <c r="CV42" s="97"/>
+      <c r="CW42" s="97"/>
+      <c r="CX42" s="97"/>
+      <c r="CY42" s="97"/>
+      <c r="CZ42" s="97"/>
+      <c r="DA42" s="97"/>
+      <c r="DB42" s="97"/>
+      <c r="DC42" s="97"/>
+      <c r="DD42" s="97"/>
+      <c r="DE42" s="97"/>
+      <c r="DF42" s="97"/>
+      <c r="DG42" s="97"/>
+      <c r="DH42" s="97"/>
+      <c r="DI42" s="97"/>
+      <c r="DJ42" s="97"/>
+      <c r="DK42" s="97"/>
+      <c r="DL42" s="97"/>
+      <c r="DM42" s="97"/>
+      <c r="DN42" s="97"/>
+      <c r="DO42" s="97"/>
+      <c r="DP42" s="97"/>
+      <c r="DQ42" s="97"/>
+      <c r="DR42" s="97"/>
+      <c r="DS42" s="97"/>
+      <c r="DT42" s="97"/>
+      <c r="DU42" s="97"/>
+      <c r="DV42" s="97"/>
+      <c r="DW42" s="97"/>
+      <c r="DX42" s="97"/>
+      <c r="DY42" s="97"/>
+      <c r="DZ42" s="97"/>
+      <c r="EA42" s="97"/>
+      <c r="EB42" s="97"/>
+      <c r="EC42" s="97"/>
+      <c r="ED42" s="97"/>
+      <c r="EE42" s="97"/>
+      <c r="EF42" s="97"/>
+      <c r="EG42" s="97"/>
+      <c r="EH42" s="97"/>
+      <c r="EI42" s="97"/>
+      <c r="EJ42" s="97"/>
+      <c r="EK42" s="97"/>
+      <c r="EL42" s="97"/>
+      <c r="EM42" s="97"/>
+      <c r="EN42" s="97"/>
+      <c r="EO42" s="97"/>
+      <c r="EP42" s="97"/>
+      <c r="EQ42" s="97"/>
+      <c r="ER42" s="97"/>
+      <c r="ES42" s="97"/>
+      <c r="ET42" s="97"/>
+      <c r="EU42" s="97"/>
+      <c r="EV42" s="97"/>
+      <c r="EW42" s="97"/>
+      <c r="EX42" s="97"/>
+      <c r="EY42" s="97"/>
+      <c r="EZ42" s="97"/>
+      <c r="FA42" s="97"/>
+      <c r="FB42" s="97"/>
+      <c r="FC42" s="97"/>
+      <c r="FD42" s="97"/>
+      <c r="FE42" s="97"/>
+      <c r="FF42" s="97"/>
+      <c r="FG42" s="97"/>
+      <c r="FH42" s="97"/>
+      <c r="FI42" s="97"/>
+      <c r="FJ42" s="97"/>
+      <c r="FK42" s="97"/>
+      <c r="FL42" s="97"/>
+      <c r="FM42" s="97"/>
+      <c r="FN42" s="97"/>
+      <c r="FO42" s="97"/>
+      <c r="FP42" s="97"/>
+      <c r="FQ42" s="97"/>
+      <c r="FR42" s="97"/>
+      <c r="FS42" s="97"/>
+      <c r="FT42" s="97"/>
+      <c r="FU42" s="97"/>
+      <c r="FV42" s="97"/>
+      <c r="FW42" s="97"/>
+      <c r="FX42" s="97"/>
+      <c r="FY42" s="97"/>
+      <c r="FZ42" s="97"/>
+      <c r="GA42" s="97"/>
+      <c r="GB42" s="97"/>
+      <c r="GC42" s="97"/>
+      <c r="GD42" s="97"/>
+      <c r="GE42" s="97"/>
+      <c r="GF42" s="97"/>
+      <c r="GG42" s="97"/>
+      <c r="GH42" s="97"/>
+      <c r="GI42" s="97"/>
+      <c r="GJ42" s="97"/>
+      <c r="GK42" s="97"/>
+      <c r="GL42" s="97"/>
+      <c r="GM42" s="97"/>
+      <c r="GN42" s="97"/>
+      <c r="GO42" s="97"/>
+      <c r="GP42" s="97"/>
+      <c r="GQ42" s="97"/>
+      <c r="GR42" s="97"/>
+      <c r="GS42" s="97"/>
+      <c r="GT42" s="97"/>
+      <c r="GU42" s="97"/>
+      <c r="GV42" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="FH4:FK4"/>
-    <mergeCell ref="DT4:DW4"/>
-    <mergeCell ref="DX4:EA4"/>
-    <mergeCell ref="EB4:EE4"/>
-    <mergeCell ref="EF4:EI4"/>
-    <mergeCell ref="EV4:EY4"/>
-    <mergeCell ref="EZ4:FC4"/>
-    <mergeCell ref="EN4:EQ4"/>
-    <mergeCell ref="ER4:EU4"/>
+    <mergeCell ref="AJ41:BO41"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="ER6:EY41"/>
+    <mergeCell ref="AB6:AI41"/>
+    <mergeCell ref="CF6:CM41"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="BT4:BW4"/>
+    <mergeCell ref="DD4:DG4"/>
+    <mergeCell ref="DH4:DK4"/>
+    <mergeCell ref="D41:AA41"/>
+    <mergeCell ref="A42:GV42"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="DT2:FG3"/>
+    <mergeCell ref="FH2:GV3"/>
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="AR2:CE3"/>
+    <mergeCell ref="CF2:DS3"/>
+    <mergeCell ref="CR4:CU4"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="EJ4:EM4"/>
+    <mergeCell ref="DL4:DO4"/>
+    <mergeCell ref="DP4:DS4"/>
+    <mergeCell ref="GW4:GW41"/>
+    <mergeCell ref="FX4:GA4"/>
+    <mergeCell ref="GB4:GE4"/>
+    <mergeCell ref="GF4:GI4"/>
+    <mergeCell ref="GJ4:GM4"/>
+    <mergeCell ref="GO4:GR4"/>
+    <mergeCell ref="GS4:GV4"/>
     <mergeCell ref="FT4:FW4"/>
     <mergeCell ref="AZ4:BC4"/>
     <mergeCell ref="BD4:BG4"/>
@@ -11373,52 +11418,15 @@
     <mergeCell ref="CV4:CY4"/>
     <mergeCell ref="FL4:FO4"/>
     <mergeCell ref="FP4:FS4"/>
-    <mergeCell ref="GW4:GW41"/>
-    <mergeCell ref="FX4:GA4"/>
-    <mergeCell ref="GB4:GE4"/>
-    <mergeCell ref="GF4:GI4"/>
-    <mergeCell ref="GJ4:GM4"/>
-    <mergeCell ref="GO4:GR4"/>
-    <mergeCell ref="GS4:GV4"/>
-    <mergeCell ref="A42:GV42"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="DT2:FG3"/>
-    <mergeCell ref="FH2:GV3"/>
-    <mergeCell ref="D2:AQ3"/>
-    <mergeCell ref="AR2:CE3"/>
-    <mergeCell ref="CF2:DS3"/>
-    <mergeCell ref="CR4:CU4"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="EJ4:EM4"/>
-    <mergeCell ref="DL4:DO4"/>
-    <mergeCell ref="DP4:DS4"/>
-    <mergeCell ref="ER6:EY41"/>
-    <mergeCell ref="AB6:AI41"/>
-    <mergeCell ref="CF6:CM41"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="BT4:BW4"/>
-    <mergeCell ref="DD4:DG4"/>
-    <mergeCell ref="DH4:DK4"/>
-    <mergeCell ref="D41:AA41"/>
-    <mergeCell ref="AJ41:BO41"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="FH4:FK4"/>
+    <mergeCell ref="DT4:DW4"/>
+    <mergeCell ref="DX4:EA4"/>
+    <mergeCell ref="EB4:EE4"/>
+    <mergeCell ref="EF4:EI4"/>
+    <mergeCell ref="EV4:EY4"/>
+    <mergeCell ref="EZ4:FC4"/>
+    <mergeCell ref="EN4:EQ4"/>
+    <mergeCell ref="ER4:EU4"/>
   </mergeCells>
   <conditionalFormatting sqref="B6 B8:B9 B11:B13 B15:B19 B21:B36 B38 B40:B41">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">

--- a/docs/2_CAND_Modele_Planning_2024.xlsx
+++ b/docs/2_CAND_Modele_Planning_2024.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6F1BD6-05C9-4324-8D7E-52DAA9D61E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B44CC0-9777-408E-9B2C-6C1C5C93EF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Planning!$A:$C,Planning!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$GV$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$GV$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="60">
   <si>
     <t>Tâches</t>
   </si>
@@ -215,48 +215,6 @@
     <t>En suède</t>
   </si>
   <si>
-    <t>Implémenter la page "Connection"</t>
-  </si>
-  <si>
-    <t>Implémenter la page "Global"</t>
-  </si>
-  <si>
-    <t>Implémenter la page "Véhicule"</t>
-  </si>
-  <si>
-    <t>Implémenter la page "Simulation"</t>
-  </si>
-  <si>
-    <t>Implémenter la page "Road"</t>
-  </si>
-  <si>
-    <t>Simulation de véhicule sur une ligne droite</t>
-  </si>
-  <si>
-    <t>Simulation des carrefours</t>
-  </si>
-  <si>
-    <t>Simulation voiture change de route</t>
-  </si>
-  <si>
-    <t>Affichage des voitures et routes</t>
-  </si>
-  <si>
-    <t>Chargement des jeux de settings</t>
-  </si>
-  <si>
-    <t>Sauvegarde des jeux de settings</t>
-  </si>
-  <si>
-    <t>Implémenter la page "Crossroad"</t>
-  </si>
-  <si>
-    <t>Implémenter la page "TrafficLights"</t>
-  </si>
-  <si>
-    <t>Amélioration esthétique</t>
-  </si>
-  <si>
     <t>Travaux préparatoires</t>
   </si>
   <si>
@@ -273,6 +231,54 @@
   </si>
   <si>
     <t>Autre</t>
+  </si>
+  <si>
+    <t>Créer la base de l'app</t>
+  </si>
+  <si>
+    <t>Implémenter la connection</t>
+  </si>
+  <si>
+    <t>Créer la vue de connection</t>
+  </si>
+  <si>
+    <t>Créer la vue de simulation</t>
+  </si>
+  <si>
+    <t>Créer les beans</t>
+  </si>
+  <si>
+    <t>Implémenter les params globaux</t>
+  </si>
+  <si>
+    <t>Affichage des éléments à l'écran</t>
+  </si>
+  <si>
+    <t>Implémenter les params des beans</t>
+  </si>
+  <si>
+    <t>Implémenter logique des carrefours</t>
+  </si>
+  <si>
+    <t>Ajout du temps de réaction</t>
+  </si>
+  <si>
+    <t>Implémenter déplacement véhicules sans collision</t>
+  </si>
+  <si>
+    <t>Implémenter déplacement véhicules avec collision</t>
+  </si>
+  <si>
+    <t>Ajout du random des véhicules</t>
+  </si>
+  <si>
+    <t>Implémenter la création de compte</t>
+  </si>
+  <si>
+    <t>Amélioration esthétique de l'app</t>
+  </si>
+  <si>
+    <t>Amélioration esthétique du code</t>
   </si>
 </sst>
 </file>
@@ -1287,10 +1293,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1421,6 +1423,122 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1429,11 +1547,39 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1441,148 +1587,8 @@
       <alignment vertical="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1649,7 +1655,7 @@
     <xdr:to>
       <xdr:col>126</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2072,18 +2078,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GW42"/>
+  <dimension ref="A1:GW44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="DG6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="DY22" sqref="DY22"/>
+      <selection pane="bottomRight" activeCell="DY23" sqref="DY23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" style="3" customWidth="1"/>
     <col min="4" max="204" width="2.140625" style="2" customWidth="1"/>
@@ -2093,11 +2099,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:205" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2143,427 +2149,427 @@
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="114">
+      <c r="B2" s="116">
         <v>148477</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="100" t="s">
+      <c r="C2" s="117"/>
+      <c r="D2" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="100"/>
-      <c r="AE2" s="100"/>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="100"/>
-      <c r="AJ2" s="100"/>
-      <c r="AK2" s="100"/>
-      <c r="AL2" s="100"/>
-      <c r="AM2" s="100"/>
-      <c r="AN2" s="100"/>
-      <c r="AO2" s="100"/>
-      <c r="AP2" s="100"/>
-      <c r="AQ2" s="100"/>
-      <c r="AR2" s="100" t="s">
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="127"/>
+      <c r="AH2" s="127"/>
+      <c r="AI2" s="127"/>
+      <c r="AJ2" s="127"/>
+      <c r="AK2" s="127"/>
+      <c r="AL2" s="127"/>
+      <c r="AM2" s="127"/>
+      <c r="AN2" s="127"/>
+      <c r="AO2" s="127"/>
+      <c r="AP2" s="127"/>
+      <c r="AQ2" s="127"/>
+      <c r="AR2" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="100"/>
-      <c r="AT2" s="100"/>
-      <c r="AU2" s="100"/>
-      <c r="AV2" s="100"/>
-      <c r="AW2" s="100"/>
-      <c r="AX2" s="100"/>
-      <c r="AY2" s="100"/>
-      <c r="AZ2" s="100"/>
-      <c r="BA2" s="100"/>
-      <c r="BB2" s="100"/>
-      <c r="BC2" s="100"/>
-      <c r="BD2" s="100"/>
-      <c r="BE2" s="100"/>
-      <c r="BF2" s="100"/>
-      <c r="BG2" s="100"/>
-      <c r="BH2" s="100"/>
-      <c r="BI2" s="100"/>
-      <c r="BJ2" s="100"/>
-      <c r="BK2" s="100"/>
-      <c r="BL2" s="100"/>
-      <c r="BM2" s="100"/>
-      <c r="BN2" s="100"/>
-      <c r="BO2" s="100"/>
-      <c r="BP2" s="100"/>
-      <c r="BQ2" s="100"/>
-      <c r="BR2" s="100"/>
-      <c r="BS2" s="100"/>
-      <c r="BT2" s="100"/>
-      <c r="BU2" s="100"/>
-      <c r="BV2" s="100"/>
-      <c r="BW2" s="100"/>
-      <c r="BX2" s="100"/>
-      <c r="BY2" s="100"/>
-      <c r="BZ2" s="100"/>
-      <c r="CA2" s="100"/>
-      <c r="CB2" s="100"/>
-      <c r="CC2" s="100"/>
-      <c r="CD2" s="100"/>
-      <c r="CE2" s="100"/>
-      <c r="CF2" s="100" t="s">
+      <c r="AS2" s="127"/>
+      <c r="AT2" s="127"/>
+      <c r="AU2" s="127"/>
+      <c r="AV2" s="127"/>
+      <c r="AW2" s="127"/>
+      <c r="AX2" s="127"/>
+      <c r="AY2" s="127"/>
+      <c r="AZ2" s="127"/>
+      <c r="BA2" s="127"/>
+      <c r="BB2" s="127"/>
+      <c r="BC2" s="127"/>
+      <c r="BD2" s="127"/>
+      <c r="BE2" s="127"/>
+      <c r="BF2" s="127"/>
+      <c r="BG2" s="127"/>
+      <c r="BH2" s="127"/>
+      <c r="BI2" s="127"/>
+      <c r="BJ2" s="127"/>
+      <c r="BK2" s="127"/>
+      <c r="BL2" s="127"/>
+      <c r="BM2" s="127"/>
+      <c r="BN2" s="127"/>
+      <c r="BO2" s="127"/>
+      <c r="BP2" s="127"/>
+      <c r="BQ2" s="127"/>
+      <c r="BR2" s="127"/>
+      <c r="BS2" s="127"/>
+      <c r="BT2" s="127"/>
+      <c r="BU2" s="127"/>
+      <c r="BV2" s="127"/>
+      <c r="BW2" s="127"/>
+      <c r="BX2" s="127"/>
+      <c r="BY2" s="127"/>
+      <c r="BZ2" s="127"/>
+      <c r="CA2" s="127"/>
+      <c r="CB2" s="127"/>
+      <c r="CC2" s="127"/>
+      <c r="CD2" s="127"/>
+      <c r="CE2" s="127"/>
+      <c r="CF2" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="CG2" s="100"/>
-      <c r="CH2" s="100"/>
-      <c r="CI2" s="100"/>
-      <c r="CJ2" s="100"/>
-      <c r="CK2" s="100"/>
-      <c r="CL2" s="100"/>
-      <c r="CM2" s="100"/>
-      <c r="CN2" s="100"/>
-      <c r="CO2" s="100"/>
-      <c r="CP2" s="100"/>
-      <c r="CQ2" s="100"/>
-      <c r="CR2" s="100"/>
-      <c r="CS2" s="100"/>
-      <c r="CT2" s="100"/>
-      <c r="CU2" s="100"/>
-      <c r="CV2" s="100"/>
-      <c r="CW2" s="100"/>
-      <c r="CX2" s="100"/>
-      <c r="CY2" s="100"/>
-      <c r="CZ2" s="100"/>
-      <c r="DA2" s="100"/>
-      <c r="DB2" s="100"/>
-      <c r="DC2" s="100"/>
-      <c r="DD2" s="100"/>
-      <c r="DE2" s="100"/>
-      <c r="DF2" s="100"/>
-      <c r="DG2" s="100"/>
-      <c r="DH2" s="100"/>
-      <c r="DI2" s="100"/>
-      <c r="DJ2" s="100"/>
-      <c r="DK2" s="100"/>
-      <c r="DL2" s="100"/>
-      <c r="DM2" s="100"/>
-      <c r="DN2" s="100"/>
-      <c r="DO2" s="100"/>
-      <c r="DP2" s="100"/>
-      <c r="DQ2" s="100"/>
-      <c r="DR2" s="100"/>
-      <c r="DS2" s="100"/>
-      <c r="DT2" s="100" t="s">
+      <c r="CG2" s="127"/>
+      <c r="CH2" s="127"/>
+      <c r="CI2" s="127"/>
+      <c r="CJ2" s="127"/>
+      <c r="CK2" s="127"/>
+      <c r="CL2" s="127"/>
+      <c r="CM2" s="127"/>
+      <c r="CN2" s="127"/>
+      <c r="CO2" s="127"/>
+      <c r="CP2" s="127"/>
+      <c r="CQ2" s="127"/>
+      <c r="CR2" s="127"/>
+      <c r="CS2" s="127"/>
+      <c r="CT2" s="127"/>
+      <c r="CU2" s="127"/>
+      <c r="CV2" s="127"/>
+      <c r="CW2" s="127"/>
+      <c r="CX2" s="127"/>
+      <c r="CY2" s="127"/>
+      <c r="CZ2" s="127"/>
+      <c r="DA2" s="127"/>
+      <c r="DB2" s="127"/>
+      <c r="DC2" s="127"/>
+      <c r="DD2" s="127"/>
+      <c r="DE2" s="127"/>
+      <c r="DF2" s="127"/>
+      <c r="DG2" s="127"/>
+      <c r="DH2" s="127"/>
+      <c r="DI2" s="127"/>
+      <c r="DJ2" s="127"/>
+      <c r="DK2" s="127"/>
+      <c r="DL2" s="127"/>
+      <c r="DM2" s="127"/>
+      <c r="DN2" s="127"/>
+      <c r="DO2" s="127"/>
+      <c r="DP2" s="127"/>
+      <c r="DQ2" s="127"/>
+      <c r="DR2" s="127"/>
+      <c r="DS2" s="127"/>
+      <c r="DT2" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="DU2" s="100"/>
-      <c r="DV2" s="100"/>
-      <c r="DW2" s="100"/>
-      <c r="DX2" s="100"/>
-      <c r="DY2" s="100"/>
-      <c r="DZ2" s="100"/>
-      <c r="EA2" s="100"/>
-      <c r="EB2" s="100"/>
-      <c r="EC2" s="100"/>
-      <c r="ED2" s="100"/>
-      <c r="EE2" s="100"/>
-      <c r="EF2" s="100"/>
-      <c r="EG2" s="100"/>
-      <c r="EH2" s="100"/>
-      <c r="EI2" s="100"/>
-      <c r="EJ2" s="100"/>
-      <c r="EK2" s="100"/>
-      <c r="EL2" s="100"/>
-      <c r="EM2" s="100"/>
-      <c r="EN2" s="100"/>
-      <c r="EO2" s="100"/>
-      <c r="EP2" s="100"/>
-      <c r="EQ2" s="100"/>
-      <c r="ER2" s="100"/>
-      <c r="ES2" s="100"/>
-      <c r="ET2" s="100"/>
-      <c r="EU2" s="100"/>
-      <c r="EV2" s="100"/>
-      <c r="EW2" s="100"/>
-      <c r="EX2" s="100"/>
-      <c r="EY2" s="100"/>
-      <c r="EZ2" s="100"/>
-      <c r="FA2" s="100"/>
-      <c r="FB2" s="100"/>
-      <c r="FC2" s="100"/>
-      <c r="FD2" s="100"/>
-      <c r="FE2" s="100"/>
-      <c r="FF2" s="100"/>
-      <c r="FG2" s="100"/>
-      <c r="FH2" s="100" t="s">
+      <c r="DU2" s="127"/>
+      <c r="DV2" s="127"/>
+      <c r="DW2" s="127"/>
+      <c r="DX2" s="127"/>
+      <c r="DY2" s="127"/>
+      <c r="DZ2" s="127"/>
+      <c r="EA2" s="127"/>
+      <c r="EB2" s="127"/>
+      <c r="EC2" s="127"/>
+      <c r="ED2" s="127"/>
+      <c r="EE2" s="127"/>
+      <c r="EF2" s="127"/>
+      <c r="EG2" s="127"/>
+      <c r="EH2" s="127"/>
+      <c r="EI2" s="127"/>
+      <c r="EJ2" s="127"/>
+      <c r="EK2" s="127"/>
+      <c r="EL2" s="127"/>
+      <c r="EM2" s="127"/>
+      <c r="EN2" s="127"/>
+      <c r="EO2" s="127"/>
+      <c r="EP2" s="127"/>
+      <c r="EQ2" s="127"/>
+      <c r="ER2" s="127"/>
+      <c r="ES2" s="127"/>
+      <c r="ET2" s="127"/>
+      <c r="EU2" s="127"/>
+      <c r="EV2" s="127"/>
+      <c r="EW2" s="127"/>
+      <c r="EX2" s="127"/>
+      <c r="EY2" s="127"/>
+      <c r="EZ2" s="127"/>
+      <c r="FA2" s="127"/>
+      <c r="FB2" s="127"/>
+      <c r="FC2" s="127"/>
+      <c r="FD2" s="127"/>
+      <c r="FE2" s="127"/>
+      <c r="FF2" s="127"/>
+      <c r="FG2" s="127"/>
+      <c r="FH2" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="FI2" s="100"/>
-      <c r="FJ2" s="100"/>
-      <c r="FK2" s="100"/>
-      <c r="FL2" s="100"/>
-      <c r="FM2" s="100"/>
-      <c r="FN2" s="100"/>
-      <c r="FO2" s="100"/>
-      <c r="FP2" s="100"/>
-      <c r="FQ2" s="100"/>
-      <c r="FR2" s="100"/>
-      <c r="FS2" s="100"/>
-      <c r="FT2" s="100"/>
-      <c r="FU2" s="100"/>
-      <c r="FV2" s="100"/>
-      <c r="FW2" s="100"/>
-      <c r="FX2" s="100"/>
-      <c r="FY2" s="100"/>
-      <c r="FZ2" s="100"/>
-      <c r="GA2" s="100"/>
-      <c r="GB2" s="100"/>
-      <c r="GC2" s="100"/>
-      <c r="GD2" s="100"/>
-      <c r="GE2" s="100"/>
-      <c r="GF2" s="100"/>
-      <c r="GG2" s="100"/>
-      <c r="GH2" s="100"/>
-      <c r="GI2" s="100"/>
-      <c r="GJ2" s="100"/>
-      <c r="GK2" s="100"/>
-      <c r="GL2" s="100"/>
-      <c r="GM2" s="100"/>
-      <c r="GN2" s="100"/>
-      <c r="GO2" s="100"/>
-      <c r="GP2" s="100"/>
-      <c r="GQ2" s="100"/>
-      <c r="GR2" s="100"/>
-      <c r="GS2" s="100"/>
-      <c r="GT2" s="100"/>
-      <c r="GU2" s="100"/>
-      <c r="GV2" s="100"/>
+      <c r="FI2" s="127"/>
+      <c r="FJ2" s="127"/>
+      <c r="FK2" s="127"/>
+      <c r="FL2" s="127"/>
+      <c r="FM2" s="127"/>
+      <c r="FN2" s="127"/>
+      <c r="FO2" s="127"/>
+      <c r="FP2" s="127"/>
+      <c r="FQ2" s="127"/>
+      <c r="FR2" s="127"/>
+      <c r="FS2" s="127"/>
+      <c r="FT2" s="127"/>
+      <c r="FU2" s="127"/>
+      <c r="FV2" s="127"/>
+      <c r="FW2" s="127"/>
+      <c r="FX2" s="127"/>
+      <c r="FY2" s="127"/>
+      <c r="FZ2" s="127"/>
+      <c r="GA2" s="127"/>
+      <c r="GB2" s="127"/>
+      <c r="GC2" s="127"/>
+      <c r="GD2" s="127"/>
+      <c r="GE2" s="127"/>
+      <c r="GF2" s="127"/>
+      <c r="GG2" s="127"/>
+      <c r="GH2" s="127"/>
+      <c r="GI2" s="127"/>
+      <c r="GJ2" s="127"/>
+      <c r="GK2" s="127"/>
+      <c r="GL2" s="127"/>
+      <c r="GM2" s="127"/>
+      <c r="GN2" s="127"/>
+      <c r="GO2" s="127"/>
+      <c r="GP2" s="127"/>
+      <c r="GQ2" s="127"/>
+      <c r="GR2" s="127"/>
+      <c r="GS2" s="127"/>
+      <c r="GT2" s="127"/>
+      <c r="GU2" s="127"/>
+      <c r="GV2" s="127"/>
     </row>
     <row r="3" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="101"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
-      <c r="Z3" s="101"/>
-      <c r="AA3" s="101"/>
-      <c r="AB3" s="101"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="101"/>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="101"/>
-      <c r="AG3" s="101"/>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="101"/>
-      <c r="AJ3" s="101"/>
-      <c r="AK3" s="101"/>
-      <c r="AL3" s="101"/>
-      <c r="AM3" s="101"/>
-      <c r="AN3" s="101"/>
-      <c r="AO3" s="101"/>
-      <c r="AP3" s="101"/>
-      <c r="AQ3" s="101"/>
-      <c r="AR3" s="101"/>
-      <c r="AS3" s="101"/>
-      <c r="AT3" s="101"/>
-      <c r="AU3" s="101"/>
-      <c r="AV3" s="101"/>
-      <c r="AW3" s="101"/>
-      <c r="AX3" s="101"/>
-      <c r="AY3" s="101"/>
-      <c r="AZ3" s="101"/>
-      <c r="BA3" s="101"/>
-      <c r="BB3" s="101"/>
-      <c r="BC3" s="101"/>
-      <c r="BD3" s="101"/>
-      <c r="BE3" s="101"/>
-      <c r="BF3" s="101"/>
-      <c r="BG3" s="101"/>
-      <c r="BH3" s="101"/>
-      <c r="BI3" s="101"/>
-      <c r="BJ3" s="101"/>
-      <c r="BK3" s="101"/>
-      <c r="BL3" s="101"/>
-      <c r="BM3" s="101"/>
-      <c r="BN3" s="101"/>
-      <c r="BO3" s="101"/>
-      <c r="BP3" s="101"/>
-      <c r="BQ3" s="101"/>
-      <c r="BR3" s="101"/>
-      <c r="BS3" s="101"/>
-      <c r="BT3" s="101"/>
-      <c r="BU3" s="101"/>
-      <c r="BV3" s="101"/>
-      <c r="BW3" s="101"/>
-      <c r="BX3" s="101"/>
-      <c r="BY3" s="101"/>
-      <c r="BZ3" s="101"/>
-      <c r="CA3" s="101"/>
-      <c r="CB3" s="101"/>
-      <c r="CC3" s="101"/>
-      <c r="CD3" s="101"/>
-      <c r="CE3" s="101"/>
-      <c r="CF3" s="101"/>
-      <c r="CG3" s="101"/>
-      <c r="CH3" s="101"/>
-      <c r="CI3" s="101"/>
-      <c r="CJ3" s="101"/>
-      <c r="CK3" s="101"/>
-      <c r="CL3" s="101"/>
-      <c r="CM3" s="101"/>
-      <c r="CN3" s="101"/>
-      <c r="CO3" s="101"/>
-      <c r="CP3" s="101"/>
-      <c r="CQ3" s="101"/>
-      <c r="CR3" s="101"/>
-      <c r="CS3" s="101"/>
-      <c r="CT3" s="101"/>
-      <c r="CU3" s="101"/>
-      <c r="CV3" s="101"/>
-      <c r="CW3" s="101"/>
-      <c r="CX3" s="101"/>
-      <c r="CY3" s="101"/>
-      <c r="CZ3" s="101"/>
-      <c r="DA3" s="101"/>
-      <c r="DB3" s="101"/>
-      <c r="DC3" s="101"/>
-      <c r="DD3" s="101"/>
-      <c r="DE3" s="101"/>
-      <c r="DF3" s="101"/>
-      <c r="DG3" s="101"/>
-      <c r="DH3" s="101"/>
-      <c r="DI3" s="101"/>
-      <c r="DJ3" s="101"/>
-      <c r="DK3" s="101"/>
-      <c r="DL3" s="101"/>
-      <c r="DM3" s="101"/>
-      <c r="DN3" s="101"/>
-      <c r="DO3" s="101"/>
-      <c r="DP3" s="101"/>
-      <c r="DQ3" s="101"/>
-      <c r="DR3" s="101"/>
-      <c r="DS3" s="101"/>
-      <c r="DT3" s="101"/>
-      <c r="DU3" s="101"/>
-      <c r="DV3" s="101"/>
-      <c r="DW3" s="101"/>
-      <c r="DX3" s="101"/>
-      <c r="DY3" s="101"/>
-      <c r="DZ3" s="101"/>
-      <c r="EA3" s="101"/>
-      <c r="EB3" s="101"/>
-      <c r="EC3" s="101"/>
-      <c r="ED3" s="101"/>
-      <c r="EE3" s="101"/>
-      <c r="EF3" s="101"/>
-      <c r="EG3" s="101"/>
-      <c r="EH3" s="101"/>
-      <c r="EI3" s="101"/>
-      <c r="EJ3" s="101"/>
-      <c r="EK3" s="101"/>
-      <c r="EL3" s="101"/>
-      <c r="EM3" s="101"/>
-      <c r="EN3" s="101"/>
-      <c r="EO3" s="101"/>
-      <c r="EP3" s="101"/>
-      <c r="EQ3" s="101"/>
-      <c r="ER3" s="101"/>
-      <c r="ES3" s="101"/>
-      <c r="ET3" s="101"/>
-      <c r="EU3" s="101"/>
-      <c r="EV3" s="101"/>
-      <c r="EW3" s="101"/>
-      <c r="EX3" s="101"/>
-      <c r="EY3" s="101"/>
-      <c r="EZ3" s="101"/>
-      <c r="FA3" s="101"/>
-      <c r="FB3" s="101"/>
-      <c r="FC3" s="101"/>
-      <c r="FD3" s="101"/>
-      <c r="FE3" s="101"/>
-      <c r="FF3" s="101"/>
-      <c r="FG3" s="101"/>
-      <c r="FH3" s="101"/>
-      <c r="FI3" s="101"/>
-      <c r="FJ3" s="101"/>
-      <c r="FK3" s="101"/>
-      <c r="FL3" s="101"/>
-      <c r="FM3" s="101"/>
-      <c r="FN3" s="101"/>
-      <c r="FO3" s="101"/>
-      <c r="FP3" s="101"/>
-      <c r="FQ3" s="101"/>
-      <c r="FR3" s="101"/>
-      <c r="FS3" s="101"/>
-      <c r="FT3" s="101"/>
-      <c r="FU3" s="101"/>
-      <c r="FV3" s="101"/>
-      <c r="FW3" s="101"/>
-      <c r="FX3" s="101"/>
-      <c r="FY3" s="101"/>
-      <c r="FZ3" s="101"/>
-      <c r="GA3" s="101"/>
-      <c r="GB3" s="101"/>
-      <c r="GC3" s="101"/>
-      <c r="GD3" s="101"/>
-      <c r="GE3" s="101"/>
-      <c r="GF3" s="101"/>
-      <c r="GG3" s="101"/>
-      <c r="GH3" s="101"/>
-      <c r="GI3" s="101"/>
-      <c r="GJ3" s="101"/>
-      <c r="GK3" s="101"/>
-      <c r="GL3" s="101"/>
-      <c r="GM3" s="101"/>
-      <c r="GN3" s="100"/>
-      <c r="GO3" s="101"/>
-      <c r="GP3" s="101"/>
-      <c r="GQ3" s="101"/>
-      <c r="GR3" s="101"/>
-      <c r="GS3" s="101"/>
-      <c r="GT3" s="101"/>
-      <c r="GU3" s="101"/>
-      <c r="GV3" s="101"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
+      <c r="AI3" s="128"/>
+      <c r="AJ3" s="128"/>
+      <c r="AK3" s="128"/>
+      <c r="AL3" s="128"/>
+      <c r="AM3" s="128"/>
+      <c r="AN3" s="128"/>
+      <c r="AO3" s="128"/>
+      <c r="AP3" s="128"/>
+      <c r="AQ3" s="128"/>
+      <c r="AR3" s="128"/>
+      <c r="AS3" s="128"/>
+      <c r="AT3" s="128"/>
+      <c r="AU3" s="128"/>
+      <c r="AV3" s="128"/>
+      <c r="AW3" s="128"/>
+      <c r="AX3" s="128"/>
+      <c r="AY3" s="128"/>
+      <c r="AZ3" s="128"/>
+      <c r="BA3" s="128"/>
+      <c r="BB3" s="128"/>
+      <c r="BC3" s="128"/>
+      <c r="BD3" s="128"/>
+      <c r="BE3" s="128"/>
+      <c r="BF3" s="128"/>
+      <c r="BG3" s="128"/>
+      <c r="BH3" s="128"/>
+      <c r="BI3" s="128"/>
+      <c r="BJ3" s="128"/>
+      <c r="BK3" s="128"/>
+      <c r="BL3" s="128"/>
+      <c r="BM3" s="128"/>
+      <c r="BN3" s="128"/>
+      <c r="BO3" s="128"/>
+      <c r="BP3" s="128"/>
+      <c r="BQ3" s="128"/>
+      <c r="BR3" s="128"/>
+      <c r="BS3" s="128"/>
+      <c r="BT3" s="128"/>
+      <c r="BU3" s="128"/>
+      <c r="BV3" s="128"/>
+      <c r="BW3" s="128"/>
+      <c r="BX3" s="128"/>
+      <c r="BY3" s="128"/>
+      <c r="BZ3" s="128"/>
+      <c r="CA3" s="128"/>
+      <c r="CB3" s="128"/>
+      <c r="CC3" s="128"/>
+      <c r="CD3" s="128"/>
+      <c r="CE3" s="128"/>
+      <c r="CF3" s="128"/>
+      <c r="CG3" s="128"/>
+      <c r="CH3" s="128"/>
+      <c r="CI3" s="128"/>
+      <c r="CJ3" s="128"/>
+      <c r="CK3" s="128"/>
+      <c r="CL3" s="128"/>
+      <c r="CM3" s="128"/>
+      <c r="CN3" s="128"/>
+      <c r="CO3" s="128"/>
+      <c r="CP3" s="128"/>
+      <c r="CQ3" s="128"/>
+      <c r="CR3" s="128"/>
+      <c r="CS3" s="128"/>
+      <c r="CT3" s="128"/>
+      <c r="CU3" s="128"/>
+      <c r="CV3" s="128"/>
+      <c r="CW3" s="128"/>
+      <c r="CX3" s="128"/>
+      <c r="CY3" s="128"/>
+      <c r="CZ3" s="128"/>
+      <c r="DA3" s="128"/>
+      <c r="DB3" s="128"/>
+      <c r="DC3" s="128"/>
+      <c r="DD3" s="128"/>
+      <c r="DE3" s="128"/>
+      <c r="DF3" s="128"/>
+      <c r="DG3" s="128"/>
+      <c r="DH3" s="128"/>
+      <c r="DI3" s="128"/>
+      <c r="DJ3" s="128"/>
+      <c r="DK3" s="128"/>
+      <c r="DL3" s="128"/>
+      <c r="DM3" s="128"/>
+      <c r="DN3" s="128"/>
+      <c r="DO3" s="128"/>
+      <c r="DP3" s="128"/>
+      <c r="DQ3" s="128"/>
+      <c r="DR3" s="128"/>
+      <c r="DS3" s="128"/>
+      <c r="DT3" s="128"/>
+      <c r="DU3" s="128"/>
+      <c r="DV3" s="128"/>
+      <c r="DW3" s="128"/>
+      <c r="DX3" s="128"/>
+      <c r="DY3" s="128"/>
+      <c r="DZ3" s="128"/>
+      <c r="EA3" s="128"/>
+      <c r="EB3" s="128"/>
+      <c r="EC3" s="128"/>
+      <c r="ED3" s="128"/>
+      <c r="EE3" s="128"/>
+      <c r="EF3" s="128"/>
+      <c r="EG3" s="128"/>
+      <c r="EH3" s="128"/>
+      <c r="EI3" s="128"/>
+      <c r="EJ3" s="128"/>
+      <c r="EK3" s="128"/>
+      <c r="EL3" s="128"/>
+      <c r="EM3" s="128"/>
+      <c r="EN3" s="128"/>
+      <c r="EO3" s="128"/>
+      <c r="EP3" s="128"/>
+      <c r="EQ3" s="128"/>
+      <c r="ER3" s="128"/>
+      <c r="ES3" s="128"/>
+      <c r="ET3" s="128"/>
+      <c r="EU3" s="128"/>
+      <c r="EV3" s="128"/>
+      <c r="EW3" s="128"/>
+      <c r="EX3" s="128"/>
+      <c r="EY3" s="128"/>
+      <c r="EZ3" s="128"/>
+      <c r="FA3" s="128"/>
+      <c r="FB3" s="128"/>
+      <c r="FC3" s="128"/>
+      <c r="FD3" s="128"/>
+      <c r="FE3" s="128"/>
+      <c r="FF3" s="128"/>
+      <c r="FG3" s="128"/>
+      <c r="FH3" s="128"/>
+      <c r="FI3" s="128"/>
+      <c r="FJ3" s="128"/>
+      <c r="FK3" s="128"/>
+      <c r="FL3" s="128"/>
+      <c r="FM3" s="128"/>
+      <c r="FN3" s="128"/>
+      <c r="FO3" s="128"/>
+      <c r="FP3" s="128"/>
+      <c r="FQ3" s="128"/>
+      <c r="FR3" s="128"/>
+      <c r="FS3" s="128"/>
+      <c r="FT3" s="128"/>
+      <c r="FU3" s="128"/>
+      <c r="FV3" s="128"/>
+      <c r="FW3" s="128"/>
+      <c r="FX3" s="128"/>
+      <c r="FY3" s="128"/>
+      <c r="FZ3" s="128"/>
+      <c r="GA3" s="128"/>
+      <c r="GB3" s="128"/>
+      <c r="GC3" s="128"/>
+      <c r="GD3" s="128"/>
+      <c r="GE3" s="128"/>
+      <c r="GF3" s="128"/>
+      <c r="GG3" s="128"/>
+      <c r="GH3" s="128"/>
+      <c r="GI3" s="128"/>
+      <c r="GJ3" s="128"/>
+      <c r="GK3" s="128"/>
+      <c r="GL3" s="128"/>
+      <c r="GM3" s="128"/>
+      <c r="GN3" s="127"/>
+      <c r="GO3" s="128"/>
+      <c r="GP3" s="128"/>
+      <c r="GQ3" s="128"/>
+      <c r="GR3" s="128"/>
+      <c r="GS3" s="128"/>
+      <c r="GT3" s="128"/>
+      <c r="GU3" s="128"/>
+      <c r="GV3" s="128"/>
     </row>
     <row r="4" spans="1:205" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="125" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -2572,313 +2578,313 @@
       <c r="C4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="102">
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="129">
         <v>45418</v>
       </c>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="92" t="s">
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="94">
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="118">
         <v>45419</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="92" t="s">
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="93"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="94">
+      <c r="U4" s="121"/>
+      <c r="V4" s="121"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="118">
         <v>45420</v>
       </c>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="92" t="s">
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="94">
+      <c r="AC4" s="121"/>
+      <c r="AD4" s="121"/>
+      <c r="AE4" s="121"/>
+      <c r="AF4" s="118">
         <v>45421</v>
       </c>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="92" t="s">
+      <c r="AG4" s="118"/>
+      <c r="AH4" s="118"/>
+      <c r="AI4" s="119"/>
+      <c r="AJ4" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="94">
+      <c r="AK4" s="121"/>
+      <c r="AL4" s="121"/>
+      <c r="AM4" s="121"/>
+      <c r="AN4" s="118">
         <v>45422</v>
       </c>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="92" t="s">
+      <c r="AO4" s="118"/>
+      <c r="AP4" s="118"/>
+      <c r="AQ4" s="119"/>
+      <c r="AR4" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="94">
+      <c r="AS4" s="121"/>
+      <c r="AT4" s="121"/>
+      <c r="AU4" s="121"/>
+      <c r="AV4" s="118">
         <v>45425</v>
       </c>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="95"/>
-      <c r="AZ4" s="92" t="s">
+      <c r="AW4" s="118"/>
+      <c r="AX4" s="118"/>
+      <c r="AY4" s="119"/>
+      <c r="AZ4" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="BA4" s="93"/>
-      <c r="BB4" s="93"/>
-      <c r="BC4" s="93"/>
-      <c r="BD4" s="94">
+      <c r="BA4" s="121"/>
+      <c r="BB4" s="121"/>
+      <c r="BC4" s="121"/>
+      <c r="BD4" s="118">
         <v>45426</v>
       </c>
-      <c r="BE4" s="94"/>
-      <c r="BF4" s="94"/>
-      <c r="BG4" s="95"/>
-      <c r="BH4" s="92" t="s">
+      <c r="BE4" s="118"/>
+      <c r="BF4" s="118"/>
+      <c r="BG4" s="119"/>
+      <c r="BH4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="BI4" s="93"/>
-      <c r="BJ4" s="93"/>
-      <c r="BK4" s="93"/>
-      <c r="BL4" s="94">
+      <c r="BI4" s="121"/>
+      <c r="BJ4" s="121"/>
+      <c r="BK4" s="121"/>
+      <c r="BL4" s="118">
         <v>45427</v>
       </c>
-      <c r="BM4" s="94"/>
-      <c r="BN4" s="94"/>
-      <c r="BO4" s="95"/>
-      <c r="BP4" s="92" t="s">
+      <c r="BM4" s="118"/>
+      <c r="BN4" s="118"/>
+      <c r="BO4" s="119"/>
+      <c r="BP4" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="BQ4" s="93"/>
-      <c r="BR4" s="93"/>
-      <c r="BS4" s="93"/>
-      <c r="BT4" s="94">
+      <c r="BQ4" s="121"/>
+      <c r="BR4" s="121"/>
+      <c r="BS4" s="121"/>
+      <c r="BT4" s="118">
         <v>45428</v>
       </c>
-      <c r="BU4" s="94"/>
-      <c r="BV4" s="94"/>
-      <c r="BW4" s="95"/>
-      <c r="BX4" s="92" t="s">
+      <c r="BU4" s="118"/>
+      <c r="BV4" s="118"/>
+      <c r="BW4" s="119"/>
+      <c r="BX4" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="93"/>
-      <c r="BZ4" s="93"/>
-      <c r="CA4" s="93"/>
-      <c r="CB4" s="94">
+      <c r="BY4" s="121"/>
+      <c r="BZ4" s="121"/>
+      <c r="CA4" s="121"/>
+      <c r="CB4" s="118">
         <v>45429</v>
       </c>
-      <c r="CC4" s="94"/>
-      <c r="CD4" s="94"/>
-      <c r="CE4" s="95"/>
-      <c r="CF4" s="92" t="s">
+      <c r="CC4" s="118"/>
+      <c r="CD4" s="118"/>
+      <c r="CE4" s="119"/>
+      <c r="CF4" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="CG4" s="93"/>
-      <c r="CH4" s="93"/>
-      <c r="CI4" s="93"/>
-      <c r="CJ4" s="94">
+      <c r="CG4" s="121"/>
+      <c r="CH4" s="121"/>
+      <c r="CI4" s="121"/>
+      <c r="CJ4" s="118">
         <v>45432</v>
       </c>
-      <c r="CK4" s="94"/>
-      <c r="CL4" s="94"/>
-      <c r="CM4" s="95"/>
-      <c r="CN4" s="92" t="s">
+      <c r="CK4" s="118"/>
+      <c r="CL4" s="118"/>
+      <c r="CM4" s="119"/>
+      <c r="CN4" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="CO4" s="93"/>
-      <c r="CP4" s="93"/>
-      <c r="CQ4" s="93"/>
-      <c r="CR4" s="94">
+      <c r="CO4" s="121"/>
+      <c r="CP4" s="121"/>
+      <c r="CQ4" s="121"/>
+      <c r="CR4" s="118">
         <v>45433</v>
       </c>
-      <c r="CS4" s="94"/>
-      <c r="CT4" s="94"/>
-      <c r="CU4" s="95"/>
-      <c r="CV4" s="92" t="s">
+      <c r="CS4" s="118"/>
+      <c r="CT4" s="118"/>
+      <c r="CU4" s="119"/>
+      <c r="CV4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="CW4" s="93"/>
-      <c r="CX4" s="93"/>
-      <c r="CY4" s="93"/>
-      <c r="CZ4" s="94">
+      <c r="CW4" s="121"/>
+      <c r="CX4" s="121"/>
+      <c r="CY4" s="121"/>
+      <c r="CZ4" s="118">
         <v>45434</v>
       </c>
-      <c r="DA4" s="94"/>
-      <c r="DB4" s="94"/>
-      <c r="DC4" s="95"/>
-      <c r="DD4" s="92" t="s">
+      <c r="DA4" s="118"/>
+      <c r="DB4" s="118"/>
+      <c r="DC4" s="119"/>
+      <c r="DD4" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="DE4" s="93"/>
-      <c r="DF4" s="93"/>
-      <c r="DG4" s="93"/>
-      <c r="DH4" s="94">
+      <c r="DE4" s="121"/>
+      <c r="DF4" s="121"/>
+      <c r="DG4" s="121"/>
+      <c r="DH4" s="118">
         <v>45435</v>
       </c>
-      <c r="DI4" s="94"/>
-      <c r="DJ4" s="94"/>
-      <c r="DK4" s="95"/>
-      <c r="DL4" s="92" t="s">
+      <c r="DI4" s="118"/>
+      <c r="DJ4" s="118"/>
+      <c r="DK4" s="119"/>
+      <c r="DL4" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="DM4" s="93"/>
-      <c r="DN4" s="93"/>
-      <c r="DO4" s="93"/>
-      <c r="DP4" s="94">
+      <c r="DM4" s="121"/>
+      <c r="DN4" s="121"/>
+      <c r="DO4" s="121"/>
+      <c r="DP4" s="118">
         <v>45436</v>
       </c>
-      <c r="DQ4" s="94"/>
-      <c r="DR4" s="94"/>
-      <c r="DS4" s="95"/>
-      <c r="DT4" s="92" t="s">
+      <c r="DQ4" s="118"/>
+      <c r="DR4" s="118"/>
+      <c r="DS4" s="119"/>
+      <c r="DT4" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="DU4" s="93"/>
-      <c r="DV4" s="93"/>
-      <c r="DW4" s="93"/>
-      <c r="DX4" s="94">
+      <c r="DU4" s="121"/>
+      <c r="DV4" s="121"/>
+      <c r="DW4" s="121"/>
+      <c r="DX4" s="118">
         <v>45439</v>
       </c>
-      <c r="DY4" s="94"/>
-      <c r="DZ4" s="94"/>
-      <c r="EA4" s="95"/>
-      <c r="EB4" s="92" t="s">
+      <c r="DY4" s="118"/>
+      <c r="DZ4" s="118"/>
+      <c r="EA4" s="119"/>
+      <c r="EB4" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="EC4" s="93"/>
-      <c r="ED4" s="93"/>
-      <c r="EE4" s="93"/>
-      <c r="EF4" s="94">
+      <c r="EC4" s="121"/>
+      <c r="ED4" s="121"/>
+      <c r="EE4" s="121"/>
+      <c r="EF4" s="118">
         <v>45440</v>
       </c>
-      <c r="EG4" s="94"/>
-      <c r="EH4" s="94"/>
-      <c r="EI4" s="95"/>
-      <c r="EJ4" s="92" t="s">
+      <c r="EG4" s="118"/>
+      <c r="EH4" s="118"/>
+      <c r="EI4" s="119"/>
+      <c r="EJ4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="EK4" s="93"/>
-      <c r="EL4" s="93"/>
-      <c r="EM4" s="93"/>
-      <c r="EN4" s="94">
+      <c r="EK4" s="121"/>
+      <c r="EL4" s="121"/>
+      <c r="EM4" s="121"/>
+      <c r="EN4" s="118">
         <v>45441</v>
       </c>
-      <c r="EO4" s="94"/>
-      <c r="EP4" s="94"/>
-      <c r="EQ4" s="95"/>
-      <c r="ER4" s="92" t="s">
+      <c r="EO4" s="118"/>
+      <c r="EP4" s="118"/>
+      <c r="EQ4" s="119"/>
+      <c r="ER4" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="ES4" s="93"/>
-      <c r="ET4" s="93"/>
-      <c r="EU4" s="93"/>
-      <c r="EV4" s="94">
+      <c r="ES4" s="121"/>
+      <c r="ET4" s="121"/>
+      <c r="EU4" s="121"/>
+      <c r="EV4" s="118">
         <v>45442</v>
       </c>
-      <c r="EW4" s="94"/>
-      <c r="EX4" s="94"/>
-      <c r="EY4" s="95"/>
-      <c r="EZ4" s="92" t="s">
+      <c r="EW4" s="118"/>
+      <c r="EX4" s="118"/>
+      <c r="EY4" s="119"/>
+      <c r="EZ4" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="FA4" s="93"/>
-      <c r="FB4" s="93"/>
-      <c r="FC4" s="93"/>
-      <c r="FD4" s="94">
+      <c r="FA4" s="121"/>
+      <c r="FB4" s="121"/>
+      <c r="FC4" s="121"/>
+      <c r="FD4" s="118">
         <v>45443</v>
       </c>
-      <c r="FE4" s="94"/>
-      <c r="FF4" s="94"/>
-      <c r="FG4" s="95"/>
-      <c r="FH4" s="92" t="s">
+      <c r="FE4" s="118"/>
+      <c r="FF4" s="118"/>
+      <c r="FG4" s="119"/>
+      <c r="FH4" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="FI4" s="93"/>
-      <c r="FJ4" s="93"/>
-      <c r="FK4" s="93"/>
-      <c r="FL4" s="94">
+      <c r="FI4" s="121"/>
+      <c r="FJ4" s="121"/>
+      <c r="FK4" s="121"/>
+      <c r="FL4" s="118">
         <v>45446</v>
       </c>
-      <c r="FM4" s="94"/>
-      <c r="FN4" s="94"/>
-      <c r="FO4" s="95"/>
-      <c r="FP4" s="92" t="s">
+      <c r="FM4" s="118"/>
+      <c r="FN4" s="118"/>
+      <c r="FO4" s="119"/>
+      <c r="FP4" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="FQ4" s="93"/>
-      <c r="FR4" s="93"/>
-      <c r="FS4" s="93"/>
-      <c r="FT4" s="94">
+      <c r="FQ4" s="121"/>
+      <c r="FR4" s="121"/>
+      <c r="FS4" s="121"/>
+      <c r="FT4" s="118">
         <v>45447</v>
       </c>
-      <c r="FU4" s="94"/>
-      <c r="FV4" s="94"/>
-      <c r="FW4" s="95"/>
-      <c r="FX4" s="92" t="s">
+      <c r="FU4" s="118"/>
+      <c r="FV4" s="118"/>
+      <c r="FW4" s="119"/>
+      <c r="FX4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="FY4" s="93"/>
-      <c r="FZ4" s="93"/>
-      <c r="GA4" s="93"/>
-      <c r="GB4" s="94">
+      <c r="FY4" s="121"/>
+      <c r="FZ4" s="121"/>
+      <c r="GA4" s="121"/>
+      <c r="GB4" s="118">
         <v>45448</v>
       </c>
-      <c r="GC4" s="94"/>
-      <c r="GD4" s="94"/>
-      <c r="GE4" s="95"/>
-      <c r="GF4" s="92" t="s">
+      <c r="GC4" s="118"/>
+      <c r="GD4" s="118"/>
+      <c r="GE4" s="119"/>
+      <c r="GF4" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="GG4" s="93"/>
-      <c r="GH4" s="93"/>
-      <c r="GI4" s="93"/>
-      <c r="GJ4" s="94">
+      <c r="GG4" s="121"/>
+      <c r="GH4" s="121"/>
+      <c r="GI4" s="121"/>
+      <c r="GJ4" s="118">
         <v>45449</v>
       </c>
-      <c r="GK4" s="94"/>
-      <c r="GL4" s="94"/>
-      <c r="GM4" s="94"/>
+      <c r="GK4" s="118"/>
+      <c r="GL4" s="118"/>
+      <c r="GM4" s="118"/>
       <c r="GN4" s="50"/>
-      <c r="GO4" s="93" t="s">
+      <c r="GO4" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="GP4" s="93"/>
-      <c r="GQ4" s="93"/>
-      <c r="GR4" s="93"/>
-      <c r="GS4" s="94">
+      <c r="GP4" s="121"/>
+      <c r="GQ4" s="121"/>
+      <c r="GR4" s="121"/>
+      <c r="GS4" s="118">
         <v>45454</v>
       </c>
-      <c r="GT4" s="94"/>
-      <c r="GU4" s="94"/>
-      <c r="GV4" s="95"/>
-      <c r="GW4" s="96" t="s">
+      <c r="GT4" s="118"/>
+      <c r="GU4" s="118"/>
+      <c r="GV4" s="119"/>
+      <c r="GW4" s="131" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
+      <c r="A5" s="126"/>
       <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
@@ -3486,13 +3492,13 @@
       <c r="GV5" s="7">
         <v>8</v>
       </c>
-      <c r="GW5" s="96"/>
+      <c r="GW5" s="131"/>
     </row>
     <row r="6" spans="1:205" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="62" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="9"/>
@@ -3520,16 +3526,16 @@
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
       <c r="AA6" s="15"/>
-      <c r="AB6" s="104" t="s">
+      <c r="AB6" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="AC6" s="105"/>
-      <c r="AD6" s="105"/>
-      <c r="AE6" s="105"/>
-      <c r="AF6" s="105"/>
-      <c r="AG6" s="105"/>
-      <c r="AH6" s="105"/>
-      <c r="AI6" s="106"/>
+      <c r="AC6" s="107"/>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="107"/>
+      <c r="AF6" s="107"/>
+      <c r="AG6" s="107"/>
+      <c r="AH6" s="107"/>
+      <c r="AI6" s="108"/>
       <c r="AJ6" s="13"/>
       <c r="AK6" s="14"/>
       <c r="AL6" s="14"/>
@@ -3584,16 +3590,16 @@
       <c r="CE6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="CF6" s="104" t="s">
+      <c r="CF6" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="CG6" s="105"/>
-      <c r="CH6" s="105"/>
-      <c r="CI6" s="105"/>
-      <c r="CJ6" s="105"/>
-      <c r="CK6" s="105"/>
-      <c r="CL6" s="105"/>
-      <c r="CM6" s="106"/>
+      <c r="CG6" s="107"/>
+      <c r="CH6" s="107"/>
+      <c r="CI6" s="107"/>
+      <c r="CJ6" s="107"/>
+      <c r="CK6" s="107"/>
+      <c r="CL6" s="107"/>
+      <c r="CM6" s="108"/>
       <c r="CN6" s="26" t="s">
         <v>28</v>
       </c>
@@ -3624,7 +3630,7 @@
       <c r="DI6" s="24"/>
       <c r="DJ6" s="24"/>
       <c r="DK6" s="25"/>
-      <c r="DL6" s="89" t="s">
+      <c r="DL6" s="88" t="s">
         <v>28</v>
       </c>
       <c r="DM6" s="33" t="s">
@@ -3644,7 +3650,9 @@
       <c r="DU6" s="24"/>
       <c r="DV6" s="24"/>
       <c r="DW6" s="24"/>
-      <c r="DX6" s="24"/>
+      <c r="DX6" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="DY6" s="24"/>
       <c r="DZ6" s="24"/>
       <c r="EA6" s="25"/>
@@ -3664,16 +3672,16 @@
       <c r="EO6" s="24"/>
       <c r="EP6" s="24"/>
       <c r="EQ6" s="25"/>
-      <c r="ER6" s="104" t="s">
+      <c r="ER6" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="ES6" s="105"/>
-      <c r="ET6" s="105"/>
-      <c r="EU6" s="105"/>
-      <c r="EV6" s="105"/>
-      <c r="EW6" s="105"/>
-      <c r="EX6" s="105"/>
-      <c r="EY6" s="106"/>
+      <c r="ES6" s="107"/>
+      <c r="ET6" s="107"/>
+      <c r="EU6" s="107"/>
+      <c r="EV6" s="107"/>
+      <c r="EW6" s="107"/>
+      <c r="EX6" s="107"/>
+      <c r="EY6" s="108"/>
       <c r="EZ6" s="26"/>
       <c r="FA6" s="24"/>
       <c r="FB6" s="24"/>
@@ -3723,14 +3731,14 @@
       <c r="GT6" s="10"/>
       <c r="GU6" s="10"/>
       <c r="GV6" s="10"/>
-      <c r="GW6" s="96"/>
+      <c r="GW6" s="131"/>
     </row>
     <row r="7" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="121" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="61"/>
+      <c r="A7" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="95"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -3755,14 +3763,14 @@
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
       <c r="AA7" s="15"/>
-      <c r="AB7" s="107"/>
-      <c r="AC7" s="108"/>
-      <c r="AD7" s="108"/>
-      <c r="AE7" s="108"/>
-      <c r="AF7" s="108"/>
-      <c r="AG7" s="108"/>
-      <c r="AH7" s="108"/>
-      <c r="AI7" s="109"/>
+      <c r="AB7" s="109"/>
+      <c r="AC7" s="110"/>
+      <c r="AD7" s="110"/>
+      <c r="AE7" s="110"/>
+      <c r="AF7" s="110"/>
+      <c r="AG7" s="110"/>
+      <c r="AH7" s="110"/>
+      <c r="AI7" s="111"/>
       <c r="AJ7" s="13"/>
       <c r="AK7" s="14"/>
       <c r="AL7" s="14"/>
@@ -3795,7 +3803,7 @@
       <c r="BM7" s="14"/>
       <c r="BN7" s="14"/>
       <c r="BO7" s="15"/>
-      <c r="BP7" s="64"/>
+      <c r="BP7" s="63"/>
       <c r="BQ7" s="32"/>
       <c r="BR7" s="14"/>
       <c r="BS7" s="14"/>
@@ -3811,14 +3819,14 @@
       <c r="CC7" s="14"/>
       <c r="CD7" s="14"/>
       <c r="CE7" s="15"/>
-      <c r="CF7" s="107"/>
-      <c r="CG7" s="108"/>
-      <c r="CH7" s="108"/>
-      <c r="CI7" s="108"/>
-      <c r="CJ7" s="108"/>
-      <c r="CK7" s="108"/>
-      <c r="CL7" s="108"/>
-      <c r="CM7" s="109"/>
+      <c r="CF7" s="109"/>
+      <c r="CG7" s="110"/>
+      <c r="CH7" s="110"/>
+      <c r="CI7" s="110"/>
+      <c r="CJ7" s="110"/>
+      <c r="CK7" s="110"/>
+      <c r="CL7" s="110"/>
+      <c r="CM7" s="111"/>
       <c r="CN7" s="13"/>
       <c r="CO7" s="14"/>
       <c r="CP7" s="14"/>
@@ -3875,14 +3883,14 @@
       <c r="EO7" s="14"/>
       <c r="EP7" s="14"/>
       <c r="EQ7" s="15"/>
-      <c r="ER7" s="107"/>
-      <c r="ES7" s="108"/>
-      <c r="ET7" s="108"/>
-      <c r="EU7" s="108"/>
-      <c r="EV7" s="108"/>
-      <c r="EW7" s="108"/>
-      <c r="EX7" s="108"/>
-      <c r="EY7" s="109"/>
+      <c r="ER7" s="109"/>
+      <c r="ES7" s="110"/>
+      <c r="ET7" s="110"/>
+      <c r="EU7" s="110"/>
+      <c r="EV7" s="110"/>
+      <c r="EW7" s="110"/>
+      <c r="EX7" s="110"/>
+      <c r="EY7" s="111"/>
       <c r="EZ7" s="13"/>
       <c r="FA7" s="14"/>
       <c r="FB7" s="14"/>
@@ -3932,13 +3940,13 @@
       <c r="GT7" s="14"/>
       <c r="GU7" s="14"/>
       <c r="GV7" s="14"/>
-      <c r="GW7" s="96"/>
+      <c r="GW7" s="131"/>
     </row>
     <row r="8" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="59" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="12"/>
@@ -3966,14 +3974,14 @@
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
       <c r="AA8" s="15"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="108"/>
-      <c r="AD8" s="108"/>
-      <c r="AE8" s="108"/>
-      <c r="AF8" s="108"/>
-      <c r="AG8" s="108"/>
-      <c r="AH8" s="108"/>
-      <c r="AI8" s="109"/>
+      <c r="AB8" s="109"/>
+      <c r="AC8" s="110"/>
+      <c r="AD8" s="110"/>
+      <c r="AE8" s="110"/>
+      <c r="AF8" s="110"/>
+      <c r="AG8" s="110"/>
+      <c r="AH8" s="110"/>
+      <c r="AI8" s="111"/>
       <c r="AJ8" s="13"/>
       <c r="AK8" s="14"/>
       <c r="AL8" s="14"/>
@@ -4026,14 +4034,14 @@
       <c r="CC8" s="14"/>
       <c r="CD8" s="14"/>
       <c r="CE8" s="44"/>
-      <c r="CF8" s="107"/>
-      <c r="CG8" s="108"/>
-      <c r="CH8" s="108"/>
-      <c r="CI8" s="108"/>
-      <c r="CJ8" s="108"/>
-      <c r="CK8" s="108"/>
-      <c r="CL8" s="108"/>
-      <c r="CM8" s="109"/>
+      <c r="CF8" s="109"/>
+      <c r="CG8" s="110"/>
+      <c r="CH8" s="110"/>
+      <c r="CI8" s="110"/>
+      <c r="CJ8" s="110"/>
+      <c r="CK8" s="110"/>
+      <c r="CL8" s="110"/>
+      <c r="CM8" s="111"/>
       <c r="CN8" s="13"/>
       <c r="CO8" s="14"/>
       <c r="CP8" s="14"/>
@@ -4090,14 +4098,14 @@
       <c r="EO8" s="14"/>
       <c r="EP8" s="14"/>
       <c r="EQ8" s="15"/>
-      <c r="ER8" s="107"/>
-      <c r="ES8" s="108"/>
-      <c r="ET8" s="108"/>
-      <c r="EU8" s="108"/>
-      <c r="EV8" s="108"/>
-      <c r="EW8" s="108"/>
-      <c r="EX8" s="108"/>
-      <c r="EY8" s="109"/>
+      <c r="ER8" s="109"/>
+      <c r="ES8" s="110"/>
+      <c r="ET8" s="110"/>
+      <c r="EU8" s="110"/>
+      <c r="EV8" s="110"/>
+      <c r="EW8" s="110"/>
+      <c r="EX8" s="110"/>
+      <c r="EY8" s="111"/>
       <c r="EZ8" s="13"/>
       <c r="FA8" s="14"/>
       <c r="FB8" s="14"/>
@@ -4147,13 +4155,13 @@
       <c r="GT8" s="14"/>
       <c r="GU8" s="14"/>
       <c r="GV8" s="14"/>
-      <c r="GW8" s="96"/>
+      <c r="GW8" s="131"/>
     </row>
     <row r="9" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="12"/>
@@ -4181,14 +4189,14 @@
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
       <c r="AA9" s="15"/>
-      <c r="AB9" s="107"/>
-      <c r="AC9" s="108"/>
-      <c r="AD9" s="108"/>
-      <c r="AE9" s="108"/>
-      <c r="AF9" s="108"/>
-      <c r="AG9" s="108"/>
-      <c r="AH9" s="108"/>
-      <c r="AI9" s="109"/>
+      <c r="AB9" s="109"/>
+      <c r="AC9" s="110"/>
+      <c r="AD9" s="110"/>
+      <c r="AE9" s="110"/>
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="110"/>
+      <c r="AH9" s="110"/>
+      <c r="AI9" s="111"/>
       <c r="AJ9" s="13"/>
       <c r="AK9" s="14"/>
       <c r="AL9" s="14"/>
@@ -4257,14 +4265,14 @@
         <v>28</v>
       </c>
       <c r="CE9" s="36"/>
-      <c r="CF9" s="107"/>
-      <c r="CG9" s="108"/>
-      <c r="CH9" s="108"/>
-      <c r="CI9" s="108"/>
-      <c r="CJ9" s="108"/>
-      <c r="CK9" s="108"/>
-      <c r="CL9" s="108"/>
-      <c r="CM9" s="109"/>
+      <c r="CF9" s="109"/>
+      <c r="CG9" s="110"/>
+      <c r="CH9" s="110"/>
+      <c r="CI9" s="110"/>
+      <c r="CJ9" s="110"/>
+      <c r="CK9" s="110"/>
+      <c r="CL9" s="110"/>
+      <c r="CM9" s="111"/>
       <c r="CN9" s="13"/>
       <c r="CO9" s="14"/>
       <c r="CP9" s="14"/>
@@ -4321,14 +4329,14 @@
       <c r="EO9" s="14"/>
       <c r="EP9" s="14"/>
       <c r="EQ9" s="15"/>
-      <c r="ER9" s="107"/>
-      <c r="ES9" s="108"/>
-      <c r="ET9" s="108"/>
-      <c r="EU9" s="108"/>
-      <c r="EV9" s="108"/>
-      <c r="EW9" s="108"/>
-      <c r="EX9" s="108"/>
-      <c r="EY9" s="109"/>
+      <c r="ER9" s="109"/>
+      <c r="ES9" s="110"/>
+      <c r="ET9" s="110"/>
+      <c r="EU9" s="110"/>
+      <c r="EV9" s="110"/>
+      <c r="EW9" s="110"/>
+      <c r="EX9" s="110"/>
+      <c r="EY9" s="111"/>
       <c r="EZ9" s="13"/>
       <c r="FA9" s="14"/>
       <c r="FB9" s="14"/>
@@ -4378,14 +4386,14 @@
       <c r="GT9" s="14"/>
       <c r="GU9" s="14"/>
       <c r="GV9" s="14"/>
-      <c r="GW9" s="96"/>
+      <c r="GW9" s="131"/>
     </row>
     <row r="10" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="61"/>
+      <c r="A10" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="97"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -4410,14 +4418,14 @@
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
       <c r="AA10" s="15"/>
-      <c r="AB10" s="107"/>
-      <c r="AC10" s="108"/>
-      <c r="AD10" s="108"/>
-      <c r="AE10" s="108"/>
-      <c r="AF10" s="108"/>
-      <c r="AG10" s="108"/>
-      <c r="AH10" s="108"/>
-      <c r="AI10" s="109"/>
+      <c r="AB10" s="109"/>
+      <c r="AC10" s="110"/>
+      <c r="AD10" s="110"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="110"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="110"/>
+      <c r="AI10" s="111"/>
       <c r="AJ10" s="13"/>
       <c r="AK10" s="14"/>
       <c r="AL10" s="14"/>
@@ -4457,8 +4465,8 @@
       <c r="BT10" s="32"/>
       <c r="BU10" s="32"/>
       <c r="BV10" s="32"/>
-      <c r="BW10" s="65"/>
-      <c r="BX10" s="64"/>
+      <c r="BW10" s="64"/>
+      <c r="BX10" s="63"/>
       <c r="BY10" s="32"/>
       <c r="BZ10" s="32"/>
       <c r="CA10" s="32"/>
@@ -4466,14 +4474,14 @@
       <c r="CC10" s="32"/>
       <c r="CD10" s="32"/>
       <c r="CE10" s="32"/>
-      <c r="CF10" s="107"/>
-      <c r="CG10" s="108"/>
-      <c r="CH10" s="108"/>
-      <c r="CI10" s="108"/>
-      <c r="CJ10" s="108"/>
-      <c r="CK10" s="108"/>
-      <c r="CL10" s="108"/>
-      <c r="CM10" s="109"/>
+      <c r="CF10" s="109"/>
+      <c r="CG10" s="110"/>
+      <c r="CH10" s="110"/>
+      <c r="CI10" s="110"/>
+      <c r="CJ10" s="110"/>
+      <c r="CK10" s="110"/>
+      <c r="CL10" s="110"/>
+      <c r="CM10" s="111"/>
       <c r="CN10" s="13"/>
       <c r="CO10" s="14"/>
       <c r="CP10" s="14"/>
@@ -4532,14 +4540,14 @@
       <c r="EO10" s="14"/>
       <c r="EP10" s="14"/>
       <c r="EQ10" s="15"/>
-      <c r="ER10" s="107"/>
-      <c r="ES10" s="108"/>
-      <c r="ET10" s="108"/>
-      <c r="EU10" s="108"/>
-      <c r="EV10" s="108"/>
-      <c r="EW10" s="108"/>
-      <c r="EX10" s="108"/>
-      <c r="EY10" s="109"/>
+      <c r="ER10" s="109"/>
+      <c r="ES10" s="110"/>
+      <c r="ET10" s="110"/>
+      <c r="EU10" s="110"/>
+      <c r="EV10" s="110"/>
+      <c r="EW10" s="110"/>
+      <c r="EX10" s="110"/>
+      <c r="EY10" s="111"/>
       <c r="EZ10" s="13"/>
       <c r="FA10" s="14"/>
       <c r="FB10" s="14"/>
@@ -4589,13 +4597,13 @@
       <c r="GT10" s="14"/>
       <c r="GU10" s="14"/>
       <c r="GV10" s="14"/>
-      <c r="GW10" s="96"/>
+      <c r="GW10" s="131"/>
     </row>
     <row r="11" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="59" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="12"/>
@@ -4623,14 +4631,14 @@
       <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
       <c r="AA11" s="15"/>
-      <c r="AB11" s="107"/>
-      <c r="AC11" s="108"/>
-      <c r="AD11" s="108"/>
-      <c r="AE11" s="108"/>
-      <c r="AF11" s="108"/>
-      <c r="AG11" s="108"/>
-      <c r="AH11" s="108"/>
-      <c r="AI11" s="109"/>
+      <c r="AB11" s="109"/>
+      <c r="AC11" s="110"/>
+      <c r="AD11" s="110"/>
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="110"/>
+      <c r="AG11" s="110"/>
+      <c r="AH11" s="110"/>
+      <c r="AI11" s="111"/>
       <c r="AJ11" s="13"/>
       <c r="AK11" s="14"/>
       <c r="AL11" s="14"/>
@@ -4681,14 +4689,14 @@
       </c>
       <c r="CD11" s="14"/>
       <c r="CE11" s="14"/>
-      <c r="CF11" s="107"/>
-      <c r="CG11" s="108"/>
-      <c r="CH11" s="108"/>
-      <c r="CI11" s="108"/>
-      <c r="CJ11" s="108"/>
-      <c r="CK11" s="108"/>
-      <c r="CL11" s="108"/>
-      <c r="CM11" s="109"/>
+      <c r="CF11" s="109"/>
+      <c r="CG11" s="110"/>
+      <c r="CH11" s="110"/>
+      <c r="CI11" s="110"/>
+      <c r="CJ11" s="110"/>
+      <c r="CK11" s="110"/>
+      <c r="CL11" s="110"/>
+      <c r="CM11" s="111"/>
       <c r="CN11" s="28"/>
       <c r="CO11" s="14"/>
       <c r="CP11" s="14"/>
@@ -4745,14 +4753,14 @@
       <c r="EO11" s="14"/>
       <c r="EP11" s="14"/>
       <c r="EQ11" s="15"/>
-      <c r="ER11" s="107"/>
-      <c r="ES11" s="108"/>
-      <c r="ET11" s="108"/>
-      <c r="EU11" s="108"/>
-      <c r="EV11" s="108"/>
-      <c r="EW11" s="108"/>
-      <c r="EX11" s="108"/>
-      <c r="EY11" s="109"/>
+      <c r="ER11" s="109"/>
+      <c r="ES11" s="110"/>
+      <c r="ET11" s="110"/>
+      <c r="EU11" s="110"/>
+      <c r="EV11" s="110"/>
+      <c r="EW11" s="110"/>
+      <c r="EX11" s="110"/>
+      <c r="EY11" s="111"/>
       <c r="EZ11" s="13"/>
       <c r="FA11" s="14"/>
       <c r="FB11" s="14"/>
@@ -4802,13 +4810,13 @@
       <c r="GT11" s="14"/>
       <c r="GU11" s="14"/>
       <c r="GV11" s="14"/>
-      <c r="GW11" s="96"/>
+      <c r="GW11" s="131"/>
     </row>
     <row r="12" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="66" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="12"/>
@@ -4836,14 +4844,14 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
       <c r="AA12" s="15"/>
-      <c r="AB12" s="107"/>
-      <c r="AC12" s="108"/>
-      <c r="AD12" s="108"/>
-      <c r="AE12" s="108"/>
-      <c r="AF12" s="108"/>
-      <c r="AG12" s="108"/>
-      <c r="AH12" s="108"/>
-      <c r="AI12" s="109"/>
+      <c r="AB12" s="109"/>
+      <c r="AC12" s="110"/>
+      <c r="AD12" s="110"/>
+      <c r="AE12" s="110"/>
+      <c r="AF12" s="110"/>
+      <c r="AG12" s="110"/>
+      <c r="AH12" s="110"/>
+      <c r="AI12" s="111"/>
       <c r="AJ12" s="13"/>
       <c r="AK12" s="14"/>
       <c r="AL12" s="14"/>
@@ -4892,14 +4900,14 @@
       <c r="CC12" s="14"/>
       <c r="CD12" s="14"/>
       <c r="CE12" s="15"/>
-      <c r="CF12" s="107"/>
-      <c r="CG12" s="108"/>
-      <c r="CH12" s="108"/>
-      <c r="CI12" s="108"/>
-      <c r="CJ12" s="108"/>
-      <c r="CK12" s="108"/>
-      <c r="CL12" s="108"/>
-      <c r="CM12" s="109"/>
+      <c r="CF12" s="109"/>
+      <c r="CG12" s="110"/>
+      <c r="CH12" s="110"/>
+      <c r="CI12" s="110"/>
+      <c r="CJ12" s="110"/>
+      <c r="CK12" s="110"/>
+      <c r="CL12" s="110"/>
+      <c r="CM12" s="111"/>
       <c r="CN12" s="13"/>
       <c r="CO12" s="55" t="s">
         <v>28</v>
@@ -4960,14 +4968,14 @@
       <c r="EO12" s="14"/>
       <c r="EP12" s="14"/>
       <c r="EQ12" s="15"/>
-      <c r="ER12" s="107"/>
-      <c r="ES12" s="108"/>
-      <c r="ET12" s="108"/>
-      <c r="EU12" s="108"/>
-      <c r="EV12" s="108"/>
-      <c r="EW12" s="108"/>
-      <c r="EX12" s="108"/>
-      <c r="EY12" s="109"/>
+      <c r="ER12" s="109"/>
+      <c r="ES12" s="110"/>
+      <c r="ET12" s="110"/>
+      <c r="EU12" s="110"/>
+      <c r="EV12" s="110"/>
+      <c r="EW12" s="110"/>
+      <c r="EX12" s="110"/>
+      <c r="EY12" s="111"/>
       <c r="EZ12" s="13"/>
       <c r="FA12" s="14"/>
       <c r="FB12" s="14"/>
@@ -5017,13 +5025,13 @@
       <c r="GT12" s="14"/>
       <c r="GU12" s="14"/>
       <c r="GV12" s="14"/>
-      <c r="GW12" s="96"/>
+      <c r="GW12" s="131"/>
     </row>
     <row r="13" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="66" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="12"/>
@@ -5051,14 +5059,14 @@
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="15"/>
-      <c r="AB13" s="107"/>
-      <c r="AC13" s="108"/>
-      <c r="AD13" s="108"/>
-      <c r="AE13" s="108"/>
-      <c r="AF13" s="108"/>
-      <c r="AG13" s="108"/>
-      <c r="AH13" s="108"/>
-      <c r="AI13" s="109"/>
+      <c r="AB13" s="109"/>
+      <c r="AC13" s="110"/>
+      <c r="AD13" s="110"/>
+      <c r="AE13" s="110"/>
+      <c r="AF13" s="110"/>
+      <c r="AG13" s="110"/>
+      <c r="AH13" s="110"/>
+      <c r="AI13" s="111"/>
       <c r="AJ13" s="13"/>
       <c r="AK13" s="14"/>
       <c r="AL13" s="14"/>
@@ -5107,14 +5115,14 @@
       <c r="CC13" s="14"/>
       <c r="CD13" s="14"/>
       <c r="CE13" s="15"/>
-      <c r="CF13" s="107"/>
-      <c r="CG13" s="108"/>
-      <c r="CH13" s="108"/>
-      <c r="CI13" s="108"/>
-      <c r="CJ13" s="108"/>
-      <c r="CK13" s="108"/>
-      <c r="CL13" s="108"/>
-      <c r="CM13" s="109"/>
+      <c r="CF13" s="109"/>
+      <c r="CG13" s="110"/>
+      <c r="CH13" s="110"/>
+      <c r="CI13" s="110"/>
+      <c r="CJ13" s="110"/>
+      <c r="CK13" s="110"/>
+      <c r="CL13" s="110"/>
+      <c r="CM13" s="111"/>
       <c r="CN13" s="13"/>
       <c r="CO13" s="14"/>
       <c r="CP13" s="27"/>
@@ -5179,14 +5187,14 @@
       <c r="EO13" s="14"/>
       <c r="EP13" s="14"/>
       <c r="EQ13" s="15"/>
-      <c r="ER13" s="107"/>
-      <c r="ES13" s="108"/>
-      <c r="ET13" s="108"/>
-      <c r="EU13" s="108"/>
-      <c r="EV13" s="108"/>
-      <c r="EW13" s="108"/>
-      <c r="EX13" s="108"/>
-      <c r="EY13" s="109"/>
+      <c r="ER13" s="109"/>
+      <c r="ES13" s="110"/>
+      <c r="ET13" s="110"/>
+      <c r="EU13" s="110"/>
+      <c r="EV13" s="110"/>
+      <c r="EW13" s="110"/>
+      <c r="EX13" s="110"/>
+      <c r="EY13" s="111"/>
       <c r="EZ13" s="13"/>
       <c r="FA13" s="14"/>
       <c r="FB13" s="14"/>
@@ -5236,14 +5244,14 @@
       <c r="GT13" s="14"/>
       <c r="GU13" s="14"/>
       <c r="GV13" s="14"/>
-      <c r="GW13" s="96"/>
+      <c r="GW13" s="131"/>
     </row>
     <row r="14" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="125" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="61"/>
+      <c r="A14" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="99"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -5268,14 +5276,14 @@
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
       <c r="AA14" s="15"/>
-      <c r="AB14" s="107"/>
-      <c r="AC14" s="108"/>
-      <c r="AD14" s="108"/>
-      <c r="AE14" s="108"/>
-      <c r="AF14" s="108"/>
-      <c r="AG14" s="108"/>
-      <c r="AH14" s="108"/>
-      <c r="AI14" s="109"/>
+      <c r="AB14" s="109"/>
+      <c r="AC14" s="110"/>
+      <c r="AD14" s="110"/>
+      <c r="AE14" s="110"/>
+      <c r="AF14" s="110"/>
+      <c r="AG14" s="110"/>
+      <c r="AH14" s="110"/>
+      <c r="AI14" s="111"/>
       <c r="AJ14" s="13"/>
       <c r="AK14" s="14"/>
       <c r="AL14" s="14"/>
@@ -5324,14 +5332,14 @@
       <c r="CC14" s="14"/>
       <c r="CD14" s="14"/>
       <c r="CE14" s="15"/>
-      <c r="CF14" s="107"/>
-      <c r="CG14" s="108"/>
-      <c r="CH14" s="108"/>
-      <c r="CI14" s="108"/>
-      <c r="CJ14" s="108"/>
-      <c r="CK14" s="108"/>
-      <c r="CL14" s="108"/>
-      <c r="CM14" s="109"/>
+      <c r="CF14" s="109"/>
+      <c r="CG14" s="110"/>
+      <c r="CH14" s="110"/>
+      <c r="CI14" s="110"/>
+      <c r="CJ14" s="110"/>
+      <c r="CK14" s="110"/>
+      <c r="CL14" s="110"/>
+      <c r="CM14" s="111"/>
       <c r="CN14" s="13"/>
       <c r="CO14" s="14"/>
       <c r="CP14" s="14"/>
@@ -5390,14 +5398,14 @@
       <c r="EO14" s="14"/>
       <c r="EP14" s="14"/>
       <c r="EQ14" s="15"/>
-      <c r="ER14" s="107"/>
-      <c r="ES14" s="108"/>
-      <c r="ET14" s="108"/>
-      <c r="EU14" s="108"/>
-      <c r="EV14" s="108"/>
-      <c r="EW14" s="108"/>
-      <c r="EX14" s="108"/>
-      <c r="EY14" s="109"/>
+      <c r="ER14" s="109"/>
+      <c r="ES14" s="110"/>
+      <c r="ET14" s="110"/>
+      <c r="EU14" s="110"/>
+      <c r="EV14" s="110"/>
+      <c r="EW14" s="110"/>
+      <c r="EX14" s="110"/>
+      <c r="EY14" s="111"/>
       <c r="EZ14" s="13"/>
       <c r="FA14" s="14"/>
       <c r="FB14" s="14"/>
@@ -5447,14 +5455,14 @@
       <c r="GT14" s="14"/>
       <c r="GU14" s="14"/>
       <c r="GV14" s="14"/>
-      <c r="GW14" s="96"/>
+      <c r="GW14" s="131"/>
     </row>
     <row r="15" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="73" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
@@ -5481,14 +5489,14 @@
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
       <c r="AA15" s="15"/>
-      <c r="AB15" s="107"/>
-      <c r="AC15" s="108"/>
-      <c r="AD15" s="108"/>
-      <c r="AE15" s="108"/>
-      <c r="AF15" s="108"/>
-      <c r="AG15" s="108"/>
-      <c r="AH15" s="108"/>
-      <c r="AI15" s="109"/>
+      <c r="AB15" s="109"/>
+      <c r="AC15" s="110"/>
+      <c r="AD15" s="110"/>
+      <c r="AE15" s="110"/>
+      <c r="AF15" s="110"/>
+      <c r="AG15" s="110"/>
+      <c r="AH15" s="110"/>
+      <c r="AI15" s="111"/>
       <c r="AJ15" s="13"/>
       <c r="AK15" s="14"/>
       <c r="AL15" s="14"/>
@@ -5537,14 +5545,14 @@
       <c r="CC15" s="14"/>
       <c r="CD15" s="14"/>
       <c r="CE15" s="15"/>
-      <c r="CF15" s="107"/>
-      <c r="CG15" s="108"/>
-      <c r="CH15" s="108"/>
-      <c r="CI15" s="108"/>
-      <c r="CJ15" s="108"/>
-      <c r="CK15" s="108"/>
-      <c r="CL15" s="108"/>
-      <c r="CM15" s="109"/>
+      <c r="CF15" s="109"/>
+      <c r="CG15" s="110"/>
+      <c r="CH15" s="110"/>
+      <c r="CI15" s="110"/>
+      <c r="CJ15" s="110"/>
+      <c r="CK15" s="110"/>
+      <c r="CL15" s="110"/>
+      <c r="CM15" s="111"/>
       <c r="CN15" s="13"/>
       <c r="CO15" s="14"/>
       <c r="CP15" s="14"/>
@@ -5607,14 +5615,14 @@
       <c r="EO15" s="14"/>
       <c r="EP15" s="14"/>
       <c r="EQ15" s="15"/>
-      <c r="ER15" s="107"/>
-      <c r="ES15" s="108"/>
-      <c r="ET15" s="108"/>
-      <c r="EU15" s="108"/>
-      <c r="EV15" s="108"/>
-      <c r="EW15" s="108"/>
-      <c r="EX15" s="108"/>
-      <c r="EY15" s="109"/>
+      <c r="ER15" s="109"/>
+      <c r="ES15" s="110"/>
+      <c r="ET15" s="110"/>
+      <c r="EU15" s="110"/>
+      <c r="EV15" s="110"/>
+      <c r="EW15" s="110"/>
+      <c r="EX15" s="110"/>
+      <c r="EY15" s="111"/>
       <c r="EZ15" s="13"/>
       <c r="FA15" s="14"/>
       <c r="FB15" s="14"/>
@@ -5664,13 +5672,13 @@
       <c r="GT15" s="14"/>
       <c r="GU15" s="14"/>
       <c r="GV15" s="14"/>
-      <c r="GW15" s="96"/>
+      <c r="GW15" s="131"/>
     </row>
     <row r="16" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="66" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="12"/>
@@ -5698,14 +5706,14 @@
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="15"/>
-      <c r="AB16" s="107"/>
-      <c r="AC16" s="108"/>
-      <c r="AD16" s="108"/>
-      <c r="AE16" s="108"/>
-      <c r="AF16" s="108"/>
-      <c r="AG16" s="108"/>
-      <c r="AH16" s="108"/>
-      <c r="AI16" s="109"/>
+      <c r="AB16" s="109"/>
+      <c r="AC16" s="110"/>
+      <c r="AD16" s="110"/>
+      <c r="AE16" s="110"/>
+      <c r="AF16" s="110"/>
+      <c r="AG16" s="110"/>
+      <c r="AH16" s="110"/>
+      <c r="AI16" s="111"/>
       <c r="AJ16" s="13"/>
       <c r="AK16" s="14"/>
       <c r="AL16" s="14"/>
@@ -5754,14 +5762,14 @@
       <c r="CC16" s="14"/>
       <c r="CD16" s="14"/>
       <c r="CE16" s="15"/>
-      <c r="CF16" s="107"/>
-      <c r="CG16" s="108"/>
-      <c r="CH16" s="108"/>
-      <c r="CI16" s="108"/>
-      <c r="CJ16" s="108"/>
-      <c r="CK16" s="108"/>
-      <c r="CL16" s="108"/>
-      <c r="CM16" s="109"/>
+      <c r="CF16" s="109"/>
+      <c r="CG16" s="110"/>
+      <c r="CH16" s="110"/>
+      <c r="CI16" s="110"/>
+      <c r="CJ16" s="110"/>
+      <c r="CK16" s="110"/>
+      <c r="CL16" s="110"/>
+      <c r="CM16" s="111"/>
       <c r="CN16" s="13"/>
       <c r="CO16" s="14"/>
       <c r="CP16" s="14"/>
@@ -5820,14 +5828,14 @@
       <c r="EO16" s="14"/>
       <c r="EP16" s="14"/>
       <c r="EQ16" s="15"/>
-      <c r="ER16" s="107"/>
-      <c r="ES16" s="108"/>
-      <c r="ET16" s="108"/>
-      <c r="EU16" s="108"/>
-      <c r="EV16" s="108"/>
-      <c r="EW16" s="108"/>
-      <c r="EX16" s="108"/>
-      <c r="EY16" s="109"/>
+      <c r="ER16" s="109"/>
+      <c r="ES16" s="110"/>
+      <c r="ET16" s="110"/>
+      <c r="EU16" s="110"/>
+      <c r="EV16" s="110"/>
+      <c r="EW16" s="110"/>
+      <c r="EX16" s="110"/>
+      <c r="EY16" s="111"/>
       <c r="EZ16" s="13"/>
       <c r="FA16" s="14"/>
       <c r="FB16" s="14"/>
@@ -5877,13 +5885,13 @@
       <c r="GT16" s="14"/>
       <c r="GU16" s="14"/>
       <c r="GV16" s="14"/>
-      <c r="GW16" s="96"/>
+      <c r="GW16" s="131"/>
     </row>
     <row r="17" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="66" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="12"/>
@@ -5911,14 +5919,14 @@
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="15"/>
-      <c r="AB17" s="107"/>
-      <c r="AC17" s="108"/>
-      <c r="AD17" s="108"/>
-      <c r="AE17" s="108"/>
-      <c r="AF17" s="108"/>
-      <c r="AG17" s="108"/>
-      <c r="AH17" s="108"/>
-      <c r="AI17" s="109"/>
+      <c r="AB17" s="109"/>
+      <c r="AC17" s="110"/>
+      <c r="AD17" s="110"/>
+      <c r="AE17" s="110"/>
+      <c r="AF17" s="110"/>
+      <c r="AG17" s="110"/>
+      <c r="AH17" s="110"/>
+      <c r="AI17" s="111"/>
       <c r="AJ17" s="13"/>
       <c r="AK17" s="14"/>
       <c r="AL17" s="14"/>
@@ -5967,14 +5975,14 @@
       <c r="CC17" s="14"/>
       <c r="CD17" s="14"/>
       <c r="CE17" s="15"/>
-      <c r="CF17" s="107"/>
-      <c r="CG17" s="108"/>
-      <c r="CH17" s="108"/>
-      <c r="CI17" s="108"/>
-      <c r="CJ17" s="108"/>
-      <c r="CK17" s="108"/>
-      <c r="CL17" s="108"/>
-      <c r="CM17" s="109"/>
+      <c r="CF17" s="109"/>
+      <c r="CG17" s="110"/>
+      <c r="CH17" s="110"/>
+      <c r="CI17" s="110"/>
+      <c r="CJ17" s="110"/>
+      <c r="CK17" s="110"/>
+      <c r="CL17" s="110"/>
+      <c r="CM17" s="111"/>
       <c r="CN17" s="13"/>
       <c r="CO17" s="14"/>
       <c r="CP17" s="14"/>
@@ -6037,14 +6045,14 @@
       <c r="EO17" s="14"/>
       <c r="EP17" s="14"/>
       <c r="EQ17" s="15"/>
-      <c r="ER17" s="107"/>
-      <c r="ES17" s="108"/>
-      <c r="ET17" s="108"/>
-      <c r="EU17" s="108"/>
-      <c r="EV17" s="108"/>
-      <c r="EW17" s="108"/>
-      <c r="EX17" s="108"/>
-      <c r="EY17" s="109"/>
+      <c r="ER17" s="109"/>
+      <c r="ES17" s="110"/>
+      <c r="ET17" s="110"/>
+      <c r="EU17" s="110"/>
+      <c r="EV17" s="110"/>
+      <c r="EW17" s="110"/>
+      <c r="EX17" s="110"/>
+      <c r="EY17" s="111"/>
       <c r="EZ17" s="13"/>
       <c r="FA17" s="14"/>
       <c r="FB17" s="14"/>
@@ -6094,13 +6102,13 @@
       <c r="GT17" s="14"/>
       <c r="GU17" s="14"/>
       <c r="GV17" s="14"/>
-      <c r="GW17" s="96"/>
+      <c r="GW17" s="131"/>
     </row>
     <row r="18" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="66" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="12"/>
@@ -6128,14 +6136,14 @@
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="15"/>
-      <c r="AB18" s="107"/>
-      <c r="AC18" s="108"/>
-      <c r="AD18" s="108"/>
-      <c r="AE18" s="108"/>
-      <c r="AF18" s="108"/>
-      <c r="AG18" s="108"/>
-      <c r="AH18" s="108"/>
-      <c r="AI18" s="109"/>
+      <c r="AB18" s="109"/>
+      <c r="AC18" s="110"/>
+      <c r="AD18" s="110"/>
+      <c r="AE18" s="110"/>
+      <c r="AF18" s="110"/>
+      <c r="AG18" s="110"/>
+      <c r="AH18" s="110"/>
+      <c r="AI18" s="111"/>
       <c r="AJ18" s="13"/>
       <c r="AK18" s="14"/>
       <c r="AL18" s="14"/>
@@ -6184,14 +6192,14 @@
       <c r="CC18" s="14"/>
       <c r="CD18" s="14"/>
       <c r="CE18" s="15"/>
-      <c r="CF18" s="107"/>
-      <c r="CG18" s="108"/>
-      <c r="CH18" s="108"/>
-      <c r="CI18" s="108"/>
-      <c r="CJ18" s="108"/>
-      <c r="CK18" s="108"/>
-      <c r="CL18" s="108"/>
-      <c r="CM18" s="109"/>
+      <c r="CF18" s="109"/>
+      <c r="CG18" s="110"/>
+      <c r="CH18" s="110"/>
+      <c r="CI18" s="110"/>
+      <c r="CJ18" s="110"/>
+      <c r="CK18" s="110"/>
+      <c r="CL18" s="110"/>
+      <c r="CM18" s="111"/>
       <c r="CN18" s="13"/>
       <c r="CO18" s="14"/>
       <c r="CP18" s="14"/>
@@ -6260,14 +6268,14 @@
       <c r="EO18" s="14"/>
       <c r="EP18" s="14"/>
       <c r="EQ18" s="15"/>
-      <c r="ER18" s="107"/>
-      <c r="ES18" s="108"/>
-      <c r="ET18" s="108"/>
-      <c r="EU18" s="108"/>
-      <c r="EV18" s="108"/>
-      <c r="EW18" s="108"/>
-      <c r="EX18" s="108"/>
-      <c r="EY18" s="109"/>
+      <c r="ER18" s="109"/>
+      <c r="ES18" s="110"/>
+      <c r="ET18" s="110"/>
+      <c r="EU18" s="110"/>
+      <c r="EV18" s="110"/>
+      <c r="EW18" s="110"/>
+      <c r="EX18" s="110"/>
+      <c r="EY18" s="111"/>
       <c r="EZ18" s="13"/>
       <c r="FA18" s="14"/>
       <c r="FB18" s="14"/>
@@ -6317,14 +6325,14 @@
       <c r="GT18" s="14"/>
       <c r="GU18" s="14"/>
       <c r="GV18" s="14"/>
-      <c r="GW18" s="96"/>
+      <c r="GW18" s="131"/>
     </row>
     <row r="19" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="75" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
@@ -6351,14 +6359,14 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="15"/>
-      <c r="AB19" s="107"/>
-      <c r="AC19" s="108"/>
-      <c r="AD19" s="108"/>
-      <c r="AE19" s="108"/>
-      <c r="AF19" s="108"/>
-      <c r="AG19" s="108"/>
-      <c r="AH19" s="108"/>
-      <c r="AI19" s="109"/>
+      <c r="AB19" s="109"/>
+      <c r="AC19" s="110"/>
+      <c r="AD19" s="110"/>
+      <c r="AE19" s="110"/>
+      <c r="AF19" s="110"/>
+      <c r="AG19" s="110"/>
+      <c r="AH19" s="110"/>
+      <c r="AI19" s="111"/>
       <c r="AJ19" s="13"/>
       <c r="AK19" s="14"/>
       <c r="AL19" s="14"/>
@@ -6407,14 +6415,14 @@
       <c r="CC19" s="14"/>
       <c r="CD19" s="14"/>
       <c r="CE19" s="15"/>
-      <c r="CF19" s="107"/>
-      <c r="CG19" s="108"/>
-      <c r="CH19" s="108"/>
-      <c r="CI19" s="108"/>
-      <c r="CJ19" s="108"/>
-      <c r="CK19" s="108"/>
-      <c r="CL19" s="108"/>
-      <c r="CM19" s="109"/>
+      <c r="CF19" s="109"/>
+      <c r="CG19" s="110"/>
+      <c r="CH19" s="110"/>
+      <c r="CI19" s="110"/>
+      <c r="CJ19" s="110"/>
+      <c r="CK19" s="110"/>
+      <c r="CL19" s="110"/>
+      <c r="CM19" s="111"/>
       <c r="CN19" s="13"/>
       <c r="CO19" s="14"/>
       <c r="CP19" s="14"/>
@@ -6438,11 +6446,11 @@
       <c r="DH19" s="14"/>
       <c r="DI19" s="14"/>
       <c r="DJ19" s="14"/>
-      <c r="DK19" s="65"/>
+      <c r="DK19" s="64"/>
       <c r="DL19" s="30"/>
       <c r="DM19" s="31"/>
       <c r="DN19" s="31"/>
-      <c r="DO19" s="90" t="s">
+      <c r="DO19" s="89" t="s">
         <v>28</v>
       </c>
       <c r="DP19" s="14"/>
@@ -6473,14 +6481,14 @@
       <c r="EO19" s="14"/>
       <c r="EP19" s="14"/>
       <c r="EQ19" s="15"/>
-      <c r="ER19" s="107"/>
-      <c r="ES19" s="108"/>
-      <c r="ET19" s="108"/>
-      <c r="EU19" s="108"/>
-      <c r="EV19" s="108"/>
-      <c r="EW19" s="108"/>
-      <c r="EX19" s="108"/>
-      <c r="EY19" s="109"/>
+      <c r="ER19" s="109"/>
+      <c r="ES19" s="110"/>
+      <c r="ET19" s="110"/>
+      <c r="EU19" s="110"/>
+      <c r="EV19" s="110"/>
+      <c r="EW19" s="110"/>
+      <c r="EX19" s="110"/>
+      <c r="EY19" s="111"/>
       <c r="EZ19" s="13"/>
       <c r="FA19" s="14"/>
       <c r="FB19" s="14"/>
@@ -6530,14 +6538,14 @@
       <c r="GT19" s="14"/>
       <c r="GU19" s="14"/>
       <c r="GV19" s="14"/>
-      <c r="GW19" s="96"/>
+      <c r="GW19" s="131"/>
     </row>
     <row r="20" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="127" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="128"/>
-      <c r="C20" s="61"/>
+      <c r="A20" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="101"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -6562,14 +6570,14 @@
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
       <c r="AA20" s="15"/>
-      <c r="AB20" s="107"/>
-      <c r="AC20" s="108"/>
-      <c r="AD20" s="108"/>
-      <c r="AE20" s="108"/>
-      <c r="AF20" s="108"/>
-      <c r="AG20" s="108"/>
-      <c r="AH20" s="108"/>
-      <c r="AI20" s="109"/>
+      <c r="AB20" s="109"/>
+      <c r="AC20" s="110"/>
+      <c r="AD20" s="110"/>
+      <c r="AE20" s="110"/>
+      <c r="AF20" s="110"/>
+      <c r="AG20" s="110"/>
+      <c r="AH20" s="110"/>
+      <c r="AI20" s="111"/>
       <c r="AJ20" s="13"/>
       <c r="AK20" s="14"/>
       <c r="AL20" s="14"/>
@@ -6618,14 +6626,14 @@
       <c r="CC20" s="14"/>
       <c r="CD20" s="14"/>
       <c r="CE20" s="15"/>
-      <c r="CF20" s="107"/>
-      <c r="CG20" s="108"/>
-      <c r="CH20" s="108"/>
-      <c r="CI20" s="108"/>
-      <c r="CJ20" s="108"/>
-      <c r="CK20" s="108"/>
-      <c r="CL20" s="108"/>
-      <c r="CM20" s="109"/>
+      <c r="CF20" s="109"/>
+      <c r="CG20" s="110"/>
+      <c r="CH20" s="110"/>
+      <c r="CI20" s="110"/>
+      <c r="CJ20" s="110"/>
+      <c r="CK20" s="110"/>
+      <c r="CL20" s="110"/>
+      <c r="CM20" s="111"/>
       <c r="CN20" s="13"/>
       <c r="CO20" s="14"/>
       <c r="CP20" s="14"/>
@@ -6650,7 +6658,7 @@
       <c r="DI20" s="14"/>
       <c r="DJ20" s="14"/>
       <c r="DK20" s="44"/>
-      <c r="DL20" s="69"/>
+      <c r="DL20" s="68"/>
       <c r="DM20" s="57"/>
       <c r="DN20" s="57"/>
       <c r="DO20" s="57"/>
@@ -6682,14 +6690,14 @@
       <c r="EO20" s="14"/>
       <c r="EP20" s="14"/>
       <c r="EQ20" s="15"/>
-      <c r="ER20" s="107"/>
-      <c r="ES20" s="108"/>
-      <c r="ET20" s="108"/>
-      <c r="EU20" s="108"/>
-      <c r="EV20" s="108"/>
-      <c r="EW20" s="108"/>
-      <c r="EX20" s="108"/>
-      <c r="EY20" s="109"/>
+      <c r="ER20" s="109"/>
+      <c r="ES20" s="110"/>
+      <c r="ET20" s="110"/>
+      <c r="EU20" s="110"/>
+      <c r="EV20" s="110"/>
+      <c r="EW20" s="110"/>
+      <c r="EX20" s="110"/>
+      <c r="EY20" s="111"/>
       <c r="EZ20" s="13"/>
       <c r="FA20" s="14"/>
       <c r="FB20" s="14"/>
@@ -6739,13 +6747,15 @@
       <c r="GT20" s="14"/>
       <c r="GU20" s="14"/>
       <c r="GV20" s="14"/>
-      <c r="GW20" s="96"/>
+      <c r="GW20" s="131"/>
     </row>
     <row r="21" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="60"/>
+      <c r="B21" s="66" t="s">
+        <v>27</v>
+      </c>
       <c r="C21" s="12"/>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
@@ -6771,14 +6781,14 @@
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
       <c r="AA21" s="15"/>
-      <c r="AB21" s="107"/>
-      <c r="AC21" s="108"/>
-      <c r="AD21" s="108"/>
-      <c r="AE21" s="108"/>
-      <c r="AF21" s="108"/>
-      <c r="AG21" s="108"/>
-      <c r="AH21" s="108"/>
-      <c r="AI21" s="109"/>
+      <c r="AB21" s="109"/>
+      <c r="AC21" s="110"/>
+      <c r="AD21" s="110"/>
+      <c r="AE21" s="110"/>
+      <c r="AF21" s="110"/>
+      <c r="AG21" s="110"/>
+      <c r="AH21" s="110"/>
+      <c r="AI21" s="111"/>
       <c r="AJ21" s="13"/>
       <c r="AK21" s="14"/>
       <c r="AL21" s="14"/>
@@ -6827,14 +6837,14 @@
       <c r="CC21" s="14"/>
       <c r="CD21" s="14"/>
       <c r="CE21" s="15"/>
-      <c r="CF21" s="107"/>
-      <c r="CG21" s="108"/>
-      <c r="CH21" s="108"/>
-      <c r="CI21" s="108"/>
-      <c r="CJ21" s="108"/>
-      <c r="CK21" s="108"/>
-      <c r="CL21" s="108"/>
-      <c r="CM21" s="109"/>
+      <c r="CF21" s="109"/>
+      <c r="CG21" s="110"/>
+      <c r="CH21" s="110"/>
+      <c r="CI21" s="110"/>
+      <c r="CJ21" s="110"/>
+      <c r="CK21" s="110"/>
+      <c r="CL21" s="110"/>
+      <c r="CM21" s="111"/>
       <c r="CN21" s="13"/>
       <c r="CO21" s="14"/>
       <c r="CP21" s="14"/>
@@ -6863,11 +6873,11 @@
       <c r="DM21" s="14"/>
       <c r="DN21" s="14"/>
       <c r="DO21" s="14"/>
-      <c r="DP21" s="91"/>
-      <c r="DQ21" s="91"/>
+      <c r="DP21" s="90"/>
+      <c r="DQ21" s="90"/>
       <c r="DR21" s="39"/>
       <c r="DS21" s="40"/>
-      <c r="DT21" s="64" t="s">
+      <c r="DT21" s="63" t="s">
         <v>28</v>
       </c>
       <c r="DU21" s="14"/>
@@ -6893,14 +6903,14 @@
       <c r="EO21" s="14"/>
       <c r="EP21" s="14"/>
       <c r="EQ21" s="15"/>
-      <c r="ER21" s="107"/>
-      <c r="ES21" s="108"/>
-      <c r="ET21" s="108"/>
-      <c r="EU21" s="108"/>
-      <c r="EV21" s="108"/>
-      <c r="EW21" s="108"/>
-      <c r="EX21" s="108"/>
-      <c r="EY21" s="109"/>
+      <c r="ER21" s="109"/>
+      <c r="ES21" s="110"/>
+      <c r="ET21" s="110"/>
+      <c r="EU21" s="110"/>
+      <c r="EV21" s="110"/>
+      <c r="EW21" s="110"/>
+      <c r="EX21" s="110"/>
+      <c r="EY21" s="111"/>
       <c r="EZ21" s="13"/>
       <c r="FA21" s="14"/>
       <c r="FB21" s="14"/>
@@ -6950,13 +6960,15 @@
       <c r="GT21" s="14"/>
       <c r="GU21" s="14"/>
       <c r="GV21" s="14"/>
-      <c r="GW21" s="96"/>
+      <c r="GW21" s="131"/>
     </row>
     <row r="22" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="67"/>
+      <c r="B22" s="66" t="s">
+        <v>27</v>
+      </c>
       <c r="C22" s="12"/>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
@@ -6982,14 +6994,14 @@
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
       <c r="AA22" s="15"/>
-      <c r="AB22" s="107"/>
-      <c r="AC22" s="108"/>
-      <c r="AD22" s="108"/>
-      <c r="AE22" s="108"/>
-      <c r="AF22" s="108"/>
-      <c r="AG22" s="108"/>
-      <c r="AH22" s="108"/>
-      <c r="AI22" s="109"/>
+      <c r="AB22" s="109"/>
+      <c r="AC22" s="110"/>
+      <c r="AD22" s="110"/>
+      <c r="AE22" s="110"/>
+      <c r="AF22" s="110"/>
+      <c r="AG22" s="110"/>
+      <c r="AH22" s="110"/>
+      <c r="AI22" s="111"/>
       <c r="AJ22" s="13"/>
       <c r="AK22" s="14"/>
       <c r="AL22" s="14"/>
@@ -7038,14 +7050,14 @@
       <c r="CC22" s="14"/>
       <c r="CD22" s="14"/>
       <c r="CE22" s="15"/>
-      <c r="CF22" s="107"/>
-      <c r="CG22" s="108"/>
-      <c r="CH22" s="108"/>
-      <c r="CI22" s="108"/>
-      <c r="CJ22" s="108"/>
-      <c r="CK22" s="108"/>
-      <c r="CL22" s="108"/>
-      <c r="CM22" s="109"/>
+      <c r="CF22" s="109"/>
+      <c r="CG22" s="110"/>
+      <c r="CH22" s="110"/>
+      <c r="CI22" s="110"/>
+      <c r="CJ22" s="110"/>
+      <c r="CK22" s="110"/>
+      <c r="CL22" s="110"/>
+      <c r="CM22" s="111"/>
       <c r="CN22" s="13"/>
       <c r="CO22" s="14"/>
       <c r="CP22" s="14"/>
@@ -7079,10 +7091,10 @@
       <c r="DR22" s="14"/>
       <c r="DS22" s="15"/>
       <c r="DT22" s="41"/>
-      <c r="DU22" s="91" t="s">
+      <c r="DU22" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="DV22" s="91" t="s">
+      <c r="DV22" s="90" t="s">
         <v>28</v>
       </c>
       <c r="DW22" s="39" t="s">
@@ -7108,14 +7120,14 @@
       <c r="EO22" s="14"/>
       <c r="EP22" s="14"/>
       <c r="EQ22" s="15"/>
-      <c r="ER22" s="107"/>
-      <c r="ES22" s="108"/>
-      <c r="ET22" s="108"/>
-      <c r="EU22" s="108"/>
-      <c r="EV22" s="108"/>
-      <c r="EW22" s="108"/>
-      <c r="EX22" s="108"/>
-      <c r="EY22" s="109"/>
+      <c r="ER22" s="109"/>
+      <c r="ES22" s="110"/>
+      <c r="ET22" s="110"/>
+      <c r="EU22" s="110"/>
+      <c r="EV22" s="110"/>
+      <c r="EW22" s="110"/>
+      <c r="EX22" s="110"/>
+      <c r="EY22" s="111"/>
       <c r="EZ22" s="13"/>
       <c r="FA22" s="14"/>
       <c r="FB22" s="14"/>
@@ -7165,13 +7177,15 @@
       <c r="GT22" s="14"/>
       <c r="GU22" s="14"/>
       <c r="GV22" s="14"/>
-      <c r="GW22" s="96"/>
+      <c r="GW22" s="131"/>
     </row>
     <row r="23" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A23" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="67"/>
+      <c r="A23" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>17</v>
+      </c>
       <c r="C23" s="12"/>
       <c r="D23" s="13"/>
       <c r="E23" s="14"/>
@@ -7197,14 +7211,14 @@
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
       <c r="AA23" s="15"/>
-      <c r="AB23" s="107"/>
-      <c r="AC23" s="108"/>
-      <c r="AD23" s="108"/>
-      <c r="AE23" s="108"/>
-      <c r="AF23" s="108"/>
-      <c r="AG23" s="108"/>
-      <c r="AH23" s="108"/>
-      <c r="AI23" s="109"/>
+      <c r="AB23" s="109"/>
+      <c r="AC23" s="110"/>
+      <c r="AD23" s="110"/>
+      <c r="AE23" s="110"/>
+      <c r="AF23" s="110"/>
+      <c r="AG23" s="110"/>
+      <c r="AH23" s="110"/>
+      <c r="AI23" s="111"/>
       <c r="AJ23" s="13"/>
       <c r="AK23" s="14"/>
       <c r="AL23" s="14"/>
@@ -7253,14 +7267,14 @@
       <c r="CC23" s="14"/>
       <c r="CD23" s="14"/>
       <c r="CE23" s="15"/>
-      <c r="CF23" s="107"/>
-      <c r="CG23" s="108"/>
-      <c r="CH23" s="108"/>
-      <c r="CI23" s="108"/>
-      <c r="CJ23" s="108"/>
-      <c r="CK23" s="108"/>
-      <c r="CL23" s="108"/>
-      <c r="CM23" s="109"/>
+      <c r="CF23" s="109"/>
+      <c r="CG23" s="110"/>
+      <c r="CH23" s="110"/>
+      <c r="CI23" s="110"/>
+      <c r="CJ23" s="110"/>
+      <c r="CK23" s="110"/>
+      <c r="CL23" s="110"/>
+      <c r="CM23" s="111"/>
       <c r="CN23" s="13"/>
       <c r="CO23" s="14"/>
       <c r="CP23" s="14"/>
@@ -7298,9 +7312,9 @@
       <c r="DV23" s="14"/>
       <c r="DW23" s="14"/>
       <c r="DX23" s="39"/>
-      <c r="DY23" s="39"/>
-      <c r="DZ23" s="39"/>
-      <c r="EA23" s="40"/>
+      <c r="DY23" s="90"/>
+      <c r="DZ23" s="14"/>
+      <c r="EA23" s="15"/>
       <c r="EB23" s="13"/>
       <c r="EC23" s="14"/>
       <c r="ED23" s="14"/>
@@ -7317,14 +7331,14 @@
       <c r="EO23" s="14"/>
       <c r="EP23" s="14"/>
       <c r="EQ23" s="15"/>
-      <c r="ER23" s="107"/>
-      <c r="ES23" s="108"/>
-      <c r="ET23" s="108"/>
-      <c r="EU23" s="108"/>
-      <c r="EV23" s="108"/>
-      <c r="EW23" s="108"/>
-      <c r="EX23" s="108"/>
-      <c r="EY23" s="109"/>
+      <c r="ER23" s="109"/>
+      <c r="ES23" s="110"/>
+      <c r="ET23" s="110"/>
+      <c r="EU23" s="110"/>
+      <c r="EV23" s="110"/>
+      <c r="EW23" s="110"/>
+      <c r="EX23" s="110"/>
+      <c r="EY23" s="111"/>
       <c r="EZ23" s="13"/>
       <c r="FA23" s="14"/>
       <c r="FB23" s="14"/>
@@ -7374,13 +7388,13 @@
       <c r="GT23" s="14"/>
       <c r="GU23" s="14"/>
       <c r="GV23" s="14"/>
-      <c r="GW23" s="96"/>
+      <c r="GW23" s="131"/>
     </row>
     <row r="24" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A24" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="67"/>
+      <c r="A24" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="66"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
@@ -7406,14 +7420,14 @@
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
       <c r="AA24" s="15"/>
-      <c r="AB24" s="107"/>
-      <c r="AC24" s="108"/>
-      <c r="AD24" s="108"/>
-      <c r="AE24" s="108"/>
-      <c r="AF24" s="108"/>
-      <c r="AG24" s="108"/>
-      <c r="AH24" s="108"/>
-      <c r="AI24" s="109"/>
+      <c r="AB24" s="109"/>
+      <c r="AC24" s="110"/>
+      <c r="AD24" s="110"/>
+      <c r="AE24" s="110"/>
+      <c r="AF24" s="110"/>
+      <c r="AG24" s="110"/>
+      <c r="AH24" s="110"/>
+      <c r="AI24" s="111"/>
       <c r="AJ24" s="13"/>
       <c r="AK24" s="14"/>
       <c r="AL24" s="14"/>
@@ -7462,14 +7476,14 @@
       <c r="CC24" s="14"/>
       <c r="CD24" s="14"/>
       <c r="CE24" s="15"/>
-      <c r="CF24" s="107"/>
-      <c r="CG24" s="108"/>
-      <c r="CH24" s="108"/>
-      <c r="CI24" s="108"/>
-      <c r="CJ24" s="108"/>
-      <c r="CK24" s="108"/>
-      <c r="CL24" s="108"/>
-      <c r="CM24" s="109"/>
+      <c r="CF24" s="109"/>
+      <c r="CG24" s="110"/>
+      <c r="CH24" s="110"/>
+      <c r="CI24" s="110"/>
+      <c r="CJ24" s="110"/>
+      <c r="CK24" s="110"/>
+      <c r="CL24" s="110"/>
+      <c r="CM24" s="111"/>
       <c r="CN24" s="13"/>
       <c r="CO24" s="14"/>
       <c r="CP24" s="14"/>
@@ -7508,12 +7522,12 @@
       <c r="DW24" s="14"/>
       <c r="DX24" s="14"/>
       <c r="DY24" s="14"/>
-      <c r="DZ24" s="14"/>
-      <c r="EA24" s="15"/>
-      <c r="EB24" s="41"/>
-      <c r="EC24" s="39"/>
-      <c r="ED24" s="39"/>
-      <c r="EE24" s="39"/>
+      <c r="DZ24" s="39"/>
+      <c r="EA24" s="40"/>
+      <c r="EB24" s="13"/>
+      <c r="EC24" s="14"/>
+      <c r="ED24" s="14"/>
+      <c r="EE24" s="14"/>
       <c r="EF24" s="14"/>
       <c r="EG24" s="14"/>
       <c r="EH24" s="14"/>
@@ -7526,14 +7540,14 @@
       <c r="EO24" s="14"/>
       <c r="EP24" s="14"/>
       <c r="EQ24" s="15"/>
-      <c r="ER24" s="107"/>
-      <c r="ES24" s="108"/>
-      <c r="ET24" s="108"/>
-      <c r="EU24" s="108"/>
-      <c r="EV24" s="108"/>
-      <c r="EW24" s="108"/>
-      <c r="EX24" s="108"/>
-      <c r="EY24" s="109"/>
+      <c r="ER24" s="109"/>
+      <c r="ES24" s="110"/>
+      <c r="ET24" s="110"/>
+      <c r="EU24" s="110"/>
+      <c r="EV24" s="110"/>
+      <c r="EW24" s="110"/>
+      <c r="EX24" s="110"/>
+      <c r="EY24" s="111"/>
       <c r="EZ24" s="13"/>
       <c r="FA24" s="14"/>
       <c r="FB24" s="14"/>
@@ -7583,13 +7597,13 @@
       <c r="GT24" s="14"/>
       <c r="GU24" s="14"/>
       <c r="GV24" s="14"/>
-      <c r="GW24" s="96"/>
+      <c r="GW24" s="131"/>
     </row>
     <row r="25" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A25" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="67"/>
+      <c r="A25" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="66"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
@@ -7615,14 +7629,14 @@
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
       <c r="AA25" s="15"/>
-      <c r="AB25" s="107"/>
-      <c r="AC25" s="108"/>
-      <c r="AD25" s="108"/>
-      <c r="AE25" s="108"/>
-      <c r="AF25" s="108"/>
-      <c r="AG25" s="108"/>
-      <c r="AH25" s="108"/>
-      <c r="AI25" s="109"/>
+      <c r="AB25" s="109"/>
+      <c r="AC25" s="110"/>
+      <c r="AD25" s="110"/>
+      <c r="AE25" s="110"/>
+      <c r="AF25" s="110"/>
+      <c r="AG25" s="110"/>
+      <c r="AH25" s="110"/>
+      <c r="AI25" s="111"/>
       <c r="AJ25" s="13"/>
       <c r="AK25" s="14"/>
       <c r="AL25" s="14"/>
@@ -7671,14 +7685,14 @@
       <c r="CC25" s="14"/>
       <c r="CD25" s="14"/>
       <c r="CE25" s="15"/>
-      <c r="CF25" s="107"/>
-      <c r="CG25" s="108"/>
-      <c r="CH25" s="108"/>
-      <c r="CI25" s="108"/>
-      <c r="CJ25" s="108"/>
-      <c r="CK25" s="108"/>
-      <c r="CL25" s="108"/>
-      <c r="CM25" s="109"/>
+      <c r="CF25" s="109"/>
+      <c r="CG25" s="110"/>
+      <c r="CH25" s="110"/>
+      <c r="CI25" s="110"/>
+      <c r="CJ25" s="110"/>
+      <c r="CK25" s="110"/>
+      <c r="CL25" s="110"/>
+      <c r="CM25" s="111"/>
       <c r="CN25" s="13"/>
       <c r="CO25" s="14"/>
       <c r="CP25" s="14"/>
@@ -7719,14 +7733,14 @@
       <c r="DY25" s="14"/>
       <c r="DZ25" s="14"/>
       <c r="EA25" s="15"/>
-      <c r="EB25" s="13"/>
-      <c r="EC25" s="14"/>
-      <c r="ED25" s="14"/>
-      <c r="EE25" s="14"/>
-      <c r="EF25" s="39"/>
-      <c r="EG25" s="39"/>
-      <c r="EH25" s="39"/>
-      <c r="EI25" s="40"/>
+      <c r="EB25" s="41"/>
+      <c r="EC25" s="39"/>
+      <c r="ED25" s="39"/>
+      <c r="EE25" s="39"/>
+      <c r="EF25" s="14"/>
+      <c r="EG25" s="14"/>
+      <c r="EH25" s="14"/>
+      <c r="EI25" s="15"/>
       <c r="EJ25" s="13"/>
       <c r="EK25" s="14"/>
       <c r="EL25" s="14"/>
@@ -7735,14 +7749,14 @@
       <c r="EO25" s="14"/>
       <c r="EP25" s="14"/>
       <c r="EQ25" s="15"/>
-      <c r="ER25" s="107"/>
-      <c r="ES25" s="108"/>
-      <c r="ET25" s="108"/>
-      <c r="EU25" s="108"/>
-      <c r="EV25" s="108"/>
-      <c r="EW25" s="108"/>
-      <c r="EX25" s="108"/>
-      <c r="EY25" s="109"/>
+      <c r="ER25" s="109"/>
+      <c r="ES25" s="110"/>
+      <c r="ET25" s="110"/>
+      <c r="EU25" s="110"/>
+      <c r="EV25" s="110"/>
+      <c r="EW25" s="110"/>
+      <c r="EX25" s="110"/>
+      <c r="EY25" s="111"/>
       <c r="EZ25" s="13"/>
       <c r="FA25" s="14"/>
       <c r="FB25" s="14"/>
@@ -7792,13 +7806,13 @@
       <c r="GT25" s="14"/>
       <c r="GU25" s="14"/>
       <c r="GV25" s="14"/>
-      <c r="GW25" s="96"/>
+      <c r="GW25" s="131"/>
     </row>
     <row r="26" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A26" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="67"/>
+      <c r="A26" s="132" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="66"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
@@ -7824,14 +7838,14 @@
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
       <c r="AA26" s="15"/>
-      <c r="AB26" s="107"/>
-      <c r="AC26" s="108"/>
-      <c r="AD26" s="108"/>
-      <c r="AE26" s="108"/>
-      <c r="AF26" s="108"/>
-      <c r="AG26" s="108"/>
-      <c r="AH26" s="108"/>
-      <c r="AI26" s="109"/>
+      <c r="AB26" s="109"/>
+      <c r="AC26" s="110"/>
+      <c r="AD26" s="110"/>
+      <c r="AE26" s="110"/>
+      <c r="AF26" s="110"/>
+      <c r="AG26" s="110"/>
+      <c r="AH26" s="110"/>
+      <c r="AI26" s="111"/>
       <c r="AJ26" s="13"/>
       <c r="AK26" s="14"/>
       <c r="AL26" s="14"/>
@@ -7880,14 +7894,14 @@
       <c r="CC26" s="14"/>
       <c r="CD26" s="14"/>
       <c r="CE26" s="15"/>
-      <c r="CF26" s="107"/>
-      <c r="CG26" s="108"/>
-      <c r="CH26" s="108"/>
-      <c r="CI26" s="108"/>
-      <c r="CJ26" s="108"/>
-      <c r="CK26" s="108"/>
-      <c r="CL26" s="108"/>
-      <c r="CM26" s="109"/>
+      <c r="CF26" s="109"/>
+      <c r="CG26" s="110"/>
+      <c r="CH26" s="110"/>
+      <c r="CI26" s="110"/>
+      <c r="CJ26" s="110"/>
+      <c r="CK26" s="110"/>
+      <c r="CL26" s="110"/>
+      <c r="CM26" s="111"/>
       <c r="CN26" s="13"/>
       <c r="CO26" s="14"/>
       <c r="CP26" s="14"/>
@@ -7928,30 +7942,30 @@
       <c r="DY26" s="14"/>
       <c r="DZ26" s="14"/>
       <c r="EA26" s="15"/>
-      <c r="EB26" s="13"/>
+      <c r="EB26" s="14"/>
       <c r="EC26" s="14"/>
       <c r="ED26" s="14"/>
       <c r="EE26" s="14"/>
-      <c r="EF26" s="14"/>
-      <c r="EG26" s="14"/>
+      <c r="EF26" s="39"/>
+      <c r="EG26" s="39"/>
       <c r="EH26" s="14"/>
-      <c r="EI26" s="15"/>
-      <c r="EJ26" s="41"/>
-      <c r="EK26" s="39"/>
-      <c r="EL26" s="39"/>
-      <c r="EM26" s="39"/>
-      <c r="EN26" s="57"/>
-      <c r="EO26" s="57"/>
-      <c r="EP26" s="57"/>
-      <c r="EQ26" s="58"/>
-      <c r="ER26" s="107"/>
-      <c r="ES26" s="108"/>
-      <c r="ET26" s="108"/>
-      <c r="EU26" s="108"/>
-      <c r="EV26" s="108"/>
-      <c r="EW26" s="108"/>
-      <c r="EX26" s="108"/>
-      <c r="EY26" s="109"/>
+      <c r="EI26" s="44"/>
+      <c r="EJ26" s="13"/>
+      <c r="EK26" s="14"/>
+      <c r="EL26" s="14"/>
+      <c r="EM26" s="14"/>
+      <c r="EN26" s="14"/>
+      <c r="EO26" s="14"/>
+      <c r="EP26" s="14"/>
+      <c r="EQ26" s="15"/>
+      <c r="ER26" s="109"/>
+      <c r="ES26" s="110"/>
+      <c r="ET26" s="110"/>
+      <c r="EU26" s="110"/>
+      <c r="EV26" s="110"/>
+      <c r="EW26" s="110"/>
+      <c r="EX26" s="110"/>
+      <c r="EY26" s="111"/>
       <c r="EZ26" s="13"/>
       <c r="FA26" s="14"/>
       <c r="FB26" s="14"/>
@@ -8001,13 +8015,13 @@
       <c r="GT26" s="14"/>
       <c r="GU26" s="14"/>
       <c r="GV26" s="14"/>
-      <c r="GW26" s="96"/>
+      <c r="GW26" s="131"/>
     </row>
     <row r="27" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A27" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="67"/>
+      <c r="A27" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="66"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
@@ -8033,14 +8047,14 @@
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
       <c r="AA27" s="15"/>
-      <c r="AB27" s="107"/>
-      <c r="AC27" s="108"/>
-      <c r="AD27" s="108"/>
-      <c r="AE27" s="108"/>
-      <c r="AF27" s="108"/>
-      <c r="AG27" s="108"/>
-      <c r="AH27" s="108"/>
-      <c r="AI27" s="109"/>
+      <c r="AB27" s="109"/>
+      <c r="AC27" s="110"/>
+      <c r="AD27" s="110"/>
+      <c r="AE27" s="110"/>
+      <c r="AF27" s="110"/>
+      <c r="AG27" s="110"/>
+      <c r="AH27" s="110"/>
+      <c r="AI27" s="111"/>
       <c r="AJ27" s="13"/>
       <c r="AK27" s="14"/>
       <c r="AL27" s="14"/>
@@ -8089,14 +8103,14 @@
       <c r="CC27" s="14"/>
       <c r="CD27" s="14"/>
       <c r="CE27" s="15"/>
-      <c r="CF27" s="107"/>
-      <c r="CG27" s="108"/>
-      <c r="CH27" s="108"/>
-      <c r="CI27" s="108"/>
-      <c r="CJ27" s="108"/>
-      <c r="CK27" s="108"/>
-      <c r="CL27" s="108"/>
-      <c r="CM27" s="109"/>
+      <c r="CF27" s="109"/>
+      <c r="CG27" s="110"/>
+      <c r="CH27" s="110"/>
+      <c r="CI27" s="110"/>
+      <c r="CJ27" s="110"/>
+      <c r="CK27" s="110"/>
+      <c r="CL27" s="110"/>
+      <c r="CM27" s="111"/>
       <c r="CN27" s="13"/>
       <c r="CO27" s="14"/>
       <c r="CP27" s="14"/>
@@ -8143,24 +8157,24 @@
       <c r="EE27" s="14"/>
       <c r="EF27" s="14"/>
       <c r="EG27" s="14"/>
-      <c r="EH27" s="14"/>
-      <c r="EI27" s="15"/>
+      <c r="EH27" s="39"/>
+      <c r="EI27" s="39"/>
       <c r="EJ27" s="13"/>
       <c r="EK27" s="14"/>
       <c r="EL27" s="14"/>
       <c r="EM27" s="14"/>
-      <c r="EN27" s="39"/>
-      <c r="EO27" s="39"/>
-      <c r="EP27" s="39"/>
-      <c r="EQ27" s="40"/>
-      <c r="ER27" s="107"/>
-      <c r="ES27" s="108"/>
-      <c r="ET27" s="108"/>
-      <c r="EU27" s="108"/>
-      <c r="EV27" s="108"/>
-      <c r="EW27" s="108"/>
-      <c r="EX27" s="108"/>
-      <c r="EY27" s="109"/>
+      <c r="EN27" s="14"/>
+      <c r="EO27" s="14"/>
+      <c r="EP27" s="14"/>
+      <c r="EQ27" s="15"/>
+      <c r="ER27" s="109"/>
+      <c r="ES27" s="110"/>
+      <c r="ET27" s="110"/>
+      <c r="EU27" s="110"/>
+      <c r="EV27" s="110"/>
+      <c r="EW27" s="110"/>
+      <c r="EX27" s="110"/>
+      <c r="EY27" s="111"/>
       <c r="EZ27" s="13"/>
       <c r="FA27" s="14"/>
       <c r="FB27" s="14"/>
@@ -8210,13 +8224,13 @@
       <c r="GT27" s="14"/>
       <c r="GU27" s="14"/>
       <c r="GV27" s="14"/>
-      <c r="GW27" s="96"/>
+      <c r="GW27" s="131"/>
     </row>
     <row r="28" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A28" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="67"/>
+      <c r="A28" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="66"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
@@ -8242,14 +8256,14 @@
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
       <c r="AA28" s="15"/>
-      <c r="AB28" s="107"/>
-      <c r="AC28" s="108"/>
-      <c r="AD28" s="108"/>
-      <c r="AE28" s="108"/>
-      <c r="AF28" s="108"/>
-      <c r="AG28" s="108"/>
-      <c r="AH28" s="108"/>
-      <c r="AI28" s="109"/>
+      <c r="AB28" s="109"/>
+      <c r="AC28" s="110"/>
+      <c r="AD28" s="110"/>
+      <c r="AE28" s="110"/>
+      <c r="AF28" s="110"/>
+      <c r="AG28" s="110"/>
+      <c r="AH28" s="110"/>
+      <c r="AI28" s="111"/>
       <c r="AJ28" s="13"/>
       <c r="AK28" s="14"/>
       <c r="AL28" s="14"/>
@@ -8298,14 +8312,14 @@
       <c r="CC28" s="14"/>
       <c r="CD28" s="14"/>
       <c r="CE28" s="15"/>
-      <c r="CF28" s="107"/>
-      <c r="CG28" s="108"/>
-      <c r="CH28" s="108"/>
-      <c r="CI28" s="108"/>
-      <c r="CJ28" s="108"/>
-      <c r="CK28" s="108"/>
-      <c r="CL28" s="108"/>
-      <c r="CM28" s="109"/>
+      <c r="CF28" s="109"/>
+      <c r="CG28" s="110"/>
+      <c r="CH28" s="110"/>
+      <c r="CI28" s="110"/>
+      <c r="CJ28" s="110"/>
+      <c r="CK28" s="110"/>
+      <c r="CL28" s="110"/>
+      <c r="CM28" s="111"/>
       <c r="CN28" s="13"/>
       <c r="CO28" s="14"/>
       <c r="CP28" s="14"/>
@@ -8354,26 +8368,26 @@
       <c r="EG28" s="14"/>
       <c r="EH28" s="14"/>
       <c r="EI28" s="15"/>
-      <c r="EJ28" s="13"/>
-      <c r="EK28" s="14"/>
-      <c r="EL28" s="14"/>
-      <c r="EM28" s="14"/>
+      <c r="EJ28" s="41"/>
+      <c r="EK28" s="39"/>
+      <c r="EL28" s="39"/>
+      <c r="EM28" s="39"/>
       <c r="EN28" s="14"/>
       <c r="EO28" s="14"/>
       <c r="EP28" s="14"/>
       <c r="EQ28" s="15"/>
-      <c r="ER28" s="107"/>
-      <c r="ES28" s="108"/>
-      <c r="ET28" s="108"/>
-      <c r="EU28" s="108"/>
-      <c r="EV28" s="108"/>
-      <c r="EW28" s="108"/>
-      <c r="EX28" s="108"/>
-      <c r="EY28" s="109"/>
-      <c r="EZ28" s="41"/>
-      <c r="FA28" s="39"/>
-      <c r="FB28" s="39"/>
-      <c r="FC28" s="39"/>
+      <c r="ER28" s="109"/>
+      <c r="ES28" s="110"/>
+      <c r="ET28" s="110"/>
+      <c r="EU28" s="110"/>
+      <c r="EV28" s="110"/>
+      <c r="EW28" s="110"/>
+      <c r="EX28" s="110"/>
+      <c r="EY28" s="111"/>
+      <c r="EZ28" s="13"/>
+      <c r="FA28" s="14"/>
+      <c r="FB28" s="14"/>
+      <c r="FC28" s="14"/>
       <c r="FD28" s="14"/>
       <c r="FE28" s="14"/>
       <c r="FF28" s="14"/>
@@ -8419,13 +8433,13 @@
       <c r="GT28" s="14"/>
       <c r="GU28" s="14"/>
       <c r="GV28" s="14"/>
-      <c r="GW28" s="96"/>
+      <c r="GW28" s="131"/>
     </row>
     <row r="29" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A29" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="67"/>
+      <c r="A29" s="132" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="66"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="14"/>
@@ -8451,14 +8465,14 @@
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
       <c r="AA29" s="15"/>
-      <c r="AB29" s="107"/>
-      <c r="AC29" s="108"/>
-      <c r="AD29" s="108"/>
-      <c r="AE29" s="108"/>
-      <c r="AF29" s="108"/>
-      <c r="AG29" s="108"/>
-      <c r="AH29" s="108"/>
-      <c r="AI29" s="109"/>
+      <c r="AB29" s="109"/>
+      <c r="AC29" s="110"/>
+      <c r="AD29" s="110"/>
+      <c r="AE29" s="110"/>
+      <c r="AF29" s="110"/>
+      <c r="AG29" s="110"/>
+      <c r="AH29" s="110"/>
+      <c r="AI29" s="111"/>
       <c r="AJ29" s="13"/>
       <c r="AK29" s="14"/>
       <c r="AL29" s="14"/>
@@ -8507,14 +8521,14 @@
       <c r="CC29" s="14"/>
       <c r="CD29" s="14"/>
       <c r="CE29" s="15"/>
-      <c r="CF29" s="107"/>
-      <c r="CG29" s="108"/>
-      <c r="CH29" s="108"/>
-      <c r="CI29" s="108"/>
-      <c r="CJ29" s="108"/>
-      <c r="CK29" s="108"/>
-      <c r="CL29" s="108"/>
-      <c r="CM29" s="109"/>
+      <c r="CF29" s="109"/>
+      <c r="CG29" s="110"/>
+      <c r="CH29" s="110"/>
+      <c r="CI29" s="110"/>
+      <c r="CJ29" s="110"/>
+      <c r="CK29" s="110"/>
+      <c r="CL29" s="110"/>
+      <c r="CM29" s="111"/>
       <c r="CN29" s="13"/>
       <c r="CO29" s="14"/>
       <c r="CP29" s="14"/>
@@ -8567,26 +8581,26 @@
       <c r="EK29" s="14"/>
       <c r="EL29" s="14"/>
       <c r="EM29" s="14"/>
-      <c r="EN29" s="14"/>
-      <c r="EO29" s="14"/>
-      <c r="EP29" s="14"/>
-      <c r="EQ29" s="15"/>
-      <c r="ER29" s="107"/>
-      <c r="ES29" s="108"/>
-      <c r="ET29" s="108"/>
-      <c r="EU29" s="108"/>
-      <c r="EV29" s="108"/>
-      <c r="EW29" s="108"/>
-      <c r="EX29" s="108"/>
-      <c r="EY29" s="109"/>
+      <c r="EN29" s="39"/>
+      <c r="EO29" s="39"/>
+      <c r="EP29" s="39"/>
+      <c r="EQ29" s="40"/>
+      <c r="ER29" s="109"/>
+      <c r="ES29" s="110"/>
+      <c r="ET29" s="110"/>
+      <c r="EU29" s="110"/>
+      <c r="EV29" s="110"/>
+      <c r="EW29" s="110"/>
+      <c r="EX29" s="110"/>
+      <c r="EY29" s="111"/>
       <c r="EZ29" s="13"/>
       <c r="FA29" s="14"/>
       <c r="FB29" s="14"/>
       <c r="FC29" s="14"/>
-      <c r="FD29" s="39"/>
-      <c r="FE29" s="39"/>
-      <c r="FF29" s="39"/>
-      <c r="FG29" s="40"/>
+      <c r="FD29" s="14"/>
+      <c r="FE29" s="14"/>
+      <c r="FF29" s="14"/>
+      <c r="FG29" s="15"/>
       <c r="FH29" s="13"/>
       <c r="FI29" s="14"/>
       <c r="FJ29" s="14"/>
@@ -8628,13 +8642,13 @@
       <c r="GT29" s="14"/>
       <c r="GU29" s="14"/>
       <c r="GV29" s="14"/>
-      <c r="GW29" s="96"/>
+      <c r="GW29" s="131"/>
     </row>
     <row r="30" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A30" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="67"/>
+      <c r="A30" s="132" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="66"/>
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="14"/>
@@ -8660,14 +8674,14 @@
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
       <c r="AA30" s="15"/>
-      <c r="AB30" s="107"/>
-      <c r="AC30" s="108"/>
-      <c r="AD30" s="108"/>
-      <c r="AE30" s="108"/>
-      <c r="AF30" s="108"/>
-      <c r="AG30" s="108"/>
-      <c r="AH30" s="108"/>
-      <c r="AI30" s="109"/>
+      <c r="AB30" s="109"/>
+      <c r="AC30" s="110"/>
+      <c r="AD30" s="110"/>
+      <c r="AE30" s="110"/>
+      <c r="AF30" s="110"/>
+      <c r="AG30" s="110"/>
+      <c r="AH30" s="110"/>
+      <c r="AI30" s="111"/>
       <c r="AJ30" s="13"/>
       <c r="AK30" s="14"/>
       <c r="AL30" s="14"/>
@@ -8716,14 +8730,14 @@
       <c r="CC30" s="14"/>
       <c r="CD30" s="14"/>
       <c r="CE30" s="15"/>
-      <c r="CF30" s="107"/>
-      <c r="CG30" s="108"/>
-      <c r="CH30" s="108"/>
-      <c r="CI30" s="108"/>
-      <c r="CJ30" s="108"/>
-      <c r="CK30" s="108"/>
-      <c r="CL30" s="108"/>
-      <c r="CM30" s="109"/>
+      <c r="CF30" s="109"/>
+      <c r="CG30" s="110"/>
+      <c r="CH30" s="110"/>
+      <c r="CI30" s="110"/>
+      <c r="CJ30" s="110"/>
+      <c r="CK30" s="110"/>
+      <c r="CL30" s="110"/>
+      <c r="CM30" s="111"/>
       <c r="CN30" s="13"/>
       <c r="CO30" s="14"/>
       <c r="CP30" s="14"/>
@@ -8779,27 +8793,27 @@
       <c r="EN30" s="14"/>
       <c r="EO30" s="14"/>
       <c r="EP30" s="14"/>
-      <c r="EQ30" s="15"/>
-      <c r="ER30" s="107"/>
-      <c r="ES30" s="108"/>
-      <c r="ET30" s="108"/>
-      <c r="EU30" s="108"/>
-      <c r="EV30" s="108"/>
-      <c r="EW30" s="108"/>
-      <c r="EX30" s="108"/>
-      <c r="EY30" s="109"/>
-      <c r="EZ30" s="13"/>
-      <c r="FA30" s="14"/>
-      <c r="FB30" s="14"/>
-      <c r="FC30" s="14"/>
+      <c r="EQ30" s="14"/>
+      <c r="ER30" s="109"/>
+      <c r="ES30" s="110"/>
+      <c r="ET30" s="110"/>
+      <c r="EU30" s="110"/>
+      <c r="EV30" s="110"/>
+      <c r="EW30" s="110"/>
+      <c r="EX30" s="110"/>
+      <c r="EY30" s="111"/>
+      <c r="EZ30" s="41"/>
+      <c r="FA30" s="39"/>
+      <c r="FB30" s="39"/>
+      <c r="FC30" s="39"/>
       <c r="FD30" s="14"/>
       <c r="FE30" s="14"/>
       <c r="FF30" s="14"/>
       <c r="FG30" s="15"/>
-      <c r="FH30" s="41"/>
-      <c r="FI30" s="39"/>
-      <c r="FJ30" s="39"/>
-      <c r="FK30" s="39"/>
+      <c r="FH30" s="13"/>
+      <c r="FI30" s="14"/>
+      <c r="FJ30" s="14"/>
+      <c r="FK30" s="14"/>
       <c r="FL30" s="14"/>
       <c r="FM30" s="14"/>
       <c r="FN30" s="14"/>
@@ -8837,13 +8851,13 @@
       <c r="GT30" s="14"/>
       <c r="GU30" s="14"/>
       <c r="GV30" s="14"/>
-      <c r="GW30" s="96"/>
+      <c r="GW30" s="131"/>
     </row>
     <row r="31" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A31" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="67"/>
+      <c r="A31" s="132" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="66"/>
       <c r="C31" s="12"/>
       <c r="D31" s="13"/>
       <c r="E31" s="14"/>
@@ -8869,14 +8883,14 @@
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="15"/>
-      <c r="AB31" s="107"/>
-      <c r="AC31" s="108"/>
-      <c r="AD31" s="108"/>
-      <c r="AE31" s="108"/>
-      <c r="AF31" s="108"/>
-      <c r="AG31" s="108"/>
-      <c r="AH31" s="108"/>
-      <c r="AI31" s="109"/>
+      <c r="AB31" s="109"/>
+      <c r="AC31" s="110"/>
+      <c r="AD31" s="110"/>
+      <c r="AE31" s="110"/>
+      <c r="AF31" s="110"/>
+      <c r="AG31" s="110"/>
+      <c r="AH31" s="110"/>
+      <c r="AI31" s="111"/>
       <c r="AJ31" s="13"/>
       <c r="AK31" s="14"/>
       <c r="AL31" s="14"/>
@@ -8925,14 +8939,14 @@
       <c r="CC31" s="14"/>
       <c r="CD31" s="14"/>
       <c r="CE31" s="15"/>
-      <c r="CF31" s="107"/>
-      <c r="CG31" s="108"/>
-      <c r="CH31" s="108"/>
-      <c r="CI31" s="108"/>
-      <c r="CJ31" s="108"/>
-      <c r="CK31" s="108"/>
-      <c r="CL31" s="108"/>
-      <c r="CM31" s="109"/>
+      <c r="CF31" s="109"/>
+      <c r="CG31" s="110"/>
+      <c r="CH31" s="110"/>
+      <c r="CI31" s="110"/>
+      <c r="CJ31" s="110"/>
+      <c r="CK31" s="110"/>
+      <c r="CL31" s="110"/>
+      <c r="CM31" s="111"/>
       <c r="CN31" s="13"/>
       <c r="CO31" s="14"/>
       <c r="CP31" s="14"/>
@@ -8989,30 +9003,30 @@
       <c r="EO31" s="14"/>
       <c r="EP31" s="14"/>
       <c r="EQ31" s="15"/>
-      <c r="ER31" s="107"/>
-      <c r="ES31" s="108"/>
-      <c r="ET31" s="108"/>
-      <c r="EU31" s="108"/>
-      <c r="EV31" s="108"/>
-      <c r="EW31" s="108"/>
-      <c r="EX31" s="108"/>
-      <c r="EY31" s="109"/>
+      <c r="ER31" s="109"/>
+      <c r="ES31" s="110"/>
+      <c r="ET31" s="110"/>
+      <c r="EU31" s="110"/>
+      <c r="EV31" s="110"/>
+      <c r="EW31" s="110"/>
+      <c r="EX31" s="110"/>
+      <c r="EY31" s="111"/>
       <c r="EZ31" s="13"/>
       <c r="FA31" s="14"/>
       <c r="FB31" s="14"/>
       <c r="FC31" s="14"/>
-      <c r="FD31" s="14"/>
-      <c r="FE31" s="14"/>
-      <c r="FF31" s="14"/>
-      <c r="FG31" s="15"/>
+      <c r="FD31" s="39"/>
+      <c r="FE31" s="39"/>
+      <c r="FF31" s="39"/>
+      <c r="FG31" s="40"/>
       <c r="FH31" s="13"/>
       <c r="FI31" s="14"/>
       <c r="FJ31" s="14"/>
       <c r="FK31" s="14"/>
-      <c r="FL31" s="39"/>
-      <c r="FM31" s="39"/>
-      <c r="FN31" s="39"/>
-      <c r="FO31" s="40"/>
+      <c r="FL31" s="14"/>
+      <c r="FM31" s="14"/>
+      <c r="FN31" s="14"/>
+      <c r="FO31" s="15"/>
       <c r="FP31" s="13"/>
       <c r="FQ31" s="14"/>
       <c r="FR31" s="14"/>
@@ -9046,13 +9060,13 @@
       <c r="GT31" s="14"/>
       <c r="GU31" s="14"/>
       <c r="GV31" s="14"/>
-      <c r="GW31" s="96"/>
+      <c r="GW31" s="131"/>
     </row>
     <row r="32" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A32" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="67"/>
+      <c r="A32" s="132" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="66"/>
       <c r="C32" s="12"/>
       <c r="D32" s="13"/>
       <c r="E32" s="14"/>
@@ -9078,14 +9092,14 @@
       <c r="Y32" s="14"/>
       <c r="Z32" s="14"/>
       <c r="AA32" s="15"/>
-      <c r="AB32" s="107"/>
-      <c r="AC32" s="108"/>
-      <c r="AD32" s="108"/>
-      <c r="AE32" s="108"/>
-      <c r="AF32" s="108"/>
-      <c r="AG32" s="108"/>
-      <c r="AH32" s="108"/>
-      <c r="AI32" s="109"/>
+      <c r="AB32" s="109"/>
+      <c r="AC32" s="110"/>
+      <c r="AD32" s="110"/>
+      <c r="AE32" s="110"/>
+      <c r="AF32" s="110"/>
+      <c r="AG32" s="110"/>
+      <c r="AH32" s="110"/>
+      <c r="AI32" s="111"/>
       <c r="AJ32" s="13"/>
       <c r="AK32" s="14"/>
       <c r="AL32" s="14"/>
@@ -9134,14 +9148,14 @@
       <c r="CC32" s="14"/>
       <c r="CD32" s="14"/>
       <c r="CE32" s="15"/>
-      <c r="CF32" s="107"/>
-      <c r="CG32" s="108"/>
-      <c r="CH32" s="108"/>
-      <c r="CI32" s="108"/>
-      <c r="CJ32" s="108"/>
-      <c r="CK32" s="108"/>
-      <c r="CL32" s="108"/>
-      <c r="CM32" s="109"/>
+      <c r="CF32" s="109"/>
+      <c r="CG32" s="110"/>
+      <c r="CH32" s="110"/>
+      <c r="CI32" s="110"/>
+      <c r="CJ32" s="110"/>
+      <c r="CK32" s="110"/>
+      <c r="CL32" s="110"/>
+      <c r="CM32" s="111"/>
       <c r="CN32" s="13"/>
       <c r="CO32" s="14"/>
       <c r="CP32" s="14"/>
@@ -9198,14 +9212,14 @@
       <c r="EO32" s="14"/>
       <c r="EP32" s="14"/>
       <c r="EQ32" s="15"/>
-      <c r="ER32" s="107"/>
-      <c r="ES32" s="108"/>
-      <c r="ET32" s="108"/>
-      <c r="EU32" s="108"/>
-      <c r="EV32" s="108"/>
-      <c r="EW32" s="108"/>
-      <c r="EX32" s="108"/>
-      <c r="EY32" s="109"/>
+      <c r="ER32" s="109"/>
+      <c r="ES32" s="110"/>
+      <c r="ET32" s="110"/>
+      <c r="EU32" s="110"/>
+      <c r="EV32" s="110"/>
+      <c r="EW32" s="110"/>
+      <c r="EX32" s="110"/>
+      <c r="EY32" s="111"/>
       <c r="EZ32" s="13"/>
       <c r="FA32" s="14"/>
       <c r="FB32" s="14"/>
@@ -9214,18 +9228,18 @@
       <c r="FE32" s="14"/>
       <c r="FF32" s="14"/>
       <c r="FG32" s="15"/>
-      <c r="FH32" s="13"/>
-      <c r="FI32" s="14"/>
-      <c r="FJ32" s="14"/>
-      <c r="FK32" s="14"/>
+      <c r="FH32" s="41"/>
+      <c r="FI32" s="39"/>
+      <c r="FJ32" s="39"/>
+      <c r="FK32" s="39"/>
       <c r="FL32" s="14"/>
       <c r="FM32" s="14"/>
       <c r="FN32" s="14"/>
       <c r="FO32" s="15"/>
-      <c r="FP32" s="41"/>
-      <c r="FQ32" s="39"/>
-      <c r="FR32" s="39"/>
-      <c r="FS32" s="39"/>
+      <c r="FP32" s="13"/>
+      <c r="FQ32" s="14"/>
+      <c r="FR32" s="14"/>
+      <c r="FS32" s="14"/>
       <c r="FT32" s="14"/>
       <c r="FU32" s="14"/>
       <c r="FV32" s="14"/>
@@ -9255,13 +9269,13 @@
       <c r="GT32" s="14"/>
       <c r="GU32" s="14"/>
       <c r="GV32" s="14"/>
-      <c r="GW32" s="96"/>
+      <c r="GW32" s="131"/>
     </row>
     <row r="33" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A33" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="67"/>
+      <c r="A33" s="132" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="66"/>
       <c r="C33" s="12"/>
       <c r="D33" s="13"/>
       <c r="E33" s="14"/>
@@ -9287,14 +9301,14 @@
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
       <c r="AA33" s="15"/>
-      <c r="AB33" s="107"/>
-      <c r="AC33" s="108"/>
-      <c r="AD33" s="108"/>
-      <c r="AE33" s="108"/>
-      <c r="AF33" s="108"/>
-      <c r="AG33" s="108"/>
-      <c r="AH33" s="108"/>
-      <c r="AI33" s="109"/>
+      <c r="AB33" s="109"/>
+      <c r="AC33" s="110"/>
+      <c r="AD33" s="110"/>
+      <c r="AE33" s="110"/>
+      <c r="AF33" s="110"/>
+      <c r="AG33" s="110"/>
+      <c r="AH33" s="110"/>
+      <c r="AI33" s="111"/>
       <c r="AJ33" s="13"/>
       <c r="AK33" s="14"/>
       <c r="AL33" s="14"/>
@@ -9343,14 +9357,14 @@
       <c r="CC33" s="14"/>
       <c r="CD33" s="14"/>
       <c r="CE33" s="15"/>
-      <c r="CF33" s="107"/>
-      <c r="CG33" s="108"/>
-      <c r="CH33" s="108"/>
-      <c r="CI33" s="108"/>
-      <c r="CJ33" s="108"/>
-      <c r="CK33" s="108"/>
-      <c r="CL33" s="108"/>
-      <c r="CM33" s="109"/>
+      <c r="CF33" s="109"/>
+      <c r="CG33" s="110"/>
+      <c r="CH33" s="110"/>
+      <c r="CI33" s="110"/>
+      <c r="CJ33" s="110"/>
+      <c r="CK33" s="110"/>
+      <c r="CL33" s="110"/>
+      <c r="CM33" s="111"/>
       <c r="CN33" s="13"/>
       <c r="CO33" s="14"/>
       <c r="CP33" s="14"/>
@@ -9407,14 +9421,14 @@
       <c r="EO33" s="14"/>
       <c r="EP33" s="14"/>
       <c r="EQ33" s="15"/>
-      <c r="ER33" s="107"/>
-      <c r="ES33" s="108"/>
-      <c r="ET33" s="108"/>
-      <c r="EU33" s="108"/>
-      <c r="EV33" s="108"/>
-      <c r="EW33" s="108"/>
-      <c r="EX33" s="108"/>
-      <c r="EY33" s="109"/>
+      <c r="ER33" s="109"/>
+      <c r="ES33" s="110"/>
+      <c r="ET33" s="110"/>
+      <c r="EU33" s="110"/>
+      <c r="EV33" s="110"/>
+      <c r="EW33" s="110"/>
+      <c r="EX33" s="110"/>
+      <c r="EY33" s="111"/>
       <c r="EZ33" s="13"/>
       <c r="FA33" s="14"/>
       <c r="FB33" s="14"/>
@@ -9427,18 +9441,18 @@
       <c r="FI33" s="14"/>
       <c r="FJ33" s="14"/>
       <c r="FK33" s="14"/>
-      <c r="FL33" s="14"/>
-      <c r="FM33" s="14"/>
-      <c r="FN33" s="14"/>
-      <c r="FO33" s="15"/>
+      <c r="FL33" s="39"/>
+      <c r="FM33" s="39"/>
+      <c r="FN33" s="39"/>
+      <c r="FO33" s="40"/>
       <c r="FP33" s="13"/>
       <c r="FQ33" s="14"/>
       <c r="FR33" s="14"/>
       <c r="FS33" s="14"/>
-      <c r="FT33" s="39"/>
-      <c r="FU33" s="39"/>
-      <c r="FV33" s="39"/>
-      <c r="FW33" s="40"/>
+      <c r="FT33" s="14"/>
+      <c r="FU33" s="14"/>
+      <c r="FV33" s="14"/>
+      <c r="FW33" s="15"/>
       <c r="FX33" s="13"/>
       <c r="FY33" s="14"/>
       <c r="FZ33" s="14"/>
@@ -9464,13 +9478,13 @@
       <c r="GT33" s="14"/>
       <c r="GU33" s="14"/>
       <c r="GV33" s="14"/>
-      <c r="GW33" s="96"/>
+      <c r="GW33" s="131"/>
     </row>
     <row r="34" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A34" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="67"/>
+      <c r="A34" s="132" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="66"/>
       <c r="C34" s="12"/>
       <c r="D34" s="13"/>
       <c r="E34" s="14"/>
@@ -9496,14 +9510,14 @@
       <c r="Y34" s="14"/>
       <c r="Z34" s="14"/>
       <c r="AA34" s="15"/>
-      <c r="AB34" s="107"/>
-      <c r="AC34" s="108"/>
-      <c r="AD34" s="108"/>
-      <c r="AE34" s="108"/>
-      <c r="AF34" s="108"/>
-      <c r="AG34" s="108"/>
-      <c r="AH34" s="108"/>
-      <c r="AI34" s="109"/>
+      <c r="AB34" s="109"/>
+      <c r="AC34" s="110"/>
+      <c r="AD34" s="110"/>
+      <c r="AE34" s="110"/>
+      <c r="AF34" s="110"/>
+      <c r="AG34" s="110"/>
+      <c r="AH34" s="110"/>
+      <c r="AI34" s="111"/>
       <c r="AJ34" s="13"/>
       <c r="AK34" s="14"/>
       <c r="AL34" s="14"/>
@@ -9552,14 +9566,14 @@
       <c r="CC34" s="14"/>
       <c r="CD34" s="14"/>
       <c r="CE34" s="15"/>
-      <c r="CF34" s="107"/>
-      <c r="CG34" s="108"/>
-      <c r="CH34" s="108"/>
-      <c r="CI34" s="108"/>
-      <c r="CJ34" s="108"/>
-      <c r="CK34" s="108"/>
-      <c r="CL34" s="108"/>
-      <c r="CM34" s="109"/>
+      <c r="CF34" s="109"/>
+      <c r="CG34" s="110"/>
+      <c r="CH34" s="110"/>
+      <c r="CI34" s="110"/>
+      <c r="CJ34" s="110"/>
+      <c r="CK34" s="110"/>
+      <c r="CL34" s="110"/>
+      <c r="CM34" s="111"/>
       <c r="CN34" s="13"/>
       <c r="CO34" s="14"/>
       <c r="CP34" s="14"/>
@@ -9616,14 +9630,14 @@
       <c r="EO34" s="14"/>
       <c r="EP34" s="14"/>
       <c r="EQ34" s="15"/>
-      <c r="ER34" s="107"/>
-      <c r="ES34" s="108"/>
-      <c r="ET34" s="108"/>
-      <c r="EU34" s="108"/>
-      <c r="EV34" s="108"/>
-      <c r="EW34" s="108"/>
-      <c r="EX34" s="108"/>
-      <c r="EY34" s="109"/>
+      <c r="ER34" s="109"/>
+      <c r="ES34" s="110"/>
+      <c r="ET34" s="110"/>
+      <c r="EU34" s="110"/>
+      <c r="EV34" s="110"/>
+      <c r="EW34" s="110"/>
+      <c r="EX34" s="110"/>
+      <c r="EY34" s="111"/>
       <c r="EZ34" s="13"/>
       <c r="FA34" s="14"/>
       <c r="FB34" s="14"/>
@@ -9640,18 +9654,18 @@
       <c r="FM34" s="14"/>
       <c r="FN34" s="14"/>
       <c r="FO34" s="15"/>
-      <c r="FP34" s="13"/>
-      <c r="FQ34" s="14"/>
-      <c r="FR34" s="14"/>
-      <c r="FS34" s="14"/>
+      <c r="FP34" s="41"/>
+      <c r="FQ34" s="39"/>
+      <c r="FR34" s="39"/>
+      <c r="FS34" s="39"/>
       <c r="FT34" s="14"/>
       <c r="FU34" s="14"/>
       <c r="FV34" s="14"/>
       <c r="FW34" s="15"/>
-      <c r="FX34" s="41"/>
-      <c r="FY34" s="39"/>
-      <c r="FZ34" s="39"/>
-      <c r="GA34" s="39"/>
+      <c r="FX34" s="13"/>
+      <c r="FY34" s="14"/>
+      <c r="FZ34" s="14"/>
+      <c r="GA34" s="14"/>
       <c r="GB34" s="14"/>
       <c r="GC34" s="14"/>
       <c r="GD34" s="14"/>
@@ -9673,13 +9687,13 @@
       <c r="GT34" s="14"/>
       <c r="GU34" s="14"/>
       <c r="GV34" s="14"/>
-      <c r="GW34" s="96"/>
+      <c r="GW34" s="131"/>
     </row>
     <row r="35" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A35" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="67"/>
+      <c r="A35" s="132" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="66"/>
       <c r="C35" s="12"/>
       <c r="D35" s="13"/>
       <c r="E35" s="14"/>
@@ -9705,14 +9719,14 @@
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
       <c r="AA35" s="15"/>
-      <c r="AB35" s="107"/>
-      <c r="AC35" s="108"/>
-      <c r="AD35" s="108"/>
-      <c r="AE35" s="108"/>
-      <c r="AF35" s="108"/>
-      <c r="AG35" s="108"/>
-      <c r="AH35" s="108"/>
-      <c r="AI35" s="109"/>
+      <c r="AB35" s="109"/>
+      <c r="AC35" s="110"/>
+      <c r="AD35" s="110"/>
+      <c r="AE35" s="110"/>
+      <c r="AF35" s="110"/>
+      <c r="AG35" s="110"/>
+      <c r="AH35" s="110"/>
+      <c r="AI35" s="111"/>
       <c r="AJ35" s="13"/>
       <c r="AK35" s="14"/>
       <c r="AL35" s="14"/>
@@ -9761,14 +9775,14 @@
       <c r="CC35" s="14"/>
       <c r="CD35" s="14"/>
       <c r="CE35" s="15"/>
-      <c r="CF35" s="107"/>
-      <c r="CG35" s="108"/>
-      <c r="CH35" s="108"/>
-      <c r="CI35" s="108"/>
-      <c r="CJ35" s="108"/>
-      <c r="CK35" s="108"/>
-      <c r="CL35" s="108"/>
-      <c r="CM35" s="109"/>
+      <c r="CF35" s="109"/>
+      <c r="CG35" s="110"/>
+      <c r="CH35" s="110"/>
+      <c r="CI35" s="110"/>
+      <c r="CJ35" s="110"/>
+      <c r="CK35" s="110"/>
+      <c r="CL35" s="110"/>
+      <c r="CM35" s="111"/>
       <c r="CN35" s="13"/>
       <c r="CO35" s="14"/>
       <c r="CP35" s="14"/>
@@ -9825,14 +9839,14 @@
       <c r="EO35" s="14"/>
       <c r="EP35" s="14"/>
       <c r="EQ35" s="15"/>
-      <c r="ER35" s="107"/>
-      <c r="ES35" s="108"/>
-      <c r="ET35" s="108"/>
-      <c r="EU35" s="108"/>
-      <c r="EV35" s="108"/>
-      <c r="EW35" s="108"/>
-      <c r="EX35" s="108"/>
-      <c r="EY35" s="109"/>
+      <c r="ER35" s="109"/>
+      <c r="ES35" s="110"/>
+      <c r="ET35" s="110"/>
+      <c r="EU35" s="110"/>
+      <c r="EV35" s="110"/>
+      <c r="EW35" s="110"/>
+      <c r="EX35" s="110"/>
+      <c r="EY35" s="111"/>
       <c r="EZ35" s="13"/>
       <c r="FA35" s="14"/>
       <c r="FB35" s="14"/>
@@ -9853,18 +9867,18 @@
       <c r="FQ35" s="14"/>
       <c r="FR35" s="14"/>
       <c r="FS35" s="14"/>
-      <c r="FT35" s="14"/>
-      <c r="FU35" s="14"/>
-      <c r="FV35" s="14"/>
-      <c r="FW35" s="15"/>
+      <c r="FT35" s="39"/>
+      <c r="FU35" s="39"/>
+      <c r="FV35" s="39"/>
+      <c r="FW35" s="40"/>
       <c r="FX35" s="13"/>
       <c r="FY35" s="14"/>
       <c r="FZ35" s="14"/>
       <c r="GA35" s="14"/>
-      <c r="GB35" s="39"/>
-      <c r="GC35" s="39"/>
-      <c r="GD35" s="39"/>
-      <c r="GE35" s="40"/>
+      <c r="GB35" s="14"/>
+      <c r="GC35" s="14"/>
+      <c r="GD35" s="14"/>
+      <c r="GE35" s="15"/>
       <c r="GF35" s="13"/>
       <c r="GG35" s="14"/>
       <c r="GH35" s="14"/>
@@ -9882,11 +9896,11 @@
       <c r="GT35" s="14"/>
       <c r="GU35" s="14"/>
       <c r="GV35" s="14"/>
-      <c r="GW35" s="96"/>
+      <c r="GW35" s="131"/>
     </row>
-    <row r="36" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="73" t="s">
-        <v>51</v>
+    <row r="36" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A36" s="132" t="s">
+        <v>53</v>
       </c>
       <c r="B36" s="66"/>
       <c r="C36" s="12"/>
@@ -9914,14 +9928,14 @@
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
       <c r="AA36" s="15"/>
-      <c r="AB36" s="107"/>
-      <c r="AC36" s="108"/>
-      <c r="AD36" s="108"/>
-      <c r="AE36" s="108"/>
-      <c r="AF36" s="108"/>
-      <c r="AG36" s="108"/>
-      <c r="AH36" s="108"/>
-      <c r="AI36" s="109"/>
+      <c r="AB36" s="109"/>
+      <c r="AC36" s="110"/>
+      <c r="AD36" s="110"/>
+      <c r="AE36" s="110"/>
+      <c r="AF36" s="110"/>
+      <c r="AG36" s="110"/>
+      <c r="AH36" s="110"/>
+      <c r="AI36" s="111"/>
       <c r="AJ36" s="13"/>
       <c r="AK36" s="14"/>
       <c r="AL36" s="14"/>
@@ -9970,14 +9984,14 @@
       <c r="CC36" s="14"/>
       <c r="CD36" s="14"/>
       <c r="CE36" s="15"/>
-      <c r="CF36" s="107"/>
-      <c r="CG36" s="108"/>
-      <c r="CH36" s="108"/>
-      <c r="CI36" s="108"/>
-      <c r="CJ36" s="108"/>
-      <c r="CK36" s="108"/>
-      <c r="CL36" s="108"/>
-      <c r="CM36" s="109"/>
+      <c r="CF36" s="109"/>
+      <c r="CG36" s="110"/>
+      <c r="CH36" s="110"/>
+      <c r="CI36" s="110"/>
+      <c r="CJ36" s="110"/>
+      <c r="CK36" s="110"/>
+      <c r="CL36" s="110"/>
+      <c r="CM36" s="111"/>
       <c r="CN36" s="13"/>
       <c r="CO36" s="14"/>
       <c r="CP36" s="14"/>
@@ -10034,14 +10048,14 @@
       <c r="EO36" s="14"/>
       <c r="EP36" s="14"/>
       <c r="EQ36" s="15"/>
-      <c r="ER36" s="107"/>
-      <c r="ES36" s="108"/>
-      <c r="ET36" s="108"/>
-      <c r="EU36" s="108"/>
-      <c r="EV36" s="108"/>
-      <c r="EW36" s="108"/>
-      <c r="EX36" s="108"/>
-      <c r="EY36" s="109"/>
+      <c r="ER36" s="109"/>
+      <c r="ES36" s="110"/>
+      <c r="ET36" s="110"/>
+      <c r="EU36" s="110"/>
+      <c r="EV36" s="110"/>
+      <c r="EW36" s="110"/>
+      <c r="EX36" s="110"/>
+      <c r="EY36" s="111"/>
       <c r="EZ36" s="13"/>
       <c r="FA36" s="14"/>
       <c r="FB36" s="14"/>
@@ -10066,18 +10080,18 @@
       <c r="FU36" s="14"/>
       <c r="FV36" s="14"/>
       <c r="FW36" s="15"/>
-      <c r="FX36" s="13"/>
-      <c r="FY36" s="14"/>
-      <c r="FZ36" s="14"/>
-      <c r="GA36" s="14"/>
+      <c r="FX36" s="41"/>
+      <c r="FY36" s="39"/>
+      <c r="FZ36" s="39"/>
+      <c r="GA36" s="39"/>
       <c r="GB36" s="14"/>
       <c r="GC36" s="14"/>
       <c r="GD36" s="14"/>
       <c r="GE36" s="15"/>
-      <c r="GF36" s="41"/>
-      <c r="GG36" s="39"/>
-      <c r="GH36" s="39"/>
-      <c r="GI36" s="39"/>
+      <c r="GF36" s="13"/>
+      <c r="GG36" s="14"/>
+      <c r="GH36" s="14"/>
+      <c r="GI36" s="14"/>
       <c r="GJ36" s="14"/>
       <c r="GK36" s="14"/>
       <c r="GL36" s="14"/>
@@ -10091,14 +10105,14 @@
       <c r="GT36" s="14"/>
       <c r="GU36" s="14"/>
       <c r="GV36" s="14"/>
-      <c r="GW36" s="96"/>
+      <c r="GW36" s="131"/>
     </row>
-    <row r="37" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="130"/>
-      <c r="C37" s="61"/>
+    <row r="37" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A37" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="66"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="13"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -10123,14 +10137,14 @@
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
       <c r="AA37" s="15"/>
-      <c r="AB37" s="107"/>
-      <c r="AC37" s="108"/>
-      <c r="AD37" s="108"/>
-      <c r="AE37" s="108"/>
-      <c r="AF37" s="108"/>
-      <c r="AG37" s="108"/>
-      <c r="AH37" s="108"/>
-      <c r="AI37" s="109"/>
+      <c r="AB37" s="109"/>
+      <c r="AC37" s="110"/>
+      <c r="AD37" s="110"/>
+      <c r="AE37" s="110"/>
+      <c r="AF37" s="110"/>
+      <c r="AG37" s="110"/>
+      <c r="AH37" s="110"/>
+      <c r="AI37" s="111"/>
       <c r="AJ37" s="13"/>
       <c r="AK37" s="14"/>
       <c r="AL37" s="14"/>
@@ -10179,14 +10193,14 @@
       <c r="CC37" s="14"/>
       <c r="CD37" s="14"/>
       <c r="CE37" s="15"/>
-      <c r="CF37" s="107"/>
-      <c r="CG37" s="108"/>
-      <c r="CH37" s="108"/>
-      <c r="CI37" s="108"/>
-      <c r="CJ37" s="108"/>
-      <c r="CK37" s="108"/>
-      <c r="CL37" s="108"/>
-      <c r="CM37" s="109"/>
+      <c r="CF37" s="109"/>
+      <c r="CG37" s="110"/>
+      <c r="CH37" s="110"/>
+      <c r="CI37" s="110"/>
+      <c r="CJ37" s="110"/>
+      <c r="CK37" s="110"/>
+      <c r="CL37" s="110"/>
+      <c r="CM37" s="111"/>
       <c r="CN37" s="13"/>
       <c r="CO37" s="14"/>
       <c r="CP37" s="14"/>
@@ -10243,14 +10257,14 @@
       <c r="EO37" s="14"/>
       <c r="EP37" s="14"/>
       <c r="EQ37" s="15"/>
-      <c r="ER37" s="107"/>
-      <c r="ES37" s="108"/>
-      <c r="ET37" s="108"/>
-      <c r="EU37" s="108"/>
-      <c r="EV37" s="108"/>
-      <c r="EW37" s="108"/>
-      <c r="EX37" s="108"/>
-      <c r="EY37" s="109"/>
+      <c r="ER37" s="109"/>
+      <c r="ES37" s="110"/>
+      <c r="ET37" s="110"/>
+      <c r="EU37" s="110"/>
+      <c r="EV37" s="110"/>
+      <c r="EW37" s="110"/>
+      <c r="EX37" s="110"/>
+      <c r="EY37" s="111"/>
       <c r="EZ37" s="13"/>
       <c r="FA37" s="14"/>
       <c r="FB37" s="14"/>
@@ -10279,15 +10293,15 @@
       <c r="FY37" s="14"/>
       <c r="FZ37" s="14"/>
       <c r="GA37" s="14"/>
-      <c r="GB37" s="14"/>
-      <c r="GC37" s="14"/>
-      <c r="GD37" s="84"/>
-      <c r="GE37" s="85"/>
-      <c r="GF37" s="86"/>
-      <c r="GG37" s="84"/>
-      <c r="GH37" s="84"/>
-      <c r="GI37" s="84"/>
-      <c r="GJ37" s="84"/>
+      <c r="GB37" s="39"/>
+      <c r="GC37" s="39"/>
+      <c r="GD37" s="39"/>
+      <c r="GE37" s="40"/>
+      <c r="GF37" s="13"/>
+      <c r="GG37" s="14"/>
+      <c r="GH37" s="14"/>
+      <c r="GI37" s="14"/>
+      <c r="GJ37" s="14"/>
       <c r="GK37" s="14"/>
       <c r="GL37" s="14"/>
       <c r="GM37" s="44"/>
@@ -10300,13 +10314,13 @@
       <c r="GT37" s="14"/>
       <c r="GU37" s="14"/>
       <c r="GV37" s="14"/>
-      <c r="GW37" s="96"/>
+      <c r="GW37" s="131"/>
     </row>
     <row r="38" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="70"/>
+      <c r="A38" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="65"/>
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
       <c r="E38" s="14"/>
@@ -10332,14 +10346,14 @@
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
       <c r="AA38" s="15"/>
-      <c r="AB38" s="107"/>
-      <c r="AC38" s="108"/>
-      <c r="AD38" s="108"/>
-      <c r="AE38" s="108"/>
-      <c r="AF38" s="108"/>
-      <c r="AG38" s="108"/>
-      <c r="AH38" s="108"/>
-      <c r="AI38" s="109"/>
+      <c r="AB38" s="109"/>
+      <c r="AC38" s="110"/>
+      <c r="AD38" s="110"/>
+      <c r="AE38" s="110"/>
+      <c r="AF38" s="110"/>
+      <c r="AG38" s="110"/>
+      <c r="AH38" s="110"/>
+      <c r="AI38" s="111"/>
       <c r="AJ38" s="13"/>
       <c r="AK38" s="14"/>
       <c r="AL38" s="14"/>
@@ -10388,14 +10402,14 @@
       <c r="CC38" s="14"/>
       <c r="CD38" s="14"/>
       <c r="CE38" s="15"/>
-      <c r="CF38" s="107"/>
-      <c r="CG38" s="108"/>
-      <c r="CH38" s="108"/>
-      <c r="CI38" s="108"/>
-      <c r="CJ38" s="108"/>
-      <c r="CK38" s="108"/>
-      <c r="CL38" s="108"/>
-      <c r="CM38" s="109"/>
+      <c r="CF38" s="109"/>
+      <c r="CG38" s="110"/>
+      <c r="CH38" s="110"/>
+      <c r="CI38" s="110"/>
+      <c r="CJ38" s="110"/>
+      <c r="CK38" s="110"/>
+      <c r="CL38" s="110"/>
+      <c r="CM38" s="111"/>
       <c r="CN38" s="13"/>
       <c r="CO38" s="14"/>
       <c r="CP38" s="14"/>
@@ -10424,9 +10438,7 @@
       <c r="DM38" s="14"/>
       <c r="DN38" s="14"/>
       <c r="DO38" s="14"/>
-      <c r="DP38" s="32" t="s">
-        <v>28</v>
-      </c>
+      <c r="DP38" s="14"/>
       <c r="DQ38" s="14"/>
       <c r="DR38" s="14"/>
       <c r="DS38" s="15"/>
@@ -10454,14 +10466,14 @@
       <c r="EO38" s="14"/>
       <c r="EP38" s="14"/>
       <c r="EQ38" s="15"/>
-      <c r="ER38" s="107"/>
-      <c r="ES38" s="108"/>
-      <c r="ET38" s="108"/>
-      <c r="EU38" s="108"/>
-      <c r="EV38" s="108"/>
-      <c r="EW38" s="108"/>
-      <c r="EX38" s="108"/>
-      <c r="EY38" s="109"/>
+      <c r="ER38" s="109"/>
+      <c r="ES38" s="110"/>
+      <c r="ET38" s="110"/>
+      <c r="EU38" s="110"/>
+      <c r="EV38" s="110"/>
+      <c r="EW38" s="110"/>
+      <c r="EX38" s="110"/>
+      <c r="EY38" s="111"/>
       <c r="EZ38" s="13"/>
       <c r="FA38" s="14"/>
       <c r="FB38" s="14"/>
@@ -10494,14 +10506,14 @@
       <c r="GC38" s="14"/>
       <c r="GD38" s="14"/>
       <c r="GE38" s="15"/>
-      <c r="GF38" s="13"/>
-      <c r="GG38" s="14"/>
-      <c r="GH38" s="14"/>
-      <c r="GI38" s="14"/>
-      <c r="GJ38" s="43"/>
-      <c r="GK38" s="43"/>
-      <c r="GL38" s="43"/>
-      <c r="GM38" s="59"/>
+      <c r="GF38" s="41"/>
+      <c r="GG38" s="39"/>
+      <c r="GH38" s="39"/>
+      <c r="GI38" s="39"/>
+      <c r="GJ38" s="14"/>
+      <c r="GK38" s="14"/>
+      <c r="GL38" s="14"/>
+      <c r="GM38" s="44"/>
       <c r="GN38" s="52"/>
       <c r="GO38" s="47"/>
       <c r="GP38" s="14"/>
@@ -10511,14 +10523,14 @@
       <c r="GT38" s="14"/>
       <c r="GU38" s="14"/>
       <c r="GV38" s="14"/>
-      <c r="GW38" s="96"/>
+      <c r="GW38" s="131"/>
     </row>
     <row r="39" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="131" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="132"/>
-      <c r="C39" s="61"/>
+      <c r="A39" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="103"/>
+      <c r="C39" s="60"/>
       <c r="D39" s="13"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -10543,14 +10555,14 @@
       <c r="Y39" s="14"/>
       <c r="Z39" s="14"/>
       <c r="AA39" s="15"/>
-      <c r="AB39" s="107"/>
-      <c r="AC39" s="108"/>
-      <c r="AD39" s="108"/>
-      <c r="AE39" s="108"/>
-      <c r="AF39" s="108"/>
-      <c r="AG39" s="108"/>
-      <c r="AH39" s="108"/>
-      <c r="AI39" s="109"/>
+      <c r="AB39" s="109"/>
+      <c r="AC39" s="110"/>
+      <c r="AD39" s="110"/>
+      <c r="AE39" s="110"/>
+      <c r="AF39" s="110"/>
+      <c r="AG39" s="110"/>
+      <c r="AH39" s="110"/>
+      <c r="AI39" s="111"/>
       <c r="AJ39" s="13"/>
       <c r="AK39" s="14"/>
       <c r="AL39" s="14"/>
@@ -10599,14 +10611,14 @@
       <c r="CC39" s="14"/>
       <c r="CD39" s="14"/>
       <c r="CE39" s="15"/>
-      <c r="CF39" s="107"/>
-      <c r="CG39" s="108"/>
-      <c r="CH39" s="108"/>
-      <c r="CI39" s="108"/>
-      <c r="CJ39" s="108"/>
-      <c r="CK39" s="108"/>
-      <c r="CL39" s="108"/>
-      <c r="CM39" s="109"/>
+      <c r="CF39" s="109"/>
+      <c r="CG39" s="110"/>
+      <c r="CH39" s="110"/>
+      <c r="CI39" s="110"/>
+      <c r="CJ39" s="110"/>
+      <c r="CK39" s="110"/>
+      <c r="CL39" s="110"/>
+      <c r="CM39" s="111"/>
       <c r="CN39" s="13"/>
       <c r="CO39" s="14"/>
       <c r="CP39" s="14"/>
@@ -10663,14 +10675,14 @@
       <c r="EO39" s="14"/>
       <c r="EP39" s="14"/>
       <c r="EQ39" s="15"/>
-      <c r="ER39" s="107"/>
-      <c r="ES39" s="108"/>
-      <c r="ET39" s="108"/>
-      <c r="EU39" s="108"/>
-      <c r="EV39" s="108"/>
-      <c r="EW39" s="108"/>
-      <c r="EX39" s="108"/>
-      <c r="EY39" s="109"/>
+      <c r="ER39" s="109"/>
+      <c r="ES39" s="110"/>
+      <c r="ET39" s="110"/>
+      <c r="EU39" s="110"/>
+      <c r="EV39" s="110"/>
+      <c r="EW39" s="110"/>
+      <c r="EX39" s="110"/>
+      <c r="EY39" s="111"/>
       <c r="EZ39" s="13"/>
       <c r="FA39" s="14"/>
       <c r="FB39" s="14"/>
@@ -10701,16 +10713,16 @@
       <c r="GA39" s="14"/>
       <c r="GB39" s="14"/>
       <c r="GC39" s="14"/>
-      <c r="GD39" s="14"/>
-      <c r="GE39" s="15"/>
-      <c r="GF39" s="13"/>
-      <c r="GG39" s="14"/>
-      <c r="GH39" s="14"/>
-      <c r="GI39" s="14"/>
-      <c r="GJ39" s="84"/>
-      <c r="GK39" s="84"/>
-      <c r="GL39" s="84"/>
-      <c r="GM39" s="87"/>
+      <c r="GD39" s="83"/>
+      <c r="GE39" s="84"/>
+      <c r="GF39" s="85"/>
+      <c r="GG39" s="83"/>
+      <c r="GH39" s="83"/>
+      <c r="GI39" s="83"/>
+      <c r="GJ39" s="83"/>
+      <c r="GK39" s="14"/>
+      <c r="GL39" s="14"/>
+      <c r="GM39" s="44"/>
       <c r="GN39" s="52"/>
       <c r="GO39" s="47"/>
       <c r="GP39" s="14"/>
@@ -10720,13 +10732,13 @@
       <c r="GT39" s="14"/>
       <c r="GU39" s="14"/>
       <c r="GV39" s="14"/>
-      <c r="GW39" s="96"/>
+      <c r="GW39" s="131"/>
     </row>
-    <row r="40" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A40" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="60"/>
+    <row r="40" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="69"/>
       <c r="C40" s="12"/>
       <c r="D40" s="13"/>
       <c r="E40" s="14"/>
@@ -10752,14 +10764,14 @@
       <c r="Y40" s="14"/>
       <c r="Z40" s="14"/>
       <c r="AA40" s="15"/>
-      <c r="AB40" s="107"/>
-      <c r="AC40" s="108"/>
-      <c r="AD40" s="108"/>
-      <c r="AE40" s="108"/>
-      <c r="AF40" s="108"/>
-      <c r="AG40" s="108"/>
-      <c r="AH40" s="108"/>
-      <c r="AI40" s="109"/>
+      <c r="AB40" s="109"/>
+      <c r="AC40" s="110"/>
+      <c r="AD40" s="110"/>
+      <c r="AE40" s="110"/>
+      <c r="AF40" s="110"/>
+      <c r="AG40" s="110"/>
+      <c r="AH40" s="110"/>
+      <c r="AI40" s="111"/>
       <c r="AJ40" s="13"/>
       <c r="AK40" s="14"/>
       <c r="AL40" s="14"/>
@@ -10808,14 +10820,14 @@
       <c r="CC40" s="14"/>
       <c r="CD40" s="14"/>
       <c r="CE40" s="15"/>
-      <c r="CF40" s="107"/>
-      <c r="CG40" s="108"/>
-      <c r="CH40" s="108"/>
-      <c r="CI40" s="108"/>
-      <c r="CJ40" s="108"/>
-      <c r="CK40" s="108"/>
-      <c r="CL40" s="108"/>
-      <c r="CM40" s="109"/>
+      <c r="CF40" s="109"/>
+      <c r="CG40" s="110"/>
+      <c r="CH40" s="110"/>
+      <c r="CI40" s="110"/>
+      <c r="CJ40" s="110"/>
+      <c r="CK40" s="110"/>
+      <c r="CL40" s="110"/>
+      <c r="CM40" s="111"/>
       <c r="CN40" s="13"/>
       <c r="CO40" s="14"/>
       <c r="CP40" s="14"/>
@@ -10826,9 +10838,7 @@
       <c r="CU40" s="15"/>
       <c r="CV40" s="13"/>
       <c r="CW40" s="14"/>
-      <c r="CX40" s="42" t="s">
-        <v>28</v>
-      </c>
+      <c r="CX40" s="14"/>
       <c r="CY40" s="14"/>
       <c r="CZ40" s="14"/>
       <c r="DA40" s="14"/>
@@ -10846,7 +10856,9 @@
       <c r="DM40" s="14"/>
       <c r="DN40" s="14"/>
       <c r="DO40" s="14"/>
-      <c r="DP40" s="14"/>
+      <c r="DP40" s="32" t="s">
+        <v>28</v>
+      </c>
       <c r="DQ40" s="14"/>
       <c r="DR40" s="14"/>
       <c r="DS40" s="15"/>
@@ -10861,7 +10873,7 @@
       <c r="EB40" s="13"/>
       <c r="EC40" s="14"/>
       <c r="ED40" s="14"/>
-      <c r="EE40" s="42"/>
+      <c r="EE40" s="14"/>
       <c r="EF40" s="14"/>
       <c r="EG40" s="14"/>
       <c r="EH40" s="14"/>
@@ -10874,14 +10886,14 @@
       <c r="EO40" s="14"/>
       <c r="EP40" s="14"/>
       <c r="EQ40" s="15"/>
-      <c r="ER40" s="107"/>
-      <c r="ES40" s="108"/>
-      <c r="ET40" s="108"/>
-      <c r="EU40" s="108"/>
-      <c r="EV40" s="108"/>
-      <c r="EW40" s="108"/>
-      <c r="EX40" s="108"/>
-      <c r="EY40" s="109"/>
+      <c r="ER40" s="109"/>
+      <c r="ES40" s="110"/>
+      <c r="ET40" s="110"/>
+      <c r="EU40" s="110"/>
+      <c r="EV40" s="110"/>
+      <c r="EW40" s="110"/>
+      <c r="EX40" s="110"/>
+      <c r="EY40" s="111"/>
       <c r="EZ40" s="13"/>
       <c r="FA40" s="14"/>
       <c r="FB40" s="14"/>
@@ -10918,490 +10930,873 @@
       <c r="GG40" s="14"/>
       <c r="GH40" s="14"/>
       <c r="GI40" s="14"/>
-      <c r="GJ40" s="14"/>
-      <c r="GK40" s="14"/>
-      <c r="GL40" s="14"/>
-      <c r="GM40" s="44"/>
+      <c r="GJ40" s="43"/>
+      <c r="GK40" s="43"/>
+      <c r="GL40" s="43"/>
+      <c r="GM40" s="58"/>
       <c r="GN40" s="52"/>
-      <c r="GO40" s="54"/>
-      <c r="GP40" s="42"/>
-      <c r="GQ40" s="42"/>
-      <c r="GR40" s="42"/>
+      <c r="GO40" s="47"/>
+      <c r="GP40" s="14"/>
+      <c r="GQ40" s="14"/>
+      <c r="GR40" s="14"/>
       <c r="GS40" s="13"/>
       <c r="GT40" s="14"/>
       <c r="GU40" s="14"/>
       <c r="GV40" s="14"/>
-      <c r="GW40" s="96"/>
+      <c r="GW40" s="131"/>
     </row>
-    <row r="41" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="116" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="117"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="117"/>
-      <c r="K41" s="117"/>
-      <c r="L41" s="117"/>
-      <c r="M41" s="117"/>
-      <c r="N41" s="117"/>
-      <c r="O41" s="117"/>
-      <c r="P41" s="117"/>
-      <c r="Q41" s="117"/>
-      <c r="R41" s="117"/>
-      <c r="S41" s="117"/>
-      <c r="T41" s="117"/>
-      <c r="U41" s="117"/>
-      <c r="V41" s="117"/>
-      <c r="W41" s="117"/>
-      <c r="X41" s="117"/>
-      <c r="Y41" s="117"/>
-      <c r="Z41" s="117"/>
-      <c r="AA41" s="118"/>
-      <c r="AB41" s="110"/>
-      <c r="AC41" s="111"/>
-      <c r="AD41" s="111"/>
-      <c r="AE41" s="111"/>
-      <c r="AF41" s="111"/>
-      <c r="AG41" s="111"/>
-      <c r="AH41" s="111"/>
-      <c r="AI41" s="112"/>
-      <c r="AJ41" s="116" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK41" s="119"/>
-      <c r="AL41" s="119"/>
-      <c r="AM41" s="119"/>
-      <c r="AN41" s="119"/>
-      <c r="AO41" s="119"/>
-      <c r="AP41" s="119"/>
-      <c r="AQ41" s="119"/>
-      <c r="AR41" s="119"/>
-      <c r="AS41" s="119"/>
-      <c r="AT41" s="119"/>
-      <c r="AU41" s="119"/>
-      <c r="AV41" s="119"/>
-      <c r="AW41" s="119"/>
-      <c r="AX41" s="119"/>
-      <c r="AY41" s="119"/>
-      <c r="AZ41" s="119"/>
-      <c r="BA41" s="119"/>
-      <c r="BB41" s="119"/>
-      <c r="BC41" s="119"/>
-      <c r="BD41" s="119"/>
-      <c r="BE41" s="119"/>
-      <c r="BF41" s="119"/>
-      <c r="BG41" s="119"/>
-      <c r="BH41" s="119"/>
-      <c r="BI41" s="119"/>
-      <c r="BJ41" s="119"/>
-      <c r="BK41" s="119"/>
-      <c r="BL41" s="119"/>
-      <c r="BM41" s="119"/>
-      <c r="BN41" s="119"/>
-      <c r="BO41" s="120"/>
-      <c r="BP41" s="17"/>
-      <c r="BQ41" s="18"/>
-      <c r="BR41" s="18"/>
-      <c r="BS41" s="18"/>
-      <c r="BT41" s="18"/>
-      <c r="BU41" s="18"/>
-      <c r="BV41" s="18"/>
-      <c r="BW41" s="19"/>
-      <c r="BX41" s="17"/>
-      <c r="BY41" s="18"/>
-      <c r="BZ41" s="18"/>
-      <c r="CA41" s="18"/>
-      <c r="CB41" s="18"/>
-      <c r="CC41" s="18"/>
-      <c r="CD41" s="18"/>
-      <c r="CE41" s="19"/>
-      <c r="CF41" s="110"/>
-      <c r="CG41" s="111"/>
-      <c r="CH41" s="111"/>
-      <c r="CI41" s="111"/>
-      <c r="CJ41" s="111"/>
-      <c r="CK41" s="111"/>
-      <c r="CL41" s="111"/>
-      <c r="CM41" s="112"/>
-      <c r="CN41" s="17"/>
-      <c r="CO41" s="18"/>
-      <c r="CP41" s="18"/>
-      <c r="CQ41" s="18"/>
-      <c r="CR41" s="18"/>
-      <c r="CS41" s="18"/>
-      <c r="CT41" s="18"/>
-      <c r="CU41" s="19"/>
-      <c r="CV41" s="17"/>
-      <c r="CW41" s="18"/>
-      <c r="CX41" s="18"/>
-      <c r="CY41" s="18"/>
-      <c r="CZ41" s="18"/>
-      <c r="DA41" s="18"/>
-      <c r="DB41" s="18"/>
-      <c r="DC41" s="19"/>
-      <c r="DD41" s="17"/>
-      <c r="DE41" s="18"/>
-      <c r="DF41" s="18"/>
-      <c r="DG41" s="18"/>
-      <c r="DH41" s="18"/>
-      <c r="DI41" s="18"/>
-      <c r="DJ41" s="18"/>
-      <c r="DK41" s="19"/>
-      <c r="DL41" s="17"/>
-      <c r="DM41" s="18"/>
-      <c r="DN41" s="18"/>
-      <c r="DO41" s="18"/>
-      <c r="DP41" s="18"/>
-      <c r="DQ41" s="18"/>
-      <c r="DR41" s="18"/>
-      <c r="DS41" s="19"/>
-      <c r="DT41" s="17"/>
-      <c r="DU41" s="18"/>
-      <c r="DV41" s="18"/>
-      <c r="DW41" s="18"/>
-      <c r="DX41" s="18"/>
-      <c r="DY41" s="18"/>
-      <c r="DZ41" s="18"/>
-      <c r="EA41" s="19"/>
-      <c r="EB41" s="17"/>
-      <c r="EC41" s="18"/>
-      <c r="ED41" s="18"/>
-      <c r="EE41" s="18"/>
-      <c r="EF41" s="18"/>
-      <c r="EG41" s="18"/>
-      <c r="EH41" s="18"/>
-      <c r="EI41" s="19"/>
-      <c r="EJ41" s="17"/>
-      <c r="EK41" s="18"/>
-      <c r="EL41" s="18"/>
-      <c r="EM41" s="18"/>
-      <c r="EN41" s="18"/>
-      <c r="EO41" s="18"/>
-      <c r="EP41" s="18"/>
-      <c r="EQ41" s="19"/>
-      <c r="ER41" s="110"/>
-      <c r="ES41" s="111"/>
-      <c r="ET41" s="111"/>
-      <c r="EU41" s="111"/>
-      <c r="EV41" s="111"/>
-      <c r="EW41" s="111"/>
-      <c r="EX41" s="111"/>
-      <c r="EY41" s="112"/>
-      <c r="EZ41" s="17"/>
-      <c r="FA41" s="18"/>
-      <c r="FB41" s="18"/>
-      <c r="FC41" s="18"/>
-      <c r="FD41" s="18"/>
-      <c r="FE41" s="18"/>
-      <c r="FF41" s="18"/>
-      <c r="FG41" s="19"/>
-      <c r="FH41" s="17"/>
-      <c r="FI41" s="18"/>
-      <c r="FJ41" s="18"/>
-      <c r="FK41" s="18"/>
-      <c r="FL41" s="18"/>
-      <c r="FM41" s="18"/>
-      <c r="FN41" s="18"/>
-      <c r="FO41" s="19"/>
-      <c r="FP41" s="17"/>
-      <c r="FQ41" s="18"/>
-      <c r="FR41" s="18"/>
-      <c r="FS41" s="18"/>
-      <c r="FT41" s="18"/>
-      <c r="FU41" s="18"/>
-      <c r="FV41" s="18"/>
-      <c r="FW41" s="19"/>
-      <c r="FX41" s="17"/>
-      <c r="FY41" s="18"/>
-      <c r="FZ41" s="18"/>
-      <c r="GA41" s="18"/>
-      <c r="GB41" s="18"/>
-      <c r="GC41" s="18"/>
-      <c r="GD41" s="18"/>
-      <c r="GE41" s="19"/>
-      <c r="GF41" s="17"/>
-      <c r="GG41" s="18"/>
-      <c r="GH41" s="18"/>
-      <c r="GI41" s="18"/>
-      <c r="GJ41" s="18"/>
-      <c r="GK41" s="18"/>
-      <c r="GL41" s="18"/>
-      <c r="GM41" s="45"/>
-      <c r="GN41" s="53"/>
-      <c r="GO41" s="48"/>
-      <c r="GP41" s="18"/>
-      <c r="GQ41" s="18"/>
-      <c r="GR41" s="18"/>
-      <c r="GS41" s="17"/>
-      <c r="GT41" s="18"/>
-      <c r="GU41" s="18"/>
-      <c r="GV41" s="18"/>
-      <c r="GW41" s="96"/>
+    <row r="41" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="105"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="14"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="109"/>
+      <c r="AC41" s="110"/>
+      <c r="AD41" s="110"/>
+      <c r="AE41" s="110"/>
+      <c r="AF41" s="110"/>
+      <c r="AG41" s="110"/>
+      <c r="AH41" s="110"/>
+      <c r="AI41" s="111"/>
+      <c r="AJ41" s="13"/>
+      <c r="AK41" s="14"/>
+      <c r="AL41" s="14"/>
+      <c r="AM41" s="14"/>
+      <c r="AN41" s="14"/>
+      <c r="AO41" s="14"/>
+      <c r="AP41" s="14"/>
+      <c r="AQ41" s="15"/>
+      <c r="AR41" s="13"/>
+      <c r="AS41" s="14"/>
+      <c r="AT41" s="14"/>
+      <c r="AU41" s="14"/>
+      <c r="AV41" s="14"/>
+      <c r="AW41" s="14"/>
+      <c r="AX41" s="14"/>
+      <c r="AY41" s="15"/>
+      <c r="AZ41" s="13"/>
+      <c r="BA41" s="14"/>
+      <c r="BB41" s="14"/>
+      <c r="BC41" s="14"/>
+      <c r="BD41" s="14"/>
+      <c r="BE41" s="14"/>
+      <c r="BF41" s="14"/>
+      <c r="BG41" s="15"/>
+      <c r="BH41" s="13"/>
+      <c r="BI41" s="14"/>
+      <c r="BJ41" s="14"/>
+      <c r="BK41" s="14"/>
+      <c r="BL41" s="14"/>
+      <c r="BM41" s="14"/>
+      <c r="BN41" s="14"/>
+      <c r="BO41" s="15"/>
+      <c r="BP41" s="13"/>
+      <c r="BQ41" s="14"/>
+      <c r="BR41" s="14"/>
+      <c r="BS41" s="14"/>
+      <c r="BT41" s="14"/>
+      <c r="BU41" s="14"/>
+      <c r="BV41" s="14"/>
+      <c r="BW41" s="15"/>
+      <c r="BX41" s="13"/>
+      <c r="BY41" s="14"/>
+      <c r="BZ41" s="14"/>
+      <c r="CA41" s="14"/>
+      <c r="CB41" s="14"/>
+      <c r="CC41" s="14"/>
+      <c r="CD41" s="14"/>
+      <c r="CE41" s="15"/>
+      <c r="CF41" s="109"/>
+      <c r="CG41" s="110"/>
+      <c r="CH41" s="110"/>
+      <c r="CI41" s="110"/>
+      <c r="CJ41" s="110"/>
+      <c r="CK41" s="110"/>
+      <c r="CL41" s="110"/>
+      <c r="CM41" s="111"/>
+      <c r="CN41" s="13"/>
+      <c r="CO41" s="14"/>
+      <c r="CP41" s="14"/>
+      <c r="CQ41" s="14"/>
+      <c r="CR41" s="14"/>
+      <c r="CS41" s="14"/>
+      <c r="CT41" s="14"/>
+      <c r="CU41" s="15"/>
+      <c r="CV41" s="13"/>
+      <c r="CW41" s="14"/>
+      <c r="CX41" s="14"/>
+      <c r="CY41" s="14"/>
+      <c r="CZ41" s="14"/>
+      <c r="DA41" s="14"/>
+      <c r="DB41" s="14"/>
+      <c r="DC41" s="15"/>
+      <c r="DD41" s="13"/>
+      <c r="DE41" s="14"/>
+      <c r="DF41" s="14"/>
+      <c r="DG41" s="14"/>
+      <c r="DH41" s="14"/>
+      <c r="DI41" s="14"/>
+      <c r="DJ41" s="14"/>
+      <c r="DK41" s="15"/>
+      <c r="DL41" s="13"/>
+      <c r="DM41" s="14"/>
+      <c r="DN41" s="14"/>
+      <c r="DO41" s="14"/>
+      <c r="DP41" s="14"/>
+      <c r="DQ41" s="14"/>
+      <c r="DR41" s="14"/>
+      <c r="DS41" s="15"/>
+      <c r="DT41" s="13"/>
+      <c r="DU41" s="14"/>
+      <c r="DV41" s="14"/>
+      <c r="DW41" s="14"/>
+      <c r="DX41" s="14"/>
+      <c r="DY41" s="14"/>
+      <c r="DZ41" s="14"/>
+      <c r="EA41" s="15"/>
+      <c r="EB41" s="13"/>
+      <c r="EC41" s="14"/>
+      <c r="ED41" s="14"/>
+      <c r="EE41" s="14"/>
+      <c r="EF41" s="14"/>
+      <c r="EG41" s="14"/>
+      <c r="EH41" s="14"/>
+      <c r="EI41" s="15"/>
+      <c r="EJ41" s="13"/>
+      <c r="EK41" s="14"/>
+      <c r="EL41" s="14"/>
+      <c r="EM41" s="14"/>
+      <c r="EN41" s="14"/>
+      <c r="EO41" s="14"/>
+      <c r="EP41" s="14"/>
+      <c r="EQ41" s="15"/>
+      <c r="ER41" s="109"/>
+      <c r="ES41" s="110"/>
+      <c r="ET41" s="110"/>
+      <c r="EU41" s="110"/>
+      <c r="EV41" s="110"/>
+      <c r="EW41" s="110"/>
+      <c r="EX41" s="110"/>
+      <c r="EY41" s="111"/>
+      <c r="EZ41" s="13"/>
+      <c r="FA41" s="14"/>
+      <c r="FB41" s="14"/>
+      <c r="FC41" s="14"/>
+      <c r="FD41" s="14"/>
+      <c r="FE41" s="14"/>
+      <c r="FF41" s="14"/>
+      <c r="FG41" s="15"/>
+      <c r="FH41" s="13"/>
+      <c r="FI41" s="14"/>
+      <c r="FJ41" s="14"/>
+      <c r="FK41" s="14"/>
+      <c r="FL41" s="14"/>
+      <c r="FM41" s="14"/>
+      <c r="FN41" s="14"/>
+      <c r="FO41" s="15"/>
+      <c r="FP41" s="13"/>
+      <c r="FQ41" s="14"/>
+      <c r="FR41" s="14"/>
+      <c r="FS41" s="14"/>
+      <c r="FT41" s="14"/>
+      <c r="FU41" s="14"/>
+      <c r="FV41" s="14"/>
+      <c r="FW41" s="15"/>
+      <c r="FX41" s="13"/>
+      <c r="FY41" s="14"/>
+      <c r="FZ41" s="14"/>
+      <c r="GA41" s="14"/>
+      <c r="GB41" s="14"/>
+      <c r="GC41" s="14"/>
+      <c r="GD41" s="14"/>
+      <c r="GE41" s="15"/>
+      <c r="GF41" s="13"/>
+      <c r="GG41" s="14"/>
+      <c r="GH41" s="14"/>
+      <c r="GI41" s="14"/>
+      <c r="GJ41" s="83"/>
+      <c r="GK41" s="83"/>
+      <c r="GL41" s="83"/>
+      <c r="GM41" s="86"/>
+      <c r="GN41" s="52"/>
+      <c r="GO41" s="47"/>
+      <c r="GP41" s="14"/>
+      <c r="GQ41" s="14"/>
+      <c r="GR41" s="14"/>
+      <c r="GS41" s="13"/>
+      <c r="GT41" s="14"/>
+      <c r="GU41" s="14"/>
+      <c r="GV41" s="14"/>
+      <c r="GW41" s="131"/>
     </row>
     <row r="42" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A42" s="97" t="s">
+      <c r="A42" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="59"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="14"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="109"/>
+      <c r="AC42" s="110"/>
+      <c r="AD42" s="110"/>
+      <c r="AE42" s="110"/>
+      <c r="AF42" s="110"/>
+      <c r="AG42" s="110"/>
+      <c r="AH42" s="110"/>
+      <c r="AI42" s="111"/>
+      <c r="AJ42" s="13"/>
+      <c r="AK42" s="14"/>
+      <c r="AL42" s="14"/>
+      <c r="AM42" s="14"/>
+      <c r="AN42" s="14"/>
+      <c r="AO42" s="14"/>
+      <c r="AP42" s="14"/>
+      <c r="AQ42" s="15"/>
+      <c r="AR42" s="13"/>
+      <c r="AS42" s="14"/>
+      <c r="AT42" s="14"/>
+      <c r="AU42" s="14"/>
+      <c r="AV42" s="14"/>
+      <c r="AW42" s="14"/>
+      <c r="AX42" s="14"/>
+      <c r="AY42" s="15"/>
+      <c r="AZ42" s="13"/>
+      <c r="BA42" s="14"/>
+      <c r="BB42" s="14"/>
+      <c r="BC42" s="14"/>
+      <c r="BD42" s="14"/>
+      <c r="BE42" s="14"/>
+      <c r="BF42" s="14"/>
+      <c r="BG42" s="15"/>
+      <c r="BH42" s="13"/>
+      <c r="BI42" s="14"/>
+      <c r="BJ42" s="14"/>
+      <c r="BK42" s="14"/>
+      <c r="BL42" s="14"/>
+      <c r="BM42" s="14"/>
+      <c r="BN42" s="14"/>
+      <c r="BO42" s="15"/>
+      <c r="BP42" s="13"/>
+      <c r="BQ42" s="14"/>
+      <c r="BR42" s="14"/>
+      <c r="BS42" s="14"/>
+      <c r="BT42" s="14"/>
+      <c r="BU42" s="14"/>
+      <c r="BV42" s="14"/>
+      <c r="BW42" s="15"/>
+      <c r="BX42" s="13"/>
+      <c r="BY42" s="14"/>
+      <c r="BZ42" s="14"/>
+      <c r="CA42" s="14"/>
+      <c r="CB42" s="14"/>
+      <c r="CC42" s="14"/>
+      <c r="CD42" s="14"/>
+      <c r="CE42" s="15"/>
+      <c r="CF42" s="109"/>
+      <c r="CG42" s="110"/>
+      <c r="CH42" s="110"/>
+      <c r="CI42" s="110"/>
+      <c r="CJ42" s="110"/>
+      <c r="CK42" s="110"/>
+      <c r="CL42" s="110"/>
+      <c r="CM42" s="111"/>
+      <c r="CN42" s="13"/>
+      <c r="CO42" s="14"/>
+      <c r="CP42" s="14"/>
+      <c r="CQ42" s="14"/>
+      <c r="CR42" s="14"/>
+      <c r="CS42" s="14"/>
+      <c r="CT42" s="14"/>
+      <c r="CU42" s="15"/>
+      <c r="CV42" s="13"/>
+      <c r="CW42" s="14"/>
+      <c r="CX42" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="CY42" s="14"/>
+      <c r="CZ42" s="14"/>
+      <c r="DA42" s="14"/>
+      <c r="DB42" s="14"/>
+      <c r="DC42" s="15"/>
+      <c r="DD42" s="13"/>
+      <c r="DE42" s="14"/>
+      <c r="DF42" s="14"/>
+      <c r="DG42" s="14"/>
+      <c r="DH42" s="14"/>
+      <c r="DI42" s="14"/>
+      <c r="DJ42" s="14"/>
+      <c r="DK42" s="15"/>
+      <c r="DL42" s="13"/>
+      <c r="DM42" s="14"/>
+      <c r="DN42" s="14"/>
+      <c r="DO42" s="14"/>
+      <c r="DP42" s="14"/>
+      <c r="DQ42" s="14"/>
+      <c r="DR42" s="14"/>
+      <c r="DS42" s="15"/>
+      <c r="DT42" s="13"/>
+      <c r="DU42" s="14"/>
+      <c r="DV42" s="14"/>
+      <c r="DW42" s="14"/>
+      <c r="DX42" s="14"/>
+      <c r="DY42" s="14"/>
+      <c r="DZ42" s="14"/>
+      <c r="EA42" s="15"/>
+      <c r="EB42" s="13"/>
+      <c r="EC42" s="14"/>
+      <c r="ED42" s="14"/>
+      <c r="EE42" s="42"/>
+      <c r="EF42" s="14"/>
+      <c r="EG42" s="14"/>
+      <c r="EH42" s="14"/>
+      <c r="EI42" s="15"/>
+      <c r="EJ42" s="13"/>
+      <c r="EK42" s="14"/>
+      <c r="EL42" s="14"/>
+      <c r="EM42" s="14"/>
+      <c r="EN42" s="14"/>
+      <c r="EO42" s="14"/>
+      <c r="EP42" s="14"/>
+      <c r="EQ42" s="15"/>
+      <c r="ER42" s="109"/>
+      <c r="ES42" s="110"/>
+      <c r="ET42" s="110"/>
+      <c r="EU42" s="110"/>
+      <c r="EV42" s="110"/>
+      <c r="EW42" s="110"/>
+      <c r="EX42" s="110"/>
+      <c r="EY42" s="111"/>
+      <c r="EZ42" s="13"/>
+      <c r="FA42" s="14"/>
+      <c r="FB42" s="14"/>
+      <c r="FC42" s="14"/>
+      <c r="FD42" s="14"/>
+      <c r="FE42" s="14"/>
+      <c r="FF42" s="14"/>
+      <c r="FG42" s="15"/>
+      <c r="FH42" s="13"/>
+      <c r="FI42" s="14"/>
+      <c r="FJ42" s="14"/>
+      <c r="FK42" s="14"/>
+      <c r="FL42" s="14"/>
+      <c r="FM42" s="14"/>
+      <c r="FN42" s="14"/>
+      <c r="FO42" s="15"/>
+      <c r="FP42" s="13"/>
+      <c r="FQ42" s="14"/>
+      <c r="FR42" s="14"/>
+      <c r="FS42" s="14"/>
+      <c r="FT42" s="14"/>
+      <c r="FU42" s="14"/>
+      <c r="FV42" s="14"/>
+      <c r="FW42" s="15"/>
+      <c r="FX42" s="13"/>
+      <c r="FY42" s="14"/>
+      <c r="FZ42" s="14"/>
+      <c r="GA42" s="14"/>
+      <c r="GB42" s="14"/>
+      <c r="GC42" s="14"/>
+      <c r="GD42" s="14"/>
+      <c r="GE42" s="15"/>
+      <c r="GF42" s="13"/>
+      <c r="GG42" s="14"/>
+      <c r="GH42" s="14"/>
+      <c r="GI42" s="14"/>
+      <c r="GJ42" s="14"/>
+      <c r="GK42" s="14"/>
+      <c r="GL42" s="14"/>
+      <c r="GM42" s="44"/>
+      <c r="GN42" s="52"/>
+      <c r="GO42" s="54"/>
+      <c r="GP42" s="42"/>
+      <c r="GQ42" s="42"/>
+      <c r="GR42" s="42"/>
+      <c r="GS42" s="13"/>
+      <c r="GT42" s="14"/>
+      <c r="GU42" s="14"/>
+      <c r="GV42" s="14"/>
+      <c r="GW42" s="131"/>
+    </row>
+    <row r="43" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="67"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
+      <c r="J43" s="122"/>
+      <c r="K43" s="122"/>
+      <c r="L43" s="122"/>
+      <c r="M43" s="122"/>
+      <c r="N43" s="122"/>
+      <c r="O43" s="122"/>
+      <c r="P43" s="122"/>
+      <c r="Q43" s="122"/>
+      <c r="R43" s="122"/>
+      <c r="S43" s="122"/>
+      <c r="T43" s="122"/>
+      <c r="U43" s="122"/>
+      <c r="V43" s="122"/>
+      <c r="W43" s="122"/>
+      <c r="X43" s="122"/>
+      <c r="Y43" s="122"/>
+      <c r="Z43" s="122"/>
+      <c r="AA43" s="123"/>
+      <c r="AB43" s="112"/>
+      <c r="AC43" s="113"/>
+      <c r="AD43" s="113"/>
+      <c r="AE43" s="113"/>
+      <c r="AF43" s="113"/>
+      <c r="AG43" s="113"/>
+      <c r="AH43" s="113"/>
+      <c r="AI43" s="114"/>
+      <c r="AJ43" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK43" s="92"/>
+      <c r="AL43" s="92"/>
+      <c r="AM43" s="92"/>
+      <c r="AN43" s="92"/>
+      <c r="AO43" s="92"/>
+      <c r="AP43" s="92"/>
+      <c r="AQ43" s="92"/>
+      <c r="AR43" s="92"/>
+      <c r="AS43" s="92"/>
+      <c r="AT43" s="92"/>
+      <c r="AU43" s="92"/>
+      <c r="AV43" s="92"/>
+      <c r="AW43" s="92"/>
+      <c r="AX43" s="92"/>
+      <c r="AY43" s="92"/>
+      <c r="AZ43" s="92"/>
+      <c r="BA43" s="92"/>
+      <c r="BB43" s="92"/>
+      <c r="BC43" s="92"/>
+      <c r="BD43" s="92"/>
+      <c r="BE43" s="92"/>
+      <c r="BF43" s="92"/>
+      <c r="BG43" s="92"/>
+      <c r="BH43" s="92"/>
+      <c r="BI43" s="92"/>
+      <c r="BJ43" s="92"/>
+      <c r="BK43" s="92"/>
+      <c r="BL43" s="92"/>
+      <c r="BM43" s="92"/>
+      <c r="BN43" s="92"/>
+      <c r="BO43" s="93"/>
+      <c r="BP43" s="17"/>
+      <c r="BQ43" s="18"/>
+      <c r="BR43" s="18"/>
+      <c r="BS43" s="18"/>
+      <c r="BT43" s="18"/>
+      <c r="BU43" s="18"/>
+      <c r="BV43" s="18"/>
+      <c r="BW43" s="19"/>
+      <c r="BX43" s="17"/>
+      <c r="BY43" s="18"/>
+      <c r="BZ43" s="18"/>
+      <c r="CA43" s="18"/>
+      <c r="CB43" s="18"/>
+      <c r="CC43" s="18"/>
+      <c r="CD43" s="18"/>
+      <c r="CE43" s="19"/>
+      <c r="CF43" s="112"/>
+      <c r="CG43" s="113"/>
+      <c r="CH43" s="113"/>
+      <c r="CI43" s="113"/>
+      <c r="CJ43" s="113"/>
+      <c r="CK43" s="113"/>
+      <c r="CL43" s="113"/>
+      <c r="CM43" s="114"/>
+      <c r="CN43" s="17"/>
+      <c r="CO43" s="18"/>
+      <c r="CP43" s="18"/>
+      <c r="CQ43" s="18"/>
+      <c r="CR43" s="18"/>
+      <c r="CS43" s="18"/>
+      <c r="CT43" s="18"/>
+      <c r="CU43" s="19"/>
+      <c r="CV43" s="17"/>
+      <c r="CW43" s="18"/>
+      <c r="CX43" s="18"/>
+      <c r="CY43" s="18"/>
+      <c r="CZ43" s="18"/>
+      <c r="DA43" s="18"/>
+      <c r="DB43" s="18"/>
+      <c r="DC43" s="19"/>
+      <c r="DD43" s="17"/>
+      <c r="DE43" s="18"/>
+      <c r="DF43" s="18"/>
+      <c r="DG43" s="18"/>
+      <c r="DH43" s="18"/>
+      <c r="DI43" s="18"/>
+      <c r="DJ43" s="18"/>
+      <c r="DK43" s="19"/>
+      <c r="DL43" s="17"/>
+      <c r="DM43" s="18"/>
+      <c r="DN43" s="18"/>
+      <c r="DO43" s="18"/>
+      <c r="DP43" s="18"/>
+      <c r="DQ43" s="18"/>
+      <c r="DR43" s="18"/>
+      <c r="DS43" s="19"/>
+      <c r="DT43" s="17"/>
+      <c r="DU43" s="18"/>
+      <c r="DV43" s="18"/>
+      <c r="DW43" s="18"/>
+      <c r="DX43" s="18"/>
+      <c r="DY43" s="18"/>
+      <c r="DZ43" s="18"/>
+      <c r="EA43" s="19"/>
+      <c r="EB43" s="17"/>
+      <c r="EC43" s="18"/>
+      <c r="ED43" s="18"/>
+      <c r="EE43" s="18"/>
+      <c r="EF43" s="18"/>
+      <c r="EG43" s="18"/>
+      <c r="EH43" s="18"/>
+      <c r="EI43" s="19"/>
+      <c r="EJ43" s="17"/>
+      <c r="EK43" s="18"/>
+      <c r="EL43" s="18"/>
+      <c r="EM43" s="18"/>
+      <c r="EN43" s="18"/>
+      <c r="EO43" s="18"/>
+      <c r="EP43" s="18"/>
+      <c r="EQ43" s="19"/>
+      <c r="ER43" s="112"/>
+      <c r="ES43" s="113"/>
+      <c r="ET43" s="113"/>
+      <c r="EU43" s="113"/>
+      <c r="EV43" s="113"/>
+      <c r="EW43" s="113"/>
+      <c r="EX43" s="113"/>
+      <c r="EY43" s="114"/>
+      <c r="EZ43" s="17"/>
+      <c r="FA43" s="18"/>
+      <c r="FB43" s="18"/>
+      <c r="FC43" s="18"/>
+      <c r="FD43" s="18"/>
+      <c r="FE43" s="18"/>
+      <c r="FF43" s="18"/>
+      <c r="FG43" s="19"/>
+      <c r="FH43" s="17"/>
+      <c r="FI43" s="18"/>
+      <c r="FJ43" s="18"/>
+      <c r="FK43" s="18"/>
+      <c r="FL43" s="18"/>
+      <c r="FM43" s="18"/>
+      <c r="FN43" s="18"/>
+      <c r="FO43" s="19"/>
+      <c r="FP43" s="17"/>
+      <c r="FQ43" s="18"/>
+      <c r="FR43" s="18"/>
+      <c r="FS43" s="18"/>
+      <c r="FT43" s="18"/>
+      <c r="FU43" s="18"/>
+      <c r="FV43" s="18"/>
+      <c r="FW43" s="19"/>
+      <c r="FX43" s="17"/>
+      <c r="FY43" s="18"/>
+      <c r="FZ43" s="18"/>
+      <c r="GA43" s="18"/>
+      <c r="GB43" s="18"/>
+      <c r="GC43" s="18"/>
+      <c r="GD43" s="18"/>
+      <c r="GE43" s="19"/>
+      <c r="GF43" s="17"/>
+      <c r="GG43" s="18"/>
+      <c r="GH43" s="18"/>
+      <c r="GI43" s="18"/>
+      <c r="GJ43" s="18"/>
+      <c r="GK43" s="18"/>
+      <c r="GL43" s="18"/>
+      <c r="GM43" s="45"/>
+      <c r="GN43" s="53"/>
+      <c r="GO43" s="48"/>
+      <c r="GP43" s="18"/>
+      <c r="GQ43" s="18"/>
+      <c r="GR43" s="18"/>
+      <c r="GS43" s="17"/>
+      <c r="GT43" s="18"/>
+      <c r="GU43" s="18"/>
+      <c r="GV43" s="18"/>
+      <c r="GW43" s="131"/>
+    </row>
+    <row r="44" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A44" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="97"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
-      <c r="L42" s="97"/>
-      <c r="M42" s="97"/>
-      <c r="N42" s="97"/>
-      <c r="O42" s="97"/>
-      <c r="P42" s="97"/>
-      <c r="Q42" s="97"/>
-      <c r="R42" s="97"/>
-      <c r="S42" s="97"/>
-      <c r="T42" s="97"/>
-      <c r="U42" s="97"/>
-      <c r="V42" s="97"/>
-      <c r="W42" s="97"/>
-      <c r="X42" s="97"/>
-      <c r="Y42" s="97"/>
-      <c r="Z42" s="97"/>
-      <c r="AA42" s="97"/>
-      <c r="AB42" s="97"/>
-      <c r="AC42" s="97"/>
-      <c r="AD42" s="97"/>
-      <c r="AE42" s="97"/>
-      <c r="AF42" s="97"/>
-      <c r="AG42" s="97"/>
-      <c r="AH42" s="97"/>
-      <c r="AI42" s="97"/>
-      <c r="AJ42" s="97"/>
-      <c r="AK42" s="97"/>
-      <c r="AL42" s="97"/>
-      <c r="AM42" s="97"/>
-      <c r="AN42" s="97"/>
-      <c r="AO42" s="97"/>
-      <c r="AP42" s="97"/>
-      <c r="AQ42" s="97"/>
-      <c r="AR42" s="97"/>
-      <c r="AS42" s="97"/>
-      <c r="AT42" s="97"/>
-      <c r="AU42" s="97"/>
-      <c r="AV42" s="97"/>
-      <c r="AW42" s="97"/>
-      <c r="AX42" s="97"/>
-      <c r="AY42" s="97"/>
-      <c r="AZ42" s="97"/>
-      <c r="BA42" s="97"/>
-      <c r="BB42" s="97"/>
-      <c r="BC42" s="97"/>
-      <c r="BD42" s="97"/>
-      <c r="BE42" s="97"/>
-      <c r="BF42" s="97"/>
-      <c r="BG42" s="97"/>
-      <c r="BH42" s="97"/>
-      <c r="BI42" s="97"/>
-      <c r="BJ42" s="97"/>
-      <c r="BK42" s="97"/>
-      <c r="BL42" s="97"/>
-      <c r="BM42" s="97"/>
-      <c r="BN42" s="97"/>
-      <c r="BO42" s="97"/>
-      <c r="BP42" s="97"/>
-      <c r="BQ42" s="97"/>
-      <c r="BR42" s="97"/>
-      <c r="BS42" s="97"/>
-      <c r="BT42" s="97"/>
-      <c r="BU42" s="97"/>
-      <c r="BV42" s="97"/>
-      <c r="BW42" s="97"/>
-      <c r="BX42" s="97"/>
-      <c r="BY42" s="97"/>
-      <c r="BZ42" s="97"/>
-      <c r="CA42" s="97"/>
-      <c r="CB42" s="97"/>
-      <c r="CC42" s="97"/>
-      <c r="CD42" s="97"/>
-      <c r="CE42" s="97"/>
-      <c r="CF42" s="97"/>
-      <c r="CG42" s="97"/>
-      <c r="CH42" s="97"/>
-      <c r="CI42" s="97"/>
-      <c r="CJ42" s="97"/>
-      <c r="CK42" s="97"/>
-      <c r="CL42" s="97"/>
-      <c r="CM42" s="97"/>
-      <c r="CN42" s="97"/>
-      <c r="CO42" s="97"/>
-      <c r="CP42" s="97"/>
-      <c r="CQ42" s="97"/>
-      <c r="CR42" s="97"/>
-      <c r="CS42" s="97"/>
-      <c r="CT42" s="97"/>
-      <c r="CU42" s="97"/>
-      <c r="CV42" s="97"/>
-      <c r="CW42" s="97"/>
-      <c r="CX42" s="97"/>
-      <c r="CY42" s="97"/>
-      <c r="CZ42" s="97"/>
-      <c r="DA42" s="97"/>
-      <c r="DB42" s="97"/>
-      <c r="DC42" s="97"/>
-      <c r="DD42" s="97"/>
-      <c r="DE42" s="97"/>
-      <c r="DF42" s="97"/>
-      <c r="DG42" s="97"/>
-      <c r="DH42" s="97"/>
-      <c r="DI42" s="97"/>
-      <c r="DJ42" s="97"/>
-      <c r="DK42" s="97"/>
-      <c r="DL42" s="97"/>
-      <c r="DM42" s="97"/>
-      <c r="DN42" s="97"/>
-      <c r="DO42" s="97"/>
-      <c r="DP42" s="97"/>
-      <c r="DQ42" s="97"/>
-      <c r="DR42" s="97"/>
-      <c r="DS42" s="97"/>
-      <c r="DT42" s="97"/>
-      <c r="DU42" s="97"/>
-      <c r="DV42" s="97"/>
-      <c r="DW42" s="97"/>
-      <c r="DX42" s="97"/>
-      <c r="DY42" s="97"/>
-      <c r="DZ42" s="97"/>
-      <c r="EA42" s="97"/>
-      <c r="EB42" s="97"/>
-      <c r="EC42" s="97"/>
-      <c r="ED42" s="97"/>
-      <c r="EE42" s="97"/>
-      <c r="EF42" s="97"/>
-      <c r="EG42" s="97"/>
-      <c r="EH42" s="97"/>
-      <c r="EI42" s="97"/>
-      <c r="EJ42" s="97"/>
-      <c r="EK42" s="97"/>
-      <c r="EL42" s="97"/>
-      <c r="EM42" s="97"/>
-      <c r="EN42" s="97"/>
-      <c r="EO42" s="97"/>
-      <c r="EP42" s="97"/>
-      <c r="EQ42" s="97"/>
-      <c r="ER42" s="97"/>
-      <c r="ES42" s="97"/>
-      <c r="ET42" s="97"/>
-      <c r="EU42" s="97"/>
-      <c r="EV42" s="97"/>
-      <c r="EW42" s="97"/>
-      <c r="EX42" s="97"/>
-      <c r="EY42" s="97"/>
-      <c r="EZ42" s="97"/>
-      <c r="FA42" s="97"/>
-      <c r="FB42" s="97"/>
-      <c r="FC42" s="97"/>
-      <c r="FD42" s="97"/>
-      <c r="FE42" s="97"/>
-      <c r="FF42" s="97"/>
-      <c r="FG42" s="97"/>
-      <c r="FH42" s="97"/>
-      <c r="FI42" s="97"/>
-      <c r="FJ42" s="97"/>
-      <c r="FK42" s="97"/>
-      <c r="FL42" s="97"/>
-      <c r="FM42" s="97"/>
-      <c r="FN42" s="97"/>
-      <c r="FO42" s="97"/>
-      <c r="FP42" s="97"/>
-      <c r="FQ42" s="97"/>
-      <c r="FR42" s="97"/>
-      <c r="FS42" s="97"/>
-      <c r="FT42" s="97"/>
-      <c r="FU42" s="97"/>
-      <c r="FV42" s="97"/>
-      <c r="FW42" s="97"/>
-      <c r="FX42" s="97"/>
-      <c r="FY42" s="97"/>
-      <c r="FZ42" s="97"/>
-      <c r="GA42" s="97"/>
-      <c r="GB42" s="97"/>
-      <c r="GC42" s="97"/>
-      <c r="GD42" s="97"/>
-      <c r="GE42" s="97"/>
-      <c r="GF42" s="97"/>
-      <c r="GG42" s="97"/>
-      <c r="GH42" s="97"/>
-      <c r="GI42" s="97"/>
-      <c r="GJ42" s="97"/>
-      <c r="GK42" s="97"/>
-      <c r="GL42" s="97"/>
-      <c r="GM42" s="97"/>
-      <c r="GN42" s="97"/>
-      <c r="GO42" s="97"/>
-      <c r="GP42" s="97"/>
-      <c r="GQ42" s="97"/>
-      <c r="GR42" s="97"/>
-      <c r="GS42" s="97"/>
-      <c r="GT42" s="97"/>
-      <c r="GU42" s="97"/>
-      <c r="GV42" s="97"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="124"/>
+      <c r="G44" s="124"/>
+      <c r="H44" s="124"/>
+      <c r="I44" s="124"/>
+      <c r="J44" s="124"/>
+      <c r="K44" s="124"/>
+      <c r="L44" s="124"/>
+      <c r="M44" s="124"/>
+      <c r="N44" s="124"/>
+      <c r="O44" s="124"/>
+      <c r="P44" s="124"/>
+      <c r="Q44" s="124"/>
+      <c r="R44" s="124"/>
+      <c r="S44" s="124"/>
+      <c r="T44" s="124"/>
+      <c r="U44" s="124"/>
+      <c r="V44" s="124"/>
+      <c r="W44" s="124"/>
+      <c r="X44" s="124"/>
+      <c r="Y44" s="124"/>
+      <c r="Z44" s="124"/>
+      <c r="AA44" s="124"/>
+      <c r="AB44" s="124"/>
+      <c r="AC44" s="124"/>
+      <c r="AD44" s="124"/>
+      <c r="AE44" s="124"/>
+      <c r="AF44" s="124"/>
+      <c r="AG44" s="124"/>
+      <c r="AH44" s="124"/>
+      <c r="AI44" s="124"/>
+      <c r="AJ44" s="124"/>
+      <c r="AK44" s="124"/>
+      <c r="AL44" s="124"/>
+      <c r="AM44" s="124"/>
+      <c r="AN44" s="124"/>
+      <c r="AO44" s="124"/>
+      <c r="AP44" s="124"/>
+      <c r="AQ44" s="124"/>
+      <c r="AR44" s="124"/>
+      <c r="AS44" s="124"/>
+      <c r="AT44" s="124"/>
+      <c r="AU44" s="124"/>
+      <c r="AV44" s="124"/>
+      <c r="AW44" s="124"/>
+      <c r="AX44" s="124"/>
+      <c r="AY44" s="124"/>
+      <c r="AZ44" s="124"/>
+      <c r="BA44" s="124"/>
+      <c r="BB44" s="124"/>
+      <c r="BC44" s="124"/>
+      <c r="BD44" s="124"/>
+      <c r="BE44" s="124"/>
+      <c r="BF44" s="124"/>
+      <c r="BG44" s="124"/>
+      <c r="BH44" s="124"/>
+      <c r="BI44" s="124"/>
+      <c r="BJ44" s="124"/>
+      <c r="BK44" s="124"/>
+      <c r="BL44" s="124"/>
+      <c r="BM44" s="124"/>
+      <c r="BN44" s="124"/>
+      <c r="BO44" s="124"/>
+      <c r="BP44" s="124"/>
+      <c r="BQ44" s="124"/>
+      <c r="BR44" s="124"/>
+      <c r="BS44" s="124"/>
+      <c r="BT44" s="124"/>
+      <c r="BU44" s="124"/>
+      <c r="BV44" s="124"/>
+      <c r="BW44" s="124"/>
+      <c r="BX44" s="124"/>
+      <c r="BY44" s="124"/>
+      <c r="BZ44" s="124"/>
+      <c r="CA44" s="124"/>
+      <c r="CB44" s="124"/>
+      <c r="CC44" s="124"/>
+      <c r="CD44" s="124"/>
+      <c r="CE44" s="124"/>
+      <c r="CF44" s="124"/>
+      <c r="CG44" s="124"/>
+      <c r="CH44" s="124"/>
+      <c r="CI44" s="124"/>
+      <c r="CJ44" s="124"/>
+      <c r="CK44" s="124"/>
+      <c r="CL44" s="124"/>
+      <c r="CM44" s="124"/>
+      <c r="CN44" s="124"/>
+      <c r="CO44" s="124"/>
+      <c r="CP44" s="124"/>
+      <c r="CQ44" s="124"/>
+      <c r="CR44" s="124"/>
+      <c r="CS44" s="124"/>
+      <c r="CT44" s="124"/>
+      <c r="CU44" s="124"/>
+      <c r="CV44" s="124"/>
+      <c r="CW44" s="124"/>
+      <c r="CX44" s="124"/>
+      <c r="CY44" s="124"/>
+      <c r="CZ44" s="124"/>
+      <c r="DA44" s="124"/>
+      <c r="DB44" s="124"/>
+      <c r="DC44" s="124"/>
+      <c r="DD44" s="124"/>
+      <c r="DE44" s="124"/>
+      <c r="DF44" s="124"/>
+      <c r="DG44" s="124"/>
+      <c r="DH44" s="124"/>
+      <c r="DI44" s="124"/>
+      <c r="DJ44" s="124"/>
+      <c r="DK44" s="124"/>
+      <c r="DL44" s="124"/>
+      <c r="DM44" s="124"/>
+      <c r="DN44" s="124"/>
+      <c r="DO44" s="124"/>
+      <c r="DP44" s="124"/>
+      <c r="DQ44" s="124"/>
+      <c r="DR44" s="124"/>
+      <c r="DS44" s="124"/>
+      <c r="DT44" s="124"/>
+      <c r="DU44" s="124"/>
+      <c r="DV44" s="124"/>
+      <c r="DW44" s="124"/>
+      <c r="DX44" s="124"/>
+      <c r="DY44" s="124"/>
+      <c r="DZ44" s="124"/>
+      <c r="EA44" s="124"/>
+      <c r="EB44" s="124"/>
+      <c r="EC44" s="124"/>
+      <c r="ED44" s="124"/>
+      <c r="EE44" s="124"/>
+      <c r="EF44" s="124"/>
+      <c r="EG44" s="124"/>
+      <c r="EH44" s="124"/>
+      <c r="EI44" s="124"/>
+      <c r="EJ44" s="124"/>
+      <c r="EK44" s="124"/>
+      <c r="EL44" s="124"/>
+      <c r="EM44" s="124"/>
+      <c r="EN44" s="124"/>
+      <c r="EO44" s="124"/>
+      <c r="EP44" s="124"/>
+      <c r="EQ44" s="124"/>
+      <c r="ER44" s="124"/>
+      <c r="ES44" s="124"/>
+      <c r="ET44" s="124"/>
+      <c r="EU44" s="124"/>
+      <c r="EV44" s="124"/>
+      <c r="EW44" s="124"/>
+      <c r="EX44" s="124"/>
+      <c r="EY44" s="124"/>
+      <c r="EZ44" s="124"/>
+      <c r="FA44" s="124"/>
+      <c r="FB44" s="124"/>
+      <c r="FC44" s="124"/>
+      <c r="FD44" s="124"/>
+      <c r="FE44" s="124"/>
+      <c r="FF44" s="124"/>
+      <c r="FG44" s="124"/>
+      <c r="FH44" s="124"/>
+      <c r="FI44" s="124"/>
+      <c r="FJ44" s="124"/>
+      <c r="FK44" s="124"/>
+      <c r="FL44" s="124"/>
+      <c r="FM44" s="124"/>
+      <c r="FN44" s="124"/>
+      <c r="FO44" s="124"/>
+      <c r="FP44" s="124"/>
+      <c r="FQ44" s="124"/>
+      <c r="FR44" s="124"/>
+      <c r="FS44" s="124"/>
+      <c r="FT44" s="124"/>
+      <c r="FU44" s="124"/>
+      <c r="FV44" s="124"/>
+      <c r="FW44" s="124"/>
+      <c r="FX44" s="124"/>
+      <c r="FY44" s="124"/>
+      <c r="FZ44" s="124"/>
+      <c r="GA44" s="124"/>
+      <c r="GB44" s="124"/>
+      <c r="GC44" s="124"/>
+      <c r="GD44" s="124"/>
+      <c r="GE44" s="124"/>
+      <c r="GF44" s="124"/>
+      <c r="GG44" s="124"/>
+      <c r="GH44" s="124"/>
+      <c r="GI44" s="124"/>
+      <c r="GJ44" s="124"/>
+      <c r="GK44" s="124"/>
+      <c r="GL44" s="124"/>
+      <c r="GM44" s="124"/>
+      <c r="GN44" s="124"/>
+      <c r="GO44" s="124"/>
+      <c r="GP44" s="124"/>
+      <c r="GQ44" s="124"/>
+      <c r="GR44" s="124"/>
+      <c r="GS44" s="124"/>
+      <c r="GT44" s="124"/>
+      <c r="GU44" s="124"/>
+      <c r="GV44" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="AJ41:BO41"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="ER6:EY41"/>
-    <mergeCell ref="AB6:AI41"/>
-    <mergeCell ref="CF6:CM41"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="BT4:BW4"/>
-    <mergeCell ref="DD4:DG4"/>
-    <mergeCell ref="DH4:DK4"/>
-    <mergeCell ref="D41:AA41"/>
-    <mergeCell ref="A42:GV42"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="DT2:FG3"/>
-    <mergeCell ref="FH2:GV3"/>
-    <mergeCell ref="D2:AQ3"/>
-    <mergeCell ref="AR2:CE3"/>
-    <mergeCell ref="CF2:DS3"/>
-    <mergeCell ref="CR4:CU4"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="EJ4:EM4"/>
-    <mergeCell ref="DL4:DO4"/>
-    <mergeCell ref="DP4:DS4"/>
-    <mergeCell ref="GW4:GW41"/>
-    <mergeCell ref="FX4:GA4"/>
-    <mergeCell ref="GB4:GE4"/>
-    <mergeCell ref="GF4:GI4"/>
-    <mergeCell ref="GJ4:GM4"/>
-    <mergeCell ref="GO4:GR4"/>
-    <mergeCell ref="GS4:GV4"/>
+    <mergeCell ref="FH4:FK4"/>
+    <mergeCell ref="DT4:DW4"/>
+    <mergeCell ref="DX4:EA4"/>
+    <mergeCell ref="EB4:EE4"/>
+    <mergeCell ref="EF4:EI4"/>
+    <mergeCell ref="EV4:EY4"/>
+    <mergeCell ref="EZ4:FC4"/>
+    <mergeCell ref="EN4:EQ4"/>
+    <mergeCell ref="ER4:EU4"/>
     <mergeCell ref="FT4:FW4"/>
     <mergeCell ref="AZ4:BC4"/>
     <mergeCell ref="BD4:BG4"/>
@@ -11418,17 +11813,54 @@
     <mergeCell ref="CV4:CY4"/>
     <mergeCell ref="FL4:FO4"/>
     <mergeCell ref="FP4:FS4"/>
-    <mergeCell ref="FH4:FK4"/>
-    <mergeCell ref="DT4:DW4"/>
-    <mergeCell ref="DX4:EA4"/>
-    <mergeCell ref="EB4:EE4"/>
-    <mergeCell ref="EF4:EI4"/>
-    <mergeCell ref="EV4:EY4"/>
-    <mergeCell ref="EZ4:FC4"/>
-    <mergeCell ref="EN4:EQ4"/>
-    <mergeCell ref="ER4:EU4"/>
+    <mergeCell ref="GW4:GW43"/>
+    <mergeCell ref="FX4:GA4"/>
+    <mergeCell ref="GB4:GE4"/>
+    <mergeCell ref="GF4:GI4"/>
+    <mergeCell ref="GJ4:GM4"/>
+    <mergeCell ref="GO4:GR4"/>
+    <mergeCell ref="GS4:GV4"/>
+    <mergeCell ref="A44:GV44"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="DT2:FG3"/>
+    <mergeCell ref="FH2:GV3"/>
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="AR2:CE3"/>
+    <mergeCell ref="CF2:DS3"/>
+    <mergeCell ref="CR4:CU4"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="EJ4:EM4"/>
+    <mergeCell ref="DL4:DO4"/>
+    <mergeCell ref="DP4:DS4"/>
+    <mergeCell ref="ER6:EY43"/>
+    <mergeCell ref="AB6:AI43"/>
+    <mergeCell ref="CF6:CM43"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="BT4:BW4"/>
+    <mergeCell ref="DD4:DG4"/>
+    <mergeCell ref="DH4:DK4"/>
+    <mergeCell ref="D43:AA43"/>
+    <mergeCell ref="AJ43:BO43"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6 B8:B9 B11:B13 B15:B19 B21:B36 B38 B40:B41">
+  <conditionalFormatting sqref="B6 B8:B9 B11:B13 B40 B42:B43 B15:B19 B21:B38">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",B6)))</formula>
     </cfRule>

--- a/docs/2_CAND_Modele_Planning_2024.xlsx
+++ b/docs/2_CAND_Modele_Planning_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B44CC0-9777-408E-9B2C-6C1C5C93EF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6E10B6-B4D3-4731-BBF9-EDEF03CC4447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="60">
   <si>
     <t>Tâches</t>
   </si>
@@ -1423,10 +1423,118 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1481,114 +1589,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2081,10 +2081,10 @@
   <dimension ref="A1:GW44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="DG6" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="DG8" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="DY23" sqref="DY23"/>
+      <selection pane="bottomRight" activeCell="DZ24" sqref="DZ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2099,11 +2099,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:205" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2149,427 +2149,427 @@
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="116">
+      <c r="B2" s="114">
         <v>148477</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="127" t="s">
+      <c r="C2" s="115"/>
+      <c r="D2" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="127"/>
-      <c r="AD2" s="127"/>
-      <c r="AE2" s="127"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="127"/>
-      <c r="AH2" s="127"/>
-      <c r="AI2" s="127"/>
-      <c r="AJ2" s="127"/>
-      <c r="AK2" s="127"/>
-      <c r="AL2" s="127"/>
-      <c r="AM2" s="127"/>
-      <c r="AN2" s="127"/>
-      <c r="AO2" s="127"/>
-      <c r="AP2" s="127"/>
-      <c r="AQ2" s="127"/>
-      <c r="AR2" s="127" t="s">
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100"/>
+      <c r="AK2" s="100"/>
+      <c r="AL2" s="100"/>
+      <c r="AM2" s="100"/>
+      <c r="AN2" s="100"/>
+      <c r="AO2" s="100"/>
+      <c r="AP2" s="100"/>
+      <c r="AQ2" s="100"/>
+      <c r="AR2" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="127"/>
-      <c r="AT2" s="127"/>
-      <c r="AU2" s="127"/>
-      <c r="AV2" s="127"/>
-      <c r="AW2" s="127"/>
-      <c r="AX2" s="127"/>
-      <c r="AY2" s="127"/>
-      <c r="AZ2" s="127"/>
-      <c r="BA2" s="127"/>
-      <c r="BB2" s="127"/>
-      <c r="BC2" s="127"/>
-      <c r="BD2" s="127"/>
-      <c r="BE2" s="127"/>
-      <c r="BF2" s="127"/>
-      <c r="BG2" s="127"/>
-      <c r="BH2" s="127"/>
-      <c r="BI2" s="127"/>
-      <c r="BJ2" s="127"/>
-      <c r="BK2" s="127"/>
-      <c r="BL2" s="127"/>
-      <c r="BM2" s="127"/>
-      <c r="BN2" s="127"/>
-      <c r="BO2" s="127"/>
-      <c r="BP2" s="127"/>
-      <c r="BQ2" s="127"/>
-      <c r="BR2" s="127"/>
-      <c r="BS2" s="127"/>
-      <c r="BT2" s="127"/>
-      <c r="BU2" s="127"/>
-      <c r="BV2" s="127"/>
-      <c r="BW2" s="127"/>
-      <c r="BX2" s="127"/>
-      <c r="BY2" s="127"/>
-      <c r="BZ2" s="127"/>
-      <c r="CA2" s="127"/>
-      <c r="CB2" s="127"/>
-      <c r="CC2" s="127"/>
-      <c r="CD2" s="127"/>
-      <c r="CE2" s="127"/>
-      <c r="CF2" s="127" t="s">
+      <c r="AS2" s="100"/>
+      <c r="AT2" s="100"/>
+      <c r="AU2" s="100"/>
+      <c r="AV2" s="100"/>
+      <c r="AW2" s="100"/>
+      <c r="AX2" s="100"/>
+      <c r="AY2" s="100"/>
+      <c r="AZ2" s="100"/>
+      <c r="BA2" s="100"/>
+      <c r="BB2" s="100"/>
+      <c r="BC2" s="100"/>
+      <c r="BD2" s="100"/>
+      <c r="BE2" s="100"/>
+      <c r="BF2" s="100"/>
+      <c r="BG2" s="100"/>
+      <c r="BH2" s="100"/>
+      <c r="BI2" s="100"/>
+      <c r="BJ2" s="100"/>
+      <c r="BK2" s="100"/>
+      <c r="BL2" s="100"/>
+      <c r="BM2" s="100"/>
+      <c r="BN2" s="100"/>
+      <c r="BO2" s="100"/>
+      <c r="BP2" s="100"/>
+      <c r="BQ2" s="100"/>
+      <c r="BR2" s="100"/>
+      <c r="BS2" s="100"/>
+      <c r="BT2" s="100"/>
+      <c r="BU2" s="100"/>
+      <c r="BV2" s="100"/>
+      <c r="BW2" s="100"/>
+      <c r="BX2" s="100"/>
+      <c r="BY2" s="100"/>
+      <c r="BZ2" s="100"/>
+      <c r="CA2" s="100"/>
+      <c r="CB2" s="100"/>
+      <c r="CC2" s="100"/>
+      <c r="CD2" s="100"/>
+      <c r="CE2" s="100"/>
+      <c r="CF2" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="CG2" s="127"/>
-      <c r="CH2" s="127"/>
-      <c r="CI2" s="127"/>
-      <c r="CJ2" s="127"/>
-      <c r="CK2" s="127"/>
-      <c r="CL2" s="127"/>
-      <c r="CM2" s="127"/>
-      <c r="CN2" s="127"/>
-      <c r="CO2" s="127"/>
-      <c r="CP2" s="127"/>
-      <c r="CQ2" s="127"/>
-      <c r="CR2" s="127"/>
-      <c r="CS2" s="127"/>
-      <c r="CT2" s="127"/>
-      <c r="CU2" s="127"/>
-      <c r="CV2" s="127"/>
-      <c r="CW2" s="127"/>
-      <c r="CX2" s="127"/>
-      <c r="CY2" s="127"/>
-      <c r="CZ2" s="127"/>
-      <c r="DA2" s="127"/>
-      <c r="DB2" s="127"/>
-      <c r="DC2" s="127"/>
-      <c r="DD2" s="127"/>
-      <c r="DE2" s="127"/>
-      <c r="DF2" s="127"/>
-      <c r="DG2" s="127"/>
-      <c r="DH2" s="127"/>
-      <c r="DI2" s="127"/>
-      <c r="DJ2" s="127"/>
-      <c r="DK2" s="127"/>
-      <c r="DL2" s="127"/>
-      <c r="DM2" s="127"/>
-      <c r="DN2" s="127"/>
-      <c r="DO2" s="127"/>
-      <c r="DP2" s="127"/>
-      <c r="DQ2" s="127"/>
-      <c r="DR2" s="127"/>
-      <c r="DS2" s="127"/>
-      <c r="DT2" s="127" t="s">
+      <c r="CG2" s="100"/>
+      <c r="CH2" s="100"/>
+      <c r="CI2" s="100"/>
+      <c r="CJ2" s="100"/>
+      <c r="CK2" s="100"/>
+      <c r="CL2" s="100"/>
+      <c r="CM2" s="100"/>
+      <c r="CN2" s="100"/>
+      <c r="CO2" s="100"/>
+      <c r="CP2" s="100"/>
+      <c r="CQ2" s="100"/>
+      <c r="CR2" s="100"/>
+      <c r="CS2" s="100"/>
+      <c r="CT2" s="100"/>
+      <c r="CU2" s="100"/>
+      <c r="CV2" s="100"/>
+      <c r="CW2" s="100"/>
+      <c r="CX2" s="100"/>
+      <c r="CY2" s="100"/>
+      <c r="CZ2" s="100"/>
+      <c r="DA2" s="100"/>
+      <c r="DB2" s="100"/>
+      <c r="DC2" s="100"/>
+      <c r="DD2" s="100"/>
+      <c r="DE2" s="100"/>
+      <c r="DF2" s="100"/>
+      <c r="DG2" s="100"/>
+      <c r="DH2" s="100"/>
+      <c r="DI2" s="100"/>
+      <c r="DJ2" s="100"/>
+      <c r="DK2" s="100"/>
+      <c r="DL2" s="100"/>
+      <c r="DM2" s="100"/>
+      <c r="DN2" s="100"/>
+      <c r="DO2" s="100"/>
+      <c r="DP2" s="100"/>
+      <c r="DQ2" s="100"/>
+      <c r="DR2" s="100"/>
+      <c r="DS2" s="100"/>
+      <c r="DT2" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="DU2" s="127"/>
-      <c r="DV2" s="127"/>
-      <c r="DW2" s="127"/>
-      <c r="DX2" s="127"/>
-      <c r="DY2" s="127"/>
-      <c r="DZ2" s="127"/>
-      <c r="EA2" s="127"/>
-      <c r="EB2" s="127"/>
-      <c r="EC2" s="127"/>
-      <c r="ED2" s="127"/>
-      <c r="EE2" s="127"/>
-      <c r="EF2" s="127"/>
-      <c r="EG2" s="127"/>
-      <c r="EH2" s="127"/>
-      <c r="EI2" s="127"/>
-      <c r="EJ2" s="127"/>
-      <c r="EK2" s="127"/>
-      <c r="EL2" s="127"/>
-      <c r="EM2" s="127"/>
-      <c r="EN2" s="127"/>
-      <c r="EO2" s="127"/>
-      <c r="EP2" s="127"/>
-      <c r="EQ2" s="127"/>
-      <c r="ER2" s="127"/>
-      <c r="ES2" s="127"/>
-      <c r="ET2" s="127"/>
-      <c r="EU2" s="127"/>
-      <c r="EV2" s="127"/>
-      <c r="EW2" s="127"/>
-      <c r="EX2" s="127"/>
-      <c r="EY2" s="127"/>
-      <c r="EZ2" s="127"/>
-      <c r="FA2" s="127"/>
-      <c r="FB2" s="127"/>
-      <c r="FC2" s="127"/>
-      <c r="FD2" s="127"/>
-      <c r="FE2" s="127"/>
-      <c r="FF2" s="127"/>
-      <c r="FG2" s="127"/>
-      <c r="FH2" s="127" t="s">
+      <c r="DU2" s="100"/>
+      <c r="DV2" s="100"/>
+      <c r="DW2" s="100"/>
+      <c r="DX2" s="100"/>
+      <c r="DY2" s="100"/>
+      <c r="DZ2" s="100"/>
+      <c r="EA2" s="100"/>
+      <c r="EB2" s="100"/>
+      <c r="EC2" s="100"/>
+      <c r="ED2" s="100"/>
+      <c r="EE2" s="100"/>
+      <c r="EF2" s="100"/>
+      <c r="EG2" s="100"/>
+      <c r="EH2" s="100"/>
+      <c r="EI2" s="100"/>
+      <c r="EJ2" s="100"/>
+      <c r="EK2" s="100"/>
+      <c r="EL2" s="100"/>
+      <c r="EM2" s="100"/>
+      <c r="EN2" s="100"/>
+      <c r="EO2" s="100"/>
+      <c r="EP2" s="100"/>
+      <c r="EQ2" s="100"/>
+      <c r="ER2" s="100"/>
+      <c r="ES2" s="100"/>
+      <c r="ET2" s="100"/>
+      <c r="EU2" s="100"/>
+      <c r="EV2" s="100"/>
+      <c r="EW2" s="100"/>
+      <c r="EX2" s="100"/>
+      <c r="EY2" s="100"/>
+      <c r="EZ2" s="100"/>
+      <c r="FA2" s="100"/>
+      <c r="FB2" s="100"/>
+      <c r="FC2" s="100"/>
+      <c r="FD2" s="100"/>
+      <c r="FE2" s="100"/>
+      <c r="FF2" s="100"/>
+      <c r="FG2" s="100"/>
+      <c r="FH2" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="FI2" s="127"/>
-      <c r="FJ2" s="127"/>
-      <c r="FK2" s="127"/>
-      <c r="FL2" s="127"/>
-      <c r="FM2" s="127"/>
-      <c r="FN2" s="127"/>
-      <c r="FO2" s="127"/>
-      <c r="FP2" s="127"/>
-      <c r="FQ2" s="127"/>
-      <c r="FR2" s="127"/>
-      <c r="FS2" s="127"/>
-      <c r="FT2" s="127"/>
-      <c r="FU2" s="127"/>
-      <c r="FV2" s="127"/>
-      <c r="FW2" s="127"/>
-      <c r="FX2" s="127"/>
-      <c r="FY2" s="127"/>
-      <c r="FZ2" s="127"/>
-      <c r="GA2" s="127"/>
-      <c r="GB2" s="127"/>
-      <c r="GC2" s="127"/>
-      <c r="GD2" s="127"/>
-      <c r="GE2" s="127"/>
-      <c r="GF2" s="127"/>
-      <c r="GG2" s="127"/>
-      <c r="GH2" s="127"/>
-      <c r="GI2" s="127"/>
-      <c r="GJ2" s="127"/>
-      <c r="GK2" s="127"/>
-      <c r="GL2" s="127"/>
-      <c r="GM2" s="127"/>
-      <c r="GN2" s="127"/>
-      <c r="GO2" s="127"/>
-      <c r="GP2" s="127"/>
-      <c r="GQ2" s="127"/>
-      <c r="GR2" s="127"/>
-      <c r="GS2" s="127"/>
-      <c r="GT2" s="127"/>
-      <c r="GU2" s="127"/>
-      <c r="GV2" s="127"/>
+      <c r="FI2" s="100"/>
+      <c r="FJ2" s="100"/>
+      <c r="FK2" s="100"/>
+      <c r="FL2" s="100"/>
+      <c r="FM2" s="100"/>
+      <c r="FN2" s="100"/>
+      <c r="FO2" s="100"/>
+      <c r="FP2" s="100"/>
+      <c r="FQ2" s="100"/>
+      <c r="FR2" s="100"/>
+      <c r="FS2" s="100"/>
+      <c r="FT2" s="100"/>
+      <c r="FU2" s="100"/>
+      <c r="FV2" s="100"/>
+      <c r="FW2" s="100"/>
+      <c r="FX2" s="100"/>
+      <c r="FY2" s="100"/>
+      <c r="FZ2" s="100"/>
+      <c r="GA2" s="100"/>
+      <c r="GB2" s="100"/>
+      <c r="GC2" s="100"/>
+      <c r="GD2" s="100"/>
+      <c r="GE2" s="100"/>
+      <c r="GF2" s="100"/>
+      <c r="GG2" s="100"/>
+      <c r="GH2" s="100"/>
+      <c r="GI2" s="100"/>
+      <c r="GJ2" s="100"/>
+      <c r="GK2" s="100"/>
+      <c r="GL2" s="100"/>
+      <c r="GM2" s="100"/>
+      <c r="GN2" s="100"/>
+      <c r="GO2" s="100"/>
+      <c r="GP2" s="100"/>
+      <c r="GQ2" s="100"/>
+      <c r="GR2" s="100"/>
+      <c r="GS2" s="100"/>
+      <c r="GT2" s="100"/>
+      <c r="GU2" s="100"/>
+      <c r="GV2" s="100"/>
     </row>
     <row r="3" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="128"/>
-      <c r="AG3" s="128"/>
-      <c r="AH3" s="128"/>
-      <c r="AI3" s="128"/>
-      <c r="AJ3" s="128"/>
-      <c r="AK3" s="128"/>
-      <c r="AL3" s="128"/>
-      <c r="AM3" s="128"/>
-      <c r="AN3" s="128"/>
-      <c r="AO3" s="128"/>
-      <c r="AP3" s="128"/>
-      <c r="AQ3" s="128"/>
-      <c r="AR3" s="128"/>
-      <c r="AS3" s="128"/>
-      <c r="AT3" s="128"/>
-      <c r="AU3" s="128"/>
-      <c r="AV3" s="128"/>
-      <c r="AW3" s="128"/>
-      <c r="AX3" s="128"/>
-      <c r="AY3" s="128"/>
-      <c r="AZ3" s="128"/>
-      <c r="BA3" s="128"/>
-      <c r="BB3" s="128"/>
-      <c r="BC3" s="128"/>
-      <c r="BD3" s="128"/>
-      <c r="BE3" s="128"/>
-      <c r="BF3" s="128"/>
-      <c r="BG3" s="128"/>
-      <c r="BH3" s="128"/>
-      <c r="BI3" s="128"/>
-      <c r="BJ3" s="128"/>
-      <c r="BK3" s="128"/>
-      <c r="BL3" s="128"/>
-      <c r="BM3" s="128"/>
-      <c r="BN3" s="128"/>
-      <c r="BO3" s="128"/>
-      <c r="BP3" s="128"/>
-      <c r="BQ3" s="128"/>
-      <c r="BR3" s="128"/>
-      <c r="BS3" s="128"/>
-      <c r="BT3" s="128"/>
-      <c r="BU3" s="128"/>
-      <c r="BV3" s="128"/>
-      <c r="BW3" s="128"/>
-      <c r="BX3" s="128"/>
-      <c r="BY3" s="128"/>
-      <c r="BZ3" s="128"/>
-      <c r="CA3" s="128"/>
-      <c r="CB3" s="128"/>
-      <c r="CC3" s="128"/>
-      <c r="CD3" s="128"/>
-      <c r="CE3" s="128"/>
-      <c r="CF3" s="128"/>
-      <c r="CG3" s="128"/>
-      <c r="CH3" s="128"/>
-      <c r="CI3" s="128"/>
-      <c r="CJ3" s="128"/>
-      <c r="CK3" s="128"/>
-      <c r="CL3" s="128"/>
-      <c r="CM3" s="128"/>
-      <c r="CN3" s="128"/>
-      <c r="CO3" s="128"/>
-      <c r="CP3" s="128"/>
-      <c r="CQ3" s="128"/>
-      <c r="CR3" s="128"/>
-      <c r="CS3" s="128"/>
-      <c r="CT3" s="128"/>
-      <c r="CU3" s="128"/>
-      <c r="CV3" s="128"/>
-      <c r="CW3" s="128"/>
-      <c r="CX3" s="128"/>
-      <c r="CY3" s="128"/>
-      <c r="CZ3" s="128"/>
-      <c r="DA3" s="128"/>
-      <c r="DB3" s="128"/>
-      <c r="DC3" s="128"/>
-      <c r="DD3" s="128"/>
-      <c r="DE3" s="128"/>
-      <c r="DF3" s="128"/>
-      <c r="DG3" s="128"/>
-      <c r="DH3" s="128"/>
-      <c r="DI3" s="128"/>
-      <c r="DJ3" s="128"/>
-      <c r="DK3" s="128"/>
-      <c r="DL3" s="128"/>
-      <c r="DM3" s="128"/>
-      <c r="DN3" s="128"/>
-      <c r="DO3" s="128"/>
-      <c r="DP3" s="128"/>
-      <c r="DQ3" s="128"/>
-      <c r="DR3" s="128"/>
-      <c r="DS3" s="128"/>
-      <c r="DT3" s="128"/>
-      <c r="DU3" s="128"/>
-      <c r="DV3" s="128"/>
-      <c r="DW3" s="128"/>
-      <c r="DX3" s="128"/>
-      <c r="DY3" s="128"/>
-      <c r="DZ3" s="128"/>
-      <c r="EA3" s="128"/>
-      <c r="EB3" s="128"/>
-      <c r="EC3" s="128"/>
-      <c r="ED3" s="128"/>
-      <c r="EE3" s="128"/>
-      <c r="EF3" s="128"/>
-      <c r="EG3" s="128"/>
-      <c r="EH3" s="128"/>
-      <c r="EI3" s="128"/>
-      <c r="EJ3" s="128"/>
-      <c r="EK3" s="128"/>
-      <c r="EL3" s="128"/>
-      <c r="EM3" s="128"/>
-      <c r="EN3" s="128"/>
-      <c r="EO3" s="128"/>
-      <c r="EP3" s="128"/>
-      <c r="EQ3" s="128"/>
-      <c r="ER3" s="128"/>
-      <c r="ES3" s="128"/>
-      <c r="ET3" s="128"/>
-      <c r="EU3" s="128"/>
-      <c r="EV3" s="128"/>
-      <c r="EW3" s="128"/>
-      <c r="EX3" s="128"/>
-      <c r="EY3" s="128"/>
-      <c r="EZ3" s="128"/>
-      <c r="FA3" s="128"/>
-      <c r="FB3" s="128"/>
-      <c r="FC3" s="128"/>
-      <c r="FD3" s="128"/>
-      <c r="FE3" s="128"/>
-      <c r="FF3" s="128"/>
-      <c r="FG3" s="128"/>
-      <c r="FH3" s="128"/>
-      <c r="FI3" s="128"/>
-      <c r="FJ3" s="128"/>
-      <c r="FK3" s="128"/>
-      <c r="FL3" s="128"/>
-      <c r="FM3" s="128"/>
-      <c r="FN3" s="128"/>
-      <c r="FO3" s="128"/>
-      <c r="FP3" s="128"/>
-      <c r="FQ3" s="128"/>
-      <c r="FR3" s="128"/>
-      <c r="FS3" s="128"/>
-      <c r="FT3" s="128"/>
-      <c r="FU3" s="128"/>
-      <c r="FV3" s="128"/>
-      <c r="FW3" s="128"/>
-      <c r="FX3" s="128"/>
-      <c r="FY3" s="128"/>
-      <c r="FZ3" s="128"/>
-      <c r="GA3" s="128"/>
-      <c r="GB3" s="128"/>
-      <c r="GC3" s="128"/>
-      <c r="GD3" s="128"/>
-      <c r="GE3" s="128"/>
-      <c r="GF3" s="128"/>
-      <c r="GG3" s="128"/>
-      <c r="GH3" s="128"/>
-      <c r="GI3" s="128"/>
-      <c r="GJ3" s="128"/>
-      <c r="GK3" s="128"/>
-      <c r="GL3" s="128"/>
-      <c r="GM3" s="128"/>
-      <c r="GN3" s="127"/>
-      <c r="GO3" s="128"/>
-      <c r="GP3" s="128"/>
-      <c r="GQ3" s="128"/>
-      <c r="GR3" s="128"/>
-      <c r="GS3" s="128"/>
-      <c r="GT3" s="128"/>
-      <c r="GU3" s="128"/>
-      <c r="GV3" s="128"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="101"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="101"/>
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="101"/>
+      <c r="AO3" s="101"/>
+      <c r="AP3" s="101"/>
+      <c r="AQ3" s="101"/>
+      <c r="AR3" s="101"/>
+      <c r="AS3" s="101"/>
+      <c r="AT3" s="101"/>
+      <c r="AU3" s="101"/>
+      <c r="AV3" s="101"/>
+      <c r="AW3" s="101"/>
+      <c r="AX3" s="101"/>
+      <c r="AY3" s="101"/>
+      <c r="AZ3" s="101"/>
+      <c r="BA3" s="101"/>
+      <c r="BB3" s="101"/>
+      <c r="BC3" s="101"/>
+      <c r="BD3" s="101"/>
+      <c r="BE3" s="101"/>
+      <c r="BF3" s="101"/>
+      <c r="BG3" s="101"/>
+      <c r="BH3" s="101"/>
+      <c r="BI3" s="101"/>
+      <c r="BJ3" s="101"/>
+      <c r="BK3" s="101"/>
+      <c r="BL3" s="101"/>
+      <c r="BM3" s="101"/>
+      <c r="BN3" s="101"/>
+      <c r="BO3" s="101"/>
+      <c r="BP3" s="101"/>
+      <c r="BQ3" s="101"/>
+      <c r="BR3" s="101"/>
+      <c r="BS3" s="101"/>
+      <c r="BT3" s="101"/>
+      <c r="BU3" s="101"/>
+      <c r="BV3" s="101"/>
+      <c r="BW3" s="101"/>
+      <c r="BX3" s="101"/>
+      <c r="BY3" s="101"/>
+      <c r="BZ3" s="101"/>
+      <c r="CA3" s="101"/>
+      <c r="CB3" s="101"/>
+      <c r="CC3" s="101"/>
+      <c r="CD3" s="101"/>
+      <c r="CE3" s="101"/>
+      <c r="CF3" s="101"/>
+      <c r="CG3" s="101"/>
+      <c r="CH3" s="101"/>
+      <c r="CI3" s="101"/>
+      <c r="CJ3" s="101"/>
+      <c r="CK3" s="101"/>
+      <c r="CL3" s="101"/>
+      <c r="CM3" s="101"/>
+      <c r="CN3" s="101"/>
+      <c r="CO3" s="101"/>
+      <c r="CP3" s="101"/>
+      <c r="CQ3" s="101"/>
+      <c r="CR3" s="101"/>
+      <c r="CS3" s="101"/>
+      <c r="CT3" s="101"/>
+      <c r="CU3" s="101"/>
+      <c r="CV3" s="101"/>
+      <c r="CW3" s="101"/>
+      <c r="CX3" s="101"/>
+      <c r="CY3" s="101"/>
+      <c r="CZ3" s="101"/>
+      <c r="DA3" s="101"/>
+      <c r="DB3" s="101"/>
+      <c r="DC3" s="101"/>
+      <c r="DD3" s="101"/>
+      <c r="DE3" s="101"/>
+      <c r="DF3" s="101"/>
+      <c r="DG3" s="101"/>
+      <c r="DH3" s="101"/>
+      <c r="DI3" s="101"/>
+      <c r="DJ3" s="101"/>
+      <c r="DK3" s="101"/>
+      <c r="DL3" s="101"/>
+      <c r="DM3" s="101"/>
+      <c r="DN3" s="101"/>
+      <c r="DO3" s="101"/>
+      <c r="DP3" s="101"/>
+      <c r="DQ3" s="101"/>
+      <c r="DR3" s="101"/>
+      <c r="DS3" s="101"/>
+      <c r="DT3" s="101"/>
+      <c r="DU3" s="101"/>
+      <c r="DV3" s="101"/>
+      <c r="DW3" s="101"/>
+      <c r="DX3" s="101"/>
+      <c r="DY3" s="101"/>
+      <c r="DZ3" s="101"/>
+      <c r="EA3" s="101"/>
+      <c r="EB3" s="101"/>
+      <c r="EC3" s="101"/>
+      <c r="ED3" s="101"/>
+      <c r="EE3" s="101"/>
+      <c r="EF3" s="101"/>
+      <c r="EG3" s="101"/>
+      <c r="EH3" s="101"/>
+      <c r="EI3" s="101"/>
+      <c r="EJ3" s="101"/>
+      <c r="EK3" s="101"/>
+      <c r="EL3" s="101"/>
+      <c r="EM3" s="101"/>
+      <c r="EN3" s="101"/>
+      <c r="EO3" s="101"/>
+      <c r="EP3" s="101"/>
+      <c r="EQ3" s="101"/>
+      <c r="ER3" s="101"/>
+      <c r="ES3" s="101"/>
+      <c r="ET3" s="101"/>
+      <c r="EU3" s="101"/>
+      <c r="EV3" s="101"/>
+      <c r="EW3" s="101"/>
+      <c r="EX3" s="101"/>
+      <c r="EY3" s="101"/>
+      <c r="EZ3" s="101"/>
+      <c r="FA3" s="101"/>
+      <c r="FB3" s="101"/>
+      <c r="FC3" s="101"/>
+      <c r="FD3" s="101"/>
+      <c r="FE3" s="101"/>
+      <c r="FF3" s="101"/>
+      <c r="FG3" s="101"/>
+      <c r="FH3" s="101"/>
+      <c r="FI3" s="101"/>
+      <c r="FJ3" s="101"/>
+      <c r="FK3" s="101"/>
+      <c r="FL3" s="101"/>
+      <c r="FM3" s="101"/>
+      <c r="FN3" s="101"/>
+      <c r="FO3" s="101"/>
+      <c r="FP3" s="101"/>
+      <c r="FQ3" s="101"/>
+      <c r="FR3" s="101"/>
+      <c r="FS3" s="101"/>
+      <c r="FT3" s="101"/>
+      <c r="FU3" s="101"/>
+      <c r="FV3" s="101"/>
+      <c r="FW3" s="101"/>
+      <c r="FX3" s="101"/>
+      <c r="FY3" s="101"/>
+      <c r="FZ3" s="101"/>
+      <c r="GA3" s="101"/>
+      <c r="GB3" s="101"/>
+      <c r="GC3" s="101"/>
+      <c r="GD3" s="101"/>
+      <c r="GE3" s="101"/>
+      <c r="GF3" s="101"/>
+      <c r="GG3" s="101"/>
+      <c r="GH3" s="101"/>
+      <c r="GI3" s="101"/>
+      <c r="GJ3" s="101"/>
+      <c r="GK3" s="101"/>
+      <c r="GL3" s="101"/>
+      <c r="GM3" s="101"/>
+      <c r="GN3" s="100"/>
+      <c r="GO3" s="101"/>
+      <c r="GP3" s="101"/>
+      <c r="GQ3" s="101"/>
+      <c r="GR3" s="101"/>
+      <c r="GS3" s="101"/>
+      <c r="GT3" s="101"/>
+      <c r="GU3" s="101"/>
+      <c r="GV3" s="101"/>
     </row>
     <row r="4" spans="1:205" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="98" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -2578,313 +2578,313 @@
       <c r="C4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="129">
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="102">
         <v>45418</v>
       </c>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="120" t="s">
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="118">
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="94">
         <v>45419</v>
       </c>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="120" t="s">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="121"/>
-      <c r="V4" s="121"/>
-      <c r="W4" s="121"/>
-      <c r="X4" s="118">
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="94">
         <v>45420</v>
       </c>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="119"/>
-      <c r="AB4" s="120" t="s">
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="121"/>
-      <c r="AD4" s="121"/>
-      <c r="AE4" s="121"/>
-      <c r="AF4" s="118">
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="94">
         <v>45421</v>
       </c>
-      <c r="AG4" s="118"/>
-      <c r="AH4" s="118"/>
-      <c r="AI4" s="119"/>
-      <c r="AJ4" s="120" t="s">
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="121"/>
-      <c r="AL4" s="121"/>
-      <c r="AM4" s="121"/>
-      <c r="AN4" s="118">
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="94">
         <v>45422</v>
       </c>
-      <c r="AO4" s="118"/>
-      <c r="AP4" s="118"/>
-      <c r="AQ4" s="119"/>
-      <c r="AR4" s="120" t="s">
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="121"/>
-      <c r="AT4" s="121"/>
-      <c r="AU4" s="121"/>
-      <c r="AV4" s="118">
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="94">
         <v>45425</v>
       </c>
-      <c r="AW4" s="118"/>
-      <c r="AX4" s="118"/>
-      <c r="AY4" s="119"/>
-      <c r="AZ4" s="120" t="s">
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="95"/>
+      <c r="AZ4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="BA4" s="121"/>
-      <c r="BB4" s="121"/>
-      <c r="BC4" s="121"/>
-      <c r="BD4" s="118">
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="94">
         <v>45426</v>
       </c>
-      <c r="BE4" s="118"/>
-      <c r="BF4" s="118"/>
-      <c r="BG4" s="119"/>
-      <c r="BH4" s="120" t="s">
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="94"/>
+      <c r="BG4" s="95"/>
+      <c r="BH4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="BI4" s="121"/>
-      <c r="BJ4" s="121"/>
-      <c r="BK4" s="121"/>
-      <c r="BL4" s="118">
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="94">
         <v>45427</v>
       </c>
-      <c r="BM4" s="118"/>
-      <c r="BN4" s="118"/>
-      <c r="BO4" s="119"/>
-      <c r="BP4" s="120" t="s">
+      <c r="BM4" s="94"/>
+      <c r="BN4" s="94"/>
+      <c r="BO4" s="95"/>
+      <c r="BP4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="BQ4" s="121"/>
-      <c r="BR4" s="121"/>
-      <c r="BS4" s="121"/>
-      <c r="BT4" s="118">
+      <c r="BQ4" s="93"/>
+      <c r="BR4" s="93"/>
+      <c r="BS4" s="93"/>
+      <c r="BT4" s="94">
         <v>45428</v>
       </c>
-      <c r="BU4" s="118"/>
-      <c r="BV4" s="118"/>
-      <c r="BW4" s="119"/>
-      <c r="BX4" s="120" t="s">
+      <c r="BU4" s="94"/>
+      <c r="BV4" s="94"/>
+      <c r="BW4" s="95"/>
+      <c r="BX4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="121"/>
-      <c r="BZ4" s="121"/>
-      <c r="CA4" s="121"/>
-      <c r="CB4" s="118">
+      <c r="BY4" s="93"/>
+      <c r="BZ4" s="93"/>
+      <c r="CA4" s="93"/>
+      <c r="CB4" s="94">
         <v>45429</v>
       </c>
-      <c r="CC4" s="118"/>
-      <c r="CD4" s="118"/>
-      <c r="CE4" s="119"/>
-      <c r="CF4" s="120" t="s">
+      <c r="CC4" s="94"/>
+      <c r="CD4" s="94"/>
+      <c r="CE4" s="95"/>
+      <c r="CF4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="CG4" s="121"/>
-      <c r="CH4" s="121"/>
-      <c r="CI4" s="121"/>
-      <c r="CJ4" s="118">
+      <c r="CG4" s="93"/>
+      <c r="CH4" s="93"/>
+      <c r="CI4" s="93"/>
+      <c r="CJ4" s="94">
         <v>45432</v>
       </c>
-      <c r="CK4" s="118"/>
-      <c r="CL4" s="118"/>
-      <c r="CM4" s="119"/>
-      <c r="CN4" s="120" t="s">
+      <c r="CK4" s="94"/>
+      <c r="CL4" s="94"/>
+      <c r="CM4" s="95"/>
+      <c r="CN4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="CO4" s="121"/>
-      <c r="CP4" s="121"/>
-      <c r="CQ4" s="121"/>
-      <c r="CR4" s="118">
+      <c r="CO4" s="93"/>
+      <c r="CP4" s="93"/>
+      <c r="CQ4" s="93"/>
+      <c r="CR4" s="94">
         <v>45433</v>
       </c>
-      <c r="CS4" s="118"/>
-      <c r="CT4" s="118"/>
-      <c r="CU4" s="119"/>
-      <c r="CV4" s="120" t="s">
+      <c r="CS4" s="94"/>
+      <c r="CT4" s="94"/>
+      <c r="CU4" s="95"/>
+      <c r="CV4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="CW4" s="121"/>
-      <c r="CX4" s="121"/>
-      <c r="CY4" s="121"/>
-      <c r="CZ4" s="118">
+      <c r="CW4" s="93"/>
+      <c r="CX4" s="93"/>
+      <c r="CY4" s="93"/>
+      <c r="CZ4" s="94">
         <v>45434</v>
       </c>
-      <c r="DA4" s="118"/>
-      <c r="DB4" s="118"/>
-      <c r="DC4" s="119"/>
-      <c r="DD4" s="120" t="s">
+      <c r="DA4" s="94"/>
+      <c r="DB4" s="94"/>
+      <c r="DC4" s="95"/>
+      <c r="DD4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="DE4" s="121"/>
-      <c r="DF4" s="121"/>
-      <c r="DG4" s="121"/>
-      <c r="DH4" s="118">
+      <c r="DE4" s="93"/>
+      <c r="DF4" s="93"/>
+      <c r="DG4" s="93"/>
+      <c r="DH4" s="94">
         <v>45435</v>
       </c>
-      <c r="DI4" s="118"/>
-      <c r="DJ4" s="118"/>
-      <c r="DK4" s="119"/>
-      <c r="DL4" s="120" t="s">
+      <c r="DI4" s="94"/>
+      <c r="DJ4" s="94"/>
+      <c r="DK4" s="95"/>
+      <c r="DL4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="DM4" s="121"/>
-      <c r="DN4" s="121"/>
-      <c r="DO4" s="121"/>
-      <c r="DP4" s="118">
+      <c r="DM4" s="93"/>
+      <c r="DN4" s="93"/>
+      <c r="DO4" s="93"/>
+      <c r="DP4" s="94">
         <v>45436</v>
       </c>
-      <c r="DQ4" s="118"/>
-      <c r="DR4" s="118"/>
-      <c r="DS4" s="119"/>
-      <c r="DT4" s="120" t="s">
+      <c r="DQ4" s="94"/>
+      <c r="DR4" s="94"/>
+      <c r="DS4" s="95"/>
+      <c r="DT4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="DU4" s="121"/>
-      <c r="DV4" s="121"/>
-      <c r="DW4" s="121"/>
-      <c r="DX4" s="118">
+      <c r="DU4" s="93"/>
+      <c r="DV4" s="93"/>
+      <c r="DW4" s="93"/>
+      <c r="DX4" s="94">
         <v>45439</v>
       </c>
-      <c r="DY4" s="118"/>
-      <c r="DZ4" s="118"/>
-      <c r="EA4" s="119"/>
-      <c r="EB4" s="120" t="s">
+      <c r="DY4" s="94"/>
+      <c r="DZ4" s="94"/>
+      <c r="EA4" s="95"/>
+      <c r="EB4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="EC4" s="121"/>
-      <c r="ED4" s="121"/>
-      <c r="EE4" s="121"/>
-      <c r="EF4" s="118">
+      <c r="EC4" s="93"/>
+      <c r="ED4" s="93"/>
+      <c r="EE4" s="93"/>
+      <c r="EF4" s="94">
         <v>45440</v>
       </c>
-      <c r="EG4" s="118"/>
-      <c r="EH4" s="118"/>
-      <c r="EI4" s="119"/>
-      <c r="EJ4" s="120" t="s">
+      <c r="EG4" s="94"/>
+      <c r="EH4" s="94"/>
+      <c r="EI4" s="95"/>
+      <c r="EJ4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="EK4" s="121"/>
-      <c r="EL4" s="121"/>
-      <c r="EM4" s="121"/>
-      <c r="EN4" s="118">
+      <c r="EK4" s="93"/>
+      <c r="EL4" s="93"/>
+      <c r="EM4" s="93"/>
+      <c r="EN4" s="94">
         <v>45441</v>
       </c>
-      <c r="EO4" s="118"/>
-      <c r="EP4" s="118"/>
-      <c r="EQ4" s="119"/>
-      <c r="ER4" s="120" t="s">
+      <c r="EO4" s="94"/>
+      <c r="EP4" s="94"/>
+      <c r="EQ4" s="95"/>
+      <c r="ER4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="ES4" s="121"/>
-      <c r="ET4" s="121"/>
-      <c r="EU4" s="121"/>
-      <c r="EV4" s="118">
+      <c r="ES4" s="93"/>
+      <c r="ET4" s="93"/>
+      <c r="EU4" s="93"/>
+      <c r="EV4" s="94">
         <v>45442</v>
       </c>
-      <c r="EW4" s="118"/>
-      <c r="EX4" s="118"/>
-      <c r="EY4" s="119"/>
-      <c r="EZ4" s="120" t="s">
+      <c r="EW4" s="94"/>
+      <c r="EX4" s="94"/>
+      <c r="EY4" s="95"/>
+      <c r="EZ4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="FA4" s="121"/>
-      <c r="FB4" s="121"/>
-      <c r="FC4" s="121"/>
-      <c r="FD4" s="118">
+      <c r="FA4" s="93"/>
+      <c r="FB4" s="93"/>
+      <c r="FC4" s="93"/>
+      <c r="FD4" s="94">
         <v>45443</v>
       </c>
-      <c r="FE4" s="118"/>
-      <c r="FF4" s="118"/>
-      <c r="FG4" s="119"/>
-      <c r="FH4" s="120" t="s">
+      <c r="FE4" s="94"/>
+      <c r="FF4" s="94"/>
+      <c r="FG4" s="95"/>
+      <c r="FH4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="FI4" s="121"/>
-      <c r="FJ4" s="121"/>
-      <c r="FK4" s="121"/>
-      <c r="FL4" s="118">
+      <c r="FI4" s="93"/>
+      <c r="FJ4" s="93"/>
+      <c r="FK4" s="93"/>
+      <c r="FL4" s="94">
         <v>45446</v>
       </c>
-      <c r="FM4" s="118"/>
-      <c r="FN4" s="118"/>
-      <c r="FO4" s="119"/>
-      <c r="FP4" s="120" t="s">
+      <c r="FM4" s="94"/>
+      <c r="FN4" s="94"/>
+      <c r="FO4" s="95"/>
+      <c r="FP4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="FQ4" s="121"/>
-      <c r="FR4" s="121"/>
-      <c r="FS4" s="121"/>
-      <c r="FT4" s="118">
+      <c r="FQ4" s="93"/>
+      <c r="FR4" s="93"/>
+      <c r="FS4" s="93"/>
+      <c r="FT4" s="94">
         <v>45447</v>
       </c>
-      <c r="FU4" s="118"/>
-      <c r="FV4" s="118"/>
-      <c r="FW4" s="119"/>
-      <c r="FX4" s="120" t="s">
+      <c r="FU4" s="94"/>
+      <c r="FV4" s="94"/>
+      <c r="FW4" s="95"/>
+      <c r="FX4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="FY4" s="121"/>
-      <c r="FZ4" s="121"/>
-      <c r="GA4" s="121"/>
-      <c r="GB4" s="118">
+      <c r="FY4" s="93"/>
+      <c r="FZ4" s="93"/>
+      <c r="GA4" s="93"/>
+      <c r="GB4" s="94">
         <v>45448</v>
       </c>
-      <c r="GC4" s="118"/>
-      <c r="GD4" s="118"/>
-      <c r="GE4" s="119"/>
-      <c r="GF4" s="120" t="s">
+      <c r="GC4" s="94"/>
+      <c r="GD4" s="94"/>
+      <c r="GE4" s="95"/>
+      <c r="GF4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="GG4" s="121"/>
-      <c r="GH4" s="121"/>
-      <c r="GI4" s="121"/>
-      <c r="GJ4" s="118">
+      <c r="GG4" s="93"/>
+      <c r="GH4" s="93"/>
+      <c r="GI4" s="93"/>
+      <c r="GJ4" s="94">
         <v>45449</v>
       </c>
-      <c r="GK4" s="118"/>
-      <c r="GL4" s="118"/>
-      <c r="GM4" s="118"/>
+      <c r="GK4" s="94"/>
+      <c r="GL4" s="94"/>
+      <c r="GM4" s="94"/>
       <c r="GN4" s="50"/>
-      <c r="GO4" s="121" t="s">
+      <c r="GO4" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="GP4" s="121"/>
-      <c r="GQ4" s="121"/>
-      <c r="GR4" s="121"/>
-      <c r="GS4" s="118">
+      <c r="GP4" s="93"/>
+      <c r="GQ4" s="93"/>
+      <c r="GR4" s="93"/>
+      <c r="GS4" s="94">
         <v>45454</v>
       </c>
-      <c r="GT4" s="118"/>
-      <c r="GU4" s="118"/>
-      <c r="GV4" s="119"/>
-      <c r="GW4" s="131" t="s">
+      <c r="GT4" s="94"/>
+      <c r="GU4" s="94"/>
+      <c r="GV4" s="95"/>
+      <c r="GW4" s="96" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="126"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
@@ -3492,7 +3492,7 @@
       <c r="GV5" s="7">
         <v>8</v>
       </c>
-      <c r="GW5" s="131"/>
+      <c r="GW5" s="96"/>
     </row>
     <row r="6" spans="1:205" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
@@ -3526,16 +3526,16 @@
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
       <c r="AA6" s="15"/>
-      <c r="AB6" s="106" t="s">
+      <c r="AB6" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="AC6" s="107"/>
-      <c r="AD6" s="107"/>
-      <c r="AE6" s="107"/>
-      <c r="AF6" s="107"/>
-      <c r="AG6" s="107"/>
-      <c r="AH6" s="107"/>
-      <c r="AI6" s="108"/>
+      <c r="AC6" s="105"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="105"/>
+      <c r="AF6" s="105"/>
+      <c r="AG6" s="105"/>
+      <c r="AH6" s="105"/>
+      <c r="AI6" s="106"/>
       <c r="AJ6" s="13"/>
       <c r="AK6" s="14"/>
       <c r="AL6" s="14"/>
@@ -3590,16 +3590,16 @@
       <c r="CE6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="CF6" s="106" t="s">
+      <c r="CF6" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="CG6" s="107"/>
-      <c r="CH6" s="107"/>
-      <c r="CI6" s="107"/>
-      <c r="CJ6" s="107"/>
-      <c r="CK6" s="107"/>
-      <c r="CL6" s="107"/>
-      <c r="CM6" s="108"/>
+      <c r="CG6" s="105"/>
+      <c r="CH6" s="105"/>
+      <c r="CI6" s="105"/>
+      <c r="CJ6" s="105"/>
+      <c r="CK6" s="105"/>
+      <c r="CL6" s="105"/>
+      <c r="CM6" s="106"/>
       <c r="CN6" s="26" t="s">
         <v>28</v>
       </c>
@@ -3672,16 +3672,16 @@
       <c r="EO6" s="24"/>
       <c r="EP6" s="24"/>
       <c r="EQ6" s="25"/>
-      <c r="ER6" s="106" t="s">
+      <c r="ER6" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="ES6" s="107"/>
-      <c r="ET6" s="107"/>
-      <c r="EU6" s="107"/>
-      <c r="EV6" s="107"/>
-      <c r="EW6" s="107"/>
-      <c r="EX6" s="107"/>
-      <c r="EY6" s="108"/>
+      <c r="ES6" s="105"/>
+      <c r="ET6" s="105"/>
+      <c r="EU6" s="105"/>
+      <c r="EV6" s="105"/>
+      <c r="EW6" s="105"/>
+      <c r="EX6" s="105"/>
+      <c r="EY6" s="106"/>
       <c r="EZ6" s="26"/>
       <c r="FA6" s="24"/>
       <c r="FB6" s="24"/>
@@ -3731,13 +3731,13 @@
       <c r="GT6" s="10"/>
       <c r="GU6" s="10"/>
       <c r="GV6" s="10"/>
-      <c r="GW6" s="131"/>
+      <c r="GW6" s="96"/>
     </row>
     <row r="7" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="95"/>
+      <c r="B7" s="122"/>
       <c r="C7" s="60"/>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
@@ -3763,14 +3763,14 @@
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
       <c r="AA7" s="15"/>
-      <c r="AB7" s="109"/>
-      <c r="AC7" s="110"/>
-      <c r="AD7" s="110"/>
-      <c r="AE7" s="110"/>
-      <c r="AF7" s="110"/>
-      <c r="AG7" s="110"/>
-      <c r="AH7" s="110"/>
-      <c r="AI7" s="111"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="108"/>
+      <c r="AD7" s="108"/>
+      <c r="AE7" s="108"/>
+      <c r="AF7" s="108"/>
+      <c r="AG7" s="108"/>
+      <c r="AH7" s="108"/>
+      <c r="AI7" s="109"/>
       <c r="AJ7" s="13"/>
       <c r="AK7" s="14"/>
       <c r="AL7" s="14"/>
@@ -3819,14 +3819,14 @@
       <c r="CC7" s="14"/>
       <c r="CD7" s="14"/>
       <c r="CE7" s="15"/>
-      <c r="CF7" s="109"/>
-      <c r="CG7" s="110"/>
-      <c r="CH7" s="110"/>
-      <c r="CI7" s="110"/>
-      <c r="CJ7" s="110"/>
-      <c r="CK7" s="110"/>
-      <c r="CL7" s="110"/>
-      <c r="CM7" s="111"/>
+      <c r="CF7" s="107"/>
+      <c r="CG7" s="108"/>
+      <c r="CH7" s="108"/>
+      <c r="CI7" s="108"/>
+      <c r="CJ7" s="108"/>
+      <c r="CK7" s="108"/>
+      <c r="CL7" s="108"/>
+      <c r="CM7" s="109"/>
       <c r="CN7" s="13"/>
       <c r="CO7" s="14"/>
       <c r="CP7" s="14"/>
@@ -3883,14 +3883,14 @@
       <c r="EO7" s="14"/>
       <c r="EP7" s="14"/>
       <c r="EQ7" s="15"/>
-      <c r="ER7" s="109"/>
-      <c r="ES7" s="110"/>
-      <c r="ET7" s="110"/>
-      <c r="EU7" s="110"/>
-      <c r="EV7" s="110"/>
-      <c r="EW7" s="110"/>
-      <c r="EX7" s="110"/>
-      <c r="EY7" s="111"/>
+      <c r="ER7" s="107"/>
+      <c r="ES7" s="108"/>
+      <c r="ET7" s="108"/>
+      <c r="EU7" s="108"/>
+      <c r="EV7" s="108"/>
+      <c r="EW7" s="108"/>
+      <c r="EX7" s="108"/>
+      <c r="EY7" s="109"/>
       <c r="EZ7" s="13"/>
       <c r="FA7" s="14"/>
       <c r="FB7" s="14"/>
@@ -3940,7 +3940,7 @@
       <c r="GT7" s="14"/>
       <c r="GU7" s="14"/>
       <c r="GV7" s="14"/>
-      <c r="GW7" s="131"/>
+      <c r="GW7" s="96"/>
     </row>
     <row r="8" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A8" s="79" t="s">
@@ -3974,14 +3974,14 @@
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
       <c r="AA8" s="15"/>
-      <c r="AB8" s="109"/>
-      <c r="AC8" s="110"/>
-      <c r="AD8" s="110"/>
-      <c r="AE8" s="110"/>
-      <c r="AF8" s="110"/>
-      <c r="AG8" s="110"/>
-      <c r="AH8" s="110"/>
-      <c r="AI8" s="111"/>
+      <c r="AB8" s="107"/>
+      <c r="AC8" s="108"/>
+      <c r="AD8" s="108"/>
+      <c r="AE8" s="108"/>
+      <c r="AF8" s="108"/>
+      <c r="AG8" s="108"/>
+      <c r="AH8" s="108"/>
+      <c r="AI8" s="109"/>
       <c r="AJ8" s="13"/>
       <c r="AK8" s="14"/>
       <c r="AL8" s="14"/>
@@ -4034,14 +4034,14 @@
       <c r="CC8" s="14"/>
       <c r="CD8" s="14"/>
       <c r="CE8" s="44"/>
-      <c r="CF8" s="109"/>
-      <c r="CG8" s="110"/>
-      <c r="CH8" s="110"/>
-      <c r="CI8" s="110"/>
-      <c r="CJ8" s="110"/>
-      <c r="CK8" s="110"/>
-      <c r="CL8" s="110"/>
-      <c r="CM8" s="111"/>
+      <c r="CF8" s="107"/>
+      <c r="CG8" s="108"/>
+      <c r="CH8" s="108"/>
+      <c r="CI8" s="108"/>
+      <c r="CJ8" s="108"/>
+      <c r="CK8" s="108"/>
+      <c r="CL8" s="108"/>
+      <c r="CM8" s="109"/>
       <c r="CN8" s="13"/>
       <c r="CO8" s="14"/>
       <c r="CP8" s="14"/>
@@ -4098,14 +4098,14 @@
       <c r="EO8" s="14"/>
       <c r="EP8" s="14"/>
       <c r="EQ8" s="15"/>
-      <c r="ER8" s="109"/>
-      <c r="ES8" s="110"/>
-      <c r="ET8" s="110"/>
-      <c r="EU8" s="110"/>
-      <c r="EV8" s="110"/>
-      <c r="EW8" s="110"/>
-      <c r="EX8" s="110"/>
-      <c r="EY8" s="111"/>
+      <c r="ER8" s="107"/>
+      <c r="ES8" s="108"/>
+      <c r="ET8" s="108"/>
+      <c r="EU8" s="108"/>
+      <c r="EV8" s="108"/>
+      <c r="EW8" s="108"/>
+      <c r="EX8" s="108"/>
+      <c r="EY8" s="109"/>
       <c r="EZ8" s="13"/>
       <c r="FA8" s="14"/>
       <c r="FB8" s="14"/>
@@ -4155,7 +4155,7 @@
       <c r="GT8" s="14"/>
       <c r="GU8" s="14"/>
       <c r="GV8" s="14"/>
-      <c r="GW8" s="131"/>
+      <c r="GW8" s="96"/>
     </row>
     <row r="9" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="80" t="s">
@@ -4189,14 +4189,14 @@
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
       <c r="AA9" s="15"/>
-      <c r="AB9" s="109"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="110"/>
-      <c r="AE9" s="110"/>
-      <c r="AF9" s="110"/>
-      <c r="AG9" s="110"/>
-      <c r="AH9" s="110"/>
-      <c r="AI9" s="111"/>
+      <c r="AB9" s="107"/>
+      <c r="AC9" s="108"/>
+      <c r="AD9" s="108"/>
+      <c r="AE9" s="108"/>
+      <c r="AF9" s="108"/>
+      <c r="AG9" s="108"/>
+      <c r="AH9" s="108"/>
+      <c r="AI9" s="109"/>
       <c r="AJ9" s="13"/>
       <c r="AK9" s="14"/>
       <c r="AL9" s="14"/>
@@ -4265,14 +4265,14 @@
         <v>28</v>
       </c>
       <c r="CE9" s="36"/>
-      <c r="CF9" s="109"/>
-      <c r="CG9" s="110"/>
-      <c r="CH9" s="110"/>
-      <c r="CI9" s="110"/>
-      <c r="CJ9" s="110"/>
-      <c r="CK9" s="110"/>
-      <c r="CL9" s="110"/>
-      <c r="CM9" s="111"/>
+      <c r="CF9" s="107"/>
+      <c r="CG9" s="108"/>
+      <c r="CH9" s="108"/>
+      <c r="CI9" s="108"/>
+      <c r="CJ9" s="108"/>
+      <c r="CK9" s="108"/>
+      <c r="CL9" s="108"/>
+      <c r="CM9" s="109"/>
       <c r="CN9" s="13"/>
       <c r="CO9" s="14"/>
       <c r="CP9" s="14"/>
@@ -4329,14 +4329,14 @@
       <c r="EO9" s="14"/>
       <c r="EP9" s="14"/>
       <c r="EQ9" s="15"/>
-      <c r="ER9" s="109"/>
-      <c r="ES9" s="110"/>
-      <c r="ET9" s="110"/>
-      <c r="EU9" s="110"/>
-      <c r="EV9" s="110"/>
-      <c r="EW9" s="110"/>
-      <c r="EX9" s="110"/>
-      <c r="EY9" s="111"/>
+      <c r="ER9" s="107"/>
+      <c r="ES9" s="108"/>
+      <c r="ET9" s="108"/>
+      <c r="EU9" s="108"/>
+      <c r="EV9" s="108"/>
+      <c r="EW9" s="108"/>
+      <c r="EX9" s="108"/>
+      <c r="EY9" s="109"/>
       <c r="EZ9" s="13"/>
       <c r="FA9" s="14"/>
       <c r="FB9" s="14"/>
@@ -4386,13 +4386,13 @@
       <c r="GT9" s="14"/>
       <c r="GU9" s="14"/>
       <c r="GV9" s="14"/>
-      <c r="GW9" s="131"/>
+      <c r="GW9" s="96"/>
     </row>
     <row r="10" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="97"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="60"/>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
@@ -4418,14 +4418,14 @@
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
       <c r="AA10" s="15"/>
-      <c r="AB10" s="109"/>
-      <c r="AC10" s="110"/>
-      <c r="AD10" s="110"/>
-      <c r="AE10" s="110"/>
-      <c r="AF10" s="110"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="110"/>
-      <c r="AI10" s="111"/>
+      <c r="AB10" s="107"/>
+      <c r="AC10" s="108"/>
+      <c r="AD10" s="108"/>
+      <c r="AE10" s="108"/>
+      <c r="AF10" s="108"/>
+      <c r="AG10" s="108"/>
+      <c r="AH10" s="108"/>
+      <c r="AI10" s="109"/>
       <c r="AJ10" s="13"/>
       <c r="AK10" s="14"/>
       <c r="AL10" s="14"/>
@@ -4474,14 +4474,14 @@
       <c r="CC10" s="32"/>
       <c r="CD10" s="32"/>
       <c r="CE10" s="32"/>
-      <c r="CF10" s="109"/>
-      <c r="CG10" s="110"/>
-      <c r="CH10" s="110"/>
-      <c r="CI10" s="110"/>
-      <c r="CJ10" s="110"/>
-      <c r="CK10" s="110"/>
-      <c r="CL10" s="110"/>
-      <c r="CM10" s="111"/>
+      <c r="CF10" s="107"/>
+      <c r="CG10" s="108"/>
+      <c r="CH10" s="108"/>
+      <c r="CI10" s="108"/>
+      <c r="CJ10" s="108"/>
+      <c r="CK10" s="108"/>
+      <c r="CL10" s="108"/>
+      <c r="CM10" s="109"/>
       <c r="CN10" s="13"/>
       <c r="CO10" s="14"/>
       <c r="CP10" s="14"/>
@@ -4540,14 +4540,14 @@
       <c r="EO10" s="14"/>
       <c r="EP10" s="14"/>
       <c r="EQ10" s="15"/>
-      <c r="ER10" s="109"/>
-      <c r="ES10" s="110"/>
-      <c r="ET10" s="110"/>
-      <c r="EU10" s="110"/>
-      <c r="EV10" s="110"/>
-      <c r="EW10" s="110"/>
-      <c r="EX10" s="110"/>
-      <c r="EY10" s="111"/>
+      <c r="ER10" s="107"/>
+      <c r="ES10" s="108"/>
+      <c r="ET10" s="108"/>
+      <c r="EU10" s="108"/>
+      <c r="EV10" s="108"/>
+      <c r="EW10" s="108"/>
+      <c r="EX10" s="108"/>
+      <c r="EY10" s="109"/>
       <c r="EZ10" s="13"/>
       <c r="FA10" s="14"/>
       <c r="FB10" s="14"/>
@@ -4597,7 +4597,7 @@
       <c r="GT10" s="14"/>
       <c r="GU10" s="14"/>
       <c r="GV10" s="14"/>
-      <c r="GW10" s="131"/>
+      <c r="GW10" s="96"/>
     </row>
     <row r="11" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A11" s="76" t="s">
@@ -4631,14 +4631,14 @@
       <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
       <c r="AA11" s="15"/>
-      <c r="AB11" s="109"/>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="110"/>
-      <c r="AE11" s="110"/>
-      <c r="AF11" s="110"/>
-      <c r="AG11" s="110"/>
-      <c r="AH11" s="110"/>
-      <c r="AI11" s="111"/>
+      <c r="AB11" s="107"/>
+      <c r="AC11" s="108"/>
+      <c r="AD11" s="108"/>
+      <c r="AE11" s="108"/>
+      <c r="AF11" s="108"/>
+      <c r="AG11" s="108"/>
+      <c r="AH11" s="108"/>
+      <c r="AI11" s="109"/>
       <c r="AJ11" s="13"/>
       <c r="AK11" s="14"/>
       <c r="AL11" s="14"/>
@@ -4689,14 +4689,14 @@
       </c>
       <c r="CD11" s="14"/>
       <c r="CE11" s="14"/>
-      <c r="CF11" s="109"/>
-      <c r="CG11" s="110"/>
-      <c r="CH11" s="110"/>
-      <c r="CI11" s="110"/>
-      <c r="CJ11" s="110"/>
-      <c r="CK11" s="110"/>
-      <c r="CL11" s="110"/>
-      <c r="CM11" s="111"/>
+      <c r="CF11" s="107"/>
+      <c r="CG11" s="108"/>
+      <c r="CH11" s="108"/>
+      <c r="CI11" s="108"/>
+      <c r="CJ11" s="108"/>
+      <c r="CK11" s="108"/>
+      <c r="CL11" s="108"/>
+      <c r="CM11" s="109"/>
       <c r="CN11" s="28"/>
       <c r="CO11" s="14"/>
       <c r="CP11" s="14"/>
@@ -4753,14 +4753,14 @@
       <c r="EO11" s="14"/>
       <c r="EP11" s="14"/>
       <c r="EQ11" s="15"/>
-      <c r="ER11" s="109"/>
-      <c r="ES11" s="110"/>
-      <c r="ET11" s="110"/>
-      <c r="EU11" s="110"/>
-      <c r="EV11" s="110"/>
-      <c r="EW11" s="110"/>
-      <c r="EX11" s="110"/>
-      <c r="EY11" s="111"/>
+      <c r="ER11" s="107"/>
+      <c r="ES11" s="108"/>
+      <c r="ET11" s="108"/>
+      <c r="EU11" s="108"/>
+      <c r="EV11" s="108"/>
+      <c r="EW11" s="108"/>
+      <c r="EX11" s="108"/>
+      <c r="EY11" s="109"/>
       <c r="EZ11" s="13"/>
       <c r="FA11" s="14"/>
       <c r="FB11" s="14"/>
@@ -4810,7 +4810,7 @@
       <c r="GT11" s="14"/>
       <c r="GU11" s="14"/>
       <c r="GV11" s="14"/>
-      <c r="GW11" s="131"/>
+      <c r="GW11" s="96"/>
     </row>
     <row r="12" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A12" s="77" t="s">
@@ -4844,14 +4844,14 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
       <c r="AA12" s="15"/>
-      <c r="AB12" s="109"/>
-      <c r="AC12" s="110"/>
-      <c r="AD12" s="110"/>
-      <c r="AE12" s="110"/>
-      <c r="AF12" s="110"/>
-      <c r="AG12" s="110"/>
-      <c r="AH12" s="110"/>
-      <c r="AI12" s="111"/>
+      <c r="AB12" s="107"/>
+      <c r="AC12" s="108"/>
+      <c r="AD12" s="108"/>
+      <c r="AE12" s="108"/>
+      <c r="AF12" s="108"/>
+      <c r="AG12" s="108"/>
+      <c r="AH12" s="108"/>
+      <c r="AI12" s="109"/>
       <c r="AJ12" s="13"/>
       <c r="AK12" s="14"/>
       <c r="AL12" s="14"/>
@@ -4900,14 +4900,14 @@
       <c r="CC12" s="14"/>
       <c r="CD12" s="14"/>
       <c r="CE12" s="15"/>
-      <c r="CF12" s="109"/>
-      <c r="CG12" s="110"/>
-      <c r="CH12" s="110"/>
-      <c r="CI12" s="110"/>
-      <c r="CJ12" s="110"/>
-      <c r="CK12" s="110"/>
-      <c r="CL12" s="110"/>
-      <c r="CM12" s="111"/>
+      <c r="CF12" s="107"/>
+      <c r="CG12" s="108"/>
+      <c r="CH12" s="108"/>
+      <c r="CI12" s="108"/>
+      <c r="CJ12" s="108"/>
+      <c r="CK12" s="108"/>
+      <c r="CL12" s="108"/>
+      <c r="CM12" s="109"/>
       <c r="CN12" s="13"/>
       <c r="CO12" s="55" t="s">
         <v>28</v>
@@ -4968,14 +4968,14 @@
       <c r="EO12" s="14"/>
       <c r="EP12" s="14"/>
       <c r="EQ12" s="15"/>
-      <c r="ER12" s="109"/>
-      <c r="ES12" s="110"/>
-      <c r="ET12" s="110"/>
-      <c r="EU12" s="110"/>
-      <c r="EV12" s="110"/>
-      <c r="EW12" s="110"/>
-      <c r="EX12" s="110"/>
-      <c r="EY12" s="111"/>
+      <c r="ER12" s="107"/>
+      <c r="ES12" s="108"/>
+      <c r="ET12" s="108"/>
+      <c r="EU12" s="108"/>
+      <c r="EV12" s="108"/>
+      <c r="EW12" s="108"/>
+      <c r="EX12" s="108"/>
+      <c r="EY12" s="109"/>
       <c r="EZ12" s="13"/>
       <c r="FA12" s="14"/>
       <c r="FB12" s="14"/>
@@ -5025,7 +5025,7 @@
       <c r="GT12" s="14"/>
       <c r="GU12" s="14"/>
       <c r="GV12" s="14"/>
-      <c r="GW12" s="131"/>
+      <c r="GW12" s="96"/>
     </row>
     <row r="13" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78" t="s">
@@ -5059,14 +5059,14 @@
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="15"/>
-      <c r="AB13" s="109"/>
-      <c r="AC13" s="110"/>
-      <c r="AD13" s="110"/>
-      <c r="AE13" s="110"/>
-      <c r="AF13" s="110"/>
-      <c r="AG13" s="110"/>
-      <c r="AH13" s="110"/>
-      <c r="AI13" s="111"/>
+      <c r="AB13" s="107"/>
+      <c r="AC13" s="108"/>
+      <c r="AD13" s="108"/>
+      <c r="AE13" s="108"/>
+      <c r="AF13" s="108"/>
+      <c r="AG13" s="108"/>
+      <c r="AH13" s="108"/>
+      <c r="AI13" s="109"/>
       <c r="AJ13" s="13"/>
       <c r="AK13" s="14"/>
       <c r="AL13" s="14"/>
@@ -5115,14 +5115,14 @@
       <c r="CC13" s="14"/>
       <c r="CD13" s="14"/>
       <c r="CE13" s="15"/>
-      <c r="CF13" s="109"/>
-      <c r="CG13" s="110"/>
-      <c r="CH13" s="110"/>
-      <c r="CI13" s="110"/>
-      <c r="CJ13" s="110"/>
-      <c r="CK13" s="110"/>
-      <c r="CL13" s="110"/>
-      <c r="CM13" s="111"/>
+      <c r="CF13" s="107"/>
+      <c r="CG13" s="108"/>
+      <c r="CH13" s="108"/>
+      <c r="CI13" s="108"/>
+      <c r="CJ13" s="108"/>
+      <c r="CK13" s="108"/>
+      <c r="CL13" s="108"/>
+      <c r="CM13" s="109"/>
       <c r="CN13" s="13"/>
       <c r="CO13" s="14"/>
       <c r="CP13" s="27"/>
@@ -5187,14 +5187,14 @@
       <c r="EO13" s="14"/>
       <c r="EP13" s="14"/>
       <c r="EQ13" s="15"/>
-      <c r="ER13" s="109"/>
-      <c r="ES13" s="110"/>
-      <c r="ET13" s="110"/>
-      <c r="EU13" s="110"/>
-      <c r="EV13" s="110"/>
-      <c r="EW13" s="110"/>
-      <c r="EX13" s="110"/>
-      <c r="EY13" s="111"/>
+      <c r="ER13" s="107"/>
+      <c r="ES13" s="108"/>
+      <c r="ET13" s="108"/>
+      <c r="EU13" s="108"/>
+      <c r="EV13" s="108"/>
+      <c r="EW13" s="108"/>
+      <c r="EX13" s="108"/>
+      <c r="EY13" s="109"/>
       <c r="EZ13" s="13"/>
       <c r="FA13" s="14"/>
       <c r="FB13" s="14"/>
@@ -5244,13 +5244,13 @@
       <c r="GT13" s="14"/>
       <c r="GU13" s="14"/>
       <c r="GV13" s="14"/>
-      <c r="GW13" s="131"/>
+      <c r="GW13" s="96"/>
     </row>
     <row r="14" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="99"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="60"/>
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
@@ -5276,14 +5276,14 @@
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
       <c r="AA14" s="15"/>
-      <c r="AB14" s="109"/>
-      <c r="AC14" s="110"/>
-      <c r="AD14" s="110"/>
-      <c r="AE14" s="110"/>
-      <c r="AF14" s="110"/>
-      <c r="AG14" s="110"/>
-      <c r="AH14" s="110"/>
-      <c r="AI14" s="111"/>
+      <c r="AB14" s="107"/>
+      <c r="AC14" s="108"/>
+      <c r="AD14" s="108"/>
+      <c r="AE14" s="108"/>
+      <c r="AF14" s="108"/>
+      <c r="AG14" s="108"/>
+      <c r="AH14" s="108"/>
+      <c r="AI14" s="109"/>
       <c r="AJ14" s="13"/>
       <c r="AK14" s="14"/>
       <c r="AL14" s="14"/>
@@ -5332,14 +5332,14 @@
       <c r="CC14" s="14"/>
       <c r="CD14" s="14"/>
       <c r="CE14" s="15"/>
-      <c r="CF14" s="109"/>
-      <c r="CG14" s="110"/>
-      <c r="CH14" s="110"/>
-      <c r="CI14" s="110"/>
-      <c r="CJ14" s="110"/>
-      <c r="CK14" s="110"/>
-      <c r="CL14" s="110"/>
-      <c r="CM14" s="111"/>
+      <c r="CF14" s="107"/>
+      <c r="CG14" s="108"/>
+      <c r="CH14" s="108"/>
+      <c r="CI14" s="108"/>
+      <c r="CJ14" s="108"/>
+      <c r="CK14" s="108"/>
+      <c r="CL14" s="108"/>
+      <c r="CM14" s="109"/>
       <c r="CN14" s="13"/>
       <c r="CO14" s="14"/>
       <c r="CP14" s="14"/>
@@ -5398,14 +5398,14 @@
       <c r="EO14" s="14"/>
       <c r="EP14" s="14"/>
       <c r="EQ14" s="15"/>
-      <c r="ER14" s="109"/>
-      <c r="ES14" s="110"/>
-      <c r="ET14" s="110"/>
-      <c r="EU14" s="110"/>
-      <c r="EV14" s="110"/>
-      <c r="EW14" s="110"/>
-      <c r="EX14" s="110"/>
-      <c r="EY14" s="111"/>
+      <c r="ER14" s="107"/>
+      <c r="ES14" s="108"/>
+      <c r="ET14" s="108"/>
+      <c r="EU14" s="108"/>
+      <c r="EV14" s="108"/>
+      <c r="EW14" s="108"/>
+      <c r="EX14" s="108"/>
+      <c r="EY14" s="109"/>
       <c r="EZ14" s="13"/>
       <c r="FA14" s="14"/>
       <c r="FB14" s="14"/>
@@ -5455,7 +5455,7 @@
       <c r="GT14" s="14"/>
       <c r="GU14" s="14"/>
       <c r="GV14" s="14"/>
-      <c r="GW14" s="131"/>
+      <c r="GW14" s="96"/>
     </row>
     <row r="15" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A15" s="73" t="s">
@@ -5489,14 +5489,14 @@
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
       <c r="AA15" s="15"/>
-      <c r="AB15" s="109"/>
-      <c r="AC15" s="110"/>
-      <c r="AD15" s="110"/>
-      <c r="AE15" s="110"/>
-      <c r="AF15" s="110"/>
-      <c r="AG15" s="110"/>
-      <c r="AH15" s="110"/>
-      <c r="AI15" s="111"/>
+      <c r="AB15" s="107"/>
+      <c r="AC15" s="108"/>
+      <c r="AD15" s="108"/>
+      <c r="AE15" s="108"/>
+      <c r="AF15" s="108"/>
+      <c r="AG15" s="108"/>
+      <c r="AH15" s="108"/>
+      <c r="AI15" s="109"/>
       <c r="AJ15" s="13"/>
       <c r="AK15" s="14"/>
       <c r="AL15" s="14"/>
@@ -5545,14 +5545,14 @@
       <c r="CC15" s="14"/>
       <c r="CD15" s="14"/>
       <c r="CE15" s="15"/>
-      <c r="CF15" s="109"/>
-      <c r="CG15" s="110"/>
-      <c r="CH15" s="110"/>
-      <c r="CI15" s="110"/>
-      <c r="CJ15" s="110"/>
-      <c r="CK15" s="110"/>
-      <c r="CL15" s="110"/>
-      <c r="CM15" s="111"/>
+      <c r="CF15" s="107"/>
+      <c r="CG15" s="108"/>
+      <c r="CH15" s="108"/>
+      <c r="CI15" s="108"/>
+      <c r="CJ15" s="108"/>
+      <c r="CK15" s="108"/>
+      <c r="CL15" s="108"/>
+      <c r="CM15" s="109"/>
       <c r="CN15" s="13"/>
       <c r="CO15" s="14"/>
       <c r="CP15" s="14"/>
@@ -5615,14 +5615,14 @@
       <c r="EO15" s="14"/>
       <c r="EP15" s="14"/>
       <c r="EQ15" s="15"/>
-      <c r="ER15" s="109"/>
-      <c r="ES15" s="110"/>
-      <c r="ET15" s="110"/>
-      <c r="EU15" s="110"/>
-      <c r="EV15" s="110"/>
-      <c r="EW15" s="110"/>
-      <c r="EX15" s="110"/>
-      <c r="EY15" s="111"/>
+      <c r="ER15" s="107"/>
+      <c r="ES15" s="108"/>
+      <c r="ET15" s="108"/>
+      <c r="EU15" s="108"/>
+      <c r="EV15" s="108"/>
+      <c r="EW15" s="108"/>
+      <c r="EX15" s="108"/>
+      <c r="EY15" s="109"/>
       <c r="EZ15" s="13"/>
       <c r="FA15" s="14"/>
       <c r="FB15" s="14"/>
@@ -5672,7 +5672,7 @@
       <c r="GT15" s="14"/>
       <c r="GU15" s="14"/>
       <c r="GV15" s="14"/>
-      <c r="GW15" s="131"/>
+      <c r="GW15" s="96"/>
     </row>
     <row r="16" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A16" s="74" t="s">
@@ -5706,14 +5706,14 @@
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="15"/>
-      <c r="AB16" s="109"/>
-      <c r="AC16" s="110"/>
-      <c r="AD16" s="110"/>
-      <c r="AE16" s="110"/>
-      <c r="AF16" s="110"/>
-      <c r="AG16" s="110"/>
-      <c r="AH16" s="110"/>
-      <c r="AI16" s="111"/>
+      <c r="AB16" s="107"/>
+      <c r="AC16" s="108"/>
+      <c r="AD16" s="108"/>
+      <c r="AE16" s="108"/>
+      <c r="AF16" s="108"/>
+      <c r="AG16" s="108"/>
+      <c r="AH16" s="108"/>
+      <c r="AI16" s="109"/>
       <c r="AJ16" s="13"/>
       <c r="AK16" s="14"/>
       <c r="AL16" s="14"/>
@@ -5762,14 +5762,14 @@
       <c r="CC16" s="14"/>
       <c r="CD16" s="14"/>
       <c r="CE16" s="15"/>
-      <c r="CF16" s="109"/>
-      <c r="CG16" s="110"/>
-      <c r="CH16" s="110"/>
-      <c r="CI16" s="110"/>
-      <c r="CJ16" s="110"/>
-      <c r="CK16" s="110"/>
-      <c r="CL16" s="110"/>
-      <c r="CM16" s="111"/>
+      <c r="CF16" s="107"/>
+      <c r="CG16" s="108"/>
+      <c r="CH16" s="108"/>
+      <c r="CI16" s="108"/>
+      <c r="CJ16" s="108"/>
+      <c r="CK16" s="108"/>
+      <c r="CL16" s="108"/>
+      <c r="CM16" s="109"/>
       <c r="CN16" s="13"/>
       <c r="CO16" s="14"/>
       <c r="CP16" s="14"/>
@@ -5828,14 +5828,14 @@
       <c r="EO16" s="14"/>
       <c r="EP16" s="14"/>
       <c r="EQ16" s="15"/>
-      <c r="ER16" s="109"/>
-      <c r="ES16" s="110"/>
-      <c r="ET16" s="110"/>
-      <c r="EU16" s="110"/>
-      <c r="EV16" s="110"/>
-      <c r="EW16" s="110"/>
-      <c r="EX16" s="110"/>
-      <c r="EY16" s="111"/>
+      <c r="ER16" s="107"/>
+      <c r="ES16" s="108"/>
+      <c r="ET16" s="108"/>
+      <c r="EU16" s="108"/>
+      <c r="EV16" s="108"/>
+      <c r="EW16" s="108"/>
+      <c r="EX16" s="108"/>
+      <c r="EY16" s="109"/>
       <c r="EZ16" s="13"/>
       <c r="FA16" s="14"/>
       <c r="FB16" s="14"/>
@@ -5885,7 +5885,7 @@
       <c r="GT16" s="14"/>
       <c r="GU16" s="14"/>
       <c r="GV16" s="14"/>
-      <c r="GW16" s="131"/>
+      <c r="GW16" s="96"/>
     </row>
     <row r="17" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A17" s="74" t="s">
@@ -5919,14 +5919,14 @@
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="15"/>
-      <c r="AB17" s="109"/>
-      <c r="AC17" s="110"/>
-      <c r="AD17" s="110"/>
-      <c r="AE17" s="110"/>
-      <c r="AF17" s="110"/>
-      <c r="AG17" s="110"/>
-      <c r="AH17" s="110"/>
-      <c r="AI17" s="111"/>
+      <c r="AB17" s="107"/>
+      <c r="AC17" s="108"/>
+      <c r="AD17" s="108"/>
+      <c r="AE17" s="108"/>
+      <c r="AF17" s="108"/>
+      <c r="AG17" s="108"/>
+      <c r="AH17" s="108"/>
+      <c r="AI17" s="109"/>
       <c r="AJ17" s="13"/>
       <c r="AK17" s="14"/>
       <c r="AL17" s="14"/>
@@ -5975,14 +5975,14 @@
       <c r="CC17" s="14"/>
       <c r="CD17" s="14"/>
       <c r="CE17" s="15"/>
-      <c r="CF17" s="109"/>
-      <c r="CG17" s="110"/>
-      <c r="CH17" s="110"/>
-      <c r="CI17" s="110"/>
-      <c r="CJ17" s="110"/>
-      <c r="CK17" s="110"/>
-      <c r="CL17" s="110"/>
-      <c r="CM17" s="111"/>
+      <c r="CF17" s="107"/>
+      <c r="CG17" s="108"/>
+      <c r="CH17" s="108"/>
+      <c r="CI17" s="108"/>
+      <c r="CJ17" s="108"/>
+      <c r="CK17" s="108"/>
+      <c r="CL17" s="108"/>
+      <c r="CM17" s="109"/>
       <c r="CN17" s="13"/>
       <c r="CO17" s="14"/>
       <c r="CP17" s="14"/>
@@ -6045,14 +6045,14 @@
       <c r="EO17" s="14"/>
       <c r="EP17" s="14"/>
       <c r="EQ17" s="15"/>
-      <c r="ER17" s="109"/>
-      <c r="ES17" s="110"/>
-      <c r="ET17" s="110"/>
-      <c r="EU17" s="110"/>
-      <c r="EV17" s="110"/>
-      <c r="EW17" s="110"/>
-      <c r="EX17" s="110"/>
-      <c r="EY17" s="111"/>
+      <c r="ER17" s="107"/>
+      <c r="ES17" s="108"/>
+      <c r="ET17" s="108"/>
+      <c r="EU17" s="108"/>
+      <c r="EV17" s="108"/>
+      <c r="EW17" s="108"/>
+      <c r="EX17" s="108"/>
+      <c r="EY17" s="109"/>
       <c r="EZ17" s="13"/>
       <c r="FA17" s="14"/>
       <c r="FB17" s="14"/>
@@ -6102,7 +6102,7 @@
       <c r="GT17" s="14"/>
       <c r="GU17" s="14"/>
       <c r="GV17" s="14"/>
-      <c r="GW17" s="131"/>
+      <c r="GW17" s="96"/>
     </row>
     <row r="18" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A18" s="74" t="s">
@@ -6136,14 +6136,14 @@
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="15"/>
-      <c r="AB18" s="109"/>
-      <c r="AC18" s="110"/>
-      <c r="AD18" s="110"/>
-      <c r="AE18" s="110"/>
-      <c r="AF18" s="110"/>
-      <c r="AG18" s="110"/>
-      <c r="AH18" s="110"/>
-      <c r="AI18" s="111"/>
+      <c r="AB18" s="107"/>
+      <c r="AC18" s="108"/>
+      <c r="AD18" s="108"/>
+      <c r="AE18" s="108"/>
+      <c r="AF18" s="108"/>
+      <c r="AG18" s="108"/>
+      <c r="AH18" s="108"/>
+      <c r="AI18" s="109"/>
       <c r="AJ18" s="13"/>
       <c r="AK18" s="14"/>
       <c r="AL18" s="14"/>
@@ -6192,14 +6192,14 @@
       <c r="CC18" s="14"/>
       <c r="CD18" s="14"/>
       <c r="CE18" s="15"/>
-      <c r="CF18" s="109"/>
-      <c r="CG18" s="110"/>
-      <c r="CH18" s="110"/>
-      <c r="CI18" s="110"/>
-      <c r="CJ18" s="110"/>
-      <c r="CK18" s="110"/>
-      <c r="CL18" s="110"/>
-      <c r="CM18" s="111"/>
+      <c r="CF18" s="107"/>
+      <c r="CG18" s="108"/>
+      <c r="CH18" s="108"/>
+      <c r="CI18" s="108"/>
+      <c r="CJ18" s="108"/>
+      <c r="CK18" s="108"/>
+      <c r="CL18" s="108"/>
+      <c r="CM18" s="109"/>
       <c r="CN18" s="13"/>
       <c r="CO18" s="14"/>
       <c r="CP18" s="14"/>
@@ -6268,14 +6268,14 @@
       <c r="EO18" s="14"/>
       <c r="EP18" s="14"/>
       <c r="EQ18" s="15"/>
-      <c r="ER18" s="109"/>
-      <c r="ES18" s="110"/>
-      <c r="ET18" s="110"/>
-      <c r="EU18" s="110"/>
-      <c r="EV18" s="110"/>
-      <c r="EW18" s="110"/>
-      <c r="EX18" s="110"/>
-      <c r="EY18" s="111"/>
+      <c r="ER18" s="107"/>
+      <c r="ES18" s="108"/>
+      <c r="ET18" s="108"/>
+      <c r="EU18" s="108"/>
+      <c r="EV18" s="108"/>
+      <c r="EW18" s="108"/>
+      <c r="EX18" s="108"/>
+      <c r="EY18" s="109"/>
       <c r="EZ18" s="13"/>
       <c r="FA18" s="14"/>
       <c r="FB18" s="14"/>
@@ -6325,7 +6325,7 @@
       <c r="GT18" s="14"/>
       <c r="GU18" s="14"/>
       <c r="GV18" s="14"/>
-      <c r="GW18" s="131"/>
+      <c r="GW18" s="96"/>
     </row>
     <row r="19" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="75" t="s">
@@ -6359,14 +6359,14 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="15"/>
-      <c r="AB19" s="109"/>
-      <c r="AC19" s="110"/>
-      <c r="AD19" s="110"/>
-      <c r="AE19" s="110"/>
-      <c r="AF19" s="110"/>
-      <c r="AG19" s="110"/>
-      <c r="AH19" s="110"/>
-      <c r="AI19" s="111"/>
+      <c r="AB19" s="107"/>
+      <c r="AC19" s="108"/>
+      <c r="AD19" s="108"/>
+      <c r="AE19" s="108"/>
+      <c r="AF19" s="108"/>
+      <c r="AG19" s="108"/>
+      <c r="AH19" s="108"/>
+      <c r="AI19" s="109"/>
       <c r="AJ19" s="13"/>
       <c r="AK19" s="14"/>
       <c r="AL19" s="14"/>
@@ -6415,14 +6415,14 @@
       <c r="CC19" s="14"/>
       <c r="CD19" s="14"/>
       <c r="CE19" s="15"/>
-      <c r="CF19" s="109"/>
-      <c r="CG19" s="110"/>
-      <c r="CH19" s="110"/>
-      <c r="CI19" s="110"/>
-      <c r="CJ19" s="110"/>
-      <c r="CK19" s="110"/>
-      <c r="CL19" s="110"/>
-      <c r="CM19" s="111"/>
+      <c r="CF19" s="107"/>
+      <c r="CG19" s="108"/>
+      <c r="CH19" s="108"/>
+      <c r="CI19" s="108"/>
+      <c r="CJ19" s="108"/>
+      <c r="CK19" s="108"/>
+      <c r="CL19" s="108"/>
+      <c r="CM19" s="109"/>
       <c r="CN19" s="13"/>
       <c r="CO19" s="14"/>
       <c r="CP19" s="14"/>
@@ -6481,14 +6481,14 @@
       <c r="EO19" s="14"/>
       <c r="EP19" s="14"/>
       <c r="EQ19" s="15"/>
-      <c r="ER19" s="109"/>
-      <c r="ES19" s="110"/>
-      <c r="ET19" s="110"/>
-      <c r="EU19" s="110"/>
-      <c r="EV19" s="110"/>
-      <c r="EW19" s="110"/>
-      <c r="EX19" s="110"/>
-      <c r="EY19" s="111"/>
+      <c r="ER19" s="107"/>
+      <c r="ES19" s="108"/>
+      <c r="ET19" s="108"/>
+      <c r="EU19" s="108"/>
+      <c r="EV19" s="108"/>
+      <c r="EW19" s="108"/>
+      <c r="EX19" s="108"/>
+      <c r="EY19" s="109"/>
       <c r="EZ19" s="13"/>
       <c r="FA19" s="14"/>
       <c r="FB19" s="14"/>
@@ -6538,13 +6538,13 @@
       <c r="GT19" s="14"/>
       <c r="GU19" s="14"/>
       <c r="GV19" s="14"/>
-      <c r="GW19" s="131"/>
+      <c r="GW19" s="96"/>
     </row>
     <row r="20" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="101"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="60"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
@@ -6570,14 +6570,14 @@
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
       <c r="AA20" s="15"/>
-      <c r="AB20" s="109"/>
-      <c r="AC20" s="110"/>
-      <c r="AD20" s="110"/>
-      <c r="AE20" s="110"/>
-      <c r="AF20" s="110"/>
-      <c r="AG20" s="110"/>
-      <c r="AH20" s="110"/>
-      <c r="AI20" s="111"/>
+      <c r="AB20" s="107"/>
+      <c r="AC20" s="108"/>
+      <c r="AD20" s="108"/>
+      <c r="AE20" s="108"/>
+      <c r="AF20" s="108"/>
+      <c r="AG20" s="108"/>
+      <c r="AH20" s="108"/>
+      <c r="AI20" s="109"/>
       <c r="AJ20" s="13"/>
       <c r="AK20" s="14"/>
       <c r="AL20" s="14"/>
@@ -6626,14 +6626,14 @@
       <c r="CC20" s="14"/>
       <c r="CD20" s="14"/>
       <c r="CE20" s="15"/>
-      <c r="CF20" s="109"/>
-      <c r="CG20" s="110"/>
-      <c r="CH20" s="110"/>
-      <c r="CI20" s="110"/>
-      <c r="CJ20" s="110"/>
-      <c r="CK20" s="110"/>
-      <c r="CL20" s="110"/>
-      <c r="CM20" s="111"/>
+      <c r="CF20" s="107"/>
+      <c r="CG20" s="108"/>
+      <c r="CH20" s="108"/>
+      <c r="CI20" s="108"/>
+      <c r="CJ20" s="108"/>
+      <c r="CK20" s="108"/>
+      <c r="CL20" s="108"/>
+      <c r="CM20" s="109"/>
       <c r="CN20" s="13"/>
       <c r="CO20" s="14"/>
       <c r="CP20" s="14"/>
@@ -6690,14 +6690,14 @@
       <c r="EO20" s="14"/>
       <c r="EP20" s="14"/>
       <c r="EQ20" s="15"/>
-      <c r="ER20" s="109"/>
-      <c r="ES20" s="110"/>
-      <c r="ET20" s="110"/>
-      <c r="EU20" s="110"/>
-      <c r="EV20" s="110"/>
-      <c r="EW20" s="110"/>
-      <c r="EX20" s="110"/>
-      <c r="EY20" s="111"/>
+      <c r="ER20" s="107"/>
+      <c r="ES20" s="108"/>
+      <c r="ET20" s="108"/>
+      <c r="EU20" s="108"/>
+      <c r="EV20" s="108"/>
+      <c r="EW20" s="108"/>
+      <c r="EX20" s="108"/>
+      <c r="EY20" s="109"/>
       <c r="EZ20" s="13"/>
       <c r="FA20" s="14"/>
       <c r="FB20" s="14"/>
@@ -6747,7 +6747,7 @@
       <c r="GT20" s="14"/>
       <c r="GU20" s="14"/>
       <c r="GV20" s="14"/>
-      <c r="GW20" s="131"/>
+      <c r="GW20" s="96"/>
     </row>
     <row r="21" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A21" s="70" t="s">
@@ -6781,14 +6781,14 @@
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
       <c r="AA21" s="15"/>
-      <c r="AB21" s="109"/>
-      <c r="AC21" s="110"/>
-      <c r="AD21" s="110"/>
-      <c r="AE21" s="110"/>
-      <c r="AF21" s="110"/>
-      <c r="AG21" s="110"/>
-      <c r="AH21" s="110"/>
-      <c r="AI21" s="111"/>
+      <c r="AB21" s="107"/>
+      <c r="AC21" s="108"/>
+      <c r="AD21" s="108"/>
+      <c r="AE21" s="108"/>
+      <c r="AF21" s="108"/>
+      <c r="AG21" s="108"/>
+      <c r="AH21" s="108"/>
+      <c r="AI21" s="109"/>
       <c r="AJ21" s="13"/>
       <c r="AK21" s="14"/>
       <c r="AL21" s="14"/>
@@ -6837,14 +6837,14 @@
       <c r="CC21" s="14"/>
       <c r="CD21" s="14"/>
       <c r="CE21" s="15"/>
-      <c r="CF21" s="109"/>
-      <c r="CG21" s="110"/>
-      <c r="CH21" s="110"/>
-      <c r="CI21" s="110"/>
-      <c r="CJ21" s="110"/>
-      <c r="CK21" s="110"/>
-      <c r="CL21" s="110"/>
-      <c r="CM21" s="111"/>
+      <c r="CF21" s="107"/>
+      <c r="CG21" s="108"/>
+      <c r="CH21" s="108"/>
+      <c r="CI21" s="108"/>
+      <c r="CJ21" s="108"/>
+      <c r="CK21" s="108"/>
+      <c r="CL21" s="108"/>
+      <c r="CM21" s="109"/>
       <c r="CN21" s="13"/>
       <c r="CO21" s="14"/>
       <c r="CP21" s="14"/>
@@ -6903,14 +6903,14 @@
       <c r="EO21" s="14"/>
       <c r="EP21" s="14"/>
       <c r="EQ21" s="15"/>
-      <c r="ER21" s="109"/>
-      <c r="ES21" s="110"/>
-      <c r="ET21" s="110"/>
-      <c r="EU21" s="110"/>
-      <c r="EV21" s="110"/>
-      <c r="EW21" s="110"/>
-      <c r="EX21" s="110"/>
-      <c r="EY21" s="111"/>
+      <c r="ER21" s="107"/>
+      <c r="ES21" s="108"/>
+      <c r="ET21" s="108"/>
+      <c r="EU21" s="108"/>
+      <c r="EV21" s="108"/>
+      <c r="EW21" s="108"/>
+      <c r="EX21" s="108"/>
+      <c r="EY21" s="109"/>
       <c r="EZ21" s="13"/>
       <c r="FA21" s="14"/>
       <c r="FB21" s="14"/>
@@ -6960,7 +6960,7 @@
       <c r="GT21" s="14"/>
       <c r="GU21" s="14"/>
       <c r="GV21" s="14"/>
-      <c r="GW21" s="131"/>
+      <c r="GW21" s="96"/>
     </row>
     <row r="22" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A22" s="71" t="s">
@@ -6994,14 +6994,14 @@
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
       <c r="AA22" s="15"/>
-      <c r="AB22" s="109"/>
-      <c r="AC22" s="110"/>
-      <c r="AD22" s="110"/>
-      <c r="AE22" s="110"/>
-      <c r="AF22" s="110"/>
-      <c r="AG22" s="110"/>
-      <c r="AH22" s="110"/>
-      <c r="AI22" s="111"/>
+      <c r="AB22" s="107"/>
+      <c r="AC22" s="108"/>
+      <c r="AD22" s="108"/>
+      <c r="AE22" s="108"/>
+      <c r="AF22" s="108"/>
+      <c r="AG22" s="108"/>
+      <c r="AH22" s="108"/>
+      <c r="AI22" s="109"/>
       <c r="AJ22" s="13"/>
       <c r="AK22" s="14"/>
       <c r="AL22" s="14"/>
@@ -7050,14 +7050,14 @@
       <c r="CC22" s="14"/>
       <c r="CD22" s="14"/>
       <c r="CE22" s="15"/>
-      <c r="CF22" s="109"/>
-      <c r="CG22" s="110"/>
-      <c r="CH22" s="110"/>
-      <c r="CI22" s="110"/>
-      <c r="CJ22" s="110"/>
-      <c r="CK22" s="110"/>
-      <c r="CL22" s="110"/>
-      <c r="CM22" s="111"/>
+      <c r="CF22" s="107"/>
+      <c r="CG22" s="108"/>
+      <c r="CH22" s="108"/>
+      <c r="CI22" s="108"/>
+      <c r="CJ22" s="108"/>
+      <c r="CK22" s="108"/>
+      <c r="CL22" s="108"/>
+      <c r="CM22" s="109"/>
       <c r="CN22" s="13"/>
       <c r="CO22" s="14"/>
       <c r="CP22" s="14"/>
@@ -7120,14 +7120,14 @@
       <c r="EO22" s="14"/>
       <c r="EP22" s="14"/>
       <c r="EQ22" s="15"/>
-      <c r="ER22" s="109"/>
-      <c r="ES22" s="110"/>
-      <c r="ET22" s="110"/>
-      <c r="EU22" s="110"/>
-      <c r="EV22" s="110"/>
-      <c r="EW22" s="110"/>
-      <c r="EX22" s="110"/>
-      <c r="EY22" s="111"/>
+      <c r="ER22" s="107"/>
+      <c r="ES22" s="108"/>
+      <c r="ET22" s="108"/>
+      <c r="EU22" s="108"/>
+      <c r="EV22" s="108"/>
+      <c r="EW22" s="108"/>
+      <c r="EX22" s="108"/>
+      <c r="EY22" s="109"/>
       <c r="EZ22" s="13"/>
       <c r="FA22" s="14"/>
       <c r="FB22" s="14"/>
@@ -7177,7 +7177,7 @@
       <c r="GT22" s="14"/>
       <c r="GU22" s="14"/>
       <c r="GV22" s="14"/>
-      <c r="GW22" s="131"/>
+      <c r="GW22" s="96"/>
     </row>
     <row r="23" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A23" s="71" t="s">
@@ -7211,14 +7211,14 @@
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
       <c r="AA23" s="15"/>
-      <c r="AB23" s="109"/>
-      <c r="AC23" s="110"/>
-      <c r="AD23" s="110"/>
-      <c r="AE23" s="110"/>
-      <c r="AF23" s="110"/>
-      <c r="AG23" s="110"/>
-      <c r="AH23" s="110"/>
-      <c r="AI23" s="111"/>
+      <c r="AB23" s="107"/>
+      <c r="AC23" s="108"/>
+      <c r="AD23" s="108"/>
+      <c r="AE23" s="108"/>
+      <c r="AF23" s="108"/>
+      <c r="AG23" s="108"/>
+      <c r="AH23" s="108"/>
+      <c r="AI23" s="109"/>
       <c r="AJ23" s="13"/>
       <c r="AK23" s="14"/>
       <c r="AL23" s="14"/>
@@ -7267,14 +7267,14 @@
       <c r="CC23" s="14"/>
       <c r="CD23" s="14"/>
       <c r="CE23" s="15"/>
-      <c r="CF23" s="109"/>
-      <c r="CG23" s="110"/>
-      <c r="CH23" s="110"/>
-      <c r="CI23" s="110"/>
-      <c r="CJ23" s="110"/>
-      <c r="CK23" s="110"/>
-      <c r="CL23" s="110"/>
-      <c r="CM23" s="111"/>
+      <c r="CF23" s="107"/>
+      <c r="CG23" s="108"/>
+      <c r="CH23" s="108"/>
+      <c r="CI23" s="108"/>
+      <c r="CJ23" s="108"/>
+      <c r="CK23" s="108"/>
+      <c r="CL23" s="108"/>
+      <c r="CM23" s="109"/>
       <c r="CN23" s="13"/>
       <c r="CO23" s="14"/>
       <c r="CP23" s="14"/>
@@ -7312,7 +7312,9 @@
       <c r="DV23" s="14"/>
       <c r="DW23" s="14"/>
       <c r="DX23" s="39"/>
-      <c r="DY23" s="90"/>
+      <c r="DY23" s="90" t="s">
+        <v>28</v>
+      </c>
       <c r="DZ23" s="14"/>
       <c r="EA23" s="15"/>
       <c r="EB23" s="13"/>
@@ -7331,14 +7333,14 @@
       <c r="EO23" s="14"/>
       <c r="EP23" s="14"/>
       <c r="EQ23" s="15"/>
-      <c r="ER23" s="109"/>
-      <c r="ES23" s="110"/>
-      <c r="ET23" s="110"/>
-      <c r="EU23" s="110"/>
-      <c r="EV23" s="110"/>
-      <c r="EW23" s="110"/>
-      <c r="EX23" s="110"/>
-      <c r="EY23" s="111"/>
+      <c r="ER23" s="107"/>
+      <c r="ES23" s="108"/>
+      <c r="ET23" s="108"/>
+      <c r="EU23" s="108"/>
+      <c r="EV23" s="108"/>
+      <c r="EW23" s="108"/>
+      <c r="EX23" s="108"/>
+      <c r="EY23" s="109"/>
       <c r="EZ23" s="13"/>
       <c r="FA23" s="14"/>
       <c r="FB23" s="14"/>
@@ -7388,7 +7390,7 @@
       <c r="GT23" s="14"/>
       <c r="GU23" s="14"/>
       <c r="GV23" s="14"/>
-      <c r="GW23" s="131"/>
+      <c r="GW23" s="96"/>
     </row>
     <row r="24" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A24" s="71" t="s">
@@ -7420,14 +7422,14 @@
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
       <c r="AA24" s="15"/>
-      <c r="AB24" s="109"/>
-      <c r="AC24" s="110"/>
-      <c r="AD24" s="110"/>
-      <c r="AE24" s="110"/>
-      <c r="AF24" s="110"/>
-      <c r="AG24" s="110"/>
-      <c r="AH24" s="110"/>
-      <c r="AI24" s="111"/>
+      <c r="AB24" s="107"/>
+      <c r="AC24" s="108"/>
+      <c r="AD24" s="108"/>
+      <c r="AE24" s="108"/>
+      <c r="AF24" s="108"/>
+      <c r="AG24" s="108"/>
+      <c r="AH24" s="108"/>
+      <c r="AI24" s="109"/>
       <c r="AJ24" s="13"/>
       <c r="AK24" s="14"/>
       <c r="AL24" s="14"/>
@@ -7476,14 +7478,14 @@
       <c r="CC24" s="14"/>
       <c r="CD24" s="14"/>
       <c r="CE24" s="15"/>
-      <c r="CF24" s="109"/>
-      <c r="CG24" s="110"/>
-      <c r="CH24" s="110"/>
-      <c r="CI24" s="110"/>
-      <c r="CJ24" s="110"/>
-      <c r="CK24" s="110"/>
-      <c r="CL24" s="110"/>
-      <c r="CM24" s="111"/>
+      <c r="CF24" s="107"/>
+      <c r="CG24" s="108"/>
+      <c r="CH24" s="108"/>
+      <c r="CI24" s="108"/>
+      <c r="CJ24" s="108"/>
+      <c r="CK24" s="108"/>
+      <c r="CL24" s="108"/>
+      <c r="CM24" s="109"/>
       <c r="CN24" s="13"/>
       <c r="CO24" s="14"/>
       <c r="CP24" s="14"/>
@@ -7540,14 +7542,14 @@
       <c r="EO24" s="14"/>
       <c r="EP24" s="14"/>
       <c r="EQ24" s="15"/>
-      <c r="ER24" s="109"/>
-      <c r="ES24" s="110"/>
-      <c r="ET24" s="110"/>
-      <c r="EU24" s="110"/>
-      <c r="EV24" s="110"/>
-      <c r="EW24" s="110"/>
-      <c r="EX24" s="110"/>
-      <c r="EY24" s="111"/>
+      <c r="ER24" s="107"/>
+      <c r="ES24" s="108"/>
+      <c r="ET24" s="108"/>
+      <c r="EU24" s="108"/>
+      <c r="EV24" s="108"/>
+      <c r="EW24" s="108"/>
+      <c r="EX24" s="108"/>
+      <c r="EY24" s="109"/>
       <c r="EZ24" s="13"/>
       <c r="FA24" s="14"/>
       <c r="FB24" s="14"/>
@@ -7597,10 +7599,10 @@
       <c r="GT24" s="14"/>
       <c r="GU24" s="14"/>
       <c r="GV24" s="14"/>
-      <c r="GW24" s="131"/>
+      <c r="GW24" s="96"/>
     </row>
     <row r="25" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A25" s="132" t="s">
+      <c r="A25" s="91" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="66"/>
@@ -7629,14 +7631,14 @@
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
       <c r="AA25" s="15"/>
-      <c r="AB25" s="109"/>
-      <c r="AC25" s="110"/>
-      <c r="AD25" s="110"/>
-      <c r="AE25" s="110"/>
-      <c r="AF25" s="110"/>
-      <c r="AG25" s="110"/>
-      <c r="AH25" s="110"/>
-      <c r="AI25" s="111"/>
+      <c r="AB25" s="107"/>
+      <c r="AC25" s="108"/>
+      <c r="AD25" s="108"/>
+      <c r="AE25" s="108"/>
+      <c r="AF25" s="108"/>
+      <c r="AG25" s="108"/>
+      <c r="AH25" s="108"/>
+      <c r="AI25" s="109"/>
       <c r="AJ25" s="13"/>
       <c r="AK25" s="14"/>
       <c r="AL25" s="14"/>
@@ -7685,14 +7687,14 @@
       <c r="CC25" s="14"/>
       <c r="CD25" s="14"/>
       <c r="CE25" s="15"/>
-      <c r="CF25" s="109"/>
-      <c r="CG25" s="110"/>
-      <c r="CH25" s="110"/>
-      <c r="CI25" s="110"/>
-      <c r="CJ25" s="110"/>
-      <c r="CK25" s="110"/>
-      <c r="CL25" s="110"/>
-      <c r="CM25" s="111"/>
+      <c r="CF25" s="107"/>
+      <c r="CG25" s="108"/>
+      <c r="CH25" s="108"/>
+      <c r="CI25" s="108"/>
+      <c r="CJ25" s="108"/>
+      <c r="CK25" s="108"/>
+      <c r="CL25" s="108"/>
+      <c r="CM25" s="109"/>
       <c r="CN25" s="13"/>
       <c r="CO25" s="14"/>
       <c r="CP25" s="14"/>
@@ -7749,14 +7751,14 @@
       <c r="EO25" s="14"/>
       <c r="EP25" s="14"/>
       <c r="EQ25" s="15"/>
-      <c r="ER25" s="109"/>
-      <c r="ES25" s="110"/>
-      <c r="ET25" s="110"/>
-      <c r="EU25" s="110"/>
-      <c r="EV25" s="110"/>
-      <c r="EW25" s="110"/>
-      <c r="EX25" s="110"/>
-      <c r="EY25" s="111"/>
+      <c r="ER25" s="107"/>
+      <c r="ES25" s="108"/>
+      <c r="ET25" s="108"/>
+      <c r="EU25" s="108"/>
+      <c r="EV25" s="108"/>
+      <c r="EW25" s="108"/>
+      <c r="EX25" s="108"/>
+      <c r="EY25" s="109"/>
       <c r="EZ25" s="13"/>
       <c r="FA25" s="14"/>
       <c r="FB25" s="14"/>
@@ -7806,10 +7808,10 @@
       <c r="GT25" s="14"/>
       <c r="GU25" s="14"/>
       <c r="GV25" s="14"/>
-      <c r="GW25" s="131"/>
+      <c r="GW25" s="96"/>
     </row>
     <row r="26" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A26" s="132" t="s">
+      <c r="A26" s="91" t="s">
         <v>45</v>
       </c>
       <c r="B26" s="66"/>
@@ -7838,14 +7840,14 @@
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
       <c r="AA26" s="15"/>
-      <c r="AB26" s="109"/>
-      <c r="AC26" s="110"/>
-      <c r="AD26" s="110"/>
-      <c r="AE26" s="110"/>
-      <c r="AF26" s="110"/>
-      <c r="AG26" s="110"/>
-      <c r="AH26" s="110"/>
-      <c r="AI26" s="111"/>
+      <c r="AB26" s="107"/>
+      <c r="AC26" s="108"/>
+      <c r="AD26" s="108"/>
+      <c r="AE26" s="108"/>
+      <c r="AF26" s="108"/>
+      <c r="AG26" s="108"/>
+      <c r="AH26" s="108"/>
+      <c r="AI26" s="109"/>
       <c r="AJ26" s="13"/>
       <c r="AK26" s="14"/>
       <c r="AL26" s="14"/>
@@ -7894,14 +7896,14 @@
       <c r="CC26" s="14"/>
       <c r="CD26" s="14"/>
       <c r="CE26" s="15"/>
-      <c r="CF26" s="109"/>
-      <c r="CG26" s="110"/>
-      <c r="CH26" s="110"/>
-      <c r="CI26" s="110"/>
-      <c r="CJ26" s="110"/>
-      <c r="CK26" s="110"/>
-      <c r="CL26" s="110"/>
-      <c r="CM26" s="111"/>
+      <c r="CF26" s="107"/>
+      <c r="CG26" s="108"/>
+      <c r="CH26" s="108"/>
+      <c r="CI26" s="108"/>
+      <c r="CJ26" s="108"/>
+      <c r="CK26" s="108"/>
+      <c r="CL26" s="108"/>
+      <c r="CM26" s="109"/>
       <c r="CN26" s="13"/>
       <c r="CO26" s="14"/>
       <c r="CP26" s="14"/>
@@ -7958,14 +7960,14 @@
       <c r="EO26" s="14"/>
       <c r="EP26" s="14"/>
       <c r="EQ26" s="15"/>
-      <c r="ER26" s="109"/>
-      <c r="ES26" s="110"/>
-      <c r="ET26" s="110"/>
-      <c r="EU26" s="110"/>
-      <c r="EV26" s="110"/>
-      <c r="EW26" s="110"/>
-      <c r="EX26" s="110"/>
-      <c r="EY26" s="111"/>
+      <c r="ER26" s="107"/>
+      <c r="ES26" s="108"/>
+      <c r="ET26" s="108"/>
+      <c r="EU26" s="108"/>
+      <c r="EV26" s="108"/>
+      <c r="EW26" s="108"/>
+      <c r="EX26" s="108"/>
+      <c r="EY26" s="109"/>
       <c r="EZ26" s="13"/>
       <c r="FA26" s="14"/>
       <c r="FB26" s="14"/>
@@ -8015,7 +8017,7 @@
       <c r="GT26" s="14"/>
       <c r="GU26" s="14"/>
       <c r="GV26" s="14"/>
-      <c r="GW26" s="131"/>
+      <c r="GW26" s="96"/>
     </row>
     <row r="27" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A27" s="71" t="s">
@@ -8047,14 +8049,14 @@
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
       <c r="AA27" s="15"/>
-      <c r="AB27" s="109"/>
-      <c r="AC27" s="110"/>
-      <c r="AD27" s="110"/>
-      <c r="AE27" s="110"/>
-      <c r="AF27" s="110"/>
-      <c r="AG27" s="110"/>
-      <c r="AH27" s="110"/>
-      <c r="AI27" s="111"/>
+      <c r="AB27" s="107"/>
+      <c r="AC27" s="108"/>
+      <c r="AD27" s="108"/>
+      <c r="AE27" s="108"/>
+      <c r="AF27" s="108"/>
+      <c r="AG27" s="108"/>
+      <c r="AH27" s="108"/>
+      <c r="AI27" s="109"/>
       <c r="AJ27" s="13"/>
       <c r="AK27" s="14"/>
       <c r="AL27" s="14"/>
@@ -8103,14 +8105,14 @@
       <c r="CC27" s="14"/>
       <c r="CD27" s="14"/>
       <c r="CE27" s="15"/>
-      <c r="CF27" s="109"/>
-      <c r="CG27" s="110"/>
-      <c r="CH27" s="110"/>
-      <c r="CI27" s="110"/>
-      <c r="CJ27" s="110"/>
-      <c r="CK27" s="110"/>
-      <c r="CL27" s="110"/>
-      <c r="CM27" s="111"/>
+      <c r="CF27" s="107"/>
+      <c r="CG27" s="108"/>
+      <c r="CH27" s="108"/>
+      <c r="CI27" s="108"/>
+      <c r="CJ27" s="108"/>
+      <c r="CK27" s="108"/>
+      <c r="CL27" s="108"/>
+      <c r="CM27" s="109"/>
       <c r="CN27" s="13"/>
       <c r="CO27" s="14"/>
       <c r="CP27" s="14"/>
@@ -8167,14 +8169,14 @@
       <c r="EO27" s="14"/>
       <c r="EP27" s="14"/>
       <c r="EQ27" s="15"/>
-      <c r="ER27" s="109"/>
-      <c r="ES27" s="110"/>
-      <c r="ET27" s="110"/>
-      <c r="EU27" s="110"/>
-      <c r="EV27" s="110"/>
-      <c r="EW27" s="110"/>
-      <c r="EX27" s="110"/>
-      <c r="EY27" s="111"/>
+      <c r="ER27" s="107"/>
+      <c r="ES27" s="108"/>
+      <c r="ET27" s="108"/>
+      <c r="EU27" s="108"/>
+      <c r="EV27" s="108"/>
+      <c r="EW27" s="108"/>
+      <c r="EX27" s="108"/>
+      <c r="EY27" s="109"/>
       <c r="EZ27" s="13"/>
       <c r="FA27" s="14"/>
       <c r="FB27" s="14"/>
@@ -8224,10 +8226,10 @@
       <c r="GT27" s="14"/>
       <c r="GU27" s="14"/>
       <c r="GV27" s="14"/>
-      <c r="GW27" s="131"/>
+      <c r="GW27" s="96"/>
     </row>
     <row r="28" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A28" s="132" t="s">
+      <c r="A28" s="91" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="66"/>
@@ -8256,14 +8258,14 @@
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
       <c r="AA28" s="15"/>
-      <c r="AB28" s="109"/>
-      <c r="AC28" s="110"/>
-      <c r="AD28" s="110"/>
-      <c r="AE28" s="110"/>
-      <c r="AF28" s="110"/>
-      <c r="AG28" s="110"/>
-      <c r="AH28" s="110"/>
-      <c r="AI28" s="111"/>
+      <c r="AB28" s="107"/>
+      <c r="AC28" s="108"/>
+      <c r="AD28" s="108"/>
+      <c r="AE28" s="108"/>
+      <c r="AF28" s="108"/>
+      <c r="AG28" s="108"/>
+      <c r="AH28" s="108"/>
+      <c r="AI28" s="109"/>
       <c r="AJ28" s="13"/>
       <c r="AK28" s="14"/>
       <c r="AL28" s="14"/>
@@ -8312,14 +8314,14 @@
       <c r="CC28" s="14"/>
       <c r="CD28" s="14"/>
       <c r="CE28" s="15"/>
-      <c r="CF28" s="109"/>
-      <c r="CG28" s="110"/>
-      <c r="CH28" s="110"/>
-      <c r="CI28" s="110"/>
-      <c r="CJ28" s="110"/>
-      <c r="CK28" s="110"/>
-      <c r="CL28" s="110"/>
-      <c r="CM28" s="111"/>
+      <c r="CF28" s="107"/>
+      <c r="CG28" s="108"/>
+      <c r="CH28" s="108"/>
+      <c r="CI28" s="108"/>
+      <c r="CJ28" s="108"/>
+      <c r="CK28" s="108"/>
+      <c r="CL28" s="108"/>
+      <c r="CM28" s="109"/>
       <c r="CN28" s="13"/>
       <c r="CO28" s="14"/>
       <c r="CP28" s="14"/>
@@ -8376,14 +8378,14 @@
       <c r="EO28" s="14"/>
       <c r="EP28" s="14"/>
       <c r="EQ28" s="15"/>
-      <c r="ER28" s="109"/>
-      <c r="ES28" s="110"/>
-      <c r="ET28" s="110"/>
-      <c r="EU28" s="110"/>
-      <c r="EV28" s="110"/>
-      <c r="EW28" s="110"/>
-      <c r="EX28" s="110"/>
-      <c r="EY28" s="111"/>
+      <c r="ER28" s="107"/>
+      <c r="ES28" s="108"/>
+      <c r="ET28" s="108"/>
+      <c r="EU28" s="108"/>
+      <c r="EV28" s="108"/>
+      <c r="EW28" s="108"/>
+      <c r="EX28" s="108"/>
+      <c r="EY28" s="109"/>
       <c r="EZ28" s="13"/>
       <c r="FA28" s="14"/>
       <c r="FB28" s="14"/>
@@ -8433,10 +8435,10 @@
       <c r="GT28" s="14"/>
       <c r="GU28" s="14"/>
       <c r="GV28" s="14"/>
-      <c r="GW28" s="131"/>
+      <c r="GW28" s="96"/>
     </row>
     <row r="29" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A29" s="132" t="s">
+      <c r="A29" s="91" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="66"/>
@@ -8465,14 +8467,14 @@
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
       <c r="AA29" s="15"/>
-      <c r="AB29" s="109"/>
-      <c r="AC29" s="110"/>
-      <c r="AD29" s="110"/>
-      <c r="AE29" s="110"/>
-      <c r="AF29" s="110"/>
-      <c r="AG29" s="110"/>
-      <c r="AH29" s="110"/>
-      <c r="AI29" s="111"/>
+      <c r="AB29" s="107"/>
+      <c r="AC29" s="108"/>
+      <c r="AD29" s="108"/>
+      <c r="AE29" s="108"/>
+      <c r="AF29" s="108"/>
+      <c r="AG29" s="108"/>
+      <c r="AH29" s="108"/>
+      <c r="AI29" s="109"/>
       <c r="AJ29" s="13"/>
       <c r="AK29" s="14"/>
       <c r="AL29" s="14"/>
@@ -8521,14 +8523,14 @@
       <c r="CC29" s="14"/>
       <c r="CD29" s="14"/>
       <c r="CE29" s="15"/>
-      <c r="CF29" s="109"/>
-      <c r="CG29" s="110"/>
-      <c r="CH29" s="110"/>
-      <c r="CI29" s="110"/>
-      <c r="CJ29" s="110"/>
-      <c r="CK29" s="110"/>
-      <c r="CL29" s="110"/>
-      <c r="CM29" s="111"/>
+      <c r="CF29" s="107"/>
+      <c r="CG29" s="108"/>
+      <c r="CH29" s="108"/>
+      <c r="CI29" s="108"/>
+      <c r="CJ29" s="108"/>
+      <c r="CK29" s="108"/>
+      <c r="CL29" s="108"/>
+      <c r="CM29" s="109"/>
       <c r="CN29" s="13"/>
       <c r="CO29" s="14"/>
       <c r="CP29" s="14"/>
@@ -8585,14 +8587,14 @@
       <c r="EO29" s="39"/>
       <c r="EP29" s="39"/>
       <c r="EQ29" s="40"/>
-      <c r="ER29" s="109"/>
-      <c r="ES29" s="110"/>
-      <c r="ET29" s="110"/>
-      <c r="EU29" s="110"/>
-      <c r="EV29" s="110"/>
-      <c r="EW29" s="110"/>
-      <c r="EX29" s="110"/>
-      <c r="EY29" s="111"/>
+      <c r="ER29" s="107"/>
+      <c r="ES29" s="108"/>
+      <c r="ET29" s="108"/>
+      <c r="EU29" s="108"/>
+      <c r="EV29" s="108"/>
+      <c r="EW29" s="108"/>
+      <c r="EX29" s="108"/>
+      <c r="EY29" s="109"/>
       <c r="EZ29" s="13"/>
       <c r="FA29" s="14"/>
       <c r="FB29" s="14"/>
@@ -8642,10 +8644,10 @@
       <c r="GT29" s="14"/>
       <c r="GU29" s="14"/>
       <c r="GV29" s="14"/>
-      <c r="GW29" s="131"/>
+      <c r="GW29" s="96"/>
     </row>
     <row r="30" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A30" s="132" t="s">
+      <c r="A30" s="91" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="66"/>
@@ -8674,14 +8676,14 @@
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
       <c r="AA30" s="15"/>
-      <c r="AB30" s="109"/>
-      <c r="AC30" s="110"/>
-      <c r="AD30" s="110"/>
-      <c r="AE30" s="110"/>
-      <c r="AF30" s="110"/>
-      <c r="AG30" s="110"/>
-      <c r="AH30" s="110"/>
-      <c r="AI30" s="111"/>
+      <c r="AB30" s="107"/>
+      <c r="AC30" s="108"/>
+      <c r="AD30" s="108"/>
+      <c r="AE30" s="108"/>
+      <c r="AF30" s="108"/>
+      <c r="AG30" s="108"/>
+      <c r="AH30" s="108"/>
+      <c r="AI30" s="109"/>
       <c r="AJ30" s="13"/>
       <c r="AK30" s="14"/>
       <c r="AL30" s="14"/>
@@ -8730,14 +8732,14 @@
       <c r="CC30" s="14"/>
       <c r="CD30" s="14"/>
       <c r="CE30" s="15"/>
-      <c r="CF30" s="109"/>
-      <c r="CG30" s="110"/>
-      <c r="CH30" s="110"/>
-      <c r="CI30" s="110"/>
-      <c r="CJ30" s="110"/>
-      <c r="CK30" s="110"/>
-      <c r="CL30" s="110"/>
-      <c r="CM30" s="111"/>
+      <c r="CF30" s="107"/>
+      <c r="CG30" s="108"/>
+      <c r="CH30" s="108"/>
+      <c r="CI30" s="108"/>
+      <c r="CJ30" s="108"/>
+      <c r="CK30" s="108"/>
+      <c r="CL30" s="108"/>
+      <c r="CM30" s="109"/>
       <c r="CN30" s="13"/>
       <c r="CO30" s="14"/>
       <c r="CP30" s="14"/>
@@ -8794,14 +8796,14 @@
       <c r="EO30" s="14"/>
       <c r="EP30" s="14"/>
       <c r="EQ30" s="14"/>
-      <c r="ER30" s="109"/>
-      <c r="ES30" s="110"/>
-      <c r="ET30" s="110"/>
-      <c r="EU30" s="110"/>
-      <c r="EV30" s="110"/>
-      <c r="EW30" s="110"/>
-      <c r="EX30" s="110"/>
-      <c r="EY30" s="111"/>
+      <c r="ER30" s="107"/>
+      <c r="ES30" s="108"/>
+      <c r="ET30" s="108"/>
+      <c r="EU30" s="108"/>
+      <c r="EV30" s="108"/>
+      <c r="EW30" s="108"/>
+      <c r="EX30" s="108"/>
+      <c r="EY30" s="109"/>
       <c r="EZ30" s="41"/>
       <c r="FA30" s="39"/>
       <c r="FB30" s="39"/>
@@ -8851,10 +8853,10 @@
       <c r="GT30" s="14"/>
       <c r="GU30" s="14"/>
       <c r="GV30" s="14"/>
-      <c r="GW30" s="131"/>
+      <c r="GW30" s="96"/>
     </row>
     <row r="31" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="91" t="s">
         <v>51</v>
       </c>
       <c r="B31" s="66"/>
@@ -8883,14 +8885,14 @@
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="15"/>
-      <c r="AB31" s="109"/>
-      <c r="AC31" s="110"/>
-      <c r="AD31" s="110"/>
-      <c r="AE31" s="110"/>
-      <c r="AF31" s="110"/>
-      <c r="AG31" s="110"/>
-      <c r="AH31" s="110"/>
-      <c r="AI31" s="111"/>
+      <c r="AB31" s="107"/>
+      <c r="AC31" s="108"/>
+      <c r="AD31" s="108"/>
+      <c r="AE31" s="108"/>
+      <c r="AF31" s="108"/>
+      <c r="AG31" s="108"/>
+      <c r="AH31" s="108"/>
+      <c r="AI31" s="109"/>
       <c r="AJ31" s="13"/>
       <c r="AK31" s="14"/>
       <c r="AL31" s="14"/>
@@ -8939,14 +8941,14 @@
       <c r="CC31" s="14"/>
       <c r="CD31" s="14"/>
       <c r="CE31" s="15"/>
-      <c r="CF31" s="109"/>
-      <c r="CG31" s="110"/>
-      <c r="CH31" s="110"/>
-      <c r="CI31" s="110"/>
-      <c r="CJ31" s="110"/>
-      <c r="CK31" s="110"/>
-      <c r="CL31" s="110"/>
-      <c r="CM31" s="111"/>
+      <c r="CF31" s="107"/>
+      <c r="CG31" s="108"/>
+      <c r="CH31" s="108"/>
+      <c r="CI31" s="108"/>
+      <c r="CJ31" s="108"/>
+      <c r="CK31" s="108"/>
+      <c r="CL31" s="108"/>
+      <c r="CM31" s="109"/>
       <c r="CN31" s="13"/>
       <c r="CO31" s="14"/>
       <c r="CP31" s="14"/>
@@ -9003,14 +9005,14 @@
       <c r="EO31" s="14"/>
       <c r="EP31" s="14"/>
       <c r="EQ31" s="15"/>
-      <c r="ER31" s="109"/>
-      <c r="ES31" s="110"/>
-      <c r="ET31" s="110"/>
-      <c r="EU31" s="110"/>
-      <c r="EV31" s="110"/>
-      <c r="EW31" s="110"/>
-      <c r="EX31" s="110"/>
-      <c r="EY31" s="111"/>
+      <c r="ER31" s="107"/>
+      <c r="ES31" s="108"/>
+      <c r="ET31" s="108"/>
+      <c r="EU31" s="108"/>
+      <c r="EV31" s="108"/>
+      <c r="EW31" s="108"/>
+      <c r="EX31" s="108"/>
+      <c r="EY31" s="109"/>
       <c r="EZ31" s="13"/>
       <c r="FA31" s="14"/>
       <c r="FB31" s="14"/>
@@ -9060,10 +9062,10 @@
       <c r="GT31" s="14"/>
       <c r="GU31" s="14"/>
       <c r="GV31" s="14"/>
-      <c r="GW31" s="131"/>
+      <c r="GW31" s="96"/>
     </row>
     <row r="32" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A32" s="132" t="s">
+      <c r="A32" s="91" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="66"/>
@@ -9092,14 +9094,14 @@
       <c r="Y32" s="14"/>
       <c r="Z32" s="14"/>
       <c r="AA32" s="15"/>
-      <c r="AB32" s="109"/>
-      <c r="AC32" s="110"/>
-      <c r="AD32" s="110"/>
-      <c r="AE32" s="110"/>
-      <c r="AF32" s="110"/>
-      <c r="AG32" s="110"/>
-      <c r="AH32" s="110"/>
-      <c r="AI32" s="111"/>
+      <c r="AB32" s="107"/>
+      <c r="AC32" s="108"/>
+      <c r="AD32" s="108"/>
+      <c r="AE32" s="108"/>
+      <c r="AF32" s="108"/>
+      <c r="AG32" s="108"/>
+      <c r="AH32" s="108"/>
+      <c r="AI32" s="109"/>
       <c r="AJ32" s="13"/>
       <c r="AK32" s="14"/>
       <c r="AL32" s="14"/>
@@ -9148,14 +9150,14 @@
       <c r="CC32" s="14"/>
       <c r="CD32" s="14"/>
       <c r="CE32" s="15"/>
-      <c r="CF32" s="109"/>
-      <c r="CG32" s="110"/>
-      <c r="CH32" s="110"/>
-      <c r="CI32" s="110"/>
-      <c r="CJ32" s="110"/>
-      <c r="CK32" s="110"/>
-      <c r="CL32" s="110"/>
-      <c r="CM32" s="111"/>
+      <c r="CF32" s="107"/>
+      <c r="CG32" s="108"/>
+      <c r="CH32" s="108"/>
+      <c r="CI32" s="108"/>
+      <c r="CJ32" s="108"/>
+      <c r="CK32" s="108"/>
+      <c r="CL32" s="108"/>
+      <c r="CM32" s="109"/>
       <c r="CN32" s="13"/>
       <c r="CO32" s="14"/>
       <c r="CP32" s="14"/>
@@ -9212,14 +9214,14 @@
       <c r="EO32" s="14"/>
       <c r="EP32" s="14"/>
       <c r="EQ32" s="15"/>
-      <c r="ER32" s="109"/>
-      <c r="ES32" s="110"/>
-      <c r="ET32" s="110"/>
-      <c r="EU32" s="110"/>
-      <c r="EV32" s="110"/>
-      <c r="EW32" s="110"/>
-      <c r="EX32" s="110"/>
-      <c r="EY32" s="111"/>
+      <c r="ER32" s="107"/>
+      <c r="ES32" s="108"/>
+      <c r="ET32" s="108"/>
+      <c r="EU32" s="108"/>
+      <c r="EV32" s="108"/>
+      <c r="EW32" s="108"/>
+      <c r="EX32" s="108"/>
+      <c r="EY32" s="109"/>
       <c r="EZ32" s="13"/>
       <c r="FA32" s="14"/>
       <c r="FB32" s="14"/>
@@ -9269,10 +9271,10 @@
       <c r="GT32" s="14"/>
       <c r="GU32" s="14"/>
       <c r="GV32" s="14"/>
-      <c r="GW32" s="131"/>
+      <c r="GW32" s="96"/>
     </row>
     <row r="33" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A33" s="132" t="s">
+      <c r="A33" s="91" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="66"/>
@@ -9301,14 +9303,14 @@
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
       <c r="AA33" s="15"/>
-      <c r="AB33" s="109"/>
-      <c r="AC33" s="110"/>
-      <c r="AD33" s="110"/>
-      <c r="AE33" s="110"/>
-      <c r="AF33" s="110"/>
-      <c r="AG33" s="110"/>
-      <c r="AH33" s="110"/>
-      <c r="AI33" s="111"/>
+      <c r="AB33" s="107"/>
+      <c r="AC33" s="108"/>
+      <c r="AD33" s="108"/>
+      <c r="AE33" s="108"/>
+      <c r="AF33" s="108"/>
+      <c r="AG33" s="108"/>
+      <c r="AH33" s="108"/>
+      <c r="AI33" s="109"/>
       <c r="AJ33" s="13"/>
       <c r="AK33" s="14"/>
       <c r="AL33" s="14"/>
@@ -9357,14 +9359,14 @@
       <c r="CC33" s="14"/>
       <c r="CD33" s="14"/>
       <c r="CE33" s="15"/>
-      <c r="CF33" s="109"/>
-      <c r="CG33" s="110"/>
-      <c r="CH33" s="110"/>
-      <c r="CI33" s="110"/>
-      <c r="CJ33" s="110"/>
-      <c r="CK33" s="110"/>
-      <c r="CL33" s="110"/>
-      <c r="CM33" s="111"/>
+      <c r="CF33" s="107"/>
+      <c r="CG33" s="108"/>
+      <c r="CH33" s="108"/>
+      <c r="CI33" s="108"/>
+      <c r="CJ33" s="108"/>
+      <c r="CK33" s="108"/>
+      <c r="CL33" s="108"/>
+      <c r="CM33" s="109"/>
       <c r="CN33" s="13"/>
       <c r="CO33" s="14"/>
       <c r="CP33" s="14"/>
@@ -9421,14 +9423,14 @@
       <c r="EO33" s="14"/>
       <c r="EP33" s="14"/>
       <c r="EQ33" s="15"/>
-      <c r="ER33" s="109"/>
-      <c r="ES33" s="110"/>
-      <c r="ET33" s="110"/>
-      <c r="EU33" s="110"/>
-      <c r="EV33" s="110"/>
-      <c r="EW33" s="110"/>
-      <c r="EX33" s="110"/>
-      <c r="EY33" s="111"/>
+      <c r="ER33" s="107"/>
+      <c r="ES33" s="108"/>
+      <c r="ET33" s="108"/>
+      <c r="EU33" s="108"/>
+      <c r="EV33" s="108"/>
+      <c r="EW33" s="108"/>
+      <c r="EX33" s="108"/>
+      <c r="EY33" s="109"/>
       <c r="EZ33" s="13"/>
       <c r="FA33" s="14"/>
       <c r="FB33" s="14"/>
@@ -9478,10 +9480,10 @@
       <c r="GT33" s="14"/>
       <c r="GU33" s="14"/>
       <c r="GV33" s="14"/>
-      <c r="GW33" s="131"/>
+      <c r="GW33" s="96"/>
     </row>
     <row r="34" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A34" s="132" t="s">
+      <c r="A34" s="91" t="s">
         <v>52</v>
       </c>
       <c r="B34" s="66"/>
@@ -9510,14 +9512,14 @@
       <c r="Y34" s="14"/>
       <c r="Z34" s="14"/>
       <c r="AA34" s="15"/>
-      <c r="AB34" s="109"/>
-      <c r="AC34" s="110"/>
-      <c r="AD34" s="110"/>
-      <c r="AE34" s="110"/>
-      <c r="AF34" s="110"/>
-      <c r="AG34" s="110"/>
-      <c r="AH34" s="110"/>
-      <c r="AI34" s="111"/>
+      <c r="AB34" s="107"/>
+      <c r="AC34" s="108"/>
+      <c r="AD34" s="108"/>
+      <c r="AE34" s="108"/>
+      <c r="AF34" s="108"/>
+      <c r="AG34" s="108"/>
+      <c r="AH34" s="108"/>
+      <c r="AI34" s="109"/>
       <c r="AJ34" s="13"/>
       <c r="AK34" s="14"/>
       <c r="AL34" s="14"/>
@@ -9566,14 +9568,14 @@
       <c r="CC34" s="14"/>
       <c r="CD34" s="14"/>
       <c r="CE34" s="15"/>
-      <c r="CF34" s="109"/>
-      <c r="CG34" s="110"/>
-      <c r="CH34" s="110"/>
-      <c r="CI34" s="110"/>
-      <c r="CJ34" s="110"/>
-      <c r="CK34" s="110"/>
-      <c r="CL34" s="110"/>
-      <c r="CM34" s="111"/>
+      <c r="CF34" s="107"/>
+      <c r="CG34" s="108"/>
+      <c r="CH34" s="108"/>
+      <c r="CI34" s="108"/>
+      <c r="CJ34" s="108"/>
+      <c r="CK34" s="108"/>
+      <c r="CL34" s="108"/>
+      <c r="CM34" s="109"/>
       <c r="CN34" s="13"/>
       <c r="CO34" s="14"/>
       <c r="CP34" s="14"/>
@@ -9630,14 +9632,14 @@
       <c r="EO34" s="14"/>
       <c r="EP34" s="14"/>
       <c r="EQ34" s="15"/>
-      <c r="ER34" s="109"/>
-      <c r="ES34" s="110"/>
-      <c r="ET34" s="110"/>
-      <c r="EU34" s="110"/>
-      <c r="EV34" s="110"/>
-      <c r="EW34" s="110"/>
-      <c r="EX34" s="110"/>
-      <c r="EY34" s="111"/>
+      <c r="ER34" s="107"/>
+      <c r="ES34" s="108"/>
+      <c r="ET34" s="108"/>
+      <c r="EU34" s="108"/>
+      <c r="EV34" s="108"/>
+      <c r="EW34" s="108"/>
+      <c r="EX34" s="108"/>
+      <c r="EY34" s="109"/>
       <c r="EZ34" s="13"/>
       <c r="FA34" s="14"/>
       <c r="FB34" s="14"/>
@@ -9687,10 +9689,10 @@
       <c r="GT34" s="14"/>
       <c r="GU34" s="14"/>
       <c r="GV34" s="14"/>
-      <c r="GW34" s="131"/>
+      <c r="GW34" s="96"/>
     </row>
     <row r="35" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A35" s="132" t="s">
+      <c r="A35" s="91" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="66"/>
@@ -9719,14 +9721,14 @@
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
       <c r="AA35" s="15"/>
-      <c r="AB35" s="109"/>
-      <c r="AC35" s="110"/>
-      <c r="AD35" s="110"/>
-      <c r="AE35" s="110"/>
-      <c r="AF35" s="110"/>
-      <c r="AG35" s="110"/>
-      <c r="AH35" s="110"/>
-      <c r="AI35" s="111"/>
+      <c r="AB35" s="107"/>
+      <c r="AC35" s="108"/>
+      <c r="AD35" s="108"/>
+      <c r="AE35" s="108"/>
+      <c r="AF35" s="108"/>
+      <c r="AG35" s="108"/>
+      <c r="AH35" s="108"/>
+      <c r="AI35" s="109"/>
       <c r="AJ35" s="13"/>
       <c r="AK35" s="14"/>
       <c r="AL35" s="14"/>
@@ -9775,14 +9777,14 @@
       <c r="CC35" s="14"/>
       <c r="CD35" s="14"/>
       <c r="CE35" s="15"/>
-      <c r="CF35" s="109"/>
-      <c r="CG35" s="110"/>
-      <c r="CH35" s="110"/>
-      <c r="CI35" s="110"/>
-      <c r="CJ35" s="110"/>
-      <c r="CK35" s="110"/>
-      <c r="CL35" s="110"/>
-      <c r="CM35" s="111"/>
+      <c r="CF35" s="107"/>
+      <c r="CG35" s="108"/>
+      <c r="CH35" s="108"/>
+      <c r="CI35" s="108"/>
+      <c r="CJ35" s="108"/>
+      <c r="CK35" s="108"/>
+      <c r="CL35" s="108"/>
+      <c r="CM35" s="109"/>
       <c r="CN35" s="13"/>
       <c r="CO35" s="14"/>
       <c r="CP35" s="14"/>
@@ -9839,14 +9841,14 @@
       <c r="EO35" s="14"/>
       <c r="EP35" s="14"/>
       <c r="EQ35" s="15"/>
-      <c r="ER35" s="109"/>
-      <c r="ES35" s="110"/>
-      <c r="ET35" s="110"/>
-      <c r="EU35" s="110"/>
-      <c r="EV35" s="110"/>
-      <c r="EW35" s="110"/>
-      <c r="EX35" s="110"/>
-      <c r="EY35" s="111"/>
+      <c r="ER35" s="107"/>
+      <c r="ES35" s="108"/>
+      <c r="ET35" s="108"/>
+      <c r="EU35" s="108"/>
+      <c r="EV35" s="108"/>
+      <c r="EW35" s="108"/>
+      <c r="EX35" s="108"/>
+      <c r="EY35" s="109"/>
       <c r="EZ35" s="13"/>
       <c r="FA35" s="14"/>
       <c r="FB35" s="14"/>
@@ -9896,10 +9898,10 @@
       <c r="GT35" s="14"/>
       <c r="GU35" s="14"/>
       <c r="GV35" s="14"/>
-      <c r="GW35" s="131"/>
+      <c r="GW35" s="96"/>
     </row>
     <row r="36" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A36" s="132" t="s">
+      <c r="A36" s="91" t="s">
         <v>53</v>
       </c>
       <c r="B36" s="66"/>
@@ -9928,14 +9930,14 @@
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
       <c r="AA36" s="15"/>
-      <c r="AB36" s="109"/>
-      <c r="AC36" s="110"/>
-      <c r="AD36" s="110"/>
-      <c r="AE36" s="110"/>
-      <c r="AF36" s="110"/>
-      <c r="AG36" s="110"/>
-      <c r="AH36" s="110"/>
-      <c r="AI36" s="111"/>
+      <c r="AB36" s="107"/>
+      <c r="AC36" s="108"/>
+      <c r="AD36" s="108"/>
+      <c r="AE36" s="108"/>
+      <c r="AF36" s="108"/>
+      <c r="AG36" s="108"/>
+      <c r="AH36" s="108"/>
+      <c r="AI36" s="109"/>
       <c r="AJ36" s="13"/>
       <c r="AK36" s="14"/>
       <c r="AL36" s="14"/>
@@ -9984,14 +9986,14 @@
       <c r="CC36" s="14"/>
       <c r="CD36" s="14"/>
       <c r="CE36" s="15"/>
-      <c r="CF36" s="109"/>
-      <c r="CG36" s="110"/>
-      <c r="CH36" s="110"/>
-      <c r="CI36" s="110"/>
-      <c r="CJ36" s="110"/>
-      <c r="CK36" s="110"/>
-      <c r="CL36" s="110"/>
-      <c r="CM36" s="111"/>
+      <c r="CF36" s="107"/>
+      <c r="CG36" s="108"/>
+      <c r="CH36" s="108"/>
+      <c r="CI36" s="108"/>
+      <c r="CJ36" s="108"/>
+      <c r="CK36" s="108"/>
+      <c r="CL36" s="108"/>
+      <c r="CM36" s="109"/>
       <c r="CN36" s="13"/>
       <c r="CO36" s="14"/>
       <c r="CP36" s="14"/>
@@ -10048,14 +10050,14 @@
       <c r="EO36" s="14"/>
       <c r="EP36" s="14"/>
       <c r="EQ36" s="15"/>
-      <c r="ER36" s="109"/>
-      <c r="ES36" s="110"/>
-      <c r="ET36" s="110"/>
-      <c r="EU36" s="110"/>
-      <c r="EV36" s="110"/>
-      <c r="EW36" s="110"/>
-      <c r="EX36" s="110"/>
-      <c r="EY36" s="111"/>
+      <c r="ER36" s="107"/>
+      <c r="ES36" s="108"/>
+      <c r="ET36" s="108"/>
+      <c r="EU36" s="108"/>
+      <c r="EV36" s="108"/>
+      <c r="EW36" s="108"/>
+      <c r="EX36" s="108"/>
+      <c r="EY36" s="109"/>
       <c r="EZ36" s="13"/>
       <c r="FA36" s="14"/>
       <c r="FB36" s="14"/>
@@ -10105,7 +10107,7 @@
       <c r="GT36" s="14"/>
       <c r="GU36" s="14"/>
       <c r="GV36" s="14"/>
-      <c r="GW36" s="131"/>
+      <c r="GW36" s="96"/>
     </row>
     <row r="37" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A37" s="72" t="s">
@@ -10137,14 +10139,14 @@
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
       <c r="AA37" s="15"/>
-      <c r="AB37" s="109"/>
-      <c r="AC37" s="110"/>
-      <c r="AD37" s="110"/>
-      <c r="AE37" s="110"/>
-      <c r="AF37" s="110"/>
-      <c r="AG37" s="110"/>
-      <c r="AH37" s="110"/>
-      <c r="AI37" s="111"/>
+      <c r="AB37" s="107"/>
+      <c r="AC37" s="108"/>
+      <c r="AD37" s="108"/>
+      <c r="AE37" s="108"/>
+      <c r="AF37" s="108"/>
+      <c r="AG37" s="108"/>
+      <c r="AH37" s="108"/>
+      <c r="AI37" s="109"/>
       <c r="AJ37" s="13"/>
       <c r="AK37" s="14"/>
       <c r="AL37" s="14"/>
@@ -10193,14 +10195,14 @@
       <c r="CC37" s="14"/>
       <c r="CD37" s="14"/>
       <c r="CE37" s="15"/>
-      <c r="CF37" s="109"/>
-      <c r="CG37" s="110"/>
-      <c r="CH37" s="110"/>
-      <c r="CI37" s="110"/>
-      <c r="CJ37" s="110"/>
-      <c r="CK37" s="110"/>
-      <c r="CL37" s="110"/>
-      <c r="CM37" s="111"/>
+      <c r="CF37" s="107"/>
+      <c r="CG37" s="108"/>
+      <c r="CH37" s="108"/>
+      <c r="CI37" s="108"/>
+      <c r="CJ37" s="108"/>
+      <c r="CK37" s="108"/>
+      <c r="CL37" s="108"/>
+      <c r="CM37" s="109"/>
       <c r="CN37" s="13"/>
       <c r="CO37" s="14"/>
       <c r="CP37" s="14"/>
@@ -10257,14 +10259,14 @@
       <c r="EO37" s="14"/>
       <c r="EP37" s="14"/>
       <c r="EQ37" s="15"/>
-      <c r="ER37" s="109"/>
-      <c r="ES37" s="110"/>
-      <c r="ET37" s="110"/>
-      <c r="EU37" s="110"/>
-      <c r="EV37" s="110"/>
-      <c r="EW37" s="110"/>
-      <c r="EX37" s="110"/>
-      <c r="EY37" s="111"/>
+      <c r="ER37" s="107"/>
+      <c r="ES37" s="108"/>
+      <c r="ET37" s="108"/>
+      <c r="EU37" s="108"/>
+      <c r="EV37" s="108"/>
+      <c r="EW37" s="108"/>
+      <c r="EX37" s="108"/>
+      <c r="EY37" s="109"/>
       <c r="EZ37" s="13"/>
       <c r="FA37" s="14"/>
       <c r="FB37" s="14"/>
@@ -10314,7 +10316,7 @@
       <c r="GT37" s="14"/>
       <c r="GU37" s="14"/>
       <c r="GV37" s="14"/>
-      <c r="GW37" s="131"/>
+      <c r="GW37" s="96"/>
     </row>
     <row r="38" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="72" t="s">
@@ -10346,14 +10348,14 @@
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
       <c r="AA38" s="15"/>
-      <c r="AB38" s="109"/>
-      <c r="AC38" s="110"/>
-      <c r="AD38" s="110"/>
-      <c r="AE38" s="110"/>
-      <c r="AF38" s="110"/>
-      <c r="AG38" s="110"/>
-      <c r="AH38" s="110"/>
-      <c r="AI38" s="111"/>
+      <c r="AB38" s="107"/>
+      <c r="AC38" s="108"/>
+      <c r="AD38" s="108"/>
+      <c r="AE38" s="108"/>
+      <c r="AF38" s="108"/>
+      <c r="AG38" s="108"/>
+      <c r="AH38" s="108"/>
+      <c r="AI38" s="109"/>
       <c r="AJ38" s="13"/>
       <c r="AK38" s="14"/>
       <c r="AL38" s="14"/>
@@ -10402,14 +10404,14 @@
       <c r="CC38" s="14"/>
       <c r="CD38" s="14"/>
       <c r="CE38" s="15"/>
-      <c r="CF38" s="109"/>
-      <c r="CG38" s="110"/>
-      <c r="CH38" s="110"/>
-      <c r="CI38" s="110"/>
-      <c r="CJ38" s="110"/>
-      <c r="CK38" s="110"/>
-      <c r="CL38" s="110"/>
-      <c r="CM38" s="111"/>
+      <c r="CF38" s="107"/>
+      <c r="CG38" s="108"/>
+      <c r="CH38" s="108"/>
+      <c r="CI38" s="108"/>
+      <c r="CJ38" s="108"/>
+      <c r="CK38" s="108"/>
+      <c r="CL38" s="108"/>
+      <c r="CM38" s="109"/>
       <c r="CN38" s="13"/>
       <c r="CO38" s="14"/>
       <c r="CP38" s="14"/>
@@ -10466,14 +10468,14 @@
       <c r="EO38" s="14"/>
       <c r="EP38" s="14"/>
       <c r="EQ38" s="15"/>
-      <c r="ER38" s="109"/>
-      <c r="ES38" s="110"/>
-      <c r="ET38" s="110"/>
-      <c r="EU38" s="110"/>
-      <c r="EV38" s="110"/>
-      <c r="EW38" s="110"/>
-      <c r="EX38" s="110"/>
-      <c r="EY38" s="111"/>
+      <c r="ER38" s="107"/>
+      <c r="ES38" s="108"/>
+      <c r="ET38" s="108"/>
+      <c r="EU38" s="108"/>
+      <c r="EV38" s="108"/>
+      <c r="EW38" s="108"/>
+      <c r="EX38" s="108"/>
+      <c r="EY38" s="109"/>
       <c r="EZ38" s="13"/>
       <c r="FA38" s="14"/>
       <c r="FB38" s="14"/>
@@ -10523,13 +10525,13 @@
       <c r="GT38" s="14"/>
       <c r="GU38" s="14"/>
       <c r="GV38" s="14"/>
-      <c r="GW38" s="131"/>
+      <c r="GW38" s="96"/>
     </row>
     <row r="39" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="102" t="s">
+      <c r="A39" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="103"/>
+      <c r="B39" s="130"/>
       <c r="C39" s="60"/>
       <c r="D39" s="13"/>
       <c r="E39" s="14"/>
@@ -10555,14 +10557,14 @@
       <c r="Y39" s="14"/>
       <c r="Z39" s="14"/>
       <c r="AA39" s="15"/>
-      <c r="AB39" s="109"/>
-      <c r="AC39" s="110"/>
-      <c r="AD39" s="110"/>
-      <c r="AE39" s="110"/>
-      <c r="AF39" s="110"/>
-      <c r="AG39" s="110"/>
-      <c r="AH39" s="110"/>
-      <c r="AI39" s="111"/>
+      <c r="AB39" s="107"/>
+      <c r="AC39" s="108"/>
+      <c r="AD39" s="108"/>
+      <c r="AE39" s="108"/>
+      <c r="AF39" s="108"/>
+      <c r="AG39" s="108"/>
+      <c r="AH39" s="108"/>
+      <c r="AI39" s="109"/>
       <c r="AJ39" s="13"/>
       <c r="AK39" s="14"/>
       <c r="AL39" s="14"/>
@@ -10611,14 +10613,14 @@
       <c r="CC39" s="14"/>
       <c r="CD39" s="14"/>
       <c r="CE39" s="15"/>
-      <c r="CF39" s="109"/>
-      <c r="CG39" s="110"/>
-      <c r="CH39" s="110"/>
-      <c r="CI39" s="110"/>
-      <c r="CJ39" s="110"/>
-      <c r="CK39" s="110"/>
-      <c r="CL39" s="110"/>
-      <c r="CM39" s="111"/>
+      <c r="CF39" s="107"/>
+      <c r="CG39" s="108"/>
+      <c r="CH39" s="108"/>
+      <c r="CI39" s="108"/>
+      <c r="CJ39" s="108"/>
+      <c r="CK39" s="108"/>
+      <c r="CL39" s="108"/>
+      <c r="CM39" s="109"/>
       <c r="CN39" s="13"/>
       <c r="CO39" s="14"/>
       <c r="CP39" s="14"/>
@@ -10675,14 +10677,14 @@
       <c r="EO39" s="14"/>
       <c r="EP39" s="14"/>
       <c r="EQ39" s="15"/>
-      <c r="ER39" s="109"/>
-      <c r="ES39" s="110"/>
-      <c r="ET39" s="110"/>
-      <c r="EU39" s="110"/>
-      <c r="EV39" s="110"/>
-      <c r="EW39" s="110"/>
-      <c r="EX39" s="110"/>
-      <c r="EY39" s="111"/>
+      <c r="ER39" s="107"/>
+      <c r="ES39" s="108"/>
+      <c r="ET39" s="108"/>
+      <c r="EU39" s="108"/>
+      <c r="EV39" s="108"/>
+      <c r="EW39" s="108"/>
+      <c r="EX39" s="108"/>
+      <c r="EY39" s="109"/>
       <c r="EZ39" s="13"/>
       <c r="FA39" s="14"/>
       <c r="FB39" s="14"/>
@@ -10732,7 +10734,7 @@
       <c r="GT39" s="14"/>
       <c r="GU39" s="14"/>
       <c r="GV39" s="14"/>
-      <c r="GW39" s="131"/>
+      <c r="GW39" s="96"/>
     </row>
     <row r="40" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="87" t="s">
@@ -10764,14 +10766,14 @@
       <c r="Y40" s="14"/>
       <c r="Z40" s="14"/>
       <c r="AA40" s="15"/>
-      <c r="AB40" s="109"/>
-      <c r="AC40" s="110"/>
-      <c r="AD40" s="110"/>
-      <c r="AE40" s="110"/>
-      <c r="AF40" s="110"/>
-      <c r="AG40" s="110"/>
-      <c r="AH40" s="110"/>
-      <c r="AI40" s="111"/>
+      <c r="AB40" s="107"/>
+      <c r="AC40" s="108"/>
+      <c r="AD40" s="108"/>
+      <c r="AE40" s="108"/>
+      <c r="AF40" s="108"/>
+      <c r="AG40" s="108"/>
+      <c r="AH40" s="108"/>
+      <c r="AI40" s="109"/>
       <c r="AJ40" s="13"/>
       <c r="AK40" s="14"/>
       <c r="AL40" s="14"/>
@@ -10820,14 +10822,14 @@
       <c r="CC40" s="14"/>
       <c r="CD40" s="14"/>
       <c r="CE40" s="15"/>
-      <c r="CF40" s="109"/>
-      <c r="CG40" s="110"/>
-      <c r="CH40" s="110"/>
-      <c r="CI40" s="110"/>
-      <c r="CJ40" s="110"/>
-      <c r="CK40" s="110"/>
-      <c r="CL40" s="110"/>
-      <c r="CM40" s="111"/>
+      <c r="CF40" s="107"/>
+      <c r="CG40" s="108"/>
+      <c r="CH40" s="108"/>
+      <c r="CI40" s="108"/>
+      <c r="CJ40" s="108"/>
+      <c r="CK40" s="108"/>
+      <c r="CL40" s="108"/>
+      <c r="CM40" s="109"/>
       <c r="CN40" s="13"/>
       <c r="CO40" s="14"/>
       <c r="CP40" s="14"/>
@@ -10886,14 +10888,14 @@
       <c r="EO40" s="14"/>
       <c r="EP40" s="14"/>
       <c r="EQ40" s="15"/>
-      <c r="ER40" s="109"/>
-      <c r="ES40" s="110"/>
-      <c r="ET40" s="110"/>
-      <c r="EU40" s="110"/>
-      <c r="EV40" s="110"/>
-      <c r="EW40" s="110"/>
-      <c r="EX40" s="110"/>
-      <c r="EY40" s="111"/>
+      <c r="ER40" s="107"/>
+      <c r="ES40" s="108"/>
+      <c r="ET40" s="108"/>
+      <c r="EU40" s="108"/>
+      <c r="EV40" s="108"/>
+      <c r="EW40" s="108"/>
+      <c r="EX40" s="108"/>
+      <c r="EY40" s="109"/>
       <c r="EZ40" s="13"/>
       <c r="FA40" s="14"/>
       <c r="FB40" s="14"/>
@@ -10943,13 +10945,13 @@
       <c r="GT40" s="14"/>
       <c r="GU40" s="14"/>
       <c r="GV40" s="14"/>
-      <c r="GW40" s="131"/>
+      <c r="GW40" s="96"/>
     </row>
     <row r="41" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="104" t="s">
+      <c r="A41" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="105"/>
+      <c r="B41" s="132"/>
       <c r="C41" s="60"/>
       <c r="D41" s="13"/>
       <c r="E41" s="14"/>
@@ -10975,14 +10977,14 @@
       <c r="Y41" s="14"/>
       <c r="Z41" s="14"/>
       <c r="AA41" s="15"/>
-      <c r="AB41" s="109"/>
-      <c r="AC41" s="110"/>
-      <c r="AD41" s="110"/>
-      <c r="AE41" s="110"/>
-      <c r="AF41" s="110"/>
-      <c r="AG41" s="110"/>
-      <c r="AH41" s="110"/>
-      <c r="AI41" s="111"/>
+      <c r="AB41" s="107"/>
+      <c r="AC41" s="108"/>
+      <c r="AD41" s="108"/>
+      <c r="AE41" s="108"/>
+      <c r="AF41" s="108"/>
+      <c r="AG41" s="108"/>
+      <c r="AH41" s="108"/>
+      <c r="AI41" s="109"/>
       <c r="AJ41" s="13"/>
       <c r="AK41" s="14"/>
       <c r="AL41" s="14"/>
@@ -11031,14 +11033,14 @@
       <c r="CC41" s="14"/>
       <c r="CD41" s="14"/>
       <c r="CE41" s="15"/>
-      <c r="CF41" s="109"/>
-      <c r="CG41" s="110"/>
-      <c r="CH41" s="110"/>
-      <c r="CI41" s="110"/>
-      <c r="CJ41" s="110"/>
-      <c r="CK41" s="110"/>
-      <c r="CL41" s="110"/>
-      <c r="CM41" s="111"/>
+      <c r="CF41" s="107"/>
+      <c r="CG41" s="108"/>
+      <c r="CH41" s="108"/>
+      <c r="CI41" s="108"/>
+      <c r="CJ41" s="108"/>
+      <c r="CK41" s="108"/>
+      <c r="CL41" s="108"/>
+      <c r="CM41" s="109"/>
       <c r="CN41" s="13"/>
       <c r="CO41" s="14"/>
       <c r="CP41" s="14"/>
@@ -11095,14 +11097,14 @@
       <c r="EO41" s="14"/>
       <c r="EP41" s="14"/>
       <c r="EQ41" s="15"/>
-      <c r="ER41" s="109"/>
-      <c r="ES41" s="110"/>
-      <c r="ET41" s="110"/>
-      <c r="EU41" s="110"/>
-      <c r="EV41" s="110"/>
-      <c r="EW41" s="110"/>
-      <c r="EX41" s="110"/>
-      <c r="EY41" s="111"/>
+      <c r="ER41" s="107"/>
+      <c r="ES41" s="108"/>
+      <c r="ET41" s="108"/>
+      <c r="EU41" s="108"/>
+      <c r="EV41" s="108"/>
+      <c r="EW41" s="108"/>
+      <c r="EX41" s="108"/>
+      <c r="EY41" s="109"/>
       <c r="EZ41" s="13"/>
       <c r="FA41" s="14"/>
       <c r="FB41" s="14"/>
@@ -11152,7 +11154,7 @@
       <c r="GT41" s="14"/>
       <c r="GU41" s="14"/>
       <c r="GV41" s="14"/>
-      <c r="GW41" s="131"/>
+      <c r="GW41" s="96"/>
     </row>
     <row r="42" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A42" s="81" t="s">
@@ -11184,14 +11186,14 @@
       <c r="Y42" s="14"/>
       <c r="Z42" s="14"/>
       <c r="AA42" s="15"/>
-      <c r="AB42" s="109"/>
-      <c r="AC42" s="110"/>
-      <c r="AD42" s="110"/>
-      <c r="AE42" s="110"/>
-      <c r="AF42" s="110"/>
-      <c r="AG42" s="110"/>
-      <c r="AH42" s="110"/>
-      <c r="AI42" s="111"/>
+      <c r="AB42" s="107"/>
+      <c r="AC42" s="108"/>
+      <c r="AD42" s="108"/>
+      <c r="AE42" s="108"/>
+      <c r="AF42" s="108"/>
+      <c r="AG42" s="108"/>
+      <c r="AH42" s="108"/>
+      <c r="AI42" s="109"/>
       <c r="AJ42" s="13"/>
       <c r="AK42" s="14"/>
       <c r="AL42" s="14"/>
@@ -11240,14 +11242,14 @@
       <c r="CC42" s="14"/>
       <c r="CD42" s="14"/>
       <c r="CE42" s="15"/>
-      <c r="CF42" s="109"/>
-      <c r="CG42" s="110"/>
-      <c r="CH42" s="110"/>
-      <c r="CI42" s="110"/>
-      <c r="CJ42" s="110"/>
-      <c r="CK42" s="110"/>
-      <c r="CL42" s="110"/>
-      <c r="CM42" s="111"/>
+      <c r="CF42" s="107"/>
+      <c r="CG42" s="108"/>
+      <c r="CH42" s="108"/>
+      <c r="CI42" s="108"/>
+      <c r="CJ42" s="108"/>
+      <c r="CK42" s="108"/>
+      <c r="CL42" s="108"/>
+      <c r="CM42" s="109"/>
       <c r="CN42" s="13"/>
       <c r="CO42" s="14"/>
       <c r="CP42" s="14"/>
@@ -11306,14 +11308,14 @@
       <c r="EO42" s="14"/>
       <c r="EP42" s="14"/>
       <c r="EQ42" s="15"/>
-      <c r="ER42" s="109"/>
-      <c r="ES42" s="110"/>
-      <c r="ET42" s="110"/>
-      <c r="EU42" s="110"/>
-      <c r="EV42" s="110"/>
-      <c r="EW42" s="110"/>
-      <c r="EX42" s="110"/>
-      <c r="EY42" s="111"/>
+      <c r="ER42" s="107"/>
+      <c r="ES42" s="108"/>
+      <c r="ET42" s="108"/>
+      <c r="EU42" s="108"/>
+      <c r="EV42" s="108"/>
+      <c r="EW42" s="108"/>
+      <c r="EX42" s="108"/>
+      <c r="EY42" s="109"/>
       <c r="EZ42" s="13"/>
       <c r="FA42" s="14"/>
       <c r="FB42" s="14"/>
@@ -11363,7 +11365,7 @@
       <c r="GT42" s="14"/>
       <c r="GU42" s="14"/>
       <c r="GV42" s="14"/>
-      <c r="GW42" s="131"/>
+      <c r="GW42" s="96"/>
     </row>
     <row r="43" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="82" t="s">
@@ -11371,74 +11373,74 @@
       </c>
       <c r="B43" s="67"/>
       <c r="C43" s="16"/>
-      <c r="D43" s="91" t="s">
+      <c r="D43" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="122"/>
-      <c r="F43" s="122"/>
-      <c r="G43" s="122"/>
-      <c r="H43" s="122"/>
-      <c r="I43" s="122"/>
-      <c r="J43" s="122"/>
-      <c r="K43" s="122"/>
-      <c r="L43" s="122"/>
-      <c r="M43" s="122"/>
-      <c r="N43" s="122"/>
-      <c r="O43" s="122"/>
-      <c r="P43" s="122"/>
-      <c r="Q43" s="122"/>
-      <c r="R43" s="122"/>
-      <c r="S43" s="122"/>
-      <c r="T43" s="122"/>
-      <c r="U43" s="122"/>
-      <c r="V43" s="122"/>
-      <c r="W43" s="122"/>
-      <c r="X43" s="122"/>
-      <c r="Y43" s="122"/>
-      <c r="Z43" s="122"/>
-      <c r="AA43" s="123"/>
-      <c r="AB43" s="112"/>
-      <c r="AC43" s="113"/>
-      <c r="AD43" s="113"/>
-      <c r="AE43" s="113"/>
-      <c r="AF43" s="113"/>
-      <c r="AG43" s="113"/>
-      <c r="AH43" s="113"/>
-      <c r="AI43" s="114"/>
-      <c r="AJ43" s="91" t="s">
+      <c r="E43" s="117"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="117"/>
+      <c r="J43" s="117"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="117"/>
+      <c r="M43" s="117"/>
+      <c r="N43" s="117"/>
+      <c r="O43" s="117"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="117"/>
+      <c r="V43" s="117"/>
+      <c r="W43" s="117"/>
+      <c r="X43" s="117"/>
+      <c r="Y43" s="117"/>
+      <c r="Z43" s="117"/>
+      <c r="AA43" s="118"/>
+      <c r="AB43" s="110"/>
+      <c r="AC43" s="111"/>
+      <c r="AD43" s="111"/>
+      <c r="AE43" s="111"/>
+      <c r="AF43" s="111"/>
+      <c r="AG43" s="111"/>
+      <c r="AH43" s="111"/>
+      <c r="AI43" s="112"/>
+      <c r="AJ43" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="AK43" s="92"/>
-      <c r="AL43" s="92"/>
-      <c r="AM43" s="92"/>
-      <c r="AN43" s="92"/>
-      <c r="AO43" s="92"/>
-      <c r="AP43" s="92"/>
-      <c r="AQ43" s="92"/>
-      <c r="AR43" s="92"/>
-      <c r="AS43" s="92"/>
-      <c r="AT43" s="92"/>
-      <c r="AU43" s="92"/>
-      <c r="AV43" s="92"/>
-      <c r="AW43" s="92"/>
-      <c r="AX43" s="92"/>
-      <c r="AY43" s="92"/>
-      <c r="AZ43" s="92"/>
-      <c r="BA43" s="92"/>
-      <c r="BB43" s="92"/>
-      <c r="BC43" s="92"/>
-      <c r="BD43" s="92"/>
-      <c r="BE43" s="92"/>
-      <c r="BF43" s="92"/>
-      <c r="BG43" s="92"/>
-      <c r="BH43" s="92"/>
-      <c r="BI43" s="92"/>
-      <c r="BJ43" s="92"/>
-      <c r="BK43" s="92"/>
-      <c r="BL43" s="92"/>
-      <c r="BM43" s="92"/>
-      <c r="BN43" s="92"/>
-      <c r="BO43" s="93"/>
+      <c r="AK43" s="119"/>
+      <c r="AL43" s="119"/>
+      <c r="AM43" s="119"/>
+      <c r="AN43" s="119"/>
+      <c r="AO43" s="119"/>
+      <c r="AP43" s="119"/>
+      <c r="AQ43" s="119"/>
+      <c r="AR43" s="119"/>
+      <c r="AS43" s="119"/>
+      <c r="AT43" s="119"/>
+      <c r="AU43" s="119"/>
+      <c r="AV43" s="119"/>
+      <c r="AW43" s="119"/>
+      <c r="AX43" s="119"/>
+      <c r="AY43" s="119"/>
+      <c r="AZ43" s="119"/>
+      <c r="BA43" s="119"/>
+      <c r="BB43" s="119"/>
+      <c r="BC43" s="119"/>
+      <c r="BD43" s="119"/>
+      <c r="BE43" s="119"/>
+      <c r="BF43" s="119"/>
+      <c r="BG43" s="119"/>
+      <c r="BH43" s="119"/>
+      <c r="BI43" s="119"/>
+      <c r="BJ43" s="119"/>
+      <c r="BK43" s="119"/>
+      <c r="BL43" s="119"/>
+      <c r="BM43" s="119"/>
+      <c r="BN43" s="119"/>
+      <c r="BO43" s="120"/>
       <c r="BP43" s="17"/>
       <c r="BQ43" s="18"/>
       <c r="BR43" s="18"/>
@@ -11455,14 +11457,14 @@
       <c r="CC43" s="18"/>
       <c r="CD43" s="18"/>
       <c r="CE43" s="19"/>
-      <c r="CF43" s="112"/>
-      <c r="CG43" s="113"/>
-      <c r="CH43" s="113"/>
-      <c r="CI43" s="113"/>
-      <c r="CJ43" s="113"/>
-      <c r="CK43" s="113"/>
-      <c r="CL43" s="113"/>
-      <c r="CM43" s="114"/>
+      <c r="CF43" s="110"/>
+      <c r="CG43" s="111"/>
+      <c r="CH43" s="111"/>
+      <c r="CI43" s="111"/>
+      <c r="CJ43" s="111"/>
+      <c r="CK43" s="111"/>
+      <c r="CL43" s="111"/>
+      <c r="CM43" s="112"/>
       <c r="CN43" s="17"/>
       <c r="CO43" s="18"/>
       <c r="CP43" s="18"/>
@@ -11519,14 +11521,14 @@
       <c r="EO43" s="18"/>
       <c r="EP43" s="18"/>
       <c r="EQ43" s="19"/>
-      <c r="ER43" s="112"/>
-      <c r="ES43" s="113"/>
-      <c r="ET43" s="113"/>
-      <c r="EU43" s="113"/>
-      <c r="EV43" s="113"/>
-      <c r="EW43" s="113"/>
-      <c r="EX43" s="113"/>
-      <c r="EY43" s="114"/>
+      <c r="ER43" s="110"/>
+      <c r="ES43" s="111"/>
+      <c r="ET43" s="111"/>
+      <c r="EU43" s="111"/>
+      <c r="EV43" s="111"/>
+      <c r="EW43" s="111"/>
+      <c r="EX43" s="111"/>
+      <c r="EY43" s="112"/>
       <c r="EZ43" s="17"/>
       <c r="FA43" s="18"/>
       <c r="FB43" s="18"/>
@@ -11576,227 +11578,264 @@
       <c r="GT43" s="18"/>
       <c r="GU43" s="18"/>
       <c r="GV43" s="18"/>
-      <c r="GW43" s="131"/>
+      <c r="GW43" s="96"/>
     </row>
     <row r="44" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A44" s="124" t="s">
+      <c r="A44" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="124"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="124"/>
-      <c r="F44" s="124"/>
-      <c r="G44" s="124"/>
-      <c r="H44" s="124"/>
-      <c r="I44" s="124"/>
-      <c r="J44" s="124"/>
-      <c r="K44" s="124"/>
-      <c r="L44" s="124"/>
-      <c r="M44" s="124"/>
-      <c r="N44" s="124"/>
-      <c r="O44" s="124"/>
-      <c r="P44" s="124"/>
-      <c r="Q44" s="124"/>
-      <c r="R44" s="124"/>
-      <c r="S44" s="124"/>
-      <c r="T44" s="124"/>
-      <c r="U44" s="124"/>
-      <c r="V44" s="124"/>
-      <c r="W44" s="124"/>
-      <c r="X44" s="124"/>
-      <c r="Y44" s="124"/>
-      <c r="Z44" s="124"/>
-      <c r="AA44" s="124"/>
-      <c r="AB44" s="124"/>
-      <c r="AC44" s="124"/>
-      <c r="AD44" s="124"/>
-      <c r="AE44" s="124"/>
-      <c r="AF44" s="124"/>
-      <c r="AG44" s="124"/>
-      <c r="AH44" s="124"/>
-      <c r="AI44" s="124"/>
-      <c r="AJ44" s="124"/>
-      <c r="AK44" s="124"/>
-      <c r="AL44" s="124"/>
-      <c r="AM44" s="124"/>
-      <c r="AN44" s="124"/>
-      <c r="AO44" s="124"/>
-      <c r="AP44" s="124"/>
-      <c r="AQ44" s="124"/>
-      <c r="AR44" s="124"/>
-      <c r="AS44" s="124"/>
-      <c r="AT44" s="124"/>
-      <c r="AU44" s="124"/>
-      <c r="AV44" s="124"/>
-      <c r="AW44" s="124"/>
-      <c r="AX44" s="124"/>
-      <c r="AY44" s="124"/>
-      <c r="AZ44" s="124"/>
-      <c r="BA44" s="124"/>
-      <c r="BB44" s="124"/>
-      <c r="BC44" s="124"/>
-      <c r="BD44" s="124"/>
-      <c r="BE44" s="124"/>
-      <c r="BF44" s="124"/>
-      <c r="BG44" s="124"/>
-      <c r="BH44" s="124"/>
-      <c r="BI44" s="124"/>
-      <c r="BJ44" s="124"/>
-      <c r="BK44" s="124"/>
-      <c r="BL44" s="124"/>
-      <c r="BM44" s="124"/>
-      <c r="BN44" s="124"/>
-      <c r="BO44" s="124"/>
-      <c r="BP44" s="124"/>
-      <c r="BQ44" s="124"/>
-      <c r="BR44" s="124"/>
-      <c r="BS44" s="124"/>
-      <c r="BT44" s="124"/>
-      <c r="BU44" s="124"/>
-      <c r="BV44" s="124"/>
-      <c r="BW44" s="124"/>
-      <c r="BX44" s="124"/>
-      <c r="BY44" s="124"/>
-      <c r="BZ44" s="124"/>
-      <c r="CA44" s="124"/>
-      <c r="CB44" s="124"/>
-      <c r="CC44" s="124"/>
-      <c r="CD44" s="124"/>
-      <c r="CE44" s="124"/>
-      <c r="CF44" s="124"/>
-      <c r="CG44" s="124"/>
-      <c r="CH44" s="124"/>
-      <c r="CI44" s="124"/>
-      <c r="CJ44" s="124"/>
-      <c r="CK44" s="124"/>
-      <c r="CL44" s="124"/>
-      <c r="CM44" s="124"/>
-      <c r="CN44" s="124"/>
-      <c r="CO44" s="124"/>
-      <c r="CP44" s="124"/>
-      <c r="CQ44" s="124"/>
-      <c r="CR44" s="124"/>
-      <c r="CS44" s="124"/>
-      <c r="CT44" s="124"/>
-      <c r="CU44" s="124"/>
-      <c r="CV44" s="124"/>
-      <c r="CW44" s="124"/>
-      <c r="CX44" s="124"/>
-      <c r="CY44" s="124"/>
-      <c r="CZ44" s="124"/>
-      <c r="DA44" s="124"/>
-      <c r="DB44" s="124"/>
-      <c r="DC44" s="124"/>
-      <c r="DD44" s="124"/>
-      <c r="DE44" s="124"/>
-      <c r="DF44" s="124"/>
-      <c r="DG44" s="124"/>
-      <c r="DH44" s="124"/>
-      <c r="DI44" s="124"/>
-      <c r="DJ44" s="124"/>
-      <c r="DK44" s="124"/>
-      <c r="DL44" s="124"/>
-      <c r="DM44" s="124"/>
-      <c r="DN44" s="124"/>
-      <c r="DO44" s="124"/>
-      <c r="DP44" s="124"/>
-      <c r="DQ44" s="124"/>
-      <c r="DR44" s="124"/>
-      <c r="DS44" s="124"/>
-      <c r="DT44" s="124"/>
-      <c r="DU44" s="124"/>
-      <c r="DV44" s="124"/>
-      <c r="DW44" s="124"/>
-      <c r="DX44" s="124"/>
-      <c r="DY44" s="124"/>
-      <c r="DZ44" s="124"/>
-      <c r="EA44" s="124"/>
-      <c r="EB44" s="124"/>
-      <c r="EC44" s="124"/>
-      <c r="ED44" s="124"/>
-      <c r="EE44" s="124"/>
-      <c r="EF44" s="124"/>
-      <c r="EG44" s="124"/>
-      <c r="EH44" s="124"/>
-      <c r="EI44" s="124"/>
-      <c r="EJ44" s="124"/>
-      <c r="EK44" s="124"/>
-      <c r="EL44" s="124"/>
-      <c r="EM44" s="124"/>
-      <c r="EN44" s="124"/>
-      <c r="EO44" s="124"/>
-      <c r="EP44" s="124"/>
-      <c r="EQ44" s="124"/>
-      <c r="ER44" s="124"/>
-      <c r="ES44" s="124"/>
-      <c r="ET44" s="124"/>
-      <c r="EU44" s="124"/>
-      <c r="EV44" s="124"/>
-      <c r="EW44" s="124"/>
-      <c r="EX44" s="124"/>
-      <c r="EY44" s="124"/>
-      <c r="EZ44" s="124"/>
-      <c r="FA44" s="124"/>
-      <c r="FB44" s="124"/>
-      <c r="FC44" s="124"/>
-      <c r="FD44" s="124"/>
-      <c r="FE44" s="124"/>
-      <c r="FF44" s="124"/>
-      <c r="FG44" s="124"/>
-      <c r="FH44" s="124"/>
-      <c r="FI44" s="124"/>
-      <c r="FJ44" s="124"/>
-      <c r="FK44" s="124"/>
-      <c r="FL44" s="124"/>
-      <c r="FM44" s="124"/>
-      <c r="FN44" s="124"/>
-      <c r="FO44" s="124"/>
-      <c r="FP44" s="124"/>
-      <c r="FQ44" s="124"/>
-      <c r="FR44" s="124"/>
-      <c r="FS44" s="124"/>
-      <c r="FT44" s="124"/>
-      <c r="FU44" s="124"/>
-      <c r="FV44" s="124"/>
-      <c r="FW44" s="124"/>
-      <c r="FX44" s="124"/>
-      <c r="FY44" s="124"/>
-      <c r="FZ44" s="124"/>
-      <c r="GA44" s="124"/>
-      <c r="GB44" s="124"/>
-      <c r="GC44" s="124"/>
-      <c r="GD44" s="124"/>
-      <c r="GE44" s="124"/>
-      <c r="GF44" s="124"/>
-      <c r="GG44" s="124"/>
-      <c r="GH44" s="124"/>
-      <c r="GI44" s="124"/>
-      <c r="GJ44" s="124"/>
-      <c r="GK44" s="124"/>
-      <c r="GL44" s="124"/>
-      <c r="GM44" s="124"/>
-      <c r="GN44" s="124"/>
-      <c r="GO44" s="124"/>
-      <c r="GP44" s="124"/>
-      <c r="GQ44" s="124"/>
-      <c r="GR44" s="124"/>
-      <c r="GS44" s="124"/>
-      <c r="GT44" s="124"/>
-      <c r="GU44" s="124"/>
-      <c r="GV44" s="124"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="97"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="97"/>
+      <c r="O44" s="97"/>
+      <c r="P44" s="97"/>
+      <c r="Q44" s="97"/>
+      <c r="R44" s="97"/>
+      <c r="S44" s="97"/>
+      <c r="T44" s="97"/>
+      <c r="U44" s="97"/>
+      <c r="V44" s="97"/>
+      <c r="W44" s="97"/>
+      <c r="X44" s="97"/>
+      <c r="Y44" s="97"/>
+      <c r="Z44" s="97"/>
+      <c r="AA44" s="97"/>
+      <c r="AB44" s="97"/>
+      <c r="AC44" s="97"/>
+      <c r="AD44" s="97"/>
+      <c r="AE44" s="97"/>
+      <c r="AF44" s="97"/>
+      <c r="AG44" s="97"/>
+      <c r="AH44" s="97"/>
+      <c r="AI44" s="97"/>
+      <c r="AJ44" s="97"/>
+      <c r="AK44" s="97"/>
+      <c r="AL44" s="97"/>
+      <c r="AM44" s="97"/>
+      <c r="AN44" s="97"/>
+      <c r="AO44" s="97"/>
+      <c r="AP44" s="97"/>
+      <c r="AQ44" s="97"/>
+      <c r="AR44" s="97"/>
+      <c r="AS44" s="97"/>
+      <c r="AT44" s="97"/>
+      <c r="AU44" s="97"/>
+      <c r="AV44" s="97"/>
+      <c r="AW44" s="97"/>
+      <c r="AX44" s="97"/>
+      <c r="AY44" s="97"/>
+      <c r="AZ44" s="97"/>
+      <c r="BA44" s="97"/>
+      <c r="BB44" s="97"/>
+      <c r="BC44" s="97"/>
+      <c r="BD44" s="97"/>
+      <c r="BE44" s="97"/>
+      <c r="BF44" s="97"/>
+      <c r="BG44" s="97"/>
+      <c r="BH44" s="97"/>
+      <c r="BI44" s="97"/>
+      <c r="BJ44" s="97"/>
+      <c r="BK44" s="97"/>
+      <c r="BL44" s="97"/>
+      <c r="BM44" s="97"/>
+      <c r="BN44" s="97"/>
+      <c r="BO44" s="97"/>
+      <c r="BP44" s="97"/>
+      <c r="BQ44" s="97"/>
+      <c r="BR44" s="97"/>
+      <c r="BS44" s="97"/>
+      <c r="BT44" s="97"/>
+      <c r="BU44" s="97"/>
+      <c r="BV44" s="97"/>
+      <c r="BW44" s="97"/>
+      <c r="BX44" s="97"/>
+      <c r="BY44" s="97"/>
+      <c r="BZ44" s="97"/>
+      <c r="CA44" s="97"/>
+      <c r="CB44" s="97"/>
+      <c r="CC44" s="97"/>
+      <c r="CD44" s="97"/>
+      <c r="CE44" s="97"/>
+      <c r="CF44" s="97"/>
+      <c r="CG44" s="97"/>
+      <c r="CH44" s="97"/>
+      <c r="CI44" s="97"/>
+      <c r="CJ44" s="97"/>
+      <c r="CK44" s="97"/>
+      <c r="CL44" s="97"/>
+      <c r="CM44" s="97"/>
+      <c r="CN44" s="97"/>
+      <c r="CO44" s="97"/>
+      <c r="CP44" s="97"/>
+      <c r="CQ44" s="97"/>
+      <c r="CR44" s="97"/>
+      <c r="CS44" s="97"/>
+      <c r="CT44" s="97"/>
+      <c r="CU44" s="97"/>
+      <c r="CV44" s="97"/>
+      <c r="CW44" s="97"/>
+      <c r="CX44" s="97"/>
+      <c r="CY44" s="97"/>
+      <c r="CZ44" s="97"/>
+      <c r="DA44" s="97"/>
+      <c r="DB44" s="97"/>
+      <c r="DC44" s="97"/>
+      <c r="DD44" s="97"/>
+      <c r="DE44" s="97"/>
+      <c r="DF44" s="97"/>
+      <c r="DG44" s="97"/>
+      <c r="DH44" s="97"/>
+      <c r="DI44" s="97"/>
+      <c r="DJ44" s="97"/>
+      <c r="DK44" s="97"/>
+      <c r="DL44" s="97"/>
+      <c r="DM44" s="97"/>
+      <c r="DN44" s="97"/>
+      <c r="DO44" s="97"/>
+      <c r="DP44" s="97"/>
+      <c r="DQ44" s="97"/>
+      <c r="DR44" s="97"/>
+      <c r="DS44" s="97"/>
+      <c r="DT44" s="97"/>
+      <c r="DU44" s="97"/>
+      <c r="DV44" s="97"/>
+      <c r="DW44" s="97"/>
+      <c r="DX44" s="97"/>
+      <c r="DY44" s="97"/>
+      <c r="DZ44" s="97"/>
+      <c r="EA44" s="97"/>
+      <c r="EB44" s="97"/>
+      <c r="EC44" s="97"/>
+      <c r="ED44" s="97"/>
+      <c r="EE44" s="97"/>
+      <c r="EF44" s="97"/>
+      <c r="EG44" s="97"/>
+      <c r="EH44" s="97"/>
+      <c r="EI44" s="97"/>
+      <c r="EJ44" s="97"/>
+      <c r="EK44" s="97"/>
+      <c r="EL44" s="97"/>
+      <c r="EM44" s="97"/>
+      <c r="EN44" s="97"/>
+      <c r="EO44" s="97"/>
+      <c r="EP44" s="97"/>
+      <c r="EQ44" s="97"/>
+      <c r="ER44" s="97"/>
+      <c r="ES44" s="97"/>
+      <c r="ET44" s="97"/>
+      <c r="EU44" s="97"/>
+      <c r="EV44" s="97"/>
+      <c r="EW44" s="97"/>
+      <c r="EX44" s="97"/>
+      <c r="EY44" s="97"/>
+      <c r="EZ44" s="97"/>
+      <c r="FA44" s="97"/>
+      <c r="FB44" s="97"/>
+      <c r="FC44" s="97"/>
+      <c r="FD44" s="97"/>
+      <c r="FE44" s="97"/>
+      <c r="FF44" s="97"/>
+      <c r="FG44" s="97"/>
+      <c r="FH44" s="97"/>
+      <c r="FI44" s="97"/>
+      <c r="FJ44" s="97"/>
+      <c r="FK44" s="97"/>
+      <c r="FL44" s="97"/>
+      <c r="FM44" s="97"/>
+      <c r="FN44" s="97"/>
+      <c r="FO44" s="97"/>
+      <c r="FP44" s="97"/>
+      <c r="FQ44" s="97"/>
+      <c r="FR44" s="97"/>
+      <c r="FS44" s="97"/>
+      <c r="FT44" s="97"/>
+      <c r="FU44" s="97"/>
+      <c r="FV44" s="97"/>
+      <c r="FW44" s="97"/>
+      <c r="FX44" s="97"/>
+      <c r="FY44" s="97"/>
+      <c r="FZ44" s="97"/>
+      <c r="GA44" s="97"/>
+      <c r="GB44" s="97"/>
+      <c r="GC44" s="97"/>
+      <c r="GD44" s="97"/>
+      <c r="GE44" s="97"/>
+      <c r="GF44" s="97"/>
+      <c r="GG44" s="97"/>
+      <c r="GH44" s="97"/>
+      <c r="GI44" s="97"/>
+      <c r="GJ44" s="97"/>
+      <c r="GK44" s="97"/>
+      <c r="GL44" s="97"/>
+      <c r="GM44" s="97"/>
+      <c r="GN44" s="97"/>
+      <c r="GO44" s="97"/>
+      <c r="GP44" s="97"/>
+      <c r="GQ44" s="97"/>
+      <c r="GR44" s="97"/>
+      <c r="GS44" s="97"/>
+      <c r="GT44" s="97"/>
+      <c r="GU44" s="97"/>
+      <c r="GV44" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="FH4:FK4"/>
-    <mergeCell ref="DT4:DW4"/>
-    <mergeCell ref="DX4:EA4"/>
-    <mergeCell ref="EB4:EE4"/>
-    <mergeCell ref="EF4:EI4"/>
-    <mergeCell ref="EV4:EY4"/>
-    <mergeCell ref="EZ4:FC4"/>
-    <mergeCell ref="EN4:EQ4"/>
-    <mergeCell ref="ER4:EU4"/>
+    <mergeCell ref="AJ43:BO43"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="ER6:EY43"/>
+    <mergeCell ref="AB6:AI43"/>
+    <mergeCell ref="CF6:CM43"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="BT4:BW4"/>
+    <mergeCell ref="DD4:DG4"/>
+    <mergeCell ref="DH4:DK4"/>
+    <mergeCell ref="D43:AA43"/>
+    <mergeCell ref="A44:GV44"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="DT2:FG3"/>
+    <mergeCell ref="FH2:GV3"/>
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="AR2:CE3"/>
+    <mergeCell ref="CF2:DS3"/>
+    <mergeCell ref="CR4:CU4"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="EJ4:EM4"/>
+    <mergeCell ref="DL4:DO4"/>
+    <mergeCell ref="DP4:DS4"/>
+    <mergeCell ref="GW4:GW43"/>
+    <mergeCell ref="FX4:GA4"/>
+    <mergeCell ref="GB4:GE4"/>
+    <mergeCell ref="GF4:GI4"/>
+    <mergeCell ref="GJ4:GM4"/>
+    <mergeCell ref="GO4:GR4"/>
+    <mergeCell ref="GS4:GV4"/>
     <mergeCell ref="FT4:FW4"/>
     <mergeCell ref="AZ4:BC4"/>
     <mergeCell ref="BD4:BG4"/>
@@ -11813,54 +11852,17 @@
     <mergeCell ref="CV4:CY4"/>
     <mergeCell ref="FL4:FO4"/>
     <mergeCell ref="FP4:FS4"/>
-    <mergeCell ref="GW4:GW43"/>
-    <mergeCell ref="FX4:GA4"/>
-    <mergeCell ref="GB4:GE4"/>
-    <mergeCell ref="GF4:GI4"/>
-    <mergeCell ref="GJ4:GM4"/>
-    <mergeCell ref="GO4:GR4"/>
-    <mergeCell ref="GS4:GV4"/>
-    <mergeCell ref="A44:GV44"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="DT2:FG3"/>
-    <mergeCell ref="FH2:GV3"/>
-    <mergeCell ref="D2:AQ3"/>
-    <mergeCell ref="AR2:CE3"/>
-    <mergeCell ref="CF2:DS3"/>
-    <mergeCell ref="CR4:CU4"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="EJ4:EM4"/>
-    <mergeCell ref="DL4:DO4"/>
-    <mergeCell ref="DP4:DS4"/>
-    <mergeCell ref="ER6:EY43"/>
-    <mergeCell ref="AB6:AI43"/>
-    <mergeCell ref="CF6:CM43"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="BT4:BW4"/>
-    <mergeCell ref="DD4:DG4"/>
-    <mergeCell ref="DH4:DK4"/>
-    <mergeCell ref="D43:AA43"/>
-    <mergeCell ref="AJ43:BO43"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="FH4:FK4"/>
+    <mergeCell ref="DT4:DW4"/>
+    <mergeCell ref="DX4:EA4"/>
+    <mergeCell ref="EB4:EE4"/>
+    <mergeCell ref="EF4:EI4"/>
+    <mergeCell ref="EV4:EY4"/>
+    <mergeCell ref="EZ4:FC4"/>
+    <mergeCell ref="EN4:EQ4"/>
+    <mergeCell ref="ER4:EU4"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6 B8:B9 B11:B13 B40 B42:B43 B15:B19 B21:B38">
+  <conditionalFormatting sqref="B6 B8:B9 B11:B13 B15:B19 B21:B38 B40 B42:B43">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",B6)))</formula>
     </cfRule>

--- a/docs/2_CAND_Modele_Planning_2024.xlsx
+++ b/docs/2_CAND_Modele_Planning_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6E10B6-B4D3-4731-BBF9-EDEF03CC4447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1F835F-FDA6-463D-BEE2-468E99316788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="60">
   <si>
     <t>Tâches</t>
   </si>
@@ -1653,8 +1653,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>126</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:col>130</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -1671,8 +1671,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3981447" y="1038225"/>
-          <a:ext cx="18126077" cy="6067425"/>
+          <a:off x="4238622" y="1038225"/>
+          <a:ext cx="18688053" cy="6391275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2081,10 +2081,10 @@
   <dimension ref="A1:GW44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="DG8" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="CO8" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="DZ24" sqref="DZ24"/>
+      <selection pane="bottomRight" activeCell="DR14" sqref="DR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4511,9 +4511,7 @@
       <c r="DN10" s="14"/>
       <c r="DO10" s="14"/>
       <c r="DP10" s="32"/>
-      <c r="DQ10" s="32" t="s">
-        <v>28</v>
-      </c>
+      <c r="DQ10" s="32"/>
       <c r="DR10" s="14"/>
       <c r="DS10" s="15"/>
       <c r="DT10" s="13"/>
@@ -4726,7 +4724,9 @@
       <c r="DN11" s="14"/>
       <c r="DO11" s="14"/>
       <c r="DP11" s="32"/>
-      <c r="DQ11" s="14"/>
+      <c r="DQ11" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="DR11" s="14"/>
       <c r="DS11" s="15"/>
       <c r="DT11" s="13"/>
@@ -4941,7 +4941,9 @@
       <c r="DN12" s="14"/>
       <c r="DO12" s="14"/>
       <c r="DP12" s="14"/>
-      <c r="DQ12" s="14"/>
+      <c r="DQ12" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="DR12" s="14"/>
       <c r="DS12" s="15"/>
       <c r="DT12" s="13"/>
@@ -5160,7 +5162,9 @@
       <c r="DN13" s="14"/>
       <c r="DO13" s="14"/>
       <c r="DP13" s="14"/>
-      <c r="DQ13" s="14"/>
+      <c r="DQ13" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="DR13" s="14"/>
       <c r="DS13" s="15"/>
       <c r="DT13" s="13"/>
@@ -5370,9 +5374,7 @@
       <c r="DO14" s="14"/>
       <c r="DP14" s="14"/>
       <c r="DQ14" s="32"/>
-      <c r="DR14" s="32" t="s">
-        <v>28</v>
-      </c>
+      <c r="DR14" s="32"/>
       <c r="DS14" s="15"/>
       <c r="DT14" s="13"/>
       <c r="DU14" s="14"/>
@@ -7183,8 +7185,8 @@
       <c r="A23" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="59" t="s">
-        <v>17</v>
+      <c r="B23" s="66" t="s">
+        <v>27</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="13"/>
@@ -7396,7 +7398,9 @@
       <c r="A24" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="66"/>
+      <c r="B24" s="59" t="s">
+        <v>17</v>
+      </c>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
@@ -7524,9 +7528,15 @@
       <c r="DW24" s="14"/>
       <c r="DX24" s="14"/>
       <c r="DY24" s="14"/>
-      <c r="DZ24" s="39"/>
-      <c r="EA24" s="40"/>
-      <c r="EB24" s="13"/>
+      <c r="DZ24" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="EA24" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="EB24" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="EC24" s="14"/>
       <c r="ED24" s="14"/>
       <c r="EE24" s="14"/>
@@ -7736,7 +7746,9 @@
       <c r="DZ25" s="14"/>
       <c r="EA25" s="15"/>
       <c r="EB25" s="41"/>
-      <c r="EC25" s="39"/>
+      <c r="EC25" s="39" t="s">
+        <v>28</v>
+      </c>
       <c r="ED25" s="39"/>
       <c r="EE25" s="39"/>
       <c r="EF25" s="14"/>

--- a/docs/2_CAND_Modele_Planning_2024.xlsx
+++ b/docs/2_CAND_Modele_Planning_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1F835F-FDA6-463D-BEE2-468E99316788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA42989F-3884-4E76-9E1D-BDE5833C59E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="60">
   <si>
     <t>Tâches</t>
   </si>
@@ -1427,6 +1427,122 @@
       <alignment horizontal="left" indent="2"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1435,160 +1551,44 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2084,7 +2084,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="CO8" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="DR14" sqref="DR14"/>
+      <selection pane="bottomRight" activeCell="ER6" sqref="ER6:EY43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2099,11 +2099,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:205" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2149,427 +2149,427 @@
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="114">
+      <c r="B2" s="117">
         <v>148477</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="100" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="100"/>
-      <c r="AE2" s="100"/>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="100"/>
-      <c r="AJ2" s="100"/>
-      <c r="AK2" s="100"/>
-      <c r="AL2" s="100"/>
-      <c r="AM2" s="100"/>
-      <c r="AN2" s="100"/>
-      <c r="AO2" s="100"/>
-      <c r="AP2" s="100"/>
-      <c r="AQ2" s="100"/>
-      <c r="AR2" s="100" t="s">
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
+      <c r="AI2" s="128"/>
+      <c r="AJ2" s="128"/>
+      <c r="AK2" s="128"/>
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="128"/>
+      <c r="AO2" s="128"/>
+      <c r="AP2" s="128"/>
+      <c r="AQ2" s="128"/>
+      <c r="AR2" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="100"/>
-      <c r="AT2" s="100"/>
-      <c r="AU2" s="100"/>
-      <c r="AV2" s="100"/>
-      <c r="AW2" s="100"/>
-      <c r="AX2" s="100"/>
-      <c r="AY2" s="100"/>
-      <c r="AZ2" s="100"/>
-      <c r="BA2" s="100"/>
-      <c r="BB2" s="100"/>
-      <c r="BC2" s="100"/>
-      <c r="BD2" s="100"/>
-      <c r="BE2" s="100"/>
-      <c r="BF2" s="100"/>
-      <c r="BG2" s="100"/>
-      <c r="BH2" s="100"/>
-      <c r="BI2" s="100"/>
-      <c r="BJ2" s="100"/>
-      <c r="BK2" s="100"/>
-      <c r="BL2" s="100"/>
-      <c r="BM2" s="100"/>
-      <c r="BN2" s="100"/>
-      <c r="BO2" s="100"/>
-      <c r="BP2" s="100"/>
-      <c r="BQ2" s="100"/>
-      <c r="BR2" s="100"/>
-      <c r="BS2" s="100"/>
-      <c r="BT2" s="100"/>
-      <c r="BU2" s="100"/>
-      <c r="BV2" s="100"/>
-      <c r="BW2" s="100"/>
-      <c r="BX2" s="100"/>
-      <c r="BY2" s="100"/>
-      <c r="BZ2" s="100"/>
-      <c r="CA2" s="100"/>
-      <c r="CB2" s="100"/>
-      <c r="CC2" s="100"/>
-      <c r="CD2" s="100"/>
-      <c r="CE2" s="100"/>
-      <c r="CF2" s="100" t="s">
+      <c r="AS2" s="128"/>
+      <c r="AT2" s="128"/>
+      <c r="AU2" s="128"/>
+      <c r="AV2" s="128"/>
+      <c r="AW2" s="128"/>
+      <c r="AX2" s="128"/>
+      <c r="AY2" s="128"/>
+      <c r="AZ2" s="128"/>
+      <c r="BA2" s="128"/>
+      <c r="BB2" s="128"/>
+      <c r="BC2" s="128"/>
+      <c r="BD2" s="128"/>
+      <c r="BE2" s="128"/>
+      <c r="BF2" s="128"/>
+      <c r="BG2" s="128"/>
+      <c r="BH2" s="128"/>
+      <c r="BI2" s="128"/>
+      <c r="BJ2" s="128"/>
+      <c r="BK2" s="128"/>
+      <c r="BL2" s="128"/>
+      <c r="BM2" s="128"/>
+      <c r="BN2" s="128"/>
+      <c r="BO2" s="128"/>
+      <c r="BP2" s="128"/>
+      <c r="BQ2" s="128"/>
+      <c r="BR2" s="128"/>
+      <c r="BS2" s="128"/>
+      <c r="BT2" s="128"/>
+      <c r="BU2" s="128"/>
+      <c r="BV2" s="128"/>
+      <c r="BW2" s="128"/>
+      <c r="BX2" s="128"/>
+      <c r="BY2" s="128"/>
+      <c r="BZ2" s="128"/>
+      <c r="CA2" s="128"/>
+      <c r="CB2" s="128"/>
+      <c r="CC2" s="128"/>
+      <c r="CD2" s="128"/>
+      <c r="CE2" s="128"/>
+      <c r="CF2" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="CG2" s="100"/>
-      <c r="CH2" s="100"/>
-      <c r="CI2" s="100"/>
-      <c r="CJ2" s="100"/>
-      <c r="CK2" s="100"/>
-      <c r="CL2" s="100"/>
-      <c r="CM2" s="100"/>
-      <c r="CN2" s="100"/>
-      <c r="CO2" s="100"/>
-      <c r="CP2" s="100"/>
-      <c r="CQ2" s="100"/>
-      <c r="CR2" s="100"/>
-      <c r="CS2" s="100"/>
-      <c r="CT2" s="100"/>
-      <c r="CU2" s="100"/>
-      <c r="CV2" s="100"/>
-      <c r="CW2" s="100"/>
-      <c r="CX2" s="100"/>
-      <c r="CY2" s="100"/>
-      <c r="CZ2" s="100"/>
-      <c r="DA2" s="100"/>
-      <c r="DB2" s="100"/>
-      <c r="DC2" s="100"/>
-      <c r="DD2" s="100"/>
-      <c r="DE2" s="100"/>
-      <c r="DF2" s="100"/>
-      <c r="DG2" s="100"/>
-      <c r="DH2" s="100"/>
-      <c r="DI2" s="100"/>
-      <c r="DJ2" s="100"/>
-      <c r="DK2" s="100"/>
-      <c r="DL2" s="100"/>
-      <c r="DM2" s="100"/>
-      <c r="DN2" s="100"/>
-      <c r="DO2" s="100"/>
-      <c r="DP2" s="100"/>
-      <c r="DQ2" s="100"/>
-      <c r="DR2" s="100"/>
-      <c r="DS2" s="100"/>
-      <c r="DT2" s="100" t="s">
+      <c r="CG2" s="128"/>
+      <c r="CH2" s="128"/>
+      <c r="CI2" s="128"/>
+      <c r="CJ2" s="128"/>
+      <c r="CK2" s="128"/>
+      <c r="CL2" s="128"/>
+      <c r="CM2" s="128"/>
+      <c r="CN2" s="128"/>
+      <c r="CO2" s="128"/>
+      <c r="CP2" s="128"/>
+      <c r="CQ2" s="128"/>
+      <c r="CR2" s="128"/>
+      <c r="CS2" s="128"/>
+      <c r="CT2" s="128"/>
+      <c r="CU2" s="128"/>
+      <c r="CV2" s="128"/>
+      <c r="CW2" s="128"/>
+      <c r="CX2" s="128"/>
+      <c r="CY2" s="128"/>
+      <c r="CZ2" s="128"/>
+      <c r="DA2" s="128"/>
+      <c r="DB2" s="128"/>
+      <c r="DC2" s="128"/>
+      <c r="DD2" s="128"/>
+      <c r="DE2" s="128"/>
+      <c r="DF2" s="128"/>
+      <c r="DG2" s="128"/>
+      <c r="DH2" s="128"/>
+      <c r="DI2" s="128"/>
+      <c r="DJ2" s="128"/>
+      <c r="DK2" s="128"/>
+      <c r="DL2" s="128"/>
+      <c r="DM2" s="128"/>
+      <c r="DN2" s="128"/>
+      <c r="DO2" s="128"/>
+      <c r="DP2" s="128"/>
+      <c r="DQ2" s="128"/>
+      <c r="DR2" s="128"/>
+      <c r="DS2" s="128"/>
+      <c r="DT2" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="DU2" s="100"/>
-      <c r="DV2" s="100"/>
-      <c r="DW2" s="100"/>
-      <c r="DX2" s="100"/>
-      <c r="DY2" s="100"/>
-      <c r="DZ2" s="100"/>
-      <c r="EA2" s="100"/>
-      <c r="EB2" s="100"/>
-      <c r="EC2" s="100"/>
-      <c r="ED2" s="100"/>
-      <c r="EE2" s="100"/>
-      <c r="EF2" s="100"/>
-      <c r="EG2" s="100"/>
-      <c r="EH2" s="100"/>
-      <c r="EI2" s="100"/>
-      <c r="EJ2" s="100"/>
-      <c r="EK2" s="100"/>
-      <c r="EL2" s="100"/>
-      <c r="EM2" s="100"/>
-      <c r="EN2" s="100"/>
-      <c r="EO2" s="100"/>
-      <c r="EP2" s="100"/>
-      <c r="EQ2" s="100"/>
-      <c r="ER2" s="100"/>
-      <c r="ES2" s="100"/>
-      <c r="ET2" s="100"/>
-      <c r="EU2" s="100"/>
-      <c r="EV2" s="100"/>
-      <c r="EW2" s="100"/>
-      <c r="EX2" s="100"/>
-      <c r="EY2" s="100"/>
-      <c r="EZ2" s="100"/>
-      <c r="FA2" s="100"/>
-      <c r="FB2" s="100"/>
-      <c r="FC2" s="100"/>
-      <c r="FD2" s="100"/>
-      <c r="FE2" s="100"/>
-      <c r="FF2" s="100"/>
-      <c r="FG2" s="100"/>
-      <c r="FH2" s="100" t="s">
+      <c r="DU2" s="128"/>
+      <c r="DV2" s="128"/>
+      <c r="DW2" s="128"/>
+      <c r="DX2" s="128"/>
+      <c r="DY2" s="128"/>
+      <c r="DZ2" s="128"/>
+      <c r="EA2" s="128"/>
+      <c r="EB2" s="128"/>
+      <c r="EC2" s="128"/>
+      <c r="ED2" s="128"/>
+      <c r="EE2" s="128"/>
+      <c r="EF2" s="128"/>
+      <c r="EG2" s="128"/>
+      <c r="EH2" s="128"/>
+      <c r="EI2" s="128"/>
+      <c r="EJ2" s="128"/>
+      <c r="EK2" s="128"/>
+      <c r="EL2" s="128"/>
+      <c r="EM2" s="128"/>
+      <c r="EN2" s="128"/>
+      <c r="EO2" s="128"/>
+      <c r="EP2" s="128"/>
+      <c r="EQ2" s="128"/>
+      <c r="ER2" s="128"/>
+      <c r="ES2" s="128"/>
+      <c r="ET2" s="128"/>
+      <c r="EU2" s="128"/>
+      <c r="EV2" s="128"/>
+      <c r="EW2" s="128"/>
+      <c r="EX2" s="128"/>
+      <c r="EY2" s="128"/>
+      <c r="EZ2" s="128"/>
+      <c r="FA2" s="128"/>
+      <c r="FB2" s="128"/>
+      <c r="FC2" s="128"/>
+      <c r="FD2" s="128"/>
+      <c r="FE2" s="128"/>
+      <c r="FF2" s="128"/>
+      <c r="FG2" s="128"/>
+      <c r="FH2" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="FI2" s="100"/>
-      <c r="FJ2" s="100"/>
-      <c r="FK2" s="100"/>
-      <c r="FL2" s="100"/>
-      <c r="FM2" s="100"/>
-      <c r="FN2" s="100"/>
-      <c r="FO2" s="100"/>
-      <c r="FP2" s="100"/>
-      <c r="FQ2" s="100"/>
-      <c r="FR2" s="100"/>
-      <c r="FS2" s="100"/>
-      <c r="FT2" s="100"/>
-      <c r="FU2" s="100"/>
-      <c r="FV2" s="100"/>
-      <c r="FW2" s="100"/>
-      <c r="FX2" s="100"/>
-      <c r="FY2" s="100"/>
-      <c r="FZ2" s="100"/>
-      <c r="GA2" s="100"/>
-      <c r="GB2" s="100"/>
-      <c r="GC2" s="100"/>
-      <c r="GD2" s="100"/>
-      <c r="GE2" s="100"/>
-      <c r="GF2" s="100"/>
-      <c r="GG2" s="100"/>
-      <c r="GH2" s="100"/>
-      <c r="GI2" s="100"/>
-      <c r="GJ2" s="100"/>
-      <c r="GK2" s="100"/>
-      <c r="GL2" s="100"/>
-      <c r="GM2" s="100"/>
-      <c r="GN2" s="100"/>
-      <c r="GO2" s="100"/>
-      <c r="GP2" s="100"/>
-      <c r="GQ2" s="100"/>
-      <c r="GR2" s="100"/>
-      <c r="GS2" s="100"/>
-      <c r="GT2" s="100"/>
-      <c r="GU2" s="100"/>
-      <c r="GV2" s="100"/>
+      <c r="FI2" s="128"/>
+      <c r="FJ2" s="128"/>
+      <c r="FK2" s="128"/>
+      <c r="FL2" s="128"/>
+      <c r="FM2" s="128"/>
+      <c r="FN2" s="128"/>
+      <c r="FO2" s="128"/>
+      <c r="FP2" s="128"/>
+      <c r="FQ2" s="128"/>
+      <c r="FR2" s="128"/>
+      <c r="FS2" s="128"/>
+      <c r="FT2" s="128"/>
+      <c r="FU2" s="128"/>
+      <c r="FV2" s="128"/>
+      <c r="FW2" s="128"/>
+      <c r="FX2" s="128"/>
+      <c r="FY2" s="128"/>
+      <c r="FZ2" s="128"/>
+      <c r="GA2" s="128"/>
+      <c r="GB2" s="128"/>
+      <c r="GC2" s="128"/>
+      <c r="GD2" s="128"/>
+      <c r="GE2" s="128"/>
+      <c r="GF2" s="128"/>
+      <c r="GG2" s="128"/>
+      <c r="GH2" s="128"/>
+      <c r="GI2" s="128"/>
+      <c r="GJ2" s="128"/>
+      <c r="GK2" s="128"/>
+      <c r="GL2" s="128"/>
+      <c r="GM2" s="128"/>
+      <c r="GN2" s="128"/>
+      <c r="GO2" s="128"/>
+      <c r="GP2" s="128"/>
+      <c r="GQ2" s="128"/>
+      <c r="GR2" s="128"/>
+      <c r="GS2" s="128"/>
+      <c r="GT2" s="128"/>
+      <c r="GU2" s="128"/>
+      <c r="GV2" s="128"/>
     </row>
     <row r="3" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="101"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
-      <c r="Z3" s="101"/>
-      <c r="AA3" s="101"/>
-      <c r="AB3" s="101"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="101"/>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="101"/>
-      <c r="AG3" s="101"/>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="101"/>
-      <c r="AJ3" s="101"/>
-      <c r="AK3" s="101"/>
-      <c r="AL3" s="101"/>
-      <c r="AM3" s="101"/>
-      <c r="AN3" s="101"/>
-      <c r="AO3" s="101"/>
-      <c r="AP3" s="101"/>
-      <c r="AQ3" s="101"/>
-      <c r="AR3" s="101"/>
-      <c r="AS3" s="101"/>
-      <c r="AT3" s="101"/>
-      <c r="AU3" s="101"/>
-      <c r="AV3" s="101"/>
-      <c r="AW3" s="101"/>
-      <c r="AX3" s="101"/>
-      <c r="AY3" s="101"/>
-      <c r="AZ3" s="101"/>
-      <c r="BA3" s="101"/>
-      <c r="BB3" s="101"/>
-      <c r="BC3" s="101"/>
-      <c r="BD3" s="101"/>
-      <c r="BE3" s="101"/>
-      <c r="BF3" s="101"/>
-      <c r="BG3" s="101"/>
-      <c r="BH3" s="101"/>
-      <c r="BI3" s="101"/>
-      <c r="BJ3" s="101"/>
-      <c r="BK3" s="101"/>
-      <c r="BL3" s="101"/>
-      <c r="BM3" s="101"/>
-      <c r="BN3" s="101"/>
-      <c r="BO3" s="101"/>
-      <c r="BP3" s="101"/>
-      <c r="BQ3" s="101"/>
-      <c r="BR3" s="101"/>
-      <c r="BS3" s="101"/>
-      <c r="BT3" s="101"/>
-      <c r="BU3" s="101"/>
-      <c r="BV3" s="101"/>
-      <c r="BW3" s="101"/>
-      <c r="BX3" s="101"/>
-      <c r="BY3" s="101"/>
-      <c r="BZ3" s="101"/>
-      <c r="CA3" s="101"/>
-      <c r="CB3" s="101"/>
-      <c r="CC3" s="101"/>
-      <c r="CD3" s="101"/>
-      <c r="CE3" s="101"/>
-      <c r="CF3" s="101"/>
-      <c r="CG3" s="101"/>
-      <c r="CH3" s="101"/>
-      <c r="CI3" s="101"/>
-      <c r="CJ3" s="101"/>
-      <c r="CK3" s="101"/>
-      <c r="CL3" s="101"/>
-      <c r="CM3" s="101"/>
-      <c r="CN3" s="101"/>
-      <c r="CO3" s="101"/>
-      <c r="CP3" s="101"/>
-      <c r="CQ3" s="101"/>
-      <c r="CR3" s="101"/>
-      <c r="CS3" s="101"/>
-      <c r="CT3" s="101"/>
-      <c r="CU3" s="101"/>
-      <c r="CV3" s="101"/>
-      <c r="CW3" s="101"/>
-      <c r="CX3" s="101"/>
-      <c r="CY3" s="101"/>
-      <c r="CZ3" s="101"/>
-      <c r="DA3" s="101"/>
-      <c r="DB3" s="101"/>
-      <c r="DC3" s="101"/>
-      <c r="DD3" s="101"/>
-      <c r="DE3" s="101"/>
-      <c r="DF3" s="101"/>
-      <c r="DG3" s="101"/>
-      <c r="DH3" s="101"/>
-      <c r="DI3" s="101"/>
-      <c r="DJ3" s="101"/>
-      <c r="DK3" s="101"/>
-      <c r="DL3" s="101"/>
-      <c r="DM3" s="101"/>
-      <c r="DN3" s="101"/>
-      <c r="DO3" s="101"/>
-      <c r="DP3" s="101"/>
-      <c r="DQ3" s="101"/>
-      <c r="DR3" s="101"/>
-      <c r="DS3" s="101"/>
-      <c r="DT3" s="101"/>
-      <c r="DU3" s="101"/>
-      <c r="DV3" s="101"/>
-      <c r="DW3" s="101"/>
-      <c r="DX3" s="101"/>
-      <c r="DY3" s="101"/>
-      <c r="DZ3" s="101"/>
-      <c r="EA3" s="101"/>
-      <c r="EB3" s="101"/>
-      <c r="EC3" s="101"/>
-      <c r="ED3" s="101"/>
-      <c r="EE3" s="101"/>
-      <c r="EF3" s="101"/>
-      <c r="EG3" s="101"/>
-      <c r="EH3" s="101"/>
-      <c r="EI3" s="101"/>
-      <c r="EJ3" s="101"/>
-      <c r="EK3" s="101"/>
-      <c r="EL3" s="101"/>
-      <c r="EM3" s="101"/>
-      <c r="EN3" s="101"/>
-      <c r="EO3" s="101"/>
-      <c r="EP3" s="101"/>
-      <c r="EQ3" s="101"/>
-      <c r="ER3" s="101"/>
-      <c r="ES3" s="101"/>
-      <c r="ET3" s="101"/>
-      <c r="EU3" s="101"/>
-      <c r="EV3" s="101"/>
-      <c r="EW3" s="101"/>
-      <c r="EX3" s="101"/>
-      <c r="EY3" s="101"/>
-      <c r="EZ3" s="101"/>
-      <c r="FA3" s="101"/>
-      <c r="FB3" s="101"/>
-      <c r="FC3" s="101"/>
-      <c r="FD3" s="101"/>
-      <c r="FE3" s="101"/>
-      <c r="FF3" s="101"/>
-      <c r="FG3" s="101"/>
-      <c r="FH3" s="101"/>
-      <c r="FI3" s="101"/>
-      <c r="FJ3" s="101"/>
-      <c r="FK3" s="101"/>
-      <c r="FL3" s="101"/>
-      <c r="FM3" s="101"/>
-      <c r="FN3" s="101"/>
-      <c r="FO3" s="101"/>
-      <c r="FP3" s="101"/>
-      <c r="FQ3" s="101"/>
-      <c r="FR3" s="101"/>
-      <c r="FS3" s="101"/>
-      <c r="FT3" s="101"/>
-      <c r="FU3" s="101"/>
-      <c r="FV3" s="101"/>
-      <c r="FW3" s="101"/>
-      <c r="FX3" s="101"/>
-      <c r="FY3" s="101"/>
-      <c r="FZ3" s="101"/>
-      <c r="GA3" s="101"/>
-      <c r="GB3" s="101"/>
-      <c r="GC3" s="101"/>
-      <c r="GD3" s="101"/>
-      <c r="GE3" s="101"/>
-      <c r="GF3" s="101"/>
-      <c r="GG3" s="101"/>
-      <c r="GH3" s="101"/>
-      <c r="GI3" s="101"/>
-      <c r="GJ3" s="101"/>
-      <c r="GK3" s="101"/>
-      <c r="GL3" s="101"/>
-      <c r="GM3" s="101"/>
-      <c r="GN3" s="100"/>
-      <c r="GO3" s="101"/>
-      <c r="GP3" s="101"/>
-      <c r="GQ3" s="101"/>
-      <c r="GR3" s="101"/>
-      <c r="GS3" s="101"/>
-      <c r="GT3" s="101"/>
-      <c r="GU3" s="101"/>
-      <c r="GV3" s="101"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129"/>
+      <c r="W3" s="129"/>
+      <c r="X3" s="129"/>
+      <c r="Y3" s="129"/>
+      <c r="Z3" s="129"/>
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="129"/>
+      <c r="AG3" s="129"/>
+      <c r="AH3" s="129"/>
+      <c r="AI3" s="129"/>
+      <c r="AJ3" s="129"/>
+      <c r="AK3" s="129"/>
+      <c r="AL3" s="129"/>
+      <c r="AM3" s="129"/>
+      <c r="AN3" s="129"/>
+      <c r="AO3" s="129"/>
+      <c r="AP3" s="129"/>
+      <c r="AQ3" s="129"/>
+      <c r="AR3" s="129"/>
+      <c r="AS3" s="129"/>
+      <c r="AT3" s="129"/>
+      <c r="AU3" s="129"/>
+      <c r="AV3" s="129"/>
+      <c r="AW3" s="129"/>
+      <c r="AX3" s="129"/>
+      <c r="AY3" s="129"/>
+      <c r="AZ3" s="129"/>
+      <c r="BA3" s="129"/>
+      <c r="BB3" s="129"/>
+      <c r="BC3" s="129"/>
+      <c r="BD3" s="129"/>
+      <c r="BE3" s="129"/>
+      <c r="BF3" s="129"/>
+      <c r="BG3" s="129"/>
+      <c r="BH3" s="129"/>
+      <c r="BI3" s="129"/>
+      <c r="BJ3" s="129"/>
+      <c r="BK3" s="129"/>
+      <c r="BL3" s="129"/>
+      <c r="BM3" s="129"/>
+      <c r="BN3" s="129"/>
+      <c r="BO3" s="129"/>
+      <c r="BP3" s="129"/>
+      <c r="BQ3" s="129"/>
+      <c r="BR3" s="129"/>
+      <c r="BS3" s="129"/>
+      <c r="BT3" s="129"/>
+      <c r="BU3" s="129"/>
+      <c r="BV3" s="129"/>
+      <c r="BW3" s="129"/>
+      <c r="BX3" s="129"/>
+      <c r="BY3" s="129"/>
+      <c r="BZ3" s="129"/>
+      <c r="CA3" s="129"/>
+      <c r="CB3" s="129"/>
+      <c r="CC3" s="129"/>
+      <c r="CD3" s="129"/>
+      <c r="CE3" s="129"/>
+      <c r="CF3" s="129"/>
+      <c r="CG3" s="129"/>
+      <c r="CH3" s="129"/>
+      <c r="CI3" s="129"/>
+      <c r="CJ3" s="129"/>
+      <c r="CK3" s="129"/>
+      <c r="CL3" s="129"/>
+      <c r="CM3" s="129"/>
+      <c r="CN3" s="129"/>
+      <c r="CO3" s="129"/>
+      <c r="CP3" s="129"/>
+      <c r="CQ3" s="129"/>
+      <c r="CR3" s="129"/>
+      <c r="CS3" s="129"/>
+      <c r="CT3" s="129"/>
+      <c r="CU3" s="129"/>
+      <c r="CV3" s="129"/>
+      <c r="CW3" s="129"/>
+      <c r="CX3" s="129"/>
+      <c r="CY3" s="129"/>
+      <c r="CZ3" s="129"/>
+      <c r="DA3" s="129"/>
+      <c r="DB3" s="129"/>
+      <c r="DC3" s="129"/>
+      <c r="DD3" s="129"/>
+      <c r="DE3" s="129"/>
+      <c r="DF3" s="129"/>
+      <c r="DG3" s="129"/>
+      <c r="DH3" s="129"/>
+      <c r="DI3" s="129"/>
+      <c r="DJ3" s="129"/>
+      <c r="DK3" s="129"/>
+      <c r="DL3" s="129"/>
+      <c r="DM3" s="129"/>
+      <c r="DN3" s="129"/>
+      <c r="DO3" s="129"/>
+      <c r="DP3" s="129"/>
+      <c r="DQ3" s="129"/>
+      <c r="DR3" s="129"/>
+      <c r="DS3" s="129"/>
+      <c r="DT3" s="129"/>
+      <c r="DU3" s="129"/>
+      <c r="DV3" s="129"/>
+      <c r="DW3" s="129"/>
+      <c r="DX3" s="129"/>
+      <c r="DY3" s="129"/>
+      <c r="DZ3" s="129"/>
+      <c r="EA3" s="129"/>
+      <c r="EB3" s="129"/>
+      <c r="EC3" s="129"/>
+      <c r="ED3" s="129"/>
+      <c r="EE3" s="129"/>
+      <c r="EF3" s="129"/>
+      <c r="EG3" s="129"/>
+      <c r="EH3" s="129"/>
+      <c r="EI3" s="129"/>
+      <c r="EJ3" s="129"/>
+      <c r="EK3" s="129"/>
+      <c r="EL3" s="129"/>
+      <c r="EM3" s="129"/>
+      <c r="EN3" s="129"/>
+      <c r="EO3" s="129"/>
+      <c r="EP3" s="129"/>
+      <c r="EQ3" s="129"/>
+      <c r="ER3" s="129"/>
+      <c r="ES3" s="129"/>
+      <c r="ET3" s="129"/>
+      <c r="EU3" s="129"/>
+      <c r="EV3" s="129"/>
+      <c r="EW3" s="129"/>
+      <c r="EX3" s="129"/>
+      <c r="EY3" s="129"/>
+      <c r="EZ3" s="129"/>
+      <c r="FA3" s="129"/>
+      <c r="FB3" s="129"/>
+      <c r="FC3" s="129"/>
+      <c r="FD3" s="129"/>
+      <c r="FE3" s="129"/>
+      <c r="FF3" s="129"/>
+      <c r="FG3" s="129"/>
+      <c r="FH3" s="129"/>
+      <c r="FI3" s="129"/>
+      <c r="FJ3" s="129"/>
+      <c r="FK3" s="129"/>
+      <c r="FL3" s="129"/>
+      <c r="FM3" s="129"/>
+      <c r="FN3" s="129"/>
+      <c r="FO3" s="129"/>
+      <c r="FP3" s="129"/>
+      <c r="FQ3" s="129"/>
+      <c r="FR3" s="129"/>
+      <c r="FS3" s="129"/>
+      <c r="FT3" s="129"/>
+      <c r="FU3" s="129"/>
+      <c r="FV3" s="129"/>
+      <c r="FW3" s="129"/>
+      <c r="FX3" s="129"/>
+      <c r="FY3" s="129"/>
+      <c r="FZ3" s="129"/>
+      <c r="GA3" s="129"/>
+      <c r="GB3" s="129"/>
+      <c r="GC3" s="129"/>
+      <c r="GD3" s="129"/>
+      <c r="GE3" s="129"/>
+      <c r="GF3" s="129"/>
+      <c r="GG3" s="129"/>
+      <c r="GH3" s="129"/>
+      <c r="GI3" s="129"/>
+      <c r="GJ3" s="129"/>
+      <c r="GK3" s="129"/>
+      <c r="GL3" s="129"/>
+      <c r="GM3" s="129"/>
+      <c r="GN3" s="128"/>
+      <c r="GO3" s="129"/>
+      <c r="GP3" s="129"/>
+      <c r="GQ3" s="129"/>
+      <c r="GR3" s="129"/>
+      <c r="GS3" s="129"/>
+      <c r="GT3" s="129"/>
+      <c r="GU3" s="129"/>
+      <c r="GV3" s="129"/>
     </row>
     <row r="4" spans="1:205" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="126" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -2578,313 +2578,313 @@
       <c r="C4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="102">
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="130">
         <v>45418</v>
       </c>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="92" t="s">
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="94">
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="119">
         <v>45419</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="92" t="s">
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="93"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="94">
+      <c r="U4" s="122"/>
+      <c r="V4" s="122"/>
+      <c r="W4" s="122"/>
+      <c r="X4" s="119">
         <v>45420</v>
       </c>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="92" t="s">
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="120"/>
+      <c r="AB4" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="94">
+      <c r="AC4" s="122"/>
+      <c r="AD4" s="122"/>
+      <c r="AE4" s="122"/>
+      <c r="AF4" s="119">
         <v>45421</v>
       </c>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="92" t="s">
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
+      <c r="AI4" s="120"/>
+      <c r="AJ4" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="94">
+      <c r="AK4" s="122"/>
+      <c r="AL4" s="122"/>
+      <c r="AM4" s="122"/>
+      <c r="AN4" s="119">
         <v>45422</v>
       </c>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="92" t="s">
+      <c r="AO4" s="119"/>
+      <c r="AP4" s="119"/>
+      <c r="AQ4" s="120"/>
+      <c r="AR4" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="94">
+      <c r="AS4" s="122"/>
+      <c r="AT4" s="122"/>
+      <c r="AU4" s="122"/>
+      <c r="AV4" s="119">
         <v>45425</v>
       </c>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="95"/>
-      <c r="AZ4" s="92" t="s">
+      <c r="AW4" s="119"/>
+      <c r="AX4" s="119"/>
+      <c r="AY4" s="120"/>
+      <c r="AZ4" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="BA4" s="93"/>
-      <c r="BB4" s="93"/>
-      <c r="BC4" s="93"/>
-      <c r="BD4" s="94">
+      <c r="BA4" s="122"/>
+      <c r="BB4" s="122"/>
+      <c r="BC4" s="122"/>
+      <c r="BD4" s="119">
         <v>45426</v>
       </c>
-      <c r="BE4" s="94"/>
-      <c r="BF4" s="94"/>
-      <c r="BG4" s="95"/>
-      <c r="BH4" s="92" t="s">
+      <c r="BE4" s="119"/>
+      <c r="BF4" s="119"/>
+      <c r="BG4" s="120"/>
+      <c r="BH4" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="BI4" s="93"/>
-      <c r="BJ4" s="93"/>
-      <c r="BK4" s="93"/>
-      <c r="BL4" s="94">
+      <c r="BI4" s="122"/>
+      <c r="BJ4" s="122"/>
+      <c r="BK4" s="122"/>
+      <c r="BL4" s="119">
         <v>45427</v>
       </c>
-      <c r="BM4" s="94"/>
-      <c r="BN4" s="94"/>
-      <c r="BO4" s="95"/>
-      <c r="BP4" s="92" t="s">
+      <c r="BM4" s="119"/>
+      <c r="BN4" s="119"/>
+      <c r="BO4" s="120"/>
+      <c r="BP4" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="BQ4" s="93"/>
-      <c r="BR4" s="93"/>
-      <c r="BS4" s="93"/>
-      <c r="BT4" s="94">
+      <c r="BQ4" s="122"/>
+      <c r="BR4" s="122"/>
+      <c r="BS4" s="122"/>
+      <c r="BT4" s="119">
         <v>45428</v>
       </c>
-      <c r="BU4" s="94"/>
-      <c r="BV4" s="94"/>
-      <c r="BW4" s="95"/>
-      <c r="BX4" s="92" t="s">
+      <c r="BU4" s="119"/>
+      <c r="BV4" s="119"/>
+      <c r="BW4" s="120"/>
+      <c r="BX4" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="93"/>
-      <c r="BZ4" s="93"/>
-      <c r="CA4" s="93"/>
-      <c r="CB4" s="94">
+      <c r="BY4" s="122"/>
+      <c r="BZ4" s="122"/>
+      <c r="CA4" s="122"/>
+      <c r="CB4" s="119">
         <v>45429</v>
       </c>
-      <c r="CC4" s="94"/>
-      <c r="CD4" s="94"/>
-      <c r="CE4" s="95"/>
-      <c r="CF4" s="92" t="s">
+      <c r="CC4" s="119"/>
+      <c r="CD4" s="119"/>
+      <c r="CE4" s="120"/>
+      <c r="CF4" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="CG4" s="93"/>
-      <c r="CH4" s="93"/>
-      <c r="CI4" s="93"/>
-      <c r="CJ4" s="94">
+      <c r="CG4" s="122"/>
+      <c r="CH4" s="122"/>
+      <c r="CI4" s="122"/>
+      <c r="CJ4" s="119">
         <v>45432</v>
       </c>
-      <c r="CK4" s="94"/>
-      <c r="CL4" s="94"/>
-      <c r="CM4" s="95"/>
-      <c r="CN4" s="92" t="s">
+      <c r="CK4" s="119"/>
+      <c r="CL4" s="119"/>
+      <c r="CM4" s="120"/>
+      <c r="CN4" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="CO4" s="93"/>
-      <c r="CP4" s="93"/>
-      <c r="CQ4" s="93"/>
-      <c r="CR4" s="94">
+      <c r="CO4" s="122"/>
+      <c r="CP4" s="122"/>
+      <c r="CQ4" s="122"/>
+      <c r="CR4" s="119">
         <v>45433</v>
       </c>
-      <c r="CS4" s="94"/>
-      <c r="CT4" s="94"/>
-      <c r="CU4" s="95"/>
-      <c r="CV4" s="92" t="s">
+      <c r="CS4" s="119"/>
+      <c r="CT4" s="119"/>
+      <c r="CU4" s="120"/>
+      <c r="CV4" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="CW4" s="93"/>
-      <c r="CX4" s="93"/>
-      <c r="CY4" s="93"/>
-      <c r="CZ4" s="94">
+      <c r="CW4" s="122"/>
+      <c r="CX4" s="122"/>
+      <c r="CY4" s="122"/>
+      <c r="CZ4" s="119">
         <v>45434</v>
       </c>
-      <c r="DA4" s="94"/>
-      <c r="DB4" s="94"/>
-      <c r="DC4" s="95"/>
-      <c r="DD4" s="92" t="s">
+      <c r="DA4" s="119"/>
+      <c r="DB4" s="119"/>
+      <c r="DC4" s="120"/>
+      <c r="DD4" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="DE4" s="93"/>
-      <c r="DF4" s="93"/>
-      <c r="DG4" s="93"/>
-      <c r="DH4" s="94">
+      <c r="DE4" s="122"/>
+      <c r="DF4" s="122"/>
+      <c r="DG4" s="122"/>
+      <c r="DH4" s="119">
         <v>45435</v>
       </c>
-      <c r="DI4" s="94"/>
-      <c r="DJ4" s="94"/>
-      <c r="DK4" s="95"/>
-      <c r="DL4" s="92" t="s">
+      <c r="DI4" s="119"/>
+      <c r="DJ4" s="119"/>
+      <c r="DK4" s="120"/>
+      <c r="DL4" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="DM4" s="93"/>
-      <c r="DN4" s="93"/>
-      <c r="DO4" s="93"/>
-      <c r="DP4" s="94">
+      <c r="DM4" s="122"/>
+      <c r="DN4" s="122"/>
+      <c r="DO4" s="122"/>
+      <c r="DP4" s="119">
         <v>45436</v>
       </c>
-      <c r="DQ4" s="94"/>
-      <c r="DR4" s="94"/>
-      <c r="DS4" s="95"/>
-      <c r="DT4" s="92" t="s">
+      <c r="DQ4" s="119"/>
+      <c r="DR4" s="119"/>
+      <c r="DS4" s="120"/>
+      <c r="DT4" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="DU4" s="93"/>
-      <c r="DV4" s="93"/>
-      <c r="DW4" s="93"/>
-      <c r="DX4" s="94">
+      <c r="DU4" s="122"/>
+      <c r="DV4" s="122"/>
+      <c r="DW4" s="122"/>
+      <c r="DX4" s="119">
         <v>45439</v>
       </c>
-      <c r="DY4" s="94"/>
-      <c r="DZ4" s="94"/>
-      <c r="EA4" s="95"/>
-      <c r="EB4" s="92" t="s">
+      <c r="DY4" s="119"/>
+      <c r="DZ4" s="119"/>
+      <c r="EA4" s="120"/>
+      <c r="EB4" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="EC4" s="93"/>
-      <c r="ED4" s="93"/>
-      <c r="EE4" s="93"/>
-      <c r="EF4" s="94">
+      <c r="EC4" s="122"/>
+      <c r="ED4" s="122"/>
+      <c r="EE4" s="122"/>
+      <c r="EF4" s="119">
         <v>45440</v>
       </c>
-      <c r="EG4" s="94"/>
-      <c r="EH4" s="94"/>
-      <c r="EI4" s="95"/>
-      <c r="EJ4" s="92" t="s">
+      <c r="EG4" s="119"/>
+      <c r="EH4" s="119"/>
+      <c r="EI4" s="120"/>
+      <c r="EJ4" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="EK4" s="93"/>
-      <c r="EL4" s="93"/>
-      <c r="EM4" s="93"/>
-      <c r="EN4" s="94">
+      <c r="EK4" s="122"/>
+      <c r="EL4" s="122"/>
+      <c r="EM4" s="122"/>
+      <c r="EN4" s="119">
         <v>45441</v>
       </c>
-      <c r="EO4" s="94"/>
-      <c r="EP4" s="94"/>
-      <c r="EQ4" s="95"/>
-      <c r="ER4" s="92" t="s">
+      <c r="EO4" s="119"/>
+      <c r="EP4" s="119"/>
+      <c r="EQ4" s="120"/>
+      <c r="ER4" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="ES4" s="93"/>
-      <c r="ET4" s="93"/>
-      <c r="EU4" s="93"/>
-      <c r="EV4" s="94">
+      <c r="ES4" s="122"/>
+      <c r="ET4" s="122"/>
+      <c r="EU4" s="122"/>
+      <c r="EV4" s="119">
         <v>45442</v>
       </c>
-      <c r="EW4" s="94"/>
-      <c r="EX4" s="94"/>
-      <c r="EY4" s="95"/>
-      <c r="EZ4" s="92" t="s">
+      <c r="EW4" s="119"/>
+      <c r="EX4" s="119"/>
+      <c r="EY4" s="120"/>
+      <c r="EZ4" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="FA4" s="93"/>
-      <c r="FB4" s="93"/>
-      <c r="FC4" s="93"/>
-      <c r="FD4" s="94">
+      <c r="FA4" s="122"/>
+      <c r="FB4" s="122"/>
+      <c r="FC4" s="122"/>
+      <c r="FD4" s="119">
         <v>45443</v>
       </c>
-      <c r="FE4" s="94"/>
-      <c r="FF4" s="94"/>
-      <c r="FG4" s="95"/>
-      <c r="FH4" s="92" t="s">
+      <c r="FE4" s="119"/>
+      <c r="FF4" s="119"/>
+      <c r="FG4" s="120"/>
+      <c r="FH4" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="FI4" s="93"/>
-      <c r="FJ4" s="93"/>
-      <c r="FK4" s="93"/>
-      <c r="FL4" s="94">
+      <c r="FI4" s="122"/>
+      <c r="FJ4" s="122"/>
+      <c r="FK4" s="122"/>
+      <c r="FL4" s="119">
         <v>45446</v>
       </c>
-      <c r="FM4" s="94"/>
-      <c r="FN4" s="94"/>
-      <c r="FO4" s="95"/>
-      <c r="FP4" s="92" t="s">
+      <c r="FM4" s="119"/>
+      <c r="FN4" s="119"/>
+      <c r="FO4" s="120"/>
+      <c r="FP4" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="FQ4" s="93"/>
-      <c r="FR4" s="93"/>
-      <c r="FS4" s="93"/>
-      <c r="FT4" s="94">
+      <c r="FQ4" s="122"/>
+      <c r="FR4" s="122"/>
+      <c r="FS4" s="122"/>
+      <c r="FT4" s="119">
         <v>45447</v>
       </c>
-      <c r="FU4" s="94"/>
-      <c r="FV4" s="94"/>
-      <c r="FW4" s="95"/>
-      <c r="FX4" s="92" t="s">
+      <c r="FU4" s="119"/>
+      <c r="FV4" s="119"/>
+      <c r="FW4" s="120"/>
+      <c r="FX4" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="FY4" s="93"/>
-      <c r="FZ4" s="93"/>
-      <c r="GA4" s="93"/>
-      <c r="GB4" s="94">
+      <c r="FY4" s="122"/>
+      <c r="FZ4" s="122"/>
+      <c r="GA4" s="122"/>
+      <c r="GB4" s="119">
         <v>45448</v>
       </c>
-      <c r="GC4" s="94"/>
-      <c r="GD4" s="94"/>
-      <c r="GE4" s="95"/>
-      <c r="GF4" s="92" t="s">
+      <c r="GC4" s="119"/>
+      <c r="GD4" s="119"/>
+      <c r="GE4" s="120"/>
+      <c r="GF4" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="GG4" s="93"/>
-      <c r="GH4" s="93"/>
-      <c r="GI4" s="93"/>
-      <c r="GJ4" s="94">
+      <c r="GG4" s="122"/>
+      <c r="GH4" s="122"/>
+      <c r="GI4" s="122"/>
+      <c r="GJ4" s="119">
         <v>45449</v>
       </c>
-      <c r="GK4" s="94"/>
-      <c r="GL4" s="94"/>
-      <c r="GM4" s="94"/>
+      <c r="GK4" s="119"/>
+      <c r="GL4" s="119"/>
+      <c r="GM4" s="119"/>
       <c r="GN4" s="50"/>
-      <c r="GO4" s="93" t="s">
+      <c r="GO4" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="GP4" s="93"/>
-      <c r="GQ4" s="93"/>
-      <c r="GR4" s="93"/>
-      <c r="GS4" s="94">
+      <c r="GP4" s="122"/>
+      <c r="GQ4" s="122"/>
+      <c r="GR4" s="122"/>
+      <c r="GS4" s="119">
         <v>45454</v>
       </c>
-      <c r="GT4" s="94"/>
-      <c r="GU4" s="94"/>
-      <c r="GV4" s="95"/>
-      <c r="GW4" s="96" t="s">
+      <c r="GT4" s="119"/>
+      <c r="GU4" s="119"/>
+      <c r="GV4" s="120"/>
+      <c r="GW4" s="132" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
+      <c r="A5" s="127"/>
       <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
@@ -3492,7 +3492,7 @@
       <c r="GV5" s="7">
         <v>8</v>
       </c>
-      <c r="GW5" s="96"/>
+      <c r="GW5" s="132"/>
     </row>
     <row r="6" spans="1:205" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
@@ -3526,16 +3526,16 @@
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
       <c r="AA6" s="15"/>
-      <c r="AB6" s="104" t="s">
+      <c r="AB6" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="AC6" s="105"/>
-      <c r="AD6" s="105"/>
-      <c r="AE6" s="105"/>
-      <c r="AF6" s="105"/>
-      <c r="AG6" s="105"/>
-      <c r="AH6" s="105"/>
-      <c r="AI6" s="106"/>
+      <c r="AC6" s="108"/>
+      <c r="AD6" s="108"/>
+      <c r="AE6" s="108"/>
+      <c r="AF6" s="108"/>
+      <c r="AG6" s="108"/>
+      <c r="AH6" s="108"/>
+      <c r="AI6" s="109"/>
       <c r="AJ6" s="13"/>
       <c r="AK6" s="14"/>
       <c r="AL6" s="14"/>
@@ -3590,16 +3590,16 @@
       <c r="CE6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="CF6" s="104" t="s">
+      <c r="CF6" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="CG6" s="105"/>
-      <c r="CH6" s="105"/>
-      <c r="CI6" s="105"/>
-      <c r="CJ6" s="105"/>
-      <c r="CK6" s="105"/>
-      <c r="CL6" s="105"/>
-      <c r="CM6" s="106"/>
+      <c r="CG6" s="108"/>
+      <c r="CH6" s="108"/>
+      <c r="CI6" s="108"/>
+      <c r="CJ6" s="108"/>
+      <c r="CK6" s="108"/>
+      <c r="CL6" s="108"/>
+      <c r="CM6" s="109"/>
       <c r="CN6" s="26" t="s">
         <v>28</v>
       </c>
@@ -3672,16 +3672,16 @@
       <c r="EO6" s="24"/>
       <c r="EP6" s="24"/>
       <c r="EQ6" s="25"/>
-      <c r="ER6" s="104" t="s">
+      <c r="ER6" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="ES6" s="105"/>
-      <c r="ET6" s="105"/>
-      <c r="EU6" s="105"/>
-      <c r="EV6" s="105"/>
-      <c r="EW6" s="105"/>
-      <c r="EX6" s="105"/>
-      <c r="EY6" s="106"/>
+      <c r="ES6" s="108"/>
+      <c r="ET6" s="108"/>
+      <c r="EU6" s="108"/>
+      <c r="EV6" s="108"/>
+      <c r="EW6" s="108"/>
+      <c r="EX6" s="108"/>
+      <c r="EY6" s="109"/>
       <c r="EZ6" s="26"/>
       <c r="FA6" s="24"/>
       <c r="FB6" s="24"/>
@@ -3731,13 +3731,13 @@
       <c r="GT6" s="10"/>
       <c r="GU6" s="10"/>
       <c r="GV6" s="10"/>
-      <c r="GW6" s="96"/>
+      <c r="GW6" s="132"/>
     </row>
     <row r="7" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="122"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="60"/>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
@@ -3763,14 +3763,14 @@
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
       <c r="AA7" s="15"/>
-      <c r="AB7" s="107"/>
-      <c r="AC7" s="108"/>
-      <c r="AD7" s="108"/>
-      <c r="AE7" s="108"/>
-      <c r="AF7" s="108"/>
-      <c r="AG7" s="108"/>
-      <c r="AH7" s="108"/>
-      <c r="AI7" s="109"/>
+      <c r="AB7" s="110"/>
+      <c r="AC7" s="111"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="111"/>
+      <c r="AG7" s="111"/>
+      <c r="AH7" s="111"/>
+      <c r="AI7" s="112"/>
       <c r="AJ7" s="13"/>
       <c r="AK7" s="14"/>
       <c r="AL7" s="14"/>
@@ -3819,14 +3819,14 @@
       <c r="CC7" s="14"/>
       <c r="CD7" s="14"/>
       <c r="CE7" s="15"/>
-      <c r="CF7" s="107"/>
-      <c r="CG7" s="108"/>
-      <c r="CH7" s="108"/>
-      <c r="CI7" s="108"/>
-      <c r="CJ7" s="108"/>
-      <c r="CK7" s="108"/>
-      <c r="CL7" s="108"/>
-      <c r="CM7" s="109"/>
+      <c r="CF7" s="110"/>
+      <c r="CG7" s="111"/>
+      <c r="CH7" s="111"/>
+      <c r="CI7" s="111"/>
+      <c r="CJ7" s="111"/>
+      <c r="CK7" s="111"/>
+      <c r="CL7" s="111"/>
+      <c r="CM7" s="112"/>
       <c r="CN7" s="13"/>
       <c r="CO7" s="14"/>
       <c r="CP7" s="14"/>
@@ -3883,14 +3883,14 @@
       <c r="EO7" s="14"/>
       <c r="EP7" s="14"/>
       <c r="EQ7" s="15"/>
-      <c r="ER7" s="107"/>
-      <c r="ES7" s="108"/>
-      <c r="ET7" s="108"/>
-      <c r="EU7" s="108"/>
-      <c r="EV7" s="108"/>
-      <c r="EW7" s="108"/>
-      <c r="EX7" s="108"/>
-      <c r="EY7" s="109"/>
+      <c r="ER7" s="110"/>
+      <c r="ES7" s="111"/>
+      <c r="ET7" s="111"/>
+      <c r="EU7" s="111"/>
+      <c r="EV7" s="111"/>
+      <c r="EW7" s="111"/>
+      <c r="EX7" s="111"/>
+      <c r="EY7" s="112"/>
       <c r="EZ7" s="13"/>
       <c r="FA7" s="14"/>
       <c r="FB7" s="14"/>
@@ -3940,7 +3940,7 @@
       <c r="GT7" s="14"/>
       <c r="GU7" s="14"/>
       <c r="GV7" s="14"/>
-      <c r="GW7" s="96"/>
+      <c r="GW7" s="132"/>
     </row>
     <row r="8" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A8" s="79" t="s">
@@ -3974,14 +3974,14 @@
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
       <c r="AA8" s="15"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="108"/>
-      <c r="AD8" s="108"/>
-      <c r="AE8" s="108"/>
-      <c r="AF8" s="108"/>
-      <c r="AG8" s="108"/>
-      <c r="AH8" s="108"/>
-      <c r="AI8" s="109"/>
+      <c r="AB8" s="110"/>
+      <c r="AC8" s="111"/>
+      <c r="AD8" s="111"/>
+      <c r="AE8" s="111"/>
+      <c r="AF8" s="111"/>
+      <c r="AG8" s="111"/>
+      <c r="AH8" s="111"/>
+      <c r="AI8" s="112"/>
       <c r="AJ8" s="13"/>
       <c r="AK8" s="14"/>
       <c r="AL8" s="14"/>
@@ -4034,14 +4034,14 @@
       <c r="CC8" s="14"/>
       <c r="CD8" s="14"/>
       <c r="CE8" s="44"/>
-      <c r="CF8" s="107"/>
-      <c r="CG8" s="108"/>
-      <c r="CH8" s="108"/>
-      <c r="CI8" s="108"/>
-      <c r="CJ8" s="108"/>
-      <c r="CK8" s="108"/>
-      <c r="CL8" s="108"/>
-      <c r="CM8" s="109"/>
+      <c r="CF8" s="110"/>
+      <c r="CG8" s="111"/>
+      <c r="CH8" s="111"/>
+      <c r="CI8" s="111"/>
+      <c r="CJ8" s="111"/>
+      <c r="CK8" s="111"/>
+      <c r="CL8" s="111"/>
+      <c r="CM8" s="112"/>
       <c r="CN8" s="13"/>
       <c r="CO8" s="14"/>
       <c r="CP8" s="14"/>
@@ -4098,14 +4098,14 @@
       <c r="EO8" s="14"/>
       <c r="EP8" s="14"/>
       <c r="EQ8" s="15"/>
-      <c r="ER8" s="107"/>
-      <c r="ES8" s="108"/>
-      <c r="ET8" s="108"/>
-      <c r="EU8" s="108"/>
-      <c r="EV8" s="108"/>
-      <c r="EW8" s="108"/>
-      <c r="EX8" s="108"/>
-      <c r="EY8" s="109"/>
+      <c r="ER8" s="110"/>
+      <c r="ES8" s="111"/>
+      <c r="ET8" s="111"/>
+      <c r="EU8" s="111"/>
+      <c r="EV8" s="111"/>
+      <c r="EW8" s="111"/>
+      <c r="EX8" s="111"/>
+      <c r="EY8" s="112"/>
       <c r="EZ8" s="13"/>
       <c r="FA8" s="14"/>
       <c r="FB8" s="14"/>
@@ -4155,7 +4155,7 @@
       <c r="GT8" s="14"/>
       <c r="GU8" s="14"/>
       <c r="GV8" s="14"/>
-      <c r="GW8" s="96"/>
+      <c r="GW8" s="132"/>
     </row>
     <row r="9" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="80" t="s">
@@ -4189,14 +4189,14 @@
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
       <c r="AA9" s="15"/>
-      <c r="AB9" s="107"/>
-      <c r="AC9" s="108"/>
-      <c r="AD9" s="108"/>
-      <c r="AE9" s="108"/>
-      <c r="AF9" s="108"/>
-      <c r="AG9" s="108"/>
-      <c r="AH9" s="108"/>
-      <c r="AI9" s="109"/>
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="111"/>
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="111"/>
+      <c r="AF9" s="111"/>
+      <c r="AG9" s="111"/>
+      <c r="AH9" s="111"/>
+      <c r="AI9" s="112"/>
       <c r="AJ9" s="13"/>
       <c r="AK9" s="14"/>
       <c r="AL9" s="14"/>
@@ -4265,14 +4265,14 @@
         <v>28</v>
       </c>
       <c r="CE9" s="36"/>
-      <c r="CF9" s="107"/>
-      <c r="CG9" s="108"/>
-      <c r="CH9" s="108"/>
-      <c r="CI9" s="108"/>
-      <c r="CJ9" s="108"/>
-      <c r="CK9" s="108"/>
-      <c r="CL9" s="108"/>
-      <c r="CM9" s="109"/>
+      <c r="CF9" s="110"/>
+      <c r="CG9" s="111"/>
+      <c r="CH9" s="111"/>
+      <c r="CI9" s="111"/>
+      <c r="CJ9" s="111"/>
+      <c r="CK9" s="111"/>
+      <c r="CL9" s="111"/>
+      <c r="CM9" s="112"/>
       <c r="CN9" s="13"/>
       <c r="CO9" s="14"/>
       <c r="CP9" s="14"/>
@@ -4329,14 +4329,14 @@
       <c r="EO9" s="14"/>
       <c r="EP9" s="14"/>
       <c r="EQ9" s="15"/>
-      <c r="ER9" s="107"/>
-      <c r="ES9" s="108"/>
-      <c r="ET9" s="108"/>
-      <c r="EU9" s="108"/>
-      <c r="EV9" s="108"/>
-      <c r="EW9" s="108"/>
-      <c r="EX9" s="108"/>
-      <c r="EY9" s="109"/>
+      <c r="ER9" s="110"/>
+      <c r="ES9" s="111"/>
+      <c r="ET9" s="111"/>
+      <c r="EU9" s="111"/>
+      <c r="EV9" s="111"/>
+      <c r="EW9" s="111"/>
+      <c r="EX9" s="111"/>
+      <c r="EY9" s="112"/>
       <c r="EZ9" s="13"/>
       <c r="FA9" s="14"/>
       <c r="FB9" s="14"/>
@@ -4386,13 +4386,13 @@
       <c r="GT9" s="14"/>
       <c r="GU9" s="14"/>
       <c r="GV9" s="14"/>
-      <c r="GW9" s="96"/>
+      <c r="GW9" s="132"/>
     </row>
     <row r="10" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="124"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="60"/>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
@@ -4418,14 +4418,14 @@
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
       <c r="AA10" s="15"/>
-      <c r="AB10" s="107"/>
-      <c r="AC10" s="108"/>
-      <c r="AD10" s="108"/>
-      <c r="AE10" s="108"/>
-      <c r="AF10" s="108"/>
-      <c r="AG10" s="108"/>
-      <c r="AH10" s="108"/>
-      <c r="AI10" s="109"/>
+      <c r="AB10" s="110"/>
+      <c r="AC10" s="111"/>
+      <c r="AD10" s="111"/>
+      <c r="AE10" s="111"/>
+      <c r="AF10" s="111"/>
+      <c r="AG10" s="111"/>
+      <c r="AH10" s="111"/>
+      <c r="AI10" s="112"/>
       <c r="AJ10" s="13"/>
       <c r="AK10" s="14"/>
       <c r="AL10" s="14"/>
@@ -4474,14 +4474,14 @@
       <c r="CC10" s="32"/>
       <c r="CD10" s="32"/>
       <c r="CE10" s="32"/>
-      <c r="CF10" s="107"/>
-      <c r="CG10" s="108"/>
-      <c r="CH10" s="108"/>
-      <c r="CI10" s="108"/>
-      <c r="CJ10" s="108"/>
-      <c r="CK10" s="108"/>
-      <c r="CL10" s="108"/>
-      <c r="CM10" s="109"/>
+      <c r="CF10" s="110"/>
+      <c r="CG10" s="111"/>
+      <c r="CH10" s="111"/>
+      <c r="CI10" s="111"/>
+      <c r="CJ10" s="111"/>
+      <c r="CK10" s="111"/>
+      <c r="CL10" s="111"/>
+      <c r="CM10" s="112"/>
       <c r="CN10" s="13"/>
       <c r="CO10" s="14"/>
       <c r="CP10" s="14"/>
@@ -4538,14 +4538,14 @@
       <c r="EO10" s="14"/>
       <c r="EP10" s="14"/>
       <c r="EQ10" s="15"/>
-      <c r="ER10" s="107"/>
-      <c r="ES10" s="108"/>
-      <c r="ET10" s="108"/>
-      <c r="EU10" s="108"/>
-      <c r="EV10" s="108"/>
-      <c r="EW10" s="108"/>
-      <c r="EX10" s="108"/>
-      <c r="EY10" s="109"/>
+      <c r="ER10" s="110"/>
+      <c r="ES10" s="111"/>
+      <c r="ET10" s="111"/>
+      <c r="EU10" s="111"/>
+      <c r="EV10" s="111"/>
+      <c r="EW10" s="111"/>
+      <c r="EX10" s="111"/>
+      <c r="EY10" s="112"/>
       <c r="EZ10" s="13"/>
       <c r="FA10" s="14"/>
       <c r="FB10" s="14"/>
@@ -4595,7 +4595,7 @@
       <c r="GT10" s="14"/>
       <c r="GU10" s="14"/>
       <c r="GV10" s="14"/>
-      <c r="GW10" s="96"/>
+      <c r="GW10" s="132"/>
     </row>
     <row r="11" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A11" s="76" t="s">
@@ -4629,14 +4629,14 @@
       <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
       <c r="AA11" s="15"/>
-      <c r="AB11" s="107"/>
-      <c r="AC11" s="108"/>
-      <c r="AD11" s="108"/>
-      <c r="AE11" s="108"/>
-      <c r="AF11" s="108"/>
-      <c r="AG11" s="108"/>
-      <c r="AH11" s="108"/>
-      <c r="AI11" s="109"/>
+      <c r="AB11" s="110"/>
+      <c r="AC11" s="111"/>
+      <c r="AD11" s="111"/>
+      <c r="AE11" s="111"/>
+      <c r="AF11" s="111"/>
+      <c r="AG11" s="111"/>
+      <c r="AH11" s="111"/>
+      <c r="AI11" s="112"/>
       <c r="AJ11" s="13"/>
       <c r="AK11" s="14"/>
       <c r="AL11" s="14"/>
@@ -4687,14 +4687,14 @@
       </c>
       <c r="CD11" s="14"/>
       <c r="CE11" s="14"/>
-      <c r="CF11" s="107"/>
-      <c r="CG11" s="108"/>
-      <c r="CH11" s="108"/>
-      <c r="CI11" s="108"/>
-      <c r="CJ11" s="108"/>
-      <c r="CK11" s="108"/>
-      <c r="CL11" s="108"/>
-      <c r="CM11" s="109"/>
+      <c r="CF11" s="110"/>
+      <c r="CG11" s="111"/>
+      <c r="CH11" s="111"/>
+      <c r="CI11" s="111"/>
+      <c r="CJ11" s="111"/>
+      <c r="CK11" s="111"/>
+      <c r="CL11" s="111"/>
+      <c r="CM11" s="112"/>
       <c r="CN11" s="28"/>
       <c r="CO11" s="14"/>
       <c r="CP11" s="14"/>
@@ -4753,14 +4753,14 @@
       <c r="EO11" s="14"/>
       <c r="EP11" s="14"/>
       <c r="EQ11" s="15"/>
-      <c r="ER11" s="107"/>
-      <c r="ES11" s="108"/>
-      <c r="ET11" s="108"/>
-      <c r="EU11" s="108"/>
-      <c r="EV11" s="108"/>
-      <c r="EW11" s="108"/>
-      <c r="EX11" s="108"/>
-      <c r="EY11" s="109"/>
+      <c r="ER11" s="110"/>
+      <c r="ES11" s="111"/>
+      <c r="ET11" s="111"/>
+      <c r="EU11" s="111"/>
+      <c r="EV11" s="111"/>
+      <c r="EW11" s="111"/>
+      <c r="EX11" s="111"/>
+      <c r="EY11" s="112"/>
       <c r="EZ11" s="13"/>
       <c r="FA11" s="14"/>
       <c r="FB11" s="14"/>
@@ -4810,7 +4810,7 @@
       <c r="GT11" s="14"/>
       <c r="GU11" s="14"/>
       <c r="GV11" s="14"/>
-      <c r="GW11" s="96"/>
+      <c r="GW11" s="132"/>
     </row>
     <row r="12" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A12" s="77" t="s">
@@ -4844,14 +4844,14 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
       <c r="AA12" s="15"/>
-      <c r="AB12" s="107"/>
-      <c r="AC12" s="108"/>
-      <c r="AD12" s="108"/>
-      <c r="AE12" s="108"/>
-      <c r="AF12" s="108"/>
-      <c r="AG12" s="108"/>
-      <c r="AH12" s="108"/>
-      <c r="AI12" s="109"/>
+      <c r="AB12" s="110"/>
+      <c r="AC12" s="111"/>
+      <c r="AD12" s="111"/>
+      <c r="AE12" s="111"/>
+      <c r="AF12" s="111"/>
+      <c r="AG12" s="111"/>
+      <c r="AH12" s="111"/>
+      <c r="AI12" s="112"/>
       <c r="AJ12" s="13"/>
       <c r="AK12" s="14"/>
       <c r="AL12" s="14"/>
@@ -4900,14 +4900,14 @@
       <c r="CC12" s="14"/>
       <c r="CD12" s="14"/>
       <c r="CE12" s="15"/>
-      <c r="CF12" s="107"/>
-      <c r="CG12" s="108"/>
-      <c r="CH12" s="108"/>
-      <c r="CI12" s="108"/>
-      <c r="CJ12" s="108"/>
-      <c r="CK12" s="108"/>
-      <c r="CL12" s="108"/>
-      <c r="CM12" s="109"/>
+      <c r="CF12" s="110"/>
+      <c r="CG12" s="111"/>
+      <c r="CH12" s="111"/>
+      <c r="CI12" s="111"/>
+      <c r="CJ12" s="111"/>
+      <c r="CK12" s="111"/>
+      <c r="CL12" s="111"/>
+      <c r="CM12" s="112"/>
       <c r="CN12" s="13"/>
       <c r="CO12" s="55" t="s">
         <v>28</v>
@@ -4970,14 +4970,14 @@
       <c r="EO12" s="14"/>
       <c r="EP12" s="14"/>
       <c r="EQ12" s="15"/>
-      <c r="ER12" s="107"/>
-      <c r="ES12" s="108"/>
-      <c r="ET12" s="108"/>
-      <c r="EU12" s="108"/>
-      <c r="EV12" s="108"/>
-      <c r="EW12" s="108"/>
-      <c r="EX12" s="108"/>
-      <c r="EY12" s="109"/>
+      <c r="ER12" s="110"/>
+      <c r="ES12" s="111"/>
+      <c r="ET12" s="111"/>
+      <c r="EU12" s="111"/>
+      <c r="EV12" s="111"/>
+      <c r="EW12" s="111"/>
+      <c r="EX12" s="111"/>
+      <c r="EY12" s="112"/>
       <c r="EZ12" s="13"/>
       <c r="FA12" s="14"/>
       <c r="FB12" s="14"/>
@@ -5027,7 +5027,7 @@
       <c r="GT12" s="14"/>
       <c r="GU12" s="14"/>
       <c r="GV12" s="14"/>
-      <c r="GW12" s="96"/>
+      <c r="GW12" s="132"/>
     </row>
     <row r="13" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78" t="s">
@@ -5061,14 +5061,14 @@
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="15"/>
-      <c r="AB13" s="107"/>
-      <c r="AC13" s="108"/>
-      <c r="AD13" s="108"/>
-      <c r="AE13" s="108"/>
-      <c r="AF13" s="108"/>
-      <c r="AG13" s="108"/>
-      <c r="AH13" s="108"/>
-      <c r="AI13" s="109"/>
+      <c r="AB13" s="110"/>
+      <c r="AC13" s="111"/>
+      <c r="AD13" s="111"/>
+      <c r="AE13" s="111"/>
+      <c r="AF13" s="111"/>
+      <c r="AG13" s="111"/>
+      <c r="AH13" s="111"/>
+      <c r="AI13" s="112"/>
       <c r="AJ13" s="13"/>
       <c r="AK13" s="14"/>
       <c r="AL13" s="14"/>
@@ -5117,14 +5117,14 @@
       <c r="CC13" s="14"/>
       <c r="CD13" s="14"/>
       <c r="CE13" s="15"/>
-      <c r="CF13" s="107"/>
-      <c r="CG13" s="108"/>
-      <c r="CH13" s="108"/>
-      <c r="CI13" s="108"/>
-      <c r="CJ13" s="108"/>
-      <c r="CK13" s="108"/>
-      <c r="CL13" s="108"/>
-      <c r="CM13" s="109"/>
+      <c r="CF13" s="110"/>
+      <c r="CG13" s="111"/>
+      <c r="CH13" s="111"/>
+      <c r="CI13" s="111"/>
+      <c r="CJ13" s="111"/>
+      <c r="CK13" s="111"/>
+      <c r="CL13" s="111"/>
+      <c r="CM13" s="112"/>
       <c r="CN13" s="13"/>
       <c r="CO13" s="14"/>
       <c r="CP13" s="27"/>
@@ -5191,14 +5191,14 @@
       <c r="EO13" s="14"/>
       <c r="EP13" s="14"/>
       <c r="EQ13" s="15"/>
-      <c r="ER13" s="107"/>
-      <c r="ES13" s="108"/>
-      <c r="ET13" s="108"/>
-      <c r="EU13" s="108"/>
-      <c r="EV13" s="108"/>
-      <c r="EW13" s="108"/>
-      <c r="EX13" s="108"/>
-      <c r="EY13" s="109"/>
+      <c r="ER13" s="110"/>
+      <c r="ES13" s="111"/>
+      <c r="ET13" s="111"/>
+      <c r="EU13" s="111"/>
+      <c r="EV13" s="111"/>
+      <c r="EW13" s="111"/>
+      <c r="EX13" s="111"/>
+      <c r="EY13" s="112"/>
       <c r="EZ13" s="13"/>
       <c r="FA13" s="14"/>
       <c r="FB13" s="14"/>
@@ -5248,13 +5248,13 @@
       <c r="GT13" s="14"/>
       <c r="GU13" s="14"/>
       <c r="GV13" s="14"/>
-      <c r="GW13" s="96"/>
+      <c r="GW13" s="132"/>
     </row>
     <row r="14" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="126"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="60"/>
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
@@ -5280,14 +5280,14 @@
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
       <c r="AA14" s="15"/>
-      <c r="AB14" s="107"/>
-      <c r="AC14" s="108"/>
-      <c r="AD14" s="108"/>
-      <c r="AE14" s="108"/>
-      <c r="AF14" s="108"/>
-      <c r="AG14" s="108"/>
-      <c r="AH14" s="108"/>
-      <c r="AI14" s="109"/>
+      <c r="AB14" s="110"/>
+      <c r="AC14" s="111"/>
+      <c r="AD14" s="111"/>
+      <c r="AE14" s="111"/>
+      <c r="AF14" s="111"/>
+      <c r="AG14" s="111"/>
+      <c r="AH14" s="111"/>
+      <c r="AI14" s="112"/>
       <c r="AJ14" s="13"/>
       <c r="AK14" s="14"/>
       <c r="AL14" s="14"/>
@@ -5336,14 +5336,14 @@
       <c r="CC14" s="14"/>
       <c r="CD14" s="14"/>
       <c r="CE14" s="15"/>
-      <c r="CF14" s="107"/>
-      <c r="CG14" s="108"/>
-      <c r="CH14" s="108"/>
-      <c r="CI14" s="108"/>
-      <c r="CJ14" s="108"/>
-      <c r="CK14" s="108"/>
-      <c r="CL14" s="108"/>
-      <c r="CM14" s="109"/>
+      <c r="CF14" s="110"/>
+      <c r="CG14" s="111"/>
+      <c r="CH14" s="111"/>
+      <c r="CI14" s="111"/>
+      <c r="CJ14" s="111"/>
+      <c r="CK14" s="111"/>
+      <c r="CL14" s="111"/>
+      <c r="CM14" s="112"/>
       <c r="CN14" s="13"/>
       <c r="CO14" s="14"/>
       <c r="CP14" s="14"/>
@@ -5400,14 +5400,14 @@
       <c r="EO14" s="14"/>
       <c r="EP14" s="14"/>
       <c r="EQ14" s="15"/>
-      <c r="ER14" s="107"/>
-      <c r="ES14" s="108"/>
-      <c r="ET14" s="108"/>
-      <c r="EU14" s="108"/>
-      <c r="EV14" s="108"/>
-      <c r="EW14" s="108"/>
-      <c r="EX14" s="108"/>
-      <c r="EY14" s="109"/>
+      <c r="ER14" s="110"/>
+      <c r="ES14" s="111"/>
+      <c r="ET14" s="111"/>
+      <c r="EU14" s="111"/>
+      <c r="EV14" s="111"/>
+      <c r="EW14" s="111"/>
+      <c r="EX14" s="111"/>
+      <c r="EY14" s="112"/>
       <c r="EZ14" s="13"/>
       <c r="FA14" s="14"/>
       <c r="FB14" s="14"/>
@@ -5457,7 +5457,7 @@
       <c r="GT14" s="14"/>
       <c r="GU14" s="14"/>
       <c r="GV14" s="14"/>
-      <c r="GW14" s="96"/>
+      <c r="GW14" s="132"/>
     </row>
     <row r="15" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A15" s="73" t="s">
@@ -5491,14 +5491,14 @@
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
       <c r="AA15" s="15"/>
-      <c r="AB15" s="107"/>
-      <c r="AC15" s="108"/>
-      <c r="AD15" s="108"/>
-      <c r="AE15" s="108"/>
-      <c r="AF15" s="108"/>
-      <c r="AG15" s="108"/>
-      <c r="AH15" s="108"/>
-      <c r="AI15" s="109"/>
+      <c r="AB15" s="110"/>
+      <c r="AC15" s="111"/>
+      <c r="AD15" s="111"/>
+      <c r="AE15" s="111"/>
+      <c r="AF15" s="111"/>
+      <c r="AG15" s="111"/>
+      <c r="AH15" s="111"/>
+      <c r="AI15" s="112"/>
       <c r="AJ15" s="13"/>
       <c r="AK15" s="14"/>
       <c r="AL15" s="14"/>
@@ -5547,14 +5547,14 @@
       <c r="CC15" s="14"/>
       <c r="CD15" s="14"/>
       <c r="CE15" s="15"/>
-      <c r="CF15" s="107"/>
-      <c r="CG15" s="108"/>
-      <c r="CH15" s="108"/>
-      <c r="CI15" s="108"/>
-      <c r="CJ15" s="108"/>
-      <c r="CK15" s="108"/>
-      <c r="CL15" s="108"/>
-      <c r="CM15" s="109"/>
+      <c r="CF15" s="110"/>
+      <c r="CG15" s="111"/>
+      <c r="CH15" s="111"/>
+      <c r="CI15" s="111"/>
+      <c r="CJ15" s="111"/>
+      <c r="CK15" s="111"/>
+      <c r="CL15" s="111"/>
+      <c r="CM15" s="112"/>
       <c r="CN15" s="13"/>
       <c r="CO15" s="14"/>
       <c r="CP15" s="14"/>
@@ -5617,14 +5617,14 @@
       <c r="EO15" s="14"/>
       <c r="EP15" s="14"/>
       <c r="EQ15" s="15"/>
-      <c r="ER15" s="107"/>
-      <c r="ES15" s="108"/>
-      <c r="ET15" s="108"/>
-      <c r="EU15" s="108"/>
-      <c r="EV15" s="108"/>
-      <c r="EW15" s="108"/>
-      <c r="EX15" s="108"/>
-      <c r="EY15" s="109"/>
+      <c r="ER15" s="110"/>
+      <c r="ES15" s="111"/>
+      <c r="ET15" s="111"/>
+      <c r="EU15" s="111"/>
+      <c r="EV15" s="111"/>
+      <c r="EW15" s="111"/>
+      <c r="EX15" s="111"/>
+      <c r="EY15" s="112"/>
       <c r="EZ15" s="13"/>
       <c r="FA15" s="14"/>
       <c r="FB15" s="14"/>
@@ -5674,7 +5674,7 @@
       <c r="GT15" s="14"/>
       <c r="GU15" s="14"/>
       <c r="GV15" s="14"/>
-      <c r="GW15" s="96"/>
+      <c r="GW15" s="132"/>
     </row>
     <row r="16" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A16" s="74" t="s">
@@ -5708,14 +5708,14 @@
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="15"/>
-      <c r="AB16" s="107"/>
-      <c r="AC16" s="108"/>
-      <c r="AD16" s="108"/>
-      <c r="AE16" s="108"/>
-      <c r="AF16" s="108"/>
-      <c r="AG16" s="108"/>
-      <c r="AH16" s="108"/>
-      <c r="AI16" s="109"/>
+      <c r="AB16" s="110"/>
+      <c r="AC16" s="111"/>
+      <c r="AD16" s="111"/>
+      <c r="AE16" s="111"/>
+      <c r="AF16" s="111"/>
+      <c r="AG16" s="111"/>
+      <c r="AH16" s="111"/>
+      <c r="AI16" s="112"/>
       <c r="AJ16" s="13"/>
       <c r="AK16" s="14"/>
       <c r="AL16" s="14"/>
@@ -5764,14 +5764,14 @@
       <c r="CC16" s="14"/>
       <c r="CD16" s="14"/>
       <c r="CE16" s="15"/>
-      <c r="CF16" s="107"/>
-      <c r="CG16" s="108"/>
-      <c r="CH16" s="108"/>
-      <c r="CI16" s="108"/>
-      <c r="CJ16" s="108"/>
-      <c r="CK16" s="108"/>
-      <c r="CL16" s="108"/>
-      <c r="CM16" s="109"/>
+      <c r="CF16" s="110"/>
+      <c r="CG16" s="111"/>
+      <c r="CH16" s="111"/>
+      <c r="CI16" s="111"/>
+      <c r="CJ16" s="111"/>
+      <c r="CK16" s="111"/>
+      <c r="CL16" s="111"/>
+      <c r="CM16" s="112"/>
       <c r="CN16" s="13"/>
       <c r="CO16" s="14"/>
       <c r="CP16" s="14"/>
@@ -5830,14 +5830,14 @@
       <c r="EO16" s="14"/>
       <c r="EP16" s="14"/>
       <c r="EQ16" s="15"/>
-      <c r="ER16" s="107"/>
-      <c r="ES16" s="108"/>
-      <c r="ET16" s="108"/>
-      <c r="EU16" s="108"/>
-      <c r="EV16" s="108"/>
-      <c r="EW16" s="108"/>
-      <c r="EX16" s="108"/>
-      <c r="EY16" s="109"/>
+      <c r="ER16" s="110"/>
+      <c r="ES16" s="111"/>
+      <c r="ET16" s="111"/>
+      <c r="EU16" s="111"/>
+      <c r="EV16" s="111"/>
+      <c r="EW16" s="111"/>
+      <c r="EX16" s="111"/>
+      <c r="EY16" s="112"/>
       <c r="EZ16" s="13"/>
       <c r="FA16" s="14"/>
       <c r="FB16" s="14"/>
@@ -5887,7 +5887,7 @@
       <c r="GT16" s="14"/>
       <c r="GU16" s="14"/>
       <c r="GV16" s="14"/>
-      <c r="GW16" s="96"/>
+      <c r="GW16" s="132"/>
     </row>
     <row r="17" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A17" s="74" t="s">
@@ -5921,14 +5921,14 @@
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="15"/>
-      <c r="AB17" s="107"/>
-      <c r="AC17" s="108"/>
-      <c r="AD17" s="108"/>
-      <c r="AE17" s="108"/>
-      <c r="AF17" s="108"/>
-      <c r="AG17" s="108"/>
-      <c r="AH17" s="108"/>
-      <c r="AI17" s="109"/>
+      <c r="AB17" s="110"/>
+      <c r="AC17" s="111"/>
+      <c r="AD17" s="111"/>
+      <c r="AE17" s="111"/>
+      <c r="AF17" s="111"/>
+      <c r="AG17" s="111"/>
+      <c r="AH17" s="111"/>
+      <c r="AI17" s="112"/>
       <c r="AJ17" s="13"/>
       <c r="AK17" s="14"/>
       <c r="AL17" s="14"/>
@@ -5977,14 +5977,14 @@
       <c r="CC17" s="14"/>
       <c r="CD17" s="14"/>
       <c r="CE17" s="15"/>
-      <c r="CF17" s="107"/>
-      <c r="CG17" s="108"/>
-      <c r="CH17" s="108"/>
-      <c r="CI17" s="108"/>
-      <c r="CJ17" s="108"/>
-      <c r="CK17" s="108"/>
-      <c r="CL17" s="108"/>
-      <c r="CM17" s="109"/>
+      <c r="CF17" s="110"/>
+      <c r="CG17" s="111"/>
+      <c r="CH17" s="111"/>
+      <c r="CI17" s="111"/>
+      <c r="CJ17" s="111"/>
+      <c r="CK17" s="111"/>
+      <c r="CL17" s="111"/>
+      <c r="CM17" s="112"/>
       <c r="CN17" s="13"/>
       <c r="CO17" s="14"/>
       <c r="CP17" s="14"/>
@@ -6047,14 +6047,14 @@
       <c r="EO17" s="14"/>
       <c r="EP17" s="14"/>
       <c r="EQ17" s="15"/>
-      <c r="ER17" s="107"/>
-      <c r="ES17" s="108"/>
-      <c r="ET17" s="108"/>
-      <c r="EU17" s="108"/>
-      <c r="EV17" s="108"/>
-      <c r="EW17" s="108"/>
-      <c r="EX17" s="108"/>
-      <c r="EY17" s="109"/>
+      <c r="ER17" s="110"/>
+      <c r="ES17" s="111"/>
+      <c r="ET17" s="111"/>
+      <c r="EU17" s="111"/>
+      <c r="EV17" s="111"/>
+      <c r="EW17" s="111"/>
+      <c r="EX17" s="111"/>
+      <c r="EY17" s="112"/>
       <c r="EZ17" s="13"/>
       <c r="FA17" s="14"/>
       <c r="FB17" s="14"/>
@@ -6104,7 +6104,7 @@
       <c r="GT17" s="14"/>
       <c r="GU17" s="14"/>
       <c r="GV17" s="14"/>
-      <c r="GW17" s="96"/>
+      <c r="GW17" s="132"/>
     </row>
     <row r="18" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A18" s="74" t="s">
@@ -6138,14 +6138,14 @@
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="15"/>
-      <c r="AB18" s="107"/>
-      <c r="AC18" s="108"/>
-      <c r="AD18" s="108"/>
-      <c r="AE18" s="108"/>
-      <c r="AF18" s="108"/>
-      <c r="AG18" s="108"/>
-      <c r="AH18" s="108"/>
-      <c r="AI18" s="109"/>
+      <c r="AB18" s="110"/>
+      <c r="AC18" s="111"/>
+      <c r="AD18" s="111"/>
+      <c r="AE18" s="111"/>
+      <c r="AF18" s="111"/>
+      <c r="AG18" s="111"/>
+      <c r="AH18" s="111"/>
+      <c r="AI18" s="112"/>
       <c r="AJ18" s="13"/>
       <c r="AK18" s="14"/>
       <c r="AL18" s="14"/>
@@ -6194,14 +6194,14 @@
       <c r="CC18" s="14"/>
       <c r="CD18" s="14"/>
       <c r="CE18" s="15"/>
-      <c r="CF18" s="107"/>
-      <c r="CG18" s="108"/>
-      <c r="CH18" s="108"/>
-      <c r="CI18" s="108"/>
-      <c r="CJ18" s="108"/>
-      <c r="CK18" s="108"/>
-      <c r="CL18" s="108"/>
-      <c r="CM18" s="109"/>
+      <c r="CF18" s="110"/>
+      <c r="CG18" s="111"/>
+      <c r="CH18" s="111"/>
+      <c r="CI18" s="111"/>
+      <c r="CJ18" s="111"/>
+      <c r="CK18" s="111"/>
+      <c r="CL18" s="111"/>
+      <c r="CM18" s="112"/>
       <c r="CN18" s="13"/>
       <c r="CO18" s="14"/>
       <c r="CP18" s="14"/>
@@ -6270,14 +6270,14 @@
       <c r="EO18" s="14"/>
       <c r="EP18" s="14"/>
       <c r="EQ18" s="15"/>
-      <c r="ER18" s="107"/>
-      <c r="ES18" s="108"/>
-      <c r="ET18" s="108"/>
-      <c r="EU18" s="108"/>
-      <c r="EV18" s="108"/>
-      <c r="EW18" s="108"/>
-      <c r="EX18" s="108"/>
-      <c r="EY18" s="109"/>
+      <c r="ER18" s="110"/>
+      <c r="ES18" s="111"/>
+      <c r="ET18" s="111"/>
+      <c r="EU18" s="111"/>
+      <c r="EV18" s="111"/>
+      <c r="EW18" s="111"/>
+      <c r="EX18" s="111"/>
+      <c r="EY18" s="112"/>
       <c r="EZ18" s="13"/>
       <c r="FA18" s="14"/>
       <c r="FB18" s="14"/>
@@ -6327,7 +6327,7 @@
       <c r="GT18" s="14"/>
       <c r="GU18" s="14"/>
       <c r="GV18" s="14"/>
-      <c r="GW18" s="96"/>
+      <c r="GW18" s="132"/>
     </row>
     <row r="19" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="75" t="s">
@@ -6361,14 +6361,14 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="15"/>
-      <c r="AB19" s="107"/>
-      <c r="AC19" s="108"/>
-      <c r="AD19" s="108"/>
-      <c r="AE19" s="108"/>
-      <c r="AF19" s="108"/>
-      <c r="AG19" s="108"/>
-      <c r="AH19" s="108"/>
-      <c r="AI19" s="109"/>
+      <c r="AB19" s="110"/>
+      <c r="AC19" s="111"/>
+      <c r="AD19" s="111"/>
+      <c r="AE19" s="111"/>
+      <c r="AF19" s="111"/>
+      <c r="AG19" s="111"/>
+      <c r="AH19" s="111"/>
+      <c r="AI19" s="112"/>
       <c r="AJ19" s="13"/>
       <c r="AK19" s="14"/>
       <c r="AL19" s="14"/>
@@ -6417,14 +6417,14 @@
       <c r="CC19" s="14"/>
       <c r="CD19" s="14"/>
       <c r="CE19" s="15"/>
-      <c r="CF19" s="107"/>
-      <c r="CG19" s="108"/>
-      <c r="CH19" s="108"/>
-      <c r="CI19" s="108"/>
-      <c r="CJ19" s="108"/>
-      <c r="CK19" s="108"/>
-      <c r="CL19" s="108"/>
-      <c r="CM19" s="109"/>
+      <c r="CF19" s="110"/>
+      <c r="CG19" s="111"/>
+      <c r="CH19" s="111"/>
+      <c r="CI19" s="111"/>
+      <c r="CJ19" s="111"/>
+      <c r="CK19" s="111"/>
+      <c r="CL19" s="111"/>
+      <c r="CM19" s="112"/>
       <c r="CN19" s="13"/>
       <c r="CO19" s="14"/>
       <c r="CP19" s="14"/>
@@ -6483,14 +6483,14 @@
       <c r="EO19" s="14"/>
       <c r="EP19" s="14"/>
       <c r="EQ19" s="15"/>
-      <c r="ER19" s="107"/>
-      <c r="ES19" s="108"/>
-      <c r="ET19" s="108"/>
-      <c r="EU19" s="108"/>
-      <c r="EV19" s="108"/>
-      <c r="EW19" s="108"/>
-      <c r="EX19" s="108"/>
-      <c r="EY19" s="109"/>
+      <c r="ER19" s="110"/>
+      <c r="ES19" s="111"/>
+      <c r="ET19" s="111"/>
+      <c r="EU19" s="111"/>
+      <c r="EV19" s="111"/>
+      <c r="EW19" s="111"/>
+      <c r="EX19" s="111"/>
+      <c r="EY19" s="112"/>
       <c r="EZ19" s="13"/>
       <c r="FA19" s="14"/>
       <c r="FB19" s="14"/>
@@ -6540,13 +6540,13 @@
       <c r="GT19" s="14"/>
       <c r="GU19" s="14"/>
       <c r="GV19" s="14"/>
-      <c r="GW19" s="96"/>
+      <c r="GW19" s="132"/>
     </row>
     <row r="20" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="127" t="s">
+      <c r="A20" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="128"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="60"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
@@ -6572,14 +6572,14 @@
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
       <c r="AA20" s="15"/>
-      <c r="AB20" s="107"/>
-      <c r="AC20" s="108"/>
-      <c r="AD20" s="108"/>
-      <c r="AE20" s="108"/>
-      <c r="AF20" s="108"/>
-      <c r="AG20" s="108"/>
-      <c r="AH20" s="108"/>
-      <c r="AI20" s="109"/>
+      <c r="AB20" s="110"/>
+      <c r="AC20" s="111"/>
+      <c r="AD20" s="111"/>
+      <c r="AE20" s="111"/>
+      <c r="AF20" s="111"/>
+      <c r="AG20" s="111"/>
+      <c r="AH20" s="111"/>
+      <c r="AI20" s="112"/>
       <c r="AJ20" s="13"/>
       <c r="AK20" s="14"/>
       <c r="AL20" s="14"/>
@@ -6628,14 +6628,14 @@
       <c r="CC20" s="14"/>
       <c r="CD20" s="14"/>
       <c r="CE20" s="15"/>
-      <c r="CF20" s="107"/>
-      <c r="CG20" s="108"/>
-      <c r="CH20" s="108"/>
-      <c r="CI20" s="108"/>
-      <c r="CJ20" s="108"/>
-      <c r="CK20" s="108"/>
-      <c r="CL20" s="108"/>
-      <c r="CM20" s="109"/>
+      <c r="CF20" s="110"/>
+      <c r="CG20" s="111"/>
+      <c r="CH20" s="111"/>
+      <c r="CI20" s="111"/>
+      <c r="CJ20" s="111"/>
+      <c r="CK20" s="111"/>
+      <c r="CL20" s="111"/>
+      <c r="CM20" s="112"/>
       <c r="CN20" s="13"/>
       <c r="CO20" s="14"/>
       <c r="CP20" s="14"/>
@@ -6692,14 +6692,14 @@
       <c r="EO20" s="14"/>
       <c r="EP20" s="14"/>
       <c r="EQ20" s="15"/>
-      <c r="ER20" s="107"/>
-      <c r="ES20" s="108"/>
-      <c r="ET20" s="108"/>
-      <c r="EU20" s="108"/>
-      <c r="EV20" s="108"/>
-      <c r="EW20" s="108"/>
-      <c r="EX20" s="108"/>
-      <c r="EY20" s="109"/>
+      <c r="ER20" s="110"/>
+      <c r="ES20" s="111"/>
+      <c r="ET20" s="111"/>
+      <c r="EU20" s="111"/>
+      <c r="EV20" s="111"/>
+      <c r="EW20" s="111"/>
+      <c r="EX20" s="111"/>
+      <c r="EY20" s="112"/>
       <c r="EZ20" s="13"/>
       <c r="FA20" s="14"/>
       <c r="FB20" s="14"/>
@@ -6749,7 +6749,7 @@
       <c r="GT20" s="14"/>
       <c r="GU20" s="14"/>
       <c r="GV20" s="14"/>
-      <c r="GW20" s="96"/>
+      <c r="GW20" s="132"/>
     </row>
     <row r="21" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A21" s="70" t="s">
@@ -6783,14 +6783,14 @@
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
       <c r="AA21" s="15"/>
-      <c r="AB21" s="107"/>
-      <c r="AC21" s="108"/>
-      <c r="AD21" s="108"/>
-      <c r="AE21" s="108"/>
-      <c r="AF21" s="108"/>
-      <c r="AG21" s="108"/>
-      <c r="AH21" s="108"/>
-      <c r="AI21" s="109"/>
+      <c r="AB21" s="110"/>
+      <c r="AC21" s="111"/>
+      <c r="AD21" s="111"/>
+      <c r="AE21" s="111"/>
+      <c r="AF21" s="111"/>
+      <c r="AG21" s="111"/>
+      <c r="AH21" s="111"/>
+      <c r="AI21" s="112"/>
       <c r="AJ21" s="13"/>
       <c r="AK21" s="14"/>
       <c r="AL21" s="14"/>
@@ -6839,14 +6839,14 @@
       <c r="CC21" s="14"/>
       <c r="CD21" s="14"/>
       <c r="CE21" s="15"/>
-      <c r="CF21" s="107"/>
-      <c r="CG21" s="108"/>
-      <c r="CH21" s="108"/>
-      <c r="CI21" s="108"/>
-      <c r="CJ21" s="108"/>
-      <c r="CK21" s="108"/>
-      <c r="CL21" s="108"/>
-      <c r="CM21" s="109"/>
+      <c r="CF21" s="110"/>
+      <c r="CG21" s="111"/>
+      <c r="CH21" s="111"/>
+      <c r="CI21" s="111"/>
+      <c r="CJ21" s="111"/>
+      <c r="CK21" s="111"/>
+      <c r="CL21" s="111"/>
+      <c r="CM21" s="112"/>
       <c r="CN21" s="13"/>
       <c r="CO21" s="14"/>
       <c r="CP21" s="14"/>
@@ -6905,14 +6905,14 @@
       <c r="EO21" s="14"/>
       <c r="EP21" s="14"/>
       <c r="EQ21" s="15"/>
-      <c r="ER21" s="107"/>
-      <c r="ES21" s="108"/>
-      <c r="ET21" s="108"/>
-      <c r="EU21" s="108"/>
-      <c r="EV21" s="108"/>
-      <c r="EW21" s="108"/>
-      <c r="EX21" s="108"/>
-      <c r="EY21" s="109"/>
+      <c r="ER21" s="110"/>
+      <c r="ES21" s="111"/>
+      <c r="ET21" s="111"/>
+      <c r="EU21" s="111"/>
+      <c r="EV21" s="111"/>
+      <c r="EW21" s="111"/>
+      <c r="EX21" s="111"/>
+      <c r="EY21" s="112"/>
       <c r="EZ21" s="13"/>
       <c r="FA21" s="14"/>
       <c r="FB21" s="14"/>
@@ -6962,7 +6962,7 @@
       <c r="GT21" s="14"/>
       <c r="GU21" s="14"/>
       <c r="GV21" s="14"/>
-      <c r="GW21" s="96"/>
+      <c r="GW21" s="132"/>
     </row>
     <row r="22" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A22" s="71" t="s">
@@ -6996,14 +6996,14 @@
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
       <c r="AA22" s="15"/>
-      <c r="AB22" s="107"/>
-      <c r="AC22" s="108"/>
-      <c r="AD22" s="108"/>
-      <c r="AE22" s="108"/>
-      <c r="AF22" s="108"/>
-      <c r="AG22" s="108"/>
-      <c r="AH22" s="108"/>
-      <c r="AI22" s="109"/>
+      <c r="AB22" s="110"/>
+      <c r="AC22" s="111"/>
+      <c r="AD22" s="111"/>
+      <c r="AE22" s="111"/>
+      <c r="AF22" s="111"/>
+      <c r="AG22" s="111"/>
+      <c r="AH22" s="111"/>
+      <c r="AI22" s="112"/>
       <c r="AJ22" s="13"/>
       <c r="AK22" s="14"/>
       <c r="AL22" s="14"/>
@@ -7052,14 +7052,14 @@
       <c r="CC22" s="14"/>
       <c r="CD22" s="14"/>
       <c r="CE22" s="15"/>
-      <c r="CF22" s="107"/>
-      <c r="CG22" s="108"/>
-      <c r="CH22" s="108"/>
-      <c r="CI22" s="108"/>
-      <c r="CJ22" s="108"/>
-      <c r="CK22" s="108"/>
-      <c r="CL22" s="108"/>
-      <c r="CM22" s="109"/>
+      <c r="CF22" s="110"/>
+      <c r="CG22" s="111"/>
+      <c r="CH22" s="111"/>
+      <c r="CI22" s="111"/>
+      <c r="CJ22" s="111"/>
+      <c r="CK22" s="111"/>
+      <c r="CL22" s="111"/>
+      <c r="CM22" s="112"/>
       <c r="CN22" s="13"/>
       <c r="CO22" s="14"/>
       <c r="CP22" s="14"/>
@@ -7122,14 +7122,14 @@
       <c r="EO22" s="14"/>
       <c r="EP22" s="14"/>
       <c r="EQ22" s="15"/>
-      <c r="ER22" s="107"/>
-      <c r="ES22" s="108"/>
-      <c r="ET22" s="108"/>
-      <c r="EU22" s="108"/>
-      <c r="EV22" s="108"/>
-      <c r="EW22" s="108"/>
-      <c r="EX22" s="108"/>
-      <c r="EY22" s="109"/>
+      <c r="ER22" s="110"/>
+      <c r="ES22" s="111"/>
+      <c r="ET22" s="111"/>
+      <c r="EU22" s="111"/>
+      <c r="EV22" s="111"/>
+      <c r="EW22" s="111"/>
+      <c r="EX22" s="111"/>
+      <c r="EY22" s="112"/>
       <c r="EZ22" s="13"/>
       <c r="FA22" s="14"/>
       <c r="FB22" s="14"/>
@@ -7179,7 +7179,7 @@
       <c r="GT22" s="14"/>
       <c r="GU22" s="14"/>
       <c r="GV22" s="14"/>
-      <c r="GW22" s="96"/>
+      <c r="GW22" s="132"/>
     </row>
     <row r="23" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A23" s="71" t="s">
@@ -7213,14 +7213,14 @@
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
       <c r="AA23" s="15"/>
-      <c r="AB23" s="107"/>
-      <c r="AC23" s="108"/>
-      <c r="AD23" s="108"/>
-      <c r="AE23" s="108"/>
-      <c r="AF23" s="108"/>
-      <c r="AG23" s="108"/>
-      <c r="AH23" s="108"/>
-      <c r="AI23" s="109"/>
+      <c r="AB23" s="110"/>
+      <c r="AC23" s="111"/>
+      <c r="AD23" s="111"/>
+      <c r="AE23" s="111"/>
+      <c r="AF23" s="111"/>
+      <c r="AG23" s="111"/>
+      <c r="AH23" s="111"/>
+      <c r="AI23" s="112"/>
       <c r="AJ23" s="13"/>
       <c r="AK23" s="14"/>
       <c r="AL23" s="14"/>
@@ -7269,14 +7269,14 @@
       <c r="CC23" s="14"/>
       <c r="CD23" s="14"/>
       <c r="CE23" s="15"/>
-      <c r="CF23" s="107"/>
-      <c r="CG23" s="108"/>
-      <c r="CH23" s="108"/>
-      <c r="CI23" s="108"/>
-      <c r="CJ23" s="108"/>
-      <c r="CK23" s="108"/>
-      <c r="CL23" s="108"/>
-      <c r="CM23" s="109"/>
+      <c r="CF23" s="110"/>
+      <c r="CG23" s="111"/>
+      <c r="CH23" s="111"/>
+      <c r="CI23" s="111"/>
+      <c r="CJ23" s="111"/>
+      <c r="CK23" s="111"/>
+      <c r="CL23" s="111"/>
+      <c r="CM23" s="112"/>
       <c r="CN23" s="13"/>
       <c r="CO23" s="14"/>
       <c r="CP23" s="14"/>
@@ -7335,14 +7335,14 @@
       <c r="EO23" s="14"/>
       <c r="EP23" s="14"/>
       <c r="EQ23" s="15"/>
-      <c r="ER23" s="107"/>
-      <c r="ES23" s="108"/>
-      <c r="ET23" s="108"/>
-      <c r="EU23" s="108"/>
-      <c r="EV23" s="108"/>
-      <c r="EW23" s="108"/>
-      <c r="EX23" s="108"/>
-      <c r="EY23" s="109"/>
+      <c r="ER23" s="110"/>
+      <c r="ES23" s="111"/>
+      <c r="ET23" s="111"/>
+      <c r="EU23" s="111"/>
+      <c r="EV23" s="111"/>
+      <c r="EW23" s="111"/>
+      <c r="EX23" s="111"/>
+      <c r="EY23" s="112"/>
       <c r="EZ23" s="13"/>
       <c r="FA23" s="14"/>
       <c r="FB23" s="14"/>
@@ -7392,14 +7392,14 @@
       <c r="GT23" s="14"/>
       <c r="GU23" s="14"/>
       <c r="GV23" s="14"/>
-      <c r="GW23" s="96"/>
+      <c r="GW23" s="132"/>
     </row>
     <row r="24" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A24" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="59" t="s">
-        <v>17</v>
+      <c r="B24" s="66" t="s">
+        <v>27</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
@@ -7426,14 +7426,14 @@
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
       <c r="AA24" s="15"/>
-      <c r="AB24" s="107"/>
-      <c r="AC24" s="108"/>
-      <c r="AD24" s="108"/>
-      <c r="AE24" s="108"/>
-      <c r="AF24" s="108"/>
-      <c r="AG24" s="108"/>
-      <c r="AH24" s="108"/>
-      <c r="AI24" s="109"/>
+      <c r="AB24" s="110"/>
+      <c r="AC24" s="111"/>
+      <c r="AD24" s="111"/>
+      <c r="AE24" s="111"/>
+      <c r="AF24" s="111"/>
+      <c r="AG24" s="111"/>
+      <c r="AH24" s="111"/>
+      <c r="AI24" s="112"/>
       <c r="AJ24" s="13"/>
       <c r="AK24" s="14"/>
       <c r="AL24" s="14"/>
@@ -7482,14 +7482,14 @@
       <c r="CC24" s="14"/>
       <c r="CD24" s="14"/>
       <c r="CE24" s="15"/>
-      <c r="CF24" s="107"/>
-      <c r="CG24" s="108"/>
-      <c r="CH24" s="108"/>
-      <c r="CI24" s="108"/>
-      <c r="CJ24" s="108"/>
-      <c r="CK24" s="108"/>
-      <c r="CL24" s="108"/>
-      <c r="CM24" s="109"/>
+      <c r="CF24" s="110"/>
+      <c r="CG24" s="111"/>
+      <c r="CH24" s="111"/>
+      <c r="CI24" s="111"/>
+      <c r="CJ24" s="111"/>
+      <c r="CK24" s="111"/>
+      <c r="CL24" s="111"/>
+      <c r="CM24" s="112"/>
       <c r="CN24" s="13"/>
       <c r="CO24" s="14"/>
       <c r="CP24" s="14"/>
@@ -7552,14 +7552,14 @@
       <c r="EO24" s="14"/>
       <c r="EP24" s="14"/>
       <c r="EQ24" s="15"/>
-      <c r="ER24" s="107"/>
-      <c r="ES24" s="108"/>
-      <c r="ET24" s="108"/>
-      <c r="EU24" s="108"/>
-      <c r="EV24" s="108"/>
-      <c r="EW24" s="108"/>
-      <c r="EX24" s="108"/>
-      <c r="EY24" s="109"/>
+      <c r="ER24" s="110"/>
+      <c r="ES24" s="111"/>
+      <c r="ET24" s="111"/>
+      <c r="EU24" s="111"/>
+      <c r="EV24" s="111"/>
+      <c r="EW24" s="111"/>
+      <c r="EX24" s="111"/>
+      <c r="EY24" s="112"/>
       <c r="EZ24" s="13"/>
       <c r="FA24" s="14"/>
       <c r="FB24" s="14"/>
@@ -7609,13 +7609,15 @@
       <c r="GT24" s="14"/>
       <c r="GU24" s="14"/>
       <c r="GV24" s="14"/>
-      <c r="GW24" s="96"/>
+      <c r="GW24" s="132"/>
     </row>
     <row r="25" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A25" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="66"/>
+      <c r="B25" s="66" t="s">
+        <v>27</v>
+      </c>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
@@ -7641,14 +7643,14 @@
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
       <c r="AA25" s="15"/>
-      <c r="AB25" s="107"/>
-      <c r="AC25" s="108"/>
-      <c r="AD25" s="108"/>
-      <c r="AE25" s="108"/>
-      <c r="AF25" s="108"/>
-      <c r="AG25" s="108"/>
-      <c r="AH25" s="108"/>
-      <c r="AI25" s="109"/>
+      <c r="AB25" s="110"/>
+      <c r="AC25" s="111"/>
+      <c r="AD25" s="111"/>
+      <c r="AE25" s="111"/>
+      <c r="AF25" s="111"/>
+      <c r="AG25" s="111"/>
+      <c r="AH25" s="111"/>
+      <c r="AI25" s="112"/>
       <c r="AJ25" s="13"/>
       <c r="AK25" s="14"/>
       <c r="AL25" s="14"/>
@@ -7697,14 +7699,14 @@
       <c r="CC25" s="14"/>
       <c r="CD25" s="14"/>
       <c r="CE25" s="15"/>
-      <c r="CF25" s="107"/>
-      <c r="CG25" s="108"/>
-      <c r="CH25" s="108"/>
-      <c r="CI25" s="108"/>
-      <c r="CJ25" s="108"/>
-      <c r="CK25" s="108"/>
-      <c r="CL25" s="108"/>
-      <c r="CM25" s="109"/>
+      <c r="CF25" s="110"/>
+      <c r="CG25" s="111"/>
+      <c r="CH25" s="111"/>
+      <c r="CI25" s="111"/>
+      <c r="CJ25" s="111"/>
+      <c r="CK25" s="111"/>
+      <c r="CL25" s="111"/>
+      <c r="CM25" s="112"/>
       <c r="CN25" s="13"/>
       <c r="CO25" s="14"/>
       <c r="CP25" s="14"/>
@@ -7749,9 +7751,13 @@
       <c r="EC25" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="ED25" s="39"/>
-      <c r="EE25" s="39"/>
-      <c r="EF25" s="14"/>
+      <c r="ED25" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="EE25" s="14"/>
+      <c r="EF25" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="EG25" s="14"/>
       <c r="EH25" s="14"/>
       <c r="EI25" s="15"/>
@@ -7763,14 +7769,14 @@
       <c r="EO25" s="14"/>
       <c r="EP25" s="14"/>
       <c r="EQ25" s="15"/>
-      <c r="ER25" s="107"/>
-      <c r="ES25" s="108"/>
-      <c r="ET25" s="108"/>
-      <c r="EU25" s="108"/>
-      <c r="EV25" s="108"/>
-      <c r="EW25" s="108"/>
-      <c r="EX25" s="108"/>
-      <c r="EY25" s="109"/>
+      <c r="ER25" s="110"/>
+      <c r="ES25" s="111"/>
+      <c r="ET25" s="111"/>
+      <c r="EU25" s="111"/>
+      <c r="EV25" s="111"/>
+      <c r="EW25" s="111"/>
+      <c r="EX25" s="111"/>
+      <c r="EY25" s="112"/>
       <c r="EZ25" s="13"/>
       <c r="FA25" s="14"/>
       <c r="FB25" s="14"/>
@@ -7820,13 +7826,15 @@
       <c r="GT25" s="14"/>
       <c r="GU25" s="14"/>
       <c r="GV25" s="14"/>
-      <c r="GW25" s="96"/>
+      <c r="GW25" s="132"/>
     </row>
     <row r="26" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A26" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="66"/>
+      <c r="B26" s="59" t="s">
+        <v>17</v>
+      </c>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
@@ -7852,14 +7860,14 @@
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
       <c r="AA26" s="15"/>
-      <c r="AB26" s="107"/>
-      <c r="AC26" s="108"/>
-      <c r="AD26" s="108"/>
-      <c r="AE26" s="108"/>
-      <c r="AF26" s="108"/>
-      <c r="AG26" s="108"/>
-      <c r="AH26" s="108"/>
-      <c r="AI26" s="109"/>
+      <c r="AB26" s="110"/>
+      <c r="AC26" s="111"/>
+      <c r="AD26" s="111"/>
+      <c r="AE26" s="111"/>
+      <c r="AF26" s="111"/>
+      <c r="AG26" s="111"/>
+      <c r="AH26" s="111"/>
+      <c r="AI26" s="112"/>
       <c r="AJ26" s="13"/>
       <c r="AK26" s="14"/>
       <c r="AL26" s="14"/>
@@ -7908,14 +7916,14 @@
       <c r="CC26" s="14"/>
       <c r="CD26" s="14"/>
       <c r="CE26" s="15"/>
-      <c r="CF26" s="107"/>
-      <c r="CG26" s="108"/>
-      <c r="CH26" s="108"/>
-      <c r="CI26" s="108"/>
-      <c r="CJ26" s="108"/>
-      <c r="CK26" s="108"/>
-      <c r="CL26" s="108"/>
-      <c r="CM26" s="109"/>
+      <c r="CF26" s="110"/>
+      <c r="CG26" s="111"/>
+      <c r="CH26" s="111"/>
+      <c r="CI26" s="111"/>
+      <c r="CJ26" s="111"/>
+      <c r="CK26" s="111"/>
+      <c r="CL26" s="111"/>
+      <c r="CM26" s="112"/>
       <c r="CN26" s="13"/>
       <c r="CO26" s="14"/>
       <c r="CP26" s="14"/>
@@ -7961,9 +7969,15 @@
       <c r="ED26" s="14"/>
       <c r="EE26" s="14"/>
       <c r="EF26" s="39"/>
-      <c r="EG26" s="39"/>
-      <c r="EH26" s="14"/>
-      <c r="EI26" s="44"/>
+      <c r="EG26" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="EH26" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="EI26" s="44" t="s">
+        <v>28</v>
+      </c>
       <c r="EJ26" s="13"/>
       <c r="EK26" s="14"/>
       <c r="EL26" s="14"/>
@@ -7972,14 +7986,14 @@
       <c r="EO26" s="14"/>
       <c r="EP26" s="14"/>
       <c r="EQ26" s="15"/>
-      <c r="ER26" s="107"/>
-      <c r="ES26" s="108"/>
-      <c r="ET26" s="108"/>
-      <c r="EU26" s="108"/>
-      <c r="EV26" s="108"/>
-      <c r="EW26" s="108"/>
-      <c r="EX26" s="108"/>
-      <c r="EY26" s="109"/>
+      <c r="ER26" s="110"/>
+      <c r="ES26" s="111"/>
+      <c r="ET26" s="111"/>
+      <c r="EU26" s="111"/>
+      <c r="EV26" s="111"/>
+      <c r="EW26" s="111"/>
+      <c r="EX26" s="111"/>
+      <c r="EY26" s="112"/>
       <c r="EZ26" s="13"/>
       <c r="FA26" s="14"/>
       <c r="FB26" s="14"/>
@@ -8029,7 +8043,7 @@
       <c r="GT26" s="14"/>
       <c r="GU26" s="14"/>
       <c r="GV26" s="14"/>
-      <c r="GW26" s="96"/>
+      <c r="GW26" s="132"/>
     </row>
     <row r="27" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A27" s="71" t="s">
@@ -8061,14 +8075,14 @@
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
       <c r="AA27" s="15"/>
-      <c r="AB27" s="107"/>
-      <c r="AC27" s="108"/>
-      <c r="AD27" s="108"/>
-      <c r="AE27" s="108"/>
-      <c r="AF27" s="108"/>
-      <c r="AG27" s="108"/>
-      <c r="AH27" s="108"/>
-      <c r="AI27" s="109"/>
+      <c r="AB27" s="110"/>
+      <c r="AC27" s="111"/>
+      <c r="AD27" s="111"/>
+      <c r="AE27" s="111"/>
+      <c r="AF27" s="111"/>
+      <c r="AG27" s="111"/>
+      <c r="AH27" s="111"/>
+      <c r="AI27" s="112"/>
       <c r="AJ27" s="13"/>
       <c r="AK27" s="14"/>
       <c r="AL27" s="14"/>
@@ -8117,14 +8131,14 @@
       <c r="CC27" s="14"/>
       <c r="CD27" s="14"/>
       <c r="CE27" s="15"/>
-      <c r="CF27" s="107"/>
-      <c r="CG27" s="108"/>
-      <c r="CH27" s="108"/>
-      <c r="CI27" s="108"/>
-      <c r="CJ27" s="108"/>
-      <c r="CK27" s="108"/>
-      <c r="CL27" s="108"/>
-      <c r="CM27" s="109"/>
+      <c r="CF27" s="110"/>
+      <c r="CG27" s="111"/>
+      <c r="CH27" s="111"/>
+      <c r="CI27" s="111"/>
+      <c r="CJ27" s="111"/>
+      <c r="CK27" s="111"/>
+      <c r="CL27" s="111"/>
+      <c r="CM27" s="112"/>
       <c r="CN27" s="13"/>
       <c r="CO27" s="14"/>
       <c r="CP27" s="14"/>
@@ -8181,14 +8195,14 @@
       <c r="EO27" s="14"/>
       <c r="EP27" s="14"/>
       <c r="EQ27" s="15"/>
-      <c r="ER27" s="107"/>
-      <c r="ES27" s="108"/>
-      <c r="ET27" s="108"/>
-      <c r="EU27" s="108"/>
-      <c r="EV27" s="108"/>
-      <c r="EW27" s="108"/>
-      <c r="EX27" s="108"/>
-      <c r="EY27" s="109"/>
+      <c r="ER27" s="110"/>
+      <c r="ES27" s="111"/>
+      <c r="ET27" s="111"/>
+      <c r="EU27" s="111"/>
+      <c r="EV27" s="111"/>
+      <c r="EW27" s="111"/>
+      <c r="EX27" s="111"/>
+      <c r="EY27" s="112"/>
       <c r="EZ27" s="13"/>
       <c r="FA27" s="14"/>
       <c r="FB27" s="14"/>
@@ -8238,7 +8252,7 @@
       <c r="GT27" s="14"/>
       <c r="GU27" s="14"/>
       <c r="GV27" s="14"/>
-      <c r="GW27" s="96"/>
+      <c r="GW27" s="132"/>
     </row>
     <row r="28" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A28" s="91" t="s">
@@ -8270,14 +8284,14 @@
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
       <c r="AA28" s="15"/>
-      <c r="AB28" s="107"/>
-      <c r="AC28" s="108"/>
-      <c r="AD28" s="108"/>
-      <c r="AE28" s="108"/>
-      <c r="AF28" s="108"/>
-      <c r="AG28" s="108"/>
-      <c r="AH28" s="108"/>
-      <c r="AI28" s="109"/>
+      <c r="AB28" s="110"/>
+      <c r="AC28" s="111"/>
+      <c r="AD28" s="111"/>
+      <c r="AE28" s="111"/>
+      <c r="AF28" s="111"/>
+      <c r="AG28" s="111"/>
+      <c r="AH28" s="111"/>
+      <c r="AI28" s="112"/>
       <c r="AJ28" s="13"/>
       <c r="AK28" s="14"/>
       <c r="AL28" s="14"/>
@@ -8326,14 +8340,14 @@
       <c r="CC28" s="14"/>
       <c r="CD28" s="14"/>
       <c r="CE28" s="15"/>
-      <c r="CF28" s="107"/>
-      <c r="CG28" s="108"/>
-      <c r="CH28" s="108"/>
-      <c r="CI28" s="108"/>
-      <c r="CJ28" s="108"/>
-      <c r="CK28" s="108"/>
-      <c r="CL28" s="108"/>
-      <c r="CM28" s="109"/>
+      <c r="CF28" s="110"/>
+      <c r="CG28" s="111"/>
+      <c r="CH28" s="111"/>
+      <c r="CI28" s="111"/>
+      <c r="CJ28" s="111"/>
+      <c r="CK28" s="111"/>
+      <c r="CL28" s="111"/>
+      <c r="CM28" s="112"/>
       <c r="CN28" s="13"/>
       <c r="CO28" s="14"/>
       <c r="CP28" s="14"/>
@@ -8390,14 +8404,14 @@
       <c r="EO28" s="14"/>
       <c r="EP28" s="14"/>
       <c r="EQ28" s="15"/>
-      <c r="ER28" s="107"/>
-      <c r="ES28" s="108"/>
-      <c r="ET28" s="108"/>
-      <c r="EU28" s="108"/>
-      <c r="EV28" s="108"/>
-      <c r="EW28" s="108"/>
-      <c r="EX28" s="108"/>
-      <c r="EY28" s="109"/>
+      <c r="ER28" s="110"/>
+      <c r="ES28" s="111"/>
+      <c r="ET28" s="111"/>
+      <c r="EU28" s="111"/>
+      <c r="EV28" s="111"/>
+      <c r="EW28" s="111"/>
+      <c r="EX28" s="111"/>
+      <c r="EY28" s="112"/>
       <c r="EZ28" s="13"/>
       <c r="FA28" s="14"/>
       <c r="FB28" s="14"/>
@@ -8447,7 +8461,7 @@
       <c r="GT28" s="14"/>
       <c r="GU28" s="14"/>
       <c r="GV28" s="14"/>
-      <c r="GW28" s="96"/>
+      <c r="GW28" s="132"/>
     </row>
     <row r="29" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A29" s="91" t="s">
@@ -8479,14 +8493,14 @@
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
       <c r="AA29" s="15"/>
-      <c r="AB29" s="107"/>
-      <c r="AC29" s="108"/>
-      <c r="AD29" s="108"/>
-      <c r="AE29" s="108"/>
-      <c r="AF29" s="108"/>
-      <c r="AG29" s="108"/>
-      <c r="AH29" s="108"/>
-      <c r="AI29" s="109"/>
+      <c r="AB29" s="110"/>
+      <c r="AC29" s="111"/>
+      <c r="AD29" s="111"/>
+      <c r="AE29" s="111"/>
+      <c r="AF29" s="111"/>
+      <c r="AG29" s="111"/>
+      <c r="AH29" s="111"/>
+      <c r="AI29" s="112"/>
       <c r="AJ29" s="13"/>
       <c r="AK29" s="14"/>
       <c r="AL29" s="14"/>
@@ -8535,14 +8549,14 @@
       <c r="CC29" s="14"/>
       <c r="CD29" s="14"/>
       <c r="CE29" s="15"/>
-      <c r="CF29" s="107"/>
-      <c r="CG29" s="108"/>
-      <c r="CH29" s="108"/>
-      <c r="CI29" s="108"/>
-      <c r="CJ29" s="108"/>
-      <c r="CK29" s="108"/>
-      <c r="CL29" s="108"/>
-      <c r="CM29" s="109"/>
+      <c r="CF29" s="110"/>
+      <c r="CG29" s="111"/>
+      <c r="CH29" s="111"/>
+      <c r="CI29" s="111"/>
+      <c r="CJ29" s="111"/>
+      <c r="CK29" s="111"/>
+      <c r="CL29" s="111"/>
+      <c r="CM29" s="112"/>
       <c r="CN29" s="13"/>
       <c r="CO29" s="14"/>
       <c r="CP29" s="14"/>
@@ -8599,14 +8613,14 @@
       <c r="EO29" s="39"/>
       <c r="EP29" s="39"/>
       <c r="EQ29" s="40"/>
-      <c r="ER29" s="107"/>
-      <c r="ES29" s="108"/>
-      <c r="ET29" s="108"/>
-      <c r="EU29" s="108"/>
-      <c r="EV29" s="108"/>
-      <c r="EW29" s="108"/>
-      <c r="EX29" s="108"/>
-      <c r="EY29" s="109"/>
+      <c r="ER29" s="110"/>
+      <c r="ES29" s="111"/>
+      <c r="ET29" s="111"/>
+      <c r="EU29" s="111"/>
+      <c r="EV29" s="111"/>
+      <c r="EW29" s="111"/>
+      <c r="EX29" s="111"/>
+      <c r="EY29" s="112"/>
       <c r="EZ29" s="13"/>
       <c r="FA29" s="14"/>
       <c r="FB29" s="14"/>
@@ -8656,7 +8670,7 @@
       <c r="GT29" s="14"/>
       <c r="GU29" s="14"/>
       <c r="GV29" s="14"/>
-      <c r="GW29" s="96"/>
+      <c r="GW29" s="132"/>
     </row>
     <row r="30" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A30" s="91" t="s">
@@ -8688,14 +8702,14 @@
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
       <c r="AA30" s="15"/>
-      <c r="AB30" s="107"/>
-      <c r="AC30" s="108"/>
-      <c r="AD30" s="108"/>
-      <c r="AE30" s="108"/>
-      <c r="AF30" s="108"/>
-      <c r="AG30" s="108"/>
-      <c r="AH30" s="108"/>
-      <c r="AI30" s="109"/>
+      <c r="AB30" s="110"/>
+      <c r="AC30" s="111"/>
+      <c r="AD30" s="111"/>
+      <c r="AE30" s="111"/>
+      <c r="AF30" s="111"/>
+      <c r="AG30" s="111"/>
+      <c r="AH30" s="111"/>
+      <c r="AI30" s="112"/>
       <c r="AJ30" s="13"/>
       <c r="AK30" s="14"/>
       <c r="AL30" s="14"/>
@@ -8744,14 +8758,14 @@
       <c r="CC30" s="14"/>
       <c r="CD30" s="14"/>
       <c r="CE30" s="15"/>
-      <c r="CF30" s="107"/>
-      <c r="CG30" s="108"/>
-      <c r="CH30" s="108"/>
-      <c r="CI30" s="108"/>
-      <c r="CJ30" s="108"/>
-      <c r="CK30" s="108"/>
-      <c r="CL30" s="108"/>
-      <c r="CM30" s="109"/>
+      <c r="CF30" s="110"/>
+      <c r="CG30" s="111"/>
+      <c r="CH30" s="111"/>
+      <c r="CI30" s="111"/>
+      <c r="CJ30" s="111"/>
+      <c r="CK30" s="111"/>
+      <c r="CL30" s="111"/>
+      <c r="CM30" s="112"/>
       <c r="CN30" s="13"/>
       <c r="CO30" s="14"/>
       <c r="CP30" s="14"/>
@@ -8808,14 +8822,14 @@
       <c r="EO30" s="14"/>
       <c r="EP30" s="14"/>
       <c r="EQ30" s="14"/>
-      <c r="ER30" s="107"/>
-      <c r="ES30" s="108"/>
-      <c r="ET30" s="108"/>
-      <c r="EU30" s="108"/>
-      <c r="EV30" s="108"/>
-      <c r="EW30" s="108"/>
-      <c r="EX30" s="108"/>
-      <c r="EY30" s="109"/>
+      <c r="ER30" s="110"/>
+      <c r="ES30" s="111"/>
+      <c r="ET30" s="111"/>
+      <c r="EU30" s="111"/>
+      <c r="EV30" s="111"/>
+      <c r="EW30" s="111"/>
+      <c r="EX30" s="111"/>
+      <c r="EY30" s="112"/>
       <c r="EZ30" s="41"/>
       <c r="FA30" s="39"/>
       <c r="FB30" s="39"/>
@@ -8865,7 +8879,7 @@
       <c r="GT30" s="14"/>
       <c r="GU30" s="14"/>
       <c r="GV30" s="14"/>
-      <c r="GW30" s="96"/>
+      <c r="GW30" s="132"/>
     </row>
     <row r="31" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A31" s="91" t="s">
@@ -8897,14 +8911,14 @@
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="15"/>
-      <c r="AB31" s="107"/>
-      <c r="AC31" s="108"/>
-      <c r="AD31" s="108"/>
-      <c r="AE31" s="108"/>
-      <c r="AF31" s="108"/>
-      <c r="AG31" s="108"/>
-      <c r="AH31" s="108"/>
-      <c r="AI31" s="109"/>
+      <c r="AB31" s="110"/>
+      <c r="AC31" s="111"/>
+      <c r="AD31" s="111"/>
+      <c r="AE31" s="111"/>
+      <c r="AF31" s="111"/>
+      <c r="AG31" s="111"/>
+      <c r="AH31" s="111"/>
+      <c r="AI31" s="112"/>
       <c r="AJ31" s="13"/>
       <c r="AK31" s="14"/>
       <c r="AL31" s="14"/>
@@ -8953,14 +8967,14 @@
       <c r="CC31" s="14"/>
       <c r="CD31" s="14"/>
       <c r="CE31" s="15"/>
-      <c r="CF31" s="107"/>
-      <c r="CG31" s="108"/>
-      <c r="CH31" s="108"/>
-      <c r="CI31" s="108"/>
-      <c r="CJ31" s="108"/>
-      <c r="CK31" s="108"/>
-      <c r="CL31" s="108"/>
-      <c r="CM31" s="109"/>
+      <c r="CF31" s="110"/>
+      <c r="CG31" s="111"/>
+      <c r="CH31" s="111"/>
+      <c r="CI31" s="111"/>
+      <c r="CJ31" s="111"/>
+      <c r="CK31" s="111"/>
+      <c r="CL31" s="111"/>
+      <c r="CM31" s="112"/>
       <c r="CN31" s="13"/>
       <c r="CO31" s="14"/>
       <c r="CP31" s="14"/>
@@ -9017,14 +9031,14 @@
       <c r="EO31" s="14"/>
       <c r="EP31" s="14"/>
       <c r="EQ31" s="15"/>
-      <c r="ER31" s="107"/>
-      <c r="ES31" s="108"/>
-      <c r="ET31" s="108"/>
-      <c r="EU31" s="108"/>
-      <c r="EV31" s="108"/>
-      <c r="EW31" s="108"/>
-      <c r="EX31" s="108"/>
-      <c r="EY31" s="109"/>
+      <c r="ER31" s="110"/>
+      <c r="ES31" s="111"/>
+      <c r="ET31" s="111"/>
+      <c r="EU31" s="111"/>
+      <c r="EV31" s="111"/>
+      <c r="EW31" s="111"/>
+      <c r="EX31" s="111"/>
+      <c r="EY31" s="112"/>
       <c r="EZ31" s="13"/>
       <c r="FA31" s="14"/>
       <c r="FB31" s="14"/>
@@ -9074,7 +9088,7 @@
       <c r="GT31" s="14"/>
       <c r="GU31" s="14"/>
       <c r="GV31" s="14"/>
-      <c r="GW31" s="96"/>
+      <c r="GW31" s="132"/>
     </row>
     <row r="32" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A32" s="91" t="s">
@@ -9106,14 +9120,14 @@
       <c r="Y32" s="14"/>
       <c r="Z32" s="14"/>
       <c r="AA32" s="15"/>
-      <c r="AB32" s="107"/>
-      <c r="AC32" s="108"/>
-      <c r="AD32" s="108"/>
-      <c r="AE32" s="108"/>
-      <c r="AF32" s="108"/>
-      <c r="AG32" s="108"/>
-      <c r="AH32" s="108"/>
-      <c r="AI32" s="109"/>
+      <c r="AB32" s="110"/>
+      <c r="AC32" s="111"/>
+      <c r="AD32" s="111"/>
+      <c r="AE32" s="111"/>
+      <c r="AF32" s="111"/>
+      <c r="AG32" s="111"/>
+      <c r="AH32" s="111"/>
+      <c r="AI32" s="112"/>
       <c r="AJ32" s="13"/>
       <c r="AK32" s="14"/>
       <c r="AL32" s="14"/>
@@ -9162,14 +9176,14 @@
       <c r="CC32" s="14"/>
       <c r="CD32" s="14"/>
       <c r="CE32" s="15"/>
-      <c r="CF32" s="107"/>
-      <c r="CG32" s="108"/>
-      <c r="CH32" s="108"/>
-      <c r="CI32" s="108"/>
-      <c r="CJ32" s="108"/>
-      <c r="CK32" s="108"/>
-      <c r="CL32" s="108"/>
-      <c r="CM32" s="109"/>
+      <c r="CF32" s="110"/>
+      <c r="CG32" s="111"/>
+      <c r="CH32" s="111"/>
+      <c r="CI32" s="111"/>
+      <c r="CJ32" s="111"/>
+      <c r="CK32" s="111"/>
+      <c r="CL32" s="111"/>
+      <c r="CM32" s="112"/>
       <c r="CN32" s="13"/>
       <c r="CO32" s="14"/>
       <c r="CP32" s="14"/>
@@ -9226,14 +9240,14 @@
       <c r="EO32" s="14"/>
       <c r="EP32" s="14"/>
       <c r="EQ32" s="15"/>
-      <c r="ER32" s="107"/>
-      <c r="ES32" s="108"/>
-      <c r="ET32" s="108"/>
-      <c r="EU32" s="108"/>
-      <c r="EV32" s="108"/>
-      <c r="EW32" s="108"/>
-      <c r="EX32" s="108"/>
-      <c r="EY32" s="109"/>
+      <c r="ER32" s="110"/>
+      <c r="ES32" s="111"/>
+      <c r="ET32" s="111"/>
+      <c r="EU32" s="111"/>
+      <c r="EV32" s="111"/>
+      <c r="EW32" s="111"/>
+      <c r="EX32" s="111"/>
+      <c r="EY32" s="112"/>
       <c r="EZ32" s="13"/>
       <c r="FA32" s="14"/>
       <c r="FB32" s="14"/>
@@ -9283,7 +9297,7 @@
       <c r="GT32" s="14"/>
       <c r="GU32" s="14"/>
       <c r="GV32" s="14"/>
-      <c r="GW32" s="96"/>
+      <c r="GW32" s="132"/>
     </row>
     <row r="33" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A33" s="91" t="s">
@@ -9315,14 +9329,14 @@
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
       <c r="AA33" s="15"/>
-      <c r="AB33" s="107"/>
-      <c r="AC33" s="108"/>
-      <c r="AD33" s="108"/>
-      <c r="AE33" s="108"/>
-      <c r="AF33" s="108"/>
-      <c r="AG33" s="108"/>
-      <c r="AH33" s="108"/>
-      <c r="AI33" s="109"/>
+      <c r="AB33" s="110"/>
+      <c r="AC33" s="111"/>
+      <c r="AD33" s="111"/>
+      <c r="AE33" s="111"/>
+      <c r="AF33" s="111"/>
+      <c r="AG33" s="111"/>
+      <c r="AH33" s="111"/>
+      <c r="AI33" s="112"/>
       <c r="AJ33" s="13"/>
       <c r="AK33" s="14"/>
       <c r="AL33" s="14"/>
@@ -9371,14 +9385,14 @@
       <c r="CC33" s="14"/>
       <c r="CD33" s="14"/>
       <c r="CE33" s="15"/>
-      <c r="CF33" s="107"/>
-      <c r="CG33" s="108"/>
-      <c r="CH33" s="108"/>
-      <c r="CI33" s="108"/>
-      <c r="CJ33" s="108"/>
-      <c r="CK33" s="108"/>
-      <c r="CL33" s="108"/>
-      <c r="CM33" s="109"/>
+      <c r="CF33" s="110"/>
+      <c r="CG33" s="111"/>
+      <c r="CH33" s="111"/>
+      <c r="CI33" s="111"/>
+      <c r="CJ33" s="111"/>
+      <c r="CK33" s="111"/>
+      <c r="CL33" s="111"/>
+      <c r="CM33" s="112"/>
       <c r="CN33" s="13"/>
       <c r="CO33" s="14"/>
       <c r="CP33" s="14"/>
@@ -9435,14 +9449,14 @@
       <c r="EO33" s="14"/>
       <c r="EP33" s="14"/>
       <c r="EQ33" s="15"/>
-      <c r="ER33" s="107"/>
-      <c r="ES33" s="108"/>
-      <c r="ET33" s="108"/>
-      <c r="EU33" s="108"/>
-      <c r="EV33" s="108"/>
-      <c r="EW33" s="108"/>
-      <c r="EX33" s="108"/>
-      <c r="EY33" s="109"/>
+      <c r="ER33" s="110"/>
+      <c r="ES33" s="111"/>
+      <c r="ET33" s="111"/>
+      <c r="EU33" s="111"/>
+      <c r="EV33" s="111"/>
+      <c r="EW33" s="111"/>
+      <c r="EX33" s="111"/>
+      <c r="EY33" s="112"/>
       <c r="EZ33" s="13"/>
       <c r="FA33" s="14"/>
       <c r="FB33" s="14"/>
@@ -9492,7 +9506,7 @@
       <c r="GT33" s="14"/>
       <c r="GU33" s="14"/>
       <c r="GV33" s="14"/>
-      <c r="GW33" s="96"/>
+      <c r="GW33" s="132"/>
     </row>
     <row r="34" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A34" s="91" t="s">
@@ -9524,14 +9538,14 @@
       <c r="Y34" s="14"/>
       <c r="Z34" s="14"/>
       <c r="AA34" s="15"/>
-      <c r="AB34" s="107"/>
-      <c r="AC34" s="108"/>
-      <c r="AD34" s="108"/>
-      <c r="AE34" s="108"/>
-      <c r="AF34" s="108"/>
-      <c r="AG34" s="108"/>
-      <c r="AH34" s="108"/>
-      <c r="AI34" s="109"/>
+      <c r="AB34" s="110"/>
+      <c r="AC34" s="111"/>
+      <c r="AD34" s="111"/>
+      <c r="AE34" s="111"/>
+      <c r="AF34" s="111"/>
+      <c r="AG34" s="111"/>
+      <c r="AH34" s="111"/>
+      <c r="AI34" s="112"/>
       <c r="AJ34" s="13"/>
       <c r="AK34" s="14"/>
       <c r="AL34" s="14"/>
@@ -9580,14 +9594,14 @@
       <c r="CC34" s="14"/>
       <c r="CD34" s="14"/>
       <c r="CE34" s="15"/>
-      <c r="CF34" s="107"/>
-      <c r="CG34" s="108"/>
-      <c r="CH34" s="108"/>
-      <c r="CI34" s="108"/>
-      <c r="CJ34" s="108"/>
-      <c r="CK34" s="108"/>
-      <c r="CL34" s="108"/>
-      <c r="CM34" s="109"/>
+      <c r="CF34" s="110"/>
+      <c r="CG34" s="111"/>
+      <c r="CH34" s="111"/>
+      <c r="CI34" s="111"/>
+      <c r="CJ34" s="111"/>
+      <c r="CK34" s="111"/>
+      <c r="CL34" s="111"/>
+      <c r="CM34" s="112"/>
       <c r="CN34" s="13"/>
       <c r="CO34" s="14"/>
       <c r="CP34" s="14"/>
@@ -9644,14 +9658,14 @@
       <c r="EO34" s="14"/>
       <c r="EP34" s="14"/>
       <c r="EQ34" s="15"/>
-      <c r="ER34" s="107"/>
-      <c r="ES34" s="108"/>
-      <c r="ET34" s="108"/>
-      <c r="EU34" s="108"/>
-      <c r="EV34" s="108"/>
-      <c r="EW34" s="108"/>
-      <c r="EX34" s="108"/>
-      <c r="EY34" s="109"/>
+      <c r="ER34" s="110"/>
+      <c r="ES34" s="111"/>
+      <c r="ET34" s="111"/>
+      <c r="EU34" s="111"/>
+      <c r="EV34" s="111"/>
+      <c r="EW34" s="111"/>
+      <c r="EX34" s="111"/>
+      <c r="EY34" s="112"/>
       <c r="EZ34" s="13"/>
       <c r="FA34" s="14"/>
       <c r="FB34" s="14"/>
@@ -9701,7 +9715,7 @@
       <c r="GT34" s="14"/>
       <c r="GU34" s="14"/>
       <c r="GV34" s="14"/>
-      <c r="GW34" s="96"/>
+      <c r="GW34" s="132"/>
     </row>
     <row r="35" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A35" s="91" t="s">
@@ -9733,14 +9747,14 @@
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
       <c r="AA35" s="15"/>
-      <c r="AB35" s="107"/>
-      <c r="AC35" s="108"/>
-      <c r="AD35" s="108"/>
-      <c r="AE35" s="108"/>
-      <c r="AF35" s="108"/>
-      <c r="AG35" s="108"/>
-      <c r="AH35" s="108"/>
-      <c r="AI35" s="109"/>
+      <c r="AB35" s="110"/>
+      <c r="AC35" s="111"/>
+      <c r="AD35" s="111"/>
+      <c r="AE35" s="111"/>
+      <c r="AF35" s="111"/>
+      <c r="AG35" s="111"/>
+      <c r="AH35" s="111"/>
+      <c r="AI35" s="112"/>
       <c r="AJ35" s="13"/>
       <c r="AK35" s="14"/>
       <c r="AL35" s="14"/>
@@ -9789,14 +9803,14 @@
       <c r="CC35" s="14"/>
       <c r="CD35" s="14"/>
       <c r="CE35" s="15"/>
-      <c r="CF35" s="107"/>
-      <c r="CG35" s="108"/>
-      <c r="CH35" s="108"/>
-      <c r="CI35" s="108"/>
-      <c r="CJ35" s="108"/>
-      <c r="CK35" s="108"/>
-      <c r="CL35" s="108"/>
-      <c r="CM35" s="109"/>
+      <c r="CF35" s="110"/>
+      <c r="CG35" s="111"/>
+      <c r="CH35" s="111"/>
+      <c r="CI35" s="111"/>
+      <c r="CJ35" s="111"/>
+      <c r="CK35" s="111"/>
+      <c r="CL35" s="111"/>
+      <c r="CM35" s="112"/>
       <c r="CN35" s="13"/>
       <c r="CO35" s="14"/>
       <c r="CP35" s="14"/>
@@ -9853,14 +9867,14 @@
       <c r="EO35" s="14"/>
       <c r="EP35" s="14"/>
       <c r="EQ35" s="15"/>
-      <c r="ER35" s="107"/>
-      <c r="ES35" s="108"/>
-      <c r="ET35" s="108"/>
-      <c r="EU35" s="108"/>
-      <c r="EV35" s="108"/>
-      <c r="EW35" s="108"/>
-      <c r="EX35" s="108"/>
-      <c r="EY35" s="109"/>
+      <c r="ER35" s="110"/>
+      <c r="ES35" s="111"/>
+      <c r="ET35" s="111"/>
+      <c r="EU35" s="111"/>
+      <c r="EV35" s="111"/>
+      <c r="EW35" s="111"/>
+      <c r="EX35" s="111"/>
+      <c r="EY35" s="112"/>
       <c r="EZ35" s="13"/>
       <c r="FA35" s="14"/>
       <c r="FB35" s="14"/>
@@ -9910,7 +9924,7 @@
       <c r="GT35" s="14"/>
       <c r="GU35" s="14"/>
       <c r="GV35" s="14"/>
-      <c r="GW35" s="96"/>
+      <c r="GW35" s="132"/>
     </row>
     <row r="36" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A36" s="91" t="s">
@@ -9942,14 +9956,14 @@
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
       <c r="AA36" s="15"/>
-      <c r="AB36" s="107"/>
-      <c r="AC36" s="108"/>
-      <c r="AD36" s="108"/>
-      <c r="AE36" s="108"/>
-      <c r="AF36" s="108"/>
-      <c r="AG36" s="108"/>
-      <c r="AH36" s="108"/>
-      <c r="AI36" s="109"/>
+      <c r="AB36" s="110"/>
+      <c r="AC36" s="111"/>
+      <c r="AD36" s="111"/>
+      <c r="AE36" s="111"/>
+      <c r="AF36" s="111"/>
+      <c r="AG36" s="111"/>
+      <c r="AH36" s="111"/>
+      <c r="AI36" s="112"/>
       <c r="AJ36" s="13"/>
       <c r="AK36" s="14"/>
       <c r="AL36" s="14"/>
@@ -9998,14 +10012,14 @@
       <c r="CC36" s="14"/>
       <c r="CD36" s="14"/>
       <c r="CE36" s="15"/>
-      <c r="CF36" s="107"/>
-      <c r="CG36" s="108"/>
-      <c r="CH36" s="108"/>
-      <c r="CI36" s="108"/>
-      <c r="CJ36" s="108"/>
-      <c r="CK36" s="108"/>
-      <c r="CL36" s="108"/>
-      <c r="CM36" s="109"/>
+      <c r="CF36" s="110"/>
+      <c r="CG36" s="111"/>
+      <c r="CH36" s="111"/>
+      <c r="CI36" s="111"/>
+      <c r="CJ36" s="111"/>
+      <c r="CK36" s="111"/>
+      <c r="CL36" s="111"/>
+      <c r="CM36" s="112"/>
       <c r="CN36" s="13"/>
       <c r="CO36" s="14"/>
       <c r="CP36" s="14"/>
@@ -10062,14 +10076,14 @@
       <c r="EO36" s="14"/>
       <c r="EP36" s="14"/>
       <c r="EQ36" s="15"/>
-      <c r="ER36" s="107"/>
-      <c r="ES36" s="108"/>
-      <c r="ET36" s="108"/>
-      <c r="EU36" s="108"/>
-      <c r="EV36" s="108"/>
-      <c r="EW36" s="108"/>
-      <c r="EX36" s="108"/>
-      <c r="EY36" s="109"/>
+      <c r="ER36" s="110"/>
+      <c r="ES36" s="111"/>
+      <c r="ET36" s="111"/>
+      <c r="EU36" s="111"/>
+      <c r="EV36" s="111"/>
+      <c r="EW36" s="111"/>
+      <c r="EX36" s="111"/>
+      <c r="EY36" s="112"/>
       <c r="EZ36" s="13"/>
       <c r="FA36" s="14"/>
       <c r="FB36" s="14"/>
@@ -10119,7 +10133,7 @@
       <c r="GT36" s="14"/>
       <c r="GU36" s="14"/>
       <c r="GV36" s="14"/>
-      <c r="GW36" s="96"/>
+      <c r="GW36" s="132"/>
     </row>
     <row r="37" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A37" s="72" t="s">
@@ -10151,14 +10165,14 @@
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
       <c r="AA37" s="15"/>
-      <c r="AB37" s="107"/>
-      <c r="AC37" s="108"/>
-      <c r="AD37" s="108"/>
-      <c r="AE37" s="108"/>
-      <c r="AF37" s="108"/>
-      <c r="AG37" s="108"/>
-      <c r="AH37" s="108"/>
-      <c r="AI37" s="109"/>
+      <c r="AB37" s="110"/>
+      <c r="AC37" s="111"/>
+      <c r="AD37" s="111"/>
+      <c r="AE37" s="111"/>
+      <c r="AF37" s="111"/>
+      <c r="AG37" s="111"/>
+      <c r="AH37" s="111"/>
+      <c r="AI37" s="112"/>
       <c r="AJ37" s="13"/>
       <c r="AK37" s="14"/>
       <c r="AL37" s="14"/>
@@ -10207,14 +10221,14 @@
       <c r="CC37" s="14"/>
       <c r="CD37" s="14"/>
       <c r="CE37" s="15"/>
-      <c r="CF37" s="107"/>
-      <c r="CG37" s="108"/>
-      <c r="CH37" s="108"/>
-      <c r="CI37" s="108"/>
-      <c r="CJ37" s="108"/>
-      <c r="CK37" s="108"/>
-      <c r="CL37" s="108"/>
-      <c r="CM37" s="109"/>
+      <c r="CF37" s="110"/>
+      <c r="CG37" s="111"/>
+      <c r="CH37" s="111"/>
+      <c r="CI37" s="111"/>
+      <c r="CJ37" s="111"/>
+      <c r="CK37" s="111"/>
+      <c r="CL37" s="111"/>
+      <c r="CM37" s="112"/>
       <c r="CN37" s="13"/>
       <c r="CO37" s="14"/>
       <c r="CP37" s="14"/>
@@ -10271,14 +10285,14 @@
       <c r="EO37" s="14"/>
       <c r="EP37" s="14"/>
       <c r="EQ37" s="15"/>
-      <c r="ER37" s="107"/>
-      <c r="ES37" s="108"/>
-      <c r="ET37" s="108"/>
-      <c r="EU37" s="108"/>
-      <c r="EV37" s="108"/>
-      <c r="EW37" s="108"/>
-      <c r="EX37" s="108"/>
-      <c r="EY37" s="109"/>
+      <c r="ER37" s="110"/>
+      <c r="ES37" s="111"/>
+      <c r="ET37" s="111"/>
+      <c r="EU37" s="111"/>
+      <c r="EV37" s="111"/>
+      <c r="EW37" s="111"/>
+      <c r="EX37" s="111"/>
+      <c r="EY37" s="112"/>
       <c r="EZ37" s="13"/>
       <c r="FA37" s="14"/>
       <c r="FB37" s="14"/>
@@ -10328,7 +10342,7 @@
       <c r="GT37" s="14"/>
       <c r="GU37" s="14"/>
       <c r="GV37" s="14"/>
-      <c r="GW37" s="96"/>
+      <c r="GW37" s="132"/>
     </row>
     <row r="38" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="72" t="s">
@@ -10360,14 +10374,14 @@
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
       <c r="AA38" s="15"/>
-      <c r="AB38" s="107"/>
-      <c r="AC38" s="108"/>
-      <c r="AD38" s="108"/>
-      <c r="AE38" s="108"/>
-      <c r="AF38" s="108"/>
-      <c r="AG38" s="108"/>
-      <c r="AH38" s="108"/>
-      <c r="AI38" s="109"/>
+      <c r="AB38" s="110"/>
+      <c r="AC38" s="111"/>
+      <c r="AD38" s="111"/>
+      <c r="AE38" s="111"/>
+      <c r="AF38" s="111"/>
+      <c r="AG38" s="111"/>
+      <c r="AH38" s="111"/>
+      <c r="AI38" s="112"/>
       <c r="AJ38" s="13"/>
       <c r="AK38" s="14"/>
       <c r="AL38" s="14"/>
@@ -10416,14 +10430,14 @@
       <c r="CC38" s="14"/>
       <c r="CD38" s="14"/>
       <c r="CE38" s="15"/>
-      <c r="CF38" s="107"/>
-      <c r="CG38" s="108"/>
-      <c r="CH38" s="108"/>
-      <c r="CI38" s="108"/>
-      <c r="CJ38" s="108"/>
-      <c r="CK38" s="108"/>
-      <c r="CL38" s="108"/>
-      <c r="CM38" s="109"/>
+      <c r="CF38" s="110"/>
+      <c r="CG38" s="111"/>
+      <c r="CH38" s="111"/>
+      <c r="CI38" s="111"/>
+      <c r="CJ38" s="111"/>
+      <c r="CK38" s="111"/>
+      <c r="CL38" s="111"/>
+      <c r="CM38" s="112"/>
       <c r="CN38" s="13"/>
       <c r="CO38" s="14"/>
       <c r="CP38" s="14"/>
@@ -10480,14 +10494,14 @@
       <c r="EO38" s="14"/>
       <c r="EP38" s="14"/>
       <c r="EQ38" s="15"/>
-      <c r="ER38" s="107"/>
-      <c r="ES38" s="108"/>
-      <c r="ET38" s="108"/>
-      <c r="EU38" s="108"/>
-      <c r="EV38" s="108"/>
-      <c r="EW38" s="108"/>
-      <c r="EX38" s="108"/>
-      <c r="EY38" s="109"/>
+      <c r="ER38" s="110"/>
+      <c r="ES38" s="111"/>
+      <c r="ET38" s="111"/>
+      <c r="EU38" s="111"/>
+      <c r="EV38" s="111"/>
+      <c r="EW38" s="111"/>
+      <c r="EX38" s="111"/>
+      <c r="EY38" s="112"/>
       <c r="EZ38" s="13"/>
       <c r="FA38" s="14"/>
       <c r="FB38" s="14"/>
@@ -10537,13 +10551,13 @@
       <c r="GT38" s="14"/>
       <c r="GU38" s="14"/>
       <c r="GV38" s="14"/>
-      <c r="GW38" s="96"/>
+      <c r="GW38" s="132"/>
     </row>
     <row r="39" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="129" t="s">
+      <c r="A39" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="130"/>
+      <c r="B39" s="104"/>
       <c r="C39" s="60"/>
       <c r="D39" s="13"/>
       <c r="E39" s="14"/>
@@ -10569,14 +10583,14 @@
       <c r="Y39" s="14"/>
       <c r="Z39" s="14"/>
       <c r="AA39" s="15"/>
-      <c r="AB39" s="107"/>
-      <c r="AC39" s="108"/>
-      <c r="AD39" s="108"/>
-      <c r="AE39" s="108"/>
-      <c r="AF39" s="108"/>
-      <c r="AG39" s="108"/>
-      <c r="AH39" s="108"/>
-      <c r="AI39" s="109"/>
+      <c r="AB39" s="110"/>
+      <c r="AC39" s="111"/>
+      <c r="AD39" s="111"/>
+      <c r="AE39" s="111"/>
+      <c r="AF39" s="111"/>
+      <c r="AG39" s="111"/>
+      <c r="AH39" s="111"/>
+      <c r="AI39" s="112"/>
       <c r="AJ39" s="13"/>
       <c r="AK39" s="14"/>
       <c r="AL39" s="14"/>
@@ -10625,14 +10639,14 @@
       <c r="CC39" s="14"/>
       <c r="CD39" s="14"/>
       <c r="CE39" s="15"/>
-      <c r="CF39" s="107"/>
-      <c r="CG39" s="108"/>
-      <c r="CH39" s="108"/>
-      <c r="CI39" s="108"/>
-      <c r="CJ39" s="108"/>
-      <c r="CK39" s="108"/>
-      <c r="CL39" s="108"/>
-      <c r="CM39" s="109"/>
+      <c r="CF39" s="110"/>
+      <c r="CG39" s="111"/>
+      <c r="CH39" s="111"/>
+      <c r="CI39" s="111"/>
+      <c r="CJ39" s="111"/>
+      <c r="CK39" s="111"/>
+      <c r="CL39" s="111"/>
+      <c r="CM39" s="112"/>
       <c r="CN39" s="13"/>
       <c r="CO39" s="14"/>
       <c r="CP39" s="14"/>
@@ -10689,14 +10703,14 @@
       <c r="EO39" s="14"/>
       <c r="EP39" s="14"/>
       <c r="EQ39" s="15"/>
-      <c r="ER39" s="107"/>
-      <c r="ES39" s="108"/>
-      <c r="ET39" s="108"/>
-      <c r="EU39" s="108"/>
-      <c r="EV39" s="108"/>
-      <c r="EW39" s="108"/>
-      <c r="EX39" s="108"/>
-      <c r="EY39" s="109"/>
+      <c r="ER39" s="110"/>
+      <c r="ES39" s="111"/>
+      <c r="ET39" s="111"/>
+      <c r="EU39" s="111"/>
+      <c r="EV39" s="111"/>
+      <c r="EW39" s="111"/>
+      <c r="EX39" s="111"/>
+      <c r="EY39" s="112"/>
       <c r="EZ39" s="13"/>
       <c r="FA39" s="14"/>
       <c r="FB39" s="14"/>
@@ -10746,7 +10760,7 @@
       <c r="GT39" s="14"/>
       <c r="GU39" s="14"/>
       <c r="GV39" s="14"/>
-      <c r="GW39" s="96"/>
+      <c r="GW39" s="132"/>
     </row>
     <row r="40" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="87" t="s">
@@ -10778,14 +10792,14 @@
       <c r="Y40" s="14"/>
       <c r="Z40" s="14"/>
       <c r="AA40" s="15"/>
-      <c r="AB40" s="107"/>
-      <c r="AC40" s="108"/>
-      <c r="AD40" s="108"/>
-      <c r="AE40" s="108"/>
-      <c r="AF40" s="108"/>
-      <c r="AG40" s="108"/>
-      <c r="AH40" s="108"/>
-      <c r="AI40" s="109"/>
+      <c r="AB40" s="110"/>
+      <c r="AC40" s="111"/>
+      <c r="AD40" s="111"/>
+      <c r="AE40" s="111"/>
+      <c r="AF40" s="111"/>
+      <c r="AG40" s="111"/>
+      <c r="AH40" s="111"/>
+      <c r="AI40" s="112"/>
       <c r="AJ40" s="13"/>
       <c r="AK40" s="14"/>
       <c r="AL40" s="14"/>
@@ -10834,14 +10848,14 @@
       <c r="CC40" s="14"/>
       <c r="CD40" s="14"/>
       <c r="CE40" s="15"/>
-      <c r="CF40" s="107"/>
-      <c r="CG40" s="108"/>
-      <c r="CH40" s="108"/>
-      <c r="CI40" s="108"/>
-      <c r="CJ40" s="108"/>
-      <c r="CK40" s="108"/>
-      <c r="CL40" s="108"/>
-      <c r="CM40" s="109"/>
+      <c r="CF40" s="110"/>
+      <c r="CG40" s="111"/>
+      <c r="CH40" s="111"/>
+      <c r="CI40" s="111"/>
+      <c r="CJ40" s="111"/>
+      <c r="CK40" s="111"/>
+      <c r="CL40" s="111"/>
+      <c r="CM40" s="112"/>
       <c r="CN40" s="13"/>
       <c r="CO40" s="14"/>
       <c r="CP40" s="14"/>
@@ -10900,14 +10914,14 @@
       <c r="EO40" s="14"/>
       <c r="EP40" s="14"/>
       <c r="EQ40" s="15"/>
-      <c r="ER40" s="107"/>
-      <c r="ES40" s="108"/>
-      <c r="ET40" s="108"/>
-      <c r="EU40" s="108"/>
-      <c r="EV40" s="108"/>
-      <c r="EW40" s="108"/>
-      <c r="EX40" s="108"/>
-      <c r="EY40" s="109"/>
+      <c r="ER40" s="110"/>
+      <c r="ES40" s="111"/>
+      <c r="ET40" s="111"/>
+      <c r="EU40" s="111"/>
+      <c r="EV40" s="111"/>
+      <c r="EW40" s="111"/>
+      <c r="EX40" s="111"/>
+      <c r="EY40" s="112"/>
       <c r="EZ40" s="13"/>
       <c r="FA40" s="14"/>
       <c r="FB40" s="14"/>
@@ -10957,13 +10971,13 @@
       <c r="GT40" s="14"/>
       <c r="GU40" s="14"/>
       <c r="GV40" s="14"/>
-      <c r="GW40" s="96"/>
+      <c r="GW40" s="132"/>
     </row>
     <row r="41" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="131" t="s">
+      <c r="A41" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="132"/>
+      <c r="B41" s="106"/>
       <c r="C41" s="60"/>
       <c r="D41" s="13"/>
       <c r="E41" s="14"/>
@@ -10989,14 +11003,14 @@
       <c r="Y41" s="14"/>
       <c r="Z41" s="14"/>
       <c r="AA41" s="15"/>
-      <c r="AB41" s="107"/>
-      <c r="AC41" s="108"/>
-      <c r="AD41" s="108"/>
-      <c r="AE41" s="108"/>
-      <c r="AF41" s="108"/>
-      <c r="AG41" s="108"/>
-      <c r="AH41" s="108"/>
-      <c r="AI41" s="109"/>
+      <c r="AB41" s="110"/>
+      <c r="AC41" s="111"/>
+      <c r="AD41" s="111"/>
+      <c r="AE41" s="111"/>
+      <c r="AF41" s="111"/>
+      <c r="AG41" s="111"/>
+      <c r="AH41" s="111"/>
+      <c r="AI41" s="112"/>
       <c r="AJ41" s="13"/>
       <c r="AK41" s="14"/>
       <c r="AL41" s="14"/>
@@ -11045,14 +11059,14 @@
       <c r="CC41" s="14"/>
       <c r="CD41" s="14"/>
       <c r="CE41" s="15"/>
-      <c r="CF41" s="107"/>
-      <c r="CG41" s="108"/>
-      <c r="CH41" s="108"/>
-      <c r="CI41" s="108"/>
-      <c r="CJ41" s="108"/>
-      <c r="CK41" s="108"/>
-      <c r="CL41" s="108"/>
-      <c r="CM41" s="109"/>
+      <c r="CF41" s="110"/>
+      <c r="CG41" s="111"/>
+      <c r="CH41" s="111"/>
+      <c r="CI41" s="111"/>
+      <c r="CJ41" s="111"/>
+      <c r="CK41" s="111"/>
+      <c r="CL41" s="111"/>
+      <c r="CM41" s="112"/>
       <c r="CN41" s="13"/>
       <c r="CO41" s="14"/>
       <c r="CP41" s="14"/>
@@ -11109,14 +11123,14 @@
       <c r="EO41" s="14"/>
       <c r="EP41" s="14"/>
       <c r="EQ41" s="15"/>
-      <c r="ER41" s="107"/>
-      <c r="ES41" s="108"/>
-      <c r="ET41" s="108"/>
-      <c r="EU41" s="108"/>
-      <c r="EV41" s="108"/>
-      <c r="EW41" s="108"/>
-      <c r="EX41" s="108"/>
-      <c r="EY41" s="109"/>
+      <c r="ER41" s="110"/>
+      <c r="ES41" s="111"/>
+      <c r="ET41" s="111"/>
+      <c r="EU41" s="111"/>
+      <c r="EV41" s="111"/>
+      <c r="EW41" s="111"/>
+      <c r="EX41" s="111"/>
+      <c r="EY41" s="112"/>
       <c r="EZ41" s="13"/>
       <c r="FA41" s="14"/>
       <c r="FB41" s="14"/>
@@ -11166,7 +11180,7 @@
       <c r="GT41" s="14"/>
       <c r="GU41" s="14"/>
       <c r="GV41" s="14"/>
-      <c r="GW41" s="96"/>
+      <c r="GW41" s="132"/>
     </row>
     <row r="42" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A42" s="81" t="s">
@@ -11198,14 +11212,14 @@
       <c r="Y42" s="14"/>
       <c r="Z42" s="14"/>
       <c r="AA42" s="15"/>
-      <c r="AB42" s="107"/>
-      <c r="AC42" s="108"/>
-      <c r="AD42" s="108"/>
-      <c r="AE42" s="108"/>
-      <c r="AF42" s="108"/>
-      <c r="AG42" s="108"/>
-      <c r="AH42" s="108"/>
-      <c r="AI42" s="109"/>
+      <c r="AB42" s="110"/>
+      <c r="AC42" s="111"/>
+      <c r="AD42" s="111"/>
+      <c r="AE42" s="111"/>
+      <c r="AF42" s="111"/>
+      <c r="AG42" s="111"/>
+      <c r="AH42" s="111"/>
+      <c r="AI42" s="112"/>
       <c r="AJ42" s="13"/>
       <c r="AK42" s="14"/>
       <c r="AL42" s="14"/>
@@ -11254,14 +11268,14 @@
       <c r="CC42" s="14"/>
       <c r="CD42" s="14"/>
       <c r="CE42" s="15"/>
-      <c r="CF42" s="107"/>
-      <c r="CG42" s="108"/>
-      <c r="CH42" s="108"/>
-      <c r="CI42" s="108"/>
-      <c r="CJ42" s="108"/>
-      <c r="CK42" s="108"/>
-      <c r="CL42" s="108"/>
-      <c r="CM42" s="109"/>
+      <c r="CF42" s="110"/>
+      <c r="CG42" s="111"/>
+      <c r="CH42" s="111"/>
+      <c r="CI42" s="111"/>
+      <c r="CJ42" s="111"/>
+      <c r="CK42" s="111"/>
+      <c r="CL42" s="111"/>
+      <c r="CM42" s="112"/>
       <c r="CN42" s="13"/>
       <c r="CO42" s="14"/>
       <c r="CP42" s="14"/>
@@ -11307,7 +11321,9 @@
       <c r="EB42" s="13"/>
       <c r="EC42" s="14"/>
       <c r="ED42" s="14"/>
-      <c r="EE42" s="42"/>
+      <c r="EE42" s="42" t="s">
+        <v>28</v>
+      </c>
       <c r="EF42" s="14"/>
       <c r="EG42" s="14"/>
       <c r="EH42" s="14"/>
@@ -11320,14 +11336,14 @@
       <c r="EO42" s="14"/>
       <c r="EP42" s="14"/>
       <c r="EQ42" s="15"/>
-      <c r="ER42" s="107"/>
-      <c r="ES42" s="108"/>
-      <c r="ET42" s="108"/>
-      <c r="EU42" s="108"/>
-      <c r="EV42" s="108"/>
-      <c r="EW42" s="108"/>
-      <c r="EX42" s="108"/>
-      <c r="EY42" s="109"/>
+      <c r="ER42" s="110"/>
+      <c r="ES42" s="111"/>
+      <c r="ET42" s="111"/>
+      <c r="EU42" s="111"/>
+      <c r="EV42" s="111"/>
+      <c r="EW42" s="111"/>
+      <c r="EX42" s="111"/>
+      <c r="EY42" s="112"/>
       <c r="EZ42" s="13"/>
       <c r="FA42" s="14"/>
       <c r="FB42" s="14"/>
@@ -11377,7 +11393,7 @@
       <c r="GT42" s="14"/>
       <c r="GU42" s="14"/>
       <c r="GV42" s="14"/>
-      <c r="GW42" s="96"/>
+      <c r="GW42" s="132"/>
     </row>
     <row r="43" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="82" t="s">
@@ -11385,74 +11401,74 @@
       </c>
       <c r="B43" s="67"/>
       <c r="C43" s="16"/>
-      <c r="D43" s="116" t="s">
+      <c r="D43" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="117"/>
-      <c r="F43" s="117"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="117"/>
-      <c r="I43" s="117"/>
-      <c r="J43" s="117"/>
-      <c r="K43" s="117"/>
-      <c r="L43" s="117"/>
-      <c r="M43" s="117"/>
-      <c r="N43" s="117"/>
-      <c r="O43" s="117"/>
-      <c r="P43" s="117"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="117"/>
-      <c r="S43" s="117"/>
-      <c r="T43" s="117"/>
-      <c r="U43" s="117"/>
-      <c r="V43" s="117"/>
-      <c r="W43" s="117"/>
-      <c r="X43" s="117"/>
-      <c r="Y43" s="117"/>
-      <c r="Z43" s="117"/>
-      <c r="AA43" s="118"/>
-      <c r="AB43" s="110"/>
-      <c r="AC43" s="111"/>
-      <c r="AD43" s="111"/>
-      <c r="AE43" s="111"/>
-      <c r="AF43" s="111"/>
-      <c r="AG43" s="111"/>
-      <c r="AH43" s="111"/>
-      <c r="AI43" s="112"/>
-      <c r="AJ43" s="116" t="s">
+      <c r="E43" s="123"/>
+      <c r="F43" s="123"/>
+      <c r="G43" s="123"/>
+      <c r="H43" s="123"/>
+      <c r="I43" s="123"/>
+      <c r="J43" s="123"/>
+      <c r="K43" s="123"/>
+      <c r="L43" s="123"/>
+      <c r="M43" s="123"/>
+      <c r="N43" s="123"/>
+      <c r="O43" s="123"/>
+      <c r="P43" s="123"/>
+      <c r="Q43" s="123"/>
+      <c r="R43" s="123"/>
+      <c r="S43" s="123"/>
+      <c r="T43" s="123"/>
+      <c r="U43" s="123"/>
+      <c r="V43" s="123"/>
+      <c r="W43" s="123"/>
+      <c r="X43" s="123"/>
+      <c r="Y43" s="123"/>
+      <c r="Z43" s="123"/>
+      <c r="AA43" s="124"/>
+      <c r="AB43" s="113"/>
+      <c r="AC43" s="114"/>
+      <c r="AD43" s="114"/>
+      <c r="AE43" s="114"/>
+      <c r="AF43" s="114"/>
+      <c r="AG43" s="114"/>
+      <c r="AH43" s="114"/>
+      <c r="AI43" s="115"/>
+      <c r="AJ43" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="AK43" s="119"/>
-      <c r="AL43" s="119"/>
-      <c r="AM43" s="119"/>
-      <c r="AN43" s="119"/>
-      <c r="AO43" s="119"/>
-      <c r="AP43" s="119"/>
-      <c r="AQ43" s="119"/>
-      <c r="AR43" s="119"/>
-      <c r="AS43" s="119"/>
-      <c r="AT43" s="119"/>
-      <c r="AU43" s="119"/>
-      <c r="AV43" s="119"/>
-      <c r="AW43" s="119"/>
-      <c r="AX43" s="119"/>
-      <c r="AY43" s="119"/>
-      <c r="AZ43" s="119"/>
-      <c r="BA43" s="119"/>
-      <c r="BB43" s="119"/>
-      <c r="BC43" s="119"/>
-      <c r="BD43" s="119"/>
-      <c r="BE43" s="119"/>
-      <c r="BF43" s="119"/>
-      <c r="BG43" s="119"/>
-      <c r="BH43" s="119"/>
-      <c r="BI43" s="119"/>
-      <c r="BJ43" s="119"/>
-      <c r="BK43" s="119"/>
-      <c r="BL43" s="119"/>
-      <c r="BM43" s="119"/>
-      <c r="BN43" s="119"/>
-      <c r="BO43" s="120"/>
+      <c r="AK43" s="93"/>
+      <c r="AL43" s="93"/>
+      <c r="AM43" s="93"/>
+      <c r="AN43" s="93"/>
+      <c r="AO43" s="93"/>
+      <c r="AP43" s="93"/>
+      <c r="AQ43" s="93"/>
+      <c r="AR43" s="93"/>
+      <c r="AS43" s="93"/>
+      <c r="AT43" s="93"/>
+      <c r="AU43" s="93"/>
+      <c r="AV43" s="93"/>
+      <c r="AW43" s="93"/>
+      <c r="AX43" s="93"/>
+      <c r="AY43" s="93"/>
+      <c r="AZ43" s="93"/>
+      <c r="BA43" s="93"/>
+      <c r="BB43" s="93"/>
+      <c r="BC43" s="93"/>
+      <c r="BD43" s="93"/>
+      <c r="BE43" s="93"/>
+      <c r="BF43" s="93"/>
+      <c r="BG43" s="93"/>
+      <c r="BH43" s="93"/>
+      <c r="BI43" s="93"/>
+      <c r="BJ43" s="93"/>
+      <c r="BK43" s="93"/>
+      <c r="BL43" s="93"/>
+      <c r="BM43" s="93"/>
+      <c r="BN43" s="93"/>
+      <c r="BO43" s="94"/>
       <c r="BP43" s="17"/>
       <c r="BQ43" s="18"/>
       <c r="BR43" s="18"/>
@@ -11469,14 +11485,14 @@
       <c r="CC43" s="18"/>
       <c r="CD43" s="18"/>
       <c r="CE43" s="19"/>
-      <c r="CF43" s="110"/>
-      <c r="CG43" s="111"/>
-      <c r="CH43" s="111"/>
-      <c r="CI43" s="111"/>
-      <c r="CJ43" s="111"/>
-      <c r="CK43" s="111"/>
-      <c r="CL43" s="111"/>
-      <c r="CM43" s="112"/>
+      <c r="CF43" s="113"/>
+      <c r="CG43" s="114"/>
+      <c r="CH43" s="114"/>
+      <c r="CI43" s="114"/>
+      <c r="CJ43" s="114"/>
+      <c r="CK43" s="114"/>
+      <c r="CL43" s="114"/>
+      <c r="CM43" s="115"/>
       <c r="CN43" s="17"/>
       <c r="CO43" s="18"/>
       <c r="CP43" s="18"/>
@@ -11533,14 +11549,14 @@
       <c r="EO43" s="18"/>
       <c r="EP43" s="18"/>
       <c r="EQ43" s="19"/>
-      <c r="ER43" s="110"/>
-      <c r="ES43" s="111"/>
-      <c r="ET43" s="111"/>
-      <c r="EU43" s="111"/>
-      <c r="EV43" s="111"/>
-      <c r="EW43" s="111"/>
-      <c r="EX43" s="111"/>
-      <c r="EY43" s="112"/>
+      <c r="ER43" s="113"/>
+      <c r="ES43" s="114"/>
+      <c r="ET43" s="114"/>
+      <c r="EU43" s="114"/>
+      <c r="EV43" s="114"/>
+      <c r="EW43" s="114"/>
+      <c r="EX43" s="114"/>
+      <c r="EY43" s="115"/>
       <c r="EZ43" s="17"/>
       <c r="FA43" s="18"/>
       <c r="FB43" s="18"/>
@@ -11590,225 +11606,266 @@
       <c r="GT43" s="18"/>
       <c r="GU43" s="18"/>
       <c r="GV43" s="18"/>
-      <c r="GW43" s="96"/>
+      <c r="GW43" s="132"/>
     </row>
     <row r="44" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A44" s="97" t="s">
+      <c r="A44" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="97"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="97"/>
-      <c r="M44" s="97"/>
-      <c r="N44" s="97"/>
-      <c r="O44" s="97"/>
-      <c r="P44" s="97"/>
-      <c r="Q44" s="97"/>
-      <c r="R44" s="97"/>
-      <c r="S44" s="97"/>
-      <c r="T44" s="97"/>
-      <c r="U44" s="97"/>
-      <c r="V44" s="97"/>
-      <c r="W44" s="97"/>
-      <c r="X44" s="97"/>
-      <c r="Y44" s="97"/>
-      <c r="Z44" s="97"/>
-      <c r="AA44" s="97"/>
-      <c r="AB44" s="97"/>
-      <c r="AC44" s="97"/>
-      <c r="AD44" s="97"/>
-      <c r="AE44" s="97"/>
-      <c r="AF44" s="97"/>
-      <c r="AG44" s="97"/>
-      <c r="AH44" s="97"/>
-      <c r="AI44" s="97"/>
-      <c r="AJ44" s="97"/>
-      <c r="AK44" s="97"/>
-      <c r="AL44" s="97"/>
-      <c r="AM44" s="97"/>
-      <c r="AN44" s="97"/>
-      <c r="AO44" s="97"/>
-      <c r="AP44" s="97"/>
-      <c r="AQ44" s="97"/>
-      <c r="AR44" s="97"/>
-      <c r="AS44" s="97"/>
-      <c r="AT44" s="97"/>
-      <c r="AU44" s="97"/>
-      <c r="AV44" s="97"/>
-      <c r="AW44" s="97"/>
-      <c r="AX44" s="97"/>
-      <c r="AY44" s="97"/>
-      <c r="AZ44" s="97"/>
-      <c r="BA44" s="97"/>
-      <c r="BB44" s="97"/>
-      <c r="BC44" s="97"/>
-      <c r="BD44" s="97"/>
-      <c r="BE44" s="97"/>
-      <c r="BF44" s="97"/>
-      <c r="BG44" s="97"/>
-      <c r="BH44" s="97"/>
-      <c r="BI44" s="97"/>
-      <c r="BJ44" s="97"/>
-      <c r="BK44" s="97"/>
-      <c r="BL44" s="97"/>
-      <c r="BM44" s="97"/>
-      <c r="BN44" s="97"/>
-      <c r="BO44" s="97"/>
-      <c r="BP44" s="97"/>
-      <c r="BQ44" s="97"/>
-      <c r="BR44" s="97"/>
-      <c r="BS44" s="97"/>
-      <c r="BT44" s="97"/>
-      <c r="BU44" s="97"/>
-      <c r="BV44" s="97"/>
-      <c r="BW44" s="97"/>
-      <c r="BX44" s="97"/>
-      <c r="BY44" s="97"/>
-      <c r="BZ44" s="97"/>
-      <c r="CA44" s="97"/>
-      <c r="CB44" s="97"/>
-      <c r="CC44" s="97"/>
-      <c r="CD44" s="97"/>
-      <c r="CE44" s="97"/>
-      <c r="CF44" s="97"/>
-      <c r="CG44" s="97"/>
-      <c r="CH44" s="97"/>
-      <c r="CI44" s="97"/>
-      <c r="CJ44" s="97"/>
-      <c r="CK44" s="97"/>
-      <c r="CL44" s="97"/>
-      <c r="CM44" s="97"/>
-      <c r="CN44" s="97"/>
-      <c r="CO44" s="97"/>
-      <c r="CP44" s="97"/>
-      <c r="CQ44" s="97"/>
-      <c r="CR44" s="97"/>
-      <c r="CS44" s="97"/>
-      <c r="CT44" s="97"/>
-      <c r="CU44" s="97"/>
-      <c r="CV44" s="97"/>
-      <c r="CW44" s="97"/>
-      <c r="CX44" s="97"/>
-      <c r="CY44" s="97"/>
-      <c r="CZ44" s="97"/>
-      <c r="DA44" s="97"/>
-      <c r="DB44" s="97"/>
-      <c r="DC44" s="97"/>
-      <c r="DD44" s="97"/>
-      <c r="DE44" s="97"/>
-      <c r="DF44" s="97"/>
-      <c r="DG44" s="97"/>
-      <c r="DH44" s="97"/>
-      <c r="DI44" s="97"/>
-      <c r="DJ44" s="97"/>
-      <c r="DK44" s="97"/>
-      <c r="DL44" s="97"/>
-      <c r="DM44" s="97"/>
-      <c r="DN44" s="97"/>
-      <c r="DO44" s="97"/>
-      <c r="DP44" s="97"/>
-      <c r="DQ44" s="97"/>
-      <c r="DR44" s="97"/>
-      <c r="DS44" s="97"/>
-      <c r="DT44" s="97"/>
-      <c r="DU44" s="97"/>
-      <c r="DV44" s="97"/>
-      <c r="DW44" s="97"/>
-      <c r="DX44" s="97"/>
-      <c r="DY44" s="97"/>
-      <c r="DZ44" s="97"/>
-      <c r="EA44" s="97"/>
-      <c r="EB44" s="97"/>
-      <c r="EC44" s="97"/>
-      <c r="ED44" s="97"/>
-      <c r="EE44" s="97"/>
-      <c r="EF44" s="97"/>
-      <c r="EG44" s="97"/>
-      <c r="EH44" s="97"/>
-      <c r="EI44" s="97"/>
-      <c r="EJ44" s="97"/>
-      <c r="EK44" s="97"/>
-      <c r="EL44" s="97"/>
-      <c r="EM44" s="97"/>
-      <c r="EN44" s="97"/>
-      <c r="EO44" s="97"/>
-      <c r="EP44" s="97"/>
-      <c r="EQ44" s="97"/>
-      <c r="ER44" s="97"/>
-      <c r="ES44" s="97"/>
-      <c r="ET44" s="97"/>
-      <c r="EU44" s="97"/>
-      <c r="EV44" s="97"/>
-      <c r="EW44" s="97"/>
-      <c r="EX44" s="97"/>
-      <c r="EY44" s="97"/>
-      <c r="EZ44" s="97"/>
-      <c r="FA44" s="97"/>
-      <c r="FB44" s="97"/>
-      <c r="FC44" s="97"/>
-      <c r="FD44" s="97"/>
-      <c r="FE44" s="97"/>
-      <c r="FF44" s="97"/>
-      <c r="FG44" s="97"/>
-      <c r="FH44" s="97"/>
-      <c r="FI44" s="97"/>
-      <c r="FJ44" s="97"/>
-      <c r="FK44" s="97"/>
-      <c r="FL44" s="97"/>
-      <c r="FM44" s="97"/>
-      <c r="FN44" s="97"/>
-      <c r="FO44" s="97"/>
-      <c r="FP44" s="97"/>
-      <c r="FQ44" s="97"/>
-      <c r="FR44" s="97"/>
-      <c r="FS44" s="97"/>
-      <c r="FT44" s="97"/>
-      <c r="FU44" s="97"/>
-      <c r="FV44" s="97"/>
-      <c r="FW44" s="97"/>
-      <c r="FX44" s="97"/>
-      <c r="FY44" s="97"/>
-      <c r="FZ44" s="97"/>
-      <c r="GA44" s="97"/>
-      <c r="GB44" s="97"/>
-      <c r="GC44" s="97"/>
-      <c r="GD44" s="97"/>
-      <c r="GE44" s="97"/>
-      <c r="GF44" s="97"/>
-      <c r="GG44" s="97"/>
-      <c r="GH44" s="97"/>
-      <c r="GI44" s="97"/>
-      <c r="GJ44" s="97"/>
-      <c r="GK44" s="97"/>
-      <c r="GL44" s="97"/>
-      <c r="GM44" s="97"/>
-      <c r="GN44" s="97"/>
-      <c r="GO44" s="97"/>
-      <c r="GP44" s="97"/>
-      <c r="GQ44" s="97"/>
-      <c r="GR44" s="97"/>
-      <c r="GS44" s="97"/>
-      <c r="GT44" s="97"/>
-      <c r="GU44" s="97"/>
-      <c r="GV44" s="97"/>
+      <c r="B44" s="125"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="125"/>
+      <c r="K44" s="125"/>
+      <c r="L44" s="125"/>
+      <c r="M44" s="125"/>
+      <c r="N44" s="125"/>
+      <c r="O44" s="125"/>
+      <c r="P44" s="125"/>
+      <c r="Q44" s="125"/>
+      <c r="R44" s="125"/>
+      <c r="S44" s="125"/>
+      <c r="T44" s="125"/>
+      <c r="U44" s="125"/>
+      <c r="V44" s="125"/>
+      <c r="W44" s="125"/>
+      <c r="X44" s="125"/>
+      <c r="Y44" s="125"/>
+      <c r="Z44" s="125"/>
+      <c r="AA44" s="125"/>
+      <c r="AB44" s="125"/>
+      <c r="AC44" s="125"/>
+      <c r="AD44" s="125"/>
+      <c r="AE44" s="125"/>
+      <c r="AF44" s="125"/>
+      <c r="AG44" s="125"/>
+      <c r="AH44" s="125"/>
+      <c r="AI44" s="125"/>
+      <c r="AJ44" s="125"/>
+      <c r="AK44" s="125"/>
+      <c r="AL44" s="125"/>
+      <c r="AM44" s="125"/>
+      <c r="AN44" s="125"/>
+      <c r="AO44" s="125"/>
+      <c r="AP44" s="125"/>
+      <c r="AQ44" s="125"/>
+      <c r="AR44" s="125"/>
+      <c r="AS44" s="125"/>
+      <c r="AT44" s="125"/>
+      <c r="AU44" s="125"/>
+      <c r="AV44" s="125"/>
+      <c r="AW44" s="125"/>
+      <c r="AX44" s="125"/>
+      <c r="AY44" s="125"/>
+      <c r="AZ44" s="125"/>
+      <c r="BA44" s="125"/>
+      <c r="BB44" s="125"/>
+      <c r="BC44" s="125"/>
+      <c r="BD44" s="125"/>
+      <c r="BE44" s="125"/>
+      <c r="BF44" s="125"/>
+      <c r="BG44" s="125"/>
+      <c r="BH44" s="125"/>
+      <c r="BI44" s="125"/>
+      <c r="BJ44" s="125"/>
+      <c r="BK44" s="125"/>
+      <c r="BL44" s="125"/>
+      <c r="BM44" s="125"/>
+      <c r="BN44" s="125"/>
+      <c r="BO44" s="125"/>
+      <c r="BP44" s="125"/>
+      <c r="BQ44" s="125"/>
+      <c r="BR44" s="125"/>
+      <c r="BS44" s="125"/>
+      <c r="BT44" s="125"/>
+      <c r="BU44" s="125"/>
+      <c r="BV44" s="125"/>
+      <c r="BW44" s="125"/>
+      <c r="BX44" s="125"/>
+      <c r="BY44" s="125"/>
+      <c r="BZ44" s="125"/>
+      <c r="CA44" s="125"/>
+      <c r="CB44" s="125"/>
+      <c r="CC44" s="125"/>
+      <c r="CD44" s="125"/>
+      <c r="CE44" s="125"/>
+      <c r="CF44" s="125"/>
+      <c r="CG44" s="125"/>
+      <c r="CH44" s="125"/>
+      <c r="CI44" s="125"/>
+      <c r="CJ44" s="125"/>
+      <c r="CK44" s="125"/>
+      <c r="CL44" s="125"/>
+      <c r="CM44" s="125"/>
+      <c r="CN44" s="125"/>
+      <c r="CO44" s="125"/>
+      <c r="CP44" s="125"/>
+      <c r="CQ44" s="125"/>
+      <c r="CR44" s="125"/>
+      <c r="CS44" s="125"/>
+      <c r="CT44" s="125"/>
+      <c r="CU44" s="125"/>
+      <c r="CV44" s="125"/>
+      <c r="CW44" s="125"/>
+      <c r="CX44" s="125"/>
+      <c r="CY44" s="125"/>
+      <c r="CZ44" s="125"/>
+      <c r="DA44" s="125"/>
+      <c r="DB44" s="125"/>
+      <c r="DC44" s="125"/>
+      <c r="DD44" s="125"/>
+      <c r="DE44" s="125"/>
+      <c r="DF44" s="125"/>
+      <c r="DG44" s="125"/>
+      <c r="DH44" s="125"/>
+      <c r="DI44" s="125"/>
+      <c r="DJ44" s="125"/>
+      <c r="DK44" s="125"/>
+      <c r="DL44" s="125"/>
+      <c r="DM44" s="125"/>
+      <c r="DN44" s="125"/>
+      <c r="DO44" s="125"/>
+      <c r="DP44" s="125"/>
+      <c r="DQ44" s="125"/>
+      <c r="DR44" s="125"/>
+      <c r="DS44" s="125"/>
+      <c r="DT44" s="125"/>
+      <c r="DU44" s="125"/>
+      <c r="DV44" s="125"/>
+      <c r="DW44" s="125"/>
+      <c r="DX44" s="125"/>
+      <c r="DY44" s="125"/>
+      <c r="DZ44" s="125"/>
+      <c r="EA44" s="125"/>
+      <c r="EB44" s="125"/>
+      <c r="EC44" s="125"/>
+      <c r="ED44" s="125"/>
+      <c r="EE44" s="125"/>
+      <c r="EF44" s="125"/>
+      <c r="EG44" s="125"/>
+      <c r="EH44" s="125"/>
+      <c r="EI44" s="125"/>
+      <c r="EJ44" s="125"/>
+      <c r="EK44" s="125"/>
+      <c r="EL44" s="125"/>
+      <c r="EM44" s="125"/>
+      <c r="EN44" s="125"/>
+      <c r="EO44" s="125"/>
+      <c r="EP44" s="125"/>
+      <c r="EQ44" s="125"/>
+      <c r="ER44" s="125"/>
+      <c r="ES44" s="125"/>
+      <c r="ET44" s="125"/>
+      <c r="EU44" s="125"/>
+      <c r="EV44" s="125"/>
+      <c r="EW44" s="125"/>
+      <c r="EX44" s="125"/>
+      <c r="EY44" s="125"/>
+      <c r="EZ44" s="125"/>
+      <c r="FA44" s="125"/>
+      <c r="FB44" s="125"/>
+      <c r="FC44" s="125"/>
+      <c r="FD44" s="125"/>
+      <c r="FE44" s="125"/>
+      <c r="FF44" s="125"/>
+      <c r="FG44" s="125"/>
+      <c r="FH44" s="125"/>
+      <c r="FI44" s="125"/>
+      <c r="FJ44" s="125"/>
+      <c r="FK44" s="125"/>
+      <c r="FL44" s="125"/>
+      <c r="FM44" s="125"/>
+      <c r="FN44" s="125"/>
+      <c r="FO44" s="125"/>
+      <c r="FP44" s="125"/>
+      <c r="FQ44" s="125"/>
+      <c r="FR44" s="125"/>
+      <c r="FS44" s="125"/>
+      <c r="FT44" s="125"/>
+      <c r="FU44" s="125"/>
+      <c r="FV44" s="125"/>
+      <c r="FW44" s="125"/>
+      <c r="FX44" s="125"/>
+      <c r="FY44" s="125"/>
+      <c r="FZ44" s="125"/>
+      <c r="GA44" s="125"/>
+      <c r="GB44" s="125"/>
+      <c r="GC44" s="125"/>
+      <c r="GD44" s="125"/>
+      <c r="GE44" s="125"/>
+      <c r="GF44" s="125"/>
+      <c r="GG44" s="125"/>
+      <c r="GH44" s="125"/>
+      <c r="GI44" s="125"/>
+      <c r="GJ44" s="125"/>
+      <c r="GK44" s="125"/>
+      <c r="GL44" s="125"/>
+      <c r="GM44" s="125"/>
+      <c r="GN44" s="125"/>
+      <c r="GO44" s="125"/>
+      <c r="GP44" s="125"/>
+      <c r="GQ44" s="125"/>
+      <c r="GR44" s="125"/>
+      <c r="GS44" s="125"/>
+      <c r="GT44" s="125"/>
+      <c r="GU44" s="125"/>
+      <c r="GV44" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="AJ43:BO43"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="FH4:FK4"/>
+    <mergeCell ref="DT4:DW4"/>
+    <mergeCell ref="DX4:EA4"/>
+    <mergeCell ref="EB4:EE4"/>
+    <mergeCell ref="EF4:EI4"/>
+    <mergeCell ref="EV4:EY4"/>
+    <mergeCell ref="EZ4:FC4"/>
+    <mergeCell ref="EN4:EQ4"/>
+    <mergeCell ref="ER4:EU4"/>
+    <mergeCell ref="FT4:FW4"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="BP4:BS4"/>
+    <mergeCell ref="BX4:CA4"/>
+    <mergeCell ref="CB4:CE4"/>
+    <mergeCell ref="CF4:CI4"/>
+    <mergeCell ref="FD4:FG4"/>
+    <mergeCell ref="CJ4:CM4"/>
+    <mergeCell ref="CN4:CQ4"/>
+    <mergeCell ref="CZ4:DC4"/>
+    <mergeCell ref="CV4:CY4"/>
+    <mergeCell ref="FL4:FO4"/>
+    <mergeCell ref="FP4:FS4"/>
+    <mergeCell ref="GW4:GW43"/>
+    <mergeCell ref="FX4:GA4"/>
+    <mergeCell ref="GB4:GE4"/>
+    <mergeCell ref="GF4:GI4"/>
+    <mergeCell ref="GJ4:GM4"/>
+    <mergeCell ref="GO4:GR4"/>
+    <mergeCell ref="GS4:GV4"/>
+    <mergeCell ref="A44:GV44"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="DT2:FG3"/>
+    <mergeCell ref="FH2:GV3"/>
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="AR2:CE3"/>
+    <mergeCell ref="CF2:DS3"/>
+    <mergeCell ref="CR4:CU4"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="EJ4:EM4"/>
+    <mergeCell ref="DL4:DO4"/>
+    <mergeCell ref="DP4:DS4"/>
     <mergeCell ref="ER6:EY43"/>
     <mergeCell ref="AB6:AI43"/>
     <mergeCell ref="CF6:CM43"/>
@@ -11825,56 +11882,15 @@
     <mergeCell ref="DD4:DG4"/>
     <mergeCell ref="DH4:DK4"/>
     <mergeCell ref="D43:AA43"/>
-    <mergeCell ref="A44:GV44"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="DT2:FG3"/>
-    <mergeCell ref="FH2:GV3"/>
-    <mergeCell ref="D2:AQ3"/>
-    <mergeCell ref="AR2:CE3"/>
-    <mergeCell ref="CF2:DS3"/>
-    <mergeCell ref="CR4:CU4"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="EJ4:EM4"/>
-    <mergeCell ref="DL4:DO4"/>
-    <mergeCell ref="DP4:DS4"/>
-    <mergeCell ref="GW4:GW43"/>
-    <mergeCell ref="FX4:GA4"/>
-    <mergeCell ref="GB4:GE4"/>
-    <mergeCell ref="GF4:GI4"/>
-    <mergeCell ref="GJ4:GM4"/>
-    <mergeCell ref="GO4:GR4"/>
-    <mergeCell ref="GS4:GV4"/>
-    <mergeCell ref="FT4:FW4"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="BP4:BS4"/>
-    <mergeCell ref="BX4:CA4"/>
-    <mergeCell ref="CB4:CE4"/>
-    <mergeCell ref="CF4:CI4"/>
-    <mergeCell ref="FD4:FG4"/>
-    <mergeCell ref="CJ4:CM4"/>
-    <mergeCell ref="CN4:CQ4"/>
-    <mergeCell ref="CZ4:DC4"/>
-    <mergeCell ref="CV4:CY4"/>
-    <mergeCell ref="FL4:FO4"/>
-    <mergeCell ref="FP4:FS4"/>
-    <mergeCell ref="FH4:FK4"/>
-    <mergeCell ref="DT4:DW4"/>
-    <mergeCell ref="DX4:EA4"/>
-    <mergeCell ref="EB4:EE4"/>
-    <mergeCell ref="EF4:EI4"/>
-    <mergeCell ref="EV4:EY4"/>
-    <mergeCell ref="EZ4:FC4"/>
-    <mergeCell ref="EN4:EQ4"/>
-    <mergeCell ref="ER4:EU4"/>
+    <mergeCell ref="AJ43:BO43"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6 B8:B9 B11:B13 B15:B19 B21:B38 B40 B42:B43">
+  <conditionalFormatting sqref="B6 B8:B9 B11:B13 B15:B19 B40 B42:B43 B21:B38">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",B6)))</formula>
     </cfRule>

--- a/docs/2_CAND_Modele_Planning_2024.xlsx
+++ b/docs/2_CAND_Modele_Planning_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA42989F-3884-4E76-9E1D-BDE5833C59E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C5823D-7DAB-4E9D-88F0-960BAE0E98C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="60">
   <si>
     <t>Tâches</t>
   </si>
@@ -1427,10 +1427,114 @@
       <alignment horizontal="left" indent="2"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1485,110 +1589,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2081,10 +2081,10 @@
   <dimension ref="A1:GW44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="CO8" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="CO6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="ER6" sqref="ER6:EY43"/>
+      <selection pane="bottomRight" activeCell="EJ28" sqref="EJ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2099,11 +2099,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:205" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2149,427 +2149,427 @@
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="117">
+      <c r="B2" s="114">
         <v>148477</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="128" t="s">
+      <c r="C2" s="115"/>
+      <c r="D2" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="128"/>
-      <c r="AH2" s="128"/>
-      <c r="AI2" s="128"/>
-      <c r="AJ2" s="128"/>
-      <c r="AK2" s="128"/>
-      <c r="AL2" s="128"/>
-      <c r="AM2" s="128"/>
-      <c r="AN2" s="128"/>
-      <c r="AO2" s="128"/>
-      <c r="AP2" s="128"/>
-      <c r="AQ2" s="128"/>
-      <c r="AR2" s="128" t="s">
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100"/>
+      <c r="AK2" s="100"/>
+      <c r="AL2" s="100"/>
+      <c r="AM2" s="100"/>
+      <c r="AN2" s="100"/>
+      <c r="AO2" s="100"/>
+      <c r="AP2" s="100"/>
+      <c r="AQ2" s="100"/>
+      <c r="AR2" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="128"/>
-      <c r="AT2" s="128"/>
-      <c r="AU2" s="128"/>
-      <c r="AV2" s="128"/>
-      <c r="AW2" s="128"/>
-      <c r="AX2" s="128"/>
-      <c r="AY2" s="128"/>
-      <c r="AZ2" s="128"/>
-      <c r="BA2" s="128"/>
-      <c r="BB2" s="128"/>
-      <c r="BC2" s="128"/>
-      <c r="BD2" s="128"/>
-      <c r="BE2" s="128"/>
-      <c r="BF2" s="128"/>
-      <c r="BG2" s="128"/>
-      <c r="BH2" s="128"/>
-      <c r="BI2" s="128"/>
-      <c r="BJ2" s="128"/>
-      <c r="BK2" s="128"/>
-      <c r="BL2" s="128"/>
-      <c r="BM2" s="128"/>
-      <c r="BN2" s="128"/>
-      <c r="BO2" s="128"/>
-      <c r="BP2" s="128"/>
-      <c r="BQ2" s="128"/>
-      <c r="BR2" s="128"/>
-      <c r="BS2" s="128"/>
-      <c r="BT2" s="128"/>
-      <c r="BU2" s="128"/>
-      <c r="BV2" s="128"/>
-      <c r="BW2" s="128"/>
-      <c r="BX2" s="128"/>
-      <c r="BY2" s="128"/>
-      <c r="BZ2" s="128"/>
-      <c r="CA2" s="128"/>
-      <c r="CB2" s="128"/>
-      <c r="CC2" s="128"/>
-      <c r="CD2" s="128"/>
-      <c r="CE2" s="128"/>
-      <c r="CF2" s="128" t="s">
+      <c r="AS2" s="100"/>
+      <c r="AT2" s="100"/>
+      <c r="AU2" s="100"/>
+      <c r="AV2" s="100"/>
+      <c r="AW2" s="100"/>
+      <c r="AX2" s="100"/>
+      <c r="AY2" s="100"/>
+      <c r="AZ2" s="100"/>
+      <c r="BA2" s="100"/>
+      <c r="BB2" s="100"/>
+      <c r="BC2" s="100"/>
+      <c r="BD2" s="100"/>
+      <c r="BE2" s="100"/>
+      <c r="BF2" s="100"/>
+      <c r="BG2" s="100"/>
+      <c r="BH2" s="100"/>
+      <c r="BI2" s="100"/>
+      <c r="BJ2" s="100"/>
+      <c r="BK2" s="100"/>
+      <c r="BL2" s="100"/>
+      <c r="BM2" s="100"/>
+      <c r="BN2" s="100"/>
+      <c r="BO2" s="100"/>
+      <c r="BP2" s="100"/>
+      <c r="BQ2" s="100"/>
+      <c r="BR2" s="100"/>
+      <c r="BS2" s="100"/>
+      <c r="BT2" s="100"/>
+      <c r="BU2" s="100"/>
+      <c r="BV2" s="100"/>
+      <c r="BW2" s="100"/>
+      <c r="BX2" s="100"/>
+      <c r="BY2" s="100"/>
+      <c r="BZ2" s="100"/>
+      <c r="CA2" s="100"/>
+      <c r="CB2" s="100"/>
+      <c r="CC2" s="100"/>
+      <c r="CD2" s="100"/>
+      <c r="CE2" s="100"/>
+      <c r="CF2" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="CG2" s="128"/>
-      <c r="CH2" s="128"/>
-      <c r="CI2" s="128"/>
-      <c r="CJ2" s="128"/>
-      <c r="CK2" s="128"/>
-      <c r="CL2" s="128"/>
-      <c r="CM2" s="128"/>
-      <c r="CN2" s="128"/>
-      <c r="CO2" s="128"/>
-      <c r="CP2" s="128"/>
-      <c r="CQ2" s="128"/>
-      <c r="CR2" s="128"/>
-      <c r="CS2" s="128"/>
-      <c r="CT2" s="128"/>
-      <c r="CU2" s="128"/>
-      <c r="CV2" s="128"/>
-      <c r="CW2" s="128"/>
-      <c r="CX2" s="128"/>
-      <c r="CY2" s="128"/>
-      <c r="CZ2" s="128"/>
-      <c r="DA2" s="128"/>
-      <c r="DB2" s="128"/>
-      <c r="DC2" s="128"/>
-      <c r="DD2" s="128"/>
-      <c r="DE2" s="128"/>
-      <c r="DF2" s="128"/>
-      <c r="DG2" s="128"/>
-      <c r="DH2" s="128"/>
-      <c r="DI2" s="128"/>
-      <c r="DJ2" s="128"/>
-      <c r="DK2" s="128"/>
-      <c r="DL2" s="128"/>
-      <c r="DM2" s="128"/>
-      <c r="DN2" s="128"/>
-      <c r="DO2" s="128"/>
-      <c r="DP2" s="128"/>
-      <c r="DQ2" s="128"/>
-      <c r="DR2" s="128"/>
-      <c r="DS2" s="128"/>
-      <c r="DT2" s="128" t="s">
+      <c r="CG2" s="100"/>
+      <c r="CH2" s="100"/>
+      <c r="CI2" s="100"/>
+      <c r="CJ2" s="100"/>
+      <c r="CK2" s="100"/>
+      <c r="CL2" s="100"/>
+      <c r="CM2" s="100"/>
+      <c r="CN2" s="100"/>
+      <c r="CO2" s="100"/>
+      <c r="CP2" s="100"/>
+      <c r="CQ2" s="100"/>
+      <c r="CR2" s="100"/>
+      <c r="CS2" s="100"/>
+      <c r="CT2" s="100"/>
+      <c r="CU2" s="100"/>
+      <c r="CV2" s="100"/>
+      <c r="CW2" s="100"/>
+      <c r="CX2" s="100"/>
+      <c r="CY2" s="100"/>
+      <c r="CZ2" s="100"/>
+      <c r="DA2" s="100"/>
+      <c r="DB2" s="100"/>
+      <c r="DC2" s="100"/>
+      <c r="DD2" s="100"/>
+      <c r="DE2" s="100"/>
+      <c r="DF2" s="100"/>
+      <c r="DG2" s="100"/>
+      <c r="DH2" s="100"/>
+      <c r="DI2" s="100"/>
+      <c r="DJ2" s="100"/>
+      <c r="DK2" s="100"/>
+      <c r="DL2" s="100"/>
+      <c r="DM2" s="100"/>
+      <c r="DN2" s="100"/>
+      <c r="DO2" s="100"/>
+      <c r="DP2" s="100"/>
+      <c r="DQ2" s="100"/>
+      <c r="DR2" s="100"/>
+      <c r="DS2" s="100"/>
+      <c r="DT2" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="DU2" s="128"/>
-      <c r="DV2" s="128"/>
-      <c r="DW2" s="128"/>
-      <c r="DX2" s="128"/>
-      <c r="DY2" s="128"/>
-      <c r="DZ2" s="128"/>
-      <c r="EA2" s="128"/>
-      <c r="EB2" s="128"/>
-      <c r="EC2" s="128"/>
-      <c r="ED2" s="128"/>
-      <c r="EE2" s="128"/>
-      <c r="EF2" s="128"/>
-      <c r="EG2" s="128"/>
-      <c r="EH2" s="128"/>
-      <c r="EI2" s="128"/>
-      <c r="EJ2" s="128"/>
-      <c r="EK2" s="128"/>
-      <c r="EL2" s="128"/>
-      <c r="EM2" s="128"/>
-      <c r="EN2" s="128"/>
-      <c r="EO2" s="128"/>
-      <c r="EP2" s="128"/>
-      <c r="EQ2" s="128"/>
-      <c r="ER2" s="128"/>
-      <c r="ES2" s="128"/>
-      <c r="ET2" s="128"/>
-      <c r="EU2" s="128"/>
-      <c r="EV2" s="128"/>
-      <c r="EW2" s="128"/>
-      <c r="EX2" s="128"/>
-      <c r="EY2" s="128"/>
-      <c r="EZ2" s="128"/>
-      <c r="FA2" s="128"/>
-      <c r="FB2" s="128"/>
-      <c r="FC2" s="128"/>
-      <c r="FD2" s="128"/>
-      <c r="FE2" s="128"/>
-      <c r="FF2" s="128"/>
-      <c r="FG2" s="128"/>
-      <c r="FH2" s="128" t="s">
+      <c r="DU2" s="100"/>
+      <c r="DV2" s="100"/>
+      <c r="DW2" s="100"/>
+      <c r="DX2" s="100"/>
+      <c r="DY2" s="100"/>
+      <c r="DZ2" s="100"/>
+      <c r="EA2" s="100"/>
+      <c r="EB2" s="100"/>
+      <c r="EC2" s="100"/>
+      <c r="ED2" s="100"/>
+      <c r="EE2" s="100"/>
+      <c r="EF2" s="100"/>
+      <c r="EG2" s="100"/>
+      <c r="EH2" s="100"/>
+      <c r="EI2" s="100"/>
+      <c r="EJ2" s="100"/>
+      <c r="EK2" s="100"/>
+      <c r="EL2" s="100"/>
+      <c r="EM2" s="100"/>
+      <c r="EN2" s="100"/>
+      <c r="EO2" s="100"/>
+      <c r="EP2" s="100"/>
+      <c r="EQ2" s="100"/>
+      <c r="ER2" s="100"/>
+      <c r="ES2" s="100"/>
+      <c r="ET2" s="100"/>
+      <c r="EU2" s="100"/>
+      <c r="EV2" s="100"/>
+      <c r="EW2" s="100"/>
+      <c r="EX2" s="100"/>
+      <c r="EY2" s="100"/>
+      <c r="EZ2" s="100"/>
+      <c r="FA2" s="100"/>
+      <c r="FB2" s="100"/>
+      <c r="FC2" s="100"/>
+      <c r="FD2" s="100"/>
+      <c r="FE2" s="100"/>
+      <c r="FF2" s="100"/>
+      <c r="FG2" s="100"/>
+      <c r="FH2" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="FI2" s="128"/>
-      <c r="FJ2" s="128"/>
-      <c r="FK2" s="128"/>
-      <c r="FL2" s="128"/>
-      <c r="FM2" s="128"/>
-      <c r="FN2" s="128"/>
-      <c r="FO2" s="128"/>
-      <c r="FP2" s="128"/>
-      <c r="FQ2" s="128"/>
-      <c r="FR2" s="128"/>
-      <c r="FS2" s="128"/>
-      <c r="FT2" s="128"/>
-      <c r="FU2" s="128"/>
-      <c r="FV2" s="128"/>
-      <c r="FW2" s="128"/>
-      <c r="FX2" s="128"/>
-      <c r="FY2" s="128"/>
-      <c r="FZ2" s="128"/>
-      <c r="GA2" s="128"/>
-      <c r="GB2" s="128"/>
-      <c r="GC2" s="128"/>
-      <c r="GD2" s="128"/>
-      <c r="GE2" s="128"/>
-      <c r="GF2" s="128"/>
-      <c r="GG2" s="128"/>
-      <c r="GH2" s="128"/>
-      <c r="GI2" s="128"/>
-      <c r="GJ2" s="128"/>
-      <c r="GK2" s="128"/>
-      <c r="GL2" s="128"/>
-      <c r="GM2" s="128"/>
-      <c r="GN2" s="128"/>
-      <c r="GO2" s="128"/>
-      <c r="GP2" s="128"/>
-      <c r="GQ2" s="128"/>
-      <c r="GR2" s="128"/>
-      <c r="GS2" s="128"/>
-      <c r="GT2" s="128"/>
-      <c r="GU2" s="128"/>
-      <c r="GV2" s="128"/>
+      <c r="FI2" s="100"/>
+      <c r="FJ2" s="100"/>
+      <c r="FK2" s="100"/>
+      <c r="FL2" s="100"/>
+      <c r="FM2" s="100"/>
+      <c r="FN2" s="100"/>
+      <c r="FO2" s="100"/>
+      <c r="FP2" s="100"/>
+      <c r="FQ2" s="100"/>
+      <c r="FR2" s="100"/>
+      <c r="FS2" s="100"/>
+      <c r="FT2" s="100"/>
+      <c r="FU2" s="100"/>
+      <c r="FV2" s="100"/>
+      <c r="FW2" s="100"/>
+      <c r="FX2" s="100"/>
+      <c r="FY2" s="100"/>
+      <c r="FZ2" s="100"/>
+      <c r="GA2" s="100"/>
+      <c r="GB2" s="100"/>
+      <c r="GC2" s="100"/>
+      <c r="GD2" s="100"/>
+      <c r="GE2" s="100"/>
+      <c r="GF2" s="100"/>
+      <c r="GG2" s="100"/>
+      <c r="GH2" s="100"/>
+      <c r="GI2" s="100"/>
+      <c r="GJ2" s="100"/>
+      <c r="GK2" s="100"/>
+      <c r="GL2" s="100"/>
+      <c r="GM2" s="100"/>
+      <c r="GN2" s="100"/>
+      <c r="GO2" s="100"/>
+      <c r="GP2" s="100"/>
+      <c r="GQ2" s="100"/>
+      <c r="GR2" s="100"/>
+      <c r="GS2" s="100"/>
+      <c r="GT2" s="100"/>
+      <c r="GU2" s="100"/>
+      <c r="GV2" s="100"/>
     </row>
     <row r="3" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="129"/>
-      <c r="S3" s="129"/>
-      <c r="T3" s="129"/>
-      <c r="U3" s="129"/>
-      <c r="V3" s="129"/>
-      <c r="W3" s="129"/>
-      <c r="X3" s="129"/>
-      <c r="Y3" s="129"/>
-      <c r="Z3" s="129"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="129"/>
-      <c r="AG3" s="129"/>
-      <c r="AH3" s="129"/>
-      <c r="AI3" s="129"/>
-      <c r="AJ3" s="129"/>
-      <c r="AK3" s="129"/>
-      <c r="AL3" s="129"/>
-      <c r="AM3" s="129"/>
-      <c r="AN3" s="129"/>
-      <c r="AO3" s="129"/>
-      <c r="AP3" s="129"/>
-      <c r="AQ3" s="129"/>
-      <c r="AR3" s="129"/>
-      <c r="AS3" s="129"/>
-      <c r="AT3" s="129"/>
-      <c r="AU3" s="129"/>
-      <c r="AV3" s="129"/>
-      <c r="AW3" s="129"/>
-      <c r="AX3" s="129"/>
-      <c r="AY3" s="129"/>
-      <c r="AZ3" s="129"/>
-      <c r="BA3" s="129"/>
-      <c r="BB3" s="129"/>
-      <c r="BC3" s="129"/>
-      <c r="BD3" s="129"/>
-      <c r="BE3" s="129"/>
-      <c r="BF3" s="129"/>
-      <c r="BG3" s="129"/>
-      <c r="BH3" s="129"/>
-      <c r="BI3" s="129"/>
-      <c r="BJ3" s="129"/>
-      <c r="BK3" s="129"/>
-      <c r="BL3" s="129"/>
-      <c r="BM3" s="129"/>
-      <c r="BN3" s="129"/>
-      <c r="BO3" s="129"/>
-      <c r="BP3" s="129"/>
-      <c r="BQ3" s="129"/>
-      <c r="BR3" s="129"/>
-      <c r="BS3" s="129"/>
-      <c r="BT3" s="129"/>
-      <c r="BU3" s="129"/>
-      <c r="BV3" s="129"/>
-      <c r="BW3" s="129"/>
-      <c r="BX3" s="129"/>
-      <c r="BY3" s="129"/>
-      <c r="BZ3" s="129"/>
-      <c r="CA3" s="129"/>
-      <c r="CB3" s="129"/>
-      <c r="CC3" s="129"/>
-      <c r="CD3" s="129"/>
-      <c r="CE3" s="129"/>
-      <c r="CF3" s="129"/>
-      <c r="CG3" s="129"/>
-      <c r="CH3" s="129"/>
-      <c r="CI3" s="129"/>
-      <c r="CJ3" s="129"/>
-      <c r="CK3" s="129"/>
-      <c r="CL3" s="129"/>
-      <c r="CM3" s="129"/>
-      <c r="CN3" s="129"/>
-      <c r="CO3" s="129"/>
-      <c r="CP3" s="129"/>
-      <c r="CQ3" s="129"/>
-      <c r="CR3" s="129"/>
-      <c r="CS3" s="129"/>
-      <c r="CT3" s="129"/>
-      <c r="CU3" s="129"/>
-      <c r="CV3" s="129"/>
-      <c r="CW3" s="129"/>
-      <c r="CX3" s="129"/>
-      <c r="CY3" s="129"/>
-      <c r="CZ3" s="129"/>
-      <c r="DA3" s="129"/>
-      <c r="DB3" s="129"/>
-      <c r="DC3" s="129"/>
-      <c r="DD3" s="129"/>
-      <c r="DE3" s="129"/>
-      <c r="DF3" s="129"/>
-      <c r="DG3" s="129"/>
-      <c r="DH3" s="129"/>
-      <c r="DI3" s="129"/>
-      <c r="DJ3" s="129"/>
-      <c r="DK3" s="129"/>
-      <c r="DL3" s="129"/>
-      <c r="DM3" s="129"/>
-      <c r="DN3" s="129"/>
-      <c r="DO3" s="129"/>
-      <c r="DP3" s="129"/>
-      <c r="DQ3" s="129"/>
-      <c r="DR3" s="129"/>
-      <c r="DS3" s="129"/>
-      <c r="DT3" s="129"/>
-      <c r="DU3" s="129"/>
-      <c r="DV3" s="129"/>
-      <c r="DW3" s="129"/>
-      <c r="DX3" s="129"/>
-      <c r="DY3" s="129"/>
-      <c r="DZ3" s="129"/>
-      <c r="EA3" s="129"/>
-      <c r="EB3" s="129"/>
-      <c r="EC3" s="129"/>
-      <c r="ED3" s="129"/>
-      <c r="EE3" s="129"/>
-      <c r="EF3" s="129"/>
-      <c r="EG3" s="129"/>
-      <c r="EH3" s="129"/>
-      <c r="EI3" s="129"/>
-      <c r="EJ3" s="129"/>
-      <c r="EK3" s="129"/>
-      <c r="EL3" s="129"/>
-      <c r="EM3" s="129"/>
-      <c r="EN3" s="129"/>
-      <c r="EO3" s="129"/>
-      <c r="EP3" s="129"/>
-      <c r="EQ3" s="129"/>
-      <c r="ER3" s="129"/>
-      <c r="ES3" s="129"/>
-      <c r="ET3" s="129"/>
-      <c r="EU3" s="129"/>
-      <c r="EV3" s="129"/>
-      <c r="EW3" s="129"/>
-      <c r="EX3" s="129"/>
-      <c r="EY3" s="129"/>
-      <c r="EZ3" s="129"/>
-      <c r="FA3" s="129"/>
-      <c r="FB3" s="129"/>
-      <c r="FC3" s="129"/>
-      <c r="FD3" s="129"/>
-      <c r="FE3" s="129"/>
-      <c r="FF3" s="129"/>
-      <c r="FG3" s="129"/>
-      <c r="FH3" s="129"/>
-      <c r="FI3" s="129"/>
-      <c r="FJ3" s="129"/>
-      <c r="FK3" s="129"/>
-      <c r="FL3" s="129"/>
-      <c r="FM3" s="129"/>
-      <c r="FN3" s="129"/>
-      <c r="FO3" s="129"/>
-      <c r="FP3" s="129"/>
-      <c r="FQ3" s="129"/>
-      <c r="FR3" s="129"/>
-      <c r="FS3" s="129"/>
-      <c r="FT3" s="129"/>
-      <c r="FU3" s="129"/>
-      <c r="FV3" s="129"/>
-      <c r="FW3" s="129"/>
-      <c r="FX3" s="129"/>
-      <c r="FY3" s="129"/>
-      <c r="FZ3" s="129"/>
-      <c r="GA3" s="129"/>
-      <c r="GB3" s="129"/>
-      <c r="GC3" s="129"/>
-      <c r="GD3" s="129"/>
-      <c r="GE3" s="129"/>
-      <c r="GF3" s="129"/>
-      <c r="GG3" s="129"/>
-      <c r="GH3" s="129"/>
-      <c r="GI3" s="129"/>
-      <c r="GJ3" s="129"/>
-      <c r="GK3" s="129"/>
-      <c r="GL3" s="129"/>
-      <c r="GM3" s="129"/>
-      <c r="GN3" s="128"/>
-      <c r="GO3" s="129"/>
-      <c r="GP3" s="129"/>
-      <c r="GQ3" s="129"/>
-      <c r="GR3" s="129"/>
-      <c r="GS3" s="129"/>
-      <c r="GT3" s="129"/>
-      <c r="GU3" s="129"/>
-      <c r="GV3" s="129"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="101"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="101"/>
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="101"/>
+      <c r="AO3" s="101"/>
+      <c r="AP3" s="101"/>
+      <c r="AQ3" s="101"/>
+      <c r="AR3" s="101"/>
+      <c r="AS3" s="101"/>
+      <c r="AT3" s="101"/>
+      <c r="AU3" s="101"/>
+      <c r="AV3" s="101"/>
+      <c r="AW3" s="101"/>
+      <c r="AX3" s="101"/>
+      <c r="AY3" s="101"/>
+      <c r="AZ3" s="101"/>
+      <c r="BA3" s="101"/>
+      <c r="BB3" s="101"/>
+      <c r="BC3" s="101"/>
+      <c r="BD3" s="101"/>
+      <c r="BE3" s="101"/>
+      <c r="BF3" s="101"/>
+      <c r="BG3" s="101"/>
+      <c r="BH3" s="101"/>
+      <c r="BI3" s="101"/>
+      <c r="BJ3" s="101"/>
+      <c r="BK3" s="101"/>
+      <c r="BL3" s="101"/>
+      <c r="BM3" s="101"/>
+      <c r="BN3" s="101"/>
+      <c r="BO3" s="101"/>
+      <c r="BP3" s="101"/>
+      <c r="BQ3" s="101"/>
+      <c r="BR3" s="101"/>
+      <c r="BS3" s="101"/>
+      <c r="BT3" s="101"/>
+      <c r="BU3" s="101"/>
+      <c r="BV3" s="101"/>
+      <c r="BW3" s="101"/>
+      <c r="BX3" s="101"/>
+      <c r="BY3" s="101"/>
+      <c r="BZ3" s="101"/>
+      <c r="CA3" s="101"/>
+      <c r="CB3" s="101"/>
+      <c r="CC3" s="101"/>
+      <c r="CD3" s="101"/>
+      <c r="CE3" s="101"/>
+      <c r="CF3" s="101"/>
+      <c r="CG3" s="101"/>
+      <c r="CH3" s="101"/>
+      <c r="CI3" s="101"/>
+      <c r="CJ3" s="101"/>
+      <c r="CK3" s="101"/>
+      <c r="CL3" s="101"/>
+      <c r="CM3" s="101"/>
+      <c r="CN3" s="101"/>
+      <c r="CO3" s="101"/>
+      <c r="CP3" s="101"/>
+      <c r="CQ3" s="101"/>
+      <c r="CR3" s="101"/>
+      <c r="CS3" s="101"/>
+      <c r="CT3" s="101"/>
+      <c r="CU3" s="101"/>
+      <c r="CV3" s="101"/>
+      <c r="CW3" s="101"/>
+      <c r="CX3" s="101"/>
+      <c r="CY3" s="101"/>
+      <c r="CZ3" s="101"/>
+      <c r="DA3" s="101"/>
+      <c r="DB3" s="101"/>
+      <c r="DC3" s="101"/>
+      <c r="DD3" s="101"/>
+      <c r="DE3" s="101"/>
+      <c r="DF3" s="101"/>
+      <c r="DG3" s="101"/>
+      <c r="DH3" s="101"/>
+      <c r="DI3" s="101"/>
+      <c r="DJ3" s="101"/>
+      <c r="DK3" s="101"/>
+      <c r="DL3" s="101"/>
+      <c r="DM3" s="101"/>
+      <c r="DN3" s="101"/>
+      <c r="DO3" s="101"/>
+      <c r="DP3" s="101"/>
+      <c r="DQ3" s="101"/>
+      <c r="DR3" s="101"/>
+      <c r="DS3" s="101"/>
+      <c r="DT3" s="101"/>
+      <c r="DU3" s="101"/>
+      <c r="DV3" s="101"/>
+      <c r="DW3" s="101"/>
+      <c r="DX3" s="101"/>
+      <c r="DY3" s="101"/>
+      <c r="DZ3" s="101"/>
+      <c r="EA3" s="101"/>
+      <c r="EB3" s="101"/>
+      <c r="EC3" s="101"/>
+      <c r="ED3" s="101"/>
+      <c r="EE3" s="101"/>
+      <c r="EF3" s="101"/>
+      <c r="EG3" s="101"/>
+      <c r="EH3" s="101"/>
+      <c r="EI3" s="101"/>
+      <c r="EJ3" s="101"/>
+      <c r="EK3" s="101"/>
+      <c r="EL3" s="101"/>
+      <c r="EM3" s="101"/>
+      <c r="EN3" s="101"/>
+      <c r="EO3" s="101"/>
+      <c r="EP3" s="101"/>
+      <c r="EQ3" s="101"/>
+      <c r="ER3" s="101"/>
+      <c r="ES3" s="101"/>
+      <c r="ET3" s="101"/>
+      <c r="EU3" s="101"/>
+      <c r="EV3" s="101"/>
+      <c r="EW3" s="101"/>
+      <c r="EX3" s="101"/>
+      <c r="EY3" s="101"/>
+      <c r="EZ3" s="101"/>
+      <c r="FA3" s="101"/>
+      <c r="FB3" s="101"/>
+      <c r="FC3" s="101"/>
+      <c r="FD3" s="101"/>
+      <c r="FE3" s="101"/>
+      <c r="FF3" s="101"/>
+      <c r="FG3" s="101"/>
+      <c r="FH3" s="101"/>
+      <c r="FI3" s="101"/>
+      <c r="FJ3" s="101"/>
+      <c r="FK3" s="101"/>
+      <c r="FL3" s="101"/>
+      <c r="FM3" s="101"/>
+      <c r="FN3" s="101"/>
+      <c r="FO3" s="101"/>
+      <c r="FP3" s="101"/>
+      <c r="FQ3" s="101"/>
+      <c r="FR3" s="101"/>
+      <c r="FS3" s="101"/>
+      <c r="FT3" s="101"/>
+      <c r="FU3" s="101"/>
+      <c r="FV3" s="101"/>
+      <c r="FW3" s="101"/>
+      <c r="FX3" s="101"/>
+      <c r="FY3" s="101"/>
+      <c r="FZ3" s="101"/>
+      <c r="GA3" s="101"/>
+      <c r="GB3" s="101"/>
+      <c r="GC3" s="101"/>
+      <c r="GD3" s="101"/>
+      <c r="GE3" s="101"/>
+      <c r="GF3" s="101"/>
+      <c r="GG3" s="101"/>
+      <c r="GH3" s="101"/>
+      <c r="GI3" s="101"/>
+      <c r="GJ3" s="101"/>
+      <c r="GK3" s="101"/>
+      <c r="GL3" s="101"/>
+      <c r="GM3" s="101"/>
+      <c r="GN3" s="100"/>
+      <c r="GO3" s="101"/>
+      <c r="GP3" s="101"/>
+      <c r="GQ3" s="101"/>
+      <c r="GR3" s="101"/>
+      <c r="GS3" s="101"/>
+      <c r="GT3" s="101"/>
+      <c r="GU3" s="101"/>
+      <c r="GV3" s="101"/>
     </row>
     <row r="4" spans="1:205" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="98" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -2578,313 +2578,313 @@
       <c r="C4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="130">
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="102">
         <v>45418</v>
       </c>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="121" t="s">
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="119">
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="94">
         <v>45419</v>
       </c>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="120"/>
-      <c r="T4" s="121" t="s">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="119">
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="94">
         <v>45420</v>
       </c>
-      <c r="Y4" s="119"/>
-      <c r="Z4" s="119"/>
-      <c r="AA4" s="120"/>
-      <c r="AB4" s="121" t="s">
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="122"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="122"/>
-      <c r="AF4" s="119">
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="94">
         <v>45421</v>
       </c>
-      <c r="AG4" s="119"/>
-      <c r="AH4" s="119"/>
-      <c r="AI4" s="120"/>
-      <c r="AJ4" s="121" t="s">
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="122"/>
-      <c r="AL4" s="122"/>
-      <c r="AM4" s="122"/>
-      <c r="AN4" s="119">
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="94">
         <v>45422</v>
       </c>
-      <c r="AO4" s="119"/>
-      <c r="AP4" s="119"/>
-      <c r="AQ4" s="120"/>
-      <c r="AR4" s="121" t="s">
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="122"/>
-      <c r="AT4" s="122"/>
-      <c r="AU4" s="122"/>
-      <c r="AV4" s="119">
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="94">
         <v>45425</v>
       </c>
-      <c r="AW4" s="119"/>
-      <c r="AX4" s="119"/>
-      <c r="AY4" s="120"/>
-      <c r="AZ4" s="121" t="s">
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="95"/>
+      <c r="AZ4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="BA4" s="122"/>
-      <c r="BB4" s="122"/>
-      <c r="BC4" s="122"/>
-      <c r="BD4" s="119">
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="94">
         <v>45426</v>
       </c>
-      <c r="BE4" s="119"/>
-      <c r="BF4" s="119"/>
-      <c r="BG4" s="120"/>
-      <c r="BH4" s="121" t="s">
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="94"/>
+      <c r="BG4" s="95"/>
+      <c r="BH4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="BI4" s="122"/>
-      <c r="BJ4" s="122"/>
-      <c r="BK4" s="122"/>
-      <c r="BL4" s="119">
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="94">
         <v>45427</v>
       </c>
-      <c r="BM4" s="119"/>
-      <c r="BN4" s="119"/>
-      <c r="BO4" s="120"/>
-      <c r="BP4" s="121" t="s">
+      <c r="BM4" s="94"/>
+      <c r="BN4" s="94"/>
+      <c r="BO4" s="95"/>
+      <c r="BP4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="BQ4" s="122"/>
-      <c r="BR4" s="122"/>
-      <c r="BS4" s="122"/>
-      <c r="BT4" s="119">
+      <c r="BQ4" s="93"/>
+      <c r="BR4" s="93"/>
+      <c r="BS4" s="93"/>
+      <c r="BT4" s="94">
         <v>45428</v>
       </c>
-      <c r="BU4" s="119"/>
-      <c r="BV4" s="119"/>
-      <c r="BW4" s="120"/>
-      <c r="BX4" s="121" t="s">
+      <c r="BU4" s="94"/>
+      <c r="BV4" s="94"/>
+      <c r="BW4" s="95"/>
+      <c r="BX4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="122"/>
-      <c r="BZ4" s="122"/>
-      <c r="CA4" s="122"/>
-      <c r="CB4" s="119">
+      <c r="BY4" s="93"/>
+      <c r="BZ4" s="93"/>
+      <c r="CA4" s="93"/>
+      <c r="CB4" s="94">
         <v>45429</v>
       </c>
-      <c r="CC4" s="119"/>
-      <c r="CD4" s="119"/>
-      <c r="CE4" s="120"/>
-      <c r="CF4" s="121" t="s">
+      <c r="CC4" s="94"/>
+      <c r="CD4" s="94"/>
+      <c r="CE4" s="95"/>
+      <c r="CF4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="CG4" s="122"/>
-      <c r="CH4" s="122"/>
-      <c r="CI4" s="122"/>
-      <c r="CJ4" s="119">
+      <c r="CG4" s="93"/>
+      <c r="CH4" s="93"/>
+      <c r="CI4" s="93"/>
+      <c r="CJ4" s="94">
         <v>45432</v>
       </c>
-      <c r="CK4" s="119"/>
-      <c r="CL4" s="119"/>
-      <c r="CM4" s="120"/>
-      <c r="CN4" s="121" t="s">
+      <c r="CK4" s="94"/>
+      <c r="CL4" s="94"/>
+      <c r="CM4" s="95"/>
+      <c r="CN4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="CO4" s="122"/>
-      <c r="CP4" s="122"/>
-      <c r="CQ4" s="122"/>
-      <c r="CR4" s="119">
+      <c r="CO4" s="93"/>
+      <c r="CP4" s="93"/>
+      <c r="CQ4" s="93"/>
+      <c r="CR4" s="94">
         <v>45433</v>
       </c>
-      <c r="CS4" s="119"/>
-      <c r="CT4" s="119"/>
-      <c r="CU4" s="120"/>
-      <c r="CV4" s="121" t="s">
+      <c r="CS4" s="94"/>
+      <c r="CT4" s="94"/>
+      <c r="CU4" s="95"/>
+      <c r="CV4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="CW4" s="122"/>
-      <c r="CX4" s="122"/>
-      <c r="CY4" s="122"/>
-      <c r="CZ4" s="119">
+      <c r="CW4" s="93"/>
+      <c r="CX4" s="93"/>
+      <c r="CY4" s="93"/>
+      <c r="CZ4" s="94">
         <v>45434</v>
       </c>
-      <c r="DA4" s="119"/>
-      <c r="DB4" s="119"/>
-      <c r="DC4" s="120"/>
-      <c r="DD4" s="121" t="s">
+      <c r="DA4" s="94"/>
+      <c r="DB4" s="94"/>
+      <c r="DC4" s="95"/>
+      <c r="DD4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="DE4" s="122"/>
-      <c r="DF4" s="122"/>
-      <c r="DG4" s="122"/>
-      <c r="DH4" s="119">
+      <c r="DE4" s="93"/>
+      <c r="DF4" s="93"/>
+      <c r="DG4" s="93"/>
+      <c r="DH4" s="94">
         <v>45435</v>
       </c>
-      <c r="DI4" s="119"/>
-      <c r="DJ4" s="119"/>
-      <c r="DK4" s="120"/>
-      <c r="DL4" s="121" t="s">
+      <c r="DI4" s="94"/>
+      <c r="DJ4" s="94"/>
+      <c r="DK4" s="95"/>
+      <c r="DL4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="DM4" s="122"/>
-      <c r="DN4" s="122"/>
-      <c r="DO4" s="122"/>
-      <c r="DP4" s="119">
+      <c r="DM4" s="93"/>
+      <c r="DN4" s="93"/>
+      <c r="DO4" s="93"/>
+      <c r="DP4" s="94">
         <v>45436</v>
       </c>
-      <c r="DQ4" s="119"/>
-      <c r="DR4" s="119"/>
-      <c r="DS4" s="120"/>
-      <c r="DT4" s="121" t="s">
+      <c r="DQ4" s="94"/>
+      <c r="DR4" s="94"/>
+      <c r="DS4" s="95"/>
+      <c r="DT4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="DU4" s="122"/>
-      <c r="DV4" s="122"/>
-      <c r="DW4" s="122"/>
-      <c r="DX4" s="119">
+      <c r="DU4" s="93"/>
+      <c r="DV4" s="93"/>
+      <c r="DW4" s="93"/>
+      <c r="DX4" s="94">
         <v>45439</v>
       </c>
-      <c r="DY4" s="119"/>
-      <c r="DZ4" s="119"/>
-      <c r="EA4" s="120"/>
-      <c r="EB4" s="121" t="s">
+      <c r="DY4" s="94"/>
+      <c r="DZ4" s="94"/>
+      <c r="EA4" s="95"/>
+      <c r="EB4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="EC4" s="122"/>
-      <c r="ED4" s="122"/>
-      <c r="EE4" s="122"/>
-      <c r="EF4" s="119">
+      <c r="EC4" s="93"/>
+      <c r="ED4" s="93"/>
+      <c r="EE4" s="93"/>
+      <c r="EF4" s="94">
         <v>45440</v>
       </c>
-      <c r="EG4" s="119"/>
-      <c r="EH4" s="119"/>
-      <c r="EI4" s="120"/>
-      <c r="EJ4" s="121" t="s">
+      <c r="EG4" s="94"/>
+      <c r="EH4" s="94"/>
+      <c r="EI4" s="95"/>
+      <c r="EJ4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="EK4" s="122"/>
-      <c r="EL4" s="122"/>
-      <c r="EM4" s="122"/>
-      <c r="EN4" s="119">
+      <c r="EK4" s="93"/>
+      <c r="EL4" s="93"/>
+      <c r="EM4" s="93"/>
+      <c r="EN4" s="94">
         <v>45441</v>
       </c>
-      <c r="EO4" s="119"/>
-      <c r="EP4" s="119"/>
-      <c r="EQ4" s="120"/>
-      <c r="ER4" s="121" t="s">
+      <c r="EO4" s="94"/>
+      <c r="EP4" s="94"/>
+      <c r="EQ4" s="95"/>
+      <c r="ER4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="ES4" s="122"/>
-      <c r="ET4" s="122"/>
-      <c r="EU4" s="122"/>
-      <c r="EV4" s="119">
+      <c r="ES4" s="93"/>
+      <c r="ET4" s="93"/>
+      <c r="EU4" s="93"/>
+      <c r="EV4" s="94">
         <v>45442</v>
       </c>
-      <c r="EW4" s="119"/>
-      <c r="EX4" s="119"/>
-      <c r="EY4" s="120"/>
-      <c r="EZ4" s="121" t="s">
+      <c r="EW4" s="94"/>
+      <c r="EX4" s="94"/>
+      <c r="EY4" s="95"/>
+      <c r="EZ4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="FA4" s="122"/>
-      <c r="FB4" s="122"/>
-      <c r="FC4" s="122"/>
-      <c r="FD4" s="119">
+      <c r="FA4" s="93"/>
+      <c r="FB4" s="93"/>
+      <c r="FC4" s="93"/>
+      <c r="FD4" s="94">
         <v>45443</v>
       </c>
-      <c r="FE4" s="119"/>
-      <c r="FF4" s="119"/>
-      <c r="FG4" s="120"/>
-      <c r="FH4" s="121" t="s">
+      <c r="FE4" s="94"/>
+      <c r="FF4" s="94"/>
+      <c r="FG4" s="95"/>
+      <c r="FH4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="FI4" s="122"/>
-      <c r="FJ4" s="122"/>
-      <c r="FK4" s="122"/>
-      <c r="FL4" s="119">
+      <c r="FI4" s="93"/>
+      <c r="FJ4" s="93"/>
+      <c r="FK4" s="93"/>
+      <c r="FL4" s="94">
         <v>45446</v>
       </c>
-      <c r="FM4" s="119"/>
-      <c r="FN4" s="119"/>
-      <c r="FO4" s="120"/>
-      <c r="FP4" s="121" t="s">
+      <c r="FM4" s="94"/>
+      <c r="FN4" s="94"/>
+      <c r="FO4" s="95"/>
+      <c r="FP4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="FQ4" s="122"/>
-      <c r="FR4" s="122"/>
-      <c r="FS4" s="122"/>
-      <c r="FT4" s="119">
+      <c r="FQ4" s="93"/>
+      <c r="FR4" s="93"/>
+      <c r="FS4" s="93"/>
+      <c r="FT4" s="94">
         <v>45447</v>
       </c>
-      <c r="FU4" s="119"/>
-      <c r="FV4" s="119"/>
-      <c r="FW4" s="120"/>
-      <c r="FX4" s="121" t="s">
+      <c r="FU4" s="94"/>
+      <c r="FV4" s="94"/>
+      <c r="FW4" s="95"/>
+      <c r="FX4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="FY4" s="122"/>
-      <c r="FZ4" s="122"/>
-      <c r="GA4" s="122"/>
-      <c r="GB4" s="119">
+      <c r="FY4" s="93"/>
+      <c r="FZ4" s="93"/>
+      <c r="GA4" s="93"/>
+      <c r="GB4" s="94">
         <v>45448</v>
       </c>
-      <c r="GC4" s="119"/>
-      <c r="GD4" s="119"/>
-      <c r="GE4" s="120"/>
-      <c r="GF4" s="121" t="s">
+      <c r="GC4" s="94"/>
+      <c r="GD4" s="94"/>
+      <c r="GE4" s="95"/>
+      <c r="GF4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="GG4" s="122"/>
-      <c r="GH4" s="122"/>
-      <c r="GI4" s="122"/>
-      <c r="GJ4" s="119">
+      <c r="GG4" s="93"/>
+      <c r="GH4" s="93"/>
+      <c r="GI4" s="93"/>
+      <c r="GJ4" s="94">
         <v>45449</v>
       </c>
-      <c r="GK4" s="119"/>
-      <c r="GL4" s="119"/>
-      <c r="GM4" s="119"/>
+      <c r="GK4" s="94"/>
+      <c r="GL4" s="94"/>
+      <c r="GM4" s="94"/>
       <c r="GN4" s="50"/>
-      <c r="GO4" s="122" t="s">
+      <c r="GO4" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="GP4" s="122"/>
-      <c r="GQ4" s="122"/>
-      <c r="GR4" s="122"/>
-      <c r="GS4" s="119">
+      <c r="GP4" s="93"/>
+      <c r="GQ4" s="93"/>
+      <c r="GR4" s="93"/>
+      <c r="GS4" s="94">
         <v>45454</v>
       </c>
-      <c r="GT4" s="119"/>
-      <c r="GU4" s="119"/>
-      <c r="GV4" s="120"/>
-      <c r="GW4" s="132" t="s">
+      <c r="GT4" s="94"/>
+      <c r="GU4" s="94"/>
+      <c r="GV4" s="95"/>
+      <c r="GW4" s="96" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="127"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
@@ -3492,7 +3492,7 @@
       <c r="GV5" s="7">
         <v>8</v>
       </c>
-      <c r="GW5" s="132"/>
+      <c r="GW5" s="96"/>
     </row>
     <row r="6" spans="1:205" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
@@ -3526,16 +3526,16 @@
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
       <c r="AA6" s="15"/>
-      <c r="AB6" s="107" t="s">
+      <c r="AB6" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="AC6" s="108"/>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="108"/>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="108"/>
-      <c r="AH6" s="108"/>
-      <c r="AI6" s="109"/>
+      <c r="AC6" s="105"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="105"/>
+      <c r="AF6" s="105"/>
+      <c r="AG6" s="105"/>
+      <c r="AH6" s="105"/>
+      <c r="AI6" s="106"/>
       <c r="AJ6" s="13"/>
       <c r="AK6" s="14"/>
       <c r="AL6" s="14"/>
@@ -3590,16 +3590,16 @@
       <c r="CE6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="CF6" s="107" t="s">
+      <c r="CF6" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="CG6" s="108"/>
-      <c r="CH6" s="108"/>
-      <c r="CI6" s="108"/>
-      <c r="CJ6" s="108"/>
-      <c r="CK6" s="108"/>
-      <c r="CL6" s="108"/>
-      <c r="CM6" s="109"/>
+      <c r="CG6" s="105"/>
+      <c r="CH6" s="105"/>
+      <c r="CI6" s="105"/>
+      <c r="CJ6" s="105"/>
+      <c r="CK6" s="105"/>
+      <c r="CL6" s="105"/>
+      <c r="CM6" s="106"/>
       <c r="CN6" s="26" t="s">
         <v>28</v>
       </c>
@@ -3672,16 +3672,16 @@
       <c r="EO6" s="24"/>
       <c r="EP6" s="24"/>
       <c r="EQ6" s="25"/>
-      <c r="ER6" s="107" t="s">
+      <c r="ER6" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="ES6" s="108"/>
-      <c r="ET6" s="108"/>
-      <c r="EU6" s="108"/>
-      <c r="EV6" s="108"/>
-      <c r="EW6" s="108"/>
-      <c r="EX6" s="108"/>
-      <c r="EY6" s="109"/>
+      <c r="ES6" s="105"/>
+      <c r="ET6" s="105"/>
+      <c r="EU6" s="105"/>
+      <c r="EV6" s="105"/>
+      <c r="EW6" s="105"/>
+      <c r="EX6" s="105"/>
+      <c r="EY6" s="106"/>
       <c r="EZ6" s="26"/>
       <c r="FA6" s="24"/>
       <c r="FB6" s="24"/>
@@ -3731,13 +3731,13 @@
       <c r="GT6" s="10"/>
       <c r="GU6" s="10"/>
       <c r="GV6" s="10"/>
-      <c r="GW6" s="132"/>
+      <c r="GW6" s="96"/>
     </row>
     <row r="7" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="96"/>
+      <c r="B7" s="122"/>
       <c r="C7" s="60"/>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
@@ -3763,14 +3763,14 @@
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
       <c r="AA7" s="15"/>
-      <c r="AB7" s="110"/>
-      <c r="AC7" s="111"/>
-      <c r="AD7" s="111"/>
-      <c r="AE7" s="111"/>
-      <c r="AF7" s="111"/>
-      <c r="AG7" s="111"/>
-      <c r="AH7" s="111"/>
-      <c r="AI7" s="112"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="108"/>
+      <c r="AD7" s="108"/>
+      <c r="AE7" s="108"/>
+      <c r="AF7" s="108"/>
+      <c r="AG7" s="108"/>
+      <c r="AH7" s="108"/>
+      <c r="AI7" s="109"/>
       <c r="AJ7" s="13"/>
       <c r="AK7" s="14"/>
       <c r="AL7" s="14"/>
@@ -3819,14 +3819,14 @@
       <c r="CC7" s="14"/>
       <c r="CD7" s="14"/>
       <c r="CE7" s="15"/>
-      <c r="CF7" s="110"/>
-      <c r="CG7" s="111"/>
-      <c r="CH7" s="111"/>
-      <c r="CI7" s="111"/>
-      <c r="CJ7" s="111"/>
-      <c r="CK7" s="111"/>
-      <c r="CL7" s="111"/>
-      <c r="CM7" s="112"/>
+      <c r="CF7" s="107"/>
+      <c r="CG7" s="108"/>
+      <c r="CH7" s="108"/>
+      <c r="CI7" s="108"/>
+      <c r="CJ7" s="108"/>
+      <c r="CK7" s="108"/>
+      <c r="CL7" s="108"/>
+      <c r="CM7" s="109"/>
       <c r="CN7" s="13"/>
       <c r="CO7" s="14"/>
       <c r="CP7" s="14"/>
@@ -3883,14 +3883,14 @@
       <c r="EO7" s="14"/>
       <c r="EP7" s="14"/>
       <c r="EQ7" s="15"/>
-      <c r="ER7" s="110"/>
-      <c r="ES7" s="111"/>
-      <c r="ET7" s="111"/>
-      <c r="EU7" s="111"/>
-      <c r="EV7" s="111"/>
-      <c r="EW7" s="111"/>
-      <c r="EX7" s="111"/>
-      <c r="EY7" s="112"/>
+      <c r="ER7" s="107"/>
+      <c r="ES7" s="108"/>
+      <c r="ET7" s="108"/>
+      <c r="EU7" s="108"/>
+      <c r="EV7" s="108"/>
+      <c r="EW7" s="108"/>
+      <c r="EX7" s="108"/>
+      <c r="EY7" s="109"/>
       <c r="EZ7" s="13"/>
       <c r="FA7" s="14"/>
       <c r="FB7" s="14"/>
@@ -3940,7 +3940,7 @@
       <c r="GT7" s="14"/>
       <c r="GU7" s="14"/>
       <c r="GV7" s="14"/>
-      <c r="GW7" s="132"/>
+      <c r="GW7" s="96"/>
     </row>
     <row r="8" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A8" s="79" t="s">
@@ -3974,14 +3974,14 @@
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
       <c r="AA8" s="15"/>
-      <c r="AB8" s="110"/>
-      <c r="AC8" s="111"/>
-      <c r="AD8" s="111"/>
-      <c r="AE8" s="111"/>
-      <c r="AF8" s="111"/>
-      <c r="AG8" s="111"/>
-      <c r="AH8" s="111"/>
-      <c r="AI8" s="112"/>
+      <c r="AB8" s="107"/>
+      <c r="AC8" s="108"/>
+      <c r="AD8" s="108"/>
+      <c r="AE8" s="108"/>
+      <c r="AF8" s="108"/>
+      <c r="AG8" s="108"/>
+      <c r="AH8" s="108"/>
+      <c r="AI8" s="109"/>
       <c r="AJ8" s="13"/>
       <c r="AK8" s="14"/>
       <c r="AL8" s="14"/>
@@ -4034,14 +4034,14 @@
       <c r="CC8" s="14"/>
       <c r="CD8" s="14"/>
       <c r="CE8" s="44"/>
-      <c r="CF8" s="110"/>
-      <c r="CG8" s="111"/>
-      <c r="CH8" s="111"/>
-      <c r="CI8" s="111"/>
-      <c r="CJ8" s="111"/>
-      <c r="CK8" s="111"/>
-      <c r="CL8" s="111"/>
-      <c r="CM8" s="112"/>
+      <c r="CF8" s="107"/>
+      <c r="CG8" s="108"/>
+      <c r="CH8" s="108"/>
+      <c r="CI8" s="108"/>
+      <c r="CJ8" s="108"/>
+      <c r="CK8" s="108"/>
+      <c r="CL8" s="108"/>
+      <c r="CM8" s="109"/>
       <c r="CN8" s="13"/>
       <c r="CO8" s="14"/>
       <c r="CP8" s="14"/>
@@ -4098,14 +4098,14 @@
       <c r="EO8" s="14"/>
       <c r="EP8" s="14"/>
       <c r="EQ8" s="15"/>
-      <c r="ER8" s="110"/>
-      <c r="ES8" s="111"/>
-      <c r="ET8" s="111"/>
-      <c r="EU8" s="111"/>
-      <c r="EV8" s="111"/>
-      <c r="EW8" s="111"/>
-      <c r="EX8" s="111"/>
-      <c r="EY8" s="112"/>
+      <c r="ER8" s="107"/>
+      <c r="ES8" s="108"/>
+      <c r="ET8" s="108"/>
+      <c r="EU8" s="108"/>
+      <c r="EV8" s="108"/>
+      <c r="EW8" s="108"/>
+      <c r="EX8" s="108"/>
+      <c r="EY8" s="109"/>
       <c r="EZ8" s="13"/>
       <c r="FA8" s="14"/>
       <c r="FB8" s="14"/>
@@ -4155,7 +4155,7 @@
       <c r="GT8" s="14"/>
       <c r="GU8" s="14"/>
       <c r="GV8" s="14"/>
-      <c r="GW8" s="132"/>
+      <c r="GW8" s="96"/>
     </row>
     <row r="9" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="80" t="s">
@@ -4189,14 +4189,14 @@
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
       <c r="AA9" s="15"/>
-      <c r="AB9" s="110"/>
-      <c r="AC9" s="111"/>
-      <c r="AD9" s="111"/>
-      <c r="AE9" s="111"/>
-      <c r="AF9" s="111"/>
-      <c r="AG9" s="111"/>
-      <c r="AH9" s="111"/>
-      <c r="AI9" s="112"/>
+      <c r="AB9" s="107"/>
+      <c r="AC9" s="108"/>
+      <c r="AD9" s="108"/>
+      <c r="AE9" s="108"/>
+      <c r="AF9" s="108"/>
+      <c r="AG9" s="108"/>
+      <c r="AH9" s="108"/>
+      <c r="AI9" s="109"/>
       <c r="AJ9" s="13"/>
       <c r="AK9" s="14"/>
       <c r="AL9" s="14"/>
@@ -4265,14 +4265,14 @@
         <v>28</v>
       </c>
       <c r="CE9" s="36"/>
-      <c r="CF9" s="110"/>
-      <c r="CG9" s="111"/>
-      <c r="CH9" s="111"/>
-      <c r="CI9" s="111"/>
-      <c r="CJ9" s="111"/>
-      <c r="CK9" s="111"/>
-      <c r="CL9" s="111"/>
-      <c r="CM9" s="112"/>
+      <c r="CF9" s="107"/>
+      <c r="CG9" s="108"/>
+      <c r="CH9" s="108"/>
+      <c r="CI9" s="108"/>
+      <c r="CJ9" s="108"/>
+      <c r="CK9" s="108"/>
+      <c r="CL9" s="108"/>
+      <c r="CM9" s="109"/>
       <c r="CN9" s="13"/>
       <c r="CO9" s="14"/>
       <c r="CP9" s="14"/>
@@ -4329,14 +4329,14 @@
       <c r="EO9" s="14"/>
       <c r="EP9" s="14"/>
       <c r="EQ9" s="15"/>
-      <c r="ER9" s="110"/>
-      <c r="ES9" s="111"/>
-      <c r="ET9" s="111"/>
-      <c r="EU9" s="111"/>
-      <c r="EV9" s="111"/>
-      <c r="EW9" s="111"/>
-      <c r="EX9" s="111"/>
-      <c r="EY9" s="112"/>
+      <c r="ER9" s="107"/>
+      <c r="ES9" s="108"/>
+      <c r="ET9" s="108"/>
+      <c r="EU9" s="108"/>
+      <c r="EV9" s="108"/>
+      <c r="EW9" s="108"/>
+      <c r="EX9" s="108"/>
+      <c r="EY9" s="109"/>
       <c r="EZ9" s="13"/>
       <c r="FA9" s="14"/>
       <c r="FB9" s="14"/>
@@ -4386,13 +4386,13 @@
       <c r="GT9" s="14"/>
       <c r="GU9" s="14"/>
       <c r="GV9" s="14"/>
-      <c r="GW9" s="132"/>
+      <c r="GW9" s="96"/>
     </row>
     <row r="10" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="98"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="60"/>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
@@ -4418,14 +4418,14 @@
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
       <c r="AA10" s="15"/>
-      <c r="AB10" s="110"/>
-      <c r="AC10" s="111"/>
-      <c r="AD10" s="111"/>
-      <c r="AE10" s="111"/>
-      <c r="AF10" s="111"/>
-      <c r="AG10" s="111"/>
-      <c r="AH10" s="111"/>
-      <c r="AI10" s="112"/>
+      <c r="AB10" s="107"/>
+      <c r="AC10" s="108"/>
+      <c r="AD10" s="108"/>
+      <c r="AE10" s="108"/>
+      <c r="AF10" s="108"/>
+      <c r="AG10" s="108"/>
+      <c r="AH10" s="108"/>
+      <c r="AI10" s="109"/>
       <c r="AJ10" s="13"/>
       <c r="AK10" s="14"/>
       <c r="AL10" s="14"/>
@@ -4474,14 +4474,14 @@
       <c r="CC10" s="32"/>
       <c r="CD10" s="32"/>
       <c r="CE10" s="32"/>
-      <c r="CF10" s="110"/>
-      <c r="CG10" s="111"/>
-      <c r="CH10" s="111"/>
-      <c r="CI10" s="111"/>
-      <c r="CJ10" s="111"/>
-      <c r="CK10" s="111"/>
-      <c r="CL10" s="111"/>
-      <c r="CM10" s="112"/>
+      <c r="CF10" s="107"/>
+      <c r="CG10" s="108"/>
+      <c r="CH10" s="108"/>
+      <c r="CI10" s="108"/>
+      <c r="CJ10" s="108"/>
+      <c r="CK10" s="108"/>
+      <c r="CL10" s="108"/>
+      <c r="CM10" s="109"/>
       <c r="CN10" s="13"/>
       <c r="CO10" s="14"/>
       <c r="CP10" s="14"/>
@@ -4538,14 +4538,14 @@
       <c r="EO10" s="14"/>
       <c r="EP10" s="14"/>
       <c r="EQ10" s="15"/>
-      <c r="ER10" s="110"/>
-      <c r="ES10" s="111"/>
-      <c r="ET10" s="111"/>
-      <c r="EU10" s="111"/>
-      <c r="EV10" s="111"/>
-      <c r="EW10" s="111"/>
-      <c r="EX10" s="111"/>
-      <c r="EY10" s="112"/>
+      <c r="ER10" s="107"/>
+      <c r="ES10" s="108"/>
+      <c r="ET10" s="108"/>
+      <c r="EU10" s="108"/>
+      <c r="EV10" s="108"/>
+      <c r="EW10" s="108"/>
+      <c r="EX10" s="108"/>
+      <c r="EY10" s="109"/>
       <c r="EZ10" s="13"/>
       <c r="FA10" s="14"/>
       <c r="FB10" s="14"/>
@@ -4595,7 +4595,7 @@
       <c r="GT10" s="14"/>
       <c r="GU10" s="14"/>
       <c r="GV10" s="14"/>
-      <c r="GW10" s="132"/>
+      <c r="GW10" s="96"/>
     </row>
     <row r="11" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A11" s="76" t="s">
@@ -4629,14 +4629,14 @@
       <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
       <c r="AA11" s="15"/>
-      <c r="AB11" s="110"/>
-      <c r="AC11" s="111"/>
-      <c r="AD11" s="111"/>
-      <c r="AE11" s="111"/>
-      <c r="AF11" s="111"/>
-      <c r="AG11" s="111"/>
-      <c r="AH11" s="111"/>
-      <c r="AI11" s="112"/>
+      <c r="AB11" s="107"/>
+      <c r="AC11" s="108"/>
+      <c r="AD11" s="108"/>
+      <c r="AE11" s="108"/>
+      <c r="AF11" s="108"/>
+      <c r="AG11" s="108"/>
+      <c r="AH11" s="108"/>
+      <c r="AI11" s="109"/>
       <c r="AJ11" s="13"/>
       <c r="AK11" s="14"/>
       <c r="AL11" s="14"/>
@@ -4687,14 +4687,14 @@
       </c>
       <c r="CD11" s="14"/>
       <c r="CE11" s="14"/>
-      <c r="CF11" s="110"/>
-      <c r="CG11" s="111"/>
-      <c r="CH11" s="111"/>
-      <c r="CI11" s="111"/>
-      <c r="CJ11" s="111"/>
-      <c r="CK11" s="111"/>
-      <c r="CL11" s="111"/>
-      <c r="CM11" s="112"/>
+      <c r="CF11" s="107"/>
+      <c r="CG11" s="108"/>
+      <c r="CH11" s="108"/>
+      <c r="CI11" s="108"/>
+      <c r="CJ11" s="108"/>
+      <c r="CK11" s="108"/>
+      <c r="CL11" s="108"/>
+      <c r="CM11" s="109"/>
       <c r="CN11" s="28"/>
       <c r="CO11" s="14"/>
       <c r="CP11" s="14"/>
@@ -4753,14 +4753,14 @@
       <c r="EO11" s="14"/>
       <c r="EP11" s="14"/>
       <c r="EQ11" s="15"/>
-      <c r="ER11" s="110"/>
-      <c r="ES11" s="111"/>
-      <c r="ET11" s="111"/>
-      <c r="EU11" s="111"/>
-      <c r="EV11" s="111"/>
-      <c r="EW11" s="111"/>
-      <c r="EX11" s="111"/>
-      <c r="EY11" s="112"/>
+      <c r="ER11" s="107"/>
+      <c r="ES11" s="108"/>
+      <c r="ET11" s="108"/>
+      <c r="EU11" s="108"/>
+      <c r="EV11" s="108"/>
+      <c r="EW11" s="108"/>
+      <c r="EX11" s="108"/>
+      <c r="EY11" s="109"/>
       <c r="EZ11" s="13"/>
       <c r="FA11" s="14"/>
       <c r="FB11" s="14"/>
@@ -4810,7 +4810,7 @@
       <c r="GT11" s="14"/>
       <c r="GU11" s="14"/>
       <c r="GV11" s="14"/>
-      <c r="GW11" s="132"/>
+      <c r="GW11" s="96"/>
     </row>
     <row r="12" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A12" s="77" t="s">
@@ -4844,14 +4844,14 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
       <c r="AA12" s="15"/>
-      <c r="AB12" s="110"/>
-      <c r="AC12" s="111"/>
-      <c r="AD12" s="111"/>
-      <c r="AE12" s="111"/>
-      <c r="AF12" s="111"/>
-      <c r="AG12" s="111"/>
-      <c r="AH12" s="111"/>
-      <c r="AI12" s="112"/>
+      <c r="AB12" s="107"/>
+      <c r="AC12" s="108"/>
+      <c r="AD12" s="108"/>
+      <c r="AE12" s="108"/>
+      <c r="AF12" s="108"/>
+      <c r="AG12" s="108"/>
+      <c r="AH12" s="108"/>
+      <c r="AI12" s="109"/>
       <c r="AJ12" s="13"/>
       <c r="AK12" s="14"/>
       <c r="AL12" s="14"/>
@@ -4900,14 +4900,14 @@
       <c r="CC12" s="14"/>
       <c r="CD12" s="14"/>
       <c r="CE12" s="15"/>
-      <c r="CF12" s="110"/>
-      <c r="CG12" s="111"/>
-      <c r="CH12" s="111"/>
-      <c r="CI12" s="111"/>
-      <c r="CJ12" s="111"/>
-      <c r="CK12" s="111"/>
-      <c r="CL12" s="111"/>
-      <c r="CM12" s="112"/>
+      <c r="CF12" s="107"/>
+      <c r="CG12" s="108"/>
+      <c r="CH12" s="108"/>
+      <c r="CI12" s="108"/>
+      <c r="CJ12" s="108"/>
+      <c r="CK12" s="108"/>
+      <c r="CL12" s="108"/>
+      <c r="CM12" s="109"/>
       <c r="CN12" s="13"/>
       <c r="CO12" s="55" t="s">
         <v>28</v>
@@ -4970,14 +4970,14 @@
       <c r="EO12" s="14"/>
       <c r="EP12" s="14"/>
       <c r="EQ12" s="15"/>
-      <c r="ER12" s="110"/>
-      <c r="ES12" s="111"/>
-      <c r="ET12" s="111"/>
-      <c r="EU12" s="111"/>
-      <c r="EV12" s="111"/>
-      <c r="EW12" s="111"/>
-      <c r="EX12" s="111"/>
-      <c r="EY12" s="112"/>
+      <c r="ER12" s="107"/>
+      <c r="ES12" s="108"/>
+      <c r="ET12" s="108"/>
+      <c r="EU12" s="108"/>
+      <c r="EV12" s="108"/>
+      <c r="EW12" s="108"/>
+      <c r="EX12" s="108"/>
+      <c r="EY12" s="109"/>
       <c r="EZ12" s="13"/>
       <c r="FA12" s="14"/>
       <c r="FB12" s="14"/>
@@ -5027,7 +5027,7 @@
       <c r="GT12" s="14"/>
       <c r="GU12" s="14"/>
       <c r="GV12" s="14"/>
-      <c r="GW12" s="132"/>
+      <c r="GW12" s="96"/>
     </row>
     <row r="13" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78" t="s">
@@ -5061,14 +5061,14 @@
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="15"/>
-      <c r="AB13" s="110"/>
-      <c r="AC13" s="111"/>
-      <c r="AD13" s="111"/>
-      <c r="AE13" s="111"/>
-      <c r="AF13" s="111"/>
-      <c r="AG13" s="111"/>
-      <c r="AH13" s="111"/>
-      <c r="AI13" s="112"/>
+      <c r="AB13" s="107"/>
+      <c r="AC13" s="108"/>
+      <c r="AD13" s="108"/>
+      <c r="AE13" s="108"/>
+      <c r="AF13" s="108"/>
+      <c r="AG13" s="108"/>
+      <c r="AH13" s="108"/>
+      <c r="AI13" s="109"/>
       <c r="AJ13" s="13"/>
       <c r="AK13" s="14"/>
       <c r="AL13" s="14"/>
@@ -5117,14 +5117,14 @@
       <c r="CC13" s="14"/>
       <c r="CD13" s="14"/>
       <c r="CE13" s="15"/>
-      <c r="CF13" s="110"/>
-      <c r="CG13" s="111"/>
-      <c r="CH13" s="111"/>
-      <c r="CI13" s="111"/>
-      <c r="CJ13" s="111"/>
-      <c r="CK13" s="111"/>
-      <c r="CL13" s="111"/>
-      <c r="CM13" s="112"/>
+      <c r="CF13" s="107"/>
+      <c r="CG13" s="108"/>
+      <c r="CH13" s="108"/>
+      <c r="CI13" s="108"/>
+      <c r="CJ13" s="108"/>
+      <c r="CK13" s="108"/>
+      <c r="CL13" s="108"/>
+      <c r="CM13" s="109"/>
       <c r="CN13" s="13"/>
       <c r="CO13" s="14"/>
       <c r="CP13" s="27"/>
@@ -5191,14 +5191,14 @@
       <c r="EO13" s="14"/>
       <c r="EP13" s="14"/>
       <c r="EQ13" s="15"/>
-      <c r="ER13" s="110"/>
-      <c r="ES13" s="111"/>
-      <c r="ET13" s="111"/>
-      <c r="EU13" s="111"/>
-      <c r="EV13" s="111"/>
-      <c r="EW13" s="111"/>
-      <c r="EX13" s="111"/>
-      <c r="EY13" s="112"/>
+      <c r="ER13" s="107"/>
+      <c r="ES13" s="108"/>
+      <c r="ET13" s="108"/>
+      <c r="EU13" s="108"/>
+      <c r="EV13" s="108"/>
+      <c r="EW13" s="108"/>
+      <c r="EX13" s="108"/>
+      <c r="EY13" s="109"/>
       <c r="EZ13" s="13"/>
       <c r="FA13" s="14"/>
       <c r="FB13" s="14"/>
@@ -5248,13 +5248,13 @@
       <c r="GT13" s="14"/>
       <c r="GU13" s="14"/>
       <c r="GV13" s="14"/>
-      <c r="GW13" s="132"/>
+      <c r="GW13" s="96"/>
     </row>
     <row r="14" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="100"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="60"/>
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
@@ -5280,14 +5280,14 @@
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
       <c r="AA14" s="15"/>
-      <c r="AB14" s="110"/>
-      <c r="AC14" s="111"/>
-      <c r="AD14" s="111"/>
-      <c r="AE14" s="111"/>
-      <c r="AF14" s="111"/>
-      <c r="AG14" s="111"/>
-      <c r="AH14" s="111"/>
-      <c r="AI14" s="112"/>
+      <c r="AB14" s="107"/>
+      <c r="AC14" s="108"/>
+      <c r="AD14" s="108"/>
+      <c r="AE14" s="108"/>
+      <c r="AF14" s="108"/>
+      <c r="AG14" s="108"/>
+      <c r="AH14" s="108"/>
+      <c r="AI14" s="109"/>
       <c r="AJ14" s="13"/>
       <c r="AK14" s="14"/>
       <c r="AL14" s="14"/>
@@ -5336,14 +5336,14 @@
       <c r="CC14" s="14"/>
       <c r="CD14" s="14"/>
       <c r="CE14" s="15"/>
-      <c r="CF14" s="110"/>
-      <c r="CG14" s="111"/>
-      <c r="CH14" s="111"/>
-      <c r="CI14" s="111"/>
-      <c r="CJ14" s="111"/>
-      <c r="CK14" s="111"/>
-      <c r="CL14" s="111"/>
-      <c r="CM14" s="112"/>
+      <c r="CF14" s="107"/>
+      <c r="CG14" s="108"/>
+      <c r="CH14" s="108"/>
+      <c r="CI14" s="108"/>
+      <c r="CJ14" s="108"/>
+      <c r="CK14" s="108"/>
+      <c r="CL14" s="108"/>
+      <c r="CM14" s="109"/>
       <c r="CN14" s="13"/>
       <c r="CO14" s="14"/>
       <c r="CP14" s="14"/>
@@ -5400,14 +5400,14 @@
       <c r="EO14" s="14"/>
       <c r="EP14" s="14"/>
       <c r="EQ14" s="15"/>
-      <c r="ER14" s="110"/>
-      <c r="ES14" s="111"/>
-      <c r="ET14" s="111"/>
-      <c r="EU14" s="111"/>
-      <c r="EV14" s="111"/>
-      <c r="EW14" s="111"/>
-      <c r="EX14" s="111"/>
-      <c r="EY14" s="112"/>
+      <c r="ER14" s="107"/>
+      <c r="ES14" s="108"/>
+      <c r="ET14" s="108"/>
+      <c r="EU14" s="108"/>
+      <c r="EV14" s="108"/>
+      <c r="EW14" s="108"/>
+      <c r="EX14" s="108"/>
+      <c r="EY14" s="109"/>
       <c r="EZ14" s="13"/>
       <c r="FA14" s="14"/>
       <c r="FB14" s="14"/>
@@ -5457,7 +5457,7 @@
       <c r="GT14" s="14"/>
       <c r="GU14" s="14"/>
       <c r="GV14" s="14"/>
-      <c r="GW14" s="132"/>
+      <c r="GW14" s="96"/>
     </row>
     <row r="15" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A15" s="73" t="s">
@@ -5491,14 +5491,14 @@
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
       <c r="AA15" s="15"/>
-      <c r="AB15" s="110"/>
-      <c r="AC15" s="111"/>
-      <c r="AD15" s="111"/>
-      <c r="AE15" s="111"/>
-      <c r="AF15" s="111"/>
-      <c r="AG15" s="111"/>
-      <c r="AH15" s="111"/>
-      <c r="AI15" s="112"/>
+      <c r="AB15" s="107"/>
+      <c r="AC15" s="108"/>
+      <c r="AD15" s="108"/>
+      <c r="AE15" s="108"/>
+      <c r="AF15" s="108"/>
+      <c r="AG15" s="108"/>
+      <c r="AH15" s="108"/>
+      <c r="AI15" s="109"/>
       <c r="AJ15" s="13"/>
       <c r="AK15" s="14"/>
       <c r="AL15" s="14"/>
@@ -5547,14 +5547,14 @@
       <c r="CC15" s="14"/>
       <c r="CD15" s="14"/>
       <c r="CE15" s="15"/>
-      <c r="CF15" s="110"/>
-      <c r="CG15" s="111"/>
-      <c r="CH15" s="111"/>
-      <c r="CI15" s="111"/>
-      <c r="CJ15" s="111"/>
-      <c r="CK15" s="111"/>
-      <c r="CL15" s="111"/>
-      <c r="CM15" s="112"/>
+      <c r="CF15" s="107"/>
+      <c r="CG15" s="108"/>
+      <c r="CH15" s="108"/>
+      <c r="CI15" s="108"/>
+      <c r="CJ15" s="108"/>
+      <c r="CK15" s="108"/>
+      <c r="CL15" s="108"/>
+      <c r="CM15" s="109"/>
       <c r="CN15" s="13"/>
       <c r="CO15" s="14"/>
       <c r="CP15" s="14"/>
@@ -5617,14 +5617,14 @@
       <c r="EO15" s="14"/>
       <c r="EP15" s="14"/>
       <c r="EQ15" s="15"/>
-      <c r="ER15" s="110"/>
-      <c r="ES15" s="111"/>
-      <c r="ET15" s="111"/>
-      <c r="EU15" s="111"/>
-      <c r="EV15" s="111"/>
-      <c r="EW15" s="111"/>
-      <c r="EX15" s="111"/>
-      <c r="EY15" s="112"/>
+      <c r="ER15" s="107"/>
+      <c r="ES15" s="108"/>
+      <c r="ET15" s="108"/>
+      <c r="EU15" s="108"/>
+      <c r="EV15" s="108"/>
+      <c r="EW15" s="108"/>
+      <c r="EX15" s="108"/>
+      <c r="EY15" s="109"/>
       <c r="EZ15" s="13"/>
       <c r="FA15" s="14"/>
       <c r="FB15" s="14"/>
@@ -5674,7 +5674,7 @@
       <c r="GT15" s="14"/>
       <c r="GU15" s="14"/>
       <c r="GV15" s="14"/>
-      <c r="GW15" s="132"/>
+      <c r="GW15" s="96"/>
     </row>
     <row r="16" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A16" s="74" t="s">
@@ -5708,14 +5708,14 @@
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="15"/>
-      <c r="AB16" s="110"/>
-      <c r="AC16" s="111"/>
-      <c r="AD16" s="111"/>
-      <c r="AE16" s="111"/>
-      <c r="AF16" s="111"/>
-      <c r="AG16" s="111"/>
-      <c r="AH16" s="111"/>
-      <c r="AI16" s="112"/>
+      <c r="AB16" s="107"/>
+      <c r="AC16" s="108"/>
+      <c r="AD16" s="108"/>
+      <c r="AE16" s="108"/>
+      <c r="AF16" s="108"/>
+      <c r="AG16" s="108"/>
+      <c r="AH16" s="108"/>
+      <c r="AI16" s="109"/>
       <c r="AJ16" s="13"/>
       <c r="AK16" s="14"/>
       <c r="AL16" s="14"/>
@@ -5764,14 +5764,14 @@
       <c r="CC16" s="14"/>
       <c r="CD16" s="14"/>
       <c r="CE16" s="15"/>
-      <c r="CF16" s="110"/>
-      <c r="CG16" s="111"/>
-      <c r="CH16" s="111"/>
-      <c r="CI16" s="111"/>
-      <c r="CJ16" s="111"/>
-      <c r="CK16" s="111"/>
-      <c r="CL16" s="111"/>
-      <c r="CM16" s="112"/>
+      <c r="CF16" s="107"/>
+      <c r="CG16" s="108"/>
+      <c r="CH16" s="108"/>
+      <c r="CI16" s="108"/>
+      <c r="CJ16" s="108"/>
+      <c r="CK16" s="108"/>
+      <c r="CL16" s="108"/>
+      <c r="CM16" s="109"/>
       <c r="CN16" s="13"/>
       <c r="CO16" s="14"/>
       <c r="CP16" s="14"/>
@@ -5830,14 +5830,14 @@
       <c r="EO16" s="14"/>
       <c r="EP16" s="14"/>
       <c r="EQ16" s="15"/>
-      <c r="ER16" s="110"/>
-      <c r="ES16" s="111"/>
-      <c r="ET16" s="111"/>
-      <c r="EU16" s="111"/>
-      <c r="EV16" s="111"/>
-      <c r="EW16" s="111"/>
-      <c r="EX16" s="111"/>
-      <c r="EY16" s="112"/>
+      <c r="ER16" s="107"/>
+      <c r="ES16" s="108"/>
+      <c r="ET16" s="108"/>
+      <c r="EU16" s="108"/>
+      <c r="EV16" s="108"/>
+      <c r="EW16" s="108"/>
+      <c r="EX16" s="108"/>
+      <c r="EY16" s="109"/>
       <c r="EZ16" s="13"/>
       <c r="FA16" s="14"/>
       <c r="FB16" s="14"/>
@@ -5887,7 +5887,7 @@
       <c r="GT16" s="14"/>
       <c r="GU16" s="14"/>
       <c r="GV16" s="14"/>
-      <c r="GW16" s="132"/>
+      <c r="GW16" s="96"/>
     </row>
     <row r="17" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A17" s="74" t="s">
@@ -5921,14 +5921,14 @@
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="15"/>
-      <c r="AB17" s="110"/>
-      <c r="AC17" s="111"/>
-      <c r="AD17" s="111"/>
-      <c r="AE17" s="111"/>
-      <c r="AF17" s="111"/>
-      <c r="AG17" s="111"/>
-      <c r="AH17" s="111"/>
-      <c r="AI17" s="112"/>
+      <c r="AB17" s="107"/>
+      <c r="AC17" s="108"/>
+      <c r="AD17" s="108"/>
+      <c r="AE17" s="108"/>
+      <c r="AF17" s="108"/>
+      <c r="AG17" s="108"/>
+      <c r="AH17" s="108"/>
+      <c r="AI17" s="109"/>
       <c r="AJ17" s="13"/>
       <c r="AK17" s="14"/>
       <c r="AL17" s="14"/>
@@ -5977,14 +5977,14 @@
       <c r="CC17" s="14"/>
       <c r="CD17" s="14"/>
       <c r="CE17" s="15"/>
-      <c r="CF17" s="110"/>
-      <c r="CG17" s="111"/>
-      <c r="CH17" s="111"/>
-      <c r="CI17" s="111"/>
-      <c r="CJ17" s="111"/>
-      <c r="CK17" s="111"/>
-      <c r="CL17" s="111"/>
-      <c r="CM17" s="112"/>
+      <c r="CF17" s="107"/>
+      <c r="CG17" s="108"/>
+      <c r="CH17" s="108"/>
+      <c r="CI17" s="108"/>
+      <c r="CJ17" s="108"/>
+      <c r="CK17" s="108"/>
+      <c r="CL17" s="108"/>
+      <c r="CM17" s="109"/>
       <c r="CN17" s="13"/>
       <c r="CO17" s="14"/>
       <c r="CP17" s="14"/>
@@ -6047,14 +6047,14 @@
       <c r="EO17" s="14"/>
       <c r="EP17" s="14"/>
       <c r="EQ17" s="15"/>
-      <c r="ER17" s="110"/>
-      <c r="ES17" s="111"/>
-      <c r="ET17" s="111"/>
-      <c r="EU17" s="111"/>
-      <c r="EV17" s="111"/>
-      <c r="EW17" s="111"/>
-      <c r="EX17" s="111"/>
-      <c r="EY17" s="112"/>
+      <c r="ER17" s="107"/>
+      <c r="ES17" s="108"/>
+      <c r="ET17" s="108"/>
+      <c r="EU17" s="108"/>
+      <c r="EV17" s="108"/>
+      <c r="EW17" s="108"/>
+      <c r="EX17" s="108"/>
+      <c r="EY17" s="109"/>
       <c r="EZ17" s="13"/>
       <c r="FA17" s="14"/>
       <c r="FB17" s="14"/>
@@ -6104,7 +6104,7 @@
       <c r="GT17" s="14"/>
       <c r="GU17" s="14"/>
       <c r="GV17" s="14"/>
-      <c r="GW17" s="132"/>
+      <c r="GW17" s="96"/>
     </row>
     <row r="18" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A18" s="74" t="s">
@@ -6138,14 +6138,14 @@
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="15"/>
-      <c r="AB18" s="110"/>
-      <c r="AC18" s="111"/>
-      <c r="AD18" s="111"/>
-      <c r="AE18" s="111"/>
-      <c r="AF18" s="111"/>
-      <c r="AG18" s="111"/>
-      <c r="AH18" s="111"/>
-      <c r="AI18" s="112"/>
+      <c r="AB18" s="107"/>
+      <c r="AC18" s="108"/>
+      <c r="AD18" s="108"/>
+      <c r="AE18" s="108"/>
+      <c r="AF18" s="108"/>
+      <c r="AG18" s="108"/>
+      <c r="AH18" s="108"/>
+      <c r="AI18" s="109"/>
       <c r="AJ18" s="13"/>
       <c r="AK18" s="14"/>
       <c r="AL18" s="14"/>
@@ -6194,14 +6194,14 @@
       <c r="CC18" s="14"/>
       <c r="CD18" s="14"/>
       <c r="CE18" s="15"/>
-      <c r="CF18" s="110"/>
-      <c r="CG18" s="111"/>
-      <c r="CH18" s="111"/>
-      <c r="CI18" s="111"/>
-      <c r="CJ18" s="111"/>
-      <c r="CK18" s="111"/>
-      <c r="CL18" s="111"/>
-      <c r="CM18" s="112"/>
+      <c r="CF18" s="107"/>
+      <c r="CG18" s="108"/>
+      <c r="CH18" s="108"/>
+      <c r="CI18" s="108"/>
+      <c r="CJ18" s="108"/>
+      <c r="CK18" s="108"/>
+      <c r="CL18" s="108"/>
+      <c r="CM18" s="109"/>
       <c r="CN18" s="13"/>
       <c r="CO18" s="14"/>
       <c r="CP18" s="14"/>
@@ -6270,14 +6270,14 @@
       <c r="EO18" s="14"/>
       <c r="EP18" s="14"/>
       <c r="EQ18" s="15"/>
-      <c r="ER18" s="110"/>
-      <c r="ES18" s="111"/>
-      <c r="ET18" s="111"/>
-      <c r="EU18" s="111"/>
-      <c r="EV18" s="111"/>
-      <c r="EW18" s="111"/>
-      <c r="EX18" s="111"/>
-      <c r="EY18" s="112"/>
+      <c r="ER18" s="107"/>
+      <c r="ES18" s="108"/>
+      <c r="ET18" s="108"/>
+      <c r="EU18" s="108"/>
+      <c r="EV18" s="108"/>
+      <c r="EW18" s="108"/>
+      <c r="EX18" s="108"/>
+      <c r="EY18" s="109"/>
       <c r="EZ18" s="13"/>
       <c r="FA18" s="14"/>
       <c r="FB18" s="14"/>
@@ -6327,7 +6327,7 @@
       <c r="GT18" s="14"/>
       <c r="GU18" s="14"/>
       <c r="GV18" s="14"/>
-      <c r="GW18" s="132"/>
+      <c r="GW18" s="96"/>
     </row>
     <row r="19" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="75" t="s">
@@ -6361,14 +6361,14 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="15"/>
-      <c r="AB19" s="110"/>
-      <c r="AC19" s="111"/>
-      <c r="AD19" s="111"/>
-      <c r="AE19" s="111"/>
-      <c r="AF19" s="111"/>
-      <c r="AG19" s="111"/>
-      <c r="AH19" s="111"/>
-      <c r="AI19" s="112"/>
+      <c r="AB19" s="107"/>
+      <c r="AC19" s="108"/>
+      <c r="AD19" s="108"/>
+      <c r="AE19" s="108"/>
+      <c r="AF19" s="108"/>
+      <c r="AG19" s="108"/>
+      <c r="AH19" s="108"/>
+      <c r="AI19" s="109"/>
       <c r="AJ19" s="13"/>
       <c r="AK19" s="14"/>
       <c r="AL19" s="14"/>
@@ -6417,14 +6417,14 @@
       <c r="CC19" s="14"/>
       <c r="CD19" s="14"/>
       <c r="CE19" s="15"/>
-      <c r="CF19" s="110"/>
-      <c r="CG19" s="111"/>
-      <c r="CH19" s="111"/>
-      <c r="CI19" s="111"/>
-      <c r="CJ19" s="111"/>
-      <c r="CK19" s="111"/>
-      <c r="CL19" s="111"/>
-      <c r="CM19" s="112"/>
+      <c r="CF19" s="107"/>
+      <c r="CG19" s="108"/>
+      <c r="CH19" s="108"/>
+      <c r="CI19" s="108"/>
+      <c r="CJ19" s="108"/>
+      <c r="CK19" s="108"/>
+      <c r="CL19" s="108"/>
+      <c r="CM19" s="109"/>
       <c r="CN19" s="13"/>
       <c r="CO19" s="14"/>
       <c r="CP19" s="14"/>
@@ -6483,14 +6483,14 @@
       <c r="EO19" s="14"/>
       <c r="EP19" s="14"/>
       <c r="EQ19" s="15"/>
-      <c r="ER19" s="110"/>
-      <c r="ES19" s="111"/>
-      <c r="ET19" s="111"/>
-      <c r="EU19" s="111"/>
-      <c r="EV19" s="111"/>
-      <c r="EW19" s="111"/>
-      <c r="EX19" s="111"/>
-      <c r="EY19" s="112"/>
+      <c r="ER19" s="107"/>
+      <c r="ES19" s="108"/>
+      <c r="ET19" s="108"/>
+      <c r="EU19" s="108"/>
+      <c r="EV19" s="108"/>
+      <c r="EW19" s="108"/>
+      <c r="EX19" s="108"/>
+      <c r="EY19" s="109"/>
       <c r="EZ19" s="13"/>
       <c r="FA19" s="14"/>
       <c r="FB19" s="14"/>
@@ -6540,13 +6540,13 @@
       <c r="GT19" s="14"/>
       <c r="GU19" s="14"/>
       <c r="GV19" s="14"/>
-      <c r="GW19" s="132"/>
+      <c r="GW19" s="96"/>
     </row>
     <row r="20" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="101" t="s">
+      <c r="A20" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="102"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="60"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
@@ -6572,14 +6572,14 @@
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
       <c r="AA20" s="15"/>
-      <c r="AB20" s="110"/>
-      <c r="AC20" s="111"/>
-      <c r="AD20" s="111"/>
-      <c r="AE20" s="111"/>
-      <c r="AF20" s="111"/>
-      <c r="AG20" s="111"/>
-      <c r="AH20" s="111"/>
-      <c r="AI20" s="112"/>
+      <c r="AB20" s="107"/>
+      <c r="AC20" s="108"/>
+      <c r="AD20" s="108"/>
+      <c r="AE20" s="108"/>
+      <c r="AF20" s="108"/>
+      <c r="AG20" s="108"/>
+      <c r="AH20" s="108"/>
+      <c r="AI20" s="109"/>
       <c r="AJ20" s="13"/>
       <c r="AK20" s="14"/>
       <c r="AL20" s="14"/>
@@ -6628,14 +6628,14 @@
       <c r="CC20" s="14"/>
       <c r="CD20" s="14"/>
       <c r="CE20" s="15"/>
-      <c r="CF20" s="110"/>
-      <c r="CG20" s="111"/>
-      <c r="CH20" s="111"/>
-      <c r="CI20" s="111"/>
-      <c r="CJ20" s="111"/>
-      <c r="CK20" s="111"/>
-      <c r="CL20" s="111"/>
-      <c r="CM20" s="112"/>
+      <c r="CF20" s="107"/>
+      <c r="CG20" s="108"/>
+      <c r="CH20" s="108"/>
+      <c r="CI20" s="108"/>
+      <c r="CJ20" s="108"/>
+      <c r="CK20" s="108"/>
+      <c r="CL20" s="108"/>
+      <c r="CM20" s="109"/>
       <c r="CN20" s="13"/>
       <c r="CO20" s="14"/>
       <c r="CP20" s="14"/>
@@ -6692,14 +6692,14 @@
       <c r="EO20" s="14"/>
       <c r="EP20" s="14"/>
       <c r="EQ20" s="15"/>
-      <c r="ER20" s="110"/>
-      <c r="ES20" s="111"/>
-      <c r="ET20" s="111"/>
-      <c r="EU20" s="111"/>
-      <c r="EV20" s="111"/>
-      <c r="EW20" s="111"/>
-      <c r="EX20" s="111"/>
-      <c r="EY20" s="112"/>
+      <c r="ER20" s="107"/>
+      <c r="ES20" s="108"/>
+      <c r="ET20" s="108"/>
+      <c r="EU20" s="108"/>
+      <c r="EV20" s="108"/>
+      <c r="EW20" s="108"/>
+      <c r="EX20" s="108"/>
+      <c r="EY20" s="109"/>
       <c r="EZ20" s="13"/>
       <c r="FA20" s="14"/>
       <c r="FB20" s="14"/>
@@ -6749,7 +6749,7 @@
       <c r="GT20" s="14"/>
       <c r="GU20" s="14"/>
       <c r="GV20" s="14"/>
-      <c r="GW20" s="132"/>
+      <c r="GW20" s="96"/>
     </row>
     <row r="21" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A21" s="70" t="s">
@@ -6783,14 +6783,14 @@
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
       <c r="AA21" s="15"/>
-      <c r="AB21" s="110"/>
-      <c r="AC21" s="111"/>
-      <c r="AD21" s="111"/>
-      <c r="AE21" s="111"/>
-      <c r="AF21" s="111"/>
-      <c r="AG21" s="111"/>
-      <c r="AH21" s="111"/>
-      <c r="AI21" s="112"/>
+      <c r="AB21" s="107"/>
+      <c r="AC21" s="108"/>
+      <c r="AD21" s="108"/>
+      <c r="AE21" s="108"/>
+      <c r="AF21" s="108"/>
+      <c r="AG21" s="108"/>
+      <c r="AH21" s="108"/>
+      <c r="AI21" s="109"/>
       <c r="AJ21" s="13"/>
       <c r="AK21" s="14"/>
       <c r="AL21" s="14"/>
@@ -6839,14 +6839,14 @@
       <c r="CC21" s="14"/>
       <c r="CD21" s="14"/>
       <c r="CE21" s="15"/>
-      <c r="CF21" s="110"/>
-      <c r="CG21" s="111"/>
-      <c r="CH21" s="111"/>
-      <c r="CI21" s="111"/>
-      <c r="CJ21" s="111"/>
-      <c r="CK21" s="111"/>
-      <c r="CL21" s="111"/>
-      <c r="CM21" s="112"/>
+      <c r="CF21" s="107"/>
+      <c r="CG21" s="108"/>
+      <c r="CH21" s="108"/>
+      <c r="CI21" s="108"/>
+      <c r="CJ21" s="108"/>
+      <c r="CK21" s="108"/>
+      <c r="CL21" s="108"/>
+      <c r="CM21" s="109"/>
       <c r="CN21" s="13"/>
       <c r="CO21" s="14"/>
       <c r="CP21" s="14"/>
@@ -6905,14 +6905,14 @@
       <c r="EO21" s="14"/>
       <c r="EP21" s="14"/>
       <c r="EQ21" s="15"/>
-      <c r="ER21" s="110"/>
-      <c r="ES21" s="111"/>
-      <c r="ET21" s="111"/>
-      <c r="EU21" s="111"/>
-      <c r="EV21" s="111"/>
-      <c r="EW21" s="111"/>
-      <c r="EX21" s="111"/>
-      <c r="EY21" s="112"/>
+      <c r="ER21" s="107"/>
+      <c r="ES21" s="108"/>
+      <c r="ET21" s="108"/>
+      <c r="EU21" s="108"/>
+      <c r="EV21" s="108"/>
+      <c r="EW21" s="108"/>
+      <c r="EX21" s="108"/>
+      <c r="EY21" s="109"/>
       <c r="EZ21" s="13"/>
       <c r="FA21" s="14"/>
       <c r="FB21" s="14"/>
@@ -6962,7 +6962,7 @@
       <c r="GT21" s="14"/>
       <c r="GU21" s="14"/>
       <c r="GV21" s="14"/>
-      <c r="GW21" s="132"/>
+      <c r="GW21" s="96"/>
     </row>
     <row r="22" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A22" s="71" t="s">
@@ -6996,14 +6996,14 @@
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
       <c r="AA22" s="15"/>
-      <c r="AB22" s="110"/>
-      <c r="AC22" s="111"/>
-      <c r="AD22" s="111"/>
-      <c r="AE22" s="111"/>
-      <c r="AF22" s="111"/>
-      <c r="AG22" s="111"/>
-      <c r="AH22" s="111"/>
-      <c r="AI22" s="112"/>
+      <c r="AB22" s="107"/>
+      <c r="AC22" s="108"/>
+      <c r="AD22" s="108"/>
+      <c r="AE22" s="108"/>
+      <c r="AF22" s="108"/>
+      <c r="AG22" s="108"/>
+      <c r="AH22" s="108"/>
+      <c r="AI22" s="109"/>
       <c r="AJ22" s="13"/>
       <c r="AK22" s="14"/>
       <c r="AL22" s="14"/>
@@ -7052,14 +7052,14 @@
       <c r="CC22" s="14"/>
       <c r="CD22" s="14"/>
       <c r="CE22" s="15"/>
-      <c r="CF22" s="110"/>
-      <c r="CG22" s="111"/>
-      <c r="CH22" s="111"/>
-      <c r="CI22" s="111"/>
-      <c r="CJ22" s="111"/>
-      <c r="CK22" s="111"/>
-      <c r="CL22" s="111"/>
-      <c r="CM22" s="112"/>
+      <c r="CF22" s="107"/>
+      <c r="CG22" s="108"/>
+      <c r="CH22" s="108"/>
+      <c r="CI22" s="108"/>
+      <c r="CJ22" s="108"/>
+      <c r="CK22" s="108"/>
+      <c r="CL22" s="108"/>
+      <c r="CM22" s="109"/>
       <c r="CN22" s="13"/>
       <c r="CO22" s="14"/>
       <c r="CP22" s="14"/>
@@ -7122,14 +7122,14 @@
       <c r="EO22" s="14"/>
       <c r="EP22" s="14"/>
       <c r="EQ22" s="15"/>
-      <c r="ER22" s="110"/>
-      <c r="ES22" s="111"/>
-      <c r="ET22" s="111"/>
-      <c r="EU22" s="111"/>
-      <c r="EV22" s="111"/>
-      <c r="EW22" s="111"/>
-      <c r="EX22" s="111"/>
-      <c r="EY22" s="112"/>
+      <c r="ER22" s="107"/>
+      <c r="ES22" s="108"/>
+      <c r="ET22" s="108"/>
+      <c r="EU22" s="108"/>
+      <c r="EV22" s="108"/>
+      <c r="EW22" s="108"/>
+      <c r="EX22" s="108"/>
+      <c r="EY22" s="109"/>
       <c r="EZ22" s="13"/>
       <c r="FA22" s="14"/>
       <c r="FB22" s="14"/>
@@ -7179,7 +7179,7 @@
       <c r="GT22" s="14"/>
       <c r="GU22" s="14"/>
       <c r="GV22" s="14"/>
-      <c r="GW22" s="132"/>
+      <c r="GW22" s="96"/>
     </row>
     <row r="23" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A23" s="71" t="s">
@@ -7213,14 +7213,14 @@
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
       <c r="AA23" s="15"/>
-      <c r="AB23" s="110"/>
-      <c r="AC23" s="111"/>
-      <c r="AD23" s="111"/>
-      <c r="AE23" s="111"/>
-      <c r="AF23" s="111"/>
-      <c r="AG23" s="111"/>
-      <c r="AH23" s="111"/>
-      <c r="AI23" s="112"/>
+      <c r="AB23" s="107"/>
+      <c r="AC23" s="108"/>
+      <c r="AD23" s="108"/>
+      <c r="AE23" s="108"/>
+      <c r="AF23" s="108"/>
+      <c r="AG23" s="108"/>
+      <c r="AH23" s="108"/>
+      <c r="AI23" s="109"/>
       <c r="AJ23" s="13"/>
       <c r="AK23" s="14"/>
       <c r="AL23" s="14"/>
@@ -7269,14 +7269,14 @@
       <c r="CC23" s="14"/>
       <c r="CD23" s="14"/>
       <c r="CE23" s="15"/>
-      <c r="CF23" s="110"/>
-      <c r="CG23" s="111"/>
-      <c r="CH23" s="111"/>
-      <c r="CI23" s="111"/>
-      <c r="CJ23" s="111"/>
-      <c r="CK23" s="111"/>
-      <c r="CL23" s="111"/>
-      <c r="CM23" s="112"/>
+      <c r="CF23" s="107"/>
+      <c r="CG23" s="108"/>
+      <c r="CH23" s="108"/>
+      <c r="CI23" s="108"/>
+      <c r="CJ23" s="108"/>
+      <c r="CK23" s="108"/>
+      <c r="CL23" s="108"/>
+      <c r="CM23" s="109"/>
       <c r="CN23" s="13"/>
       <c r="CO23" s="14"/>
       <c r="CP23" s="14"/>
@@ -7335,14 +7335,14 @@
       <c r="EO23" s="14"/>
       <c r="EP23" s="14"/>
       <c r="EQ23" s="15"/>
-      <c r="ER23" s="110"/>
-      <c r="ES23" s="111"/>
-      <c r="ET23" s="111"/>
-      <c r="EU23" s="111"/>
-      <c r="EV23" s="111"/>
-      <c r="EW23" s="111"/>
-      <c r="EX23" s="111"/>
-      <c r="EY23" s="112"/>
+      <c r="ER23" s="107"/>
+      <c r="ES23" s="108"/>
+      <c r="ET23" s="108"/>
+      <c r="EU23" s="108"/>
+      <c r="EV23" s="108"/>
+      <c r="EW23" s="108"/>
+      <c r="EX23" s="108"/>
+      <c r="EY23" s="109"/>
       <c r="EZ23" s="13"/>
       <c r="FA23" s="14"/>
       <c r="FB23" s="14"/>
@@ -7392,7 +7392,7 @@
       <c r="GT23" s="14"/>
       <c r="GU23" s="14"/>
       <c r="GV23" s="14"/>
-      <c r="GW23" s="132"/>
+      <c r="GW23" s="96"/>
     </row>
     <row r="24" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A24" s="71" t="s">
@@ -7426,14 +7426,14 @@
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
       <c r="AA24" s="15"/>
-      <c r="AB24" s="110"/>
-      <c r="AC24" s="111"/>
-      <c r="AD24" s="111"/>
-      <c r="AE24" s="111"/>
-      <c r="AF24" s="111"/>
-      <c r="AG24" s="111"/>
-      <c r="AH24" s="111"/>
-      <c r="AI24" s="112"/>
+      <c r="AB24" s="107"/>
+      <c r="AC24" s="108"/>
+      <c r="AD24" s="108"/>
+      <c r="AE24" s="108"/>
+      <c r="AF24" s="108"/>
+      <c r="AG24" s="108"/>
+      <c r="AH24" s="108"/>
+      <c r="AI24" s="109"/>
       <c r="AJ24" s="13"/>
       <c r="AK24" s="14"/>
       <c r="AL24" s="14"/>
@@ -7482,14 +7482,14 @@
       <c r="CC24" s="14"/>
       <c r="CD24" s="14"/>
       <c r="CE24" s="15"/>
-      <c r="CF24" s="110"/>
-      <c r="CG24" s="111"/>
-      <c r="CH24" s="111"/>
-      <c r="CI24" s="111"/>
-      <c r="CJ24" s="111"/>
-      <c r="CK24" s="111"/>
-      <c r="CL24" s="111"/>
-      <c r="CM24" s="112"/>
+      <c r="CF24" s="107"/>
+      <c r="CG24" s="108"/>
+      <c r="CH24" s="108"/>
+      <c r="CI24" s="108"/>
+      <c r="CJ24" s="108"/>
+      <c r="CK24" s="108"/>
+      <c r="CL24" s="108"/>
+      <c r="CM24" s="109"/>
       <c r="CN24" s="13"/>
       <c r="CO24" s="14"/>
       <c r="CP24" s="14"/>
@@ -7552,14 +7552,14 @@
       <c r="EO24" s="14"/>
       <c r="EP24" s="14"/>
       <c r="EQ24" s="15"/>
-      <c r="ER24" s="110"/>
-      <c r="ES24" s="111"/>
-      <c r="ET24" s="111"/>
-      <c r="EU24" s="111"/>
-      <c r="EV24" s="111"/>
-      <c r="EW24" s="111"/>
-      <c r="EX24" s="111"/>
-      <c r="EY24" s="112"/>
+      <c r="ER24" s="107"/>
+      <c r="ES24" s="108"/>
+      <c r="ET24" s="108"/>
+      <c r="EU24" s="108"/>
+      <c r="EV24" s="108"/>
+      <c r="EW24" s="108"/>
+      <c r="EX24" s="108"/>
+      <c r="EY24" s="109"/>
       <c r="EZ24" s="13"/>
       <c r="FA24" s="14"/>
       <c r="FB24" s="14"/>
@@ -7609,7 +7609,7 @@
       <c r="GT24" s="14"/>
       <c r="GU24" s="14"/>
       <c r="GV24" s="14"/>
-      <c r="GW24" s="132"/>
+      <c r="GW24" s="96"/>
     </row>
     <row r="25" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A25" s="91" t="s">
@@ -7643,14 +7643,14 @@
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
       <c r="AA25" s="15"/>
-      <c r="AB25" s="110"/>
-      <c r="AC25" s="111"/>
-      <c r="AD25" s="111"/>
-      <c r="AE25" s="111"/>
-      <c r="AF25" s="111"/>
-      <c r="AG25" s="111"/>
-      <c r="AH25" s="111"/>
-      <c r="AI25" s="112"/>
+      <c r="AB25" s="107"/>
+      <c r="AC25" s="108"/>
+      <c r="AD25" s="108"/>
+      <c r="AE25" s="108"/>
+      <c r="AF25" s="108"/>
+      <c r="AG25" s="108"/>
+      <c r="AH25" s="108"/>
+      <c r="AI25" s="109"/>
       <c r="AJ25" s="13"/>
       <c r="AK25" s="14"/>
       <c r="AL25" s="14"/>
@@ -7699,14 +7699,14 @@
       <c r="CC25" s="14"/>
       <c r="CD25" s="14"/>
       <c r="CE25" s="15"/>
-      <c r="CF25" s="110"/>
-      <c r="CG25" s="111"/>
-      <c r="CH25" s="111"/>
-      <c r="CI25" s="111"/>
-      <c r="CJ25" s="111"/>
-      <c r="CK25" s="111"/>
-      <c r="CL25" s="111"/>
-      <c r="CM25" s="112"/>
+      <c r="CF25" s="107"/>
+      <c r="CG25" s="108"/>
+      <c r="CH25" s="108"/>
+      <c r="CI25" s="108"/>
+      <c r="CJ25" s="108"/>
+      <c r="CK25" s="108"/>
+      <c r="CL25" s="108"/>
+      <c r="CM25" s="109"/>
       <c r="CN25" s="13"/>
       <c r="CO25" s="14"/>
       <c r="CP25" s="14"/>
@@ -7769,14 +7769,14 @@
       <c r="EO25" s="14"/>
       <c r="EP25" s="14"/>
       <c r="EQ25" s="15"/>
-      <c r="ER25" s="110"/>
-      <c r="ES25" s="111"/>
-      <c r="ET25" s="111"/>
-      <c r="EU25" s="111"/>
-      <c r="EV25" s="111"/>
-      <c r="EW25" s="111"/>
-      <c r="EX25" s="111"/>
-      <c r="EY25" s="112"/>
+      <c r="ER25" s="107"/>
+      <c r="ES25" s="108"/>
+      <c r="ET25" s="108"/>
+      <c r="EU25" s="108"/>
+      <c r="EV25" s="108"/>
+      <c r="EW25" s="108"/>
+      <c r="EX25" s="108"/>
+      <c r="EY25" s="109"/>
       <c r="EZ25" s="13"/>
       <c r="FA25" s="14"/>
       <c r="FB25" s="14"/>
@@ -7826,14 +7826,14 @@
       <c r="GT25" s="14"/>
       <c r="GU25" s="14"/>
       <c r="GV25" s="14"/>
-      <c r="GW25" s="132"/>
+      <c r="GW25" s="96"/>
     </row>
     <row r="26" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A26" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="59" t="s">
-        <v>17</v>
+      <c r="B26" s="66" t="s">
+        <v>27</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
@@ -7860,14 +7860,14 @@
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
       <c r="AA26" s="15"/>
-      <c r="AB26" s="110"/>
-      <c r="AC26" s="111"/>
-      <c r="AD26" s="111"/>
-      <c r="AE26" s="111"/>
-      <c r="AF26" s="111"/>
-      <c r="AG26" s="111"/>
-      <c r="AH26" s="111"/>
-      <c r="AI26" s="112"/>
+      <c r="AB26" s="107"/>
+      <c r="AC26" s="108"/>
+      <c r="AD26" s="108"/>
+      <c r="AE26" s="108"/>
+      <c r="AF26" s="108"/>
+      <c r="AG26" s="108"/>
+      <c r="AH26" s="108"/>
+      <c r="AI26" s="109"/>
       <c r="AJ26" s="13"/>
       <c r="AK26" s="14"/>
       <c r="AL26" s="14"/>
@@ -7916,14 +7916,14 @@
       <c r="CC26" s="14"/>
       <c r="CD26" s="14"/>
       <c r="CE26" s="15"/>
-      <c r="CF26" s="110"/>
-      <c r="CG26" s="111"/>
-      <c r="CH26" s="111"/>
-      <c r="CI26" s="111"/>
-      <c r="CJ26" s="111"/>
-      <c r="CK26" s="111"/>
-      <c r="CL26" s="111"/>
-      <c r="CM26" s="112"/>
+      <c r="CF26" s="107"/>
+      <c r="CG26" s="108"/>
+      <c r="CH26" s="108"/>
+      <c r="CI26" s="108"/>
+      <c r="CJ26" s="108"/>
+      <c r="CK26" s="108"/>
+      <c r="CL26" s="108"/>
+      <c r="CM26" s="109"/>
       <c r="CN26" s="13"/>
       <c r="CO26" s="14"/>
       <c r="CP26" s="14"/>
@@ -7986,14 +7986,14 @@
       <c r="EO26" s="14"/>
       <c r="EP26" s="14"/>
       <c r="EQ26" s="15"/>
-      <c r="ER26" s="110"/>
-      <c r="ES26" s="111"/>
-      <c r="ET26" s="111"/>
-      <c r="EU26" s="111"/>
-      <c r="EV26" s="111"/>
-      <c r="EW26" s="111"/>
-      <c r="EX26" s="111"/>
-      <c r="EY26" s="112"/>
+      <c r="ER26" s="107"/>
+      <c r="ES26" s="108"/>
+      <c r="ET26" s="108"/>
+      <c r="EU26" s="108"/>
+      <c r="EV26" s="108"/>
+      <c r="EW26" s="108"/>
+      <c r="EX26" s="108"/>
+      <c r="EY26" s="109"/>
       <c r="EZ26" s="13"/>
       <c r="FA26" s="14"/>
       <c r="FB26" s="14"/>
@@ -8043,13 +8043,15 @@
       <c r="GT26" s="14"/>
       <c r="GU26" s="14"/>
       <c r="GV26" s="14"/>
-      <c r="GW26" s="132"/>
+      <c r="GW26" s="96"/>
     </row>
     <row r="27" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A27" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="66"/>
+      <c r="B27" s="59" t="s">
+        <v>17</v>
+      </c>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
@@ -8075,14 +8077,14 @@
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
       <c r="AA27" s="15"/>
-      <c r="AB27" s="110"/>
-      <c r="AC27" s="111"/>
-      <c r="AD27" s="111"/>
-      <c r="AE27" s="111"/>
-      <c r="AF27" s="111"/>
-      <c r="AG27" s="111"/>
-      <c r="AH27" s="111"/>
-      <c r="AI27" s="112"/>
+      <c r="AB27" s="107"/>
+      <c r="AC27" s="108"/>
+      <c r="AD27" s="108"/>
+      <c r="AE27" s="108"/>
+      <c r="AF27" s="108"/>
+      <c r="AG27" s="108"/>
+      <c r="AH27" s="108"/>
+      <c r="AI27" s="109"/>
       <c r="AJ27" s="13"/>
       <c r="AK27" s="14"/>
       <c r="AL27" s="14"/>
@@ -8131,14 +8133,14 @@
       <c r="CC27" s="14"/>
       <c r="CD27" s="14"/>
       <c r="CE27" s="15"/>
-      <c r="CF27" s="110"/>
-      <c r="CG27" s="111"/>
-      <c r="CH27" s="111"/>
-      <c r="CI27" s="111"/>
-      <c r="CJ27" s="111"/>
-      <c r="CK27" s="111"/>
-      <c r="CL27" s="111"/>
-      <c r="CM27" s="112"/>
+      <c r="CF27" s="107"/>
+      <c r="CG27" s="108"/>
+      <c r="CH27" s="108"/>
+      <c r="CI27" s="108"/>
+      <c r="CJ27" s="108"/>
+      <c r="CK27" s="108"/>
+      <c r="CL27" s="108"/>
+      <c r="CM27" s="109"/>
       <c r="CN27" s="13"/>
       <c r="CO27" s="14"/>
       <c r="CP27" s="14"/>
@@ -8187,22 +8189,26 @@
       <c r="EG27" s="14"/>
       <c r="EH27" s="39"/>
       <c r="EI27" s="39"/>
-      <c r="EJ27" s="13"/>
-      <c r="EK27" s="14"/>
+      <c r="EJ27" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="EK27" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="EL27" s="14"/>
       <c r="EM27" s="14"/>
       <c r="EN27" s="14"/>
       <c r="EO27" s="14"/>
       <c r="EP27" s="14"/>
       <c r="EQ27" s="15"/>
-      <c r="ER27" s="110"/>
-      <c r="ES27" s="111"/>
-      <c r="ET27" s="111"/>
-      <c r="EU27" s="111"/>
-      <c r="EV27" s="111"/>
-      <c r="EW27" s="111"/>
-      <c r="EX27" s="111"/>
-      <c r="EY27" s="112"/>
+      <c r="ER27" s="107"/>
+      <c r="ES27" s="108"/>
+      <c r="ET27" s="108"/>
+      <c r="EU27" s="108"/>
+      <c r="EV27" s="108"/>
+      <c r="EW27" s="108"/>
+      <c r="EX27" s="108"/>
+      <c r="EY27" s="109"/>
       <c r="EZ27" s="13"/>
       <c r="FA27" s="14"/>
       <c r="FB27" s="14"/>
@@ -8252,7 +8258,7 @@
       <c r="GT27" s="14"/>
       <c r="GU27" s="14"/>
       <c r="GV27" s="14"/>
-      <c r="GW27" s="132"/>
+      <c r="GW27" s="96"/>
     </row>
     <row r="28" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A28" s="91" t="s">
@@ -8284,14 +8290,14 @@
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
       <c r="AA28" s="15"/>
-      <c r="AB28" s="110"/>
-      <c r="AC28" s="111"/>
-      <c r="AD28" s="111"/>
-      <c r="AE28" s="111"/>
-      <c r="AF28" s="111"/>
-      <c r="AG28" s="111"/>
-      <c r="AH28" s="111"/>
-      <c r="AI28" s="112"/>
+      <c r="AB28" s="107"/>
+      <c r="AC28" s="108"/>
+      <c r="AD28" s="108"/>
+      <c r="AE28" s="108"/>
+      <c r="AF28" s="108"/>
+      <c r="AG28" s="108"/>
+      <c r="AH28" s="108"/>
+      <c r="AI28" s="109"/>
       <c r="AJ28" s="13"/>
       <c r="AK28" s="14"/>
       <c r="AL28" s="14"/>
@@ -8340,14 +8346,14 @@
       <c r="CC28" s="14"/>
       <c r="CD28" s="14"/>
       <c r="CE28" s="15"/>
-      <c r="CF28" s="110"/>
-      <c r="CG28" s="111"/>
-      <c r="CH28" s="111"/>
-      <c r="CI28" s="111"/>
-      <c r="CJ28" s="111"/>
-      <c r="CK28" s="111"/>
-      <c r="CL28" s="111"/>
-      <c r="CM28" s="112"/>
+      <c r="CF28" s="107"/>
+      <c r="CG28" s="108"/>
+      <c r="CH28" s="108"/>
+      <c r="CI28" s="108"/>
+      <c r="CJ28" s="108"/>
+      <c r="CK28" s="108"/>
+      <c r="CL28" s="108"/>
+      <c r="CM28" s="109"/>
       <c r="CN28" s="13"/>
       <c r="CO28" s="14"/>
       <c r="CP28" s="14"/>
@@ -8404,14 +8410,14 @@
       <c r="EO28" s="14"/>
       <c r="EP28" s="14"/>
       <c r="EQ28" s="15"/>
-      <c r="ER28" s="110"/>
-      <c r="ES28" s="111"/>
-      <c r="ET28" s="111"/>
-      <c r="EU28" s="111"/>
-      <c r="EV28" s="111"/>
-      <c r="EW28" s="111"/>
-      <c r="EX28" s="111"/>
-      <c r="EY28" s="112"/>
+      <c r="ER28" s="107"/>
+      <c r="ES28" s="108"/>
+      <c r="ET28" s="108"/>
+      <c r="EU28" s="108"/>
+      <c r="EV28" s="108"/>
+      <c r="EW28" s="108"/>
+      <c r="EX28" s="108"/>
+      <c r="EY28" s="109"/>
       <c r="EZ28" s="13"/>
       <c r="FA28" s="14"/>
       <c r="FB28" s="14"/>
@@ -8461,7 +8467,7 @@
       <c r="GT28" s="14"/>
       <c r="GU28" s="14"/>
       <c r="GV28" s="14"/>
-      <c r="GW28" s="132"/>
+      <c r="GW28" s="96"/>
     </row>
     <row r="29" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A29" s="91" t="s">
@@ -8493,14 +8499,14 @@
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
       <c r="AA29" s="15"/>
-      <c r="AB29" s="110"/>
-      <c r="AC29" s="111"/>
-      <c r="AD29" s="111"/>
-      <c r="AE29" s="111"/>
-      <c r="AF29" s="111"/>
-      <c r="AG29" s="111"/>
-      <c r="AH29" s="111"/>
-      <c r="AI29" s="112"/>
+      <c r="AB29" s="107"/>
+      <c r="AC29" s="108"/>
+      <c r="AD29" s="108"/>
+      <c r="AE29" s="108"/>
+      <c r="AF29" s="108"/>
+      <c r="AG29" s="108"/>
+      <c r="AH29" s="108"/>
+      <c r="AI29" s="109"/>
       <c r="AJ29" s="13"/>
       <c r="AK29" s="14"/>
       <c r="AL29" s="14"/>
@@ -8549,14 +8555,14 @@
       <c r="CC29" s="14"/>
       <c r="CD29" s="14"/>
       <c r="CE29" s="15"/>
-      <c r="CF29" s="110"/>
-      <c r="CG29" s="111"/>
-      <c r="CH29" s="111"/>
-      <c r="CI29" s="111"/>
-      <c r="CJ29" s="111"/>
-      <c r="CK29" s="111"/>
-      <c r="CL29" s="111"/>
-      <c r="CM29" s="112"/>
+      <c r="CF29" s="107"/>
+      <c r="CG29" s="108"/>
+      <c r="CH29" s="108"/>
+      <c r="CI29" s="108"/>
+      <c r="CJ29" s="108"/>
+      <c r="CK29" s="108"/>
+      <c r="CL29" s="108"/>
+      <c r="CM29" s="109"/>
       <c r="CN29" s="13"/>
       <c r="CO29" s="14"/>
       <c r="CP29" s="14"/>
@@ -8613,14 +8619,14 @@
       <c r="EO29" s="39"/>
       <c r="EP29" s="39"/>
       <c r="EQ29" s="40"/>
-      <c r="ER29" s="110"/>
-      <c r="ES29" s="111"/>
-      <c r="ET29" s="111"/>
-      <c r="EU29" s="111"/>
-      <c r="EV29" s="111"/>
-      <c r="EW29" s="111"/>
-      <c r="EX29" s="111"/>
-      <c r="EY29" s="112"/>
+      <c r="ER29" s="107"/>
+      <c r="ES29" s="108"/>
+      <c r="ET29" s="108"/>
+      <c r="EU29" s="108"/>
+      <c r="EV29" s="108"/>
+      <c r="EW29" s="108"/>
+      <c r="EX29" s="108"/>
+      <c r="EY29" s="109"/>
       <c r="EZ29" s="13"/>
       <c r="FA29" s="14"/>
       <c r="FB29" s="14"/>
@@ -8670,7 +8676,7 @@
       <c r="GT29" s="14"/>
       <c r="GU29" s="14"/>
       <c r="GV29" s="14"/>
-      <c r="GW29" s="132"/>
+      <c r="GW29" s="96"/>
     </row>
     <row r="30" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A30" s="91" t="s">
@@ -8702,14 +8708,14 @@
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
       <c r="AA30" s="15"/>
-      <c r="AB30" s="110"/>
-      <c r="AC30" s="111"/>
-      <c r="AD30" s="111"/>
-      <c r="AE30" s="111"/>
-      <c r="AF30" s="111"/>
-      <c r="AG30" s="111"/>
-      <c r="AH30" s="111"/>
-      <c r="AI30" s="112"/>
+      <c r="AB30" s="107"/>
+      <c r="AC30" s="108"/>
+      <c r="AD30" s="108"/>
+      <c r="AE30" s="108"/>
+      <c r="AF30" s="108"/>
+      <c r="AG30" s="108"/>
+      <c r="AH30" s="108"/>
+      <c r="AI30" s="109"/>
       <c r="AJ30" s="13"/>
       <c r="AK30" s="14"/>
       <c r="AL30" s="14"/>
@@ -8758,14 +8764,14 @@
       <c r="CC30" s="14"/>
       <c r="CD30" s="14"/>
       <c r="CE30" s="15"/>
-      <c r="CF30" s="110"/>
-      <c r="CG30" s="111"/>
-      <c r="CH30" s="111"/>
-      <c r="CI30" s="111"/>
-      <c r="CJ30" s="111"/>
-      <c r="CK30" s="111"/>
-      <c r="CL30" s="111"/>
-      <c r="CM30" s="112"/>
+      <c r="CF30" s="107"/>
+      <c r="CG30" s="108"/>
+      <c r="CH30" s="108"/>
+      <c r="CI30" s="108"/>
+      <c r="CJ30" s="108"/>
+      <c r="CK30" s="108"/>
+      <c r="CL30" s="108"/>
+      <c r="CM30" s="109"/>
       <c r="CN30" s="13"/>
       <c r="CO30" s="14"/>
       <c r="CP30" s="14"/>
@@ -8822,14 +8828,14 @@
       <c r="EO30" s="14"/>
       <c r="EP30" s="14"/>
       <c r="EQ30" s="14"/>
-      <c r="ER30" s="110"/>
-      <c r="ES30" s="111"/>
-      <c r="ET30" s="111"/>
-      <c r="EU30" s="111"/>
-      <c r="EV30" s="111"/>
-      <c r="EW30" s="111"/>
-      <c r="EX30" s="111"/>
-      <c r="EY30" s="112"/>
+      <c r="ER30" s="107"/>
+      <c r="ES30" s="108"/>
+      <c r="ET30" s="108"/>
+      <c r="EU30" s="108"/>
+      <c r="EV30" s="108"/>
+      <c r="EW30" s="108"/>
+      <c r="EX30" s="108"/>
+      <c r="EY30" s="109"/>
       <c r="EZ30" s="41"/>
       <c r="FA30" s="39"/>
       <c r="FB30" s="39"/>
@@ -8879,7 +8885,7 @@
       <c r="GT30" s="14"/>
       <c r="GU30" s="14"/>
       <c r="GV30" s="14"/>
-      <c r="GW30" s="132"/>
+      <c r="GW30" s="96"/>
     </row>
     <row r="31" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A31" s="91" t="s">
@@ -8911,14 +8917,14 @@
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="15"/>
-      <c r="AB31" s="110"/>
-      <c r="AC31" s="111"/>
-      <c r="AD31" s="111"/>
-      <c r="AE31" s="111"/>
-      <c r="AF31" s="111"/>
-      <c r="AG31" s="111"/>
-      <c r="AH31" s="111"/>
-      <c r="AI31" s="112"/>
+      <c r="AB31" s="107"/>
+      <c r="AC31" s="108"/>
+      <c r="AD31" s="108"/>
+      <c r="AE31" s="108"/>
+      <c r="AF31" s="108"/>
+      <c r="AG31" s="108"/>
+      <c r="AH31" s="108"/>
+      <c r="AI31" s="109"/>
       <c r="AJ31" s="13"/>
       <c r="AK31" s="14"/>
       <c r="AL31" s="14"/>
@@ -8967,14 +8973,14 @@
       <c r="CC31" s="14"/>
       <c r="CD31" s="14"/>
       <c r="CE31" s="15"/>
-      <c r="CF31" s="110"/>
-      <c r="CG31" s="111"/>
-      <c r="CH31" s="111"/>
-      <c r="CI31" s="111"/>
-      <c r="CJ31" s="111"/>
-      <c r="CK31" s="111"/>
-      <c r="CL31" s="111"/>
-      <c r="CM31" s="112"/>
+      <c r="CF31" s="107"/>
+      <c r="CG31" s="108"/>
+      <c r="CH31" s="108"/>
+      <c r="CI31" s="108"/>
+      <c r="CJ31" s="108"/>
+      <c r="CK31" s="108"/>
+      <c r="CL31" s="108"/>
+      <c r="CM31" s="109"/>
       <c r="CN31" s="13"/>
       <c r="CO31" s="14"/>
       <c r="CP31" s="14"/>
@@ -9031,14 +9037,14 @@
       <c r="EO31" s="14"/>
       <c r="EP31" s="14"/>
       <c r="EQ31" s="15"/>
-      <c r="ER31" s="110"/>
-      <c r="ES31" s="111"/>
-      <c r="ET31" s="111"/>
-      <c r="EU31" s="111"/>
-      <c r="EV31" s="111"/>
-      <c r="EW31" s="111"/>
-      <c r="EX31" s="111"/>
-      <c r="EY31" s="112"/>
+      <c r="ER31" s="107"/>
+      <c r="ES31" s="108"/>
+      <c r="ET31" s="108"/>
+      <c r="EU31" s="108"/>
+      <c r="EV31" s="108"/>
+      <c r="EW31" s="108"/>
+      <c r="EX31" s="108"/>
+      <c r="EY31" s="109"/>
       <c r="EZ31" s="13"/>
       <c r="FA31" s="14"/>
       <c r="FB31" s="14"/>
@@ -9088,7 +9094,7 @@
       <c r="GT31" s="14"/>
       <c r="GU31" s="14"/>
       <c r="GV31" s="14"/>
-      <c r="GW31" s="132"/>
+      <c r="GW31" s="96"/>
     </row>
     <row r="32" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A32" s="91" t="s">
@@ -9120,14 +9126,14 @@
       <c r="Y32" s="14"/>
       <c r="Z32" s="14"/>
       <c r="AA32" s="15"/>
-      <c r="AB32" s="110"/>
-      <c r="AC32" s="111"/>
-      <c r="AD32" s="111"/>
-      <c r="AE32" s="111"/>
-      <c r="AF32" s="111"/>
-      <c r="AG32" s="111"/>
-      <c r="AH32" s="111"/>
-      <c r="AI32" s="112"/>
+      <c r="AB32" s="107"/>
+      <c r="AC32" s="108"/>
+      <c r="AD32" s="108"/>
+      <c r="AE32" s="108"/>
+      <c r="AF32" s="108"/>
+      <c r="AG32" s="108"/>
+      <c r="AH32" s="108"/>
+      <c r="AI32" s="109"/>
       <c r="AJ32" s="13"/>
       <c r="AK32" s="14"/>
       <c r="AL32" s="14"/>
@@ -9176,14 +9182,14 @@
       <c r="CC32" s="14"/>
       <c r="CD32" s="14"/>
       <c r="CE32" s="15"/>
-      <c r="CF32" s="110"/>
-      <c r="CG32" s="111"/>
-      <c r="CH32" s="111"/>
-      <c r="CI32" s="111"/>
-      <c r="CJ32" s="111"/>
-      <c r="CK32" s="111"/>
-      <c r="CL32" s="111"/>
-      <c r="CM32" s="112"/>
+      <c r="CF32" s="107"/>
+      <c r="CG32" s="108"/>
+      <c r="CH32" s="108"/>
+      <c r="CI32" s="108"/>
+      <c r="CJ32" s="108"/>
+      <c r="CK32" s="108"/>
+      <c r="CL32" s="108"/>
+      <c r="CM32" s="109"/>
       <c r="CN32" s="13"/>
       <c r="CO32" s="14"/>
       <c r="CP32" s="14"/>
@@ -9240,14 +9246,14 @@
       <c r="EO32" s="14"/>
       <c r="EP32" s="14"/>
       <c r="EQ32" s="15"/>
-      <c r="ER32" s="110"/>
-      <c r="ES32" s="111"/>
-      <c r="ET32" s="111"/>
-      <c r="EU32" s="111"/>
-      <c r="EV32" s="111"/>
-      <c r="EW32" s="111"/>
-      <c r="EX32" s="111"/>
-      <c r="EY32" s="112"/>
+      <c r="ER32" s="107"/>
+      <c r="ES32" s="108"/>
+      <c r="ET32" s="108"/>
+      <c r="EU32" s="108"/>
+      <c r="EV32" s="108"/>
+      <c r="EW32" s="108"/>
+      <c r="EX32" s="108"/>
+      <c r="EY32" s="109"/>
       <c r="EZ32" s="13"/>
       <c r="FA32" s="14"/>
       <c r="FB32" s="14"/>
@@ -9297,7 +9303,7 @@
       <c r="GT32" s="14"/>
       <c r="GU32" s="14"/>
       <c r="GV32" s="14"/>
-      <c r="GW32" s="132"/>
+      <c r="GW32" s="96"/>
     </row>
     <row r="33" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A33" s="91" t="s">
@@ -9329,14 +9335,14 @@
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
       <c r="AA33" s="15"/>
-      <c r="AB33" s="110"/>
-      <c r="AC33" s="111"/>
-      <c r="AD33" s="111"/>
-      <c r="AE33" s="111"/>
-      <c r="AF33" s="111"/>
-      <c r="AG33" s="111"/>
-      <c r="AH33" s="111"/>
-      <c r="AI33" s="112"/>
+      <c r="AB33" s="107"/>
+      <c r="AC33" s="108"/>
+      <c r="AD33" s="108"/>
+      <c r="AE33" s="108"/>
+      <c r="AF33" s="108"/>
+      <c r="AG33" s="108"/>
+      <c r="AH33" s="108"/>
+      <c r="AI33" s="109"/>
       <c r="AJ33" s="13"/>
       <c r="AK33" s="14"/>
       <c r="AL33" s="14"/>
@@ -9385,14 +9391,14 @@
       <c r="CC33" s="14"/>
       <c r="CD33" s="14"/>
       <c r="CE33" s="15"/>
-      <c r="CF33" s="110"/>
-      <c r="CG33" s="111"/>
-      <c r="CH33" s="111"/>
-      <c r="CI33" s="111"/>
-      <c r="CJ33" s="111"/>
-      <c r="CK33" s="111"/>
-      <c r="CL33" s="111"/>
-      <c r="CM33" s="112"/>
+      <c r="CF33" s="107"/>
+      <c r="CG33" s="108"/>
+      <c r="CH33" s="108"/>
+      <c r="CI33" s="108"/>
+      <c r="CJ33" s="108"/>
+      <c r="CK33" s="108"/>
+      <c r="CL33" s="108"/>
+      <c r="CM33" s="109"/>
       <c r="CN33" s="13"/>
       <c r="CO33" s="14"/>
       <c r="CP33" s="14"/>
@@ -9449,14 +9455,14 @@
       <c r="EO33" s="14"/>
       <c r="EP33" s="14"/>
       <c r="EQ33" s="15"/>
-      <c r="ER33" s="110"/>
-      <c r="ES33" s="111"/>
-      <c r="ET33" s="111"/>
-      <c r="EU33" s="111"/>
-      <c r="EV33" s="111"/>
-      <c r="EW33" s="111"/>
-      <c r="EX33" s="111"/>
-      <c r="EY33" s="112"/>
+      <c r="ER33" s="107"/>
+      <c r="ES33" s="108"/>
+      <c r="ET33" s="108"/>
+      <c r="EU33" s="108"/>
+      <c r="EV33" s="108"/>
+      <c r="EW33" s="108"/>
+      <c r="EX33" s="108"/>
+      <c r="EY33" s="109"/>
       <c r="EZ33" s="13"/>
       <c r="FA33" s="14"/>
       <c r="FB33" s="14"/>
@@ -9506,7 +9512,7 @@
       <c r="GT33" s="14"/>
       <c r="GU33" s="14"/>
       <c r="GV33" s="14"/>
-      <c r="GW33" s="132"/>
+      <c r="GW33" s="96"/>
     </row>
     <row r="34" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A34" s="91" t="s">
@@ -9538,14 +9544,14 @@
       <c r="Y34" s="14"/>
       <c r="Z34" s="14"/>
       <c r="AA34" s="15"/>
-      <c r="AB34" s="110"/>
-      <c r="AC34" s="111"/>
-      <c r="AD34" s="111"/>
-      <c r="AE34" s="111"/>
-      <c r="AF34" s="111"/>
-      <c r="AG34" s="111"/>
-      <c r="AH34" s="111"/>
-      <c r="AI34" s="112"/>
+      <c r="AB34" s="107"/>
+      <c r="AC34" s="108"/>
+      <c r="AD34" s="108"/>
+      <c r="AE34" s="108"/>
+      <c r="AF34" s="108"/>
+      <c r="AG34" s="108"/>
+      <c r="AH34" s="108"/>
+      <c r="AI34" s="109"/>
       <c r="AJ34" s="13"/>
       <c r="AK34" s="14"/>
       <c r="AL34" s="14"/>
@@ -9594,14 +9600,14 @@
       <c r="CC34" s="14"/>
       <c r="CD34" s="14"/>
       <c r="CE34" s="15"/>
-      <c r="CF34" s="110"/>
-      <c r="CG34" s="111"/>
-      <c r="CH34" s="111"/>
-      <c r="CI34" s="111"/>
-      <c r="CJ34" s="111"/>
-      <c r="CK34" s="111"/>
-      <c r="CL34" s="111"/>
-      <c r="CM34" s="112"/>
+      <c r="CF34" s="107"/>
+      <c r="CG34" s="108"/>
+      <c r="CH34" s="108"/>
+      <c r="CI34" s="108"/>
+      <c r="CJ34" s="108"/>
+      <c r="CK34" s="108"/>
+      <c r="CL34" s="108"/>
+      <c r="CM34" s="109"/>
       <c r="CN34" s="13"/>
       <c r="CO34" s="14"/>
       <c r="CP34" s="14"/>
@@ -9658,14 +9664,14 @@
       <c r="EO34" s="14"/>
       <c r="EP34" s="14"/>
       <c r="EQ34" s="15"/>
-      <c r="ER34" s="110"/>
-      <c r="ES34" s="111"/>
-      <c r="ET34" s="111"/>
-      <c r="EU34" s="111"/>
-      <c r="EV34" s="111"/>
-      <c r="EW34" s="111"/>
-      <c r="EX34" s="111"/>
-      <c r="EY34" s="112"/>
+      <c r="ER34" s="107"/>
+      <c r="ES34" s="108"/>
+      <c r="ET34" s="108"/>
+      <c r="EU34" s="108"/>
+      <c r="EV34" s="108"/>
+      <c r="EW34" s="108"/>
+      <c r="EX34" s="108"/>
+      <c r="EY34" s="109"/>
       <c r="EZ34" s="13"/>
       <c r="FA34" s="14"/>
       <c r="FB34" s="14"/>
@@ -9715,7 +9721,7 @@
       <c r="GT34" s="14"/>
       <c r="GU34" s="14"/>
       <c r="GV34" s="14"/>
-      <c r="GW34" s="132"/>
+      <c r="GW34" s="96"/>
     </row>
     <row r="35" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A35" s="91" t="s">
@@ -9747,14 +9753,14 @@
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
       <c r="AA35" s="15"/>
-      <c r="AB35" s="110"/>
-      <c r="AC35" s="111"/>
-      <c r="AD35" s="111"/>
-      <c r="AE35" s="111"/>
-      <c r="AF35" s="111"/>
-      <c r="AG35" s="111"/>
-      <c r="AH35" s="111"/>
-      <c r="AI35" s="112"/>
+      <c r="AB35" s="107"/>
+      <c r="AC35" s="108"/>
+      <c r="AD35" s="108"/>
+      <c r="AE35" s="108"/>
+      <c r="AF35" s="108"/>
+      <c r="AG35" s="108"/>
+      <c r="AH35" s="108"/>
+      <c r="AI35" s="109"/>
       <c r="AJ35" s="13"/>
       <c r="AK35" s="14"/>
       <c r="AL35" s="14"/>
@@ -9803,14 +9809,14 @@
       <c r="CC35" s="14"/>
       <c r="CD35" s="14"/>
       <c r="CE35" s="15"/>
-      <c r="CF35" s="110"/>
-      <c r="CG35" s="111"/>
-      <c r="CH35" s="111"/>
-      <c r="CI35" s="111"/>
-      <c r="CJ35" s="111"/>
-      <c r="CK35" s="111"/>
-      <c r="CL35" s="111"/>
-      <c r="CM35" s="112"/>
+      <c r="CF35" s="107"/>
+      <c r="CG35" s="108"/>
+      <c r="CH35" s="108"/>
+      <c r="CI35" s="108"/>
+      <c r="CJ35" s="108"/>
+      <c r="CK35" s="108"/>
+      <c r="CL35" s="108"/>
+      <c r="CM35" s="109"/>
       <c r="CN35" s="13"/>
       <c r="CO35" s="14"/>
       <c r="CP35" s="14"/>
@@ -9867,14 +9873,14 @@
       <c r="EO35" s="14"/>
       <c r="EP35" s="14"/>
       <c r="EQ35" s="15"/>
-      <c r="ER35" s="110"/>
-      <c r="ES35" s="111"/>
-      <c r="ET35" s="111"/>
-      <c r="EU35" s="111"/>
-      <c r="EV35" s="111"/>
-      <c r="EW35" s="111"/>
-      <c r="EX35" s="111"/>
-      <c r="EY35" s="112"/>
+      <c r="ER35" s="107"/>
+      <c r="ES35" s="108"/>
+      <c r="ET35" s="108"/>
+      <c r="EU35" s="108"/>
+      <c r="EV35" s="108"/>
+      <c r="EW35" s="108"/>
+      <c r="EX35" s="108"/>
+      <c r="EY35" s="109"/>
       <c r="EZ35" s="13"/>
       <c r="FA35" s="14"/>
       <c r="FB35" s="14"/>
@@ -9924,7 +9930,7 @@
       <c r="GT35" s="14"/>
       <c r="GU35" s="14"/>
       <c r="GV35" s="14"/>
-      <c r="GW35" s="132"/>
+      <c r="GW35" s="96"/>
     </row>
     <row r="36" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A36" s="91" t="s">
@@ -9956,14 +9962,14 @@
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
       <c r="AA36" s="15"/>
-      <c r="AB36" s="110"/>
-      <c r="AC36" s="111"/>
-      <c r="AD36" s="111"/>
-      <c r="AE36" s="111"/>
-      <c r="AF36" s="111"/>
-      <c r="AG36" s="111"/>
-      <c r="AH36" s="111"/>
-      <c r="AI36" s="112"/>
+      <c r="AB36" s="107"/>
+      <c r="AC36" s="108"/>
+      <c r="AD36" s="108"/>
+      <c r="AE36" s="108"/>
+      <c r="AF36" s="108"/>
+      <c r="AG36" s="108"/>
+      <c r="AH36" s="108"/>
+      <c r="AI36" s="109"/>
       <c r="AJ36" s="13"/>
       <c r="AK36" s="14"/>
       <c r="AL36" s="14"/>
@@ -10012,14 +10018,14 @@
       <c r="CC36" s="14"/>
       <c r="CD36" s="14"/>
       <c r="CE36" s="15"/>
-      <c r="CF36" s="110"/>
-      <c r="CG36" s="111"/>
-      <c r="CH36" s="111"/>
-      <c r="CI36" s="111"/>
-      <c r="CJ36" s="111"/>
-      <c r="CK36" s="111"/>
-      <c r="CL36" s="111"/>
-      <c r="CM36" s="112"/>
+      <c r="CF36" s="107"/>
+      <c r="CG36" s="108"/>
+      <c r="CH36" s="108"/>
+      <c r="CI36" s="108"/>
+      <c r="CJ36" s="108"/>
+      <c r="CK36" s="108"/>
+      <c r="CL36" s="108"/>
+      <c r="CM36" s="109"/>
       <c r="CN36" s="13"/>
       <c r="CO36" s="14"/>
       <c r="CP36" s="14"/>
@@ -10076,14 +10082,14 @@
       <c r="EO36" s="14"/>
       <c r="EP36" s="14"/>
       <c r="EQ36" s="15"/>
-      <c r="ER36" s="110"/>
-      <c r="ES36" s="111"/>
-      <c r="ET36" s="111"/>
-      <c r="EU36" s="111"/>
-      <c r="EV36" s="111"/>
-      <c r="EW36" s="111"/>
-      <c r="EX36" s="111"/>
-      <c r="EY36" s="112"/>
+      <c r="ER36" s="107"/>
+      <c r="ES36" s="108"/>
+      <c r="ET36" s="108"/>
+      <c r="EU36" s="108"/>
+      <c r="EV36" s="108"/>
+      <c r="EW36" s="108"/>
+      <c r="EX36" s="108"/>
+      <c r="EY36" s="109"/>
       <c r="EZ36" s="13"/>
       <c r="FA36" s="14"/>
       <c r="FB36" s="14"/>
@@ -10133,7 +10139,7 @@
       <c r="GT36" s="14"/>
       <c r="GU36" s="14"/>
       <c r="GV36" s="14"/>
-      <c r="GW36" s="132"/>
+      <c r="GW36" s="96"/>
     </row>
     <row r="37" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A37" s="72" t="s">
@@ -10165,14 +10171,14 @@
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
       <c r="AA37" s="15"/>
-      <c r="AB37" s="110"/>
-      <c r="AC37" s="111"/>
-      <c r="AD37" s="111"/>
-      <c r="AE37" s="111"/>
-      <c r="AF37" s="111"/>
-      <c r="AG37" s="111"/>
-      <c r="AH37" s="111"/>
-      <c r="AI37" s="112"/>
+      <c r="AB37" s="107"/>
+      <c r="AC37" s="108"/>
+      <c r="AD37" s="108"/>
+      <c r="AE37" s="108"/>
+      <c r="AF37" s="108"/>
+      <c r="AG37" s="108"/>
+      <c r="AH37" s="108"/>
+      <c r="AI37" s="109"/>
       <c r="AJ37" s="13"/>
       <c r="AK37" s="14"/>
       <c r="AL37" s="14"/>
@@ -10221,14 +10227,14 @@
       <c r="CC37" s="14"/>
       <c r="CD37" s="14"/>
       <c r="CE37" s="15"/>
-      <c r="CF37" s="110"/>
-      <c r="CG37" s="111"/>
-      <c r="CH37" s="111"/>
-      <c r="CI37" s="111"/>
-      <c r="CJ37" s="111"/>
-      <c r="CK37" s="111"/>
-      <c r="CL37" s="111"/>
-      <c r="CM37" s="112"/>
+      <c r="CF37" s="107"/>
+      <c r="CG37" s="108"/>
+      <c r="CH37" s="108"/>
+      <c r="CI37" s="108"/>
+      <c r="CJ37" s="108"/>
+      <c r="CK37" s="108"/>
+      <c r="CL37" s="108"/>
+      <c r="CM37" s="109"/>
       <c r="CN37" s="13"/>
       <c r="CO37" s="14"/>
       <c r="CP37" s="14"/>
@@ -10285,14 +10291,14 @@
       <c r="EO37" s="14"/>
       <c r="EP37" s="14"/>
       <c r="EQ37" s="15"/>
-      <c r="ER37" s="110"/>
-      <c r="ES37" s="111"/>
-      <c r="ET37" s="111"/>
-      <c r="EU37" s="111"/>
-      <c r="EV37" s="111"/>
-      <c r="EW37" s="111"/>
-      <c r="EX37" s="111"/>
-      <c r="EY37" s="112"/>
+      <c r="ER37" s="107"/>
+      <c r="ES37" s="108"/>
+      <c r="ET37" s="108"/>
+      <c r="EU37" s="108"/>
+      <c r="EV37" s="108"/>
+      <c r="EW37" s="108"/>
+      <c r="EX37" s="108"/>
+      <c r="EY37" s="109"/>
       <c r="EZ37" s="13"/>
       <c r="FA37" s="14"/>
       <c r="FB37" s="14"/>
@@ -10342,7 +10348,7 @@
       <c r="GT37" s="14"/>
       <c r="GU37" s="14"/>
       <c r="GV37" s="14"/>
-      <c r="GW37" s="132"/>
+      <c r="GW37" s="96"/>
     </row>
     <row r="38" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="72" t="s">
@@ -10374,14 +10380,14 @@
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
       <c r="AA38" s="15"/>
-      <c r="AB38" s="110"/>
-      <c r="AC38" s="111"/>
-      <c r="AD38" s="111"/>
-      <c r="AE38" s="111"/>
-      <c r="AF38" s="111"/>
-      <c r="AG38" s="111"/>
-      <c r="AH38" s="111"/>
-      <c r="AI38" s="112"/>
+      <c r="AB38" s="107"/>
+      <c r="AC38" s="108"/>
+      <c r="AD38" s="108"/>
+      <c r="AE38" s="108"/>
+      <c r="AF38" s="108"/>
+      <c r="AG38" s="108"/>
+      <c r="AH38" s="108"/>
+      <c r="AI38" s="109"/>
       <c r="AJ38" s="13"/>
       <c r="AK38" s="14"/>
       <c r="AL38" s="14"/>
@@ -10430,14 +10436,14 @@
       <c r="CC38" s="14"/>
       <c r="CD38" s="14"/>
       <c r="CE38" s="15"/>
-      <c r="CF38" s="110"/>
-      <c r="CG38" s="111"/>
-      <c r="CH38" s="111"/>
-      <c r="CI38" s="111"/>
-      <c r="CJ38" s="111"/>
-      <c r="CK38" s="111"/>
-      <c r="CL38" s="111"/>
-      <c r="CM38" s="112"/>
+      <c r="CF38" s="107"/>
+      <c r="CG38" s="108"/>
+      <c r="CH38" s="108"/>
+      <c r="CI38" s="108"/>
+      <c r="CJ38" s="108"/>
+      <c r="CK38" s="108"/>
+      <c r="CL38" s="108"/>
+      <c r="CM38" s="109"/>
       <c r="CN38" s="13"/>
       <c r="CO38" s="14"/>
       <c r="CP38" s="14"/>
@@ -10494,14 +10500,14 @@
       <c r="EO38" s="14"/>
       <c r="EP38" s="14"/>
       <c r="EQ38" s="15"/>
-      <c r="ER38" s="110"/>
-      <c r="ES38" s="111"/>
-      <c r="ET38" s="111"/>
-      <c r="EU38" s="111"/>
-      <c r="EV38" s="111"/>
-      <c r="EW38" s="111"/>
-      <c r="EX38" s="111"/>
-      <c r="EY38" s="112"/>
+      <c r="ER38" s="107"/>
+      <c r="ES38" s="108"/>
+      <c r="ET38" s="108"/>
+      <c r="EU38" s="108"/>
+      <c r="EV38" s="108"/>
+      <c r="EW38" s="108"/>
+      <c r="EX38" s="108"/>
+      <c r="EY38" s="109"/>
       <c r="EZ38" s="13"/>
       <c r="FA38" s="14"/>
       <c r="FB38" s="14"/>
@@ -10551,13 +10557,13 @@
       <c r="GT38" s="14"/>
       <c r="GU38" s="14"/>
       <c r="GV38" s="14"/>
-      <c r="GW38" s="132"/>
+      <c r="GW38" s="96"/>
     </row>
     <row r="39" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="103" t="s">
+      <c r="A39" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="104"/>
+      <c r="B39" s="130"/>
       <c r="C39" s="60"/>
       <c r="D39" s="13"/>
       <c r="E39" s="14"/>
@@ -10583,14 +10589,14 @@
       <c r="Y39" s="14"/>
       <c r="Z39" s="14"/>
       <c r="AA39" s="15"/>
-      <c r="AB39" s="110"/>
-      <c r="AC39" s="111"/>
-      <c r="AD39" s="111"/>
-      <c r="AE39" s="111"/>
-      <c r="AF39" s="111"/>
-      <c r="AG39" s="111"/>
-      <c r="AH39" s="111"/>
-      <c r="AI39" s="112"/>
+      <c r="AB39" s="107"/>
+      <c r="AC39" s="108"/>
+      <c r="AD39" s="108"/>
+      <c r="AE39" s="108"/>
+      <c r="AF39" s="108"/>
+      <c r="AG39" s="108"/>
+      <c r="AH39" s="108"/>
+      <c r="AI39" s="109"/>
       <c r="AJ39" s="13"/>
       <c r="AK39" s="14"/>
       <c r="AL39" s="14"/>
@@ -10639,14 +10645,14 @@
       <c r="CC39" s="14"/>
       <c r="CD39" s="14"/>
       <c r="CE39" s="15"/>
-      <c r="CF39" s="110"/>
-      <c r="CG39" s="111"/>
-      <c r="CH39" s="111"/>
-      <c r="CI39" s="111"/>
-      <c r="CJ39" s="111"/>
-      <c r="CK39" s="111"/>
-      <c r="CL39" s="111"/>
-      <c r="CM39" s="112"/>
+      <c r="CF39" s="107"/>
+      <c r="CG39" s="108"/>
+      <c r="CH39" s="108"/>
+      <c r="CI39" s="108"/>
+      <c r="CJ39" s="108"/>
+      <c r="CK39" s="108"/>
+      <c r="CL39" s="108"/>
+      <c r="CM39" s="109"/>
       <c r="CN39" s="13"/>
       <c r="CO39" s="14"/>
       <c r="CP39" s="14"/>
@@ -10703,14 +10709,14 @@
       <c r="EO39" s="14"/>
       <c r="EP39" s="14"/>
       <c r="EQ39" s="15"/>
-      <c r="ER39" s="110"/>
-      <c r="ES39" s="111"/>
-      <c r="ET39" s="111"/>
-      <c r="EU39" s="111"/>
-      <c r="EV39" s="111"/>
-      <c r="EW39" s="111"/>
-      <c r="EX39" s="111"/>
-      <c r="EY39" s="112"/>
+      <c r="ER39" s="107"/>
+      <c r="ES39" s="108"/>
+      <c r="ET39" s="108"/>
+      <c r="EU39" s="108"/>
+      <c r="EV39" s="108"/>
+      <c r="EW39" s="108"/>
+      <c r="EX39" s="108"/>
+      <c r="EY39" s="109"/>
       <c r="EZ39" s="13"/>
       <c r="FA39" s="14"/>
       <c r="FB39" s="14"/>
@@ -10760,7 +10766,7 @@
       <c r="GT39" s="14"/>
       <c r="GU39" s="14"/>
       <c r="GV39" s="14"/>
-      <c r="GW39" s="132"/>
+      <c r="GW39" s="96"/>
     </row>
     <row r="40" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="87" t="s">
@@ -10792,14 +10798,14 @@
       <c r="Y40" s="14"/>
       <c r="Z40" s="14"/>
       <c r="AA40" s="15"/>
-      <c r="AB40" s="110"/>
-      <c r="AC40" s="111"/>
-      <c r="AD40" s="111"/>
-      <c r="AE40" s="111"/>
-      <c r="AF40" s="111"/>
-      <c r="AG40" s="111"/>
-      <c r="AH40" s="111"/>
-      <c r="AI40" s="112"/>
+      <c r="AB40" s="107"/>
+      <c r="AC40" s="108"/>
+      <c r="AD40" s="108"/>
+      <c r="AE40" s="108"/>
+      <c r="AF40" s="108"/>
+      <c r="AG40" s="108"/>
+      <c r="AH40" s="108"/>
+      <c r="AI40" s="109"/>
       <c r="AJ40" s="13"/>
       <c r="AK40" s="14"/>
       <c r="AL40" s="14"/>
@@ -10848,14 +10854,14 @@
       <c r="CC40" s="14"/>
       <c r="CD40" s="14"/>
       <c r="CE40" s="15"/>
-      <c r="CF40" s="110"/>
-      <c r="CG40" s="111"/>
-      <c r="CH40" s="111"/>
-      <c r="CI40" s="111"/>
-      <c r="CJ40" s="111"/>
-      <c r="CK40" s="111"/>
-      <c r="CL40" s="111"/>
-      <c r="CM40" s="112"/>
+      <c r="CF40" s="107"/>
+      <c r="CG40" s="108"/>
+      <c r="CH40" s="108"/>
+      <c r="CI40" s="108"/>
+      <c r="CJ40" s="108"/>
+      <c r="CK40" s="108"/>
+      <c r="CL40" s="108"/>
+      <c r="CM40" s="109"/>
       <c r="CN40" s="13"/>
       <c r="CO40" s="14"/>
       <c r="CP40" s="14"/>
@@ -10914,14 +10920,14 @@
       <c r="EO40" s="14"/>
       <c r="EP40" s="14"/>
       <c r="EQ40" s="15"/>
-      <c r="ER40" s="110"/>
-      <c r="ES40" s="111"/>
-      <c r="ET40" s="111"/>
-      <c r="EU40" s="111"/>
-      <c r="EV40" s="111"/>
-      <c r="EW40" s="111"/>
-      <c r="EX40" s="111"/>
-      <c r="EY40" s="112"/>
+      <c r="ER40" s="107"/>
+      <c r="ES40" s="108"/>
+      <c r="ET40" s="108"/>
+      <c r="EU40" s="108"/>
+      <c r="EV40" s="108"/>
+      <c r="EW40" s="108"/>
+      <c r="EX40" s="108"/>
+      <c r="EY40" s="109"/>
       <c r="EZ40" s="13"/>
       <c r="FA40" s="14"/>
       <c r="FB40" s="14"/>
@@ -10971,13 +10977,13 @@
       <c r="GT40" s="14"/>
       <c r="GU40" s="14"/>
       <c r="GV40" s="14"/>
-      <c r="GW40" s="132"/>
+      <c r="GW40" s="96"/>
     </row>
     <row r="41" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="105" t="s">
+      <c r="A41" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="106"/>
+      <c r="B41" s="132"/>
       <c r="C41" s="60"/>
       <c r="D41" s="13"/>
       <c r="E41" s="14"/>
@@ -11003,14 +11009,14 @@
       <c r="Y41" s="14"/>
       <c r="Z41" s="14"/>
       <c r="AA41" s="15"/>
-      <c r="AB41" s="110"/>
-      <c r="AC41" s="111"/>
-      <c r="AD41" s="111"/>
-      <c r="AE41" s="111"/>
-      <c r="AF41" s="111"/>
-      <c r="AG41" s="111"/>
-      <c r="AH41" s="111"/>
-      <c r="AI41" s="112"/>
+      <c r="AB41" s="107"/>
+      <c r="AC41" s="108"/>
+      <c r="AD41" s="108"/>
+      <c r="AE41" s="108"/>
+      <c r="AF41" s="108"/>
+      <c r="AG41" s="108"/>
+      <c r="AH41" s="108"/>
+      <c r="AI41" s="109"/>
       <c r="AJ41" s="13"/>
       <c r="AK41" s="14"/>
       <c r="AL41" s="14"/>
@@ -11059,14 +11065,14 @@
       <c r="CC41" s="14"/>
       <c r="CD41" s="14"/>
       <c r="CE41" s="15"/>
-      <c r="CF41" s="110"/>
-      <c r="CG41" s="111"/>
-      <c r="CH41" s="111"/>
-      <c r="CI41" s="111"/>
-      <c r="CJ41" s="111"/>
-      <c r="CK41" s="111"/>
-      <c r="CL41" s="111"/>
-      <c r="CM41" s="112"/>
+      <c r="CF41" s="107"/>
+      <c r="CG41" s="108"/>
+      <c r="CH41" s="108"/>
+      <c r="CI41" s="108"/>
+      <c r="CJ41" s="108"/>
+      <c r="CK41" s="108"/>
+      <c r="CL41" s="108"/>
+      <c r="CM41" s="109"/>
       <c r="CN41" s="13"/>
       <c r="CO41" s="14"/>
       <c r="CP41" s="14"/>
@@ -11123,14 +11129,14 @@
       <c r="EO41" s="14"/>
       <c r="EP41" s="14"/>
       <c r="EQ41" s="15"/>
-      <c r="ER41" s="110"/>
-      <c r="ES41" s="111"/>
-      <c r="ET41" s="111"/>
-      <c r="EU41" s="111"/>
-      <c r="EV41" s="111"/>
-      <c r="EW41" s="111"/>
-      <c r="EX41" s="111"/>
-      <c r="EY41" s="112"/>
+      <c r="ER41" s="107"/>
+      <c r="ES41" s="108"/>
+      <c r="ET41" s="108"/>
+      <c r="EU41" s="108"/>
+      <c r="EV41" s="108"/>
+      <c r="EW41" s="108"/>
+      <c r="EX41" s="108"/>
+      <c r="EY41" s="109"/>
       <c r="EZ41" s="13"/>
       <c r="FA41" s="14"/>
       <c r="FB41" s="14"/>
@@ -11180,7 +11186,7 @@
       <c r="GT41" s="14"/>
       <c r="GU41" s="14"/>
       <c r="GV41" s="14"/>
-      <c r="GW41" s="132"/>
+      <c r="GW41" s="96"/>
     </row>
     <row r="42" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A42" s="81" t="s">
@@ -11212,14 +11218,14 @@
       <c r="Y42" s="14"/>
       <c r="Z42" s="14"/>
       <c r="AA42" s="15"/>
-      <c r="AB42" s="110"/>
-      <c r="AC42" s="111"/>
-      <c r="AD42" s="111"/>
-      <c r="AE42" s="111"/>
-      <c r="AF42" s="111"/>
-      <c r="AG42" s="111"/>
-      <c r="AH42" s="111"/>
-      <c r="AI42" s="112"/>
+      <c r="AB42" s="107"/>
+      <c r="AC42" s="108"/>
+      <c r="AD42" s="108"/>
+      <c r="AE42" s="108"/>
+      <c r="AF42" s="108"/>
+      <c r="AG42" s="108"/>
+      <c r="AH42" s="108"/>
+      <c r="AI42" s="109"/>
       <c r="AJ42" s="13"/>
       <c r="AK42" s="14"/>
       <c r="AL42" s="14"/>
@@ -11268,14 +11274,14 @@
       <c r="CC42" s="14"/>
       <c r="CD42" s="14"/>
       <c r="CE42" s="15"/>
-      <c r="CF42" s="110"/>
-      <c r="CG42" s="111"/>
-      <c r="CH42" s="111"/>
-      <c r="CI42" s="111"/>
-      <c r="CJ42" s="111"/>
-      <c r="CK42" s="111"/>
-      <c r="CL42" s="111"/>
-      <c r="CM42" s="112"/>
+      <c r="CF42" s="107"/>
+      <c r="CG42" s="108"/>
+      <c r="CH42" s="108"/>
+      <c r="CI42" s="108"/>
+      <c r="CJ42" s="108"/>
+      <c r="CK42" s="108"/>
+      <c r="CL42" s="108"/>
+      <c r="CM42" s="109"/>
       <c r="CN42" s="13"/>
       <c r="CO42" s="14"/>
       <c r="CP42" s="14"/>
@@ -11336,14 +11342,14 @@
       <c r="EO42" s="14"/>
       <c r="EP42" s="14"/>
       <c r="EQ42" s="15"/>
-      <c r="ER42" s="110"/>
-      <c r="ES42" s="111"/>
-      <c r="ET42" s="111"/>
-      <c r="EU42" s="111"/>
-      <c r="EV42" s="111"/>
-      <c r="EW42" s="111"/>
-      <c r="EX42" s="111"/>
-      <c r="EY42" s="112"/>
+      <c r="ER42" s="107"/>
+      <c r="ES42" s="108"/>
+      <c r="ET42" s="108"/>
+      <c r="EU42" s="108"/>
+      <c r="EV42" s="108"/>
+      <c r="EW42" s="108"/>
+      <c r="EX42" s="108"/>
+      <c r="EY42" s="109"/>
       <c r="EZ42" s="13"/>
       <c r="FA42" s="14"/>
       <c r="FB42" s="14"/>
@@ -11393,7 +11399,7 @@
       <c r="GT42" s="14"/>
       <c r="GU42" s="14"/>
       <c r="GV42" s="14"/>
-      <c r="GW42" s="132"/>
+      <c r="GW42" s="96"/>
     </row>
     <row r="43" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="82" t="s">
@@ -11401,74 +11407,74 @@
       </c>
       <c r="B43" s="67"/>
       <c r="C43" s="16"/>
-      <c r="D43" s="92" t="s">
+      <c r="D43" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="123"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="123"/>
-      <c r="H43" s="123"/>
-      <c r="I43" s="123"/>
-      <c r="J43" s="123"/>
-      <c r="K43" s="123"/>
-      <c r="L43" s="123"/>
-      <c r="M43" s="123"/>
-      <c r="N43" s="123"/>
-      <c r="O43" s="123"/>
-      <c r="P43" s="123"/>
-      <c r="Q43" s="123"/>
-      <c r="R43" s="123"/>
-      <c r="S43" s="123"/>
-      <c r="T43" s="123"/>
-      <c r="U43" s="123"/>
-      <c r="V43" s="123"/>
-      <c r="W43" s="123"/>
-      <c r="X43" s="123"/>
-      <c r="Y43" s="123"/>
-      <c r="Z43" s="123"/>
-      <c r="AA43" s="124"/>
-      <c r="AB43" s="113"/>
-      <c r="AC43" s="114"/>
-      <c r="AD43" s="114"/>
-      <c r="AE43" s="114"/>
-      <c r="AF43" s="114"/>
-      <c r="AG43" s="114"/>
-      <c r="AH43" s="114"/>
-      <c r="AI43" s="115"/>
-      <c r="AJ43" s="92" t="s">
+      <c r="E43" s="117"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="117"/>
+      <c r="J43" s="117"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="117"/>
+      <c r="M43" s="117"/>
+      <c r="N43" s="117"/>
+      <c r="O43" s="117"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="117"/>
+      <c r="V43" s="117"/>
+      <c r="W43" s="117"/>
+      <c r="X43" s="117"/>
+      <c r="Y43" s="117"/>
+      <c r="Z43" s="117"/>
+      <c r="AA43" s="118"/>
+      <c r="AB43" s="110"/>
+      <c r="AC43" s="111"/>
+      <c r="AD43" s="111"/>
+      <c r="AE43" s="111"/>
+      <c r="AF43" s="111"/>
+      <c r="AG43" s="111"/>
+      <c r="AH43" s="111"/>
+      <c r="AI43" s="112"/>
+      <c r="AJ43" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="AK43" s="93"/>
-      <c r="AL43" s="93"/>
-      <c r="AM43" s="93"/>
-      <c r="AN43" s="93"/>
-      <c r="AO43" s="93"/>
-      <c r="AP43" s="93"/>
-      <c r="AQ43" s="93"/>
-      <c r="AR43" s="93"/>
-      <c r="AS43" s="93"/>
-      <c r="AT43" s="93"/>
-      <c r="AU43" s="93"/>
-      <c r="AV43" s="93"/>
-      <c r="AW43" s="93"/>
-      <c r="AX43" s="93"/>
-      <c r="AY43" s="93"/>
-      <c r="AZ43" s="93"/>
-      <c r="BA43" s="93"/>
-      <c r="BB43" s="93"/>
-      <c r="BC43" s="93"/>
-      <c r="BD43" s="93"/>
-      <c r="BE43" s="93"/>
-      <c r="BF43" s="93"/>
-      <c r="BG43" s="93"/>
-      <c r="BH43" s="93"/>
-      <c r="BI43" s="93"/>
-      <c r="BJ43" s="93"/>
-      <c r="BK43" s="93"/>
-      <c r="BL43" s="93"/>
-      <c r="BM43" s="93"/>
-      <c r="BN43" s="93"/>
-      <c r="BO43" s="94"/>
+      <c r="AK43" s="119"/>
+      <c r="AL43" s="119"/>
+      <c r="AM43" s="119"/>
+      <c r="AN43" s="119"/>
+      <c r="AO43" s="119"/>
+      <c r="AP43" s="119"/>
+      <c r="AQ43" s="119"/>
+      <c r="AR43" s="119"/>
+      <c r="AS43" s="119"/>
+      <c r="AT43" s="119"/>
+      <c r="AU43" s="119"/>
+      <c r="AV43" s="119"/>
+      <c r="AW43" s="119"/>
+      <c r="AX43" s="119"/>
+      <c r="AY43" s="119"/>
+      <c r="AZ43" s="119"/>
+      <c r="BA43" s="119"/>
+      <c r="BB43" s="119"/>
+      <c r="BC43" s="119"/>
+      <c r="BD43" s="119"/>
+      <c r="BE43" s="119"/>
+      <c r="BF43" s="119"/>
+      <c r="BG43" s="119"/>
+      <c r="BH43" s="119"/>
+      <c r="BI43" s="119"/>
+      <c r="BJ43" s="119"/>
+      <c r="BK43" s="119"/>
+      <c r="BL43" s="119"/>
+      <c r="BM43" s="119"/>
+      <c r="BN43" s="119"/>
+      <c r="BO43" s="120"/>
       <c r="BP43" s="17"/>
       <c r="BQ43" s="18"/>
       <c r="BR43" s="18"/>
@@ -11485,14 +11491,14 @@
       <c r="CC43" s="18"/>
       <c r="CD43" s="18"/>
       <c r="CE43" s="19"/>
-      <c r="CF43" s="113"/>
-      <c r="CG43" s="114"/>
-      <c r="CH43" s="114"/>
-      <c r="CI43" s="114"/>
-      <c r="CJ43" s="114"/>
-      <c r="CK43" s="114"/>
-      <c r="CL43" s="114"/>
-      <c r="CM43" s="115"/>
+      <c r="CF43" s="110"/>
+      <c r="CG43" s="111"/>
+      <c r="CH43" s="111"/>
+      <c r="CI43" s="111"/>
+      <c r="CJ43" s="111"/>
+      <c r="CK43" s="111"/>
+      <c r="CL43" s="111"/>
+      <c r="CM43" s="112"/>
       <c r="CN43" s="17"/>
       <c r="CO43" s="18"/>
       <c r="CP43" s="18"/>
@@ -11549,14 +11555,14 @@
       <c r="EO43" s="18"/>
       <c r="EP43" s="18"/>
       <c r="EQ43" s="19"/>
-      <c r="ER43" s="113"/>
-      <c r="ES43" s="114"/>
-      <c r="ET43" s="114"/>
-      <c r="EU43" s="114"/>
-      <c r="EV43" s="114"/>
-      <c r="EW43" s="114"/>
-      <c r="EX43" s="114"/>
-      <c r="EY43" s="115"/>
+      <c r="ER43" s="110"/>
+      <c r="ES43" s="111"/>
+      <c r="ET43" s="111"/>
+      <c r="EU43" s="111"/>
+      <c r="EV43" s="111"/>
+      <c r="EW43" s="111"/>
+      <c r="EX43" s="111"/>
+      <c r="EY43" s="112"/>
       <c r="EZ43" s="17"/>
       <c r="FA43" s="18"/>
       <c r="FB43" s="18"/>
@@ -11606,227 +11612,264 @@
       <c r="GT43" s="18"/>
       <c r="GU43" s="18"/>
       <c r="GV43" s="18"/>
-      <c r="GW43" s="132"/>
+      <c r="GW43" s="96"/>
     </row>
     <row r="44" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A44" s="125" t="s">
+      <c r="A44" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="125"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="125"/>
-      <c r="K44" s="125"/>
-      <c r="L44" s="125"/>
-      <c r="M44" s="125"/>
-      <c r="N44" s="125"/>
-      <c r="O44" s="125"/>
-      <c r="P44" s="125"/>
-      <c r="Q44" s="125"/>
-      <c r="R44" s="125"/>
-      <c r="S44" s="125"/>
-      <c r="T44" s="125"/>
-      <c r="U44" s="125"/>
-      <c r="V44" s="125"/>
-      <c r="W44" s="125"/>
-      <c r="X44" s="125"/>
-      <c r="Y44" s="125"/>
-      <c r="Z44" s="125"/>
-      <c r="AA44" s="125"/>
-      <c r="AB44" s="125"/>
-      <c r="AC44" s="125"/>
-      <c r="AD44" s="125"/>
-      <c r="AE44" s="125"/>
-      <c r="AF44" s="125"/>
-      <c r="AG44" s="125"/>
-      <c r="AH44" s="125"/>
-      <c r="AI44" s="125"/>
-      <c r="AJ44" s="125"/>
-      <c r="AK44" s="125"/>
-      <c r="AL44" s="125"/>
-      <c r="AM44" s="125"/>
-      <c r="AN44" s="125"/>
-      <c r="AO44" s="125"/>
-      <c r="AP44" s="125"/>
-      <c r="AQ44" s="125"/>
-      <c r="AR44" s="125"/>
-      <c r="AS44" s="125"/>
-      <c r="AT44" s="125"/>
-      <c r="AU44" s="125"/>
-      <c r="AV44" s="125"/>
-      <c r="AW44" s="125"/>
-      <c r="AX44" s="125"/>
-      <c r="AY44" s="125"/>
-      <c r="AZ44" s="125"/>
-      <c r="BA44" s="125"/>
-      <c r="BB44" s="125"/>
-      <c r="BC44" s="125"/>
-      <c r="BD44" s="125"/>
-      <c r="BE44" s="125"/>
-      <c r="BF44" s="125"/>
-      <c r="BG44" s="125"/>
-      <c r="BH44" s="125"/>
-      <c r="BI44" s="125"/>
-      <c r="BJ44" s="125"/>
-      <c r="BK44" s="125"/>
-      <c r="BL44" s="125"/>
-      <c r="BM44" s="125"/>
-      <c r="BN44" s="125"/>
-      <c r="BO44" s="125"/>
-      <c r="BP44" s="125"/>
-      <c r="BQ44" s="125"/>
-      <c r="BR44" s="125"/>
-      <c r="BS44" s="125"/>
-      <c r="BT44" s="125"/>
-      <c r="BU44" s="125"/>
-      <c r="BV44" s="125"/>
-      <c r="BW44" s="125"/>
-      <c r="BX44" s="125"/>
-      <c r="BY44" s="125"/>
-      <c r="BZ44" s="125"/>
-      <c r="CA44" s="125"/>
-      <c r="CB44" s="125"/>
-      <c r="CC44" s="125"/>
-      <c r="CD44" s="125"/>
-      <c r="CE44" s="125"/>
-      <c r="CF44" s="125"/>
-      <c r="CG44" s="125"/>
-      <c r="CH44" s="125"/>
-      <c r="CI44" s="125"/>
-      <c r="CJ44" s="125"/>
-      <c r="CK44" s="125"/>
-      <c r="CL44" s="125"/>
-      <c r="CM44" s="125"/>
-      <c r="CN44" s="125"/>
-      <c r="CO44" s="125"/>
-      <c r="CP44" s="125"/>
-      <c r="CQ44" s="125"/>
-      <c r="CR44" s="125"/>
-      <c r="CS44" s="125"/>
-      <c r="CT44" s="125"/>
-      <c r="CU44" s="125"/>
-      <c r="CV44" s="125"/>
-      <c r="CW44" s="125"/>
-      <c r="CX44" s="125"/>
-      <c r="CY44" s="125"/>
-      <c r="CZ44" s="125"/>
-      <c r="DA44" s="125"/>
-      <c r="DB44" s="125"/>
-      <c r="DC44" s="125"/>
-      <c r="DD44" s="125"/>
-      <c r="DE44" s="125"/>
-      <c r="DF44" s="125"/>
-      <c r="DG44" s="125"/>
-      <c r="DH44" s="125"/>
-      <c r="DI44" s="125"/>
-      <c r="DJ44" s="125"/>
-      <c r="DK44" s="125"/>
-      <c r="DL44" s="125"/>
-      <c r="DM44" s="125"/>
-      <c r="DN44" s="125"/>
-      <c r="DO44" s="125"/>
-      <c r="DP44" s="125"/>
-      <c r="DQ44" s="125"/>
-      <c r="DR44" s="125"/>
-      <c r="DS44" s="125"/>
-      <c r="DT44" s="125"/>
-      <c r="DU44" s="125"/>
-      <c r="DV44" s="125"/>
-      <c r="DW44" s="125"/>
-      <c r="DX44" s="125"/>
-      <c r="DY44" s="125"/>
-      <c r="DZ44" s="125"/>
-      <c r="EA44" s="125"/>
-      <c r="EB44" s="125"/>
-      <c r="EC44" s="125"/>
-      <c r="ED44" s="125"/>
-      <c r="EE44" s="125"/>
-      <c r="EF44" s="125"/>
-      <c r="EG44" s="125"/>
-      <c r="EH44" s="125"/>
-      <c r="EI44" s="125"/>
-      <c r="EJ44" s="125"/>
-      <c r="EK44" s="125"/>
-      <c r="EL44" s="125"/>
-      <c r="EM44" s="125"/>
-      <c r="EN44" s="125"/>
-      <c r="EO44" s="125"/>
-      <c r="EP44" s="125"/>
-      <c r="EQ44" s="125"/>
-      <c r="ER44" s="125"/>
-      <c r="ES44" s="125"/>
-      <c r="ET44" s="125"/>
-      <c r="EU44" s="125"/>
-      <c r="EV44" s="125"/>
-      <c r="EW44" s="125"/>
-      <c r="EX44" s="125"/>
-      <c r="EY44" s="125"/>
-      <c r="EZ44" s="125"/>
-      <c r="FA44" s="125"/>
-      <c r="FB44" s="125"/>
-      <c r="FC44" s="125"/>
-      <c r="FD44" s="125"/>
-      <c r="FE44" s="125"/>
-      <c r="FF44" s="125"/>
-      <c r="FG44" s="125"/>
-      <c r="FH44" s="125"/>
-      <c r="FI44" s="125"/>
-      <c r="FJ44" s="125"/>
-      <c r="FK44" s="125"/>
-      <c r="FL44" s="125"/>
-      <c r="FM44" s="125"/>
-      <c r="FN44" s="125"/>
-      <c r="FO44" s="125"/>
-      <c r="FP44" s="125"/>
-      <c r="FQ44" s="125"/>
-      <c r="FR44" s="125"/>
-      <c r="FS44" s="125"/>
-      <c r="FT44" s="125"/>
-      <c r="FU44" s="125"/>
-      <c r="FV44" s="125"/>
-      <c r="FW44" s="125"/>
-      <c r="FX44" s="125"/>
-      <c r="FY44" s="125"/>
-      <c r="FZ44" s="125"/>
-      <c r="GA44" s="125"/>
-      <c r="GB44" s="125"/>
-      <c r="GC44" s="125"/>
-      <c r="GD44" s="125"/>
-      <c r="GE44" s="125"/>
-      <c r="GF44" s="125"/>
-      <c r="GG44" s="125"/>
-      <c r="GH44" s="125"/>
-      <c r="GI44" s="125"/>
-      <c r="GJ44" s="125"/>
-      <c r="GK44" s="125"/>
-      <c r="GL44" s="125"/>
-      <c r="GM44" s="125"/>
-      <c r="GN44" s="125"/>
-      <c r="GO44" s="125"/>
-      <c r="GP44" s="125"/>
-      <c r="GQ44" s="125"/>
-      <c r="GR44" s="125"/>
-      <c r="GS44" s="125"/>
-      <c r="GT44" s="125"/>
-      <c r="GU44" s="125"/>
-      <c r="GV44" s="125"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="97"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="97"/>
+      <c r="O44" s="97"/>
+      <c r="P44" s="97"/>
+      <c r="Q44" s="97"/>
+      <c r="R44" s="97"/>
+      <c r="S44" s="97"/>
+      <c r="T44" s="97"/>
+      <c r="U44" s="97"/>
+      <c r="V44" s="97"/>
+      <c r="W44" s="97"/>
+      <c r="X44" s="97"/>
+      <c r="Y44" s="97"/>
+      <c r="Z44" s="97"/>
+      <c r="AA44" s="97"/>
+      <c r="AB44" s="97"/>
+      <c r="AC44" s="97"/>
+      <c r="AD44" s="97"/>
+      <c r="AE44" s="97"/>
+      <c r="AF44" s="97"/>
+      <c r="AG44" s="97"/>
+      <c r="AH44" s="97"/>
+      <c r="AI44" s="97"/>
+      <c r="AJ44" s="97"/>
+      <c r="AK44" s="97"/>
+      <c r="AL44" s="97"/>
+      <c r="AM44" s="97"/>
+      <c r="AN44" s="97"/>
+      <c r="AO44" s="97"/>
+      <c r="AP44" s="97"/>
+      <c r="AQ44" s="97"/>
+      <c r="AR44" s="97"/>
+      <c r="AS44" s="97"/>
+      <c r="AT44" s="97"/>
+      <c r="AU44" s="97"/>
+      <c r="AV44" s="97"/>
+      <c r="AW44" s="97"/>
+      <c r="AX44" s="97"/>
+      <c r="AY44" s="97"/>
+      <c r="AZ44" s="97"/>
+      <c r="BA44" s="97"/>
+      <c r="BB44" s="97"/>
+      <c r="BC44" s="97"/>
+      <c r="BD44" s="97"/>
+      <c r="BE44" s="97"/>
+      <c r="BF44" s="97"/>
+      <c r="BG44" s="97"/>
+      <c r="BH44" s="97"/>
+      <c r="BI44" s="97"/>
+      <c r="BJ44" s="97"/>
+      <c r="BK44" s="97"/>
+      <c r="BL44" s="97"/>
+      <c r="BM44" s="97"/>
+      <c r="BN44" s="97"/>
+      <c r="BO44" s="97"/>
+      <c r="BP44" s="97"/>
+      <c r="BQ44" s="97"/>
+      <c r="BR44" s="97"/>
+      <c r="BS44" s="97"/>
+      <c r="BT44" s="97"/>
+      <c r="BU44" s="97"/>
+      <c r="BV44" s="97"/>
+      <c r="BW44" s="97"/>
+      <c r="BX44" s="97"/>
+      <c r="BY44" s="97"/>
+      <c r="BZ44" s="97"/>
+      <c r="CA44" s="97"/>
+      <c r="CB44" s="97"/>
+      <c r="CC44" s="97"/>
+      <c r="CD44" s="97"/>
+      <c r="CE44" s="97"/>
+      <c r="CF44" s="97"/>
+      <c r="CG44" s="97"/>
+      <c r="CH44" s="97"/>
+      <c r="CI44" s="97"/>
+      <c r="CJ44" s="97"/>
+      <c r="CK44" s="97"/>
+      <c r="CL44" s="97"/>
+      <c r="CM44" s="97"/>
+      <c r="CN44" s="97"/>
+      <c r="CO44" s="97"/>
+      <c r="CP44" s="97"/>
+      <c r="CQ44" s="97"/>
+      <c r="CR44" s="97"/>
+      <c r="CS44" s="97"/>
+      <c r="CT44" s="97"/>
+      <c r="CU44" s="97"/>
+      <c r="CV44" s="97"/>
+      <c r="CW44" s="97"/>
+      <c r="CX44" s="97"/>
+      <c r="CY44" s="97"/>
+      <c r="CZ44" s="97"/>
+      <c r="DA44" s="97"/>
+      <c r="DB44" s="97"/>
+      <c r="DC44" s="97"/>
+      <c r="DD44" s="97"/>
+      <c r="DE44" s="97"/>
+      <c r="DF44" s="97"/>
+      <c r="DG44" s="97"/>
+      <c r="DH44" s="97"/>
+      <c r="DI44" s="97"/>
+      <c r="DJ44" s="97"/>
+      <c r="DK44" s="97"/>
+      <c r="DL44" s="97"/>
+      <c r="DM44" s="97"/>
+      <c r="DN44" s="97"/>
+      <c r="DO44" s="97"/>
+      <c r="DP44" s="97"/>
+      <c r="DQ44" s="97"/>
+      <c r="DR44" s="97"/>
+      <c r="DS44" s="97"/>
+      <c r="DT44" s="97"/>
+      <c r="DU44" s="97"/>
+      <c r="DV44" s="97"/>
+      <c r="DW44" s="97"/>
+      <c r="DX44" s="97"/>
+      <c r="DY44" s="97"/>
+      <c r="DZ44" s="97"/>
+      <c r="EA44" s="97"/>
+      <c r="EB44" s="97"/>
+      <c r="EC44" s="97"/>
+      <c r="ED44" s="97"/>
+      <c r="EE44" s="97"/>
+      <c r="EF44" s="97"/>
+      <c r="EG44" s="97"/>
+      <c r="EH44" s="97"/>
+      <c r="EI44" s="97"/>
+      <c r="EJ44" s="97"/>
+      <c r="EK44" s="97"/>
+      <c r="EL44" s="97"/>
+      <c r="EM44" s="97"/>
+      <c r="EN44" s="97"/>
+      <c r="EO44" s="97"/>
+      <c r="EP44" s="97"/>
+      <c r="EQ44" s="97"/>
+      <c r="ER44" s="97"/>
+      <c r="ES44" s="97"/>
+      <c r="ET44" s="97"/>
+      <c r="EU44" s="97"/>
+      <c r="EV44" s="97"/>
+      <c r="EW44" s="97"/>
+      <c r="EX44" s="97"/>
+      <c r="EY44" s="97"/>
+      <c r="EZ44" s="97"/>
+      <c r="FA44" s="97"/>
+      <c r="FB44" s="97"/>
+      <c r="FC44" s="97"/>
+      <c r="FD44" s="97"/>
+      <c r="FE44" s="97"/>
+      <c r="FF44" s="97"/>
+      <c r="FG44" s="97"/>
+      <c r="FH44" s="97"/>
+      <c r="FI44" s="97"/>
+      <c r="FJ44" s="97"/>
+      <c r="FK44" s="97"/>
+      <c r="FL44" s="97"/>
+      <c r="FM44" s="97"/>
+      <c r="FN44" s="97"/>
+      <c r="FO44" s="97"/>
+      <c r="FP44" s="97"/>
+      <c r="FQ44" s="97"/>
+      <c r="FR44" s="97"/>
+      <c r="FS44" s="97"/>
+      <c r="FT44" s="97"/>
+      <c r="FU44" s="97"/>
+      <c r="FV44" s="97"/>
+      <c r="FW44" s="97"/>
+      <c r="FX44" s="97"/>
+      <c r="FY44" s="97"/>
+      <c r="FZ44" s="97"/>
+      <c r="GA44" s="97"/>
+      <c r="GB44" s="97"/>
+      <c r="GC44" s="97"/>
+      <c r="GD44" s="97"/>
+      <c r="GE44" s="97"/>
+      <c r="GF44" s="97"/>
+      <c r="GG44" s="97"/>
+      <c r="GH44" s="97"/>
+      <c r="GI44" s="97"/>
+      <c r="GJ44" s="97"/>
+      <c r="GK44" s="97"/>
+      <c r="GL44" s="97"/>
+      <c r="GM44" s="97"/>
+      <c r="GN44" s="97"/>
+      <c r="GO44" s="97"/>
+      <c r="GP44" s="97"/>
+      <c r="GQ44" s="97"/>
+      <c r="GR44" s="97"/>
+      <c r="GS44" s="97"/>
+      <c r="GT44" s="97"/>
+      <c r="GU44" s="97"/>
+      <c r="GV44" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="FH4:FK4"/>
-    <mergeCell ref="DT4:DW4"/>
-    <mergeCell ref="DX4:EA4"/>
-    <mergeCell ref="EB4:EE4"/>
-    <mergeCell ref="EF4:EI4"/>
-    <mergeCell ref="EV4:EY4"/>
-    <mergeCell ref="EZ4:FC4"/>
-    <mergeCell ref="EN4:EQ4"/>
-    <mergeCell ref="ER4:EU4"/>
+    <mergeCell ref="AJ43:BO43"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="ER6:EY43"/>
+    <mergeCell ref="AB6:AI43"/>
+    <mergeCell ref="CF6:CM43"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="BT4:BW4"/>
+    <mergeCell ref="DD4:DG4"/>
+    <mergeCell ref="DH4:DK4"/>
+    <mergeCell ref="D43:AA43"/>
+    <mergeCell ref="A44:GV44"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="DT2:FG3"/>
+    <mergeCell ref="FH2:GV3"/>
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="AR2:CE3"/>
+    <mergeCell ref="CF2:DS3"/>
+    <mergeCell ref="CR4:CU4"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="EJ4:EM4"/>
+    <mergeCell ref="DL4:DO4"/>
+    <mergeCell ref="DP4:DS4"/>
+    <mergeCell ref="GW4:GW43"/>
+    <mergeCell ref="FX4:GA4"/>
+    <mergeCell ref="GB4:GE4"/>
+    <mergeCell ref="GF4:GI4"/>
+    <mergeCell ref="GJ4:GM4"/>
+    <mergeCell ref="GO4:GR4"/>
+    <mergeCell ref="GS4:GV4"/>
     <mergeCell ref="FT4:FW4"/>
     <mergeCell ref="AZ4:BC4"/>
     <mergeCell ref="BD4:BG4"/>
@@ -11843,52 +11886,15 @@
     <mergeCell ref="CV4:CY4"/>
     <mergeCell ref="FL4:FO4"/>
     <mergeCell ref="FP4:FS4"/>
-    <mergeCell ref="GW4:GW43"/>
-    <mergeCell ref="FX4:GA4"/>
-    <mergeCell ref="GB4:GE4"/>
-    <mergeCell ref="GF4:GI4"/>
-    <mergeCell ref="GJ4:GM4"/>
-    <mergeCell ref="GO4:GR4"/>
-    <mergeCell ref="GS4:GV4"/>
-    <mergeCell ref="A44:GV44"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="DT2:FG3"/>
-    <mergeCell ref="FH2:GV3"/>
-    <mergeCell ref="D2:AQ3"/>
-    <mergeCell ref="AR2:CE3"/>
-    <mergeCell ref="CF2:DS3"/>
-    <mergeCell ref="CR4:CU4"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="EJ4:EM4"/>
-    <mergeCell ref="DL4:DO4"/>
-    <mergeCell ref="DP4:DS4"/>
-    <mergeCell ref="ER6:EY43"/>
-    <mergeCell ref="AB6:AI43"/>
-    <mergeCell ref="CF6:CM43"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="BT4:BW4"/>
-    <mergeCell ref="DD4:DG4"/>
-    <mergeCell ref="DH4:DK4"/>
-    <mergeCell ref="D43:AA43"/>
-    <mergeCell ref="AJ43:BO43"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="FH4:FK4"/>
+    <mergeCell ref="DT4:DW4"/>
+    <mergeCell ref="DX4:EA4"/>
+    <mergeCell ref="EB4:EE4"/>
+    <mergeCell ref="EF4:EI4"/>
+    <mergeCell ref="EV4:EY4"/>
+    <mergeCell ref="EZ4:FC4"/>
+    <mergeCell ref="EN4:EQ4"/>
+    <mergeCell ref="ER4:EU4"/>
   </mergeCells>
   <conditionalFormatting sqref="B6 B8:B9 B11:B13 B15:B19 B40 B42:B43 B21:B38">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">

--- a/docs/2_CAND_Modele_Planning_2024.xlsx
+++ b/docs/2_CAND_Modele_Planning_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C5823D-7DAB-4E9D-88F0-960BAE0E98C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F29723-CD05-4FD0-945B-F839B1F4E841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36000" yWindow="-45" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="60">
   <si>
     <t>Tâches</t>
   </si>
@@ -1068,7 +1068,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1277,10 +1277,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1427,6 +1423,122 @@
       <alignment horizontal="left" indent="2"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1435,160 +1547,44 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1653,8 +1649,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>130</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>155</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -1672,7 +1668,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="4238622" y="1038225"/>
-          <a:ext cx="18688053" cy="6391275"/>
+          <a:ext cx="22145628" cy="6391275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2081,10 +2077,10 @@
   <dimension ref="A1:GW44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="CO6" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="EA20" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="EJ28" sqref="EJ28"/>
+      <selection pane="bottomRight" activeCell="FA29" sqref="FA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2099,11 +2095,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:205" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2149,427 +2145,427 @@
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="114">
+      <c r="B2" s="116">
         <v>148477</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="100" t="s">
+      <c r="C2" s="117"/>
+      <c r="D2" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="100"/>
-      <c r="AE2" s="100"/>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="100"/>
-      <c r="AJ2" s="100"/>
-      <c r="AK2" s="100"/>
-      <c r="AL2" s="100"/>
-      <c r="AM2" s="100"/>
-      <c r="AN2" s="100"/>
-      <c r="AO2" s="100"/>
-      <c r="AP2" s="100"/>
-      <c r="AQ2" s="100"/>
-      <c r="AR2" s="100" t="s">
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="127"/>
+      <c r="AH2" s="127"/>
+      <c r="AI2" s="127"/>
+      <c r="AJ2" s="127"/>
+      <c r="AK2" s="127"/>
+      <c r="AL2" s="127"/>
+      <c r="AM2" s="127"/>
+      <c r="AN2" s="127"/>
+      <c r="AO2" s="127"/>
+      <c r="AP2" s="127"/>
+      <c r="AQ2" s="127"/>
+      <c r="AR2" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="100"/>
-      <c r="AT2" s="100"/>
-      <c r="AU2" s="100"/>
-      <c r="AV2" s="100"/>
-      <c r="AW2" s="100"/>
-      <c r="AX2" s="100"/>
-      <c r="AY2" s="100"/>
-      <c r="AZ2" s="100"/>
-      <c r="BA2" s="100"/>
-      <c r="BB2" s="100"/>
-      <c r="BC2" s="100"/>
-      <c r="BD2" s="100"/>
-      <c r="BE2" s="100"/>
-      <c r="BF2" s="100"/>
-      <c r="BG2" s="100"/>
-      <c r="BH2" s="100"/>
-      <c r="BI2" s="100"/>
-      <c r="BJ2" s="100"/>
-      <c r="BK2" s="100"/>
-      <c r="BL2" s="100"/>
-      <c r="BM2" s="100"/>
-      <c r="BN2" s="100"/>
-      <c r="BO2" s="100"/>
-      <c r="BP2" s="100"/>
-      <c r="BQ2" s="100"/>
-      <c r="BR2" s="100"/>
-      <c r="BS2" s="100"/>
-      <c r="BT2" s="100"/>
-      <c r="BU2" s="100"/>
-      <c r="BV2" s="100"/>
-      <c r="BW2" s="100"/>
-      <c r="BX2" s="100"/>
-      <c r="BY2" s="100"/>
-      <c r="BZ2" s="100"/>
-      <c r="CA2" s="100"/>
-      <c r="CB2" s="100"/>
-      <c r="CC2" s="100"/>
-      <c r="CD2" s="100"/>
-      <c r="CE2" s="100"/>
-      <c r="CF2" s="100" t="s">
+      <c r="AS2" s="127"/>
+      <c r="AT2" s="127"/>
+      <c r="AU2" s="127"/>
+      <c r="AV2" s="127"/>
+      <c r="AW2" s="127"/>
+      <c r="AX2" s="127"/>
+      <c r="AY2" s="127"/>
+      <c r="AZ2" s="127"/>
+      <c r="BA2" s="127"/>
+      <c r="BB2" s="127"/>
+      <c r="BC2" s="127"/>
+      <c r="BD2" s="127"/>
+      <c r="BE2" s="127"/>
+      <c r="BF2" s="127"/>
+      <c r="BG2" s="127"/>
+      <c r="BH2" s="127"/>
+      <c r="BI2" s="127"/>
+      <c r="BJ2" s="127"/>
+      <c r="BK2" s="127"/>
+      <c r="BL2" s="127"/>
+      <c r="BM2" s="127"/>
+      <c r="BN2" s="127"/>
+      <c r="BO2" s="127"/>
+      <c r="BP2" s="127"/>
+      <c r="BQ2" s="127"/>
+      <c r="BR2" s="127"/>
+      <c r="BS2" s="127"/>
+      <c r="BT2" s="127"/>
+      <c r="BU2" s="127"/>
+      <c r="BV2" s="127"/>
+      <c r="BW2" s="127"/>
+      <c r="BX2" s="127"/>
+      <c r="BY2" s="127"/>
+      <c r="BZ2" s="127"/>
+      <c r="CA2" s="127"/>
+      <c r="CB2" s="127"/>
+      <c r="CC2" s="127"/>
+      <c r="CD2" s="127"/>
+      <c r="CE2" s="127"/>
+      <c r="CF2" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="CG2" s="100"/>
-      <c r="CH2" s="100"/>
-      <c r="CI2" s="100"/>
-      <c r="CJ2" s="100"/>
-      <c r="CK2" s="100"/>
-      <c r="CL2" s="100"/>
-      <c r="CM2" s="100"/>
-      <c r="CN2" s="100"/>
-      <c r="CO2" s="100"/>
-      <c r="CP2" s="100"/>
-      <c r="CQ2" s="100"/>
-      <c r="CR2" s="100"/>
-      <c r="CS2" s="100"/>
-      <c r="CT2" s="100"/>
-      <c r="CU2" s="100"/>
-      <c r="CV2" s="100"/>
-      <c r="CW2" s="100"/>
-      <c r="CX2" s="100"/>
-      <c r="CY2" s="100"/>
-      <c r="CZ2" s="100"/>
-      <c r="DA2" s="100"/>
-      <c r="DB2" s="100"/>
-      <c r="DC2" s="100"/>
-      <c r="DD2" s="100"/>
-      <c r="DE2" s="100"/>
-      <c r="DF2" s="100"/>
-      <c r="DG2" s="100"/>
-      <c r="DH2" s="100"/>
-      <c r="DI2" s="100"/>
-      <c r="DJ2" s="100"/>
-      <c r="DK2" s="100"/>
-      <c r="DL2" s="100"/>
-      <c r="DM2" s="100"/>
-      <c r="DN2" s="100"/>
-      <c r="DO2" s="100"/>
-      <c r="DP2" s="100"/>
-      <c r="DQ2" s="100"/>
-      <c r="DR2" s="100"/>
-      <c r="DS2" s="100"/>
-      <c r="DT2" s="100" t="s">
+      <c r="CG2" s="127"/>
+      <c r="CH2" s="127"/>
+      <c r="CI2" s="127"/>
+      <c r="CJ2" s="127"/>
+      <c r="CK2" s="127"/>
+      <c r="CL2" s="127"/>
+      <c r="CM2" s="127"/>
+      <c r="CN2" s="127"/>
+      <c r="CO2" s="127"/>
+      <c r="CP2" s="127"/>
+      <c r="CQ2" s="127"/>
+      <c r="CR2" s="127"/>
+      <c r="CS2" s="127"/>
+      <c r="CT2" s="127"/>
+      <c r="CU2" s="127"/>
+      <c r="CV2" s="127"/>
+      <c r="CW2" s="127"/>
+      <c r="CX2" s="127"/>
+      <c r="CY2" s="127"/>
+      <c r="CZ2" s="127"/>
+      <c r="DA2" s="127"/>
+      <c r="DB2" s="127"/>
+      <c r="DC2" s="127"/>
+      <c r="DD2" s="127"/>
+      <c r="DE2" s="127"/>
+      <c r="DF2" s="127"/>
+      <c r="DG2" s="127"/>
+      <c r="DH2" s="127"/>
+      <c r="DI2" s="127"/>
+      <c r="DJ2" s="127"/>
+      <c r="DK2" s="127"/>
+      <c r="DL2" s="127"/>
+      <c r="DM2" s="127"/>
+      <c r="DN2" s="127"/>
+      <c r="DO2" s="127"/>
+      <c r="DP2" s="127"/>
+      <c r="DQ2" s="127"/>
+      <c r="DR2" s="127"/>
+      <c r="DS2" s="127"/>
+      <c r="DT2" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="DU2" s="100"/>
-      <c r="DV2" s="100"/>
-      <c r="DW2" s="100"/>
-      <c r="DX2" s="100"/>
-      <c r="DY2" s="100"/>
-      <c r="DZ2" s="100"/>
-      <c r="EA2" s="100"/>
-      <c r="EB2" s="100"/>
-      <c r="EC2" s="100"/>
-      <c r="ED2" s="100"/>
-      <c r="EE2" s="100"/>
-      <c r="EF2" s="100"/>
-      <c r="EG2" s="100"/>
-      <c r="EH2" s="100"/>
-      <c r="EI2" s="100"/>
-      <c r="EJ2" s="100"/>
-      <c r="EK2" s="100"/>
-      <c r="EL2" s="100"/>
-      <c r="EM2" s="100"/>
-      <c r="EN2" s="100"/>
-      <c r="EO2" s="100"/>
-      <c r="EP2" s="100"/>
-      <c r="EQ2" s="100"/>
-      <c r="ER2" s="100"/>
-      <c r="ES2" s="100"/>
-      <c r="ET2" s="100"/>
-      <c r="EU2" s="100"/>
-      <c r="EV2" s="100"/>
-      <c r="EW2" s="100"/>
-      <c r="EX2" s="100"/>
-      <c r="EY2" s="100"/>
-      <c r="EZ2" s="100"/>
-      <c r="FA2" s="100"/>
-      <c r="FB2" s="100"/>
-      <c r="FC2" s="100"/>
-      <c r="FD2" s="100"/>
-      <c r="FE2" s="100"/>
-      <c r="FF2" s="100"/>
-      <c r="FG2" s="100"/>
-      <c r="FH2" s="100" t="s">
+      <c r="DU2" s="127"/>
+      <c r="DV2" s="127"/>
+      <c r="DW2" s="127"/>
+      <c r="DX2" s="127"/>
+      <c r="DY2" s="127"/>
+      <c r="DZ2" s="127"/>
+      <c r="EA2" s="127"/>
+      <c r="EB2" s="127"/>
+      <c r="EC2" s="127"/>
+      <c r="ED2" s="127"/>
+      <c r="EE2" s="127"/>
+      <c r="EF2" s="127"/>
+      <c r="EG2" s="127"/>
+      <c r="EH2" s="127"/>
+      <c r="EI2" s="127"/>
+      <c r="EJ2" s="127"/>
+      <c r="EK2" s="127"/>
+      <c r="EL2" s="127"/>
+      <c r="EM2" s="127"/>
+      <c r="EN2" s="127"/>
+      <c r="EO2" s="127"/>
+      <c r="EP2" s="127"/>
+      <c r="EQ2" s="127"/>
+      <c r="ER2" s="127"/>
+      <c r="ES2" s="127"/>
+      <c r="ET2" s="127"/>
+      <c r="EU2" s="127"/>
+      <c r="EV2" s="127"/>
+      <c r="EW2" s="127"/>
+      <c r="EX2" s="127"/>
+      <c r="EY2" s="127"/>
+      <c r="EZ2" s="127"/>
+      <c r="FA2" s="127"/>
+      <c r="FB2" s="127"/>
+      <c r="FC2" s="127"/>
+      <c r="FD2" s="127"/>
+      <c r="FE2" s="127"/>
+      <c r="FF2" s="127"/>
+      <c r="FG2" s="127"/>
+      <c r="FH2" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="FI2" s="100"/>
-      <c r="FJ2" s="100"/>
-      <c r="FK2" s="100"/>
-      <c r="FL2" s="100"/>
-      <c r="FM2" s="100"/>
-      <c r="FN2" s="100"/>
-      <c r="FO2" s="100"/>
-      <c r="FP2" s="100"/>
-      <c r="FQ2" s="100"/>
-      <c r="FR2" s="100"/>
-      <c r="FS2" s="100"/>
-      <c r="FT2" s="100"/>
-      <c r="FU2" s="100"/>
-      <c r="FV2" s="100"/>
-      <c r="FW2" s="100"/>
-      <c r="FX2" s="100"/>
-      <c r="FY2" s="100"/>
-      <c r="FZ2" s="100"/>
-      <c r="GA2" s="100"/>
-      <c r="GB2" s="100"/>
-      <c r="GC2" s="100"/>
-      <c r="GD2" s="100"/>
-      <c r="GE2" s="100"/>
-      <c r="GF2" s="100"/>
-      <c r="GG2" s="100"/>
-      <c r="GH2" s="100"/>
-      <c r="GI2" s="100"/>
-      <c r="GJ2" s="100"/>
-      <c r="GK2" s="100"/>
-      <c r="GL2" s="100"/>
-      <c r="GM2" s="100"/>
-      <c r="GN2" s="100"/>
-      <c r="GO2" s="100"/>
-      <c r="GP2" s="100"/>
-      <c r="GQ2" s="100"/>
-      <c r="GR2" s="100"/>
-      <c r="GS2" s="100"/>
-      <c r="GT2" s="100"/>
-      <c r="GU2" s="100"/>
-      <c r="GV2" s="100"/>
+      <c r="FI2" s="127"/>
+      <c r="FJ2" s="127"/>
+      <c r="FK2" s="127"/>
+      <c r="FL2" s="127"/>
+      <c r="FM2" s="127"/>
+      <c r="FN2" s="127"/>
+      <c r="FO2" s="127"/>
+      <c r="FP2" s="127"/>
+      <c r="FQ2" s="127"/>
+      <c r="FR2" s="127"/>
+      <c r="FS2" s="127"/>
+      <c r="FT2" s="127"/>
+      <c r="FU2" s="127"/>
+      <c r="FV2" s="127"/>
+      <c r="FW2" s="127"/>
+      <c r="FX2" s="127"/>
+      <c r="FY2" s="127"/>
+      <c r="FZ2" s="127"/>
+      <c r="GA2" s="127"/>
+      <c r="GB2" s="127"/>
+      <c r="GC2" s="127"/>
+      <c r="GD2" s="127"/>
+      <c r="GE2" s="127"/>
+      <c r="GF2" s="127"/>
+      <c r="GG2" s="127"/>
+      <c r="GH2" s="127"/>
+      <c r="GI2" s="127"/>
+      <c r="GJ2" s="127"/>
+      <c r="GK2" s="127"/>
+      <c r="GL2" s="127"/>
+      <c r="GM2" s="127"/>
+      <c r="GN2" s="127"/>
+      <c r="GO2" s="127"/>
+      <c r="GP2" s="127"/>
+      <c r="GQ2" s="127"/>
+      <c r="GR2" s="127"/>
+      <c r="GS2" s="127"/>
+      <c r="GT2" s="127"/>
+      <c r="GU2" s="127"/>
+      <c r="GV2" s="127"/>
     </row>
     <row r="3" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="101"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
-      <c r="Z3" s="101"/>
-      <c r="AA3" s="101"/>
-      <c r="AB3" s="101"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="101"/>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="101"/>
-      <c r="AG3" s="101"/>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="101"/>
-      <c r="AJ3" s="101"/>
-      <c r="AK3" s="101"/>
-      <c r="AL3" s="101"/>
-      <c r="AM3" s="101"/>
-      <c r="AN3" s="101"/>
-      <c r="AO3" s="101"/>
-      <c r="AP3" s="101"/>
-      <c r="AQ3" s="101"/>
-      <c r="AR3" s="101"/>
-      <c r="AS3" s="101"/>
-      <c r="AT3" s="101"/>
-      <c r="AU3" s="101"/>
-      <c r="AV3" s="101"/>
-      <c r="AW3" s="101"/>
-      <c r="AX3" s="101"/>
-      <c r="AY3" s="101"/>
-      <c r="AZ3" s="101"/>
-      <c r="BA3" s="101"/>
-      <c r="BB3" s="101"/>
-      <c r="BC3" s="101"/>
-      <c r="BD3" s="101"/>
-      <c r="BE3" s="101"/>
-      <c r="BF3" s="101"/>
-      <c r="BG3" s="101"/>
-      <c r="BH3" s="101"/>
-      <c r="BI3" s="101"/>
-      <c r="BJ3" s="101"/>
-      <c r="BK3" s="101"/>
-      <c r="BL3" s="101"/>
-      <c r="BM3" s="101"/>
-      <c r="BN3" s="101"/>
-      <c r="BO3" s="101"/>
-      <c r="BP3" s="101"/>
-      <c r="BQ3" s="101"/>
-      <c r="BR3" s="101"/>
-      <c r="BS3" s="101"/>
-      <c r="BT3" s="101"/>
-      <c r="BU3" s="101"/>
-      <c r="BV3" s="101"/>
-      <c r="BW3" s="101"/>
-      <c r="BX3" s="101"/>
-      <c r="BY3" s="101"/>
-      <c r="BZ3" s="101"/>
-      <c r="CA3" s="101"/>
-      <c r="CB3" s="101"/>
-      <c r="CC3" s="101"/>
-      <c r="CD3" s="101"/>
-      <c r="CE3" s="101"/>
-      <c r="CF3" s="101"/>
-      <c r="CG3" s="101"/>
-      <c r="CH3" s="101"/>
-      <c r="CI3" s="101"/>
-      <c r="CJ3" s="101"/>
-      <c r="CK3" s="101"/>
-      <c r="CL3" s="101"/>
-      <c r="CM3" s="101"/>
-      <c r="CN3" s="101"/>
-      <c r="CO3" s="101"/>
-      <c r="CP3" s="101"/>
-      <c r="CQ3" s="101"/>
-      <c r="CR3" s="101"/>
-      <c r="CS3" s="101"/>
-      <c r="CT3" s="101"/>
-      <c r="CU3" s="101"/>
-      <c r="CV3" s="101"/>
-      <c r="CW3" s="101"/>
-      <c r="CX3" s="101"/>
-      <c r="CY3" s="101"/>
-      <c r="CZ3" s="101"/>
-      <c r="DA3" s="101"/>
-      <c r="DB3" s="101"/>
-      <c r="DC3" s="101"/>
-      <c r="DD3" s="101"/>
-      <c r="DE3" s="101"/>
-      <c r="DF3" s="101"/>
-      <c r="DG3" s="101"/>
-      <c r="DH3" s="101"/>
-      <c r="DI3" s="101"/>
-      <c r="DJ3" s="101"/>
-      <c r="DK3" s="101"/>
-      <c r="DL3" s="101"/>
-      <c r="DM3" s="101"/>
-      <c r="DN3" s="101"/>
-      <c r="DO3" s="101"/>
-      <c r="DP3" s="101"/>
-      <c r="DQ3" s="101"/>
-      <c r="DR3" s="101"/>
-      <c r="DS3" s="101"/>
-      <c r="DT3" s="101"/>
-      <c r="DU3" s="101"/>
-      <c r="DV3" s="101"/>
-      <c r="DW3" s="101"/>
-      <c r="DX3" s="101"/>
-      <c r="DY3" s="101"/>
-      <c r="DZ3" s="101"/>
-      <c r="EA3" s="101"/>
-      <c r="EB3" s="101"/>
-      <c r="EC3" s="101"/>
-      <c r="ED3" s="101"/>
-      <c r="EE3" s="101"/>
-      <c r="EF3" s="101"/>
-      <c r="EG3" s="101"/>
-      <c r="EH3" s="101"/>
-      <c r="EI3" s="101"/>
-      <c r="EJ3" s="101"/>
-      <c r="EK3" s="101"/>
-      <c r="EL3" s="101"/>
-      <c r="EM3" s="101"/>
-      <c r="EN3" s="101"/>
-      <c r="EO3" s="101"/>
-      <c r="EP3" s="101"/>
-      <c r="EQ3" s="101"/>
-      <c r="ER3" s="101"/>
-      <c r="ES3" s="101"/>
-      <c r="ET3" s="101"/>
-      <c r="EU3" s="101"/>
-      <c r="EV3" s="101"/>
-      <c r="EW3" s="101"/>
-      <c r="EX3" s="101"/>
-      <c r="EY3" s="101"/>
-      <c r="EZ3" s="101"/>
-      <c r="FA3" s="101"/>
-      <c r="FB3" s="101"/>
-      <c r="FC3" s="101"/>
-      <c r="FD3" s="101"/>
-      <c r="FE3" s="101"/>
-      <c r="FF3" s="101"/>
-      <c r="FG3" s="101"/>
-      <c r="FH3" s="101"/>
-      <c r="FI3" s="101"/>
-      <c r="FJ3" s="101"/>
-      <c r="FK3" s="101"/>
-      <c r="FL3" s="101"/>
-      <c r="FM3" s="101"/>
-      <c r="FN3" s="101"/>
-      <c r="FO3" s="101"/>
-      <c r="FP3" s="101"/>
-      <c r="FQ3" s="101"/>
-      <c r="FR3" s="101"/>
-      <c r="FS3" s="101"/>
-      <c r="FT3" s="101"/>
-      <c r="FU3" s="101"/>
-      <c r="FV3" s="101"/>
-      <c r="FW3" s="101"/>
-      <c r="FX3" s="101"/>
-      <c r="FY3" s="101"/>
-      <c r="FZ3" s="101"/>
-      <c r="GA3" s="101"/>
-      <c r="GB3" s="101"/>
-      <c r="GC3" s="101"/>
-      <c r="GD3" s="101"/>
-      <c r="GE3" s="101"/>
-      <c r="GF3" s="101"/>
-      <c r="GG3" s="101"/>
-      <c r="GH3" s="101"/>
-      <c r="GI3" s="101"/>
-      <c r="GJ3" s="101"/>
-      <c r="GK3" s="101"/>
-      <c r="GL3" s="101"/>
-      <c r="GM3" s="101"/>
-      <c r="GN3" s="100"/>
-      <c r="GO3" s="101"/>
-      <c r="GP3" s="101"/>
-      <c r="GQ3" s="101"/>
-      <c r="GR3" s="101"/>
-      <c r="GS3" s="101"/>
-      <c r="GT3" s="101"/>
-      <c r="GU3" s="101"/>
-      <c r="GV3" s="101"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
+      <c r="AI3" s="128"/>
+      <c r="AJ3" s="128"/>
+      <c r="AK3" s="128"/>
+      <c r="AL3" s="128"/>
+      <c r="AM3" s="128"/>
+      <c r="AN3" s="128"/>
+      <c r="AO3" s="128"/>
+      <c r="AP3" s="128"/>
+      <c r="AQ3" s="128"/>
+      <c r="AR3" s="128"/>
+      <c r="AS3" s="128"/>
+      <c r="AT3" s="128"/>
+      <c r="AU3" s="128"/>
+      <c r="AV3" s="128"/>
+      <c r="AW3" s="128"/>
+      <c r="AX3" s="128"/>
+      <c r="AY3" s="128"/>
+      <c r="AZ3" s="128"/>
+      <c r="BA3" s="128"/>
+      <c r="BB3" s="128"/>
+      <c r="BC3" s="128"/>
+      <c r="BD3" s="128"/>
+      <c r="BE3" s="128"/>
+      <c r="BF3" s="128"/>
+      <c r="BG3" s="128"/>
+      <c r="BH3" s="128"/>
+      <c r="BI3" s="128"/>
+      <c r="BJ3" s="128"/>
+      <c r="BK3" s="128"/>
+      <c r="BL3" s="128"/>
+      <c r="BM3" s="128"/>
+      <c r="BN3" s="128"/>
+      <c r="BO3" s="128"/>
+      <c r="BP3" s="128"/>
+      <c r="BQ3" s="128"/>
+      <c r="BR3" s="128"/>
+      <c r="BS3" s="128"/>
+      <c r="BT3" s="128"/>
+      <c r="BU3" s="128"/>
+      <c r="BV3" s="128"/>
+      <c r="BW3" s="128"/>
+      <c r="BX3" s="128"/>
+      <c r="BY3" s="128"/>
+      <c r="BZ3" s="128"/>
+      <c r="CA3" s="128"/>
+      <c r="CB3" s="128"/>
+      <c r="CC3" s="128"/>
+      <c r="CD3" s="128"/>
+      <c r="CE3" s="128"/>
+      <c r="CF3" s="128"/>
+      <c r="CG3" s="128"/>
+      <c r="CH3" s="128"/>
+      <c r="CI3" s="128"/>
+      <c r="CJ3" s="128"/>
+      <c r="CK3" s="128"/>
+      <c r="CL3" s="128"/>
+      <c r="CM3" s="128"/>
+      <c r="CN3" s="128"/>
+      <c r="CO3" s="128"/>
+      <c r="CP3" s="128"/>
+      <c r="CQ3" s="128"/>
+      <c r="CR3" s="128"/>
+      <c r="CS3" s="128"/>
+      <c r="CT3" s="128"/>
+      <c r="CU3" s="128"/>
+      <c r="CV3" s="128"/>
+      <c r="CW3" s="128"/>
+      <c r="CX3" s="128"/>
+      <c r="CY3" s="128"/>
+      <c r="CZ3" s="128"/>
+      <c r="DA3" s="128"/>
+      <c r="DB3" s="128"/>
+      <c r="DC3" s="128"/>
+      <c r="DD3" s="128"/>
+      <c r="DE3" s="128"/>
+      <c r="DF3" s="128"/>
+      <c r="DG3" s="128"/>
+      <c r="DH3" s="128"/>
+      <c r="DI3" s="128"/>
+      <c r="DJ3" s="128"/>
+      <c r="DK3" s="128"/>
+      <c r="DL3" s="128"/>
+      <c r="DM3" s="128"/>
+      <c r="DN3" s="128"/>
+      <c r="DO3" s="128"/>
+      <c r="DP3" s="128"/>
+      <c r="DQ3" s="128"/>
+      <c r="DR3" s="128"/>
+      <c r="DS3" s="128"/>
+      <c r="DT3" s="128"/>
+      <c r="DU3" s="128"/>
+      <c r="DV3" s="128"/>
+      <c r="DW3" s="128"/>
+      <c r="DX3" s="128"/>
+      <c r="DY3" s="128"/>
+      <c r="DZ3" s="128"/>
+      <c r="EA3" s="128"/>
+      <c r="EB3" s="128"/>
+      <c r="EC3" s="128"/>
+      <c r="ED3" s="128"/>
+      <c r="EE3" s="128"/>
+      <c r="EF3" s="128"/>
+      <c r="EG3" s="128"/>
+      <c r="EH3" s="128"/>
+      <c r="EI3" s="128"/>
+      <c r="EJ3" s="128"/>
+      <c r="EK3" s="128"/>
+      <c r="EL3" s="128"/>
+      <c r="EM3" s="128"/>
+      <c r="EN3" s="128"/>
+      <c r="EO3" s="128"/>
+      <c r="EP3" s="128"/>
+      <c r="EQ3" s="128"/>
+      <c r="ER3" s="128"/>
+      <c r="ES3" s="128"/>
+      <c r="ET3" s="128"/>
+      <c r="EU3" s="128"/>
+      <c r="EV3" s="128"/>
+      <c r="EW3" s="128"/>
+      <c r="EX3" s="128"/>
+      <c r="EY3" s="128"/>
+      <c r="EZ3" s="128"/>
+      <c r="FA3" s="128"/>
+      <c r="FB3" s="128"/>
+      <c r="FC3" s="128"/>
+      <c r="FD3" s="128"/>
+      <c r="FE3" s="128"/>
+      <c r="FF3" s="128"/>
+      <c r="FG3" s="128"/>
+      <c r="FH3" s="128"/>
+      <c r="FI3" s="128"/>
+      <c r="FJ3" s="128"/>
+      <c r="FK3" s="128"/>
+      <c r="FL3" s="128"/>
+      <c r="FM3" s="128"/>
+      <c r="FN3" s="128"/>
+      <c r="FO3" s="128"/>
+      <c r="FP3" s="128"/>
+      <c r="FQ3" s="128"/>
+      <c r="FR3" s="128"/>
+      <c r="FS3" s="128"/>
+      <c r="FT3" s="128"/>
+      <c r="FU3" s="128"/>
+      <c r="FV3" s="128"/>
+      <c r="FW3" s="128"/>
+      <c r="FX3" s="128"/>
+      <c r="FY3" s="128"/>
+      <c r="FZ3" s="128"/>
+      <c r="GA3" s="128"/>
+      <c r="GB3" s="128"/>
+      <c r="GC3" s="128"/>
+      <c r="GD3" s="128"/>
+      <c r="GE3" s="128"/>
+      <c r="GF3" s="128"/>
+      <c r="GG3" s="128"/>
+      <c r="GH3" s="128"/>
+      <c r="GI3" s="128"/>
+      <c r="GJ3" s="128"/>
+      <c r="GK3" s="128"/>
+      <c r="GL3" s="128"/>
+      <c r="GM3" s="128"/>
+      <c r="GN3" s="127"/>
+      <c r="GO3" s="128"/>
+      <c r="GP3" s="128"/>
+      <c r="GQ3" s="128"/>
+      <c r="GR3" s="128"/>
+      <c r="GS3" s="128"/>
+      <c r="GT3" s="128"/>
+      <c r="GU3" s="128"/>
+      <c r="GV3" s="128"/>
     </row>
     <row r="4" spans="1:205" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="125" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -2578,313 +2574,313 @@
       <c r="C4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="102">
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="129">
         <v>45418</v>
       </c>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="92" t="s">
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="94">
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="118">
         <v>45419</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="92" t="s">
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="93"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="94">
+      <c r="U4" s="121"/>
+      <c r="V4" s="121"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="118">
         <v>45420</v>
       </c>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="92" t="s">
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="94">
+      <c r="AC4" s="121"/>
+      <c r="AD4" s="121"/>
+      <c r="AE4" s="121"/>
+      <c r="AF4" s="118">
         <v>45421</v>
       </c>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="92" t="s">
+      <c r="AG4" s="118"/>
+      <c r="AH4" s="118"/>
+      <c r="AI4" s="119"/>
+      <c r="AJ4" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="94">
+      <c r="AK4" s="121"/>
+      <c r="AL4" s="121"/>
+      <c r="AM4" s="121"/>
+      <c r="AN4" s="118">
         <v>45422</v>
       </c>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="92" t="s">
+      <c r="AO4" s="118"/>
+      <c r="AP4" s="118"/>
+      <c r="AQ4" s="119"/>
+      <c r="AR4" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="94">
+      <c r="AS4" s="121"/>
+      <c r="AT4" s="121"/>
+      <c r="AU4" s="121"/>
+      <c r="AV4" s="118">
         <v>45425</v>
       </c>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="95"/>
-      <c r="AZ4" s="92" t="s">
+      <c r="AW4" s="118"/>
+      <c r="AX4" s="118"/>
+      <c r="AY4" s="119"/>
+      <c r="AZ4" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="BA4" s="93"/>
-      <c r="BB4" s="93"/>
-      <c r="BC4" s="93"/>
-      <c r="BD4" s="94">
+      <c r="BA4" s="121"/>
+      <c r="BB4" s="121"/>
+      <c r="BC4" s="121"/>
+      <c r="BD4" s="118">
         <v>45426</v>
       </c>
-      <c r="BE4" s="94"/>
-      <c r="BF4" s="94"/>
-      <c r="BG4" s="95"/>
-      <c r="BH4" s="92" t="s">
+      <c r="BE4" s="118"/>
+      <c r="BF4" s="118"/>
+      <c r="BG4" s="119"/>
+      <c r="BH4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="BI4" s="93"/>
-      <c r="BJ4" s="93"/>
-      <c r="BK4" s="93"/>
-      <c r="BL4" s="94">
+      <c r="BI4" s="121"/>
+      <c r="BJ4" s="121"/>
+      <c r="BK4" s="121"/>
+      <c r="BL4" s="118">
         <v>45427</v>
       </c>
-      <c r="BM4" s="94"/>
-      <c r="BN4" s="94"/>
-      <c r="BO4" s="95"/>
-      <c r="BP4" s="92" t="s">
+      <c r="BM4" s="118"/>
+      <c r="BN4" s="118"/>
+      <c r="BO4" s="119"/>
+      <c r="BP4" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="BQ4" s="93"/>
-      <c r="BR4" s="93"/>
-      <c r="BS4" s="93"/>
-      <c r="BT4" s="94">
+      <c r="BQ4" s="121"/>
+      <c r="BR4" s="121"/>
+      <c r="BS4" s="121"/>
+      <c r="BT4" s="118">
         <v>45428</v>
       </c>
-      <c r="BU4" s="94"/>
-      <c r="BV4" s="94"/>
-      <c r="BW4" s="95"/>
-      <c r="BX4" s="92" t="s">
+      <c r="BU4" s="118"/>
+      <c r="BV4" s="118"/>
+      <c r="BW4" s="119"/>
+      <c r="BX4" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="93"/>
-      <c r="BZ4" s="93"/>
-      <c r="CA4" s="93"/>
-      <c r="CB4" s="94">
+      <c r="BY4" s="121"/>
+      <c r="BZ4" s="121"/>
+      <c r="CA4" s="121"/>
+      <c r="CB4" s="118">
         <v>45429</v>
       </c>
-      <c r="CC4" s="94"/>
-      <c r="CD4" s="94"/>
-      <c r="CE4" s="95"/>
-      <c r="CF4" s="92" t="s">
+      <c r="CC4" s="118"/>
+      <c r="CD4" s="118"/>
+      <c r="CE4" s="119"/>
+      <c r="CF4" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="CG4" s="93"/>
-      <c r="CH4" s="93"/>
-      <c r="CI4" s="93"/>
-      <c r="CJ4" s="94">
+      <c r="CG4" s="121"/>
+      <c r="CH4" s="121"/>
+      <c r="CI4" s="121"/>
+      <c r="CJ4" s="118">
         <v>45432</v>
       </c>
-      <c r="CK4" s="94"/>
-      <c r="CL4" s="94"/>
-      <c r="CM4" s="95"/>
-      <c r="CN4" s="92" t="s">
+      <c r="CK4" s="118"/>
+      <c r="CL4" s="118"/>
+      <c r="CM4" s="119"/>
+      <c r="CN4" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="CO4" s="93"/>
-      <c r="CP4" s="93"/>
-      <c r="CQ4" s="93"/>
-      <c r="CR4" s="94">
+      <c r="CO4" s="121"/>
+      <c r="CP4" s="121"/>
+      <c r="CQ4" s="121"/>
+      <c r="CR4" s="118">
         <v>45433</v>
       </c>
-      <c r="CS4" s="94"/>
-      <c r="CT4" s="94"/>
-      <c r="CU4" s="95"/>
-      <c r="CV4" s="92" t="s">
+      <c r="CS4" s="118"/>
+      <c r="CT4" s="118"/>
+      <c r="CU4" s="119"/>
+      <c r="CV4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="CW4" s="93"/>
-      <c r="CX4" s="93"/>
-      <c r="CY4" s="93"/>
-      <c r="CZ4" s="94">
+      <c r="CW4" s="121"/>
+      <c r="CX4" s="121"/>
+      <c r="CY4" s="121"/>
+      <c r="CZ4" s="118">
         <v>45434</v>
       </c>
-      <c r="DA4" s="94"/>
-      <c r="DB4" s="94"/>
-      <c r="DC4" s="95"/>
-      <c r="DD4" s="92" t="s">
+      <c r="DA4" s="118"/>
+      <c r="DB4" s="118"/>
+      <c r="DC4" s="119"/>
+      <c r="DD4" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="DE4" s="93"/>
-      <c r="DF4" s="93"/>
-      <c r="DG4" s="93"/>
-      <c r="DH4" s="94">
+      <c r="DE4" s="121"/>
+      <c r="DF4" s="121"/>
+      <c r="DG4" s="121"/>
+      <c r="DH4" s="118">
         <v>45435</v>
       </c>
-      <c r="DI4" s="94"/>
-      <c r="DJ4" s="94"/>
-      <c r="DK4" s="95"/>
-      <c r="DL4" s="92" t="s">
+      <c r="DI4" s="118"/>
+      <c r="DJ4" s="118"/>
+      <c r="DK4" s="119"/>
+      <c r="DL4" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="DM4" s="93"/>
-      <c r="DN4" s="93"/>
-      <c r="DO4" s="93"/>
-      <c r="DP4" s="94">
+      <c r="DM4" s="121"/>
+      <c r="DN4" s="121"/>
+      <c r="DO4" s="121"/>
+      <c r="DP4" s="118">
         <v>45436</v>
       </c>
-      <c r="DQ4" s="94"/>
-      <c r="DR4" s="94"/>
-      <c r="DS4" s="95"/>
-      <c r="DT4" s="92" t="s">
+      <c r="DQ4" s="118"/>
+      <c r="DR4" s="118"/>
+      <c r="DS4" s="119"/>
+      <c r="DT4" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="DU4" s="93"/>
-      <c r="DV4" s="93"/>
-      <c r="DW4" s="93"/>
-      <c r="DX4" s="94">
+      <c r="DU4" s="121"/>
+      <c r="DV4" s="121"/>
+      <c r="DW4" s="121"/>
+      <c r="DX4" s="118">
         <v>45439</v>
       </c>
-      <c r="DY4" s="94"/>
-      <c r="DZ4" s="94"/>
-      <c r="EA4" s="95"/>
-      <c r="EB4" s="92" t="s">
+      <c r="DY4" s="118"/>
+      <c r="DZ4" s="118"/>
+      <c r="EA4" s="119"/>
+      <c r="EB4" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="EC4" s="93"/>
-      <c r="ED4" s="93"/>
-      <c r="EE4" s="93"/>
-      <c r="EF4" s="94">
+      <c r="EC4" s="121"/>
+      <c r="ED4" s="121"/>
+      <c r="EE4" s="121"/>
+      <c r="EF4" s="118">
         <v>45440</v>
       </c>
-      <c r="EG4" s="94"/>
-      <c r="EH4" s="94"/>
-      <c r="EI4" s="95"/>
-      <c r="EJ4" s="92" t="s">
+      <c r="EG4" s="118"/>
+      <c r="EH4" s="118"/>
+      <c r="EI4" s="119"/>
+      <c r="EJ4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="EK4" s="93"/>
-      <c r="EL4" s="93"/>
-      <c r="EM4" s="93"/>
-      <c r="EN4" s="94">
+      <c r="EK4" s="121"/>
+      <c r="EL4" s="121"/>
+      <c r="EM4" s="121"/>
+      <c r="EN4" s="118">
         <v>45441</v>
       </c>
-      <c r="EO4" s="94"/>
-      <c r="EP4" s="94"/>
-      <c r="EQ4" s="95"/>
-      <c r="ER4" s="92" t="s">
+      <c r="EO4" s="118"/>
+      <c r="EP4" s="118"/>
+      <c r="EQ4" s="119"/>
+      <c r="ER4" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="ES4" s="93"/>
-      <c r="ET4" s="93"/>
-      <c r="EU4" s="93"/>
-      <c r="EV4" s="94">
+      <c r="ES4" s="121"/>
+      <c r="ET4" s="121"/>
+      <c r="EU4" s="121"/>
+      <c r="EV4" s="118">
         <v>45442</v>
       </c>
-      <c r="EW4" s="94"/>
-      <c r="EX4" s="94"/>
-      <c r="EY4" s="95"/>
-      <c r="EZ4" s="92" t="s">
+      <c r="EW4" s="118"/>
+      <c r="EX4" s="118"/>
+      <c r="EY4" s="119"/>
+      <c r="EZ4" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="FA4" s="93"/>
-      <c r="FB4" s="93"/>
-      <c r="FC4" s="93"/>
-      <c r="FD4" s="94">
+      <c r="FA4" s="121"/>
+      <c r="FB4" s="121"/>
+      <c r="FC4" s="121"/>
+      <c r="FD4" s="118">
         <v>45443</v>
       </c>
-      <c r="FE4" s="94"/>
-      <c r="FF4" s="94"/>
-      <c r="FG4" s="95"/>
-      <c r="FH4" s="92" t="s">
+      <c r="FE4" s="118"/>
+      <c r="FF4" s="118"/>
+      <c r="FG4" s="119"/>
+      <c r="FH4" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="FI4" s="93"/>
-      <c r="FJ4" s="93"/>
-      <c r="FK4" s="93"/>
-      <c r="FL4" s="94">
+      <c r="FI4" s="121"/>
+      <c r="FJ4" s="121"/>
+      <c r="FK4" s="121"/>
+      <c r="FL4" s="118">
         <v>45446</v>
       </c>
-      <c r="FM4" s="94"/>
-      <c r="FN4" s="94"/>
-      <c r="FO4" s="95"/>
-      <c r="FP4" s="92" t="s">
+      <c r="FM4" s="118"/>
+      <c r="FN4" s="118"/>
+      <c r="FO4" s="119"/>
+      <c r="FP4" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="FQ4" s="93"/>
-      <c r="FR4" s="93"/>
-      <c r="FS4" s="93"/>
-      <c r="FT4" s="94">
+      <c r="FQ4" s="121"/>
+      <c r="FR4" s="121"/>
+      <c r="FS4" s="121"/>
+      <c r="FT4" s="118">
         <v>45447</v>
       </c>
-      <c r="FU4" s="94"/>
-      <c r="FV4" s="94"/>
-      <c r="FW4" s="95"/>
-      <c r="FX4" s="92" t="s">
+      <c r="FU4" s="118"/>
+      <c r="FV4" s="118"/>
+      <c r="FW4" s="119"/>
+      <c r="FX4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="FY4" s="93"/>
-      <c r="FZ4" s="93"/>
-      <c r="GA4" s="93"/>
-      <c r="GB4" s="94">
+      <c r="FY4" s="121"/>
+      <c r="FZ4" s="121"/>
+      <c r="GA4" s="121"/>
+      <c r="GB4" s="118">
         <v>45448</v>
       </c>
-      <c r="GC4" s="94"/>
-      <c r="GD4" s="94"/>
-      <c r="GE4" s="95"/>
-      <c r="GF4" s="92" t="s">
+      <c r="GC4" s="118"/>
+      <c r="GD4" s="118"/>
+      <c r="GE4" s="119"/>
+      <c r="GF4" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="GG4" s="93"/>
-      <c r="GH4" s="93"/>
-      <c r="GI4" s="93"/>
-      <c r="GJ4" s="94">
+      <c r="GG4" s="121"/>
+      <c r="GH4" s="121"/>
+      <c r="GI4" s="121"/>
+      <c r="GJ4" s="118">
         <v>45449</v>
       </c>
-      <c r="GK4" s="94"/>
-      <c r="GL4" s="94"/>
-      <c r="GM4" s="94"/>
+      <c r="GK4" s="118"/>
+      <c r="GL4" s="118"/>
+      <c r="GM4" s="118"/>
       <c r="GN4" s="50"/>
-      <c r="GO4" s="93" t="s">
+      <c r="GO4" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="GP4" s="93"/>
-      <c r="GQ4" s="93"/>
-      <c r="GR4" s="93"/>
-      <c r="GS4" s="94">
-        <v>45454</v>
-      </c>
-      <c r="GT4" s="94"/>
-      <c r="GU4" s="94"/>
-      <c r="GV4" s="95"/>
-      <c r="GW4" s="96" t="s">
+      <c r="GP4" s="121"/>
+      <c r="GQ4" s="121"/>
+      <c r="GR4" s="121"/>
+      <c r="GS4" s="118">
+        <v>45457</v>
+      </c>
+      <c r="GT4" s="118"/>
+      <c r="GU4" s="118"/>
+      <c r="GV4" s="119"/>
+      <c r="GW4" s="131" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
+      <c r="A5" s="126"/>
       <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
@@ -3492,13 +3488,13 @@
       <c r="GV5" s="7">
         <v>8</v>
       </c>
-      <c r="GW5" s="96"/>
+      <c r="GW5" s="131"/>
     </row>
     <row r="6" spans="1:205" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="61" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="9"/>
@@ -3526,16 +3522,16 @@
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
       <c r="AA6" s="15"/>
-      <c r="AB6" s="104" t="s">
+      <c r="AB6" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="AC6" s="105"/>
-      <c r="AD6" s="105"/>
-      <c r="AE6" s="105"/>
-      <c r="AF6" s="105"/>
-      <c r="AG6" s="105"/>
-      <c r="AH6" s="105"/>
-      <c r="AI6" s="106"/>
+      <c r="AC6" s="107"/>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="107"/>
+      <c r="AF6" s="107"/>
+      <c r="AG6" s="107"/>
+      <c r="AH6" s="107"/>
+      <c r="AI6" s="108"/>
       <c r="AJ6" s="13"/>
       <c r="AK6" s="14"/>
       <c r="AL6" s="14"/>
@@ -3590,16 +3586,16 @@
       <c r="CE6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="CF6" s="104" t="s">
+      <c r="CF6" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="CG6" s="105"/>
-      <c r="CH6" s="105"/>
-      <c r="CI6" s="105"/>
-      <c r="CJ6" s="105"/>
-      <c r="CK6" s="105"/>
-      <c r="CL6" s="105"/>
-      <c r="CM6" s="106"/>
+      <c r="CG6" s="107"/>
+      <c r="CH6" s="107"/>
+      <c r="CI6" s="107"/>
+      <c r="CJ6" s="107"/>
+      <c r="CK6" s="107"/>
+      <c r="CL6" s="107"/>
+      <c r="CM6" s="108"/>
       <c r="CN6" s="26" t="s">
         <v>28</v>
       </c>
@@ -3630,7 +3626,7 @@
       <c r="DI6" s="24"/>
       <c r="DJ6" s="24"/>
       <c r="DK6" s="25"/>
-      <c r="DL6" s="88" t="s">
+      <c r="DL6" s="87" t="s">
         <v>28</v>
       </c>
       <c r="DM6" s="33" t="s">
@@ -3672,16 +3668,16 @@
       <c r="EO6" s="24"/>
       <c r="EP6" s="24"/>
       <c r="EQ6" s="25"/>
-      <c r="ER6" s="104" t="s">
+      <c r="ER6" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="ES6" s="105"/>
-      <c r="ET6" s="105"/>
-      <c r="EU6" s="105"/>
-      <c r="EV6" s="105"/>
-      <c r="EW6" s="105"/>
-      <c r="EX6" s="105"/>
-      <c r="EY6" s="106"/>
+      <c r="ES6" s="107"/>
+      <c r="ET6" s="107"/>
+      <c r="EU6" s="107"/>
+      <c r="EV6" s="107"/>
+      <c r="EW6" s="107"/>
+      <c r="EX6" s="107"/>
+      <c r="EY6" s="108"/>
       <c r="EZ6" s="26"/>
       <c r="FA6" s="24"/>
       <c r="FB6" s="24"/>
@@ -3721,7 +3717,7 @@
       <c r="GJ6" s="24"/>
       <c r="GK6" s="24"/>
       <c r="GL6" s="24"/>
-      <c r="GM6" s="56"/>
+      <c r="GM6" s="55"/>
       <c r="GN6" s="52"/>
       <c r="GO6" s="46"/>
       <c r="GP6" s="10"/>
@@ -3731,14 +3727,14 @@
       <c r="GT6" s="10"/>
       <c r="GU6" s="10"/>
       <c r="GV6" s="10"/>
-      <c r="GW6" s="96"/>
+      <c r="GW6" s="131"/>
     </row>
     <row r="7" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="60"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -3763,14 +3759,14 @@
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
       <c r="AA7" s="15"/>
-      <c r="AB7" s="107"/>
-      <c r="AC7" s="108"/>
-      <c r="AD7" s="108"/>
-      <c r="AE7" s="108"/>
-      <c r="AF7" s="108"/>
-      <c r="AG7" s="108"/>
-      <c r="AH7" s="108"/>
-      <c r="AI7" s="109"/>
+      <c r="AB7" s="109"/>
+      <c r="AC7" s="110"/>
+      <c r="AD7" s="110"/>
+      <c r="AE7" s="110"/>
+      <c r="AF7" s="110"/>
+      <c r="AG7" s="110"/>
+      <c r="AH7" s="110"/>
+      <c r="AI7" s="111"/>
       <c r="AJ7" s="13"/>
       <c r="AK7" s="14"/>
       <c r="AL7" s="14"/>
@@ -3803,7 +3799,7 @@
       <c r="BM7" s="14"/>
       <c r="BN7" s="14"/>
       <c r="BO7" s="15"/>
-      <c r="BP7" s="63"/>
+      <c r="BP7" s="62"/>
       <c r="BQ7" s="32"/>
       <c r="BR7" s="14"/>
       <c r="BS7" s="14"/>
@@ -3819,14 +3815,14 @@
       <c r="CC7" s="14"/>
       <c r="CD7" s="14"/>
       <c r="CE7" s="15"/>
-      <c r="CF7" s="107"/>
-      <c r="CG7" s="108"/>
-      <c r="CH7" s="108"/>
-      <c r="CI7" s="108"/>
-      <c r="CJ7" s="108"/>
-      <c r="CK7" s="108"/>
-      <c r="CL7" s="108"/>
-      <c r="CM7" s="109"/>
+      <c r="CF7" s="109"/>
+      <c r="CG7" s="110"/>
+      <c r="CH7" s="110"/>
+      <c r="CI7" s="110"/>
+      <c r="CJ7" s="110"/>
+      <c r="CK7" s="110"/>
+      <c r="CL7" s="110"/>
+      <c r="CM7" s="111"/>
       <c r="CN7" s="13"/>
       <c r="CO7" s="14"/>
       <c r="CP7" s="14"/>
@@ -3883,14 +3879,14 @@
       <c r="EO7" s="14"/>
       <c r="EP7" s="14"/>
       <c r="EQ7" s="15"/>
-      <c r="ER7" s="107"/>
-      <c r="ES7" s="108"/>
-      <c r="ET7" s="108"/>
-      <c r="EU7" s="108"/>
-      <c r="EV7" s="108"/>
-      <c r="EW7" s="108"/>
-      <c r="EX7" s="108"/>
-      <c r="EY7" s="109"/>
+      <c r="ER7" s="109"/>
+      <c r="ES7" s="110"/>
+      <c r="ET7" s="110"/>
+      <c r="EU7" s="110"/>
+      <c r="EV7" s="110"/>
+      <c r="EW7" s="110"/>
+      <c r="EX7" s="110"/>
+      <c r="EY7" s="111"/>
       <c r="EZ7" s="13"/>
       <c r="FA7" s="14"/>
       <c r="FB7" s="14"/>
@@ -3940,13 +3936,13 @@
       <c r="GT7" s="14"/>
       <c r="GU7" s="14"/>
       <c r="GV7" s="14"/>
-      <c r="GW7" s="96"/>
+      <c r="GW7" s="131"/>
     </row>
     <row r="8" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="58" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="12"/>
@@ -3974,14 +3970,14 @@
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
       <c r="AA8" s="15"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="108"/>
-      <c r="AD8" s="108"/>
-      <c r="AE8" s="108"/>
-      <c r="AF8" s="108"/>
-      <c r="AG8" s="108"/>
-      <c r="AH8" s="108"/>
-      <c r="AI8" s="109"/>
+      <c r="AB8" s="109"/>
+      <c r="AC8" s="110"/>
+      <c r="AD8" s="110"/>
+      <c r="AE8" s="110"/>
+      <c r="AF8" s="110"/>
+      <c r="AG8" s="110"/>
+      <c r="AH8" s="110"/>
+      <c r="AI8" s="111"/>
       <c r="AJ8" s="13"/>
       <c r="AK8" s="14"/>
       <c r="AL8" s="14"/>
@@ -4034,14 +4030,14 @@
       <c r="CC8" s="14"/>
       <c r="CD8" s="14"/>
       <c r="CE8" s="44"/>
-      <c r="CF8" s="107"/>
-      <c r="CG8" s="108"/>
-      <c r="CH8" s="108"/>
-      <c r="CI8" s="108"/>
-      <c r="CJ8" s="108"/>
-      <c r="CK8" s="108"/>
-      <c r="CL8" s="108"/>
-      <c r="CM8" s="109"/>
+      <c r="CF8" s="109"/>
+      <c r="CG8" s="110"/>
+      <c r="CH8" s="110"/>
+      <c r="CI8" s="110"/>
+      <c r="CJ8" s="110"/>
+      <c r="CK8" s="110"/>
+      <c r="CL8" s="110"/>
+      <c r="CM8" s="111"/>
       <c r="CN8" s="13"/>
       <c r="CO8" s="14"/>
       <c r="CP8" s="14"/>
@@ -4098,14 +4094,14 @@
       <c r="EO8" s="14"/>
       <c r="EP8" s="14"/>
       <c r="EQ8" s="15"/>
-      <c r="ER8" s="107"/>
-      <c r="ES8" s="108"/>
-      <c r="ET8" s="108"/>
-      <c r="EU8" s="108"/>
-      <c r="EV8" s="108"/>
-      <c r="EW8" s="108"/>
-      <c r="EX8" s="108"/>
-      <c r="EY8" s="109"/>
+      <c r="ER8" s="109"/>
+      <c r="ES8" s="110"/>
+      <c r="ET8" s="110"/>
+      <c r="EU8" s="110"/>
+      <c r="EV8" s="110"/>
+      <c r="EW8" s="110"/>
+      <c r="EX8" s="110"/>
+      <c r="EY8" s="111"/>
       <c r="EZ8" s="13"/>
       <c r="FA8" s="14"/>
       <c r="FB8" s="14"/>
@@ -4155,13 +4151,13 @@
       <c r="GT8" s="14"/>
       <c r="GU8" s="14"/>
       <c r="GV8" s="14"/>
-      <c r="GW8" s="96"/>
+      <c r="GW8" s="131"/>
     </row>
     <row r="9" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="12"/>
@@ -4189,14 +4185,14 @@
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
       <c r="AA9" s="15"/>
-      <c r="AB9" s="107"/>
-      <c r="AC9" s="108"/>
-      <c r="AD9" s="108"/>
-      <c r="AE9" s="108"/>
-      <c r="AF9" s="108"/>
-      <c r="AG9" s="108"/>
-      <c r="AH9" s="108"/>
-      <c r="AI9" s="109"/>
+      <c r="AB9" s="109"/>
+      <c r="AC9" s="110"/>
+      <c r="AD9" s="110"/>
+      <c r="AE9" s="110"/>
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="110"/>
+      <c r="AH9" s="110"/>
+      <c r="AI9" s="111"/>
       <c r="AJ9" s="13"/>
       <c r="AK9" s="14"/>
       <c r="AL9" s="14"/>
@@ -4265,14 +4261,14 @@
         <v>28</v>
       </c>
       <c r="CE9" s="36"/>
-      <c r="CF9" s="107"/>
-      <c r="CG9" s="108"/>
-      <c r="CH9" s="108"/>
-      <c r="CI9" s="108"/>
-      <c r="CJ9" s="108"/>
-      <c r="CK9" s="108"/>
-      <c r="CL9" s="108"/>
-      <c r="CM9" s="109"/>
+      <c r="CF9" s="109"/>
+      <c r="CG9" s="110"/>
+      <c r="CH9" s="110"/>
+      <c r="CI9" s="110"/>
+      <c r="CJ9" s="110"/>
+      <c r="CK9" s="110"/>
+      <c r="CL9" s="110"/>
+      <c r="CM9" s="111"/>
       <c r="CN9" s="13"/>
       <c r="CO9" s="14"/>
       <c r="CP9" s="14"/>
@@ -4329,14 +4325,14 @@
       <c r="EO9" s="14"/>
       <c r="EP9" s="14"/>
       <c r="EQ9" s="15"/>
-      <c r="ER9" s="107"/>
-      <c r="ES9" s="108"/>
-      <c r="ET9" s="108"/>
-      <c r="EU9" s="108"/>
-      <c r="EV9" s="108"/>
-      <c r="EW9" s="108"/>
-      <c r="EX9" s="108"/>
-      <c r="EY9" s="109"/>
+      <c r="ER9" s="109"/>
+      <c r="ES9" s="110"/>
+      <c r="ET9" s="110"/>
+      <c r="EU9" s="110"/>
+      <c r="EV9" s="110"/>
+      <c r="EW9" s="110"/>
+      <c r="EX9" s="110"/>
+      <c r="EY9" s="111"/>
       <c r="EZ9" s="13"/>
       <c r="FA9" s="14"/>
       <c r="FB9" s="14"/>
@@ -4386,14 +4382,14 @@
       <c r="GT9" s="14"/>
       <c r="GU9" s="14"/>
       <c r="GV9" s="14"/>
-      <c r="GW9" s="96"/>
+      <c r="GW9" s="131"/>
     </row>
     <row r="10" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="60"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -4418,14 +4414,14 @@
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
       <c r="AA10" s="15"/>
-      <c r="AB10" s="107"/>
-      <c r="AC10" s="108"/>
-      <c r="AD10" s="108"/>
-      <c r="AE10" s="108"/>
-      <c r="AF10" s="108"/>
-      <c r="AG10" s="108"/>
-      <c r="AH10" s="108"/>
-      <c r="AI10" s="109"/>
+      <c r="AB10" s="109"/>
+      <c r="AC10" s="110"/>
+      <c r="AD10" s="110"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="110"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="110"/>
+      <c r="AI10" s="111"/>
       <c r="AJ10" s="13"/>
       <c r="AK10" s="14"/>
       <c r="AL10" s="14"/>
@@ -4465,8 +4461,8 @@
       <c r="BT10" s="32"/>
       <c r="BU10" s="32"/>
       <c r="BV10" s="32"/>
-      <c r="BW10" s="64"/>
-      <c r="BX10" s="63"/>
+      <c r="BW10" s="63"/>
+      <c r="BX10" s="62"/>
       <c r="BY10" s="32"/>
       <c r="BZ10" s="32"/>
       <c r="CA10" s="32"/>
@@ -4474,14 +4470,14 @@
       <c r="CC10" s="32"/>
       <c r="CD10" s="32"/>
       <c r="CE10" s="32"/>
-      <c r="CF10" s="107"/>
-      <c r="CG10" s="108"/>
-      <c r="CH10" s="108"/>
-      <c r="CI10" s="108"/>
-      <c r="CJ10" s="108"/>
-      <c r="CK10" s="108"/>
-      <c r="CL10" s="108"/>
-      <c r="CM10" s="109"/>
+      <c r="CF10" s="109"/>
+      <c r="CG10" s="110"/>
+      <c r="CH10" s="110"/>
+      <c r="CI10" s="110"/>
+      <c r="CJ10" s="110"/>
+      <c r="CK10" s="110"/>
+      <c r="CL10" s="110"/>
+      <c r="CM10" s="111"/>
       <c r="CN10" s="13"/>
       <c r="CO10" s="14"/>
       <c r="CP10" s="14"/>
@@ -4538,14 +4534,14 @@
       <c r="EO10" s="14"/>
       <c r="EP10" s="14"/>
       <c r="EQ10" s="15"/>
-      <c r="ER10" s="107"/>
-      <c r="ES10" s="108"/>
-      <c r="ET10" s="108"/>
-      <c r="EU10" s="108"/>
-      <c r="EV10" s="108"/>
-      <c r="EW10" s="108"/>
-      <c r="EX10" s="108"/>
-      <c r="EY10" s="109"/>
+      <c r="ER10" s="109"/>
+      <c r="ES10" s="110"/>
+      <c r="ET10" s="110"/>
+      <c r="EU10" s="110"/>
+      <c r="EV10" s="110"/>
+      <c r="EW10" s="110"/>
+      <c r="EX10" s="110"/>
+      <c r="EY10" s="111"/>
       <c r="EZ10" s="13"/>
       <c r="FA10" s="14"/>
       <c r="FB10" s="14"/>
@@ -4595,13 +4591,13 @@
       <c r="GT10" s="14"/>
       <c r="GU10" s="14"/>
       <c r="GV10" s="14"/>
-      <c r="GW10" s="96"/>
+      <c r="GW10" s="131"/>
     </row>
     <row r="11" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="58" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="12"/>
@@ -4629,14 +4625,14 @@
       <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
       <c r="AA11" s="15"/>
-      <c r="AB11" s="107"/>
-      <c r="AC11" s="108"/>
-      <c r="AD11" s="108"/>
-      <c r="AE11" s="108"/>
-      <c r="AF11" s="108"/>
-      <c r="AG11" s="108"/>
-      <c r="AH11" s="108"/>
-      <c r="AI11" s="109"/>
+      <c r="AB11" s="109"/>
+      <c r="AC11" s="110"/>
+      <c r="AD11" s="110"/>
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="110"/>
+      <c r="AG11" s="110"/>
+      <c r="AH11" s="110"/>
+      <c r="AI11" s="111"/>
       <c r="AJ11" s="13"/>
       <c r="AK11" s="14"/>
       <c r="AL11" s="14"/>
@@ -4687,14 +4683,14 @@
       </c>
       <c r="CD11" s="14"/>
       <c r="CE11" s="14"/>
-      <c r="CF11" s="107"/>
-      <c r="CG11" s="108"/>
-      <c r="CH11" s="108"/>
-      <c r="CI11" s="108"/>
-      <c r="CJ11" s="108"/>
-      <c r="CK11" s="108"/>
-      <c r="CL11" s="108"/>
-      <c r="CM11" s="109"/>
+      <c r="CF11" s="109"/>
+      <c r="CG11" s="110"/>
+      <c r="CH11" s="110"/>
+      <c r="CI11" s="110"/>
+      <c r="CJ11" s="110"/>
+      <c r="CK11" s="110"/>
+      <c r="CL11" s="110"/>
+      <c r="CM11" s="111"/>
       <c r="CN11" s="28"/>
       <c r="CO11" s="14"/>
       <c r="CP11" s="14"/>
@@ -4753,14 +4749,14 @@
       <c r="EO11" s="14"/>
       <c r="EP11" s="14"/>
       <c r="EQ11" s="15"/>
-      <c r="ER11" s="107"/>
-      <c r="ES11" s="108"/>
-      <c r="ET11" s="108"/>
-      <c r="EU11" s="108"/>
-      <c r="EV11" s="108"/>
-      <c r="EW11" s="108"/>
-      <c r="EX11" s="108"/>
-      <c r="EY11" s="109"/>
+      <c r="ER11" s="109"/>
+      <c r="ES11" s="110"/>
+      <c r="ET11" s="110"/>
+      <c r="EU11" s="110"/>
+      <c r="EV11" s="110"/>
+      <c r="EW11" s="110"/>
+      <c r="EX11" s="110"/>
+      <c r="EY11" s="111"/>
       <c r="EZ11" s="13"/>
       <c r="FA11" s="14"/>
       <c r="FB11" s="14"/>
@@ -4810,13 +4806,13 @@
       <c r="GT11" s="14"/>
       <c r="GU11" s="14"/>
       <c r="GV11" s="14"/>
-      <c r="GW11" s="96"/>
+      <c r="GW11" s="131"/>
     </row>
     <row r="12" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="12"/>
@@ -4844,14 +4840,14 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
       <c r="AA12" s="15"/>
-      <c r="AB12" s="107"/>
-      <c r="AC12" s="108"/>
-      <c r="AD12" s="108"/>
-      <c r="AE12" s="108"/>
-      <c r="AF12" s="108"/>
-      <c r="AG12" s="108"/>
-      <c r="AH12" s="108"/>
-      <c r="AI12" s="109"/>
+      <c r="AB12" s="109"/>
+      <c r="AC12" s="110"/>
+      <c r="AD12" s="110"/>
+      <c r="AE12" s="110"/>
+      <c r="AF12" s="110"/>
+      <c r="AG12" s="110"/>
+      <c r="AH12" s="110"/>
+      <c r="AI12" s="111"/>
       <c r="AJ12" s="13"/>
       <c r="AK12" s="14"/>
       <c r="AL12" s="14"/>
@@ -4900,16 +4896,16 @@
       <c r="CC12" s="14"/>
       <c r="CD12" s="14"/>
       <c r="CE12" s="15"/>
-      <c r="CF12" s="107"/>
-      <c r="CG12" s="108"/>
-      <c r="CH12" s="108"/>
-      <c r="CI12" s="108"/>
-      <c r="CJ12" s="108"/>
-      <c r="CK12" s="108"/>
-      <c r="CL12" s="108"/>
-      <c r="CM12" s="109"/>
+      <c r="CF12" s="109"/>
+      <c r="CG12" s="110"/>
+      <c r="CH12" s="110"/>
+      <c r="CI12" s="110"/>
+      <c r="CJ12" s="110"/>
+      <c r="CK12" s="110"/>
+      <c r="CL12" s="110"/>
+      <c r="CM12" s="111"/>
       <c r="CN12" s="13"/>
-      <c r="CO12" s="55" t="s">
+      <c r="CO12" s="54" t="s">
         <v>28</v>
       </c>
       <c r="CP12" s="14"/>
@@ -4970,14 +4966,14 @@
       <c r="EO12" s="14"/>
       <c r="EP12" s="14"/>
       <c r="EQ12" s="15"/>
-      <c r="ER12" s="107"/>
-      <c r="ES12" s="108"/>
-      <c r="ET12" s="108"/>
-      <c r="EU12" s="108"/>
-      <c r="EV12" s="108"/>
-      <c r="EW12" s="108"/>
-      <c r="EX12" s="108"/>
-      <c r="EY12" s="109"/>
+      <c r="ER12" s="109"/>
+      <c r="ES12" s="110"/>
+      <c r="ET12" s="110"/>
+      <c r="EU12" s="110"/>
+      <c r="EV12" s="110"/>
+      <c r="EW12" s="110"/>
+      <c r="EX12" s="110"/>
+      <c r="EY12" s="111"/>
       <c r="EZ12" s="13"/>
       <c r="FA12" s="14"/>
       <c r="FB12" s="14"/>
@@ -5027,13 +5023,13 @@
       <c r="GT12" s="14"/>
       <c r="GU12" s="14"/>
       <c r="GV12" s="14"/>
-      <c r="GW12" s="96"/>
+      <c r="GW12" s="131"/>
     </row>
     <row r="13" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="12"/>
@@ -5061,14 +5057,14 @@
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="15"/>
-      <c r="AB13" s="107"/>
-      <c r="AC13" s="108"/>
-      <c r="AD13" s="108"/>
-      <c r="AE13" s="108"/>
-      <c r="AF13" s="108"/>
-      <c r="AG13" s="108"/>
-      <c r="AH13" s="108"/>
-      <c r="AI13" s="109"/>
+      <c r="AB13" s="109"/>
+      <c r="AC13" s="110"/>
+      <c r="AD13" s="110"/>
+      <c r="AE13" s="110"/>
+      <c r="AF13" s="110"/>
+      <c r="AG13" s="110"/>
+      <c r="AH13" s="110"/>
+      <c r="AI13" s="111"/>
       <c r="AJ13" s="13"/>
       <c r="AK13" s="14"/>
       <c r="AL13" s="14"/>
@@ -5117,14 +5113,14 @@
       <c r="CC13" s="14"/>
       <c r="CD13" s="14"/>
       <c r="CE13" s="15"/>
-      <c r="CF13" s="107"/>
-      <c r="CG13" s="108"/>
-      <c r="CH13" s="108"/>
-      <c r="CI13" s="108"/>
-      <c r="CJ13" s="108"/>
-      <c r="CK13" s="108"/>
-      <c r="CL13" s="108"/>
-      <c r="CM13" s="109"/>
+      <c r="CF13" s="109"/>
+      <c r="CG13" s="110"/>
+      <c r="CH13" s="110"/>
+      <c r="CI13" s="110"/>
+      <c r="CJ13" s="110"/>
+      <c r="CK13" s="110"/>
+      <c r="CL13" s="110"/>
+      <c r="CM13" s="111"/>
       <c r="CN13" s="13"/>
       <c r="CO13" s="14"/>
       <c r="CP13" s="27"/>
@@ -5191,14 +5187,14 @@
       <c r="EO13" s="14"/>
       <c r="EP13" s="14"/>
       <c r="EQ13" s="15"/>
-      <c r="ER13" s="107"/>
-      <c r="ES13" s="108"/>
-      <c r="ET13" s="108"/>
-      <c r="EU13" s="108"/>
-      <c r="EV13" s="108"/>
-      <c r="EW13" s="108"/>
-      <c r="EX13" s="108"/>
-      <c r="EY13" s="109"/>
+      <c r="ER13" s="109"/>
+      <c r="ES13" s="110"/>
+      <c r="ET13" s="110"/>
+      <c r="EU13" s="110"/>
+      <c r="EV13" s="110"/>
+      <c r="EW13" s="110"/>
+      <c r="EX13" s="110"/>
+      <c r="EY13" s="111"/>
       <c r="EZ13" s="13"/>
       <c r="FA13" s="14"/>
       <c r="FB13" s="14"/>
@@ -5248,14 +5244,14 @@
       <c r="GT13" s="14"/>
       <c r="GU13" s="14"/>
       <c r="GV13" s="14"/>
-      <c r="GW13" s="96"/>
+      <c r="GW13" s="131"/>
     </row>
     <row r="14" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="60"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -5280,14 +5276,14 @@
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
       <c r="AA14" s="15"/>
-      <c r="AB14" s="107"/>
-      <c r="AC14" s="108"/>
-      <c r="AD14" s="108"/>
-      <c r="AE14" s="108"/>
-      <c r="AF14" s="108"/>
-      <c r="AG14" s="108"/>
-      <c r="AH14" s="108"/>
-      <c r="AI14" s="109"/>
+      <c r="AB14" s="109"/>
+      <c r="AC14" s="110"/>
+      <c r="AD14" s="110"/>
+      <c r="AE14" s="110"/>
+      <c r="AF14" s="110"/>
+      <c r="AG14" s="110"/>
+      <c r="AH14" s="110"/>
+      <c r="AI14" s="111"/>
       <c r="AJ14" s="13"/>
       <c r="AK14" s="14"/>
       <c r="AL14" s="14"/>
@@ -5336,14 +5332,14 @@
       <c r="CC14" s="14"/>
       <c r="CD14" s="14"/>
       <c r="CE14" s="15"/>
-      <c r="CF14" s="107"/>
-      <c r="CG14" s="108"/>
-      <c r="CH14" s="108"/>
-      <c r="CI14" s="108"/>
-      <c r="CJ14" s="108"/>
-      <c r="CK14" s="108"/>
-      <c r="CL14" s="108"/>
-      <c r="CM14" s="109"/>
+      <c r="CF14" s="109"/>
+      <c r="CG14" s="110"/>
+      <c r="CH14" s="110"/>
+      <c r="CI14" s="110"/>
+      <c r="CJ14" s="110"/>
+      <c r="CK14" s="110"/>
+      <c r="CL14" s="110"/>
+      <c r="CM14" s="111"/>
       <c r="CN14" s="13"/>
       <c r="CO14" s="14"/>
       <c r="CP14" s="14"/>
@@ -5400,14 +5396,14 @@
       <c r="EO14" s="14"/>
       <c r="EP14" s="14"/>
       <c r="EQ14" s="15"/>
-      <c r="ER14" s="107"/>
-      <c r="ES14" s="108"/>
-      <c r="ET14" s="108"/>
-      <c r="EU14" s="108"/>
-      <c r="EV14" s="108"/>
-      <c r="EW14" s="108"/>
-      <c r="EX14" s="108"/>
-      <c r="EY14" s="109"/>
+      <c r="ER14" s="109"/>
+      <c r="ES14" s="110"/>
+      <c r="ET14" s="110"/>
+      <c r="EU14" s="110"/>
+      <c r="EV14" s="110"/>
+      <c r="EW14" s="110"/>
+      <c r="EX14" s="110"/>
+      <c r="EY14" s="111"/>
       <c r="EZ14" s="13"/>
       <c r="FA14" s="14"/>
       <c r="FB14" s="14"/>
@@ -5457,13 +5453,13 @@
       <c r="GT14" s="14"/>
       <c r="GU14" s="14"/>
       <c r="GV14" s="14"/>
-      <c r="GW14" s="96"/>
+      <c r="GW14" s="131"/>
     </row>
     <row r="15" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="12"/>
@@ -5491,14 +5487,14 @@
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
       <c r="AA15" s="15"/>
-      <c r="AB15" s="107"/>
-      <c r="AC15" s="108"/>
-      <c r="AD15" s="108"/>
-      <c r="AE15" s="108"/>
-      <c r="AF15" s="108"/>
-      <c r="AG15" s="108"/>
-      <c r="AH15" s="108"/>
-      <c r="AI15" s="109"/>
+      <c r="AB15" s="109"/>
+      <c r="AC15" s="110"/>
+      <c r="AD15" s="110"/>
+      <c r="AE15" s="110"/>
+      <c r="AF15" s="110"/>
+      <c r="AG15" s="110"/>
+      <c r="AH15" s="110"/>
+      <c r="AI15" s="111"/>
       <c r="AJ15" s="13"/>
       <c r="AK15" s="14"/>
       <c r="AL15" s="14"/>
@@ -5547,14 +5543,14 @@
       <c r="CC15" s="14"/>
       <c r="CD15" s="14"/>
       <c r="CE15" s="15"/>
-      <c r="CF15" s="107"/>
-      <c r="CG15" s="108"/>
-      <c r="CH15" s="108"/>
-      <c r="CI15" s="108"/>
-      <c r="CJ15" s="108"/>
-      <c r="CK15" s="108"/>
-      <c r="CL15" s="108"/>
-      <c r="CM15" s="109"/>
+      <c r="CF15" s="109"/>
+      <c r="CG15" s="110"/>
+      <c r="CH15" s="110"/>
+      <c r="CI15" s="110"/>
+      <c r="CJ15" s="110"/>
+      <c r="CK15" s="110"/>
+      <c r="CL15" s="110"/>
+      <c r="CM15" s="111"/>
       <c r="CN15" s="13"/>
       <c r="CO15" s="14"/>
       <c r="CP15" s="14"/>
@@ -5617,14 +5613,14 @@
       <c r="EO15" s="14"/>
       <c r="EP15" s="14"/>
       <c r="EQ15" s="15"/>
-      <c r="ER15" s="107"/>
-      <c r="ES15" s="108"/>
-      <c r="ET15" s="108"/>
-      <c r="EU15" s="108"/>
-      <c r="EV15" s="108"/>
-      <c r="EW15" s="108"/>
-      <c r="EX15" s="108"/>
-      <c r="EY15" s="109"/>
+      <c r="ER15" s="109"/>
+      <c r="ES15" s="110"/>
+      <c r="ET15" s="110"/>
+      <c r="EU15" s="110"/>
+      <c r="EV15" s="110"/>
+      <c r="EW15" s="110"/>
+      <c r="EX15" s="110"/>
+      <c r="EY15" s="111"/>
       <c r="EZ15" s="13"/>
       <c r="FA15" s="14"/>
       <c r="FB15" s="14"/>
@@ -5674,13 +5670,13 @@
       <c r="GT15" s="14"/>
       <c r="GU15" s="14"/>
       <c r="GV15" s="14"/>
-      <c r="GW15" s="96"/>
+      <c r="GW15" s="131"/>
     </row>
     <row r="16" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="12"/>
@@ -5708,14 +5704,14 @@
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="15"/>
-      <c r="AB16" s="107"/>
-      <c r="AC16" s="108"/>
-      <c r="AD16" s="108"/>
-      <c r="AE16" s="108"/>
-      <c r="AF16" s="108"/>
-      <c r="AG16" s="108"/>
-      <c r="AH16" s="108"/>
-      <c r="AI16" s="109"/>
+      <c r="AB16" s="109"/>
+      <c r="AC16" s="110"/>
+      <c r="AD16" s="110"/>
+      <c r="AE16" s="110"/>
+      <c r="AF16" s="110"/>
+      <c r="AG16" s="110"/>
+      <c r="AH16" s="110"/>
+      <c r="AI16" s="111"/>
       <c r="AJ16" s="13"/>
       <c r="AK16" s="14"/>
       <c r="AL16" s="14"/>
@@ -5764,14 +5760,14 @@
       <c r="CC16" s="14"/>
       <c r="CD16" s="14"/>
       <c r="CE16" s="15"/>
-      <c r="CF16" s="107"/>
-      <c r="CG16" s="108"/>
-      <c r="CH16" s="108"/>
-      <c r="CI16" s="108"/>
-      <c r="CJ16" s="108"/>
-      <c r="CK16" s="108"/>
-      <c r="CL16" s="108"/>
-      <c r="CM16" s="109"/>
+      <c r="CF16" s="109"/>
+      <c r="CG16" s="110"/>
+      <c r="CH16" s="110"/>
+      <c r="CI16" s="110"/>
+      <c r="CJ16" s="110"/>
+      <c r="CK16" s="110"/>
+      <c r="CL16" s="110"/>
+      <c r="CM16" s="111"/>
       <c r="CN16" s="13"/>
       <c r="CO16" s="14"/>
       <c r="CP16" s="14"/>
@@ -5830,14 +5826,14 @@
       <c r="EO16" s="14"/>
       <c r="EP16" s="14"/>
       <c r="EQ16" s="15"/>
-      <c r="ER16" s="107"/>
-      <c r="ES16" s="108"/>
-      <c r="ET16" s="108"/>
-      <c r="EU16" s="108"/>
-      <c r="EV16" s="108"/>
-      <c r="EW16" s="108"/>
-      <c r="EX16" s="108"/>
-      <c r="EY16" s="109"/>
+      <c r="ER16" s="109"/>
+      <c r="ES16" s="110"/>
+      <c r="ET16" s="110"/>
+      <c r="EU16" s="110"/>
+      <c r="EV16" s="110"/>
+      <c r="EW16" s="110"/>
+      <c r="EX16" s="110"/>
+      <c r="EY16" s="111"/>
       <c r="EZ16" s="13"/>
       <c r="FA16" s="14"/>
       <c r="FB16" s="14"/>
@@ -5887,13 +5883,13 @@
       <c r="GT16" s="14"/>
       <c r="GU16" s="14"/>
       <c r="GV16" s="14"/>
-      <c r="GW16" s="96"/>
+      <c r="GW16" s="131"/>
     </row>
     <row r="17" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="12"/>
@@ -5921,14 +5917,14 @@
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="15"/>
-      <c r="AB17" s="107"/>
-      <c r="AC17" s="108"/>
-      <c r="AD17" s="108"/>
-      <c r="AE17" s="108"/>
-      <c r="AF17" s="108"/>
-      <c r="AG17" s="108"/>
-      <c r="AH17" s="108"/>
-      <c r="AI17" s="109"/>
+      <c r="AB17" s="109"/>
+      <c r="AC17" s="110"/>
+      <c r="AD17" s="110"/>
+      <c r="AE17" s="110"/>
+      <c r="AF17" s="110"/>
+      <c r="AG17" s="110"/>
+      <c r="AH17" s="110"/>
+      <c r="AI17" s="111"/>
       <c r="AJ17" s="13"/>
       <c r="AK17" s="14"/>
       <c r="AL17" s="14"/>
@@ -5977,14 +5973,14 @@
       <c r="CC17" s="14"/>
       <c r="CD17" s="14"/>
       <c r="CE17" s="15"/>
-      <c r="CF17" s="107"/>
-      <c r="CG17" s="108"/>
-      <c r="CH17" s="108"/>
-      <c r="CI17" s="108"/>
-      <c r="CJ17" s="108"/>
-      <c r="CK17" s="108"/>
-      <c r="CL17" s="108"/>
-      <c r="CM17" s="109"/>
+      <c r="CF17" s="109"/>
+      <c r="CG17" s="110"/>
+      <c r="CH17" s="110"/>
+      <c r="CI17" s="110"/>
+      <c r="CJ17" s="110"/>
+      <c r="CK17" s="110"/>
+      <c r="CL17" s="110"/>
+      <c r="CM17" s="111"/>
       <c r="CN17" s="13"/>
       <c r="CO17" s="14"/>
       <c r="CP17" s="14"/>
@@ -6047,14 +6043,14 @@
       <c r="EO17" s="14"/>
       <c r="EP17" s="14"/>
       <c r="EQ17" s="15"/>
-      <c r="ER17" s="107"/>
-      <c r="ES17" s="108"/>
-      <c r="ET17" s="108"/>
-      <c r="EU17" s="108"/>
-      <c r="EV17" s="108"/>
-      <c r="EW17" s="108"/>
-      <c r="EX17" s="108"/>
-      <c r="EY17" s="109"/>
+      <c r="ER17" s="109"/>
+      <c r="ES17" s="110"/>
+      <c r="ET17" s="110"/>
+      <c r="EU17" s="110"/>
+      <c r="EV17" s="110"/>
+      <c r="EW17" s="110"/>
+      <c r="EX17" s="110"/>
+      <c r="EY17" s="111"/>
       <c r="EZ17" s="13"/>
       <c r="FA17" s="14"/>
       <c r="FB17" s="14"/>
@@ -6104,13 +6100,13 @@
       <c r="GT17" s="14"/>
       <c r="GU17" s="14"/>
       <c r="GV17" s="14"/>
-      <c r="GW17" s="96"/>
+      <c r="GW17" s="131"/>
     </row>
     <row r="18" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="12"/>
@@ -6138,14 +6134,14 @@
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="15"/>
-      <c r="AB18" s="107"/>
-      <c r="AC18" s="108"/>
-      <c r="AD18" s="108"/>
-      <c r="AE18" s="108"/>
-      <c r="AF18" s="108"/>
-      <c r="AG18" s="108"/>
-      <c r="AH18" s="108"/>
-      <c r="AI18" s="109"/>
+      <c r="AB18" s="109"/>
+      <c r="AC18" s="110"/>
+      <c r="AD18" s="110"/>
+      <c r="AE18" s="110"/>
+      <c r="AF18" s="110"/>
+      <c r="AG18" s="110"/>
+      <c r="AH18" s="110"/>
+      <c r="AI18" s="111"/>
       <c r="AJ18" s="13"/>
       <c r="AK18" s="14"/>
       <c r="AL18" s="14"/>
@@ -6194,14 +6190,14 @@
       <c r="CC18" s="14"/>
       <c r="CD18" s="14"/>
       <c r="CE18" s="15"/>
-      <c r="CF18" s="107"/>
-      <c r="CG18" s="108"/>
-      <c r="CH18" s="108"/>
-      <c r="CI18" s="108"/>
-      <c r="CJ18" s="108"/>
-      <c r="CK18" s="108"/>
-      <c r="CL18" s="108"/>
-      <c r="CM18" s="109"/>
+      <c r="CF18" s="109"/>
+      <c r="CG18" s="110"/>
+      <c r="CH18" s="110"/>
+      <c r="CI18" s="110"/>
+      <c r="CJ18" s="110"/>
+      <c r="CK18" s="110"/>
+      <c r="CL18" s="110"/>
+      <c r="CM18" s="111"/>
       <c r="CN18" s="13"/>
       <c r="CO18" s="14"/>
       <c r="CP18" s="14"/>
@@ -6270,14 +6266,14 @@
       <c r="EO18" s="14"/>
       <c r="EP18" s="14"/>
       <c r="EQ18" s="15"/>
-      <c r="ER18" s="107"/>
-      <c r="ES18" s="108"/>
-      <c r="ET18" s="108"/>
-      <c r="EU18" s="108"/>
-      <c r="EV18" s="108"/>
-      <c r="EW18" s="108"/>
-      <c r="EX18" s="108"/>
-      <c r="EY18" s="109"/>
+      <c r="ER18" s="109"/>
+      <c r="ES18" s="110"/>
+      <c r="ET18" s="110"/>
+      <c r="EU18" s="110"/>
+      <c r="EV18" s="110"/>
+      <c r="EW18" s="110"/>
+      <c r="EX18" s="110"/>
+      <c r="EY18" s="111"/>
       <c r="EZ18" s="13"/>
       <c r="FA18" s="14"/>
       <c r="FB18" s="14"/>
@@ -6327,13 +6323,13 @@
       <c r="GT18" s="14"/>
       <c r="GU18" s="14"/>
       <c r="GV18" s="14"/>
-      <c r="GW18" s="96"/>
+      <c r="GW18" s="131"/>
     </row>
     <row r="19" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="12"/>
@@ -6361,14 +6357,14 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="15"/>
-      <c r="AB19" s="107"/>
-      <c r="AC19" s="108"/>
-      <c r="AD19" s="108"/>
-      <c r="AE19" s="108"/>
-      <c r="AF19" s="108"/>
-      <c r="AG19" s="108"/>
-      <c r="AH19" s="108"/>
-      <c r="AI19" s="109"/>
+      <c r="AB19" s="109"/>
+      <c r="AC19" s="110"/>
+      <c r="AD19" s="110"/>
+      <c r="AE19" s="110"/>
+      <c r="AF19" s="110"/>
+      <c r="AG19" s="110"/>
+      <c r="AH19" s="110"/>
+      <c r="AI19" s="111"/>
       <c r="AJ19" s="13"/>
       <c r="AK19" s="14"/>
       <c r="AL19" s="14"/>
@@ -6417,14 +6413,14 @@
       <c r="CC19" s="14"/>
       <c r="CD19" s="14"/>
       <c r="CE19" s="15"/>
-      <c r="CF19" s="107"/>
-      <c r="CG19" s="108"/>
-      <c r="CH19" s="108"/>
-      <c r="CI19" s="108"/>
-      <c r="CJ19" s="108"/>
-      <c r="CK19" s="108"/>
-      <c r="CL19" s="108"/>
-      <c r="CM19" s="109"/>
+      <c r="CF19" s="109"/>
+      <c r="CG19" s="110"/>
+      <c r="CH19" s="110"/>
+      <c r="CI19" s="110"/>
+      <c r="CJ19" s="110"/>
+      <c r="CK19" s="110"/>
+      <c r="CL19" s="110"/>
+      <c r="CM19" s="111"/>
       <c r="CN19" s="13"/>
       <c r="CO19" s="14"/>
       <c r="CP19" s="14"/>
@@ -6448,11 +6444,11 @@
       <c r="DH19" s="14"/>
       <c r="DI19" s="14"/>
       <c r="DJ19" s="14"/>
-      <c r="DK19" s="64"/>
+      <c r="DK19" s="63"/>
       <c r="DL19" s="30"/>
       <c r="DM19" s="31"/>
       <c r="DN19" s="31"/>
-      <c r="DO19" s="89" t="s">
+      <c r="DO19" s="88" t="s">
         <v>28</v>
       </c>
       <c r="DP19" s="14"/>
@@ -6483,14 +6479,14 @@
       <c r="EO19" s="14"/>
       <c r="EP19" s="14"/>
       <c r="EQ19" s="15"/>
-      <c r="ER19" s="107"/>
-      <c r="ES19" s="108"/>
-      <c r="ET19" s="108"/>
-      <c r="EU19" s="108"/>
-      <c r="EV19" s="108"/>
-      <c r="EW19" s="108"/>
-      <c r="EX19" s="108"/>
-      <c r="EY19" s="109"/>
+      <c r="ER19" s="109"/>
+      <c r="ES19" s="110"/>
+      <c r="ET19" s="110"/>
+      <c r="EU19" s="110"/>
+      <c r="EV19" s="110"/>
+      <c r="EW19" s="110"/>
+      <c r="EX19" s="110"/>
+      <c r="EY19" s="111"/>
       <c r="EZ19" s="13"/>
       <c r="FA19" s="14"/>
       <c r="FB19" s="14"/>
@@ -6540,14 +6536,14 @@
       <c r="GT19" s="14"/>
       <c r="GU19" s="14"/>
       <c r="GV19" s="14"/>
-      <c r="GW19" s="96"/>
+      <c r="GW19" s="131"/>
     </row>
     <row r="20" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="127" t="s">
+      <c r="A20" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="128"/>
-      <c r="C20" s="60"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -6572,14 +6568,14 @@
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
       <c r="AA20" s="15"/>
-      <c r="AB20" s="107"/>
-      <c r="AC20" s="108"/>
-      <c r="AD20" s="108"/>
-      <c r="AE20" s="108"/>
-      <c r="AF20" s="108"/>
-      <c r="AG20" s="108"/>
-      <c r="AH20" s="108"/>
-      <c r="AI20" s="109"/>
+      <c r="AB20" s="109"/>
+      <c r="AC20" s="110"/>
+      <c r="AD20" s="110"/>
+      <c r="AE20" s="110"/>
+      <c r="AF20" s="110"/>
+      <c r="AG20" s="110"/>
+      <c r="AH20" s="110"/>
+      <c r="AI20" s="111"/>
       <c r="AJ20" s="13"/>
       <c r="AK20" s="14"/>
       <c r="AL20" s="14"/>
@@ -6628,14 +6624,14 @@
       <c r="CC20" s="14"/>
       <c r="CD20" s="14"/>
       <c r="CE20" s="15"/>
-      <c r="CF20" s="107"/>
-      <c r="CG20" s="108"/>
-      <c r="CH20" s="108"/>
-      <c r="CI20" s="108"/>
-      <c r="CJ20" s="108"/>
-      <c r="CK20" s="108"/>
-      <c r="CL20" s="108"/>
-      <c r="CM20" s="109"/>
+      <c r="CF20" s="109"/>
+      <c r="CG20" s="110"/>
+      <c r="CH20" s="110"/>
+      <c r="CI20" s="110"/>
+      <c r="CJ20" s="110"/>
+      <c r="CK20" s="110"/>
+      <c r="CL20" s="110"/>
+      <c r="CM20" s="111"/>
       <c r="CN20" s="13"/>
       <c r="CO20" s="14"/>
       <c r="CP20" s="14"/>
@@ -6660,10 +6656,10 @@
       <c r="DI20" s="14"/>
       <c r="DJ20" s="14"/>
       <c r="DK20" s="44"/>
-      <c r="DL20" s="68"/>
-      <c r="DM20" s="57"/>
-      <c r="DN20" s="57"/>
-      <c r="DO20" s="57"/>
+      <c r="DL20" s="67"/>
+      <c r="DM20" s="56"/>
+      <c r="DN20" s="56"/>
+      <c r="DO20" s="56"/>
       <c r="DP20" s="14"/>
       <c r="DQ20" s="14"/>
       <c r="DR20" s="14"/>
@@ -6692,14 +6688,14 @@
       <c r="EO20" s="14"/>
       <c r="EP20" s="14"/>
       <c r="EQ20" s="15"/>
-      <c r="ER20" s="107"/>
-      <c r="ES20" s="108"/>
-      <c r="ET20" s="108"/>
-      <c r="EU20" s="108"/>
-      <c r="EV20" s="108"/>
-      <c r="EW20" s="108"/>
-      <c r="EX20" s="108"/>
-      <c r="EY20" s="109"/>
+      <c r="ER20" s="109"/>
+      <c r="ES20" s="110"/>
+      <c r="ET20" s="110"/>
+      <c r="EU20" s="110"/>
+      <c r="EV20" s="110"/>
+      <c r="EW20" s="110"/>
+      <c r="EX20" s="110"/>
+      <c r="EY20" s="111"/>
       <c r="EZ20" s="13"/>
       <c r="FA20" s="14"/>
       <c r="FB20" s="14"/>
@@ -6749,13 +6745,13 @@
       <c r="GT20" s="14"/>
       <c r="GU20" s="14"/>
       <c r="GV20" s="14"/>
-      <c r="GW20" s="96"/>
+      <c r="GW20" s="131"/>
     </row>
     <row r="21" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="12"/>
@@ -6783,14 +6779,14 @@
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
       <c r="AA21" s="15"/>
-      <c r="AB21" s="107"/>
-      <c r="AC21" s="108"/>
-      <c r="AD21" s="108"/>
-      <c r="AE21" s="108"/>
-      <c r="AF21" s="108"/>
-      <c r="AG21" s="108"/>
-      <c r="AH21" s="108"/>
-      <c r="AI21" s="109"/>
+      <c r="AB21" s="109"/>
+      <c r="AC21" s="110"/>
+      <c r="AD21" s="110"/>
+      <c r="AE21" s="110"/>
+      <c r="AF21" s="110"/>
+      <c r="AG21" s="110"/>
+      <c r="AH21" s="110"/>
+      <c r="AI21" s="111"/>
       <c r="AJ21" s="13"/>
       <c r="AK21" s="14"/>
       <c r="AL21" s="14"/>
@@ -6839,14 +6835,14 @@
       <c r="CC21" s="14"/>
       <c r="CD21" s="14"/>
       <c r="CE21" s="15"/>
-      <c r="CF21" s="107"/>
-      <c r="CG21" s="108"/>
-      <c r="CH21" s="108"/>
-      <c r="CI21" s="108"/>
-      <c r="CJ21" s="108"/>
-      <c r="CK21" s="108"/>
-      <c r="CL21" s="108"/>
-      <c r="CM21" s="109"/>
+      <c r="CF21" s="109"/>
+      <c r="CG21" s="110"/>
+      <c r="CH21" s="110"/>
+      <c r="CI21" s="110"/>
+      <c r="CJ21" s="110"/>
+      <c r="CK21" s="110"/>
+      <c r="CL21" s="110"/>
+      <c r="CM21" s="111"/>
       <c r="CN21" s="13"/>
       <c r="CO21" s="14"/>
       <c r="CP21" s="14"/>
@@ -6875,11 +6871,11 @@
       <c r="DM21" s="14"/>
       <c r="DN21" s="14"/>
       <c r="DO21" s="14"/>
-      <c r="DP21" s="90"/>
-      <c r="DQ21" s="90"/>
+      <c r="DP21" s="89"/>
+      <c r="DQ21" s="89"/>
       <c r="DR21" s="39"/>
       <c r="DS21" s="40"/>
-      <c r="DT21" s="63" t="s">
+      <c r="DT21" s="62" t="s">
         <v>28</v>
       </c>
       <c r="DU21" s="14"/>
@@ -6905,14 +6901,14 @@
       <c r="EO21" s="14"/>
       <c r="EP21" s="14"/>
       <c r="EQ21" s="15"/>
-      <c r="ER21" s="107"/>
-      <c r="ES21" s="108"/>
-      <c r="ET21" s="108"/>
-      <c r="EU21" s="108"/>
-      <c r="EV21" s="108"/>
-      <c r="EW21" s="108"/>
-      <c r="EX21" s="108"/>
-      <c r="EY21" s="109"/>
+      <c r="ER21" s="109"/>
+      <c r="ES21" s="110"/>
+      <c r="ET21" s="110"/>
+      <c r="EU21" s="110"/>
+      <c r="EV21" s="110"/>
+      <c r="EW21" s="110"/>
+      <c r="EX21" s="110"/>
+      <c r="EY21" s="111"/>
       <c r="EZ21" s="13"/>
       <c r="FA21" s="14"/>
       <c r="FB21" s="14"/>
@@ -6962,13 +6958,13 @@
       <c r="GT21" s="14"/>
       <c r="GU21" s="14"/>
       <c r="GV21" s="14"/>
-      <c r="GW21" s="96"/>
+      <c r="GW21" s="131"/>
     </row>
     <row r="22" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="12"/>
@@ -6996,14 +6992,14 @@
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
       <c r="AA22" s="15"/>
-      <c r="AB22" s="107"/>
-      <c r="AC22" s="108"/>
-      <c r="AD22" s="108"/>
-      <c r="AE22" s="108"/>
-      <c r="AF22" s="108"/>
-      <c r="AG22" s="108"/>
-      <c r="AH22" s="108"/>
-      <c r="AI22" s="109"/>
+      <c r="AB22" s="109"/>
+      <c r="AC22" s="110"/>
+      <c r="AD22" s="110"/>
+      <c r="AE22" s="110"/>
+      <c r="AF22" s="110"/>
+      <c r="AG22" s="110"/>
+      <c r="AH22" s="110"/>
+      <c r="AI22" s="111"/>
       <c r="AJ22" s="13"/>
       <c r="AK22" s="14"/>
       <c r="AL22" s="14"/>
@@ -7052,14 +7048,14 @@
       <c r="CC22" s="14"/>
       <c r="CD22" s="14"/>
       <c r="CE22" s="15"/>
-      <c r="CF22" s="107"/>
-      <c r="CG22" s="108"/>
-      <c r="CH22" s="108"/>
-      <c r="CI22" s="108"/>
-      <c r="CJ22" s="108"/>
-      <c r="CK22" s="108"/>
-      <c r="CL22" s="108"/>
-      <c r="CM22" s="109"/>
+      <c r="CF22" s="109"/>
+      <c r="CG22" s="110"/>
+      <c r="CH22" s="110"/>
+      <c r="CI22" s="110"/>
+      <c r="CJ22" s="110"/>
+      <c r="CK22" s="110"/>
+      <c r="CL22" s="110"/>
+      <c r="CM22" s="111"/>
       <c r="CN22" s="13"/>
       <c r="CO22" s="14"/>
       <c r="CP22" s="14"/>
@@ -7093,10 +7089,10 @@
       <c r="DR22" s="14"/>
       <c r="DS22" s="15"/>
       <c r="DT22" s="41"/>
-      <c r="DU22" s="90" t="s">
+      <c r="DU22" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="DV22" s="90" t="s">
+      <c r="DV22" s="89" t="s">
         <v>28</v>
       </c>
       <c r="DW22" s="39" t="s">
@@ -7122,14 +7118,14 @@
       <c r="EO22" s="14"/>
       <c r="EP22" s="14"/>
       <c r="EQ22" s="15"/>
-      <c r="ER22" s="107"/>
-      <c r="ES22" s="108"/>
-      <c r="ET22" s="108"/>
-      <c r="EU22" s="108"/>
-      <c r="EV22" s="108"/>
-      <c r="EW22" s="108"/>
-      <c r="EX22" s="108"/>
-      <c r="EY22" s="109"/>
+      <c r="ER22" s="109"/>
+      <c r="ES22" s="110"/>
+      <c r="ET22" s="110"/>
+      <c r="EU22" s="110"/>
+      <c r="EV22" s="110"/>
+      <c r="EW22" s="110"/>
+      <c r="EX22" s="110"/>
+      <c r="EY22" s="111"/>
       <c r="EZ22" s="13"/>
       <c r="FA22" s="14"/>
       <c r="FB22" s="14"/>
@@ -7179,13 +7175,13 @@
       <c r="GT22" s="14"/>
       <c r="GU22" s="14"/>
       <c r="GV22" s="14"/>
-      <c r="GW22" s="96"/>
+      <c r="GW22" s="131"/>
     </row>
     <row r="23" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="12"/>
@@ -7213,14 +7209,14 @@
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
       <c r="AA23" s="15"/>
-      <c r="AB23" s="107"/>
-      <c r="AC23" s="108"/>
-      <c r="AD23" s="108"/>
-      <c r="AE23" s="108"/>
-      <c r="AF23" s="108"/>
-      <c r="AG23" s="108"/>
-      <c r="AH23" s="108"/>
-      <c r="AI23" s="109"/>
+      <c r="AB23" s="109"/>
+      <c r="AC23" s="110"/>
+      <c r="AD23" s="110"/>
+      <c r="AE23" s="110"/>
+      <c r="AF23" s="110"/>
+      <c r="AG23" s="110"/>
+      <c r="AH23" s="110"/>
+      <c r="AI23" s="111"/>
       <c r="AJ23" s="13"/>
       <c r="AK23" s="14"/>
       <c r="AL23" s="14"/>
@@ -7269,14 +7265,14 @@
       <c r="CC23" s="14"/>
       <c r="CD23" s="14"/>
       <c r="CE23" s="15"/>
-      <c r="CF23" s="107"/>
-      <c r="CG23" s="108"/>
-      <c r="CH23" s="108"/>
-      <c r="CI23" s="108"/>
-      <c r="CJ23" s="108"/>
-      <c r="CK23" s="108"/>
-      <c r="CL23" s="108"/>
-      <c r="CM23" s="109"/>
+      <c r="CF23" s="109"/>
+      <c r="CG23" s="110"/>
+      <c r="CH23" s="110"/>
+      <c r="CI23" s="110"/>
+      <c r="CJ23" s="110"/>
+      <c r="CK23" s="110"/>
+      <c r="CL23" s="110"/>
+      <c r="CM23" s="111"/>
       <c r="CN23" s="13"/>
       <c r="CO23" s="14"/>
       <c r="CP23" s="14"/>
@@ -7314,7 +7310,7 @@
       <c r="DV23" s="14"/>
       <c r="DW23" s="14"/>
       <c r="DX23" s="39"/>
-      <c r="DY23" s="90" t="s">
+      <c r="DY23" s="89" t="s">
         <v>28</v>
       </c>
       <c r="DZ23" s="14"/>
@@ -7335,14 +7331,14 @@
       <c r="EO23" s="14"/>
       <c r="EP23" s="14"/>
       <c r="EQ23" s="15"/>
-      <c r="ER23" s="107"/>
-      <c r="ES23" s="108"/>
-      <c r="ET23" s="108"/>
-      <c r="EU23" s="108"/>
-      <c r="EV23" s="108"/>
-      <c r="EW23" s="108"/>
-      <c r="EX23" s="108"/>
-      <c r="EY23" s="109"/>
+      <c r="ER23" s="109"/>
+      <c r="ES23" s="110"/>
+      <c r="ET23" s="110"/>
+      <c r="EU23" s="110"/>
+      <c r="EV23" s="110"/>
+      <c r="EW23" s="110"/>
+      <c r="EX23" s="110"/>
+      <c r="EY23" s="111"/>
       <c r="EZ23" s="13"/>
       <c r="FA23" s="14"/>
       <c r="FB23" s="14"/>
@@ -7392,13 +7388,13 @@
       <c r="GT23" s="14"/>
       <c r="GU23" s="14"/>
       <c r="GV23" s="14"/>
-      <c r="GW23" s="96"/>
+      <c r="GW23" s="131"/>
     </row>
     <row r="24" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="12"/>
@@ -7426,14 +7422,14 @@
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
       <c r="AA24" s="15"/>
-      <c r="AB24" s="107"/>
-      <c r="AC24" s="108"/>
-      <c r="AD24" s="108"/>
-      <c r="AE24" s="108"/>
-      <c r="AF24" s="108"/>
-      <c r="AG24" s="108"/>
-      <c r="AH24" s="108"/>
-      <c r="AI24" s="109"/>
+      <c r="AB24" s="109"/>
+      <c r="AC24" s="110"/>
+      <c r="AD24" s="110"/>
+      <c r="AE24" s="110"/>
+      <c r="AF24" s="110"/>
+      <c r="AG24" s="110"/>
+      <c r="AH24" s="110"/>
+      <c r="AI24" s="111"/>
       <c r="AJ24" s="13"/>
       <c r="AK24" s="14"/>
       <c r="AL24" s="14"/>
@@ -7482,14 +7478,14 @@
       <c r="CC24" s="14"/>
       <c r="CD24" s="14"/>
       <c r="CE24" s="15"/>
-      <c r="CF24" s="107"/>
-      <c r="CG24" s="108"/>
-      <c r="CH24" s="108"/>
-      <c r="CI24" s="108"/>
-      <c r="CJ24" s="108"/>
-      <c r="CK24" s="108"/>
-      <c r="CL24" s="108"/>
-      <c r="CM24" s="109"/>
+      <c r="CF24" s="109"/>
+      <c r="CG24" s="110"/>
+      <c r="CH24" s="110"/>
+      <c r="CI24" s="110"/>
+      <c r="CJ24" s="110"/>
+      <c r="CK24" s="110"/>
+      <c r="CL24" s="110"/>
+      <c r="CM24" s="111"/>
       <c r="CN24" s="13"/>
       <c r="CO24" s="14"/>
       <c r="CP24" s="14"/>
@@ -7552,14 +7548,14 @@
       <c r="EO24" s="14"/>
       <c r="EP24" s="14"/>
       <c r="EQ24" s="15"/>
-      <c r="ER24" s="107"/>
-      <c r="ES24" s="108"/>
-      <c r="ET24" s="108"/>
-      <c r="EU24" s="108"/>
-      <c r="EV24" s="108"/>
-      <c r="EW24" s="108"/>
-      <c r="EX24" s="108"/>
-      <c r="EY24" s="109"/>
+      <c r="ER24" s="109"/>
+      <c r="ES24" s="110"/>
+      <c r="ET24" s="110"/>
+      <c r="EU24" s="110"/>
+      <c r="EV24" s="110"/>
+      <c r="EW24" s="110"/>
+      <c r="EX24" s="110"/>
+      <c r="EY24" s="111"/>
       <c r="EZ24" s="13"/>
       <c r="FA24" s="14"/>
       <c r="FB24" s="14"/>
@@ -7609,13 +7605,13 @@
       <c r="GT24" s="14"/>
       <c r="GU24" s="14"/>
       <c r="GV24" s="14"/>
-      <c r="GW24" s="96"/>
+      <c r="GW24" s="131"/>
     </row>
     <row r="25" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A25" s="91" t="s">
+      <c r="A25" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="12"/>
@@ -7643,14 +7639,14 @@
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
       <c r="AA25" s="15"/>
-      <c r="AB25" s="107"/>
-      <c r="AC25" s="108"/>
-      <c r="AD25" s="108"/>
-      <c r="AE25" s="108"/>
-      <c r="AF25" s="108"/>
-      <c r="AG25" s="108"/>
-      <c r="AH25" s="108"/>
-      <c r="AI25" s="109"/>
+      <c r="AB25" s="109"/>
+      <c r="AC25" s="110"/>
+      <c r="AD25" s="110"/>
+      <c r="AE25" s="110"/>
+      <c r="AF25" s="110"/>
+      <c r="AG25" s="110"/>
+      <c r="AH25" s="110"/>
+      <c r="AI25" s="111"/>
       <c r="AJ25" s="13"/>
       <c r="AK25" s="14"/>
       <c r="AL25" s="14"/>
@@ -7699,14 +7695,14 @@
       <c r="CC25" s="14"/>
       <c r="CD25" s="14"/>
       <c r="CE25" s="15"/>
-      <c r="CF25" s="107"/>
-      <c r="CG25" s="108"/>
-      <c r="CH25" s="108"/>
-      <c r="CI25" s="108"/>
-      <c r="CJ25" s="108"/>
-      <c r="CK25" s="108"/>
-      <c r="CL25" s="108"/>
-      <c r="CM25" s="109"/>
+      <c r="CF25" s="109"/>
+      <c r="CG25" s="110"/>
+      <c r="CH25" s="110"/>
+      <c r="CI25" s="110"/>
+      <c r="CJ25" s="110"/>
+      <c r="CK25" s="110"/>
+      <c r="CL25" s="110"/>
+      <c r="CM25" s="111"/>
       <c r="CN25" s="13"/>
       <c r="CO25" s="14"/>
       <c r="CP25" s="14"/>
@@ -7769,14 +7765,14 @@
       <c r="EO25" s="14"/>
       <c r="EP25" s="14"/>
       <c r="EQ25" s="15"/>
-      <c r="ER25" s="107"/>
-      <c r="ES25" s="108"/>
-      <c r="ET25" s="108"/>
-      <c r="EU25" s="108"/>
-      <c r="EV25" s="108"/>
-      <c r="EW25" s="108"/>
-      <c r="EX25" s="108"/>
-      <c r="EY25" s="109"/>
+      <c r="ER25" s="109"/>
+      <c r="ES25" s="110"/>
+      <c r="ET25" s="110"/>
+      <c r="EU25" s="110"/>
+      <c r="EV25" s="110"/>
+      <c r="EW25" s="110"/>
+      <c r="EX25" s="110"/>
+      <c r="EY25" s="111"/>
       <c r="EZ25" s="13"/>
       <c r="FA25" s="14"/>
       <c r="FB25" s="14"/>
@@ -7826,13 +7822,13 @@
       <c r="GT25" s="14"/>
       <c r="GU25" s="14"/>
       <c r="GV25" s="14"/>
-      <c r="GW25" s="96"/>
+      <c r="GW25" s="131"/>
     </row>
     <row r="26" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="12"/>
@@ -7860,14 +7856,14 @@
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
       <c r="AA26" s="15"/>
-      <c r="AB26" s="107"/>
-      <c r="AC26" s="108"/>
-      <c r="AD26" s="108"/>
-      <c r="AE26" s="108"/>
-      <c r="AF26" s="108"/>
-      <c r="AG26" s="108"/>
-      <c r="AH26" s="108"/>
-      <c r="AI26" s="109"/>
+      <c r="AB26" s="109"/>
+      <c r="AC26" s="110"/>
+      <c r="AD26" s="110"/>
+      <c r="AE26" s="110"/>
+      <c r="AF26" s="110"/>
+      <c r="AG26" s="110"/>
+      <c r="AH26" s="110"/>
+      <c r="AI26" s="111"/>
       <c r="AJ26" s="13"/>
       <c r="AK26" s="14"/>
       <c r="AL26" s="14"/>
@@ -7916,14 +7912,14 @@
       <c r="CC26" s="14"/>
       <c r="CD26" s="14"/>
       <c r="CE26" s="15"/>
-      <c r="CF26" s="107"/>
-      <c r="CG26" s="108"/>
-      <c r="CH26" s="108"/>
-      <c r="CI26" s="108"/>
-      <c r="CJ26" s="108"/>
-      <c r="CK26" s="108"/>
-      <c r="CL26" s="108"/>
-      <c r="CM26" s="109"/>
+      <c r="CF26" s="109"/>
+      <c r="CG26" s="110"/>
+      <c r="CH26" s="110"/>
+      <c r="CI26" s="110"/>
+      <c r="CJ26" s="110"/>
+      <c r="CK26" s="110"/>
+      <c r="CL26" s="110"/>
+      <c r="CM26" s="111"/>
       <c r="CN26" s="13"/>
       <c r="CO26" s="14"/>
       <c r="CP26" s="14"/>
@@ -7986,14 +7982,14 @@
       <c r="EO26" s="14"/>
       <c r="EP26" s="14"/>
       <c r="EQ26" s="15"/>
-      <c r="ER26" s="107"/>
-      <c r="ES26" s="108"/>
-      <c r="ET26" s="108"/>
-      <c r="EU26" s="108"/>
-      <c r="EV26" s="108"/>
-      <c r="EW26" s="108"/>
-      <c r="EX26" s="108"/>
-      <c r="EY26" s="109"/>
+      <c r="ER26" s="109"/>
+      <c r="ES26" s="110"/>
+      <c r="ET26" s="110"/>
+      <c r="EU26" s="110"/>
+      <c r="EV26" s="110"/>
+      <c r="EW26" s="110"/>
+      <c r="EX26" s="110"/>
+      <c r="EY26" s="111"/>
       <c r="EZ26" s="13"/>
       <c r="FA26" s="14"/>
       <c r="FB26" s="14"/>
@@ -8043,13 +8039,13 @@
       <c r="GT26" s="14"/>
       <c r="GU26" s="14"/>
       <c r="GV26" s="14"/>
-      <c r="GW26" s="96"/>
+      <c r="GW26" s="131"/>
     </row>
     <row r="27" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="12"/>
@@ -8077,14 +8073,14 @@
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
       <c r="AA27" s="15"/>
-      <c r="AB27" s="107"/>
-      <c r="AC27" s="108"/>
-      <c r="AD27" s="108"/>
-      <c r="AE27" s="108"/>
-      <c r="AF27" s="108"/>
-      <c r="AG27" s="108"/>
-      <c r="AH27" s="108"/>
-      <c r="AI27" s="109"/>
+      <c r="AB27" s="109"/>
+      <c r="AC27" s="110"/>
+      <c r="AD27" s="110"/>
+      <c r="AE27" s="110"/>
+      <c r="AF27" s="110"/>
+      <c r="AG27" s="110"/>
+      <c r="AH27" s="110"/>
+      <c r="AI27" s="111"/>
       <c r="AJ27" s="13"/>
       <c r="AK27" s="14"/>
       <c r="AL27" s="14"/>
@@ -8133,14 +8129,14 @@
       <c r="CC27" s="14"/>
       <c r="CD27" s="14"/>
       <c r="CE27" s="15"/>
-      <c r="CF27" s="107"/>
-      <c r="CG27" s="108"/>
-      <c r="CH27" s="108"/>
-      <c r="CI27" s="108"/>
-      <c r="CJ27" s="108"/>
-      <c r="CK27" s="108"/>
-      <c r="CL27" s="108"/>
-      <c r="CM27" s="109"/>
+      <c r="CF27" s="109"/>
+      <c r="CG27" s="110"/>
+      <c r="CH27" s="110"/>
+      <c r="CI27" s="110"/>
+      <c r="CJ27" s="110"/>
+      <c r="CK27" s="110"/>
+      <c r="CL27" s="110"/>
+      <c r="CM27" s="111"/>
       <c r="CN27" s="13"/>
       <c r="CO27" s="14"/>
       <c r="CP27" s="14"/>
@@ -8195,20 +8191,26 @@
       <c r="EK27" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="EL27" s="14"/>
-      <c r="EM27" s="14"/>
-      <c r="EN27" s="14"/>
+      <c r="EL27" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="EM27" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="EN27" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="EO27" s="14"/>
       <c r="EP27" s="14"/>
       <c r="EQ27" s="15"/>
-      <c r="ER27" s="107"/>
-      <c r="ES27" s="108"/>
-      <c r="ET27" s="108"/>
-      <c r="EU27" s="108"/>
-      <c r="EV27" s="108"/>
-      <c r="EW27" s="108"/>
-      <c r="EX27" s="108"/>
-      <c r="EY27" s="109"/>
+      <c r="ER27" s="109"/>
+      <c r="ES27" s="110"/>
+      <c r="ET27" s="110"/>
+      <c r="EU27" s="110"/>
+      <c r="EV27" s="110"/>
+      <c r="EW27" s="110"/>
+      <c r="EX27" s="110"/>
+      <c r="EY27" s="111"/>
       <c r="EZ27" s="13"/>
       <c r="FA27" s="14"/>
       <c r="FB27" s="14"/>
@@ -8258,13 +8260,13 @@
       <c r="GT27" s="14"/>
       <c r="GU27" s="14"/>
       <c r="GV27" s="14"/>
-      <c r="GW27" s="96"/>
+      <c r="GW27" s="131"/>
     </row>
     <row r="28" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A28" s="91" t="s">
+      <c r="A28" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="66"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
@@ -8290,14 +8292,14 @@
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
       <c r="AA28" s="15"/>
-      <c r="AB28" s="107"/>
-      <c r="AC28" s="108"/>
-      <c r="AD28" s="108"/>
-      <c r="AE28" s="108"/>
-      <c r="AF28" s="108"/>
-      <c r="AG28" s="108"/>
-      <c r="AH28" s="108"/>
-      <c r="AI28" s="109"/>
+      <c r="AB28" s="109"/>
+      <c r="AC28" s="110"/>
+      <c r="AD28" s="110"/>
+      <c r="AE28" s="110"/>
+      <c r="AF28" s="110"/>
+      <c r="AG28" s="110"/>
+      <c r="AH28" s="110"/>
+      <c r="AI28" s="111"/>
       <c r="AJ28" s="13"/>
       <c r="AK28" s="14"/>
       <c r="AL28" s="14"/>
@@ -8346,14 +8348,14 @@
       <c r="CC28" s="14"/>
       <c r="CD28" s="14"/>
       <c r="CE28" s="15"/>
-      <c r="CF28" s="107"/>
-      <c r="CG28" s="108"/>
-      <c r="CH28" s="108"/>
-      <c r="CI28" s="108"/>
-      <c r="CJ28" s="108"/>
-      <c r="CK28" s="108"/>
-      <c r="CL28" s="108"/>
-      <c r="CM28" s="109"/>
+      <c r="CF28" s="109"/>
+      <c r="CG28" s="110"/>
+      <c r="CH28" s="110"/>
+      <c r="CI28" s="110"/>
+      <c r="CJ28" s="110"/>
+      <c r="CK28" s="110"/>
+      <c r="CL28" s="110"/>
+      <c r="CM28" s="111"/>
       <c r="CN28" s="13"/>
       <c r="CO28" s="14"/>
       <c r="CP28" s="14"/>
@@ -8407,18 +8409,26 @@
       <c r="EL28" s="39"/>
       <c r="EM28" s="39"/>
       <c r="EN28" s="14"/>
-      <c r="EO28" s="14"/>
-      <c r="EP28" s="14"/>
-      <c r="EQ28" s="15"/>
-      <c r="ER28" s="107"/>
-      <c r="ES28" s="108"/>
-      <c r="ET28" s="108"/>
-      <c r="EU28" s="108"/>
-      <c r="EV28" s="108"/>
-      <c r="EW28" s="108"/>
-      <c r="EX28" s="108"/>
-      <c r="EY28" s="109"/>
-      <c r="EZ28" s="13"/>
+      <c r="EO28" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="EP28" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="EQ28" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="ER28" s="109"/>
+      <c r="ES28" s="110"/>
+      <c r="ET28" s="110"/>
+      <c r="EU28" s="110"/>
+      <c r="EV28" s="110"/>
+      <c r="EW28" s="110"/>
+      <c r="EX28" s="110"/>
+      <c r="EY28" s="111"/>
+      <c r="EZ28" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="FA28" s="14"/>
       <c r="FB28" s="14"/>
       <c r="FC28" s="14"/>
@@ -8467,13 +8477,13 @@
       <c r="GT28" s="14"/>
       <c r="GU28" s="14"/>
       <c r="GV28" s="14"/>
-      <c r="GW28" s="96"/>
+      <c r="GW28" s="131"/>
     </row>
     <row r="29" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="66"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="14"/>
@@ -8499,14 +8509,14 @@
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
       <c r="AA29" s="15"/>
-      <c r="AB29" s="107"/>
-      <c r="AC29" s="108"/>
-      <c r="AD29" s="108"/>
-      <c r="AE29" s="108"/>
-      <c r="AF29" s="108"/>
-      <c r="AG29" s="108"/>
-      <c r="AH29" s="108"/>
-      <c r="AI29" s="109"/>
+      <c r="AB29" s="109"/>
+      <c r="AC29" s="110"/>
+      <c r="AD29" s="110"/>
+      <c r="AE29" s="110"/>
+      <c r="AF29" s="110"/>
+      <c r="AG29" s="110"/>
+      <c r="AH29" s="110"/>
+      <c r="AI29" s="111"/>
       <c r="AJ29" s="13"/>
       <c r="AK29" s="14"/>
       <c r="AL29" s="14"/>
@@ -8555,14 +8565,14 @@
       <c r="CC29" s="14"/>
       <c r="CD29" s="14"/>
       <c r="CE29" s="15"/>
-      <c r="CF29" s="107"/>
-      <c r="CG29" s="108"/>
-      <c r="CH29" s="108"/>
-      <c r="CI29" s="108"/>
-      <c r="CJ29" s="108"/>
-      <c r="CK29" s="108"/>
-      <c r="CL29" s="108"/>
-      <c r="CM29" s="109"/>
+      <c r="CF29" s="109"/>
+      <c r="CG29" s="110"/>
+      <c r="CH29" s="110"/>
+      <c r="CI29" s="110"/>
+      <c r="CJ29" s="110"/>
+      <c r="CK29" s="110"/>
+      <c r="CL29" s="110"/>
+      <c r="CM29" s="111"/>
       <c r="CN29" s="13"/>
       <c r="CO29" s="14"/>
       <c r="CP29" s="14"/>
@@ -8619,14 +8629,14 @@
       <c r="EO29" s="39"/>
       <c r="EP29" s="39"/>
       <c r="EQ29" s="40"/>
-      <c r="ER29" s="107"/>
-      <c r="ES29" s="108"/>
-      <c r="ET29" s="108"/>
-      <c r="EU29" s="108"/>
-      <c r="EV29" s="108"/>
-      <c r="EW29" s="108"/>
-      <c r="EX29" s="108"/>
-      <c r="EY29" s="109"/>
+      <c r="ER29" s="109"/>
+      <c r="ES29" s="110"/>
+      <c r="ET29" s="110"/>
+      <c r="EU29" s="110"/>
+      <c r="EV29" s="110"/>
+      <c r="EW29" s="110"/>
+      <c r="EX29" s="110"/>
+      <c r="EY29" s="111"/>
       <c r="EZ29" s="13"/>
       <c r="FA29" s="14"/>
       <c r="FB29" s="14"/>
@@ -8676,13 +8686,13 @@
       <c r="GT29" s="14"/>
       <c r="GU29" s="14"/>
       <c r="GV29" s="14"/>
-      <c r="GW29" s="96"/>
+      <c r="GW29" s="131"/>
     </row>
     <row r="30" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A30" s="91" t="s">
+      <c r="A30" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="66"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="14"/>
@@ -8708,14 +8718,14 @@
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
       <c r="AA30" s="15"/>
-      <c r="AB30" s="107"/>
-      <c r="AC30" s="108"/>
-      <c r="AD30" s="108"/>
-      <c r="AE30" s="108"/>
-      <c r="AF30" s="108"/>
-      <c r="AG30" s="108"/>
-      <c r="AH30" s="108"/>
-      <c r="AI30" s="109"/>
+      <c r="AB30" s="109"/>
+      <c r="AC30" s="110"/>
+      <c r="AD30" s="110"/>
+      <c r="AE30" s="110"/>
+      <c r="AF30" s="110"/>
+      <c r="AG30" s="110"/>
+      <c r="AH30" s="110"/>
+      <c r="AI30" s="111"/>
       <c r="AJ30" s="13"/>
       <c r="AK30" s="14"/>
       <c r="AL30" s="14"/>
@@ -8764,14 +8774,14 @@
       <c r="CC30" s="14"/>
       <c r="CD30" s="14"/>
       <c r="CE30" s="15"/>
-      <c r="CF30" s="107"/>
-      <c r="CG30" s="108"/>
-      <c r="CH30" s="108"/>
-      <c r="CI30" s="108"/>
-      <c r="CJ30" s="108"/>
-      <c r="CK30" s="108"/>
-      <c r="CL30" s="108"/>
-      <c r="CM30" s="109"/>
+      <c r="CF30" s="109"/>
+      <c r="CG30" s="110"/>
+      <c r="CH30" s="110"/>
+      <c r="CI30" s="110"/>
+      <c r="CJ30" s="110"/>
+      <c r="CK30" s="110"/>
+      <c r="CL30" s="110"/>
+      <c r="CM30" s="111"/>
       <c r="CN30" s="13"/>
       <c r="CO30" s="14"/>
       <c r="CP30" s="14"/>
@@ -8828,14 +8838,14 @@
       <c r="EO30" s="14"/>
       <c r="EP30" s="14"/>
       <c r="EQ30" s="14"/>
-      <c r="ER30" s="107"/>
-      <c r="ES30" s="108"/>
-      <c r="ET30" s="108"/>
-      <c r="EU30" s="108"/>
-      <c r="EV30" s="108"/>
-      <c r="EW30" s="108"/>
-      <c r="EX30" s="108"/>
-      <c r="EY30" s="109"/>
+      <c r="ER30" s="109"/>
+      <c r="ES30" s="110"/>
+      <c r="ET30" s="110"/>
+      <c r="EU30" s="110"/>
+      <c r="EV30" s="110"/>
+      <c r="EW30" s="110"/>
+      <c r="EX30" s="110"/>
+      <c r="EY30" s="111"/>
       <c r="EZ30" s="41"/>
       <c r="FA30" s="39"/>
       <c r="FB30" s="39"/>
@@ -8885,13 +8895,13 @@
       <c r="GT30" s="14"/>
       <c r="GU30" s="14"/>
       <c r="GV30" s="14"/>
-      <c r="GW30" s="96"/>
+      <c r="GW30" s="131"/>
     </row>
     <row r="31" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="66"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="12"/>
       <c r="D31" s="13"/>
       <c r="E31" s="14"/>
@@ -8917,14 +8927,14 @@
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="15"/>
-      <c r="AB31" s="107"/>
-      <c r="AC31" s="108"/>
-      <c r="AD31" s="108"/>
-      <c r="AE31" s="108"/>
-      <c r="AF31" s="108"/>
-      <c r="AG31" s="108"/>
-      <c r="AH31" s="108"/>
-      <c r="AI31" s="109"/>
+      <c r="AB31" s="109"/>
+      <c r="AC31" s="110"/>
+      <c r="AD31" s="110"/>
+      <c r="AE31" s="110"/>
+      <c r="AF31" s="110"/>
+      <c r="AG31" s="110"/>
+      <c r="AH31" s="110"/>
+      <c r="AI31" s="111"/>
       <c r="AJ31" s="13"/>
       <c r="AK31" s="14"/>
       <c r="AL31" s="14"/>
@@ -8973,14 +8983,14 @@
       <c r="CC31" s="14"/>
       <c r="CD31" s="14"/>
       <c r="CE31" s="15"/>
-      <c r="CF31" s="107"/>
-      <c r="CG31" s="108"/>
-      <c r="CH31" s="108"/>
-      <c r="CI31" s="108"/>
-      <c r="CJ31" s="108"/>
-      <c r="CK31" s="108"/>
-      <c r="CL31" s="108"/>
-      <c r="CM31" s="109"/>
+      <c r="CF31" s="109"/>
+      <c r="CG31" s="110"/>
+      <c r="CH31" s="110"/>
+      <c r="CI31" s="110"/>
+      <c r="CJ31" s="110"/>
+      <c r="CK31" s="110"/>
+      <c r="CL31" s="110"/>
+      <c r="CM31" s="111"/>
       <c r="CN31" s="13"/>
       <c r="CO31" s="14"/>
       <c r="CP31" s="14"/>
@@ -9037,14 +9047,14 @@
       <c r="EO31" s="14"/>
       <c r="EP31" s="14"/>
       <c r="EQ31" s="15"/>
-      <c r="ER31" s="107"/>
-      <c r="ES31" s="108"/>
-      <c r="ET31" s="108"/>
-      <c r="EU31" s="108"/>
-      <c r="EV31" s="108"/>
-      <c r="EW31" s="108"/>
-      <c r="EX31" s="108"/>
-      <c r="EY31" s="109"/>
+      <c r="ER31" s="109"/>
+      <c r="ES31" s="110"/>
+      <c r="ET31" s="110"/>
+      <c r="EU31" s="110"/>
+      <c r="EV31" s="110"/>
+      <c r="EW31" s="110"/>
+      <c r="EX31" s="110"/>
+      <c r="EY31" s="111"/>
       <c r="EZ31" s="13"/>
       <c r="FA31" s="14"/>
       <c r="FB31" s="14"/>
@@ -9094,13 +9104,13 @@
       <c r="GT31" s="14"/>
       <c r="GU31" s="14"/>
       <c r="GV31" s="14"/>
-      <c r="GW31" s="96"/>
+      <c r="GW31" s="131"/>
     </row>
     <row r="32" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="66"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="12"/>
       <c r="D32" s="13"/>
       <c r="E32" s="14"/>
@@ -9126,14 +9136,14 @@
       <c r="Y32" s="14"/>
       <c r="Z32" s="14"/>
       <c r="AA32" s="15"/>
-      <c r="AB32" s="107"/>
-      <c r="AC32" s="108"/>
-      <c r="AD32" s="108"/>
-      <c r="AE32" s="108"/>
-      <c r="AF32" s="108"/>
-      <c r="AG32" s="108"/>
-      <c r="AH32" s="108"/>
-      <c r="AI32" s="109"/>
+      <c r="AB32" s="109"/>
+      <c r="AC32" s="110"/>
+      <c r="AD32" s="110"/>
+      <c r="AE32" s="110"/>
+      <c r="AF32" s="110"/>
+      <c r="AG32" s="110"/>
+      <c r="AH32" s="110"/>
+      <c r="AI32" s="111"/>
       <c r="AJ32" s="13"/>
       <c r="AK32" s="14"/>
       <c r="AL32" s="14"/>
@@ -9182,14 +9192,14 @@
       <c r="CC32" s="14"/>
       <c r="CD32" s="14"/>
       <c r="CE32" s="15"/>
-      <c r="CF32" s="107"/>
-      <c r="CG32" s="108"/>
-      <c r="CH32" s="108"/>
-      <c r="CI32" s="108"/>
-      <c r="CJ32" s="108"/>
-      <c r="CK32" s="108"/>
-      <c r="CL32" s="108"/>
-      <c r="CM32" s="109"/>
+      <c r="CF32" s="109"/>
+      <c r="CG32" s="110"/>
+      <c r="CH32" s="110"/>
+      <c r="CI32" s="110"/>
+      <c r="CJ32" s="110"/>
+      <c r="CK32" s="110"/>
+      <c r="CL32" s="110"/>
+      <c r="CM32" s="111"/>
       <c r="CN32" s="13"/>
       <c r="CO32" s="14"/>
       <c r="CP32" s="14"/>
@@ -9246,14 +9256,14 @@
       <c r="EO32" s="14"/>
       <c r="EP32" s="14"/>
       <c r="EQ32" s="15"/>
-      <c r="ER32" s="107"/>
-      <c r="ES32" s="108"/>
-      <c r="ET32" s="108"/>
-      <c r="EU32" s="108"/>
-      <c r="EV32" s="108"/>
-      <c r="EW32" s="108"/>
-      <c r="EX32" s="108"/>
-      <c r="EY32" s="109"/>
+      <c r="ER32" s="109"/>
+      <c r="ES32" s="110"/>
+      <c r="ET32" s="110"/>
+      <c r="EU32" s="110"/>
+      <c r="EV32" s="110"/>
+      <c r="EW32" s="110"/>
+      <c r="EX32" s="110"/>
+      <c r="EY32" s="111"/>
       <c r="EZ32" s="13"/>
       <c r="FA32" s="14"/>
       <c r="FB32" s="14"/>
@@ -9303,13 +9313,13 @@
       <c r="GT32" s="14"/>
       <c r="GU32" s="14"/>
       <c r="GV32" s="14"/>
-      <c r="GW32" s="96"/>
+      <c r="GW32" s="131"/>
     </row>
     <row r="33" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="66"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="12"/>
       <c r="D33" s="13"/>
       <c r="E33" s="14"/>
@@ -9335,14 +9345,14 @@
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
       <c r="AA33" s="15"/>
-      <c r="AB33" s="107"/>
-      <c r="AC33" s="108"/>
-      <c r="AD33" s="108"/>
-      <c r="AE33" s="108"/>
-      <c r="AF33" s="108"/>
-      <c r="AG33" s="108"/>
-      <c r="AH33" s="108"/>
-      <c r="AI33" s="109"/>
+      <c r="AB33" s="109"/>
+      <c r="AC33" s="110"/>
+      <c r="AD33" s="110"/>
+      <c r="AE33" s="110"/>
+      <c r="AF33" s="110"/>
+      <c r="AG33" s="110"/>
+      <c r="AH33" s="110"/>
+      <c r="AI33" s="111"/>
       <c r="AJ33" s="13"/>
       <c r="AK33" s="14"/>
       <c r="AL33" s="14"/>
@@ -9391,14 +9401,14 @@
       <c r="CC33" s="14"/>
       <c r="CD33" s="14"/>
       <c r="CE33" s="15"/>
-      <c r="CF33" s="107"/>
-      <c r="CG33" s="108"/>
-      <c r="CH33" s="108"/>
-      <c r="CI33" s="108"/>
-      <c r="CJ33" s="108"/>
-      <c r="CK33" s="108"/>
-      <c r="CL33" s="108"/>
-      <c r="CM33" s="109"/>
+      <c r="CF33" s="109"/>
+      <c r="CG33" s="110"/>
+      <c r="CH33" s="110"/>
+      <c r="CI33" s="110"/>
+      <c r="CJ33" s="110"/>
+      <c r="CK33" s="110"/>
+      <c r="CL33" s="110"/>
+      <c r="CM33" s="111"/>
       <c r="CN33" s="13"/>
       <c r="CO33" s="14"/>
       <c r="CP33" s="14"/>
@@ -9455,14 +9465,14 @@
       <c r="EO33" s="14"/>
       <c r="EP33" s="14"/>
       <c r="EQ33" s="15"/>
-      <c r="ER33" s="107"/>
-      <c r="ES33" s="108"/>
-      <c r="ET33" s="108"/>
-      <c r="EU33" s="108"/>
-      <c r="EV33" s="108"/>
-      <c r="EW33" s="108"/>
-      <c r="EX33" s="108"/>
-      <c r="EY33" s="109"/>
+      <c r="ER33" s="109"/>
+      <c r="ES33" s="110"/>
+      <c r="ET33" s="110"/>
+      <c r="EU33" s="110"/>
+      <c r="EV33" s="110"/>
+      <c r="EW33" s="110"/>
+      <c r="EX33" s="110"/>
+      <c r="EY33" s="111"/>
       <c r="EZ33" s="13"/>
       <c r="FA33" s="14"/>
       <c r="FB33" s="14"/>
@@ -9512,13 +9522,13 @@
       <c r="GT33" s="14"/>
       <c r="GU33" s="14"/>
       <c r="GV33" s="14"/>
-      <c r="GW33" s="96"/>
+      <c r="GW33" s="131"/>
     </row>
     <row r="34" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A34" s="91" t="s">
+      <c r="A34" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="66"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="12"/>
       <c r="D34" s="13"/>
       <c r="E34" s="14"/>
@@ -9544,14 +9554,14 @@
       <c r="Y34" s="14"/>
       <c r="Z34" s="14"/>
       <c r="AA34" s="15"/>
-      <c r="AB34" s="107"/>
-      <c r="AC34" s="108"/>
-      <c r="AD34" s="108"/>
-      <c r="AE34" s="108"/>
-      <c r="AF34" s="108"/>
-      <c r="AG34" s="108"/>
-      <c r="AH34" s="108"/>
-      <c r="AI34" s="109"/>
+      <c r="AB34" s="109"/>
+      <c r="AC34" s="110"/>
+      <c r="AD34" s="110"/>
+      <c r="AE34" s="110"/>
+      <c r="AF34" s="110"/>
+      <c r="AG34" s="110"/>
+      <c r="AH34" s="110"/>
+      <c r="AI34" s="111"/>
       <c r="AJ34" s="13"/>
       <c r="AK34" s="14"/>
       <c r="AL34" s="14"/>
@@ -9600,14 +9610,14 @@
       <c r="CC34" s="14"/>
       <c r="CD34" s="14"/>
       <c r="CE34" s="15"/>
-      <c r="CF34" s="107"/>
-      <c r="CG34" s="108"/>
-      <c r="CH34" s="108"/>
-      <c r="CI34" s="108"/>
-      <c r="CJ34" s="108"/>
-      <c r="CK34" s="108"/>
-      <c r="CL34" s="108"/>
-      <c r="CM34" s="109"/>
+      <c r="CF34" s="109"/>
+      <c r="CG34" s="110"/>
+      <c r="CH34" s="110"/>
+      <c r="CI34" s="110"/>
+      <c r="CJ34" s="110"/>
+      <c r="CK34" s="110"/>
+      <c r="CL34" s="110"/>
+      <c r="CM34" s="111"/>
       <c r="CN34" s="13"/>
       <c r="CO34" s="14"/>
       <c r="CP34" s="14"/>
@@ -9664,14 +9674,14 @@
       <c r="EO34" s="14"/>
       <c r="EP34" s="14"/>
       <c r="EQ34" s="15"/>
-      <c r="ER34" s="107"/>
-      <c r="ES34" s="108"/>
-      <c r="ET34" s="108"/>
-      <c r="EU34" s="108"/>
-      <c r="EV34" s="108"/>
-      <c r="EW34" s="108"/>
-      <c r="EX34" s="108"/>
-      <c r="EY34" s="109"/>
+      <c r="ER34" s="109"/>
+      <c r="ES34" s="110"/>
+      <c r="ET34" s="110"/>
+      <c r="EU34" s="110"/>
+      <c r="EV34" s="110"/>
+      <c r="EW34" s="110"/>
+      <c r="EX34" s="110"/>
+      <c r="EY34" s="111"/>
       <c r="EZ34" s="13"/>
       <c r="FA34" s="14"/>
       <c r="FB34" s="14"/>
@@ -9721,13 +9731,13 @@
       <c r="GT34" s="14"/>
       <c r="GU34" s="14"/>
       <c r="GV34" s="14"/>
-      <c r="GW34" s="96"/>
+      <c r="GW34" s="131"/>
     </row>
     <row r="35" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="66"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="12"/>
       <c r="D35" s="13"/>
       <c r="E35" s="14"/>
@@ -9753,14 +9763,14 @@
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
       <c r="AA35" s="15"/>
-      <c r="AB35" s="107"/>
-      <c r="AC35" s="108"/>
-      <c r="AD35" s="108"/>
-      <c r="AE35" s="108"/>
-      <c r="AF35" s="108"/>
-      <c r="AG35" s="108"/>
-      <c r="AH35" s="108"/>
-      <c r="AI35" s="109"/>
+      <c r="AB35" s="109"/>
+      <c r="AC35" s="110"/>
+      <c r="AD35" s="110"/>
+      <c r="AE35" s="110"/>
+      <c r="AF35" s="110"/>
+      <c r="AG35" s="110"/>
+      <c r="AH35" s="110"/>
+      <c r="AI35" s="111"/>
       <c r="AJ35" s="13"/>
       <c r="AK35" s="14"/>
       <c r="AL35" s="14"/>
@@ -9809,14 +9819,14 @@
       <c r="CC35" s="14"/>
       <c r="CD35" s="14"/>
       <c r="CE35" s="15"/>
-      <c r="CF35" s="107"/>
-      <c r="CG35" s="108"/>
-      <c r="CH35" s="108"/>
-      <c r="CI35" s="108"/>
-      <c r="CJ35" s="108"/>
-      <c r="CK35" s="108"/>
-      <c r="CL35" s="108"/>
-      <c r="CM35" s="109"/>
+      <c r="CF35" s="109"/>
+      <c r="CG35" s="110"/>
+      <c r="CH35" s="110"/>
+      <c r="CI35" s="110"/>
+      <c r="CJ35" s="110"/>
+      <c r="CK35" s="110"/>
+      <c r="CL35" s="110"/>
+      <c r="CM35" s="111"/>
       <c r="CN35" s="13"/>
       <c r="CO35" s="14"/>
       <c r="CP35" s="14"/>
@@ -9873,14 +9883,14 @@
       <c r="EO35" s="14"/>
       <c r="EP35" s="14"/>
       <c r="EQ35" s="15"/>
-      <c r="ER35" s="107"/>
-      <c r="ES35" s="108"/>
-      <c r="ET35" s="108"/>
-      <c r="EU35" s="108"/>
-      <c r="EV35" s="108"/>
-      <c r="EW35" s="108"/>
-      <c r="EX35" s="108"/>
-      <c r="EY35" s="109"/>
+      <c r="ER35" s="109"/>
+      <c r="ES35" s="110"/>
+      <c r="ET35" s="110"/>
+      <c r="EU35" s="110"/>
+      <c r="EV35" s="110"/>
+      <c r="EW35" s="110"/>
+      <c r="EX35" s="110"/>
+      <c r="EY35" s="111"/>
       <c r="EZ35" s="13"/>
       <c r="FA35" s="14"/>
       <c r="FB35" s="14"/>
@@ -9930,13 +9940,13 @@
       <c r="GT35" s="14"/>
       <c r="GU35" s="14"/>
       <c r="GV35" s="14"/>
-      <c r="GW35" s="96"/>
+      <c r="GW35" s="131"/>
     </row>
     <row r="36" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A36" s="91" t="s">
+      <c r="A36" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="66"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="12"/>
       <c r="D36" s="13"/>
       <c r="E36" s="14"/>
@@ -9962,14 +9972,14 @@
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
       <c r="AA36" s="15"/>
-      <c r="AB36" s="107"/>
-      <c r="AC36" s="108"/>
-      <c r="AD36" s="108"/>
-      <c r="AE36" s="108"/>
-      <c r="AF36" s="108"/>
-      <c r="AG36" s="108"/>
-      <c r="AH36" s="108"/>
-      <c r="AI36" s="109"/>
+      <c r="AB36" s="109"/>
+      <c r="AC36" s="110"/>
+      <c r="AD36" s="110"/>
+      <c r="AE36" s="110"/>
+      <c r="AF36" s="110"/>
+      <c r="AG36" s="110"/>
+      <c r="AH36" s="110"/>
+      <c r="AI36" s="111"/>
       <c r="AJ36" s="13"/>
       <c r="AK36" s="14"/>
       <c r="AL36" s="14"/>
@@ -10018,14 +10028,14 @@
       <c r="CC36" s="14"/>
       <c r="CD36" s="14"/>
       <c r="CE36" s="15"/>
-      <c r="CF36" s="107"/>
-      <c r="CG36" s="108"/>
-      <c r="CH36" s="108"/>
-      <c r="CI36" s="108"/>
-      <c r="CJ36" s="108"/>
-      <c r="CK36" s="108"/>
-      <c r="CL36" s="108"/>
-      <c r="CM36" s="109"/>
+      <c r="CF36" s="109"/>
+      <c r="CG36" s="110"/>
+      <c r="CH36" s="110"/>
+      <c r="CI36" s="110"/>
+      <c r="CJ36" s="110"/>
+      <c r="CK36" s="110"/>
+      <c r="CL36" s="110"/>
+      <c r="CM36" s="111"/>
       <c r="CN36" s="13"/>
       <c r="CO36" s="14"/>
       <c r="CP36" s="14"/>
@@ -10082,14 +10092,14 @@
       <c r="EO36" s="14"/>
       <c r="EP36" s="14"/>
       <c r="EQ36" s="15"/>
-      <c r="ER36" s="107"/>
-      <c r="ES36" s="108"/>
-      <c r="ET36" s="108"/>
-      <c r="EU36" s="108"/>
-      <c r="EV36" s="108"/>
-      <c r="EW36" s="108"/>
-      <c r="EX36" s="108"/>
-      <c r="EY36" s="109"/>
+      <c r="ER36" s="109"/>
+      <c r="ES36" s="110"/>
+      <c r="ET36" s="110"/>
+      <c r="EU36" s="110"/>
+      <c r="EV36" s="110"/>
+      <c r="EW36" s="110"/>
+      <c r="EX36" s="110"/>
+      <c r="EY36" s="111"/>
       <c r="EZ36" s="13"/>
       <c r="FA36" s="14"/>
       <c r="FB36" s="14"/>
@@ -10139,13 +10149,13 @@
       <c r="GT36" s="14"/>
       <c r="GU36" s="14"/>
       <c r="GV36" s="14"/>
-      <c r="GW36" s="96"/>
+      <c r="GW36" s="131"/>
     </row>
     <row r="37" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A37" s="72" t="s">
+      <c r="A37" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="66"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="12"/>
       <c r="D37" s="13"/>
       <c r="E37" s="14"/>
@@ -10171,14 +10181,14 @@
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
       <c r="AA37" s="15"/>
-      <c r="AB37" s="107"/>
-      <c r="AC37" s="108"/>
-      <c r="AD37" s="108"/>
-      <c r="AE37" s="108"/>
-      <c r="AF37" s="108"/>
-      <c r="AG37" s="108"/>
-      <c r="AH37" s="108"/>
-      <c r="AI37" s="109"/>
+      <c r="AB37" s="109"/>
+      <c r="AC37" s="110"/>
+      <c r="AD37" s="110"/>
+      <c r="AE37" s="110"/>
+      <c r="AF37" s="110"/>
+      <c r="AG37" s="110"/>
+      <c r="AH37" s="110"/>
+      <c r="AI37" s="111"/>
       <c r="AJ37" s="13"/>
       <c r="AK37" s="14"/>
       <c r="AL37" s="14"/>
@@ -10227,14 +10237,14 @@
       <c r="CC37" s="14"/>
       <c r="CD37" s="14"/>
       <c r="CE37" s="15"/>
-      <c r="CF37" s="107"/>
-      <c r="CG37" s="108"/>
-      <c r="CH37" s="108"/>
-      <c r="CI37" s="108"/>
-      <c r="CJ37" s="108"/>
-      <c r="CK37" s="108"/>
-      <c r="CL37" s="108"/>
-      <c r="CM37" s="109"/>
+      <c r="CF37" s="109"/>
+      <c r="CG37" s="110"/>
+      <c r="CH37" s="110"/>
+      <c r="CI37" s="110"/>
+      <c r="CJ37" s="110"/>
+      <c r="CK37" s="110"/>
+      <c r="CL37" s="110"/>
+      <c r="CM37" s="111"/>
       <c r="CN37" s="13"/>
       <c r="CO37" s="14"/>
       <c r="CP37" s="14"/>
@@ -10291,14 +10301,14 @@
       <c r="EO37" s="14"/>
       <c r="EP37" s="14"/>
       <c r="EQ37" s="15"/>
-      <c r="ER37" s="107"/>
-      <c r="ES37" s="108"/>
-      <c r="ET37" s="108"/>
-      <c r="EU37" s="108"/>
-      <c r="EV37" s="108"/>
-      <c r="EW37" s="108"/>
-      <c r="EX37" s="108"/>
-      <c r="EY37" s="109"/>
+      <c r="ER37" s="109"/>
+      <c r="ES37" s="110"/>
+      <c r="ET37" s="110"/>
+      <c r="EU37" s="110"/>
+      <c r="EV37" s="110"/>
+      <c r="EW37" s="110"/>
+      <c r="EX37" s="110"/>
+      <c r="EY37" s="111"/>
       <c r="EZ37" s="13"/>
       <c r="FA37" s="14"/>
       <c r="FB37" s="14"/>
@@ -10348,13 +10358,13 @@
       <c r="GT37" s="14"/>
       <c r="GU37" s="14"/>
       <c r="GV37" s="14"/>
-      <c r="GW37" s="96"/>
+      <c r="GW37" s="131"/>
     </row>
     <row r="38" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="72" t="s">
+      <c r="A38" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="65"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
       <c r="E38" s="14"/>
@@ -10380,14 +10390,14 @@
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
       <c r="AA38" s="15"/>
-      <c r="AB38" s="107"/>
-      <c r="AC38" s="108"/>
-      <c r="AD38" s="108"/>
-      <c r="AE38" s="108"/>
-      <c r="AF38" s="108"/>
-      <c r="AG38" s="108"/>
-      <c r="AH38" s="108"/>
-      <c r="AI38" s="109"/>
+      <c r="AB38" s="109"/>
+      <c r="AC38" s="110"/>
+      <c r="AD38" s="110"/>
+      <c r="AE38" s="110"/>
+      <c r="AF38" s="110"/>
+      <c r="AG38" s="110"/>
+      <c r="AH38" s="110"/>
+      <c r="AI38" s="111"/>
       <c r="AJ38" s="13"/>
       <c r="AK38" s="14"/>
       <c r="AL38" s="14"/>
@@ -10436,14 +10446,14 @@
       <c r="CC38" s="14"/>
       <c r="CD38" s="14"/>
       <c r="CE38" s="15"/>
-      <c r="CF38" s="107"/>
-      <c r="CG38" s="108"/>
-      <c r="CH38" s="108"/>
-      <c r="CI38" s="108"/>
-      <c r="CJ38" s="108"/>
-      <c r="CK38" s="108"/>
-      <c r="CL38" s="108"/>
-      <c r="CM38" s="109"/>
+      <c r="CF38" s="109"/>
+      <c r="CG38" s="110"/>
+      <c r="CH38" s="110"/>
+      <c r="CI38" s="110"/>
+      <c r="CJ38" s="110"/>
+      <c r="CK38" s="110"/>
+      <c r="CL38" s="110"/>
+      <c r="CM38" s="111"/>
       <c r="CN38" s="13"/>
       <c r="CO38" s="14"/>
       <c r="CP38" s="14"/>
@@ -10500,14 +10510,14 @@
       <c r="EO38" s="14"/>
       <c r="EP38" s="14"/>
       <c r="EQ38" s="15"/>
-      <c r="ER38" s="107"/>
-      <c r="ES38" s="108"/>
-      <c r="ET38" s="108"/>
-      <c r="EU38" s="108"/>
-      <c r="EV38" s="108"/>
-      <c r="EW38" s="108"/>
-      <c r="EX38" s="108"/>
-      <c r="EY38" s="109"/>
+      <c r="ER38" s="109"/>
+      <c r="ES38" s="110"/>
+      <c r="ET38" s="110"/>
+      <c r="EU38" s="110"/>
+      <c r="EV38" s="110"/>
+      <c r="EW38" s="110"/>
+      <c r="EX38" s="110"/>
+      <c r="EY38" s="111"/>
       <c r="EZ38" s="13"/>
       <c r="FA38" s="14"/>
       <c r="FB38" s="14"/>
@@ -10557,14 +10567,14 @@
       <c r="GT38" s="14"/>
       <c r="GU38" s="14"/>
       <c r="GV38" s="14"/>
-      <c r="GW38" s="96"/>
+      <c r="GW38" s="131"/>
     </row>
     <row r="39" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="129" t="s">
+      <c r="A39" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="130"/>
-      <c r="C39" s="60"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="59"/>
       <c r="D39" s="13"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -10589,14 +10599,14 @@
       <c r="Y39" s="14"/>
       <c r="Z39" s="14"/>
       <c r="AA39" s="15"/>
-      <c r="AB39" s="107"/>
-      <c r="AC39" s="108"/>
-      <c r="AD39" s="108"/>
-      <c r="AE39" s="108"/>
-      <c r="AF39" s="108"/>
-      <c r="AG39" s="108"/>
-      <c r="AH39" s="108"/>
-      <c r="AI39" s="109"/>
+      <c r="AB39" s="109"/>
+      <c r="AC39" s="110"/>
+      <c r="AD39" s="110"/>
+      <c r="AE39" s="110"/>
+      <c r="AF39" s="110"/>
+      <c r="AG39" s="110"/>
+      <c r="AH39" s="110"/>
+      <c r="AI39" s="111"/>
       <c r="AJ39" s="13"/>
       <c r="AK39" s="14"/>
       <c r="AL39" s="14"/>
@@ -10645,14 +10655,14 @@
       <c r="CC39" s="14"/>
       <c r="CD39" s="14"/>
       <c r="CE39" s="15"/>
-      <c r="CF39" s="107"/>
-      <c r="CG39" s="108"/>
-      <c r="CH39" s="108"/>
-      <c r="CI39" s="108"/>
-      <c r="CJ39" s="108"/>
-      <c r="CK39" s="108"/>
-      <c r="CL39" s="108"/>
-      <c r="CM39" s="109"/>
+      <c r="CF39" s="109"/>
+      <c r="CG39" s="110"/>
+      <c r="CH39" s="110"/>
+      <c r="CI39" s="110"/>
+      <c r="CJ39" s="110"/>
+      <c r="CK39" s="110"/>
+      <c r="CL39" s="110"/>
+      <c r="CM39" s="111"/>
       <c r="CN39" s="13"/>
       <c r="CO39" s="14"/>
       <c r="CP39" s="14"/>
@@ -10709,14 +10719,14 @@
       <c r="EO39" s="14"/>
       <c r="EP39" s="14"/>
       <c r="EQ39" s="15"/>
-      <c r="ER39" s="107"/>
-      <c r="ES39" s="108"/>
-      <c r="ET39" s="108"/>
-      <c r="EU39" s="108"/>
-      <c r="EV39" s="108"/>
-      <c r="EW39" s="108"/>
-      <c r="EX39" s="108"/>
-      <c r="EY39" s="109"/>
+      <c r="ER39" s="109"/>
+      <c r="ES39" s="110"/>
+      <c r="ET39" s="110"/>
+      <c r="EU39" s="110"/>
+      <c r="EV39" s="110"/>
+      <c r="EW39" s="110"/>
+      <c r="EX39" s="110"/>
+      <c r="EY39" s="111"/>
       <c r="EZ39" s="13"/>
       <c r="FA39" s="14"/>
       <c r="FB39" s="14"/>
@@ -10747,13 +10757,13 @@
       <c r="GA39" s="14"/>
       <c r="GB39" s="14"/>
       <c r="GC39" s="14"/>
-      <c r="GD39" s="83"/>
-      <c r="GE39" s="84"/>
-      <c r="GF39" s="85"/>
-      <c r="GG39" s="83"/>
-      <c r="GH39" s="83"/>
-      <c r="GI39" s="83"/>
-      <c r="GJ39" s="83"/>
+      <c r="GD39" s="82"/>
+      <c r="GE39" s="83"/>
+      <c r="GF39" s="84"/>
+      <c r="GG39" s="82"/>
+      <c r="GH39" s="82"/>
+      <c r="GI39" s="82"/>
+      <c r="GJ39" s="82"/>
       <c r="GK39" s="14"/>
       <c r="GL39" s="14"/>
       <c r="GM39" s="44"/>
@@ -10766,13 +10776,13 @@
       <c r="GT39" s="14"/>
       <c r="GU39" s="14"/>
       <c r="GV39" s="14"/>
-      <c r="GW39" s="96"/>
+      <c r="GW39" s="131"/>
     </row>
     <row r="40" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="87" t="s">
+      <c r="A40" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="69"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="12"/>
       <c r="D40" s="13"/>
       <c r="E40" s="14"/>
@@ -10798,14 +10808,14 @@
       <c r="Y40" s="14"/>
       <c r="Z40" s="14"/>
       <c r="AA40" s="15"/>
-      <c r="AB40" s="107"/>
-      <c r="AC40" s="108"/>
-      <c r="AD40" s="108"/>
-      <c r="AE40" s="108"/>
-      <c r="AF40" s="108"/>
-      <c r="AG40" s="108"/>
-      <c r="AH40" s="108"/>
-      <c r="AI40" s="109"/>
+      <c r="AB40" s="109"/>
+      <c r="AC40" s="110"/>
+      <c r="AD40" s="110"/>
+      <c r="AE40" s="110"/>
+      <c r="AF40" s="110"/>
+      <c r="AG40" s="110"/>
+      <c r="AH40" s="110"/>
+      <c r="AI40" s="111"/>
       <c r="AJ40" s="13"/>
       <c r="AK40" s="14"/>
       <c r="AL40" s="14"/>
@@ -10854,14 +10864,14 @@
       <c r="CC40" s="14"/>
       <c r="CD40" s="14"/>
       <c r="CE40" s="15"/>
-      <c r="CF40" s="107"/>
-      <c r="CG40" s="108"/>
-      <c r="CH40" s="108"/>
-      <c r="CI40" s="108"/>
-      <c r="CJ40" s="108"/>
-      <c r="CK40" s="108"/>
-      <c r="CL40" s="108"/>
-      <c r="CM40" s="109"/>
+      <c r="CF40" s="109"/>
+      <c r="CG40" s="110"/>
+      <c r="CH40" s="110"/>
+      <c r="CI40" s="110"/>
+      <c r="CJ40" s="110"/>
+      <c r="CK40" s="110"/>
+      <c r="CL40" s="110"/>
+      <c r="CM40" s="111"/>
       <c r="CN40" s="13"/>
       <c r="CO40" s="14"/>
       <c r="CP40" s="14"/>
@@ -10920,14 +10930,14 @@
       <c r="EO40" s="14"/>
       <c r="EP40" s="14"/>
       <c r="EQ40" s="15"/>
-      <c r="ER40" s="107"/>
-      <c r="ES40" s="108"/>
-      <c r="ET40" s="108"/>
-      <c r="EU40" s="108"/>
-      <c r="EV40" s="108"/>
-      <c r="EW40" s="108"/>
-      <c r="EX40" s="108"/>
-      <c r="EY40" s="109"/>
+      <c r="ER40" s="109"/>
+      <c r="ES40" s="110"/>
+      <c r="ET40" s="110"/>
+      <c r="EU40" s="110"/>
+      <c r="EV40" s="110"/>
+      <c r="EW40" s="110"/>
+      <c r="EX40" s="110"/>
+      <c r="EY40" s="111"/>
       <c r="EZ40" s="13"/>
       <c r="FA40" s="14"/>
       <c r="FB40" s="14"/>
@@ -10967,7 +10977,7 @@
       <c r="GJ40" s="43"/>
       <c r="GK40" s="43"/>
       <c r="GL40" s="43"/>
-      <c r="GM40" s="58"/>
+      <c r="GM40" s="57"/>
       <c r="GN40" s="52"/>
       <c r="GO40" s="47"/>
       <c r="GP40" s="14"/>
@@ -10977,14 +10987,14 @@
       <c r="GT40" s="14"/>
       <c r="GU40" s="14"/>
       <c r="GV40" s="14"/>
-      <c r="GW40" s="96"/>
+      <c r="GW40" s="131"/>
     </row>
     <row r="41" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="131" t="s">
+      <c r="A41" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="132"/>
-      <c r="C41" s="60"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="59"/>
       <c r="D41" s="13"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
@@ -11009,14 +11019,14 @@
       <c r="Y41" s="14"/>
       <c r="Z41" s="14"/>
       <c r="AA41" s="15"/>
-      <c r="AB41" s="107"/>
-      <c r="AC41" s="108"/>
-      <c r="AD41" s="108"/>
-      <c r="AE41" s="108"/>
-      <c r="AF41" s="108"/>
-      <c r="AG41" s="108"/>
-      <c r="AH41" s="108"/>
-      <c r="AI41" s="109"/>
+      <c r="AB41" s="109"/>
+      <c r="AC41" s="110"/>
+      <c r="AD41" s="110"/>
+      <c r="AE41" s="110"/>
+      <c r="AF41" s="110"/>
+      <c r="AG41" s="110"/>
+      <c r="AH41" s="110"/>
+      <c r="AI41" s="111"/>
       <c r="AJ41" s="13"/>
       <c r="AK41" s="14"/>
       <c r="AL41" s="14"/>
@@ -11065,14 +11075,14 @@
       <c r="CC41" s="14"/>
       <c r="CD41" s="14"/>
       <c r="CE41" s="15"/>
-      <c r="CF41" s="107"/>
-      <c r="CG41" s="108"/>
-      <c r="CH41" s="108"/>
-      <c r="CI41" s="108"/>
-      <c r="CJ41" s="108"/>
-      <c r="CK41" s="108"/>
-      <c r="CL41" s="108"/>
-      <c r="CM41" s="109"/>
+      <c r="CF41" s="109"/>
+      <c r="CG41" s="110"/>
+      <c r="CH41" s="110"/>
+      <c r="CI41" s="110"/>
+      <c r="CJ41" s="110"/>
+      <c r="CK41" s="110"/>
+      <c r="CL41" s="110"/>
+      <c r="CM41" s="111"/>
       <c r="CN41" s="13"/>
       <c r="CO41" s="14"/>
       <c r="CP41" s="14"/>
@@ -11129,14 +11139,14 @@
       <c r="EO41" s="14"/>
       <c r="EP41" s="14"/>
       <c r="EQ41" s="15"/>
-      <c r="ER41" s="107"/>
-      <c r="ES41" s="108"/>
-      <c r="ET41" s="108"/>
-      <c r="EU41" s="108"/>
-      <c r="EV41" s="108"/>
-      <c r="EW41" s="108"/>
-      <c r="EX41" s="108"/>
-      <c r="EY41" s="109"/>
+      <c r="ER41" s="109"/>
+      <c r="ES41" s="110"/>
+      <c r="ET41" s="110"/>
+      <c r="EU41" s="110"/>
+      <c r="EV41" s="110"/>
+      <c r="EW41" s="110"/>
+      <c r="EX41" s="110"/>
+      <c r="EY41" s="111"/>
       <c r="EZ41" s="13"/>
       <c r="FA41" s="14"/>
       <c r="FB41" s="14"/>
@@ -11173,10 +11183,10 @@
       <c r="GG41" s="14"/>
       <c r="GH41" s="14"/>
       <c r="GI41" s="14"/>
-      <c r="GJ41" s="83"/>
-      <c r="GK41" s="83"/>
-      <c r="GL41" s="83"/>
-      <c r="GM41" s="86"/>
+      <c r="GJ41" s="82"/>
+      <c r="GK41" s="82"/>
+      <c r="GL41" s="82"/>
+      <c r="GM41" s="85"/>
       <c r="GN41" s="52"/>
       <c r="GO41" s="47"/>
       <c r="GP41" s="14"/>
@@ -11186,13 +11196,13 @@
       <c r="GT41" s="14"/>
       <c r="GU41" s="14"/>
       <c r="GV41" s="14"/>
-      <c r="GW41" s="96"/>
+      <c r="GW41" s="131"/>
     </row>
     <row r="42" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A42" s="81" t="s">
+      <c r="A42" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="59"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="12"/>
       <c r="D42" s="13"/>
       <c r="E42" s="14"/>
@@ -11218,14 +11228,14 @@
       <c r="Y42" s="14"/>
       <c r="Z42" s="14"/>
       <c r="AA42" s="15"/>
-      <c r="AB42" s="107"/>
-      <c r="AC42" s="108"/>
-      <c r="AD42" s="108"/>
-      <c r="AE42" s="108"/>
-      <c r="AF42" s="108"/>
-      <c r="AG42" s="108"/>
-      <c r="AH42" s="108"/>
-      <c r="AI42" s="109"/>
+      <c r="AB42" s="109"/>
+      <c r="AC42" s="110"/>
+      <c r="AD42" s="110"/>
+      <c r="AE42" s="110"/>
+      <c r="AF42" s="110"/>
+      <c r="AG42" s="110"/>
+      <c r="AH42" s="110"/>
+      <c r="AI42" s="111"/>
       <c r="AJ42" s="13"/>
       <c r="AK42" s="14"/>
       <c r="AL42" s="14"/>
@@ -11274,14 +11284,14 @@
       <c r="CC42" s="14"/>
       <c r="CD42" s="14"/>
       <c r="CE42" s="15"/>
-      <c r="CF42" s="107"/>
-      <c r="CG42" s="108"/>
-      <c r="CH42" s="108"/>
-      <c r="CI42" s="108"/>
-      <c r="CJ42" s="108"/>
-      <c r="CK42" s="108"/>
-      <c r="CL42" s="108"/>
-      <c r="CM42" s="109"/>
+      <c r="CF42" s="109"/>
+      <c r="CG42" s="110"/>
+      <c r="CH42" s="110"/>
+      <c r="CI42" s="110"/>
+      <c r="CJ42" s="110"/>
+      <c r="CK42" s="110"/>
+      <c r="CL42" s="110"/>
+      <c r="CM42" s="111"/>
       <c r="CN42" s="13"/>
       <c r="CO42" s="14"/>
       <c r="CP42" s="14"/>
@@ -11342,14 +11352,14 @@
       <c r="EO42" s="14"/>
       <c r="EP42" s="14"/>
       <c r="EQ42" s="15"/>
-      <c r="ER42" s="107"/>
-      <c r="ES42" s="108"/>
-      <c r="ET42" s="108"/>
-      <c r="EU42" s="108"/>
-      <c r="EV42" s="108"/>
-      <c r="EW42" s="108"/>
-      <c r="EX42" s="108"/>
-      <c r="EY42" s="109"/>
+      <c r="ER42" s="109"/>
+      <c r="ES42" s="110"/>
+      <c r="ET42" s="110"/>
+      <c r="EU42" s="110"/>
+      <c r="EV42" s="110"/>
+      <c r="EW42" s="110"/>
+      <c r="EX42" s="110"/>
+      <c r="EY42" s="111"/>
       <c r="EZ42" s="13"/>
       <c r="FA42" s="14"/>
       <c r="FB42" s="14"/>
@@ -11391,90 +11401,90 @@
       <c r="GL42" s="14"/>
       <c r="GM42" s="44"/>
       <c r="GN42" s="52"/>
-      <c r="GO42" s="54"/>
-      <c r="GP42" s="42"/>
+      <c r="GO42" s="47"/>
+      <c r="GP42" s="47"/>
       <c r="GQ42" s="42"/>
       <c r="GR42" s="42"/>
       <c r="GS42" s="13"/>
       <c r="GT42" s="14"/>
       <c r="GU42" s="14"/>
       <c r="GV42" s="14"/>
-      <c r="GW42" s="96"/>
+      <c r="GW42" s="131"/>
     </row>
     <row r="43" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="82" t="s">
+      <c r="A43" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="67"/>
+      <c r="B43" s="66"/>
       <c r="C43" s="16"/>
-      <c r="D43" s="116" t="s">
+      <c r="D43" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="117"/>
-      <c r="F43" s="117"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="117"/>
-      <c r="I43" s="117"/>
-      <c r="J43" s="117"/>
-      <c r="K43" s="117"/>
-      <c r="L43" s="117"/>
-      <c r="M43" s="117"/>
-      <c r="N43" s="117"/>
-      <c r="O43" s="117"/>
-      <c r="P43" s="117"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="117"/>
-      <c r="S43" s="117"/>
-      <c r="T43" s="117"/>
-      <c r="U43" s="117"/>
-      <c r="V43" s="117"/>
-      <c r="W43" s="117"/>
-      <c r="X43" s="117"/>
-      <c r="Y43" s="117"/>
-      <c r="Z43" s="117"/>
-      <c r="AA43" s="118"/>
-      <c r="AB43" s="110"/>
-      <c r="AC43" s="111"/>
-      <c r="AD43" s="111"/>
-      <c r="AE43" s="111"/>
-      <c r="AF43" s="111"/>
-      <c r="AG43" s="111"/>
-      <c r="AH43" s="111"/>
-      <c r="AI43" s="112"/>
-      <c r="AJ43" s="116" t="s">
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
+      <c r="J43" s="122"/>
+      <c r="K43" s="122"/>
+      <c r="L43" s="122"/>
+      <c r="M43" s="122"/>
+      <c r="N43" s="122"/>
+      <c r="O43" s="122"/>
+      <c r="P43" s="122"/>
+      <c r="Q43" s="122"/>
+      <c r="R43" s="122"/>
+      <c r="S43" s="122"/>
+      <c r="T43" s="122"/>
+      <c r="U43" s="122"/>
+      <c r="V43" s="122"/>
+      <c r="W43" s="122"/>
+      <c r="X43" s="122"/>
+      <c r="Y43" s="122"/>
+      <c r="Z43" s="122"/>
+      <c r="AA43" s="123"/>
+      <c r="AB43" s="112"/>
+      <c r="AC43" s="113"/>
+      <c r="AD43" s="113"/>
+      <c r="AE43" s="113"/>
+      <c r="AF43" s="113"/>
+      <c r="AG43" s="113"/>
+      <c r="AH43" s="113"/>
+      <c r="AI43" s="114"/>
+      <c r="AJ43" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="AK43" s="119"/>
-      <c r="AL43" s="119"/>
-      <c r="AM43" s="119"/>
-      <c r="AN43" s="119"/>
-      <c r="AO43" s="119"/>
-      <c r="AP43" s="119"/>
-      <c r="AQ43" s="119"/>
-      <c r="AR43" s="119"/>
-      <c r="AS43" s="119"/>
-      <c r="AT43" s="119"/>
-      <c r="AU43" s="119"/>
-      <c r="AV43" s="119"/>
-      <c r="AW43" s="119"/>
-      <c r="AX43" s="119"/>
-      <c r="AY43" s="119"/>
-      <c r="AZ43" s="119"/>
-      <c r="BA43" s="119"/>
-      <c r="BB43" s="119"/>
-      <c r="BC43" s="119"/>
-      <c r="BD43" s="119"/>
-      <c r="BE43" s="119"/>
-      <c r="BF43" s="119"/>
-      <c r="BG43" s="119"/>
-      <c r="BH43" s="119"/>
-      <c r="BI43" s="119"/>
-      <c r="BJ43" s="119"/>
-      <c r="BK43" s="119"/>
-      <c r="BL43" s="119"/>
-      <c r="BM43" s="119"/>
-      <c r="BN43" s="119"/>
-      <c r="BO43" s="120"/>
+      <c r="AK43" s="92"/>
+      <c r="AL43" s="92"/>
+      <c r="AM43" s="92"/>
+      <c r="AN43" s="92"/>
+      <c r="AO43" s="92"/>
+      <c r="AP43" s="92"/>
+      <c r="AQ43" s="92"/>
+      <c r="AR43" s="92"/>
+      <c r="AS43" s="92"/>
+      <c r="AT43" s="92"/>
+      <c r="AU43" s="92"/>
+      <c r="AV43" s="92"/>
+      <c r="AW43" s="92"/>
+      <c r="AX43" s="92"/>
+      <c r="AY43" s="92"/>
+      <c r="AZ43" s="92"/>
+      <c r="BA43" s="92"/>
+      <c r="BB43" s="92"/>
+      <c r="BC43" s="92"/>
+      <c r="BD43" s="92"/>
+      <c r="BE43" s="92"/>
+      <c r="BF43" s="92"/>
+      <c r="BG43" s="92"/>
+      <c r="BH43" s="92"/>
+      <c r="BI43" s="92"/>
+      <c r="BJ43" s="92"/>
+      <c r="BK43" s="92"/>
+      <c r="BL43" s="92"/>
+      <c r="BM43" s="92"/>
+      <c r="BN43" s="92"/>
+      <c r="BO43" s="93"/>
       <c r="BP43" s="17"/>
       <c r="BQ43" s="18"/>
       <c r="BR43" s="18"/>
@@ -11491,14 +11501,14 @@
       <c r="CC43" s="18"/>
       <c r="CD43" s="18"/>
       <c r="CE43" s="19"/>
-      <c r="CF43" s="110"/>
-      <c r="CG43" s="111"/>
-      <c r="CH43" s="111"/>
-      <c r="CI43" s="111"/>
-      <c r="CJ43" s="111"/>
-      <c r="CK43" s="111"/>
-      <c r="CL43" s="111"/>
-      <c r="CM43" s="112"/>
+      <c r="CF43" s="112"/>
+      <c r="CG43" s="113"/>
+      <c r="CH43" s="113"/>
+      <c r="CI43" s="113"/>
+      <c r="CJ43" s="113"/>
+      <c r="CK43" s="113"/>
+      <c r="CL43" s="113"/>
+      <c r="CM43" s="114"/>
       <c r="CN43" s="17"/>
       <c r="CO43" s="18"/>
       <c r="CP43" s="18"/>
@@ -11555,14 +11565,14 @@
       <c r="EO43" s="18"/>
       <c r="EP43" s="18"/>
       <c r="EQ43" s="19"/>
-      <c r="ER43" s="110"/>
-      <c r="ES43" s="111"/>
-      <c r="ET43" s="111"/>
-      <c r="EU43" s="111"/>
-      <c r="EV43" s="111"/>
-      <c r="EW43" s="111"/>
-      <c r="EX43" s="111"/>
-      <c r="EY43" s="112"/>
+      <c r="ER43" s="112"/>
+      <c r="ES43" s="113"/>
+      <c r="ET43" s="113"/>
+      <c r="EU43" s="113"/>
+      <c r="EV43" s="113"/>
+      <c r="EW43" s="113"/>
+      <c r="EX43" s="113"/>
+      <c r="EY43" s="114"/>
       <c r="EZ43" s="17"/>
       <c r="FA43" s="18"/>
       <c r="FB43" s="18"/>
@@ -11612,225 +11622,266 @@
       <c r="GT43" s="18"/>
       <c r="GU43" s="18"/>
       <c r="GV43" s="18"/>
-      <c r="GW43" s="96"/>
+      <c r="GW43" s="131"/>
     </row>
     <row r="44" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A44" s="97" t="s">
+      <c r="A44" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="97"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="97"/>
-      <c r="M44" s="97"/>
-      <c r="N44" s="97"/>
-      <c r="O44" s="97"/>
-      <c r="P44" s="97"/>
-      <c r="Q44" s="97"/>
-      <c r="R44" s="97"/>
-      <c r="S44" s="97"/>
-      <c r="T44" s="97"/>
-      <c r="U44" s="97"/>
-      <c r="V44" s="97"/>
-      <c r="W44" s="97"/>
-      <c r="X44" s="97"/>
-      <c r="Y44" s="97"/>
-      <c r="Z44" s="97"/>
-      <c r="AA44" s="97"/>
-      <c r="AB44" s="97"/>
-      <c r="AC44" s="97"/>
-      <c r="AD44" s="97"/>
-      <c r="AE44" s="97"/>
-      <c r="AF44" s="97"/>
-      <c r="AG44" s="97"/>
-      <c r="AH44" s="97"/>
-      <c r="AI44" s="97"/>
-      <c r="AJ44" s="97"/>
-      <c r="AK44" s="97"/>
-      <c r="AL44" s="97"/>
-      <c r="AM44" s="97"/>
-      <c r="AN44" s="97"/>
-      <c r="AO44" s="97"/>
-      <c r="AP44" s="97"/>
-      <c r="AQ44" s="97"/>
-      <c r="AR44" s="97"/>
-      <c r="AS44" s="97"/>
-      <c r="AT44" s="97"/>
-      <c r="AU44" s="97"/>
-      <c r="AV44" s="97"/>
-      <c r="AW44" s="97"/>
-      <c r="AX44" s="97"/>
-      <c r="AY44" s="97"/>
-      <c r="AZ44" s="97"/>
-      <c r="BA44" s="97"/>
-      <c r="BB44" s="97"/>
-      <c r="BC44" s="97"/>
-      <c r="BD44" s="97"/>
-      <c r="BE44" s="97"/>
-      <c r="BF44" s="97"/>
-      <c r="BG44" s="97"/>
-      <c r="BH44" s="97"/>
-      <c r="BI44" s="97"/>
-      <c r="BJ44" s="97"/>
-      <c r="BK44" s="97"/>
-      <c r="BL44" s="97"/>
-      <c r="BM44" s="97"/>
-      <c r="BN44" s="97"/>
-      <c r="BO44" s="97"/>
-      <c r="BP44" s="97"/>
-      <c r="BQ44" s="97"/>
-      <c r="BR44" s="97"/>
-      <c r="BS44" s="97"/>
-      <c r="BT44" s="97"/>
-      <c r="BU44" s="97"/>
-      <c r="BV44" s="97"/>
-      <c r="BW44" s="97"/>
-      <c r="BX44" s="97"/>
-      <c r="BY44" s="97"/>
-      <c r="BZ44" s="97"/>
-      <c r="CA44" s="97"/>
-      <c r="CB44" s="97"/>
-      <c r="CC44" s="97"/>
-      <c r="CD44" s="97"/>
-      <c r="CE44" s="97"/>
-      <c r="CF44" s="97"/>
-      <c r="CG44" s="97"/>
-      <c r="CH44" s="97"/>
-      <c r="CI44" s="97"/>
-      <c r="CJ44" s="97"/>
-      <c r="CK44" s="97"/>
-      <c r="CL44" s="97"/>
-      <c r="CM44" s="97"/>
-      <c r="CN44" s="97"/>
-      <c r="CO44" s="97"/>
-      <c r="CP44" s="97"/>
-      <c r="CQ44" s="97"/>
-      <c r="CR44" s="97"/>
-      <c r="CS44" s="97"/>
-      <c r="CT44" s="97"/>
-      <c r="CU44" s="97"/>
-      <c r="CV44" s="97"/>
-      <c r="CW44" s="97"/>
-      <c r="CX44" s="97"/>
-      <c r="CY44" s="97"/>
-      <c r="CZ44" s="97"/>
-      <c r="DA44" s="97"/>
-      <c r="DB44" s="97"/>
-      <c r="DC44" s="97"/>
-      <c r="DD44" s="97"/>
-      <c r="DE44" s="97"/>
-      <c r="DF44" s="97"/>
-      <c r="DG44" s="97"/>
-      <c r="DH44" s="97"/>
-      <c r="DI44" s="97"/>
-      <c r="DJ44" s="97"/>
-      <c r="DK44" s="97"/>
-      <c r="DL44" s="97"/>
-      <c r="DM44" s="97"/>
-      <c r="DN44" s="97"/>
-      <c r="DO44" s="97"/>
-      <c r="DP44" s="97"/>
-      <c r="DQ44" s="97"/>
-      <c r="DR44" s="97"/>
-      <c r="DS44" s="97"/>
-      <c r="DT44" s="97"/>
-      <c r="DU44" s="97"/>
-      <c r="DV44" s="97"/>
-      <c r="DW44" s="97"/>
-      <c r="DX44" s="97"/>
-      <c r="DY44" s="97"/>
-      <c r="DZ44" s="97"/>
-      <c r="EA44" s="97"/>
-      <c r="EB44" s="97"/>
-      <c r="EC44" s="97"/>
-      <c r="ED44" s="97"/>
-      <c r="EE44" s="97"/>
-      <c r="EF44" s="97"/>
-      <c r="EG44" s="97"/>
-      <c r="EH44" s="97"/>
-      <c r="EI44" s="97"/>
-      <c r="EJ44" s="97"/>
-      <c r="EK44" s="97"/>
-      <c r="EL44" s="97"/>
-      <c r="EM44" s="97"/>
-      <c r="EN44" s="97"/>
-      <c r="EO44" s="97"/>
-      <c r="EP44" s="97"/>
-      <c r="EQ44" s="97"/>
-      <c r="ER44" s="97"/>
-      <c r="ES44" s="97"/>
-      <c r="ET44" s="97"/>
-      <c r="EU44" s="97"/>
-      <c r="EV44" s="97"/>
-      <c r="EW44" s="97"/>
-      <c r="EX44" s="97"/>
-      <c r="EY44" s="97"/>
-      <c r="EZ44" s="97"/>
-      <c r="FA44" s="97"/>
-      <c r="FB44" s="97"/>
-      <c r="FC44" s="97"/>
-      <c r="FD44" s="97"/>
-      <c r="FE44" s="97"/>
-      <c r="FF44" s="97"/>
-      <c r="FG44" s="97"/>
-      <c r="FH44" s="97"/>
-      <c r="FI44" s="97"/>
-      <c r="FJ44" s="97"/>
-      <c r="FK44" s="97"/>
-      <c r="FL44" s="97"/>
-      <c r="FM44" s="97"/>
-      <c r="FN44" s="97"/>
-      <c r="FO44" s="97"/>
-      <c r="FP44" s="97"/>
-      <c r="FQ44" s="97"/>
-      <c r="FR44" s="97"/>
-      <c r="FS44" s="97"/>
-      <c r="FT44" s="97"/>
-      <c r="FU44" s="97"/>
-      <c r="FV44" s="97"/>
-      <c r="FW44" s="97"/>
-      <c r="FX44" s="97"/>
-      <c r="FY44" s="97"/>
-      <c r="FZ44" s="97"/>
-      <c r="GA44" s="97"/>
-      <c r="GB44" s="97"/>
-      <c r="GC44" s="97"/>
-      <c r="GD44" s="97"/>
-      <c r="GE44" s="97"/>
-      <c r="GF44" s="97"/>
-      <c r="GG44" s="97"/>
-      <c r="GH44" s="97"/>
-      <c r="GI44" s="97"/>
-      <c r="GJ44" s="97"/>
-      <c r="GK44" s="97"/>
-      <c r="GL44" s="97"/>
-      <c r="GM44" s="97"/>
-      <c r="GN44" s="97"/>
-      <c r="GO44" s="97"/>
-      <c r="GP44" s="97"/>
-      <c r="GQ44" s="97"/>
-      <c r="GR44" s="97"/>
-      <c r="GS44" s="97"/>
-      <c r="GT44" s="97"/>
-      <c r="GU44" s="97"/>
-      <c r="GV44" s="97"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="124"/>
+      <c r="G44" s="124"/>
+      <c r="H44" s="124"/>
+      <c r="I44" s="124"/>
+      <c r="J44" s="124"/>
+      <c r="K44" s="124"/>
+      <c r="L44" s="124"/>
+      <c r="M44" s="124"/>
+      <c r="N44" s="124"/>
+      <c r="O44" s="124"/>
+      <c r="P44" s="124"/>
+      <c r="Q44" s="124"/>
+      <c r="R44" s="124"/>
+      <c r="S44" s="124"/>
+      <c r="T44" s="124"/>
+      <c r="U44" s="124"/>
+      <c r="V44" s="124"/>
+      <c r="W44" s="124"/>
+      <c r="X44" s="124"/>
+      <c r="Y44" s="124"/>
+      <c r="Z44" s="124"/>
+      <c r="AA44" s="124"/>
+      <c r="AB44" s="124"/>
+      <c r="AC44" s="124"/>
+      <c r="AD44" s="124"/>
+      <c r="AE44" s="124"/>
+      <c r="AF44" s="124"/>
+      <c r="AG44" s="124"/>
+      <c r="AH44" s="124"/>
+      <c r="AI44" s="124"/>
+      <c r="AJ44" s="124"/>
+      <c r="AK44" s="124"/>
+      <c r="AL44" s="124"/>
+      <c r="AM44" s="124"/>
+      <c r="AN44" s="124"/>
+      <c r="AO44" s="124"/>
+      <c r="AP44" s="124"/>
+      <c r="AQ44" s="124"/>
+      <c r="AR44" s="124"/>
+      <c r="AS44" s="124"/>
+      <c r="AT44" s="124"/>
+      <c r="AU44" s="124"/>
+      <c r="AV44" s="124"/>
+      <c r="AW44" s="124"/>
+      <c r="AX44" s="124"/>
+      <c r="AY44" s="124"/>
+      <c r="AZ44" s="124"/>
+      <c r="BA44" s="124"/>
+      <c r="BB44" s="124"/>
+      <c r="BC44" s="124"/>
+      <c r="BD44" s="124"/>
+      <c r="BE44" s="124"/>
+      <c r="BF44" s="124"/>
+      <c r="BG44" s="124"/>
+      <c r="BH44" s="124"/>
+      <c r="BI44" s="124"/>
+      <c r="BJ44" s="124"/>
+      <c r="BK44" s="124"/>
+      <c r="BL44" s="124"/>
+      <c r="BM44" s="124"/>
+      <c r="BN44" s="124"/>
+      <c r="BO44" s="124"/>
+      <c r="BP44" s="124"/>
+      <c r="BQ44" s="124"/>
+      <c r="BR44" s="124"/>
+      <c r="BS44" s="124"/>
+      <c r="BT44" s="124"/>
+      <c r="BU44" s="124"/>
+      <c r="BV44" s="124"/>
+      <c r="BW44" s="124"/>
+      <c r="BX44" s="124"/>
+      <c r="BY44" s="124"/>
+      <c r="BZ44" s="124"/>
+      <c r="CA44" s="124"/>
+      <c r="CB44" s="124"/>
+      <c r="CC44" s="124"/>
+      <c r="CD44" s="124"/>
+      <c r="CE44" s="124"/>
+      <c r="CF44" s="124"/>
+      <c r="CG44" s="124"/>
+      <c r="CH44" s="124"/>
+      <c r="CI44" s="124"/>
+      <c r="CJ44" s="124"/>
+      <c r="CK44" s="124"/>
+      <c r="CL44" s="124"/>
+      <c r="CM44" s="124"/>
+      <c r="CN44" s="124"/>
+      <c r="CO44" s="124"/>
+      <c r="CP44" s="124"/>
+      <c r="CQ44" s="124"/>
+      <c r="CR44" s="124"/>
+      <c r="CS44" s="124"/>
+      <c r="CT44" s="124"/>
+      <c r="CU44" s="124"/>
+      <c r="CV44" s="124"/>
+      <c r="CW44" s="124"/>
+      <c r="CX44" s="124"/>
+      <c r="CY44" s="124"/>
+      <c r="CZ44" s="124"/>
+      <c r="DA44" s="124"/>
+      <c r="DB44" s="124"/>
+      <c r="DC44" s="124"/>
+      <c r="DD44" s="124"/>
+      <c r="DE44" s="124"/>
+      <c r="DF44" s="124"/>
+      <c r="DG44" s="124"/>
+      <c r="DH44" s="124"/>
+      <c r="DI44" s="124"/>
+      <c r="DJ44" s="124"/>
+      <c r="DK44" s="124"/>
+      <c r="DL44" s="124"/>
+      <c r="DM44" s="124"/>
+      <c r="DN44" s="124"/>
+      <c r="DO44" s="124"/>
+      <c r="DP44" s="124"/>
+      <c r="DQ44" s="124"/>
+      <c r="DR44" s="124"/>
+      <c r="DS44" s="124"/>
+      <c r="DT44" s="124"/>
+      <c r="DU44" s="124"/>
+      <c r="DV44" s="124"/>
+      <c r="DW44" s="124"/>
+      <c r="DX44" s="124"/>
+      <c r="DY44" s="124"/>
+      <c r="DZ44" s="124"/>
+      <c r="EA44" s="124"/>
+      <c r="EB44" s="124"/>
+      <c r="EC44" s="124"/>
+      <c r="ED44" s="124"/>
+      <c r="EE44" s="124"/>
+      <c r="EF44" s="124"/>
+      <c r="EG44" s="124"/>
+      <c r="EH44" s="124"/>
+      <c r="EI44" s="124"/>
+      <c r="EJ44" s="124"/>
+      <c r="EK44" s="124"/>
+      <c r="EL44" s="124"/>
+      <c r="EM44" s="124"/>
+      <c r="EN44" s="124"/>
+      <c r="EO44" s="124"/>
+      <c r="EP44" s="124"/>
+      <c r="EQ44" s="124"/>
+      <c r="ER44" s="124"/>
+      <c r="ES44" s="124"/>
+      <c r="ET44" s="124"/>
+      <c r="EU44" s="124"/>
+      <c r="EV44" s="124"/>
+      <c r="EW44" s="124"/>
+      <c r="EX44" s="124"/>
+      <c r="EY44" s="124"/>
+      <c r="EZ44" s="124"/>
+      <c r="FA44" s="124"/>
+      <c r="FB44" s="124"/>
+      <c r="FC44" s="124"/>
+      <c r="FD44" s="124"/>
+      <c r="FE44" s="124"/>
+      <c r="FF44" s="124"/>
+      <c r="FG44" s="124"/>
+      <c r="FH44" s="124"/>
+      <c r="FI44" s="124"/>
+      <c r="FJ44" s="124"/>
+      <c r="FK44" s="124"/>
+      <c r="FL44" s="124"/>
+      <c r="FM44" s="124"/>
+      <c r="FN44" s="124"/>
+      <c r="FO44" s="124"/>
+      <c r="FP44" s="124"/>
+      <c r="FQ44" s="124"/>
+      <c r="FR44" s="124"/>
+      <c r="FS44" s="124"/>
+      <c r="FT44" s="124"/>
+      <c r="FU44" s="124"/>
+      <c r="FV44" s="124"/>
+      <c r="FW44" s="124"/>
+      <c r="FX44" s="124"/>
+      <c r="FY44" s="124"/>
+      <c r="FZ44" s="124"/>
+      <c r="GA44" s="124"/>
+      <c r="GB44" s="124"/>
+      <c r="GC44" s="124"/>
+      <c r="GD44" s="124"/>
+      <c r="GE44" s="124"/>
+      <c r="GF44" s="124"/>
+      <c r="GG44" s="124"/>
+      <c r="GH44" s="124"/>
+      <c r="GI44" s="124"/>
+      <c r="GJ44" s="124"/>
+      <c r="GK44" s="124"/>
+      <c r="GL44" s="124"/>
+      <c r="GM44" s="124"/>
+      <c r="GN44" s="124"/>
+      <c r="GO44" s="124"/>
+      <c r="GP44" s="124"/>
+      <c r="GQ44" s="124"/>
+      <c r="GR44" s="124"/>
+      <c r="GS44" s="124"/>
+      <c r="GT44" s="124"/>
+      <c r="GU44" s="124"/>
+      <c r="GV44" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="AJ43:BO43"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="FH4:FK4"/>
+    <mergeCell ref="DT4:DW4"/>
+    <mergeCell ref="DX4:EA4"/>
+    <mergeCell ref="EB4:EE4"/>
+    <mergeCell ref="EF4:EI4"/>
+    <mergeCell ref="EV4:EY4"/>
+    <mergeCell ref="EZ4:FC4"/>
+    <mergeCell ref="EN4:EQ4"/>
+    <mergeCell ref="ER4:EU4"/>
+    <mergeCell ref="FT4:FW4"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="BP4:BS4"/>
+    <mergeCell ref="BX4:CA4"/>
+    <mergeCell ref="CB4:CE4"/>
+    <mergeCell ref="CF4:CI4"/>
+    <mergeCell ref="FD4:FG4"/>
+    <mergeCell ref="CJ4:CM4"/>
+    <mergeCell ref="CN4:CQ4"/>
+    <mergeCell ref="CZ4:DC4"/>
+    <mergeCell ref="CV4:CY4"/>
+    <mergeCell ref="FL4:FO4"/>
+    <mergeCell ref="FP4:FS4"/>
+    <mergeCell ref="GW4:GW43"/>
+    <mergeCell ref="FX4:GA4"/>
+    <mergeCell ref="GB4:GE4"/>
+    <mergeCell ref="GF4:GI4"/>
+    <mergeCell ref="GJ4:GM4"/>
+    <mergeCell ref="GO4:GR4"/>
+    <mergeCell ref="GS4:GV4"/>
+    <mergeCell ref="A44:GV44"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="DT2:FG3"/>
+    <mergeCell ref="FH2:GV3"/>
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="AR2:CE3"/>
+    <mergeCell ref="CF2:DS3"/>
+    <mergeCell ref="CR4:CU4"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="EJ4:EM4"/>
+    <mergeCell ref="DL4:DO4"/>
+    <mergeCell ref="DP4:DS4"/>
     <mergeCell ref="ER6:EY43"/>
     <mergeCell ref="AB6:AI43"/>
     <mergeCell ref="CF6:CM43"/>
@@ -11847,56 +11898,15 @@
     <mergeCell ref="DD4:DG4"/>
     <mergeCell ref="DH4:DK4"/>
     <mergeCell ref="D43:AA43"/>
-    <mergeCell ref="A44:GV44"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="DT2:FG3"/>
-    <mergeCell ref="FH2:GV3"/>
-    <mergeCell ref="D2:AQ3"/>
-    <mergeCell ref="AR2:CE3"/>
-    <mergeCell ref="CF2:DS3"/>
-    <mergeCell ref="CR4:CU4"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="EJ4:EM4"/>
-    <mergeCell ref="DL4:DO4"/>
-    <mergeCell ref="DP4:DS4"/>
-    <mergeCell ref="GW4:GW43"/>
-    <mergeCell ref="FX4:GA4"/>
-    <mergeCell ref="GB4:GE4"/>
-    <mergeCell ref="GF4:GI4"/>
-    <mergeCell ref="GJ4:GM4"/>
-    <mergeCell ref="GO4:GR4"/>
-    <mergeCell ref="GS4:GV4"/>
-    <mergeCell ref="FT4:FW4"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="BP4:BS4"/>
-    <mergeCell ref="BX4:CA4"/>
-    <mergeCell ref="CB4:CE4"/>
-    <mergeCell ref="CF4:CI4"/>
-    <mergeCell ref="FD4:FG4"/>
-    <mergeCell ref="CJ4:CM4"/>
-    <mergeCell ref="CN4:CQ4"/>
-    <mergeCell ref="CZ4:DC4"/>
-    <mergeCell ref="CV4:CY4"/>
-    <mergeCell ref="FL4:FO4"/>
-    <mergeCell ref="FP4:FS4"/>
-    <mergeCell ref="FH4:FK4"/>
-    <mergeCell ref="DT4:DW4"/>
-    <mergeCell ref="DX4:EA4"/>
-    <mergeCell ref="EB4:EE4"/>
-    <mergeCell ref="EF4:EI4"/>
-    <mergeCell ref="EV4:EY4"/>
-    <mergeCell ref="EZ4:FC4"/>
-    <mergeCell ref="EN4:EQ4"/>
-    <mergeCell ref="ER4:EU4"/>
+    <mergeCell ref="AJ43:BO43"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6 B8:B9 B11:B13 B15:B19 B40 B42:B43 B21:B38">
+  <conditionalFormatting sqref="B6 B8:B9 B11:B13 B15:B19 B21:B38 B40 B42:B43">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",B6)))</formula>
     </cfRule>

--- a/docs/2_CAND_Modele_Planning_2024.xlsx
+++ b/docs/2_CAND_Modele_Planning_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED46BA5C-9E4C-4B79-AD6D-D90848AF9FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D262633-B43A-4BE4-9D41-4EB13A6C7836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="59">
   <si>
     <r>
       <rPr>
@@ -245,12 +245,6 @@
     <t>Implémenter les params des beans</t>
   </si>
   <si>
-    <t>Implémenter déplacement véhicules sans collision</t>
-  </si>
-  <si>
-    <t>Implémenter déplacement véhicules avec collision</t>
-  </si>
-  <si>
     <t>Implémenter logique des carrefours</t>
   </si>
   <si>
@@ -288,6 +282,12 @@
   </si>
   <si>
     <t>Finalisation du projet</t>
+  </si>
+  <si>
+    <t>Implémenter déplacement véhicules sans gestion des distances</t>
+  </si>
+  <si>
+    <t>Implémenter déplacement véhicules avec gestion des distances</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1030,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1381,6 +1381,70 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1406,78 +1470,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1989,15 +1981,15 @@
   <dimension ref="A1:GW43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="DW14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="DW8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="DI1" sqref="DI1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="FK32" sqref="FK32"/>
+      <selection pane="bottomRight" activeCell="FL33" sqref="FL33:GA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" style="1" customWidth="1"/>
     <col min="4" max="204" width="2.140625" style="2" customWidth="1"/>
@@ -2007,11 +1999,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:205" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2057,427 +2049,427 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107">
+      <c r="B2" s="95">
         <v>148477</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="103" t="s">
+      <c r="C2" s="95"/>
+      <c r="D2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="103"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="103"/>
-      <c r="AI2" s="103"/>
-      <c r="AJ2" s="103"/>
-      <c r="AK2" s="103"/>
-      <c r="AL2" s="103"/>
-      <c r="AM2" s="103"/>
-      <c r="AN2" s="103"/>
-      <c r="AO2" s="103"/>
-      <c r="AP2" s="103"/>
-      <c r="AQ2" s="103"/>
-      <c r="AR2" s="103" t="s">
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="96"/>
+      <c r="AI2" s="96"/>
+      <c r="AJ2" s="96"/>
+      <c r="AK2" s="96"/>
+      <c r="AL2" s="96"/>
+      <c r="AM2" s="96"/>
+      <c r="AN2" s="96"/>
+      <c r="AO2" s="96"/>
+      <c r="AP2" s="96"/>
+      <c r="AQ2" s="96"/>
+      <c r="AR2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="AS2" s="103"/>
-      <c r="AT2" s="103"/>
-      <c r="AU2" s="103"/>
-      <c r="AV2" s="103"/>
-      <c r="AW2" s="103"/>
-      <c r="AX2" s="103"/>
-      <c r="AY2" s="103"/>
-      <c r="AZ2" s="103"/>
-      <c r="BA2" s="103"/>
-      <c r="BB2" s="103"/>
-      <c r="BC2" s="103"/>
-      <c r="BD2" s="103"/>
-      <c r="BE2" s="103"/>
-      <c r="BF2" s="103"/>
-      <c r="BG2" s="103"/>
-      <c r="BH2" s="103"/>
-      <c r="BI2" s="103"/>
-      <c r="BJ2" s="103"/>
-      <c r="BK2" s="103"/>
-      <c r="BL2" s="103"/>
-      <c r="BM2" s="103"/>
-      <c r="BN2" s="103"/>
-      <c r="BO2" s="103"/>
-      <c r="BP2" s="103"/>
-      <c r="BQ2" s="103"/>
-      <c r="BR2" s="103"/>
-      <c r="BS2" s="103"/>
-      <c r="BT2" s="103"/>
-      <c r="BU2" s="103"/>
-      <c r="BV2" s="103"/>
-      <c r="BW2" s="103"/>
-      <c r="BX2" s="103"/>
-      <c r="BY2" s="103"/>
-      <c r="BZ2" s="103"/>
-      <c r="CA2" s="103"/>
-      <c r="CB2" s="103"/>
-      <c r="CC2" s="103"/>
-      <c r="CD2" s="103"/>
-      <c r="CE2" s="103"/>
-      <c r="CF2" s="103" t="s">
+      <c r="AS2" s="96"/>
+      <c r="AT2" s="96"/>
+      <c r="AU2" s="96"/>
+      <c r="AV2" s="96"/>
+      <c r="AW2" s="96"/>
+      <c r="AX2" s="96"/>
+      <c r="AY2" s="96"/>
+      <c r="AZ2" s="96"/>
+      <c r="BA2" s="96"/>
+      <c r="BB2" s="96"/>
+      <c r="BC2" s="96"/>
+      <c r="BD2" s="96"/>
+      <c r="BE2" s="96"/>
+      <c r="BF2" s="96"/>
+      <c r="BG2" s="96"/>
+      <c r="BH2" s="96"/>
+      <c r="BI2" s="96"/>
+      <c r="BJ2" s="96"/>
+      <c r="BK2" s="96"/>
+      <c r="BL2" s="96"/>
+      <c r="BM2" s="96"/>
+      <c r="BN2" s="96"/>
+      <c r="BO2" s="96"/>
+      <c r="BP2" s="96"/>
+      <c r="BQ2" s="96"/>
+      <c r="BR2" s="96"/>
+      <c r="BS2" s="96"/>
+      <c r="BT2" s="96"/>
+      <c r="BU2" s="96"/>
+      <c r="BV2" s="96"/>
+      <c r="BW2" s="96"/>
+      <c r="BX2" s="96"/>
+      <c r="BY2" s="96"/>
+      <c r="BZ2" s="96"/>
+      <c r="CA2" s="96"/>
+      <c r="CB2" s="96"/>
+      <c r="CC2" s="96"/>
+      <c r="CD2" s="96"/>
+      <c r="CE2" s="96"/>
+      <c r="CF2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="CG2" s="103"/>
-      <c r="CH2" s="103"/>
-      <c r="CI2" s="103"/>
-      <c r="CJ2" s="103"/>
-      <c r="CK2" s="103"/>
-      <c r="CL2" s="103"/>
-      <c r="CM2" s="103"/>
-      <c r="CN2" s="103"/>
-      <c r="CO2" s="103"/>
-      <c r="CP2" s="103"/>
-      <c r="CQ2" s="103"/>
-      <c r="CR2" s="103"/>
-      <c r="CS2" s="103"/>
-      <c r="CT2" s="103"/>
-      <c r="CU2" s="103"/>
-      <c r="CV2" s="103"/>
-      <c r="CW2" s="103"/>
-      <c r="CX2" s="103"/>
-      <c r="CY2" s="103"/>
-      <c r="CZ2" s="103"/>
-      <c r="DA2" s="103"/>
-      <c r="DB2" s="103"/>
-      <c r="DC2" s="103"/>
-      <c r="DD2" s="103"/>
-      <c r="DE2" s="103"/>
-      <c r="DF2" s="103"/>
-      <c r="DG2" s="103"/>
-      <c r="DH2" s="103"/>
-      <c r="DI2" s="103"/>
-      <c r="DJ2" s="103"/>
-      <c r="DK2" s="103"/>
-      <c r="DL2" s="103"/>
-      <c r="DM2" s="103"/>
-      <c r="DN2" s="103"/>
-      <c r="DO2" s="103"/>
-      <c r="DP2" s="103"/>
-      <c r="DQ2" s="103"/>
-      <c r="DR2" s="103"/>
-      <c r="DS2" s="103"/>
-      <c r="DT2" s="103" t="s">
+      <c r="CG2" s="96"/>
+      <c r="CH2" s="96"/>
+      <c r="CI2" s="96"/>
+      <c r="CJ2" s="96"/>
+      <c r="CK2" s="96"/>
+      <c r="CL2" s="96"/>
+      <c r="CM2" s="96"/>
+      <c r="CN2" s="96"/>
+      <c r="CO2" s="96"/>
+      <c r="CP2" s="96"/>
+      <c r="CQ2" s="96"/>
+      <c r="CR2" s="96"/>
+      <c r="CS2" s="96"/>
+      <c r="CT2" s="96"/>
+      <c r="CU2" s="96"/>
+      <c r="CV2" s="96"/>
+      <c r="CW2" s="96"/>
+      <c r="CX2" s="96"/>
+      <c r="CY2" s="96"/>
+      <c r="CZ2" s="96"/>
+      <c r="DA2" s="96"/>
+      <c r="DB2" s="96"/>
+      <c r="DC2" s="96"/>
+      <c r="DD2" s="96"/>
+      <c r="DE2" s="96"/>
+      <c r="DF2" s="96"/>
+      <c r="DG2" s="96"/>
+      <c r="DH2" s="96"/>
+      <c r="DI2" s="96"/>
+      <c r="DJ2" s="96"/>
+      <c r="DK2" s="96"/>
+      <c r="DL2" s="96"/>
+      <c r="DM2" s="96"/>
+      <c r="DN2" s="96"/>
+      <c r="DO2" s="96"/>
+      <c r="DP2" s="96"/>
+      <c r="DQ2" s="96"/>
+      <c r="DR2" s="96"/>
+      <c r="DS2" s="96"/>
+      <c r="DT2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="DU2" s="103"/>
-      <c r="DV2" s="103"/>
-      <c r="DW2" s="103"/>
-      <c r="DX2" s="103"/>
-      <c r="DY2" s="103"/>
-      <c r="DZ2" s="103"/>
-      <c r="EA2" s="103"/>
-      <c r="EB2" s="103"/>
-      <c r="EC2" s="103"/>
-      <c r="ED2" s="103"/>
-      <c r="EE2" s="103"/>
-      <c r="EF2" s="103"/>
-      <c r="EG2" s="103"/>
-      <c r="EH2" s="103"/>
-      <c r="EI2" s="103"/>
-      <c r="EJ2" s="103"/>
-      <c r="EK2" s="103"/>
-      <c r="EL2" s="103"/>
-      <c r="EM2" s="103"/>
-      <c r="EN2" s="103"/>
-      <c r="EO2" s="103"/>
-      <c r="EP2" s="103"/>
-      <c r="EQ2" s="103"/>
-      <c r="ER2" s="103"/>
-      <c r="ES2" s="103"/>
-      <c r="ET2" s="103"/>
-      <c r="EU2" s="103"/>
-      <c r="EV2" s="103"/>
-      <c r="EW2" s="103"/>
-      <c r="EX2" s="103"/>
-      <c r="EY2" s="103"/>
-      <c r="EZ2" s="103"/>
-      <c r="FA2" s="103"/>
-      <c r="FB2" s="103"/>
-      <c r="FC2" s="103"/>
-      <c r="FD2" s="103"/>
-      <c r="FE2" s="103"/>
-      <c r="FF2" s="103"/>
-      <c r="FG2" s="103"/>
-      <c r="FH2" s="103" t="s">
+      <c r="DU2" s="96"/>
+      <c r="DV2" s="96"/>
+      <c r="DW2" s="96"/>
+      <c r="DX2" s="96"/>
+      <c r="DY2" s="96"/>
+      <c r="DZ2" s="96"/>
+      <c r="EA2" s="96"/>
+      <c r="EB2" s="96"/>
+      <c r="EC2" s="96"/>
+      <c r="ED2" s="96"/>
+      <c r="EE2" s="96"/>
+      <c r="EF2" s="96"/>
+      <c r="EG2" s="96"/>
+      <c r="EH2" s="96"/>
+      <c r="EI2" s="96"/>
+      <c r="EJ2" s="96"/>
+      <c r="EK2" s="96"/>
+      <c r="EL2" s="96"/>
+      <c r="EM2" s="96"/>
+      <c r="EN2" s="96"/>
+      <c r="EO2" s="96"/>
+      <c r="EP2" s="96"/>
+      <c r="EQ2" s="96"/>
+      <c r="ER2" s="96"/>
+      <c r="ES2" s="96"/>
+      <c r="ET2" s="96"/>
+      <c r="EU2" s="96"/>
+      <c r="EV2" s="96"/>
+      <c r="EW2" s="96"/>
+      <c r="EX2" s="96"/>
+      <c r="EY2" s="96"/>
+      <c r="EZ2" s="96"/>
+      <c r="FA2" s="96"/>
+      <c r="FB2" s="96"/>
+      <c r="FC2" s="96"/>
+      <c r="FD2" s="96"/>
+      <c r="FE2" s="96"/>
+      <c r="FF2" s="96"/>
+      <c r="FG2" s="96"/>
+      <c r="FH2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="FI2" s="103"/>
-      <c r="FJ2" s="103"/>
-      <c r="FK2" s="103"/>
-      <c r="FL2" s="103"/>
-      <c r="FM2" s="103"/>
-      <c r="FN2" s="103"/>
-      <c r="FO2" s="103"/>
-      <c r="FP2" s="103"/>
-      <c r="FQ2" s="103"/>
-      <c r="FR2" s="103"/>
-      <c r="FS2" s="103"/>
-      <c r="FT2" s="103"/>
-      <c r="FU2" s="103"/>
-      <c r="FV2" s="103"/>
-      <c r="FW2" s="103"/>
-      <c r="FX2" s="103"/>
-      <c r="FY2" s="103"/>
-      <c r="FZ2" s="103"/>
-      <c r="GA2" s="103"/>
-      <c r="GB2" s="103"/>
-      <c r="GC2" s="103"/>
-      <c r="GD2" s="103"/>
-      <c r="GE2" s="103"/>
-      <c r="GF2" s="103"/>
-      <c r="GG2" s="103"/>
-      <c r="GH2" s="103"/>
-      <c r="GI2" s="103"/>
-      <c r="GJ2" s="103"/>
-      <c r="GK2" s="103"/>
-      <c r="GL2" s="103"/>
-      <c r="GM2" s="103"/>
-      <c r="GN2" s="103"/>
-      <c r="GO2" s="103"/>
-      <c r="GP2" s="103"/>
-      <c r="GQ2" s="103"/>
-      <c r="GR2" s="103"/>
-      <c r="GS2" s="103"/>
-      <c r="GT2" s="103"/>
-      <c r="GU2" s="103"/>
-      <c r="GV2" s="103"/>
+      <c r="FI2" s="96"/>
+      <c r="FJ2" s="96"/>
+      <c r="FK2" s="96"/>
+      <c r="FL2" s="96"/>
+      <c r="FM2" s="96"/>
+      <c r="FN2" s="96"/>
+      <c r="FO2" s="96"/>
+      <c r="FP2" s="96"/>
+      <c r="FQ2" s="96"/>
+      <c r="FR2" s="96"/>
+      <c r="FS2" s="96"/>
+      <c r="FT2" s="96"/>
+      <c r="FU2" s="96"/>
+      <c r="FV2" s="96"/>
+      <c r="FW2" s="96"/>
+      <c r="FX2" s="96"/>
+      <c r="FY2" s="96"/>
+      <c r="FZ2" s="96"/>
+      <c r="GA2" s="96"/>
+      <c r="GB2" s="96"/>
+      <c r="GC2" s="96"/>
+      <c r="GD2" s="96"/>
+      <c r="GE2" s="96"/>
+      <c r="GF2" s="96"/>
+      <c r="GG2" s="96"/>
+      <c r="GH2" s="96"/>
+      <c r="GI2" s="96"/>
+      <c r="GJ2" s="96"/>
+      <c r="GK2" s="96"/>
+      <c r="GL2" s="96"/>
+      <c r="GM2" s="96"/>
+      <c r="GN2" s="96"/>
+      <c r="GO2" s="96"/>
+      <c r="GP2" s="96"/>
+      <c r="GQ2" s="96"/>
+      <c r="GR2" s="96"/>
+      <c r="GS2" s="96"/>
+      <c r="GT2" s="96"/>
+      <c r="GU2" s="96"/>
+      <c r="GV2" s="96"/>
     </row>
     <row r="3" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="103"/>
-      <c r="AD3" s="103"/>
-      <c r="AE3" s="103"/>
-      <c r="AF3" s="103"/>
-      <c r="AG3" s="103"/>
-      <c r="AH3" s="103"/>
-      <c r="AI3" s="103"/>
-      <c r="AJ3" s="103"/>
-      <c r="AK3" s="103"/>
-      <c r="AL3" s="103"/>
-      <c r="AM3" s="103"/>
-      <c r="AN3" s="103"/>
-      <c r="AO3" s="103"/>
-      <c r="AP3" s="103"/>
-      <c r="AQ3" s="103"/>
-      <c r="AR3" s="103"/>
-      <c r="AS3" s="103"/>
-      <c r="AT3" s="103"/>
-      <c r="AU3" s="103"/>
-      <c r="AV3" s="103"/>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="103"/>
-      <c r="AY3" s="103"/>
-      <c r="AZ3" s="103"/>
-      <c r="BA3" s="103"/>
-      <c r="BB3" s="103"/>
-      <c r="BC3" s="103"/>
-      <c r="BD3" s="103"/>
-      <c r="BE3" s="103"/>
-      <c r="BF3" s="103"/>
-      <c r="BG3" s="103"/>
-      <c r="BH3" s="103"/>
-      <c r="BI3" s="103"/>
-      <c r="BJ3" s="103"/>
-      <c r="BK3" s="103"/>
-      <c r="BL3" s="103"/>
-      <c r="BM3" s="103"/>
-      <c r="BN3" s="103"/>
-      <c r="BO3" s="103"/>
-      <c r="BP3" s="103"/>
-      <c r="BQ3" s="103"/>
-      <c r="BR3" s="103"/>
-      <c r="BS3" s="103"/>
-      <c r="BT3" s="103"/>
-      <c r="BU3" s="103"/>
-      <c r="BV3" s="103"/>
-      <c r="BW3" s="103"/>
-      <c r="BX3" s="103"/>
-      <c r="BY3" s="103"/>
-      <c r="BZ3" s="103"/>
-      <c r="CA3" s="103"/>
-      <c r="CB3" s="103"/>
-      <c r="CC3" s="103"/>
-      <c r="CD3" s="103"/>
-      <c r="CE3" s="103"/>
-      <c r="CF3" s="103"/>
-      <c r="CG3" s="103"/>
-      <c r="CH3" s="103"/>
-      <c r="CI3" s="103"/>
-      <c r="CJ3" s="103"/>
-      <c r="CK3" s="103"/>
-      <c r="CL3" s="103"/>
-      <c r="CM3" s="103"/>
-      <c r="CN3" s="103"/>
-      <c r="CO3" s="103"/>
-      <c r="CP3" s="103"/>
-      <c r="CQ3" s="103"/>
-      <c r="CR3" s="103"/>
-      <c r="CS3" s="103"/>
-      <c r="CT3" s="103"/>
-      <c r="CU3" s="103"/>
-      <c r="CV3" s="103"/>
-      <c r="CW3" s="103"/>
-      <c r="CX3" s="103"/>
-      <c r="CY3" s="103"/>
-      <c r="CZ3" s="103"/>
-      <c r="DA3" s="103"/>
-      <c r="DB3" s="103"/>
-      <c r="DC3" s="103"/>
-      <c r="DD3" s="103"/>
-      <c r="DE3" s="103"/>
-      <c r="DF3" s="103"/>
-      <c r="DG3" s="103"/>
-      <c r="DH3" s="103"/>
-      <c r="DI3" s="103"/>
-      <c r="DJ3" s="103"/>
-      <c r="DK3" s="103"/>
-      <c r="DL3" s="103"/>
-      <c r="DM3" s="103"/>
-      <c r="DN3" s="103"/>
-      <c r="DO3" s="103"/>
-      <c r="DP3" s="103"/>
-      <c r="DQ3" s="103"/>
-      <c r="DR3" s="103"/>
-      <c r="DS3" s="103"/>
-      <c r="DT3" s="103"/>
-      <c r="DU3" s="103"/>
-      <c r="DV3" s="103"/>
-      <c r="DW3" s="103"/>
-      <c r="DX3" s="103"/>
-      <c r="DY3" s="103"/>
-      <c r="DZ3" s="103"/>
-      <c r="EA3" s="103"/>
-      <c r="EB3" s="103"/>
-      <c r="EC3" s="103"/>
-      <c r="ED3" s="103"/>
-      <c r="EE3" s="103"/>
-      <c r="EF3" s="103"/>
-      <c r="EG3" s="103"/>
-      <c r="EH3" s="103"/>
-      <c r="EI3" s="103"/>
-      <c r="EJ3" s="103"/>
-      <c r="EK3" s="103"/>
-      <c r="EL3" s="103"/>
-      <c r="EM3" s="103"/>
-      <c r="EN3" s="103"/>
-      <c r="EO3" s="103"/>
-      <c r="EP3" s="103"/>
-      <c r="EQ3" s="103"/>
-      <c r="ER3" s="103"/>
-      <c r="ES3" s="103"/>
-      <c r="ET3" s="103"/>
-      <c r="EU3" s="103"/>
-      <c r="EV3" s="103"/>
-      <c r="EW3" s="103"/>
-      <c r="EX3" s="103"/>
-      <c r="EY3" s="103"/>
-      <c r="EZ3" s="103"/>
-      <c r="FA3" s="103"/>
-      <c r="FB3" s="103"/>
-      <c r="FC3" s="103"/>
-      <c r="FD3" s="103"/>
-      <c r="FE3" s="103"/>
-      <c r="FF3" s="103"/>
-      <c r="FG3" s="103"/>
-      <c r="FH3" s="103"/>
-      <c r="FI3" s="103"/>
-      <c r="FJ3" s="103"/>
-      <c r="FK3" s="103"/>
-      <c r="FL3" s="103"/>
-      <c r="FM3" s="103"/>
-      <c r="FN3" s="103"/>
-      <c r="FO3" s="103"/>
-      <c r="FP3" s="103"/>
-      <c r="FQ3" s="103"/>
-      <c r="FR3" s="103"/>
-      <c r="FS3" s="103"/>
-      <c r="FT3" s="103"/>
-      <c r="FU3" s="103"/>
-      <c r="FV3" s="103"/>
-      <c r="FW3" s="103"/>
-      <c r="FX3" s="103"/>
-      <c r="FY3" s="103"/>
-      <c r="FZ3" s="103"/>
-      <c r="GA3" s="103"/>
-      <c r="GB3" s="103"/>
-      <c r="GC3" s="103"/>
-      <c r="GD3" s="103"/>
-      <c r="GE3" s="103"/>
-      <c r="GF3" s="103"/>
-      <c r="GG3" s="103"/>
-      <c r="GH3" s="103"/>
-      <c r="GI3" s="103"/>
-      <c r="GJ3" s="103"/>
-      <c r="GK3" s="103"/>
-      <c r="GL3" s="103"/>
-      <c r="GM3" s="103"/>
-      <c r="GN3" s="103"/>
-      <c r="GO3" s="103"/>
-      <c r="GP3" s="103"/>
-      <c r="GQ3" s="103"/>
-      <c r="GR3" s="103"/>
-      <c r="GS3" s="103"/>
-      <c r="GT3" s="103"/>
-      <c r="GU3" s="103"/>
-      <c r="GV3" s="103"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="96"/>
+      <c r="AI3" s="96"/>
+      <c r="AJ3" s="96"/>
+      <c r="AK3" s="96"/>
+      <c r="AL3" s="96"/>
+      <c r="AM3" s="96"/>
+      <c r="AN3" s="96"/>
+      <c r="AO3" s="96"/>
+      <c r="AP3" s="96"/>
+      <c r="AQ3" s="96"/>
+      <c r="AR3" s="96"/>
+      <c r="AS3" s="96"/>
+      <c r="AT3" s="96"/>
+      <c r="AU3" s="96"/>
+      <c r="AV3" s="96"/>
+      <c r="AW3" s="96"/>
+      <c r="AX3" s="96"/>
+      <c r="AY3" s="96"/>
+      <c r="AZ3" s="96"/>
+      <c r="BA3" s="96"/>
+      <c r="BB3" s="96"/>
+      <c r="BC3" s="96"/>
+      <c r="BD3" s="96"/>
+      <c r="BE3" s="96"/>
+      <c r="BF3" s="96"/>
+      <c r="BG3" s="96"/>
+      <c r="BH3" s="96"/>
+      <c r="BI3" s="96"/>
+      <c r="BJ3" s="96"/>
+      <c r="BK3" s="96"/>
+      <c r="BL3" s="96"/>
+      <c r="BM3" s="96"/>
+      <c r="BN3" s="96"/>
+      <c r="BO3" s="96"/>
+      <c r="BP3" s="96"/>
+      <c r="BQ3" s="96"/>
+      <c r="BR3" s="96"/>
+      <c r="BS3" s="96"/>
+      <c r="BT3" s="96"/>
+      <c r="BU3" s="96"/>
+      <c r="BV3" s="96"/>
+      <c r="BW3" s="96"/>
+      <c r="BX3" s="96"/>
+      <c r="BY3" s="96"/>
+      <c r="BZ3" s="96"/>
+      <c r="CA3" s="96"/>
+      <c r="CB3" s="96"/>
+      <c r="CC3" s="96"/>
+      <c r="CD3" s="96"/>
+      <c r="CE3" s="96"/>
+      <c r="CF3" s="96"/>
+      <c r="CG3" s="96"/>
+      <c r="CH3" s="96"/>
+      <c r="CI3" s="96"/>
+      <c r="CJ3" s="96"/>
+      <c r="CK3" s="96"/>
+      <c r="CL3" s="96"/>
+      <c r="CM3" s="96"/>
+      <c r="CN3" s="96"/>
+      <c r="CO3" s="96"/>
+      <c r="CP3" s="96"/>
+      <c r="CQ3" s="96"/>
+      <c r="CR3" s="96"/>
+      <c r="CS3" s="96"/>
+      <c r="CT3" s="96"/>
+      <c r="CU3" s="96"/>
+      <c r="CV3" s="96"/>
+      <c r="CW3" s="96"/>
+      <c r="CX3" s="96"/>
+      <c r="CY3" s="96"/>
+      <c r="CZ3" s="96"/>
+      <c r="DA3" s="96"/>
+      <c r="DB3" s="96"/>
+      <c r="DC3" s="96"/>
+      <c r="DD3" s="96"/>
+      <c r="DE3" s="96"/>
+      <c r="DF3" s="96"/>
+      <c r="DG3" s="96"/>
+      <c r="DH3" s="96"/>
+      <c r="DI3" s="96"/>
+      <c r="DJ3" s="96"/>
+      <c r="DK3" s="96"/>
+      <c r="DL3" s="96"/>
+      <c r="DM3" s="96"/>
+      <c r="DN3" s="96"/>
+      <c r="DO3" s="96"/>
+      <c r="DP3" s="96"/>
+      <c r="DQ3" s="96"/>
+      <c r="DR3" s="96"/>
+      <c r="DS3" s="96"/>
+      <c r="DT3" s="96"/>
+      <c r="DU3" s="96"/>
+      <c r="DV3" s="96"/>
+      <c r="DW3" s="96"/>
+      <c r="DX3" s="96"/>
+      <c r="DY3" s="96"/>
+      <c r="DZ3" s="96"/>
+      <c r="EA3" s="96"/>
+      <c r="EB3" s="96"/>
+      <c r="EC3" s="96"/>
+      <c r="ED3" s="96"/>
+      <c r="EE3" s="96"/>
+      <c r="EF3" s="96"/>
+      <c r="EG3" s="96"/>
+      <c r="EH3" s="96"/>
+      <c r="EI3" s="96"/>
+      <c r="EJ3" s="96"/>
+      <c r="EK3" s="96"/>
+      <c r="EL3" s="96"/>
+      <c r="EM3" s="96"/>
+      <c r="EN3" s="96"/>
+      <c r="EO3" s="96"/>
+      <c r="EP3" s="96"/>
+      <c r="EQ3" s="96"/>
+      <c r="ER3" s="96"/>
+      <c r="ES3" s="96"/>
+      <c r="ET3" s="96"/>
+      <c r="EU3" s="96"/>
+      <c r="EV3" s="96"/>
+      <c r="EW3" s="96"/>
+      <c r="EX3" s="96"/>
+      <c r="EY3" s="96"/>
+      <c r="EZ3" s="96"/>
+      <c r="FA3" s="96"/>
+      <c r="FB3" s="96"/>
+      <c r="FC3" s="96"/>
+      <c r="FD3" s="96"/>
+      <c r="FE3" s="96"/>
+      <c r="FF3" s="96"/>
+      <c r="FG3" s="96"/>
+      <c r="FH3" s="96"/>
+      <c r="FI3" s="96"/>
+      <c r="FJ3" s="96"/>
+      <c r="FK3" s="96"/>
+      <c r="FL3" s="96"/>
+      <c r="FM3" s="96"/>
+      <c r="FN3" s="96"/>
+      <c r="FO3" s="96"/>
+      <c r="FP3" s="96"/>
+      <c r="FQ3" s="96"/>
+      <c r="FR3" s="96"/>
+      <c r="FS3" s="96"/>
+      <c r="FT3" s="96"/>
+      <c r="FU3" s="96"/>
+      <c r="FV3" s="96"/>
+      <c r="FW3" s="96"/>
+      <c r="FX3" s="96"/>
+      <c r="FY3" s="96"/>
+      <c r="FZ3" s="96"/>
+      <c r="GA3" s="96"/>
+      <c r="GB3" s="96"/>
+      <c r="GC3" s="96"/>
+      <c r="GD3" s="96"/>
+      <c r="GE3" s="96"/>
+      <c r="GF3" s="96"/>
+      <c r="GG3" s="96"/>
+      <c r="GH3" s="96"/>
+      <c r="GI3" s="96"/>
+      <c r="GJ3" s="96"/>
+      <c r="GK3" s="96"/>
+      <c r="GL3" s="96"/>
+      <c r="GM3" s="96"/>
+      <c r="GN3" s="96"/>
+      <c r="GO3" s="96"/>
+      <c r="GP3" s="96"/>
+      <c r="GQ3" s="96"/>
+      <c r="GR3" s="96"/>
+      <c r="GS3" s="96"/>
+      <c r="GT3" s="96"/>
+      <c r="GU3" s="96"/>
+      <c r="GV3" s="96"/>
     </row>
     <row r="4" spans="1:205" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="97" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2486,313 +2478,313 @@
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="105">
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="99">
         <v>45418</v>
       </c>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="101" t="s">
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="98">
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="100">
         <v>45419</v>
       </c>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="101" t="s">
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="98">
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="100">
         <v>45420</v>
       </c>
-      <c r="Y4" s="98"/>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="101" t="s">
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="100"/>
+      <c r="AB4" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="98">
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="98"/>
+      <c r="AF4" s="100">
         <v>45421</v>
       </c>
-      <c r="AG4" s="98"/>
-      <c r="AH4" s="98"/>
-      <c r="AI4" s="98"/>
-      <c r="AJ4" s="101" t="s">
+      <c r="AG4" s="100"/>
+      <c r="AH4" s="100"/>
+      <c r="AI4" s="100"/>
+      <c r="AJ4" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="AK4" s="101"/>
-      <c r="AL4" s="101"/>
-      <c r="AM4" s="101"/>
-      <c r="AN4" s="98">
+      <c r="AK4" s="98"/>
+      <c r="AL4" s="98"/>
+      <c r="AM4" s="98"/>
+      <c r="AN4" s="100">
         <v>45422</v>
       </c>
-      <c r="AO4" s="98"/>
-      <c r="AP4" s="98"/>
-      <c r="AQ4" s="98"/>
-      <c r="AR4" s="101" t="s">
+      <c r="AO4" s="100"/>
+      <c r="AP4" s="100"/>
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="AS4" s="101"/>
-      <c r="AT4" s="101"/>
-      <c r="AU4" s="101"/>
-      <c r="AV4" s="98">
+      <c r="AS4" s="98"/>
+      <c r="AT4" s="98"/>
+      <c r="AU4" s="98"/>
+      <c r="AV4" s="100">
         <v>45425</v>
       </c>
-      <c r="AW4" s="98"/>
-      <c r="AX4" s="98"/>
-      <c r="AY4" s="98"/>
-      <c r="AZ4" s="101" t="s">
+      <c r="AW4" s="100"/>
+      <c r="AX4" s="100"/>
+      <c r="AY4" s="100"/>
+      <c r="AZ4" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="BA4" s="101"/>
-      <c r="BB4" s="101"/>
-      <c r="BC4" s="101"/>
-      <c r="BD4" s="98">
+      <c r="BA4" s="98"/>
+      <c r="BB4" s="98"/>
+      <c r="BC4" s="98"/>
+      <c r="BD4" s="100">
         <v>45426</v>
       </c>
-      <c r="BE4" s="98"/>
-      <c r="BF4" s="98"/>
-      <c r="BG4" s="98"/>
-      <c r="BH4" s="101" t="s">
+      <c r="BE4" s="100"/>
+      <c r="BF4" s="100"/>
+      <c r="BG4" s="100"/>
+      <c r="BH4" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="BI4" s="101"/>
-      <c r="BJ4" s="101"/>
-      <c r="BK4" s="101"/>
-      <c r="BL4" s="98">
+      <c r="BI4" s="98"/>
+      <c r="BJ4" s="98"/>
+      <c r="BK4" s="98"/>
+      <c r="BL4" s="100">
         <v>45427</v>
       </c>
-      <c r="BM4" s="98"/>
-      <c r="BN4" s="98"/>
-      <c r="BO4" s="98"/>
-      <c r="BP4" s="101" t="s">
+      <c r="BM4" s="100"/>
+      <c r="BN4" s="100"/>
+      <c r="BO4" s="100"/>
+      <c r="BP4" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="BQ4" s="101"/>
-      <c r="BR4" s="101"/>
-      <c r="BS4" s="101"/>
-      <c r="BT4" s="98">
+      <c r="BQ4" s="98"/>
+      <c r="BR4" s="98"/>
+      <c r="BS4" s="98"/>
+      <c r="BT4" s="100">
         <v>45428</v>
       </c>
-      <c r="BU4" s="98"/>
-      <c r="BV4" s="98"/>
-      <c r="BW4" s="98"/>
-      <c r="BX4" s="101" t="s">
+      <c r="BU4" s="100"/>
+      <c r="BV4" s="100"/>
+      <c r="BW4" s="100"/>
+      <c r="BX4" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="BY4" s="101"/>
-      <c r="BZ4" s="101"/>
-      <c r="CA4" s="101"/>
-      <c r="CB4" s="98">
+      <c r="BY4" s="98"/>
+      <c r="BZ4" s="98"/>
+      <c r="CA4" s="98"/>
+      <c r="CB4" s="100">
         <v>45429</v>
       </c>
-      <c r="CC4" s="98"/>
-      <c r="CD4" s="98"/>
-      <c r="CE4" s="98"/>
-      <c r="CF4" s="101" t="s">
+      <c r="CC4" s="100"/>
+      <c r="CD4" s="100"/>
+      <c r="CE4" s="100"/>
+      <c r="CF4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="CG4" s="101"/>
-      <c r="CH4" s="101"/>
-      <c r="CI4" s="101"/>
-      <c r="CJ4" s="98">
+      <c r="CG4" s="98"/>
+      <c r="CH4" s="98"/>
+      <c r="CI4" s="98"/>
+      <c r="CJ4" s="100">
         <v>45432</v>
       </c>
-      <c r="CK4" s="98"/>
-      <c r="CL4" s="98"/>
-      <c r="CM4" s="98"/>
-      <c r="CN4" s="101" t="s">
+      <c r="CK4" s="100"/>
+      <c r="CL4" s="100"/>
+      <c r="CM4" s="100"/>
+      <c r="CN4" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="CO4" s="101"/>
-      <c r="CP4" s="101"/>
-      <c r="CQ4" s="101"/>
-      <c r="CR4" s="98">
+      <c r="CO4" s="98"/>
+      <c r="CP4" s="98"/>
+      <c r="CQ4" s="98"/>
+      <c r="CR4" s="100">
         <v>45433</v>
       </c>
-      <c r="CS4" s="98"/>
-      <c r="CT4" s="98"/>
-      <c r="CU4" s="98"/>
-      <c r="CV4" s="101" t="s">
+      <c r="CS4" s="100"/>
+      <c r="CT4" s="100"/>
+      <c r="CU4" s="100"/>
+      <c r="CV4" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="CW4" s="101"/>
-      <c r="CX4" s="101"/>
-      <c r="CY4" s="101"/>
-      <c r="CZ4" s="98">
+      <c r="CW4" s="98"/>
+      <c r="CX4" s="98"/>
+      <c r="CY4" s="98"/>
+      <c r="CZ4" s="100">
         <v>45434</v>
       </c>
-      <c r="DA4" s="98"/>
-      <c r="DB4" s="98"/>
-      <c r="DC4" s="98"/>
-      <c r="DD4" s="101" t="s">
+      <c r="DA4" s="100"/>
+      <c r="DB4" s="100"/>
+      <c r="DC4" s="100"/>
+      <c r="DD4" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="DE4" s="101"/>
-      <c r="DF4" s="101"/>
-      <c r="DG4" s="101"/>
-      <c r="DH4" s="98">
+      <c r="DE4" s="98"/>
+      <c r="DF4" s="98"/>
+      <c r="DG4" s="98"/>
+      <c r="DH4" s="100">
         <v>45435</v>
       </c>
-      <c r="DI4" s="98"/>
-      <c r="DJ4" s="98"/>
-      <c r="DK4" s="98"/>
-      <c r="DL4" s="101" t="s">
+      <c r="DI4" s="100"/>
+      <c r="DJ4" s="100"/>
+      <c r="DK4" s="100"/>
+      <c r="DL4" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="DM4" s="101"/>
-      <c r="DN4" s="101"/>
-      <c r="DO4" s="101"/>
-      <c r="DP4" s="98">
+      <c r="DM4" s="98"/>
+      <c r="DN4" s="98"/>
+      <c r="DO4" s="98"/>
+      <c r="DP4" s="100">
         <v>45436</v>
       </c>
-      <c r="DQ4" s="98"/>
-      <c r="DR4" s="98"/>
-      <c r="DS4" s="98"/>
-      <c r="DT4" s="101" t="s">
+      <c r="DQ4" s="100"/>
+      <c r="DR4" s="100"/>
+      <c r="DS4" s="100"/>
+      <c r="DT4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="DU4" s="101"/>
-      <c r="DV4" s="101"/>
-      <c r="DW4" s="101"/>
-      <c r="DX4" s="98">
+      <c r="DU4" s="98"/>
+      <c r="DV4" s="98"/>
+      <c r="DW4" s="98"/>
+      <c r="DX4" s="100">
         <v>45439</v>
       </c>
-      <c r="DY4" s="98"/>
-      <c r="DZ4" s="98"/>
-      <c r="EA4" s="98"/>
-      <c r="EB4" s="101" t="s">
+      <c r="DY4" s="100"/>
+      <c r="DZ4" s="100"/>
+      <c r="EA4" s="100"/>
+      <c r="EB4" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="EC4" s="101"/>
-      <c r="ED4" s="101"/>
-      <c r="EE4" s="101"/>
-      <c r="EF4" s="98">
+      <c r="EC4" s="98"/>
+      <c r="ED4" s="98"/>
+      <c r="EE4" s="98"/>
+      <c r="EF4" s="100">
         <v>45440</v>
       </c>
-      <c r="EG4" s="98"/>
-      <c r="EH4" s="98"/>
-      <c r="EI4" s="98"/>
-      <c r="EJ4" s="101" t="s">
+      <c r="EG4" s="100"/>
+      <c r="EH4" s="100"/>
+      <c r="EI4" s="100"/>
+      <c r="EJ4" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="EK4" s="101"/>
-      <c r="EL4" s="101"/>
-      <c r="EM4" s="101"/>
-      <c r="EN4" s="98">
+      <c r="EK4" s="98"/>
+      <c r="EL4" s="98"/>
+      <c r="EM4" s="98"/>
+      <c r="EN4" s="100">
         <v>45441</v>
       </c>
-      <c r="EO4" s="98"/>
-      <c r="EP4" s="98"/>
-      <c r="EQ4" s="98"/>
-      <c r="ER4" s="101" t="s">
+      <c r="EO4" s="100"/>
+      <c r="EP4" s="100"/>
+      <c r="EQ4" s="100"/>
+      <c r="ER4" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="ES4" s="101"/>
-      <c r="ET4" s="101"/>
-      <c r="EU4" s="101"/>
-      <c r="EV4" s="98">
+      <c r="ES4" s="98"/>
+      <c r="ET4" s="98"/>
+      <c r="EU4" s="98"/>
+      <c r="EV4" s="100">
         <v>45442</v>
       </c>
-      <c r="EW4" s="98"/>
-      <c r="EX4" s="98"/>
-      <c r="EY4" s="98"/>
-      <c r="EZ4" s="101" t="s">
+      <c r="EW4" s="100"/>
+      <c r="EX4" s="100"/>
+      <c r="EY4" s="100"/>
+      <c r="EZ4" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="FA4" s="101"/>
-      <c r="FB4" s="101"/>
-      <c r="FC4" s="101"/>
-      <c r="FD4" s="98">
+      <c r="FA4" s="98"/>
+      <c r="FB4" s="98"/>
+      <c r="FC4" s="98"/>
+      <c r="FD4" s="100">
         <v>45443</v>
       </c>
-      <c r="FE4" s="98"/>
-      <c r="FF4" s="98"/>
-      <c r="FG4" s="98"/>
-      <c r="FH4" s="101" t="s">
+      <c r="FE4" s="100"/>
+      <c r="FF4" s="100"/>
+      <c r="FG4" s="100"/>
+      <c r="FH4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="FI4" s="101"/>
-      <c r="FJ4" s="101"/>
-      <c r="FK4" s="101"/>
-      <c r="FL4" s="98">
+      <c r="FI4" s="98"/>
+      <c r="FJ4" s="98"/>
+      <c r="FK4" s="98"/>
+      <c r="FL4" s="100">
         <v>45446</v>
       </c>
-      <c r="FM4" s="98"/>
-      <c r="FN4" s="98"/>
-      <c r="FO4" s="98"/>
-      <c r="FP4" s="101" t="s">
+      <c r="FM4" s="100"/>
+      <c r="FN4" s="100"/>
+      <c r="FO4" s="100"/>
+      <c r="FP4" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="FQ4" s="101"/>
-      <c r="FR4" s="101"/>
-      <c r="FS4" s="101"/>
-      <c r="FT4" s="98">
+      <c r="FQ4" s="98"/>
+      <c r="FR4" s="98"/>
+      <c r="FS4" s="98"/>
+      <c r="FT4" s="100">
         <v>45447</v>
       </c>
-      <c r="FU4" s="98"/>
-      <c r="FV4" s="98"/>
-      <c r="FW4" s="98"/>
-      <c r="FX4" s="101" t="s">
+      <c r="FU4" s="100"/>
+      <c r="FV4" s="100"/>
+      <c r="FW4" s="100"/>
+      <c r="FX4" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="FY4" s="101"/>
-      <c r="FZ4" s="101"/>
-      <c r="GA4" s="101"/>
-      <c r="GB4" s="98">
+      <c r="FY4" s="98"/>
+      <c r="FZ4" s="98"/>
+      <c r="GA4" s="98"/>
+      <c r="GB4" s="100">
         <v>45448</v>
       </c>
-      <c r="GC4" s="98"/>
-      <c r="GD4" s="98"/>
-      <c r="GE4" s="98"/>
-      <c r="GF4" s="101" t="s">
+      <c r="GC4" s="100"/>
+      <c r="GD4" s="100"/>
+      <c r="GE4" s="100"/>
+      <c r="GF4" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="GG4" s="101"/>
-      <c r="GH4" s="101"/>
-      <c r="GI4" s="101"/>
-      <c r="GJ4" s="102">
+      <c r="GG4" s="98"/>
+      <c r="GH4" s="98"/>
+      <c r="GI4" s="98"/>
+      <c r="GJ4" s="104">
         <v>45449</v>
       </c>
-      <c r="GK4" s="102"/>
-      <c r="GL4" s="102"/>
-      <c r="GM4" s="102"/>
+      <c r="GK4" s="104"/>
+      <c r="GL4" s="104"/>
+      <c r="GM4" s="104"/>
       <c r="GN4" s="7"/>
-      <c r="GO4" s="97" t="s">
+      <c r="GO4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="GP4" s="97"/>
-      <c r="GQ4" s="97"/>
-      <c r="GR4" s="97"/>
-      <c r="GS4" s="98">
+      <c r="GP4" s="101"/>
+      <c r="GQ4" s="101"/>
+      <c r="GR4" s="101"/>
+      <c r="GS4" s="100">
         <v>45457</v>
       </c>
-      <c r="GT4" s="98"/>
-      <c r="GU4" s="98"/>
-      <c r="GV4" s="98"/>
-      <c r="GW4" s="99" t="s">
+      <c r="GT4" s="100"/>
+      <c r="GU4" s="100"/>
+      <c r="GV4" s="100"/>
+      <c r="GW4" s="102" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A5" s="104"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -3400,7 +3392,7 @@
       <c r="GV5" s="12">
         <v>8</v>
       </c>
-      <c r="GW5" s="99"/>
+      <c r="GW5" s="102"/>
     </row>
     <row r="6" spans="1:205" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
@@ -3434,16 +3426,16 @@
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="21"/>
-      <c r="AB6" s="100" t="s">
+      <c r="AB6" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="AC6" s="100"/>
-      <c r="AD6" s="100"/>
-      <c r="AE6" s="100"/>
-      <c r="AF6" s="100"/>
-      <c r="AG6" s="100"/>
-      <c r="AH6" s="100"/>
-      <c r="AI6" s="100"/>
+      <c r="AC6" s="103"/>
+      <c r="AD6" s="103"/>
+      <c r="AE6" s="103"/>
+      <c r="AF6" s="103"/>
+      <c r="AG6" s="103"/>
+      <c r="AH6" s="103"/>
+      <c r="AI6" s="103"/>
       <c r="AJ6" s="19"/>
       <c r="AK6" s="20"/>
       <c r="AL6" s="20"/>
@@ -3498,16 +3490,16 @@
       <c r="CE6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="CF6" s="100" t="s">
+      <c r="CF6" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="CG6" s="100"/>
-      <c r="CH6" s="100"/>
-      <c r="CI6" s="100"/>
-      <c r="CJ6" s="100"/>
-      <c r="CK6" s="100"/>
-      <c r="CL6" s="100"/>
-      <c r="CM6" s="100"/>
+      <c r="CG6" s="103"/>
+      <c r="CH6" s="103"/>
+      <c r="CI6" s="103"/>
+      <c r="CJ6" s="103"/>
+      <c r="CK6" s="103"/>
+      <c r="CL6" s="103"/>
+      <c r="CM6" s="103"/>
       <c r="CN6" s="22" t="s">
         <v>17</v>
       </c>
@@ -3580,16 +3572,16 @@
       <c r="EO6" s="23"/>
       <c r="EP6" s="23"/>
       <c r="EQ6" s="25"/>
-      <c r="ER6" s="100" t="s">
+      <c r="ER6" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="ES6" s="100"/>
-      <c r="ET6" s="100"/>
-      <c r="EU6" s="100"/>
-      <c r="EV6" s="100"/>
-      <c r="EW6" s="100"/>
-      <c r="EX6" s="100"/>
-      <c r="EY6" s="100"/>
+      <c r="ES6" s="103"/>
+      <c r="ET6" s="103"/>
+      <c r="EU6" s="103"/>
+      <c r="EV6" s="103"/>
+      <c r="EW6" s="103"/>
+      <c r="EX6" s="103"/>
+      <c r="EY6" s="103"/>
       <c r="EZ6" s="22"/>
       <c r="FA6" s="23"/>
       <c r="FB6" s="23"/>
@@ -3639,13 +3631,13 @@
       <c r="GT6" s="31"/>
       <c r="GU6" s="31"/>
       <c r="GV6" s="31"/>
-      <c r="GW6" s="99"/>
+      <c r="GW6" s="102"/>
     </row>
     <row r="7" spans="1:205" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="92"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="33"/>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
@@ -3671,14 +3663,14 @@
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="21"/>
-      <c r="AB7" s="100"/>
-      <c r="AC7" s="100"/>
-      <c r="AD7" s="100"/>
-      <c r="AE7" s="100"/>
-      <c r="AF7" s="100"/>
-      <c r="AG7" s="100"/>
-      <c r="AH7" s="100"/>
-      <c r="AI7" s="100"/>
+      <c r="AB7" s="103"/>
+      <c r="AC7" s="103"/>
+      <c r="AD7" s="103"/>
+      <c r="AE7" s="103"/>
+      <c r="AF7" s="103"/>
+      <c r="AG7" s="103"/>
+      <c r="AH7" s="103"/>
+      <c r="AI7" s="103"/>
       <c r="AJ7" s="19"/>
       <c r="AK7" s="20"/>
       <c r="AL7" s="20"/>
@@ -3727,14 +3719,14 @@
       <c r="CC7" s="20"/>
       <c r="CD7" s="20"/>
       <c r="CE7" s="21"/>
-      <c r="CF7" s="100"/>
-      <c r="CG7" s="100"/>
-      <c r="CH7" s="100"/>
-      <c r="CI7" s="100"/>
-      <c r="CJ7" s="100"/>
-      <c r="CK7" s="100"/>
-      <c r="CL7" s="100"/>
-      <c r="CM7" s="100"/>
+      <c r="CF7" s="103"/>
+      <c r="CG7" s="103"/>
+      <c r="CH7" s="103"/>
+      <c r="CI7" s="103"/>
+      <c r="CJ7" s="103"/>
+      <c r="CK7" s="103"/>
+      <c r="CL7" s="103"/>
+      <c r="CM7" s="103"/>
       <c r="CN7" s="19"/>
       <c r="CO7" s="20"/>
       <c r="CP7" s="20"/>
@@ -3791,14 +3783,14 @@
       <c r="EO7" s="20"/>
       <c r="EP7" s="20"/>
       <c r="EQ7" s="21"/>
-      <c r="ER7" s="100"/>
-      <c r="ES7" s="100"/>
-      <c r="ET7" s="100"/>
-      <c r="EU7" s="100"/>
-      <c r="EV7" s="100"/>
-      <c r="EW7" s="100"/>
-      <c r="EX7" s="100"/>
-      <c r="EY7" s="100"/>
+      <c r="ER7" s="103"/>
+      <c r="ES7" s="103"/>
+      <c r="ET7" s="103"/>
+      <c r="EU7" s="103"/>
+      <c r="EV7" s="103"/>
+      <c r="EW7" s="103"/>
+      <c r="EX7" s="103"/>
+      <c r="EY7" s="103"/>
       <c r="EZ7" s="19"/>
       <c r="FA7" s="20"/>
       <c r="FB7" s="20"/>
@@ -3848,7 +3840,7 @@
       <c r="GT7" s="20"/>
       <c r="GU7" s="20"/>
       <c r="GV7" s="20"/>
-      <c r="GW7" s="99"/>
+      <c r="GW7" s="102"/>
     </row>
     <row r="8" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
@@ -3882,14 +3874,14 @@
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="21"/>
-      <c r="AB8" s="100"/>
-      <c r="AC8" s="100"/>
-      <c r="AD8" s="100"/>
-      <c r="AE8" s="100"/>
-      <c r="AF8" s="100"/>
-      <c r="AG8" s="100"/>
-      <c r="AH8" s="100"/>
-      <c r="AI8" s="100"/>
+      <c r="AB8" s="103"/>
+      <c r="AC8" s="103"/>
+      <c r="AD8" s="103"/>
+      <c r="AE8" s="103"/>
+      <c r="AF8" s="103"/>
+      <c r="AG8" s="103"/>
+      <c r="AH8" s="103"/>
+      <c r="AI8" s="103"/>
       <c r="AJ8" s="19"/>
       <c r="AK8" s="20"/>
       <c r="AL8" s="20"/>
@@ -3942,14 +3934,14 @@
       <c r="CC8" s="20"/>
       <c r="CD8" s="20"/>
       <c r="CE8" s="36"/>
-      <c r="CF8" s="100"/>
-      <c r="CG8" s="100"/>
-      <c r="CH8" s="100"/>
-      <c r="CI8" s="100"/>
-      <c r="CJ8" s="100"/>
-      <c r="CK8" s="100"/>
-      <c r="CL8" s="100"/>
-      <c r="CM8" s="100"/>
+      <c r="CF8" s="103"/>
+      <c r="CG8" s="103"/>
+      <c r="CH8" s="103"/>
+      <c r="CI8" s="103"/>
+      <c r="CJ8" s="103"/>
+      <c r="CK8" s="103"/>
+      <c r="CL8" s="103"/>
+      <c r="CM8" s="103"/>
       <c r="CN8" s="19"/>
       <c r="CO8" s="20"/>
       <c r="CP8" s="20"/>
@@ -4006,14 +3998,14 @@
       <c r="EO8" s="20"/>
       <c r="EP8" s="20"/>
       <c r="EQ8" s="21"/>
-      <c r="ER8" s="100"/>
-      <c r="ES8" s="100"/>
-      <c r="ET8" s="100"/>
-      <c r="EU8" s="100"/>
-      <c r="EV8" s="100"/>
-      <c r="EW8" s="100"/>
-      <c r="EX8" s="100"/>
-      <c r="EY8" s="100"/>
+      <c r="ER8" s="103"/>
+      <c r="ES8" s="103"/>
+      <c r="ET8" s="103"/>
+      <c r="EU8" s="103"/>
+      <c r="EV8" s="103"/>
+      <c r="EW8" s="103"/>
+      <c r="EX8" s="103"/>
+      <c r="EY8" s="103"/>
       <c r="EZ8" s="19"/>
       <c r="FA8" s="20"/>
       <c r="FB8" s="20"/>
@@ -4063,7 +4055,7 @@
       <c r="GT8" s="20"/>
       <c r="GU8" s="20"/>
       <c r="GV8" s="20"/>
-      <c r="GW8" s="99"/>
+      <c r="GW8" s="102"/>
     </row>
     <row r="9" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A9" s="43" t="s">
@@ -4097,14 +4089,14 @@
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="21"/>
-      <c r="AB9" s="100"/>
-      <c r="AC9" s="100"/>
-      <c r="AD9" s="100"/>
-      <c r="AE9" s="100"/>
-      <c r="AF9" s="100"/>
-      <c r="AG9" s="100"/>
-      <c r="AH9" s="100"/>
-      <c r="AI9" s="100"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="103"/>
+      <c r="AD9" s="103"/>
+      <c r="AE9" s="103"/>
+      <c r="AF9" s="103"/>
+      <c r="AG9" s="103"/>
+      <c r="AH9" s="103"/>
+      <c r="AI9" s="103"/>
       <c r="AJ9" s="19"/>
       <c r="AK9" s="20"/>
       <c r="AL9" s="20"/>
@@ -4173,14 +4165,14 @@
         <v>17</v>
       </c>
       <c r="CE9" s="42"/>
-      <c r="CF9" s="100"/>
-      <c r="CG9" s="100"/>
-      <c r="CH9" s="100"/>
-      <c r="CI9" s="100"/>
-      <c r="CJ9" s="100"/>
-      <c r="CK9" s="100"/>
-      <c r="CL9" s="100"/>
-      <c r="CM9" s="100"/>
+      <c r="CF9" s="103"/>
+      <c r="CG9" s="103"/>
+      <c r="CH9" s="103"/>
+      <c r="CI9" s="103"/>
+      <c r="CJ9" s="103"/>
+      <c r="CK9" s="103"/>
+      <c r="CL9" s="103"/>
+      <c r="CM9" s="103"/>
       <c r="CN9" s="19"/>
       <c r="CO9" s="20"/>
       <c r="CP9" s="20"/>
@@ -4237,14 +4229,14 @@
       <c r="EO9" s="20"/>
       <c r="EP9" s="20"/>
       <c r="EQ9" s="21"/>
-      <c r="ER9" s="100"/>
-      <c r="ES9" s="100"/>
-      <c r="ET9" s="100"/>
-      <c r="EU9" s="100"/>
-      <c r="EV9" s="100"/>
-      <c r="EW9" s="100"/>
-      <c r="EX9" s="100"/>
-      <c r="EY9" s="100"/>
+      <c r="ER9" s="103"/>
+      <c r="ES9" s="103"/>
+      <c r="ET9" s="103"/>
+      <c r="EU9" s="103"/>
+      <c r="EV9" s="103"/>
+      <c r="EW9" s="103"/>
+      <c r="EX9" s="103"/>
+      <c r="EY9" s="103"/>
       <c r="EZ9" s="19"/>
       <c r="FA9" s="20"/>
       <c r="FB9" s="20"/>
@@ -4294,13 +4286,13 @@
       <c r="GT9" s="20"/>
       <c r="GU9" s="20"/>
       <c r="GV9" s="20"/>
-      <c r="GW9" s="99"/>
+      <c r="GW9" s="102"/>
     </row>
     <row r="10" spans="1:205" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="93"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="33"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
@@ -4326,14 +4318,14 @@
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="21"/>
-      <c r="AB10" s="100"/>
-      <c r="AC10" s="100"/>
-      <c r="AD10" s="100"/>
-      <c r="AE10" s="100"/>
-      <c r="AF10" s="100"/>
-      <c r="AG10" s="100"/>
-      <c r="AH10" s="100"/>
-      <c r="AI10" s="100"/>
+      <c r="AB10" s="103"/>
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="103"/>
+      <c r="AE10" s="103"/>
+      <c r="AF10" s="103"/>
+      <c r="AG10" s="103"/>
+      <c r="AH10" s="103"/>
+      <c r="AI10" s="103"/>
       <c r="AJ10" s="19"/>
       <c r="AK10" s="20"/>
       <c r="AL10" s="20"/>
@@ -4382,14 +4374,14 @@
       <c r="CC10" s="35"/>
       <c r="CD10" s="35"/>
       <c r="CE10" s="35"/>
-      <c r="CF10" s="100"/>
-      <c r="CG10" s="100"/>
-      <c r="CH10" s="100"/>
-      <c r="CI10" s="100"/>
-      <c r="CJ10" s="100"/>
-      <c r="CK10" s="100"/>
-      <c r="CL10" s="100"/>
-      <c r="CM10" s="100"/>
+      <c r="CF10" s="103"/>
+      <c r="CG10" s="103"/>
+      <c r="CH10" s="103"/>
+      <c r="CI10" s="103"/>
+      <c r="CJ10" s="103"/>
+      <c r="CK10" s="103"/>
+      <c r="CL10" s="103"/>
+      <c r="CM10" s="103"/>
       <c r="CN10" s="19"/>
       <c r="CO10" s="20"/>
       <c r="CP10" s="20"/>
@@ -4446,14 +4438,14 @@
       <c r="EO10" s="20"/>
       <c r="EP10" s="20"/>
       <c r="EQ10" s="21"/>
-      <c r="ER10" s="100"/>
-      <c r="ES10" s="100"/>
-      <c r="ET10" s="100"/>
-      <c r="EU10" s="100"/>
-      <c r="EV10" s="100"/>
-      <c r="EW10" s="100"/>
-      <c r="EX10" s="100"/>
-      <c r="EY10" s="100"/>
+      <c r="ER10" s="103"/>
+      <c r="ES10" s="103"/>
+      <c r="ET10" s="103"/>
+      <c r="EU10" s="103"/>
+      <c r="EV10" s="103"/>
+      <c r="EW10" s="103"/>
+      <c r="EX10" s="103"/>
+      <c r="EY10" s="103"/>
       <c r="EZ10" s="19"/>
       <c r="FA10" s="20"/>
       <c r="FB10" s="20"/>
@@ -4503,7 +4495,7 @@
       <c r="GT10" s="20"/>
       <c r="GU10" s="20"/>
       <c r="GV10" s="20"/>
-      <c r="GW10" s="99"/>
+      <c r="GW10" s="102"/>
     </row>
     <row r="11" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A11" s="48" t="s">
@@ -4537,14 +4529,14 @@
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="21"/>
-      <c r="AB11" s="100"/>
-      <c r="AC11" s="100"/>
-      <c r="AD11" s="100"/>
-      <c r="AE11" s="100"/>
-      <c r="AF11" s="100"/>
-      <c r="AG11" s="100"/>
-      <c r="AH11" s="100"/>
-      <c r="AI11" s="100"/>
+      <c r="AB11" s="103"/>
+      <c r="AC11" s="103"/>
+      <c r="AD11" s="103"/>
+      <c r="AE11" s="103"/>
+      <c r="AF11" s="103"/>
+      <c r="AG11" s="103"/>
+      <c r="AH11" s="103"/>
+      <c r="AI11" s="103"/>
       <c r="AJ11" s="19"/>
       <c r="AK11" s="20"/>
       <c r="AL11" s="20"/>
@@ -4595,14 +4587,14 @@
       </c>
       <c r="CD11" s="20"/>
       <c r="CE11" s="20"/>
-      <c r="CF11" s="100"/>
-      <c r="CG11" s="100"/>
-      <c r="CH11" s="100"/>
-      <c r="CI11" s="100"/>
-      <c r="CJ11" s="100"/>
-      <c r="CK11" s="100"/>
-      <c r="CL11" s="100"/>
-      <c r="CM11" s="100"/>
+      <c r="CF11" s="103"/>
+      <c r="CG11" s="103"/>
+      <c r="CH11" s="103"/>
+      <c r="CI11" s="103"/>
+      <c r="CJ11" s="103"/>
+      <c r="CK11" s="103"/>
+      <c r="CL11" s="103"/>
+      <c r="CM11" s="103"/>
       <c r="CN11" s="49"/>
       <c r="CO11" s="20"/>
       <c r="CP11" s="20"/>
@@ -4661,14 +4653,14 @@
       <c r="EO11" s="20"/>
       <c r="EP11" s="20"/>
       <c r="EQ11" s="21"/>
-      <c r="ER11" s="100"/>
-      <c r="ES11" s="100"/>
-      <c r="ET11" s="100"/>
-      <c r="EU11" s="100"/>
-      <c r="EV11" s="100"/>
-      <c r="EW11" s="100"/>
-      <c r="EX11" s="100"/>
-      <c r="EY11" s="100"/>
+      <c r="ER11" s="103"/>
+      <c r="ES11" s="103"/>
+      <c r="ET11" s="103"/>
+      <c r="EU11" s="103"/>
+      <c r="EV11" s="103"/>
+      <c r="EW11" s="103"/>
+      <c r="EX11" s="103"/>
+      <c r="EY11" s="103"/>
       <c r="EZ11" s="19"/>
       <c r="FA11" s="20"/>
       <c r="FB11" s="20"/>
@@ -4718,7 +4710,7 @@
       <c r="GT11" s="20"/>
       <c r="GU11" s="20"/>
       <c r="GV11" s="20"/>
-      <c r="GW11" s="99"/>
+      <c r="GW11" s="102"/>
     </row>
     <row r="12" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
@@ -4752,14 +4744,14 @@
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="21"/>
-      <c r="AB12" s="100"/>
-      <c r="AC12" s="100"/>
-      <c r="AD12" s="100"/>
-      <c r="AE12" s="100"/>
-      <c r="AF12" s="100"/>
-      <c r="AG12" s="100"/>
-      <c r="AH12" s="100"/>
-      <c r="AI12" s="100"/>
+      <c r="AB12" s="103"/>
+      <c r="AC12" s="103"/>
+      <c r="AD12" s="103"/>
+      <c r="AE12" s="103"/>
+      <c r="AF12" s="103"/>
+      <c r="AG12" s="103"/>
+      <c r="AH12" s="103"/>
+      <c r="AI12" s="103"/>
       <c r="AJ12" s="19"/>
       <c r="AK12" s="20"/>
       <c r="AL12" s="20"/>
@@ -4808,14 +4800,14 @@
       <c r="CC12" s="20"/>
       <c r="CD12" s="20"/>
       <c r="CE12" s="21"/>
-      <c r="CF12" s="100"/>
-      <c r="CG12" s="100"/>
-      <c r="CH12" s="100"/>
-      <c r="CI12" s="100"/>
-      <c r="CJ12" s="100"/>
-      <c r="CK12" s="100"/>
-      <c r="CL12" s="100"/>
-      <c r="CM12" s="100"/>
+      <c r="CF12" s="103"/>
+      <c r="CG12" s="103"/>
+      <c r="CH12" s="103"/>
+      <c r="CI12" s="103"/>
+      <c r="CJ12" s="103"/>
+      <c r="CK12" s="103"/>
+      <c r="CL12" s="103"/>
+      <c r="CM12" s="103"/>
       <c r="CN12" s="19"/>
       <c r="CO12" s="52" t="s">
         <v>17</v>
@@ -4878,14 +4870,14 @@
       <c r="EO12" s="20"/>
       <c r="EP12" s="20"/>
       <c r="EQ12" s="21"/>
-      <c r="ER12" s="100"/>
-      <c r="ES12" s="100"/>
-      <c r="ET12" s="100"/>
-      <c r="EU12" s="100"/>
-      <c r="EV12" s="100"/>
-      <c r="EW12" s="100"/>
-      <c r="EX12" s="100"/>
-      <c r="EY12" s="100"/>
+      <c r="ER12" s="103"/>
+      <c r="ES12" s="103"/>
+      <c r="ET12" s="103"/>
+      <c r="EU12" s="103"/>
+      <c r="EV12" s="103"/>
+      <c r="EW12" s="103"/>
+      <c r="EX12" s="103"/>
+      <c r="EY12" s="103"/>
       <c r="EZ12" s="19"/>
       <c r="FA12" s="20"/>
       <c r="FB12" s="20"/>
@@ -4935,7 +4927,7 @@
       <c r="GT12" s="20"/>
       <c r="GU12" s="20"/>
       <c r="GV12" s="20"/>
-      <c r="GW12" s="99"/>
+      <c r="GW12" s="102"/>
     </row>
     <row r="13" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A13" s="53" t="s">
@@ -4969,14 +4961,14 @@
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="21"/>
-      <c r="AB13" s="100"/>
-      <c r="AC13" s="100"/>
-      <c r="AD13" s="100"/>
-      <c r="AE13" s="100"/>
-      <c r="AF13" s="100"/>
-      <c r="AG13" s="100"/>
-      <c r="AH13" s="100"/>
-      <c r="AI13" s="100"/>
+      <c r="AB13" s="103"/>
+      <c r="AC13" s="103"/>
+      <c r="AD13" s="103"/>
+      <c r="AE13" s="103"/>
+      <c r="AF13" s="103"/>
+      <c r="AG13" s="103"/>
+      <c r="AH13" s="103"/>
+      <c r="AI13" s="103"/>
       <c r="AJ13" s="19"/>
       <c r="AK13" s="20"/>
       <c r="AL13" s="20"/>
@@ -5025,14 +5017,14 @@
       <c r="CC13" s="20"/>
       <c r="CD13" s="20"/>
       <c r="CE13" s="21"/>
-      <c r="CF13" s="100"/>
-      <c r="CG13" s="100"/>
-      <c r="CH13" s="100"/>
-      <c r="CI13" s="100"/>
-      <c r="CJ13" s="100"/>
-      <c r="CK13" s="100"/>
-      <c r="CL13" s="100"/>
-      <c r="CM13" s="100"/>
+      <c r="CF13" s="103"/>
+      <c r="CG13" s="103"/>
+      <c r="CH13" s="103"/>
+      <c r="CI13" s="103"/>
+      <c r="CJ13" s="103"/>
+      <c r="CK13" s="103"/>
+      <c r="CL13" s="103"/>
+      <c r="CM13" s="103"/>
       <c r="CN13" s="19"/>
       <c r="CO13" s="20"/>
       <c r="CP13" s="54"/>
@@ -5099,14 +5091,14 @@
       <c r="EO13" s="20"/>
       <c r="EP13" s="20"/>
       <c r="EQ13" s="21"/>
-      <c r="ER13" s="100"/>
-      <c r="ES13" s="100"/>
-      <c r="ET13" s="100"/>
-      <c r="EU13" s="100"/>
-      <c r="EV13" s="100"/>
-      <c r="EW13" s="100"/>
-      <c r="EX13" s="100"/>
-      <c r="EY13" s="100"/>
+      <c r="ER13" s="103"/>
+      <c r="ES13" s="103"/>
+      <c r="ET13" s="103"/>
+      <c r="EU13" s="103"/>
+      <c r="EV13" s="103"/>
+      <c r="EW13" s="103"/>
+      <c r="EX13" s="103"/>
+      <c r="EY13" s="103"/>
       <c r="EZ13" s="19"/>
       <c r="FA13" s="20"/>
       <c r="FB13" s="20"/>
@@ -5156,13 +5148,13 @@
       <c r="GT13" s="20"/>
       <c r="GU13" s="20"/>
       <c r="GV13" s="20"/>
-      <c r="GW13" s="99"/>
+      <c r="GW13" s="102"/>
     </row>
     <row r="14" spans="1:205" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="94"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="33"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
@@ -5188,14 +5180,14 @@
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="21"/>
-      <c r="AB14" s="100"/>
-      <c r="AC14" s="100"/>
-      <c r="AD14" s="100"/>
-      <c r="AE14" s="100"/>
-      <c r="AF14" s="100"/>
-      <c r="AG14" s="100"/>
-      <c r="AH14" s="100"/>
-      <c r="AI14" s="100"/>
+      <c r="AB14" s="103"/>
+      <c r="AC14" s="103"/>
+      <c r="AD14" s="103"/>
+      <c r="AE14" s="103"/>
+      <c r="AF14" s="103"/>
+      <c r="AG14" s="103"/>
+      <c r="AH14" s="103"/>
+      <c r="AI14" s="103"/>
       <c r="AJ14" s="19"/>
       <c r="AK14" s="20"/>
       <c r="AL14" s="20"/>
@@ -5244,14 +5236,14 @@
       <c r="CC14" s="20"/>
       <c r="CD14" s="20"/>
       <c r="CE14" s="21"/>
-      <c r="CF14" s="100"/>
-      <c r="CG14" s="100"/>
-      <c r="CH14" s="100"/>
-      <c r="CI14" s="100"/>
-      <c r="CJ14" s="100"/>
-      <c r="CK14" s="100"/>
-      <c r="CL14" s="100"/>
-      <c r="CM14" s="100"/>
+      <c r="CF14" s="103"/>
+      <c r="CG14" s="103"/>
+      <c r="CH14" s="103"/>
+      <c r="CI14" s="103"/>
+      <c r="CJ14" s="103"/>
+      <c r="CK14" s="103"/>
+      <c r="CL14" s="103"/>
+      <c r="CM14" s="103"/>
       <c r="CN14" s="19"/>
       <c r="CO14" s="20"/>
       <c r="CP14" s="20"/>
@@ -5308,14 +5300,14 @@
       <c r="EO14" s="20"/>
       <c r="EP14" s="20"/>
       <c r="EQ14" s="21"/>
-      <c r="ER14" s="100"/>
-      <c r="ES14" s="100"/>
-      <c r="ET14" s="100"/>
-      <c r="EU14" s="100"/>
-      <c r="EV14" s="100"/>
-      <c r="EW14" s="100"/>
-      <c r="EX14" s="100"/>
-      <c r="EY14" s="100"/>
+      <c r="ER14" s="103"/>
+      <c r="ES14" s="103"/>
+      <c r="ET14" s="103"/>
+      <c r="EU14" s="103"/>
+      <c r="EV14" s="103"/>
+      <c r="EW14" s="103"/>
+      <c r="EX14" s="103"/>
+      <c r="EY14" s="103"/>
       <c r="EZ14" s="19"/>
       <c r="FA14" s="20"/>
       <c r="FB14" s="20"/>
@@ -5365,7 +5357,7 @@
       <c r="GT14" s="20"/>
       <c r="GU14" s="20"/>
       <c r="GV14" s="20"/>
-      <c r="GW14" s="99"/>
+      <c r="GW14" s="102"/>
     </row>
     <row r="15" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A15" s="55" t="s">
@@ -5399,14 +5391,14 @@
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="21"/>
-      <c r="AB15" s="100"/>
-      <c r="AC15" s="100"/>
-      <c r="AD15" s="100"/>
-      <c r="AE15" s="100"/>
-      <c r="AF15" s="100"/>
-      <c r="AG15" s="100"/>
-      <c r="AH15" s="100"/>
-      <c r="AI15" s="100"/>
+      <c r="AB15" s="103"/>
+      <c r="AC15" s="103"/>
+      <c r="AD15" s="103"/>
+      <c r="AE15" s="103"/>
+      <c r="AF15" s="103"/>
+      <c r="AG15" s="103"/>
+      <c r="AH15" s="103"/>
+      <c r="AI15" s="103"/>
       <c r="AJ15" s="19"/>
       <c r="AK15" s="20"/>
       <c r="AL15" s="20"/>
@@ -5455,14 +5447,14 @@
       <c r="CC15" s="20"/>
       <c r="CD15" s="20"/>
       <c r="CE15" s="21"/>
-      <c r="CF15" s="100"/>
-      <c r="CG15" s="100"/>
-      <c r="CH15" s="100"/>
-      <c r="CI15" s="100"/>
-      <c r="CJ15" s="100"/>
-      <c r="CK15" s="100"/>
-      <c r="CL15" s="100"/>
-      <c r="CM15" s="100"/>
+      <c r="CF15" s="103"/>
+      <c r="CG15" s="103"/>
+      <c r="CH15" s="103"/>
+      <c r="CI15" s="103"/>
+      <c r="CJ15" s="103"/>
+      <c r="CK15" s="103"/>
+      <c r="CL15" s="103"/>
+      <c r="CM15" s="103"/>
       <c r="CN15" s="19"/>
       <c r="CO15" s="20"/>
       <c r="CP15" s="20"/>
@@ -5525,14 +5517,14 @@
       <c r="EO15" s="20"/>
       <c r="EP15" s="20"/>
       <c r="EQ15" s="21"/>
-      <c r="ER15" s="100"/>
-      <c r="ES15" s="100"/>
-      <c r="ET15" s="100"/>
-      <c r="EU15" s="100"/>
-      <c r="EV15" s="100"/>
-      <c r="EW15" s="100"/>
-      <c r="EX15" s="100"/>
-      <c r="EY15" s="100"/>
+      <c r="ER15" s="103"/>
+      <c r="ES15" s="103"/>
+      <c r="ET15" s="103"/>
+      <c r="EU15" s="103"/>
+      <c r="EV15" s="103"/>
+      <c r="EW15" s="103"/>
+      <c r="EX15" s="103"/>
+      <c r="EY15" s="103"/>
       <c r="EZ15" s="19"/>
       <c r="FA15" s="20"/>
       <c r="FB15" s="20"/>
@@ -5582,7 +5574,7 @@
       <c r="GT15" s="20"/>
       <c r="GU15" s="20"/>
       <c r="GV15" s="20"/>
-      <c r="GW15" s="99"/>
+      <c r="GW15" s="102"/>
     </row>
     <row r="16" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A16" s="59" t="s">
@@ -5616,14 +5608,14 @@
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="21"/>
-      <c r="AB16" s="100"/>
-      <c r="AC16" s="100"/>
-      <c r="AD16" s="100"/>
-      <c r="AE16" s="100"/>
-      <c r="AF16" s="100"/>
-      <c r="AG16" s="100"/>
-      <c r="AH16" s="100"/>
-      <c r="AI16" s="100"/>
+      <c r="AB16" s="103"/>
+      <c r="AC16" s="103"/>
+      <c r="AD16" s="103"/>
+      <c r="AE16" s="103"/>
+      <c r="AF16" s="103"/>
+      <c r="AG16" s="103"/>
+      <c r="AH16" s="103"/>
+      <c r="AI16" s="103"/>
       <c r="AJ16" s="19"/>
       <c r="AK16" s="20"/>
       <c r="AL16" s="20"/>
@@ -5672,14 +5664,14 @@
       <c r="CC16" s="20"/>
       <c r="CD16" s="20"/>
       <c r="CE16" s="21"/>
-      <c r="CF16" s="100"/>
-      <c r="CG16" s="100"/>
-      <c r="CH16" s="100"/>
-      <c r="CI16" s="100"/>
-      <c r="CJ16" s="100"/>
-      <c r="CK16" s="100"/>
-      <c r="CL16" s="100"/>
-      <c r="CM16" s="100"/>
+      <c r="CF16" s="103"/>
+      <c r="CG16" s="103"/>
+      <c r="CH16" s="103"/>
+      <c r="CI16" s="103"/>
+      <c r="CJ16" s="103"/>
+      <c r="CK16" s="103"/>
+      <c r="CL16" s="103"/>
+      <c r="CM16" s="103"/>
       <c r="CN16" s="19"/>
       <c r="CO16" s="20"/>
       <c r="CP16" s="20"/>
@@ -5738,14 +5730,14 @@
       <c r="EO16" s="20"/>
       <c r="EP16" s="20"/>
       <c r="EQ16" s="21"/>
-      <c r="ER16" s="100"/>
-      <c r="ES16" s="100"/>
-      <c r="ET16" s="100"/>
-      <c r="EU16" s="100"/>
-      <c r="EV16" s="100"/>
-      <c r="EW16" s="100"/>
-      <c r="EX16" s="100"/>
-      <c r="EY16" s="100"/>
+      <c r="ER16" s="103"/>
+      <c r="ES16" s="103"/>
+      <c r="ET16" s="103"/>
+      <c r="EU16" s="103"/>
+      <c r="EV16" s="103"/>
+      <c r="EW16" s="103"/>
+      <c r="EX16" s="103"/>
+      <c r="EY16" s="103"/>
       <c r="EZ16" s="19"/>
       <c r="FA16" s="20"/>
       <c r="FB16" s="20"/>
@@ -5795,7 +5787,7 @@
       <c r="GT16" s="20"/>
       <c r="GU16" s="20"/>
       <c r="GV16" s="20"/>
-      <c r="GW16" s="99"/>
+      <c r="GW16" s="102"/>
     </row>
     <row r="17" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A17" s="59" t="s">
@@ -5829,14 +5821,14 @@
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="21"/>
-      <c r="AB17" s="100"/>
-      <c r="AC17" s="100"/>
-      <c r="AD17" s="100"/>
-      <c r="AE17" s="100"/>
-      <c r="AF17" s="100"/>
-      <c r="AG17" s="100"/>
-      <c r="AH17" s="100"/>
-      <c r="AI17" s="100"/>
+      <c r="AB17" s="103"/>
+      <c r="AC17" s="103"/>
+      <c r="AD17" s="103"/>
+      <c r="AE17" s="103"/>
+      <c r="AF17" s="103"/>
+      <c r="AG17" s="103"/>
+      <c r="AH17" s="103"/>
+      <c r="AI17" s="103"/>
       <c r="AJ17" s="19"/>
       <c r="AK17" s="20"/>
       <c r="AL17" s="20"/>
@@ -5885,14 +5877,14 @@
       <c r="CC17" s="20"/>
       <c r="CD17" s="20"/>
       <c r="CE17" s="21"/>
-      <c r="CF17" s="100"/>
-      <c r="CG17" s="100"/>
-      <c r="CH17" s="100"/>
-      <c r="CI17" s="100"/>
-      <c r="CJ17" s="100"/>
-      <c r="CK17" s="100"/>
-      <c r="CL17" s="100"/>
-      <c r="CM17" s="100"/>
+      <c r="CF17" s="103"/>
+      <c r="CG17" s="103"/>
+      <c r="CH17" s="103"/>
+      <c r="CI17" s="103"/>
+      <c r="CJ17" s="103"/>
+      <c r="CK17" s="103"/>
+      <c r="CL17" s="103"/>
+      <c r="CM17" s="103"/>
       <c r="CN17" s="19"/>
       <c r="CO17" s="20"/>
       <c r="CP17" s="20"/>
@@ -5955,14 +5947,14 @@
       <c r="EO17" s="20"/>
       <c r="EP17" s="20"/>
       <c r="EQ17" s="21"/>
-      <c r="ER17" s="100"/>
-      <c r="ES17" s="100"/>
-      <c r="ET17" s="100"/>
-      <c r="EU17" s="100"/>
-      <c r="EV17" s="100"/>
-      <c r="EW17" s="100"/>
-      <c r="EX17" s="100"/>
-      <c r="EY17" s="100"/>
+      <c r="ER17" s="103"/>
+      <c r="ES17" s="103"/>
+      <c r="ET17" s="103"/>
+      <c r="EU17" s="103"/>
+      <c r="EV17" s="103"/>
+      <c r="EW17" s="103"/>
+      <c r="EX17" s="103"/>
+      <c r="EY17" s="103"/>
       <c r="EZ17" s="19"/>
       <c r="FA17" s="20"/>
       <c r="FB17" s="20"/>
@@ -6012,7 +6004,7 @@
       <c r="GT17" s="20"/>
       <c r="GU17" s="20"/>
       <c r="GV17" s="20"/>
-      <c r="GW17" s="99"/>
+      <c r="GW17" s="102"/>
     </row>
     <row r="18" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A18" s="59" t="s">
@@ -6046,14 +6038,14 @@
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="21"/>
-      <c r="AB18" s="100"/>
-      <c r="AC18" s="100"/>
-      <c r="AD18" s="100"/>
-      <c r="AE18" s="100"/>
-      <c r="AF18" s="100"/>
-      <c r="AG18" s="100"/>
-      <c r="AH18" s="100"/>
-      <c r="AI18" s="100"/>
+      <c r="AB18" s="103"/>
+      <c r="AC18" s="103"/>
+      <c r="AD18" s="103"/>
+      <c r="AE18" s="103"/>
+      <c r="AF18" s="103"/>
+      <c r="AG18" s="103"/>
+      <c r="AH18" s="103"/>
+      <c r="AI18" s="103"/>
       <c r="AJ18" s="19"/>
       <c r="AK18" s="20"/>
       <c r="AL18" s="20"/>
@@ -6102,14 +6094,14 @@
       <c r="CC18" s="20"/>
       <c r="CD18" s="20"/>
       <c r="CE18" s="21"/>
-      <c r="CF18" s="100"/>
-      <c r="CG18" s="100"/>
-      <c r="CH18" s="100"/>
-      <c r="CI18" s="100"/>
-      <c r="CJ18" s="100"/>
-      <c r="CK18" s="100"/>
-      <c r="CL18" s="100"/>
-      <c r="CM18" s="100"/>
+      <c r="CF18" s="103"/>
+      <c r="CG18" s="103"/>
+      <c r="CH18" s="103"/>
+      <c r="CI18" s="103"/>
+      <c r="CJ18" s="103"/>
+      <c r="CK18" s="103"/>
+      <c r="CL18" s="103"/>
+      <c r="CM18" s="103"/>
       <c r="CN18" s="19"/>
       <c r="CO18" s="20"/>
       <c r="CP18" s="20"/>
@@ -6178,14 +6170,14 @@
       <c r="EO18" s="20"/>
       <c r="EP18" s="20"/>
       <c r="EQ18" s="21"/>
-      <c r="ER18" s="100"/>
-      <c r="ES18" s="100"/>
-      <c r="ET18" s="100"/>
-      <c r="EU18" s="100"/>
-      <c r="EV18" s="100"/>
-      <c r="EW18" s="100"/>
-      <c r="EX18" s="100"/>
-      <c r="EY18" s="100"/>
+      <c r="ER18" s="103"/>
+      <c r="ES18" s="103"/>
+      <c r="ET18" s="103"/>
+      <c r="EU18" s="103"/>
+      <c r="EV18" s="103"/>
+      <c r="EW18" s="103"/>
+      <c r="EX18" s="103"/>
+      <c r="EY18" s="103"/>
       <c r="EZ18" s="19"/>
       <c r="FA18" s="20"/>
       <c r="FB18" s="20"/>
@@ -6235,7 +6227,7 @@
       <c r="GT18" s="20"/>
       <c r="GU18" s="20"/>
       <c r="GV18" s="20"/>
-      <c r="GW18" s="99"/>
+      <c r="GW18" s="102"/>
     </row>
     <row r="19" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A19" s="60" t="s">
@@ -6269,14 +6261,14 @@
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="21"/>
-      <c r="AB19" s="100"/>
-      <c r="AC19" s="100"/>
-      <c r="AD19" s="100"/>
-      <c r="AE19" s="100"/>
-      <c r="AF19" s="100"/>
-      <c r="AG19" s="100"/>
-      <c r="AH19" s="100"/>
-      <c r="AI19" s="100"/>
+      <c r="AB19" s="103"/>
+      <c r="AC19" s="103"/>
+      <c r="AD19" s="103"/>
+      <c r="AE19" s="103"/>
+      <c r="AF19" s="103"/>
+      <c r="AG19" s="103"/>
+      <c r="AH19" s="103"/>
+      <c r="AI19" s="103"/>
       <c r="AJ19" s="19"/>
       <c r="AK19" s="20"/>
       <c r="AL19" s="20"/>
@@ -6325,14 +6317,14 @@
       <c r="CC19" s="20"/>
       <c r="CD19" s="20"/>
       <c r="CE19" s="21"/>
-      <c r="CF19" s="100"/>
-      <c r="CG19" s="100"/>
-      <c r="CH19" s="100"/>
-      <c r="CI19" s="100"/>
-      <c r="CJ19" s="100"/>
-      <c r="CK19" s="100"/>
-      <c r="CL19" s="100"/>
-      <c r="CM19" s="100"/>
+      <c r="CF19" s="103"/>
+      <c r="CG19" s="103"/>
+      <c r="CH19" s="103"/>
+      <c r="CI19" s="103"/>
+      <c r="CJ19" s="103"/>
+      <c r="CK19" s="103"/>
+      <c r="CL19" s="103"/>
+      <c r="CM19" s="103"/>
       <c r="CN19" s="19"/>
       <c r="CO19" s="20"/>
       <c r="CP19" s="20"/>
@@ -6391,14 +6383,14 @@
       <c r="EO19" s="20"/>
       <c r="EP19" s="20"/>
       <c r="EQ19" s="21"/>
-      <c r="ER19" s="100"/>
-      <c r="ES19" s="100"/>
-      <c r="ET19" s="100"/>
-      <c r="EU19" s="100"/>
-      <c r="EV19" s="100"/>
-      <c r="EW19" s="100"/>
-      <c r="EX19" s="100"/>
-      <c r="EY19" s="100"/>
+      <c r="ER19" s="103"/>
+      <c r="ES19" s="103"/>
+      <c r="ET19" s="103"/>
+      <c r="EU19" s="103"/>
+      <c r="EV19" s="103"/>
+      <c r="EW19" s="103"/>
+      <c r="EX19" s="103"/>
+      <c r="EY19" s="103"/>
       <c r="EZ19" s="19"/>
       <c r="FA19" s="20"/>
       <c r="FB19" s="20"/>
@@ -6448,13 +6440,13 @@
       <c r="GT19" s="20"/>
       <c r="GU19" s="20"/>
       <c r="GV19" s="20"/>
-      <c r="GW19" s="99"/>
+      <c r="GW19" s="102"/>
     </row>
     <row r="20" spans="1:205" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="95"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="33"/>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
@@ -6480,14 +6472,14 @@
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="21"/>
-      <c r="AB20" s="100"/>
-      <c r="AC20" s="100"/>
-      <c r="AD20" s="100"/>
-      <c r="AE20" s="100"/>
-      <c r="AF20" s="100"/>
-      <c r="AG20" s="100"/>
-      <c r="AH20" s="100"/>
-      <c r="AI20" s="100"/>
+      <c r="AB20" s="103"/>
+      <c r="AC20" s="103"/>
+      <c r="AD20" s="103"/>
+      <c r="AE20" s="103"/>
+      <c r="AF20" s="103"/>
+      <c r="AG20" s="103"/>
+      <c r="AH20" s="103"/>
+      <c r="AI20" s="103"/>
       <c r="AJ20" s="19"/>
       <c r="AK20" s="20"/>
       <c r="AL20" s="20"/>
@@ -6536,14 +6528,14 @@
       <c r="CC20" s="20"/>
       <c r="CD20" s="20"/>
       <c r="CE20" s="21"/>
-      <c r="CF20" s="100"/>
-      <c r="CG20" s="100"/>
-      <c r="CH20" s="100"/>
-      <c r="CI20" s="100"/>
-      <c r="CJ20" s="100"/>
-      <c r="CK20" s="100"/>
-      <c r="CL20" s="100"/>
-      <c r="CM20" s="100"/>
+      <c r="CF20" s="103"/>
+      <c r="CG20" s="103"/>
+      <c r="CH20" s="103"/>
+      <c r="CI20" s="103"/>
+      <c r="CJ20" s="103"/>
+      <c r="CK20" s="103"/>
+      <c r="CL20" s="103"/>
+      <c r="CM20" s="103"/>
       <c r="CN20" s="19"/>
       <c r="CO20" s="20"/>
       <c r="CP20" s="20"/>
@@ -6600,14 +6592,14 @@
       <c r="EO20" s="20"/>
       <c r="EP20" s="20"/>
       <c r="EQ20" s="21"/>
-      <c r="ER20" s="100"/>
-      <c r="ES20" s="100"/>
-      <c r="ET20" s="100"/>
-      <c r="EU20" s="100"/>
-      <c r="EV20" s="100"/>
-      <c r="EW20" s="100"/>
-      <c r="EX20" s="100"/>
-      <c r="EY20" s="100"/>
+      <c r="ER20" s="103"/>
+      <c r="ES20" s="103"/>
+      <c r="ET20" s="103"/>
+      <c r="EU20" s="103"/>
+      <c r="EV20" s="103"/>
+      <c r="EW20" s="103"/>
+      <c r="EX20" s="103"/>
+      <c r="EY20" s="103"/>
       <c r="EZ20" s="19"/>
       <c r="FA20" s="20"/>
       <c r="FB20" s="20"/>
@@ -6657,7 +6649,7 @@
       <c r="GT20" s="20"/>
       <c r="GU20" s="20"/>
       <c r="GV20" s="20"/>
-      <c r="GW20" s="99"/>
+      <c r="GW20" s="102"/>
     </row>
     <row r="21" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A21" s="64" t="s">
@@ -6691,14 +6683,14 @@
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="21"/>
-      <c r="AB21" s="100"/>
-      <c r="AC21" s="100"/>
-      <c r="AD21" s="100"/>
-      <c r="AE21" s="100"/>
-      <c r="AF21" s="100"/>
-      <c r="AG21" s="100"/>
-      <c r="AH21" s="100"/>
-      <c r="AI21" s="100"/>
+      <c r="AB21" s="103"/>
+      <c r="AC21" s="103"/>
+      <c r="AD21" s="103"/>
+      <c r="AE21" s="103"/>
+      <c r="AF21" s="103"/>
+      <c r="AG21" s="103"/>
+      <c r="AH21" s="103"/>
+      <c r="AI21" s="103"/>
       <c r="AJ21" s="19"/>
       <c r="AK21" s="20"/>
       <c r="AL21" s="20"/>
@@ -6747,14 +6739,14 @@
       <c r="CC21" s="20"/>
       <c r="CD21" s="20"/>
       <c r="CE21" s="21"/>
-      <c r="CF21" s="100"/>
-      <c r="CG21" s="100"/>
-      <c r="CH21" s="100"/>
-      <c r="CI21" s="100"/>
-      <c r="CJ21" s="100"/>
-      <c r="CK21" s="100"/>
-      <c r="CL21" s="100"/>
-      <c r="CM21" s="100"/>
+      <c r="CF21" s="103"/>
+      <c r="CG21" s="103"/>
+      <c r="CH21" s="103"/>
+      <c r="CI21" s="103"/>
+      <c r="CJ21" s="103"/>
+      <c r="CK21" s="103"/>
+      <c r="CL21" s="103"/>
+      <c r="CM21" s="103"/>
       <c r="CN21" s="19"/>
       <c r="CO21" s="20"/>
       <c r="CP21" s="20"/>
@@ -6813,14 +6805,14 @@
       <c r="EO21" s="20"/>
       <c r="EP21" s="20"/>
       <c r="EQ21" s="21"/>
-      <c r="ER21" s="100"/>
-      <c r="ES21" s="100"/>
-      <c r="ET21" s="100"/>
-      <c r="EU21" s="100"/>
-      <c r="EV21" s="100"/>
-      <c r="EW21" s="100"/>
-      <c r="EX21" s="100"/>
-      <c r="EY21" s="100"/>
+      <c r="ER21" s="103"/>
+      <c r="ES21" s="103"/>
+      <c r="ET21" s="103"/>
+      <c r="EU21" s="103"/>
+      <c r="EV21" s="103"/>
+      <c r="EW21" s="103"/>
+      <c r="EX21" s="103"/>
+      <c r="EY21" s="103"/>
       <c r="EZ21" s="19"/>
       <c r="FA21" s="20"/>
       <c r="FB21" s="20"/>
@@ -6870,7 +6862,7 @@
       <c r="GT21" s="20"/>
       <c r="GU21" s="20"/>
       <c r="GV21" s="20"/>
-      <c r="GW21" s="99"/>
+      <c r="GW21" s="102"/>
     </row>
     <row r="22" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A22" s="68" t="s">
@@ -6904,14 +6896,14 @@
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="21"/>
-      <c r="AB22" s="100"/>
-      <c r="AC22" s="100"/>
-      <c r="AD22" s="100"/>
-      <c r="AE22" s="100"/>
-      <c r="AF22" s="100"/>
-      <c r="AG22" s="100"/>
-      <c r="AH22" s="100"/>
-      <c r="AI22" s="100"/>
+      <c r="AB22" s="103"/>
+      <c r="AC22" s="103"/>
+      <c r="AD22" s="103"/>
+      <c r="AE22" s="103"/>
+      <c r="AF22" s="103"/>
+      <c r="AG22" s="103"/>
+      <c r="AH22" s="103"/>
+      <c r="AI22" s="103"/>
       <c r="AJ22" s="19"/>
       <c r="AK22" s="20"/>
       <c r="AL22" s="20"/>
@@ -6960,14 +6952,14 @@
       <c r="CC22" s="20"/>
       <c r="CD22" s="20"/>
       <c r="CE22" s="21"/>
-      <c r="CF22" s="100"/>
-      <c r="CG22" s="100"/>
-      <c r="CH22" s="100"/>
-      <c r="CI22" s="100"/>
-      <c r="CJ22" s="100"/>
-      <c r="CK22" s="100"/>
-      <c r="CL22" s="100"/>
-      <c r="CM22" s="100"/>
+      <c r="CF22" s="103"/>
+      <c r="CG22" s="103"/>
+      <c r="CH22" s="103"/>
+      <c r="CI22" s="103"/>
+      <c r="CJ22" s="103"/>
+      <c r="CK22" s="103"/>
+      <c r="CL22" s="103"/>
+      <c r="CM22" s="103"/>
       <c r="CN22" s="19"/>
       <c r="CO22" s="20"/>
       <c r="CP22" s="20"/>
@@ -7030,14 +7022,14 @@
       <c r="EO22" s="20"/>
       <c r="EP22" s="20"/>
       <c r="EQ22" s="21"/>
-      <c r="ER22" s="100"/>
-      <c r="ES22" s="100"/>
-      <c r="ET22" s="100"/>
-      <c r="EU22" s="100"/>
-      <c r="EV22" s="100"/>
-      <c r="EW22" s="100"/>
-      <c r="EX22" s="100"/>
-      <c r="EY22" s="100"/>
+      <c r="ER22" s="103"/>
+      <c r="ES22" s="103"/>
+      <c r="ET22" s="103"/>
+      <c r="EU22" s="103"/>
+      <c r="EV22" s="103"/>
+      <c r="EW22" s="103"/>
+      <c r="EX22" s="103"/>
+      <c r="EY22" s="103"/>
       <c r="EZ22" s="19"/>
       <c r="FA22" s="20"/>
       <c r="FB22" s="20"/>
@@ -7087,7 +7079,7 @@
       <c r="GT22" s="20"/>
       <c r="GU22" s="20"/>
       <c r="GV22" s="20"/>
-      <c r="GW22" s="99"/>
+      <c r="GW22" s="102"/>
     </row>
     <row r="23" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A23" s="68" t="s">
@@ -7121,14 +7113,14 @@
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="21"/>
-      <c r="AB23" s="100"/>
-      <c r="AC23" s="100"/>
-      <c r="AD23" s="100"/>
-      <c r="AE23" s="100"/>
-      <c r="AF23" s="100"/>
-      <c r="AG23" s="100"/>
-      <c r="AH23" s="100"/>
-      <c r="AI23" s="100"/>
+      <c r="AB23" s="103"/>
+      <c r="AC23" s="103"/>
+      <c r="AD23" s="103"/>
+      <c r="AE23" s="103"/>
+      <c r="AF23" s="103"/>
+      <c r="AG23" s="103"/>
+      <c r="AH23" s="103"/>
+      <c r="AI23" s="103"/>
       <c r="AJ23" s="19"/>
       <c r="AK23" s="20"/>
       <c r="AL23" s="20"/>
@@ -7177,14 +7169,14 @@
       <c r="CC23" s="20"/>
       <c r="CD23" s="20"/>
       <c r="CE23" s="21"/>
-      <c r="CF23" s="100"/>
-      <c r="CG23" s="100"/>
-      <c r="CH23" s="100"/>
-      <c r="CI23" s="100"/>
-      <c r="CJ23" s="100"/>
-      <c r="CK23" s="100"/>
-      <c r="CL23" s="100"/>
-      <c r="CM23" s="100"/>
+      <c r="CF23" s="103"/>
+      <c r="CG23" s="103"/>
+      <c r="CH23" s="103"/>
+      <c r="CI23" s="103"/>
+      <c r="CJ23" s="103"/>
+      <c r="CK23" s="103"/>
+      <c r="CL23" s="103"/>
+      <c r="CM23" s="103"/>
       <c r="CN23" s="19"/>
       <c r="CO23" s="20"/>
       <c r="CP23" s="20"/>
@@ -7243,14 +7235,14 @@
       <c r="EO23" s="20"/>
       <c r="EP23" s="20"/>
       <c r="EQ23" s="21"/>
-      <c r="ER23" s="100"/>
-      <c r="ES23" s="100"/>
-      <c r="ET23" s="100"/>
-      <c r="EU23" s="100"/>
-      <c r="EV23" s="100"/>
-      <c r="EW23" s="100"/>
-      <c r="EX23" s="100"/>
-      <c r="EY23" s="100"/>
+      <c r="ER23" s="103"/>
+      <c r="ES23" s="103"/>
+      <c r="ET23" s="103"/>
+      <c r="EU23" s="103"/>
+      <c r="EV23" s="103"/>
+      <c r="EW23" s="103"/>
+      <c r="EX23" s="103"/>
+      <c r="EY23" s="103"/>
       <c r="EZ23" s="19"/>
       <c r="FA23" s="20"/>
       <c r="FB23" s="20"/>
@@ -7300,11 +7292,11 @@
       <c r="GT23" s="20"/>
       <c r="GU23" s="20"/>
       <c r="GV23" s="20"/>
-      <c r="GW23" s="99"/>
+      <c r="GW23" s="102"/>
     </row>
     <row r="24" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A24" s="68" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24" s="51" t="s">
         <v>22</v>
@@ -7334,14 +7326,14 @@
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="21"/>
-      <c r="AB24" s="100"/>
-      <c r="AC24" s="100"/>
-      <c r="AD24" s="100"/>
-      <c r="AE24" s="100"/>
-      <c r="AF24" s="100"/>
-      <c r="AG24" s="100"/>
-      <c r="AH24" s="100"/>
-      <c r="AI24" s="100"/>
+      <c r="AB24" s="103"/>
+      <c r="AC24" s="103"/>
+      <c r="AD24" s="103"/>
+      <c r="AE24" s="103"/>
+      <c r="AF24" s="103"/>
+      <c r="AG24" s="103"/>
+      <c r="AH24" s="103"/>
+      <c r="AI24" s="103"/>
       <c r="AJ24" s="19"/>
       <c r="AK24" s="20"/>
       <c r="AL24" s="20"/>
@@ -7390,14 +7382,14 @@
       <c r="CC24" s="20"/>
       <c r="CD24" s="20"/>
       <c r="CE24" s="21"/>
-      <c r="CF24" s="100"/>
-      <c r="CG24" s="100"/>
-      <c r="CH24" s="100"/>
-      <c r="CI24" s="100"/>
-      <c r="CJ24" s="100"/>
-      <c r="CK24" s="100"/>
-      <c r="CL24" s="100"/>
-      <c r="CM24" s="100"/>
+      <c r="CF24" s="103"/>
+      <c r="CG24" s="103"/>
+      <c r="CH24" s="103"/>
+      <c r="CI24" s="103"/>
+      <c r="CJ24" s="103"/>
+      <c r="CK24" s="103"/>
+      <c r="CL24" s="103"/>
+      <c r="CM24" s="103"/>
       <c r="CN24" s="19"/>
       <c r="CO24" s="20"/>
       <c r="CP24" s="20"/>
@@ -7460,14 +7452,14 @@
       <c r="EO24" s="20"/>
       <c r="EP24" s="20"/>
       <c r="EQ24" s="21"/>
-      <c r="ER24" s="100"/>
-      <c r="ES24" s="100"/>
-      <c r="ET24" s="100"/>
-      <c r="EU24" s="100"/>
-      <c r="EV24" s="100"/>
-      <c r="EW24" s="100"/>
-      <c r="EX24" s="100"/>
-      <c r="EY24" s="100"/>
+      <c r="ER24" s="103"/>
+      <c r="ES24" s="103"/>
+      <c r="ET24" s="103"/>
+      <c r="EU24" s="103"/>
+      <c r="EV24" s="103"/>
+      <c r="EW24" s="103"/>
+      <c r="EX24" s="103"/>
+      <c r="EY24" s="103"/>
       <c r="EZ24" s="19"/>
       <c r="FA24" s="20"/>
       <c r="FB24" s="20"/>
@@ -7517,7 +7509,7 @@
       <c r="GT24" s="20"/>
       <c r="GU24" s="20"/>
       <c r="GV24" s="20"/>
-      <c r="GW24" s="99"/>
+      <c r="GW24" s="102"/>
     </row>
     <row r="25" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A25" s="70" t="s">
@@ -7551,14 +7543,14 @@
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
       <c r="AA25" s="21"/>
-      <c r="AB25" s="100"/>
-      <c r="AC25" s="100"/>
-      <c r="AD25" s="100"/>
-      <c r="AE25" s="100"/>
-      <c r="AF25" s="100"/>
-      <c r="AG25" s="100"/>
-      <c r="AH25" s="100"/>
-      <c r="AI25" s="100"/>
+      <c r="AB25" s="103"/>
+      <c r="AC25" s="103"/>
+      <c r="AD25" s="103"/>
+      <c r="AE25" s="103"/>
+      <c r="AF25" s="103"/>
+      <c r="AG25" s="103"/>
+      <c r="AH25" s="103"/>
+      <c r="AI25" s="103"/>
       <c r="AJ25" s="19"/>
       <c r="AK25" s="20"/>
       <c r="AL25" s="20"/>
@@ -7607,14 +7599,14 @@
       <c r="CC25" s="20"/>
       <c r="CD25" s="20"/>
       <c r="CE25" s="21"/>
-      <c r="CF25" s="100"/>
-      <c r="CG25" s="100"/>
-      <c r="CH25" s="100"/>
-      <c r="CI25" s="100"/>
-      <c r="CJ25" s="100"/>
-      <c r="CK25" s="100"/>
-      <c r="CL25" s="100"/>
-      <c r="CM25" s="100"/>
+      <c r="CF25" s="103"/>
+      <c r="CG25" s="103"/>
+      <c r="CH25" s="103"/>
+      <c r="CI25" s="103"/>
+      <c r="CJ25" s="103"/>
+      <c r="CK25" s="103"/>
+      <c r="CL25" s="103"/>
+      <c r="CM25" s="103"/>
       <c r="CN25" s="19"/>
       <c r="CO25" s="20"/>
       <c r="CP25" s="20"/>
@@ -7677,14 +7669,14 @@
       <c r="EO25" s="20"/>
       <c r="EP25" s="20"/>
       <c r="EQ25" s="21"/>
-      <c r="ER25" s="100"/>
-      <c r="ES25" s="100"/>
-      <c r="ET25" s="100"/>
-      <c r="EU25" s="100"/>
-      <c r="EV25" s="100"/>
-      <c r="EW25" s="100"/>
-      <c r="EX25" s="100"/>
-      <c r="EY25" s="100"/>
+      <c r="ER25" s="103"/>
+      <c r="ES25" s="103"/>
+      <c r="ET25" s="103"/>
+      <c r="EU25" s="103"/>
+      <c r="EV25" s="103"/>
+      <c r="EW25" s="103"/>
+      <c r="EX25" s="103"/>
+      <c r="EY25" s="103"/>
       <c r="EZ25" s="19"/>
       <c r="FA25" s="20"/>
       <c r="FB25" s="20"/>
@@ -7734,11 +7726,11 @@
       <c r="GT25" s="20"/>
       <c r="GU25" s="20"/>
       <c r="GV25" s="20"/>
-      <c r="GW25" s="99"/>
+      <c r="GW25" s="102"/>
     </row>
     <row r="26" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A26" s="70" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B26" s="51" t="s">
         <v>22</v>
@@ -7768,14 +7760,14 @@
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="21"/>
-      <c r="AB26" s="100"/>
-      <c r="AC26" s="100"/>
-      <c r="AD26" s="100"/>
-      <c r="AE26" s="100"/>
-      <c r="AF26" s="100"/>
-      <c r="AG26" s="100"/>
-      <c r="AH26" s="100"/>
-      <c r="AI26" s="100"/>
+      <c r="AB26" s="103"/>
+      <c r="AC26" s="103"/>
+      <c r="AD26" s="103"/>
+      <c r="AE26" s="103"/>
+      <c r="AF26" s="103"/>
+      <c r="AG26" s="103"/>
+      <c r="AH26" s="103"/>
+      <c r="AI26" s="103"/>
       <c r="AJ26" s="19"/>
       <c r="AK26" s="20"/>
       <c r="AL26" s="20"/>
@@ -7824,14 +7816,14 @@
       <c r="CC26" s="20"/>
       <c r="CD26" s="20"/>
       <c r="CE26" s="21"/>
-      <c r="CF26" s="100"/>
-      <c r="CG26" s="100"/>
-      <c r="CH26" s="100"/>
-      <c r="CI26" s="100"/>
-      <c r="CJ26" s="100"/>
-      <c r="CK26" s="100"/>
-      <c r="CL26" s="100"/>
-      <c r="CM26" s="100"/>
+      <c r="CF26" s="103"/>
+      <c r="CG26" s="103"/>
+      <c r="CH26" s="103"/>
+      <c r="CI26" s="103"/>
+      <c r="CJ26" s="103"/>
+      <c r="CK26" s="103"/>
+      <c r="CL26" s="103"/>
+      <c r="CM26" s="103"/>
       <c r="CN26" s="19"/>
       <c r="CO26" s="20"/>
       <c r="CP26" s="20"/>
@@ -7894,14 +7886,14 @@
       <c r="EO26" s="20"/>
       <c r="EP26" s="20"/>
       <c r="EQ26" s="21"/>
-      <c r="ER26" s="100"/>
-      <c r="ES26" s="100"/>
-      <c r="ET26" s="100"/>
-      <c r="EU26" s="100"/>
-      <c r="EV26" s="100"/>
-      <c r="EW26" s="100"/>
-      <c r="EX26" s="100"/>
-      <c r="EY26" s="100"/>
+      <c r="ER26" s="103"/>
+      <c r="ES26" s="103"/>
+      <c r="ET26" s="103"/>
+      <c r="EU26" s="103"/>
+      <c r="EV26" s="103"/>
+      <c r="EW26" s="103"/>
+      <c r="EX26" s="103"/>
+      <c r="EY26" s="103"/>
       <c r="EZ26" s="19"/>
       <c r="FA26" s="20"/>
       <c r="FB26" s="20"/>
@@ -7951,7 +7943,7 @@
       <c r="GT26" s="20"/>
       <c r="GU26" s="20"/>
       <c r="GV26" s="20"/>
-      <c r="GW26" s="99"/>
+      <c r="GW26" s="102"/>
     </row>
     <row r="27" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A27" s="68" t="s">
@@ -7985,14 +7977,14 @@
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="21"/>
-      <c r="AB27" s="100"/>
-      <c r="AC27" s="100"/>
-      <c r="AD27" s="100"/>
-      <c r="AE27" s="100"/>
-      <c r="AF27" s="100"/>
-      <c r="AG27" s="100"/>
-      <c r="AH27" s="100"/>
-      <c r="AI27" s="100"/>
+      <c r="AB27" s="103"/>
+      <c r="AC27" s="103"/>
+      <c r="AD27" s="103"/>
+      <c r="AE27" s="103"/>
+      <c r="AF27" s="103"/>
+      <c r="AG27" s="103"/>
+      <c r="AH27" s="103"/>
+      <c r="AI27" s="103"/>
       <c r="AJ27" s="19"/>
       <c r="AK27" s="20"/>
       <c r="AL27" s="20"/>
@@ -8041,14 +8033,14 @@
       <c r="CC27" s="20"/>
       <c r="CD27" s="20"/>
       <c r="CE27" s="21"/>
-      <c r="CF27" s="100"/>
-      <c r="CG27" s="100"/>
-      <c r="CH27" s="100"/>
-      <c r="CI27" s="100"/>
-      <c r="CJ27" s="100"/>
-      <c r="CK27" s="100"/>
-      <c r="CL27" s="100"/>
-      <c r="CM27" s="100"/>
+      <c r="CF27" s="103"/>
+      <c r="CG27" s="103"/>
+      <c r="CH27" s="103"/>
+      <c r="CI27" s="103"/>
+      <c r="CJ27" s="103"/>
+      <c r="CK27" s="103"/>
+      <c r="CL27" s="103"/>
+      <c r="CM27" s="103"/>
       <c r="CN27" s="19"/>
       <c r="CO27" s="20"/>
       <c r="CP27" s="20"/>
@@ -8115,14 +8107,14 @@
       <c r="EO27" s="20"/>
       <c r="EP27" s="20"/>
       <c r="EQ27" s="21"/>
-      <c r="ER27" s="100"/>
-      <c r="ES27" s="100"/>
-      <c r="ET27" s="100"/>
-      <c r="EU27" s="100"/>
-      <c r="EV27" s="100"/>
-      <c r="EW27" s="100"/>
-      <c r="EX27" s="100"/>
-      <c r="EY27" s="100"/>
+      <c r="ER27" s="103"/>
+      <c r="ES27" s="103"/>
+      <c r="ET27" s="103"/>
+      <c r="EU27" s="103"/>
+      <c r="EV27" s="103"/>
+      <c r="EW27" s="103"/>
+      <c r="EX27" s="103"/>
+      <c r="EY27" s="103"/>
       <c r="EZ27" s="19"/>
       <c r="FA27" s="20"/>
       <c r="FB27" s="20"/>
@@ -8172,7 +8164,7 @@
       <c r="GT27" s="20"/>
       <c r="GU27" s="20"/>
       <c r="GV27" s="20"/>
-      <c r="GW27" s="99"/>
+      <c r="GW27" s="102"/>
     </row>
     <row r="28" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A28" s="70" t="s">
@@ -8206,14 +8198,14 @@
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="21"/>
-      <c r="AB28" s="100"/>
-      <c r="AC28" s="100"/>
-      <c r="AD28" s="100"/>
-      <c r="AE28" s="100"/>
-      <c r="AF28" s="100"/>
-      <c r="AG28" s="100"/>
-      <c r="AH28" s="100"/>
-      <c r="AI28" s="100"/>
+      <c r="AB28" s="103"/>
+      <c r="AC28" s="103"/>
+      <c r="AD28" s="103"/>
+      <c r="AE28" s="103"/>
+      <c r="AF28" s="103"/>
+      <c r="AG28" s="103"/>
+      <c r="AH28" s="103"/>
+      <c r="AI28" s="103"/>
       <c r="AJ28" s="19"/>
       <c r="AK28" s="20"/>
       <c r="AL28" s="20"/>
@@ -8262,14 +8254,14 @@
       <c r="CC28" s="20"/>
       <c r="CD28" s="20"/>
       <c r="CE28" s="21"/>
-      <c r="CF28" s="100"/>
-      <c r="CG28" s="100"/>
-      <c r="CH28" s="100"/>
-      <c r="CI28" s="100"/>
-      <c r="CJ28" s="100"/>
-      <c r="CK28" s="100"/>
-      <c r="CL28" s="100"/>
-      <c r="CM28" s="100"/>
+      <c r="CF28" s="103"/>
+      <c r="CG28" s="103"/>
+      <c r="CH28" s="103"/>
+      <c r="CI28" s="103"/>
+      <c r="CJ28" s="103"/>
+      <c r="CK28" s="103"/>
+      <c r="CL28" s="103"/>
+      <c r="CM28" s="103"/>
       <c r="CN28" s="19"/>
       <c r="CO28" s="20"/>
       <c r="CP28" s="20"/>
@@ -8332,14 +8324,14 @@
       <c r="EQ28" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="ER28" s="100"/>
-      <c r="ES28" s="100"/>
-      <c r="ET28" s="100"/>
-      <c r="EU28" s="100"/>
-      <c r="EV28" s="100"/>
-      <c r="EW28" s="100"/>
-      <c r="EX28" s="100"/>
-      <c r="EY28" s="100"/>
+      <c r="ER28" s="103"/>
+      <c r="ES28" s="103"/>
+      <c r="ET28" s="103"/>
+      <c r="EU28" s="103"/>
+      <c r="EV28" s="103"/>
+      <c r="EW28" s="103"/>
+      <c r="EX28" s="103"/>
+      <c r="EY28" s="103"/>
       <c r="EZ28" s="19" t="s">
         <v>17</v>
       </c>
@@ -8391,7 +8383,7 @@
       <c r="GT28" s="20"/>
       <c r="GU28" s="20"/>
       <c r="GV28" s="20"/>
-      <c r="GW28" s="99"/>
+      <c r="GW28" s="102"/>
     </row>
     <row r="29" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A29" s="70" t="s">
@@ -8425,14 +8417,14 @@
       <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
       <c r="AA29" s="21"/>
-      <c r="AB29" s="100"/>
-      <c r="AC29" s="100"/>
-      <c r="AD29" s="100"/>
-      <c r="AE29" s="100"/>
-      <c r="AF29" s="100"/>
-      <c r="AG29" s="100"/>
-      <c r="AH29" s="100"/>
-      <c r="AI29" s="100"/>
+      <c r="AB29" s="103"/>
+      <c r="AC29" s="103"/>
+      <c r="AD29" s="103"/>
+      <c r="AE29" s="103"/>
+      <c r="AF29" s="103"/>
+      <c r="AG29" s="103"/>
+      <c r="AH29" s="103"/>
+      <c r="AI29" s="103"/>
       <c r="AJ29" s="19"/>
       <c r="AK29" s="20"/>
       <c r="AL29" s="20"/>
@@ -8481,14 +8473,14 @@
       <c r="CC29" s="20"/>
       <c r="CD29" s="20"/>
       <c r="CE29" s="21"/>
-      <c r="CF29" s="100"/>
-      <c r="CG29" s="100"/>
-      <c r="CH29" s="100"/>
-      <c r="CI29" s="100"/>
-      <c r="CJ29" s="100"/>
-      <c r="CK29" s="100"/>
-      <c r="CL29" s="100"/>
-      <c r="CM29" s="100"/>
+      <c r="CF29" s="103"/>
+      <c r="CG29" s="103"/>
+      <c r="CH29" s="103"/>
+      <c r="CI29" s="103"/>
+      <c r="CJ29" s="103"/>
+      <c r="CK29" s="103"/>
+      <c r="CL29" s="103"/>
+      <c r="CM29" s="103"/>
       <c r="CN29" s="19"/>
       <c r="CO29" s="20"/>
       <c r="CP29" s="20"/>
@@ -8545,14 +8537,14 @@
       <c r="EO29" s="66"/>
       <c r="EP29" s="66"/>
       <c r="EQ29" s="67"/>
-      <c r="ER29" s="100"/>
-      <c r="ES29" s="100"/>
-      <c r="ET29" s="100"/>
-      <c r="EU29" s="100"/>
-      <c r="EV29" s="100"/>
-      <c r="EW29" s="100"/>
-      <c r="EX29" s="100"/>
-      <c r="EY29" s="100"/>
+      <c r="ER29" s="103"/>
+      <c r="ES29" s="103"/>
+      <c r="ET29" s="103"/>
+      <c r="EU29" s="103"/>
+      <c r="EV29" s="103"/>
+      <c r="EW29" s="103"/>
+      <c r="EX29" s="103"/>
+      <c r="EY29" s="103"/>
       <c r="EZ29" s="19"/>
       <c r="FA29" s="20" t="s">
         <v>17</v>
@@ -8612,7 +8604,7 @@
       <c r="GT29" s="20"/>
       <c r="GU29" s="20"/>
       <c r="GV29" s="20"/>
-      <c r="GW29" s="99"/>
+      <c r="GW29" s="102"/>
     </row>
     <row r="30" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A30" s="70" t="s">
@@ -8646,14 +8638,14 @@
       <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="21"/>
-      <c r="AB30" s="100"/>
-      <c r="AC30" s="100"/>
-      <c r="AD30" s="100"/>
-      <c r="AE30" s="100"/>
-      <c r="AF30" s="100"/>
-      <c r="AG30" s="100"/>
-      <c r="AH30" s="100"/>
-      <c r="AI30" s="100"/>
+      <c r="AB30" s="103"/>
+      <c r="AC30" s="103"/>
+      <c r="AD30" s="103"/>
+      <c r="AE30" s="103"/>
+      <c r="AF30" s="103"/>
+      <c r="AG30" s="103"/>
+      <c r="AH30" s="103"/>
+      <c r="AI30" s="103"/>
       <c r="AJ30" s="19"/>
       <c r="AK30" s="20"/>
       <c r="AL30" s="20"/>
@@ -8702,14 +8694,14 @@
       <c r="CC30" s="20"/>
       <c r="CD30" s="20"/>
       <c r="CE30" s="21"/>
-      <c r="CF30" s="100"/>
-      <c r="CG30" s="100"/>
-      <c r="CH30" s="100"/>
-      <c r="CI30" s="100"/>
-      <c r="CJ30" s="100"/>
-      <c r="CK30" s="100"/>
-      <c r="CL30" s="100"/>
-      <c r="CM30" s="100"/>
+      <c r="CF30" s="103"/>
+      <c r="CG30" s="103"/>
+      <c r="CH30" s="103"/>
+      <c r="CI30" s="103"/>
+      <c r="CJ30" s="103"/>
+      <c r="CK30" s="103"/>
+      <c r="CL30" s="103"/>
+      <c r="CM30" s="103"/>
       <c r="CN30" s="19"/>
       <c r="CO30" s="20"/>
       <c r="CP30" s="20"/>
@@ -8766,14 +8758,14 @@
       <c r="EO30" s="20"/>
       <c r="EP30" s="20"/>
       <c r="EQ30" s="20"/>
-      <c r="ER30" s="100"/>
-      <c r="ES30" s="100"/>
-      <c r="ET30" s="100"/>
-      <c r="EU30" s="100"/>
-      <c r="EV30" s="100"/>
-      <c r="EW30" s="100"/>
-      <c r="EX30" s="100"/>
-      <c r="EY30" s="100"/>
+      <c r="ER30" s="103"/>
+      <c r="ES30" s="103"/>
+      <c r="ET30" s="103"/>
+      <c r="EU30" s="103"/>
+      <c r="EV30" s="103"/>
+      <c r="EW30" s="103"/>
+      <c r="EX30" s="103"/>
+      <c r="EY30" s="103"/>
       <c r="EZ30" s="69"/>
       <c r="FA30" s="66"/>
       <c r="FB30" s="66"/>
@@ -8831,7 +8823,7 @@
       <c r="GT30" s="20"/>
       <c r="GU30" s="20"/>
       <c r="GV30" s="20"/>
-      <c r="GW30" s="99"/>
+      <c r="GW30" s="102"/>
     </row>
     <row r="31" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A31" s="70" t="s">
@@ -8863,14 +8855,14 @@
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="21"/>
-      <c r="AB31" s="100"/>
-      <c r="AC31" s="100"/>
-      <c r="AD31" s="100"/>
-      <c r="AE31" s="100"/>
-      <c r="AF31" s="100"/>
-      <c r="AG31" s="100"/>
-      <c r="AH31" s="100"/>
-      <c r="AI31" s="100"/>
+      <c r="AB31" s="103"/>
+      <c r="AC31" s="103"/>
+      <c r="AD31" s="103"/>
+      <c r="AE31" s="103"/>
+      <c r="AF31" s="103"/>
+      <c r="AG31" s="103"/>
+      <c r="AH31" s="103"/>
+      <c r="AI31" s="103"/>
       <c r="AJ31" s="19"/>
       <c r="AK31" s="20"/>
       <c r="AL31" s="20"/>
@@ -8919,14 +8911,14 @@
       <c r="CC31" s="20"/>
       <c r="CD31" s="20"/>
       <c r="CE31" s="21"/>
-      <c r="CF31" s="100"/>
-      <c r="CG31" s="100"/>
-      <c r="CH31" s="100"/>
-      <c r="CI31" s="100"/>
-      <c r="CJ31" s="100"/>
-      <c r="CK31" s="100"/>
-      <c r="CL31" s="100"/>
-      <c r="CM31" s="100"/>
+      <c r="CF31" s="103"/>
+      <c r="CG31" s="103"/>
+      <c r="CH31" s="103"/>
+      <c r="CI31" s="103"/>
+      <c r="CJ31" s="103"/>
+      <c r="CK31" s="103"/>
+      <c r="CL31" s="103"/>
+      <c r="CM31" s="103"/>
       <c r="CN31" s="19"/>
       <c r="CO31" s="20"/>
       <c r="CP31" s="20"/>
@@ -8983,14 +8975,14 @@
       <c r="EO31" s="20"/>
       <c r="EP31" s="20"/>
       <c r="EQ31" s="21"/>
-      <c r="ER31" s="100"/>
-      <c r="ES31" s="100"/>
-      <c r="ET31" s="100"/>
-      <c r="EU31" s="100"/>
-      <c r="EV31" s="100"/>
-      <c r="EW31" s="100"/>
-      <c r="EX31" s="100"/>
-      <c r="EY31" s="100"/>
+      <c r="ER31" s="103"/>
+      <c r="ES31" s="103"/>
+      <c r="ET31" s="103"/>
+      <c r="EU31" s="103"/>
+      <c r="EV31" s="103"/>
+      <c r="EW31" s="103"/>
+      <c r="EX31" s="103"/>
+      <c r="EY31" s="103"/>
       <c r="EZ31" s="19"/>
       <c r="FA31" s="20"/>
       <c r="FB31" s="20"/>
@@ -9040,11 +9032,11 @@
       <c r="GT31" s="20"/>
       <c r="GU31" s="20"/>
       <c r="GV31" s="20"/>
-      <c r="GW31" s="99"/>
+      <c r="GW31" s="102"/>
     </row>
     <row r="32" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A32" s="70" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B32" s="39" t="s">
         <v>15</v>
@@ -9074,14 +9066,14 @@
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="21"/>
-      <c r="AB32" s="100"/>
-      <c r="AC32" s="100"/>
-      <c r="AD32" s="100"/>
-      <c r="AE32" s="100"/>
-      <c r="AF32" s="100"/>
-      <c r="AG32" s="100"/>
-      <c r="AH32" s="100"/>
-      <c r="AI32" s="100"/>
+      <c r="AB32" s="103"/>
+      <c r="AC32" s="103"/>
+      <c r="AD32" s="103"/>
+      <c r="AE32" s="103"/>
+      <c r="AF32" s="103"/>
+      <c r="AG32" s="103"/>
+      <c r="AH32" s="103"/>
+      <c r="AI32" s="103"/>
       <c r="AJ32" s="19"/>
       <c r="AK32" s="20"/>
       <c r="AL32" s="20"/>
@@ -9130,14 +9122,14 @@
       <c r="CC32" s="20"/>
       <c r="CD32" s="20"/>
       <c r="CE32" s="21"/>
-      <c r="CF32" s="100"/>
-      <c r="CG32" s="100"/>
-      <c r="CH32" s="100"/>
-      <c r="CI32" s="100"/>
-      <c r="CJ32" s="100"/>
-      <c r="CK32" s="100"/>
-      <c r="CL32" s="100"/>
-      <c r="CM32" s="100"/>
+      <c r="CF32" s="103"/>
+      <c r="CG32" s="103"/>
+      <c r="CH32" s="103"/>
+      <c r="CI32" s="103"/>
+      <c r="CJ32" s="103"/>
+      <c r="CK32" s="103"/>
+      <c r="CL32" s="103"/>
+      <c r="CM32" s="103"/>
       <c r="CN32" s="19"/>
       <c r="CO32" s="20"/>
       <c r="CP32" s="20"/>
@@ -9194,14 +9186,14 @@
       <c r="EO32" s="20"/>
       <c r="EP32" s="20"/>
       <c r="EQ32" s="21"/>
-      <c r="ER32" s="100"/>
-      <c r="ES32" s="100"/>
-      <c r="ET32" s="100"/>
-      <c r="EU32" s="100"/>
-      <c r="EV32" s="100"/>
-      <c r="EW32" s="100"/>
-      <c r="EX32" s="100"/>
-      <c r="EY32" s="100"/>
+      <c r="ER32" s="103"/>
+      <c r="ES32" s="103"/>
+      <c r="ET32" s="103"/>
+      <c r="EU32" s="103"/>
+      <c r="EV32" s="103"/>
+      <c r="EW32" s="103"/>
+      <c r="EX32" s="103"/>
+      <c r="EY32" s="103"/>
       <c r="EZ32" s="19"/>
       <c r="FA32" s="20"/>
       <c r="FB32" s="20"/>
@@ -9215,7 +9207,9 @@
       <c r="FJ32" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="FK32" s="66"/>
+      <c r="FK32" s="66" t="s">
+        <v>17</v>
+      </c>
       <c r="FL32" s="20"/>
       <c r="FM32" s="20"/>
       <c r="FN32" s="20"/>
@@ -9253,11 +9247,11 @@
       <c r="GT32" s="20"/>
       <c r="GU32" s="20"/>
       <c r="GV32" s="20"/>
-      <c r="GW32" s="99"/>
+      <c r="GW32" s="102"/>
     </row>
     <row r="33" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A33" s="70" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B33" s="51"/>
       <c r="C33" s="40"/>
@@ -9285,14 +9279,14 @@
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="21"/>
-      <c r="AB33" s="100"/>
-      <c r="AC33" s="100"/>
-      <c r="AD33" s="100"/>
-      <c r="AE33" s="100"/>
-      <c r="AF33" s="100"/>
-      <c r="AG33" s="100"/>
-      <c r="AH33" s="100"/>
-      <c r="AI33" s="100"/>
+      <c r="AB33" s="103"/>
+      <c r="AC33" s="103"/>
+      <c r="AD33" s="103"/>
+      <c r="AE33" s="103"/>
+      <c r="AF33" s="103"/>
+      <c r="AG33" s="103"/>
+      <c r="AH33" s="103"/>
+      <c r="AI33" s="103"/>
       <c r="AJ33" s="19"/>
       <c r="AK33" s="20"/>
       <c r="AL33" s="20"/>
@@ -9341,14 +9335,14 @@
       <c r="CC33" s="20"/>
       <c r="CD33" s="20"/>
       <c r="CE33" s="21"/>
-      <c r="CF33" s="100"/>
-      <c r="CG33" s="100"/>
-      <c r="CH33" s="100"/>
-      <c r="CI33" s="100"/>
-      <c r="CJ33" s="100"/>
-      <c r="CK33" s="100"/>
-      <c r="CL33" s="100"/>
-      <c r="CM33" s="100"/>
+      <c r="CF33" s="103"/>
+      <c r="CG33" s="103"/>
+      <c r="CH33" s="103"/>
+      <c r="CI33" s="103"/>
+      <c r="CJ33" s="103"/>
+      <c r="CK33" s="103"/>
+      <c r="CL33" s="103"/>
+      <c r="CM33" s="103"/>
       <c r="CN33" s="19"/>
       <c r="CO33" s="20"/>
       <c r="CP33" s="20"/>
@@ -9405,14 +9399,14 @@
       <c r="EO33" s="20"/>
       <c r="EP33" s="20"/>
       <c r="EQ33" s="21"/>
-      <c r="ER33" s="100"/>
-      <c r="ES33" s="100"/>
-      <c r="ET33" s="100"/>
-      <c r="EU33" s="100"/>
-      <c r="EV33" s="100"/>
-      <c r="EW33" s="100"/>
-      <c r="EX33" s="100"/>
-      <c r="EY33" s="100"/>
+      <c r="ER33" s="103"/>
+      <c r="ES33" s="103"/>
+      <c r="ET33" s="103"/>
+      <c r="EU33" s="103"/>
+      <c r="EV33" s="103"/>
+      <c r="EW33" s="103"/>
+      <c r="EX33" s="103"/>
+      <c r="EY33" s="103"/>
       <c r="EZ33" s="19"/>
       <c r="FA33" s="20"/>
       <c r="FB33" s="20"/>
@@ -9462,11 +9456,11 @@
       <c r="GT33" s="20"/>
       <c r="GU33" s="20"/>
       <c r="GV33" s="20"/>
-      <c r="GW33" s="99"/>
+      <c r="GW33" s="102"/>
     </row>
     <row r="34" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A34" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B34" s="51"/>
       <c r="C34" s="40"/>
@@ -9494,14 +9488,14 @@
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="21"/>
-      <c r="AB34" s="100"/>
-      <c r="AC34" s="100"/>
-      <c r="AD34" s="100"/>
-      <c r="AE34" s="100"/>
-      <c r="AF34" s="100"/>
-      <c r="AG34" s="100"/>
-      <c r="AH34" s="100"/>
-      <c r="AI34" s="100"/>
+      <c r="AB34" s="103"/>
+      <c r="AC34" s="103"/>
+      <c r="AD34" s="103"/>
+      <c r="AE34" s="103"/>
+      <c r="AF34" s="103"/>
+      <c r="AG34" s="103"/>
+      <c r="AH34" s="103"/>
+      <c r="AI34" s="103"/>
       <c r="AJ34" s="19"/>
       <c r="AK34" s="20"/>
       <c r="AL34" s="20"/>
@@ -9550,14 +9544,14 @@
       <c r="CC34" s="20"/>
       <c r="CD34" s="20"/>
       <c r="CE34" s="21"/>
-      <c r="CF34" s="100"/>
-      <c r="CG34" s="100"/>
-      <c r="CH34" s="100"/>
-      <c r="CI34" s="100"/>
-      <c r="CJ34" s="100"/>
-      <c r="CK34" s="100"/>
-      <c r="CL34" s="100"/>
-      <c r="CM34" s="100"/>
+      <c r="CF34" s="103"/>
+      <c r="CG34" s="103"/>
+      <c r="CH34" s="103"/>
+      <c r="CI34" s="103"/>
+      <c r="CJ34" s="103"/>
+      <c r="CK34" s="103"/>
+      <c r="CL34" s="103"/>
+      <c r="CM34" s="103"/>
       <c r="CN34" s="19"/>
       <c r="CO34" s="20"/>
       <c r="CP34" s="20"/>
@@ -9614,14 +9608,14 @@
       <c r="EO34" s="20"/>
       <c r="EP34" s="20"/>
       <c r="EQ34" s="21"/>
-      <c r="ER34" s="100"/>
-      <c r="ES34" s="100"/>
-      <c r="ET34" s="100"/>
-      <c r="EU34" s="100"/>
-      <c r="EV34" s="100"/>
-      <c r="EW34" s="100"/>
-      <c r="EX34" s="100"/>
-      <c r="EY34" s="100"/>
+      <c r="ER34" s="103"/>
+      <c r="ES34" s="103"/>
+      <c r="ET34" s="103"/>
+      <c r="EU34" s="103"/>
+      <c r="EV34" s="103"/>
+      <c r="EW34" s="103"/>
+      <c r="EX34" s="103"/>
+      <c r="EY34" s="103"/>
       <c r="EZ34" s="19"/>
       <c r="FA34" s="20"/>
       <c r="FB34" s="20"/>
@@ -9671,11 +9665,11 @@
       <c r="GT34" s="20"/>
       <c r="GU34" s="20"/>
       <c r="GV34" s="20"/>
-      <c r="GW34" s="99"/>
+      <c r="GW34" s="102"/>
     </row>
     <row r="35" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A35" s="70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B35" s="51"/>
       <c r="C35" s="40"/>
@@ -9703,14 +9697,14 @@
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
       <c r="AA35" s="21"/>
-      <c r="AB35" s="100"/>
-      <c r="AC35" s="100"/>
-      <c r="AD35" s="100"/>
-      <c r="AE35" s="100"/>
-      <c r="AF35" s="100"/>
-      <c r="AG35" s="100"/>
-      <c r="AH35" s="100"/>
-      <c r="AI35" s="100"/>
+      <c r="AB35" s="103"/>
+      <c r="AC35" s="103"/>
+      <c r="AD35" s="103"/>
+      <c r="AE35" s="103"/>
+      <c r="AF35" s="103"/>
+      <c r="AG35" s="103"/>
+      <c r="AH35" s="103"/>
+      <c r="AI35" s="103"/>
       <c r="AJ35" s="19"/>
       <c r="AK35" s="20"/>
       <c r="AL35" s="20"/>
@@ -9759,14 +9753,14 @@
       <c r="CC35" s="20"/>
       <c r="CD35" s="20"/>
       <c r="CE35" s="21"/>
-      <c r="CF35" s="100"/>
-      <c r="CG35" s="100"/>
-      <c r="CH35" s="100"/>
-      <c r="CI35" s="100"/>
-      <c r="CJ35" s="100"/>
-      <c r="CK35" s="100"/>
-      <c r="CL35" s="100"/>
-      <c r="CM35" s="100"/>
+      <c r="CF35" s="103"/>
+      <c r="CG35" s="103"/>
+      <c r="CH35" s="103"/>
+      <c r="CI35" s="103"/>
+      <c r="CJ35" s="103"/>
+      <c r="CK35" s="103"/>
+      <c r="CL35" s="103"/>
+      <c r="CM35" s="103"/>
       <c r="CN35" s="19"/>
       <c r="CO35" s="20"/>
       <c r="CP35" s="20"/>
@@ -9823,14 +9817,14 @@
       <c r="EO35" s="20"/>
       <c r="EP35" s="20"/>
       <c r="EQ35" s="21"/>
-      <c r="ER35" s="100"/>
-      <c r="ES35" s="100"/>
-      <c r="ET35" s="100"/>
-      <c r="EU35" s="100"/>
-      <c r="EV35" s="100"/>
-      <c r="EW35" s="100"/>
-      <c r="EX35" s="100"/>
-      <c r="EY35" s="100"/>
+      <c r="ER35" s="103"/>
+      <c r="ES35" s="103"/>
+      <c r="ET35" s="103"/>
+      <c r="EU35" s="103"/>
+      <c r="EV35" s="103"/>
+      <c r="EW35" s="103"/>
+      <c r="EX35" s="103"/>
+      <c r="EY35" s="103"/>
       <c r="EZ35" s="19"/>
       <c r="FA35" s="20"/>
       <c r="FB35" s="20"/>
@@ -9880,11 +9874,11 @@
       <c r="GT35" s="20"/>
       <c r="GU35" s="20"/>
       <c r="GV35" s="20"/>
-      <c r="GW35" s="99"/>
+      <c r="GW35" s="102"/>
     </row>
     <row r="36" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="70" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B36" s="51"/>
       <c r="C36" s="40"/>
@@ -9912,14 +9906,14 @@
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="21"/>
-      <c r="AB36" s="100"/>
-      <c r="AC36" s="100"/>
-      <c r="AD36" s="100"/>
-      <c r="AE36" s="100"/>
-      <c r="AF36" s="100"/>
-      <c r="AG36" s="100"/>
-      <c r="AH36" s="100"/>
-      <c r="AI36" s="100"/>
+      <c r="AB36" s="103"/>
+      <c r="AC36" s="103"/>
+      <c r="AD36" s="103"/>
+      <c r="AE36" s="103"/>
+      <c r="AF36" s="103"/>
+      <c r="AG36" s="103"/>
+      <c r="AH36" s="103"/>
+      <c r="AI36" s="103"/>
       <c r="AJ36" s="19"/>
       <c r="AK36" s="20"/>
       <c r="AL36" s="20"/>
@@ -9968,14 +9962,14 @@
       <c r="CC36" s="20"/>
       <c r="CD36" s="20"/>
       <c r="CE36" s="21"/>
-      <c r="CF36" s="100"/>
-      <c r="CG36" s="100"/>
-      <c r="CH36" s="100"/>
-      <c r="CI36" s="100"/>
-      <c r="CJ36" s="100"/>
-      <c r="CK36" s="100"/>
-      <c r="CL36" s="100"/>
-      <c r="CM36" s="100"/>
+      <c r="CF36" s="103"/>
+      <c r="CG36" s="103"/>
+      <c r="CH36" s="103"/>
+      <c r="CI36" s="103"/>
+      <c r="CJ36" s="103"/>
+      <c r="CK36" s="103"/>
+      <c r="CL36" s="103"/>
+      <c r="CM36" s="103"/>
       <c r="CN36" s="19"/>
       <c r="CO36" s="20"/>
       <c r="CP36" s="20"/>
@@ -10032,14 +10026,14 @@
       <c r="EO36" s="20"/>
       <c r="EP36" s="20"/>
       <c r="EQ36" s="21"/>
-      <c r="ER36" s="100"/>
-      <c r="ES36" s="100"/>
-      <c r="ET36" s="100"/>
-      <c r="EU36" s="100"/>
-      <c r="EV36" s="100"/>
-      <c r="EW36" s="100"/>
-      <c r="EX36" s="100"/>
-      <c r="EY36" s="100"/>
+      <c r="ER36" s="103"/>
+      <c r="ES36" s="103"/>
+      <c r="ET36" s="103"/>
+      <c r="EU36" s="103"/>
+      <c r="EV36" s="103"/>
+      <c r="EW36" s="103"/>
+      <c r="EX36" s="103"/>
+      <c r="EY36" s="103"/>
       <c r="EZ36" s="19"/>
       <c r="FA36" s="20"/>
       <c r="FB36" s="20"/>
@@ -10089,13 +10083,13 @@
       <c r="GT36" s="20"/>
       <c r="GU36" s="20"/>
       <c r="GV36" s="20"/>
-      <c r="GW36" s="99"/>
+      <c r="GW36" s="102"/>
     </row>
     <row r="37" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="96"/>
+      <c r="A37" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="112"/>
       <c r="C37" s="33"/>
       <c r="D37" s="19"/>
       <c r="E37" s="20"/>
@@ -10121,14 +10115,14 @@
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="21"/>
-      <c r="AB37" s="100"/>
-      <c r="AC37" s="100"/>
-      <c r="AD37" s="100"/>
-      <c r="AE37" s="100"/>
-      <c r="AF37" s="100"/>
-      <c r="AG37" s="100"/>
-      <c r="AH37" s="100"/>
-      <c r="AI37" s="100"/>
+      <c r="AB37" s="103"/>
+      <c r="AC37" s="103"/>
+      <c r="AD37" s="103"/>
+      <c r="AE37" s="103"/>
+      <c r="AF37" s="103"/>
+      <c r="AG37" s="103"/>
+      <c r="AH37" s="103"/>
+      <c r="AI37" s="103"/>
       <c r="AJ37" s="19"/>
       <c r="AK37" s="20"/>
       <c r="AL37" s="20"/>
@@ -10177,14 +10171,14 @@
       <c r="CC37" s="20"/>
       <c r="CD37" s="20"/>
       <c r="CE37" s="21"/>
-      <c r="CF37" s="100"/>
-      <c r="CG37" s="100"/>
-      <c r="CH37" s="100"/>
-      <c r="CI37" s="100"/>
-      <c r="CJ37" s="100"/>
-      <c r="CK37" s="100"/>
-      <c r="CL37" s="100"/>
-      <c r="CM37" s="100"/>
+      <c r="CF37" s="103"/>
+      <c r="CG37" s="103"/>
+      <c r="CH37" s="103"/>
+      <c r="CI37" s="103"/>
+      <c r="CJ37" s="103"/>
+      <c r="CK37" s="103"/>
+      <c r="CL37" s="103"/>
+      <c r="CM37" s="103"/>
       <c r="CN37" s="19"/>
       <c r="CO37" s="20"/>
       <c r="CP37" s="20"/>
@@ -10241,14 +10235,14 @@
       <c r="EO37" s="20"/>
       <c r="EP37" s="20"/>
       <c r="EQ37" s="21"/>
-      <c r="ER37" s="100"/>
-      <c r="ES37" s="100"/>
-      <c r="ET37" s="100"/>
-      <c r="EU37" s="100"/>
-      <c r="EV37" s="100"/>
-      <c r="EW37" s="100"/>
-      <c r="EX37" s="100"/>
-      <c r="EY37" s="100"/>
+      <c r="ER37" s="103"/>
+      <c r="ES37" s="103"/>
+      <c r="ET37" s="103"/>
+      <c r="EU37" s="103"/>
+      <c r="EV37" s="103"/>
+      <c r="EW37" s="103"/>
+      <c r="EX37" s="103"/>
+      <c r="EY37" s="103"/>
       <c r="EZ37" s="19"/>
       <c r="FA37" s="20"/>
       <c r="FB37" s="20"/>
@@ -10298,11 +10292,11 @@
       <c r="GT37" s="20"/>
       <c r="GU37" s="20"/>
       <c r="GV37" s="20"/>
-      <c r="GW37" s="99"/>
+      <c r="GW37" s="102"/>
     </row>
     <row r="38" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A38" s="74" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B38" s="75"/>
       <c r="C38" s="40"/>
@@ -10330,14 +10324,14 @@
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="21"/>
-      <c r="AB38" s="100"/>
-      <c r="AC38" s="100"/>
-      <c r="AD38" s="100"/>
-      <c r="AE38" s="100"/>
-      <c r="AF38" s="100"/>
-      <c r="AG38" s="100"/>
-      <c r="AH38" s="100"/>
-      <c r="AI38" s="100"/>
+      <c r="AB38" s="103"/>
+      <c r="AC38" s="103"/>
+      <c r="AD38" s="103"/>
+      <c r="AE38" s="103"/>
+      <c r="AF38" s="103"/>
+      <c r="AG38" s="103"/>
+      <c r="AH38" s="103"/>
+      <c r="AI38" s="103"/>
       <c r="AJ38" s="19"/>
       <c r="AK38" s="20"/>
       <c r="AL38" s="20"/>
@@ -10386,14 +10380,14 @@
       <c r="CC38" s="20"/>
       <c r="CD38" s="20"/>
       <c r="CE38" s="21"/>
-      <c r="CF38" s="100"/>
-      <c r="CG38" s="100"/>
-      <c r="CH38" s="100"/>
-      <c r="CI38" s="100"/>
-      <c r="CJ38" s="100"/>
-      <c r="CK38" s="100"/>
-      <c r="CL38" s="100"/>
-      <c r="CM38" s="100"/>
+      <c r="CF38" s="103"/>
+      <c r="CG38" s="103"/>
+      <c r="CH38" s="103"/>
+      <c r="CI38" s="103"/>
+      <c r="CJ38" s="103"/>
+      <c r="CK38" s="103"/>
+      <c r="CL38" s="103"/>
+      <c r="CM38" s="103"/>
       <c r="CN38" s="19"/>
       <c r="CO38" s="20"/>
       <c r="CP38" s="20"/>
@@ -10452,14 +10446,14 @@
       <c r="EO38" s="20"/>
       <c r="EP38" s="20"/>
       <c r="EQ38" s="21"/>
-      <c r="ER38" s="100"/>
-      <c r="ES38" s="100"/>
-      <c r="ET38" s="100"/>
-      <c r="EU38" s="100"/>
-      <c r="EV38" s="100"/>
-      <c r="EW38" s="100"/>
-      <c r="EX38" s="100"/>
-      <c r="EY38" s="100"/>
+      <c r="ER38" s="103"/>
+      <c r="ES38" s="103"/>
+      <c r="ET38" s="103"/>
+      <c r="EU38" s="103"/>
+      <c r="EV38" s="103"/>
+      <c r="EW38" s="103"/>
+      <c r="EX38" s="103"/>
+      <c r="EY38" s="103"/>
       <c r="EZ38" s="19"/>
       <c r="FA38" s="20"/>
       <c r="FB38" s="20"/>
@@ -10495,11 +10489,11 @@
       <c r="GF38" s="19"/>
       <c r="GG38" s="20"/>
       <c r="GH38" s="20"/>
-      <c r="GI38" s="112"/>
-      <c r="GJ38" s="112"/>
-      <c r="GK38" s="112"/>
-      <c r="GL38" s="112"/>
-      <c r="GM38" s="113"/>
+      <c r="GI38" s="20"/>
+      <c r="GJ38" s="20"/>
+      <c r="GK38" s="20"/>
+      <c r="GL38" s="20"/>
+      <c r="GM38" s="36"/>
       <c r="GN38" s="29"/>
       <c r="GO38" s="37"/>
       <c r="GP38" s="20"/>
@@ -10509,13 +10503,13 @@
       <c r="GT38" s="20"/>
       <c r="GU38" s="20"/>
       <c r="GV38" s="20"/>
-      <c r="GW38" s="99"/>
+      <c r="GW38" s="102"/>
     </row>
     <row r="39" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="114"/>
+      <c r="A39" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="105"/>
       <c r="C39" s="33"/>
       <c r="D39" s="19"/>
       <c r="E39" s="20"/>
@@ -10541,14 +10535,14 @@
       <c r="Y39" s="20"/>
       <c r="Z39" s="20"/>
       <c r="AA39" s="21"/>
-      <c r="AB39" s="100"/>
-      <c r="AC39" s="100"/>
-      <c r="AD39" s="100"/>
-      <c r="AE39" s="100"/>
-      <c r="AF39" s="100"/>
-      <c r="AG39" s="100"/>
-      <c r="AH39" s="100"/>
-      <c r="AI39" s="100"/>
+      <c r="AB39" s="103"/>
+      <c r="AC39" s="103"/>
+      <c r="AD39" s="103"/>
+      <c r="AE39" s="103"/>
+      <c r="AF39" s="103"/>
+      <c r="AG39" s="103"/>
+      <c r="AH39" s="103"/>
+      <c r="AI39" s="103"/>
       <c r="AJ39" s="19"/>
       <c r="AK39" s="20"/>
       <c r="AL39" s="20"/>
@@ -10597,14 +10591,14 @@
       <c r="CC39" s="20"/>
       <c r="CD39" s="20"/>
       <c r="CE39" s="21"/>
-      <c r="CF39" s="100"/>
-      <c r="CG39" s="100"/>
-      <c r="CH39" s="100"/>
-      <c r="CI39" s="100"/>
-      <c r="CJ39" s="100"/>
-      <c r="CK39" s="100"/>
-      <c r="CL39" s="100"/>
-      <c r="CM39" s="100"/>
+      <c r="CF39" s="103"/>
+      <c r="CG39" s="103"/>
+      <c r="CH39" s="103"/>
+      <c r="CI39" s="103"/>
+      <c r="CJ39" s="103"/>
+      <c r="CK39" s="103"/>
+      <c r="CL39" s="103"/>
+      <c r="CM39" s="103"/>
       <c r="CN39" s="19"/>
       <c r="CO39" s="20"/>
       <c r="CP39" s="20"/>
@@ -10661,14 +10655,14 @@
       <c r="EO39" s="20"/>
       <c r="EP39" s="20"/>
       <c r="EQ39" s="21"/>
-      <c r="ER39" s="100"/>
-      <c r="ES39" s="100"/>
-      <c r="ET39" s="100"/>
-      <c r="EU39" s="100"/>
-      <c r="EV39" s="100"/>
-      <c r="EW39" s="100"/>
-      <c r="EX39" s="100"/>
-      <c r="EY39" s="100"/>
+      <c r="ER39" s="103"/>
+      <c r="ES39" s="103"/>
+      <c r="ET39" s="103"/>
+      <c r="EU39" s="103"/>
+      <c r="EV39" s="103"/>
+      <c r="EW39" s="103"/>
+      <c r="EX39" s="103"/>
+      <c r="EY39" s="103"/>
       <c r="EZ39" s="19"/>
       <c r="FA39" s="20"/>
       <c r="FB39" s="20"/>
@@ -10718,11 +10712,11 @@
       <c r="GT39" s="20"/>
       <c r="GU39" s="20"/>
       <c r="GV39" s="20"/>
-      <c r="GW39" s="99"/>
+      <c r="GW39" s="102"/>
     </row>
     <row r="40" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="79" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B40" s="51"/>
       <c r="C40" s="33"/>
@@ -10750,14 +10744,14 @@
       <c r="Y40" s="20"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="21"/>
-      <c r="AB40" s="100"/>
-      <c r="AC40" s="100"/>
-      <c r="AD40" s="100"/>
-      <c r="AE40" s="100"/>
-      <c r="AF40" s="100"/>
-      <c r="AG40" s="100"/>
-      <c r="AH40" s="100"/>
-      <c r="AI40" s="100"/>
+      <c r="AB40" s="103"/>
+      <c r="AC40" s="103"/>
+      <c r="AD40" s="103"/>
+      <c r="AE40" s="103"/>
+      <c r="AF40" s="103"/>
+      <c r="AG40" s="103"/>
+      <c r="AH40" s="103"/>
+      <c r="AI40" s="103"/>
       <c r="AJ40" s="19"/>
       <c r="AK40" s="20"/>
       <c r="AL40" s="20"/>
@@ -10806,14 +10800,14 @@
       <c r="CC40" s="20"/>
       <c r="CD40" s="20"/>
       <c r="CE40" s="21"/>
-      <c r="CF40" s="100"/>
-      <c r="CG40" s="100"/>
-      <c r="CH40" s="100"/>
-      <c r="CI40" s="100"/>
-      <c r="CJ40" s="100"/>
-      <c r="CK40" s="100"/>
-      <c r="CL40" s="100"/>
-      <c r="CM40" s="100"/>
+      <c r="CF40" s="103"/>
+      <c r="CG40" s="103"/>
+      <c r="CH40" s="103"/>
+      <c r="CI40" s="103"/>
+      <c r="CJ40" s="103"/>
+      <c r="CK40" s="103"/>
+      <c r="CL40" s="103"/>
+      <c r="CM40" s="103"/>
       <c r="CN40" s="19"/>
       <c r="CO40" s="20"/>
       <c r="CP40" s="20"/>
@@ -10870,14 +10864,14 @@
       <c r="EO40" s="20"/>
       <c r="EP40" s="20"/>
       <c r="EQ40" s="21"/>
-      <c r="ER40" s="100"/>
-      <c r="ES40" s="100"/>
-      <c r="ET40" s="100"/>
-      <c r="EU40" s="100"/>
-      <c r="EV40" s="100"/>
-      <c r="EW40" s="100"/>
-      <c r="EX40" s="100"/>
-      <c r="EY40" s="100"/>
+      <c r="ER40" s="103"/>
+      <c r="ES40" s="103"/>
+      <c r="ET40" s="103"/>
+      <c r="EU40" s="103"/>
+      <c r="EV40" s="103"/>
+      <c r="EW40" s="103"/>
+      <c r="EX40" s="103"/>
+      <c r="EY40" s="103"/>
       <c r="EZ40" s="19"/>
       <c r="FA40" s="20"/>
       <c r="FB40" s="20"/>
@@ -10910,14 +10904,14 @@
       <c r="GC40" s="20"/>
       <c r="GD40" s="20"/>
       <c r="GE40" s="21"/>
-      <c r="GF40" s="108"/>
-      <c r="GG40" s="109"/>
-      <c r="GH40" s="109"/>
-      <c r="GI40" s="109"/>
-      <c r="GJ40" s="110"/>
-      <c r="GK40" s="110"/>
-      <c r="GL40" s="110"/>
-      <c r="GM40" s="111"/>
+      <c r="GF40" s="90"/>
+      <c r="GG40" s="91"/>
+      <c r="GH40" s="91"/>
+      <c r="GI40" s="91"/>
+      <c r="GJ40" s="92"/>
+      <c r="GK40" s="92"/>
+      <c r="GL40" s="92"/>
+      <c r="GM40" s="93"/>
       <c r="GN40" s="29"/>
       <c r="GO40" s="37"/>
       <c r="GP40" s="37"/>
@@ -10927,11 +10921,11 @@
       <c r="GT40" s="20"/>
       <c r="GU40" s="20"/>
       <c r="GV40" s="20"/>
-      <c r="GW40" s="99"/>
+      <c r="GW40" s="102"/>
     </row>
     <row r="41" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="79" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B41" s="39"/>
       <c r="C41" s="40"/>
@@ -10959,14 +10953,14 @@
       <c r="Y41" s="20"/>
       <c r="Z41" s="20"/>
       <c r="AA41" s="21"/>
-      <c r="AB41" s="100"/>
-      <c r="AC41" s="100"/>
-      <c r="AD41" s="100"/>
-      <c r="AE41" s="100"/>
-      <c r="AF41" s="100"/>
-      <c r="AG41" s="100"/>
-      <c r="AH41" s="100"/>
-      <c r="AI41" s="100"/>
+      <c r="AB41" s="103"/>
+      <c r="AC41" s="103"/>
+      <c r="AD41" s="103"/>
+      <c r="AE41" s="103"/>
+      <c r="AF41" s="103"/>
+      <c r="AG41" s="103"/>
+      <c r="AH41" s="103"/>
+      <c r="AI41" s="103"/>
       <c r="AJ41" s="19"/>
       <c r="AK41" s="20"/>
       <c r="AL41" s="20"/>
@@ -11015,14 +11009,14 @@
       <c r="CC41" s="20"/>
       <c r="CD41" s="20"/>
       <c r="CE41" s="21"/>
-      <c r="CF41" s="100"/>
-      <c r="CG41" s="100"/>
-      <c r="CH41" s="100"/>
-      <c r="CI41" s="100"/>
-      <c r="CJ41" s="100"/>
-      <c r="CK41" s="100"/>
-      <c r="CL41" s="100"/>
-      <c r="CM41" s="100"/>
+      <c r="CF41" s="103"/>
+      <c r="CG41" s="103"/>
+      <c r="CH41" s="103"/>
+      <c r="CI41" s="103"/>
+      <c r="CJ41" s="103"/>
+      <c r="CK41" s="103"/>
+      <c r="CL41" s="103"/>
+      <c r="CM41" s="103"/>
       <c r="CN41" s="19"/>
       <c r="CO41" s="20"/>
       <c r="CP41" s="20"/>
@@ -11083,14 +11077,14 @@
       <c r="EO41" s="20"/>
       <c r="EP41" s="20"/>
       <c r="EQ41" s="21"/>
-      <c r="ER41" s="100"/>
-      <c r="ES41" s="100"/>
-      <c r="ET41" s="100"/>
-      <c r="EU41" s="100"/>
-      <c r="EV41" s="100"/>
-      <c r="EW41" s="100"/>
-      <c r="EX41" s="100"/>
-      <c r="EY41" s="100"/>
+      <c r="ER41" s="103"/>
+      <c r="ES41" s="103"/>
+      <c r="ET41" s="103"/>
+      <c r="EU41" s="103"/>
+      <c r="EV41" s="103"/>
+      <c r="EW41" s="103"/>
+      <c r="EX41" s="103"/>
+      <c r="EY41" s="103"/>
       <c r="EZ41" s="19"/>
       <c r="FA41" s="20"/>
       <c r="FB41" s="20"/>
@@ -11140,82 +11134,82 @@
       <c r="GT41" s="20"/>
       <c r="GU41" s="20"/>
       <c r="GV41" s="20"/>
-      <c r="GW41" s="99"/>
+      <c r="GW41" s="102"/>
     </row>
     <row r="42" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A42" s="81" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B42" s="82"/>
       <c r="C42" s="83"/>
-      <c r="D42" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="90"/>
-      <c r="S42" s="90"/>
-      <c r="T42" s="90"/>
-      <c r="U42" s="90"/>
-      <c r="V42" s="90"/>
-      <c r="W42" s="90"/>
-      <c r="X42" s="90"/>
-      <c r="Y42" s="90"/>
-      <c r="Z42" s="90"/>
-      <c r="AA42" s="90"/>
-      <c r="AB42" s="100"/>
-      <c r="AC42" s="100"/>
-      <c r="AD42" s="100"/>
-      <c r="AE42" s="100"/>
-      <c r="AF42" s="100"/>
-      <c r="AG42" s="100"/>
-      <c r="AH42" s="100"/>
-      <c r="AI42" s="100"/>
-      <c r="AJ42" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK42" s="90"/>
-      <c r="AL42" s="90"/>
-      <c r="AM42" s="90"/>
-      <c r="AN42" s="90"/>
-      <c r="AO42" s="90"/>
-      <c r="AP42" s="90"/>
-      <c r="AQ42" s="90"/>
-      <c r="AR42" s="90"/>
-      <c r="AS42" s="90"/>
-      <c r="AT42" s="90"/>
-      <c r="AU42" s="90"/>
-      <c r="AV42" s="90"/>
-      <c r="AW42" s="90"/>
-      <c r="AX42" s="90"/>
-      <c r="AY42" s="90"/>
-      <c r="AZ42" s="90"/>
-      <c r="BA42" s="90"/>
-      <c r="BB42" s="90"/>
-      <c r="BC42" s="90"/>
-      <c r="BD42" s="90"/>
-      <c r="BE42" s="90"/>
-      <c r="BF42" s="90"/>
-      <c r="BG42" s="90"/>
-      <c r="BH42" s="90"/>
-      <c r="BI42" s="90"/>
-      <c r="BJ42" s="90"/>
-      <c r="BK42" s="90"/>
-      <c r="BL42" s="90"/>
-      <c r="BM42" s="90"/>
-      <c r="BN42" s="90"/>
-      <c r="BO42" s="90"/>
+      <c r="D42" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="106"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="106"/>
+      <c r="K42" s="106"/>
+      <c r="L42" s="106"/>
+      <c r="M42" s="106"/>
+      <c r="N42" s="106"/>
+      <c r="O42" s="106"/>
+      <c r="P42" s="106"/>
+      <c r="Q42" s="106"/>
+      <c r="R42" s="106"/>
+      <c r="S42" s="106"/>
+      <c r="T42" s="106"/>
+      <c r="U42" s="106"/>
+      <c r="V42" s="106"/>
+      <c r="W42" s="106"/>
+      <c r="X42" s="106"/>
+      <c r="Y42" s="106"/>
+      <c r="Z42" s="106"/>
+      <c r="AA42" s="106"/>
+      <c r="AB42" s="103"/>
+      <c r="AC42" s="103"/>
+      <c r="AD42" s="103"/>
+      <c r="AE42" s="103"/>
+      <c r="AF42" s="103"/>
+      <c r="AG42" s="103"/>
+      <c r="AH42" s="103"/>
+      <c r="AI42" s="103"/>
+      <c r="AJ42" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK42" s="106"/>
+      <c r="AL42" s="106"/>
+      <c r="AM42" s="106"/>
+      <c r="AN42" s="106"/>
+      <c r="AO42" s="106"/>
+      <c r="AP42" s="106"/>
+      <c r="AQ42" s="106"/>
+      <c r="AR42" s="106"/>
+      <c r="AS42" s="106"/>
+      <c r="AT42" s="106"/>
+      <c r="AU42" s="106"/>
+      <c r="AV42" s="106"/>
+      <c r="AW42" s="106"/>
+      <c r="AX42" s="106"/>
+      <c r="AY42" s="106"/>
+      <c r="AZ42" s="106"/>
+      <c r="BA42" s="106"/>
+      <c r="BB42" s="106"/>
+      <c r="BC42" s="106"/>
+      <c r="BD42" s="106"/>
+      <c r="BE42" s="106"/>
+      <c r="BF42" s="106"/>
+      <c r="BG42" s="106"/>
+      <c r="BH42" s="106"/>
+      <c r="BI42" s="106"/>
+      <c r="BJ42" s="106"/>
+      <c r="BK42" s="106"/>
+      <c r="BL42" s="106"/>
+      <c r="BM42" s="106"/>
+      <c r="BN42" s="106"/>
+      <c r="BO42" s="106"/>
       <c r="BP42" s="84"/>
       <c r="BQ42" s="85"/>
       <c r="BR42" s="85"/>
@@ -11232,14 +11226,14 @@
       <c r="CC42" s="85"/>
       <c r="CD42" s="85"/>
       <c r="CE42" s="86"/>
-      <c r="CF42" s="100"/>
-      <c r="CG42" s="100"/>
-      <c r="CH42" s="100"/>
-      <c r="CI42" s="100"/>
-      <c r="CJ42" s="100"/>
-      <c r="CK42" s="100"/>
-      <c r="CL42" s="100"/>
-      <c r="CM42" s="100"/>
+      <c r="CF42" s="103"/>
+      <c r="CG42" s="103"/>
+      <c r="CH42" s="103"/>
+      <c r="CI42" s="103"/>
+      <c r="CJ42" s="103"/>
+      <c r="CK42" s="103"/>
+      <c r="CL42" s="103"/>
+      <c r="CM42" s="103"/>
       <c r="CN42" s="84"/>
       <c r="CO42" s="85"/>
       <c r="CP42" s="85"/>
@@ -11296,14 +11290,14 @@
       <c r="EO42" s="85"/>
       <c r="EP42" s="85"/>
       <c r="EQ42" s="86"/>
-      <c r="ER42" s="100"/>
-      <c r="ES42" s="100"/>
-      <c r="ET42" s="100"/>
-      <c r="EU42" s="100"/>
-      <c r="EV42" s="100"/>
-      <c r="EW42" s="100"/>
-      <c r="EX42" s="100"/>
-      <c r="EY42" s="100"/>
+      <c r="ER42" s="103"/>
+      <c r="ES42" s="103"/>
+      <c r="ET42" s="103"/>
+      <c r="EU42" s="103"/>
+      <c r="EV42" s="103"/>
+      <c r="EW42" s="103"/>
+      <c r="EX42" s="103"/>
+      <c r="EY42" s="103"/>
       <c r="EZ42" s="84"/>
       <c r="FA42" s="85"/>
       <c r="FB42" s="85"/>
@@ -11353,223 +11347,268 @@
       <c r="GT42" s="85"/>
       <c r="GU42" s="85"/>
       <c r="GV42" s="85"/>
-      <c r="GW42" s="99"/>
+      <c r="GW42" s="102"/>
     </row>
     <row r="43" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A43" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="91"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="91"/>
-      <c r="I43" s="91"/>
-      <c r="J43" s="91"/>
-      <c r="K43" s="91"/>
-      <c r="L43" s="91"/>
-      <c r="M43" s="91"/>
-      <c r="N43" s="91"/>
-      <c r="O43" s="91"/>
-      <c r="P43" s="91"/>
-      <c r="Q43" s="91"/>
-      <c r="R43" s="91"/>
-      <c r="S43" s="91"/>
-      <c r="T43" s="91"/>
-      <c r="U43" s="91"/>
-      <c r="V43" s="91"/>
-      <c r="W43" s="91"/>
-      <c r="X43" s="91"/>
-      <c r="Y43" s="91"/>
-      <c r="Z43" s="91"/>
-      <c r="AA43" s="91"/>
-      <c r="AB43" s="91"/>
-      <c r="AC43" s="91"/>
-      <c r="AD43" s="91"/>
-      <c r="AE43" s="91"/>
-      <c r="AF43" s="91"/>
-      <c r="AG43" s="91"/>
-      <c r="AH43" s="91"/>
-      <c r="AI43" s="91"/>
-      <c r="AJ43" s="91"/>
-      <c r="AK43" s="91"/>
-      <c r="AL43" s="91"/>
-      <c r="AM43" s="91"/>
-      <c r="AN43" s="91"/>
-      <c r="AO43" s="91"/>
-      <c r="AP43" s="91"/>
-      <c r="AQ43" s="91"/>
-      <c r="AR43" s="91"/>
-      <c r="AS43" s="91"/>
-      <c r="AT43" s="91"/>
-      <c r="AU43" s="91"/>
-      <c r="AV43" s="91"/>
-      <c r="AW43" s="91"/>
-      <c r="AX43" s="91"/>
-      <c r="AY43" s="91"/>
-      <c r="AZ43" s="91"/>
-      <c r="BA43" s="91"/>
-      <c r="BB43" s="91"/>
-      <c r="BC43" s="91"/>
-      <c r="BD43" s="91"/>
-      <c r="BE43" s="91"/>
-      <c r="BF43" s="91"/>
-      <c r="BG43" s="91"/>
-      <c r="BH43" s="91"/>
-      <c r="BI43" s="91"/>
-      <c r="BJ43" s="91"/>
-      <c r="BK43" s="91"/>
-      <c r="BL43" s="91"/>
-      <c r="BM43" s="91"/>
-      <c r="BN43" s="91"/>
-      <c r="BO43" s="91"/>
-      <c r="BP43" s="91"/>
-      <c r="BQ43" s="91"/>
-      <c r="BR43" s="91"/>
-      <c r="BS43" s="91"/>
-      <c r="BT43" s="91"/>
-      <c r="BU43" s="91"/>
-      <c r="BV43" s="91"/>
-      <c r="BW43" s="91"/>
-      <c r="BX43" s="91"/>
-      <c r="BY43" s="91"/>
-      <c r="BZ43" s="91"/>
-      <c r="CA43" s="91"/>
-      <c r="CB43" s="91"/>
-      <c r="CC43" s="91"/>
-      <c r="CD43" s="91"/>
-      <c r="CE43" s="91"/>
-      <c r="CF43" s="91"/>
-      <c r="CG43" s="91"/>
-      <c r="CH43" s="91"/>
-      <c r="CI43" s="91"/>
-      <c r="CJ43" s="91"/>
-      <c r="CK43" s="91"/>
-      <c r="CL43" s="91"/>
-      <c r="CM43" s="91"/>
-      <c r="CN43" s="91"/>
-      <c r="CO43" s="91"/>
-      <c r="CP43" s="91"/>
-      <c r="CQ43" s="91"/>
-      <c r="CR43" s="91"/>
-      <c r="CS43" s="91"/>
-      <c r="CT43" s="91"/>
-      <c r="CU43" s="91"/>
-      <c r="CV43" s="91"/>
-      <c r="CW43" s="91"/>
-      <c r="CX43" s="91"/>
-      <c r="CY43" s="91"/>
-      <c r="CZ43" s="91"/>
-      <c r="DA43" s="91"/>
-      <c r="DB43" s="91"/>
-      <c r="DC43" s="91"/>
-      <c r="DD43" s="91"/>
-      <c r="DE43" s="91"/>
-      <c r="DF43" s="91"/>
-      <c r="DG43" s="91"/>
-      <c r="DH43" s="91"/>
-      <c r="DI43" s="91"/>
-      <c r="DJ43" s="91"/>
-      <c r="DK43" s="91"/>
-      <c r="DL43" s="91"/>
-      <c r="DM43" s="91"/>
-      <c r="DN43" s="91"/>
-      <c r="DO43" s="91"/>
-      <c r="DP43" s="91"/>
-      <c r="DQ43" s="91"/>
-      <c r="DR43" s="91"/>
-      <c r="DS43" s="91"/>
-      <c r="DT43" s="91"/>
-      <c r="DU43" s="91"/>
-      <c r="DV43" s="91"/>
-      <c r="DW43" s="91"/>
-      <c r="DX43" s="91"/>
-      <c r="DY43" s="91"/>
-      <c r="DZ43" s="91"/>
-      <c r="EA43" s="91"/>
-      <c r="EB43" s="91"/>
-      <c r="EC43" s="91"/>
-      <c r="ED43" s="91"/>
-      <c r="EE43" s="91"/>
-      <c r="EF43" s="91"/>
-      <c r="EG43" s="91"/>
-      <c r="EH43" s="91"/>
-      <c r="EI43" s="91"/>
-      <c r="EJ43" s="91"/>
-      <c r="EK43" s="91"/>
-      <c r="EL43" s="91"/>
-      <c r="EM43" s="91"/>
-      <c r="EN43" s="91"/>
-      <c r="EO43" s="91"/>
-      <c r="EP43" s="91"/>
-      <c r="EQ43" s="91"/>
-      <c r="ER43" s="91"/>
-      <c r="ES43" s="91"/>
-      <c r="ET43" s="91"/>
-      <c r="EU43" s="91"/>
-      <c r="EV43" s="91"/>
-      <c r="EW43" s="91"/>
-      <c r="EX43" s="91"/>
-      <c r="EY43" s="91"/>
-      <c r="EZ43" s="91"/>
-      <c r="FA43" s="91"/>
-      <c r="FB43" s="91"/>
-      <c r="FC43" s="91"/>
-      <c r="FD43" s="91"/>
-      <c r="FE43" s="91"/>
-      <c r="FF43" s="91"/>
-      <c r="FG43" s="91"/>
-      <c r="FH43" s="91"/>
-      <c r="FI43" s="91"/>
-      <c r="FJ43" s="91"/>
-      <c r="FK43" s="91"/>
-      <c r="FL43" s="91"/>
-      <c r="FM43" s="91"/>
-      <c r="FN43" s="91"/>
-      <c r="FO43" s="91"/>
-      <c r="FP43" s="91"/>
-      <c r="FQ43" s="91"/>
-      <c r="FR43" s="91"/>
-      <c r="FS43" s="91"/>
-      <c r="FT43" s="91"/>
-      <c r="FU43" s="91"/>
-      <c r="FV43" s="91"/>
-      <c r="FW43" s="91"/>
-      <c r="FX43" s="91"/>
-      <c r="FY43" s="91"/>
-      <c r="FZ43" s="91"/>
-      <c r="GA43" s="91"/>
-      <c r="GB43" s="91"/>
-      <c r="GC43" s="91"/>
-      <c r="GD43" s="91"/>
-      <c r="GE43" s="91"/>
-      <c r="GF43" s="91"/>
-      <c r="GG43" s="91"/>
-      <c r="GH43" s="91"/>
-      <c r="GI43" s="91"/>
-      <c r="GJ43" s="91"/>
-      <c r="GK43" s="91"/>
-      <c r="GL43" s="91"/>
-      <c r="GM43" s="91"/>
-      <c r="GN43" s="91"/>
-      <c r="GO43" s="91"/>
-      <c r="GP43" s="91"/>
-      <c r="GQ43" s="91"/>
-      <c r="GR43" s="91"/>
-      <c r="GS43" s="91"/>
-      <c r="GT43" s="91"/>
-      <c r="GU43" s="91"/>
-      <c r="GV43" s="91"/>
+      <c r="A43" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="107"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="107"/>
+      <c r="L43" s="107"/>
+      <c r="M43" s="107"/>
+      <c r="N43" s="107"/>
+      <c r="O43" s="107"/>
+      <c r="P43" s="107"/>
+      <c r="Q43" s="107"/>
+      <c r="R43" s="107"/>
+      <c r="S43" s="107"/>
+      <c r="T43" s="107"/>
+      <c r="U43" s="107"/>
+      <c r="V43" s="107"/>
+      <c r="W43" s="107"/>
+      <c r="X43" s="107"/>
+      <c r="Y43" s="107"/>
+      <c r="Z43" s="107"/>
+      <c r="AA43" s="107"/>
+      <c r="AB43" s="107"/>
+      <c r="AC43" s="107"/>
+      <c r="AD43" s="107"/>
+      <c r="AE43" s="107"/>
+      <c r="AF43" s="107"/>
+      <c r="AG43" s="107"/>
+      <c r="AH43" s="107"/>
+      <c r="AI43" s="107"/>
+      <c r="AJ43" s="107"/>
+      <c r="AK43" s="107"/>
+      <c r="AL43" s="107"/>
+      <c r="AM43" s="107"/>
+      <c r="AN43" s="107"/>
+      <c r="AO43" s="107"/>
+      <c r="AP43" s="107"/>
+      <c r="AQ43" s="107"/>
+      <c r="AR43" s="107"/>
+      <c r="AS43" s="107"/>
+      <c r="AT43" s="107"/>
+      <c r="AU43" s="107"/>
+      <c r="AV43" s="107"/>
+      <c r="AW43" s="107"/>
+      <c r="AX43" s="107"/>
+      <c r="AY43" s="107"/>
+      <c r="AZ43" s="107"/>
+      <c r="BA43" s="107"/>
+      <c r="BB43" s="107"/>
+      <c r="BC43" s="107"/>
+      <c r="BD43" s="107"/>
+      <c r="BE43" s="107"/>
+      <c r="BF43" s="107"/>
+      <c r="BG43" s="107"/>
+      <c r="BH43" s="107"/>
+      <c r="BI43" s="107"/>
+      <c r="BJ43" s="107"/>
+      <c r="BK43" s="107"/>
+      <c r="BL43" s="107"/>
+      <c r="BM43" s="107"/>
+      <c r="BN43" s="107"/>
+      <c r="BO43" s="107"/>
+      <c r="BP43" s="107"/>
+      <c r="BQ43" s="107"/>
+      <c r="BR43" s="107"/>
+      <c r="BS43" s="107"/>
+      <c r="BT43" s="107"/>
+      <c r="BU43" s="107"/>
+      <c r="BV43" s="107"/>
+      <c r="BW43" s="107"/>
+      <c r="BX43" s="107"/>
+      <c r="BY43" s="107"/>
+      <c r="BZ43" s="107"/>
+      <c r="CA43" s="107"/>
+      <c r="CB43" s="107"/>
+      <c r="CC43" s="107"/>
+      <c r="CD43" s="107"/>
+      <c r="CE43" s="107"/>
+      <c r="CF43" s="107"/>
+      <c r="CG43" s="107"/>
+      <c r="CH43" s="107"/>
+      <c r="CI43" s="107"/>
+      <c r="CJ43" s="107"/>
+      <c r="CK43" s="107"/>
+      <c r="CL43" s="107"/>
+      <c r="CM43" s="107"/>
+      <c r="CN43" s="107"/>
+      <c r="CO43" s="107"/>
+      <c r="CP43" s="107"/>
+      <c r="CQ43" s="107"/>
+      <c r="CR43" s="107"/>
+      <c r="CS43" s="107"/>
+      <c r="CT43" s="107"/>
+      <c r="CU43" s="107"/>
+      <c r="CV43" s="107"/>
+      <c r="CW43" s="107"/>
+      <c r="CX43" s="107"/>
+      <c r="CY43" s="107"/>
+      <c r="CZ43" s="107"/>
+      <c r="DA43" s="107"/>
+      <c r="DB43" s="107"/>
+      <c r="DC43" s="107"/>
+      <c r="DD43" s="107"/>
+      <c r="DE43" s="107"/>
+      <c r="DF43" s="107"/>
+      <c r="DG43" s="107"/>
+      <c r="DH43" s="107"/>
+      <c r="DI43" s="107"/>
+      <c r="DJ43" s="107"/>
+      <c r="DK43" s="107"/>
+      <c r="DL43" s="107"/>
+      <c r="DM43" s="107"/>
+      <c r="DN43" s="107"/>
+      <c r="DO43" s="107"/>
+      <c r="DP43" s="107"/>
+      <c r="DQ43" s="107"/>
+      <c r="DR43" s="107"/>
+      <c r="DS43" s="107"/>
+      <c r="DT43" s="107"/>
+      <c r="DU43" s="107"/>
+      <c r="DV43" s="107"/>
+      <c r="DW43" s="107"/>
+      <c r="DX43" s="107"/>
+      <c r="DY43" s="107"/>
+      <c r="DZ43" s="107"/>
+      <c r="EA43" s="107"/>
+      <c r="EB43" s="107"/>
+      <c r="EC43" s="107"/>
+      <c r="ED43" s="107"/>
+      <c r="EE43" s="107"/>
+      <c r="EF43" s="107"/>
+      <c r="EG43" s="107"/>
+      <c r="EH43" s="107"/>
+      <c r="EI43" s="107"/>
+      <c r="EJ43" s="107"/>
+      <c r="EK43" s="107"/>
+      <c r="EL43" s="107"/>
+      <c r="EM43" s="107"/>
+      <c r="EN43" s="107"/>
+      <c r="EO43" s="107"/>
+      <c r="EP43" s="107"/>
+      <c r="EQ43" s="107"/>
+      <c r="ER43" s="107"/>
+      <c r="ES43" s="107"/>
+      <c r="ET43" s="107"/>
+      <c r="EU43" s="107"/>
+      <c r="EV43" s="107"/>
+      <c r="EW43" s="107"/>
+      <c r="EX43" s="107"/>
+      <c r="EY43" s="107"/>
+      <c r="EZ43" s="107"/>
+      <c r="FA43" s="107"/>
+      <c r="FB43" s="107"/>
+      <c r="FC43" s="107"/>
+      <c r="FD43" s="107"/>
+      <c r="FE43" s="107"/>
+      <c r="FF43" s="107"/>
+      <c r="FG43" s="107"/>
+      <c r="FH43" s="107"/>
+      <c r="FI43" s="107"/>
+      <c r="FJ43" s="107"/>
+      <c r="FK43" s="107"/>
+      <c r="FL43" s="107"/>
+      <c r="FM43" s="107"/>
+      <c r="FN43" s="107"/>
+      <c r="FO43" s="107"/>
+      <c r="FP43" s="107"/>
+      <c r="FQ43" s="107"/>
+      <c r="FR43" s="107"/>
+      <c r="FS43" s="107"/>
+      <c r="FT43" s="107"/>
+      <c r="FU43" s="107"/>
+      <c r="FV43" s="107"/>
+      <c r="FW43" s="107"/>
+      <c r="FX43" s="107"/>
+      <c r="FY43" s="107"/>
+      <c r="FZ43" s="107"/>
+      <c r="GA43" s="107"/>
+      <c r="GB43" s="107"/>
+      <c r="GC43" s="107"/>
+      <c r="GD43" s="107"/>
+      <c r="GE43" s="107"/>
+      <c r="GF43" s="107"/>
+      <c r="GG43" s="107"/>
+      <c r="GH43" s="107"/>
+      <c r="GI43" s="107"/>
+      <c r="GJ43" s="107"/>
+      <c r="GK43" s="107"/>
+      <c r="GL43" s="107"/>
+      <c r="GM43" s="107"/>
+      <c r="GN43" s="107"/>
+      <c r="GO43" s="107"/>
+      <c r="GP43" s="107"/>
+      <c r="GQ43" s="107"/>
+      <c r="GR43" s="107"/>
+      <c r="GS43" s="107"/>
+      <c r="GT43" s="107"/>
+      <c r="GU43" s="107"/>
+      <c r="GV43" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:AQ3"/>
-    <mergeCell ref="AR2:CE3"/>
-    <mergeCell ref="CF2:DS3"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D42:AA42"/>
+    <mergeCell ref="AJ42:BO42"/>
+    <mergeCell ref="A43:GV43"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="GO4:GR4"/>
+    <mergeCell ref="GS4:GV4"/>
+    <mergeCell ref="GW4:GW42"/>
+    <mergeCell ref="AB6:AI42"/>
+    <mergeCell ref="CF6:CM42"/>
+    <mergeCell ref="ER6:EY42"/>
+    <mergeCell ref="FT4:FW4"/>
+    <mergeCell ref="FX4:GA4"/>
+    <mergeCell ref="GB4:GE4"/>
+    <mergeCell ref="GF4:GI4"/>
+    <mergeCell ref="GJ4:GM4"/>
+    <mergeCell ref="EZ4:FC4"/>
+    <mergeCell ref="FD4:FG4"/>
+    <mergeCell ref="FH4:FK4"/>
+    <mergeCell ref="FL4:FO4"/>
+    <mergeCell ref="FP4:FS4"/>
+    <mergeCell ref="EF4:EI4"/>
+    <mergeCell ref="EJ4:EM4"/>
+    <mergeCell ref="EN4:EQ4"/>
+    <mergeCell ref="ER4:EU4"/>
+    <mergeCell ref="EV4:EY4"/>
+    <mergeCell ref="DL4:DO4"/>
+    <mergeCell ref="DP4:DS4"/>
+    <mergeCell ref="DT4:DW4"/>
+    <mergeCell ref="DX4:EA4"/>
+    <mergeCell ref="EB4:EE4"/>
+    <mergeCell ref="CR4:CU4"/>
+    <mergeCell ref="CV4:CY4"/>
+    <mergeCell ref="CZ4:DC4"/>
+    <mergeCell ref="DD4:DG4"/>
+    <mergeCell ref="DH4:DK4"/>
+    <mergeCell ref="BX4:CA4"/>
+    <mergeCell ref="CB4:CE4"/>
+    <mergeCell ref="CF4:CI4"/>
+    <mergeCell ref="CJ4:CM4"/>
+    <mergeCell ref="CN4:CQ4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="BP4:BS4"/>
+    <mergeCell ref="BT4:BW4"/>
     <mergeCell ref="DT2:FG3"/>
     <mergeCell ref="FH2:GV3"/>
     <mergeCell ref="A4:A5"/>
@@ -11586,56 +11625,11 @@
     <mergeCell ref="AR4:AU4"/>
     <mergeCell ref="AV4:AY4"/>
     <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="BP4:BS4"/>
-    <mergeCell ref="BT4:BW4"/>
-    <mergeCell ref="BX4:CA4"/>
-    <mergeCell ref="CB4:CE4"/>
-    <mergeCell ref="CF4:CI4"/>
-    <mergeCell ref="CJ4:CM4"/>
-    <mergeCell ref="CN4:CQ4"/>
-    <mergeCell ref="CR4:CU4"/>
-    <mergeCell ref="CV4:CY4"/>
-    <mergeCell ref="CZ4:DC4"/>
-    <mergeCell ref="DD4:DG4"/>
-    <mergeCell ref="DH4:DK4"/>
-    <mergeCell ref="DL4:DO4"/>
-    <mergeCell ref="DP4:DS4"/>
-    <mergeCell ref="DT4:DW4"/>
-    <mergeCell ref="DX4:EA4"/>
-    <mergeCell ref="EB4:EE4"/>
-    <mergeCell ref="EF4:EI4"/>
-    <mergeCell ref="EJ4:EM4"/>
-    <mergeCell ref="EN4:EQ4"/>
-    <mergeCell ref="ER4:EU4"/>
-    <mergeCell ref="EV4:EY4"/>
-    <mergeCell ref="GO4:GR4"/>
-    <mergeCell ref="GS4:GV4"/>
-    <mergeCell ref="GW4:GW42"/>
-    <mergeCell ref="AB6:AI42"/>
-    <mergeCell ref="CF6:CM42"/>
-    <mergeCell ref="ER6:EY42"/>
-    <mergeCell ref="FT4:FW4"/>
-    <mergeCell ref="FX4:GA4"/>
-    <mergeCell ref="GB4:GE4"/>
-    <mergeCell ref="GF4:GI4"/>
-    <mergeCell ref="GJ4:GM4"/>
-    <mergeCell ref="EZ4:FC4"/>
-    <mergeCell ref="FD4:FG4"/>
-    <mergeCell ref="FH4:FK4"/>
-    <mergeCell ref="FL4:FO4"/>
-    <mergeCell ref="FP4:FS4"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D42:AA42"/>
-    <mergeCell ref="AJ42:BO42"/>
-    <mergeCell ref="A43:GV43"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="AR2:CE3"/>
+    <mergeCell ref="CF2:DS3"/>
   </mergeCells>
   <conditionalFormatting sqref="B6 B8:B9 B11:B13 B15:B19 B21:B36 B38 B40:B42">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Terminé">

--- a/docs/2_CAND_Modele_Planning_2024.xlsx
+++ b/docs/2_CAND_Modele_Planning_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D262633-B43A-4BE4-9D41-4EB13A6C7836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7CCD70-5A68-446F-887E-A57E32D9432A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="59">
   <si>
     <r>
       <rPr>
@@ -1397,50 +1397,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1471,6 +1427,50 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1984,7 +1984,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="DW8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="DI1" sqref="DI1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="FL33" sqref="FL33:GA36"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1999,11 +1999,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:205" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2049,427 +2049,427 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="95">
+      <c r="B2" s="112">
         <v>148477</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96" t="s">
+      <c r="C2" s="112"/>
+      <c r="D2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="96"/>
-      <c r="AF2" s="96"/>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="96"/>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="96"/>
-      <c r="AK2" s="96"/>
-      <c r="AL2" s="96"/>
-      <c r="AM2" s="96"/>
-      <c r="AN2" s="96"/>
-      <c r="AO2" s="96"/>
-      <c r="AP2" s="96"/>
-      <c r="AQ2" s="96"/>
-      <c r="AR2" s="96" t="s">
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="108"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="108"/>
+      <c r="AL2" s="108"/>
+      <c r="AM2" s="108"/>
+      <c r="AN2" s="108"/>
+      <c r="AO2" s="108"/>
+      <c r="AP2" s="108"/>
+      <c r="AQ2" s="108"/>
+      <c r="AR2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="AS2" s="96"/>
-      <c r="AT2" s="96"/>
-      <c r="AU2" s="96"/>
-      <c r="AV2" s="96"/>
-      <c r="AW2" s="96"/>
-      <c r="AX2" s="96"/>
-      <c r="AY2" s="96"/>
-      <c r="AZ2" s="96"/>
-      <c r="BA2" s="96"/>
-      <c r="BB2" s="96"/>
-      <c r="BC2" s="96"/>
-      <c r="BD2" s="96"/>
-      <c r="BE2" s="96"/>
-      <c r="BF2" s="96"/>
-      <c r="BG2" s="96"/>
-      <c r="BH2" s="96"/>
-      <c r="BI2" s="96"/>
-      <c r="BJ2" s="96"/>
-      <c r="BK2" s="96"/>
-      <c r="BL2" s="96"/>
-      <c r="BM2" s="96"/>
-      <c r="BN2" s="96"/>
-      <c r="BO2" s="96"/>
-      <c r="BP2" s="96"/>
-      <c r="BQ2" s="96"/>
-      <c r="BR2" s="96"/>
-      <c r="BS2" s="96"/>
-      <c r="BT2" s="96"/>
-      <c r="BU2" s="96"/>
-      <c r="BV2" s="96"/>
-      <c r="BW2" s="96"/>
-      <c r="BX2" s="96"/>
-      <c r="BY2" s="96"/>
-      <c r="BZ2" s="96"/>
-      <c r="CA2" s="96"/>
-      <c r="CB2" s="96"/>
-      <c r="CC2" s="96"/>
-      <c r="CD2" s="96"/>
-      <c r="CE2" s="96"/>
-      <c r="CF2" s="96" t="s">
+      <c r="AS2" s="108"/>
+      <c r="AT2" s="108"/>
+      <c r="AU2" s="108"/>
+      <c r="AV2" s="108"/>
+      <c r="AW2" s="108"/>
+      <c r="AX2" s="108"/>
+      <c r="AY2" s="108"/>
+      <c r="AZ2" s="108"/>
+      <c r="BA2" s="108"/>
+      <c r="BB2" s="108"/>
+      <c r="BC2" s="108"/>
+      <c r="BD2" s="108"/>
+      <c r="BE2" s="108"/>
+      <c r="BF2" s="108"/>
+      <c r="BG2" s="108"/>
+      <c r="BH2" s="108"/>
+      <c r="BI2" s="108"/>
+      <c r="BJ2" s="108"/>
+      <c r="BK2" s="108"/>
+      <c r="BL2" s="108"/>
+      <c r="BM2" s="108"/>
+      <c r="BN2" s="108"/>
+      <c r="BO2" s="108"/>
+      <c r="BP2" s="108"/>
+      <c r="BQ2" s="108"/>
+      <c r="BR2" s="108"/>
+      <c r="BS2" s="108"/>
+      <c r="BT2" s="108"/>
+      <c r="BU2" s="108"/>
+      <c r="BV2" s="108"/>
+      <c r="BW2" s="108"/>
+      <c r="BX2" s="108"/>
+      <c r="BY2" s="108"/>
+      <c r="BZ2" s="108"/>
+      <c r="CA2" s="108"/>
+      <c r="CB2" s="108"/>
+      <c r="CC2" s="108"/>
+      <c r="CD2" s="108"/>
+      <c r="CE2" s="108"/>
+      <c r="CF2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="CG2" s="96"/>
-      <c r="CH2" s="96"/>
-      <c r="CI2" s="96"/>
-      <c r="CJ2" s="96"/>
-      <c r="CK2" s="96"/>
-      <c r="CL2" s="96"/>
-      <c r="CM2" s="96"/>
-      <c r="CN2" s="96"/>
-      <c r="CO2" s="96"/>
-      <c r="CP2" s="96"/>
-      <c r="CQ2" s="96"/>
-      <c r="CR2" s="96"/>
-      <c r="CS2" s="96"/>
-      <c r="CT2" s="96"/>
-      <c r="CU2" s="96"/>
-      <c r="CV2" s="96"/>
-      <c r="CW2" s="96"/>
-      <c r="CX2" s="96"/>
-      <c r="CY2" s="96"/>
-      <c r="CZ2" s="96"/>
-      <c r="DA2" s="96"/>
-      <c r="DB2" s="96"/>
-      <c r="DC2" s="96"/>
-      <c r="DD2" s="96"/>
-      <c r="DE2" s="96"/>
-      <c r="DF2" s="96"/>
-      <c r="DG2" s="96"/>
-      <c r="DH2" s="96"/>
-      <c r="DI2" s="96"/>
-      <c r="DJ2" s="96"/>
-      <c r="DK2" s="96"/>
-      <c r="DL2" s="96"/>
-      <c r="DM2" s="96"/>
-      <c r="DN2" s="96"/>
-      <c r="DO2" s="96"/>
-      <c r="DP2" s="96"/>
-      <c r="DQ2" s="96"/>
-      <c r="DR2" s="96"/>
-      <c r="DS2" s="96"/>
-      <c r="DT2" s="96" t="s">
+      <c r="CG2" s="108"/>
+      <c r="CH2" s="108"/>
+      <c r="CI2" s="108"/>
+      <c r="CJ2" s="108"/>
+      <c r="CK2" s="108"/>
+      <c r="CL2" s="108"/>
+      <c r="CM2" s="108"/>
+      <c r="CN2" s="108"/>
+      <c r="CO2" s="108"/>
+      <c r="CP2" s="108"/>
+      <c r="CQ2" s="108"/>
+      <c r="CR2" s="108"/>
+      <c r="CS2" s="108"/>
+      <c r="CT2" s="108"/>
+      <c r="CU2" s="108"/>
+      <c r="CV2" s="108"/>
+      <c r="CW2" s="108"/>
+      <c r="CX2" s="108"/>
+      <c r="CY2" s="108"/>
+      <c r="CZ2" s="108"/>
+      <c r="DA2" s="108"/>
+      <c r="DB2" s="108"/>
+      <c r="DC2" s="108"/>
+      <c r="DD2" s="108"/>
+      <c r="DE2" s="108"/>
+      <c r="DF2" s="108"/>
+      <c r="DG2" s="108"/>
+      <c r="DH2" s="108"/>
+      <c r="DI2" s="108"/>
+      <c r="DJ2" s="108"/>
+      <c r="DK2" s="108"/>
+      <c r="DL2" s="108"/>
+      <c r="DM2" s="108"/>
+      <c r="DN2" s="108"/>
+      <c r="DO2" s="108"/>
+      <c r="DP2" s="108"/>
+      <c r="DQ2" s="108"/>
+      <c r="DR2" s="108"/>
+      <c r="DS2" s="108"/>
+      <c r="DT2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="DU2" s="96"/>
-      <c r="DV2" s="96"/>
-      <c r="DW2" s="96"/>
-      <c r="DX2" s="96"/>
-      <c r="DY2" s="96"/>
-      <c r="DZ2" s="96"/>
-      <c r="EA2" s="96"/>
-      <c r="EB2" s="96"/>
-      <c r="EC2" s="96"/>
-      <c r="ED2" s="96"/>
-      <c r="EE2" s="96"/>
-      <c r="EF2" s="96"/>
-      <c r="EG2" s="96"/>
-      <c r="EH2" s="96"/>
-      <c r="EI2" s="96"/>
-      <c r="EJ2" s="96"/>
-      <c r="EK2" s="96"/>
-      <c r="EL2" s="96"/>
-      <c r="EM2" s="96"/>
-      <c r="EN2" s="96"/>
-      <c r="EO2" s="96"/>
-      <c r="EP2" s="96"/>
-      <c r="EQ2" s="96"/>
-      <c r="ER2" s="96"/>
-      <c r="ES2" s="96"/>
-      <c r="ET2" s="96"/>
-      <c r="EU2" s="96"/>
-      <c r="EV2" s="96"/>
-      <c r="EW2" s="96"/>
-      <c r="EX2" s="96"/>
-      <c r="EY2" s="96"/>
-      <c r="EZ2" s="96"/>
-      <c r="FA2" s="96"/>
-      <c r="FB2" s="96"/>
-      <c r="FC2" s="96"/>
-      <c r="FD2" s="96"/>
-      <c r="FE2" s="96"/>
-      <c r="FF2" s="96"/>
-      <c r="FG2" s="96"/>
-      <c r="FH2" s="96" t="s">
+      <c r="DU2" s="108"/>
+      <c r="DV2" s="108"/>
+      <c r="DW2" s="108"/>
+      <c r="DX2" s="108"/>
+      <c r="DY2" s="108"/>
+      <c r="DZ2" s="108"/>
+      <c r="EA2" s="108"/>
+      <c r="EB2" s="108"/>
+      <c r="EC2" s="108"/>
+      <c r="ED2" s="108"/>
+      <c r="EE2" s="108"/>
+      <c r="EF2" s="108"/>
+      <c r="EG2" s="108"/>
+      <c r="EH2" s="108"/>
+      <c r="EI2" s="108"/>
+      <c r="EJ2" s="108"/>
+      <c r="EK2" s="108"/>
+      <c r="EL2" s="108"/>
+      <c r="EM2" s="108"/>
+      <c r="EN2" s="108"/>
+      <c r="EO2" s="108"/>
+      <c r="EP2" s="108"/>
+      <c r="EQ2" s="108"/>
+      <c r="ER2" s="108"/>
+      <c r="ES2" s="108"/>
+      <c r="ET2" s="108"/>
+      <c r="EU2" s="108"/>
+      <c r="EV2" s="108"/>
+      <c r="EW2" s="108"/>
+      <c r="EX2" s="108"/>
+      <c r="EY2" s="108"/>
+      <c r="EZ2" s="108"/>
+      <c r="FA2" s="108"/>
+      <c r="FB2" s="108"/>
+      <c r="FC2" s="108"/>
+      <c r="FD2" s="108"/>
+      <c r="FE2" s="108"/>
+      <c r="FF2" s="108"/>
+      <c r="FG2" s="108"/>
+      <c r="FH2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="FI2" s="96"/>
-      <c r="FJ2" s="96"/>
-      <c r="FK2" s="96"/>
-      <c r="FL2" s="96"/>
-      <c r="FM2" s="96"/>
-      <c r="FN2" s="96"/>
-      <c r="FO2" s="96"/>
-      <c r="FP2" s="96"/>
-      <c r="FQ2" s="96"/>
-      <c r="FR2" s="96"/>
-      <c r="FS2" s="96"/>
-      <c r="FT2" s="96"/>
-      <c r="FU2" s="96"/>
-      <c r="FV2" s="96"/>
-      <c r="FW2" s="96"/>
-      <c r="FX2" s="96"/>
-      <c r="FY2" s="96"/>
-      <c r="FZ2" s="96"/>
-      <c r="GA2" s="96"/>
-      <c r="GB2" s="96"/>
-      <c r="GC2" s="96"/>
-      <c r="GD2" s="96"/>
-      <c r="GE2" s="96"/>
-      <c r="GF2" s="96"/>
-      <c r="GG2" s="96"/>
-      <c r="GH2" s="96"/>
-      <c r="GI2" s="96"/>
-      <c r="GJ2" s="96"/>
-      <c r="GK2" s="96"/>
-      <c r="GL2" s="96"/>
-      <c r="GM2" s="96"/>
-      <c r="GN2" s="96"/>
-      <c r="GO2" s="96"/>
-      <c r="GP2" s="96"/>
-      <c r="GQ2" s="96"/>
-      <c r="GR2" s="96"/>
-      <c r="GS2" s="96"/>
-      <c r="GT2" s="96"/>
-      <c r="GU2" s="96"/>
-      <c r="GV2" s="96"/>
+      <c r="FI2" s="108"/>
+      <c r="FJ2" s="108"/>
+      <c r="FK2" s="108"/>
+      <c r="FL2" s="108"/>
+      <c r="FM2" s="108"/>
+      <c r="FN2" s="108"/>
+      <c r="FO2" s="108"/>
+      <c r="FP2" s="108"/>
+      <c r="FQ2" s="108"/>
+      <c r="FR2" s="108"/>
+      <c r="FS2" s="108"/>
+      <c r="FT2" s="108"/>
+      <c r="FU2" s="108"/>
+      <c r="FV2" s="108"/>
+      <c r="FW2" s="108"/>
+      <c r="FX2" s="108"/>
+      <c r="FY2" s="108"/>
+      <c r="FZ2" s="108"/>
+      <c r="GA2" s="108"/>
+      <c r="GB2" s="108"/>
+      <c r="GC2" s="108"/>
+      <c r="GD2" s="108"/>
+      <c r="GE2" s="108"/>
+      <c r="GF2" s="108"/>
+      <c r="GG2" s="108"/>
+      <c r="GH2" s="108"/>
+      <c r="GI2" s="108"/>
+      <c r="GJ2" s="108"/>
+      <c r="GK2" s="108"/>
+      <c r="GL2" s="108"/>
+      <c r="GM2" s="108"/>
+      <c r="GN2" s="108"/>
+      <c r="GO2" s="108"/>
+      <c r="GP2" s="108"/>
+      <c r="GQ2" s="108"/>
+      <c r="GR2" s="108"/>
+      <c r="GS2" s="108"/>
+      <c r="GT2" s="108"/>
+      <c r="GU2" s="108"/>
+      <c r="GV2" s="108"/>
     </row>
     <row r="3" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="96"/>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="96"/>
-      <c r="AG3" s="96"/>
-      <c r="AH3" s="96"/>
-      <c r="AI3" s="96"/>
-      <c r="AJ3" s="96"/>
-      <c r="AK3" s="96"/>
-      <c r="AL3" s="96"/>
-      <c r="AM3" s="96"/>
-      <c r="AN3" s="96"/>
-      <c r="AO3" s="96"/>
-      <c r="AP3" s="96"/>
-      <c r="AQ3" s="96"/>
-      <c r="AR3" s="96"/>
-      <c r="AS3" s="96"/>
-      <c r="AT3" s="96"/>
-      <c r="AU3" s="96"/>
-      <c r="AV3" s="96"/>
-      <c r="AW3" s="96"/>
-      <c r="AX3" s="96"/>
-      <c r="AY3" s="96"/>
-      <c r="AZ3" s="96"/>
-      <c r="BA3" s="96"/>
-      <c r="BB3" s="96"/>
-      <c r="BC3" s="96"/>
-      <c r="BD3" s="96"/>
-      <c r="BE3" s="96"/>
-      <c r="BF3" s="96"/>
-      <c r="BG3" s="96"/>
-      <c r="BH3" s="96"/>
-      <c r="BI3" s="96"/>
-      <c r="BJ3" s="96"/>
-      <c r="BK3" s="96"/>
-      <c r="BL3" s="96"/>
-      <c r="BM3" s="96"/>
-      <c r="BN3" s="96"/>
-      <c r="BO3" s="96"/>
-      <c r="BP3" s="96"/>
-      <c r="BQ3" s="96"/>
-      <c r="BR3" s="96"/>
-      <c r="BS3" s="96"/>
-      <c r="BT3" s="96"/>
-      <c r="BU3" s="96"/>
-      <c r="BV3" s="96"/>
-      <c r="BW3" s="96"/>
-      <c r="BX3" s="96"/>
-      <c r="BY3" s="96"/>
-      <c r="BZ3" s="96"/>
-      <c r="CA3" s="96"/>
-      <c r="CB3" s="96"/>
-      <c r="CC3" s="96"/>
-      <c r="CD3" s="96"/>
-      <c r="CE3" s="96"/>
-      <c r="CF3" s="96"/>
-      <c r="CG3" s="96"/>
-      <c r="CH3" s="96"/>
-      <c r="CI3" s="96"/>
-      <c r="CJ3" s="96"/>
-      <c r="CK3" s="96"/>
-      <c r="CL3" s="96"/>
-      <c r="CM3" s="96"/>
-      <c r="CN3" s="96"/>
-      <c r="CO3" s="96"/>
-      <c r="CP3" s="96"/>
-      <c r="CQ3" s="96"/>
-      <c r="CR3" s="96"/>
-      <c r="CS3" s="96"/>
-      <c r="CT3" s="96"/>
-      <c r="CU3" s="96"/>
-      <c r="CV3" s="96"/>
-      <c r="CW3" s="96"/>
-      <c r="CX3" s="96"/>
-      <c r="CY3" s="96"/>
-      <c r="CZ3" s="96"/>
-      <c r="DA3" s="96"/>
-      <c r="DB3" s="96"/>
-      <c r="DC3" s="96"/>
-      <c r="DD3" s="96"/>
-      <c r="DE3" s="96"/>
-      <c r="DF3" s="96"/>
-      <c r="DG3" s="96"/>
-      <c r="DH3" s="96"/>
-      <c r="DI3" s="96"/>
-      <c r="DJ3" s="96"/>
-      <c r="DK3" s="96"/>
-      <c r="DL3" s="96"/>
-      <c r="DM3" s="96"/>
-      <c r="DN3" s="96"/>
-      <c r="DO3" s="96"/>
-      <c r="DP3" s="96"/>
-      <c r="DQ3" s="96"/>
-      <c r="DR3" s="96"/>
-      <c r="DS3" s="96"/>
-      <c r="DT3" s="96"/>
-      <c r="DU3" s="96"/>
-      <c r="DV3" s="96"/>
-      <c r="DW3" s="96"/>
-      <c r="DX3" s="96"/>
-      <c r="DY3" s="96"/>
-      <c r="DZ3" s="96"/>
-      <c r="EA3" s="96"/>
-      <c r="EB3" s="96"/>
-      <c r="EC3" s="96"/>
-      <c r="ED3" s="96"/>
-      <c r="EE3" s="96"/>
-      <c r="EF3" s="96"/>
-      <c r="EG3" s="96"/>
-      <c r="EH3" s="96"/>
-      <c r="EI3" s="96"/>
-      <c r="EJ3" s="96"/>
-      <c r="EK3" s="96"/>
-      <c r="EL3" s="96"/>
-      <c r="EM3" s="96"/>
-      <c r="EN3" s="96"/>
-      <c r="EO3" s="96"/>
-      <c r="EP3" s="96"/>
-      <c r="EQ3" s="96"/>
-      <c r="ER3" s="96"/>
-      <c r="ES3" s="96"/>
-      <c r="ET3" s="96"/>
-      <c r="EU3" s="96"/>
-      <c r="EV3" s="96"/>
-      <c r="EW3" s="96"/>
-      <c r="EX3" s="96"/>
-      <c r="EY3" s="96"/>
-      <c r="EZ3" s="96"/>
-      <c r="FA3" s="96"/>
-      <c r="FB3" s="96"/>
-      <c r="FC3" s="96"/>
-      <c r="FD3" s="96"/>
-      <c r="FE3" s="96"/>
-      <c r="FF3" s="96"/>
-      <c r="FG3" s="96"/>
-      <c r="FH3" s="96"/>
-      <c r="FI3" s="96"/>
-      <c r="FJ3" s="96"/>
-      <c r="FK3" s="96"/>
-      <c r="FL3" s="96"/>
-      <c r="FM3" s="96"/>
-      <c r="FN3" s="96"/>
-      <c r="FO3" s="96"/>
-      <c r="FP3" s="96"/>
-      <c r="FQ3" s="96"/>
-      <c r="FR3" s="96"/>
-      <c r="FS3" s="96"/>
-      <c r="FT3" s="96"/>
-      <c r="FU3" s="96"/>
-      <c r="FV3" s="96"/>
-      <c r="FW3" s="96"/>
-      <c r="FX3" s="96"/>
-      <c r="FY3" s="96"/>
-      <c r="FZ3" s="96"/>
-      <c r="GA3" s="96"/>
-      <c r="GB3" s="96"/>
-      <c r="GC3" s="96"/>
-      <c r="GD3" s="96"/>
-      <c r="GE3" s="96"/>
-      <c r="GF3" s="96"/>
-      <c r="GG3" s="96"/>
-      <c r="GH3" s="96"/>
-      <c r="GI3" s="96"/>
-      <c r="GJ3" s="96"/>
-      <c r="GK3" s="96"/>
-      <c r="GL3" s="96"/>
-      <c r="GM3" s="96"/>
-      <c r="GN3" s="96"/>
-      <c r="GO3" s="96"/>
-      <c r="GP3" s="96"/>
-      <c r="GQ3" s="96"/>
-      <c r="GR3" s="96"/>
-      <c r="GS3" s="96"/>
-      <c r="GT3" s="96"/>
-      <c r="GU3" s="96"/>
-      <c r="GV3" s="96"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="108"/>
+      <c r="AL3" s="108"/>
+      <c r="AM3" s="108"/>
+      <c r="AN3" s="108"/>
+      <c r="AO3" s="108"/>
+      <c r="AP3" s="108"/>
+      <c r="AQ3" s="108"/>
+      <c r="AR3" s="108"/>
+      <c r="AS3" s="108"/>
+      <c r="AT3" s="108"/>
+      <c r="AU3" s="108"/>
+      <c r="AV3" s="108"/>
+      <c r="AW3" s="108"/>
+      <c r="AX3" s="108"/>
+      <c r="AY3" s="108"/>
+      <c r="AZ3" s="108"/>
+      <c r="BA3" s="108"/>
+      <c r="BB3" s="108"/>
+      <c r="BC3" s="108"/>
+      <c r="BD3" s="108"/>
+      <c r="BE3" s="108"/>
+      <c r="BF3" s="108"/>
+      <c r="BG3" s="108"/>
+      <c r="BH3" s="108"/>
+      <c r="BI3" s="108"/>
+      <c r="BJ3" s="108"/>
+      <c r="BK3" s="108"/>
+      <c r="BL3" s="108"/>
+      <c r="BM3" s="108"/>
+      <c r="BN3" s="108"/>
+      <c r="BO3" s="108"/>
+      <c r="BP3" s="108"/>
+      <c r="BQ3" s="108"/>
+      <c r="BR3" s="108"/>
+      <c r="BS3" s="108"/>
+      <c r="BT3" s="108"/>
+      <c r="BU3" s="108"/>
+      <c r="BV3" s="108"/>
+      <c r="BW3" s="108"/>
+      <c r="BX3" s="108"/>
+      <c r="BY3" s="108"/>
+      <c r="BZ3" s="108"/>
+      <c r="CA3" s="108"/>
+      <c r="CB3" s="108"/>
+      <c r="CC3" s="108"/>
+      <c r="CD3" s="108"/>
+      <c r="CE3" s="108"/>
+      <c r="CF3" s="108"/>
+      <c r="CG3" s="108"/>
+      <c r="CH3" s="108"/>
+      <c r="CI3" s="108"/>
+      <c r="CJ3" s="108"/>
+      <c r="CK3" s="108"/>
+      <c r="CL3" s="108"/>
+      <c r="CM3" s="108"/>
+      <c r="CN3" s="108"/>
+      <c r="CO3" s="108"/>
+      <c r="CP3" s="108"/>
+      <c r="CQ3" s="108"/>
+      <c r="CR3" s="108"/>
+      <c r="CS3" s="108"/>
+      <c r="CT3" s="108"/>
+      <c r="CU3" s="108"/>
+      <c r="CV3" s="108"/>
+      <c r="CW3" s="108"/>
+      <c r="CX3" s="108"/>
+      <c r="CY3" s="108"/>
+      <c r="CZ3" s="108"/>
+      <c r="DA3" s="108"/>
+      <c r="DB3" s="108"/>
+      <c r="DC3" s="108"/>
+      <c r="DD3" s="108"/>
+      <c r="DE3" s="108"/>
+      <c r="DF3" s="108"/>
+      <c r="DG3" s="108"/>
+      <c r="DH3" s="108"/>
+      <c r="DI3" s="108"/>
+      <c r="DJ3" s="108"/>
+      <c r="DK3" s="108"/>
+      <c r="DL3" s="108"/>
+      <c r="DM3" s="108"/>
+      <c r="DN3" s="108"/>
+      <c r="DO3" s="108"/>
+      <c r="DP3" s="108"/>
+      <c r="DQ3" s="108"/>
+      <c r="DR3" s="108"/>
+      <c r="DS3" s="108"/>
+      <c r="DT3" s="108"/>
+      <c r="DU3" s="108"/>
+      <c r="DV3" s="108"/>
+      <c r="DW3" s="108"/>
+      <c r="DX3" s="108"/>
+      <c r="DY3" s="108"/>
+      <c r="DZ3" s="108"/>
+      <c r="EA3" s="108"/>
+      <c r="EB3" s="108"/>
+      <c r="EC3" s="108"/>
+      <c r="ED3" s="108"/>
+      <c r="EE3" s="108"/>
+      <c r="EF3" s="108"/>
+      <c r="EG3" s="108"/>
+      <c r="EH3" s="108"/>
+      <c r="EI3" s="108"/>
+      <c r="EJ3" s="108"/>
+      <c r="EK3" s="108"/>
+      <c r="EL3" s="108"/>
+      <c r="EM3" s="108"/>
+      <c r="EN3" s="108"/>
+      <c r="EO3" s="108"/>
+      <c r="EP3" s="108"/>
+      <c r="EQ3" s="108"/>
+      <c r="ER3" s="108"/>
+      <c r="ES3" s="108"/>
+      <c r="ET3" s="108"/>
+      <c r="EU3" s="108"/>
+      <c r="EV3" s="108"/>
+      <c r="EW3" s="108"/>
+      <c r="EX3" s="108"/>
+      <c r="EY3" s="108"/>
+      <c r="EZ3" s="108"/>
+      <c r="FA3" s="108"/>
+      <c r="FB3" s="108"/>
+      <c r="FC3" s="108"/>
+      <c r="FD3" s="108"/>
+      <c r="FE3" s="108"/>
+      <c r="FF3" s="108"/>
+      <c r="FG3" s="108"/>
+      <c r="FH3" s="108"/>
+      <c r="FI3" s="108"/>
+      <c r="FJ3" s="108"/>
+      <c r="FK3" s="108"/>
+      <c r="FL3" s="108"/>
+      <c r="FM3" s="108"/>
+      <c r="FN3" s="108"/>
+      <c r="FO3" s="108"/>
+      <c r="FP3" s="108"/>
+      <c r="FQ3" s="108"/>
+      <c r="FR3" s="108"/>
+      <c r="FS3" s="108"/>
+      <c r="FT3" s="108"/>
+      <c r="FU3" s="108"/>
+      <c r="FV3" s="108"/>
+      <c r="FW3" s="108"/>
+      <c r="FX3" s="108"/>
+      <c r="FY3" s="108"/>
+      <c r="FZ3" s="108"/>
+      <c r="GA3" s="108"/>
+      <c r="GB3" s="108"/>
+      <c r="GC3" s="108"/>
+      <c r="GD3" s="108"/>
+      <c r="GE3" s="108"/>
+      <c r="GF3" s="108"/>
+      <c r="GG3" s="108"/>
+      <c r="GH3" s="108"/>
+      <c r="GI3" s="108"/>
+      <c r="GJ3" s="108"/>
+      <c r="GK3" s="108"/>
+      <c r="GL3" s="108"/>
+      <c r="GM3" s="108"/>
+      <c r="GN3" s="108"/>
+      <c r="GO3" s="108"/>
+      <c r="GP3" s="108"/>
+      <c r="GQ3" s="108"/>
+      <c r="GR3" s="108"/>
+      <c r="GS3" s="108"/>
+      <c r="GT3" s="108"/>
+      <c r="GU3" s="108"/>
+      <c r="GV3" s="108"/>
     </row>
     <row r="4" spans="1:205" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="109" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2478,313 +2478,313 @@
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="99">
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="110">
         <v>45418</v>
       </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="98" t="s">
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="100">
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="103">
         <v>45419</v>
       </c>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="98" t="s">
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="100">
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="103">
         <v>45420</v>
       </c>
-      <c r="Y4" s="100"/>
-      <c r="Z4" s="100"/>
-      <c r="AA4" s="100"/>
-      <c r="AB4" s="98" t="s">
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="98"/>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="98"/>
-      <c r="AF4" s="100">
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="106"/>
+      <c r="AE4" s="106"/>
+      <c r="AF4" s="103">
         <v>45421</v>
       </c>
-      <c r="AG4" s="100"/>
-      <c r="AH4" s="100"/>
-      <c r="AI4" s="100"/>
-      <c r="AJ4" s="98" t="s">
+      <c r="AG4" s="103"/>
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="103"/>
+      <c r="AJ4" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="AK4" s="98"/>
-      <c r="AL4" s="98"/>
-      <c r="AM4" s="98"/>
-      <c r="AN4" s="100">
+      <c r="AK4" s="106"/>
+      <c r="AL4" s="106"/>
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="103">
         <v>45422</v>
       </c>
-      <c r="AO4" s="100"/>
-      <c r="AP4" s="100"/>
-      <c r="AQ4" s="100"/>
-      <c r="AR4" s="98" t="s">
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="103"/>
+      <c r="AQ4" s="103"/>
+      <c r="AR4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="AS4" s="98"/>
-      <c r="AT4" s="98"/>
-      <c r="AU4" s="98"/>
-      <c r="AV4" s="100">
+      <c r="AS4" s="106"/>
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="103">
         <v>45425</v>
       </c>
-      <c r="AW4" s="100"/>
-      <c r="AX4" s="100"/>
-      <c r="AY4" s="100"/>
-      <c r="AZ4" s="98" t="s">
+      <c r="AW4" s="103"/>
+      <c r="AX4" s="103"/>
+      <c r="AY4" s="103"/>
+      <c r="AZ4" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="BA4" s="98"/>
-      <c r="BB4" s="98"/>
-      <c r="BC4" s="98"/>
-      <c r="BD4" s="100">
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="103">
         <v>45426</v>
       </c>
-      <c r="BE4" s="100"/>
-      <c r="BF4" s="100"/>
-      <c r="BG4" s="100"/>
-      <c r="BH4" s="98" t="s">
+      <c r="BE4" s="103"/>
+      <c r="BF4" s="103"/>
+      <c r="BG4" s="103"/>
+      <c r="BH4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="BI4" s="98"/>
-      <c r="BJ4" s="98"/>
-      <c r="BK4" s="98"/>
-      <c r="BL4" s="100">
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="103">
         <v>45427</v>
       </c>
-      <c r="BM4" s="100"/>
-      <c r="BN4" s="100"/>
-      <c r="BO4" s="100"/>
-      <c r="BP4" s="98" t="s">
+      <c r="BM4" s="103"/>
+      <c r="BN4" s="103"/>
+      <c r="BO4" s="103"/>
+      <c r="BP4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="BQ4" s="98"/>
-      <c r="BR4" s="98"/>
-      <c r="BS4" s="98"/>
-      <c r="BT4" s="100">
+      <c r="BQ4" s="106"/>
+      <c r="BR4" s="106"/>
+      <c r="BS4" s="106"/>
+      <c r="BT4" s="103">
         <v>45428</v>
       </c>
-      <c r="BU4" s="100"/>
-      <c r="BV4" s="100"/>
-      <c r="BW4" s="100"/>
-      <c r="BX4" s="98" t="s">
+      <c r="BU4" s="103"/>
+      <c r="BV4" s="103"/>
+      <c r="BW4" s="103"/>
+      <c r="BX4" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="BY4" s="98"/>
-      <c r="BZ4" s="98"/>
-      <c r="CA4" s="98"/>
-      <c r="CB4" s="100">
+      <c r="BY4" s="106"/>
+      <c r="BZ4" s="106"/>
+      <c r="CA4" s="106"/>
+      <c r="CB4" s="103">
         <v>45429</v>
       </c>
-      <c r="CC4" s="100"/>
-      <c r="CD4" s="100"/>
-      <c r="CE4" s="100"/>
-      <c r="CF4" s="98" t="s">
+      <c r="CC4" s="103"/>
+      <c r="CD4" s="103"/>
+      <c r="CE4" s="103"/>
+      <c r="CF4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="CG4" s="98"/>
-      <c r="CH4" s="98"/>
-      <c r="CI4" s="98"/>
-      <c r="CJ4" s="100">
+      <c r="CG4" s="106"/>
+      <c r="CH4" s="106"/>
+      <c r="CI4" s="106"/>
+      <c r="CJ4" s="103">
         <v>45432</v>
       </c>
-      <c r="CK4" s="100"/>
-      <c r="CL4" s="100"/>
-      <c r="CM4" s="100"/>
-      <c r="CN4" s="98" t="s">
+      <c r="CK4" s="103"/>
+      <c r="CL4" s="103"/>
+      <c r="CM4" s="103"/>
+      <c r="CN4" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="CO4" s="98"/>
-      <c r="CP4" s="98"/>
-      <c r="CQ4" s="98"/>
-      <c r="CR4" s="100">
+      <c r="CO4" s="106"/>
+      <c r="CP4" s="106"/>
+      <c r="CQ4" s="106"/>
+      <c r="CR4" s="103">
         <v>45433</v>
       </c>
-      <c r="CS4" s="100"/>
-      <c r="CT4" s="100"/>
-      <c r="CU4" s="100"/>
-      <c r="CV4" s="98" t="s">
+      <c r="CS4" s="103"/>
+      <c r="CT4" s="103"/>
+      <c r="CU4" s="103"/>
+      <c r="CV4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="CW4" s="98"/>
-      <c r="CX4" s="98"/>
-      <c r="CY4" s="98"/>
-      <c r="CZ4" s="100">
+      <c r="CW4" s="106"/>
+      <c r="CX4" s="106"/>
+      <c r="CY4" s="106"/>
+      <c r="CZ4" s="103">
         <v>45434</v>
       </c>
-      <c r="DA4" s="100"/>
-      <c r="DB4" s="100"/>
-      <c r="DC4" s="100"/>
-      <c r="DD4" s="98" t="s">
+      <c r="DA4" s="103"/>
+      <c r="DB4" s="103"/>
+      <c r="DC4" s="103"/>
+      <c r="DD4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="DE4" s="98"/>
-      <c r="DF4" s="98"/>
-      <c r="DG4" s="98"/>
-      <c r="DH4" s="100">
+      <c r="DE4" s="106"/>
+      <c r="DF4" s="106"/>
+      <c r="DG4" s="106"/>
+      <c r="DH4" s="103">
         <v>45435</v>
       </c>
-      <c r="DI4" s="100"/>
-      <c r="DJ4" s="100"/>
-      <c r="DK4" s="100"/>
-      <c r="DL4" s="98" t="s">
+      <c r="DI4" s="103"/>
+      <c r="DJ4" s="103"/>
+      <c r="DK4" s="103"/>
+      <c r="DL4" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="DM4" s="98"/>
-      <c r="DN4" s="98"/>
-      <c r="DO4" s="98"/>
-      <c r="DP4" s="100">
+      <c r="DM4" s="106"/>
+      <c r="DN4" s="106"/>
+      <c r="DO4" s="106"/>
+      <c r="DP4" s="103">
         <v>45436</v>
       </c>
-      <c r="DQ4" s="100"/>
-      <c r="DR4" s="100"/>
-      <c r="DS4" s="100"/>
-      <c r="DT4" s="98" t="s">
+      <c r="DQ4" s="103"/>
+      <c r="DR4" s="103"/>
+      <c r="DS4" s="103"/>
+      <c r="DT4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="DU4" s="98"/>
-      <c r="DV4" s="98"/>
-      <c r="DW4" s="98"/>
-      <c r="DX4" s="100">
+      <c r="DU4" s="106"/>
+      <c r="DV4" s="106"/>
+      <c r="DW4" s="106"/>
+      <c r="DX4" s="103">
         <v>45439</v>
       </c>
-      <c r="DY4" s="100"/>
-      <c r="DZ4" s="100"/>
-      <c r="EA4" s="100"/>
-      <c r="EB4" s="98" t="s">
+      <c r="DY4" s="103"/>
+      <c r="DZ4" s="103"/>
+      <c r="EA4" s="103"/>
+      <c r="EB4" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="EC4" s="98"/>
-      <c r="ED4" s="98"/>
-      <c r="EE4" s="98"/>
-      <c r="EF4" s="100">
+      <c r="EC4" s="106"/>
+      <c r="ED4" s="106"/>
+      <c r="EE4" s="106"/>
+      <c r="EF4" s="103">
         <v>45440</v>
       </c>
-      <c r="EG4" s="100"/>
-      <c r="EH4" s="100"/>
-      <c r="EI4" s="100"/>
-      <c r="EJ4" s="98" t="s">
+      <c r="EG4" s="103"/>
+      <c r="EH4" s="103"/>
+      <c r="EI4" s="103"/>
+      <c r="EJ4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="EK4" s="98"/>
-      <c r="EL4" s="98"/>
-      <c r="EM4" s="98"/>
-      <c r="EN4" s="100">
+      <c r="EK4" s="106"/>
+      <c r="EL4" s="106"/>
+      <c r="EM4" s="106"/>
+      <c r="EN4" s="103">
         <v>45441</v>
       </c>
-      <c r="EO4" s="100"/>
-      <c r="EP4" s="100"/>
-      <c r="EQ4" s="100"/>
-      <c r="ER4" s="98" t="s">
+      <c r="EO4" s="103"/>
+      <c r="EP4" s="103"/>
+      <c r="EQ4" s="103"/>
+      <c r="ER4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="ES4" s="98"/>
-      <c r="ET4" s="98"/>
-      <c r="EU4" s="98"/>
-      <c r="EV4" s="100">
+      <c r="ES4" s="106"/>
+      <c r="ET4" s="106"/>
+      <c r="EU4" s="106"/>
+      <c r="EV4" s="103">
         <v>45442</v>
       </c>
-      <c r="EW4" s="100"/>
-      <c r="EX4" s="100"/>
-      <c r="EY4" s="100"/>
-      <c r="EZ4" s="98" t="s">
+      <c r="EW4" s="103"/>
+      <c r="EX4" s="103"/>
+      <c r="EY4" s="103"/>
+      <c r="EZ4" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="FA4" s="98"/>
-      <c r="FB4" s="98"/>
-      <c r="FC4" s="98"/>
-      <c r="FD4" s="100">
+      <c r="FA4" s="106"/>
+      <c r="FB4" s="106"/>
+      <c r="FC4" s="106"/>
+      <c r="FD4" s="103">
         <v>45443</v>
       </c>
-      <c r="FE4" s="100"/>
-      <c r="FF4" s="100"/>
-      <c r="FG4" s="100"/>
-      <c r="FH4" s="98" t="s">
+      <c r="FE4" s="103"/>
+      <c r="FF4" s="103"/>
+      <c r="FG4" s="103"/>
+      <c r="FH4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="FI4" s="98"/>
-      <c r="FJ4" s="98"/>
-      <c r="FK4" s="98"/>
-      <c r="FL4" s="100">
+      <c r="FI4" s="106"/>
+      <c r="FJ4" s="106"/>
+      <c r="FK4" s="106"/>
+      <c r="FL4" s="103">
         <v>45446</v>
       </c>
-      <c r="FM4" s="100"/>
-      <c r="FN4" s="100"/>
-      <c r="FO4" s="100"/>
-      <c r="FP4" s="98" t="s">
+      <c r="FM4" s="103"/>
+      <c r="FN4" s="103"/>
+      <c r="FO4" s="103"/>
+      <c r="FP4" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="FQ4" s="98"/>
-      <c r="FR4" s="98"/>
-      <c r="FS4" s="98"/>
-      <c r="FT4" s="100">
+      <c r="FQ4" s="106"/>
+      <c r="FR4" s="106"/>
+      <c r="FS4" s="106"/>
+      <c r="FT4" s="103">
         <v>45447</v>
       </c>
-      <c r="FU4" s="100"/>
-      <c r="FV4" s="100"/>
-      <c r="FW4" s="100"/>
-      <c r="FX4" s="98" t="s">
+      <c r="FU4" s="103"/>
+      <c r="FV4" s="103"/>
+      <c r="FW4" s="103"/>
+      <c r="FX4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="FY4" s="98"/>
-      <c r="FZ4" s="98"/>
-      <c r="GA4" s="98"/>
-      <c r="GB4" s="100">
+      <c r="FY4" s="106"/>
+      <c r="FZ4" s="106"/>
+      <c r="GA4" s="106"/>
+      <c r="GB4" s="103">
         <v>45448</v>
       </c>
-      <c r="GC4" s="100"/>
-      <c r="GD4" s="100"/>
-      <c r="GE4" s="100"/>
-      <c r="GF4" s="98" t="s">
+      <c r="GC4" s="103"/>
+      <c r="GD4" s="103"/>
+      <c r="GE4" s="103"/>
+      <c r="GF4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="GG4" s="98"/>
-      <c r="GH4" s="98"/>
-      <c r="GI4" s="98"/>
-      <c r="GJ4" s="104">
+      <c r="GG4" s="106"/>
+      <c r="GH4" s="106"/>
+      <c r="GI4" s="106"/>
+      <c r="GJ4" s="107">
         <v>45449</v>
       </c>
-      <c r="GK4" s="104"/>
-      <c r="GL4" s="104"/>
-      <c r="GM4" s="104"/>
+      <c r="GK4" s="107"/>
+      <c r="GL4" s="107"/>
+      <c r="GM4" s="107"/>
       <c r="GN4" s="7"/>
-      <c r="GO4" s="101" t="s">
+      <c r="GO4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="GP4" s="101"/>
-      <c r="GQ4" s="101"/>
-      <c r="GR4" s="101"/>
-      <c r="GS4" s="100">
+      <c r="GP4" s="102"/>
+      <c r="GQ4" s="102"/>
+      <c r="GR4" s="102"/>
+      <c r="GS4" s="103">
         <v>45457</v>
       </c>
-      <c r="GT4" s="100"/>
-      <c r="GU4" s="100"/>
-      <c r="GV4" s="100"/>
-      <c r="GW4" s="102" t="s">
+      <c r="GT4" s="103"/>
+      <c r="GU4" s="103"/>
+      <c r="GV4" s="103"/>
+      <c r="GW4" s="104" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A5" s="97"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -3392,7 +3392,7 @@
       <c r="GV5" s="12">
         <v>8</v>
       </c>
-      <c r="GW5" s="102"/>
+      <c r="GW5" s="104"/>
     </row>
     <row r="6" spans="1:205" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
@@ -3426,16 +3426,16 @@
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="21"/>
-      <c r="AB6" s="103" t="s">
+      <c r="AB6" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="AC6" s="103"/>
-      <c r="AD6" s="103"/>
-      <c r="AE6" s="103"/>
-      <c r="AF6" s="103"/>
-      <c r="AG6" s="103"/>
-      <c r="AH6" s="103"/>
-      <c r="AI6" s="103"/>
+      <c r="AC6" s="105"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="105"/>
+      <c r="AF6" s="105"/>
+      <c r="AG6" s="105"/>
+      <c r="AH6" s="105"/>
+      <c r="AI6" s="105"/>
       <c r="AJ6" s="19"/>
       <c r="AK6" s="20"/>
       <c r="AL6" s="20"/>
@@ -3490,16 +3490,16 @@
       <c r="CE6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="CF6" s="103" t="s">
+      <c r="CF6" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="CG6" s="103"/>
-      <c r="CH6" s="103"/>
-      <c r="CI6" s="103"/>
-      <c r="CJ6" s="103"/>
-      <c r="CK6" s="103"/>
-      <c r="CL6" s="103"/>
-      <c r="CM6" s="103"/>
+      <c r="CG6" s="105"/>
+      <c r="CH6" s="105"/>
+      <c r="CI6" s="105"/>
+      <c r="CJ6" s="105"/>
+      <c r="CK6" s="105"/>
+      <c r="CL6" s="105"/>
+      <c r="CM6" s="105"/>
       <c r="CN6" s="22" t="s">
         <v>17</v>
       </c>
@@ -3572,16 +3572,16 @@
       <c r="EO6" s="23"/>
       <c r="EP6" s="23"/>
       <c r="EQ6" s="25"/>
-      <c r="ER6" s="103" t="s">
+      <c r="ER6" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="ES6" s="103"/>
-      <c r="ET6" s="103"/>
-      <c r="EU6" s="103"/>
-      <c r="EV6" s="103"/>
-      <c r="EW6" s="103"/>
-      <c r="EX6" s="103"/>
-      <c r="EY6" s="103"/>
+      <c r="ES6" s="105"/>
+      <c r="ET6" s="105"/>
+      <c r="EU6" s="105"/>
+      <c r="EV6" s="105"/>
+      <c r="EW6" s="105"/>
+      <c r="EX6" s="105"/>
+      <c r="EY6" s="105"/>
       <c r="EZ6" s="22"/>
       <c r="FA6" s="23"/>
       <c r="FB6" s="23"/>
@@ -3631,13 +3631,13 @@
       <c r="GT6" s="31"/>
       <c r="GU6" s="31"/>
       <c r="GV6" s="31"/>
-      <c r="GW6" s="102"/>
+      <c r="GW6" s="104"/>
     </row>
     <row r="7" spans="1:205" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="108"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="33"/>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
@@ -3663,14 +3663,14 @@
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="21"/>
-      <c r="AB7" s="103"/>
-      <c r="AC7" s="103"/>
-      <c r="AD7" s="103"/>
-      <c r="AE7" s="103"/>
-      <c r="AF7" s="103"/>
-      <c r="AG7" s="103"/>
-      <c r="AH7" s="103"/>
-      <c r="AI7" s="103"/>
+      <c r="AB7" s="105"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="105"/>
+      <c r="AE7" s="105"/>
+      <c r="AF7" s="105"/>
+      <c r="AG7" s="105"/>
+      <c r="AH7" s="105"/>
+      <c r="AI7" s="105"/>
       <c r="AJ7" s="19"/>
       <c r="AK7" s="20"/>
       <c r="AL7" s="20"/>
@@ -3719,14 +3719,14 @@
       <c r="CC7" s="20"/>
       <c r="CD7" s="20"/>
       <c r="CE7" s="21"/>
-      <c r="CF7" s="103"/>
-      <c r="CG7" s="103"/>
-      <c r="CH7" s="103"/>
-      <c r="CI7" s="103"/>
-      <c r="CJ7" s="103"/>
-      <c r="CK7" s="103"/>
-      <c r="CL7" s="103"/>
-      <c r="CM7" s="103"/>
+      <c r="CF7" s="105"/>
+      <c r="CG7" s="105"/>
+      <c r="CH7" s="105"/>
+      <c r="CI7" s="105"/>
+      <c r="CJ7" s="105"/>
+      <c r="CK7" s="105"/>
+      <c r="CL7" s="105"/>
+      <c r="CM7" s="105"/>
       <c r="CN7" s="19"/>
       <c r="CO7" s="20"/>
       <c r="CP7" s="20"/>
@@ -3783,14 +3783,14 @@
       <c r="EO7" s="20"/>
       <c r="EP7" s="20"/>
       <c r="EQ7" s="21"/>
-      <c r="ER7" s="103"/>
-      <c r="ES7" s="103"/>
-      <c r="ET7" s="103"/>
-      <c r="EU7" s="103"/>
-      <c r="EV7" s="103"/>
-      <c r="EW7" s="103"/>
-      <c r="EX7" s="103"/>
-      <c r="EY7" s="103"/>
+      <c r="ER7" s="105"/>
+      <c r="ES7" s="105"/>
+      <c r="ET7" s="105"/>
+      <c r="EU7" s="105"/>
+      <c r="EV7" s="105"/>
+      <c r="EW7" s="105"/>
+      <c r="EX7" s="105"/>
+      <c r="EY7" s="105"/>
       <c r="EZ7" s="19"/>
       <c r="FA7" s="20"/>
       <c r="FB7" s="20"/>
@@ -3840,7 +3840,7 @@
       <c r="GT7" s="20"/>
       <c r="GU7" s="20"/>
       <c r="GV7" s="20"/>
-      <c r="GW7" s="102"/>
+      <c r="GW7" s="104"/>
     </row>
     <row r="8" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
@@ -3874,14 +3874,14 @@
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="21"/>
-      <c r="AB8" s="103"/>
-      <c r="AC8" s="103"/>
-      <c r="AD8" s="103"/>
-      <c r="AE8" s="103"/>
-      <c r="AF8" s="103"/>
-      <c r="AG8" s="103"/>
-      <c r="AH8" s="103"/>
-      <c r="AI8" s="103"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="105"/>
+      <c r="AF8" s="105"/>
+      <c r="AG8" s="105"/>
+      <c r="AH8" s="105"/>
+      <c r="AI8" s="105"/>
       <c r="AJ8" s="19"/>
       <c r="AK8" s="20"/>
       <c r="AL8" s="20"/>
@@ -3934,14 +3934,14 @@
       <c r="CC8" s="20"/>
       <c r="CD8" s="20"/>
       <c r="CE8" s="36"/>
-      <c r="CF8" s="103"/>
-      <c r="CG8" s="103"/>
-      <c r="CH8" s="103"/>
-      <c r="CI8" s="103"/>
-      <c r="CJ8" s="103"/>
-      <c r="CK8" s="103"/>
-      <c r="CL8" s="103"/>
-      <c r="CM8" s="103"/>
+      <c r="CF8" s="105"/>
+      <c r="CG8" s="105"/>
+      <c r="CH8" s="105"/>
+      <c r="CI8" s="105"/>
+      <c r="CJ8" s="105"/>
+      <c r="CK8" s="105"/>
+      <c r="CL8" s="105"/>
+      <c r="CM8" s="105"/>
       <c r="CN8" s="19"/>
       <c r="CO8" s="20"/>
       <c r="CP8" s="20"/>
@@ -3998,14 +3998,14 @@
       <c r="EO8" s="20"/>
       <c r="EP8" s="20"/>
       <c r="EQ8" s="21"/>
-      <c r="ER8" s="103"/>
-      <c r="ES8" s="103"/>
-      <c r="ET8" s="103"/>
-      <c r="EU8" s="103"/>
-      <c r="EV8" s="103"/>
-      <c r="EW8" s="103"/>
-      <c r="EX8" s="103"/>
-      <c r="EY8" s="103"/>
+      <c r="ER8" s="105"/>
+      <c r="ES8" s="105"/>
+      <c r="ET8" s="105"/>
+      <c r="EU8" s="105"/>
+      <c r="EV8" s="105"/>
+      <c r="EW8" s="105"/>
+      <c r="EX8" s="105"/>
+      <c r="EY8" s="105"/>
       <c r="EZ8" s="19"/>
       <c r="FA8" s="20"/>
       <c r="FB8" s="20"/>
@@ -4055,7 +4055,7 @@
       <c r="GT8" s="20"/>
       <c r="GU8" s="20"/>
       <c r="GV8" s="20"/>
-      <c r="GW8" s="102"/>
+      <c r="GW8" s="104"/>
     </row>
     <row r="9" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A9" s="43" t="s">
@@ -4089,14 +4089,14 @@
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="21"/>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="103"/>
-      <c r="AD9" s="103"/>
-      <c r="AE9" s="103"/>
-      <c r="AF9" s="103"/>
-      <c r="AG9" s="103"/>
-      <c r="AH9" s="103"/>
-      <c r="AI9" s="103"/>
+      <c r="AB9" s="105"/>
+      <c r="AC9" s="105"/>
+      <c r="AD9" s="105"/>
+      <c r="AE9" s="105"/>
+      <c r="AF9" s="105"/>
+      <c r="AG9" s="105"/>
+      <c r="AH9" s="105"/>
+      <c r="AI9" s="105"/>
       <c r="AJ9" s="19"/>
       <c r="AK9" s="20"/>
       <c r="AL9" s="20"/>
@@ -4165,14 +4165,14 @@
         <v>17</v>
       </c>
       <c r="CE9" s="42"/>
-      <c r="CF9" s="103"/>
-      <c r="CG9" s="103"/>
-      <c r="CH9" s="103"/>
-      <c r="CI9" s="103"/>
-      <c r="CJ9" s="103"/>
-      <c r="CK9" s="103"/>
-      <c r="CL9" s="103"/>
-      <c r="CM9" s="103"/>
+      <c r="CF9" s="105"/>
+      <c r="CG9" s="105"/>
+      <c r="CH9" s="105"/>
+      <c r="CI9" s="105"/>
+      <c r="CJ9" s="105"/>
+      <c r="CK9" s="105"/>
+      <c r="CL9" s="105"/>
+      <c r="CM9" s="105"/>
       <c r="CN9" s="19"/>
       <c r="CO9" s="20"/>
       <c r="CP9" s="20"/>
@@ -4229,14 +4229,14 @@
       <c r="EO9" s="20"/>
       <c r="EP9" s="20"/>
       <c r="EQ9" s="21"/>
-      <c r="ER9" s="103"/>
-      <c r="ES9" s="103"/>
-      <c r="ET9" s="103"/>
-      <c r="EU9" s="103"/>
-      <c r="EV9" s="103"/>
-      <c r="EW9" s="103"/>
-      <c r="EX9" s="103"/>
-      <c r="EY9" s="103"/>
+      <c r="ER9" s="105"/>
+      <c r="ES9" s="105"/>
+      <c r="ET9" s="105"/>
+      <c r="EU9" s="105"/>
+      <c r="EV9" s="105"/>
+      <c r="EW9" s="105"/>
+      <c r="EX9" s="105"/>
+      <c r="EY9" s="105"/>
       <c r="EZ9" s="19"/>
       <c r="FA9" s="20"/>
       <c r="FB9" s="20"/>
@@ -4286,13 +4286,13 @@
       <c r="GT9" s="20"/>
       <c r="GU9" s="20"/>
       <c r="GV9" s="20"/>
-      <c r="GW9" s="102"/>
+      <c r="GW9" s="104"/>
     </row>
     <row r="10" spans="1:205" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="109"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="33"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
@@ -4318,14 +4318,14 @@
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="21"/>
-      <c r="AB10" s="103"/>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="103"/>
-      <c r="AE10" s="103"/>
-      <c r="AF10" s="103"/>
-      <c r="AG10" s="103"/>
-      <c r="AH10" s="103"/>
-      <c r="AI10" s="103"/>
+      <c r="AB10" s="105"/>
+      <c r="AC10" s="105"/>
+      <c r="AD10" s="105"/>
+      <c r="AE10" s="105"/>
+      <c r="AF10" s="105"/>
+      <c r="AG10" s="105"/>
+      <c r="AH10" s="105"/>
+      <c r="AI10" s="105"/>
       <c r="AJ10" s="19"/>
       <c r="AK10" s="20"/>
       <c r="AL10" s="20"/>
@@ -4374,14 +4374,14 @@
       <c r="CC10" s="35"/>
       <c r="CD10" s="35"/>
       <c r="CE10" s="35"/>
-      <c r="CF10" s="103"/>
-      <c r="CG10" s="103"/>
-      <c r="CH10" s="103"/>
-      <c r="CI10" s="103"/>
-      <c r="CJ10" s="103"/>
-      <c r="CK10" s="103"/>
-      <c r="CL10" s="103"/>
-      <c r="CM10" s="103"/>
+      <c r="CF10" s="105"/>
+      <c r="CG10" s="105"/>
+      <c r="CH10" s="105"/>
+      <c r="CI10" s="105"/>
+      <c r="CJ10" s="105"/>
+      <c r="CK10" s="105"/>
+      <c r="CL10" s="105"/>
+      <c r="CM10" s="105"/>
       <c r="CN10" s="19"/>
       <c r="CO10" s="20"/>
       <c r="CP10" s="20"/>
@@ -4438,14 +4438,14 @@
       <c r="EO10" s="20"/>
       <c r="EP10" s="20"/>
       <c r="EQ10" s="21"/>
-      <c r="ER10" s="103"/>
-      <c r="ES10" s="103"/>
-      <c r="ET10" s="103"/>
-      <c r="EU10" s="103"/>
-      <c r="EV10" s="103"/>
-      <c r="EW10" s="103"/>
-      <c r="EX10" s="103"/>
-      <c r="EY10" s="103"/>
+      <c r="ER10" s="105"/>
+      <c r="ES10" s="105"/>
+      <c r="ET10" s="105"/>
+      <c r="EU10" s="105"/>
+      <c r="EV10" s="105"/>
+      <c r="EW10" s="105"/>
+      <c r="EX10" s="105"/>
+      <c r="EY10" s="105"/>
       <c r="EZ10" s="19"/>
       <c r="FA10" s="20"/>
       <c r="FB10" s="20"/>
@@ -4495,7 +4495,7 @@
       <c r="GT10" s="20"/>
       <c r="GU10" s="20"/>
       <c r="GV10" s="20"/>
-      <c r="GW10" s="102"/>
+      <c r="GW10" s="104"/>
     </row>
     <row r="11" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A11" s="48" t="s">
@@ -4529,14 +4529,14 @@
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="21"/>
-      <c r="AB11" s="103"/>
-      <c r="AC11" s="103"/>
-      <c r="AD11" s="103"/>
-      <c r="AE11" s="103"/>
-      <c r="AF11" s="103"/>
-      <c r="AG11" s="103"/>
-      <c r="AH11" s="103"/>
-      <c r="AI11" s="103"/>
+      <c r="AB11" s="105"/>
+      <c r="AC11" s="105"/>
+      <c r="AD11" s="105"/>
+      <c r="AE11" s="105"/>
+      <c r="AF11" s="105"/>
+      <c r="AG11" s="105"/>
+      <c r="AH11" s="105"/>
+      <c r="AI11" s="105"/>
       <c r="AJ11" s="19"/>
       <c r="AK11" s="20"/>
       <c r="AL11" s="20"/>
@@ -4587,14 +4587,14 @@
       </c>
       <c r="CD11" s="20"/>
       <c r="CE11" s="20"/>
-      <c r="CF11" s="103"/>
-      <c r="CG11" s="103"/>
-      <c r="CH11" s="103"/>
-      <c r="CI11" s="103"/>
-      <c r="CJ11" s="103"/>
-      <c r="CK11" s="103"/>
-      <c r="CL11" s="103"/>
-      <c r="CM11" s="103"/>
+      <c r="CF11" s="105"/>
+      <c r="CG11" s="105"/>
+      <c r="CH11" s="105"/>
+      <c r="CI11" s="105"/>
+      <c r="CJ11" s="105"/>
+      <c r="CK11" s="105"/>
+      <c r="CL11" s="105"/>
+      <c r="CM11" s="105"/>
       <c r="CN11" s="49"/>
       <c r="CO11" s="20"/>
       <c r="CP11" s="20"/>
@@ -4653,14 +4653,14 @@
       <c r="EO11" s="20"/>
       <c r="EP11" s="20"/>
       <c r="EQ11" s="21"/>
-      <c r="ER11" s="103"/>
-      <c r="ES11" s="103"/>
-      <c r="ET11" s="103"/>
-      <c r="EU11" s="103"/>
-      <c r="EV11" s="103"/>
-      <c r="EW11" s="103"/>
-      <c r="EX11" s="103"/>
-      <c r="EY11" s="103"/>
+      <c r="ER11" s="105"/>
+      <c r="ES11" s="105"/>
+      <c r="ET11" s="105"/>
+      <c r="EU11" s="105"/>
+      <c r="EV11" s="105"/>
+      <c r="EW11" s="105"/>
+      <c r="EX11" s="105"/>
+      <c r="EY11" s="105"/>
       <c r="EZ11" s="19"/>
       <c r="FA11" s="20"/>
       <c r="FB11" s="20"/>
@@ -4710,7 +4710,7 @@
       <c r="GT11" s="20"/>
       <c r="GU11" s="20"/>
       <c r="GV11" s="20"/>
-      <c r="GW11" s="102"/>
+      <c r="GW11" s="104"/>
     </row>
     <row r="12" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
@@ -4744,14 +4744,14 @@
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="21"/>
-      <c r="AB12" s="103"/>
-      <c r="AC12" s="103"/>
-      <c r="AD12" s="103"/>
-      <c r="AE12" s="103"/>
-      <c r="AF12" s="103"/>
-      <c r="AG12" s="103"/>
-      <c r="AH12" s="103"/>
-      <c r="AI12" s="103"/>
+      <c r="AB12" s="105"/>
+      <c r="AC12" s="105"/>
+      <c r="AD12" s="105"/>
+      <c r="AE12" s="105"/>
+      <c r="AF12" s="105"/>
+      <c r="AG12" s="105"/>
+      <c r="AH12" s="105"/>
+      <c r="AI12" s="105"/>
       <c r="AJ12" s="19"/>
       <c r="AK12" s="20"/>
       <c r="AL12" s="20"/>
@@ -4800,14 +4800,14 @@
       <c r="CC12" s="20"/>
       <c r="CD12" s="20"/>
       <c r="CE12" s="21"/>
-      <c r="CF12" s="103"/>
-      <c r="CG12" s="103"/>
-      <c r="CH12" s="103"/>
-      <c r="CI12" s="103"/>
-      <c r="CJ12" s="103"/>
-      <c r="CK12" s="103"/>
-      <c r="CL12" s="103"/>
-      <c r="CM12" s="103"/>
+      <c r="CF12" s="105"/>
+      <c r="CG12" s="105"/>
+      <c r="CH12" s="105"/>
+      <c r="CI12" s="105"/>
+      <c r="CJ12" s="105"/>
+      <c r="CK12" s="105"/>
+      <c r="CL12" s="105"/>
+      <c r="CM12" s="105"/>
       <c r="CN12" s="19"/>
       <c r="CO12" s="52" t="s">
         <v>17</v>
@@ -4870,14 +4870,14 @@
       <c r="EO12" s="20"/>
       <c r="EP12" s="20"/>
       <c r="EQ12" s="21"/>
-      <c r="ER12" s="103"/>
-      <c r="ES12" s="103"/>
-      <c r="ET12" s="103"/>
-      <c r="EU12" s="103"/>
-      <c r="EV12" s="103"/>
-      <c r="EW12" s="103"/>
-      <c r="EX12" s="103"/>
-      <c r="EY12" s="103"/>
+      <c r="ER12" s="105"/>
+      <c r="ES12" s="105"/>
+      <c r="ET12" s="105"/>
+      <c r="EU12" s="105"/>
+      <c r="EV12" s="105"/>
+      <c r="EW12" s="105"/>
+      <c r="EX12" s="105"/>
+      <c r="EY12" s="105"/>
       <c r="EZ12" s="19"/>
       <c r="FA12" s="20"/>
       <c r="FB12" s="20"/>
@@ -4927,7 +4927,7 @@
       <c r="GT12" s="20"/>
       <c r="GU12" s="20"/>
       <c r="GV12" s="20"/>
-      <c r="GW12" s="102"/>
+      <c r="GW12" s="104"/>
     </row>
     <row r="13" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A13" s="53" t="s">
@@ -4961,14 +4961,14 @@
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="21"/>
-      <c r="AB13" s="103"/>
-      <c r="AC13" s="103"/>
-      <c r="AD13" s="103"/>
-      <c r="AE13" s="103"/>
-      <c r="AF13" s="103"/>
-      <c r="AG13" s="103"/>
-      <c r="AH13" s="103"/>
-      <c r="AI13" s="103"/>
+      <c r="AB13" s="105"/>
+      <c r="AC13" s="105"/>
+      <c r="AD13" s="105"/>
+      <c r="AE13" s="105"/>
+      <c r="AF13" s="105"/>
+      <c r="AG13" s="105"/>
+      <c r="AH13" s="105"/>
+      <c r="AI13" s="105"/>
       <c r="AJ13" s="19"/>
       <c r="AK13" s="20"/>
       <c r="AL13" s="20"/>
@@ -5017,14 +5017,14 @@
       <c r="CC13" s="20"/>
       <c r="CD13" s="20"/>
       <c r="CE13" s="21"/>
-      <c r="CF13" s="103"/>
-      <c r="CG13" s="103"/>
-      <c r="CH13" s="103"/>
-      <c r="CI13" s="103"/>
-      <c r="CJ13" s="103"/>
-      <c r="CK13" s="103"/>
-      <c r="CL13" s="103"/>
-      <c r="CM13" s="103"/>
+      <c r="CF13" s="105"/>
+      <c r="CG13" s="105"/>
+      <c r="CH13" s="105"/>
+      <c r="CI13" s="105"/>
+      <c r="CJ13" s="105"/>
+      <c r="CK13" s="105"/>
+      <c r="CL13" s="105"/>
+      <c r="CM13" s="105"/>
       <c r="CN13" s="19"/>
       <c r="CO13" s="20"/>
       <c r="CP13" s="54"/>
@@ -5091,14 +5091,14 @@
       <c r="EO13" s="20"/>
       <c r="EP13" s="20"/>
       <c r="EQ13" s="21"/>
-      <c r="ER13" s="103"/>
-      <c r="ES13" s="103"/>
-      <c r="ET13" s="103"/>
-      <c r="EU13" s="103"/>
-      <c r="EV13" s="103"/>
-      <c r="EW13" s="103"/>
-      <c r="EX13" s="103"/>
-      <c r="EY13" s="103"/>
+      <c r="ER13" s="105"/>
+      <c r="ES13" s="105"/>
+      <c r="ET13" s="105"/>
+      <c r="EU13" s="105"/>
+      <c r="EV13" s="105"/>
+      <c r="EW13" s="105"/>
+      <c r="EX13" s="105"/>
+      <c r="EY13" s="105"/>
       <c r="EZ13" s="19"/>
       <c r="FA13" s="20"/>
       <c r="FB13" s="20"/>
@@ -5148,13 +5148,13 @@
       <c r="GT13" s="20"/>
       <c r="GU13" s="20"/>
       <c r="GV13" s="20"/>
-      <c r="GW13" s="102"/>
+      <c r="GW13" s="104"/>
     </row>
     <row r="14" spans="1:205" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="110"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="33"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
@@ -5180,14 +5180,14 @@
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="21"/>
-      <c r="AB14" s="103"/>
-      <c r="AC14" s="103"/>
-      <c r="AD14" s="103"/>
-      <c r="AE14" s="103"/>
-      <c r="AF14" s="103"/>
-      <c r="AG14" s="103"/>
-      <c r="AH14" s="103"/>
-      <c r="AI14" s="103"/>
+      <c r="AB14" s="105"/>
+      <c r="AC14" s="105"/>
+      <c r="AD14" s="105"/>
+      <c r="AE14" s="105"/>
+      <c r="AF14" s="105"/>
+      <c r="AG14" s="105"/>
+      <c r="AH14" s="105"/>
+      <c r="AI14" s="105"/>
       <c r="AJ14" s="19"/>
       <c r="AK14" s="20"/>
       <c r="AL14" s="20"/>
@@ -5236,14 +5236,14 @@
       <c r="CC14" s="20"/>
       <c r="CD14" s="20"/>
       <c r="CE14" s="21"/>
-      <c r="CF14" s="103"/>
-      <c r="CG14" s="103"/>
-      <c r="CH14" s="103"/>
-      <c r="CI14" s="103"/>
-      <c r="CJ14" s="103"/>
-      <c r="CK14" s="103"/>
-      <c r="CL14" s="103"/>
-      <c r="CM14" s="103"/>
+      <c r="CF14" s="105"/>
+      <c r="CG14" s="105"/>
+      <c r="CH14" s="105"/>
+      <c r="CI14" s="105"/>
+      <c r="CJ14" s="105"/>
+      <c r="CK14" s="105"/>
+      <c r="CL14" s="105"/>
+      <c r="CM14" s="105"/>
       <c r="CN14" s="19"/>
       <c r="CO14" s="20"/>
       <c r="CP14" s="20"/>
@@ -5300,14 +5300,14 @@
       <c r="EO14" s="20"/>
       <c r="EP14" s="20"/>
       <c r="EQ14" s="21"/>
-      <c r="ER14" s="103"/>
-      <c r="ES14" s="103"/>
-      <c r="ET14" s="103"/>
-      <c r="EU14" s="103"/>
-      <c r="EV14" s="103"/>
-      <c r="EW14" s="103"/>
-      <c r="EX14" s="103"/>
-      <c r="EY14" s="103"/>
+      <c r="ER14" s="105"/>
+      <c r="ES14" s="105"/>
+      <c r="ET14" s="105"/>
+      <c r="EU14" s="105"/>
+      <c r="EV14" s="105"/>
+      <c r="EW14" s="105"/>
+      <c r="EX14" s="105"/>
+      <c r="EY14" s="105"/>
       <c r="EZ14" s="19"/>
       <c r="FA14" s="20"/>
       <c r="FB14" s="20"/>
@@ -5357,7 +5357,7 @@
       <c r="GT14" s="20"/>
       <c r="GU14" s="20"/>
       <c r="GV14" s="20"/>
-      <c r="GW14" s="102"/>
+      <c r="GW14" s="104"/>
     </row>
     <row r="15" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A15" s="55" t="s">
@@ -5391,14 +5391,14 @@
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="21"/>
-      <c r="AB15" s="103"/>
-      <c r="AC15" s="103"/>
-      <c r="AD15" s="103"/>
-      <c r="AE15" s="103"/>
-      <c r="AF15" s="103"/>
-      <c r="AG15" s="103"/>
-      <c r="AH15" s="103"/>
-      <c r="AI15" s="103"/>
+      <c r="AB15" s="105"/>
+      <c r="AC15" s="105"/>
+      <c r="AD15" s="105"/>
+      <c r="AE15" s="105"/>
+      <c r="AF15" s="105"/>
+      <c r="AG15" s="105"/>
+      <c r="AH15" s="105"/>
+      <c r="AI15" s="105"/>
       <c r="AJ15" s="19"/>
       <c r="AK15" s="20"/>
       <c r="AL15" s="20"/>
@@ -5447,14 +5447,14 @@
       <c r="CC15" s="20"/>
       <c r="CD15" s="20"/>
       <c r="CE15" s="21"/>
-      <c r="CF15" s="103"/>
-      <c r="CG15" s="103"/>
-      <c r="CH15" s="103"/>
-      <c r="CI15" s="103"/>
-      <c r="CJ15" s="103"/>
-      <c r="CK15" s="103"/>
-      <c r="CL15" s="103"/>
-      <c r="CM15" s="103"/>
+      <c r="CF15" s="105"/>
+      <c r="CG15" s="105"/>
+      <c r="CH15" s="105"/>
+      <c r="CI15" s="105"/>
+      <c r="CJ15" s="105"/>
+      <c r="CK15" s="105"/>
+      <c r="CL15" s="105"/>
+      <c r="CM15" s="105"/>
       <c r="CN15" s="19"/>
       <c r="CO15" s="20"/>
       <c r="CP15" s="20"/>
@@ -5517,14 +5517,14 @@
       <c r="EO15" s="20"/>
       <c r="EP15" s="20"/>
       <c r="EQ15" s="21"/>
-      <c r="ER15" s="103"/>
-      <c r="ES15" s="103"/>
-      <c r="ET15" s="103"/>
-      <c r="EU15" s="103"/>
-      <c r="EV15" s="103"/>
-      <c r="EW15" s="103"/>
-      <c r="EX15" s="103"/>
-      <c r="EY15" s="103"/>
+      <c r="ER15" s="105"/>
+      <c r="ES15" s="105"/>
+      <c r="ET15" s="105"/>
+      <c r="EU15" s="105"/>
+      <c r="EV15" s="105"/>
+      <c r="EW15" s="105"/>
+      <c r="EX15" s="105"/>
+      <c r="EY15" s="105"/>
       <c r="EZ15" s="19"/>
       <c r="FA15" s="20"/>
       <c r="FB15" s="20"/>
@@ -5574,7 +5574,7 @@
       <c r="GT15" s="20"/>
       <c r="GU15" s="20"/>
       <c r="GV15" s="20"/>
-      <c r="GW15" s="102"/>
+      <c r="GW15" s="104"/>
     </row>
     <row r="16" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A16" s="59" t="s">
@@ -5608,14 +5608,14 @@
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="21"/>
-      <c r="AB16" s="103"/>
-      <c r="AC16" s="103"/>
-      <c r="AD16" s="103"/>
-      <c r="AE16" s="103"/>
-      <c r="AF16" s="103"/>
-      <c r="AG16" s="103"/>
-      <c r="AH16" s="103"/>
-      <c r="AI16" s="103"/>
+      <c r="AB16" s="105"/>
+      <c r="AC16" s="105"/>
+      <c r="AD16" s="105"/>
+      <c r="AE16" s="105"/>
+      <c r="AF16" s="105"/>
+      <c r="AG16" s="105"/>
+      <c r="AH16" s="105"/>
+      <c r="AI16" s="105"/>
       <c r="AJ16" s="19"/>
       <c r="AK16" s="20"/>
       <c r="AL16" s="20"/>
@@ -5664,14 +5664,14 @@
       <c r="CC16" s="20"/>
       <c r="CD16" s="20"/>
       <c r="CE16" s="21"/>
-      <c r="CF16" s="103"/>
-      <c r="CG16" s="103"/>
-      <c r="CH16" s="103"/>
-      <c r="CI16" s="103"/>
-      <c r="CJ16" s="103"/>
-      <c r="CK16" s="103"/>
-      <c r="CL16" s="103"/>
-      <c r="CM16" s="103"/>
+      <c r="CF16" s="105"/>
+      <c r="CG16" s="105"/>
+      <c r="CH16" s="105"/>
+      <c r="CI16" s="105"/>
+      <c r="CJ16" s="105"/>
+      <c r="CK16" s="105"/>
+      <c r="CL16" s="105"/>
+      <c r="CM16" s="105"/>
       <c r="CN16" s="19"/>
       <c r="CO16" s="20"/>
       <c r="CP16" s="20"/>
@@ -5730,14 +5730,14 @@
       <c r="EO16" s="20"/>
       <c r="EP16" s="20"/>
       <c r="EQ16" s="21"/>
-      <c r="ER16" s="103"/>
-      <c r="ES16" s="103"/>
-      <c r="ET16" s="103"/>
-      <c r="EU16" s="103"/>
-      <c r="EV16" s="103"/>
-      <c r="EW16" s="103"/>
-      <c r="EX16" s="103"/>
-      <c r="EY16" s="103"/>
+      <c r="ER16" s="105"/>
+      <c r="ES16" s="105"/>
+      <c r="ET16" s="105"/>
+      <c r="EU16" s="105"/>
+      <c r="EV16" s="105"/>
+      <c r="EW16" s="105"/>
+      <c r="EX16" s="105"/>
+      <c r="EY16" s="105"/>
       <c r="EZ16" s="19"/>
       <c r="FA16" s="20"/>
       <c r="FB16" s="20"/>
@@ -5787,7 +5787,7 @@
       <c r="GT16" s="20"/>
       <c r="GU16" s="20"/>
       <c r="GV16" s="20"/>
-      <c r="GW16" s="102"/>
+      <c r="GW16" s="104"/>
     </row>
     <row r="17" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A17" s="59" t="s">
@@ -5821,14 +5821,14 @@
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="21"/>
-      <c r="AB17" s="103"/>
-      <c r="AC17" s="103"/>
-      <c r="AD17" s="103"/>
-      <c r="AE17" s="103"/>
-      <c r="AF17" s="103"/>
-      <c r="AG17" s="103"/>
-      <c r="AH17" s="103"/>
-      <c r="AI17" s="103"/>
+      <c r="AB17" s="105"/>
+      <c r="AC17" s="105"/>
+      <c r="AD17" s="105"/>
+      <c r="AE17" s="105"/>
+      <c r="AF17" s="105"/>
+      <c r="AG17" s="105"/>
+      <c r="AH17" s="105"/>
+      <c r="AI17" s="105"/>
       <c r="AJ17" s="19"/>
       <c r="AK17" s="20"/>
       <c r="AL17" s="20"/>
@@ -5877,14 +5877,14 @@
       <c r="CC17" s="20"/>
       <c r="CD17" s="20"/>
       <c r="CE17" s="21"/>
-      <c r="CF17" s="103"/>
-      <c r="CG17" s="103"/>
-      <c r="CH17" s="103"/>
-      <c r="CI17" s="103"/>
-      <c r="CJ17" s="103"/>
-      <c r="CK17" s="103"/>
-      <c r="CL17" s="103"/>
-      <c r="CM17" s="103"/>
+      <c r="CF17" s="105"/>
+      <c r="CG17" s="105"/>
+      <c r="CH17" s="105"/>
+      <c r="CI17" s="105"/>
+      <c r="CJ17" s="105"/>
+      <c r="CK17" s="105"/>
+      <c r="CL17" s="105"/>
+      <c r="CM17" s="105"/>
       <c r="CN17" s="19"/>
       <c r="CO17" s="20"/>
       <c r="CP17" s="20"/>
@@ -5947,14 +5947,14 @@
       <c r="EO17" s="20"/>
       <c r="EP17" s="20"/>
       <c r="EQ17" s="21"/>
-      <c r="ER17" s="103"/>
-      <c r="ES17" s="103"/>
-      <c r="ET17" s="103"/>
-      <c r="EU17" s="103"/>
-      <c r="EV17" s="103"/>
-      <c r="EW17" s="103"/>
-      <c r="EX17" s="103"/>
-      <c r="EY17" s="103"/>
+      <c r="ER17" s="105"/>
+      <c r="ES17" s="105"/>
+      <c r="ET17" s="105"/>
+      <c r="EU17" s="105"/>
+      <c r="EV17" s="105"/>
+      <c r="EW17" s="105"/>
+      <c r="EX17" s="105"/>
+      <c r="EY17" s="105"/>
       <c r="EZ17" s="19"/>
       <c r="FA17" s="20"/>
       <c r="FB17" s="20"/>
@@ -6004,7 +6004,7 @@
       <c r="GT17" s="20"/>
       <c r="GU17" s="20"/>
       <c r="GV17" s="20"/>
-      <c r="GW17" s="102"/>
+      <c r="GW17" s="104"/>
     </row>
     <row r="18" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A18" s="59" t="s">
@@ -6038,14 +6038,14 @@
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="21"/>
-      <c r="AB18" s="103"/>
-      <c r="AC18" s="103"/>
-      <c r="AD18" s="103"/>
-      <c r="AE18" s="103"/>
-      <c r="AF18" s="103"/>
-      <c r="AG18" s="103"/>
-      <c r="AH18" s="103"/>
-      <c r="AI18" s="103"/>
+      <c r="AB18" s="105"/>
+      <c r="AC18" s="105"/>
+      <c r="AD18" s="105"/>
+      <c r="AE18" s="105"/>
+      <c r="AF18" s="105"/>
+      <c r="AG18" s="105"/>
+      <c r="AH18" s="105"/>
+      <c r="AI18" s="105"/>
       <c r="AJ18" s="19"/>
       <c r="AK18" s="20"/>
       <c r="AL18" s="20"/>
@@ -6094,14 +6094,14 @@
       <c r="CC18" s="20"/>
       <c r="CD18" s="20"/>
       <c r="CE18" s="21"/>
-      <c r="CF18" s="103"/>
-      <c r="CG18" s="103"/>
-      <c r="CH18" s="103"/>
-      <c r="CI18" s="103"/>
-      <c r="CJ18" s="103"/>
-      <c r="CK18" s="103"/>
-      <c r="CL18" s="103"/>
-      <c r="CM18" s="103"/>
+      <c r="CF18" s="105"/>
+      <c r="CG18" s="105"/>
+      <c r="CH18" s="105"/>
+      <c r="CI18" s="105"/>
+      <c r="CJ18" s="105"/>
+      <c r="CK18" s="105"/>
+      <c r="CL18" s="105"/>
+      <c r="CM18" s="105"/>
       <c r="CN18" s="19"/>
       <c r="CO18" s="20"/>
       <c r="CP18" s="20"/>
@@ -6170,14 +6170,14 @@
       <c r="EO18" s="20"/>
       <c r="EP18" s="20"/>
       <c r="EQ18" s="21"/>
-      <c r="ER18" s="103"/>
-      <c r="ES18" s="103"/>
-      <c r="ET18" s="103"/>
-      <c r="EU18" s="103"/>
-      <c r="EV18" s="103"/>
-      <c r="EW18" s="103"/>
-      <c r="EX18" s="103"/>
-      <c r="EY18" s="103"/>
+      <c r="ER18" s="105"/>
+      <c r="ES18" s="105"/>
+      <c r="ET18" s="105"/>
+      <c r="EU18" s="105"/>
+      <c r="EV18" s="105"/>
+      <c r="EW18" s="105"/>
+      <c r="EX18" s="105"/>
+      <c r="EY18" s="105"/>
       <c r="EZ18" s="19"/>
       <c r="FA18" s="20"/>
       <c r="FB18" s="20"/>
@@ -6227,7 +6227,7 @@
       <c r="GT18" s="20"/>
       <c r="GU18" s="20"/>
       <c r="GV18" s="20"/>
-      <c r="GW18" s="102"/>
+      <c r="GW18" s="104"/>
     </row>
     <row r="19" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A19" s="60" t="s">
@@ -6261,14 +6261,14 @@
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="21"/>
-      <c r="AB19" s="103"/>
-      <c r="AC19" s="103"/>
-      <c r="AD19" s="103"/>
-      <c r="AE19" s="103"/>
-      <c r="AF19" s="103"/>
-      <c r="AG19" s="103"/>
-      <c r="AH19" s="103"/>
-      <c r="AI19" s="103"/>
+      <c r="AB19" s="105"/>
+      <c r="AC19" s="105"/>
+      <c r="AD19" s="105"/>
+      <c r="AE19" s="105"/>
+      <c r="AF19" s="105"/>
+      <c r="AG19" s="105"/>
+      <c r="AH19" s="105"/>
+      <c r="AI19" s="105"/>
       <c r="AJ19" s="19"/>
       <c r="AK19" s="20"/>
       <c r="AL19" s="20"/>
@@ -6317,14 +6317,14 @@
       <c r="CC19" s="20"/>
       <c r="CD19" s="20"/>
       <c r="CE19" s="21"/>
-      <c r="CF19" s="103"/>
-      <c r="CG19" s="103"/>
-      <c r="CH19" s="103"/>
-      <c r="CI19" s="103"/>
-      <c r="CJ19" s="103"/>
-      <c r="CK19" s="103"/>
-      <c r="CL19" s="103"/>
-      <c r="CM19" s="103"/>
+      <c r="CF19" s="105"/>
+      <c r="CG19" s="105"/>
+      <c r="CH19" s="105"/>
+      <c r="CI19" s="105"/>
+      <c r="CJ19" s="105"/>
+      <c r="CK19" s="105"/>
+      <c r="CL19" s="105"/>
+      <c r="CM19" s="105"/>
       <c r="CN19" s="19"/>
       <c r="CO19" s="20"/>
       <c r="CP19" s="20"/>
@@ -6383,14 +6383,14 @@
       <c r="EO19" s="20"/>
       <c r="EP19" s="20"/>
       <c r="EQ19" s="21"/>
-      <c r="ER19" s="103"/>
-      <c r="ES19" s="103"/>
-      <c r="ET19" s="103"/>
-      <c r="EU19" s="103"/>
-      <c r="EV19" s="103"/>
-      <c r="EW19" s="103"/>
-      <c r="EX19" s="103"/>
-      <c r="EY19" s="103"/>
+      <c r="ER19" s="105"/>
+      <c r="ES19" s="105"/>
+      <c r="ET19" s="105"/>
+      <c r="EU19" s="105"/>
+      <c r="EV19" s="105"/>
+      <c r="EW19" s="105"/>
+      <c r="EX19" s="105"/>
+      <c r="EY19" s="105"/>
       <c r="EZ19" s="19"/>
       <c r="FA19" s="20"/>
       <c r="FB19" s="20"/>
@@ -6440,13 +6440,13 @@
       <c r="GT19" s="20"/>
       <c r="GU19" s="20"/>
       <c r="GV19" s="20"/>
-      <c r="GW19" s="102"/>
+      <c r="GW19" s="104"/>
     </row>
     <row r="20" spans="1:205" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="111" t="s">
+      <c r="A20" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="111"/>
+      <c r="B20" s="100"/>
       <c r="C20" s="33"/>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
@@ -6472,14 +6472,14 @@
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="21"/>
-      <c r="AB20" s="103"/>
-      <c r="AC20" s="103"/>
-      <c r="AD20" s="103"/>
-      <c r="AE20" s="103"/>
-      <c r="AF20" s="103"/>
-      <c r="AG20" s="103"/>
-      <c r="AH20" s="103"/>
-      <c r="AI20" s="103"/>
+      <c r="AB20" s="105"/>
+      <c r="AC20" s="105"/>
+      <c r="AD20" s="105"/>
+      <c r="AE20" s="105"/>
+      <c r="AF20" s="105"/>
+      <c r="AG20" s="105"/>
+      <c r="AH20" s="105"/>
+      <c r="AI20" s="105"/>
       <c r="AJ20" s="19"/>
       <c r="AK20" s="20"/>
       <c r="AL20" s="20"/>
@@ -6528,14 +6528,14 @@
       <c r="CC20" s="20"/>
       <c r="CD20" s="20"/>
       <c r="CE20" s="21"/>
-      <c r="CF20" s="103"/>
-      <c r="CG20" s="103"/>
-      <c r="CH20" s="103"/>
-      <c r="CI20" s="103"/>
-      <c r="CJ20" s="103"/>
-      <c r="CK20" s="103"/>
-      <c r="CL20" s="103"/>
-      <c r="CM20" s="103"/>
+      <c r="CF20" s="105"/>
+      <c r="CG20" s="105"/>
+      <c r="CH20" s="105"/>
+      <c r="CI20" s="105"/>
+      <c r="CJ20" s="105"/>
+      <c r="CK20" s="105"/>
+      <c r="CL20" s="105"/>
+      <c r="CM20" s="105"/>
       <c r="CN20" s="19"/>
       <c r="CO20" s="20"/>
       <c r="CP20" s="20"/>
@@ -6592,14 +6592,14 @@
       <c r="EO20" s="20"/>
       <c r="EP20" s="20"/>
       <c r="EQ20" s="21"/>
-      <c r="ER20" s="103"/>
-      <c r="ES20" s="103"/>
-      <c r="ET20" s="103"/>
-      <c r="EU20" s="103"/>
-      <c r="EV20" s="103"/>
-      <c r="EW20" s="103"/>
-      <c r="EX20" s="103"/>
-      <c r="EY20" s="103"/>
+      <c r="ER20" s="105"/>
+      <c r="ES20" s="105"/>
+      <c r="ET20" s="105"/>
+      <c r="EU20" s="105"/>
+      <c r="EV20" s="105"/>
+      <c r="EW20" s="105"/>
+      <c r="EX20" s="105"/>
+      <c r="EY20" s="105"/>
       <c r="EZ20" s="19"/>
       <c r="FA20" s="20"/>
       <c r="FB20" s="20"/>
@@ -6649,7 +6649,7 @@
       <c r="GT20" s="20"/>
       <c r="GU20" s="20"/>
       <c r="GV20" s="20"/>
-      <c r="GW20" s="102"/>
+      <c r="GW20" s="104"/>
     </row>
     <row r="21" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A21" s="64" t="s">
@@ -6683,14 +6683,14 @@
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="21"/>
-      <c r="AB21" s="103"/>
-      <c r="AC21" s="103"/>
-      <c r="AD21" s="103"/>
-      <c r="AE21" s="103"/>
-      <c r="AF21" s="103"/>
-      <c r="AG21" s="103"/>
-      <c r="AH21" s="103"/>
-      <c r="AI21" s="103"/>
+      <c r="AB21" s="105"/>
+      <c r="AC21" s="105"/>
+      <c r="AD21" s="105"/>
+      <c r="AE21" s="105"/>
+      <c r="AF21" s="105"/>
+      <c r="AG21" s="105"/>
+      <c r="AH21" s="105"/>
+      <c r="AI21" s="105"/>
       <c r="AJ21" s="19"/>
       <c r="AK21" s="20"/>
       <c r="AL21" s="20"/>
@@ -6739,14 +6739,14 @@
       <c r="CC21" s="20"/>
       <c r="CD21" s="20"/>
       <c r="CE21" s="21"/>
-      <c r="CF21" s="103"/>
-      <c r="CG21" s="103"/>
-      <c r="CH21" s="103"/>
-      <c r="CI21" s="103"/>
-      <c r="CJ21" s="103"/>
-      <c r="CK21" s="103"/>
-      <c r="CL21" s="103"/>
-      <c r="CM21" s="103"/>
+      <c r="CF21" s="105"/>
+      <c r="CG21" s="105"/>
+      <c r="CH21" s="105"/>
+      <c r="CI21" s="105"/>
+      <c r="CJ21" s="105"/>
+      <c r="CK21" s="105"/>
+      <c r="CL21" s="105"/>
+      <c r="CM21" s="105"/>
       <c r="CN21" s="19"/>
       <c r="CO21" s="20"/>
       <c r="CP21" s="20"/>
@@ -6805,14 +6805,14 @@
       <c r="EO21" s="20"/>
       <c r="EP21" s="20"/>
       <c r="EQ21" s="21"/>
-      <c r="ER21" s="103"/>
-      <c r="ES21" s="103"/>
-      <c r="ET21" s="103"/>
-      <c r="EU21" s="103"/>
-      <c r="EV21" s="103"/>
-      <c r="EW21" s="103"/>
-      <c r="EX21" s="103"/>
-      <c r="EY21" s="103"/>
+      <c r="ER21" s="105"/>
+      <c r="ES21" s="105"/>
+      <c r="ET21" s="105"/>
+      <c r="EU21" s="105"/>
+      <c r="EV21" s="105"/>
+      <c r="EW21" s="105"/>
+      <c r="EX21" s="105"/>
+      <c r="EY21" s="105"/>
       <c r="EZ21" s="19"/>
       <c r="FA21" s="20"/>
       <c r="FB21" s="20"/>
@@ -6862,7 +6862,7 @@
       <c r="GT21" s="20"/>
       <c r="GU21" s="20"/>
       <c r="GV21" s="20"/>
-      <c r="GW21" s="102"/>
+      <c r="GW21" s="104"/>
     </row>
     <row r="22" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A22" s="68" t="s">
@@ -6896,14 +6896,14 @@
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="21"/>
-      <c r="AB22" s="103"/>
-      <c r="AC22" s="103"/>
-      <c r="AD22" s="103"/>
-      <c r="AE22" s="103"/>
-      <c r="AF22" s="103"/>
-      <c r="AG22" s="103"/>
-      <c r="AH22" s="103"/>
-      <c r="AI22" s="103"/>
+      <c r="AB22" s="105"/>
+      <c r="AC22" s="105"/>
+      <c r="AD22" s="105"/>
+      <c r="AE22" s="105"/>
+      <c r="AF22" s="105"/>
+      <c r="AG22" s="105"/>
+      <c r="AH22" s="105"/>
+      <c r="AI22" s="105"/>
       <c r="AJ22" s="19"/>
       <c r="AK22" s="20"/>
       <c r="AL22" s="20"/>
@@ -6952,14 +6952,14 @@
       <c r="CC22" s="20"/>
       <c r="CD22" s="20"/>
       <c r="CE22" s="21"/>
-      <c r="CF22" s="103"/>
-      <c r="CG22" s="103"/>
-      <c r="CH22" s="103"/>
-      <c r="CI22" s="103"/>
-      <c r="CJ22" s="103"/>
-      <c r="CK22" s="103"/>
-      <c r="CL22" s="103"/>
-      <c r="CM22" s="103"/>
+      <c r="CF22" s="105"/>
+      <c r="CG22" s="105"/>
+      <c r="CH22" s="105"/>
+      <c r="CI22" s="105"/>
+      <c r="CJ22" s="105"/>
+      <c r="CK22" s="105"/>
+      <c r="CL22" s="105"/>
+      <c r="CM22" s="105"/>
       <c r="CN22" s="19"/>
       <c r="CO22" s="20"/>
       <c r="CP22" s="20"/>
@@ -7022,14 +7022,14 @@
       <c r="EO22" s="20"/>
       <c r="EP22" s="20"/>
       <c r="EQ22" s="21"/>
-      <c r="ER22" s="103"/>
-      <c r="ES22" s="103"/>
-      <c r="ET22" s="103"/>
-      <c r="EU22" s="103"/>
-      <c r="EV22" s="103"/>
-      <c r="EW22" s="103"/>
-      <c r="EX22" s="103"/>
-      <c r="EY22" s="103"/>
+      <c r="ER22" s="105"/>
+      <c r="ES22" s="105"/>
+      <c r="ET22" s="105"/>
+      <c r="EU22" s="105"/>
+      <c r="EV22" s="105"/>
+      <c r="EW22" s="105"/>
+      <c r="EX22" s="105"/>
+      <c r="EY22" s="105"/>
       <c r="EZ22" s="19"/>
       <c r="FA22" s="20"/>
       <c r="FB22" s="20"/>
@@ -7079,7 +7079,7 @@
       <c r="GT22" s="20"/>
       <c r="GU22" s="20"/>
       <c r="GV22" s="20"/>
-      <c r="GW22" s="102"/>
+      <c r="GW22" s="104"/>
     </row>
     <row r="23" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A23" s="68" t="s">
@@ -7113,14 +7113,14 @@
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="21"/>
-      <c r="AB23" s="103"/>
-      <c r="AC23" s="103"/>
-      <c r="AD23" s="103"/>
-      <c r="AE23" s="103"/>
-      <c r="AF23" s="103"/>
-      <c r="AG23" s="103"/>
-      <c r="AH23" s="103"/>
-      <c r="AI23" s="103"/>
+      <c r="AB23" s="105"/>
+      <c r="AC23" s="105"/>
+      <c r="AD23" s="105"/>
+      <c r="AE23" s="105"/>
+      <c r="AF23" s="105"/>
+      <c r="AG23" s="105"/>
+      <c r="AH23" s="105"/>
+      <c r="AI23" s="105"/>
       <c r="AJ23" s="19"/>
       <c r="AK23" s="20"/>
       <c r="AL23" s="20"/>
@@ -7169,14 +7169,14 @@
       <c r="CC23" s="20"/>
       <c r="CD23" s="20"/>
       <c r="CE23" s="21"/>
-      <c r="CF23" s="103"/>
-      <c r="CG23" s="103"/>
-      <c r="CH23" s="103"/>
-      <c r="CI23" s="103"/>
-      <c r="CJ23" s="103"/>
-      <c r="CK23" s="103"/>
-      <c r="CL23" s="103"/>
-      <c r="CM23" s="103"/>
+      <c r="CF23" s="105"/>
+      <c r="CG23" s="105"/>
+      <c r="CH23" s="105"/>
+      <c r="CI23" s="105"/>
+      <c r="CJ23" s="105"/>
+      <c r="CK23" s="105"/>
+      <c r="CL23" s="105"/>
+      <c r="CM23" s="105"/>
       <c r="CN23" s="19"/>
       <c r="CO23" s="20"/>
       <c r="CP23" s="20"/>
@@ -7235,14 +7235,14 @@
       <c r="EO23" s="20"/>
       <c r="EP23" s="20"/>
       <c r="EQ23" s="21"/>
-      <c r="ER23" s="103"/>
-      <c r="ES23" s="103"/>
-      <c r="ET23" s="103"/>
-      <c r="EU23" s="103"/>
-      <c r="EV23" s="103"/>
-      <c r="EW23" s="103"/>
-      <c r="EX23" s="103"/>
-      <c r="EY23" s="103"/>
+      <c r="ER23" s="105"/>
+      <c r="ES23" s="105"/>
+      <c r="ET23" s="105"/>
+      <c r="EU23" s="105"/>
+      <c r="EV23" s="105"/>
+      <c r="EW23" s="105"/>
+      <c r="EX23" s="105"/>
+      <c r="EY23" s="105"/>
       <c r="EZ23" s="19"/>
       <c r="FA23" s="20"/>
       <c r="FB23" s="20"/>
@@ -7292,7 +7292,7 @@
       <c r="GT23" s="20"/>
       <c r="GU23" s="20"/>
       <c r="GV23" s="20"/>
-      <c r="GW23" s="102"/>
+      <c r="GW23" s="104"/>
     </row>
     <row r="24" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A24" s="68" t="s">
@@ -7326,14 +7326,14 @@
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="21"/>
-      <c r="AB24" s="103"/>
-      <c r="AC24" s="103"/>
-      <c r="AD24" s="103"/>
-      <c r="AE24" s="103"/>
-      <c r="AF24" s="103"/>
-      <c r="AG24" s="103"/>
-      <c r="AH24" s="103"/>
-      <c r="AI24" s="103"/>
+      <c r="AB24" s="105"/>
+      <c r="AC24" s="105"/>
+      <c r="AD24" s="105"/>
+      <c r="AE24" s="105"/>
+      <c r="AF24" s="105"/>
+      <c r="AG24" s="105"/>
+      <c r="AH24" s="105"/>
+      <c r="AI24" s="105"/>
       <c r="AJ24" s="19"/>
       <c r="AK24" s="20"/>
       <c r="AL24" s="20"/>
@@ -7382,14 +7382,14 @@
       <c r="CC24" s="20"/>
       <c r="CD24" s="20"/>
       <c r="CE24" s="21"/>
-      <c r="CF24" s="103"/>
-      <c r="CG24" s="103"/>
-      <c r="CH24" s="103"/>
-      <c r="CI24" s="103"/>
-      <c r="CJ24" s="103"/>
-      <c r="CK24" s="103"/>
-      <c r="CL24" s="103"/>
-      <c r="CM24" s="103"/>
+      <c r="CF24" s="105"/>
+      <c r="CG24" s="105"/>
+      <c r="CH24" s="105"/>
+      <c r="CI24" s="105"/>
+      <c r="CJ24" s="105"/>
+      <c r="CK24" s="105"/>
+      <c r="CL24" s="105"/>
+      <c r="CM24" s="105"/>
       <c r="CN24" s="19"/>
       <c r="CO24" s="20"/>
       <c r="CP24" s="20"/>
@@ -7452,14 +7452,14 @@
       <c r="EO24" s="20"/>
       <c r="EP24" s="20"/>
       <c r="EQ24" s="21"/>
-      <c r="ER24" s="103"/>
-      <c r="ES24" s="103"/>
-      <c r="ET24" s="103"/>
-      <c r="EU24" s="103"/>
-      <c r="EV24" s="103"/>
-      <c r="EW24" s="103"/>
-      <c r="EX24" s="103"/>
-      <c r="EY24" s="103"/>
+      <c r="ER24" s="105"/>
+      <c r="ES24" s="105"/>
+      <c r="ET24" s="105"/>
+      <c r="EU24" s="105"/>
+      <c r="EV24" s="105"/>
+      <c r="EW24" s="105"/>
+      <c r="EX24" s="105"/>
+      <c r="EY24" s="105"/>
       <c r="EZ24" s="19"/>
       <c r="FA24" s="20"/>
       <c r="FB24" s="20"/>
@@ -7509,7 +7509,7 @@
       <c r="GT24" s="20"/>
       <c r="GU24" s="20"/>
       <c r="GV24" s="20"/>
-      <c r="GW24" s="102"/>
+      <c r="GW24" s="104"/>
     </row>
     <row r="25" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A25" s="70" t="s">
@@ -7543,14 +7543,14 @@
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
       <c r="AA25" s="21"/>
-      <c r="AB25" s="103"/>
-      <c r="AC25" s="103"/>
-      <c r="AD25" s="103"/>
-      <c r="AE25" s="103"/>
-      <c r="AF25" s="103"/>
-      <c r="AG25" s="103"/>
-      <c r="AH25" s="103"/>
-      <c r="AI25" s="103"/>
+      <c r="AB25" s="105"/>
+      <c r="AC25" s="105"/>
+      <c r="AD25" s="105"/>
+      <c r="AE25" s="105"/>
+      <c r="AF25" s="105"/>
+      <c r="AG25" s="105"/>
+      <c r="AH25" s="105"/>
+      <c r="AI25" s="105"/>
       <c r="AJ25" s="19"/>
       <c r="AK25" s="20"/>
       <c r="AL25" s="20"/>
@@ -7599,14 +7599,14 @@
       <c r="CC25" s="20"/>
       <c r="CD25" s="20"/>
       <c r="CE25" s="21"/>
-      <c r="CF25" s="103"/>
-      <c r="CG25" s="103"/>
-      <c r="CH25" s="103"/>
-      <c r="CI25" s="103"/>
-      <c r="CJ25" s="103"/>
-      <c r="CK25" s="103"/>
-      <c r="CL25" s="103"/>
-      <c r="CM25" s="103"/>
+      <c r="CF25" s="105"/>
+      <c r="CG25" s="105"/>
+      <c r="CH25" s="105"/>
+      <c r="CI25" s="105"/>
+      <c r="CJ25" s="105"/>
+      <c r="CK25" s="105"/>
+      <c r="CL25" s="105"/>
+      <c r="CM25" s="105"/>
       <c r="CN25" s="19"/>
       <c r="CO25" s="20"/>
       <c r="CP25" s="20"/>
@@ -7669,14 +7669,14 @@
       <c r="EO25" s="20"/>
       <c r="EP25" s="20"/>
       <c r="EQ25" s="21"/>
-      <c r="ER25" s="103"/>
-      <c r="ES25" s="103"/>
-      <c r="ET25" s="103"/>
-      <c r="EU25" s="103"/>
-      <c r="EV25" s="103"/>
-      <c r="EW25" s="103"/>
-      <c r="EX25" s="103"/>
-      <c r="EY25" s="103"/>
+      <c r="ER25" s="105"/>
+      <c r="ES25" s="105"/>
+      <c r="ET25" s="105"/>
+      <c r="EU25" s="105"/>
+      <c r="EV25" s="105"/>
+      <c r="EW25" s="105"/>
+      <c r="EX25" s="105"/>
+      <c r="EY25" s="105"/>
       <c r="EZ25" s="19"/>
       <c r="FA25" s="20"/>
       <c r="FB25" s="20"/>
@@ -7726,7 +7726,7 @@
       <c r="GT25" s="20"/>
       <c r="GU25" s="20"/>
       <c r="GV25" s="20"/>
-      <c r="GW25" s="102"/>
+      <c r="GW25" s="104"/>
     </row>
     <row r="26" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A26" s="70" t="s">
@@ -7760,14 +7760,14 @@
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="21"/>
-      <c r="AB26" s="103"/>
-      <c r="AC26" s="103"/>
-      <c r="AD26" s="103"/>
-      <c r="AE26" s="103"/>
-      <c r="AF26" s="103"/>
-      <c r="AG26" s="103"/>
-      <c r="AH26" s="103"/>
-      <c r="AI26" s="103"/>
+      <c r="AB26" s="105"/>
+      <c r="AC26" s="105"/>
+      <c r="AD26" s="105"/>
+      <c r="AE26" s="105"/>
+      <c r="AF26" s="105"/>
+      <c r="AG26" s="105"/>
+      <c r="AH26" s="105"/>
+      <c r="AI26" s="105"/>
       <c r="AJ26" s="19"/>
       <c r="AK26" s="20"/>
       <c r="AL26" s="20"/>
@@ -7816,14 +7816,14 @@
       <c r="CC26" s="20"/>
       <c r="CD26" s="20"/>
       <c r="CE26" s="21"/>
-      <c r="CF26" s="103"/>
-      <c r="CG26" s="103"/>
-      <c r="CH26" s="103"/>
-      <c r="CI26" s="103"/>
-      <c r="CJ26" s="103"/>
-      <c r="CK26" s="103"/>
-      <c r="CL26" s="103"/>
-      <c r="CM26" s="103"/>
+      <c r="CF26" s="105"/>
+      <c r="CG26" s="105"/>
+      <c r="CH26" s="105"/>
+      <c r="CI26" s="105"/>
+      <c r="CJ26" s="105"/>
+      <c r="CK26" s="105"/>
+      <c r="CL26" s="105"/>
+      <c r="CM26" s="105"/>
       <c r="CN26" s="19"/>
       <c r="CO26" s="20"/>
       <c r="CP26" s="20"/>
@@ -7886,14 +7886,14 @@
       <c r="EO26" s="20"/>
       <c r="EP26" s="20"/>
       <c r="EQ26" s="21"/>
-      <c r="ER26" s="103"/>
-      <c r="ES26" s="103"/>
-      <c r="ET26" s="103"/>
-      <c r="EU26" s="103"/>
-      <c r="EV26" s="103"/>
-      <c r="EW26" s="103"/>
-      <c r="EX26" s="103"/>
-      <c r="EY26" s="103"/>
+      <c r="ER26" s="105"/>
+      <c r="ES26" s="105"/>
+      <c r="ET26" s="105"/>
+      <c r="EU26" s="105"/>
+      <c r="EV26" s="105"/>
+      <c r="EW26" s="105"/>
+      <c r="EX26" s="105"/>
+      <c r="EY26" s="105"/>
       <c r="EZ26" s="19"/>
       <c r="FA26" s="20"/>
       <c r="FB26" s="20"/>
@@ -7943,7 +7943,7 @@
       <c r="GT26" s="20"/>
       <c r="GU26" s="20"/>
       <c r="GV26" s="20"/>
-      <c r="GW26" s="102"/>
+      <c r="GW26" s="104"/>
     </row>
     <row r="27" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A27" s="68" t="s">
@@ -7977,14 +7977,14 @@
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="21"/>
-      <c r="AB27" s="103"/>
-      <c r="AC27" s="103"/>
-      <c r="AD27" s="103"/>
-      <c r="AE27" s="103"/>
-      <c r="AF27" s="103"/>
-      <c r="AG27" s="103"/>
-      <c r="AH27" s="103"/>
-      <c r="AI27" s="103"/>
+      <c r="AB27" s="105"/>
+      <c r="AC27" s="105"/>
+      <c r="AD27" s="105"/>
+      <c r="AE27" s="105"/>
+      <c r="AF27" s="105"/>
+      <c r="AG27" s="105"/>
+      <c r="AH27" s="105"/>
+      <c r="AI27" s="105"/>
       <c r="AJ27" s="19"/>
       <c r="AK27" s="20"/>
       <c r="AL27" s="20"/>
@@ -8033,14 +8033,14 @@
       <c r="CC27" s="20"/>
       <c r="CD27" s="20"/>
       <c r="CE27" s="21"/>
-      <c r="CF27" s="103"/>
-      <c r="CG27" s="103"/>
-      <c r="CH27" s="103"/>
-      <c r="CI27" s="103"/>
-      <c r="CJ27" s="103"/>
-      <c r="CK27" s="103"/>
-      <c r="CL27" s="103"/>
-      <c r="CM27" s="103"/>
+      <c r="CF27" s="105"/>
+      <c r="CG27" s="105"/>
+      <c r="CH27" s="105"/>
+      <c r="CI27" s="105"/>
+      <c r="CJ27" s="105"/>
+      <c r="CK27" s="105"/>
+      <c r="CL27" s="105"/>
+      <c r="CM27" s="105"/>
       <c r="CN27" s="19"/>
       <c r="CO27" s="20"/>
       <c r="CP27" s="20"/>
@@ -8107,14 +8107,14 @@
       <c r="EO27" s="20"/>
       <c r="EP27" s="20"/>
       <c r="EQ27" s="21"/>
-      <c r="ER27" s="103"/>
-      <c r="ES27" s="103"/>
-      <c r="ET27" s="103"/>
-      <c r="EU27" s="103"/>
-      <c r="EV27" s="103"/>
-      <c r="EW27" s="103"/>
-      <c r="EX27" s="103"/>
-      <c r="EY27" s="103"/>
+      <c r="ER27" s="105"/>
+      <c r="ES27" s="105"/>
+      <c r="ET27" s="105"/>
+      <c r="EU27" s="105"/>
+      <c r="EV27" s="105"/>
+      <c r="EW27" s="105"/>
+      <c r="EX27" s="105"/>
+      <c r="EY27" s="105"/>
       <c r="EZ27" s="19"/>
       <c r="FA27" s="20"/>
       <c r="FB27" s="20"/>
@@ -8164,7 +8164,7 @@
       <c r="GT27" s="20"/>
       <c r="GU27" s="20"/>
       <c r="GV27" s="20"/>
-      <c r="GW27" s="102"/>
+      <c r="GW27" s="104"/>
     </row>
     <row r="28" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A28" s="70" t="s">
@@ -8198,14 +8198,14 @@
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="21"/>
-      <c r="AB28" s="103"/>
-      <c r="AC28" s="103"/>
-      <c r="AD28" s="103"/>
-      <c r="AE28" s="103"/>
-      <c r="AF28" s="103"/>
-      <c r="AG28" s="103"/>
-      <c r="AH28" s="103"/>
-      <c r="AI28" s="103"/>
+      <c r="AB28" s="105"/>
+      <c r="AC28" s="105"/>
+      <c r="AD28" s="105"/>
+      <c r="AE28" s="105"/>
+      <c r="AF28" s="105"/>
+      <c r="AG28" s="105"/>
+      <c r="AH28" s="105"/>
+      <c r="AI28" s="105"/>
       <c r="AJ28" s="19"/>
       <c r="AK28" s="20"/>
       <c r="AL28" s="20"/>
@@ -8254,14 +8254,14 @@
       <c r="CC28" s="20"/>
       <c r="CD28" s="20"/>
       <c r="CE28" s="21"/>
-      <c r="CF28" s="103"/>
-      <c r="CG28" s="103"/>
-      <c r="CH28" s="103"/>
-      <c r="CI28" s="103"/>
-      <c r="CJ28" s="103"/>
-      <c r="CK28" s="103"/>
-      <c r="CL28" s="103"/>
-      <c r="CM28" s="103"/>
+      <c r="CF28" s="105"/>
+      <c r="CG28" s="105"/>
+      <c r="CH28" s="105"/>
+      <c r="CI28" s="105"/>
+      <c r="CJ28" s="105"/>
+      <c r="CK28" s="105"/>
+      <c r="CL28" s="105"/>
+      <c r="CM28" s="105"/>
       <c r="CN28" s="19"/>
       <c r="CO28" s="20"/>
       <c r="CP28" s="20"/>
@@ -8324,14 +8324,14 @@
       <c r="EQ28" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="ER28" s="103"/>
-      <c r="ES28" s="103"/>
-      <c r="ET28" s="103"/>
-      <c r="EU28" s="103"/>
-      <c r="EV28" s="103"/>
-      <c r="EW28" s="103"/>
-      <c r="EX28" s="103"/>
-      <c r="EY28" s="103"/>
+      <c r="ER28" s="105"/>
+      <c r="ES28" s="105"/>
+      <c r="ET28" s="105"/>
+      <c r="EU28" s="105"/>
+      <c r="EV28" s="105"/>
+      <c r="EW28" s="105"/>
+      <c r="EX28" s="105"/>
+      <c r="EY28" s="105"/>
       <c r="EZ28" s="19" t="s">
         <v>17</v>
       </c>
@@ -8383,7 +8383,7 @@
       <c r="GT28" s="20"/>
       <c r="GU28" s="20"/>
       <c r="GV28" s="20"/>
-      <c r="GW28" s="102"/>
+      <c r="GW28" s="104"/>
     </row>
     <row r="29" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A29" s="70" t="s">
@@ -8417,14 +8417,14 @@
       <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
       <c r="AA29" s="21"/>
-      <c r="AB29" s="103"/>
-      <c r="AC29" s="103"/>
-      <c r="AD29" s="103"/>
-      <c r="AE29" s="103"/>
-      <c r="AF29" s="103"/>
-      <c r="AG29" s="103"/>
-      <c r="AH29" s="103"/>
-      <c r="AI29" s="103"/>
+      <c r="AB29" s="105"/>
+      <c r="AC29" s="105"/>
+      <c r="AD29" s="105"/>
+      <c r="AE29" s="105"/>
+      <c r="AF29" s="105"/>
+      <c r="AG29" s="105"/>
+      <c r="AH29" s="105"/>
+      <c r="AI29" s="105"/>
       <c r="AJ29" s="19"/>
       <c r="AK29" s="20"/>
       <c r="AL29" s="20"/>
@@ -8473,14 +8473,14 @@
       <c r="CC29" s="20"/>
       <c r="CD29" s="20"/>
       <c r="CE29" s="21"/>
-      <c r="CF29" s="103"/>
-      <c r="CG29" s="103"/>
-      <c r="CH29" s="103"/>
-      <c r="CI29" s="103"/>
-      <c r="CJ29" s="103"/>
-      <c r="CK29" s="103"/>
-      <c r="CL29" s="103"/>
-      <c r="CM29" s="103"/>
+      <c r="CF29" s="105"/>
+      <c r="CG29" s="105"/>
+      <c r="CH29" s="105"/>
+      <c r="CI29" s="105"/>
+      <c r="CJ29" s="105"/>
+      <c r="CK29" s="105"/>
+      <c r="CL29" s="105"/>
+      <c r="CM29" s="105"/>
       <c r="CN29" s="19"/>
       <c r="CO29" s="20"/>
       <c r="CP29" s="20"/>
@@ -8537,14 +8537,14 @@
       <c r="EO29" s="66"/>
       <c r="EP29" s="66"/>
       <c r="EQ29" s="67"/>
-      <c r="ER29" s="103"/>
-      <c r="ES29" s="103"/>
-      <c r="ET29" s="103"/>
-      <c r="EU29" s="103"/>
-      <c r="EV29" s="103"/>
-      <c r="EW29" s="103"/>
-      <c r="EX29" s="103"/>
-      <c r="EY29" s="103"/>
+      <c r="ER29" s="105"/>
+      <c r="ES29" s="105"/>
+      <c r="ET29" s="105"/>
+      <c r="EU29" s="105"/>
+      <c r="EV29" s="105"/>
+      <c r="EW29" s="105"/>
+      <c r="EX29" s="105"/>
+      <c r="EY29" s="105"/>
       <c r="EZ29" s="19"/>
       <c r="FA29" s="20" t="s">
         <v>17</v>
@@ -8604,7 +8604,7 @@
       <c r="GT29" s="20"/>
       <c r="GU29" s="20"/>
       <c r="GV29" s="20"/>
-      <c r="GW29" s="102"/>
+      <c r="GW29" s="104"/>
     </row>
     <row r="30" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A30" s="70" t="s">
@@ -8638,14 +8638,14 @@
       <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="21"/>
-      <c r="AB30" s="103"/>
-      <c r="AC30" s="103"/>
-      <c r="AD30" s="103"/>
-      <c r="AE30" s="103"/>
-      <c r="AF30" s="103"/>
-      <c r="AG30" s="103"/>
-      <c r="AH30" s="103"/>
-      <c r="AI30" s="103"/>
+      <c r="AB30" s="105"/>
+      <c r="AC30" s="105"/>
+      <c r="AD30" s="105"/>
+      <c r="AE30" s="105"/>
+      <c r="AF30" s="105"/>
+      <c r="AG30" s="105"/>
+      <c r="AH30" s="105"/>
+      <c r="AI30" s="105"/>
       <c r="AJ30" s="19"/>
       <c r="AK30" s="20"/>
       <c r="AL30" s="20"/>
@@ -8694,14 +8694,14 @@
       <c r="CC30" s="20"/>
       <c r="CD30" s="20"/>
       <c r="CE30" s="21"/>
-      <c r="CF30" s="103"/>
-      <c r="CG30" s="103"/>
-      <c r="CH30" s="103"/>
-      <c r="CI30" s="103"/>
-      <c r="CJ30" s="103"/>
-      <c r="CK30" s="103"/>
-      <c r="CL30" s="103"/>
-      <c r="CM30" s="103"/>
+      <c r="CF30" s="105"/>
+      <c r="CG30" s="105"/>
+      <c r="CH30" s="105"/>
+      <c r="CI30" s="105"/>
+      <c r="CJ30" s="105"/>
+      <c r="CK30" s="105"/>
+      <c r="CL30" s="105"/>
+      <c r="CM30" s="105"/>
       <c r="CN30" s="19"/>
       <c r="CO30" s="20"/>
       <c r="CP30" s="20"/>
@@ -8758,14 +8758,14 @@
       <c r="EO30" s="20"/>
       <c r="EP30" s="20"/>
       <c r="EQ30" s="20"/>
-      <c r="ER30" s="103"/>
-      <c r="ES30" s="103"/>
-      <c r="ET30" s="103"/>
-      <c r="EU30" s="103"/>
-      <c r="EV30" s="103"/>
-      <c r="EW30" s="103"/>
-      <c r="EX30" s="103"/>
-      <c r="EY30" s="103"/>
+      <c r="ER30" s="105"/>
+      <c r="ES30" s="105"/>
+      <c r="ET30" s="105"/>
+      <c r="EU30" s="105"/>
+      <c r="EV30" s="105"/>
+      <c r="EW30" s="105"/>
+      <c r="EX30" s="105"/>
+      <c r="EY30" s="105"/>
       <c r="EZ30" s="69"/>
       <c r="FA30" s="66"/>
       <c r="FB30" s="66"/>
@@ -8823,7 +8823,7 @@
       <c r="GT30" s="20"/>
       <c r="GU30" s="20"/>
       <c r="GV30" s="20"/>
-      <c r="GW30" s="102"/>
+      <c r="GW30" s="104"/>
     </row>
     <row r="31" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A31" s="70" t="s">
@@ -8855,14 +8855,14 @@
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="21"/>
-      <c r="AB31" s="103"/>
-      <c r="AC31" s="103"/>
-      <c r="AD31" s="103"/>
-      <c r="AE31" s="103"/>
-      <c r="AF31" s="103"/>
-      <c r="AG31" s="103"/>
-      <c r="AH31" s="103"/>
-      <c r="AI31" s="103"/>
+      <c r="AB31" s="105"/>
+      <c r="AC31" s="105"/>
+      <c r="AD31" s="105"/>
+      <c r="AE31" s="105"/>
+      <c r="AF31" s="105"/>
+      <c r="AG31" s="105"/>
+      <c r="AH31" s="105"/>
+      <c r="AI31" s="105"/>
       <c r="AJ31" s="19"/>
       <c r="AK31" s="20"/>
       <c r="AL31" s="20"/>
@@ -8911,14 +8911,14 @@
       <c r="CC31" s="20"/>
       <c r="CD31" s="20"/>
       <c r="CE31" s="21"/>
-      <c r="CF31" s="103"/>
-      <c r="CG31" s="103"/>
-      <c r="CH31" s="103"/>
-      <c r="CI31" s="103"/>
-      <c r="CJ31" s="103"/>
-      <c r="CK31" s="103"/>
-      <c r="CL31" s="103"/>
-      <c r="CM31" s="103"/>
+      <c r="CF31" s="105"/>
+      <c r="CG31" s="105"/>
+      <c r="CH31" s="105"/>
+      <c r="CI31" s="105"/>
+      <c r="CJ31" s="105"/>
+      <c r="CK31" s="105"/>
+      <c r="CL31" s="105"/>
+      <c r="CM31" s="105"/>
       <c r="CN31" s="19"/>
       <c r="CO31" s="20"/>
       <c r="CP31" s="20"/>
@@ -8975,14 +8975,14 @@
       <c r="EO31" s="20"/>
       <c r="EP31" s="20"/>
       <c r="EQ31" s="21"/>
-      <c r="ER31" s="103"/>
-      <c r="ES31" s="103"/>
-      <c r="ET31" s="103"/>
-      <c r="EU31" s="103"/>
-      <c r="EV31" s="103"/>
-      <c r="EW31" s="103"/>
-      <c r="EX31" s="103"/>
-      <c r="EY31" s="103"/>
+      <c r="ER31" s="105"/>
+      <c r="ES31" s="105"/>
+      <c r="ET31" s="105"/>
+      <c r="EU31" s="105"/>
+      <c r="EV31" s="105"/>
+      <c r="EW31" s="105"/>
+      <c r="EX31" s="105"/>
+      <c r="EY31" s="105"/>
       <c r="EZ31" s="19"/>
       <c r="FA31" s="20"/>
       <c r="FB31" s="20"/>
@@ -9032,7 +9032,7 @@
       <c r="GT31" s="20"/>
       <c r="GU31" s="20"/>
       <c r="GV31" s="20"/>
-      <c r="GW31" s="102"/>
+      <c r="GW31" s="104"/>
     </row>
     <row r="32" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A32" s="70" t="s">
@@ -9066,14 +9066,14 @@
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="21"/>
-      <c r="AB32" s="103"/>
-      <c r="AC32" s="103"/>
-      <c r="AD32" s="103"/>
-      <c r="AE32" s="103"/>
-      <c r="AF32" s="103"/>
-      <c r="AG32" s="103"/>
-      <c r="AH32" s="103"/>
-      <c r="AI32" s="103"/>
+      <c r="AB32" s="105"/>
+      <c r="AC32" s="105"/>
+      <c r="AD32" s="105"/>
+      <c r="AE32" s="105"/>
+      <c r="AF32" s="105"/>
+      <c r="AG32" s="105"/>
+      <c r="AH32" s="105"/>
+      <c r="AI32" s="105"/>
       <c r="AJ32" s="19"/>
       <c r="AK32" s="20"/>
       <c r="AL32" s="20"/>
@@ -9122,14 +9122,14 @@
       <c r="CC32" s="20"/>
       <c r="CD32" s="20"/>
       <c r="CE32" s="21"/>
-      <c r="CF32" s="103"/>
-      <c r="CG32" s="103"/>
-      <c r="CH32" s="103"/>
-      <c r="CI32" s="103"/>
-      <c r="CJ32" s="103"/>
-      <c r="CK32" s="103"/>
-      <c r="CL32" s="103"/>
-      <c r="CM32" s="103"/>
+      <c r="CF32" s="105"/>
+      <c r="CG32" s="105"/>
+      <c r="CH32" s="105"/>
+      <c r="CI32" s="105"/>
+      <c r="CJ32" s="105"/>
+      <c r="CK32" s="105"/>
+      <c r="CL32" s="105"/>
+      <c r="CM32" s="105"/>
       <c r="CN32" s="19"/>
       <c r="CO32" s="20"/>
       <c r="CP32" s="20"/>
@@ -9186,14 +9186,14 @@
       <c r="EO32" s="20"/>
       <c r="EP32" s="20"/>
       <c r="EQ32" s="21"/>
-      <c r="ER32" s="103"/>
-      <c r="ES32" s="103"/>
-      <c r="ET32" s="103"/>
-      <c r="EU32" s="103"/>
-      <c r="EV32" s="103"/>
-      <c r="EW32" s="103"/>
-      <c r="EX32" s="103"/>
-      <c r="EY32" s="103"/>
+      <c r="ER32" s="105"/>
+      <c r="ES32" s="105"/>
+      <c r="ET32" s="105"/>
+      <c r="EU32" s="105"/>
+      <c r="EV32" s="105"/>
+      <c r="EW32" s="105"/>
+      <c r="EX32" s="105"/>
+      <c r="EY32" s="105"/>
       <c r="EZ32" s="19"/>
       <c r="FA32" s="20"/>
       <c r="FB32" s="20"/>
@@ -9210,11 +9210,21 @@
       <c r="FK32" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="FL32" s="20"/>
-      <c r="FM32" s="20"/>
-      <c r="FN32" s="20"/>
-      <c r="FO32" s="21"/>
-      <c r="FP32" s="19"/>
+      <c r="FL32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="FM32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="FN32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="FO32" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="FP32" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="FQ32" s="20"/>
       <c r="FR32" s="20"/>
       <c r="FS32" s="20"/>
@@ -9247,7 +9257,7 @@
       <c r="GT32" s="20"/>
       <c r="GU32" s="20"/>
       <c r="GV32" s="20"/>
-      <c r="GW32" s="102"/>
+      <c r="GW32" s="104"/>
     </row>
     <row r="33" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A33" s="70" t="s">
@@ -9279,14 +9289,14 @@
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="21"/>
-      <c r="AB33" s="103"/>
-      <c r="AC33" s="103"/>
-      <c r="AD33" s="103"/>
-      <c r="AE33" s="103"/>
-      <c r="AF33" s="103"/>
-      <c r="AG33" s="103"/>
-      <c r="AH33" s="103"/>
-      <c r="AI33" s="103"/>
+      <c r="AB33" s="105"/>
+      <c r="AC33" s="105"/>
+      <c r="AD33" s="105"/>
+      <c r="AE33" s="105"/>
+      <c r="AF33" s="105"/>
+      <c r="AG33" s="105"/>
+      <c r="AH33" s="105"/>
+      <c r="AI33" s="105"/>
       <c r="AJ33" s="19"/>
       <c r="AK33" s="20"/>
       <c r="AL33" s="20"/>
@@ -9335,14 +9345,14 @@
       <c r="CC33" s="20"/>
       <c r="CD33" s="20"/>
       <c r="CE33" s="21"/>
-      <c r="CF33" s="103"/>
-      <c r="CG33" s="103"/>
-      <c r="CH33" s="103"/>
-      <c r="CI33" s="103"/>
-      <c r="CJ33" s="103"/>
-      <c r="CK33" s="103"/>
-      <c r="CL33" s="103"/>
-      <c r="CM33" s="103"/>
+      <c r="CF33" s="105"/>
+      <c r="CG33" s="105"/>
+      <c r="CH33" s="105"/>
+      <c r="CI33" s="105"/>
+      <c r="CJ33" s="105"/>
+      <c r="CK33" s="105"/>
+      <c r="CL33" s="105"/>
+      <c r="CM33" s="105"/>
       <c r="CN33" s="19"/>
       <c r="CO33" s="20"/>
       <c r="CP33" s="20"/>
@@ -9399,14 +9409,14 @@
       <c r="EO33" s="20"/>
       <c r="EP33" s="20"/>
       <c r="EQ33" s="21"/>
-      <c r="ER33" s="103"/>
-      <c r="ES33" s="103"/>
-      <c r="ET33" s="103"/>
-      <c r="EU33" s="103"/>
-      <c r="EV33" s="103"/>
-      <c r="EW33" s="103"/>
-      <c r="EX33" s="103"/>
-      <c r="EY33" s="103"/>
+      <c r="ER33" s="105"/>
+      <c r="ES33" s="105"/>
+      <c r="ET33" s="105"/>
+      <c r="EU33" s="105"/>
+      <c r="EV33" s="105"/>
+      <c r="EW33" s="105"/>
+      <c r="EX33" s="105"/>
+      <c r="EY33" s="105"/>
       <c r="EZ33" s="19"/>
       <c r="FA33" s="20"/>
       <c r="FB33" s="20"/>
@@ -9456,7 +9466,7 @@
       <c r="GT33" s="20"/>
       <c r="GU33" s="20"/>
       <c r="GV33" s="20"/>
-      <c r="GW33" s="102"/>
+      <c r="GW33" s="104"/>
     </row>
     <row r="34" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A34" s="70" t="s">
@@ -9488,14 +9498,14 @@
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="21"/>
-      <c r="AB34" s="103"/>
-      <c r="AC34" s="103"/>
-      <c r="AD34" s="103"/>
-      <c r="AE34" s="103"/>
-      <c r="AF34" s="103"/>
-      <c r="AG34" s="103"/>
-      <c r="AH34" s="103"/>
-      <c r="AI34" s="103"/>
+      <c r="AB34" s="105"/>
+      <c r="AC34" s="105"/>
+      <c r="AD34" s="105"/>
+      <c r="AE34" s="105"/>
+      <c r="AF34" s="105"/>
+      <c r="AG34" s="105"/>
+      <c r="AH34" s="105"/>
+      <c r="AI34" s="105"/>
       <c r="AJ34" s="19"/>
       <c r="AK34" s="20"/>
       <c r="AL34" s="20"/>
@@ -9544,14 +9554,14 @@
       <c r="CC34" s="20"/>
       <c r="CD34" s="20"/>
       <c r="CE34" s="21"/>
-      <c r="CF34" s="103"/>
-      <c r="CG34" s="103"/>
-      <c r="CH34" s="103"/>
-      <c r="CI34" s="103"/>
-      <c r="CJ34" s="103"/>
-      <c r="CK34" s="103"/>
-      <c r="CL34" s="103"/>
-      <c r="CM34" s="103"/>
+      <c r="CF34" s="105"/>
+      <c r="CG34" s="105"/>
+      <c r="CH34" s="105"/>
+      <c r="CI34" s="105"/>
+      <c r="CJ34" s="105"/>
+      <c r="CK34" s="105"/>
+      <c r="CL34" s="105"/>
+      <c r="CM34" s="105"/>
       <c r="CN34" s="19"/>
       <c r="CO34" s="20"/>
       <c r="CP34" s="20"/>
@@ -9608,14 +9618,14 @@
       <c r="EO34" s="20"/>
       <c r="EP34" s="20"/>
       <c r="EQ34" s="21"/>
-      <c r="ER34" s="103"/>
-      <c r="ES34" s="103"/>
-      <c r="ET34" s="103"/>
-      <c r="EU34" s="103"/>
-      <c r="EV34" s="103"/>
-      <c r="EW34" s="103"/>
-      <c r="EX34" s="103"/>
-      <c r="EY34" s="103"/>
+      <c r="ER34" s="105"/>
+      <c r="ES34" s="105"/>
+      <c r="ET34" s="105"/>
+      <c r="EU34" s="105"/>
+      <c r="EV34" s="105"/>
+      <c r="EW34" s="105"/>
+      <c r="EX34" s="105"/>
+      <c r="EY34" s="105"/>
       <c r="EZ34" s="19"/>
       <c r="FA34" s="20"/>
       <c r="FB34" s="20"/>
@@ -9665,7 +9675,7 @@
       <c r="GT34" s="20"/>
       <c r="GU34" s="20"/>
       <c r="GV34" s="20"/>
-      <c r="GW34" s="102"/>
+      <c r="GW34" s="104"/>
     </row>
     <row r="35" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A35" s="70" t="s">
@@ -9697,14 +9707,14 @@
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
       <c r="AA35" s="21"/>
-      <c r="AB35" s="103"/>
-      <c r="AC35" s="103"/>
-      <c r="AD35" s="103"/>
-      <c r="AE35" s="103"/>
-      <c r="AF35" s="103"/>
-      <c r="AG35" s="103"/>
-      <c r="AH35" s="103"/>
-      <c r="AI35" s="103"/>
+      <c r="AB35" s="105"/>
+      <c r="AC35" s="105"/>
+      <c r="AD35" s="105"/>
+      <c r="AE35" s="105"/>
+      <c r="AF35" s="105"/>
+      <c r="AG35" s="105"/>
+      <c r="AH35" s="105"/>
+      <c r="AI35" s="105"/>
       <c r="AJ35" s="19"/>
       <c r="AK35" s="20"/>
       <c r="AL35" s="20"/>
@@ -9753,14 +9763,14 @@
       <c r="CC35" s="20"/>
       <c r="CD35" s="20"/>
       <c r="CE35" s="21"/>
-      <c r="CF35" s="103"/>
-      <c r="CG35" s="103"/>
-      <c r="CH35" s="103"/>
-      <c r="CI35" s="103"/>
-      <c r="CJ35" s="103"/>
-      <c r="CK35" s="103"/>
-      <c r="CL35" s="103"/>
-      <c r="CM35" s="103"/>
+      <c r="CF35" s="105"/>
+      <c r="CG35" s="105"/>
+      <c r="CH35" s="105"/>
+      <c r="CI35" s="105"/>
+      <c r="CJ35" s="105"/>
+      <c r="CK35" s="105"/>
+      <c r="CL35" s="105"/>
+      <c r="CM35" s="105"/>
       <c r="CN35" s="19"/>
       <c r="CO35" s="20"/>
       <c r="CP35" s="20"/>
@@ -9817,14 +9827,14 @@
       <c r="EO35" s="20"/>
       <c r="EP35" s="20"/>
       <c r="EQ35" s="21"/>
-      <c r="ER35" s="103"/>
-      <c r="ES35" s="103"/>
-      <c r="ET35" s="103"/>
-      <c r="EU35" s="103"/>
-      <c r="EV35" s="103"/>
-      <c r="EW35" s="103"/>
-      <c r="EX35" s="103"/>
-      <c r="EY35" s="103"/>
+      <c r="ER35" s="105"/>
+      <c r="ES35" s="105"/>
+      <c r="ET35" s="105"/>
+      <c r="EU35" s="105"/>
+      <c r="EV35" s="105"/>
+      <c r="EW35" s="105"/>
+      <c r="EX35" s="105"/>
+      <c r="EY35" s="105"/>
       <c r="EZ35" s="19"/>
       <c r="FA35" s="20"/>
       <c r="FB35" s="20"/>
@@ -9874,7 +9884,7 @@
       <c r="GT35" s="20"/>
       <c r="GU35" s="20"/>
       <c r="GV35" s="20"/>
-      <c r="GW35" s="102"/>
+      <c r="GW35" s="104"/>
     </row>
     <row r="36" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="70" t="s">
@@ -9906,14 +9916,14 @@
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="21"/>
-      <c r="AB36" s="103"/>
-      <c r="AC36" s="103"/>
-      <c r="AD36" s="103"/>
-      <c r="AE36" s="103"/>
-      <c r="AF36" s="103"/>
-      <c r="AG36" s="103"/>
-      <c r="AH36" s="103"/>
-      <c r="AI36" s="103"/>
+      <c r="AB36" s="105"/>
+      <c r="AC36" s="105"/>
+      <c r="AD36" s="105"/>
+      <c r="AE36" s="105"/>
+      <c r="AF36" s="105"/>
+      <c r="AG36" s="105"/>
+      <c r="AH36" s="105"/>
+      <c r="AI36" s="105"/>
       <c r="AJ36" s="19"/>
       <c r="AK36" s="20"/>
       <c r="AL36" s="20"/>
@@ -9962,14 +9972,14 @@
       <c r="CC36" s="20"/>
       <c r="CD36" s="20"/>
       <c r="CE36" s="21"/>
-      <c r="CF36" s="103"/>
-      <c r="CG36" s="103"/>
-      <c r="CH36" s="103"/>
-      <c r="CI36" s="103"/>
-      <c r="CJ36" s="103"/>
-      <c r="CK36" s="103"/>
-      <c r="CL36" s="103"/>
-      <c r="CM36" s="103"/>
+      <c r="CF36" s="105"/>
+      <c r="CG36" s="105"/>
+      <c r="CH36" s="105"/>
+      <c r="CI36" s="105"/>
+      <c r="CJ36" s="105"/>
+      <c r="CK36" s="105"/>
+      <c r="CL36" s="105"/>
+      <c r="CM36" s="105"/>
       <c r="CN36" s="19"/>
       <c r="CO36" s="20"/>
       <c r="CP36" s="20"/>
@@ -10026,14 +10036,14 @@
       <c r="EO36" s="20"/>
       <c r="EP36" s="20"/>
       <c r="EQ36" s="21"/>
-      <c r="ER36" s="103"/>
-      <c r="ES36" s="103"/>
-      <c r="ET36" s="103"/>
-      <c r="EU36" s="103"/>
-      <c r="EV36" s="103"/>
-      <c r="EW36" s="103"/>
-      <c r="EX36" s="103"/>
-      <c r="EY36" s="103"/>
+      <c r="ER36" s="105"/>
+      <c r="ES36" s="105"/>
+      <c r="ET36" s="105"/>
+      <c r="EU36" s="105"/>
+      <c r="EV36" s="105"/>
+      <c r="EW36" s="105"/>
+      <c r="EX36" s="105"/>
+      <c r="EY36" s="105"/>
       <c r="EZ36" s="19"/>
       <c r="FA36" s="20"/>
       <c r="FB36" s="20"/>
@@ -10083,13 +10093,13 @@
       <c r="GT36" s="20"/>
       <c r="GU36" s="20"/>
       <c r="GV36" s="20"/>
-      <c r="GW36" s="102"/>
+      <c r="GW36" s="104"/>
     </row>
     <row r="37" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="112" t="s">
+      <c r="A37" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="112"/>
+      <c r="B37" s="101"/>
       <c r="C37" s="33"/>
       <c r="D37" s="19"/>
       <c r="E37" s="20"/>
@@ -10115,14 +10125,14 @@
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="21"/>
-      <c r="AB37" s="103"/>
-      <c r="AC37" s="103"/>
-      <c r="AD37" s="103"/>
-      <c r="AE37" s="103"/>
-      <c r="AF37" s="103"/>
-      <c r="AG37" s="103"/>
-      <c r="AH37" s="103"/>
-      <c r="AI37" s="103"/>
+      <c r="AB37" s="105"/>
+      <c r="AC37" s="105"/>
+      <c r="AD37" s="105"/>
+      <c r="AE37" s="105"/>
+      <c r="AF37" s="105"/>
+      <c r="AG37" s="105"/>
+      <c r="AH37" s="105"/>
+      <c r="AI37" s="105"/>
       <c r="AJ37" s="19"/>
       <c r="AK37" s="20"/>
       <c r="AL37" s="20"/>
@@ -10171,14 +10181,14 @@
       <c r="CC37" s="20"/>
       <c r="CD37" s="20"/>
       <c r="CE37" s="21"/>
-      <c r="CF37" s="103"/>
-      <c r="CG37" s="103"/>
-      <c r="CH37" s="103"/>
-      <c r="CI37" s="103"/>
-      <c r="CJ37" s="103"/>
-      <c r="CK37" s="103"/>
-      <c r="CL37" s="103"/>
-      <c r="CM37" s="103"/>
+      <c r="CF37" s="105"/>
+      <c r="CG37" s="105"/>
+      <c r="CH37" s="105"/>
+      <c r="CI37" s="105"/>
+      <c r="CJ37" s="105"/>
+      <c r="CK37" s="105"/>
+      <c r="CL37" s="105"/>
+      <c r="CM37" s="105"/>
       <c r="CN37" s="19"/>
       <c r="CO37" s="20"/>
       <c r="CP37" s="20"/>
@@ -10235,14 +10245,14 @@
       <c r="EO37" s="20"/>
       <c r="EP37" s="20"/>
       <c r="EQ37" s="21"/>
-      <c r="ER37" s="103"/>
-      <c r="ES37" s="103"/>
-      <c r="ET37" s="103"/>
-      <c r="EU37" s="103"/>
-      <c r="EV37" s="103"/>
-      <c r="EW37" s="103"/>
-      <c r="EX37" s="103"/>
-      <c r="EY37" s="103"/>
+      <c r="ER37" s="105"/>
+      <c r="ES37" s="105"/>
+      <c r="ET37" s="105"/>
+      <c r="EU37" s="105"/>
+      <c r="EV37" s="105"/>
+      <c r="EW37" s="105"/>
+      <c r="EX37" s="105"/>
+      <c r="EY37" s="105"/>
       <c r="EZ37" s="19"/>
       <c r="FA37" s="20"/>
       <c r="FB37" s="20"/>
@@ -10292,7 +10302,7 @@
       <c r="GT37" s="20"/>
       <c r="GU37" s="20"/>
       <c r="GV37" s="20"/>
-      <c r="GW37" s="102"/>
+      <c r="GW37" s="104"/>
     </row>
     <row r="38" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A38" s="74" t="s">
@@ -10324,14 +10334,14 @@
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="21"/>
-      <c r="AB38" s="103"/>
-      <c r="AC38" s="103"/>
-      <c r="AD38" s="103"/>
-      <c r="AE38" s="103"/>
-      <c r="AF38" s="103"/>
-      <c r="AG38" s="103"/>
-      <c r="AH38" s="103"/>
-      <c r="AI38" s="103"/>
+      <c r="AB38" s="105"/>
+      <c r="AC38" s="105"/>
+      <c r="AD38" s="105"/>
+      <c r="AE38" s="105"/>
+      <c r="AF38" s="105"/>
+      <c r="AG38" s="105"/>
+      <c r="AH38" s="105"/>
+      <c r="AI38" s="105"/>
       <c r="AJ38" s="19"/>
       <c r="AK38" s="20"/>
       <c r="AL38" s="20"/>
@@ -10380,14 +10390,14 @@
       <c r="CC38" s="20"/>
       <c r="CD38" s="20"/>
       <c r="CE38" s="21"/>
-      <c r="CF38" s="103"/>
-      <c r="CG38" s="103"/>
-      <c r="CH38" s="103"/>
-      <c r="CI38" s="103"/>
-      <c r="CJ38" s="103"/>
-      <c r="CK38" s="103"/>
-      <c r="CL38" s="103"/>
-      <c r="CM38" s="103"/>
+      <c r="CF38" s="105"/>
+      <c r="CG38" s="105"/>
+      <c r="CH38" s="105"/>
+      <c r="CI38" s="105"/>
+      <c r="CJ38" s="105"/>
+      <c r="CK38" s="105"/>
+      <c r="CL38" s="105"/>
+      <c r="CM38" s="105"/>
       <c r="CN38" s="19"/>
       <c r="CO38" s="20"/>
       <c r="CP38" s="20"/>
@@ -10446,14 +10456,14 @@
       <c r="EO38" s="20"/>
       <c r="EP38" s="20"/>
       <c r="EQ38" s="21"/>
-      <c r="ER38" s="103"/>
-      <c r="ES38" s="103"/>
-      <c r="ET38" s="103"/>
-      <c r="EU38" s="103"/>
-      <c r="EV38" s="103"/>
-      <c r="EW38" s="103"/>
-      <c r="EX38" s="103"/>
-      <c r="EY38" s="103"/>
+      <c r="ER38" s="105"/>
+      <c r="ES38" s="105"/>
+      <c r="ET38" s="105"/>
+      <c r="EU38" s="105"/>
+      <c r="EV38" s="105"/>
+      <c r="EW38" s="105"/>
+      <c r="EX38" s="105"/>
+      <c r="EY38" s="105"/>
       <c r="EZ38" s="19"/>
       <c r="FA38" s="20"/>
       <c r="FB38" s="20"/>
@@ -10503,13 +10513,13 @@
       <c r="GT38" s="20"/>
       <c r="GU38" s="20"/>
       <c r="GV38" s="20"/>
-      <c r="GW38" s="102"/>
+      <c r="GW38" s="104"/>
     </row>
     <row r="39" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="105" t="s">
+      <c r="A39" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="105"/>
+      <c r="B39" s="94"/>
       <c r="C39" s="33"/>
       <c r="D39" s="19"/>
       <c r="E39" s="20"/>
@@ -10535,14 +10545,14 @@
       <c r="Y39" s="20"/>
       <c r="Z39" s="20"/>
       <c r="AA39" s="21"/>
-      <c r="AB39" s="103"/>
-      <c r="AC39" s="103"/>
-      <c r="AD39" s="103"/>
-      <c r="AE39" s="103"/>
-      <c r="AF39" s="103"/>
-      <c r="AG39" s="103"/>
-      <c r="AH39" s="103"/>
-      <c r="AI39" s="103"/>
+      <c r="AB39" s="105"/>
+      <c r="AC39" s="105"/>
+      <c r="AD39" s="105"/>
+      <c r="AE39" s="105"/>
+      <c r="AF39" s="105"/>
+      <c r="AG39" s="105"/>
+      <c r="AH39" s="105"/>
+      <c r="AI39" s="105"/>
       <c r="AJ39" s="19"/>
       <c r="AK39" s="20"/>
       <c r="AL39" s="20"/>
@@ -10591,14 +10601,14 @@
       <c r="CC39" s="20"/>
       <c r="CD39" s="20"/>
       <c r="CE39" s="21"/>
-      <c r="CF39" s="103"/>
-      <c r="CG39" s="103"/>
-      <c r="CH39" s="103"/>
-      <c r="CI39" s="103"/>
-      <c r="CJ39" s="103"/>
-      <c r="CK39" s="103"/>
-      <c r="CL39" s="103"/>
-      <c r="CM39" s="103"/>
+      <c r="CF39" s="105"/>
+      <c r="CG39" s="105"/>
+      <c r="CH39" s="105"/>
+      <c r="CI39" s="105"/>
+      <c r="CJ39" s="105"/>
+      <c r="CK39" s="105"/>
+      <c r="CL39" s="105"/>
+      <c r="CM39" s="105"/>
       <c r="CN39" s="19"/>
       <c r="CO39" s="20"/>
       <c r="CP39" s="20"/>
@@ -10655,14 +10665,14 @@
       <c r="EO39" s="20"/>
       <c r="EP39" s="20"/>
       <c r="EQ39" s="21"/>
-      <c r="ER39" s="103"/>
-      <c r="ES39" s="103"/>
-      <c r="ET39" s="103"/>
-      <c r="EU39" s="103"/>
-      <c r="EV39" s="103"/>
-      <c r="EW39" s="103"/>
-      <c r="EX39" s="103"/>
-      <c r="EY39" s="103"/>
+      <c r="ER39" s="105"/>
+      <c r="ES39" s="105"/>
+      <c r="ET39" s="105"/>
+      <c r="EU39" s="105"/>
+      <c r="EV39" s="105"/>
+      <c r="EW39" s="105"/>
+      <c r="EX39" s="105"/>
+      <c r="EY39" s="105"/>
       <c r="EZ39" s="19"/>
       <c r="FA39" s="20"/>
       <c r="FB39" s="20"/>
@@ -10712,7 +10722,7 @@
       <c r="GT39" s="20"/>
       <c r="GU39" s="20"/>
       <c r="GV39" s="20"/>
-      <c r="GW39" s="102"/>
+      <c r="GW39" s="104"/>
     </row>
     <row r="40" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="79" t="s">
@@ -10744,14 +10754,14 @@
       <c r="Y40" s="20"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="21"/>
-      <c r="AB40" s="103"/>
-      <c r="AC40" s="103"/>
-      <c r="AD40" s="103"/>
-      <c r="AE40" s="103"/>
-      <c r="AF40" s="103"/>
-      <c r="AG40" s="103"/>
-      <c r="AH40" s="103"/>
-      <c r="AI40" s="103"/>
+      <c r="AB40" s="105"/>
+      <c r="AC40" s="105"/>
+      <c r="AD40" s="105"/>
+      <c r="AE40" s="105"/>
+      <c r="AF40" s="105"/>
+      <c r="AG40" s="105"/>
+      <c r="AH40" s="105"/>
+      <c r="AI40" s="105"/>
       <c r="AJ40" s="19"/>
       <c r="AK40" s="20"/>
       <c r="AL40" s="20"/>
@@ -10800,14 +10810,14 @@
       <c r="CC40" s="20"/>
       <c r="CD40" s="20"/>
       <c r="CE40" s="21"/>
-      <c r="CF40" s="103"/>
-      <c r="CG40" s="103"/>
-      <c r="CH40" s="103"/>
-      <c r="CI40" s="103"/>
-      <c r="CJ40" s="103"/>
-      <c r="CK40" s="103"/>
-      <c r="CL40" s="103"/>
-      <c r="CM40" s="103"/>
+      <c r="CF40" s="105"/>
+      <c r="CG40" s="105"/>
+      <c r="CH40" s="105"/>
+      <c r="CI40" s="105"/>
+      <c r="CJ40" s="105"/>
+      <c r="CK40" s="105"/>
+      <c r="CL40" s="105"/>
+      <c r="CM40" s="105"/>
       <c r="CN40" s="19"/>
       <c r="CO40" s="20"/>
       <c r="CP40" s="20"/>
@@ -10864,14 +10874,14 @@
       <c r="EO40" s="20"/>
       <c r="EP40" s="20"/>
       <c r="EQ40" s="21"/>
-      <c r="ER40" s="103"/>
-      <c r="ES40" s="103"/>
-      <c r="ET40" s="103"/>
-      <c r="EU40" s="103"/>
-      <c r="EV40" s="103"/>
-      <c r="EW40" s="103"/>
-      <c r="EX40" s="103"/>
-      <c r="EY40" s="103"/>
+      <c r="ER40" s="105"/>
+      <c r="ES40" s="105"/>
+      <c r="ET40" s="105"/>
+      <c r="EU40" s="105"/>
+      <c r="EV40" s="105"/>
+      <c r="EW40" s="105"/>
+      <c r="EX40" s="105"/>
+      <c r="EY40" s="105"/>
       <c r="EZ40" s="19"/>
       <c r="FA40" s="20"/>
       <c r="FB40" s="20"/>
@@ -10921,7 +10931,7 @@
       <c r="GT40" s="20"/>
       <c r="GU40" s="20"/>
       <c r="GV40" s="20"/>
-      <c r="GW40" s="102"/>
+      <c r="GW40" s="104"/>
     </row>
     <row r="41" spans="1:205" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="79" t="s">
@@ -10953,14 +10963,14 @@
       <c r="Y41" s="20"/>
       <c r="Z41" s="20"/>
       <c r="AA41" s="21"/>
-      <c r="AB41" s="103"/>
-      <c r="AC41" s="103"/>
-      <c r="AD41" s="103"/>
-      <c r="AE41" s="103"/>
-      <c r="AF41" s="103"/>
-      <c r="AG41" s="103"/>
-      <c r="AH41" s="103"/>
-      <c r="AI41" s="103"/>
+      <c r="AB41" s="105"/>
+      <c r="AC41" s="105"/>
+      <c r="AD41" s="105"/>
+      <c r="AE41" s="105"/>
+      <c r="AF41" s="105"/>
+      <c r="AG41" s="105"/>
+      <c r="AH41" s="105"/>
+      <c r="AI41" s="105"/>
       <c r="AJ41" s="19"/>
       <c r="AK41" s="20"/>
       <c r="AL41" s="20"/>
@@ -11009,14 +11019,14 @@
       <c r="CC41" s="20"/>
       <c r="CD41" s="20"/>
       <c r="CE41" s="21"/>
-      <c r="CF41" s="103"/>
-      <c r="CG41" s="103"/>
-      <c r="CH41" s="103"/>
-      <c r="CI41" s="103"/>
-      <c r="CJ41" s="103"/>
-      <c r="CK41" s="103"/>
-      <c r="CL41" s="103"/>
-      <c r="CM41" s="103"/>
+      <c r="CF41" s="105"/>
+      <c r="CG41" s="105"/>
+      <c r="CH41" s="105"/>
+      <c r="CI41" s="105"/>
+      <c r="CJ41" s="105"/>
+      <c r="CK41" s="105"/>
+      <c r="CL41" s="105"/>
+      <c r="CM41" s="105"/>
       <c r="CN41" s="19"/>
       <c r="CO41" s="20"/>
       <c r="CP41" s="20"/>
@@ -11077,14 +11087,14 @@
       <c r="EO41" s="20"/>
       <c r="EP41" s="20"/>
       <c r="EQ41" s="21"/>
-      <c r="ER41" s="103"/>
-      <c r="ES41" s="103"/>
-      <c r="ET41" s="103"/>
-      <c r="EU41" s="103"/>
-      <c r="EV41" s="103"/>
-      <c r="EW41" s="103"/>
-      <c r="EX41" s="103"/>
-      <c r="EY41" s="103"/>
+      <c r="ER41" s="105"/>
+      <c r="ES41" s="105"/>
+      <c r="ET41" s="105"/>
+      <c r="EU41" s="105"/>
+      <c r="EV41" s="105"/>
+      <c r="EW41" s="105"/>
+      <c r="EX41" s="105"/>
+      <c r="EY41" s="105"/>
       <c r="EZ41" s="19"/>
       <c r="FA41" s="20"/>
       <c r="FB41" s="20"/>
@@ -11134,7 +11144,7 @@
       <c r="GT41" s="20"/>
       <c r="GU41" s="20"/>
       <c r="GV41" s="20"/>
-      <c r="GW41" s="102"/>
+      <c r="GW41" s="104"/>
     </row>
     <row r="42" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A42" s="81" t="s">
@@ -11142,74 +11152,74 @@
       </c>
       <c r="B42" s="82"/>
       <c r="C42" s="83"/>
-      <c r="D42" s="106" t="s">
+      <c r="D42" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="106"/>
-      <c r="F42" s="106"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="106"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="106"/>
-      <c r="K42" s="106"/>
-      <c r="L42" s="106"/>
-      <c r="M42" s="106"/>
-      <c r="N42" s="106"/>
-      <c r="O42" s="106"/>
-      <c r="P42" s="106"/>
-      <c r="Q42" s="106"/>
-      <c r="R42" s="106"/>
-      <c r="S42" s="106"/>
-      <c r="T42" s="106"/>
-      <c r="U42" s="106"/>
-      <c r="V42" s="106"/>
-      <c r="W42" s="106"/>
-      <c r="X42" s="106"/>
-      <c r="Y42" s="106"/>
-      <c r="Z42" s="106"/>
-      <c r="AA42" s="106"/>
-      <c r="AB42" s="103"/>
-      <c r="AC42" s="103"/>
-      <c r="AD42" s="103"/>
-      <c r="AE42" s="103"/>
-      <c r="AF42" s="103"/>
-      <c r="AG42" s="103"/>
-      <c r="AH42" s="103"/>
-      <c r="AI42" s="103"/>
-      <c r="AJ42" s="106" t="s">
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95"/>
+      <c r="S42" s="95"/>
+      <c r="T42" s="95"/>
+      <c r="U42" s="95"/>
+      <c r="V42" s="95"/>
+      <c r="W42" s="95"/>
+      <c r="X42" s="95"/>
+      <c r="Y42" s="95"/>
+      <c r="Z42" s="95"/>
+      <c r="AA42" s="95"/>
+      <c r="AB42" s="105"/>
+      <c r="AC42" s="105"/>
+      <c r="AD42" s="105"/>
+      <c r="AE42" s="105"/>
+      <c r="AF42" s="105"/>
+      <c r="AG42" s="105"/>
+      <c r="AH42" s="105"/>
+      <c r="AI42" s="105"/>
+      <c r="AJ42" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="AK42" s="106"/>
-      <c r="AL42" s="106"/>
-      <c r="AM42" s="106"/>
-      <c r="AN42" s="106"/>
-      <c r="AO42" s="106"/>
-      <c r="AP42" s="106"/>
-      <c r="AQ42" s="106"/>
-      <c r="AR42" s="106"/>
-      <c r="AS42" s="106"/>
-      <c r="AT42" s="106"/>
-      <c r="AU42" s="106"/>
-      <c r="AV42" s="106"/>
-      <c r="AW42" s="106"/>
-      <c r="AX42" s="106"/>
-      <c r="AY42" s="106"/>
-      <c r="AZ42" s="106"/>
-      <c r="BA42" s="106"/>
-      <c r="BB42" s="106"/>
-      <c r="BC42" s="106"/>
-      <c r="BD42" s="106"/>
-      <c r="BE42" s="106"/>
-      <c r="BF42" s="106"/>
-      <c r="BG42" s="106"/>
-      <c r="BH42" s="106"/>
-      <c r="BI42" s="106"/>
-      <c r="BJ42" s="106"/>
-      <c r="BK42" s="106"/>
-      <c r="BL42" s="106"/>
-      <c r="BM42" s="106"/>
-      <c r="BN42" s="106"/>
-      <c r="BO42" s="106"/>
+      <c r="AK42" s="95"/>
+      <c r="AL42" s="95"/>
+      <c r="AM42" s="95"/>
+      <c r="AN42" s="95"/>
+      <c r="AO42" s="95"/>
+      <c r="AP42" s="95"/>
+      <c r="AQ42" s="95"/>
+      <c r="AR42" s="95"/>
+      <c r="AS42" s="95"/>
+      <c r="AT42" s="95"/>
+      <c r="AU42" s="95"/>
+      <c r="AV42" s="95"/>
+      <c r="AW42" s="95"/>
+      <c r="AX42" s="95"/>
+      <c r="AY42" s="95"/>
+      <c r="AZ42" s="95"/>
+      <c r="BA42" s="95"/>
+      <c r="BB42" s="95"/>
+      <c r="BC42" s="95"/>
+      <c r="BD42" s="95"/>
+      <c r="BE42" s="95"/>
+      <c r="BF42" s="95"/>
+      <c r="BG42" s="95"/>
+      <c r="BH42" s="95"/>
+      <c r="BI42" s="95"/>
+      <c r="BJ42" s="95"/>
+      <c r="BK42" s="95"/>
+      <c r="BL42" s="95"/>
+      <c r="BM42" s="95"/>
+      <c r="BN42" s="95"/>
+      <c r="BO42" s="95"/>
       <c r="BP42" s="84"/>
       <c r="BQ42" s="85"/>
       <c r="BR42" s="85"/>
@@ -11226,14 +11236,14 @@
       <c r="CC42" s="85"/>
       <c r="CD42" s="85"/>
       <c r="CE42" s="86"/>
-      <c r="CF42" s="103"/>
-      <c r="CG42" s="103"/>
-      <c r="CH42" s="103"/>
-      <c r="CI42" s="103"/>
-      <c r="CJ42" s="103"/>
-      <c r="CK42" s="103"/>
-      <c r="CL42" s="103"/>
-      <c r="CM42" s="103"/>
+      <c r="CF42" s="105"/>
+      <c r="CG42" s="105"/>
+      <c r="CH42" s="105"/>
+      <c r="CI42" s="105"/>
+      <c r="CJ42" s="105"/>
+      <c r="CK42" s="105"/>
+      <c r="CL42" s="105"/>
+      <c r="CM42" s="105"/>
       <c r="CN42" s="84"/>
       <c r="CO42" s="85"/>
       <c r="CP42" s="85"/>
@@ -11290,14 +11300,14 @@
       <c r="EO42" s="85"/>
       <c r="EP42" s="85"/>
       <c r="EQ42" s="86"/>
-      <c r="ER42" s="103"/>
-      <c r="ES42" s="103"/>
-      <c r="ET42" s="103"/>
-      <c r="EU42" s="103"/>
-      <c r="EV42" s="103"/>
-      <c r="EW42" s="103"/>
-      <c r="EX42" s="103"/>
-      <c r="EY42" s="103"/>
+      <c r="ER42" s="105"/>
+      <c r="ES42" s="105"/>
+      <c r="ET42" s="105"/>
+      <c r="EU42" s="105"/>
+      <c r="EV42" s="105"/>
+      <c r="EW42" s="105"/>
+      <c r="EX42" s="105"/>
+      <c r="EY42" s="105"/>
       <c r="EZ42" s="84"/>
       <c r="FA42" s="85"/>
       <c r="FB42" s="85"/>
@@ -11347,227 +11357,264 @@
       <c r="GT42" s="85"/>
       <c r="GU42" s="85"/>
       <c r="GV42" s="85"/>
-      <c r="GW42" s="102"/>
+      <c r="GW42" s="104"/>
     </row>
     <row r="43" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A43" s="107" t="s">
+      <c r="A43" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
-      <c r="J43" s="107"/>
-      <c r="K43" s="107"/>
-      <c r="L43" s="107"/>
-      <c r="M43" s="107"/>
-      <c r="N43" s="107"/>
-      <c r="O43" s="107"/>
-      <c r="P43" s="107"/>
-      <c r="Q43" s="107"/>
-      <c r="R43" s="107"/>
-      <c r="S43" s="107"/>
-      <c r="T43" s="107"/>
-      <c r="U43" s="107"/>
-      <c r="V43" s="107"/>
-      <c r="W43" s="107"/>
-      <c r="X43" s="107"/>
-      <c r="Y43" s="107"/>
-      <c r="Z43" s="107"/>
-      <c r="AA43" s="107"/>
-      <c r="AB43" s="107"/>
-      <c r="AC43" s="107"/>
-      <c r="AD43" s="107"/>
-      <c r="AE43" s="107"/>
-      <c r="AF43" s="107"/>
-      <c r="AG43" s="107"/>
-      <c r="AH43" s="107"/>
-      <c r="AI43" s="107"/>
-      <c r="AJ43" s="107"/>
-      <c r="AK43" s="107"/>
-      <c r="AL43" s="107"/>
-      <c r="AM43" s="107"/>
-      <c r="AN43" s="107"/>
-      <c r="AO43" s="107"/>
-      <c r="AP43" s="107"/>
-      <c r="AQ43" s="107"/>
-      <c r="AR43" s="107"/>
-      <c r="AS43" s="107"/>
-      <c r="AT43" s="107"/>
-      <c r="AU43" s="107"/>
-      <c r="AV43" s="107"/>
-      <c r="AW43" s="107"/>
-      <c r="AX43" s="107"/>
-      <c r="AY43" s="107"/>
-      <c r="AZ43" s="107"/>
-      <c r="BA43" s="107"/>
-      <c r="BB43" s="107"/>
-      <c r="BC43" s="107"/>
-      <c r="BD43" s="107"/>
-      <c r="BE43" s="107"/>
-      <c r="BF43" s="107"/>
-      <c r="BG43" s="107"/>
-      <c r="BH43" s="107"/>
-      <c r="BI43" s="107"/>
-      <c r="BJ43" s="107"/>
-      <c r="BK43" s="107"/>
-      <c r="BL43" s="107"/>
-      <c r="BM43" s="107"/>
-      <c r="BN43" s="107"/>
-      <c r="BO43" s="107"/>
-      <c r="BP43" s="107"/>
-      <c r="BQ43" s="107"/>
-      <c r="BR43" s="107"/>
-      <c r="BS43" s="107"/>
-      <c r="BT43" s="107"/>
-      <c r="BU43" s="107"/>
-      <c r="BV43" s="107"/>
-      <c r="BW43" s="107"/>
-      <c r="BX43" s="107"/>
-      <c r="BY43" s="107"/>
-      <c r="BZ43" s="107"/>
-      <c r="CA43" s="107"/>
-      <c r="CB43" s="107"/>
-      <c r="CC43" s="107"/>
-      <c r="CD43" s="107"/>
-      <c r="CE43" s="107"/>
-      <c r="CF43" s="107"/>
-      <c r="CG43" s="107"/>
-      <c r="CH43" s="107"/>
-      <c r="CI43" s="107"/>
-      <c r="CJ43" s="107"/>
-      <c r="CK43" s="107"/>
-      <c r="CL43" s="107"/>
-      <c r="CM43" s="107"/>
-      <c r="CN43" s="107"/>
-      <c r="CO43" s="107"/>
-      <c r="CP43" s="107"/>
-      <c r="CQ43" s="107"/>
-      <c r="CR43" s="107"/>
-      <c r="CS43" s="107"/>
-      <c r="CT43" s="107"/>
-      <c r="CU43" s="107"/>
-      <c r="CV43" s="107"/>
-      <c r="CW43" s="107"/>
-      <c r="CX43" s="107"/>
-      <c r="CY43" s="107"/>
-      <c r="CZ43" s="107"/>
-      <c r="DA43" s="107"/>
-      <c r="DB43" s="107"/>
-      <c r="DC43" s="107"/>
-      <c r="DD43" s="107"/>
-      <c r="DE43" s="107"/>
-      <c r="DF43" s="107"/>
-      <c r="DG43" s="107"/>
-      <c r="DH43" s="107"/>
-      <c r="DI43" s="107"/>
-      <c r="DJ43" s="107"/>
-      <c r="DK43" s="107"/>
-      <c r="DL43" s="107"/>
-      <c r="DM43" s="107"/>
-      <c r="DN43" s="107"/>
-      <c r="DO43" s="107"/>
-      <c r="DP43" s="107"/>
-      <c r="DQ43" s="107"/>
-      <c r="DR43" s="107"/>
-      <c r="DS43" s="107"/>
-      <c r="DT43" s="107"/>
-      <c r="DU43" s="107"/>
-      <c r="DV43" s="107"/>
-      <c r="DW43" s="107"/>
-      <c r="DX43" s="107"/>
-      <c r="DY43" s="107"/>
-      <c r="DZ43" s="107"/>
-      <c r="EA43" s="107"/>
-      <c r="EB43" s="107"/>
-      <c r="EC43" s="107"/>
-      <c r="ED43" s="107"/>
-      <c r="EE43" s="107"/>
-      <c r="EF43" s="107"/>
-      <c r="EG43" s="107"/>
-      <c r="EH43" s="107"/>
-      <c r="EI43" s="107"/>
-      <c r="EJ43" s="107"/>
-      <c r="EK43" s="107"/>
-      <c r="EL43" s="107"/>
-      <c r="EM43" s="107"/>
-      <c r="EN43" s="107"/>
-      <c r="EO43" s="107"/>
-      <c r="EP43" s="107"/>
-      <c r="EQ43" s="107"/>
-      <c r="ER43" s="107"/>
-      <c r="ES43" s="107"/>
-      <c r="ET43" s="107"/>
-      <c r="EU43" s="107"/>
-      <c r="EV43" s="107"/>
-      <c r="EW43" s="107"/>
-      <c r="EX43" s="107"/>
-      <c r="EY43" s="107"/>
-      <c r="EZ43" s="107"/>
-      <c r="FA43" s="107"/>
-      <c r="FB43" s="107"/>
-      <c r="FC43" s="107"/>
-      <c r="FD43" s="107"/>
-      <c r="FE43" s="107"/>
-      <c r="FF43" s="107"/>
-      <c r="FG43" s="107"/>
-      <c r="FH43" s="107"/>
-      <c r="FI43" s="107"/>
-      <c r="FJ43" s="107"/>
-      <c r="FK43" s="107"/>
-      <c r="FL43" s="107"/>
-      <c r="FM43" s="107"/>
-      <c r="FN43" s="107"/>
-      <c r="FO43" s="107"/>
-      <c r="FP43" s="107"/>
-      <c r="FQ43" s="107"/>
-      <c r="FR43" s="107"/>
-      <c r="FS43" s="107"/>
-      <c r="FT43" s="107"/>
-      <c r="FU43" s="107"/>
-      <c r="FV43" s="107"/>
-      <c r="FW43" s="107"/>
-      <c r="FX43" s="107"/>
-      <c r="FY43" s="107"/>
-      <c r="FZ43" s="107"/>
-      <c r="GA43" s="107"/>
-      <c r="GB43" s="107"/>
-      <c r="GC43" s="107"/>
-      <c r="GD43" s="107"/>
-      <c r="GE43" s="107"/>
-      <c r="GF43" s="107"/>
-      <c r="GG43" s="107"/>
-      <c r="GH43" s="107"/>
-      <c r="GI43" s="107"/>
-      <c r="GJ43" s="107"/>
-      <c r="GK43" s="107"/>
-      <c r="GL43" s="107"/>
-      <c r="GM43" s="107"/>
-      <c r="GN43" s="107"/>
-      <c r="GO43" s="107"/>
-      <c r="GP43" s="107"/>
-      <c r="GQ43" s="107"/>
-      <c r="GR43" s="107"/>
-      <c r="GS43" s="107"/>
-      <c r="GT43" s="107"/>
-      <c r="GU43" s="107"/>
-      <c r="GV43" s="107"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="96"/>
+      <c r="O43" s="96"/>
+      <c r="P43" s="96"/>
+      <c r="Q43" s="96"/>
+      <c r="R43" s="96"/>
+      <c r="S43" s="96"/>
+      <c r="T43" s="96"/>
+      <c r="U43" s="96"/>
+      <c r="V43" s="96"/>
+      <c r="W43" s="96"/>
+      <c r="X43" s="96"/>
+      <c r="Y43" s="96"/>
+      <c r="Z43" s="96"/>
+      <c r="AA43" s="96"/>
+      <c r="AB43" s="96"/>
+      <c r="AC43" s="96"/>
+      <c r="AD43" s="96"/>
+      <c r="AE43" s="96"/>
+      <c r="AF43" s="96"/>
+      <c r="AG43" s="96"/>
+      <c r="AH43" s="96"/>
+      <c r="AI43" s="96"/>
+      <c r="AJ43" s="96"/>
+      <c r="AK43" s="96"/>
+      <c r="AL43" s="96"/>
+      <c r="AM43" s="96"/>
+      <c r="AN43" s="96"/>
+      <c r="AO43" s="96"/>
+      <c r="AP43" s="96"/>
+      <c r="AQ43" s="96"/>
+      <c r="AR43" s="96"/>
+      <c r="AS43" s="96"/>
+      <c r="AT43" s="96"/>
+      <c r="AU43" s="96"/>
+      <c r="AV43" s="96"/>
+      <c r="AW43" s="96"/>
+      <c r="AX43" s="96"/>
+      <c r="AY43" s="96"/>
+      <c r="AZ43" s="96"/>
+      <c r="BA43" s="96"/>
+      <c r="BB43" s="96"/>
+      <c r="BC43" s="96"/>
+      <c r="BD43" s="96"/>
+      <c r="BE43" s="96"/>
+      <c r="BF43" s="96"/>
+      <c r="BG43" s="96"/>
+      <c r="BH43" s="96"/>
+      <c r="BI43" s="96"/>
+      <c r="BJ43" s="96"/>
+      <c r="BK43" s="96"/>
+      <c r="BL43" s="96"/>
+      <c r="BM43" s="96"/>
+      <c r="BN43" s="96"/>
+      <c r="BO43" s="96"/>
+      <c r="BP43" s="96"/>
+      <c r="BQ43" s="96"/>
+      <c r="BR43" s="96"/>
+      <c r="BS43" s="96"/>
+      <c r="BT43" s="96"/>
+      <c r="BU43" s="96"/>
+      <c r="BV43" s="96"/>
+      <c r="BW43" s="96"/>
+      <c r="BX43" s="96"/>
+      <c r="BY43" s="96"/>
+      <c r="BZ43" s="96"/>
+      <c r="CA43" s="96"/>
+      <c r="CB43" s="96"/>
+      <c r="CC43" s="96"/>
+      <c r="CD43" s="96"/>
+      <c r="CE43" s="96"/>
+      <c r="CF43" s="96"/>
+      <c r="CG43" s="96"/>
+      <c r="CH43" s="96"/>
+      <c r="CI43" s="96"/>
+      <c r="CJ43" s="96"/>
+      <c r="CK43" s="96"/>
+      <c r="CL43" s="96"/>
+      <c r="CM43" s="96"/>
+      <c r="CN43" s="96"/>
+      <c r="CO43" s="96"/>
+      <c r="CP43" s="96"/>
+      <c r="CQ43" s="96"/>
+      <c r="CR43" s="96"/>
+      <c r="CS43" s="96"/>
+      <c r="CT43" s="96"/>
+      <c r="CU43" s="96"/>
+      <c r="CV43" s="96"/>
+      <c r="CW43" s="96"/>
+      <c r="CX43" s="96"/>
+      <c r="CY43" s="96"/>
+      <c r="CZ43" s="96"/>
+      <c r="DA43" s="96"/>
+      <c r="DB43" s="96"/>
+      <c r="DC43" s="96"/>
+      <c r="DD43" s="96"/>
+      <c r="DE43" s="96"/>
+      <c r="DF43" s="96"/>
+      <c r="DG43" s="96"/>
+      <c r="DH43" s="96"/>
+      <c r="DI43" s="96"/>
+      <c r="DJ43" s="96"/>
+      <c r="DK43" s="96"/>
+      <c r="DL43" s="96"/>
+      <c r="DM43" s="96"/>
+      <c r="DN43" s="96"/>
+      <c r="DO43" s="96"/>
+      <c r="DP43" s="96"/>
+      <c r="DQ43" s="96"/>
+      <c r="DR43" s="96"/>
+      <c r="DS43" s="96"/>
+      <c r="DT43" s="96"/>
+      <c r="DU43" s="96"/>
+      <c r="DV43" s="96"/>
+      <c r="DW43" s="96"/>
+      <c r="DX43" s="96"/>
+      <c r="DY43" s="96"/>
+      <c r="DZ43" s="96"/>
+      <c r="EA43" s="96"/>
+      <c r="EB43" s="96"/>
+      <c r="EC43" s="96"/>
+      <c r="ED43" s="96"/>
+      <c r="EE43" s="96"/>
+      <c r="EF43" s="96"/>
+      <c r="EG43" s="96"/>
+      <c r="EH43" s="96"/>
+      <c r="EI43" s="96"/>
+      <c r="EJ43" s="96"/>
+      <c r="EK43" s="96"/>
+      <c r="EL43" s="96"/>
+      <c r="EM43" s="96"/>
+      <c r="EN43" s="96"/>
+      <c r="EO43" s="96"/>
+      <c r="EP43" s="96"/>
+      <c r="EQ43" s="96"/>
+      <c r="ER43" s="96"/>
+      <c r="ES43" s="96"/>
+      <c r="ET43" s="96"/>
+      <c r="EU43" s="96"/>
+      <c r="EV43" s="96"/>
+      <c r="EW43" s="96"/>
+      <c r="EX43" s="96"/>
+      <c r="EY43" s="96"/>
+      <c r="EZ43" s="96"/>
+      <c r="FA43" s="96"/>
+      <c r="FB43" s="96"/>
+      <c r="FC43" s="96"/>
+      <c r="FD43" s="96"/>
+      <c r="FE43" s="96"/>
+      <c r="FF43" s="96"/>
+      <c r="FG43" s="96"/>
+      <c r="FH43" s="96"/>
+      <c r="FI43" s="96"/>
+      <c r="FJ43" s="96"/>
+      <c r="FK43" s="96"/>
+      <c r="FL43" s="96"/>
+      <c r="FM43" s="96"/>
+      <c r="FN43" s="96"/>
+      <c r="FO43" s="96"/>
+      <c r="FP43" s="96"/>
+      <c r="FQ43" s="96"/>
+      <c r="FR43" s="96"/>
+      <c r="FS43" s="96"/>
+      <c r="FT43" s="96"/>
+      <c r="FU43" s="96"/>
+      <c r="FV43" s="96"/>
+      <c r="FW43" s="96"/>
+      <c r="FX43" s="96"/>
+      <c r="FY43" s="96"/>
+      <c r="FZ43" s="96"/>
+      <c r="GA43" s="96"/>
+      <c r="GB43" s="96"/>
+      <c r="GC43" s="96"/>
+      <c r="GD43" s="96"/>
+      <c r="GE43" s="96"/>
+      <c r="GF43" s="96"/>
+      <c r="GG43" s="96"/>
+      <c r="GH43" s="96"/>
+      <c r="GI43" s="96"/>
+      <c r="GJ43" s="96"/>
+      <c r="GK43" s="96"/>
+      <c r="GL43" s="96"/>
+      <c r="GM43" s="96"/>
+      <c r="GN43" s="96"/>
+      <c r="GO43" s="96"/>
+      <c r="GP43" s="96"/>
+      <c r="GQ43" s="96"/>
+      <c r="GR43" s="96"/>
+      <c r="GS43" s="96"/>
+      <c r="GT43" s="96"/>
+      <c r="GU43" s="96"/>
+      <c r="GV43" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D42:AA42"/>
-    <mergeCell ref="AJ42:BO42"/>
-    <mergeCell ref="A43:GV43"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="AR2:CE3"/>
+    <mergeCell ref="CF2:DS3"/>
+    <mergeCell ref="DT2:FG3"/>
+    <mergeCell ref="FH2:GV3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="BP4:BS4"/>
+    <mergeCell ref="BT4:BW4"/>
+    <mergeCell ref="BX4:CA4"/>
+    <mergeCell ref="CB4:CE4"/>
+    <mergeCell ref="CF4:CI4"/>
+    <mergeCell ref="CJ4:CM4"/>
+    <mergeCell ref="CN4:CQ4"/>
+    <mergeCell ref="CR4:CU4"/>
+    <mergeCell ref="CV4:CY4"/>
+    <mergeCell ref="CZ4:DC4"/>
+    <mergeCell ref="DD4:DG4"/>
+    <mergeCell ref="DH4:DK4"/>
+    <mergeCell ref="DL4:DO4"/>
+    <mergeCell ref="DP4:DS4"/>
+    <mergeCell ref="DT4:DW4"/>
+    <mergeCell ref="DX4:EA4"/>
+    <mergeCell ref="EB4:EE4"/>
+    <mergeCell ref="EF4:EI4"/>
+    <mergeCell ref="EJ4:EM4"/>
+    <mergeCell ref="EN4:EQ4"/>
+    <mergeCell ref="ER4:EU4"/>
+    <mergeCell ref="EV4:EY4"/>
     <mergeCell ref="GO4:GR4"/>
     <mergeCell ref="GS4:GV4"/>
     <mergeCell ref="GW4:GW42"/>
@@ -11584,52 +11631,15 @@
     <mergeCell ref="FH4:FK4"/>
     <mergeCell ref="FL4:FO4"/>
     <mergeCell ref="FP4:FS4"/>
-    <mergeCell ref="EF4:EI4"/>
-    <mergeCell ref="EJ4:EM4"/>
-    <mergeCell ref="EN4:EQ4"/>
-    <mergeCell ref="ER4:EU4"/>
-    <mergeCell ref="EV4:EY4"/>
-    <mergeCell ref="DL4:DO4"/>
-    <mergeCell ref="DP4:DS4"/>
-    <mergeCell ref="DT4:DW4"/>
-    <mergeCell ref="DX4:EA4"/>
-    <mergeCell ref="EB4:EE4"/>
-    <mergeCell ref="CR4:CU4"/>
-    <mergeCell ref="CV4:CY4"/>
-    <mergeCell ref="CZ4:DC4"/>
-    <mergeCell ref="DD4:DG4"/>
-    <mergeCell ref="DH4:DK4"/>
-    <mergeCell ref="BX4:CA4"/>
-    <mergeCell ref="CB4:CE4"/>
-    <mergeCell ref="CF4:CI4"/>
-    <mergeCell ref="CJ4:CM4"/>
-    <mergeCell ref="CN4:CQ4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="BP4:BS4"/>
-    <mergeCell ref="BT4:BW4"/>
-    <mergeCell ref="DT2:FG3"/>
-    <mergeCell ref="FH2:GV3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:AQ3"/>
-    <mergeCell ref="AR2:CE3"/>
-    <mergeCell ref="CF2:DS3"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D42:AA42"/>
+    <mergeCell ref="AJ42:BO42"/>
+    <mergeCell ref="A43:GV43"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A37:B37"/>
   </mergeCells>
   <conditionalFormatting sqref="B6 B8:B9 B11:B13 B15:B19 B21:B36 B38 B40:B42">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Terminé">

--- a/docs/2_CAND_Modele_Planning_2024.xlsx
+++ b/docs/2_CAND_Modele_Planning_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7CCD70-5A68-446F-887E-A57E32D9432A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F96DCD-A802-4DDC-AFD0-706852C0AB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36000" yWindow="3915" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="59">
   <si>
     <r>
       <rPr>
@@ -1981,10 +1981,10 @@
   <dimension ref="A1:GW43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="DW8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="DW25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="DI1" sqref="DI1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9038,8 +9038,8 @@
       <c r="A32" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="39" t="s">
-        <v>15</v>
+      <c r="B32" s="51" t="s">
+        <v>22</v>
       </c>
       <c r="C32" s="40"/>
       <c r="D32" s="19"/>
@@ -9225,9 +9225,15 @@
       <c r="FP32" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="FQ32" s="20"/>
-      <c r="FR32" s="20"/>
-      <c r="FS32" s="20"/>
+      <c r="FQ32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="FR32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="FS32" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="FT32" s="20"/>
       <c r="FU32" s="20"/>
       <c r="FV32" s="20"/>
@@ -11641,7 +11647,7 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A37:B37"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6 B8:B9 B11:B13 B15:B19 B21:B36 B38 B40:B42">
+  <conditionalFormatting sqref="B6 B8:B9 B11:B13 B15:B19 B38 B40:B42 B21:B36">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",B6)))</formula>
     </cfRule>

--- a/docs/2_CAND_Modele_Planning_2024.xlsx
+++ b/docs/2_CAND_Modele_Planning_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tests\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F96DCD-A802-4DDC-AFD0-706852C0AB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D42D0D8-2B11-4C64-BB67-2A126448050F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="3915" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="59">
   <si>
     <r>
       <rPr>
@@ -1397,6 +1397,50 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1427,50 +1471,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1591,14 +1591,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133380</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>30</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>165</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>113655</xdr:rowOff>
+      <xdr:rowOff>142230</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1613,8 +1613,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4219575" y="971580"/>
-          <a:ext cx="23583900" cy="6285825"/>
+          <a:off x="5010150" y="1000155"/>
+          <a:ext cx="23583900" cy="6171525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1981,10 +1981,10 @@
   <dimension ref="A1:GW43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="DW25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="DW17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="DI1" sqref="DI1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="GD31" sqref="GD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1999,11 +1999,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:205" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2049,427 +2049,427 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="112">
+      <c r="B2" s="95">
         <v>148477</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="108" t="s">
+      <c r="C2" s="95"/>
+      <c r="D2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="108"/>
-      <c r="AF2" s="108"/>
-      <c r="AG2" s="108"/>
-      <c r="AH2" s="108"/>
-      <c r="AI2" s="108"/>
-      <c r="AJ2" s="108"/>
-      <c r="AK2" s="108"/>
-      <c r="AL2" s="108"/>
-      <c r="AM2" s="108"/>
-      <c r="AN2" s="108"/>
-      <c r="AO2" s="108"/>
-      <c r="AP2" s="108"/>
-      <c r="AQ2" s="108"/>
-      <c r="AR2" s="108" t="s">
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="96"/>
+      <c r="AI2" s="96"/>
+      <c r="AJ2" s="96"/>
+      <c r="AK2" s="96"/>
+      <c r="AL2" s="96"/>
+      <c r="AM2" s="96"/>
+      <c r="AN2" s="96"/>
+      <c r="AO2" s="96"/>
+      <c r="AP2" s="96"/>
+      <c r="AQ2" s="96"/>
+      <c r="AR2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="AS2" s="108"/>
-      <c r="AT2" s="108"/>
-      <c r="AU2" s="108"/>
-      <c r="AV2" s="108"/>
-      <c r="AW2" s="108"/>
-      <c r="AX2" s="108"/>
-      <c r="AY2" s="108"/>
-      <c r="AZ2" s="108"/>
-      <c r="BA2" s="108"/>
-      <c r="BB2" s="108"/>
-      <c r="BC2" s="108"/>
-      <c r="BD2" s="108"/>
-      <c r="BE2" s="108"/>
-      <c r="BF2" s="108"/>
-      <c r="BG2" s="108"/>
-      <c r="BH2" s="108"/>
-      <c r="BI2" s="108"/>
-      <c r="BJ2" s="108"/>
-      <c r="BK2" s="108"/>
-      <c r="BL2" s="108"/>
-      <c r="BM2" s="108"/>
-      <c r="BN2" s="108"/>
-      <c r="BO2" s="108"/>
-      <c r="BP2" s="108"/>
-      <c r="BQ2" s="108"/>
-      <c r="BR2" s="108"/>
-      <c r="BS2" s="108"/>
-      <c r="BT2" s="108"/>
-      <c r="BU2" s="108"/>
-      <c r="BV2" s="108"/>
-      <c r="BW2" s="108"/>
-      <c r="BX2" s="108"/>
-      <c r="BY2" s="108"/>
-      <c r="BZ2" s="108"/>
-      <c r="CA2" s="108"/>
-      <c r="CB2" s="108"/>
-      <c r="CC2" s="108"/>
-      <c r="CD2" s="108"/>
-      <c r="CE2" s="108"/>
-      <c r="CF2" s="108" t="s">
+      <c r="AS2" s="96"/>
+      <c r="AT2" s="96"/>
+      <c r="AU2" s="96"/>
+      <c r="AV2" s="96"/>
+      <c r="AW2" s="96"/>
+      <c r="AX2" s="96"/>
+      <c r="AY2" s="96"/>
+      <c r="AZ2" s="96"/>
+      <c r="BA2" s="96"/>
+      <c r="BB2" s="96"/>
+      <c r="BC2" s="96"/>
+      <c r="BD2" s="96"/>
+      <c r="BE2" s="96"/>
+      <c r="BF2" s="96"/>
+      <c r="BG2" s="96"/>
+      <c r="BH2" s="96"/>
+      <c r="BI2" s="96"/>
+      <c r="BJ2" s="96"/>
+      <c r="BK2" s="96"/>
+      <c r="BL2" s="96"/>
+      <c r="BM2" s="96"/>
+      <c r="BN2" s="96"/>
+      <c r="BO2" s="96"/>
+      <c r="BP2" s="96"/>
+      <c r="BQ2" s="96"/>
+      <c r="BR2" s="96"/>
+      <c r="BS2" s="96"/>
+      <c r="BT2" s="96"/>
+      <c r="BU2" s="96"/>
+      <c r="BV2" s="96"/>
+      <c r="BW2" s="96"/>
+      <c r="BX2" s="96"/>
+      <c r="BY2" s="96"/>
+      <c r="BZ2" s="96"/>
+      <c r="CA2" s="96"/>
+      <c r="CB2" s="96"/>
+      <c r="CC2" s="96"/>
+      <c r="CD2" s="96"/>
+      <c r="CE2" s="96"/>
+      <c r="CF2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="CG2" s="108"/>
-      <c r="CH2" s="108"/>
-      <c r="CI2" s="108"/>
-      <c r="CJ2" s="108"/>
-      <c r="CK2" s="108"/>
-      <c r="CL2" s="108"/>
-      <c r="CM2" s="108"/>
-      <c r="CN2" s="108"/>
-      <c r="CO2" s="108"/>
-      <c r="CP2" s="108"/>
-      <c r="CQ2" s="108"/>
-      <c r="CR2" s="108"/>
-      <c r="CS2" s="108"/>
-      <c r="CT2" s="108"/>
-      <c r="CU2" s="108"/>
-      <c r="CV2" s="108"/>
-      <c r="CW2" s="108"/>
-      <c r="CX2" s="108"/>
-      <c r="CY2" s="108"/>
-      <c r="CZ2" s="108"/>
-      <c r="DA2" s="108"/>
-      <c r="DB2" s="108"/>
-      <c r="DC2" s="108"/>
-      <c r="DD2" s="108"/>
-      <c r="DE2" s="108"/>
-      <c r="DF2" s="108"/>
-      <c r="DG2" s="108"/>
-      <c r="DH2" s="108"/>
-      <c r="DI2" s="108"/>
-      <c r="DJ2" s="108"/>
-      <c r="DK2" s="108"/>
-      <c r="DL2" s="108"/>
-      <c r="DM2" s="108"/>
-      <c r="DN2" s="108"/>
-      <c r="DO2" s="108"/>
-      <c r="DP2" s="108"/>
-      <c r="DQ2" s="108"/>
-      <c r="DR2" s="108"/>
-      <c r="DS2" s="108"/>
-      <c r="DT2" s="108" t="s">
+      <c r="CG2" s="96"/>
+      <c r="CH2" s="96"/>
+      <c r="CI2" s="96"/>
+      <c r="CJ2" s="96"/>
+      <c r="CK2" s="96"/>
+      <c r="CL2" s="96"/>
+      <c r="CM2" s="96"/>
+      <c r="CN2" s="96"/>
+      <c r="CO2" s="96"/>
+      <c r="CP2" s="96"/>
+      <c r="CQ2" s="96"/>
+      <c r="CR2" s="96"/>
+      <c r="CS2" s="96"/>
+      <c r="CT2" s="96"/>
+      <c r="CU2" s="96"/>
+      <c r="CV2" s="96"/>
+      <c r="CW2" s="96"/>
+      <c r="CX2" s="96"/>
+      <c r="CY2" s="96"/>
+      <c r="CZ2" s="96"/>
+      <c r="DA2" s="96"/>
+      <c r="DB2" s="96"/>
+      <c r="DC2" s="96"/>
+      <c r="DD2" s="96"/>
+      <c r="DE2" s="96"/>
+      <c r="DF2" s="96"/>
+      <c r="DG2" s="96"/>
+      <c r="DH2" s="96"/>
+      <c r="DI2" s="96"/>
+      <c r="DJ2" s="96"/>
+      <c r="DK2" s="96"/>
+      <c r="DL2" s="96"/>
+      <c r="DM2" s="96"/>
+      <c r="DN2" s="96"/>
+      <c r="DO2" s="96"/>
+      <c r="DP2" s="96"/>
+      <c r="DQ2" s="96"/>
+      <c r="DR2" s="96"/>
+      <c r="DS2" s="96"/>
+      <c r="DT2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="DU2" s="108"/>
-      <c r="DV2" s="108"/>
-      <c r="DW2" s="108"/>
-      <c r="DX2" s="108"/>
-      <c r="DY2" s="108"/>
-      <c r="DZ2" s="108"/>
-      <c r="EA2" s="108"/>
-      <c r="EB2" s="108"/>
-      <c r="EC2" s="108"/>
-      <c r="ED2" s="108"/>
-      <c r="EE2" s="108"/>
-      <c r="EF2" s="108"/>
-      <c r="EG2" s="108"/>
-      <c r="EH2" s="108"/>
-      <c r="EI2" s="108"/>
-      <c r="EJ2" s="108"/>
-      <c r="EK2" s="108"/>
-      <c r="EL2" s="108"/>
-      <c r="EM2" s="108"/>
-      <c r="EN2" s="108"/>
-      <c r="EO2" s="108"/>
-      <c r="EP2" s="108"/>
-      <c r="EQ2" s="108"/>
-      <c r="ER2" s="108"/>
-      <c r="ES2" s="108"/>
-      <c r="ET2" s="108"/>
-      <c r="EU2" s="108"/>
-      <c r="EV2" s="108"/>
-      <c r="EW2" s="108"/>
-      <c r="EX2" s="108"/>
-      <c r="EY2" s="108"/>
-      <c r="EZ2" s="108"/>
-      <c r="FA2" s="108"/>
-      <c r="FB2" s="108"/>
-      <c r="FC2" s="108"/>
-      <c r="FD2" s="108"/>
-      <c r="FE2" s="108"/>
-      <c r="FF2" s="108"/>
-      <c r="FG2" s="108"/>
-      <c r="FH2" s="108" t="s">
+      <c r="DU2" s="96"/>
+      <c r="DV2" s="96"/>
+      <c r="DW2" s="96"/>
+      <c r="DX2" s="96"/>
+      <c r="DY2" s="96"/>
+      <c r="DZ2" s="96"/>
+      <c r="EA2" s="96"/>
+      <c r="EB2" s="96"/>
+      <c r="EC2" s="96"/>
+      <c r="ED2" s="96"/>
+      <c r="EE2" s="96"/>
+      <c r="EF2" s="96"/>
+      <c r="EG2" s="96"/>
+      <c r="EH2" s="96"/>
+      <c r="EI2" s="96"/>
+      <c r="EJ2" s="96"/>
+      <c r="EK2" s="96"/>
+      <c r="EL2" s="96"/>
+      <c r="EM2" s="96"/>
+      <c r="EN2" s="96"/>
+      <c r="EO2" s="96"/>
+      <c r="EP2" s="96"/>
+      <c r="EQ2" s="96"/>
+      <c r="ER2" s="96"/>
+      <c r="ES2" s="96"/>
+      <c r="ET2" s="96"/>
+      <c r="EU2" s="96"/>
+      <c r="EV2" s="96"/>
+      <c r="EW2" s="96"/>
+      <c r="EX2" s="96"/>
+      <c r="EY2" s="96"/>
+      <c r="EZ2" s="96"/>
+      <c r="FA2" s="96"/>
+      <c r="FB2" s="96"/>
+      <c r="FC2" s="96"/>
+      <c r="FD2" s="96"/>
+      <c r="FE2" s="96"/>
+      <c r="FF2" s="96"/>
+      <c r="FG2" s="96"/>
+      <c r="FH2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="FI2" s="108"/>
-      <c r="FJ2" s="108"/>
-      <c r="FK2" s="108"/>
-      <c r="FL2" s="108"/>
-      <c r="FM2" s="108"/>
-      <c r="FN2" s="108"/>
-      <c r="FO2" s="108"/>
-      <c r="FP2" s="108"/>
-      <c r="FQ2" s="108"/>
-      <c r="FR2" s="108"/>
-      <c r="FS2" s="108"/>
-      <c r="FT2" s="108"/>
-      <c r="FU2" s="108"/>
-      <c r="FV2" s="108"/>
-      <c r="FW2" s="108"/>
-      <c r="FX2" s="108"/>
-      <c r="FY2" s="108"/>
-      <c r="FZ2" s="108"/>
-      <c r="GA2" s="108"/>
-      <c r="GB2" s="108"/>
-      <c r="GC2" s="108"/>
-      <c r="GD2" s="108"/>
-      <c r="GE2" s="108"/>
-      <c r="GF2" s="108"/>
-      <c r="GG2" s="108"/>
-      <c r="GH2" s="108"/>
-      <c r="GI2" s="108"/>
-      <c r="GJ2" s="108"/>
-      <c r="GK2" s="108"/>
-      <c r="GL2" s="108"/>
-      <c r="GM2" s="108"/>
-      <c r="GN2" s="108"/>
-      <c r="GO2" s="108"/>
-      <c r="GP2" s="108"/>
-      <c r="GQ2" s="108"/>
-      <c r="GR2" s="108"/>
-      <c r="GS2" s="108"/>
-      <c r="GT2" s="108"/>
-      <c r="GU2" s="108"/>
-      <c r="GV2" s="108"/>
+      <c r="FI2" s="96"/>
+      <c r="FJ2" s="96"/>
+      <c r="FK2" s="96"/>
+      <c r="FL2" s="96"/>
+      <c r="FM2" s="96"/>
+      <c r="FN2" s="96"/>
+      <c r="FO2" s="96"/>
+      <c r="FP2" s="96"/>
+      <c r="FQ2" s="96"/>
+      <c r="FR2" s="96"/>
+      <c r="FS2" s="96"/>
+      <c r="FT2" s="96"/>
+      <c r="FU2" s="96"/>
+      <c r="FV2" s="96"/>
+      <c r="FW2" s="96"/>
+      <c r="FX2" s="96"/>
+      <c r="FY2" s="96"/>
+      <c r="FZ2" s="96"/>
+      <c r="GA2" s="96"/>
+      <c r="GB2" s="96"/>
+      <c r="GC2" s="96"/>
+      <c r="GD2" s="96"/>
+      <c r="GE2" s="96"/>
+      <c r="GF2" s="96"/>
+      <c r="GG2" s="96"/>
+      <c r="GH2" s="96"/>
+      <c r="GI2" s="96"/>
+      <c r="GJ2" s="96"/>
+      <c r="GK2" s="96"/>
+      <c r="GL2" s="96"/>
+      <c r="GM2" s="96"/>
+      <c r="GN2" s="96"/>
+      <c r="GO2" s="96"/>
+      <c r="GP2" s="96"/>
+      <c r="GQ2" s="96"/>
+      <c r="GR2" s="96"/>
+      <c r="GS2" s="96"/>
+      <c r="GT2" s="96"/>
+      <c r="GU2" s="96"/>
+      <c r="GV2" s="96"/>
     </row>
     <row r="3" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108"/>
-      <c r="AK3" s="108"/>
-      <c r="AL3" s="108"/>
-      <c r="AM3" s="108"/>
-      <c r="AN3" s="108"/>
-      <c r="AO3" s="108"/>
-      <c r="AP3" s="108"/>
-      <c r="AQ3" s="108"/>
-      <c r="AR3" s="108"/>
-      <c r="AS3" s="108"/>
-      <c r="AT3" s="108"/>
-      <c r="AU3" s="108"/>
-      <c r="AV3" s="108"/>
-      <c r="AW3" s="108"/>
-      <c r="AX3" s="108"/>
-      <c r="AY3" s="108"/>
-      <c r="AZ3" s="108"/>
-      <c r="BA3" s="108"/>
-      <c r="BB3" s="108"/>
-      <c r="BC3" s="108"/>
-      <c r="BD3" s="108"/>
-      <c r="BE3" s="108"/>
-      <c r="BF3" s="108"/>
-      <c r="BG3" s="108"/>
-      <c r="BH3" s="108"/>
-      <c r="BI3" s="108"/>
-      <c r="BJ3" s="108"/>
-      <c r="BK3" s="108"/>
-      <c r="BL3" s="108"/>
-      <c r="BM3" s="108"/>
-      <c r="BN3" s="108"/>
-      <c r="BO3" s="108"/>
-      <c r="BP3" s="108"/>
-      <c r="BQ3" s="108"/>
-      <c r="BR3" s="108"/>
-      <c r="BS3" s="108"/>
-      <c r="BT3" s="108"/>
-      <c r="BU3" s="108"/>
-      <c r="BV3" s="108"/>
-      <c r="BW3" s="108"/>
-      <c r="BX3" s="108"/>
-      <c r="BY3" s="108"/>
-      <c r="BZ3" s="108"/>
-      <c r="CA3" s="108"/>
-      <c r="CB3" s="108"/>
-      <c r="CC3" s="108"/>
-      <c r="CD3" s="108"/>
-      <c r="CE3" s="108"/>
-      <c r="CF3" s="108"/>
-      <c r="CG3" s="108"/>
-      <c r="CH3" s="108"/>
-      <c r="CI3" s="108"/>
-      <c r="CJ3" s="108"/>
-      <c r="CK3" s="108"/>
-      <c r="CL3" s="108"/>
-      <c r="CM3" s="108"/>
-      <c r="CN3" s="108"/>
-      <c r="CO3" s="108"/>
-      <c r="CP3" s="108"/>
-      <c r="CQ3" s="108"/>
-      <c r="CR3" s="108"/>
-      <c r="CS3" s="108"/>
-      <c r="CT3" s="108"/>
-      <c r="CU3" s="108"/>
-      <c r="CV3" s="108"/>
-      <c r="CW3" s="108"/>
-      <c r="CX3" s="108"/>
-      <c r="CY3" s="108"/>
-      <c r="CZ3" s="108"/>
-      <c r="DA3" s="108"/>
-      <c r="DB3" s="108"/>
-      <c r="DC3" s="108"/>
-      <c r="DD3" s="108"/>
-      <c r="DE3" s="108"/>
-      <c r="DF3" s="108"/>
-      <c r="DG3" s="108"/>
-      <c r="DH3" s="108"/>
-      <c r="DI3" s="108"/>
-      <c r="DJ3" s="108"/>
-      <c r="DK3" s="108"/>
-      <c r="DL3" s="108"/>
-      <c r="DM3" s="108"/>
-      <c r="DN3" s="108"/>
-      <c r="DO3" s="108"/>
-      <c r="DP3" s="108"/>
-      <c r="DQ3" s="108"/>
-      <c r="DR3" s="108"/>
-      <c r="DS3" s="108"/>
-      <c r="DT3" s="108"/>
-      <c r="DU3" s="108"/>
-      <c r="DV3" s="108"/>
-      <c r="DW3" s="108"/>
-      <c r="DX3" s="108"/>
-      <c r="DY3" s="108"/>
-      <c r="DZ3" s="108"/>
-      <c r="EA3" s="108"/>
-      <c r="EB3" s="108"/>
-      <c r="EC3" s="108"/>
-      <c r="ED3" s="108"/>
-      <c r="EE3" s="108"/>
-      <c r="EF3" s="108"/>
-      <c r="EG3" s="108"/>
-      <c r="EH3" s="108"/>
-      <c r="EI3" s="108"/>
-      <c r="EJ3" s="108"/>
-      <c r="EK3" s="108"/>
-      <c r="EL3" s="108"/>
-      <c r="EM3" s="108"/>
-      <c r="EN3" s="108"/>
-      <c r="EO3" s="108"/>
-      <c r="EP3" s="108"/>
-      <c r="EQ3" s="108"/>
-      <c r="ER3" s="108"/>
-      <c r="ES3" s="108"/>
-      <c r="ET3" s="108"/>
-      <c r="EU3" s="108"/>
-      <c r="EV3" s="108"/>
-      <c r="EW3" s="108"/>
-      <c r="EX3" s="108"/>
-      <c r="EY3" s="108"/>
-      <c r="EZ3" s="108"/>
-      <c r="FA3" s="108"/>
-      <c r="FB3" s="108"/>
-      <c r="FC3" s="108"/>
-      <c r="FD3" s="108"/>
-      <c r="FE3" s="108"/>
-      <c r="FF3" s="108"/>
-      <c r="FG3" s="108"/>
-      <c r="FH3" s="108"/>
-      <c r="FI3" s="108"/>
-      <c r="FJ3" s="108"/>
-      <c r="FK3" s="108"/>
-      <c r="FL3" s="108"/>
-      <c r="FM3" s="108"/>
-      <c r="FN3" s="108"/>
-      <c r="FO3" s="108"/>
-      <c r="FP3" s="108"/>
-      <c r="FQ3" s="108"/>
-      <c r="FR3" s="108"/>
-      <c r="FS3" s="108"/>
-      <c r="FT3" s="108"/>
-      <c r="FU3" s="108"/>
-      <c r="FV3" s="108"/>
-      <c r="FW3" s="108"/>
-      <c r="FX3" s="108"/>
-      <c r="FY3" s="108"/>
-      <c r="FZ3" s="108"/>
-      <c r="GA3" s="108"/>
-      <c r="GB3" s="108"/>
-      <c r="GC3" s="108"/>
-      <c r="GD3" s="108"/>
-      <c r="GE3" s="108"/>
-      <c r="GF3" s="108"/>
-      <c r="GG3" s="108"/>
-      <c r="GH3" s="108"/>
-      <c r="GI3" s="108"/>
-      <c r="GJ3" s="108"/>
-      <c r="GK3" s="108"/>
-      <c r="GL3" s="108"/>
-      <c r="GM3" s="108"/>
-      <c r="GN3" s="108"/>
-      <c r="GO3" s="108"/>
-      <c r="GP3" s="108"/>
-      <c r="GQ3" s="108"/>
-      <c r="GR3" s="108"/>
-      <c r="GS3" s="108"/>
-      <c r="GT3" s="108"/>
-      <c r="GU3" s="108"/>
-      <c r="GV3" s="108"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="96"/>
+      <c r="AI3" s="96"/>
+      <c r="AJ3" s="96"/>
+      <c r="AK3" s="96"/>
+      <c r="AL3" s="96"/>
+      <c r="AM3" s="96"/>
+      <c r="AN3" s="96"/>
+      <c r="AO3" s="96"/>
+      <c r="AP3" s="96"/>
+      <c r="AQ3" s="96"/>
+      <c r="AR3" s="96"/>
+      <c r="AS3" s="96"/>
+      <c r="AT3" s="96"/>
+      <c r="AU3" s="96"/>
+      <c r="AV3" s="96"/>
+      <c r="AW3" s="96"/>
+      <c r="AX3" s="96"/>
+      <c r="AY3" s="96"/>
+      <c r="AZ3" s="96"/>
+      <c r="BA3" s="96"/>
+      <c r="BB3" s="96"/>
+      <c r="BC3" s="96"/>
+      <c r="BD3" s="96"/>
+      <c r="BE3" s="96"/>
+      <c r="BF3" s="96"/>
+      <c r="BG3" s="96"/>
+      <c r="BH3" s="96"/>
+      <c r="BI3" s="96"/>
+      <c r="BJ3" s="96"/>
+      <c r="BK3" s="96"/>
+      <c r="BL3" s="96"/>
+      <c r="BM3" s="96"/>
+      <c r="BN3" s="96"/>
+      <c r="BO3" s="96"/>
+      <c r="BP3" s="96"/>
+      <c r="BQ3" s="96"/>
+      <c r="BR3" s="96"/>
+      <c r="BS3" s="96"/>
+      <c r="BT3" s="96"/>
+      <c r="BU3" s="96"/>
+      <c r="BV3" s="96"/>
+      <c r="BW3" s="96"/>
+      <c r="BX3" s="96"/>
+      <c r="BY3" s="96"/>
+      <c r="BZ3" s="96"/>
+      <c r="CA3" s="96"/>
+      <c r="CB3" s="96"/>
+      <c r="CC3" s="96"/>
+      <c r="CD3" s="96"/>
+      <c r="CE3" s="96"/>
+      <c r="CF3" s="96"/>
+      <c r="CG3" s="96"/>
+      <c r="CH3" s="96"/>
+      <c r="CI3" s="96"/>
+      <c r="CJ3" s="96"/>
+      <c r="CK3" s="96"/>
+      <c r="CL3" s="96"/>
+      <c r="CM3" s="96"/>
+      <c r="CN3" s="96"/>
+      <c r="CO3" s="96"/>
+      <c r="CP3" s="96"/>
+      <c r="CQ3" s="96"/>
+      <c r="CR3" s="96"/>
+      <c r="CS3" s="96"/>
+      <c r="CT3" s="96"/>
+      <c r="CU3" s="96"/>
+      <c r="CV3" s="96"/>
+      <c r="CW3" s="96"/>
+      <c r="CX3" s="96"/>
+      <c r="CY3" s="96"/>
+      <c r="CZ3" s="96"/>
+      <c r="DA3" s="96"/>
+      <c r="DB3" s="96"/>
+      <c r="DC3" s="96"/>
+      <c r="DD3" s="96"/>
+      <c r="DE3" s="96"/>
+      <c r="DF3" s="96"/>
+      <c r="DG3" s="96"/>
+      <c r="DH3" s="96"/>
+      <c r="DI3" s="96"/>
+      <c r="DJ3" s="96"/>
+      <c r="DK3" s="96"/>
+      <c r="DL3" s="96"/>
+      <c r="DM3" s="96"/>
+      <c r="DN3" s="96"/>
+      <c r="DO3" s="96"/>
+      <c r="DP3" s="96"/>
+      <c r="DQ3" s="96"/>
+      <c r="DR3" s="96"/>
+      <c r="DS3" s="96"/>
+      <c r="DT3" s="96"/>
+      <c r="DU3" s="96"/>
+      <c r="DV3" s="96"/>
+      <c r="DW3" s="96"/>
+      <c r="DX3" s="96"/>
+      <c r="DY3" s="96"/>
+      <c r="DZ3" s="96"/>
+      <c r="EA3" s="96"/>
+      <c r="EB3" s="96"/>
+      <c r="EC3" s="96"/>
+      <c r="ED3" s="96"/>
+      <c r="EE3" s="96"/>
+      <c r="EF3" s="96"/>
+      <c r="EG3" s="96"/>
+      <c r="EH3" s="96"/>
+      <c r="EI3" s="96"/>
+      <c r="EJ3" s="96"/>
+      <c r="EK3" s="96"/>
+      <c r="EL3" s="96"/>
+      <c r="EM3" s="96"/>
+      <c r="EN3" s="96"/>
+      <c r="EO3" s="96"/>
+      <c r="EP3" s="96"/>
+      <c r="EQ3" s="96"/>
+      <c r="ER3" s="96"/>
+      <c r="ES3" s="96"/>
+      <c r="ET3" s="96"/>
+      <c r="EU3" s="96"/>
+      <c r="EV3" s="96"/>
+      <c r="EW3" s="96"/>
+      <c r="EX3" s="96"/>
+      <c r="EY3" s="96"/>
+      <c r="EZ3" s="96"/>
+      <c r="FA3" s="96"/>
+      <c r="FB3" s="96"/>
+      <c r="FC3" s="96"/>
+      <c r="FD3" s="96"/>
+      <c r="FE3" s="96"/>
+      <c r="FF3" s="96"/>
+      <c r="FG3" s="96"/>
+      <c r="FH3" s="96"/>
+      <c r="FI3" s="96"/>
+      <c r="FJ3" s="96"/>
+      <c r="FK3" s="96"/>
+      <c r="FL3" s="96"/>
+      <c r="FM3" s="96"/>
+      <c r="FN3" s="96"/>
+      <c r="FO3" s="96"/>
+      <c r="FP3" s="96"/>
+      <c r="FQ3" s="96"/>
+      <c r="FR3" s="96"/>
+      <c r="FS3" s="96"/>
+      <c r="FT3" s="96"/>
+      <c r="FU3" s="96"/>
+      <c r="FV3" s="96"/>
+      <c r="FW3" s="96"/>
+      <c r="FX3" s="96"/>
+      <c r="FY3" s="96"/>
+      <c r="FZ3" s="96"/>
+      <c r="GA3" s="96"/>
+      <c r="GB3" s="96"/>
+      <c r="GC3" s="96"/>
+      <c r="GD3" s="96"/>
+      <c r="GE3" s="96"/>
+      <c r="GF3" s="96"/>
+      <c r="GG3" s="96"/>
+      <c r="GH3" s="96"/>
+      <c r="GI3" s="96"/>
+      <c r="GJ3" s="96"/>
+      <c r="GK3" s="96"/>
+      <c r="GL3" s="96"/>
+      <c r="GM3" s="96"/>
+      <c r="GN3" s="96"/>
+      <c r="GO3" s="96"/>
+      <c r="GP3" s="96"/>
+      <c r="GQ3" s="96"/>
+      <c r="GR3" s="96"/>
+      <c r="GS3" s="96"/>
+      <c r="GT3" s="96"/>
+      <c r="GU3" s="96"/>
+      <c r="GV3" s="96"/>
     </row>
     <row r="4" spans="1:205" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="97" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2478,313 +2478,313 @@
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="110">
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="99">
         <v>45418</v>
       </c>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="106" t="s">
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="103">
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="100">
         <v>45419</v>
       </c>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="106" t="s">
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="106"/>
-      <c r="X4" s="103">
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="100">
         <v>45420</v>
       </c>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="106" t="s">
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="100"/>
+      <c r="AB4" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="106"/>
-      <c r="AE4" s="106"/>
-      <c r="AF4" s="103">
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="98"/>
+      <c r="AF4" s="100">
         <v>45421</v>
       </c>
-      <c r="AG4" s="103"/>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="103"/>
-      <c r="AJ4" s="106" t="s">
+      <c r="AG4" s="100"/>
+      <c r="AH4" s="100"/>
+      <c r="AI4" s="100"/>
+      <c r="AJ4" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="AK4" s="106"/>
-      <c r="AL4" s="106"/>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="103">
+      <c r="AK4" s="98"/>
+      <c r="AL4" s="98"/>
+      <c r="AM4" s="98"/>
+      <c r="AN4" s="100">
         <v>45422</v>
       </c>
-      <c r="AO4" s="103"/>
-      <c r="AP4" s="103"/>
-      <c r="AQ4" s="103"/>
-      <c r="AR4" s="106" t="s">
+      <c r="AO4" s="100"/>
+      <c r="AP4" s="100"/>
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="AS4" s="106"/>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="103">
+      <c r="AS4" s="98"/>
+      <c r="AT4" s="98"/>
+      <c r="AU4" s="98"/>
+      <c r="AV4" s="100">
         <v>45425</v>
       </c>
-      <c r="AW4" s="103"/>
-      <c r="AX4" s="103"/>
-      <c r="AY4" s="103"/>
-      <c r="AZ4" s="106" t="s">
+      <c r="AW4" s="100"/>
+      <c r="AX4" s="100"/>
+      <c r="AY4" s="100"/>
+      <c r="AZ4" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="103">
+      <c r="BA4" s="98"/>
+      <c r="BB4" s="98"/>
+      <c r="BC4" s="98"/>
+      <c r="BD4" s="100">
         <v>45426</v>
       </c>
-      <c r="BE4" s="103"/>
-      <c r="BF4" s="103"/>
-      <c r="BG4" s="103"/>
-      <c r="BH4" s="106" t="s">
+      <c r="BE4" s="100"/>
+      <c r="BF4" s="100"/>
+      <c r="BG4" s="100"/>
+      <c r="BH4" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="103">
+      <c r="BI4" s="98"/>
+      <c r="BJ4" s="98"/>
+      <c r="BK4" s="98"/>
+      <c r="BL4" s="100">
         <v>45427</v>
       </c>
-      <c r="BM4" s="103"/>
-      <c r="BN4" s="103"/>
-      <c r="BO4" s="103"/>
-      <c r="BP4" s="106" t="s">
+      <c r="BM4" s="100"/>
+      <c r="BN4" s="100"/>
+      <c r="BO4" s="100"/>
+      <c r="BP4" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="BQ4" s="106"/>
-      <c r="BR4" s="106"/>
-      <c r="BS4" s="106"/>
-      <c r="BT4" s="103">
+      <c r="BQ4" s="98"/>
+      <c r="BR4" s="98"/>
+      <c r="BS4" s="98"/>
+      <c r="BT4" s="100">
         <v>45428</v>
       </c>
-      <c r="BU4" s="103"/>
-      <c r="BV4" s="103"/>
-      <c r="BW4" s="103"/>
-      <c r="BX4" s="106" t="s">
+      <c r="BU4" s="100"/>
+      <c r="BV4" s="100"/>
+      <c r="BW4" s="100"/>
+      <c r="BX4" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="BY4" s="106"/>
-      <c r="BZ4" s="106"/>
-      <c r="CA4" s="106"/>
-      <c r="CB4" s="103">
+      <c r="BY4" s="98"/>
+      <c r="BZ4" s="98"/>
+      <c r="CA4" s="98"/>
+      <c r="CB4" s="100">
         <v>45429</v>
       </c>
-      <c r="CC4" s="103"/>
-      <c r="CD4" s="103"/>
-      <c r="CE4" s="103"/>
-      <c r="CF4" s="106" t="s">
+      <c r="CC4" s="100"/>
+      <c r="CD4" s="100"/>
+      <c r="CE4" s="100"/>
+      <c r="CF4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="CG4" s="106"/>
-      <c r="CH4" s="106"/>
-      <c r="CI4" s="106"/>
-      <c r="CJ4" s="103">
+      <c r="CG4" s="98"/>
+      <c r="CH4" s="98"/>
+      <c r="CI4" s="98"/>
+      <c r="CJ4" s="100">
         <v>45432</v>
       </c>
-      <c r="CK4" s="103"/>
-      <c r="CL4" s="103"/>
-      <c r="CM4" s="103"/>
-      <c r="CN4" s="106" t="s">
+      <c r="CK4" s="100"/>
+      <c r="CL4" s="100"/>
+      <c r="CM4" s="100"/>
+      <c r="CN4" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="CO4" s="106"/>
-      <c r="CP4" s="106"/>
-      <c r="CQ4" s="106"/>
-      <c r="CR4" s="103">
+      <c r="CO4" s="98"/>
+      <c r="CP4" s="98"/>
+      <c r="CQ4" s="98"/>
+      <c r="CR4" s="100">
         <v>45433</v>
       </c>
-      <c r="CS4" s="103"/>
-      <c r="CT4" s="103"/>
-      <c r="CU4" s="103"/>
-      <c r="CV4" s="106" t="s">
+      <c r="CS4" s="100"/>
+      <c r="CT4" s="100"/>
+      <c r="CU4" s="100"/>
+      <c r="CV4" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="CW4" s="106"/>
-      <c r="CX4" s="106"/>
-      <c r="CY4" s="106"/>
-      <c r="CZ4" s="103">
+      <c r="CW4" s="98"/>
+      <c r="CX4" s="98"/>
+      <c r="CY4" s="98"/>
+      <c r="CZ4" s="100">
         <v>45434</v>
       </c>
-      <c r="DA4" s="103"/>
-      <c r="DB4" s="103"/>
-      <c r="DC4" s="103"/>
-      <c r="DD4" s="106" t="s">
+      <c r="DA4" s="100"/>
+      <c r="DB4" s="100"/>
+      <c r="DC4" s="100"/>
+      <c r="DD4" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="DE4" s="106"/>
-      <c r="DF4" s="106"/>
-      <c r="DG4" s="106"/>
-      <c r="DH4" s="103">
+      <c r="DE4" s="98"/>
+      <c r="DF4" s="98"/>
+      <c r="DG4" s="98"/>
+      <c r="DH4" s="100">
         <v>45435</v>
       </c>
-      <c r="DI4" s="103"/>
-      <c r="DJ4" s="103"/>
-      <c r="DK4" s="103"/>
-      <c r="DL4" s="106" t="s">
+      <c r="DI4" s="100"/>
+      <c r="DJ4" s="100"/>
+      <c r="DK4" s="100"/>
+      <c r="DL4" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="DM4" s="106"/>
-      <c r="DN4" s="106"/>
-      <c r="DO4" s="106"/>
-      <c r="DP4" s="103">
+      <c r="DM4" s="98"/>
+      <c r="DN4" s="98"/>
+      <c r="DO4" s="98"/>
+      <c r="DP4" s="100">
         <v>45436</v>
       </c>
-      <c r="DQ4" s="103"/>
-      <c r="DR4" s="103"/>
-      <c r="DS4" s="103"/>
-      <c r="DT4" s="106" t="s">
+      <c r="DQ4" s="100"/>
+      <c r="DR4" s="100"/>
+      <c r="DS4" s="100"/>
+      <c r="DT4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="DU4" s="106"/>
-      <c r="DV4" s="106"/>
-      <c r="DW4" s="106"/>
-      <c r="DX4" s="103">
+      <c r="DU4" s="98"/>
+      <c r="DV4" s="98"/>
+      <c r="DW4" s="98"/>
+      <c r="DX4" s="100">
         <v>45439</v>
       </c>
-      <c r="DY4" s="103"/>
-      <c r="DZ4" s="103"/>
-      <c r="EA4" s="103"/>
-      <c r="EB4" s="106" t="s">
+      <c r="DY4" s="100"/>
+      <c r="DZ4" s="100"/>
+      <c r="EA4" s="100"/>
+      <c r="EB4" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="EC4" s="106"/>
-      <c r="ED4" s="106"/>
-      <c r="EE4" s="106"/>
-      <c r="EF4" s="103">
+      <c r="EC4" s="98"/>
+      <c r="ED4" s="98"/>
+      <c r="EE4" s="98"/>
+      <c r="EF4" s="100">
         <v>45440</v>
       </c>
-      <c r="EG4" s="103"/>
-      <c r="EH4" s="103"/>
-      <c r="EI4" s="103"/>
-      <c r="EJ4" s="106" t="s">
+      <c r="EG4" s="100"/>
+      <c r="EH4" s="100"/>
+      <c r="EI4" s="100"/>
+      <c r="EJ4" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="EK4" s="106"/>
-      <c r="EL4" s="106"/>
-      <c r="EM4" s="106"/>
-      <c r="EN4" s="103">
+      <c r="EK4" s="98"/>
+      <c r="EL4" s="98"/>
+      <c r="EM4" s="98"/>
+      <c r="EN4" s="100">
         <v>45441</v>
       </c>
-      <c r="EO4" s="103"/>
-      <c r="EP4" s="103"/>
-      <c r="EQ4" s="103"/>
-      <c r="ER4" s="106" t="s">
+      <c r="EO4" s="100"/>
+      <c r="EP4" s="100"/>
+      <c r="EQ4" s="100"/>
+      <c r="ER4" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="ES4" s="106"/>
-      <c r="ET4" s="106"/>
-      <c r="EU4" s="106"/>
-      <c r="EV4" s="103">
+      <c r="ES4" s="98"/>
+      <c r="ET4" s="98"/>
+      <c r="EU4" s="98"/>
+      <c r="EV4" s="100">
         <v>45442</v>
       </c>
-      <c r="EW4" s="103"/>
-      <c r="EX4" s="103"/>
-      <c r="EY4" s="103"/>
-      <c r="EZ4" s="106" t="s">
+      <c r="EW4" s="100"/>
+      <c r="EX4" s="100"/>
+      <c r="EY4" s="100"/>
+      <c r="EZ4" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="FA4" s="106"/>
-      <c r="FB4" s="106"/>
-      <c r="FC4" s="106"/>
-      <c r="FD4" s="103">
+      <c r="FA4" s="98"/>
+      <c r="FB4" s="98"/>
+      <c r="FC4" s="98"/>
+      <c r="FD4" s="100">
         <v>45443</v>
       </c>
-      <c r="FE4" s="103"/>
-      <c r="FF4" s="103"/>
-      <c r="FG4" s="103"/>
-      <c r="FH4" s="106" t="s">
+      <c r="FE4" s="100"/>
+      <c r="FF4" s="100"/>
+      <c r="FG4" s="100"/>
+      <c r="FH4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="FI4" s="106"/>
-      <c r="FJ4" s="106"/>
-      <c r="FK4" s="106"/>
-      <c r="FL4" s="103">
+      <c r="FI4" s="98"/>
+      <c r="FJ4" s="98"/>
+      <c r="FK4" s="98"/>
+      <c r="FL4" s="100">
         <v>45446</v>
       </c>
-      <c r="FM4" s="103"/>
-      <c r="FN4" s="103"/>
-      <c r="FO4" s="103"/>
-      <c r="FP4" s="106" t="s">
+      <c r="FM4" s="100"/>
+      <c r="FN4" s="100"/>
+      <c r="FO4" s="100"/>
+      <c r="FP4" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="FQ4" s="106"/>
-      <c r="FR4" s="106"/>
-      <c r="FS4" s="106"/>
-      <c r="FT4" s="103">
+      <c r="FQ4" s="98"/>
+      <c r="FR4" s="98"/>
+      <c r="FS4" s="98"/>
+      <c r="FT4" s="100">
         <v>45447</v>
       </c>
-      <c r="FU4" s="103"/>
-      <c r="FV4" s="103"/>
-      <c r="FW4" s="103"/>
-      <c r="FX4" s="106" t="s">
+      <c r="FU4" s="100"/>
+      <c r="FV4" s="100"/>
+      <c r="FW4" s="100"/>
+      <c r="FX4" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="FY4" s="106"/>
-      <c r="FZ4" s="106"/>
-      <c r="GA4" s="106"/>
-      <c r="GB4" s="103">
+      <c r="FY4" s="98"/>
+      <c r="FZ4" s="98"/>
+      <c r="GA4" s="98"/>
+      <c r="GB4" s="100">
         <v>45448</v>
       </c>
-      <c r="GC4" s="103"/>
-      <c r="GD4" s="103"/>
-      <c r="GE4" s="103"/>
-      <c r="GF4" s="106" t="s">
+      <c r="GC4" s="100"/>
+      <c r="GD4" s="100"/>
+      <c r="GE4" s="100"/>
+      <c r="GF4" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="GG4" s="106"/>
-      <c r="GH4" s="106"/>
-      <c r="GI4" s="106"/>
-      <c r="GJ4" s="107">
+      <c r="GG4" s="98"/>
+      <c r="GH4" s="98"/>
+      <c r="GI4" s="98"/>
+      <c r="GJ4" s="104">
         <v>45449</v>
       </c>
-      <c r="GK4" s="107"/>
-      <c r="GL4" s="107"/>
-      <c r="GM4" s="107"/>
+      <c r="GK4" s="104"/>
+      <c r="GL4" s="104"/>
+      <c r="GM4" s="104"/>
       <c r="GN4" s="7"/>
-      <c r="GO4" s="102" t="s">
+      <c r="GO4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="GP4" s="102"/>
-      <c r="GQ4" s="102"/>
-      <c r="GR4" s="102"/>
-      <c r="GS4" s="103">
+      <c r="GP4" s="101"/>
+      <c r="GQ4" s="101"/>
+      <c r="GR4" s="101"/>
+      <c r="GS4" s="100">
         <v>45457</v>
       </c>
-      <c r="GT4" s="103"/>
-      <c r="GU4" s="103"/>
-      <c r="GV4" s="103"/>
-      <c r="GW4" s="104" t="s">
+      <c r="GT4" s="100"/>
+      <c r="GU4" s="100"/>
+      <c r="GV4" s="100"/>
+      <c r="GW4" s="102" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A5" s="109"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -3392,7 +3392,7 @@
       <c r="GV5" s="12">
         <v>8</v>
       </c>
-      <c r="GW5" s="104"/>
+      <c r="GW5" s="102"/>
     </row>
     <row r="6" spans="1:205" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
@@ -3426,16 +3426,16 @@
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="21"/>
-      <c r="AB6" s="105" t="s">
+      <c r="AB6" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="AC6" s="105"/>
-      <c r="AD6" s="105"/>
-      <c r="AE6" s="105"/>
-      <c r="AF6" s="105"/>
-      <c r="AG6" s="105"/>
-      <c r="AH6" s="105"/>
-      <c r="AI6" s="105"/>
+      <c r="AC6" s="103"/>
+      <c r="AD6" s="103"/>
+      <c r="AE6" s="103"/>
+      <c r="AF6" s="103"/>
+      <c r="AG6" s="103"/>
+      <c r="AH6" s="103"/>
+      <c r="AI6" s="103"/>
       <c r="AJ6" s="19"/>
       <c r="AK6" s="20"/>
       <c r="AL6" s="20"/>
@@ -3490,16 +3490,16 @@
       <c r="CE6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="CF6" s="105" t="s">
+      <c r="CF6" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="CG6" s="105"/>
-      <c r="CH6" s="105"/>
-      <c r="CI6" s="105"/>
-      <c r="CJ6" s="105"/>
-      <c r="CK6" s="105"/>
-      <c r="CL6" s="105"/>
-      <c r="CM6" s="105"/>
+      <c r="CG6" s="103"/>
+      <c r="CH6" s="103"/>
+      <c r="CI6" s="103"/>
+      <c r="CJ6" s="103"/>
+      <c r="CK6" s="103"/>
+      <c r="CL6" s="103"/>
+      <c r="CM6" s="103"/>
       <c r="CN6" s="22" t="s">
         <v>17</v>
       </c>
@@ -3572,16 +3572,16 @@
       <c r="EO6" s="23"/>
       <c r="EP6" s="23"/>
       <c r="EQ6" s="25"/>
-      <c r="ER6" s="105" t="s">
+      <c r="ER6" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="ES6" s="105"/>
-      <c r="ET6" s="105"/>
-      <c r="EU6" s="105"/>
-      <c r="EV6" s="105"/>
-      <c r="EW6" s="105"/>
-      <c r="EX6" s="105"/>
-      <c r="EY6" s="105"/>
+      <c r="ES6" s="103"/>
+      <c r="ET6" s="103"/>
+      <c r="EU6" s="103"/>
+      <c r="EV6" s="103"/>
+      <c r="EW6" s="103"/>
+      <c r="EX6" s="103"/>
+      <c r="EY6" s="103"/>
       <c r="EZ6" s="22"/>
       <c r="FA6" s="23"/>
       <c r="FB6" s="23"/>
@@ -3631,13 +3631,13 @@
       <c r="GT6" s="31"/>
       <c r="GU6" s="31"/>
       <c r="GV6" s="31"/>
-      <c r="GW6" s="104"/>
+      <c r="GW6" s="102"/>
     </row>
     <row r="7" spans="1:205" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="33"/>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
@@ -3663,14 +3663,14 @@
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="21"/>
-      <c r="AB7" s="105"/>
-      <c r="AC7" s="105"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="105"/>
-      <c r="AF7" s="105"/>
-      <c r="AG7" s="105"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="105"/>
+      <c r="AB7" s="103"/>
+      <c r="AC7" s="103"/>
+      <c r="AD7" s="103"/>
+      <c r="AE7" s="103"/>
+      <c r="AF7" s="103"/>
+      <c r="AG7" s="103"/>
+      <c r="AH7" s="103"/>
+      <c r="AI7" s="103"/>
       <c r="AJ7" s="19"/>
       <c r="AK7" s="20"/>
       <c r="AL7" s="20"/>
@@ -3719,14 +3719,14 @@
       <c r="CC7" s="20"/>
       <c r="CD7" s="20"/>
       <c r="CE7" s="21"/>
-      <c r="CF7" s="105"/>
-      <c r="CG7" s="105"/>
-      <c r="CH7" s="105"/>
-      <c r="CI7" s="105"/>
-      <c r="CJ7" s="105"/>
-      <c r="CK7" s="105"/>
-      <c r="CL7" s="105"/>
-      <c r="CM7" s="105"/>
+      <c r="CF7" s="103"/>
+      <c r="CG7" s="103"/>
+      <c r="CH7" s="103"/>
+      <c r="CI7" s="103"/>
+      <c r="CJ7" s="103"/>
+      <c r="CK7" s="103"/>
+      <c r="CL7" s="103"/>
+      <c r="CM7" s="103"/>
       <c r="CN7" s="19"/>
       <c r="CO7" s="20"/>
       <c r="CP7" s="20"/>
@@ -3783,14 +3783,14 @@
       <c r="EO7" s="20"/>
       <c r="EP7" s="20"/>
       <c r="EQ7" s="21"/>
-      <c r="ER7" s="105"/>
-      <c r="ES7" s="105"/>
-      <c r="ET7" s="105"/>
-      <c r="EU7" s="105"/>
-      <c r="EV7" s="105"/>
-      <c r="EW7" s="105"/>
-      <c r="EX7" s="105"/>
-      <c r="EY7" s="105"/>
+      <c r="ER7" s="103"/>
+      <c r="ES7" s="103"/>
+      <c r="ET7" s="103"/>
+      <c r="EU7" s="103"/>
+      <c r="EV7" s="103"/>
+      <c r="EW7" s="103"/>
+      <c r="EX7" s="103"/>
+      <c r="EY7" s="103"/>
       <c r="EZ7" s="19"/>
       <c r="FA7" s="20"/>
       <c r="FB7" s="20"/>
@@ -3840,7 +3840,7 @@
       <c r="GT7" s="20"/>
       <c r="GU7" s="20"/>
       <c r="GV7" s="20"/>
-      <c r="GW7" s="104"/>
+      <c r="GW7" s="102"/>
     </row>
     <row r="8" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
@@ -3874,14 +3874,14 @@
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="21"/>
-      <c r="AB8" s="105"/>
-      <c r="AC8" s="105"/>
-      <c r="AD8" s="105"/>
-      <c r="AE8" s="105"/>
-      <c r="AF8" s="105"/>
-      <c r="AG8" s="105"/>
-      <c r="AH8" s="105"/>
-      <c r="AI8" s="105"/>
+      <c r="AB8" s="103"/>
+      <c r="AC8" s="103"/>
+      <c r="AD8" s="103"/>
+      <c r="AE8" s="103"/>
+      <c r="AF8" s="103"/>
+      <c r="AG8" s="103"/>
+      <c r="AH8" s="103"/>
+      <c r="AI8" s="103"/>
       <c r="AJ8" s="19"/>
       <c r="AK8" s="20"/>
       <c r="AL8" s="20"/>
@@ -3934,14 +3934,14 @@
       <c r="CC8" s="20"/>
       <c r="CD8" s="20"/>
       <c r="CE8" s="36"/>
-      <c r="CF8" s="105"/>
-      <c r="CG8" s="105"/>
-      <c r="CH8" s="105"/>
-      <c r="CI8" s="105"/>
-      <c r="CJ8" s="105"/>
-      <c r="CK8" s="105"/>
-      <c r="CL8" s="105"/>
-      <c r="CM8" s="105"/>
+      <c r="CF8" s="103"/>
+      <c r="CG8" s="103"/>
+      <c r="CH8" s="103"/>
+      <c r="CI8" s="103"/>
+      <c r="CJ8" s="103"/>
+      <c r="CK8" s="103"/>
+      <c r="CL8" s="103"/>
+      <c r="CM8" s="103"/>
       <c r="CN8" s="19"/>
       <c r="CO8" s="20"/>
       <c r="CP8" s="20"/>
@@ -3998,14 +3998,14 @@
       <c r="EO8" s="20"/>
       <c r="EP8" s="20"/>
       <c r="EQ8" s="21"/>
-      <c r="ER8" s="105"/>
-      <c r="ES8" s="105"/>
-      <c r="ET8" s="105"/>
-      <c r="EU8" s="105"/>
-      <c r="EV8" s="105"/>
-      <c r="EW8" s="105"/>
-      <c r="EX8" s="105"/>
-      <c r="EY8" s="105"/>
+      <c r="ER8" s="103"/>
+      <c r="ES8" s="103"/>
+      <c r="ET8" s="103"/>
+      <c r="EU8" s="103"/>
+      <c r="EV8" s="103"/>
+      <c r="EW8" s="103"/>
+      <c r="EX8" s="103"/>
+      <c r="EY8" s="103"/>
       <c r="EZ8" s="19"/>
       <c r="FA8" s="20"/>
       <c r="FB8" s="20"/>
@@ -4055,7 +4055,7 @@
       <c r="GT8" s="20"/>
       <c r="GU8" s="20"/>
       <c r="GV8" s="20"/>
-      <c r="GW8" s="104"/>
+      <c r="GW8" s="102"/>
     </row>
     <row r="9" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A9" s="43" t="s">
@@ -4089,14 +4089,14 @@
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="21"/>
-      <c r="AB9" s="105"/>
-      <c r="AC9" s="105"/>
-      <c r="AD9" s="105"/>
-      <c r="AE9" s="105"/>
-      <c r="AF9" s="105"/>
-      <c r="AG9" s="105"/>
-      <c r="AH9" s="105"/>
-      <c r="AI9" s="105"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="103"/>
+      <c r="AD9" s="103"/>
+      <c r="AE9" s="103"/>
+      <c r="AF9" s="103"/>
+      <c r="AG9" s="103"/>
+      <c r="AH9" s="103"/>
+      <c r="AI9" s="103"/>
       <c r="AJ9" s="19"/>
       <c r="AK9" s="20"/>
       <c r="AL9" s="20"/>
@@ -4165,14 +4165,14 @@
         <v>17</v>
       </c>
       <c r="CE9" s="42"/>
-      <c r="CF9" s="105"/>
-      <c r="CG9" s="105"/>
-      <c r="CH9" s="105"/>
-      <c r="CI9" s="105"/>
-      <c r="CJ9" s="105"/>
-      <c r="CK9" s="105"/>
-      <c r="CL9" s="105"/>
-      <c r="CM9" s="105"/>
+      <c r="CF9" s="103"/>
+      <c r="CG9" s="103"/>
+      <c r="CH9" s="103"/>
+      <c r="CI9" s="103"/>
+      <c r="CJ9" s="103"/>
+      <c r="CK9" s="103"/>
+      <c r="CL9" s="103"/>
+      <c r="CM9" s="103"/>
       <c r="CN9" s="19"/>
       <c r="CO9" s="20"/>
       <c r="CP9" s="20"/>
@@ -4229,14 +4229,14 @@
       <c r="EO9" s="20"/>
       <c r="EP9" s="20"/>
       <c r="EQ9" s="21"/>
-      <c r="ER9" s="105"/>
-      <c r="ES9" s="105"/>
-      <c r="ET9" s="105"/>
-      <c r="EU9" s="105"/>
-      <c r="EV9" s="105"/>
-      <c r="EW9" s="105"/>
-      <c r="EX9" s="105"/>
-      <c r="EY9" s="105"/>
+      <c r="ER9" s="103"/>
+      <c r="ES9" s="103"/>
+      <c r="ET9" s="103"/>
+      <c r="EU9" s="103"/>
+      <c r="EV9" s="103"/>
+      <c r="EW9" s="103"/>
+      <c r="EX9" s="103"/>
+      <c r="EY9" s="103"/>
       <c r="EZ9" s="19"/>
       <c r="FA9" s="20"/>
       <c r="FB9" s="20"/>
@@ -4286,13 +4286,13 @@
       <c r="GT9" s="20"/>
       <c r="GU9" s="20"/>
       <c r="GV9" s="20"/>
-      <c r="GW9" s="104"/>
+      <c r="GW9" s="102"/>
     </row>
     <row r="10" spans="1:205" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="98"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="33"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
@@ -4318,14 +4318,14 @@
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="21"/>
-      <c r="AB10" s="105"/>
-      <c r="AC10" s="105"/>
-      <c r="AD10" s="105"/>
-      <c r="AE10" s="105"/>
-      <c r="AF10" s="105"/>
-      <c r="AG10" s="105"/>
-      <c r="AH10" s="105"/>
-      <c r="AI10" s="105"/>
+      <c r="AB10" s="103"/>
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="103"/>
+      <c r="AE10" s="103"/>
+      <c r="AF10" s="103"/>
+      <c r="AG10" s="103"/>
+      <c r="AH10" s="103"/>
+      <c r="AI10" s="103"/>
       <c r="AJ10" s="19"/>
       <c r="AK10" s="20"/>
       <c r="AL10" s="20"/>
@@ -4374,14 +4374,14 @@
       <c r="CC10" s="35"/>
       <c r="CD10" s="35"/>
       <c r="CE10" s="35"/>
-      <c r="CF10" s="105"/>
-      <c r="CG10" s="105"/>
-      <c r="CH10" s="105"/>
-      <c r="CI10" s="105"/>
-      <c r="CJ10" s="105"/>
-      <c r="CK10" s="105"/>
-      <c r="CL10" s="105"/>
-      <c r="CM10" s="105"/>
+      <c r="CF10" s="103"/>
+      <c r="CG10" s="103"/>
+      <c r="CH10" s="103"/>
+      <c r="CI10" s="103"/>
+      <c r="CJ10" s="103"/>
+      <c r="CK10" s="103"/>
+      <c r="CL10" s="103"/>
+      <c r="CM10" s="103"/>
       <c r="CN10" s="19"/>
       <c r="CO10" s="20"/>
       <c r="CP10" s="20"/>
@@ -4438,14 +4438,14 @@
       <c r="EO10" s="20"/>
       <c r="EP10" s="20"/>
       <c r="EQ10" s="21"/>
-      <c r="ER10" s="105"/>
-      <c r="ES10" s="105"/>
-      <c r="ET10" s="105"/>
-      <c r="EU10" s="105"/>
-      <c r="EV10" s="105"/>
-      <c r="EW10" s="105"/>
-      <c r="EX10" s="105"/>
-      <c r="EY10" s="105"/>
+      <c r="ER10" s="103"/>
+      <c r="ES10" s="103"/>
+      <c r="ET10" s="103"/>
+      <c r="EU10" s="103"/>
+      <c r="EV10" s="103"/>
+      <c r="EW10" s="103"/>
+      <c r="EX10" s="103"/>
+      <c r="EY10" s="103"/>
       <c r="EZ10" s="19"/>
       <c r="FA10" s="20"/>
       <c r="FB10" s="20"/>
@@ -4495,7 +4495,7 @@
       <c r="GT10" s="20"/>
       <c r="GU10" s="20"/>
       <c r="GV10" s="20"/>
-      <c r="GW10" s="104"/>
+      <c r="GW10" s="102"/>
     </row>
     <row r="11" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A11" s="48" t="s">
@@ -4529,14 +4529,14 @@
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="21"/>
-      <c r="AB11" s="105"/>
-      <c r="AC11" s="105"/>
-      <c r="AD11" s="105"/>
-      <c r="AE11" s="105"/>
-      <c r="AF11" s="105"/>
-      <c r="AG11" s="105"/>
-      <c r="AH11" s="105"/>
-      <c r="AI11" s="105"/>
+      <c r="AB11" s="103"/>
+      <c r="AC11" s="103"/>
+      <c r="AD11" s="103"/>
+      <c r="AE11" s="103"/>
+      <c r="AF11" s="103"/>
+      <c r="AG11" s="103"/>
+      <c r="AH11" s="103"/>
+      <c r="AI11" s="103"/>
       <c r="AJ11" s="19"/>
       <c r="AK11" s="20"/>
       <c r="AL11" s="20"/>
@@ -4587,14 +4587,14 @@
       </c>
       <c r="CD11" s="20"/>
       <c r="CE11" s="20"/>
-      <c r="CF11" s="105"/>
-      <c r="CG11" s="105"/>
-      <c r="CH11" s="105"/>
-      <c r="CI11" s="105"/>
-      <c r="CJ11" s="105"/>
-      <c r="CK11" s="105"/>
-      <c r="CL11" s="105"/>
-      <c r="CM11" s="105"/>
+      <c r="CF11" s="103"/>
+      <c r="CG11" s="103"/>
+      <c r="CH11" s="103"/>
+      <c r="CI11" s="103"/>
+      <c r="CJ11" s="103"/>
+      <c r="CK11" s="103"/>
+      <c r="CL11" s="103"/>
+      <c r="CM11" s="103"/>
       <c r="CN11" s="49"/>
       <c r="CO11" s="20"/>
       <c r="CP11" s="20"/>
@@ -4653,14 +4653,14 @@
       <c r="EO11" s="20"/>
       <c r="EP11" s="20"/>
       <c r="EQ11" s="21"/>
-      <c r="ER11" s="105"/>
-      <c r="ES11" s="105"/>
-      <c r="ET11" s="105"/>
-      <c r="EU11" s="105"/>
-      <c r="EV11" s="105"/>
-      <c r="EW11" s="105"/>
-      <c r="EX11" s="105"/>
-      <c r="EY11" s="105"/>
+      <c r="ER11" s="103"/>
+      <c r="ES11" s="103"/>
+      <c r="ET11" s="103"/>
+      <c r="EU11" s="103"/>
+      <c r="EV11" s="103"/>
+      <c r="EW11" s="103"/>
+      <c r="EX11" s="103"/>
+      <c r="EY11" s="103"/>
       <c r="EZ11" s="19"/>
       <c r="FA11" s="20"/>
       <c r="FB11" s="20"/>
@@ -4710,7 +4710,7 @@
       <c r="GT11" s="20"/>
       <c r="GU11" s="20"/>
       <c r="GV11" s="20"/>
-      <c r="GW11" s="104"/>
+      <c r="GW11" s="102"/>
     </row>
     <row r="12" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
@@ -4744,14 +4744,14 @@
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="21"/>
-      <c r="AB12" s="105"/>
-      <c r="AC12" s="105"/>
-      <c r="AD12" s="105"/>
-      <c r="AE12" s="105"/>
-      <c r="AF12" s="105"/>
-      <c r="AG12" s="105"/>
-      <c r="AH12" s="105"/>
-      <c r="AI12" s="105"/>
+      <c r="AB12" s="103"/>
+      <c r="AC12" s="103"/>
+      <c r="AD12" s="103"/>
+      <c r="AE12" s="103"/>
+      <c r="AF12" s="103"/>
+      <c r="AG12" s="103"/>
+      <c r="AH12" s="103"/>
+      <c r="AI12" s="103"/>
       <c r="AJ12" s="19"/>
       <c r="AK12" s="20"/>
       <c r="AL12" s="20"/>
@@ -4800,14 +4800,14 @@
       <c r="CC12" s="20"/>
       <c r="CD12" s="20"/>
       <c r="CE12" s="21"/>
-      <c r="CF12" s="105"/>
-      <c r="CG12" s="105"/>
-      <c r="CH12" s="105"/>
-      <c r="CI12" s="105"/>
-      <c r="CJ12" s="105"/>
-      <c r="CK12" s="105"/>
-      <c r="CL12" s="105"/>
-      <c r="CM12" s="105"/>
+      <c r="CF12" s="103"/>
+      <c r="CG12" s="103"/>
+      <c r="CH12" s="103"/>
+      <c r="CI12" s="103"/>
+      <c r="CJ12" s="103"/>
+      <c r="CK12" s="103"/>
+      <c r="CL12" s="103"/>
+      <c r="CM12" s="103"/>
       <c r="CN12" s="19"/>
       <c r="CO12" s="52" t="s">
         <v>17</v>
@@ -4870,14 +4870,14 @@
       <c r="EO12" s="20"/>
       <c r="EP12" s="20"/>
       <c r="EQ12" s="21"/>
-      <c r="ER12" s="105"/>
-      <c r="ES12" s="105"/>
-      <c r="ET12" s="105"/>
-      <c r="EU12" s="105"/>
-      <c r="EV12" s="105"/>
-      <c r="EW12" s="105"/>
-      <c r="EX12" s="105"/>
-      <c r="EY12" s="105"/>
+      <c r="ER12" s="103"/>
+      <c r="ES12" s="103"/>
+      <c r="ET12" s="103"/>
+      <c r="EU12" s="103"/>
+      <c r="EV12" s="103"/>
+      <c r="EW12" s="103"/>
+      <c r="EX12" s="103"/>
+      <c r="EY12" s="103"/>
       <c r="EZ12" s="19"/>
       <c r="FA12" s="20"/>
       <c r="FB12" s="20"/>
@@ -4927,7 +4927,7 @@
       <c r="GT12" s="20"/>
       <c r="GU12" s="20"/>
       <c r="GV12" s="20"/>
-      <c r="GW12" s="104"/>
+      <c r="GW12" s="102"/>
     </row>
     <row r="13" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A13" s="53" t="s">
@@ -4961,14 +4961,14 @@
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="21"/>
-      <c r="AB13" s="105"/>
-      <c r="AC13" s="105"/>
-      <c r="AD13" s="105"/>
-      <c r="AE13" s="105"/>
-      <c r="AF13" s="105"/>
-      <c r="AG13" s="105"/>
-      <c r="AH13" s="105"/>
-      <c r="AI13" s="105"/>
+      <c r="AB13" s="103"/>
+      <c r="AC13" s="103"/>
+      <c r="AD13" s="103"/>
+      <c r="AE13" s="103"/>
+      <c r="AF13" s="103"/>
+      <c r="AG13" s="103"/>
+      <c r="AH13" s="103"/>
+      <c r="AI13" s="103"/>
       <c r="AJ13" s="19"/>
       <c r="AK13" s="20"/>
       <c r="AL13" s="20"/>
@@ -5017,14 +5017,14 @@
       <c r="CC13" s="20"/>
       <c r="CD13" s="20"/>
       <c r="CE13" s="21"/>
-      <c r="CF13" s="105"/>
-      <c r="CG13" s="105"/>
-      <c r="CH13" s="105"/>
-      <c r="CI13" s="105"/>
-      <c r="CJ13" s="105"/>
-      <c r="CK13" s="105"/>
-      <c r="CL13" s="105"/>
-      <c r="CM13" s="105"/>
+      <c r="CF13" s="103"/>
+      <c r="CG13" s="103"/>
+      <c r="CH13" s="103"/>
+      <c r="CI13" s="103"/>
+      <c r="CJ13" s="103"/>
+      <c r="CK13" s="103"/>
+      <c r="CL13" s="103"/>
+      <c r="CM13" s="103"/>
       <c r="CN13" s="19"/>
       <c r="CO13" s="20"/>
       <c r="CP13" s="54"/>
@@ -5091,14 +5091,14 @@
       <c r="EO13" s="20"/>
       <c r="EP13" s="20"/>
       <c r="EQ13" s="21"/>
-      <c r="ER13" s="105"/>
-      <c r="ES13" s="105"/>
-      <c r="ET13" s="105"/>
-      <c r="EU13" s="105"/>
-      <c r="EV13" s="105"/>
-      <c r="EW13" s="105"/>
-      <c r="EX13" s="105"/>
-      <c r="EY13" s="105"/>
+      <c r="ER13" s="103"/>
+      <c r="ES13" s="103"/>
+      <c r="ET13" s="103"/>
+      <c r="EU13" s="103"/>
+      <c r="EV13" s="103"/>
+      <c r="EW13" s="103"/>
+      <c r="EX13" s="103"/>
+      <c r="EY13" s="103"/>
       <c r="EZ13" s="19"/>
       <c r="FA13" s="20"/>
       <c r="FB13" s="20"/>
@@ -5148,13 +5148,13 @@
       <c r="GT13" s="20"/>
       <c r="GU13" s="20"/>
       <c r="GV13" s="20"/>
-      <c r="GW13" s="104"/>
+      <c r="GW13" s="102"/>
     </row>
     <row r="14" spans="1:205" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="99"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="33"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
@@ -5180,14 +5180,14 @@
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="21"/>
-      <c r="AB14" s="105"/>
-      <c r="AC14" s="105"/>
-      <c r="AD14" s="105"/>
-      <c r="AE14" s="105"/>
-      <c r="AF14" s="105"/>
-      <c r="AG14" s="105"/>
-      <c r="AH14" s="105"/>
-      <c r="AI14" s="105"/>
+      <c r="AB14" s="103"/>
+      <c r="AC14" s="103"/>
+      <c r="AD14" s="103"/>
+      <c r="AE14" s="103"/>
+      <c r="AF14" s="103"/>
+      <c r="AG14" s="103"/>
+      <c r="AH14" s="103"/>
+      <c r="AI14" s="103"/>
       <c r="AJ14" s="19"/>
       <c r="AK14" s="20"/>
       <c r="AL14" s="20"/>
@@ -5236,14 +5236,14 @@
       <c r="CC14" s="20"/>
       <c r="CD14" s="20"/>
       <c r="CE14" s="21"/>
-      <c r="CF14" s="105"/>
-      <c r="CG14" s="105"/>
-      <c r="CH14" s="105"/>
-      <c r="CI14" s="105"/>
-      <c r="CJ14" s="105"/>
-      <c r="CK14" s="105"/>
-      <c r="CL14" s="105"/>
-      <c r="CM14" s="105"/>
+      <c r="CF14" s="103"/>
+      <c r="CG14" s="103"/>
+      <c r="CH14" s="103"/>
+      <c r="CI14" s="103"/>
+      <c r="CJ14" s="103"/>
+      <c r="CK14" s="103"/>
+      <c r="CL14" s="103"/>
+      <c r="CM14" s="103"/>
       <c r="CN14" s="19"/>
       <c r="CO14" s="20"/>
       <c r="CP14" s="20"/>
@@ -5300,14 +5300,14 @@
       <c r="EO14" s="20"/>
       <c r="EP14" s="20"/>
       <c r="EQ14" s="21"/>
-      <c r="ER14" s="105"/>
-      <c r="ES14" s="105"/>
-      <c r="ET14" s="105"/>
-      <c r="EU14" s="105"/>
-      <c r="EV14" s="105"/>
-      <c r="EW14" s="105"/>
-      <c r="EX14" s="105"/>
-      <c r="EY14" s="105"/>
+      <c r="ER14" s="103"/>
+      <c r="ES14" s="103"/>
+      <c r="ET14" s="103"/>
+      <c r="EU14" s="103"/>
+      <c r="EV14" s="103"/>
+      <c r="EW14" s="103"/>
+      <c r="EX14" s="103"/>
+      <c r="EY14" s="103"/>
       <c r="EZ14" s="19"/>
       <c r="FA14" s="20"/>
       <c r="FB14" s="20"/>
@@ -5357,7 +5357,7 @@
       <c r="GT14" s="20"/>
       <c r="GU14" s="20"/>
       <c r="GV14" s="20"/>
-      <c r="GW14" s="104"/>
+      <c r="GW14" s="102"/>
     </row>
     <row r="15" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A15" s="55" t="s">
@@ -5391,14 +5391,14 @@
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="21"/>
-      <c r="AB15" s="105"/>
-      <c r="AC15" s="105"/>
-      <c r="AD15" s="105"/>
-      <c r="AE15" s="105"/>
-      <c r="AF15" s="105"/>
-      <c r="AG15" s="105"/>
-      <c r="AH15" s="105"/>
-      <c r="AI15" s="105"/>
+      <c r="AB15" s="103"/>
+      <c r="AC15" s="103"/>
+      <c r="AD15" s="103"/>
+      <c r="AE15" s="103"/>
+      <c r="AF15" s="103"/>
+      <c r="AG15" s="103"/>
+      <c r="AH15" s="103"/>
+      <c r="AI15" s="103"/>
       <c r="AJ15" s="19"/>
       <c r="AK15" s="20"/>
       <c r="AL15" s="20"/>
@@ -5447,14 +5447,14 @@
       <c r="CC15" s="20"/>
       <c r="CD15" s="20"/>
       <c r="CE15" s="21"/>
-      <c r="CF15" s="105"/>
-      <c r="CG15" s="105"/>
-      <c r="CH15" s="105"/>
-      <c r="CI15" s="105"/>
-      <c r="CJ15" s="105"/>
-      <c r="CK15" s="105"/>
-      <c r="CL15" s="105"/>
-      <c r="CM15" s="105"/>
+      <c r="CF15" s="103"/>
+      <c r="CG15" s="103"/>
+      <c r="CH15" s="103"/>
+      <c r="CI15" s="103"/>
+      <c r="CJ15" s="103"/>
+      <c r="CK15" s="103"/>
+      <c r="CL15" s="103"/>
+      <c r="CM15" s="103"/>
       <c r="CN15" s="19"/>
       <c r="CO15" s="20"/>
       <c r="CP15" s="20"/>
@@ -5517,14 +5517,14 @@
       <c r="EO15" s="20"/>
       <c r="EP15" s="20"/>
       <c r="EQ15" s="21"/>
-      <c r="ER15" s="105"/>
-      <c r="ES15" s="105"/>
-      <c r="ET15" s="105"/>
-      <c r="EU15" s="105"/>
-      <c r="EV15" s="105"/>
-      <c r="EW15" s="105"/>
-      <c r="EX15" s="105"/>
-      <c r="EY15" s="105"/>
+      <c r="ER15" s="103"/>
+      <c r="ES15" s="103"/>
+      <c r="ET15" s="103"/>
+      <c r="EU15" s="103"/>
+      <c r="EV15" s="103"/>
+      <c r="EW15" s="103"/>
+      <c r="EX15" s="103"/>
+      <c r="EY15" s="103"/>
       <c r="EZ15" s="19"/>
       <c r="FA15" s="20"/>
       <c r="FB15" s="20"/>
@@ -5574,7 +5574,7 @@
       <c r="GT15" s="20"/>
       <c r="GU15" s="20"/>
       <c r="GV15" s="20"/>
-      <c r="GW15" s="104"/>
+      <c r="GW15" s="102"/>
     </row>
     <row r="16" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A16" s="59" t="s">
@@ -5608,14 +5608,14 @@
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="21"/>
-      <c r="AB16" s="105"/>
-      <c r="AC16" s="105"/>
-      <c r="AD16" s="105"/>
-      <c r="AE16" s="105"/>
-      <c r="AF16" s="105"/>
-      <c r="AG16" s="105"/>
-      <c r="AH16" s="105"/>
-      <c r="AI16" s="105"/>
+      <c r="AB16" s="103"/>
+      <c r="AC16" s="103"/>
+      <c r="AD16" s="103"/>
+      <c r="AE16" s="103"/>
+      <c r="AF16" s="103"/>
+      <c r="AG16" s="103"/>
+      <c r="AH16" s="103"/>
+      <c r="AI16" s="103"/>
       <c r="AJ16" s="19"/>
       <c r="AK16" s="20"/>
       <c r="AL16" s="20"/>
@@ -5664,14 +5664,14 @@
       <c r="CC16" s="20"/>
       <c r="CD16" s="20"/>
       <c r="CE16" s="21"/>
-      <c r="CF16" s="105"/>
-      <c r="CG16" s="105"/>
-      <c r="CH16" s="105"/>
-      <c r="CI16" s="105"/>
-      <c r="CJ16" s="105"/>
-      <c r="CK16" s="105"/>
-      <c r="CL16" s="105"/>
-      <c r="CM16" s="105"/>
+      <c r="CF16" s="103"/>
+      <c r="CG16" s="103"/>
+      <c r="CH16" s="103"/>
+      <c r="CI16" s="103"/>
+      <c r="CJ16" s="103"/>
+      <c r="CK16" s="103"/>
+      <c r="CL16" s="103"/>
+      <c r="CM16" s="103"/>
       <c r="CN16" s="19"/>
       <c r="CO16" s="20"/>
       <c r="CP16" s="20"/>
@@ -5730,14 +5730,14 @@
       <c r="EO16" s="20"/>
       <c r="EP16" s="20"/>
       <c r="EQ16" s="21"/>
-      <c r="ER16" s="105"/>
-      <c r="ES16" s="105"/>
-      <c r="ET16" s="105"/>
-      <c r="EU16" s="105"/>
-      <c r="EV16" s="105"/>
-      <c r="EW16" s="105"/>
-      <c r="EX16" s="105"/>
-      <c r="EY16" s="105"/>
+      <c r="ER16" s="103"/>
+      <c r="ES16" s="103"/>
+      <c r="ET16" s="103"/>
+      <c r="EU16" s="103"/>
+      <c r="EV16" s="103"/>
+      <c r="EW16" s="103"/>
+      <c r="EX16" s="103"/>
+      <c r="EY16" s="103"/>
       <c r="EZ16" s="19"/>
       <c r="FA16" s="20"/>
       <c r="FB16" s="20"/>
@@ -5787,7 +5787,7 @@
       <c r="GT16" s="20"/>
       <c r="GU16" s="20"/>
       <c r="GV16" s="20"/>
-      <c r="GW16" s="104"/>
+      <c r="GW16" s="102"/>
     </row>
     <row r="17" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A17" s="59" t="s">
@@ -5821,14 +5821,14 @@
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="21"/>
-      <c r="AB17" s="105"/>
-      <c r="AC17" s="105"/>
-      <c r="AD17" s="105"/>
-      <c r="AE17" s="105"/>
-      <c r="AF17" s="105"/>
-      <c r="AG17" s="105"/>
-      <c r="AH17" s="105"/>
-      <c r="AI17" s="105"/>
+      <c r="AB17" s="103"/>
+      <c r="AC17" s="103"/>
+      <c r="AD17" s="103"/>
+      <c r="AE17" s="103"/>
+      <c r="AF17" s="103"/>
+      <c r="AG17" s="103"/>
+      <c r="AH17" s="103"/>
+      <c r="AI17" s="103"/>
       <c r="AJ17" s="19"/>
       <c r="AK17" s="20"/>
       <c r="AL17" s="20"/>
@@ -5877,14 +5877,14 @@
       <c r="CC17" s="20"/>
       <c r="CD17" s="20"/>
       <c r="CE17" s="21"/>
-      <c r="CF17" s="105"/>
-      <c r="CG17" s="105"/>
-      <c r="CH17" s="105"/>
-      <c r="CI17" s="105"/>
-      <c r="CJ17" s="105"/>
-      <c r="CK17" s="105"/>
-      <c 